--- a/Testing/Revised Plan.xlsx
+++ b/Testing/Revised Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Revised Plan and Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{783EC7BA-7F55-4B35-8C25-054FADF87783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9565AB15-78AC-4C1B-A9F3-3263F5FC2A08}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="8_{783EC7BA-7F55-4B35-8C25-054FADF87783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5293E53-174A-43C7-BA37-18D2C78E5D17}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{FF53E854-575C-4B97-B6D0-9B270F57EAA4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="766">
   <si>
     <t>WEEK 0</t>
   </si>
@@ -2772,6 +2772,30 @@
   </si>
   <si>
     <t>To Date date picker is not responsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size of the Availability Date picker is small </t>
+  </si>
+  <si>
+    <t>Responsiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misalignment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time picker's hour &amp; minute is misaligned </t>
+  </si>
+  <si>
+    <t>Sort the invites based on recent invite</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Date Correction</t>
+  </si>
+  <si>
+    <t>Date Format of From &amp; To Date should be changed</t>
   </si>
 </sst>
 </file>
@@ -3019,7 +3043,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3088,18 +3112,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -3831,19 +3849,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -4039,6 +4044,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4046,7 +4120,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4297,42 +4371,42 @@
     <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4382,454 +4456,85 @@
     <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4844,7 +4549,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4865,40 +4570,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4906,21 +4581,426 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="30" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4929,19 +5009,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{F0CAE289-763D-4165-9870-61E0C5E64CEA}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3F6037CA-E53C-4D82-AC22-09537D75AAFD}"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <strike val="0"/>
@@ -5529,6 +5597,25 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF505050"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5543,28 +5630,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3F4BC3-2C61-4283-9F4D-4AD81D4F1176}" name="Table1" displayName="Table1" ref="B6:U159" totalsRowShown="0" headerRowDxfId="0" dataDxfId="22" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3F4BC3-2C61-4283-9F4D-4AD81D4F1176}" name="Table1" displayName="Table1" ref="B6:U159" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{8A12C314-52B0-4BCC-A6C8-C3945F42CE13}" name="Defect Id(Required)" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{CBB73D72-1E68-431B-B158-3198D4BD11AB}" name="Defect Title" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{5658050C-5709-4DD8-93F8-7431C6A0E4F0}" name="Related Module/Component" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{1414C09B-C029-4489-B582-8FA34BB53A0E}" name="Detailed Defect Description" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{90116746-AC18-4EBA-8826-60B15C63EF93}" name="Defect Status" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{FFC0BA6B-91BB-4BD4-8A7C-110BEE400970}" name="Defect Severity" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{22415171-71A6-4B05-B42C-BB8453E67571}" name="Defect Priority" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{4C945BA7-6983-4640-941B-7CFC814094AD}" name="Defect Environment" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{D3E25F65-CFC1-4DFF-BCEF-0457977D21AA}" name="Defect Injected Phase " dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{E830AC21-DAB7-479B-9112-694A2584D67A}" name="Detected By" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{98B02098-EAC3-4E57-B765-483D44E518F7}" name="Detected in Phase" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{92B70F56-5AA1-48D1-978A-0B4306F85A94}" name="Detected in Version/Build" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{323B77F6-0734-4113-9F3F-C4B22DFD4EE4}" name="Defect Detected On Date " dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{DF8A4363-6516-47F8-9808-381E468ECED7}" name="Fixed in version/Build No" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{1E01D099-426B-48B4-924B-6DBEFA8824DA}" name="Defect Category" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{9ECD1166-C04A-4E1D-80A2-045BA1EB3BCF}" name="Assigned to" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{C1101B62-CBA6-4024-9E14-F062A00D039F}" name="Fixed on Date" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{56C6ADC6-6B2F-46C6-8C6C-E9EFE58448E3}" name="Estimated Time To fix" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{19B218FD-3769-4013-8E6D-B1E907F4E923}" name="Actual Time to Fix " dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{5A06540C-4673-484D-956D-FAF41C6634FC}" name="Reopen Count " dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8A12C314-52B0-4BCC-A6C8-C3945F42CE13}" name="Defect Id(Required)" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{CBB73D72-1E68-431B-B158-3198D4BD11AB}" name="Defect Title" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{5658050C-5709-4DD8-93F8-7431C6A0E4F0}" name="Related Module/Component" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{1414C09B-C029-4489-B582-8FA34BB53A0E}" name="Detailed Defect Description" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{90116746-AC18-4EBA-8826-60B15C63EF93}" name="Defect Status" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{FFC0BA6B-91BB-4BD4-8A7C-110BEE400970}" name="Defect Severity" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{22415171-71A6-4B05-B42C-BB8453E67571}" name="Defect Priority" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{4C945BA7-6983-4640-941B-7CFC814094AD}" name="Defect Environment" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{D3E25F65-CFC1-4DFF-BCEF-0457977D21AA}" name="Defect Injected Phase " dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{E830AC21-DAB7-479B-9112-694A2584D67A}" name="Detected By" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{98B02098-EAC3-4E57-B765-483D44E518F7}" name="Detected in Phase" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{92B70F56-5AA1-48D1-978A-0B4306F85A94}" name="Detected in Version/Build" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{323B77F6-0734-4113-9F3F-C4B22DFD4EE4}" name="Defect Detected On Date " dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{DF8A4363-6516-47F8-9808-381E468ECED7}" name="Fixed in version/Build No" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{1E01D099-426B-48B4-924B-6DBEFA8824DA}" name="Defect Category" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{9ECD1166-C04A-4E1D-80A2-045BA1EB3BCF}" name="Assigned to" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{C1101B62-CBA6-4024-9E14-F062A00D039F}" name="Fixed on Date" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{56C6ADC6-6B2F-46C6-8C6C-E9EFE58448E3}" name="Estimated Time To fix" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{19B218FD-3769-4013-8E6D-B1E907F4E923}" name="Actual Time to Fix " dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{5A06540C-4673-484D-956D-FAF41C6634FC}" name="Reopen Count " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5883,7 +5970,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="224" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -5900,14 +5987,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="195"/>
+      <c r="A2" s="224"/>
       <c r="B2" s="1">
         <v>44642</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="197" t="s">
+      <c r="D2" s="226" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5915,27 +6002,27 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="195"/>
+      <c r="A3" s="224"/>
       <c r="B3" s="1">
         <v>44643</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="196"/>
+      <c r="D3" s="225"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="195"/>
+      <c r="A4" s="224"/>
       <c r="B4" s="1">
         <v>44644</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="197" t="s">
+      <c r="D4" s="226" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -5943,20 +6030,20 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="195"/>
+      <c r="A5" s="224"/>
       <c r="B5" s="1">
         <v>44645</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="197"/>
+      <c r="D5" s="226"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="224" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
@@ -5965,7 +6052,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="197" t="s">
+      <c r="D6" s="226" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -5973,27 +6060,27 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="195"/>
+      <c r="A7" s="224"/>
       <c r="B7" s="1">
         <v>44649</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="197"/>
+      <c r="D7" s="226"/>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="195"/>
+      <c r="A8" s="224"/>
       <c r="B8" s="1">
         <v>44650</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="197" t="s">
+      <c r="D8" s="226" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -6001,20 +6088,20 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="195"/>
+      <c r="A9" s="224"/>
       <c r="B9" s="1">
         <v>44651</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="197"/>
+      <c r="D9" s="226"/>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="195"/>
+      <c r="A10" s="224"/>
       <c r="B10" s="1">
         <v>44652</v>
       </c>
@@ -6029,7 +6116,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="195"/>
+      <c r="A11" s="224"/>
       <c r="B11" s="1">
         <v>44653</v>
       </c>
@@ -6044,7 +6131,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="224" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1">
@@ -6053,7 +6140,7 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="196" t="s">
+      <c r="D12" s="225" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -6061,59 +6148,59 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="195"/>
+      <c r="A13" s="224"/>
       <c r="B13" s="1">
         <v>44656</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="196"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="195"/>
+      <c r="A14" s="224"/>
       <c r="B14" s="1">
         <v>44657</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="196"/>
+      <c r="D14" s="225"/>
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="195"/>
+      <c r="A15" s="224"/>
       <c r="B15" s="1">
         <v>44658</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="196"/>
+      <c r="D15" s="225"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="195"/>
+      <c r="A16" s="224"/>
       <c r="B16" s="1">
         <v>44659</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="196"/>
+      <c r="D16" s="225"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="195"/>
+      <c r="A17" s="224"/>
       <c r="B17" s="1">
         <v>44660</v>
       </c>
@@ -6128,7 +6215,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="195" t="s">
+      <c r="A18" s="224" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1">
@@ -6137,7 +6224,7 @@
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="196" t="s">
+      <c r="D18" s="225" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -6145,33 +6232,33 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="195"/>
+      <c r="A19" s="224"/>
       <c r="B19" s="1">
         <v>44663</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="196"/>
+      <c r="D19" s="225"/>
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="195"/>
+      <c r="A20" s="224"/>
       <c r="B20" s="1">
         <v>44664</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="196"/>
+      <c r="D20" s="225"/>
       <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="195" t="s">
+      <c r="A21" s="224" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1">
@@ -6180,7 +6267,7 @@
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="196" t="s">
+      <c r="D21" s="225" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -6188,27 +6275,27 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="195"/>
+      <c r="A22" s="224"/>
       <c r="B22" s="1">
         <v>44672</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="196"/>
+      <c r="D22" s="225"/>
       <c r="E22" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="195"/>
+      <c r="A23" s="224"/>
       <c r="B23" s="1">
         <v>44673</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="196" t="s">
+      <c r="D23" s="225" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -6216,20 +6303,20 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="195"/>
+      <c r="A24" s="224"/>
       <c r="B24" s="1">
         <v>44674</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="196"/>
+      <c r="D24" s="225"/>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="195" t="s">
+      <c r="A25" s="224" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="1">
@@ -6238,7 +6325,7 @@
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="197" t="s">
+      <c r="D25" s="226" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -6246,66 +6333,66 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="195"/>
+      <c r="A26" s="224"/>
       <c r="B26" s="1">
         <v>44677</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="197"/>
+      <c r="D26" s="226"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="195"/>
+      <c r="A27" s="224"/>
       <c r="B27" s="1">
         <v>44678</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="197"/>
+      <c r="D27" s="226"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="195"/>
+      <c r="A28" s="224"/>
       <c r="B28" s="1">
         <v>44679</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="196" t="s">
+      <c r="D28" s="225" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="195"/>
+      <c r="A29" s="224"/>
       <c r="B29" s="1">
         <v>44680</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="196"/>
+      <c r="D29" s="225"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="195"/>
+      <c r="A30" s="224"/>
       <c r="B30" s="1">
         <v>44681</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="196"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="195" t="s">
+      <c r="A31" s="224" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="1">
@@ -6314,24 +6401,24 @@
       <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="196" t="s">
+      <c r="D31" s="225" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="195"/>
+      <c r="A32" s="224"/>
       <c r="B32" s="1">
         <v>44687</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="196"/>
+      <c r="D32" s="225"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="195"/>
+      <c r="A33" s="224"/>
       <c r="B33" s="1">
         <v>44688</v>
       </c>
@@ -6344,7 +6431,7 @@
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="195" t="s">
+      <c r="A34" s="224" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="1">
@@ -6353,70 +6440,70 @@
       <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="196" t="s">
+      <c r="D34" s="225" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="195"/>
+      <c r="A35" s="224"/>
       <c r="B35" s="1">
         <v>44691</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="196"/>
+      <c r="D35" s="225"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="195"/>
+      <c r="A36" s="224"/>
       <c r="B36" s="1">
         <v>44692</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="196"/>
+      <c r="D36" s="225"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="195"/>
+      <c r="A37" s="224"/>
       <c r="B37" s="1">
         <v>44693</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="196"/>
+      <c r="D37" s="225"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="195"/>
+      <c r="A38" s="224"/>
       <c r="B38" s="1">
         <v>44694</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="197" t="s">
+      <c r="D38" s="226" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="195"/>
+      <c r="A39" s="224"/>
       <c r="B39" s="1">
         <v>44695</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="197"/>
+      <c r="D39" s="226"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="195" t="s">
+      <c r="A40" s="224" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="1">
@@ -6425,66 +6512,66 @@
       <c r="C40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="196" t="s">
+      <c r="D40" s="225" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="195"/>
+      <c r="A41" s="224"/>
       <c r="B41" s="1">
         <v>44698</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="196"/>
+      <c r="D41" s="225"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="195"/>
+      <c r="A42" s="224"/>
       <c r="B42" s="1">
         <v>44699</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="196"/>
+      <c r="D42" s="225"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="195"/>
+      <c r="A43" s="224"/>
       <c r="B43" s="1">
         <v>44700</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="196" t="s">
+      <c r="D43" s="225" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="195"/>
+      <c r="A44" s="224"/>
       <c r="B44" s="1">
         <v>44701</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="196"/>
+      <c r="D44" s="225"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="195"/>
+      <c r="A45" s="224"/>
       <c r="B45" s="1">
         <v>44702</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="196"/>
+      <c r="D45" s="225"/>
       <c r="E45" s="4"/>
     </row>
   </sheetData>
@@ -6655,10 +6742,10 @@
       <c r="C9" s="7">
         <v>44696</v>
       </c>
-      <c r="D9" s="198" t="s">
+      <c r="D9" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="198"/>
+      <c r="E9" s="227"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -6877,10 +6964,10 @@
       <c r="C25" s="7">
         <v>44710</v>
       </c>
-      <c r="D25" s="198" t="s">
+      <c r="D25" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="198"/>
+      <c r="E25" s="227"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -6987,10 +7074,10 @@
       <c r="C33" s="7">
         <v>44717</v>
       </c>
-      <c r="D33" s="198" t="s">
+      <c r="D33" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="198"/>
+      <c r="E33" s="227"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
@@ -7097,10 +7184,10 @@
       <c r="C41" s="7">
         <v>44724</v>
       </c>
-      <c r="D41" s="198" t="s">
+      <c r="D41" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="198"/>
+      <c r="E41" s="227"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
@@ -7207,10 +7294,10 @@
       <c r="C49" s="7">
         <v>44731</v>
       </c>
-      <c r="D49" s="198" t="s">
+      <c r="D49" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="198"/>
+      <c r="E49" s="227"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
@@ -7317,10 +7404,10 @@
       <c r="C57" s="7">
         <v>44738</v>
       </c>
-      <c r="D57" s="198" t="s">
+      <c r="D57" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="198"/>
+      <c r="E57" s="227"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
@@ -7399,10 +7486,10 @@
       <c r="C63" s="7">
         <v>44744</v>
       </c>
-      <c r="D63" s="198" t="s">
+      <c r="D63" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="198"/>
+      <c r="E63" s="227"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
@@ -7411,10 +7498,10 @@
       <c r="C64" s="7">
         <v>44745</v>
       </c>
-      <c r="D64" s="198" t="s">
+      <c r="D64" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="198"/>
+      <c r="E64" s="227"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
@@ -7493,10 +7580,10 @@
       <c r="C70" s="7">
         <v>44751</v>
       </c>
-      <c r="D70" s="198" t="s">
+      <c r="D70" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="198"/>
+      <c r="E70" s="227"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
@@ -7505,10 +7592,10 @@
       <c r="C71" s="7">
         <v>44752</v>
       </c>
-      <c r="D71" s="198" t="s">
+      <c r="D71" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="E71" s="198"/>
+      <c r="E71" s="227"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C72" s="7"/>
@@ -7829,20 +7916,20 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="237" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="209"/>
-      <c r="L4" s="209"/>
-      <c r="M4" s="210"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238"/>
+      <c r="M4" s="239"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
@@ -7859,242 +7946,242 @@
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="221" t="s">
+      <c r="B6" s="250" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="222"/>
-      <c r="D6" s="227" t="s">
+      <c r="C6" s="251"/>
+      <c r="D6" s="256" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="238" t="s">
+      <c r="E6" s="267" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="239"/>
-      <c r="L6" s="239"/>
-      <c r="M6" s="240"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="268"/>
+      <c r="M6" s="269"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="223"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
-      <c r="H7" s="216"/>
-      <c r="I7" s="216"/>
-      <c r="J7" s="216"/>
-      <c r="K7" s="216"/>
-      <c r="L7" s="216"/>
-      <c r="M7" s="217"/>
+      <c r="B7" s="252"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="257"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="246"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="223"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="229" t="s">
+      <c r="B8" s="252"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="258" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="234" t="s">
+      <c r="E8" s="263" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="216"/>
-      <c r="G8" s="216"/>
-      <c r="H8" s="216"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="216"/>
-      <c r="K8" s="216"/>
-      <c r="L8" s="216"/>
-      <c r="M8" s="217"/>
+      <c r="F8" s="245"/>
+      <c r="G8" s="245"/>
+      <c r="H8" s="245"/>
+      <c r="I8" s="245"/>
+      <c r="J8" s="245"/>
+      <c r="K8" s="245"/>
+      <c r="L8" s="245"/>
+      <c r="M8" s="246"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="225"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="216"/>
-      <c r="L9" s="216"/>
-      <c r="M9" s="217"/>
+      <c r="B9" s="254"/>
+      <c r="C9" s="255"/>
+      <c r="D9" s="258"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="245"/>
+      <c r="L9" s="245"/>
+      <c r="M9" s="246"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="221" t="s">
+      <c r="B10" s="250" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="235"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="218" t="s">
+      <c r="C10" s="264"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="220"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="248"/>
+      <c r="H10" s="248"/>
+      <c r="I10" s="248"/>
+      <c r="J10" s="248"/>
+      <c r="K10" s="248"/>
+      <c r="L10" s="248"/>
+      <c r="M10" s="249"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="223"/>
-      <c r="C11" s="236"/>
-      <c r="D11" s="224"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="216"/>
-      <c r="J11" s="216"/>
-      <c r="K11" s="216"/>
-      <c r="L11" s="216"/>
-      <c r="M11" s="217"/>
+      <c r="B11" s="252"/>
+      <c r="C11" s="265"/>
+      <c r="D11" s="253"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="245"/>
+      <c r="G11" s="245"/>
+      <c r="H11" s="245"/>
+      <c r="I11" s="245"/>
+      <c r="J11" s="245"/>
+      <c r="K11" s="245"/>
+      <c r="L11" s="245"/>
+      <c r="M11" s="246"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="223"/>
-      <c r="C12" s="236"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="215"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="216"/>
-      <c r="H12" s="216"/>
-      <c r="I12" s="216"/>
-      <c r="J12" s="216"/>
-      <c r="K12" s="216"/>
-      <c r="L12" s="216"/>
-      <c r="M12" s="217"/>
+      <c r="B12" s="252"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="245"/>
+      <c r="G12" s="245"/>
+      <c r="H12" s="245"/>
+      <c r="I12" s="245"/>
+      <c r="J12" s="245"/>
+      <c r="K12" s="245"/>
+      <c r="L12" s="245"/>
+      <c r="M12" s="246"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="225"/>
-      <c r="C13" s="237"/>
-      <c r="D13" s="226"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="216"/>
-      <c r="G13" s="216"/>
-      <c r="H13" s="216"/>
-      <c r="I13" s="216"/>
-      <c r="J13" s="216"/>
-      <c r="K13" s="216"/>
-      <c r="L13" s="216"/>
-      <c r="M13" s="217"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="255"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="245"/>
+      <c r="H13" s="245"/>
+      <c r="I13" s="245"/>
+      <c r="J13" s="245"/>
+      <c r="K13" s="245"/>
+      <c r="L13" s="245"/>
+      <c r="M13" s="246"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="221" t="s">
+      <c r="B14" s="250" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="235"/>
-      <c r="D14" s="222"/>
-      <c r="E14" s="234" t="s">
+      <c r="C14" s="264"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="263" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="216"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="216"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="216"/>
-      <c r="K14" s="216"/>
-      <c r="L14" s="216"/>
-      <c r="M14" s="217"/>
+      <c r="F14" s="245"/>
+      <c r="G14" s="245"/>
+      <c r="H14" s="245"/>
+      <c r="I14" s="245"/>
+      <c r="J14" s="245"/>
+      <c r="K14" s="245"/>
+      <c r="L14" s="245"/>
+      <c r="M14" s="246"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="223"/>
-      <c r="C15" s="236"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="216"/>
-      <c r="K15" s="216"/>
-      <c r="L15" s="216"/>
-      <c r="M15" s="217"/>
+      <c r="B15" s="252"/>
+      <c r="C15" s="265"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="245"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="245"/>
+      <c r="J15" s="245"/>
+      <c r="K15" s="245"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="246"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="223"/>
-      <c r="C16" s="236"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="216"/>
-      <c r="H16" s="216"/>
-      <c r="I16" s="216"/>
-      <c r="J16" s="216"/>
-      <c r="K16" s="216"/>
-      <c r="L16" s="216"/>
-      <c r="M16" s="217"/>
+      <c r="B16" s="252"/>
+      <c r="C16" s="265"/>
+      <c r="D16" s="253"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="245"/>
+      <c r="H16" s="245"/>
+      <c r="I16" s="245"/>
+      <c r="J16" s="245"/>
+      <c r="K16" s="245"/>
+      <c r="L16" s="245"/>
+      <c r="M16" s="246"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="225"/>
-      <c r="C17" s="237"/>
-      <c r="D17" s="226"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="216"/>
-      <c r="I17" s="216"/>
-      <c r="J17" s="216"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="216"/>
-      <c r="M17" s="217"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="266"/>
+      <c r="D17" s="255"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="245"/>
+      <c r="H17" s="245"/>
+      <c r="I17" s="245"/>
+      <c r="J17" s="245"/>
+      <c r="K17" s="245"/>
+      <c r="L17" s="245"/>
+      <c r="M17" s="246"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="253" t="s">
+      <c r="B18" s="282" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="254"/>
+      <c r="C18" s="283"/>
       <c r="D18" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="234" t="s">
+      <c r="E18" s="263" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
-      <c r="H18" s="216"/>
-      <c r="I18" s="216"/>
-      <c r="J18" s="216"/>
-      <c r="K18" s="216"/>
-      <c r="L18" s="216"/>
-      <c r="M18" s="217"/>
+      <c r="F18" s="245"/>
+      <c r="G18" s="245"/>
+      <c r="H18" s="245"/>
+      <c r="I18" s="245"/>
+      <c r="J18" s="245"/>
+      <c r="K18" s="245"/>
+      <c r="L18" s="245"/>
+      <c r="M18" s="246"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="255"/>
-      <c r="C19" s="229"/>
+      <c r="B19" s="284"/>
+      <c r="C19" s="258"/>
       <c r="D19" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="234"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="216"/>
-      <c r="H19" s="216"/>
-      <c r="I19" s="216"/>
-      <c r="J19" s="216"/>
-      <c r="K19" s="216"/>
-      <c r="L19" s="216"/>
-      <c r="M19" s="217"/>
+      <c r="E19" s="263"/>
+      <c r="F19" s="245"/>
+      <c r="G19" s="245"/>
+      <c r="H19" s="245"/>
+      <c r="I19" s="245"/>
+      <c r="J19" s="245"/>
+      <c r="K19" s="245"/>
+      <c r="L19" s="245"/>
+      <c r="M19" s="246"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="256"/>
-      <c r="C20" s="257"/>
+      <c r="B20" s="285"/>
+      <c r="C20" s="286"/>
       <c r="D20" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="215"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="216"/>
-      <c r="H20" s="216"/>
-      <c r="I20" s="216"/>
-      <c r="J20" s="216"/>
-      <c r="K20" s="216"/>
-      <c r="L20" s="216"/>
-      <c r="M20" s="217"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="245"/>
+      <c r="H20" s="245"/>
+      <c r="I20" s="245"/>
+      <c r="J20" s="245"/>
+      <c r="K20" s="245"/>
+      <c r="L20" s="245"/>
+      <c r="M20" s="246"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
@@ -8125,126 +8212,126 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="247" t="s">
+      <c r="B23" s="276" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="248"/>
-      <c r="D23" s="248"/>
-      <c r="E23" s="248"/>
-      <c r="F23" s="248"/>
-      <c r="G23" s="248"/>
-      <c r="H23" s="248"/>
-      <c r="I23" s="248"/>
-      <c r="J23" s="248"/>
-      <c r="K23" s="248"/>
-      <c r="L23" s="248"/>
-      <c r="M23" s="249"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="277"/>
+      <c r="E23" s="277"/>
+      <c r="F23" s="277"/>
+      <c r="G23" s="277"/>
+      <c r="H23" s="277"/>
+      <c r="I23" s="277"/>
+      <c r="J23" s="277"/>
+      <c r="K23" s="277"/>
+      <c r="L23" s="277"/>
+      <c r="M23" s="278"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="250" t="s">
+      <c r="C24" s="279" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="252"/>
-      <c r="E24" s="250" t="s">
+      <c r="D24" s="281"/>
+      <c r="E24" s="279" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="251"/>
-      <c r="G24" s="251"/>
-      <c r="H24" s="251"/>
-      <c r="I24" s="251"/>
-      <c r="J24" s="251"/>
-      <c r="K24" s="252"/>
-      <c r="L24" s="230" t="s">
+      <c r="F24" s="280"/>
+      <c r="G24" s="280"/>
+      <c r="H24" s="280"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="280"/>
+      <c r="K24" s="281"/>
+      <c r="L24" s="259" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="231"/>
+      <c r="M24" s="260"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="211"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="258"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="258"/>
-      <c r="I25" s="258"/>
-      <c r="J25" s="258"/>
-      <c r="K25" s="259"/>
-      <c r="L25" s="211"/>
-      <c r="M25" s="212"/>
+      <c r="C25" s="240"/>
+      <c r="D25" s="288"/>
+      <c r="E25" s="240"/>
+      <c r="F25" s="287"/>
+      <c r="G25" s="287"/>
+      <c r="H25" s="287"/>
+      <c r="I25" s="287"/>
+      <c r="J25" s="287"/>
+      <c r="K25" s="288"/>
+      <c r="L25" s="240"/>
+      <c r="M25" s="241"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="232"/>
-      <c r="G26" s="232"/>
-      <c r="H26" s="232"/>
-      <c r="I26" s="232"/>
-      <c r="J26" s="232"/>
-      <c r="K26" s="233"/>
-      <c r="L26" s="213"/>
-      <c r="M26" s="214"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="242"/>
+      <c r="F26" s="261"/>
+      <c r="G26" s="261"/>
+      <c r="H26" s="261"/>
+      <c r="I26" s="261"/>
+      <c r="J26" s="261"/>
+      <c r="K26" s="262"/>
+      <c r="L26" s="242"/>
+      <c r="M26" s="243"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="232"/>
-      <c r="G27" s="232"/>
-      <c r="H27" s="232"/>
-      <c r="I27" s="232"/>
-      <c r="J27" s="232"/>
-      <c r="K27" s="233"/>
-      <c r="L27" s="213"/>
-      <c r="M27" s="214"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="262"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="261"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="261"/>
+      <c r="I27" s="261"/>
+      <c r="J27" s="261"/>
+      <c r="K27" s="262"/>
+      <c r="L27" s="242"/>
+      <c r="M27" s="243"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="213"/>
-      <c r="F28" s="232"/>
-      <c r="G28" s="232"/>
-      <c r="H28" s="232"/>
-      <c r="I28" s="232"/>
-      <c r="J28" s="232"/>
-      <c r="K28" s="233"/>
-      <c r="L28" s="213"/>
-      <c r="M28" s="214"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="262"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="261"/>
+      <c r="G28" s="261"/>
+      <c r="H28" s="261"/>
+      <c r="I28" s="261"/>
+      <c r="J28" s="261"/>
+      <c r="K28" s="262"/>
+      <c r="L28" s="242"/>
+      <c r="M28" s="243"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="232"/>
-      <c r="G29" s="232"/>
-      <c r="H29" s="232"/>
-      <c r="I29" s="232"/>
-      <c r="J29" s="232"/>
-      <c r="K29" s="233"/>
-      <c r="L29" s="213"/>
-      <c r="M29" s="214"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="262"/>
+      <c r="E29" s="242"/>
+      <c r="F29" s="261"/>
+      <c r="G29" s="261"/>
+      <c r="H29" s="261"/>
+      <c r="I29" s="261"/>
+      <c r="J29" s="261"/>
+      <c r="K29" s="262"/>
+      <c r="L29" s="242"/>
+      <c r="M29" s="243"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="244"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="245"/>
-      <c r="G30" s="245"/>
-      <c r="H30" s="245"/>
-      <c r="I30" s="245"/>
-      <c r="J30" s="245"/>
-      <c r="K30" s="244"/>
-      <c r="L30" s="242"/>
-      <c r="M30" s="243"/>
+      <c r="C30" s="271"/>
+      <c r="D30" s="273"/>
+      <c r="E30" s="271"/>
+      <c r="F30" s="274"/>
+      <c r="G30" s="274"/>
+      <c r="H30" s="274"/>
+      <c r="I30" s="274"/>
+      <c r="J30" s="274"/>
+      <c r="K30" s="273"/>
+      <c r="L30" s="271"/>
+      <c r="M30" s="272"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
@@ -8261,20 +8348,20 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="247" t="s">
+      <c r="B32" s="276" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="248"/>
-      <c r="D32" s="248"/>
-      <c r="E32" s="248"/>
-      <c r="F32" s="248"/>
-      <c r="G32" s="248"/>
-      <c r="H32" s="248"/>
-      <c r="I32" s="248"/>
-      <c r="J32" s="248"/>
-      <c r="K32" s="248"/>
-      <c r="L32" s="248"/>
-      <c r="M32" s="249"/>
+      <c r="C32" s="277"/>
+      <c r="D32" s="277"/>
+      <c r="E32" s="277"/>
+      <c r="F32" s="277"/>
+      <c r="G32" s="277"/>
+      <c r="H32" s="277"/>
+      <c r="I32" s="277"/>
+      <c r="J32" s="277"/>
+      <c r="K32" s="277"/>
+      <c r="L32" s="277"/>
+      <c r="M32" s="278"/>
     </row>
     <row r="33" spans="2:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
@@ -8283,10 +8370,10 @@
       <c r="C33" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="250" t="s">
+      <c r="D33" s="279" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="252"/>
+      <c r="E33" s="281"/>
       <c r="F33" s="27" t="s">
         <v>162</v>
       </c>
@@ -8317,8 +8404,8 @@
         <v>1</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="260"/>
-      <c r="E34" s="260"/>
+      <c r="D34" s="289"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -8333,8 +8420,8 @@
         <v>2</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="207"/>
+      <c r="D35" s="236"/>
+      <c r="E35" s="236"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -8349,8 +8436,8 @@
         <v>3</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="207"/>
+      <c r="D36" s="236"/>
+      <c r="E36" s="236"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -8365,8 +8452,8 @@
         <v>4</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="241"/>
-      <c r="E37" s="241"/>
+      <c r="D37" s="270"/>
+      <c r="E37" s="270"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -8379,8 +8466,8 @@
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="246"/>
-      <c r="E38" s="246"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="275"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34" t="s">
         <v>169</v>
@@ -8401,16 +8488,16 @@
       <c r="M38" s="36"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="203" t="s">
+      <c r="B41" s="232" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="203"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="203"/>
-      <c r="G41" s="203"/>
-      <c r="H41" s="203"/>
-      <c r="I41" s="203"/>
+      <c r="C41" s="232"/>
+      <c r="D41" s="232"/>
+      <c r="E41" s="232"/>
+      <c r="F41" s="232"/>
+      <c r="G41" s="232"/>
+      <c r="H41" s="232"/>
+      <c r="I41" s="232"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
@@ -8423,16 +8510,16 @@
       <c r="C42" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="202" t="s">
+      <c r="D42" s="231" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="202"/>
-      <c r="F42" s="202" t="s">
+      <c r="E42" s="231"/>
+      <c r="F42" s="231" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="202"/>
-      <c r="H42" s="202"/>
-      <c r="I42" s="202"/>
+      <c r="G42" s="231"/>
+      <c r="H42" s="231"/>
+      <c r="I42" s="231"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -8443,8 +8530,8 @@
         <v>1</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="207"/>
-      <c r="E43" s="207"/>
+      <c r="D43" s="236"/>
+      <c r="E43" s="236"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -8459,8 +8546,8 @@
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="207"/>
-      <c r="E44" s="207"/>
+      <c r="D44" s="236"/>
+      <c r="E44" s="236"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -8475,8 +8562,8 @@
         <v>3</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="207"/>
-      <c r="E45" s="207"/>
+      <c r="D45" s="236"/>
+      <c r="E45" s="236"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -8487,16 +8574,16 @@
       <c r="M45" s="12"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="203" t="s">
+      <c r="B47" s="232" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="203"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="203"/>
-      <c r="G47" s="203"/>
-      <c r="H47" s="203"/>
-      <c r="I47" s="203"/>
+      <c r="C47" s="232"/>
+      <c r="D47" s="232"/>
+      <c r="E47" s="232"/>
+      <c r="F47" s="232"/>
+      <c r="G47" s="232"/>
+      <c r="H47" s="232"/>
+      <c r="I47" s="232"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
@@ -8509,14 +8596,14 @@
       <c r="C48" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D48" s="204" t="s">
+      <c r="D48" s="233" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="205"/>
-      <c r="F48" s="205"/>
-      <c r="G48" s="205"/>
-      <c r="H48" s="205"/>
-      <c r="I48" s="206"/>
+      <c r="E48" s="234"/>
+      <c r="F48" s="234"/>
+      <c r="G48" s="234"/>
+      <c r="H48" s="234"/>
+      <c r="I48" s="235"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
@@ -8529,12 +8616,12 @@
       <c r="C49" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="199"/>
-      <c r="E49" s="200"/>
-      <c r="F49" s="200"/>
-      <c r="G49" s="200"/>
-      <c r="H49" s="200"/>
-      <c r="I49" s="201"/>
+      <c r="D49" s="228"/>
+      <c r="E49" s="229"/>
+      <c r="F49" s="229"/>
+      <c r="G49" s="229"/>
+      <c r="H49" s="229"/>
+      <c r="I49" s="230"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="17">
@@ -8543,12 +8630,12 @@
       <c r="C50" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="199"/>
-      <c r="E50" s="200"/>
-      <c r="F50" s="200"/>
-      <c r="G50" s="200"/>
-      <c r="H50" s="200"/>
-      <c r="I50" s="201"/>
+      <c r="D50" s="228"/>
+      <c r="E50" s="229"/>
+      <c r="F50" s="229"/>
+      <c r="G50" s="229"/>
+      <c r="H50" s="229"/>
+      <c r="I50" s="230"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="17">
@@ -8557,74 +8644,74 @@
       <c r="C51" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="199"/>
-      <c r="E51" s="200"/>
-      <c r="F51" s="200"/>
-      <c r="G51" s="200"/>
-      <c r="H51" s="200"/>
-      <c r="I51" s="201"/>
+      <c r="D51" s="228"/>
+      <c r="E51" s="229"/>
+      <c r="F51" s="229"/>
+      <c r="G51" s="229"/>
+      <c r="H51" s="229"/>
+      <c r="I51" s="230"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="203" t="s">
+      <c r="B54" s="232" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="203"/>
-      <c r="D54" s="203"/>
-      <c r="E54" s="203"/>
-      <c r="F54" s="203"/>
-      <c r="G54" s="203"/>
-      <c r="H54" s="203"/>
-      <c r="I54" s="203"/>
+      <c r="C54" s="232"/>
+      <c r="D54" s="232"/>
+      <c r="E54" s="232"/>
+      <c r="F54" s="232"/>
+      <c r="G54" s="232"/>
+      <c r="H54" s="232"/>
+      <c r="I54" s="232"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="204" t="s">
+      <c r="C55" s="233" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="205"/>
-      <c r="E55" s="205"/>
-      <c r="F55" s="205"/>
-      <c r="G55" s="205"/>
-      <c r="H55" s="205"/>
-      <c r="I55" s="206"/>
+      <c r="D55" s="234"/>
+      <c r="E55" s="234"/>
+      <c r="F55" s="234"/>
+      <c r="G55" s="234"/>
+      <c r="H55" s="234"/>
+      <c r="I55" s="235"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="17">
         <v>1</v>
       </c>
-      <c r="C56" s="199"/>
-      <c r="D56" s="200"/>
-      <c r="E56" s="200"/>
-      <c r="F56" s="200"/>
-      <c r="G56" s="200"/>
-      <c r="H56" s="200"/>
-      <c r="I56" s="201"/>
+      <c r="C56" s="228"/>
+      <c r="D56" s="229"/>
+      <c r="E56" s="229"/>
+      <c r="F56" s="229"/>
+      <c r="G56" s="229"/>
+      <c r="H56" s="229"/>
+      <c r="I56" s="230"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="17">
         <v>2</v>
       </c>
-      <c r="C57" s="199"/>
-      <c r="D57" s="200"/>
-      <c r="E57" s="200"/>
-      <c r="F57" s="200"/>
-      <c r="G57" s="200"/>
-      <c r="H57" s="200"/>
-      <c r="I57" s="201"/>
+      <c r="C57" s="228"/>
+      <c r="D57" s="229"/>
+      <c r="E57" s="229"/>
+      <c r="F57" s="229"/>
+      <c r="G57" s="229"/>
+      <c r="H57" s="229"/>
+      <c r="I57" s="230"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="17">
         <v>3</v>
       </c>
-      <c r="C58" s="199"/>
-      <c r="D58" s="200"/>
-      <c r="E58" s="200"/>
-      <c r="F58" s="200"/>
-      <c r="G58" s="200"/>
-      <c r="H58" s="200"/>
-      <c r="I58" s="201"/>
+      <c r="C58" s="228"/>
+      <c r="D58" s="229"/>
+      <c r="E58" s="229"/>
+      <c r="F58" s="229"/>
+      <c r="G58" s="229"/>
+      <c r="H58" s="229"/>
+      <c r="I58" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -8970,44 +9057,44 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="300" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="273"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="302"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="274" t="s">
+      <c r="B3" s="303" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="275"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="276"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="305"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="306" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="279"/>
+      <c r="C4" s="307"/>
+      <c r="D4" s="307"/>
+      <c r="E4" s="308"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="277" t="s">
+      <c r="B5" s="306" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="278"/>
-      <c r="D5" s="278"/>
-      <c r="E5" s="279"/>
+      <c r="C5" s="307"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="308"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="263" t="s">
+      <c r="B6" s="292" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="264"/>
-      <c r="D6" s="264"/>
-      <c r="E6" s="265"/>
+      <c r="C6" s="293"/>
+      <c r="D6" s="293"/>
+      <c r="E6" s="294"/>
     </row>
     <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.2">
       <c r="B7" s="41" t="s">
@@ -9896,37 +9983,37 @@
       <c r="E81" s="147"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="266" t="s">
+      <c r="B82" s="295" t="s">
         <v>382</v>
       </c>
-      <c r="C82" s="267"/>
-      <c r="D82" s="267"/>
-      <c r="E82" s="268"/>
+      <c r="C82" s="296"/>
+      <c r="D82" s="296"/>
+      <c r="E82" s="297"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="269" t="s">
+      <c r="B83" s="298" t="s">
         <v>383</v>
       </c>
-      <c r="C83" s="270"/>
-      <c r="D83" s="270"/>
+      <c r="C83" s="299"/>
+      <c r="D83" s="299"/>
       <c r="E83" s="47" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="269" t="s">
+      <c r="B84" s="298" t="s">
         <v>384</v>
       </c>
-      <c r="C84" s="270"/>
-      <c r="D84" s="270"/>
+      <c r="C84" s="299"/>
+      <c r="D84" s="299"/>
       <c r="E84" s="47"/>
     </row>
     <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="261" t="s">
+      <c r="B85" s="290" t="s">
         <v>385</v>
       </c>
-      <c r="C85" s="262"/>
-      <c r="D85" s="262"/>
+      <c r="C85" s="291"/>
+      <c r="D85" s="291"/>
       <c r="E85" s="48" t="s">
         <v>191</v>
       </c>
@@ -10486,109 +10573,109 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="283" t="s">
+      <c r="B2" s="312" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
-      <c r="H2" s="284"/>
-      <c r="I2" s="284"/>
-      <c r="J2" s="284"/>
-      <c r="K2" s="285"/>
-      <c r="L2" s="286"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="314"/>
+      <c r="L2" s="315"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="287" t="s">
+      <c r="B3" s="316" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="288"/>
-      <c r="H3" s="288"/>
-      <c r="I3" s="288"/>
-      <c r="J3" s="288"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="290"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="317"/>
+      <c r="I3" s="317"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="319"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="274" t="s">
+      <c r="B4" s="303" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="275"/>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
-      <c r="I4" s="275"/>
-      <c r="J4" s="275"/>
-      <c r="K4" s="291"/>
-      <c r="L4" s="276"/>
+      <c r="C4" s="304"/>
+      <c r="D4" s="304"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
+      <c r="K4" s="320"/>
+      <c r="L4" s="305"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="263" t="s">
+      <c r="B5" s="292" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
-      <c r="K5" s="292"/>
-      <c r="L5" s="265"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="293"/>
+      <c r="E5" s="293"/>
+      <c r="F5" s="293"/>
+      <c r="G5" s="293"/>
+      <c r="H5" s="293"/>
+      <c r="I5" s="293"/>
+      <c r="J5" s="293"/>
+      <c r="K5" s="321"/>
+      <c r="L5" s="294"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="293" t="s">
+      <c r="B6" s="322" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="294"/>
-      <c r="D6" s="294"/>
-      <c r="E6" s="294"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="294"/>
-      <c r="H6" s="294"/>
-      <c r="I6" s="294"/>
-      <c r="J6" s="294"/>
-      <c r="K6" s="294"/>
-      <c r="L6" s="295"/>
+      <c r="C6" s="323"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="323"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="323"/>
+      <c r="I6" s="323"/>
+      <c r="J6" s="323"/>
+      <c r="K6" s="323"/>
+      <c r="L6" s="324"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="280" t="s">
+      <c r="B7" s="309" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="281"/>
-      <c r="D7" s="281"/>
-      <c r="E7" s="281"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="281"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="281"/>
-      <c r="J7" s="281"/>
-      <c r="K7" s="281"/>
-      <c r="L7" s="282"/>
+      <c r="C7" s="310"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="310"/>
+      <c r="J7" s="310"/>
+      <c r="K7" s="310"/>
+      <c r="L7" s="311"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="300" t="s">
+      <c r="B8" s="329" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="301"/>
-      <c r="D8" s="301"/>
-      <c r="E8" s="301"/>
-      <c r="F8" s="301"/>
-      <c r="G8" s="301"/>
-      <c r="H8" s="301"/>
-      <c r="I8" s="301"/>
-      <c r="J8" s="301"/>
-      <c r="K8" s="301"/>
-      <c r="L8" s="302"/>
+      <c r="C8" s="330"/>
+      <c r="D8" s="330"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="330"/>
+      <c r="G8" s="330"/>
+      <c r="H8" s="330"/>
+      <c r="I8" s="330"/>
+      <c r="J8" s="330"/>
+      <c r="K8" s="330"/>
+      <c r="L8" s="331"/>
     </row>
     <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
@@ -11924,83 +12011,83 @@
       <c r="L65" s="51"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="303" t="s">
+      <c r="B66" s="332" t="s">
         <v>382</v>
       </c>
-      <c r="C66" s="304"/>
-      <c r="D66" s="304"/>
-      <c r="E66" s="304"/>
-      <c r="F66" s="304"/>
-      <c r="G66" s="304"/>
-      <c r="H66" s="304"/>
-      <c r="I66" s="304"/>
-      <c r="J66" s="304"/>
-      <c r="K66" s="305"/>
-      <c r="L66" s="306"/>
+      <c r="C66" s="333"/>
+      <c r="D66" s="333"/>
+      <c r="E66" s="333"/>
+      <c r="F66" s="333"/>
+      <c r="G66" s="333"/>
+      <c r="H66" s="333"/>
+      <c r="I66" s="333"/>
+      <c r="J66" s="333"/>
+      <c r="K66" s="334"/>
+      <c r="L66" s="335"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="269" t="s">
+      <c r="B67" s="298" t="s">
         <v>383</v>
       </c>
-      <c r="C67" s="270"/>
-      <c r="D67" s="270"/>
+      <c r="C67" s="299"/>
+      <c r="D67" s="299"/>
       <c r="E67" s="52"/>
-      <c r="F67" s="296" t="s">
+      <c r="F67" s="325" t="s">
         <v>191</v>
       </c>
-      <c r="G67" s="296"/>
-      <c r="H67" s="296"/>
-      <c r="I67" s="296"/>
-      <c r="J67" s="296"/>
-      <c r="K67" s="296"/>
-      <c r="L67" s="297"/>
+      <c r="G67" s="325"/>
+      <c r="H67" s="325"/>
+      <c r="I67" s="325"/>
+      <c r="J67" s="325"/>
+      <c r="K67" s="325"/>
+      <c r="L67" s="326"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="269" t="s">
+      <c r="B68" s="298" t="s">
         <v>384</v>
       </c>
-      <c r="C68" s="270"/>
-      <c r="D68" s="270"/>
+      <c r="C68" s="299"/>
+      <c r="D68" s="299"/>
       <c r="E68" s="52"/>
-      <c r="F68" s="296"/>
-      <c r="G68" s="296"/>
-      <c r="H68" s="296"/>
-      <c r="I68" s="296"/>
-      <c r="J68" s="296"/>
-      <c r="K68" s="296"/>
-      <c r="L68" s="297"/>
+      <c r="F68" s="325"/>
+      <c r="G68" s="325"/>
+      <c r="H68" s="325"/>
+      <c r="I68" s="325"/>
+      <c r="J68" s="325"/>
+      <c r="K68" s="325"/>
+      <c r="L68" s="326"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="269" t="s">
+      <c r="B69" s="298" t="s">
         <v>385</v>
       </c>
-      <c r="C69" s="270"/>
-      <c r="D69" s="270"/>
+      <c r="C69" s="299"/>
+      <c r="D69" s="299"/>
       <c r="E69" s="52"/>
-      <c r="F69" s="296" t="s">
+      <c r="F69" s="325" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="296"/>
-      <c r="H69" s="296"/>
-      <c r="I69" s="296"/>
-      <c r="J69" s="296"/>
-      <c r="K69" s="296"/>
-      <c r="L69" s="297"/>
+      <c r="G69" s="325"/>
+      <c r="H69" s="325"/>
+      <c r="I69" s="325"/>
+      <c r="J69" s="325"/>
+      <c r="K69" s="325"/>
+      <c r="L69" s="326"/>
     </row>
     <row r="70" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="261" t="s">
+      <c r="B70" s="290" t="s">
         <v>588</v>
       </c>
-      <c r="C70" s="262"/>
-      <c r="D70" s="262"/>
+      <c r="C70" s="291"/>
+      <c r="D70" s="291"/>
       <c r="E70" s="53"/>
-      <c r="F70" s="298"/>
-      <c r="G70" s="298"/>
-      <c r="H70" s="298"/>
-      <c r="I70" s="298"/>
-      <c r="J70" s="298"/>
-      <c r="K70" s="298"/>
-      <c r="L70" s="299"/>
+      <c r="F70" s="327"/>
+      <c r="G70" s="327"/>
+      <c r="H70" s="327"/>
+      <c r="I70" s="327"/>
+      <c r="J70" s="327"/>
+      <c r="K70" s="327"/>
+      <c r="L70" s="328"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -12029,8 +12116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F031F4EE-3EC7-47DE-91AF-34380ED2D64A}">
   <dimension ref="B1:AX159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14088,48 +14175,48 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="336" t="s">
         <v>589</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308"/>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="308"/>
-      <c r="L2" s="308"/>
-      <c r="M2" s="308"/>
-      <c r="N2" s="308"/>
-      <c r="O2" s="308"/>
-      <c r="P2" s="308"/>
-      <c r="Q2" s="308"/>
-      <c r="R2" s="308"/>
-      <c r="S2" s="308"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="309"/>
-    </row>
-    <row r="3" spans="2:23" s="341" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="336" t="s">
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="337"/>
+      <c r="K2" s="337"/>
+      <c r="L2" s="337"/>
+      <c r="M2" s="337"/>
+      <c r="N2" s="337"/>
+      <c r="O2" s="337"/>
+      <c r="P2" s="337"/>
+      <c r="Q2" s="337"/>
+      <c r="R2" s="337"/>
+      <c r="S2" s="337"/>
+      <c r="T2" s="337"/>
+      <c r="U2" s="338"/>
+    </row>
+    <row r="3" spans="2:23" s="208" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="206" t="s">
         <v>590</v>
       </c>
-      <c r="C3" s="337"/>
-      <c r="D3" s="338"/>
-      <c r="E3" s="338"/>
-      <c r="F3" s="338"/>
-      <c r="G3" s="338"/>
-      <c r="H3" s="338"/>
-      <c r="I3" s="338"/>
-      <c r="J3" s="339"/>
+      <c r="C3" s="339"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="341"/>
       <c r="K3" s="105"/>
       <c r="L3" s="105"/>
-      <c r="M3" s="340"/>
-      <c r="N3" s="340"/>
-      <c r="O3" s="340"/>
-      <c r="P3" s="340"/>
-      <c r="Q3" s="340"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
       <c r="R3" s="105"/>
       <c r="S3" s="105"/>
       <c r="T3" s="105"/>
@@ -14137,109 +14224,109 @@
       <c r="V3" s="105"/>
       <c r="W3" s="105"/>
     </row>
-    <row r="4" spans="2:23" s="346" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="342" t="s">
+    <row r="4" spans="2:23" s="210" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="209" t="s">
         <v>591</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="342" t="s">
         <v>697</v>
       </c>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="344"/>
-      <c r="J4" s="345"/>
-      <c r="M4" s="347"/>
-      <c r="N4" s="347"/>
-      <c r="O4" s="347"/>
-      <c r="P4" s="347"/>
-      <c r="Q4" s="347"/>
+      <c r="D4" s="343"/>
+      <c r="E4" s="343"/>
+      <c r="F4" s="343"/>
+      <c r="G4" s="343"/>
+      <c r="H4" s="343"/>
+      <c r="I4" s="343"/>
+      <c r="J4" s="344"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="211"/>
+      <c r="O4" s="211"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="211"/>
     </row>
     <row r="5" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:23" s="335" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="329" t="s">
+    <row r="6" spans="2:23" s="205" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="217" t="s">
         <v>592</v>
       </c>
-      <c r="C6" s="330" t="s">
+      <c r="C6" s="218" t="s">
         <v>593</v>
       </c>
-      <c r="D6" s="330" t="s">
+      <c r="D6" s="218" t="s">
         <v>595</v>
       </c>
-      <c r="E6" s="330" t="s">
+      <c r="E6" s="218" t="s">
         <v>594</v>
       </c>
-      <c r="F6" s="330" t="s">
+      <c r="F6" s="218" t="s">
         <v>596</v>
       </c>
-      <c r="G6" s="330" t="s">
+      <c r="G6" s="218" t="s">
         <v>597</v>
       </c>
-      <c r="H6" s="331" t="s">
+      <c r="H6" s="219" t="s">
         <v>598</v>
       </c>
-      <c r="I6" s="332" t="s">
+      <c r="I6" s="220" t="s">
         <v>599</v>
       </c>
-      <c r="J6" s="332" t="s">
+      <c r="J6" s="220" t="s">
         <v>600</v>
       </c>
-      <c r="K6" s="332" t="s">
+      <c r="K6" s="220" t="s">
         <v>601</v>
       </c>
-      <c r="L6" s="332" t="s">
+      <c r="L6" s="220" t="s">
         <v>602</v>
       </c>
-      <c r="M6" s="332" t="s">
+      <c r="M6" s="220" t="s">
         <v>603</v>
       </c>
-      <c r="N6" s="332" t="s">
+      <c r="N6" s="220" t="s">
         <v>604</v>
       </c>
-      <c r="O6" s="332" t="s">
+      <c r="O6" s="220" t="s">
         <v>605</v>
       </c>
-      <c r="P6" s="332" t="s">
+      <c r="P6" s="220" t="s">
         <v>606</v>
       </c>
-      <c r="Q6" s="332" t="s">
+      <c r="Q6" s="220" t="s">
         <v>607</v>
       </c>
-      <c r="R6" s="332" t="s">
+      <c r="R6" s="220" t="s">
         <v>608</v>
       </c>
-      <c r="S6" s="333" t="s">
+      <c r="S6" s="221" t="s">
         <v>609</v>
       </c>
-      <c r="T6" s="333" t="s">
+      <c r="T6" s="221" t="s">
         <v>610</v>
       </c>
-      <c r="U6" s="334" t="s">
+      <c r="U6" s="222" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="319">
+      <c r="B7" s="223">
         <v>1</v>
       </c>
-      <c r="C7" s="193" t="s">
+      <c r="C7" s="191" t="s">
         <v>698</v>
       </c>
-      <c r="D7" s="193" t="s">
+      <c r="D7" s="191" t="s">
         <v>705</v>
       </c>
-      <c r="E7" s="193" t="s">
+      <c r="E7" s="191" t="s">
         <v>723</v>
       </c>
-      <c r="F7" s="193" t="s">
+      <c r="F7" s="191" t="s">
         <v>626</v>
       </c>
-      <c r="G7" s="194" t="s">
+      <c r="G7" s="192" t="s">
         <v>631</v>
       </c>
-      <c r="H7" s="191" t="s">
+      <c r="H7" s="189" t="s">
         <v>632</v>
       </c>
       <c r="I7" s="56"/>
@@ -14249,7 +14336,7 @@
       <c r="K7" s="104"/>
       <c r="L7" s="56"/>
       <c r="M7" s="56"/>
-      <c r="N7" s="186">
+      <c r="N7" s="213">
         <v>44754</v>
       </c>
       <c r="O7" s="56"/>
@@ -14258,705 +14345,705 @@
       <c r="R7" s="56"/>
       <c r="S7" s="103"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="56"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="319">
+      <c r="B8" s="196">
         <v>2</v>
       </c>
-      <c r="C8" s="187" t="s">
+      <c r="C8" s="186" t="s">
         <v>699</v>
       </c>
-      <c r="D8" s="188" t="s">
+      <c r="D8" s="187" t="s">
         <v>706</v>
       </c>
-      <c r="E8" s="187" t="s">
+      <c r="E8" s="186" t="s">
         <v>724</v>
       </c>
-      <c r="F8" s="189" t="s">
+      <c r="F8" s="215" t="s">
         <v>640</v>
       </c>
-      <c r="G8" s="321" t="s">
+      <c r="G8" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H8" s="322" t="s">
+      <c r="H8" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I8" s="318"/>
-      <c r="J8" s="323" t="s">
+      <c r="I8" s="195"/>
+      <c r="J8" s="200" t="s">
         <v>612</v>
       </c>
-      <c r="K8" s="324"/>
-      <c r="L8" s="323"/>
-      <c r="M8" s="318"/>
-      <c r="N8" s="325">
+      <c r="K8" s="201"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="202">
         <v>44754</v>
       </c>
-      <c r="O8" s="318"/>
-      <c r="P8" s="323"/>
-      <c r="Q8" s="318"/>
-      <c r="R8" s="325">
+      <c r="O8" s="195"/>
+      <c r="P8" s="200"/>
+      <c r="Q8" s="195"/>
+      <c r="R8" s="202">
         <v>44754</v>
       </c>
-      <c r="S8" s="326"/>
-      <c r="T8" s="318"/>
-      <c r="U8" s="318"/>
+      <c r="S8" s="203"/>
+      <c r="T8" s="195"/>
+      <c r="U8" s="195"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="319">
+      <c r="B9" s="196">
         <v>3</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="186" t="s">
         <v>699</v>
       </c>
-      <c r="D9" s="187" t="s">
+      <c r="D9" s="186" t="s">
         <v>707</v>
       </c>
-      <c r="E9" s="187" t="s">
+      <c r="E9" s="186" t="s">
         <v>725</v>
       </c>
-      <c r="F9" s="189" t="s">
+      <c r="F9" s="215" t="s">
         <v>640</v>
       </c>
-      <c r="G9" s="321" t="s">
+      <c r="G9" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H9" s="322" t="s">
+      <c r="H9" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I9" s="318"/>
-      <c r="J9" s="323" t="s">
+      <c r="I9" s="195"/>
+      <c r="J9" s="200" t="s">
         <v>613</v>
       </c>
-      <c r="K9" s="324"/>
-      <c r="L9" s="323"/>
-      <c r="M9" s="318"/>
-      <c r="N9" s="325">
+      <c r="K9" s="201"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="195"/>
+      <c r="N9" s="202">
         <v>44754</v>
       </c>
-      <c r="O9" s="318"/>
-      <c r="P9" s="323"/>
-      <c r="Q9" s="318"/>
-      <c r="R9" s="325">
+      <c r="O9" s="195"/>
+      <c r="P9" s="200"/>
+      <c r="Q9" s="195"/>
+      <c r="R9" s="202">
         <v>44754</v>
       </c>
-      <c r="S9" s="326"/>
-      <c r="T9" s="318"/>
-      <c r="U9" s="318"/>
+      <c r="S9" s="203"/>
+      <c r="T9" s="195"/>
+      <c r="U9" s="195"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="319">
+      <c r="B10" s="196">
         <v>4</v>
       </c>
-      <c r="C10" s="187" t="s">
+      <c r="C10" s="186" t="s">
         <v>699</v>
       </c>
-      <c r="D10" s="187" t="s">
+      <c r="D10" s="186" t="s">
         <v>707</v>
       </c>
-      <c r="E10" s="187" t="s">
+      <c r="E10" s="186" t="s">
         <v>726</v>
       </c>
-      <c r="F10" s="187" t="s">
+      <c r="F10" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G10" s="321" t="s">
+      <c r="G10" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H10" s="322" t="s">
+      <c r="H10" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I10" s="318"/>
-      <c r="J10" s="323" t="s">
+      <c r="I10" s="195"/>
+      <c r="J10" s="200" t="s">
         <v>614</v>
       </c>
-      <c r="K10" s="324"/>
-      <c r="L10" s="323"/>
-      <c r="M10" s="318"/>
-      <c r="N10" s="325">
+      <c r="K10" s="201"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="195"/>
+      <c r="N10" s="202">
         <v>44754</v>
       </c>
-      <c r="O10" s="318"/>
-      <c r="P10" s="323"/>
-      <c r="Q10" s="318"/>
-      <c r="R10" s="318"/>
-      <c r="S10" s="326"/>
-      <c r="T10" s="318"/>
-      <c r="U10" s="318"/>
+      <c r="O10" s="195"/>
+      <c r="P10" s="200"/>
+      <c r="Q10" s="195"/>
+      <c r="R10" s="195"/>
+      <c r="S10" s="203"/>
+      <c r="T10" s="195"/>
+      <c r="U10" s="195"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="319">
+      <c r="B11" s="196">
         <v>5</v>
       </c>
-      <c r="C11" s="187" t="s">
+      <c r="C11" s="186" t="s">
         <v>700</v>
       </c>
-      <c r="D11" s="187" t="s">
+      <c r="D11" s="186" t="s">
         <v>708</v>
       </c>
-      <c r="E11" s="187" t="s">
+      <c r="E11" s="186" t="s">
         <v>727</v>
       </c>
-      <c r="F11" s="187" t="s">
+      <c r="F11" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G11" s="321" t="s">
+      <c r="G11" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H11" s="322" t="s">
+      <c r="H11" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I11" s="318"/>
-      <c r="J11" s="323" t="s">
+      <c r="I11" s="195"/>
+      <c r="J11" s="200" t="s">
         <v>615</v>
       </c>
-      <c r="K11" s="324"/>
-      <c r="L11" s="323"/>
-      <c r="M11" s="318"/>
-      <c r="N11" s="325">
+      <c r="K11" s="201"/>
+      <c r="L11" s="200"/>
+      <c r="M11" s="195"/>
+      <c r="N11" s="202">
         <v>44754</v>
       </c>
-      <c r="O11" s="318"/>
-      <c r="P11" s="323"/>
-      <c r="Q11" s="318"/>
-      <c r="R11" s="318"/>
-      <c r="S11" s="326"/>
-      <c r="T11" s="318"/>
-      <c r="U11" s="318"/>
+      <c r="O11" s="195"/>
+      <c r="P11" s="200"/>
+      <c r="Q11" s="195"/>
+      <c r="R11" s="195"/>
+      <c r="S11" s="203"/>
+      <c r="T11" s="195"/>
+      <c r="U11" s="195"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="319">
+      <c r="B12" s="196">
         <v>6</v>
       </c>
-      <c r="C12" s="187" t="s">
+      <c r="C12" s="186" t="s">
         <v>700</v>
       </c>
-      <c r="D12" s="187" t="s">
+      <c r="D12" s="186" t="s">
         <v>709</v>
       </c>
-      <c r="E12" s="187" t="s">
+      <c r="E12" s="186" t="s">
         <v>727</v>
       </c>
-      <c r="F12" s="187" t="s">
+      <c r="F12" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G12" s="321" t="s">
+      <c r="G12" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H12" s="322" t="s">
+      <c r="H12" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I12" s="318"/>
-      <c r="J12" s="323" t="s">
+      <c r="I12" s="195"/>
+      <c r="J12" s="200" t="s">
         <v>616</v>
       </c>
-      <c r="K12" s="324"/>
-      <c r="L12" s="323"/>
-      <c r="M12" s="318"/>
-      <c r="N12" s="325">
+      <c r="K12" s="201"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="202">
         <v>44754</v>
       </c>
-      <c r="O12" s="318"/>
-      <c r="P12" s="323"/>
-      <c r="Q12" s="318"/>
-      <c r="R12" s="318"/>
-      <c r="S12" s="326"/>
-      <c r="T12" s="318"/>
-      <c r="U12" s="318"/>
+      <c r="O12" s="195"/>
+      <c r="P12" s="200"/>
+      <c r="Q12" s="195"/>
+      <c r="R12" s="195"/>
+      <c r="S12" s="203"/>
+      <c r="T12" s="195"/>
+      <c r="U12" s="195"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="319">
+      <c r="B13" s="196">
         <v>7</v>
       </c>
-      <c r="C13" s="187" t="s">
+      <c r="C13" s="186" t="s">
         <v>700</v>
       </c>
-      <c r="D13" s="187" t="s">
+      <c r="D13" s="186" t="s">
         <v>710</v>
       </c>
-      <c r="E13" s="187" t="s">
+      <c r="E13" s="186" t="s">
         <v>727</v>
       </c>
-      <c r="F13" s="187" t="s">
+      <c r="F13" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G13" s="321" t="s">
+      <c r="G13" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H13" s="322" t="s">
+      <c r="H13" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I13" s="318"/>
-      <c r="J13" s="323"/>
-      <c r="K13" s="324"/>
-      <c r="L13" s="323"/>
-      <c r="M13" s="318"/>
-      <c r="N13" s="325">
+      <c r="I13" s="195"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="200"/>
+      <c r="M13" s="195"/>
+      <c r="N13" s="202">
         <v>44754</v>
       </c>
-      <c r="O13" s="318"/>
-      <c r="P13" s="323"/>
-      <c r="Q13" s="318"/>
-      <c r="R13" s="318"/>
-      <c r="S13" s="326"/>
-      <c r="T13" s="318"/>
-      <c r="U13" s="318"/>
+      <c r="O13" s="195"/>
+      <c r="P13" s="200"/>
+      <c r="Q13" s="195"/>
+      <c r="R13" s="195"/>
+      <c r="S13" s="203"/>
+      <c r="T13" s="195"/>
+      <c r="U13" s="195"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="319">
+      <c r="B14" s="196">
         <v>8</v>
       </c>
-      <c r="C14" s="187" t="s">
+      <c r="C14" s="186" t="s">
         <v>701</v>
       </c>
-      <c r="D14" s="187" t="s">
+      <c r="D14" s="186" t="s">
         <v>709</v>
       </c>
-      <c r="E14" s="187" t="s">
+      <c r="E14" s="186" t="s">
         <v>728</v>
       </c>
-      <c r="F14" s="187" t="s">
+      <c r="F14" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G14" s="321" t="s">
+      <c r="G14" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H14" s="322" t="s">
+      <c r="H14" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I14" s="318"/>
-      <c r="J14" s="323"/>
-      <c r="K14" s="324"/>
-      <c r="L14" s="323"/>
-      <c r="M14" s="318"/>
-      <c r="N14" s="325">
+      <c r="I14" s="195"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="195"/>
+      <c r="N14" s="202">
         <v>44754</v>
       </c>
-      <c r="O14" s="318"/>
-      <c r="P14" s="323"/>
-      <c r="Q14" s="318"/>
-      <c r="R14" s="318"/>
-      <c r="S14" s="326"/>
-      <c r="T14" s="318"/>
-      <c r="U14" s="318"/>
+      <c r="O14" s="195"/>
+      <c r="P14" s="200"/>
+      <c r="Q14" s="195"/>
+      <c r="R14" s="195"/>
+      <c r="S14" s="203"/>
+      <c r="T14" s="195"/>
+      <c r="U14" s="195"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="319">
+      <c r="B15" s="196">
         <v>9</v>
       </c>
-      <c r="C15" s="187" t="s">
+      <c r="C15" s="186" t="s">
         <v>701</v>
       </c>
-      <c r="D15" s="187" t="s">
+      <c r="D15" s="186" t="s">
         <v>710</v>
       </c>
-      <c r="E15" s="187" t="s">
+      <c r="E15" s="186" t="s">
         <v>728</v>
       </c>
-      <c r="F15" s="187" t="s">
+      <c r="F15" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G15" s="321" t="s">
+      <c r="G15" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H15" s="322" t="s">
+      <c r="H15" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I15" s="318"/>
-      <c r="J15" s="323"/>
-      <c r="K15" s="324"/>
-      <c r="L15" s="323"/>
-      <c r="M15" s="318"/>
-      <c r="N15" s="325">
+      <c r="I15" s="195"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="195"/>
+      <c r="N15" s="202">
         <v>44754</v>
       </c>
-      <c r="O15" s="318"/>
-      <c r="P15" s="323"/>
-      <c r="Q15" s="318"/>
-      <c r="R15" s="318"/>
-      <c r="S15" s="326"/>
-      <c r="T15" s="318"/>
-      <c r="U15" s="318"/>
+      <c r="O15" s="195"/>
+      <c r="P15" s="200"/>
+      <c r="Q15" s="195"/>
+      <c r="R15" s="195"/>
+      <c r="S15" s="203"/>
+      <c r="T15" s="195"/>
+      <c r="U15" s="195"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="319">
+      <c r="B16" s="196">
         <v>10</v>
       </c>
-      <c r="C16" s="187" t="s">
+      <c r="C16" s="186" t="s">
         <v>700</v>
       </c>
-      <c r="D16" s="187" t="s">
+      <c r="D16" s="186" t="s">
         <v>711</v>
       </c>
-      <c r="E16" s="190" t="s">
+      <c r="E16" s="188" t="s">
         <v>727</v>
       </c>
-      <c r="F16" s="187" t="s">
+      <c r="F16" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G16" s="321" t="s">
+      <c r="G16" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H16" s="322" t="s">
+      <c r="H16" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I16" s="318"/>
-      <c r="J16" s="323"/>
-      <c r="K16" s="324"/>
-      <c r="L16" s="323"/>
-      <c r="M16" s="318"/>
-      <c r="N16" s="325">
+      <c r="I16" s="195"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="195"/>
+      <c r="N16" s="202">
         <v>44754</v>
       </c>
-      <c r="O16" s="318"/>
-      <c r="P16" s="323"/>
-      <c r="Q16" s="318"/>
-      <c r="R16" s="318"/>
-      <c r="S16" s="326"/>
-      <c r="T16" s="318"/>
-      <c r="U16" s="318"/>
+      <c r="O16" s="195"/>
+      <c r="P16" s="200"/>
+      <c r="Q16" s="195"/>
+      <c r="R16" s="195"/>
+      <c r="S16" s="203"/>
+      <c r="T16" s="195"/>
+      <c r="U16" s="195"/>
     </row>
     <row r="17" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B17" s="319">
+      <c r="B17" s="196">
         <v>11</v>
       </c>
-      <c r="C17" s="187" t="s">
+      <c r="C17" s="186" t="s">
         <v>700</v>
       </c>
-      <c r="D17" s="187" t="s">
+      <c r="D17" s="186" t="s">
         <v>712</v>
       </c>
-      <c r="E17" s="187" t="s">
+      <c r="E17" s="186" t="s">
         <v>727</v>
       </c>
-      <c r="F17" s="187" t="s">
+      <c r="F17" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G17" s="321" t="s">
+      <c r="G17" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H17" s="322" t="s">
+      <c r="H17" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I17" s="318"/>
-      <c r="J17" s="323"/>
-      <c r="K17" s="324"/>
-      <c r="L17" s="323"/>
-      <c r="M17" s="318"/>
-      <c r="N17" s="325">
+      <c r="I17" s="195"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="195"/>
+      <c r="N17" s="202">
         <v>44754</v>
       </c>
-      <c r="O17" s="318"/>
-      <c r="P17" s="323"/>
-      <c r="Q17" s="318"/>
-      <c r="R17" s="318"/>
-      <c r="S17" s="326"/>
-      <c r="T17" s="318"/>
-      <c r="U17" s="318"/>
+      <c r="O17" s="195"/>
+      <c r="P17" s="200"/>
+      <c r="Q17" s="195"/>
+      <c r="R17" s="195"/>
+      <c r="S17" s="203"/>
+      <c r="T17" s="195"/>
+      <c r="U17" s="195"/>
     </row>
     <row r="18" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B18" s="319">
+      <c r="B18" s="196">
         <v>12</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="186" t="s">
         <v>700</v>
       </c>
-      <c r="D18" s="187" t="s">
+      <c r="D18" s="186" t="s">
         <v>713</v>
       </c>
-      <c r="E18" s="187" t="s">
+      <c r="E18" s="186" t="s">
         <v>727</v>
       </c>
-      <c r="F18" s="187" t="s">
+      <c r="F18" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G18" s="321" t="s">
+      <c r="G18" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H18" s="322" t="s">
+      <c r="H18" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I18" s="318"/>
-      <c r="J18" s="323"/>
-      <c r="K18" s="324"/>
-      <c r="L18" s="323"/>
-      <c r="M18" s="318"/>
-      <c r="N18" s="325">
+      <c r="I18" s="195"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="200"/>
+      <c r="M18" s="195"/>
+      <c r="N18" s="202">
         <v>44754</v>
       </c>
-      <c r="O18" s="318"/>
-      <c r="P18" s="323"/>
-      <c r="Q18" s="318"/>
-      <c r="R18" s="318"/>
-      <c r="S18" s="326"/>
-      <c r="T18" s="318"/>
-      <c r="U18" s="318"/>
+      <c r="O18" s="195"/>
+      <c r="P18" s="200"/>
+      <c r="Q18" s="195"/>
+      <c r="R18" s="195"/>
+      <c r="S18" s="203"/>
+      <c r="T18" s="195"/>
+      <c r="U18" s="195"/>
     </row>
     <row r="19" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B19" s="319">
+      <c r="B19" s="196">
         <v>13</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="186" t="s">
         <v>700</v>
       </c>
-      <c r="D19" s="187" t="s">
+      <c r="D19" s="186" t="s">
         <v>714</v>
       </c>
-      <c r="E19" s="187" t="s">
+      <c r="E19" s="186" t="s">
         <v>727</v>
       </c>
-      <c r="F19" s="187" t="s">
+      <c r="F19" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G19" s="321" t="s">
+      <c r="G19" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H19" s="322" t="s">
+      <c r="H19" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I19" s="318"/>
-      <c r="J19" s="323"/>
-      <c r="K19" s="324"/>
-      <c r="L19" s="323"/>
-      <c r="M19" s="318"/>
-      <c r="N19" s="325">
+      <c r="I19" s="195"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="200"/>
+      <c r="M19" s="195"/>
+      <c r="N19" s="202">
         <v>44754</v>
       </c>
-      <c r="O19" s="318"/>
-      <c r="P19" s="323"/>
-      <c r="Q19" s="318"/>
-      <c r="R19" s="318"/>
-      <c r="S19" s="326"/>
-      <c r="T19" s="318"/>
-      <c r="U19" s="318"/>
+      <c r="O19" s="195"/>
+      <c r="P19" s="200"/>
+      <c r="Q19" s="195"/>
+      <c r="R19" s="195"/>
+      <c r="S19" s="203"/>
+      <c r="T19" s="195"/>
+      <c r="U19" s="195"/>
     </row>
     <row r="20" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B20" s="319">
+      <c r="B20" s="196">
         <v>14</v>
       </c>
-      <c r="C20" s="187" t="s">
+      <c r="C20" s="186" t="s">
         <v>700</v>
       </c>
-      <c r="D20" s="187" t="s">
+      <c r="D20" s="186" t="s">
         <v>715</v>
       </c>
-      <c r="E20" s="187" t="s">
+      <c r="E20" s="186" t="s">
         <v>727</v>
       </c>
-      <c r="F20" s="187" t="s">
+      <c r="F20" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G20" s="321" t="s">
+      <c r="G20" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H20" s="322" t="s">
+      <c r="H20" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I20" s="318"/>
-      <c r="J20" s="323"/>
-      <c r="K20" s="324"/>
-      <c r="L20" s="323"/>
-      <c r="M20" s="318"/>
-      <c r="N20" s="325">
+      <c r="I20" s="195"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="201"/>
+      <c r="L20" s="200"/>
+      <c r="M20" s="195"/>
+      <c r="N20" s="202">
         <v>44754</v>
       </c>
-      <c r="O20" s="318"/>
-      <c r="P20" s="323"/>
-      <c r="Q20" s="318"/>
-      <c r="R20" s="318"/>
-      <c r="S20" s="326"/>
-      <c r="T20" s="318"/>
-      <c r="U20" s="318"/>
+      <c r="O20" s="195"/>
+      <c r="P20" s="200"/>
+      <c r="Q20" s="195"/>
+      <c r="R20" s="195"/>
+      <c r="S20" s="203"/>
+      <c r="T20" s="195"/>
+      <c r="U20" s="195"/>
     </row>
     <row r="21" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B21" s="319">
+      <c r="B21" s="196">
         <v>15</v>
       </c>
-      <c r="C21" s="187" t="s">
+      <c r="C21" s="186" t="s">
         <v>700</v>
       </c>
-      <c r="D21" s="187" t="s">
+      <c r="D21" s="186" t="s">
         <v>716</v>
       </c>
-      <c r="E21" s="187" t="s">
+      <c r="E21" s="186" t="s">
         <v>727</v>
       </c>
-      <c r="F21" s="187" t="s">
+      <c r="F21" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G21" s="321" t="s">
+      <c r="G21" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H21" s="322" t="s">
+      <c r="H21" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I21" s="318"/>
-      <c r="J21" s="323"/>
-      <c r="K21" s="324"/>
-      <c r="L21" s="323"/>
-      <c r="M21" s="318"/>
-      <c r="N21" s="325">
+      <c r="I21" s="195"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="200"/>
+      <c r="M21" s="195"/>
+      <c r="N21" s="202">
         <v>44754</v>
       </c>
-      <c r="O21" s="318"/>
-      <c r="P21" s="323"/>
-      <c r="Q21" s="318"/>
-      <c r="R21" s="318"/>
-      <c r="S21" s="326"/>
-      <c r="T21" s="318"/>
-      <c r="U21" s="318"/>
+      <c r="O21" s="195"/>
+      <c r="P21" s="200"/>
+      <c r="Q21" s="195"/>
+      <c r="R21" s="195"/>
+      <c r="S21" s="203"/>
+      <c r="T21" s="195"/>
+      <c r="U21" s="195"/>
     </row>
     <row r="22" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B22" s="319">
+      <c r="B22" s="196">
         <v>16</v>
       </c>
-      <c r="C22" s="187" t="s">
+      <c r="C22" s="186" t="s">
         <v>701</v>
       </c>
-      <c r="D22" s="187" t="s">
+      <c r="D22" s="186" t="s">
         <v>711</v>
       </c>
-      <c r="E22" s="187" t="s">
+      <c r="E22" s="186" t="s">
         <v>728</v>
       </c>
-      <c r="F22" s="187" t="s">
+      <c r="F22" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G22" s="321" t="s">
+      <c r="G22" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H22" s="322" t="s">
+      <c r="H22" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I22" s="318"/>
-      <c r="J22" s="323"/>
-      <c r="K22" s="324"/>
-      <c r="L22" s="323"/>
-      <c r="M22" s="318"/>
-      <c r="N22" s="325">
+      <c r="I22" s="195"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="200"/>
+      <c r="M22" s="195"/>
+      <c r="N22" s="202">
         <v>44754</v>
       </c>
-      <c r="O22" s="318"/>
-      <c r="P22" s="323"/>
-      <c r="Q22" s="318"/>
-      <c r="R22" s="318"/>
-      <c r="S22" s="326"/>
-      <c r="T22" s="318"/>
-      <c r="U22" s="318"/>
+      <c r="O22" s="195"/>
+      <c r="P22" s="200"/>
+      <c r="Q22" s="195"/>
+      <c r="R22" s="195"/>
+      <c r="S22" s="203"/>
+      <c r="T22" s="195"/>
+      <c r="U22" s="195"/>
     </row>
     <row r="23" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B23" s="319">
+      <c r="B23" s="196">
         <v>17</v>
       </c>
-      <c r="C23" s="187" t="s">
+      <c r="C23" s="186" t="s">
         <v>701</v>
       </c>
-      <c r="D23" s="187" t="s">
+      <c r="D23" s="186" t="s">
         <v>712</v>
       </c>
-      <c r="E23" s="187" t="s">
+      <c r="E23" s="186" t="s">
         <v>728</v>
       </c>
-      <c r="F23" s="187" t="s">
+      <c r="F23" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G23" s="321" t="s">
+      <c r="G23" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H23" s="322" t="s">
+      <c r="H23" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I23" s="318"/>
-      <c r="J23" s="323"/>
-      <c r="K23" s="324"/>
-      <c r="L23" s="323"/>
-      <c r="M23" s="318"/>
-      <c r="N23" s="325">
+      <c r="I23" s="195"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="201"/>
+      <c r="L23" s="200"/>
+      <c r="M23" s="195"/>
+      <c r="N23" s="202">
         <v>44754</v>
       </c>
-      <c r="O23" s="318"/>
-      <c r="P23" s="323"/>
-      <c r="Q23" s="318"/>
-      <c r="R23" s="318"/>
-      <c r="S23" s="326"/>
-      <c r="T23" s="318"/>
-      <c r="U23" s="318"/>
+      <c r="O23" s="195"/>
+      <c r="P23" s="200"/>
+      <c r="Q23" s="195"/>
+      <c r="R23" s="195"/>
+      <c r="S23" s="203"/>
+      <c r="T23" s="195"/>
+      <c r="U23" s="195"/>
     </row>
     <row r="24" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="319">
+      <c r="B24" s="196">
         <v>18</v>
       </c>
-      <c r="C24" s="187" t="s">
+      <c r="C24" s="186" t="s">
         <v>701</v>
       </c>
-      <c r="D24" s="187" t="s">
+      <c r="D24" s="186" t="s">
         <v>713</v>
       </c>
-      <c r="E24" s="187" t="s">
+      <c r="E24" s="186" t="s">
         <v>728</v>
       </c>
-      <c r="F24" s="187" t="s">
+      <c r="F24" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G24" s="321" t="s">
+      <c r="G24" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H24" s="322" t="s">
+      <c r="H24" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I24" s="318"/>
-      <c r="J24" s="323"/>
-      <c r="K24" s="324"/>
-      <c r="L24" s="323"/>
-      <c r="M24" s="318"/>
-      <c r="N24" s="325">
+      <c r="I24" s="195"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="200"/>
+      <c r="M24" s="195"/>
+      <c r="N24" s="202">
         <v>44754</v>
       </c>
-      <c r="O24" s="318"/>
-      <c r="P24" s="323"/>
-      <c r="Q24" s="318"/>
-      <c r="R24" s="318"/>
-      <c r="S24" s="326"/>
-      <c r="T24" s="318"/>
-      <c r="U24" s="318"/>
+      <c r="O24" s="195"/>
+      <c r="P24" s="200"/>
+      <c r="Q24" s="195"/>
+      <c r="R24" s="195"/>
+      <c r="S24" s="203"/>
+      <c r="T24" s="195"/>
+      <c r="U24" s="195"/>
     </row>
     <row r="25" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B25" s="319">
+      <c r="B25" s="196">
         <v>19</v>
       </c>
-      <c r="C25" s="187" t="s">
+      <c r="C25" s="186" t="s">
         <v>701</v>
       </c>
-      <c r="D25" s="187" t="s">
+      <c r="D25" s="186" t="s">
         <v>714</v>
       </c>
-      <c r="E25" s="187" t="s">
+      <c r="E25" s="186" t="s">
         <v>728</v>
       </c>
-      <c r="F25" s="187" t="s">
+      <c r="F25" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G25" s="321" t="s">
+      <c r="G25" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H25" s="322" t="s">
+      <c r="H25" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I25" s="318"/>
-      <c r="J25" s="323"/>
-      <c r="K25" s="324"/>
-      <c r="L25" s="323"/>
-      <c r="M25" s="318"/>
-      <c r="N25" s="325">
+      <c r="I25" s="195"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="201"/>
+      <c r="L25" s="200"/>
+      <c r="M25" s="195"/>
+      <c r="N25" s="202">
         <v>44754</v>
       </c>
-      <c r="O25" s="318"/>
-      <c r="P25" s="323"/>
-      <c r="Q25" s="318"/>
-      <c r="R25" s="318"/>
-      <c r="S25" s="326"/>
-      <c r="T25" s="318"/>
-      <c r="U25" s="318"/>
+      <c r="O25" s="195"/>
+      <c r="P25" s="200"/>
+      <c r="Q25" s="195"/>
+      <c r="R25" s="195"/>
+      <c r="S25" s="203"/>
+      <c r="T25" s="195"/>
+      <c r="U25" s="195"/>
       <c r="AL25" s="102"/>
       <c r="AM25" s="101"/>
       <c r="AN25" s="101"/>
@@ -14972,42 +15059,42 @@
       <c r="AX25" s="100"/>
     </row>
     <row r="26" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B26" s="319">
+      <c r="B26" s="196">
         <v>20</v>
       </c>
-      <c r="C26" s="187" t="s">
+      <c r="C26" s="186" t="s">
         <v>701</v>
       </c>
-      <c r="D26" s="187" t="s">
+      <c r="D26" s="186" t="s">
         <v>715</v>
       </c>
-      <c r="E26" s="187" t="s">
+      <c r="E26" s="186" t="s">
         <v>728</v>
       </c>
-      <c r="F26" s="187" t="s">
+      <c r="F26" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G26" s="321" t="s">
+      <c r="G26" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H26" s="322" t="s">
+      <c r="H26" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I26" s="318"/>
-      <c r="J26" s="323"/>
-      <c r="K26" s="324"/>
-      <c r="L26" s="323"/>
-      <c r="M26" s="318"/>
-      <c r="N26" s="325">
+      <c r="I26" s="195"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="200"/>
+      <c r="M26" s="195"/>
+      <c r="N26" s="202">
         <v>44754</v>
       </c>
-      <c r="O26" s="318"/>
-      <c r="P26" s="323"/>
-      <c r="Q26" s="318"/>
-      <c r="R26" s="318"/>
-      <c r="S26" s="326"/>
-      <c r="T26" s="318"/>
-      <c r="U26" s="318"/>
+      <c r="O26" s="195"/>
+      <c r="P26" s="200"/>
+      <c r="Q26" s="195"/>
+      <c r="R26" s="195"/>
+      <c r="S26" s="203"/>
+      <c r="T26" s="195"/>
+      <c r="U26" s="195"/>
       <c r="AL26" s="69"/>
       <c r="AM26" s="67"/>
       <c r="AN26" s="67"/>
@@ -15023,42 +15110,42 @@
       <c r="AX26" s="66"/>
     </row>
     <row r="27" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="319">
+      <c r="B27" s="196">
         <v>21</v>
       </c>
-      <c r="C27" s="187" t="s">
+      <c r="C27" s="186" t="s">
         <v>701</v>
       </c>
-      <c r="D27" s="187" t="s">
+      <c r="D27" s="186" t="s">
         <v>716</v>
       </c>
-      <c r="E27" s="187" t="s">
+      <c r="E27" s="186" t="s">
         <v>728</v>
       </c>
-      <c r="F27" s="187" t="s">
+      <c r="F27" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G27" s="321" t="s">
+      <c r="G27" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H27" s="322" t="s">
+      <c r="H27" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I27" s="318"/>
-      <c r="J27" s="323"/>
-      <c r="K27" s="324"/>
-      <c r="L27" s="323"/>
-      <c r="M27" s="318"/>
-      <c r="N27" s="325">
+      <c r="I27" s="195"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="201"/>
+      <c r="L27" s="200"/>
+      <c r="M27" s="195"/>
+      <c r="N27" s="202">
         <v>44754</v>
       </c>
-      <c r="O27" s="318"/>
-      <c r="P27" s="323"/>
-      <c r="Q27" s="318"/>
-      <c r="R27" s="318"/>
-      <c r="S27" s="326"/>
-      <c r="T27" s="318"/>
-      <c r="U27" s="318"/>
+      <c r="O27" s="195"/>
+      <c r="P27" s="200"/>
+      <c r="Q27" s="195"/>
+      <c r="R27" s="195"/>
+      <c r="S27" s="203"/>
+      <c r="T27" s="195"/>
+      <c r="U27" s="195"/>
       <c r="AL27" s="69"/>
       <c r="AM27" s="67"/>
       <c r="AN27" s="67"/>
@@ -15074,42 +15161,42 @@
       <c r="AX27" s="66"/>
     </row>
     <row r="28" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="319">
+      <c r="B28" s="196">
         <v>22</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C28" s="186" t="s">
         <v>701</v>
       </c>
-      <c r="D28" s="187" t="s">
+      <c r="D28" s="186" t="s">
         <v>717</v>
       </c>
-      <c r="E28" s="187" t="s">
+      <c r="E28" s="186" t="s">
         <v>728</v>
       </c>
-      <c r="F28" s="187" t="s">
+      <c r="F28" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G28" s="321" t="s">
+      <c r="G28" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H28" s="322" t="s">
+      <c r="H28" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I28" s="318"/>
-      <c r="J28" s="323"/>
-      <c r="K28" s="324"/>
-      <c r="L28" s="323"/>
-      <c r="M28" s="318"/>
-      <c r="N28" s="325">
+      <c r="I28" s="195"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="200"/>
+      <c r="M28" s="195"/>
+      <c r="N28" s="202">
         <v>44754</v>
       </c>
-      <c r="O28" s="318"/>
-      <c r="P28" s="323"/>
-      <c r="Q28" s="318"/>
-      <c r="R28" s="318"/>
-      <c r="S28" s="326"/>
-      <c r="T28" s="318"/>
-      <c r="U28" s="318"/>
+      <c r="O28" s="195"/>
+      <c r="P28" s="200"/>
+      <c r="Q28" s="195"/>
+      <c r="R28" s="195"/>
+      <c r="S28" s="203"/>
+      <c r="T28" s="195"/>
+      <c r="U28" s="195"/>
       <c r="AL28" s="69"/>
       <c r="AM28" s="67"/>
       <c r="AN28" s="67"/>
@@ -15120,7 +15207,7 @@
       <c r="AS28" s="67"/>
       <c r="AT28" s="67"/>
       <c r="AU28" s="67"/>
-      <c r="AV28" s="310" t="s">
+      <c r="AV28" s="345" t="s">
         <v>617</v>
       </c>
       <c r="AW28" s="99" t="s">
@@ -15129,42 +15216,42 @@
       <c r="AX28" s="66"/>
     </row>
     <row r="29" spans="2:50" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="319">
+      <c r="B29" s="196">
         <v>23</v>
       </c>
-      <c r="C29" s="187" t="s">
+      <c r="C29" s="186" t="s">
         <v>702</v>
       </c>
-      <c r="D29" s="187" t="s">
+      <c r="D29" s="186" t="s">
         <v>717</v>
       </c>
-      <c r="E29" s="187" t="s">
+      <c r="E29" s="186" t="s">
         <v>729</v>
       </c>
-      <c r="F29" s="187" t="s">
+      <c r="F29" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G29" s="321" t="s">
+      <c r="G29" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H29" s="322" t="s">
+      <c r="H29" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I29" s="318"/>
-      <c r="J29" s="323"/>
-      <c r="K29" s="324"/>
-      <c r="L29" s="323"/>
-      <c r="M29" s="318"/>
-      <c r="N29" s="325">
+      <c r="I29" s="195"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="200"/>
+      <c r="M29" s="195"/>
+      <c r="N29" s="202">
         <v>44754</v>
       </c>
-      <c r="O29" s="318"/>
-      <c r="P29" s="323"/>
-      <c r="Q29" s="318"/>
-      <c r="R29" s="318"/>
-      <c r="S29" s="326"/>
-      <c r="T29" s="318"/>
-      <c r="U29" s="318"/>
+      <c r="O29" s="195"/>
+      <c r="P29" s="200"/>
+      <c r="Q29" s="195"/>
+      <c r="R29" s="195"/>
+      <c r="S29" s="203"/>
+      <c r="T29" s="195"/>
+      <c r="U29" s="195"/>
       <c r="AL29" s="69"/>
       <c r="AM29" s="83" t="s">
         <v>596</v>
@@ -15183,49 +15270,49 @@
       </c>
       <c r="AT29" s="67"/>
       <c r="AU29" s="97"/>
-      <c r="AV29" s="311"/>
+      <c r="AV29" s="346"/>
       <c r="AW29" s="92" t="s">
         <v>620</v>
       </c>
       <c r="AX29" s="66"/>
     </row>
     <row r="30" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B30" s="319">
+      <c r="B30" s="196">
         <v>24</v>
       </c>
-      <c r="C30" s="187" t="s">
+      <c r="C30" s="186" t="s">
         <v>703</v>
       </c>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="186" t="s">
         <v>718</v>
       </c>
-      <c r="E30" s="187" t="s">
+      <c r="E30" s="186" t="s">
         <v>730</v>
       </c>
-      <c r="F30" s="187" t="s">
+      <c r="F30" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G30" s="321" t="s">
+      <c r="G30" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H30" s="322" t="s">
+      <c r="H30" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I30" s="318"/>
-      <c r="J30" s="323"/>
-      <c r="K30" s="324"/>
-      <c r="L30" s="323"/>
-      <c r="M30" s="318"/>
-      <c r="N30" s="325">
+      <c r="I30" s="195"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="201"/>
+      <c r="L30" s="200"/>
+      <c r="M30" s="195"/>
+      <c r="N30" s="202">
         <v>44754</v>
       </c>
-      <c r="O30" s="318"/>
-      <c r="P30" s="323"/>
-      <c r="Q30" s="318"/>
-      <c r="R30" s="318"/>
-      <c r="S30" s="326"/>
-      <c r="T30" s="318"/>
-      <c r="U30" s="318"/>
+      <c r="O30" s="195"/>
+      <c r="P30" s="200"/>
+      <c r="Q30" s="195"/>
+      <c r="R30" s="195"/>
+      <c r="S30" s="203"/>
+      <c r="T30" s="195"/>
+      <c r="U30" s="195"/>
       <c r="AL30" s="69"/>
       <c r="AM30" s="96" t="s">
         <v>621</v>
@@ -15244,49 +15331,49 @@
       </c>
       <c r="AT30" s="67"/>
       <c r="AU30" s="67"/>
-      <c r="AV30" s="311"/>
+      <c r="AV30" s="346"/>
       <c r="AW30" s="92" t="s">
         <v>625</v>
       </c>
       <c r="AX30" s="66"/>
     </row>
     <row r="31" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B31" s="319">
+      <c r="B31" s="196">
         <v>25</v>
       </c>
-      <c r="C31" s="187" t="s">
+      <c r="C31" s="186" t="s">
         <v>700</v>
       </c>
-      <c r="D31" s="187" t="s">
+      <c r="D31" s="186" t="s">
         <v>719</v>
       </c>
-      <c r="E31" s="187" t="s">
+      <c r="E31" s="186" t="s">
         <v>731</v>
       </c>
-      <c r="F31" s="187" t="s">
+      <c r="F31" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G31" s="321" t="s">
+      <c r="G31" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H31" s="322" t="s">
+      <c r="H31" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I31" s="318"/>
-      <c r="J31" s="323"/>
-      <c r="K31" s="324"/>
-      <c r="L31" s="323"/>
-      <c r="M31" s="318"/>
-      <c r="N31" s="325">
+      <c r="I31" s="195"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="201"/>
+      <c r="L31" s="200"/>
+      <c r="M31" s="195"/>
+      <c r="N31" s="202">
         <v>44754</v>
       </c>
-      <c r="O31" s="318"/>
-      <c r="P31" s="323"/>
-      <c r="Q31" s="318"/>
-      <c r="R31" s="318"/>
-      <c r="S31" s="326"/>
-      <c r="T31" s="318"/>
-      <c r="U31" s="318"/>
+      <c r="O31" s="195"/>
+      <c r="P31" s="200"/>
+      <c r="Q31" s="195"/>
+      <c r="R31" s="195"/>
+      <c r="S31" s="203"/>
+      <c r="T31" s="195"/>
+      <c r="U31" s="195"/>
       <c r="AL31" s="69"/>
       <c r="AM31" s="90" t="s">
         <v>626</v>
@@ -15305,49 +15392,49 @@
       </c>
       <c r="AT31" s="67"/>
       <c r="AU31" s="67"/>
-      <c r="AV31" s="311"/>
+      <c r="AV31" s="346"/>
       <c r="AW31" s="92" t="s">
         <v>629</v>
       </c>
       <c r="AX31" s="66"/>
     </row>
     <row r="32" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B32" s="319">
+      <c r="B32" s="196">
         <v>26</v>
       </c>
-      <c r="C32" s="187" t="s">
+      <c r="C32" s="186" t="s">
         <v>700</v>
       </c>
-      <c r="D32" s="187" t="s">
+      <c r="D32" s="186" t="s">
         <v>720</v>
       </c>
-      <c r="E32" s="187" t="s">
+      <c r="E32" s="186" t="s">
         <v>731</v>
       </c>
-      <c r="F32" s="187" t="s">
+      <c r="F32" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G32" s="321" t="s">
+      <c r="G32" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H32" s="322" t="s">
+      <c r="H32" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I32" s="318"/>
-      <c r="J32" s="323"/>
-      <c r="K32" s="324"/>
-      <c r="L32" s="323"/>
-      <c r="M32" s="318"/>
-      <c r="N32" s="325">
+      <c r="I32" s="195"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="201"/>
+      <c r="L32" s="200"/>
+      <c r="M32" s="195"/>
+      <c r="N32" s="202">
         <v>44754</v>
       </c>
-      <c r="O32" s="318"/>
-      <c r="P32" s="323"/>
-      <c r="Q32" s="318"/>
-      <c r="R32" s="318"/>
-      <c r="S32" s="326"/>
-      <c r="T32" s="318"/>
-      <c r="U32" s="318"/>
+      <c r="O32" s="195"/>
+      <c r="P32" s="200"/>
+      <c r="Q32" s="195"/>
+      <c r="R32" s="195"/>
+      <c r="S32" s="203"/>
+      <c r="T32" s="195"/>
+      <c r="U32" s="195"/>
       <c r="AL32" s="69"/>
       <c r="AM32" s="88" t="s">
         <v>630</v>
@@ -15366,49 +15453,49 @@
       </c>
       <c r="AT32" s="67"/>
       <c r="AU32" s="67"/>
-      <c r="AV32" s="311"/>
+      <c r="AV32" s="346"/>
       <c r="AW32" s="92" t="s">
         <v>634</v>
       </c>
       <c r="AX32" s="66"/>
     </row>
     <row r="33" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="319">
+      <c r="B33" s="196">
         <v>27</v>
       </c>
-      <c r="C33" s="187" t="s">
+      <c r="C33" s="186" t="s">
         <v>700</v>
       </c>
-      <c r="D33" s="187" t="s">
+      <c r="D33" s="186" t="s">
         <v>721</v>
       </c>
-      <c r="E33" s="187" t="s">
+      <c r="E33" s="186" t="s">
         <v>731</v>
       </c>
-      <c r="F33" s="187" t="s">
+      <c r="F33" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G33" s="321" t="s">
+      <c r="G33" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H33" s="322" t="s">
+      <c r="H33" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I33" s="318"/>
-      <c r="J33" s="323"/>
-      <c r="K33" s="324"/>
-      <c r="L33" s="323"/>
-      <c r="M33" s="318"/>
-      <c r="N33" s="325">
+      <c r="I33" s="195"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="201"/>
+      <c r="L33" s="200"/>
+      <c r="M33" s="195"/>
+      <c r="N33" s="202">
         <v>44754</v>
       </c>
-      <c r="O33" s="318"/>
-      <c r="P33" s="323"/>
-      <c r="Q33" s="318"/>
-      <c r="R33" s="318"/>
-      <c r="S33" s="326"/>
-      <c r="T33" s="318"/>
-      <c r="U33" s="318"/>
+      <c r="O33" s="195"/>
+      <c r="P33" s="200"/>
+      <c r="Q33" s="195"/>
+      <c r="R33" s="195"/>
+      <c r="S33" s="203"/>
+      <c r="T33" s="195"/>
+      <c r="U33" s="195"/>
       <c r="AL33" s="69"/>
       <c r="AM33" s="90" t="s">
         <v>635</v>
@@ -15427,49 +15514,49 @@
       </c>
       <c r="AT33" s="67"/>
       <c r="AU33" s="67"/>
-      <c r="AV33" s="311"/>
+      <c r="AV33" s="346"/>
       <c r="AW33" s="92" t="s">
         <v>639</v>
       </c>
       <c r="AX33" s="66"/>
     </row>
     <row r="34" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="319">
+      <c r="B34" s="196">
         <v>28</v>
       </c>
-      <c r="C34" s="187" t="s">
+      <c r="C34" s="186" t="s">
         <v>701</v>
       </c>
-      <c r="D34" s="187" t="s">
+      <c r="D34" s="186" t="s">
         <v>720</v>
       </c>
-      <c r="E34" s="187" t="s">
+      <c r="E34" s="186" t="s">
         <v>728</v>
       </c>
-      <c r="F34" s="187" t="s">
+      <c r="F34" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G34" s="321" t="s">
+      <c r="G34" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H34" s="322" t="s">
+      <c r="H34" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I34" s="318"/>
-      <c r="J34" s="323"/>
-      <c r="K34" s="324"/>
-      <c r="L34" s="323"/>
-      <c r="M34" s="318"/>
-      <c r="N34" s="325">
+      <c r="I34" s="195"/>
+      <c r="J34" s="200"/>
+      <c r="K34" s="201"/>
+      <c r="L34" s="200"/>
+      <c r="M34" s="195"/>
+      <c r="N34" s="202">
         <v>44754</v>
       </c>
-      <c r="O34" s="318"/>
-      <c r="P34" s="323"/>
-      <c r="Q34" s="318"/>
-      <c r="R34" s="318"/>
-      <c r="S34" s="326"/>
-      <c r="T34" s="318"/>
-      <c r="U34" s="318"/>
+      <c r="O34" s="195"/>
+      <c r="P34" s="200"/>
+      <c r="Q34" s="195"/>
+      <c r="R34" s="195"/>
+      <c r="S34" s="203"/>
+      <c r="T34" s="195"/>
+      <c r="U34" s="195"/>
       <c r="AL34" s="69"/>
       <c r="AM34" s="90" t="s">
         <v>640</v>
@@ -15484,49 +15571,49 @@
       </c>
       <c r="AT34" s="67"/>
       <c r="AU34" s="67"/>
-      <c r="AV34" s="311"/>
+      <c r="AV34" s="346"/>
       <c r="AW34" s="72" t="s">
         <v>642</v>
       </c>
       <c r="AX34" s="66"/>
     </row>
     <row r="35" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="319">
+      <c r="B35" s="196">
         <v>29</v>
       </c>
-      <c r="C35" s="187" t="s">
+      <c r="C35" s="186" t="s">
         <v>701</v>
       </c>
-      <c r="D35" s="187" t="s">
+      <c r="D35" s="186" t="s">
         <v>721</v>
       </c>
-      <c r="E35" s="187" t="s">
+      <c r="E35" s="186" t="s">
         <v>728</v>
       </c>
-      <c r="F35" s="187" t="s">
+      <c r="F35" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G35" s="321" t="s">
+      <c r="G35" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H35" s="322" t="s">
+      <c r="H35" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I35" s="318"/>
-      <c r="J35" s="323"/>
-      <c r="K35" s="324"/>
-      <c r="L35" s="323"/>
-      <c r="M35" s="318"/>
-      <c r="N35" s="325">
+      <c r="I35" s="195"/>
+      <c r="J35" s="200"/>
+      <c r="K35" s="201"/>
+      <c r="L35" s="200"/>
+      <c r="M35" s="195"/>
+      <c r="N35" s="202">
         <v>44754</v>
       </c>
-      <c r="O35" s="318"/>
-      <c r="P35" s="323"/>
-      <c r="Q35" s="318"/>
-      <c r="R35" s="318"/>
-      <c r="S35" s="326"/>
-      <c r="T35" s="318"/>
-      <c r="U35" s="318"/>
+      <c r="O35" s="195"/>
+      <c r="P35" s="200"/>
+      <c r="Q35" s="195"/>
+      <c r="R35" s="195"/>
+      <c r="S35" s="203"/>
+      <c r="T35" s="195"/>
+      <c r="U35" s="195"/>
       <c r="AL35" s="69"/>
       <c r="AM35" s="90" t="s">
         <v>643</v>
@@ -15543,49 +15630,49 @@
       </c>
       <c r="AT35" s="67"/>
       <c r="AU35" s="67"/>
-      <c r="AV35" s="311"/>
+      <c r="AV35" s="346"/>
       <c r="AW35" s="72" t="s">
         <v>646</v>
       </c>
       <c r="AX35" s="66"/>
     </row>
     <row r="36" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="319">
+      <c r="B36" s="196">
         <v>30</v>
       </c>
-      <c r="C36" s="187" t="s">
+      <c r="C36" s="186" t="s">
         <v>704</v>
       </c>
-      <c r="D36" s="187" t="s">
+      <c r="D36" s="186" t="s">
         <v>722</v>
       </c>
-      <c r="E36" s="187" t="s">
+      <c r="E36" s="186" t="s">
         <v>732</v>
       </c>
-      <c r="F36" s="187" t="s">
+      <c r="F36" s="186" t="s">
         <v>626</v>
       </c>
-      <c r="G36" s="321" t="s">
+      <c r="G36" s="198" t="s">
         <v>631</v>
       </c>
-      <c r="H36" s="322" t="s">
+      <c r="H36" s="199" t="s">
         <v>632</v>
       </c>
-      <c r="I36" s="317"/>
-      <c r="J36" s="323"/>
-      <c r="K36" s="324"/>
-      <c r="L36" s="323"/>
-      <c r="M36" s="317"/>
-      <c r="N36" s="325">
+      <c r="I36" s="194"/>
+      <c r="J36" s="200"/>
+      <c r="K36" s="201"/>
+      <c r="L36" s="200"/>
+      <c r="M36" s="194"/>
+      <c r="N36" s="202">
         <v>44754</v>
       </c>
-      <c r="O36" s="317"/>
-      <c r="P36" s="323"/>
-      <c r="Q36" s="317"/>
-      <c r="R36" s="317"/>
-      <c r="S36" s="327"/>
-      <c r="T36" s="317"/>
-      <c r="U36" s="317"/>
+      <c r="O36" s="194"/>
+      <c r="P36" s="200"/>
+      <c r="Q36" s="194"/>
+      <c r="R36" s="194"/>
+      <c r="S36" s="204"/>
+      <c r="T36" s="194"/>
+      <c r="U36" s="194"/>
       <c r="AL36" s="69"/>
       <c r="AM36" s="87" t="s">
         <v>647</v>
@@ -15600,51 +15687,51 @@
       <c r="AS36" s="85"/>
       <c r="AT36" s="67"/>
       <c r="AU36" s="67"/>
-      <c r="AV36" s="311"/>
+      <c r="AV36" s="346"/>
       <c r="AW36" s="72" t="s">
         <v>649</v>
       </c>
       <c r="AX36" s="66"/>
     </row>
     <row r="37" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="320">
+      <c r="B37" s="197">
         <v>31</v>
       </c>
-      <c r="C37" s="316" t="s">
+      <c r="C37" s="193" t="s">
         <v>733</v>
       </c>
-      <c r="D37" s="316" t="s">
+      <c r="D37" s="193" t="s">
         <v>734</v>
       </c>
-      <c r="E37" s="192" t="s">
+      <c r="E37" s="190" t="s">
         <v>735</v>
       </c>
-      <c r="F37" s="328" t="s">
+      <c r="F37" s="214" t="s">
         <v>640</v>
       </c>
-      <c r="G37" s="323" t="s">
+      <c r="G37" s="200" t="s">
         <v>631</v>
       </c>
-      <c r="H37" s="317" t="s">
+      <c r="H37" s="194" t="s">
         <v>637</v>
       </c>
-      <c r="I37" s="317"/>
-      <c r="J37" s="323"/>
-      <c r="K37" s="324"/>
-      <c r="L37" s="323"/>
-      <c r="M37" s="317"/>
-      <c r="N37" s="325">
+      <c r="I37" s="194"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="201"/>
+      <c r="L37" s="200"/>
+      <c r="M37" s="194"/>
+      <c r="N37" s="202">
         <v>44754</v>
       </c>
-      <c r="O37" s="317"/>
-      <c r="P37" s="323"/>
-      <c r="Q37" s="317"/>
-      <c r="R37" s="348">
+      <c r="O37" s="194"/>
+      <c r="P37" s="200"/>
+      <c r="Q37" s="194"/>
+      <c r="R37" s="212">
         <v>44754</v>
       </c>
-      <c r="S37" s="327"/>
-      <c r="T37" s="317"/>
-      <c r="U37" s="317"/>
+      <c r="S37" s="204"/>
+      <c r="T37" s="194"/>
+      <c r="U37" s="194"/>
       <c r="AL37" s="69"/>
       <c r="AM37" s="67"/>
       <c r="AN37" s="67"/>
@@ -15657,49 +15744,49 @@
       <c r="AS37" s="67"/>
       <c r="AT37" s="67"/>
       <c r="AU37" s="67"/>
-      <c r="AV37" s="311"/>
+      <c r="AV37" s="346"/>
       <c r="AW37" s="72" t="s">
         <v>651</v>
       </c>
       <c r="AX37" s="66"/>
     </row>
-    <row r="38" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B38" s="320">
+    <row r="38" spans="2:50" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="197">
         <v>32</v>
       </c>
-      <c r="C38" s="317" t="s">
+      <c r="C38" s="194" t="s">
         <v>739</v>
       </c>
-      <c r="D38" s="317" t="s">
+      <c r="D38" s="194" t="s">
         <v>734</v>
       </c>
-      <c r="E38" s="317" t="s">
+      <c r="E38" s="194" t="s">
         <v>736</v>
       </c>
-      <c r="F38" s="317" t="s">
+      <c r="F38" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G38" s="318" t="s">
+      <c r="G38" s="195" t="s">
         <v>627</v>
       </c>
-      <c r="H38" s="317" t="s">
+      <c r="H38" s="194" t="s">
         <v>623</v>
       </c>
-      <c r="I38" s="317"/>
-      <c r="J38" s="323"/>
-      <c r="K38" s="324"/>
-      <c r="L38" s="323"/>
-      <c r="M38" s="317"/>
-      <c r="N38" s="325">
+      <c r="I38" s="194"/>
+      <c r="J38" s="200"/>
+      <c r="K38" s="201"/>
+      <c r="L38" s="200"/>
+      <c r="M38" s="194"/>
+      <c r="N38" s="202">
         <v>44754</v>
       </c>
-      <c r="O38" s="317"/>
-      <c r="P38" s="323"/>
-      <c r="Q38" s="317"/>
-      <c r="R38" s="317"/>
-      <c r="S38" s="327"/>
-      <c r="T38" s="317"/>
-      <c r="U38" s="317"/>
+      <c r="O38" s="194"/>
+      <c r="P38" s="200"/>
+      <c r="Q38" s="194"/>
+      <c r="R38" s="194"/>
+      <c r="S38" s="204"/>
+      <c r="T38" s="194"/>
+      <c r="U38" s="194"/>
       <c r="AL38" s="69"/>
       <c r="AM38" s="67"/>
       <c r="AN38" s="67"/>
@@ -15710,49 +15797,49 @@
       <c r="AS38" s="67"/>
       <c r="AT38" s="67"/>
       <c r="AU38" s="67"/>
-      <c r="AV38" s="311"/>
+      <c r="AV38" s="346"/>
       <c r="AW38" s="72" t="s">
         <v>652</v>
       </c>
       <c r="AX38" s="66"/>
     </row>
     <row r="39" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B39" s="320">
+      <c r="B39" s="197">
         <v>33</v>
       </c>
-      <c r="C39" s="317" t="s">
+      <c r="C39" s="194" t="s">
         <v>737</v>
       </c>
-      <c r="D39" s="317" t="s">
+      <c r="D39" s="194" t="s">
         <v>722</v>
       </c>
-      <c r="E39" s="317" t="s">
+      <c r="E39" s="194" t="s">
         <v>738</v>
       </c>
-      <c r="F39" s="317" t="s">
+      <c r="F39" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G39" s="318" t="s">
+      <c r="G39" s="195" t="s">
         <v>627</v>
       </c>
-      <c r="H39" s="317" t="s">
+      <c r="H39" s="194" t="s">
         <v>623</v>
       </c>
-      <c r="I39" s="317"/>
-      <c r="J39" s="323"/>
-      <c r="K39" s="324"/>
-      <c r="L39" s="323"/>
-      <c r="M39" s="317"/>
-      <c r="N39" s="325">
+      <c r="I39" s="194"/>
+      <c r="J39" s="200"/>
+      <c r="K39" s="201"/>
+      <c r="L39" s="200"/>
+      <c r="M39" s="194"/>
+      <c r="N39" s="202">
         <v>44754</v>
       </c>
-      <c r="O39" s="317"/>
-      <c r="P39" s="323"/>
-      <c r="Q39" s="317"/>
-      <c r="R39" s="317"/>
-      <c r="S39" s="327"/>
-      <c r="T39" s="317"/>
-      <c r="U39" s="317"/>
+      <c r="O39" s="194"/>
+      <c r="P39" s="200"/>
+      <c r="Q39" s="194"/>
+      <c r="R39" s="194"/>
+      <c r="S39" s="204"/>
+      <c r="T39" s="194"/>
+      <c r="U39" s="194"/>
       <c r="AL39" s="69"/>
       <c r="AM39" s="67"/>
       <c r="AN39" s="67"/>
@@ -15763,49 +15850,49 @@
       <c r="AS39" s="67"/>
       <c r="AT39" s="67"/>
       <c r="AU39" s="67"/>
-      <c r="AV39" s="311"/>
+      <c r="AV39" s="346"/>
       <c r="AW39" s="72" t="s">
         <v>653</v>
       </c>
       <c r="AX39" s="66"/>
     </row>
     <row r="40" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B40" s="320">
+      <c r="B40" s="197">
         <v>34</v>
       </c>
-      <c r="C40" s="317" t="s">
+      <c r="C40" s="194" t="s">
         <v>742</v>
       </c>
-      <c r="D40" s="317" t="s">
+      <c r="D40" s="194" t="s">
         <v>740</v>
       </c>
-      <c r="E40" s="317" t="s">
+      <c r="E40" s="194" t="s">
         <v>741</v>
       </c>
-      <c r="F40" s="317" t="s">
+      <c r="F40" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G40" s="318" t="s">
+      <c r="G40" s="195" t="s">
         <v>627</v>
       </c>
-      <c r="H40" s="317" t="s">
+      <c r="H40" s="194" t="s">
         <v>623</v>
       </c>
-      <c r="I40" s="317"/>
-      <c r="J40" s="323"/>
-      <c r="K40" s="324"/>
-      <c r="L40" s="323"/>
-      <c r="M40" s="317"/>
-      <c r="N40" s="325">
+      <c r="I40" s="194"/>
+      <c r="J40" s="200"/>
+      <c r="K40" s="201"/>
+      <c r="L40" s="200"/>
+      <c r="M40" s="194"/>
+      <c r="N40" s="202">
         <v>44754</v>
       </c>
-      <c r="O40" s="317"/>
-      <c r="P40" s="323"/>
-      <c r="Q40" s="317"/>
-      <c r="R40" s="317"/>
-      <c r="S40" s="327"/>
-      <c r="T40" s="317"/>
-      <c r="U40" s="317"/>
+      <c r="O40" s="194"/>
+      <c r="P40" s="200"/>
+      <c r="Q40" s="194"/>
+      <c r="R40" s="194"/>
+      <c r="S40" s="204"/>
+      <c r="T40" s="194"/>
+      <c r="U40" s="194"/>
       <c r="AL40" s="69"/>
       <c r="AM40" s="67"/>
       <c r="AN40" s="67"/>
@@ -15816,49 +15903,49 @@
       <c r="AS40" s="67"/>
       <c r="AT40" s="67"/>
       <c r="AU40" s="67"/>
-      <c r="AV40" s="311"/>
+      <c r="AV40" s="346"/>
       <c r="AW40" s="72" t="s">
         <v>654</v>
       </c>
       <c r="AX40" s="66"/>
     </row>
     <row r="41" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B41" s="320">
+      <c r="B41" s="197">
         <v>35</v>
       </c>
-      <c r="C41" s="317" t="s">
+      <c r="C41" s="194" t="s">
         <v>733</v>
       </c>
-      <c r="D41" s="317" t="s">
+      <c r="D41" s="194" t="s">
         <v>743</v>
       </c>
-      <c r="E41" s="317" t="s">
+      <c r="E41" s="194" t="s">
         <v>744</v>
       </c>
-      <c r="F41" s="317" t="s">
+      <c r="F41" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G41" s="318" t="s">
+      <c r="G41" s="195" t="s">
         <v>631</v>
       </c>
-      <c r="H41" s="317" t="s">
+      <c r="H41" s="194" t="s">
         <v>632</v>
       </c>
-      <c r="I41" s="317"/>
-      <c r="J41" s="323"/>
-      <c r="K41" s="324"/>
-      <c r="L41" s="323"/>
-      <c r="M41" s="317"/>
-      <c r="N41" s="325">
+      <c r="I41" s="194"/>
+      <c r="J41" s="200"/>
+      <c r="K41" s="201"/>
+      <c r="L41" s="200"/>
+      <c r="M41" s="194"/>
+      <c r="N41" s="202">
         <v>44754</v>
       </c>
-      <c r="O41" s="317"/>
-      <c r="P41" s="323"/>
-      <c r="Q41" s="317"/>
-      <c r="R41" s="317"/>
-      <c r="S41" s="327"/>
-      <c r="T41" s="317"/>
-      <c r="U41" s="317"/>
+      <c r="O41" s="194"/>
+      <c r="P41" s="200"/>
+      <c r="Q41" s="194"/>
+      <c r="R41" s="194"/>
+      <c r="S41" s="204"/>
+      <c r="T41" s="194"/>
+      <c r="U41" s="194"/>
       <c r="AL41" s="69"/>
       <c r="AM41" s="67"/>
       <c r="AN41" s="67"/>
@@ -15869,49 +15956,49 @@
       <c r="AS41" s="67"/>
       <c r="AT41" s="67"/>
       <c r="AU41" s="67"/>
-      <c r="AV41" s="311"/>
+      <c r="AV41" s="346"/>
       <c r="AW41" s="72" t="s">
         <v>655</v>
       </c>
       <c r="AX41" s="66"/>
     </row>
     <row r="42" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B42" s="320">
+      <c r="B42" s="197">
         <v>36</v>
       </c>
-      <c r="C42" s="317" t="s">
+      <c r="C42" s="194" t="s">
         <v>704</v>
       </c>
-      <c r="D42" s="317" t="s">
+      <c r="D42" s="194" t="s">
         <v>743</v>
       </c>
-      <c r="E42" s="317" t="s">
+      <c r="E42" s="194" t="s">
         <v>745</v>
       </c>
-      <c r="F42" s="317" t="s">
+      <c r="F42" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G42" s="318" t="s">
+      <c r="G42" s="195" t="s">
         <v>631</v>
       </c>
-      <c r="H42" s="317" t="s">
+      <c r="H42" s="194" t="s">
         <v>632</v>
       </c>
-      <c r="I42" s="317"/>
-      <c r="J42" s="323"/>
-      <c r="K42" s="324"/>
-      <c r="L42" s="323"/>
-      <c r="M42" s="317"/>
-      <c r="N42" s="325">
+      <c r="I42" s="194"/>
+      <c r="J42" s="200"/>
+      <c r="K42" s="201"/>
+      <c r="L42" s="200"/>
+      <c r="M42" s="194"/>
+      <c r="N42" s="202">
         <v>44754</v>
       </c>
-      <c r="O42" s="317"/>
-      <c r="P42" s="323"/>
-      <c r="Q42" s="317"/>
-      <c r="R42" s="317"/>
-      <c r="S42" s="327"/>
-      <c r="T42" s="317"/>
-      <c r="U42" s="317"/>
+      <c r="O42" s="194"/>
+      <c r="P42" s="200"/>
+      <c r="Q42" s="194"/>
+      <c r="R42" s="194"/>
+      <c r="S42" s="204"/>
+      <c r="T42" s="194"/>
+      <c r="U42" s="194"/>
       <c r="AL42" s="69"/>
       <c r="AM42" s="67"/>
       <c r="AN42" s="67"/>
@@ -15922,49 +16009,49 @@
       <c r="AS42" s="67"/>
       <c r="AT42" s="67"/>
       <c r="AU42" s="67"/>
-      <c r="AV42" s="311"/>
+      <c r="AV42" s="346"/>
       <c r="AW42" s="72" t="s">
         <v>656</v>
       </c>
       <c r="AX42" s="66"/>
     </row>
     <row r="43" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="320">
+      <c r="B43" s="197">
         <v>37</v>
       </c>
-      <c r="C43" s="317" t="s">
+      <c r="C43" s="194" t="s">
         <v>747</v>
       </c>
-      <c r="D43" s="317" t="s">
+      <c r="D43" s="194" t="s">
         <v>748</v>
       </c>
-      <c r="E43" s="317" t="s">
+      <c r="E43" s="194" t="s">
         <v>746</v>
       </c>
-      <c r="F43" s="317" t="s">
+      <c r="F43" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G43" s="318" t="s">
+      <c r="G43" s="195" t="s">
         <v>631</v>
       </c>
-      <c r="H43" s="317" t="s">
+      <c r="H43" s="194" t="s">
         <v>632</v>
       </c>
-      <c r="I43" s="317"/>
-      <c r="J43" s="323"/>
-      <c r="K43" s="324"/>
-      <c r="L43" s="323"/>
-      <c r="M43" s="317"/>
-      <c r="N43" s="325">
+      <c r="I43" s="194"/>
+      <c r="J43" s="200"/>
+      <c r="K43" s="201"/>
+      <c r="L43" s="200"/>
+      <c r="M43" s="194"/>
+      <c r="N43" s="202">
         <v>44754</v>
       </c>
-      <c r="O43" s="317"/>
-      <c r="P43" s="323"/>
-      <c r="Q43" s="317"/>
-      <c r="R43" s="317"/>
-      <c r="S43" s="327"/>
-      <c r="T43" s="317"/>
-      <c r="U43" s="317"/>
+      <c r="O43" s="194"/>
+      <c r="P43" s="200"/>
+      <c r="Q43" s="194"/>
+      <c r="R43" s="194"/>
+      <c r="S43" s="204"/>
+      <c r="T43" s="194"/>
+      <c r="U43" s="194"/>
       <c r="AL43" s="69"/>
       <c r="AM43" s="68"/>
       <c r="AN43" s="68"/>
@@ -15975,51 +16062,51 @@
       <c r="AS43" s="67"/>
       <c r="AT43" s="67"/>
       <c r="AU43" s="67"/>
-      <c r="AV43" s="311"/>
+      <c r="AV43" s="346"/>
       <c r="AW43" s="72" t="s">
         <v>657</v>
       </c>
       <c r="AX43" s="66"/>
     </row>
     <row r="44" spans="2:50" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="320">
+      <c r="B44" s="197">
         <v>38</v>
       </c>
-      <c r="C44" s="317" t="s">
+      <c r="C44" s="194" t="s">
         <v>750</v>
       </c>
-      <c r="D44" s="317" t="s">
+      <c r="D44" s="194" t="s">
         <v>720</v>
       </c>
-      <c r="E44" s="317" t="s">
+      <c r="E44" s="194" t="s">
         <v>749</v>
       </c>
-      <c r="F44" s="317" t="s">
+      <c r="F44" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G44" s="318" t="s">
+      <c r="G44" s="195" t="s">
         <v>627</v>
       </c>
-      <c r="H44" s="317" t="s">
+      <c r="H44" s="194" t="s">
         <v>623</v>
       </c>
-      <c r="I44" s="317"/>
-      <c r="J44" s="323"/>
-      <c r="K44" s="324"/>
-      <c r="L44" s="323"/>
-      <c r="M44" s="317"/>
-      <c r="N44" s="325">
+      <c r="I44" s="194"/>
+      <c r="J44" s="200"/>
+      <c r="K44" s="201"/>
+      <c r="L44" s="200"/>
+      <c r="M44" s="194"/>
+      <c r="N44" s="202">
         <v>44754</v>
       </c>
-      <c r="O44" s="317"/>
-      <c r="P44" s="323"/>
-      <c r="Q44" s="317"/>
-      <c r="R44" s="317"/>
-      <c r="S44" s="327"/>
-      <c r="T44" s="317"/>
-      <c r="U44" s="317"/>
+      <c r="O44" s="194"/>
+      <c r="P44" s="200"/>
+      <c r="Q44" s="194"/>
+      <c r="R44" s="194"/>
+      <c r="S44" s="204"/>
+      <c r="T44" s="194"/>
+      <c r="U44" s="194"/>
       <c r="AL44" s="69"/>
-      <c r="AM44" s="310" t="s">
+      <c r="AM44" s="345" t="s">
         <v>658</v>
       </c>
       <c r="AN44" s="84" t="s">
@@ -16033,58 +16120,58 @@
         <v>601</v>
       </c>
       <c r="AR44" s="67"/>
-      <c r="AS44" s="313" t="s">
+      <c r="AS44" s="348" t="s">
         <v>606</v>
       </c>
       <c r="AT44" s="82" t="s">
         <v>660</v>
       </c>
       <c r="AU44" s="67"/>
-      <c r="AV44" s="311"/>
+      <c r="AV44" s="346"/>
       <c r="AW44" s="72" t="s">
         <v>661</v>
       </c>
       <c r="AX44" s="66"/>
     </row>
     <row r="45" spans="2:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="320">
+      <c r="B45" s="197">
         <v>39</v>
       </c>
-      <c r="C45" s="317" t="s">
+      <c r="C45" s="194" t="s">
         <v>700</v>
       </c>
-      <c r="D45" s="317" t="s">
+      <c r="D45" s="194" t="s">
         <v>751</v>
       </c>
-      <c r="E45" s="317" t="s">
+      <c r="E45" s="194" t="s">
         <v>752</v>
       </c>
-      <c r="F45" s="317" t="s">
+      <c r="F45" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G45" s="318" t="s">
+      <c r="G45" s="195" t="s">
         <v>631</v>
       </c>
-      <c r="H45" s="317" t="s">
+      <c r="H45" s="194" t="s">
         <v>632</v>
       </c>
-      <c r="I45" s="317"/>
-      <c r="J45" s="323"/>
-      <c r="K45" s="324"/>
-      <c r="L45" s="323"/>
-      <c r="M45" s="317"/>
-      <c r="N45" s="325">
+      <c r="I45" s="194"/>
+      <c r="J45" s="200"/>
+      <c r="K45" s="201"/>
+      <c r="L45" s="200"/>
+      <c r="M45" s="194"/>
+      <c r="N45" s="202">
         <v>44754</v>
       </c>
-      <c r="O45" s="317"/>
-      <c r="P45" s="323"/>
-      <c r="Q45" s="317"/>
-      <c r="R45" s="317"/>
-      <c r="S45" s="327"/>
-      <c r="T45" s="317"/>
-      <c r="U45" s="317"/>
+      <c r="O45" s="194"/>
+      <c r="P45" s="200"/>
+      <c r="Q45" s="194"/>
+      <c r="R45" s="194"/>
+      <c r="S45" s="204"/>
+      <c r="T45" s="194"/>
+      <c r="U45" s="194"/>
       <c r="AL45" s="69"/>
-      <c r="AM45" s="311"/>
+      <c r="AM45" s="346"/>
       <c r="AN45" s="78" t="s">
         <v>612</v>
       </c>
@@ -16096,56 +16183,56 @@
         <v>662</v>
       </c>
       <c r="AR45" s="67"/>
-      <c r="AS45" s="314"/>
+      <c r="AS45" s="349"/>
       <c r="AT45" s="75" t="s">
         <v>663</v>
       </c>
       <c r="AU45" s="67"/>
-      <c r="AV45" s="311"/>
+      <c r="AV45" s="346"/>
       <c r="AW45" s="72" t="s">
         <v>664</v>
       </c>
       <c r="AX45" s="66"/>
     </row>
     <row r="46" spans="2:50" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="320">
+      <c r="B46" s="197">
         <v>40</v>
       </c>
-      <c r="C46" s="317" t="s">
+      <c r="C46" s="194" t="s">
         <v>700</v>
       </c>
-      <c r="D46" s="317" t="s">
+      <c r="D46" s="194" t="s">
         <v>751</v>
       </c>
-      <c r="E46" s="317" t="s">
+      <c r="E46" s="194" t="s">
         <v>727</v>
       </c>
-      <c r="F46" s="317" t="s">
+      <c r="F46" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G46" s="318" t="s">
+      <c r="G46" s="195" t="s">
         <v>631</v>
       </c>
-      <c r="H46" s="317" t="s">
+      <c r="H46" s="194" t="s">
         <v>632</v>
       </c>
-      <c r="I46" s="317"/>
-      <c r="J46" s="323"/>
-      <c r="K46" s="324"/>
-      <c r="L46" s="323"/>
-      <c r="M46" s="317"/>
-      <c r="N46" s="325">
+      <c r="I46" s="194"/>
+      <c r="J46" s="200"/>
+      <c r="K46" s="201"/>
+      <c r="L46" s="200"/>
+      <c r="M46" s="194"/>
+      <c r="N46" s="202">
         <v>44754</v>
       </c>
-      <c r="O46" s="317"/>
-      <c r="P46" s="323"/>
-      <c r="Q46" s="317"/>
-      <c r="R46" s="317"/>
-      <c r="S46" s="327"/>
-      <c r="T46" s="317"/>
-      <c r="U46" s="317"/>
+      <c r="O46" s="194"/>
+      <c r="P46" s="200"/>
+      <c r="Q46" s="194"/>
+      <c r="R46" s="194"/>
+      <c r="S46" s="204"/>
+      <c r="T46" s="194"/>
+      <c r="U46" s="194"/>
       <c r="AL46" s="69"/>
-      <c r="AM46" s="311"/>
+      <c r="AM46" s="346"/>
       <c r="AN46" s="78" t="s">
         <v>613</v>
       </c>
@@ -16157,56 +16244,56 @@
         <v>665</v>
       </c>
       <c r="AR46" s="67"/>
-      <c r="AS46" s="314"/>
+      <c r="AS46" s="349"/>
       <c r="AT46" s="75" t="s">
         <v>666</v>
       </c>
       <c r="AU46" s="67"/>
-      <c r="AV46" s="311"/>
+      <c r="AV46" s="346"/>
       <c r="AW46" s="72" t="s">
         <v>667</v>
       </c>
       <c r="AX46" s="66"/>
     </row>
     <row r="47" spans="2:50" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="320">
+      <c r="B47" s="197">
         <v>41</v>
       </c>
-      <c r="C47" s="317" t="s">
+      <c r="C47" s="194" t="s">
         <v>700</v>
       </c>
-      <c r="D47" s="317" t="s">
+      <c r="D47" s="194" t="s">
         <v>751</v>
       </c>
-      <c r="E47" s="317" t="s">
+      <c r="E47" s="194" t="s">
         <v>753</v>
       </c>
-      <c r="F47" s="317" t="s">
+      <c r="F47" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G47" s="318" t="s">
+      <c r="G47" s="195" t="s">
         <v>631</v>
       </c>
-      <c r="H47" s="317" t="s">
+      <c r="H47" s="194" t="s">
         <v>632</v>
       </c>
-      <c r="I47" s="317"/>
-      <c r="J47" s="323"/>
-      <c r="K47" s="324"/>
-      <c r="L47" s="323"/>
-      <c r="M47" s="317"/>
-      <c r="N47" s="325">
+      <c r="I47" s="194"/>
+      <c r="J47" s="200"/>
+      <c r="K47" s="201"/>
+      <c r="L47" s="200"/>
+      <c r="M47" s="194"/>
+      <c r="N47" s="202">
         <v>44754</v>
       </c>
-      <c r="O47" s="317"/>
-      <c r="P47" s="323"/>
-      <c r="Q47" s="317"/>
-      <c r="R47" s="317"/>
-      <c r="S47" s="327"/>
-      <c r="T47" s="317"/>
-      <c r="U47" s="317"/>
+      <c r="O47" s="194"/>
+      <c r="P47" s="200"/>
+      <c r="Q47" s="194"/>
+      <c r="R47" s="194"/>
+      <c r="S47" s="204"/>
+      <c r="T47" s="194"/>
+      <c r="U47" s="194"/>
       <c r="AL47" s="69"/>
-      <c r="AM47" s="311"/>
+      <c r="AM47" s="346"/>
       <c r="AN47" s="78" t="s">
         <v>614</v>
       </c>
@@ -16218,56 +16305,56 @@
         <v>669</v>
       </c>
       <c r="AR47" s="67"/>
-      <c r="AS47" s="314"/>
+      <c r="AS47" s="349"/>
       <c r="AT47" s="75" t="s">
         <v>670</v>
       </c>
       <c r="AU47" s="67"/>
-      <c r="AV47" s="311"/>
+      <c r="AV47" s="346"/>
       <c r="AW47" s="72" t="s">
         <v>671</v>
       </c>
       <c r="AX47" s="66"/>
     </row>
     <row r="48" spans="2:50" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="320">
+      <c r="B48" s="197">
         <v>42</v>
       </c>
-      <c r="C48" s="317" t="s">
+      <c r="C48" s="194" t="s">
         <v>700</v>
       </c>
-      <c r="D48" s="317" t="s">
+      <c r="D48" s="194" t="s">
         <v>751</v>
       </c>
-      <c r="E48" s="317" t="s">
+      <c r="E48" s="194" t="s">
         <v>754</v>
       </c>
-      <c r="F48" s="317" t="s">
+      <c r="F48" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G48" s="318" t="s">
+      <c r="G48" s="195" t="s">
         <v>631</v>
       </c>
-      <c r="H48" s="317" t="s">
+      <c r="H48" s="194" t="s">
         <v>632</v>
       </c>
-      <c r="I48" s="317"/>
-      <c r="J48" s="323"/>
-      <c r="K48" s="324"/>
-      <c r="L48" s="323"/>
-      <c r="M48" s="317"/>
-      <c r="N48" s="325">
+      <c r="I48" s="194"/>
+      <c r="J48" s="200"/>
+      <c r="K48" s="201"/>
+      <c r="L48" s="200"/>
+      <c r="M48" s="194"/>
+      <c r="N48" s="202">
         <v>44754</v>
       </c>
-      <c r="O48" s="317"/>
-      <c r="P48" s="323"/>
-      <c r="Q48" s="317"/>
-      <c r="R48" s="317"/>
-      <c r="S48" s="327"/>
-      <c r="T48" s="317"/>
-      <c r="U48" s="317"/>
+      <c r="O48" s="194"/>
+      <c r="P48" s="200"/>
+      <c r="Q48" s="194"/>
+      <c r="R48" s="194"/>
+      <c r="S48" s="204"/>
+      <c r="T48" s="194"/>
+      <c r="U48" s="194"/>
       <c r="AL48" s="69"/>
-      <c r="AM48" s="311"/>
+      <c r="AM48" s="346"/>
       <c r="AN48" s="78" t="s">
         <v>615</v>
       </c>
@@ -16279,56 +16366,56 @@
         <v>624</v>
       </c>
       <c r="AR48" s="67"/>
-      <c r="AS48" s="314"/>
+      <c r="AS48" s="349"/>
       <c r="AT48" s="75" t="s">
         <v>672</v>
       </c>
       <c r="AU48" s="67"/>
-      <c r="AV48" s="311"/>
+      <c r="AV48" s="346"/>
       <c r="AW48" s="72" t="s">
         <v>673</v>
       </c>
       <c r="AX48" s="66"/>
     </row>
     <row r="49" spans="2:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="320">
+      <c r="B49" s="197">
         <v>43</v>
       </c>
-      <c r="C49" s="317" t="s">
+      <c r="C49" s="194" t="s">
         <v>700</v>
       </c>
-      <c r="D49" s="317" t="s">
+      <c r="D49" s="194" t="s">
         <v>751</v>
       </c>
-      <c r="E49" s="317" t="s">
+      <c r="E49" s="194" t="s">
         <v>755</v>
       </c>
-      <c r="F49" s="317" t="s">
+      <c r="F49" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G49" s="318" t="s">
+      <c r="G49" s="195" t="s">
         <v>631</v>
       </c>
-      <c r="H49" s="317" t="s">
+      <c r="H49" s="194" t="s">
         <v>632</v>
       </c>
-      <c r="I49" s="317"/>
-      <c r="J49" s="323"/>
-      <c r="K49" s="324"/>
-      <c r="L49" s="323"/>
-      <c r="M49" s="317"/>
-      <c r="N49" s="325">
+      <c r="I49" s="194"/>
+      <c r="J49" s="200"/>
+      <c r="K49" s="201"/>
+      <c r="L49" s="200"/>
+      <c r="M49" s="194"/>
+      <c r="N49" s="202">
         <v>44754</v>
       </c>
-      <c r="O49" s="317"/>
-      <c r="P49" s="323"/>
-      <c r="Q49" s="317"/>
-      <c r="R49" s="317"/>
-      <c r="S49" s="327"/>
-      <c r="T49" s="317"/>
-      <c r="U49" s="317"/>
+      <c r="O49" s="194"/>
+      <c r="P49" s="200"/>
+      <c r="Q49" s="194"/>
+      <c r="R49" s="194"/>
+      <c r="S49" s="204"/>
+      <c r="T49" s="194"/>
+      <c r="U49" s="194"/>
       <c r="AL49" s="69"/>
-      <c r="AM49" s="311"/>
+      <c r="AM49" s="346"/>
       <c r="AN49" s="78" t="s">
         <v>616</v>
       </c>
@@ -16336,109 +16423,109 @@
       <c r="AP49" s="67"/>
       <c r="AQ49" s="67"/>
       <c r="AR49" s="67"/>
-      <c r="AS49" s="314"/>
+      <c r="AS49" s="349"/>
       <c r="AT49" s="75" t="s">
         <v>674</v>
       </c>
       <c r="AU49" s="67"/>
-      <c r="AV49" s="311"/>
+      <c r="AV49" s="346"/>
       <c r="AW49" s="72" t="s">
         <v>675</v>
       </c>
       <c r="AX49" s="66"/>
     </row>
     <row r="50" spans="2:50" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="320">
+      <c r="B50" s="197">
         <v>44</v>
       </c>
-      <c r="C50" s="317" t="s">
+      <c r="C50" s="194" t="s">
         <v>701</v>
       </c>
-      <c r="D50" s="317" t="s">
+      <c r="D50" s="194" t="s">
         <v>751</v>
       </c>
-      <c r="E50" s="317" t="s">
+      <c r="E50" s="194" t="s">
         <v>756</v>
       </c>
-      <c r="F50" s="317" t="s">
+      <c r="F50" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G50" s="318" t="s">
+      <c r="G50" s="195" t="s">
         <v>631</v>
       </c>
-      <c r="H50" s="317" t="s">
+      <c r="H50" s="194" t="s">
         <v>632</v>
       </c>
-      <c r="I50" s="317"/>
-      <c r="J50" s="323"/>
-      <c r="K50" s="324"/>
-      <c r="L50" s="323"/>
-      <c r="M50" s="317"/>
-      <c r="N50" s="325">
+      <c r="I50" s="194"/>
+      <c r="J50" s="200"/>
+      <c r="K50" s="201"/>
+      <c r="L50" s="200"/>
+      <c r="M50" s="194"/>
+      <c r="N50" s="202">
         <v>44754</v>
       </c>
-      <c r="O50" s="317"/>
-      <c r="P50" s="323"/>
-      <c r="Q50" s="317"/>
-      <c r="R50" s="317"/>
-      <c r="S50" s="327"/>
-      <c r="T50" s="317"/>
-      <c r="U50" s="317"/>
+      <c r="O50" s="194"/>
+      <c r="P50" s="200"/>
+      <c r="Q50" s="194"/>
+      <c r="R50" s="194"/>
+      <c r="S50" s="204"/>
+      <c r="T50" s="194"/>
+      <c r="U50" s="194"/>
       <c r="AL50" s="69"/>
-      <c r="AM50" s="312"/>
+      <c r="AM50" s="347"/>
       <c r="AN50" s="77"/>
       <c r="AO50" s="77"/>
       <c r="AP50" s="67"/>
       <c r="AQ50" s="76"/>
       <c r="AR50" s="67"/>
-      <c r="AS50" s="314"/>
+      <c r="AS50" s="349"/>
       <c r="AT50" s="75" t="s">
         <v>676</v>
       </c>
       <c r="AU50" s="67"/>
-      <c r="AV50" s="311"/>
+      <c r="AV50" s="346"/>
       <c r="AW50" s="72" t="s">
         <v>677</v>
       </c>
       <c r="AX50" s="66"/>
     </row>
     <row r="51" spans="2:50" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="320">
+      <c r="B51" s="197">
         <v>45</v>
       </c>
-      <c r="C51" s="317" t="s">
+      <c r="C51" s="194" t="s">
         <v>701</v>
       </c>
-      <c r="D51" s="317" t="s">
+      <c r="D51" s="194" t="s">
         <v>751</v>
       </c>
-      <c r="E51" s="317" t="s">
+      <c r="E51" s="194" t="s">
         <v>757</v>
       </c>
-      <c r="F51" s="317" t="s">
+      <c r="F51" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G51" s="318" t="s">
+      <c r="G51" s="195" t="s">
         <v>631</v>
       </c>
-      <c r="H51" s="317" t="s">
+      <c r="H51" s="194" t="s">
         <v>632</v>
       </c>
-      <c r="I51" s="317"/>
-      <c r="J51" s="323"/>
-      <c r="K51" s="324"/>
-      <c r="L51" s="323"/>
-      <c r="M51" s="317"/>
-      <c r="N51" s="325">
-        <v>44754</v>
-      </c>
-      <c r="O51" s="317"/>
-      <c r="P51" s="323"/>
-      <c r="Q51" s="317"/>
-      <c r="R51" s="317"/>
-      <c r="S51" s="327"/>
-      <c r="T51" s="317"/>
-      <c r="U51" s="317"/>
+      <c r="I51" s="194"/>
+      <c r="J51" s="200"/>
+      <c r="K51" s="201"/>
+      <c r="L51" s="200"/>
+      <c r="M51" s="194"/>
+      <c r="N51" s="202">
+        <v>44755</v>
+      </c>
+      <c r="O51" s="194"/>
+      <c r="P51" s="200"/>
+      <c r="Q51" s="194"/>
+      <c r="R51" s="194"/>
+      <c r="S51" s="204"/>
+      <c r="T51" s="194"/>
+      <c r="U51" s="194"/>
       <c r="AL51" s="69"/>
       <c r="AM51" s="67"/>
       <c r="AN51" s="67"/>
@@ -16446,33 +16533,47 @@
       <c r="AP51" s="67"/>
       <c r="AQ51" s="67"/>
       <c r="AR51" s="67"/>
-      <c r="AS51" s="314"/>
+      <c r="AS51" s="349"/>
       <c r="AT51" s="74" t="s">
         <v>678</v>
       </c>
       <c r="AU51" s="67"/>
-      <c r="AV51" s="311"/>
+      <c r="AV51" s="346"/>
       <c r="AW51" s="72" t="s">
         <v>679</v>
       </c>
       <c r="AX51" s="66"/>
     </row>
     <row r="52" spans="2:50" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="320">
+      <c r="B52" s="197">
         <v>46</v>
       </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="54"/>
+      <c r="C52" s="194" t="s">
+        <v>701</v>
+      </c>
+      <c r="D52" s="194" t="s">
+        <v>717</v>
+      </c>
+      <c r="E52" s="194" t="s">
+        <v>758</v>
+      </c>
+      <c r="F52" s="216" t="s">
+        <v>640</v>
+      </c>
+      <c r="G52" s="195" t="s">
+        <v>631</v>
+      </c>
+      <c r="H52" s="194" t="s">
+        <v>632</v>
+      </c>
       <c r="I52" s="54"/>
       <c r="J52" s="56"/>
       <c r="K52" s="57"/>
       <c r="L52" s="56"/>
       <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
+      <c r="N52" s="212">
+        <v>44755</v>
+      </c>
       <c r="O52" s="54"/>
       <c r="P52" s="56"/>
       <c r="Q52" s="54"/>
@@ -16487,33 +16588,47 @@
       <c r="AP52" s="67"/>
       <c r="AQ52" s="67"/>
       <c r="AR52" s="67"/>
-      <c r="AS52" s="314"/>
+      <c r="AS52" s="349"/>
       <c r="AT52" s="74" t="s">
         <v>680</v>
       </c>
       <c r="AU52" s="67"/>
-      <c r="AV52" s="311"/>
+      <c r="AV52" s="346"/>
       <c r="AW52" s="72" t="s">
         <v>681</v>
       </c>
       <c r="AX52" s="66"/>
     </row>
     <row r="53" spans="2:50" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="320">
+      <c r="B53" s="197">
         <v>47</v>
       </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="54"/>
+      <c r="C53" s="194" t="s">
+        <v>759</v>
+      </c>
+      <c r="D53" s="194" t="s">
+        <v>717</v>
+      </c>
+      <c r="E53" s="194" t="s">
+        <v>728</v>
+      </c>
+      <c r="F53" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G53" s="195" t="s">
+        <v>631</v>
+      </c>
+      <c r="H53" s="194" t="s">
+        <v>632</v>
+      </c>
       <c r="I53" s="54"/>
       <c r="J53" s="56"/>
       <c r="K53" s="57"/>
       <c r="L53" s="56"/>
       <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
+      <c r="N53" s="212">
+        <v>44755</v>
+      </c>
       <c r="O53" s="54"/>
       <c r="P53" s="56"/>
       <c r="Q53" s="54"/>
@@ -16528,33 +16643,47 @@
       <c r="AP53" s="67"/>
       <c r="AQ53" s="67"/>
       <c r="AR53" s="67"/>
-      <c r="AS53" s="314"/>
+      <c r="AS53" s="349"/>
       <c r="AT53" s="74" t="s">
         <v>682</v>
       </c>
       <c r="AU53" s="67"/>
-      <c r="AV53" s="311"/>
+      <c r="AV53" s="346"/>
       <c r="AW53" s="72" t="s">
         <v>683</v>
       </c>
       <c r="AX53" s="66"/>
     </row>
     <row r="54" spans="2:50" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="320">
+      <c r="B54" s="197">
         <v>48</v>
       </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="54"/>
+      <c r="C54" s="194" t="s">
+        <v>760</v>
+      </c>
+      <c r="D54" s="194" t="s">
+        <v>717</v>
+      </c>
+      <c r="E54" s="194" t="s">
+        <v>761</v>
+      </c>
+      <c r="F54" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G54" s="195" t="s">
+        <v>631</v>
+      </c>
+      <c r="H54" s="194" t="s">
+        <v>637</v>
+      </c>
       <c r="I54" s="54"/>
       <c r="J54" s="56"/>
       <c r="K54" s="57"/>
       <c r="L54" s="56"/>
       <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
+      <c r="N54" s="212">
+        <v>44755</v>
+      </c>
       <c r="O54" s="54"/>
       <c r="P54" s="56"/>
       <c r="Q54" s="54"/>
@@ -16569,33 +16698,47 @@
       <c r="AP54" s="67"/>
       <c r="AQ54" s="67"/>
       <c r="AR54" s="67"/>
-      <c r="AS54" s="314"/>
+      <c r="AS54" s="349"/>
       <c r="AT54" s="74" t="s">
         <v>684</v>
       </c>
       <c r="AU54" s="67"/>
-      <c r="AV54" s="311"/>
+      <c r="AV54" s="346"/>
       <c r="AW54" s="72" t="s">
         <v>685</v>
       </c>
       <c r="AX54" s="66"/>
     </row>
     <row r="55" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B55" s="320">
+      <c r="B55" s="197">
         <v>49</v>
       </c>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="54"/>
+      <c r="C55" s="194" t="s">
+        <v>763</v>
+      </c>
+      <c r="D55" s="194" t="s">
+        <v>718</v>
+      </c>
+      <c r="E55" s="194" t="s">
+        <v>762</v>
+      </c>
+      <c r="F55" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G55" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H55" s="194" t="s">
+        <v>632</v>
+      </c>
       <c r="I55" s="54"/>
       <c r="J55" s="56"/>
       <c r="K55" s="57"/>
       <c r="L55" s="56"/>
       <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
+      <c r="N55" s="212">
+        <v>44755</v>
+      </c>
       <c r="O55" s="54"/>
       <c r="P55" s="56"/>
       <c r="Q55" s="54"/>
@@ -16610,33 +16753,47 @@
       <c r="AP55" s="67"/>
       <c r="AQ55" s="67"/>
       <c r="AR55" s="67"/>
-      <c r="AS55" s="314"/>
+      <c r="AS55" s="349"/>
       <c r="AT55" s="74" t="s">
         <v>686</v>
       </c>
       <c r="AU55" s="67"/>
-      <c r="AV55" s="311"/>
+      <c r="AV55" s="346"/>
       <c r="AW55" s="72" t="s">
         <v>687</v>
       </c>
       <c r="AX55" s="66"/>
     </row>
     <row r="56" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="320">
+      <c r="B56" s="197">
         <v>50</v>
       </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="54"/>
+      <c r="C56" s="194" t="s">
+        <v>764</v>
+      </c>
+      <c r="D56" s="194" t="s">
+        <v>717</v>
+      </c>
+      <c r="E56" s="194" t="s">
+        <v>765</v>
+      </c>
+      <c r="F56" s="216" t="s">
+        <v>640</v>
+      </c>
+      <c r="G56" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H56" s="194" t="s">
+        <v>632</v>
+      </c>
       <c r="I56" s="54"/>
       <c r="J56" s="56"/>
       <c r="K56" s="57"/>
       <c r="L56" s="56"/>
       <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
+      <c r="N56" s="212">
+        <v>44755</v>
+      </c>
       <c r="O56" s="54"/>
       <c r="P56" s="56"/>
       <c r="Q56" s="54"/>
@@ -16651,19 +16808,19 @@
       <c r="AP56" s="67"/>
       <c r="AQ56" s="67"/>
       <c r="AR56" s="67"/>
-      <c r="AS56" s="315"/>
+      <c r="AS56" s="350"/>
       <c r="AT56" s="73" t="s">
         <v>688</v>
       </c>
       <c r="AU56" s="67"/>
-      <c r="AV56" s="311"/>
+      <c r="AV56" s="346"/>
       <c r="AW56" s="72" t="s">
         <v>689</v>
       </c>
       <c r="AX56" s="66"/>
     </row>
     <row r="57" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B57" s="320">
+      <c r="B57" s="197">
         <v>51</v>
       </c>
       <c r="C57" s="54"/>
@@ -16695,14 +16852,14 @@
       <c r="AS57" s="68"/>
       <c r="AT57" s="67"/>
       <c r="AU57" s="67"/>
-      <c r="AV57" s="311"/>
+      <c r="AV57" s="346"/>
       <c r="AW57" s="72" t="s">
         <v>690</v>
       </c>
       <c r="AX57" s="66"/>
     </row>
     <row r="58" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B58" s="320">
+      <c r="B58" s="197">
         <v>52</v>
       </c>
       <c r="C58" s="54"/>
@@ -16734,14 +16891,14 @@
       <c r="AS58" s="68"/>
       <c r="AT58" s="67"/>
       <c r="AU58" s="67"/>
-      <c r="AV58" s="311"/>
+      <c r="AV58" s="346"/>
       <c r="AW58" s="72" t="s">
         <v>691</v>
       </c>
       <c r="AX58" s="66"/>
     </row>
     <row r="59" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B59" s="320">
+      <c r="B59" s="197">
         <v>53</v>
       </c>
       <c r="C59" s="54"/>
@@ -16773,14 +16930,14 @@
       <c r="AS59" s="68"/>
       <c r="AT59" s="67"/>
       <c r="AU59" s="67"/>
-      <c r="AV59" s="311"/>
+      <c r="AV59" s="346"/>
       <c r="AW59" s="72" t="s">
         <v>692</v>
       </c>
       <c r="AX59" s="66"/>
     </row>
     <row r="60" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B60" s="320">
+      <c r="B60" s="197">
         <v>54</v>
       </c>
       <c r="C60" s="54"/>
@@ -16812,14 +16969,14 @@
       <c r="AS60" s="68"/>
       <c r="AT60" s="67"/>
       <c r="AU60" s="67"/>
-      <c r="AV60" s="311"/>
+      <c r="AV60" s="346"/>
       <c r="AW60" s="72" t="s">
         <v>693</v>
       </c>
       <c r="AX60" s="66"/>
     </row>
     <row r="61" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B61" s="320">
+      <c r="B61" s="197">
         <v>55</v>
       </c>
       <c r="C61" s="54"/>
@@ -16851,14 +17008,14 @@
       <c r="AS61" s="68"/>
       <c r="AT61" s="67"/>
       <c r="AU61" s="67"/>
-      <c r="AV61" s="311"/>
+      <c r="AV61" s="346"/>
       <c r="AW61" s="72" t="s">
         <v>694</v>
       </c>
       <c r="AX61" s="66"/>
     </row>
     <row r="62" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B62" s="320">
+      <c r="B62" s="197">
         <v>56</v>
       </c>
       <c r="C62" s="54"/>
@@ -16890,14 +17047,14 @@
       <c r="AS62" s="68"/>
       <c r="AT62" s="67"/>
       <c r="AU62" s="67"/>
-      <c r="AV62" s="311"/>
+      <c r="AV62" s="346"/>
       <c r="AW62" s="72" t="s">
         <v>695</v>
       </c>
       <c r="AX62" s="66"/>
     </row>
     <row r="63" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B63" s="320">
+      <c r="B63" s="197">
         <v>57</v>
       </c>
       <c r="C63" s="54"/>
@@ -16929,14 +17086,14 @@
       <c r="AS63" s="68"/>
       <c r="AT63" s="67"/>
       <c r="AU63" s="67"/>
-      <c r="AV63" s="311"/>
+      <c r="AV63" s="346"/>
       <c r="AW63" s="72" t="s">
         <v>696</v>
       </c>
       <c r="AX63" s="66"/>
     </row>
     <row r="64" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="320">
+      <c r="B64" s="197">
         <v>58</v>
       </c>
       <c r="C64" s="54"/>
@@ -16968,12 +17125,12 @@
       <c r="AS64" s="67"/>
       <c r="AT64" s="67"/>
       <c r="AU64" s="67"/>
-      <c r="AV64" s="312"/>
+      <c r="AV64" s="347"/>
       <c r="AW64" s="70"/>
       <c r="AX64" s="66"/>
     </row>
     <row r="65" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B65" s="320">
+      <c r="B65" s="197">
         <v>59</v>
       </c>
       <c r="C65" s="54"/>
@@ -17010,7 +17167,7 @@
       <c r="AX65" s="66"/>
     </row>
     <row r="66" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="320">
+      <c r="B66" s="197">
         <v>60</v>
       </c>
       <c r="C66" s="54"/>
@@ -17047,7 +17204,7 @@
       <c r="AX66" s="62"/>
     </row>
     <row r="67" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B67" s="320">
+      <c r="B67" s="197">
         <v>61</v>
       </c>
       <c r="C67" s="54"/>
@@ -17072,7 +17229,7 @@
       <c r="AO67" s="60"/>
     </row>
     <row r="68" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B68" s="320">
+      <c r="B68" s="197">
         <v>62</v>
       </c>
       <c r="C68" s="54"/>
@@ -17097,7 +17254,7 @@
       <c r="AO68" s="60"/>
     </row>
     <row r="69" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B69" s="320">
+      <c r="B69" s="197">
         <v>63</v>
       </c>
       <c r="C69" s="54"/>
@@ -17122,7 +17279,7 @@
       <c r="AO69" s="60"/>
     </row>
     <row r="70" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B70" s="320">
+      <c r="B70" s="197">
         <v>64</v>
       </c>
       <c r="C70" s="54"/>
@@ -17147,7 +17304,7 @@
       <c r="AO70" s="60"/>
     </row>
     <row r="71" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B71" s="320">
+      <c r="B71" s="197">
         <v>65</v>
       </c>
       <c r="C71" s="54"/>
@@ -17172,7 +17329,7 @@
       <c r="AO71" s="60"/>
     </row>
     <row r="72" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B72" s="320">
+      <c r="B72" s="197">
         <v>66</v>
       </c>
       <c r="C72" s="54"/>
@@ -17197,7 +17354,7 @@
       <c r="AO72" s="60"/>
     </row>
     <row r="73" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B73" s="320">
+      <c r="B73" s="197">
         <v>67</v>
       </c>
       <c r="C73" s="54"/>
@@ -17222,7 +17379,7 @@
       <c r="AO73" s="60"/>
     </row>
     <row r="74" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B74" s="320">
+      <c r="B74" s="197">
         <v>68</v>
       </c>
       <c r="C74" s="54"/>
@@ -17247,7 +17404,7 @@
       <c r="AO74" s="60"/>
     </row>
     <row r="75" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B75" s="320">
+      <c r="B75" s="197">
         <v>69</v>
       </c>
       <c r="C75" s="54"/>
@@ -17272,7 +17429,7 @@
       <c r="AO75" s="60"/>
     </row>
     <row r="76" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B76" s="320">
+      <c r="B76" s="197">
         <v>70</v>
       </c>
       <c r="C76" s="54"/>

--- a/Testing/Revised Plan.xlsx
+++ b/Testing/Revised Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Revised Plan and Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="8_{783EC7BA-7F55-4B35-8C25-054FADF87783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5293E53-174A-43C7-BA37-18D2C78E5D17}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="8_{783EC7BA-7F55-4B35-8C25-054FADF87783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF0A1A3E-969B-4CCB-8456-830795E63E07}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{FF53E854-575C-4B97-B6D0-9B270F57EAA4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="786">
   <si>
     <t>WEEK 0</t>
   </si>
@@ -2669,9 +2669,6 @@
     <t>TAC - Cancelled Drive History page</t>
   </si>
   <si>
-    <t>Login Page is not responsive</t>
-  </si>
-  <si>
     <t>No spaces are accepted while adding a new department</t>
   </si>
   <si>
@@ -2796,6 +2793,63 @@
   </si>
   <si>
     <t>Date Format of From &amp; To Date should be changed</t>
+  </si>
+  <si>
+    <t>Create account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project is not filtered according to the department </t>
+  </si>
+  <si>
+    <t>Filterdropdown</t>
+  </si>
+  <si>
+    <t>"Wait for Administrator's verification" message is not displayed</t>
+  </si>
+  <si>
+    <t>Error message</t>
+  </si>
+  <si>
+    <t>Create Invite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeated characters is accepted in Employee Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeated Characters is accepted </t>
+  </si>
+  <si>
+    <t>ACE number is limited to 4 characters. Should be increased</t>
+  </si>
+  <si>
+    <t>Role is not filtered based on department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message in Email is not proper &amp; specific. </t>
+  </si>
+  <si>
+    <t>FIlterdropdown</t>
+  </si>
+  <si>
+    <t>Email field</t>
+  </si>
+  <si>
+    <t>Project is displayed even when the user is TAC or Administrator</t>
+  </si>
+  <si>
+    <t>Snack bar message is not correct(spelling mistakes &amp; punctuation)</t>
+  </si>
+  <si>
+    <t>Snack bar</t>
+  </si>
+  <si>
+    <t>Login button's hover colour is light</t>
+  </si>
+  <si>
+    <t>Validation message should be changed. (Wait untill you receive a mail)</t>
+  </si>
+  <si>
+    <t>Login Page is not responsive (Bg image and Title text alignment)</t>
   </si>
 </sst>
 </file>
@@ -4625,14 +4679,176 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4657,168 +4873,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4876,6 +4930,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4923,39 +5010,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5994,7 +6048,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="226" t="s">
+      <c r="D2" s="225" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -6009,7 +6063,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="225"/>
+      <c r="D3" s="226"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6022,7 +6076,7 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="226" t="s">
+      <c r="D4" s="225" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -6037,7 +6091,7 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="226"/>
+      <c r="D5" s="225"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
@@ -6052,7 +6106,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="226" t="s">
+      <c r="D6" s="225" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -6067,7 +6121,7 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="226"/>
+      <c r="D7" s="225"/>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
@@ -6080,7 +6134,7 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="226" t="s">
+      <c r="D8" s="225" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -6095,7 +6149,7 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="226"/>
+      <c r="D9" s="225"/>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6140,7 +6194,7 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="225" t="s">
+      <c r="D12" s="226" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -6155,7 +6209,7 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="225"/>
+      <c r="D13" s="226"/>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
@@ -6168,7 +6222,7 @@
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="225"/>
+      <c r="D14" s="226"/>
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
@@ -6181,7 +6235,7 @@
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="225"/>
+      <c r="D15" s="226"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
@@ -6194,7 +6248,7 @@
       <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="225"/>
+      <c r="D16" s="226"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
@@ -6224,7 +6278,7 @@
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="225" t="s">
+      <c r="D18" s="226" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -6239,7 +6293,7 @@
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="225"/>
+      <c r="D19" s="226"/>
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
@@ -6252,7 +6306,7 @@
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="225"/>
+      <c r="D20" s="226"/>
       <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
@@ -6267,7 +6321,7 @@
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="225" t="s">
+      <c r="D21" s="226" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -6282,7 +6336,7 @@
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="225"/>
+      <c r="D22" s="226"/>
       <c r="E22" s="4" t="s">
         <v>3</v>
       </c>
@@ -6295,7 +6349,7 @@
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="225" t="s">
+      <c r="D23" s="226" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -6310,7 +6364,7 @@
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="225"/>
+      <c r="D24" s="226"/>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
@@ -6325,7 +6379,7 @@
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="226" t="s">
+      <c r="D25" s="225" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -6340,7 +6394,7 @@
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="226"/>
+      <c r="D26" s="225"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
@@ -6353,7 +6407,7 @@
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="226"/>
+      <c r="D27" s="225"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -6364,7 +6418,7 @@
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="225" t="s">
+      <c r="D28" s="226" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="4"/>
@@ -6377,7 +6431,7 @@
       <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="225"/>
+      <c r="D29" s="226"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -6388,7 +6442,7 @@
       <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="225"/>
+      <c r="D30" s="226"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -6401,7 +6455,7 @@
       <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="225" t="s">
+      <c r="D31" s="226" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="4"/>
@@ -6414,7 +6468,7 @@
       <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="225"/>
+      <c r="D32" s="226"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -6440,7 +6494,7 @@
       <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="225" t="s">
+      <c r="D34" s="226" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="4"/>
@@ -6453,7 +6507,7 @@
       <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="225"/>
+      <c r="D35" s="226"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -6464,7 +6518,7 @@
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="225"/>
+      <c r="D36" s="226"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -6475,7 +6529,7 @@
       <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="225"/>
+      <c r="D37" s="226"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -6486,7 +6540,7 @@
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="226" t="s">
+      <c r="D38" s="225" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="4"/>
@@ -6499,7 +6553,7 @@
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="226"/>
+      <c r="D39" s="225"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -6512,7 +6566,7 @@
       <c r="C40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="225" t="s">
+      <c r="D40" s="226" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="4"/>
@@ -6525,7 +6579,7 @@
       <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="225"/>
+      <c r="D41" s="226"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -6536,7 +6590,7 @@
       <c r="C42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="225"/>
+      <c r="D42" s="226"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -6547,7 +6601,7 @@
       <c r="C43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="225" t="s">
+      <c r="D43" s="226" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="4"/>
@@ -6560,7 +6614,7 @@
       <c r="C44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="225"/>
+      <c r="D44" s="226"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -6571,24 +6625,11 @@
       <c r="C45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="225"/>
+      <c r="D45" s="226"/>
       <c r="E45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="D43:D45"/>
@@ -6600,6 +6641,19 @@
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7605,16 +7659,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D57:E57"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D57:E57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7916,20 +7970,20 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="237" t="s">
+      <c r="B4" s="271" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238"/>
-      <c r="G4" s="238"/>
-      <c r="H4" s="238"/>
-      <c r="I4" s="238"/>
-      <c r="J4" s="238"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="238"/>
-      <c r="M4" s="239"/>
+      <c r="C4" s="272"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="272"/>
+      <c r="M4" s="273"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
@@ -7949,239 +8003,239 @@
       <c r="B6" s="250" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="251"/>
-      <c r="D6" s="256" t="s">
+      <c r="C6" s="252"/>
+      <c r="D6" s="278" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="267" t="s">
+      <c r="E6" s="268" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="268"/>
-      <c r="G6" s="268"/>
-      <c r="H6" s="268"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="268"/>
-      <c r="K6" s="268"/>
-      <c r="L6" s="268"/>
-      <c r="M6" s="269"/>
+      <c r="F6" s="269"/>
+      <c r="G6" s="269"/>
+      <c r="H6" s="269"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="269"/>
+      <c r="M6" s="270"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="252"/>
-      <c r="C7" s="253"/>
-      <c r="D7" s="257"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="245"/>
-      <c r="M7" s="246"/>
+      <c r="B7" s="253"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="279"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="242"/>
+      <c r="M7" s="243"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="252"/>
-      <c r="C8" s="253"/>
-      <c r="D8" s="258" t="s">
+      <c r="B8" s="253"/>
+      <c r="C8" s="255"/>
+      <c r="D8" s="238" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="263" t="s">
+      <c r="E8" s="244" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="245"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="245"/>
-      <c r="I8" s="245"/>
-      <c r="J8" s="245"/>
-      <c r="K8" s="245"/>
-      <c r="L8" s="245"/>
-      <c r="M8" s="246"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="242"/>
+      <c r="M8" s="243"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="254"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="258"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="245"/>
-      <c r="L9" s="245"/>
-      <c r="M9" s="246"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="258"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="242"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="242"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="242"/>
+      <c r="L9" s="242"/>
+      <c r="M9" s="243"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="250" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="264"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="247" t="s">
+      <c r="C10" s="251"/>
+      <c r="D10" s="252"/>
+      <c r="E10" s="275" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="248"/>
-      <c r="G10" s="248"/>
-      <c r="H10" s="248"/>
-      <c r="I10" s="248"/>
-      <c r="J10" s="248"/>
-      <c r="K10" s="248"/>
-      <c r="L10" s="248"/>
-      <c r="M10" s="249"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="276"/>
+      <c r="J10" s="276"/>
+      <c r="K10" s="276"/>
+      <c r="L10" s="276"/>
+      <c r="M10" s="277"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="252"/>
-      <c r="C11" s="265"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="244"/>
-      <c r="F11" s="245"/>
-      <c r="G11" s="245"/>
-      <c r="H11" s="245"/>
-      <c r="I11" s="245"/>
-      <c r="J11" s="245"/>
-      <c r="K11" s="245"/>
-      <c r="L11" s="245"/>
-      <c r="M11" s="246"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="241"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="242"/>
+      <c r="H11" s="242"/>
+      <c r="I11" s="242"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="242"/>
+      <c r="L11" s="242"/>
+      <c r="M11" s="243"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="252"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="253"/>
-      <c r="E12" s="244"/>
-      <c r="F12" s="245"/>
-      <c r="G12" s="245"/>
-      <c r="H12" s="245"/>
-      <c r="I12" s="245"/>
-      <c r="J12" s="245"/>
-      <c r="K12" s="245"/>
-      <c r="L12" s="245"/>
-      <c r="M12" s="246"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="254"/>
+      <c r="D12" s="255"/>
+      <c r="E12" s="241"/>
+      <c r="F12" s="242"/>
+      <c r="G12" s="242"/>
+      <c r="H12" s="242"/>
+      <c r="I12" s="242"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="242"/>
+      <c r="L12" s="242"/>
+      <c r="M12" s="243"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="254"/>
-      <c r="C13" s="266"/>
-      <c r="D13" s="255"/>
-      <c r="E13" s="244"/>
-      <c r="F13" s="245"/>
-      <c r="G13" s="245"/>
-      <c r="H13" s="245"/>
-      <c r="I13" s="245"/>
-      <c r="J13" s="245"/>
-      <c r="K13" s="245"/>
-      <c r="L13" s="245"/>
-      <c r="M13" s="246"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="257"/>
+      <c r="D13" s="258"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="242"/>
+      <c r="G13" s="242"/>
+      <c r="H13" s="242"/>
+      <c r="I13" s="242"/>
+      <c r="J13" s="242"/>
+      <c r="K13" s="242"/>
+      <c r="L13" s="242"/>
+      <c r="M13" s="243"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="250" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="264"/>
-      <c r="D14" s="251"/>
-      <c r="E14" s="263" t="s">
+      <c r="C14" s="251"/>
+      <c r="D14" s="252"/>
+      <c r="E14" s="244" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="245"/>
-      <c r="G14" s="245"/>
-      <c r="H14" s="245"/>
-      <c r="I14" s="245"/>
-      <c r="J14" s="245"/>
-      <c r="K14" s="245"/>
-      <c r="L14" s="245"/>
-      <c r="M14" s="246"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="242"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="242"/>
+      <c r="J14" s="242"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
+      <c r="M14" s="243"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="252"/>
-      <c r="C15" s="265"/>
-      <c r="D15" s="253"/>
-      <c r="E15" s="244"/>
-      <c r="F15" s="245"/>
-      <c r="G15" s="245"/>
-      <c r="H15" s="245"/>
-      <c r="I15" s="245"/>
-      <c r="J15" s="245"/>
-      <c r="K15" s="245"/>
-      <c r="L15" s="245"/>
-      <c r="M15" s="246"/>
+      <c r="B15" s="253"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="255"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="242"/>
+      <c r="K15" s="242"/>
+      <c r="L15" s="242"/>
+      <c r="M15" s="243"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="252"/>
-      <c r="C16" s="265"/>
-      <c r="D16" s="253"/>
-      <c r="E16" s="244"/>
-      <c r="F16" s="245"/>
-      <c r="G16" s="245"/>
-      <c r="H16" s="245"/>
-      <c r="I16" s="245"/>
-      <c r="J16" s="245"/>
-      <c r="K16" s="245"/>
-      <c r="L16" s="245"/>
-      <c r="M16" s="246"/>
+      <c r="B16" s="253"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="255"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="242"/>
+      <c r="I16" s="242"/>
+      <c r="J16" s="242"/>
+      <c r="K16" s="242"/>
+      <c r="L16" s="242"/>
+      <c r="M16" s="243"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="254"/>
-      <c r="C17" s="266"/>
-      <c r="D17" s="255"/>
-      <c r="E17" s="244"/>
-      <c r="F17" s="245"/>
-      <c r="G17" s="245"/>
-      <c r="H17" s="245"/>
-      <c r="I17" s="245"/>
-      <c r="J17" s="245"/>
-      <c r="K17" s="245"/>
-      <c r="L17" s="245"/>
-      <c r="M17" s="246"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="258"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="242"/>
+      <c r="K17" s="242"/>
+      <c r="L17" s="242"/>
+      <c r="M17" s="243"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="282" t="s">
+      <c r="B18" s="235" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="283"/>
+      <c r="C18" s="236"/>
       <c r="D18" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="263" t="s">
+      <c r="E18" s="244" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="245"/>
-      <c r="G18" s="245"/>
-      <c r="H18" s="245"/>
-      <c r="I18" s="245"/>
-      <c r="J18" s="245"/>
-      <c r="K18" s="245"/>
-      <c r="L18" s="245"/>
-      <c r="M18" s="246"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="242"/>
+      <c r="K18" s="242"/>
+      <c r="L18" s="242"/>
+      <c r="M18" s="243"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="284"/>
-      <c r="C19" s="258"/>
+      <c r="B19" s="237"/>
+      <c r="C19" s="238"/>
       <c r="D19" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="263"/>
-      <c r="F19" s="245"/>
-      <c r="G19" s="245"/>
-      <c r="H19" s="245"/>
-      <c r="I19" s="245"/>
-      <c r="J19" s="245"/>
-      <c r="K19" s="245"/>
-      <c r="L19" s="245"/>
-      <c r="M19" s="246"/>
+      <c r="E19" s="244"/>
+      <c r="F19" s="242"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="242"/>
+      <c r="K19" s="242"/>
+      <c r="L19" s="242"/>
+      <c r="M19" s="243"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="285"/>
-      <c r="C20" s="286"/>
+      <c r="B20" s="239"/>
+      <c r="C20" s="240"/>
       <c r="D20" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="244"/>
-      <c r="F20" s="245"/>
-      <c r="G20" s="245"/>
-      <c r="H20" s="245"/>
-      <c r="I20" s="245"/>
-      <c r="J20" s="245"/>
-      <c r="K20" s="245"/>
-      <c r="L20" s="245"/>
-      <c r="M20" s="246"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="242"/>
+      <c r="G20" s="242"/>
+      <c r="H20" s="242"/>
+      <c r="I20" s="242"/>
+      <c r="J20" s="242"/>
+      <c r="K20" s="242"/>
+      <c r="L20" s="242"/>
+      <c r="M20" s="243"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
@@ -8212,126 +8266,126 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="276" t="s">
+      <c r="B23" s="229" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="277"/>
-      <c r="D23" s="277"/>
-      <c r="E23" s="277"/>
-      <c r="F23" s="277"/>
-      <c r="G23" s="277"/>
-      <c r="H23" s="277"/>
-      <c r="I23" s="277"/>
-      <c r="J23" s="277"/>
-      <c r="K23" s="277"/>
-      <c r="L23" s="277"/>
-      <c r="M23" s="278"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="230"/>
+      <c r="E23" s="230"/>
+      <c r="F23" s="230"/>
+      <c r="G23" s="230"/>
+      <c r="H23" s="230"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="230"/>
+      <c r="K23" s="230"/>
+      <c r="L23" s="230"/>
+      <c r="M23" s="231"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="279" t="s">
+      <c r="C24" s="232" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="281"/>
-      <c r="E24" s="279" t="s">
+      <c r="D24" s="234"/>
+      <c r="E24" s="232" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="280"/>
-      <c r="G24" s="280"/>
-      <c r="H24" s="280"/>
-      <c r="I24" s="280"/>
-      <c r="J24" s="280"/>
-      <c r="K24" s="281"/>
-      <c r="L24" s="259" t="s">
+      <c r="F24" s="233"/>
+      <c r="G24" s="233"/>
+      <c r="H24" s="233"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="233"/>
+      <c r="K24" s="234"/>
+      <c r="L24" s="280" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="260"/>
+      <c r="M24" s="281"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="240"/>
-      <c r="D25" s="288"/>
-      <c r="E25" s="240"/>
-      <c r="F25" s="287"/>
-      <c r="G25" s="287"/>
-      <c r="H25" s="287"/>
-      <c r="I25" s="287"/>
-      <c r="J25" s="287"/>
-      <c r="K25" s="288"/>
-      <c r="L25" s="240"/>
-      <c r="M25" s="241"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="247"/>
+      <c r="E25" s="245"/>
+      <c r="F25" s="246"/>
+      <c r="G25" s="246"/>
+      <c r="H25" s="246"/>
+      <c r="I25" s="246"/>
+      <c r="J25" s="246"/>
+      <c r="K25" s="247"/>
+      <c r="L25" s="245"/>
+      <c r="M25" s="274"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="262"/>
-      <c r="E26" s="242"/>
-      <c r="F26" s="261"/>
-      <c r="G26" s="261"/>
-      <c r="H26" s="261"/>
-      <c r="I26" s="261"/>
-      <c r="J26" s="261"/>
-      <c r="K26" s="262"/>
-      <c r="L26" s="242"/>
-      <c r="M26" s="243"/>
+      <c r="C26" s="248"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="248"/>
+      <c r="F26" s="265"/>
+      <c r="G26" s="265"/>
+      <c r="H26" s="265"/>
+      <c r="I26" s="265"/>
+      <c r="J26" s="265"/>
+      <c r="K26" s="249"/>
+      <c r="L26" s="248"/>
+      <c r="M26" s="267"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="262"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="261"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="261"/>
-      <c r="I27" s="261"/>
-      <c r="J27" s="261"/>
-      <c r="K27" s="262"/>
-      <c r="L27" s="242"/>
-      <c r="M27" s="243"/>
+      <c r="C27" s="248"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="248"/>
+      <c r="F27" s="265"/>
+      <c r="G27" s="265"/>
+      <c r="H27" s="265"/>
+      <c r="I27" s="265"/>
+      <c r="J27" s="265"/>
+      <c r="K27" s="249"/>
+      <c r="L27" s="248"/>
+      <c r="M27" s="267"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
-      <c r="C28" s="242"/>
-      <c r="D28" s="262"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="261"/>
-      <c r="G28" s="261"/>
-      <c r="H28" s="261"/>
-      <c r="I28" s="261"/>
-      <c r="J28" s="261"/>
-      <c r="K28" s="262"/>
-      <c r="L28" s="242"/>
-      <c r="M28" s="243"/>
+      <c r="C28" s="248"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="248"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="265"/>
+      <c r="H28" s="265"/>
+      <c r="I28" s="265"/>
+      <c r="J28" s="265"/>
+      <c r="K28" s="249"/>
+      <c r="L28" s="248"/>
+      <c r="M28" s="267"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="262"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="261"/>
-      <c r="G29" s="261"/>
-      <c r="H29" s="261"/>
-      <c r="I29" s="261"/>
-      <c r="J29" s="261"/>
-      <c r="K29" s="262"/>
-      <c r="L29" s="242"/>
-      <c r="M29" s="243"/>
+      <c r="C29" s="248"/>
+      <c r="D29" s="249"/>
+      <c r="E29" s="248"/>
+      <c r="F29" s="265"/>
+      <c r="G29" s="265"/>
+      <c r="H29" s="265"/>
+      <c r="I29" s="265"/>
+      <c r="J29" s="265"/>
+      <c r="K29" s="249"/>
+      <c r="L29" s="248"/>
+      <c r="M29" s="267"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
-      <c r="C30" s="271"/>
-      <c r="D30" s="273"/>
-      <c r="E30" s="271"/>
-      <c r="F30" s="274"/>
-      <c r="G30" s="274"/>
-      <c r="H30" s="274"/>
-      <c r="I30" s="274"/>
-      <c r="J30" s="274"/>
-      <c r="K30" s="273"/>
-      <c r="L30" s="271"/>
-      <c r="M30" s="272"/>
+      <c r="C30" s="262"/>
+      <c r="D30" s="264"/>
+      <c r="E30" s="262"/>
+      <c r="F30" s="266"/>
+      <c r="G30" s="266"/>
+      <c r="H30" s="266"/>
+      <c r="I30" s="266"/>
+      <c r="J30" s="266"/>
+      <c r="K30" s="264"/>
+      <c r="L30" s="262"/>
+      <c r="M30" s="263"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
@@ -8348,20 +8402,20 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="276" t="s">
+      <c r="B32" s="229" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="277"/>
-      <c r="D32" s="277"/>
-      <c r="E32" s="277"/>
-      <c r="F32" s="277"/>
-      <c r="G32" s="277"/>
-      <c r="H32" s="277"/>
-      <c r="I32" s="277"/>
-      <c r="J32" s="277"/>
-      <c r="K32" s="277"/>
-      <c r="L32" s="277"/>
-      <c r="M32" s="278"/>
+      <c r="C32" s="230"/>
+      <c r="D32" s="230"/>
+      <c r="E32" s="230"/>
+      <c r="F32" s="230"/>
+      <c r="G32" s="230"/>
+      <c r="H32" s="230"/>
+      <c r="I32" s="230"/>
+      <c r="J32" s="230"/>
+      <c r="K32" s="230"/>
+      <c r="L32" s="230"/>
+      <c r="M32" s="231"/>
     </row>
     <row r="33" spans="2:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
@@ -8370,10 +8424,10 @@
       <c r="C33" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="279" t="s">
+      <c r="D33" s="232" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="281"/>
+      <c r="E33" s="234"/>
       <c r="F33" s="27" t="s">
         <v>162</v>
       </c>
@@ -8404,8 +8458,8 @@
         <v>1</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="289"/>
-      <c r="E34" s="289"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="259"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -8420,8 +8474,8 @@
         <v>2</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="236"/>
-      <c r="E35" s="236"/>
+      <c r="D35" s="260"/>
+      <c r="E35" s="260"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -8436,8 +8490,8 @@
         <v>3</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="236"/>
-      <c r="E36" s="236"/>
+      <c r="D36" s="260"/>
+      <c r="E36" s="260"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -8452,8 +8506,8 @@
         <v>4</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="270"/>
-      <c r="E37" s="270"/>
+      <c r="D37" s="261"/>
+      <c r="E37" s="261"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -8466,8 +8520,8 @@
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="275"/>
-      <c r="E38" s="275"/>
+      <c r="D38" s="228"/>
+      <c r="E38" s="228"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34" t="s">
         <v>169</v>
@@ -8488,16 +8542,16 @@
       <c r="M38" s="36"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="232" t="s">
+      <c r="B41" s="286" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="232"/>
-      <c r="D41" s="232"/>
-      <c r="E41" s="232"/>
-      <c r="F41" s="232"/>
-      <c r="G41" s="232"/>
-      <c r="H41" s="232"/>
-      <c r="I41" s="232"/>
+      <c r="C41" s="286"/>
+      <c r="D41" s="286"/>
+      <c r="E41" s="286"/>
+      <c r="F41" s="286"/>
+      <c r="G41" s="286"/>
+      <c r="H41" s="286"/>
+      <c r="I41" s="286"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
@@ -8510,16 +8564,16 @@
       <c r="C42" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="231" t="s">
+      <c r="D42" s="285" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="231"/>
-      <c r="F42" s="231" t="s">
+      <c r="E42" s="285"/>
+      <c r="F42" s="285" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="231"/>
-      <c r="H42" s="231"/>
-      <c r="I42" s="231"/>
+      <c r="G42" s="285"/>
+      <c r="H42" s="285"/>
+      <c r="I42" s="285"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -8530,8 +8584,8 @@
         <v>1</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="236"/>
-      <c r="E43" s="236"/>
+      <c r="D43" s="260"/>
+      <c r="E43" s="260"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -8546,8 +8600,8 @@
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="236"/>
-      <c r="E44" s="236"/>
+      <c r="D44" s="260"/>
+      <c r="E44" s="260"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -8562,8 +8616,8 @@
         <v>3</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="236"/>
-      <c r="E45" s="236"/>
+      <c r="D45" s="260"/>
+      <c r="E45" s="260"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -8574,16 +8628,16 @@
       <c r="M45" s="12"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="232" t="s">
+      <c r="B47" s="286" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="232"/>
-      <c r="D47" s="232"/>
-      <c r="E47" s="232"/>
-      <c r="F47" s="232"/>
-      <c r="G47" s="232"/>
-      <c r="H47" s="232"/>
-      <c r="I47" s="232"/>
+      <c r="C47" s="286"/>
+      <c r="D47" s="286"/>
+      <c r="E47" s="286"/>
+      <c r="F47" s="286"/>
+      <c r="G47" s="286"/>
+      <c r="H47" s="286"/>
+      <c r="I47" s="286"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
@@ -8596,14 +8650,14 @@
       <c r="C48" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D48" s="233" t="s">
+      <c r="D48" s="287" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="234"/>
-      <c r="F48" s="234"/>
-      <c r="G48" s="234"/>
-      <c r="H48" s="234"/>
-      <c r="I48" s="235"/>
+      <c r="E48" s="288"/>
+      <c r="F48" s="288"/>
+      <c r="G48" s="288"/>
+      <c r="H48" s="288"/>
+      <c r="I48" s="289"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
@@ -8616,12 +8670,12 @@
       <c r="C49" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="228"/>
-      <c r="E49" s="229"/>
-      <c r="F49" s="229"/>
-      <c r="G49" s="229"/>
-      <c r="H49" s="229"/>
-      <c r="I49" s="230"/>
+      <c r="D49" s="282"/>
+      <c r="E49" s="283"/>
+      <c r="F49" s="283"/>
+      <c r="G49" s="283"/>
+      <c r="H49" s="283"/>
+      <c r="I49" s="284"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="17">
@@ -8630,12 +8684,12 @@
       <c r="C50" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="228"/>
-      <c r="E50" s="229"/>
-      <c r="F50" s="229"/>
-      <c r="G50" s="229"/>
-      <c r="H50" s="229"/>
-      <c r="I50" s="230"/>
+      <c r="D50" s="282"/>
+      <c r="E50" s="283"/>
+      <c r="F50" s="283"/>
+      <c r="G50" s="283"/>
+      <c r="H50" s="283"/>
+      <c r="I50" s="284"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="17">
@@ -8644,77 +8698,128 @@
       <c r="C51" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="228"/>
-      <c r="E51" s="229"/>
-      <c r="F51" s="229"/>
-      <c r="G51" s="229"/>
-      <c r="H51" s="229"/>
-      <c r="I51" s="230"/>
+      <c r="D51" s="282"/>
+      <c r="E51" s="283"/>
+      <c r="F51" s="283"/>
+      <c r="G51" s="283"/>
+      <c r="H51" s="283"/>
+      <c r="I51" s="284"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="232" t="s">
+      <c r="B54" s="286" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="232"/>
-      <c r="D54" s="232"/>
-      <c r="E54" s="232"/>
-      <c r="F54" s="232"/>
-      <c r="G54" s="232"/>
-      <c r="H54" s="232"/>
-      <c r="I54" s="232"/>
+      <c r="C54" s="286"/>
+      <c r="D54" s="286"/>
+      <c r="E54" s="286"/>
+      <c r="F54" s="286"/>
+      <c r="G54" s="286"/>
+      <c r="H54" s="286"/>
+      <c r="I54" s="286"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="233" t="s">
+      <c r="C55" s="287" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="234"/>
-      <c r="E55" s="234"/>
-      <c r="F55" s="234"/>
-      <c r="G55" s="234"/>
-      <c r="H55" s="234"/>
-      <c r="I55" s="235"/>
+      <c r="D55" s="288"/>
+      <c r="E55" s="288"/>
+      <c r="F55" s="288"/>
+      <c r="G55" s="288"/>
+      <c r="H55" s="288"/>
+      <c r="I55" s="289"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="17">
         <v>1</v>
       </c>
-      <c r="C56" s="228"/>
-      <c r="D56" s="229"/>
-      <c r="E56" s="229"/>
-      <c r="F56" s="229"/>
-      <c r="G56" s="229"/>
-      <c r="H56" s="229"/>
-      <c r="I56" s="230"/>
+      <c r="C56" s="282"/>
+      <c r="D56" s="283"/>
+      <c r="E56" s="283"/>
+      <c r="F56" s="283"/>
+      <c r="G56" s="283"/>
+      <c r="H56" s="283"/>
+      <c r="I56" s="284"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="17">
         <v>2</v>
       </c>
-      <c r="C57" s="228"/>
-      <c r="D57" s="229"/>
-      <c r="E57" s="229"/>
-      <c r="F57" s="229"/>
-      <c r="G57" s="229"/>
-      <c r="H57" s="229"/>
-      <c r="I57" s="230"/>
+      <c r="C57" s="282"/>
+      <c r="D57" s="283"/>
+      <c r="E57" s="283"/>
+      <c r="F57" s="283"/>
+      <c r="G57" s="283"/>
+      <c r="H57" s="283"/>
+      <c r="I57" s="284"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="17">
         <v>3</v>
       </c>
-      <c r="C58" s="228"/>
-      <c r="D58" s="229"/>
-      <c r="E58" s="229"/>
-      <c r="F58" s="229"/>
-      <c r="G58" s="229"/>
-      <c r="H58" s="229"/>
-      <c r="I58" s="230"/>
+      <c r="C58" s="282"/>
+      <c r="D58" s="283"/>
+      <c r="E58" s="283"/>
+      <c r="F58" s="283"/>
+      <c r="G58" s="283"/>
+      <c r="H58" s="283"/>
+      <c r="I58" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="B10:D13"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="L29:M29"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B23:M23"/>
     <mergeCell ref="E24:K24"/>
@@ -8731,57 +8836,6 @@
     <mergeCell ref="B14:D17"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="B10:D13"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="C57:I57"/>
-    <mergeCell ref="C58:I58"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="C55:I55"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="C56:I56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10573,34 +10627,34 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="323" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="315"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="325"/>
+      <c r="L2" s="326"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="316" t="s">
+      <c r="B3" s="327" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
-      <c r="G3" s="317"/>
-      <c r="H3" s="317"/>
-      <c r="I3" s="317"/>
-      <c r="J3" s="317"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="319"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="330"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="303" t="s">
@@ -10614,7 +10668,7 @@
       <c r="H4" s="304"/>
       <c r="I4" s="304"/>
       <c r="J4" s="304"/>
-      <c r="K4" s="320"/>
+      <c r="K4" s="331"/>
       <c r="L4" s="305"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -10629,53 +10683,53 @@
       <c r="H5" s="293"/>
       <c r="I5" s="293"/>
       <c r="J5" s="293"/>
-      <c r="K5" s="321"/>
+      <c r="K5" s="332"/>
       <c r="L5" s="294"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="322" t="s">
+      <c r="B6" s="333" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="323"/>
-      <c r="D6" s="323"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="323"/>
-      <c r="G6" s="323"/>
-      <c r="H6" s="323"/>
-      <c r="I6" s="323"/>
-      <c r="J6" s="323"/>
-      <c r="K6" s="323"/>
-      <c r="L6" s="324"/>
+      <c r="C6" s="334"/>
+      <c r="D6" s="334"/>
+      <c r="E6" s="334"/>
+      <c r="F6" s="334"/>
+      <c r="G6" s="334"/>
+      <c r="H6" s="334"/>
+      <c r="I6" s="334"/>
+      <c r="J6" s="334"/>
+      <c r="K6" s="334"/>
+      <c r="L6" s="335"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="309" t="s">
+      <c r="B7" s="320" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="310"/>
-      <c r="D7" s="310"/>
-      <c r="E7" s="310"/>
-      <c r="F7" s="310"/>
-      <c r="G7" s="310"/>
-      <c r="H7" s="310"/>
-      <c r="I7" s="310"/>
-      <c r="J7" s="310"/>
-      <c r="K7" s="310"/>
-      <c r="L7" s="311"/>
+      <c r="C7" s="321"/>
+      <c r="D7" s="321"/>
+      <c r="E7" s="321"/>
+      <c r="F7" s="321"/>
+      <c r="G7" s="321"/>
+      <c r="H7" s="321"/>
+      <c r="I7" s="321"/>
+      <c r="J7" s="321"/>
+      <c r="K7" s="321"/>
+      <c r="L7" s="322"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="329" t="s">
+      <c r="B8" s="313" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="330"/>
-      <c r="D8" s="330"/>
-      <c r="E8" s="330"/>
-      <c r="F8" s="330"/>
-      <c r="G8" s="330"/>
-      <c r="H8" s="330"/>
-      <c r="I8" s="330"/>
-      <c r="J8" s="330"/>
-      <c r="K8" s="330"/>
-      <c r="L8" s="331"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="314"/>
+      <c r="E8" s="314"/>
+      <c r="F8" s="314"/>
+      <c r="G8" s="314"/>
+      <c r="H8" s="314"/>
+      <c r="I8" s="314"/>
+      <c r="J8" s="314"/>
+      <c r="K8" s="314"/>
+      <c r="L8" s="315"/>
     </row>
     <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
@@ -12011,19 +12065,19 @@
       <c r="L65" s="51"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="332" t="s">
+      <c r="B66" s="316" t="s">
         <v>382</v>
       </c>
-      <c r="C66" s="333"/>
-      <c r="D66" s="333"/>
-      <c r="E66" s="333"/>
-      <c r="F66" s="333"/>
-      <c r="G66" s="333"/>
-      <c r="H66" s="333"/>
-      <c r="I66" s="333"/>
-      <c r="J66" s="333"/>
-      <c r="K66" s="334"/>
-      <c r="L66" s="335"/>
+      <c r="C66" s="317"/>
+      <c r="D66" s="317"/>
+      <c r="E66" s="317"/>
+      <c r="F66" s="317"/>
+      <c r="G66" s="317"/>
+      <c r="H66" s="317"/>
+      <c r="I66" s="317"/>
+      <c r="J66" s="317"/>
+      <c r="K66" s="318"/>
+      <c r="L66" s="319"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="298" t="s">
@@ -12032,15 +12086,15 @@
       <c r="C67" s="299"/>
       <c r="D67" s="299"/>
       <c r="E67" s="52"/>
-      <c r="F67" s="325" t="s">
+      <c r="F67" s="309" t="s">
         <v>191</v>
       </c>
-      <c r="G67" s="325"/>
-      <c r="H67" s="325"/>
-      <c r="I67" s="325"/>
-      <c r="J67" s="325"/>
-      <c r="K67" s="325"/>
-      <c r="L67" s="326"/>
+      <c r="G67" s="309"/>
+      <c r="H67" s="309"/>
+      <c r="I67" s="309"/>
+      <c r="J67" s="309"/>
+      <c r="K67" s="309"/>
+      <c r="L67" s="310"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="298" t="s">
@@ -12049,13 +12103,13 @@
       <c r="C68" s="299"/>
       <c r="D68" s="299"/>
       <c r="E68" s="52"/>
-      <c r="F68" s="325"/>
-      <c r="G68" s="325"/>
-      <c r="H68" s="325"/>
-      <c r="I68" s="325"/>
-      <c r="J68" s="325"/>
-      <c r="K68" s="325"/>
-      <c r="L68" s="326"/>
+      <c r="F68" s="309"/>
+      <c r="G68" s="309"/>
+      <c r="H68" s="309"/>
+      <c r="I68" s="309"/>
+      <c r="J68" s="309"/>
+      <c r="K68" s="309"/>
+      <c r="L68" s="310"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="298" t="s">
@@ -12064,15 +12118,15 @@
       <c r="C69" s="299"/>
       <c r="D69" s="299"/>
       <c r="E69" s="52"/>
-      <c r="F69" s="325" t="s">
+      <c r="F69" s="309" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="325"/>
-      <c r="H69" s="325"/>
-      <c r="I69" s="325"/>
-      <c r="J69" s="325"/>
-      <c r="K69" s="325"/>
-      <c r="L69" s="326"/>
+      <c r="G69" s="309"/>
+      <c r="H69" s="309"/>
+      <c r="I69" s="309"/>
+      <c r="J69" s="309"/>
+      <c r="K69" s="309"/>
+      <c r="L69" s="310"/>
     </row>
     <row r="70" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="290" t="s">
@@ -12081,16 +12135,22 @@
       <c r="C70" s="291"/>
       <c r="D70" s="291"/>
       <c r="E70" s="53"/>
-      <c r="F70" s="327"/>
-      <c r="G70" s="327"/>
-      <c r="H70" s="327"/>
-      <c r="I70" s="327"/>
-      <c r="J70" s="327"/>
-      <c r="K70" s="327"/>
-      <c r="L70" s="328"/>
+      <c r="F70" s="311"/>
+      <c r="G70" s="311"/>
+      <c r="H70" s="311"/>
+      <c r="I70" s="311"/>
+      <c r="J70" s="311"/>
+      <c r="K70" s="311"/>
+      <c r="L70" s="312"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="F69:L69"/>
     <mergeCell ref="B70:D70"/>
@@ -12101,12 +12161,6 @@
     <mergeCell ref="F67:L67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="F68:L68"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12116,8 +12170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F031F4EE-3EC7-47DE-91AF-34380ED2D64A}">
   <dimension ref="B1:AX159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14318,7 +14372,7 @@
         <v>705</v>
       </c>
       <c r="E7" s="191" t="s">
-        <v>723</v>
+        <v>783</v>
       </c>
       <c r="F7" s="191" t="s">
         <v>626</v>
@@ -14358,7 +14412,7 @@
         <v>706</v>
       </c>
       <c r="E8" s="186" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F8" s="215" t="s">
         <v>640</v>
@@ -14400,7 +14454,7 @@
         <v>707</v>
       </c>
       <c r="E9" s="186" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F9" s="215" t="s">
         <v>640</v>
@@ -14442,7 +14496,7 @@
         <v>707</v>
       </c>
       <c r="E10" s="186" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F10" s="186" t="s">
         <v>626</v>
@@ -14482,7 +14536,7 @@
         <v>708</v>
       </c>
       <c r="E11" s="186" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F11" s="186" t="s">
         <v>626</v>
@@ -14522,7 +14576,7 @@
         <v>709</v>
       </c>
       <c r="E12" s="186" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F12" s="186" t="s">
         <v>626</v>
@@ -14562,7 +14616,7 @@
         <v>710</v>
       </c>
       <c r="E13" s="186" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F13" s="186" t="s">
         <v>626</v>
@@ -14600,7 +14654,7 @@
         <v>709</v>
       </c>
       <c r="E14" s="186" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F14" s="186" t="s">
         <v>626</v>
@@ -14638,7 +14692,7 @@
         <v>710</v>
       </c>
       <c r="E15" s="186" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F15" s="186" t="s">
         <v>626</v>
@@ -14676,7 +14730,7 @@
         <v>711</v>
       </c>
       <c r="E16" s="188" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F16" s="186" t="s">
         <v>626</v>
@@ -14714,7 +14768,7 @@
         <v>712</v>
       </c>
       <c r="E17" s="186" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F17" s="186" t="s">
         <v>626</v>
@@ -14752,7 +14806,7 @@
         <v>713</v>
       </c>
       <c r="E18" s="186" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F18" s="186" t="s">
         <v>626</v>
@@ -14790,7 +14844,7 @@
         <v>714</v>
       </c>
       <c r="E19" s="186" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F19" s="186" t="s">
         <v>626</v>
@@ -14828,7 +14882,7 @@
         <v>715</v>
       </c>
       <c r="E20" s="186" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F20" s="186" t="s">
         <v>626</v>
@@ -14866,7 +14920,7 @@
         <v>716</v>
       </c>
       <c r="E21" s="186" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F21" s="186" t="s">
         <v>626</v>
@@ -14904,7 +14958,7 @@
         <v>711</v>
       </c>
       <c r="E22" s="186" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F22" s="186" t="s">
         <v>626</v>
@@ -14942,7 +14996,7 @@
         <v>712</v>
       </c>
       <c r="E23" s="186" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F23" s="186" t="s">
         <v>626</v>
@@ -14980,7 +15034,7 @@
         <v>713</v>
       </c>
       <c r="E24" s="186" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F24" s="186" t="s">
         <v>626</v>
@@ -15018,7 +15072,7 @@
         <v>714</v>
       </c>
       <c r="E25" s="186" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F25" s="186" t="s">
         <v>626</v>
@@ -15069,7 +15123,7 @@
         <v>715</v>
       </c>
       <c r="E26" s="186" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F26" s="186" t="s">
         <v>626</v>
@@ -15120,7 +15174,7 @@
         <v>716</v>
       </c>
       <c r="E27" s="186" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F27" s="186" t="s">
         <v>626</v>
@@ -15171,7 +15225,7 @@
         <v>717</v>
       </c>
       <c r="E28" s="186" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F28" s="186" t="s">
         <v>626</v>
@@ -15226,7 +15280,7 @@
         <v>717</v>
       </c>
       <c r="E29" s="186" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F29" s="186" t="s">
         <v>626</v>
@@ -15287,7 +15341,7 @@
         <v>718</v>
       </c>
       <c r="E30" s="186" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F30" s="186" t="s">
         <v>626</v>
@@ -15348,7 +15402,7 @@
         <v>719</v>
       </c>
       <c r="E31" s="186" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F31" s="186" t="s">
         <v>626</v>
@@ -15409,7 +15463,7 @@
         <v>720</v>
       </c>
       <c r="E32" s="186" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F32" s="186" t="s">
         <v>626</v>
@@ -15470,7 +15524,7 @@
         <v>721</v>
       </c>
       <c r="E33" s="186" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F33" s="186" t="s">
         <v>626</v>
@@ -15531,7 +15585,7 @@
         <v>720</v>
       </c>
       <c r="E34" s="186" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F34" s="186" t="s">
         <v>626</v>
@@ -15588,7 +15642,7 @@
         <v>721</v>
       </c>
       <c r="E35" s="186" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F35" s="186" t="s">
         <v>626</v>
@@ -15647,7 +15701,7 @@
         <v>722</v>
       </c>
       <c r="E36" s="186" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F36" s="186" t="s">
         <v>626</v>
@@ -15698,13 +15752,13 @@
         <v>31</v>
       </c>
       <c r="C37" s="193" t="s">
+        <v>732</v>
+      </c>
+      <c r="D37" s="193" t="s">
         <v>733</v>
       </c>
-      <c r="D37" s="193" t="s">
+      <c r="E37" s="190" t="s">
         <v>734</v>
-      </c>
-      <c r="E37" s="190" t="s">
-        <v>735</v>
       </c>
       <c r="F37" s="214" t="s">
         <v>640</v>
@@ -15755,13 +15809,13 @@
         <v>32</v>
       </c>
       <c r="C38" s="194" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D38" s="194" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E38" s="194" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F38" s="194" t="s">
         <v>626</v>
@@ -15808,13 +15862,13 @@
         <v>33</v>
       </c>
       <c r="C39" s="194" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D39" s="194" t="s">
         <v>722</v>
       </c>
       <c r="E39" s="194" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F39" s="194" t="s">
         <v>626</v>
@@ -15861,13 +15915,13 @@
         <v>34</v>
       </c>
       <c r="C40" s="194" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D40" s="194" t="s">
+        <v>739</v>
+      </c>
+      <c r="E40" s="194" t="s">
         <v>740</v>
-      </c>
-      <c r="E40" s="194" t="s">
-        <v>741</v>
       </c>
       <c r="F40" s="194" t="s">
         <v>626</v>
@@ -15914,13 +15968,13 @@
         <v>35</v>
       </c>
       <c r="C41" s="194" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D41" s="194" t="s">
+        <v>742</v>
+      </c>
+      <c r="E41" s="194" t="s">
         <v>743</v>
-      </c>
-      <c r="E41" s="194" t="s">
-        <v>744</v>
       </c>
       <c r="F41" s="194" t="s">
         <v>626</v>
@@ -15970,10 +16024,10 @@
         <v>704</v>
       </c>
       <c r="D42" s="194" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E42" s="194" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F42" s="194" t="s">
         <v>626</v>
@@ -16020,13 +16074,13 @@
         <v>37</v>
       </c>
       <c r="C43" s="194" t="s">
+        <v>746</v>
+      </c>
+      <c r="D43" s="194" t="s">
         <v>747</v>
       </c>
-      <c r="D43" s="194" t="s">
-        <v>748</v>
-      </c>
       <c r="E43" s="194" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F43" s="194" t="s">
         <v>626</v>
@@ -16073,13 +16127,13 @@
         <v>38</v>
       </c>
       <c r="C44" s="194" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D44" s="194" t="s">
         <v>720</v>
       </c>
       <c r="E44" s="194" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F44" s="194" t="s">
         <v>626</v>
@@ -16141,10 +16195,10 @@
         <v>700</v>
       </c>
       <c r="D45" s="194" t="s">
+        <v>750</v>
+      </c>
+      <c r="E45" s="194" t="s">
         <v>751</v>
-      </c>
-      <c r="E45" s="194" t="s">
-        <v>752</v>
       </c>
       <c r="F45" s="194" t="s">
         <v>626</v>
@@ -16202,10 +16256,10 @@
         <v>700</v>
       </c>
       <c r="D46" s="194" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E46" s="194" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F46" s="194" t="s">
         <v>626</v>
@@ -16263,10 +16317,10 @@
         <v>700</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E47" s="194" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F47" s="194" t="s">
         <v>626</v>
@@ -16324,10 +16378,10 @@
         <v>700</v>
       </c>
       <c r="D48" s="194" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E48" s="194" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F48" s="194" t="s">
         <v>626</v>
@@ -16385,10 +16439,10 @@
         <v>700</v>
       </c>
       <c r="D49" s="194" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E49" s="194" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F49" s="194" t="s">
         <v>626</v>
@@ -16442,10 +16496,10 @@
         <v>701</v>
       </c>
       <c r="D50" s="194" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E50" s="194" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F50" s="194" t="s">
         <v>626</v>
@@ -16497,10 +16551,10 @@
         <v>701</v>
       </c>
       <c r="D51" s="194" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E51" s="194" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F51" s="194" t="s">
         <v>626</v>
@@ -16555,7 +16609,7 @@
         <v>717</v>
       </c>
       <c r="E52" s="194" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F52" s="216" t="s">
         <v>640</v>
@@ -16604,13 +16658,13 @@
         <v>47</v>
       </c>
       <c r="C53" s="194" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D53" s="194" t="s">
         <v>717</v>
       </c>
       <c r="E53" s="194" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F53" s="194" t="s">
         <v>626</v>
@@ -16659,13 +16713,13 @@
         <v>48</v>
       </c>
       <c r="C54" s="194" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D54" s="194" t="s">
         <v>717</v>
       </c>
       <c r="E54" s="194" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F54" s="194" t="s">
         <v>626</v>
@@ -16714,13 +16768,13 @@
         <v>49</v>
       </c>
       <c r="C55" s="194" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D55" s="194" t="s">
         <v>718</v>
       </c>
       <c r="E55" s="194" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F55" s="194" t="s">
         <v>626</v>
@@ -16769,13 +16823,13 @@
         <v>50</v>
       </c>
       <c r="C56" s="194" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D56" s="194" t="s">
         <v>717</v>
       </c>
       <c r="E56" s="194" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F56" s="216" t="s">
         <v>640</v>
@@ -16823,12 +16877,24 @@
       <c r="B57" s="197">
         <v>51</v>
       </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="54"/>
+      <c r="C57" s="54" t="s">
+        <v>767</v>
+      </c>
+      <c r="D57" s="54" t="s">
+        <v>765</v>
+      </c>
+      <c r="E57" s="54" t="s">
+        <v>766</v>
+      </c>
+      <c r="F57" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="G57" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="H57" s="54" t="s">
+        <v>623</v>
+      </c>
       <c r="I57" s="54"/>
       <c r="J57" s="56"/>
       <c r="K57" s="57"/>
@@ -16862,12 +16928,24 @@
       <c r="B58" s="197">
         <v>52</v>
       </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="54"/>
+      <c r="C58" s="54" t="s">
+        <v>769</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>765</v>
+      </c>
+      <c r="E58" s="54" t="s">
+        <v>768</v>
+      </c>
+      <c r="F58" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="G58" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="H58" s="54" t="s">
+        <v>623</v>
+      </c>
       <c r="I58" s="54"/>
       <c r="J58" s="56"/>
       <c r="K58" s="57"/>
@@ -16902,10 +16980,18 @@
         <v>53</v>
       </c>
       <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="58"/>
+      <c r="D59" s="54" t="s">
+        <v>770</v>
+      </c>
+      <c r="E59" s="54" t="s">
+        <v>772</v>
+      </c>
+      <c r="F59" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="G59" s="58" t="s">
+        <v>627</v>
+      </c>
       <c r="H59" s="54"/>
       <c r="I59" s="54"/>
       <c r="J59" s="56"/>
@@ -16941,9 +17027,15 @@
         <v>54</v>
       </c>
       <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
+      <c r="D60" s="54" t="s">
+        <v>765</v>
+      </c>
+      <c r="E60" s="54" t="s">
+        <v>771</v>
+      </c>
+      <c r="F60" s="54" t="s">
+        <v>626</v>
+      </c>
       <c r="G60" s="58"/>
       <c r="H60" s="54"/>
       <c r="I60" s="54"/>
@@ -16980,9 +17072,15 @@
         <v>55</v>
       </c>
       <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
+      <c r="D61" s="54" t="s">
+        <v>765</v>
+      </c>
+      <c r="E61" s="54" t="s">
+        <v>773</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>626</v>
+      </c>
       <c r="G61" s="58"/>
       <c r="H61" s="54"/>
       <c r="I61" s="54"/>
@@ -17019,9 +17117,15 @@
         <v>56</v>
       </c>
       <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
+      <c r="D62" s="54" t="s">
+        <v>776</v>
+      </c>
+      <c r="E62" s="54" t="s">
+        <v>774</v>
+      </c>
+      <c r="F62" s="54" t="s">
+        <v>626</v>
+      </c>
       <c r="G62" s="58"/>
       <c r="H62" s="54"/>
       <c r="I62" s="54"/>
@@ -17058,9 +17162,15 @@
         <v>57</v>
       </c>
       <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
+      <c r="D63" s="54" t="s">
+        <v>777</v>
+      </c>
+      <c r="E63" s="54" t="s">
+        <v>775</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>626</v>
+      </c>
       <c r="G63" s="58"/>
       <c r="H63" s="54"/>
       <c r="I63" s="54"/>
@@ -17097,9 +17207,15 @@
         <v>58</v>
       </c>
       <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
+      <c r="D64" s="54" t="s">
+        <v>767</v>
+      </c>
+      <c r="E64" s="54" t="s">
+        <v>778</v>
+      </c>
+      <c r="F64" s="54" t="s">
+        <v>626</v>
+      </c>
       <c r="G64" s="58"/>
       <c r="H64" s="54"/>
       <c r="I64" s="54"/>
@@ -17134,9 +17250,15 @@
         <v>59</v>
       </c>
       <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
+      <c r="D65" s="54" t="s">
+        <v>780</v>
+      </c>
+      <c r="E65" s="54" t="s">
+        <v>779</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>626</v>
+      </c>
       <c r="G65" s="58"/>
       <c r="H65" s="54"/>
       <c r="I65" s="54"/>
@@ -17171,9 +17293,15 @@
         <v>60</v>
       </c>
       <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
+      <c r="D66" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="E66" s="54" t="s">
+        <v>781</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>626</v>
+      </c>
       <c r="G66" s="58"/>
       <c r="H66" s="54"/>
       <c r="I66" s="54"/>
@@ -17208,9 +17336,15 @@
         <v>61</v>
       </c>
       <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
+      <c r="D67" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="E67" s="54" t="s">
+        <v>782</v>
+      </c>
+      <c r="F67" s="54" t="s">
+        <v>626</v>
+      </c>
       <c r="G67" s="58"/>
       <c r="H67" s="54"/>
       <c r="I67" s="54"/>

--- a/Testing/Revised Plan.xlsx
+++ b/Testing/Revised Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Revised Plan and Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="8_{783EC7BA-7F55-4B35-8C25-054FADF87783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF0A1A3E-969B-4CCB-8456-830795E63E07}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="8_{783EC7BA-7F55-4B35-8C25-054FADF87783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF4E83F1-5E53-4DBD-A44D-C5C0697DF6D6}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{FF53E854-575C-4B97-B6D0-9B270F57EAA4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="798">
   <si>
     <t>WEEK 0</t>
   </si>
@@ -2813,21 +2813,12 @@
     <t>Create Invite</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeated characters is accepted in Employee Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repeated Characters is accepted </t>
-  </si>
-  <si>
     <t>ACE number is limited to 4 characters. Should be increased</t>
   </si>
   <si>
     <t>Role is not filtered based on department</t>
   </si>
   <si>
-    <t xml:space="preserve">Error message in Email is not proper &amp; specific. </t>
-  </si>
-  <si>
     <t>FIlterdropdown</t>
   </si>
   <si>
@@ -2840,16 +2831,67 @@
     <t>Snack bar message is not correct(spelling mistakes &amp; punctuation)</t>
   </si>
   <si>
-    <t>Snack bar</t>
-  </si>
-  <si>
-    <t>Login button's hover colour is light</t>
-  </si>
-  <si>
     <t>Validation message should be changed. (Wait untill you receive a mail)</t>
   </si>
   <si>
     <t>Login Page is not responsive (Bg image and Title text alignment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeated character is accepted in Employee Name </t>
+  </si>
+  <si>
+    <t>Login button's hover effect is light in colour</t>
+  </si>
+  <si>
+    <t>Repeated Character is accepted in Drive Name</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Error message in Email is not proper &amp; specific</t>
+  </si>
+  <si>
+    <t>Spelling mistake</t>
+  </si>
+  <si>
+    <t>Create account (Snack bar)</t>
+  </si>
+  <si>
+    <t>Alignment</t>
+  </si>
+  <si>
+    <t>Add Project</t>
+  </si>
+  <si>
+    <t>Add Role</t>
+  </si>
+  <si>
+    <t>Card is misaligned</t>
+  </si>
+  <si>
+    <t>Repeated character is accepted as Department name (Ex: Javaaaaaa)</t>
+  </si>
+  <si>
+    <t>Repeated character is accepted as Location name (Ex: Kashmirrrrrrr)</t>
+  </si>
+  <si>
+    <t>Repeated character is accepted as Project name (Ex: rrrrrrrrrr)</t>
+  </si>
+  <si>
+    <t>Repeated character is accepted as Role name (Ex: rrrrrrrrrr)</t>
+  </si>
+  <si>
+    <t>Newly added role is not displayed at the top of the role list</t>
+  </si>
+  <si>
+    <t>Newly added project is not displayed at the top of the project list</t>
+  </si>
+  <si>
+    <t>Newly added location is not displayed at the top of the location list</t>
+  </si>
+  <si>
+    <t>Newly added department is not displayed at the top of the department list</t>
   </si>
 </sst>
 </file>
@@ -4174,7 +4216,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4679,14 +4721,155 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4717,162 +4900,21 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4930,6 +4972,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4963,54 +5053,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5055,6 +5097,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6048,7 +6093,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="225" t="s">
+      <c r="D2" s="226" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -6063,7 +6108,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="226"/>
+      <c r="D3" s="225"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6076,7 +6121,7 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="225" t="s">
+      <c r="D4" s="226" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -6091,7 +6136,7 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="225"/>
+      <c r="D5" s="226"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
@@ -6106,7 +6151,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="225" t="s">
+      <c r="D6" s="226" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -6121,7 +6166,7 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="225"/>
+      <c r="D7" s="226"/>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
@@ -6134,7 +6179,7 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="225" t="s">
+      <c r="D8" s="226" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -6149,7 +6194,7 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="225"/>
+      <c r="D9" s="226"/>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6194,7 +6239,7 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="226" t="s">
+      <c r="D12" s="225" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -6209,7 +6254,7 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="226"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
@@ -6222,7 +6267,7 @@
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="226"/>
+      <c r="D14" s="225"/>
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
@@ -6235,7 +6280,7 @@
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="226"/>
+      <c r="D15" s="225"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
@@ -6248,7 +6293,7 @@
       <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="226"/>
+      <c r="D16" s="225"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
@@ -6278,7 +6323,7 @@
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="226" t="s">
+      <c r="D18" s="225" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -6293,7 +6338,7 @@
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="226"/>
+      <c r="D19" s="225"/>
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
@@ -6306,7 +6351,7 @@
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="226"/>
+      <c r="D20" s="225"/>
       <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
@@ -6321,7 +6366,7 @@
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="226" t="s">
+      <c r="D21" s="225" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -6336,7 +6381,7 @@
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="226"/>
+      <c r="D22" s="225"/>
       <c r="E22" s="4" t="s">
         <v>3</v>
       </c>
@@ -6349,7 +6394,7 @@
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="226" t="s">
+      <c r="D23" s="225" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -6364,7 +6409,7 @@
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="226"/>
+      <c r="D24" s="225"/>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
@@ -6379,7 +6424,7 @@
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="225" t="s">
+      <c r="D25" s="226" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -6394,7 +6439,7 @@
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="225"/>
+      <c r="D26" s="226"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
@@ -6407,7 +6452,7 @@
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="225"/>
+      <c r="D27" s="226"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -6418,7 +6463,7 @@
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="226" t="s">
+      <c r="D28" s="225" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="4"/>
@@ -6431,7 +6476,7 @@
       <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="226"/>
+      <c r="D29" s="225"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -6442,7 +6487,7 @@
       <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="226"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -6455,7 +6500,7 @@
       <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="226" t="s">
+      <c r="D31" s="225" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="4"/>
@@ -6468,7 +6513,7 @@
       <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="226"/>
+      <c r="D32" s="225"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -6494,7 +6539,7 @@
       <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="226" t="s">
+      <c r="D34" s="225" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="4"/>
@@ -6507,7 +6552,7 @@
       <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="226"/>
+      <c r="D35" s="225"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -6518,7 +6563,7 @@
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="226"/>
+      <c r="D36" s="225"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -6529,7 +6574,7 @@
       <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="226"/>
+      <c r="D37" s="225"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -6540,7 +6585,7 @@
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="225" t="s">
+      <c r="D38" s="226" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="4"/>
@@ -6553,7 +6598,7 @@
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="225"/>
+      <c r="D39" s="226"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -6566,7 +6611,7 @@
       <c r="C40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="226" t="s">
+      <c r="D40" s="225" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="4"/>
@@ -6579,7 +6624,7 @@
       <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="226"/>
+      <c r="D41" s="225"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -6590,7 +6635,7 @@
       <c r="C42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="226"/>
+      <c r="D42" s="225"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -6601,7 +6646,7 @@
       <c r="C43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="226" t="s">
+      <c r="D43" s="225" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="4"/>
@@ -6614,7 +6659,7 @@
       <c r="C44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="226"/>
+      <c r="D44" s="225"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -6625,11 +6670,24 @@
       <c r="C45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="226"/>
+      <c r="D45" s="225"/>
       <c r="E45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="D43:D45"/>
@@ -6641,19 +6699,6 @@
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7659,16 +7704,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7970,20 +8015,20 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="271" t="s">
+      <c r="B4" s="237" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="272"/>
-      <c r="M4" s="273"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238"/>
+      <c r="M4" s="239"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
@@ -8003,239 +8048,239 @@
       <c r="B6" s="250" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="252"/>
-      <c r="D6" s="278" t="s">
+      <c r="C6" s="251"/>
+      <c r="D6" s="256" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="268" t="s">
+      <c r="E6" s="267" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="269"/>
-      <c r="G6" s="269"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="269"/>
-      <c r="M6" s="270"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="268"/>
+      <c r="M6" s="269"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="253"/>
-      <c r="C7" s="255"/>
-      <c r="D7" s="279"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="242"/>
-      <c r="M7" s="243"/>
+      <c r="B7" s="252"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="257"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="246"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="253"/>
-      <c r="C8" s="255"/>
-      <c r="D8" s="238" t="s">
+      <c r="B8" s="252"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="258" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="244" t="s">
+      <c r="E8" s="263" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="242"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="242"/>
-      <c r="M8" s="243"/>
+      <c r="F8" s="245"/>
+      <c r="G8" s="245"/>
+      <c r="H8" s="245"/>
+      <c r="I8" s="245"/>
+      <c r="J8" s="245"/>
+      <c r="K8" s="245"/>
+      <c r="L8" s="245"/>
+      <c r="M8" s="246"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="256"/>
-      <c r="C9" s="258"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="242"/>
-      <c r="G9" s="242"/>
-      <c r="H9" s="242"/>
-      <c r="I9" s="242"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="242"/>
-      <c r="M9" s="243"/>
+      <c r="B9" s="254"/>
+      <c r="C9" s="255"/>
+      <c r="D9" s="258"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="245"/>
+      <c r="L9" s="245"/>
+      <c r="M9" s="246"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="250" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="251"/>
-      <c r="D10" s="252"/>
-      <c r="E10" s="275" t="s">
+      <c r="C10" s="264"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="276"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="276"/>
-      <c r="I10" s="276"/>
-      <c r="J10" s="276"/>
-      <c r="K10" s="276"/>
-      <c r="L10" s="276"/>
-      <c r="M10" s="277"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="248"/>
+      <c r="H10" s="248"/>
+      <c r="I10" s="248"/>
+      <c r="J10" s="248"/>
+      <c r="K10" s="248"/>
+      <c r="L10" s="248"/>
+      <c r="M10" s="249"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="253"/>
-      <c r="C11" s="254"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="242"/>
-      <c r="H11" s="242"/>
-      <c r="I11" s="242"/>
-      <c r="J11" s="242"/>
-      <c r="K11" s="242"/>
-      <c r="L11" s="242"/>
-      <c r="M11" s="243"/>
+      <c r="B11" s="252"/>
+      <c r="C11" s="265"/>
+      <c r="D11" s="253"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="245"/>
+      <c r="G11" s="245"/>
+      <c r="H11" s="245"/>
+      <c r="I11" s="245"/>
+      <c r="J11" s="245"/>
+      <c r="K11" s="245"/>
+      <c r="L11" s="245"/>
+      <c r="M11" s="246"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="253"/>
-      <c r="C12" s="254"/>
-      <c r="D12" s="255"/>
-      <c r="E12" s="241"/>
-      <c r="F12" s="242"/>
-      <c r="G12" s="242"/>
-      <c r="H12" s="242"/>
-      <c r="I12" s="242"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="242"/>
-      <c r="M12" s="243"/>
+      <c r="B12" s="252"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="245"/>
+      <c r="G12" s="245"/>
+      <c r="H12" s="245"/>
+      <c r="I12" s="245"/>
+      <c r="J12" s="245"/>
+      <c r="K12" s="245"/>
+      <c r="L12" s="245"/>
+      <c r="M12" s="246"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="256"/>
-      <c r="C13" s="257"/>
-      <c r="D13" s="258"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="242"/>
-      <c r="G13" s="242"/>
-      <c r="H13" s="242"/>
-      <c r="I13" s="242"/>
-      <c r="J13" s="242"/>
-      <c r="K13" s="242"/>
-      <c r="L13" s="242"/>
-      <c r="M13" s="243"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="255"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="245"/>
+      <c r="H13" s="245"/>
+      <c r="I13" s="245"/>
+      <c r="J13" s="245"/>
+      <c r="K13" s="245"/>
+      <c r="L13" s="245"/>
+      <c r="M13" s="246"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="250" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="251"/>
-      <c r="D14" s="252"/>
-      <c r="E14" s="244" t="s">
+      <c r="C14" s="264"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="263" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="242"/>
-      <c r="G14" s="242"/>
-      <c r="H14" s="242"/>
-      <c r="I14" s="242"/>
-      <c r="J14" s="242"/>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
-      <c r="M14" s="243"/>
+      <c r="F14" s="245"/>
+      <c r="G14" s="245"/>
+      <c r="H14" s="245"/>
+      <c r="I14" s="245"/>
+      <c r="J14" s="245"/>
+      <c r="K14" s="245"/>
+      <c r="L14" s="245"/>
+      <c r="M14" s="246"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="253"/>
-      <c r="C15" s="254"/>
-      <c r="D15" s="255"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="242"/>
-      <c r="H15" s="242"/>
-      <c r="I15" s="242"/>
-      <c r="J15" s="242"/>
-      <c r="K15" s="242"/>
-      <c r="L15" s="242"/>
-      <c r="M15" s="243"/>
+      <c r="B15" s="252"/>
+      <c r="C15" s="265"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="245"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="245"/>
+      <c r="J15" s="245"/>
+      <c r="K15" s="245"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="246"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="253"/>
-      <c r="C16" s="254"/>
-      <c r="D16" s="255"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="242"/>
-      <c r="G16" s="242"/>
-      <c r="H16" s="242"/>
-      <c r="I16" s="242"/>
-      <c r="J16" s="242"/>
-      <c r="K16" s="242"/>
-      <c r="L16" s="242"/>
-      <c r="M16" s="243"/>
+      <c r="B16" s="252"/>
+      <c r="C16" s="265"/>
+      <c r="D16" s="253"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="245"/>
+      <c r="H16" s="245"/>
+      <c r="I16" s="245"/>
+      <c r="J16" s="245"/>
+      <c r="K16" s="245"/>
+      <c r="L16" s="245"/>
+      <c r="M16" s="246"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="256"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="258"/>
-      <c r="E17" s="241"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="242"/>
-      <c r="H17" s="242"/>
-      <c r="I17" s="242"/>
-      <c r="J17" s="242"/>
-      <c r="K17" s="242"/>
-      <c r="L17" s="242"/>
-      <c r="M17" s="243"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="266"/>
+      <c r="D17" s="255"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="245"/>
+      <c r="H17" s="245"/>
+      <c r="I17" s="245"/>
+      <c r="J17" s="245"/>
+      <c r="K17" s="245"/>
+      <c r="L17" s="245"/>
+      <c r="M17" s="246"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="235" t="s">
+      <c r="B18" s="282" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="236"/>
+      <c r="C18" s="283"/>
       <c r="D18" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="244" t="s">
+      <c r="E18" s="263" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="242"/>
-      <c r="I18" s="242"/>
-      <c r="J18" s="242"/>
-      <c r="K18" s="242"/>
-      <c r="L18" s="242"/>
-      <c r="M18" s="243"/>
+      <c r="F18" s="245"/>
+      <c r="G18" s="245"/>
+      <c r="H18" s="245"/>
+      <c r="I18" s="245"/>
+      <c r="J18" s="245"/>
+      <c r="K18" s="245"/>
+      <c r="L18" s="245"/>
+      <c r="M18" s="246"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="237"/>
-      <c r="C19" s="238"/>
+      <c r="B19" s="284"/>
+      <c r="C19" s="258"/>
       <c r="D19" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="244"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="242"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="242"/>
-      <c r="J19" s="242"/>
-      <c r="K19" s="242"/>
-      <c r="L19" s="242"/>
-      <c r="M19" s="243"/>
+      <c r="E19" s="263"/>
+      <c r="F19" s="245"/>
+      <c r="G19" s="245"/>
+      <c r="H19" s="245"/>
+      <c r="I19" s="245"/>
+      <c r="J19" s="245"/>
+      <c r="K19" s="245"/>
+      <c r="L19" s="245"/>
+      <c r="M19" s="246"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="239"/>
-      <c r="C20" s="240"/>
+      <c r="B20" s="285"/>
+      <c r="C20" s="286"/>
       <c r="D20" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="241"/>
-      <c r="F20" s="242"/>
-      <c r="G20" s="242"/>
-      <c r="H20" s="242"/>
-      <c r="I20" s="242"/>
-      <c r="J20" s="242"/>
-      <c r="K20" s="242"/>
-      <c r="L20" s="242"/>
-      <c r="M20" s="243"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="245"/>
+      <c r="H20" s="245"/>
+      <c r="I20" s="245"/>
+      <c r="J20" s="245"/>
+      <c r="K20" s="245"/>
+      <c r="L20" s="245"/>
+      <c r="M20" s="246"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
@@ -8266,126 +8311,126 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="229" t="s">
+      <c r="B23" s="276" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="230"/>
-      <c r="D23" s="230"/>
-      <c r="E23" s="230"/>
-      <c r="F23" s="230"/>
-      <c r="G23" s="230"/>
-      <c r="H23" s="230"/>
-      <c r="I23" s="230"/>
-      <c r="J23" s="230"/>
-      <c r="K23" s="230"/>
-      <c r="L23" s="230"/>
-      <c r="M23" s="231"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="277"/>
+      <c r="E23" s="277"/>
+      <c r="F23" s="277"/>
+      <c r="G23" s="277"/>
+      <c r="H23" s="277"/>
+      <c r="I23" s="277"/>
+      <c r="J23" s="277"/>
+      <c r="K23" s="277"/>
+      <c r="L23" s="277"/>
+      <c r="M23" s="278"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="232" t="s">
+      <c r="C24" s="279" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="234"/>
-      <c r="E24" s="232" t="s">
+      <c r="D24" s="281"/>
+      <c r="E24" s="279" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="233"/>
-      <c r="G24" s="233"/>
-      <c r="H24" s="233"/>
-      <c r="I24" s="233"/>
-      <c r="J24" s="233"/>
-      <c r="K24" s="234"/>
-      <c r="L24" s="280" t="s">
+      <c r="F24" s="280"/>
+      <c r="G24" s="280"/>
+      <c r="H24" s="280"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="280"/>
+      <c r="K24" s="281"/>
+      <c r="L24" s="259" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="281"/>
+      <c r="M24" s="260"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="245"/>
-      <c r="D25" s="247"/>
-      <c r="E25" s="245"/>
-      <c r="F25" s="246"/>
-      <c r="G25" s="246"/>
-      <c r="H25" s="246"/>
-      <c r="I25" s="246"/>
-      <c r="J25" s="246"/>
-      <c r="K25" s="247"/>
-      <c r="L25" s="245"/>
-      <c r="M25" s="274"/>
+      <c r="C25" s="240"/>
+      <c r="D25" s="288"/>
+      <c r="E25" s="240"/>
+      <c r="F25" s="287"/>
+      <c r="G25" s="287"/>
+      <c r="H25" s="287"/>
+      <c r="I25" s="287"/>
+      <c r="J25" s="287"/>
+      <c r="K25" s="288"/>
+      <c r="L25" s="240"/>
+      <c r="M25" s="241"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="248"/>
-      <c r="D26" s="249"/>
-      <c r="E26" s="248"/>
-      <c r="F26" s="265"/>
-      <c r="G26" s="265"/>
-      <c r="H26" s="265"/>
-      <c r="I26" s="265"/>
-      <c r="J26" s="265"/>
-      <c r="K26" s="249"/>
-      <c r="L26" s="248"/>
-      <c r="M26" s="267"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="242"/>
+      <c r="F26" s="261"/>
+      <c r="G26" s="261"/>
+      <c r="H26" s="261"/>
+      <c r="I26" s="261"/>
+      <c r="J26" s="261"/>
+      <c r="K26" s="262"/>
+      <c r="L26" s="242"/>
+      <c r="M26" s="243"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="248"/>
-      <c r="D27" s="249"/>
-      <c r="E27" s="248"/>
-      <c r="F27" s="265"/>
-      <c r="G27" s="265"/>
-      <c r="H27" s="265"/>
-      <c r="I27" s="265"/>
-      <c r="J27" s="265"/>
-      <c r="K27" s="249"/>
-      <c r="L27" s="248"/>
-      <c r="M27" s="267"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="262"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="261"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="261"/>
+      <c r="I27" s="261"/>
+      <c r="J27" s="261"/>
+      <c r="K27" s="262"/>
+      <c r="L27" s="242"/>
+      <c r="M27" s="243"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
-      <c r="C28" s="248"/>
-      <c r="D28" s="249"/>
-      <c r="E28" s="248"/>
-      <c r="F28" s="265"/>
-      <c r="G28" s="265"/>
-      <c r="H28" s="265"/>
-      <c r="I28" s="265"/>
-      <c r="J28" s="265"/>
-      <c r="K28" s="249"/>
-      <c r="L28" s="248"/>
-      <c r="M28" s="267"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="262"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="261"/>
+      <c r="G28" s="261"/>
+      <c r="H28" s="261"/>
+      <c r="I28" s="261"/>
+      <c r="J28" s="261"/>
+      <c r="K28" s="262"/>
+      <c r="L28" s="242"/>
+      <c r="M28" s="243"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="248"/>
-      <c r="D29" s="249"/>
-      <c r="E29" s="248"/>
-      <c r="F29" s="265"/>
-      <c r="G29" s="265"/>
-      <c r="H29" s="265"/>
-      <c r="I29" s="265"/>
-      <c r="J29" s="265"/>
-      <c r="K29" s="249"/>
-      <c r="L29" s="248"/>
-      <c r="M29" s="267"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="262"/>
+      <c r="E29" s="242"/>
+      <c r="F29" s="261"/>
+      <c r="G29" s="261"/>
+      <c r="H29" s="261"/>
+      <c r="I29" s="261"/>
+      <c r="J29" s="261"/>
+      <c r="K29" s="262"/>
+      <c r="L29" s="242"/>
+      <c r="M29" s="243"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
-      <c r="C30" s="262"/>
-      <c r="D30" s="264"/>
-      <c r="E30" s="262"/>
-      <c r="F30" s="266"/>
-      <c r="G30" s="266"/>
-      <c r="H30" s="266"/>
-      <c r="I30" s="266"/>
-      <c r="J30" s="266"/>
-      <c r="K30" s="264"/>
-      <c r="L30" s="262"/>
-      <c r="M30" s="263"/>
+      <c r="C30" s="271"/>
+      <c r="D30" s="273"/>
+      <c r="E30" s="271"/>
+      <c r="F30" s="274"/>
+      <c r="G30" s="274"/>
+      <c r="H30" s="274"/>
+      <c r="I30" s="274"/>
+      <c r="J30" s="274"/>
+      <c r="K30" s="273"/>
+      <c r="L30" s="271"/>
+      <c r="M30" s="272"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
@@ -8402,20 +8447,20 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="229" t="s">
+      <c r="B32" s="276" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="230"/>
-      <c r="D32" s="230"/>
-      <c r="E32" s="230"/>
-      <c r="F32" s="230"/>
-      <c r="G32" s="230"/>
-      <c r="H32" s="230"/>
-      <c r="I32" s="230"/>
-      <c r="J32" s="230"/>
-      <c r="K32" s="230"/>
-      <c r="L32" s="230"/>
-      <c r="M32" s="231"/>
+      <c r="C32" s="277"/>
+      <c r="D32" s="277"/>
+      <c r="E32" s="277"/>
+      <c r="F32" s="277"/>
+      <c r="G32" s="277"/>
+      <c r="H32" s="277"/>
+      <c r="I32" s="277"/>
+      <c r="J32" s="277"/>
+      <c r="K32" s="277"/>
+      <c r="L32" s="277"/>
+      <c r="M32" s="278"/>
     </row>
     <row r="33" spans="2:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
@@ -8424,10 +8469,10 @@
       <c r="C33" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="232" t="s">
+      <c r="D33" s="279" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="234"/>
+      <c r="E33" s="281"/>
       <c r="F33" s="27" t="s">
         <v>162</v>
       </c>
@@ -8458,8 +8503,8 @@
         <v>1</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="259"/>
-      <c r="E34" s="259"/>
+      <c r="D34" s="289"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -8474,8 +8519,8 @@
         <v>2</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="260"/>
-      <c r="E35" s="260"/>
+      <c r="D35" s="236"/>
+      <c r="E35" s="236"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -8490,8 +8535,8 @@
         <v>3</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="260"/>
-      <c r="E36" s="260"/>
+      <c r="D36" s="236"/>
+      <c r="E36" s="236"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -8506,8 +8551,8 @@
         <v>4</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="261"/>
-      <c r="E37" s="261"/>
+      <c r="D37" s="270"/>
+      <c r="E37" s="270"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -8520,8 +8565,8 @@
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="228"/>
-      <c r="E38" s="228"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="275"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34" t="s">
         <v>169</v>
@@ -8542,16 +8587,16 @@
       <c r="M38" s="36"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="286" t="s">
+      <c r="B41" s="232" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="286"/>
-      <c r="D41" s="286"/>
-      <c r="E41" s="286"/>
-      <c r="F41" s="286"/>
-      <c r="G41" s="286"/>
-      <c r="H41" s="286"/>
-      <c r="I41" s="286"/>
+      <c r="C41" s="232"/>
+      <c r="D41" s="232"/>
+      <c r="E41" s="232"/>
+      <c r="F41" s="232"/>
+      <c r="G41" s="232"/>
+      <c r="H41" s="232"/>
+      <c r="I41" s="232"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
@@ -8564,16 +8609,16 @@
       <c r="C42" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="285" t="s">
+      <c r="D42" s="231" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="285"/>
-      <c r="F42" s="285" t="s">
+      <c r="E42" s="231"/>
+      <c r="F42" s="231" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="285"/>
-      <c r="H42" s="285"/>
-      <c r="I42" s="285"/>
+      <c r="G42" s="231"/>
+      <c r="H42" s="231"/>
+      <c r="I42" s="231"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -8584,8 +8629,8 @@
         <v>1</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="260"/>
-      <c r="E43" s="260"/>
+      <c r="D43" s="236"/>
+      <c r="E43" s="236"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -8600,8 +8645,8 @@
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="260"/>
-      <c r="E44" s="260"/>
+      <c r="D44" s="236"/>
+      <c r="E44" s="236"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -8616,8 +8661,8 @@
         <v>3</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="260"/>
-      <c r="E45" s="260"/>
+      <c r="D45" s="236"/>
+      <c r="E45" s="236"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -8628,16 +8673,16 @@
       <c r="M45" s="12"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="286" t="s">
+      <c r="B47" s="232" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="286"/>
-      <c r="D47" s="286"/>
-      <c r="E47" s="286"/>
-      <c r="F47" s="286"/>
-      <c r="G47" s="286"/>
-      <c r="H47" s="286"/>
-      <c r="I47" s="286"/>
+      <c r="C47" s="232"/>
+      <c r="D47" s="232"/>
+      <c r="E47" s="232"/>
+      <c r="F47" s="232"/>
+      <c r="G47" s="232"/>
+      <c r="H47" s="232"/>
+      <c r="I47" s="232"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
@@ -8650,14 +8695,14 @@
       <c r="C48" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D48" s="287" t="s">
+      <c r="D48" s="233" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="288"/>
-      <c r="F48" s="288"/>
-      <c r="G48" s="288"/>
-      <c r="H48" s="288"/>
-      <c r="I48" s="289"/>
+      <c r="E48" s="234"/>
+      <c r="F48" s="234"/>
+      <c r="G48" s="234"/>
+      <c r="H48" s="234"/>
+      <c r="I48" s="235"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
@@ -8670,12 +8715,12 @@
       <c r="C49" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="282"/>
-      <c r="E49" s="283"/>
-      <c r="F49" s="283"/>
-      <c r="G49" s="283"/>
-      <c r="H49" s="283"/>
-      <c r="I49" s="284"/>
+      <c r="D49" s="228"/>
+      <c r="E49" s="229"/>
+      <c r="F49" s="229"/>
+      <c r="G49" s="229"/>
+      <c r="H49" s="229"/>
+      <c r="I49" s="230"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="17">
@@ -8684,12 +8729,12 @@
       <c r="C50" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="282"/>
-      <c r="E50" s="283"/>
-      <c r="F50" s="283"/>
-      <c r="G50" s="283"/>
-      <c r="H50" s="283"/>
-      <c r="I50" s="284"/>
+      <c r="D50" s="228"/>
+      <c r="E50" s="229"/>
+      <c r="F50" s="229"/>
+      <c r="G50" s="229"/>
+      <c r="H50" s="229"/>
+      <c r="I50" s="230"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="17">
@@ -8698,77 +8743,128 @@
       <c r="C51" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="282"/>
-      <c r="E51" s="283"/>
-      <c r="F51" s="283"/>
-      <c r="G51" s="283"/>
-      <c r="H51" s="283"/>
-      <c r="I51" s="284"/>
+      <c r="D51" s="228"/>
+      <c r="E51" s="229"/>
+      <c r="F51" s="229"/>
+      <c r="G51" s="229"/>
+      <c r="H51" s="229"/>
+      <c r="I51" s="230"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="286" t="s">
+      <c r="B54" s="232" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="286"/>
-      <c r="D54" s="286"/>
-      <c r="E54" s="286"/>
-      <c r="F54" s="286"/>
-      <c r="G54" s="286"/>
-      <c r="H54" s="286"/>
-      <c r="I54" s="286"/>
+      <c r="C54" s="232"/>
+      <c r="D54" s="232"/>
+      <c r="E54" s="232"/>
+      <c r="F54" s="232"/>
+      <c r="G54" s="232"/>
+      <c r="H54" s="232"/>
+      <c r="I54" s="232"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="287" t="s">
+      <c r="C55" s="233" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="288"/>
-      <c r="E55" s="288"/>
-      <c r="F55" s="288"/>
-      <c r="G55" s="288"/>
-      <c r="H55" s="288"/>
-      <c r="I55" s="289"/>
+      <c r="D55" s="234"/>
+      <c r="E55" s="234"/>
+      <c r="F55" s="234"/>
+      <c r="G55" s="234"/>
+      <c r="H55" s="234"/>
+      <c r="I55" s="235"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="17">
         <v>1</v>
       </c>
-      <c r="C56" s="282"/>
-      <c r="D56" s="283"/>
-      <c r="E56" s="283"/>
-      <c r="F56" s="283"/>
-      <c r="G56" s="283"/>
-      <c r="H56" s="283"/>
-      <c r="I56" s="284"/>
+      <c r="C56" s="228"/>
+      <c r="D56" s="229"/>
+      <c r="E56" s="229"/>
+      <c r="F56" s="229"/>
+      <c r="G56" s="229"/>
+      <c r="H56" s="229"/>
+      <c r="I56" s="230"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="17">
         <v>2</v>
       </c>
-      <c r="C57" s="282"/>
-      <c r="D57" s="283"/>
-      <c r="E57" s="283"/>
-      <c r="F57" s="283"/>
-      <c r="G57" s="283"/>
-      <c r="H57" s="283"/>
-      <c r="I57" s="284"/>
+      <c r="C57" s="228"/>
+      <c r="D57" s="229"/>
+      <c r="E57" s="229"/>
+      <c r="F57" s="229"/>
+      <c r="G57" s="229"/>
+      <c r="H57" s="229"/>
+      <c r="I57" s="230"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="17">
         <v>3</v>
       </c>
-      <c r="C58" s="282"/>
-      <c r="D58" s="283"/>
-      <c r="E58" s="283"/>
-      <c r="F58" s="283"/>
-      <c r="G58" s="283"/>
-      <c r="H58" s="283"/>
-      <c r="I58" s="284"/>
+      <c r="C58" s="228"/>
+      <c r="D58" s="229"/>
+      <c r="E58" s="229"/>
+      <c r="F58" s="229"/>
+      <c r="G58" s="229"/>
+      <c r="H58" s="229"/>
+      <c r="I58" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="B18:C20"/>
+    <mergeCell ref="E17:M17"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B14:D17"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="B10:D13"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E14:M14"/>
     <mergeCell ref="C57:I57"/>
     <mergeCell ref="C58:I58"/>
     <mergeCell ref="F42:I42"/>
@@ -8785,57 +8881,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="C56:I56"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="B10:D13"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="B18:C20"/>
-    <mergeCell ref="E17:M17"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B14:D17"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10627,34 +10672,34 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="323" t="s">
+      <c r="B2" s="312" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="324"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="325"/>
-      <c r="L2" s="326"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="314"/>
+      <c r="L2" s="315"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="316" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="330"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="317"/>
+      <c r="I3" s="317"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="319"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="303" t="s">
@@ -10668,7 +10713,7 @@
       <c r="H4" s="304"/>
       <c r="I4" s="304"/>
       <c r="J4" s="304"/>
-      <c r="K4" s="331"/>
+      <c r="K4" s="320"/>
       <c r="L4" s="305"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -10683,53 +10728,53 @@
       <c r="H5" s="293"/>
       <c r="I5" s="293"/>
       <c r="J5" s="293"/>
-      <c r="K5" s="332"/>
+      <c r="K5" s="321"/>
       <c r="L5" s="294"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="333" t="s">
+      <c r="B6" s="322" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="334"/>
-      <c r="D6" s="334"/>
-      <c r="E6" s="334"/>
-      <c r="F6" s="334"/>
-      <c r="G6" s="334"/>
-      <c r="H6" s="334"/>
-      <c r="I6" s="334"/>
-      <c r="J6" s="334"/>
-      <c r="K6" s="334"/>
-      <c r="L6" s="335"/>
+      <c r="C6" s="323"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="323"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="323"/>
+      <c r="I6" s="323"/>
+      <c r="J6" s="323"/>
+      <c r="K6" s="323"/>
+      <c r="L6" s="324"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="320" t="s">
+      <c r="B7" s="309" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="321"/>
-      <c r="D7" s="321"/>
-      <c r="E7" s="321"/>
-      <c r="F7" s="321"/>
-      <c r="G7" s="321"/>
-      <c r="H7" s="321"/>
-      <c r="I7" s="321"/>
-      <c r="J7" s="321"/>
-      <c r="K7" s="321"/>
-      <c r="L7" s="322"/>
+      <c r="C7" s="310"/>
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="310"/>
+      <c r="H7" s="310"/>
+      <c r="I7" s="310"/>
+      <c r="J7" s="310"/>
+      <c r="K7" s="310"/>
+      <c r="L7" s="311"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="313" t="s">
+      <c r="B8" s="329" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="314"/>
-      <c r="D8" s="314"/>
-      <c r="E8" s="314"/>
-      <c r="F8" s="314"/>
-      <c r="G8" s="314"/>
-      <c r="H8" s="314"/>
-      <c r="I8" s="314"/>
-      <c r="J8" s="314"/>
-      <c r="K8" s="314"/>
-      <c r="L8" s="315"/>
+      <c r="C8" s="330"/>
+      <c r="D8" s="330"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="330"/>
+      <c r="G8" s="330"/>
+      <c r="H8" s="330"/>
+      <c r="I8" s="330"/>
+      <c r="J8" s="330"/>
+      <c r="K8" s="330"/>
+      <c r="L8" s="331"/>
     </row>
     <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
@@ -12065,19 +12110,19 @@
       <c r="L65" s="51"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="316" t="s">
+      <c r="B66" s="332" t="s">
         <v>382</v>
       </c>
-      <c r="C66" s="317"/>
-      <c r="D66" s="317"/>
-      <c r="E66" s="317"/>
-      <c r="F66" s="317"/>
-      <c r="G66" s="317"/>
-      <c r="H66" s="317"/>
-      <c r="I66" s="317"/>
-      <c r="J66" s="317"/>
-      <c r="K66" s="318"/>
-      <c r="L66" s="319"/>
+      <c r="C66" s="333"/>
+      <c r="D66" s="333"/>
+      <c r="E66" s="333"/>
+      <c r="F66" s="333"/>
+      <c r="G66" s="333"/>
+      <c r="H66" s="333"/>
+      <c r="I66" s="333"/>
+      <c r="J66" s="333"/>
+      <c r="K66" s="334"/>
+      <c r="L66" s="335"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="298" t="s">
@@ -12086,15 +12131,15 @@
       <c r="C67" s="299"/>
       <c r="D67" s="299"/>
       <c r="E67" s="52"/>
-      <c r="F67" s="309" t="s">
+      <c r="F67" s="325" t="s">
         <v>191</v>
       </c>
-      <c r="G67" s="309"/>
-      <c r="H67" s="309"/>
-      <c r="I67" s="309"/>
-      <c r="J67" s="309"/>
-      <c r="K67" s="309"/>
-      <c r="L67" s="310"/>
+      <c r="G67" s="325"/>
+      <c r="H67" s="325"/>
+      <c r="I67" s="325"/>
+      <c r="J67" s="325"/>
+      <c r="K67" s="325"/>
+      <c r="L67" s="326"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="298" t="s">
@@ -12103,13 +12148,13 @@
       <c r="C68" s="299"/>
       <c r="D68" s="299"/>
       <c r="E68" s="52"/>
-      <c r="F68" s="309"/>
-      <c r="G68" s="309"/>
-      <c r="H68" s="309"/>
-      <c r="I68" s="309"/>
-      <c r="J68" s="309"/>
-      <c r="K68" s="309"/>
-      <c r="L68" s="310"/>
+      <c r="F68" s="325"/>
+      <c r="G68" s="325"/>
+      <c r="H68" s="325"/>
+      <c r="I68" s="325"/>
+      <c r="J68" s="325"/>
+      <c r="K68" s="325"/>
+      <c r="L68" s="326"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="298" t="s">
@@ -12118,15 +12163,15 @@
       <c r="C69" s="299"/>
       <c r="D69" s="299"/>
       <c r="E69" s="52"/>
-      <c r="F69" s="309" t="s">
+      <c r="F69" s="325" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="309"/>
-      <c r="H69" s="309"/>
-      <c r="I69" s="309"/>
-      <c r="J69" s="309"/>
-      <c r="K69" s="309"/>
-      <c r="L69" s="310"/>
+      <c r="G69" s="325"/>
+      <c r="H69" s="325"/>
+      <c r="I69" s="325"/>
+      <c r="J69" s="325"/>
+      <c r="K69" s="325"/>
+      <c r="L69" s="326"/>
     </row>
     <row r="70" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="290" t="s">
@@ -12135,22 +12180,16 @@
       <c r="C70" s="291"/>
       <c r="D70" s="291"/>
       <c r="E70" s="53"/>
-      <c r="F70" s="311"/>
-      <c r="G70" s="311"/>
-      <c r="H70" s="311"/>
-      <c r="I70" s="311"/>
-      <c r="J70" s="311"/>
-      <c r="K70" s="311"/>
-      <c r="L70" s="312"/>
+      <c r="F70" s="327"/>
+      <c r="G70" s="327"/>
+      <c r="H70" s="327"/>
+      <c r="I70" s="327"/>
+      <c r="J70" s="327"/>
+      <c r="K70" s="327"/>
+      <c r="L70" s="328"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="F69:L69"/>
     <mergeCell ref="B70:D70"/>
@@ -12161,6 +12200,12 @@
     <mergeCell ref="F67:L67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="F68:L68"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12170,8 +12215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F031F4EE-3EC7-47DE-91AF-34380ED2D64A}">
   <dimension ref="B1:AX159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14372,7 +14417,7 @@
         <v>705</v>
       </c>
       <c r="E7" s="191" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F7" s="191" t="s">
         <v>626</v>
@@ -14387,7 +14432,9 @@
       <c r="J7" s="56" t="s">
         <v>612</v>
       </c>
-      <c r="K7" s="104"/>
+      <c r="K7" s="104" t="s">
+        <v>624</v>
+      </c>
       <c r="L7" s="56"/>
       <c r="M7" s="56"/>
       <c r="N7" s="213">
@@ -14427,7 +14474,9 @@
       <c r="J8" s="200" t="s">
         <v>612</v>
       </c>
-      <c r="K8" s="201"/>
+      <c r="K8" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L8" s="200"/>
       <c r="M8" s="195"/>
       <c r="N8" s="202">
@@ -14469,7 +14518,9 @@
       <c r="J9" s="200" t="s">
         <v>613</v>
       </c>
-      <c r="K9" s="201"/>
+      <c r="K9" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L9" s="200"/>
       <c r="M9" s="195"/>
       <c r="N9" s="202">
@@ -14511,7 +14562,9 @@
       <c r="J10" s="200" t="s">
         <v>614</v>
       </c>
-      <c r="K10" s="201"/>
+      <c r="K10" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L10" s="200"/>
       <c r="M10" s="195"/>
       <c r="N10" s="202">
@@ -14551,7 +14604,9 @@
       <c r="J11" s="200" t="s">
         <v>615</v>
       </c>
-      <c r="K11" s="201"/>
+      <c r="K11" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L11" s="200"/>
       <c r="M11" s="195"/>
       <c r="N11" s="202">
@@ -14591,7 +14646,9 @@
       <c r="J12" s="200" t="s">
         <v>616</v>
       </c>
-      <c r="K12" s="201"/>
+      <c r="K12" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L12" s="200"/>
       <c r="M12" s="195"/>
       <c r="N12" s="202">
@@ -14629,7 +14686,9 @@
       </c>
       <c r="I13" s="195"/>
       <c r="J13" s="200"/>
-      <c r="K13" s="201"/>
+      <c r="K13" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L13" s="200"/>
       <c r="M13" s="195"/>
       <c r="N13" s="202">
@@ -14667,7 +14726,9 @@
       </c>
       <c r="I14" s="195"/>
       <c r="J14" s="200"/>
-      <c r="K14" s="201"/>
+      <c r="K14" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L14" s="200"/>
       <c r="M14" s="195"/>
       <c r="N14" s="202">
@@ -14705,7 +14766,9 @@
       </c>
       <c r="I15" s="195"/>
       <c r="J15" s="200"/>
-      <c r="K15" s="201"/>
+      <c r="K15" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L15" s="200"/>
       <c r="M15" s="195"/>
       <c r="N15" s="202">
@@ -14743,7 +14806,9 @@
       </c>
       <c r="I16" s="195"/>
       <c r="J16" s="200"/>
-      <c r="K16" s="201"/>
+      <c r="K16" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L16" s="200"/>
       <c r="M16" s="195"/>
       <c r="N16" s="202">
@@ -14781,7 +14846,9 @@
       </c>
       <c r="I17" s="195"/>
       <c r="J17" s="200"/>
-      <c r="K17" s="201"/>
+      <c r="K17" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L17" s="200"/>
       <c r="M17" s="195"/>
       <c r="N17" s="202">
@@ -14819,7 +14886,9 @@
       </c>
       <c r="I18" s="195"/>
       <c r="J18" s="200"/>
-      <c r="K18" s="201"/>
+      <c r="K18" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L18" s="200"/>
       <c r="M18" s="195"/>
       <c r="N18" s="202">
@@ -14857,7 +14926,9 @@
       </c>
       <c r="I19" s="195"/>
       <c r="J19" s="200"/>
-      <c r="K19" s="201"/>
+      <c r="K19" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L19" s="200"/>
       <c r="M19" s="195"/>
       <c r="N19" s="202">
@@ -14895,7 +14966,9 @@
       </c>
       <c r="I20" s="195"/>
       <c r="J20" s="200"/>
-      <c r="K20" s="201"/>
+      <c r="K20" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L20" s="200"/>
       <c r="M20" s="195"/>
       <c r="N20" s="202">
@@ -14933,7 +15006,9 @@
       </c>
       <c r="I21" s="195"/>
       <c r="J21" s="200"/>
-      <c r="K21" s="201"/>
+      <c r="K21" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L21" s="200"/>
       <c r="M21" s="195"/>
       <c r="N21" s="202">
@@ -14971,7 +15046,9 @@
       </c>
       <c r="I22" s="195"/>
       <c r="J22" s="200"/>
-      <c r="K22" s="201"/>
+      <c r="K22" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L22" s="200"/>
       <c r="M22" s="195"/>
       <c r="N22" s="202">
@@ -15009,7 +15086,9 @@
       </c>
       <c r="I23" s="195"/>
       <c r="J23" s="200"/>
-      <c r="K23" s="201"/>
+      <c r="K23" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L23" s="200"/>
       <c r="M23" s="195"/>
       <c r="N23" s="202">
@@ -15047,7 +15126,9 @@
       </c>
       <c r="I24" s="195"/>
       <c r="J24" s="200"/>
-      <c r="K24" s="201"/>
+      <c r="K24" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L24" s="200"/>
       <c r="M24" s="195"/>
       <c r="N24" s="202">
@@ -15085,7 +15166,9 @@
       </c>
       <c r="I25" s="195"/>
       <c r="J25" s="200"/>
-      <c r="K25" s="201"/>
+      <c r="K25" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L25" s="200"/>
       <c r="M25" s="195"/>
       <c r="N25" s="202">
@@ -15136,7 +15219,9 @@
       </c>
       <c r="I26" s="195"/>
       <c r="J26" s="200"/>
-      <c r="K26" s="201"/>
+      <c r="K26" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L26" s="200"/>
       <c r="M26" s="195"/>
       <c r="N26" s="202">
@@ -15187,7 +15272,9 @@
       </c>
       <c r="I27" s="195"/>
       <c r="J27" s="200"/>
-      <c r="K27" s="201"/>
+      <c r="K27" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L27" s="200"/>
       <c r="M27" s="195"/>
       <c r="N27" s="202">
@@ -15238,7 +15325,9 @@
       </c>
       <c r="I28" s="195"/>
       <c r="J28" s="200"/>
-      <c r="K28" s="201"/>
+      <c r="K28" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L28" s="200"/>
       <c r="M28" s="195"/>
       <c r="N28" s="202">
@@ -15293,7 +15382,9 @@
       </c>
       <c r="I29" s="195"/>
       <c r="J29" s="200"/>
-      <c r="K29" s="201"/>
+      <c r="K29" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L29" s="200"/>
       <c r="M29" s="195"/>
       <c r="N29" s="202">
@@ -15354,7 +15445,9 @@
       </c>
       <c r="I30" s="195"/>
       <c r="J30" s="200"/>
-      <c r="K30" s="201"/>
+      <c r="K30" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L30" s="200"/>
       <c r="M30" s="195"/>
       <c r="N30" s="202">
@@ -15415,7 +15508,9 @@
       </c>
       <c r="I31" s="195"/>
       <c r="J31" s="200"/>
-      <c r="K31" s="201"/>
+      <c r="K31" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L31" s="200"/>
       <c r="M31" s="195"/>
       <c r="N31" s="202">
@@ -15476,7 +15571,9 @@
       </c>
       <c r="I32" s="195"/>
       <c r="J32" s="200"/>
-      <c r="K32" s="201"/>
+      <c r="K32" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L32" s="200"/>
       <c r="M32" s="195"/>
       <c r="N32" s="202">
@@ -15537,7 +15634,9 @@
       </c>
       <c r="I33" s="195"/>
       <c r="J33" s="200"/>
-      <c r="K33" s="201"/>
+      <c r="K33" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L33" s="200"/>
       <c r="M33" s="195"/>
       <c r="N33" s="202">
@@ -15598,7 +15697,9 @@
       </c>
       <c r="I34" s="195"/>
       <c r="J34" s="200"/>
-      <c r="K34" s="201"/>
+      <c r="K34" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L34" s="200"/>
       <c r="M34" s="195"/>
       <c r="N34" s="202">
@@ -15655,7 +15756,9 @@
       </c>
       <c r="I35" s="195"/>
       <c r="J35" s="200"/>
-      <c r="K35" s="201"/>
+      <c r="K35" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L35" s="200"/>
       <c r="M35" s="195"/>
       <c r="N35" s="202">
@@ -15714,7 +15817,9 @@
       </c>
       <c r="I36" s="194"/>
       <c r="J36" s="200"/>
-      <c r="K36" s="201"/>
+      <c r="K36" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L36" s="200"/>
       <c r="M36" s="194"/>
       <c r="N36" s="202">
@@ -15771,7 +15876,9 @@
       </c>
       <c r="I37" s="194"/>
       <c r="J37" s="200"/>
-      <c r="K37" s="201"/>
+      <c r="K37" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L37" s="200"/>
       <c r="M37" s="194"/>
       <c r="N37" s="202">
@@ -15817,8 +15924,8 @@
       <c r="E38" s="194" t="s">
         <v>735</v>
       </c>
-      <c r="F38" s="194" t="s">
-        <v>626</v>
+      <c r="F38" s="216" t="s">
+        <v>640</v>
       </c>
       <c r="G38" s="195" t="s">
         <v>627</v>
@@ -15828,7 +15935,9 @@
       </c>
       <c r="I38" s="194"/>
       <c r="J38" s="200"/>
-      <c r="K38" s="201"/>
+      <c r="K38" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L38" s="200"/>
       <c r="M38" s="194"/>
       <c r="N38" s="202">
@@ -15881,7 +15990,9 @@
       </c>
       <c r="I39" s="194"/>
       <c r="J39" s="200"/>
-      <c r="K39" s="201"/>
+      <c r="K39" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L39" s="200"/>
       <c r="M39" s="194"/>
       <c r="N39" s="202">
@@ -15934,7 +16045,9 @@
       </c>
       <c r="I40" s="194"/>
       <c r="J40" s="200"/>
-      <c r="K40" s="201"/>
+      <c r="K40" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L40" s="200"/>
       <c r="M40" s="194"/>
       <c r="N40" s="202">
@@ -15987,7 +16100,9 @@
       </c>
       <c r="I41" s="194"/>
       <c r="J41" s="200"/>
-      <c r="K41" s="201"/>
+      <c r="K41" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L41" s="200"/>
       <c r="M41" s="194"/>
       <c r="N41" s="202">
@@ -16040,7 +16155,9 @@
       </c>
       <c r="I42" s="194"/>
       <c r="J42" s="200"/>
-      <c r="K42" s="201"/>
+      <c r="K42" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L42" s="200"/>
       <c r="M42" s="194"/>
       <c r="N42" s="202">
@@ -16093,7 +16210,9 @@
       </c>
       <c r="I43" s="194"/>
       <c r="J43" s="200"/>
-      <c r="K43" s="201"/>
+      <c r="K43" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L43" s="200"/>
       <c r="M43" s="194"/>
       <c r="N43" s="202">
@@ -16146,7 +16265,9 @@
       </c>
       <c r="I44" s="194"/>
       <c r="J44" s="200"/>
-      <c r="K44" s="201"/>
+      <c r="K44" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L44" s="200"/>
       <c r="M44" s="194"/>
       <c r="N44" s="202">
@@ -16211,7 +16332,9 @@
       </c>
       <c r="I45" s="194"/>
       <c r="J45" s="200"/>
-      <c r="K45" s="201"/>
+      <c r="K45" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L45" s="200"/>
       <c r="M45" s="194"/>
       <c r="N45" s="202">
@@ -16272,7 +16395,9 @@
       </c>
       <c r="I46" s="194"/>
       <c r="J46" s="200"/>
-      <c r="K46" s="201"/>
+      <c r="K46" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L46" s="200"/>
       <c r="M46" s="194"/>
       <c r="N46" s="202">
@@ -16333,7 +16458,9 @@
       </c>
       <c r="I47" s="194"/>
       <c r="J47" s="200"/>
-      <c r="K47" s="201"/>
+      <c r="K47" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L47" s="200"/>
       <c r="M47" s="194"/>
       <c r="N47" s="202">
@@ -16394,7 +16521,9 @@
       </c>
       <c r="I48" s="194"/>
       <c r="J48" s="200"/>
-      <c r="K48" s="201"/>
+      <c r="K48" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L48" s="200"/>
       <c r="M48" s="194"/>
       <c r="N48" s="202">
@@ -16455,7 +16584,9 @@
       </c>
       <c r="I49" s="194"/>
       <c r="J49" s="200"/>
-      <c r="K49" s="201"/>
+      <c r="K49" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L49" s="200"/>
       <c r="M49" s="194"/>
       <c r="N49" s="202">
@@ -16512,7 +16643,9 @@
       </c>
       <c r="I50" s="194"/>
       <c r="J50" s="200"/>
-      <c r="K50" s="201"/>
+      <c r="K50" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L50" s="200"/>
       <c r="M50" s="194"/>
       <c r="N50" s="202">
@@ -16567,7 +16700,9 @@
       </c>
       <c r="I51" s="194"/>
       <c r="J51" s="200"/>
-      <c r="K51" s="201"/>
+      <c r="K51" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L51" s="200"/>
       <c r="M51" s="194"/>
       <c r="N51" s="202">
@@ -16622,7 +16757,9 @@
       </c>
       <c r="I52" s="54"/>
       <c r="J52" s="56"/>
-      <c r="K52" s="57"/>
+      <c r="K52" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L52" s="56"/>
       <c r="M52" s="54"/>
       <c r="N52" s="212">
@@ -16677,7 +16814,9 @@
       </c>
       <c r="I53" s="54"/>
       <c r="J53" s="56"/>
-      <c r="K53" s="57"/>
+      <c r="K53" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L53" s="56"/>
       <c r="M53" s="54"/>
       <c r="N53" s="212">
@@ -16732,7 +16871,9 @@
       </c>
       <c r="I54" s="54"/>
       <c r="J54" s="56"/>
-      <c r="K54" s="57"/>
+      <c r="K54" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L54" s="56"/>
       <c r="M54" s="54"/>
       <c r="N54" s="212">
@@ -16787,7 +16928,9 @@
       </c>
       <c r="I55" s="54"/>
       <c r="J55" s="56"/>
-      <c r="K55" s="57"/>
+      <c r="K55" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L55" s="56"/>
       <c r="M55" s="54"/>
       <c r="N55" s="212">
@@ -16842,7 +16985,9 @@
       </c>
       <c r="I56" s="54"/>
       <c r="J56" s="56"/>
-      <c r="K56" s="57"/>
+      <c r="K56" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L56" s="56"/>
       <c r="M56" s="54"/>
       <c r="N56" s="212">
@@ -16877,30 +17022,34 @@
       <c r="B57" s="197">
         <v>51</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="194" t="s">
         <v>767</v>
       </c>
-      <c r="D57" s="54" t="s">
+      <c r="D57" s="194" t="s">
         <v>765</v>
       </c>
-      <c r="E57" s="54" t="s">
+      <c r="E57" s="194" t="s">
         <v>766</v>
       </c>
-      <c r="F57" s="54" t="s">
+      <c r="F57" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G57" s="58" t="s">
+      <c r="G57" s="195" t="s">
         <v>627</v>
       </c>
-      <c r="H57" s="54" t="s">
+      <c r="H57" s="194" t="s">
         <v>623</v>
       </c>
-      <c r="I57" s="54"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
+      <c r="I57" s="194"/>
+      <c r="J57" s="200"/>
+      <c r="K57" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L57" s="200"/>
+      <c r="M57" s="194"/>
+      <c r="N57" s="212">
+        <v>44755</v>
+      </c>
       <c r="O57" s="54"/>
       <c r="P57" s="56"/>
       <c r="Q57" s="54"/>
@@ -16928,30 +17077,34 @@
       <c r="B58" s="197">
         <v>52</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="194" t="s">
         <v>769</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="D58" s="194" t="s">
         <v>765</v>
       </c>
-      <c r="E58" s="54" t="s">
+      <c r="E58" s="194" t="s">
         <v>768</v>
       </c>
-      <c r="F58" s="54" t="s">
+      <c r="F58" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G58" s="58" t="s">
+      <c r="G58" s="195" t="s">
         <v>627</v>
       </c>
-      <c r="H58" s="54" t="s">
+      <c r="H58" s="194" t="s">
         <v>623</v>
       </c>
-      <c r="I58" s="54"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
+      <c r="I58" s="194"/>
+      <c r="J58" s="200"/>
+      <c r="K58" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L58" s="200"/>
+      <c r="M58" s="194"/>
+      <c r="N58" s="212">
+        <v>44755</v>
+      </c>
       <c r="O58" s="54"/>
       <c r="P58" s="56"/>
       <c r="Q58" s="54"/>
@@ -16979,26 +17132,34 @@
       <c r="B59" s="197">
         <v>53</v>
       </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54" t="s">
+      <c r="C59" s="194" t="s">
+        <v>699</v>
+      </c>
+      <c r="D59" s="194" t="s">
         <v>770</v>
       </c>
-      <c r="E59" s="54" t="s">
-        <v>772</v>
-      </c>
-      <c r="F59" s="54" t="s">
+      <c r="E59" s="194" t="s">
+        <v>781</v>
+      </c>
+      <c r="F59" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G59" s="58" t="s">
+      <c r="G59" s="195" t="s">
         <v>627</v>
       </c>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
+      <c r="H59" s="194" t="s">
+        <v>623</v>
+      </c>
+      <c r="I59" s="194"/>
+      <c r="J59" s="200"/>
+      <c r="K59" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L59" s="200"/>
+      <c r="M59" s="194"/>
+      <c r="N59" s="212">
+        <v>44755</v>
+      </c>
       <c r="O59" s="54"/>
       <c r="P59" s="56"/>
       <c r="Q59" s="54"/>
@@ -17026,24 +17187,34 @@
       <c r="B60" s="197">
         <v>54</v>
       </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54" t="s">
+      <c r="C60" s="194" t="s">
+        <v>699</v>
+      </c>
+      <c r="D60" s="194" t="s">
         <v>765</v>
       </c>
-      <c r="E60" s="54" t="s">
-        <v>771</v>
-      </c>
-      <c r="F60" s="54" t="s">
+      <c r="E60" s="194" t="s">
+        <v>779</v>
+      </c>
+      <c r="F60" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G60" s="58"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="56"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
+      <c r="G60" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H60" s="194" t="s">
+        <v>623</v>
+      </c>
+      <c r="I60" s="194"/>
+      <c r="J60" s="200"/>
+      <c r="K60" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L60" s="200"/>
+      <c r="M60" s="194"/>
+      <c r="N60" s="212">
+        <v>44755</v>
+      </c>
       <c r="O60" s="54"/>
       <c r="P60" s="56"/>
       <c r="Q60" s="54"/>
@@ -17071,24 +17242,34 @@
       <c r="B61" s="197">
         <v>55</v>
       </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54" t="s">
+      <c r="C61" s="194" t="s">
+        <v>699</v>
+      </c>
+      <c r="D61" s="194" t="s">
         <v>765</v>
       </c>
-      <c r="E61" s="54" t="s">
-        <v>773</v>
-      </c>
-      <c r="F61" s="54" t="s">
+      <c r="E61" s="194" t="s">
+        <v>771</v>
+      </c>
+      <c r="F61" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G61" s="58"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="56"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
+      <c r="G61" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H61" s="194" t="s">
+        <v>623</v>
+      </c>
+      <c r="I61" s="194"/>
+      <c r="J61" s="200"/>
+      <c r="K61" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L61" s="200"/>
+      <c r="M61" s="194"/>
+      <c r="N61" s="212">
+        <v>44755</v>
+      </c>
       <c r="O61" s="54"/>
       <c r="P61" s="56"/>
       <c r="Q61" s="54"/>
@@ -17116,24 +17297,34 @@
       <c r="B62" s="197">
         <v>56</v>
       </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54" t="s">
-        <v>776</v>
-      </c>
-      <c r="E62" s="54" t="s">
-        <v>774</v>
-      </c>
-      <c r="F62" s="54" t="s">
+      <c r="C62" s="194" t="s">
+        <v>782</v>
+      </c>
+      <c r="D62" s="194" t="s">
+        <v>773</v>
+      </c>
+      <c r="E62" s="194" t="s">
+        <v>772</v>
+      </c>
+      <c r="F62" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G62" s="58"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
+      <c r="G62" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H62" s="194" t="s">
+        <v>623</v>
+      </c>
+      <c r="I62" s="194"/>
+      <c r="J62" s="200"/>
+      <c r="K62" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L62" s="200"/>
+      <c r="M62" s="194"/>
+      <c r="N62" s="212">
+        <v>44755</v>
+      </c>
       <c r="O62" s="54"/>
       <c r="P62" s="56"/>
       <c r="Q62" s="54"/>
@@ -17161,24 +17352,34 @@
       <c r="B63" s="197">
         <v>57</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54" t="s">
-        <v>777</v>
-      </c>
-      <c r="E63" s="54" t="s">
-        <v>775</v>
-      </c>
-      <c r="F63" s="54" t="s">
+      <c r="C63" s="194" t="s">
+        <v>699</v>
+      </c>
+      <c r="D63" s="194" t="s">
+        <v>774</v>
+      </c>
+      <c r="E63" s="194" t="s">
+        <v>783</v>
+      </c>
+      <c r="F63" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G63" s="58"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
+      <c r="G63" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H63" s="194" t="s">
+        <v>623</v>
+      </c>
+      <c r="I63" s="194"/>
+      <c r="J63" s="200"/>
+      <c r="K63" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L63" s="200"/>
+      <c r="M63" s="194"/>
+      <c r="N63" s="212">
+        <v>44755</v>
+      </c>
       <c r="O63" s="54"/>
       <c r="P63" s="56"/>
       <c r="Q63" s="54"/>
@@ -17206,24 +17407,34 @@
       <c r="B64" s="197">
         <v>58</v>
       </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54" t="s">
+      <c r="C64" s="194" t="s">
+        <v>699</v>
+      </c>
+      <c r="D64" s="194" t="s">
         <v>767</v>
       </c>
-      <c r="E64" s="54" t="s">
-        <v>778</v>
-      </c>
-      <c r="F64" s="54" t="s">
+      <c r="E64" s="194" t="s">
+        <v>775</v>
+      </c>
+      <c r="F64" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G64" s="58"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
+      <c r="G64" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H64" s="194" t="s">
+        <v>623</v>
+      </c>
+      <c r="I64" s="194"/>
+      <c r="J64" s="200"/>
+      <c r="K64" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L64" s="200"/>
+      <c r="M64" s="194"/>
+      <c r="N64" s="212">
+        <v>44755</v>
+      </c>
       <c r="O64" s="54"/>
       <c r="P64" s="56"/>
       <c r="Q64" s="54"/>
@@ -17249,24 +17460,34 @@
       <c r="B65" s="197">
         <v>59</v>
       </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54" t="s">
-        <v>780</v>
-      </c>
-      <c r="E65" s="54" t="s">
-        <v>779</v>
-      </c>
-      <c r="F65" s="54" t="s">
+      <c r="C65" s="194" t="s">
+        <v>784</v>
+      </c>
+      <c r="D65" s="194" t="s">
+        <v>785</v>
+      </c>
+      <c r="E65" s="194" t="s">
+        <v>776</v>
+      </c>
+      <c r="F65" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G65" s="58"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
+      <c r="G65" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H65" s="194" t="s">
+        <v>623</v>
+      </c>
+      <c r="I65" s="194"/>
+      <c r="J65" s="200"/>
+      <c r="K65" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L65" s="200"/>
+      <c r="M65" s="194"/>
+      <c r="N65" s="212">
+        <v>44755</v>
+      </c>
       <c r="O65" s="54"/>
       <c r="P65" s="56"/>
       <c r="Q65" s="54"/>
@@ -17292,24 +17513,34 @@
       <c r="B66" s="197">
         <v>60</v>
       </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54" t="s">
+      <c r="C66" s="194" t="s">
+        <v>699</v>
+      </c>
+      <c r="D66" s="194" t="s">
         <v>698</v>
       </c>
-      <c r="E66" s="54" t="s">
-        <v>781</v>
-      </c>
-      <c r="F66" s="54" t="s">
+      <c r="E66" s="194" t="s">
+        <v>780</v>
+      </c>
+      <c r="F66" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G66" s="58"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
+      <c r="G66" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H66" s="194" t="s">
+        <v>623</v>
+      </c>
+      <c r="I66" s="194"/>
+      <c r="J66" s="200"/>
+      <c r="K66" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L66" s="200"/>
+      <c r="M66" s="194"/>
+      <c r="N66" s="212">
+        <v>44755</v>
+      </c>
       <c r="O66" s="54"/>
       <c r="P66" s="56"/>
       <c r="Q66" s="54"/>
@@ -17335,24 +17566,34 @@
       <c r="B67" s="197">
         <v>61</v>
       </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54" t="s">
+      <c r="C67" s="194" t="s">
+        <v>699</v>
+      </c>
+      <c r="D67" s="194" t="s">
         <v>698</v>
       </c>
-      <c r="E67" s="54" t="s">
-        <v>782</v>
-      </c>
-      <c r="F67" s="54" t="s">
+      <c r="E67" s="194" t="s">
+        <v>777</v>
+      </c>
+      <c r="F67" s="194" t="s">
         <v>626</v>
       </c>
-      <c r="G67" s="58"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
+      <c r="G67" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H67" s="194" t="s">
+        <v>623</v>
+      </c>
+      <c r="I67" s="194"/>
+      <c r="J67" s="200"/>
+      <c r="K67" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L67" s="200"/>
+      <c r="M67" s="194"/>
+      <c r="N67" s="212">
+        <v>44755</v>
+      </c>
       <c r="O67" s="54"/>
       <c r="P67" s="56"/>
       <c r="Q67" s="54"/>
@@ -17366,18 +17607,34 @@
       <c r="B68" s="197">
         <v>62</v>
       </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
+      <c r="C68" s="194" t="s">
+        <v>786</v>
+      </c>
+      <c r="D68" s="194" t="s">
+        <v>706</v>
+      </c>
+      <c r="E68" s="194" t="s">
+        <v>789</v>
+      </c>
+      <c r="F68" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G68" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H68" s="194" t="s">
+        <v>623</v>
+      </c>
+      <c r="I68" s="194"/>
+      <c r="J68" s="200"/>
+      <c r="K68" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L68" s="200"/>
+      <c r="M68" s="194"/>
+      <c r="N68" s="212">
+        <v>44755</v>
+      </c>
       <c r="O68" s="54"/>
       <c r="P68" s="56"/>
       <c r="Q68" s="54"/>
@@ -17391,18 +17648,34 @@
       <c r="B69" s="197">
         <v>63</v>
       </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="54"/>
+      <c r="C69" s="194" t="s">
+        <v>786</v>
+      </c>
+      <c r="D69" s="54" t="s">
+        <v>707</v>
+      </c>
+      <c r="E69" s="54" t="s">
+        <v>789</v>
+      </c>
+      <c r="F69" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G69" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H69" s="194" t="s">
+        <v>623</v>
+      </c>
       <c r="I69" s="54"/>
       <c r="J69" s="56"/>
-      <c r="K69" s="57"/>
+      <c r="K69" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L69" s="56"/>
       <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
+      <c r="N69" s="351">
+        <v>44755</v>
+      </c>
       <c r="O69" s="54"/>
       <c r="P69" s="56"/>
       <c r="Q69" s="54"/>
@@ -17416,18 +17689,34 @@
       <c r="B70" s="197">
         <v>64</v>
       </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="54"/>
+      <c r="C70" s="194" t="s">
+        <v>786</v>
+      </c>
+      <c r="D70" s="54" t="s">
+        <v>787</v>
+      </c>
+      <c r="E70" s="54" t="s">
+        <v>789</v>
+      </c>
+      <c r="F70" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G70" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H70" s="194" t="s">
+        <v>623</v>
+      </c>
       <c r="I70" s="54"/>
       <c r="J70" s="56"/>
-      <c r="K70" s="57"/>
+      <c r="K70" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L70" s="56"/>
       <c r="M70" s="54"/>
-      <c r="N70" s="54"/>
+      <c r="N70" s="351">
+        <v>44755</v>
+      </c>
       <c r="O70" s="54"/>
       <c r="P70" s="56"/>
       <c r="Q70" s="54"/>
@@ -17441,18 +17730,34 @@
       <c r="B71" s="197">
         <v>65</v>
       </c>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="54"/>
+      <c r="C71" s="194" t="s">
+        <v>786</v>
+      </c>
+      <c r="D71" s="54" t="s">
+        <v>788</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>789</v>
+      </c>
+      <c r="F71" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G71" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H71" s="194" t="s">
+        <v>623</v>
+      </c>
       <c r="I71" s="54"/>
       <c r="J71" s="56"/>
-      <c r="K71" s="57"/>
+      <c r="K71" s="201" t="s">
+        <v>624</v>
+      </c>
       <c r="L71" s="56"/>
       <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
+      <c r="N71" s="351">
+        <v>44755</v>
+      </c>
       <c r="O71" s="54"/>
       <c r="P71" s="56"/>
       <c r="Q71" s="54"/>
@@ -17466,19 +17771,35 @@
       <c r="B72" s="197">
         <v>66</v>
       </c>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
+      <c r="C72" s="194" t="s">
+        <v>699</v>
+      </c>
+      <c r="D72" s="194" t="s">
+        <v>706</v>
+      </c>
+      <c r="E72" s="194" t="s">
+        <v>790</v>
+      </c>
+      <c r="F72" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G72" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H72" s="194" t="s">
+        <v>623</v>
+      </c>
+      <c r="I72" s="194"/>
+      <c r="J72" s="200"/>
+      <c r="K72" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L72" s="200"/>
+      <c r="M72" s="194"/>
+      <c r="N72" s="212">
+        <v>44755</v>
+      </c>
+      <c r="O72" s="194"/>
       <c r="P72" s="56"/>
       <c r="Q72" s="54"/>
       <c r="R72" s="54"/>
@@ -17491,19 +17812,35 @@
       <c r="B73" s="197">
         <v>67</v>
       </c>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
+      <c r="C73" s="194" t="s">
+        <v>699</v>
+      </c>
+      <c r="D73" s="194" t="s">
+        <v>707</v>
+      </c>
+      <c r="E73" s="194" t="s">
+        <v>791</v>
+      </c>
+      <c r="F73" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G73" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H73" s="194" t="s">
+        <v>623</v>
+      </c>
+      <c r="I73" s="194"/>
+      <c r="J73" s="200"/>
+      <c r="K73" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L73" s="200"/>
+      <c r="M73" s="194"/>
+      <c r="N73" s="212">
+        <v>44755</v>
+      </c>
+      <c r="O73" s="194"/>
       <c r="P73" s="56"/>
       <c r="Q73" s="54"/>
       <c r="R73" s="54"/>
@@ -17516,19 +17853,35 @@
       <c r="B74" s="197">
         <v>68</v>
       </c>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="57"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
+      <c r="C74" s="194" t="s">
+        <v>699</v>
+      </c>
+      <c r="D74" s="194" t="s">
+        <v>787</v>
+      </c>
+      <c r="E74" s="194" t="s">
+        <v>792</v>
+      </c>
+      <c r="F74" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G74" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H74" s="194" t="s">
+        <v>623</v>
+      </c>
+      <c r="I74" s="194"/>
+      <c r="J74" s="200"/>
+      <c r="K74" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L74" s="200"/>
+      <c r="M74" s="194"/>
+      <c r="N74" s="212">
+        <v>44755</v>
+      </c>
+      <c r="O74" s="194"/>
       <c r="P74" s="56"/>
       <c r="Q74" s="54"/>
       <c r="R74" s="54"/>
@@ -17541,19 +17894,35 @@
       <c r="B75" s="197">
         <v>69</v>
       </c>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="57"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
+      <c r="C75" s="194" t="s">
+        <v>699</v>
+      </c>
+      <c r="D75" s="194" t="s">
+        <v>788</v>
+      </c>
+      <c r="E75" s="194" t="s">
+        <v>793</v>
+      </c>
+      <c r="F75" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G75" s="195" t="s">
+        <v>627</v>
+      </c>
+      <c r="H75" s="194" t="s">
+        <v>623</v>
+      </c>
+      <c r="I75" s="194"/>
+      <c r="J75" s="200"/>
+      <c r="K75" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L75" s="200"/>
+      <c r="M75" s="194"/>
+      <c r="N75" s="212">
+        <v>44755</v>
+      </c>
+      <c r="O75" s="194"/>
       <c r="P75" s="56"/>
       <c r="Q75" s="54"/>
       <c r="R75" s="54"/>
@@ -17566,19 +17935,35 @@
       <c r="B76" s="197">
         <v>70</v>
       </c>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54"/>
+      <c r="C76" s="194" t="s">
+        <v>762</v>
+      </c>
+      <c r="D76" s="194" t="s">
+        <v>706</v>
+      </c>
+      <c r="E76" s="194" t="s">
+        <v>797</v>
+      </c>
+      <c r="F76" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G76" s="195" t="s">
+        <v>631</v>
+      </c>
+      <c r="H76" s="194" t="s">
+        <v>632</v>
+      </c>
+      <c r="I76" s="194"/>
+      <c r="J76" s="200"/>
+      <c r="K76" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L76" s="200"/>
+      <c r="M76" s="194"/>
+      <c r="N76" s="212">
+        <v>44755</v>
+      </c>
+      <c r="O76" s="194"/>
       <c r="P76" s="56"/>
       <c r="Q76" s="54"/>
       <c r="R76" s="54"/>
@@ -17588,20 +17973,38 @@
       <c r="AO76" s="60"/>
     </row>
     <row r="77" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B77" s="59"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="57"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="54"/>
-      <c r="O77" s="54"/>
+      <c r="B77" s="197">
+        <v>71</v>
+      </c>
+      <c r="C77" s="194" t="s">
+        <v>762</v>
+      </c>
+      <c r="D77" s="194" t="s">
+        <v>707</v>
+      </c>
+      <c r="E77" s="194" t="s">
+        <v>796</v>
+      </c>
+      <c r="F77" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G77" s="195" t="s">
+        <v>631</v>
+      </c>
+      <c r="H77" s="194" t="s">
+        <v>632</v>
+      </c>
+      <c r="I77" s="194"/>
+      <c r="J77" s="200"/>
+      <c r="K77" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L77" s="200"/>
+      <c r="M77" s="194"/>
+      <c r="N77" s="212">
+        <v>44755</v>
+      </c>
+      <c r="O77" s="194"/>
       <c r="P77" s="56"/>
       <c r="Q77" s="54"/>
       <c r="R77" s="54"/>
@@ -17611,20 +18014,38 @@
       <c r="AO77" s="60"/>
     </row>
     <row r="78" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B78" s="59"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="54"/>
+      <c r="B78" s="197">
+        <v>72</v>
+      </c>
+      <c r="C78" s="194" t="s">
+        <v>762</v>
+      </c>
+      <c r="D78" s="194" t="s">
+        <v>787</v>
+      </c>
+      <c r="E78" s="194" t="s">
+        <v>795</v>
+      </c>
+      <c r="F78" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G78" s="195" t="s">
+        <v>631</v>
+      </c>
+      <c r="H78" s="194" t="s">
+        <v>632</v>
+      </c>
+      <c r="I78" s="194"/>
+      <c r="J78" s="200"/>
+      <c r="K78" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L78" s="200"/>
+      <c r="M78" s="194"/>
+      <c r="N78" s="212">
+        <v>44755</v>
+      </c>
+      <c r="O78" s="194"/>
       <c r="P78" s="56"/>
       <c r="Q78" s="54"/>
       <c r="R78" s="54"/>
@@ -17634,20 +18055,38 @@
       <c r="AO78" s="60"/>
     </row>
     <row r="79" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B79" s="59"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="56"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54"/>
-      <c r="O79" s="54"/>
+      <c r="B79" s="197">
+        <v>73</v>
+      </c>
+      <c r="C79" s="194" t="s">
+        <v>762</v>
+      </c>
+      <c r="D79" s="194" t="s">
+        <v>788</v>
+      </c>
+      <c r="E79" s="194" t="s">
+        <v>794</v>
+      </c>
+      <c r="F79" s="194" t="s">
+        <v>626</v>
+      </c>
+      <c r="G79" s="195" t="s">
+        <v>631</v>
+      </c>
+      <c r="H79" s="194" t="s">
+        <v>632</v>
+      </c>
+      <c r="I79" s="194"/>
+      <c r="J79" s="200"/>
+      <c r="K79" s="201" t="s">
+        <v>624</v>
+      </c>
+      <c r="L79" s="200"/>
+      <c r="M79" s="194"/>
+      <c r="N79" s="212">
+        <v>44755</v>
+      </c>
+      <c r="O79" s="194"/>
       <c r="P79" s="56"/>
       <c r="Q79" s="54"/>
       <c r="R79" s="54"/>
@@ -17657,7 +18096,9 @@
       <c r="AO79" s="60"/>
     </row>
     <row r="80" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B80" s="59"/>
+      <c r="B80" s="197">
+        <v>74</v>
+      </c>
       <c r="C80" s="54"/>
       <c r="D80" s="54"/>
       <c r="E80" s="54"/>
@@ -17680,7 +18121,9 @@
       <c r="AO80" s="60"/>
     </row>
     <row r="81" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B81" s="59"/>
+      <c r="B81" s="197">
+        <v>75</v>
+      </c>
       <c r="C81" s="54"/>
       <c r="D81" s="54"/>
       <c r="E81" s="54"/>
@@ -17703,7 +18146,9 @@
       <c r="AO81" s="60"/>
     </row>
     <row r="82" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B82" s="59"/>
+      <c r="B82" s="197">
+        <v>76</v>
+      </c>
       <c r="C82" s="54"/>
       <c r="D82" s="54"/>
       <c r="E82" s="54"/>
@@ -17726,7 +18171,9 @@
       <c r="AO82" s="60"/>
     </row>
     <row r="83" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B83" s="59"/>
+      <c r="B83" s="197">
+        <v>77</v>
+      </c>
       <c r="C83" s="54"/>
       <c r="D83" s="54"/>
       <c r="E83" s="54"/>
@@ -17749,7 +18196,9 @@
       <c r="AO83" s="60"/>
     </row>
     <row r="84" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B84" s="59"/>
+      <c r="B84" s="197">
+        <v>78</v>
+      </c>
       <c r="C84" s="54"/>
       <c r="D84" s="54"/>
       <c r="E84" s="54"/>
@@ -17772,7 +18221,9 @@
       <c r="AO84" s="60"/>
     </row>
     <row r="85" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B85" s="59"/>
+      <c r="B85" s="197">
+        <v>79</v>
+      </c>
       <c r="C85" s="54"/>
       <c r="D85" s="54"/>
       <c r="E85" s="54"/>
@@ -17795,7 +18246,9 @@
       <c r="AO85" s="60"/>
     </row>
     <row r="86" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B86" s="59"/>
+      <c r="B86" s="197">
+        <v>80</v>
+      </c>
       <c r="C86" s="54"/>
       <c r="D86" s="54"/>
       <c r="E86" s="54"/>
@@ -19469,7 +19922,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P159 WVX983047:WVX983199 WMB983047:WMB983199 WCF983047:WCF983199 VSJ983047:VSJ983199 VIN983047:VIN983199 UYR983047:UYR983199 UOV983047:UOV983199 UEZ983047:UEZ983199 TVD983047:TVD983199 TLH983047:TLH983199 TBL983047:TBL983199 SRP983047:SRP983199 SHT983047:SHT983199 RXX983047:RXX983199 ROB983047:ROB983199 REF983047:REF983199 QUJ983047:QUJ983199 QKN983047:QKN983199 QAR983047:QAR983199 PQV983047:PQV983199 PGZ983047:PGZ983199 OXD983047:OXD983199 ONH983047:ONH983199 ODL983047:ODL983199 NTP983047:NTP983199 NJT983047:NJT983199 MZX983047:MZX983199 MQB983047:MQB983199 MGF983047:MGF983199 LWJ983047:LWJ983199 LMN983047:LMN983199 LCR983047:LCR983199 KSV983047:KSV983199 KIZ983047:KIZ983199 JZD983047:JZD983199 JPH983047:JPH983199 JFL983047:JFL983199 IVP983047:IVP983199 ILT983047:ILT983199 IBX983047:IBX983199 HSB983047:HSB983199 HIF983047:HIF983199 GYJ983047:GYJ983199 GON983047:GON983199 GER983047:GER983199 FUV983047:FUV983199 FKZ983047:FKZ983199 FBD983047:FBD983199 ERH983047:ERH983199 EHL983047:EHL983199 DXP983047:DXP983199 DNT983047:DNT983199 DDX983047:DDX983199 CUB983047:CUB983199 CKF983047:CKF983199 CAJ983047:CAJ983199 BQN983047:BQN983199 BGR983047:BGR983199 AWV983047:AWV983199 AMZ983047:AMZ983199 ADD983047:ADD983199 TH983047:TH983199 JL983047:JL983199 P983047:P983199 WVX917511:WVX917663 WMB917511:WMB917663 WCF917511:WCF917663 VSJ917511:VSJ917663 VIN917511:VIN917663 UYR917511:UYR917663 UOV917511:UOV917663 UEZ917511:UEZ917663 TVD917511:TVD917663 TLH917511:TLH917663 TBL917511:TBL917663 SRP917511:SRP917663 SHT917511:SHT917663 RXX917511:RXX917663 ROB917511:ROB917663 REF917511:REF917663 QUJ917511:QUJ917663 QKN917511:QKN917663 QAR917511:QAR917663 PQV917511:PQV917663 PGZ917511:PGZ917663 OXD917511:OXD917663 ONH917511:ONH917663 ODL917511:ODL917663 NTP917511:NTP917663 NJT917511:NJT917663 MZX917511:MZX917663 MQB917511:MQB917663 MGF917511:MGF917663 LWJ917511:LWJ917663 LMN917511:LMN917663 LCR917511:LCR917663 KSV917511:KSV917663 KIZ917511:KIZ917663 JZD917511:JZD917663 JPH917511:JPH917663 JFL917511:JFL917663 IVP917511:IVP917663 ILT917511:ILT917663 IBX917511:IBX917663 HSB917511:HSB917663 HIF917511:HIF917663 GYJ917511:GYJ917663 GON917511:GON917663 GER917511:GER917663 FUV917511:FUV917663 FKZ917511:FKZ917663 FBD917511:FBD917663 ERH917511:ERH917663 EHL917511:EHL917663 DXP917511:DXP917663 DNT917511:DNT917663 DDX917511:DDX917663 CUB917511:CUB917663 CKF917511:CKF917663 CAJ917511:CAJ917663 BQN917511:BQN917663 BGR917511:BGR917663 AWV917511:AWV917663 AMZ917511:AMZ917663 ADD917511:ADD917663 TH917511:TH917663 JL917511:JL917663 P917511:P917663 WVX851975:WVX852127 WMB851975:WMB852127 WCF851975:WCF852127 VSJ851975:VSJ852127 VIN851975:VIN852127 UYR851975:UYR852127 UOV851975:UOV852127 UEZ851975:UEZ852127 TVD851975:TVD852127 TLH851975:TLH852127 TBL851975:TBL852127 SRP851975:SRP852127 SHT851975:SHT852127 RXX851975:RXX852127 ROB851975:ROB852127 REF851975:REF852127 QUJ851975:QUJ852127 QKN851975:QKN852127 QAR851975:QAR852127 PQV851975:PQV852127 PGZ851975:PGZ852127 OXD851975:OXD852127 ONH851975:ONH852127 ODL851975:ODL852127 NTP851975:NTP852127 NJT851975:NJT852127 MZX851975:MZX852127 MQB851975:MQB852127 MGF851975:MGF852127 LWJ851975:LWJ852127 LMN851975:LMN852127 LCR851975:LCR852127 KSV851975:KSV852127 KIZ851975:KIZ852127 JZD851975:JZD852127 JPH851975:JPH852127 JFL851975:JFL852127 IVP851975:IVP852127 ILT851975:ILT852127 IBX851975:IBX852127 HSB851975:HSB852127 HIF851975:HIF852127 GYJ851975:GYJ852127 GON851975:GON852127 GER851975:GER852127 FUV851975:FUV852127 FKZ851975:FKZ852127 FBD851975:FBD852127 ERH851975:ERH852127 EHL851975:EHL852127 DXP851975:DXP852127 DNT851975:DNT852127 DDX851975:DDX852127 CUB851975:CUB852127 CKF851975:CKF852127 CAJ851975:CAJ852127 BQN851975:BQN852127 BGR851975:BGR852127 AWV851975:AWV852127 AMZ851975:AMZ852127 ADD851975:ADD852127 TH851975:TH852127 JL851975:JL852127 P851975:P852127 WVX786439:WVX786591 WMB786439:WMB786591 WCF786439:WCF786591 VSJ786439:VSJ786591 VIN786439:VIN786591 UYR786439:UYR786591 UOV786439:UOV786591 UEZ786439:UEZ786591 TVD786439:TVD786591 TLH786439:TLH786591 TBL786439:TBL786591 SRP786439:SRP786591 SHT786439:SHT786591 RXX786439:RXX786591 ROB786439:ROB786591 REF786439:REF786591 QUJ786439:QUJ786591 QKN786439:QKN786591 QAR786439:QAR786591 PQV786439:PQV786591 PGZ786439:PGZ786591 OXD786439:OXD786591 ONH786439:ONH786591 ODL786439:ODL786591 NTP786439:NTP786591 NJT786439:NJT786591 MZX786439:MZX786591 MQB786439:MQB786591 MGF786439:MGF786591 LWJ786439:LWJ786591 LMN786439:LMN786591 LCR786439:LCR786591 KSV786439:KSV786591 KIZ786439:KIZ786591 JZD786439:JZD786591 JPH786439:JPH786591 JFL786439:JFL786591 IVP786439:IVP786591 ILT786439:ILT786591 IBX786439:IBX786591 HSB786439:HSB786591 HIF786439:HIF786591 GYJ786439:GYJ786591 GON786439:GON786591 GER786439:GER786591 FUV786439:FUV786591 FKZ786439:FKZ786591 FBD786439:FBD786591 ERH786439:ERH786591 EHL786439:EHL786591 DXP786439:DXP786591 DNT786439:DNT786591 DDX786439:DDX786591 CUB786439:CUB786591 CKF786439:CKF786591 CAJ786439:CAJ786591 BQN786439:BQN786591 BGR786439:BGR786591 AWV786439:AWV786591 AMZ786439:AMZ786591 ADD786439:ADD786591 TH786439:TH786591 JL786439:JL786591 P786439:P786591 WVX720903:WVX721055 WMB720903:WMB721055 WCF720903:WCF721055 VSJ720903:VSJ721055 VIN720903:VIN721055 UYR720903:UYR721055 UOV720903:UOV721055 UEZ720903:UEZ721055 TVD720903:TVD721055 TLH720903:TLH721055 TBL720903:TBL721055 SRP720903:SRP721055 SHT720903:SHT721055 RXX720903:RXX721055 ROB720903:ROB721055 REF720903:REF721055 QUJ720903:QUJ721055 QKN720903:QKN721055 QAR720903:QAR721055 PQV720903:PQV721055 PGZ720903:PGZ721055 OXD720903:OXD721055 ONH720903:ONH721055 ODL720903:ODL721055 NTP720903:NTP721055 NJT720903:NJT721055 MZX720903:MZX721055 MQB720903:MQB721055 MGF720903:MGF721055 LWJ720903:LWJ721055 LMN720903:LMN721055 LCR720903:LCR721055 KSV720903:KSV721055 KIZ720903:KIZ721055 JZD720903:JZD721055 JPH720903:JPH721055 JFL720903:JFL721055 IVP720903:IVP721055 ILT720903:ILT721055 IBX720903:IBX721055 HSB720903:HSB721055 HIF720903:HIF721055 GYJ720903:GYJ721055 GON720903:GON721055 GER720903:GER721055 FUV720903:FUV721055 FKZ720903:FKZ721055 FBD720903:FBD721055 ERH720903:ERH721055 EHL720903:EHL721055 DXP720903:DXP721055 DNT720903:DNT721055 DDX720903:DDX721055 CUB720903:CUB721055 CKF720903:CKF721055 CAJ720903:CAJ721055 BQN720903:BQN721055 BGR720903:BGR721055 AWV720903:AWV721055 AMZ720903:AMZ721055 ADD720903:ADD721055 TH720903:TH721055 JL720903:JL721055 P720903:P721055 WVX655367:WVX655519 WMB655367:WMB655519 WCF655367:WCF655519 VSJ655367:VSJ655519 VIN655367:VIN655519 UYR655367:UYR655519 UOV655367:UOV655519 UEZ655367:UEZ655519 TVD655367:TVD655519 TLH655367:TLH655519 TBL655367:TBL655519 SRP655367:SRP655519 SHT655367:SHT655519 RXX655367:RXX655519 ROB655367:ROB655519 REF655367:REF655519 QUJ655367:QUJ655519 QKN655367:QKN655519 QAR655367:QAR655519 PQV655367:PQV655519 PGZ655367:PGZ655519 OXD655367:OXD655519 ONH655367:ONH655519 ODL655367:ODL655519 NTP655367:NTP655519 NJT655367:NJT655519 MZX655367:MZX655519 MQB655367:MQB655519 MGF655367:MGF655519 LWJ655367:LWJ655519 LMN655367:LMN655519 LCR655367:LCR655519 KSV655367:KSV655519 KIZ655367:KIZ655519 JZD655367:JZD655519 JPH655367:JPH655519 JFL655367:JFL655519 IVP655367:IVP655519 ILT655367:ILT655519 IBX655367:IBX655519 HSB655367:HSB655519 HIF655367:HIF655519 GYJ655367:GYJ655519 GON655367:GON655519 GER655367:GER655519 FUV655367:FUV655519 FKZ655367:FKZ655519 FBD655367:FBD655519 ERH655367:ERH655519 EHL655367:EHL655519 DXP655367:DXP655519 DNT655367:DNT655519 DDX655367:DDX655519 CUB655367:CUB655519 CKF655367:CKF655519 CAJ655367:CAJ655519 BQN655367:BQN655519 BGR655367:BGR655519 AWV655367:AWV655519 AMZ655367:AMZ655519 ADD655367:ADD655519 TH655367:TH655519 JL655367:JL655519 P655367:P655519 WVX589831:WVX589983 WMB589831:WMB589983 WCF589831:WCF589983 VSJ589831:VSJ589983 VIN589831:VIN589983 UYR589831:UYR589983 UOV589831:UOV589983 UEZ589831:UEZ589983 TVD589831:TVD589983 TLH589831:TLH589983 TBL589831:TBL589983 SRP589831:SRP589983 SHT589831:SHT589983 RXX589831:RXX589983 ROB589831:ROB589983 REF589831:REF589983 QUJ589831:QUJ589983 QKN589831:QKN589983 QAR589831:QAR589983 PQV589831:PQV589983 PGZ589831:PGZ589983 OXD589831:OXD589983 ONH589831:ONH589983 ODL589831:ODL589983 NTP589831:NTP589983 NJT589831:NJT589983 MZX589831:MZX589983 MQB589831:MQB589983 MGF589831:MGF589983 LWJ589831:LWJ589983 LMN589831:LMN589983 LCR589831:LCR589983 KSV589831:KSV589983 KIZ589831:KIZ589983 JZD589831:JZD589983 JPH589831:JPH589983 JFL589831:JFL589983 IVP589831:IVP589983 ILT589831:ILT589983 IBX589831:IBX589983 HSB589831:HSB589983 HIF589831:HIF589983 GYJ589831:GYJ589983 GON589831:GON589983 GER589831:GER589983 FUV589831:FUV589983 FKZ589831:FKZ589983 FBD589831:FBD589983 ERH589831:ERH589983 EHL589831:EHL589983 DXP589831:DXP589983 DNT589831:DNT589983 DDX589831:DDX589983 CUB589831:CUB589983 CKF589831:CKF589983 CAJ589831:CAJ589983 BQN589831:BQN589983 BGR589831:BGR589983 AWV589831:AWV589983 AMZ589831:AMZ589983 ADD589831:ADD589983 TH589831:TH589983 JL589831:JL589983 P589831:P589983 WVX524295:WVX524447 WMB524295:WMB524447 WCF524295:WCF524447 VSJ524295:VSJ524447 VIN524295:VIN524447 UYR524295:UYR524447 UOV524295:UOV524447 UEZ524295:UEZ524447 TVD524295:TVD524447 TLH524295:TLH524447 TBL524295:TBL524447 SRP524295:SRP524447 SHT524295:SHT524447 RXX524295:RXX524447 ROB524295:ROB524447 REF524295:REF524447 QUJ524295:QUJ524447 QKN524295:QKN524447 QAR524295:QAR524447 PQV524295:PQV524447 PGZ524295:PGZ524447 OXD524295:OXD524447 ONH524295:ONH524447 ODL524295:ODL524447 NTP524295:NTP524447 NJT524295:NJT524447 MZX524295:MZX524447 MQB524295:MQB524447 MGF524295:MGF524447 LWJ524295:LWJ524447 LMN524295:LMN524447 LCR524295:LCR524447 KSV524295:KSV524447 KIZ524295:KIZ524447 JZD524295:JZD524447 JPH524295:JPH524447 JFL524295:JFL524447 IVP524295:IVP524447 ILT524295:ILT524447 IBX524295:IBX524447 HSB524295:HSB524447 HIF524295:HIF524447 GYJ524295:GYJ524447 GON524295:GON524447 GER524295:GER524447 FUV524295:FUV524447 FKZ524295:FKZ524447 FBD524295:FBD524447 ERH524295:ERH524447 EHL524295:EHL524447 DXP524295:DXP524447 DNT524295:DNT524447 DDX524295:DDX524447 CUB524295:CUB524447 CKF524295:CKF524447 CAJ524295:CAJ524447 BQN524295:BQN524447 BGR524295:BGR524447 AWV524295:AWV524447 AMZ524295:AMZ524447 ADD524295:ADD524447 TH524295:TH524447 JL524295:JL524447 P524295:P524447 WVX458759:WVX458911 WMB458759:WMB458911 WCF458759:WCF458911 VSJ458759:VSJ458911 VIN458759:VIN458911 UYR458759:UYR458911 UOV458759:UOV458911 UEZ458759:UEZ458911 TVD458759:TVD458911 TLH458759:TLH458911 TBL458759:TBL458911 SRP458759:SRP458911 SHT458759:SHT458911 RXX458759:RXX458911 ROB458759:ROB458911 REF458759:REF458911 QUJ458759:QUJ458911 QKN458759:QKN458911 QAR458759:QAR458911 PQV458759:PQV458911 PGZ458759:PGZ458911 OXD458759:OXD458911 ONH458759:ONH458911 ODL458759:ODL458911 NTP458759:NTP458911 NJT458759:NJT458911 MZX458759:MZX458911 MQB458759:MQB458911 MGF458759:MGF458911 LWJ458759:LWJ458911 LMN458759:LMN458911 LCR458759:LCR458911 KSV458759:KSV458911 KIZ458759:KIZ458911 JZD458759:JZD458911 JPH458759:JPH458911 JFL458759:JFL458911 IVP458759:IVP458911 ILT458759:ILT458911 IBX458759:IBX458911 HSB458759:HSB458911 HIF458759:HIF458911 GYJ458759:GYJ458911 GON458759:GON458911 GER458759:GER458911 FUV458759:FUV458911 FKZ458759:FKZ458911 FBD458759:FBD458911 ERH458759:ERH458911 EHL458759:EHL458911 DXP458759:DXP458911 DNT458759:DNT458911 DDX458759:DDX458911 CUB458759:CUB458911 CKF458759:CKF458911 CAJ458759:CAJ458911 BQN458759:BQN458911 BGR458759:BGR458911 AWV458759:AWV458911 AMZ458759:AMZ458911 ADD458759:ADD458911 TH458759:TH458911 JL458759:JL458911 P458759:P458911 WVX393223:WVX393375 WMB393223:WMB393375 WCF393223:WCF393375 VSJ393223:VSJ393375 VIN393223:VIN393375 UYR393223:UYR393375 UOV393223:UOV393375 UEZ393223:UEZ393375 TVD393223:TVD393375 TLH393223:TLH393375 TBL393223:TBL393375 SRP393223:SRP393375 SHT393223:SHT393375 RXX393223:RXX393375 ROB393223:ROB393375 REF393223:REF393375 QUJ393223:QUJ393375 QKN393223:QKN393375 QAR393223:QAR393375 PQV393223:PQV393375 PGZ393223:PGZ393375 OXD393223:OXD393375 ONH393223:ONH393375 ODL393223:ODL393375 NTP393223:NTP393375 NJT393223:NJT393375 MZX393223:MZX393375 MQB393223:MQB393375 MGF393223:MGF393375 LWJ393223:LWJ393375 LMN393223:LMN393375 LCR393223:LCR393375 KSV393223:KSV393375 KIZ393223:KIZ393375 JZD393223:JZD393375 JPH393223:JPH393375 JFL393223:JFL393375 IVP393223:IVP393375 ILT393223:ILT393375 IBX393223:IBX393375 HSB393223:HSB393375 HIF393223:HIF393375 GYJ393223:GYJ393375 GON393223:GON393375 GER393223:GER393375 FUV393223:FUV393375 FKZ393223:FKZ393375 FBD393223:FBD393375 ERH393223:ERH393375 EHL393223:EHL393375 DXP393223:DXP393375 DNT393223:DNT393375 DDX393223:DDX393375 CUB393223:CUB393375 CKF393223:CKF393375 CAJ393223:CAJ393375 BQN393223:BQN393375 BGR393223:BGR393375 AWV393223:AWV393375 AMZ393223:AMZ393375 ADD393223:ADD393375 TH393223:TH393375 JL393223:JL393375 P393223:P393375 WVX327687:WVX327839 WMB327687:WMB327839 WCF327687:WCF327839 VSJ327687:VSJ327839 VIN327687:VIN327839 UYR327687:UYR327839 UOV327687:UOV327839 UEZ327687:UEZ327839 TVD327687:TVD327839 TLH327687:TLH327839 TBL327687:TBL327839 SRP327687:SRP327839 SHT327687:SHT327839 RXX327687:RXX327839 ROB327687:ROB327839 REF327687:REF327839 QUJ327687:QUJ327839 QKN327687:QKN327839 QAR327687:QAR327839 PQV327687:PQV327839 PGZ327687:PGZ327839 OXD327687:OXD327839 ONH327687:ONH327839 ODL327687:ODL327839 NTP327687:NTP327839 NJT327687:NJT327839 MZX327687:MZX327839 MQB327687:MQB327839 MGF327687:MGF327839 LWJ327687:LWJ327839 LMN327687:LMN327839 LCR327687:LCR327839 KSV327687:KSV327839 KIZ327687:KIZ327839 JZD327687:JZD327839 JPH327687:JPH327839 JFL327687:JFL327839 IVP327687:IVP327839 ILT327687:ILT327839 IBX327687:IBX327839 HSB327687:HSB327839 HIF327687:HIF327839 GYJ327687:GYJ327839 GON327687:GON327839 GER327687:GER327839 FUV327687:FUV327839 FKZ327687:FKZ327839 FBD327687:FBD327839 ERH327687:ERH327839 EHL327687:EHL327839 DXP327687:DXP327839 DNT327687:DNT327839 DDX327687:DDX327839 CUB327687:CUB327839 CKF327687:CKF327839 CAJ327687:CAJ327839 BQN327687:BQN327839 BGR327687:BGR327839 AWV327687:AWV327839 AMZ327687:AMZ327839 ADD327687:ADD327839 TH327687:TH327839 JL327687:JL327839 P327687:P327839 WVX262151:WVX262303 WMB262151:WMB262303 WCF262151:WCF262303 VSJ262151:VSJ262303 VIN262151:VIN262303 UYR262151:UYR262303 UOV262151:UOV262303 UEZ262151:UEZ262303 TVD262151:TVD262303 TLH262151:TLH262303 TBL262151:TBL262303 SRP262151:SRP262303 SHT262151:SHT262303 RXX262151:RXX262303 ROB262151:ROB262303 REF262151:REF262303 QUJ262151:QUJ262303 QKN262151:QKN262303 QAR262151:QAR262303 PQV262151:PQV262303 PGZ262151:PGZ262303 OXD262151:OXD262303 ONH262151:ONH262303 ODL262151:ODL262303 NTP262151:NTP262303 NJT262151:NJT262303 MZX262151:MZX262303 MQB262151:MQB262303 MGF262151:MGF262303 LWJ262151:LWJ262303 LMN262151:LMN262303 LCR262151:LCR262303 KSV262151:KSV262303 KIZ262151:KIZ262303 JZD262151:JZD262303 JPH262151:JPH262303 JFL262151:JFL262303 IVP262151:IVP262303 ILT262151:ILT262303 IBX262151:IBX262303 HSB262151:HSB262303 HIF262151:HIF262303 GYJ262151:GYJ262303 GON262151:GON262303 GER262151:GER262303 FUV262151:FUV262303 FKZ262151:FKZ262303 FBD262151:FBD262303 ERH262151:ERH262303 EHL262151:EHL262303 DXP262151:DXP262303 DNT262151:DNT262303 DDX262151:DDX262303 CUB262151:CUB262303 CKF262151:CKF262303 CAJ262151:CAJ262303 BQN262151:BQN262303 BGR262151:BGR262303 AWV262151:AWV262303 AMZ262151:AMZ262303 ADD262151:ADD262303 TH262151:TH262303 JL262151:JL262303 P262151:P262303 WVX196615:WVX196767 WMB196615:WMB196767 WCF196615:WCF196767 VSJ196615:VSJ196767 VIN196615:VIN196767 UYR196615:UYR196767 UOV196615:UOV196767 UEZ196615:UEZ196767 TVD196615:TVD196767 TLH196615:TLH196767 TBL196615:TBL196767 SRP196615:SRP196767 SHT196615:SHT196767 RXX196615:RXX196767 ROB196615:ROB196767 REF196615:REF196767 QUJ196615:QUJ196767 QKN196615:QKN196767 QAR196615:QAR196767 PQV196615:PQV196767 PGZ196615:PGZ196767 OXD196615:OXD196767 ONH196615:ONH196767 ODL196615:ODL196767 NTP196615:NTP196767 NJT196615:NJT196767 MZX196615:MZX196767 MQB196615:MQB196767 MGF196615:MGF196767 LWJ196615:LWJ196767 LMN196615:LMN196767 LCR196615:LCR196767 KSV196615:KSV196767 KIZ196615:KIZ196767 JZD196615:JZD196767 JPH196615:JPH196767 JFL196615:JFL196767 IVP196615:IVP196767 ILT196615:ILT196767 IBX196615:IBX196767 HSB196615:HSB196767 HIF196615:HIF196767 GYJ196615:GYJ196767 GON196615:GON196767 GER196615:GER196767 FUV196615:FUV196767 FKZ196615:FKZ196767 FBD196615:FBD196767 ERH196615:ERH196767 EHL196615:EHL196767 DXP196615:DXP196767 DNT196615:DNT196767 DDX196615:DDX196767 CUB196615:CUB196767 CKF196615:CKF196767 CAJ196615:CAJ196767 BQN196615:BQN196767 BGR196615:BGR196767 AWV196615:AWV196767 AMZ196615:AMZ196767 ADD196615:ADD196767 TH196615:TH196767 JL196615:JL196767 P196615:P196767 WVX131079:WVX131231 WMB131079:WMB131231 WCF131079:WCF131231 VSJ131079:VSJ131231 VIN131079:VIN131231 UYR131079:UYR131231 UOV131079:UOV131231 UEZ131079:UEZ131231 TVD131079:TVD131231 TLH131079:TLH131231 TBL131079:TBL131231 SRP131079:SRP131231 SHT131079:SHT131231 RXX131079:RXX131231 ROB131079:ROB131231 REF131079:REF131231 QUJ131079:QUJ131231 QKN131079:QKN131231 QAR131079:QAR131231 PQV131079:PQV131231 PGZ131079:PGZ131231 OXD131079:OXD131231 ONH131079:ONH131231 ODL131079:ODL131231 NTP131079:NTP131231 NJT131079:NJT131231 MZX131079:MZX131231 MQB131079:MQB131231 MGF131079:MGF131231 LWJ131079:LWJ131231 LMN131079:LMN131231 LCR131079:LCR131231 KSV131079:KSV131231 KIZ131079:KIZ131231 JZD131079:JZD131231 JPH131079:JPH131231 JFL131079:JFL131231 IVP131079:IVP131231 ILT131079:ILT131231 IBX131079:IBX131231 HSB131079:HSB131231 HIF131079:HIF131231 GYJ131079:GYJ131231 GON131079:GON131231 GER131079:GER131231 FUV131079:FUV131231 FKZ131079:FKZ131231 FBD131079:FBD131231 ERH131079:ERH131231 EHL131079:EHL131231 DXP131079:DXP131231 DNT131079:DNT131231 DDX131079:DDX131231 CUB131079:CUB131231 CKF131079:CKF131231 CAJ131079:CAJ131231 BQN131079:BQN131231 BGR131079:BGR131231 AWV131079:AWV131231 AMZ131079:AMZ131231 ADD131079:ADD131231 TH131079:TH131231 JL131079:JL131231 P131079:P131231 WVX65543:WVX65695 WMB65543:WMB65695 WCF65543:WCF65695 VSJ65543:VSJ65695 VIN65543:VIN65695 UYR65543:UYR65695 UOV65543:UOV65695 UEZ65543:UEZ65695 TVD65543:TVD65695 TLH65543:TLH65695 TBL65543:TBL65695 SRP65543:SRP65695 SHT65543:SHT65695 RXX65543:RXX65695 ROB65543:ROB65695 REF65543:REF65695 QUJ65543:QUJ65695 QKN65543:QKN65695 QAR65543:QAR65695 PQV65543:PQV65695 PGZ65543:PGZ65695 OXD65543:OXD65695 ONH65543:ONH65695 ODL65543:ODL65695 NTP65543:NTP65695 NJT65543:NJT65695 MZX65543:MZX65695 MQB65543:MQB65695 MGF65543:MGF65695 LWJ65543:LWJ65695 LMN65543:LMN65695 LCR65543:LCR65695 KSV65543:KSV65695 KIZ65543:KIZ65695 JZD65543:JZD65695 JPH65543:JPH65695 JFL65543:JFL65695 IVP65543:IVP65695 ILT65543:ILT65695 IBX65543:IBX65695 HSB65543:HSB65695 HIF65543:HIF65695 GYJ65543:GYJ65695 GON65543:GON65695 GER65543:GER65695 FUV65543:FUV65695 FKZ65543:FKZ65695 FBD65543:FBD65695 ERH65543:ERH65695 EHL65543:EHL65695 DXP65543:DXP65695 DNT65543:DNT65695 DDX65543:DDX65695 CUB65543:CUB65695 CKF65543:CKF65695 CAJ65543:CAJ65695 BQN65543:BQN65695 BGR65543:BGR65695 AWV65543:AWV65695 AMZ65543:AMZ65695 ADD65543:ADD65695 TH65543:TH65695 JL65543:JL65695 P65543:P65695 WVX7:WVX159 WMB7:WMB159 WCF7:WCF159 VSJ7:VSJ159 VIN7:VIN159 UYR7:UYR159 UOV7:UOV159 UEZ7:UEZ159 TVD7:TVD159 TLH7:TLH159 TBL7:TBL159 SRP7:SRP159 SHT7:SHT159 RXX7:RXX159 ROB7:ROB159 REF7:REF159 QUJ7:QUJ159 QKN7:QKN159 QAR7:QAR159 PQV7:PQV159 PGZ7:PGZ159 OXD7:OXD159 ONH7:ONH159 ODL7:ODL159 NTP7:NTP159 NJT7:NJT159 MZX7:MZX159 MQB7:MQB159 MGF7:MGF159 LWJ7:LWJ159 LMN7:LMN159 LCR7:LCR159 KSV7:KSV159 KIZ7:KIZ159 JZD7:JZD159 JPH7:JPH159 JFL7:JFL159 IVP7:IVP159 ILT7:ILT159 IBX7:IBX159 HSB7:HSB159 HIF7:HIF159 GYJ7:GYJ159 GON7:GON159 GER7:GER159 FUV7:FUV159 FKZ7:FKZ159 FBD7:FBD159 ERH7:ERH159 EHL7:EHL159 DXP7:DXP159 DNT7:DNT159 DDX7:DDX159 CUB7:CUB159 CKF7:CKF159 CAJ7:CAJ159 BQN7:BQN159 BGR7:BGR159 AWV7:AWV159 AMZ7:AMZ159 ADD7:ADD159 TH7:TH159 JL7:JL159" xr:uid="{E7830AF5-61D6-458D-A73E-440033A2476A}">
       <formula1>$AT$44:$AT$56</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K159 WVS983047:WVS983199 WLW983047:WLW983199 WCA983047:WCA983199 VSE983047:VSE983199 VII983047:VII983199 UYM983047:UYM983199 UOQ983047:UOQ983199 UEU983047:UEU983199 TUY983047:TUY983199 TLC983047:TLC983199 TBG983047:TBG983199 SRK983047:SRK983199 SHO983047:SHO983199 RXS983047:RXS983199 RNW983047:RNW983199 REA983047:REA983199 QUE983047:QUE983199 QKI983047:QKI983199 QAM983047:QAM983199 PQQ983047:PQQ983199 PGU983047:PGU983199 OWY983047:OWY983199 ONC983047:ONC983199 ODG983047:ODG983199 NTK983047:NTK983199 NJO983047:NJO983199 MZS983047:MZS983199 MPW983047:MPW983199 MGA983047:MGA983199 LWE983047:LWE983199 LMI983047:LMI983199 LCM983047:LCM983199 KSQ983047:KSQ983199 KIU983047:KIU983199 JYY983047:JYY983199 JPC983047:JPC983199 JFG983047:JFG983199 IVK983047:IVK983199 ILO983047:ILO983199 IBS983047:IBS983199 HRW983047:HRW983199 HIA983047:HIA983199 GYE983047:GYE983199 GOI983047:GOI983199 GEM983047:GEM983199 FUQ983047:FUQ983199 FKU983047:FKU983199 FAY983047:FAY983199 ERC983047:ERC983199 EHG983047:EHG983199 DXK983047:DXK983199 DNO983047:DNO983199 DDS983047:DDS983199 CTW983047:CTW983199 CKA983047:CKA983199 CAE983047:CAE983199 BQI983047:BQI983199 BGM983047:BGM983199 AWQ983047:AWQ983199 AMU983047:AMU983199 ACY983047:ACY983199 TC983047:TC983199 JG983047:JG983199 K983047:K983199 WVS917511:WVS917663 WLW917511:WLW917663 WCA917511:WCA917663 VSE917511:VSE917663 VII917511:VII917663 UYM917511:UYM917663 UOQ917511:UOQ917663 UEU917511:UEU917663 TUY917511:TUY917663 TLC917511:TLC917663 TBG917511:TBG917663 SRK917511:SRK917663 SHO917511:SHO917663 RXS917511:RXS917663 RNW917511:RNW917663 REA917511:REA917663 QUE917511:QUE917663 QKI917511:QKI917663 QAM917511:QAM917663 PQQ917511:PQQ917663 PGU917511:PGU917663 OWY917511:OWY917663 ONC917511:ONC917663 ODG917511:ODG917663 NTK917511:NTK917663 NJO917511:NJO917663 MZS917511:MZS917663 MPW917511:MPW917663 MGA917511:MGA917663 LWE917511:LWE917663 LMI917511:LMI917663 LCM917511:LCM917663 KSQ917511:KSQ917663 KIU917511:KIU917663 JYY917511:JYY917663 JPC917511:JPC917663 JFG917511:JFG917663 IVK917511:IVK917663 ILO917511:ILO917663 IBS917511:IBS917663 HRW917511:HRW917663 HIA917511:HIA917663 GYE917511:GYE917663 GOI917511:GOI917663 GEM917511:GEM917663 FUQ917511:FUQ917663 FKU917511:FKU917663 FAY917511:FAY917663 ERC917511:ERC917663 EHG917511:EHG917663 DXK917511:DXK917663 DNO917511:DNO917663 DDS917511:DDS917663 CTW917511:CTW917663 CKA917511:CKA917663 CAE917511:CAE917663 BQI917511:BQI917663 BGM917511:BGM917663 AWQ917511:AWQ917663 AMU917511:AMU917663 ACY917511:ACY917663 TC917511:TC917663 JG917511:JG917663 K917511:K917663 WVS851975:WVS852127 WLW851975:WLW852127 WCA851975:WCA852127 VSE851975:VSE852127 VII851975:VII852127 UYM851975:UYM852127 UOQ851975:UOQ852127 UEU851975:UEU852127 TUY851975:TUY852127 TLC851975:TLC852127 TBG851975:TBG852127 SRK851975:SRK852127 SHO851975:SHO852127 RXS851975:RXS852127 RNW851975:RNW852127 REA851975:REA852127 QUE851975:QUE852127 QKI851975:QKI852127 QAM851975:QAM852127 PQQ851975:PQQ852127 PGU851975:PGU852127 OWY851975:OWY852127 ONC851975:ONC852127 ODG851975:ODG852127 NTK851975:NTK852127 NJO851975:NJO852127 MZS851975:MZS852127 MPW851975:MPW852127 MGA851975:MGA852127 LWE851975:LWE852127 LMI851975:LMI852127 LCM851975:LCM852127 KSQ851975:KSQ852127 KIU851975:KIU852127 JYY851975:JYY852127 JPC851975:JPC852127 JFG851975:JFG852127 IVK851975:IVK852127 ILO851975:ILO852127 IBS851975:IBS852127 HRW851975:HRW852127 HIA851975:HIA852127 GYE851975:GYE852127 GOI851975:GOI852127 GEM851975:GEM852127 FUQ851975:FUQ852127 FKU851975:FKU852127 FAY851975:FAY852127 ERC851975:ERC852127 EHG851975:EHG852127 DXK851975:DXK852127 DNO851975:DNO852127 DDS851975:DDS852127 CTW851975:CTW852127 CKA851975:CKA852127 CAE851975:CAE852127 BQI851975:BQI852127 BGM851975:BGM852127 AWQ851975:AWQ852127 AMU851975:AMU852127 ACY851975:ACY852127 TC851975:TC852127 JG851975:JG852127 K851975:K852127 WVS786439:WVS786591 WLW786439:WLW786591 WCA786439:WCA786591 VSE786439:VSE786591 VII786439:VII786591 UYM786439:UYM786591 UOQ786439:UOQ786591 UEU786439:UEU786591 TUY786439:TUY786591 TLC786439:TLC786591 TBG786439:TBG786591 SRK786439:SRK786591 SHO786439:SHO786591 RXS786439:RXS786591 RNW786439:RNW786591 REA786439:REA786591 QUE786439:QUE786591 QKI786439:QKI786591 QAM786439:QAM786591 PQQ786439:PQQ786591 PGU786439:PGU786591 OWY786439:OWY786591 ONC786439:ONC786591 ODG786439:ODG786591 NTK786439:NTK786591 NJO786439:NJO786591 MZS786439:MZS786591 MPW786439:MPW786591 MGA786439:MGA786591 LWE786439:LWE786591 LMI786439:LMI786591 LCM786439:LCM786591 KSQ786439:KSQ786591 KIU786439:KIU786591 JYY786439:JYY786591 JPC786439:JPC786591 JFG786439:JFG786591 IVK786439:IVK786591 ILO786439:ILO786591 IBS786439:IBS786591 HRW786439:HRW786591 HIA786439:HIA786591 GYE786439:GYE786591 GOI786439:GOI786591 GEM786439:GEM786591 FUQ786439:FUQ786591 FKU786439:FKU786591 FAY786439:FAY786591 ERC786439:ERC786591 EHG786439:EHG786591 DXK786439:DXK786591 DNO786439:DNO786591 DDS786439:DDS786591 CTW786439:CTW786591 CKA786439:CKA786591 CAE786439:CAE786591 BQI786439:BQI786591 BGM786439:BGM786591 AWQ786439:AWQ786591 AMU786439:AMU786591 ACY786439:ACY786591 TC786439:TC786591 JG786439:JG786591 K786439:K786591 WVS720903:WVS721055 WLW720903:WLW721055 WCA720903:WCA721055 VSE720903:VSE721055 VII720903:VII721055 UYM720903:UYM721055 UOQ720903:UOQ721055 UEU720903:UEU721055 TUY720903:TUY721055 TLC720903:TLC721055 TBG720903:TBG721055 SRK720903:SRK721055 SHO720903:SHO721055 RXS720903:RXS721055 RNW720903:RNW721055 REA720903:REA721055 QUE720903:QUE721055 QKI720903:QKI721055 QAM720903:QAM721055 PQQ720903:PQQ721055 PGU720903:PGU721055 OWY720903:OWY721055 ONC720903:ONC721055 ODG720903:ODG721055 NTK720903:NTK721055 NJO720903:NJO721055 MZS720903:MZS721055 MPW720903:MPW721055 MGA720903:MGA721055 LWE720903:LWE721055 LMI720903:LMI721055 LCM720903:LCM721055 KSQ720903:KSQ721055 KIU720903:KIU721055 JYY720903:JYY721055 JPC720903:JPC721055 JFG720903:JFG721055 IVK720903:IVK721055 ILO720903:ILO721055 IBS720903:IBS721055 HRW720903:HRW721055 HIA720903:HIA721055 GYE720903:GYE721055 GOI720903:GOI721055 GEM720903:GEM721055 FUQ720903:FUQ721055 FKU720903:FKU721055 FAY720903:FAY721055 ERC720903:ERC721055 EHG720903:EHG721055 DXK720903:DXK721055 DNO720903:DNO721055 DDS720903:DDS721055 CTW720903:CTW721055 CKA720903:CKA721055 CAE720903:CAE721055 BQI720903:BQI721055 BGM720903:BGM721055 AWQ720903:AWQ721055 AMU720903:AMU721055 ACY720903:ACY721055 TC720903:TC721055 JG720903:JG721055 K720903:K721055 WVS655367:WVS655519 WLW655367:WLW655519 WCA655367:WCA655519 VSE655367:VSE655519 VII655367:VII655519 UYM655367:UYM655519 UOQ655367:UOQ655519 UEU655367:UEU655519 TUY655367:TUY655519 TLC655367:TLC655519 TBG655367:TBG655519 SRK655367:SRK655519 SHO655367:SHO655519 RXS655367:RXS655519 RNW655367:RNW655519 REA655367:REA655519 QUE655367:QUE655519 QKI655367:QKI655519 QAM655367:QAM655519 PQQ655367:PQQ655519 PGU655367:PGU655519 OWY655367:OWY655519 ONC655367:ONC655519 ODG655367:ODG655519 NTK655367:NTK655519 NJO655367:NJO655519 MZS655367:MZS655519 MPW655367:MPW655519 MGA655367:MGA655519 LWE655367:LWE655519 LMI655367:LMI655519 LCM655367:LCM655519 KSQ655367:KSQ655519 KIU655367:KIU655519 JYY655367:JYY655519 JPC655367:JPC655519 JFG655367:JFG655519 IVK655367:IVK655519 ILO655367:ILO655519 IBS655367:IBS655519 HRW655367:HRW655519 HIA655367:HIA655519 GYE655367:GYE655519 GOI655367:GOI655519 GEM655367:GEM655519 FUQ655367:FUQ655519 FKU655367:FKU655519 FAY655367:FAY655519 ERC655367:ERC655519 EHG655367:EHG655519 DXK655367:DXK655519 DNO655367:DNO655519 DDS655367:DDS655519 CTW655367:CTW655519 CKA655367:CKA655519 CAE655367:CAE655519 BQI655367:BQI655519 BGM655367:BGM655519 AWQ655367:AWQ655519 AMU655367:AMU655519 ACY655367:ACY655519 TC655367:TC655519 JG655367:JG655519 K655367:K655519 WVS589831:WVS589983 WLW589831:WLW589983 WCA589831:WCA589983 VSE589831:VSE589983 VII589831:VII589983 UYM589831:UYM589983 UOQ589831:UOQ589983 UEU589831:UEU589983 TUY589831:TUY589983 TLC589831:TLC589983 TBG589831:TBG589983 SRK589831:SRK589983 SHO589831:SHO589983 RXS589831:RXS589983 RNW589831:RNW589983 REA589831:REA589983 QUE589831:QUE589983 QKI589831:QKI589983 QAM589831:QAM589983 PQQ589831:PQQ589983 PGU589831:PGU589983 OWY589831:OWY589983 ONC589831:ONC589983 ODG589831:ODG589983 NTK589831:NTK589983 NJO589831:NJO589983 MZS589831:MZS589983 MPW589831:MPW589983 MGA589831:MGA589983 LWE589831:LWE589983 LMI589831:LMI589983 LCM589831:LCM589983 KSQ589831:KSQ589983 KIU589831:KIU589983 JYY589831:JYY589983 JPC589831:JPC589983 JFG589831:JFG589983 IVK589831:IVK589983 ILO589831:ILO589983 IBS589831:IBS589983 HRW589831:HRW589983 HIA589831:HIA589983 GYE589831:GYE589983 GOI589831:GOI589983 GEM589831:GEM589983 FUQ589831:FUQ589983 FKU589831:FKU589983 FAY589831:FAY589983 ERC589831:ERC589983 EHG589831:EHG589983 DXK589831:DXK589983 DNO589831:DNO589983 DDS589831:DDS589983 CTW589831:CTW589983 CKA589831:CKA589983 CAE589831:CAE589983 BQI589831:BQI589983 BGM589831:BGM589983 AWQ589831:AWQ589983 AMU589831:AMU589983 ACY589831:ACY589983 TC589831:TC589983 JG589831:JG589983 K589831:K589983 WVS524295:WVS524447 WLW524295:WLW524447 WCA524295:WCA524447 VSE524295:VSE524447 VII524295:VII524447 UYM524295:UYM524447 UOQ524295:UOQ524447 UEU524295:UEU524447 TUY524295:TUY524447 TLC524295:TLC524447 TBG524295:TBG524447 SRK524295:SRK524447 SHO524295:SHO524447 RXS524295:RXS524447 RNW524295:RNW524447 REA524295:REA524447 QUE524295:QUE524447 QKI524295:QKI524447 QAM524295:QAM524447 PQQ524295:PQQ524447 PGU524295:PGU524447 OWY524295:OWY524447 ONC524295:ONC524447 ODG524295:ODG524447 NTK524295:NTK524447 NJO524295:NJO524447 MZS524295:MZS524447 MPW524295:MPW524447 MGA524295:MGA524447 LWE524295:LWE524447 LMI524295:LMI524447 LCM524295:LCM524447 KSQ524295:KSQ524447 KIU524295:KIU524447 JYY524295:JYY524447 JPC524295:JPC524447 JFG524295:JFG524447 IVK524295:IVK524447 ILO524295:ILO524447 IBS524295:IBS524447 HRW524295:HRW524447 HIA524295:HIA524447 GYE524295:GYE524447 GOI524295:GOI524447 GEM524295:GEM524447 FUQ524295:FUQ524447 FKU524295:FKU524447 FAY524295:FAY524447 ERC524295:ERC524447 EHG524295:EHG524447 DXK524295:DXK524447 DNO524295:DNO524447 DDS524295:DDS524447 CTW524295:CTW524447 CKA524295:CKA524447 CAE524295:CAE524447 BQI524295:BQI524447 BGM524295:BGM524447 AWQ524295:AWQ524447 AMU524295:AMU524447 ACY524295:ACY524447 TC524295:TC524447 JG524295:JG524447 K524295:K524447 WVS458759:WVS458911 WLW458759:WLW458911 WCA458759:WCA458911 VSE458759:VSE458911 VII458759:VII458911 UYM458759:UYM458911 UOQ458759:UOQ458911 UEU458759:UEU458911 TUY458759:TUY458911 TLC458759:TLC458911 TBG458759:TBG458911 SRK458759:SRK458911 SHO458759:SHO458911 RXS458759:RXS458911 RNW458759:RNW458911 REA458759:REA458911 QUE458759:QUE458911 QKI458759:QKI458911 QAM458759:QAM458911 PQQ458759:PQQ458911 PGU458759:PGU458911 OWY458759:OWY458911 ONC458759:ONC458911 ODG458759:ODG458911 NTK458759:NTK458911 NJO458759:NJO458911 MZS458759:MZS458911 MPW458759:MPW458911 MGA458759:MGA458911 LWE458759:LWE458911 LMI458759:LMI458911 LCM458759:LCM458911 KSQ458759:KSQ458911 KIU458759:KIU458911 JYY458759:JYY458911 JPC458759:JPC458911 JFG458759:JFG458911 IVK458759:IVK458911 ILO458759:ILO458911 IBS458759:IBS458911 HRW458759:HRW458911 HIA458759:HIA458911 GYE458759:GYE458911 GOI458759:GOI458911 GEM458759:GEM458911 FUQ458759:FUQ458911 FKU458759:FKU458911 FAY458759:FAY458911 ERC458759:ERC458911 EHG458759:EHG458911 DXK458759:DXK458911 DNO458759:DNO458911 DDS458759:DDS458911 CTW458759:CTW458911 CKA458759:CKA458911 CAE458759:CAE458911 BQI458759:BQI458911 BGM458759:BGM458911 AWQ458759:AWQ458911 AMU458759:AMU458911 ACY458759:ACY458911 TC458759:TC458911 JG458759:JG458911 K458759:K458911 WVS393223:WVS393375 WLW393223:WLW393375 WCA393223:WCA393375 VSE393223:VSE393375 VII393223:VII393375 UYM393223:UYM393375 UOQ393223:UOQ393375 UEU393223:UEU393375 TUY393223:TUY393375 TLC393223:TLC393375 TBG393223:TBG393375 SRK393223:SRK393375 SHO393223:SHO393375 RXS393223:RXS393375 RNW393223:RNW393375 REA393223:REA393375 QUE393223:QUE393375 QKI393223:QKI393375 QAM393223:QAM393375 PQQ393223:PQQ393375 PGU393223:PGU393375 OWY393223:OWY393375 ONC393223:ONC393375 ODG393223:ODG393375 NTK393223:NTK393375 NJO393223:NJO393375 MZS393223:MZS393375 MPW393223:MPW393375 MGA393223:MGA393375 LWE393223:LWE393375 LMI393223:LMI393375 LCM393223:LCM393375 KSQ393223:KSQ393375 KIU393223:KIU393375 JYY393223:JYY393375 JPC393223:JPC393375 JFG393223:JFG393375 IVK393223:IVK393375 ILO393223:ILO393375 IBS393223:IBS393375 HRW393223:HRW393375 HIA393223:HIA393375 GYE393223:GYE393375 GOI393223:GOI393375 GEM393223:GEM393375 FUQ393223:FUQ393375 FKU393223:FKU393375 FAY393223:FAY393375 ERC393223:ERC393375 EHG393223:EHG393375 DXK393223:DXK393375 DNO393223:DNO393375 DDS393223:DDS393375 CTW393223:CTW393375 CKA393223:CKA393375 CAE393223:CAE393375 BQI393223:BQI393375 BGM393223:BGM393375 AWQ393223:AWQ393375 AMU393223:AMU393375 ACY393223:ACY393375 TC393223:TC393375 JG393223:JG393375 K393223:K393375 WVS327687:WVS327839 WLW327687:WLW327839 WCA327687:WCA327839 VSE327687:VSE327839 VII327687:VII327839 UYM327687:UYM327839 UOQ327687:UOQ327839 UEU327687:UEU327839 TUY327687:TUY327839 TLC327687:TLC327839 TBG327687:TBG327839 SRK327687:SRK327839 SHO327687:SHO327839 RXS327687:RXS327839 RNW327687:RNW327839 REA327687:REA327839 QUE327687:QUE327839 QKI327687:QKI327839 QAM327687:QAM327839 PQQ327687:PQQ327839 PGU327687:PGU327839 OWY327687:OWY327839 ONC327687:ONC327839 ODG327687:ODG327839 NTK327687:NTK327839 NJO327687:NJO327839 MZS327687:MZS327839 MPW327687:MPW327839 MGA327687:MGA327839 LWE327687:LWE327839 LMI327687:LMI327839 LCM327687:LCM327839 KSQ327687:KSQ327839 KIU327687:KIU327839 JYY327687:JYY327839 JPC327687:JPC327839 JFG327687:JFG327839 IVK327687:IVK327839 ILO327687:ILO327839 IBS327687:IBS327839 HRW327687:HRW327839 HIA327687:HIA327839 GYE327687:GYE327839 GOI327687:GOI327839 GEM327687:GEM327839 FUQ327687:FUQ327839 FKU327687:FKU327839 FAY327687:FAY327839 ERC327687:ERC327839 EHG327687:EHG327839 DXK327687:DXK327839 DNO327687:DNO327839 DDS327687:DDS327839 CTW327687:CTW327839 CKA327687:CKA327839 CAE327687:CAE327839 BQI327687:BQI327839 BGM327687:BGM327839 AWQ327687:AWQ327839 AMU327687:AMU327839 ACY327687:ACY327839 TC327687:TC327839 JG327687:JG327839 K327687:K327839 WVS262151:WVS262303 WLW262151:WLW262303 WCA262151:WCA262303 VSE262151:VSE262303 VII262151:VII262303 UYM262151:UYM262303 UOQ262151:UOQ262303 UEU262151:UEU262303 TUY262151:TUY262303 TLC262151:TLC262303 TBG262151:TBG262303 SRK262151:SRK262303 SHO262151:SHO262303 RXS262151:RXS262303 RNW262151:RNW262303 REA262151:REA262303 QUE262151:QUE262303 QKI262151:QKI262303 QAM262151:QAM262303 PQQ262151:PQQ262303 PGU262151:PGU262303 OWY262151:OWY262303 ONC262151:ONC262303 ODG262151:ODG262303 NTK262151:NTK262303 NJO262151:NJO262303 MZS262151:MZS262303 MPW262151:MPW262303 MGA262151:MGA262303 LWE262151:LWE262303 LMI262151:LMI262303 LCM262151:LCM262303 KSQ262151:KSQ262303 KIU262151:KIU262303 JYY262151:JYY262303 JPC262151:JPC262303 JFG262151:JFG262303 IVK262151:IVK262303 ILO262151:ILO262303 IBS262151:IBS262303 HRW262151:HRW262303 HIA262151:HIA262303 GYE262151:GYE262303 GOI262151:GOI262303 GEM262151:GEM262303 FUQ262151:FUQ262303 FKU262151:FKU262303 FAY262151:FAY262303 ERC262151:ERC262303 EHG262151:EHG262303 DXK262151:DXK262303 DNO262151:DNO262303 DDS262151:DDS262303 CTW262151:CTW262303 CKA262151:CKA262303 CAE262151:CAE262303 BQI262151:BQI262303 BGM262151:BGM262303 AWQ262151:AWQ262303 AMU262151:AMU262303 ACY262151:ACY262303 TC262151:TC262303 JG262151:JG262303 K262151:K262303 WVS196615:WVS196767 WLW196615:WLW196767 WCA196615:WCA196767 VSE196615:VSE196767 VII196615:VII196767 UYM196615:UYM196767 UOQ196615:UOQ196767 UEU196615:UEU196767 TUY196615:TUY196767 TLC196615:TLC196767 TBG196615:TBG196767 SRK196615:SRK196767 SHO196615:SHO196767 RXS196615:RXS196767 RNW196615:RNW196767 REA196615:REA196767 QUE196615:QUE196767 QKI196615:QKI196767 QAM196615:QAM196767 PQQ196615:PQQ196767 PGU196615:PGU196767 OWY196615:OWY196767 ONC196615:ONC196767 ODG196615:ODG196767 NTK196615:NTK196767 NJO196615:NJO196767 MZS196615:MZS196767 MPW196615:MPW196767 MGA196615:MGA196767 LWE196615:LWE196767 LMI196615:LMI196767 LCM196615:LCM196767 KSQ196615:KSQ196767 KIU196615:KIU196767 JYY196615:JYY196767 JPC196615:JPC196767 JFG196615:JFG196767 IVK196615:IVK196767 ILO196615:ILO196767 IBS196615:IBS196767 HRW196615:HRW196767 HIA196615:HIA196767 GYE196615:GYE196767 GOI196615:GOI196767 GEM196615:GEM196767 FUQ196615:FUQ196767 FKU196615:FKU196767 FAY196615:FAY196767 ERC196615:ERC196767 EHG196615:EHG196767 DXK196615:DXK196767 DNO196615:DNO196767 DDS196615:DDS196767 CTW196615:CTW196767 CKA196615:CKA196767 CAE196615:CAE196767 BQI196615:BQI196767 BGM196615:BGM196767 AWQ196615:AWQ196767 AMU196615:AMU196767 ACY196615:ACY196767 TC196615:TC196767 JG196615:JG196767 K196615:K196767 WVS131079:WVS131231 WLW131079:WLW131231 WCA131079:WCA131231 VSE131079:VSE131231 VII131079:VII131231 UYM131079:UYM131231 UOQ131079:UOQ131231 UEU131079:UEU131231 TUY131079:TUY131231 TLC131079:TLC131231 TBG131079:TBG131231 SRK131079:SRK131231 SHO131079:SHO131231 RXS131079:RXS131231 RNW131079:RNW131231 REA131079:REA131231 QUE131079:QUE131231 QKI131079:QKI131231 QAM131079:QAM131231 PQQ131079:PQQ131231 PGU131079:PGU131231 OWY131079:OWY131231 ONC131079:ONC131231 ODG131079:ODG131231 NTK131079:NTK131231 NJO131079:NJO131231 MZS131079:MZS131231 MPW131079:MPW131231 MGA131079:MGA131231 LWE131079:LWE131231 LMI131079:LMI131231 LCM131079:LCM131231 KSQ131079:KSQ131231 KIU131079:KIU131231 JYY131079:JYY131231 JPC131079:JPC131231 JFG131079:JFG131231 IVK131079:IVK131231 ILO131079:ILO131231 IBS131079:IBS131231 HRW131079:HRW131231 HIA131079:HIA131231 GYE131079:GYE131231 GOI131079:GOI131231 GEM131079:GEM131231 FUQ131079:FUQ131231 FKU131079:FKU131231 FAY131079:FAY131231 ERC131079:ERC131231 EHG131079:EHG131231 DXK131079:DXK131231 DNO131079:DNO131231 DDS131079:DDS131231 CTW131079:CTW131231 CKA131079:CKA131231 CAE131079:CAE131231 BQI131079:BQI131231 BGM131079:BGM131231 AWQ131079:AWQ131231 AMU131079:AMU131231 ACY131079:ACY131231 TC131079:TC131231 JG131079:JG131231 K131079:K131231 WVS65543:WVS65695 WLW65543:WLW65695 WCA65543:WCA65695 VSE65543:VSE65695 VII65543:VII65695 UYM65543:UYM65695 UOQ65543:UOQ65695 UEU65543:UEU65695 TUY65543:TUY65695 TLC65543:TLC65695 TBG65543:TBG65695 SRK65543:SRK65695 SHO65543:SHO65695 RXS65543:RXS65695 RNW65543:RNW65695 REA65543:REA65695 QUE65543:QUE65695 QKI65543:QKI65695 QAM65543:QAM65695 PQQ65543:PQQ65695 PGU65543:PGU65695 OWY65543:OWY65695 ONC65543:ONC65695 ODG65543:ODG65695 NTK65543:NTK65695 NJO65543:NJO65695 MZS65543:MZS65695 MPW65543:MPW65695 MGA65543:MGA65695 LWE65543:LWE65695 LMI65543:LMI65695 LCM65543:LCM65695 KSQ65543:KSQ65695 KIU65543:KIU65695 JYY65543:JYY65695 JPC65543:JPC65695 JFG65543:JFG65695 IVK65543:IVK65695 ILO65543:ILO65695 IBS65543:IBS65695 HRW65543:HRW65695 HIA65543:HIA65695 GYE65543:GYE65695 GOI65543:GOI65695 GEM65543:GEM65695 FUQ65543:FUQ65695 FKU65543:FKU65695 FAY65543:FAY65695 ERC65543:ERC65695 EHG65543:EHG65695 DXK65543:DXK65695 DNO65543:DNO65695 DDS65543:DDS65695 CTW65543:CTW65695 CKA65543:CKA65695 CAE65543:CAE65695 BQI65543:BQI65695 BGM65543:BGM65695 AWQ65543:AWQ65695 AMU65543:AMU65695 ACY65543:ACY65695 TC65543:TC65695 JG65543:JG65695 K65543:K65695 WVS7:WVS159 WLW7:WLW159 WCA7:WCA159 VSE7:VSE159 VII7:VII159 UYM7:UYM159 UOQ7:UOQ159 UEU7:UEU159 TUY7:TUY159 TLC7:TLC159 TBG7:TBG159 SRK7:SRK159 SHO7:SHO159 RXS7:RXS159 RNW7:RNW159 REA7:REA159 QUE7:QUE159 QKI7:QKI159 QAM7:QAM159 PQQ7:PQQ159 PGU7:PGU159 OWY7:OWY159 ONC7:ONC159 ODG7:ODG159 NTK7:NTK159 NJO7:NJO159 MZS7:MZS159 MPW7:MPW159 MGA7:MGA159 LWE7:LWE159 LMI7:LMI159 LCM7:LCM159 KSQ7:KSQ159 KIU7:KIU159 JYY7:JYY159 JPC7:JPC159 JFG7:JFG159 IVK7:IVK159 ILO7:ILO159 IBS7:IBS159 HRW7:HRW159 HIA7:HIA159 GYE7:GYE159 GOI7:GOI159 GEM7:GEM159 FUQ7:FUQ159 FKU7:FKU159 FAY7:FAY159 ERC7:ERC159 EHG7:EHG159 DXK7:DXK159 DNO7:DNO159 DDS7:DDS159 CTW7:CTW159 CKA7:CKA159 CAE7:CAE159 BQI7:BQI159 BGM7:BGM159 AWQ7:AWQ159 AMU7:AMU159 ACY7:ACY159 TC7:TC159 JG7:JG159" xr:uid="{16400355-3C3D-43F8-B702-E29A5B9CC1B1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JG7:JG159 WVS983047:WVS983199 WLW983047:WLW983199 WCA983047:WCA983199 VSE983047:VSE983199 VII983047:VII983199 UYM983047:UYM983199 UOQ983047:UOQ983199 UEU983047:UEU983199 TUY983047:TUY983199 TLC983047:TLC983199 TBG983047:TBG983199 SRK983047:SRK983199 SHO983047:SHO983199 RXS983047:RXS983199 RNW983047:RNW983199 REA983047:REA983199 QUE983047:QUE983199 QKI983047:QKI983199 QAM983047:QAM983199 PQQ983047:PQQ983199 PGU983047:PGU983199 OWY983047:OWY983199 ONC983047:ONC983199 ODG983047:ODG983199 NTK983047:NTK983199 NJO983047:NJO983199 MZS983047:MZS983199 MPW983047:MPW983199 MGA983047:MGA983199 LWE983047:LWE983199 LMI983047:LMI983199 LCM983047:LCM983199 KSQ983047:KSQ983199 KIU983047:KIU983199 JYY983047:JYY983199 JPC983047:JPC983199 JFG983047:JFG983199 IVK983047:IVK983199 ILO983047:ILO983199 IBS983047:IBS983199 HRW983047:HRW983199 HIA983047:HIA983199 GYE983047:GYE983199 GOI983047:GOI983199 GEM983047:GEM983199 FUQ983047:FUQ983199 FKU983047:FKU983199 FAY983047:FAY983199 ERC983047:ERC983199 EHG983047:EHG983199 DXK983047:DXK983199 DNO983047:DNO983199 DDS983047:DDS983199 CTW983047:CTW983199 CKA983047:CKA983199 CAE983047:CAE983199 BQI983047:BQI983199 BGM983047:BGM983199 AWQ983047:AWQ983199 AMU983047:AMU983199 ACY983047:ACY983199 TC983047:TC983199 JG983047:JG983199 K983047:K983199 WVS917511:WVS917663 WLW917511:WLW917663 WCA917511:WCA917663 VSE917511:VSE917663 VII917511:VII917663 UYM917511:UYM917663 UOQ917511:UOQ917663 UEU917511:UEU917663 TUY917511:TUY917663 TLC917511:TLC917663 TBG917511:TBG917663 SRK917511:SRK917663 SHO917511:SHO917663 RXS917511:RXS917663 RNW917511:RNW917663 REA917511:REA917663 QUE917511:QUE917663 QKI917511:QKI917663 QAM917511:QAM917663 PQQ917511:PQQ917663 PGU917511:PGU917663 OWY917511:OWY917663 ONC917511:ONC917663 ODG917511:ODG917663 NTK917511:NTK917663 NJO917511:NJO917663 MZS917511:MZS917663 MPW917511:MPW917663 MGA917511:MGA917663 LWE917511:LWE917663 LMI917511:LMI917663 LCM917511:LCM917663 KSQ917511:KSQ917663 KIU917511:KIU917663 JYY917511:JYY917663 JPC917511:JPC917663 JFG917511:JFG917663 IVK917511:IVK917663 ILO917511:ILO917663 IBS917511:IBS917663 HRW917511:HRW917663 HIA917511:HIA917663 GYE917511:GYE917663 GOI917511:GOI917663 GEM917511:GEM917663 FUQ917511:FUQ917663 FKU917511:FKU917663 FAY917511:FAY917663 ERC917511:ERC917663 EHG917511:EHG917663 DXK917511:DXK917663 DNO917511:DNO917663 DDS917511:DDS917663 CTW917511:CTW917663 CKA917511:CKA917663 CAE917511:CAE917663 BQI917511:BQI917663 BGM917511:BGM917663 AWQ917511:AWQ917663 AMU917511:AMU917663 ACY917511:ACY917663 TC917511:TC917663 JG917511:JG917663 K917511:K917663 WVS851975:WVS852127 WLW851975:WLW852127 WCA851975:WCA852127 VSE851975:VSE852127 VII851975:VII852127 UYM851975:UYM852127 UOQ851975:UOQ852127 UEU851975:UEU852127 TUY851975:TUY852127 TLC851975:TLC852127 TBG851975:TBG852127 SRK851975:SRK852127 SHO851975:SHO852127 RXS851975:RXS852127 RNW851975:RNW852127 REA851975:REA852127 QUE851975:QUE852127 QKI851975:QKI852127 QAM851975:QAM852127 PQQ851975:PQQ852127 PGU851975:PGU852127 OWY851975:OWY852127 ONC851975:ONC852127 ODG851975:ODG852127 NTK851975:NTK852127 NJO851975:NJO852127 MZS851975:MZS852127 MPW851975:MPW852127 MGA851975:MGA852127 LWE851975:LWE852127 LMI851975:LMI852127 LCM851975:LCM852127 KSQ851975:KSQ852127 KIU851975:KIU852127 JYY851975:JYY852127 JPC851975:JPC852127 JFG851975:JFG852127 IVK851975:IVK852127 ILO851975:ILO852127 IBS851975:IBS852127 HRW851975:HRW852127 HIA851975:HIA852127 GYE851975:GYE852127 GOI851975:GOI852127 GEM851975:GEM852127 FUQ851975:FUQ852127 FKU851975:FKU852127 FAY851975:FAY852127 ERC851975:ERC852127 EHG851975:EHG852127 DXK851975:DXK852127 DNO851975:DNO852127 DDS851975:DDS852127 CTW851975:CTW852127 CKA851975:CKA852127 CAE851975:CAE852127 BQI851975:BQI852127 BGM851975:BGM852127 AWQ851975:AWQ852127 AMU851975:AMU852127 ACY851975:ACY852127 TC851975:TC852127 JG851975:JG852127 K851975:K852127 WVS786439:WVS786591 WLW786439:WLW786591 WCA786439:WCA786591 VSE786439:VSE786591 VII786439:VII786591 UYM786439:UYM786591 UOQ786439:UOQ786591 UEU786439:UEU786591 TUY786439:TUY786591 TLC786439:TLC786591 TBG786439:TBG786591 SRK786439:SRK786591 SHO786439:SHO786591 RXS786439:RXS786591 RNW786439:RNW786591 REA786439:REA786591 QUE786439:QUE786591 QKI786439:QKI786591 QAM786439:QAM786591 PQQ786439:PQQ786591 PGU786439:PGU786591 OWY786439:OWY786591 ONC786439:ONC786591 ODG786439:ODG786591 NTK786439:NTK786591 NJO786439:NJO786591 MZS786439:MZS786591 MPW786439:MPW786591 MGA786439:MGA786591 LWE786439:LWE786591 LMI786439:LMI786591 LCM786439:LCM786591 KSQ786439:KSQ786591 KIU786439:KIU786591 JYY786439:JYY786591 JPC786439:JPC786591 JFG786439:JFG786591 IVK786439:IVK786591 ILO786439:ILO786591 IBS786439:IBS786591 HRW786439:HRW786591 HIA786439:HIA786591 GYE786439:GYE786591 GOI786439:GOI786591 GEM786439:GEM786591 FUQ786439:FUQ786591 FKU786439:FKU786591 FAY786439:FAY786591 ERC786439:ERC786591 EHG786439:EHG786591 DXK786439:DXK786591 DNO786439:DNO786591 DDS786439:DDS786591 CTW786439:CTW786591 CKA786439:CKA786591 CAE786439:CAE786591 BQI786439:BQI786591 BGM786439:BGM786591 AWQ786439:AWQ786591 AMU786439:AMU786591 ACY786439:ACY786591 TC786439:TC786591 JG786439:JG786591 K786439:K786591 WVS720903:WVS721055 WLW720903:WLW721055 WCA720903:WCA721055 VSE720903:VSE721055 VII720903:VII721055 UYM720903:UYM721055 UOQ720903:UOQ721055 UEU720903:UEU721055 TUY720903:TUY721055 TLC720903:TLC721055 TBG720903:TBG721055 SRK720903:SRK721055 SHO720903:SHO721055 RXS720903:RXS721055 RNW720903:RNW721055 REA720903:REA721055 QUE720903:QUE721055 QKI720903:QKI721055 QAM720903:QAM721055 PQQ720903:PQQ721055 PGU720903:PGU721055 OWY720903:OWY721055 ONC720903:ONC721055 ODG720903:ODG721055 NTK720903:NTK721055 NJO720903:NJO721055 MZS720903:MZS721055 MPW720903:MPW721055 MGA720903:MGA721055 LWE720903:LWE721055 LMI720903:LMI721055 LCM720903:LCM721055 KSQ720903:KSQ721055 KIU720903:KIU721055 JYY720903:JYY721055 JPC720903:JPC721055 JFG720903:JFG721055 IVK720903:IVK721055 ILO720903:ILO721055 IBS720903:IBS721055 HRW720903:HRW721055 HIA720903:HIA721055 GYE720903:GYE721055 GOI720903:GOI721055 GEM720903:GEM721055 FUQ720903:FUQ721055 FKU720903:FKU721055 FAY720903:FAY721055 ERC720903:ERC721055 EHG720903:EHG721055 DXK720903:DXK721055 DNO720903:DNO721055 DDS720903:DDS721055 CTW720903:CTW721055 CKA720903:CKA721055 CAE720903:CAE721055 BQI720903:BQI721055 BGM720903:BGM721055 AWQ720903:AWQ721055 AMU720903:AMU721055 ACY720903:ACY721055 TC720903:TC721055 JG720903:JG721055 K720903:K721055 WVS655367:WVS655519 WLW655367:WLW655519 WCA655367:WCA655519 VSE655367:VSE655519 VII655367:VII655519 UYM655367:UYM655519 UOQ655367:UOQ655519 UEU655367:UEU655519 TUY655367:TUY655519 TLC655367:TLC655519 TBG655367:TBG655519 SRK655367:SRK655519 SHO655367:SHO655519 RXS655367:RXS655519 RNW655367:RNW655519 REA655367:REA655519 QUE655367:QUE655519 QKI655367:QKI655519 QAM655367:QAM655519 PQQ655367:PQQ655519 PGU655367:PGU655519 OWY655367:OWY655519 ONC655367:ONC655519 ODG655367:ODG655519 NTK655367:NTK655519 NJO655367:NJO655519 MZS655367:MZS655519 MPW655367:MPW655519 MGA655367:MGA655519 LWE655367:LWE655519 LMI655367:LMI655519 LCM655367:LCM655519 KSQ655367:KSQ655519 KIU655367:KIU655519 JYY655367:JYY655519 JPC655367:JPC655519 JFG655367:JFG655519 IVK655367:IVK655519 ILO655367:ILO655519 IBS655367:IBS655519 HRW655367:HRW655519 HIA655367:HIA655519 GYE655367:GYE655519 GOI655367:GOI655519 GEM655367:GEM655519 FUQ655367:FUQ655519 FKU655367:FKU655519 FAY655367:FAY655519 ERC655367:ERC655519 EHG655367:EHG655519 DXK655367:DXK655519 DNO655367:DNO655519 DDS655367:DDS655519 CTW655367:CTW655519 CKA655367:CKA655519 CAE655367:CAE655519 BQI655367:BQI655519 BGM655367:BGM655519 AWQ655367:AWQ655519 AMU655367:AMU655519 ACY655367:ACY655519 TC655367:TC655519 JG655367:JG655519 K655367:K655519 WVS589831:WVS589983 WLW589831:WLW589983 WCA589831:WCA589983 VSE589831:VSE589983 VII589831:VII589983 UYM589831:UYM589983 UOQ589831:UOQ589983 UEU589831:UEU589983 TUY589831:TUY589983 TLC589831:TLC589983 TBG589831:TBG589983 SRK589831:SRK589983 SHO589831:SHO589983 RXS589831:RXS589983 RNW589831:RNW589983 REA589831:REA589983 QUE589831:QUE589983 QKI589831:QKI589983 QAM589831:QAM589983 PQQ589831:PQQ589983 PGU589831:PGU589983 OWY589831:OWY589983 ONC589831:ONC589983 ODG589831:ODG589983 NTK589831:NTK589983 NJO589831:NJO589983 MZS589831:MZS589983 MPW589831:MPW589983 MGA589831:MGA589983 LWE589831:LWE589983 LMI589831:LMI589983 LCM589831:LCM589983 KSQ589831:KSQ589983 KIU589831:KIU589983 JYY589831:JYY589983 JPC589831:JPC589983 JFG589831:JFG589983 IVK589831:IVK589983 ILO589831:ILO589983 IBS589831:IBS589983 HRW589831:HRW589983 HIA589831:HIA589983 GYE589831:GYE589983 GOI589831:GOI589983 GEM589831:GEM589983 FUQ589831:FUQ589983 FKU589831:FKU589983 FAY589831:FAY589983 ERC589831:ERC589983 EHG589831:EHG589983 DXK589831:DXK589983 DNO589831:DNO589983 DDS589831:DDS589983 CTW589831:CTW589983 CKA589831:CKA589983 CAE589831:CAE589983 BQI589831:BQI589983 BGM589831:BGM589983 AWQ589831:AWQ589983 AMU589831:AMU589983 ACY589831:ACY589983 TC589831:TC589983 JG589831:JG589983 K589831:K589983 WVS524295:WVS524447 WLW524295:WLW524447 WCA524295:WCA524447 VSE524295:VSE524447 VII524295:VII524447 UYM524295:UYM524447 UOQ524295:UOQ524447 UEU524295:UEU524447 TUY524295:TUY524447 TLC524295:TLC524447 TBG524295:TBG524447 SRK524295:SRK524447 SHO524295:SHO524447 RXS524295:RXS524447 RNW524295:RNW524447 REA524295:REA524447 QUE524295:QUE524447 QKI524295:QKI524447 QAM524295:QAM524447 PQQ524295:PQQ524447 PGU524295:PGU524447 OWY524295:OWY524447 ONC524295:ONC524447 ODG524295:ODG524447 NTK524295:NTK524447 NJO524295:NJO524447 MZS524295:MZS524447 MPW524295:MPW524447 MGA524295:MGA524447 LWE524295:LWE524447 LMI524295:LMI524447 LCM524295:LCM524447 KSQ524295:KSQ524447 KIU524295:KIU524447 JYY524295:JYY524447 JPC524295:JPC524447 JFG524295:JFG524447 IVK524295:IVK524447 ILO524295:ILO524447 IBS524295:IBS524447 HRW524295:HRW524447 HIA524295:HIA524447 GYE524295:GYE524447 GOI524295:GOI524447 GEM524295:GEM524447 FUQ524295:FUQ524447 FKU524295:FKU524447 FAY524295:FAY524447 ERC524295:ERC524447 EHG524295:EHG524447 DXK524295:DXK524447 DNO524295:DNO524447 DDS524295:DDS524447 CTW524295:CTW524447 CKA524295:CKA524447 CAE524295:CAE524447 BQI524295:BQI524447 BGM524295:BGM524447 AWQ524295:AWQ524447 AMU524295:AMU524447 ACY524295:ACY524447 TC524295:TC524447 JG524295:JG524447 K524295:K524447 WVS458759:WVS458911 WLW458759:WLW458911 WCA458759:WCA458911 VSE458759:VSE458911 VII458759:VII458911 UYM458759:UYM458911 UOQ458759:UOQ458911 UEU458759:UEU458911 TUY458759:TUY458911 TLC458759:TLC458911 TBG458759:TBG458911 SRK458759:SRK458911 SHO458759:SHO458911 RXS458759:RXS458911 RNW458759:RNW458911 REA458759:REA458911 QUE458759:QUE458911 QKI458759:QKI458911 QAM458759:QAM458911 PQQ458759:PQQ458911 PGU458759:PGU458911 OWY458759:OWY458911 ONC458759:ONC458911 ODG458759:ODG458911 NTK458759:NTK458911 NJO458759:NJO458911 MZS458759:MZS458911 MPW458759:MPW458911 MGA458759:MGA458911 LWE458759:LWE458911 LMI458759:LMI458911 LCM458759:LCM458911 KSQ458759:KSQ458911 KIU458759:KIU458911 JYY458759:JYY458911 JPC458759:JPC458911 JFG458759:JFG458911 IVK458759:IVK458911 ILO458759:ILO458911 IBS458759:IBS458911 HRW458759:HRW458911 HIA458759:HIA458911 GYE458759:GYE458911 GOI458759:GOI458911 GEM458759:GEM458911 FUQ458759:FUQ458911 FKU458759:FKU458911 FAY458759:FAY458911 ERC458759:ERC458911 EHG458759:EHG458911 DXK458759:DXK458911 DNO458759:DNO458911 DDS458759:DDS458911 CTW458759:CTW458911 CKA458759:CKA458911 CAE458759:CAE458911 BQI458759:BQI458911 BGM458759:BGM458911 AWQ458759:AWQ458911 AMU458759:AMU458911 ACY458759:ACY458911 TC458759:TC458911 JG458759:JG458911 K458759:K458911 WVS393223:WVS393375 WLW393223:WLW393375 WCA393223:WCA393375 VSE393223:VSE393375 VII393223:VII393375 UYM393223:UYM393375 UOQ393223:UOQ393375 UEU393223:UEU393375 TUY393223:TUY393375 TLC393223:TLC393375 TBG393223:TBG393375 SRK393223:SRK393375 SHO393223:SHO393375 RXS393223:RXS393375 RNW393223:RNW393375 REA393223:REA393375 QUE393223:QUE393375 QKI393223:QKI393375 QAM393223:QAM393375 PQQ393223:PQQ393375 PGU393223:PGU393375 OWY393223:OWY393375 ONC393223:ONC393375 ODG393223:ODG393375 NTK393223:NTK393375 NJO393223:NJO393375 MZS393223:MZS393375 MPW393223:MPW393375 MGA393223:MGA393375 LWE393223:LWE393375 LMI393223:LMI393375 LCM393223:LCM393375 KSQ393223:KSQ393375 KIU393223:KIU393375 JYY393223:JYY393375 JPC393223:JPC393375 JFG393223:JFG393375 IVK393223:IVK393375 ILO393223:ILO393375 IBS393223:IBS393375 HRW393223:HRW393375 HIA393223:HIA393375 GYE393223:GYE393375 GOI393223:GOI393375 GEM393223:GEM393375 FUQ393223:FUQ393375 FKU393223:FKU393375 FAY393223:FAY393375 ERC393223:ERC393375 EHG393223:EHG393375 DXK393223:DXK393375 DNO393223:DNO393375 DDS393223:DDS393375 CTW393223:CTW393375 CKA393223:CKA393375 CAE393223:CAE393375 BQI393223:BQI393375 BGM393223:BGM393375 AWQ393223:AWQ393375 AMU393223:AMU393375 ACY393223:ACY393375 TC393223:TC393375 JG393223:JG393375 K393223:K393375 WVS327687:WVS327839 WLW327687:WLW327839 WCA327687:WCA327839 VSE327687:VSE327839 VII327687:VII327839 UYM327687:UYM327839 UOQ327687:UOQ327839 UEU327687:UEU327839 TUY327687:TUY327839 TLC327687:TLC327839 TBG327687:TBG327839 SRK327687:SRK327839 SHO327687:SHO327839 RXS327687:RXS327839 RNW327687:RNW327839 REA327687:REA327839 QUE327687:QUE327839 QKI327687:QKI327839 QAM327687:QAM327839 PQQ327687:PQQ327839 PGU327687:PGU327839 OWY327687:OWY327839 ONC327687:ONC327839 ODG327687:ODG327839 NTK327687:NTK327839 NJO327687:NJO327839 MZS327687:MZS327839 MPW327687:MPW327839 MGA327687:MGA327839 LWE327687:LWE327839 LMI327687:LMI327839 LCM327687:LCM327839 KSQ327687:KSQ327839 KIU327687:KIU327839 JYY327687:JYY327839 JPC327687:JPC327839 JFG327687:JFG327839 IVK327687:IVK327839 ILO327687:ILO327839 IBS327687:IBS327839 HRW327687:HRW327839 HIA327687:HIA327839 GYE327687:GYE327839 GOI327687:GOI327839 GEM327687:GEM327839 FUQ327687:FUQ327839 FKU327687:FKU327839 FAY327687:FAY327839 ERC327687:ERC327839 EHG327687:EHG327839 DXK327687:DXK327839 DNO327687:DNO327839 DDS327687:DDS327839 CTW327687:CTW327839 CKA327687:CKA327839 CAE327687:CAE327839 BQI327687:BQI327839 BGM327687:BGM327839 AWQ327687:AWQ327839 AMU327687:AMU327839 ACY327687:ACY327839 TC327687:TC327839 JG327687:JG327839 K327687:K327839 WVS262151:WVS262303 WLW262151:WLW262303 WCA262151:WCA262303 VSE262151:VSE262303 VII262151:VII262303 UYM262151:UYM262303 UOQ262151:UOQ262303 UEU262151:UEU262303 TUY262151:TUY262303 TLC262151:TLC262303 TBG262151:TBG262303 SRK262151:SRK262303 SHO262151:SHO262303 RXS262151:RXS262303 RNW262151:RNW262303 REA262151:REA262303 QUE262151:QUE262303 QKI262151:QKI262303 QAM262151:QAM262303 PQQ262151:PQQ262303 PGU262151:PGU262303 OWY262151:OWY262303 ONC262151:ONC262303 ODG262151:ODG262303 NTK262151:NTK262303 NJO262151:NJO262303 MZS262151:MZS262303 MPW262151:MPW262303 MGA262151:MGA262303 LWE262151:LWE262303 LMI262151:LMI262303 LCM262151:LCM262303 KSQ262151:KSQ262303 KIU262151:KIU262303 JYY262151:JYY262303 JPC262151:JPC262303 JFG262151:JFG262303 IVK262151:IVK262303 ILO262151:ILO262303 IBS262151:IBS262303 HRW262151:HRW262303 HIA262151:HIA262303 GYE262151:GYE262303 GOI262151:GOI262303 GEM262151:GEM262303 FUQ262151:FUQ262303 FKU262151:FKU262303 FAY262151:FAY262303 ERC262151:ERC262303 EHG262151:EHG262303 DXK262151:DXK262303 DNO262151:DNO262303 DDS262151:DDS262303 CTW262151:CTW262303 CKA262151:CKA262303 CAE262151:CAE262303 BQI262151:BQI262303 BGM262151:BGM262303 AWQ262151:AWQ262303 AMU262151:AMU262303 ACY262151:ACY262303 TC262151:TC262303 JG262151:JG262303 K262151:K262303 WVS196615:WVS196767 WLW196615:WLW196767 WCA196615:WCA196767 VSE196615:VSE196767 VII196615:VII196767 UYM196615:UYM196767 UOQ196615:UOQ196767 UEU196615:UEU196767 TUY196615:TUY196767 TLC196615:TLC196767 TBG196615:TBG196767 SRK196615:SRK196767 SHO196615:SHO196767 RXS196615:RXS196767 RNW196615:RNW196767 REA196615:REA196767 QUE196615:QUE196767 QKI196615:QKI196767 QAM196615:QAM196767 PQQ196615:PQQ196767 PGU196615:PGU196767 OWY196615:OWY196767 ONC196615:ONC196767 ODG196615:ODG196767 NTK196615:NTK196767 NJO196615:NJO196767 MZS196615:MZS196767 MPW196615:MPW196767 MGA196615:MGA196767 LWE196615:LWE196767 LMI196615:LMI196767 LCM196615:LCM196767 KSQ196615:KSQ196767 KIU196615:KIU196767 JYY196615:JYY196767 JPC196615:JPC196767 JFG196615:JFG196767 IVK196615:IVK196767 ILO196615:ILO196767 IBS196615:IBS196767 HRW196615:HRW196767 HIA196615:HIA196767 GYE196615:GYE196767 GOI196615:GOI196767 GEM196615:GEM196767 FUQ196615:FUQ196767 FKU196615:FKU196767 FAY196615:FAY196767 ERC196615:ERC196767 EHG196615:EHG196767 DXK196615:DXK196767 DNO196615:DNO196767 DDS196615:DDS196767 CTW196615:CTW196767 CKA196615:CKA196767 CAE196615:CAE196767 BQI196615:BQI196767 BGM196615:BGM196767 AWQ196615:AWQ196767 AMU196615:AMU196767 ACY196615:ACY196767 TC196615:TC196767 JG196615:JG196767 K196615:K196767 WVS131079:WVS131231 WLW131079:WLW131231 WCA131079:WCA131231 VSE131079:VSE131231 VII131079:VII131231 UYM131079:UYM131231 UOQ131079:UOQ131231 UEU131079:UEU131231 TUY131079:TUY131231 TLC131079:TLC131231 TBG131079:TBG131231 SRK131079:SRK131231 SHO131079:SHO131231 RXS131079:RXS131231 RNW131079:RNW131231 REA131079:REA131231 QUE131079:QUE131231 QKI131079:QKI131231 QAM131079:QAM131231 PQQ131079:PQQ131231 PGU131079:PGU131231 OWY131079:OWY131231 ONC131079:ONC131231 ODG131079:ODG131231 NTK131079:NTK131231 NJO131079:NJO131231 MZS131079:MZS131231 MPW131079:MPW131231 MGA131079:MGA131231 LWE131079:LWE131231 LMI131079:LMI131231 LCM131079:LCM131231 KSQ131079:KSQ131231 KIU131079:KIU131231 JYY131079:JYY131231 JPC131079:JPC131231 JFG131079:JFG131231 IVK131079:IVK131231 ILO131079:ILO131231 IBS131079:IBS131231 HRW131079:HRW131231 HIA131079:HIA131231 GYE131079:GYE131231 GOI131079:GOI131231 GEM131079:GEM131231 FUQ131079:FUQ131231 FKU131079:FKU131231 FAY131079:FAY131231 ERC131079:ERC131231 EHG131079:EHG131231 DXK131079:DXK131231 DNO131079:DNO131231 DDS131079:DDS131231 CTW131079:CTW131231 CKA131079:CKA131231 CAE131079:CAE131231 BQI131079:BQI131231 BGM131079:BGM131231 AWQ131079:AWQ131231 AMU131079:AMU131231 ACY131079:ACY131231 TC131079:TC131231 JG131079:JG131231 K131079:K131231 WVS65543:WVS65695 WLW65543:WLW65695 WCA65543:WCA65695 VSE65543:VSE65695 VII65543:VII65695 UYM65543:UYM65695 UOQ65543:UOQ65695 UEU65543:UEU65695 TUY65543:TUY65695 TLC65543:TLC65695 TBG65543:TBG65695 SRK65543:SRK65695 SHO65543:SHO65695 RXS65543:RXS65695 RNW65543:RNW65695 REA65543:REA65695 QUE65543:QUE65695 QKI65543:QKI65695 QAM65543:QAM65695 PQQ65543:PQQ65695 PGU65543:PGU65695 OWY65543:OWY65695 ONC65543:ONC65695 ODG65543:ODG65695 NTK65543:NTK65695 NJO65543:NJO65695 MZS65543:MZS65695 MPW65543:MPW65695 MGA65543:MGA65695 LWE65543:LWE65695 LMI65543:LMI65695 LCM65543:LCM65695 KSQ65543:KSQ65695 KIU65543:KIU65695 JYY65543:JYY65695 JPC65543:JPC65695 JFG65543:JFG65695 IVK65543:IVK65695 ILO65543:ILO65695 IBS65543:IBS65695 HRW65543:HRW65695 HIA65543:HIA65695 GYE65543:GYE65695 GOI65543:GOI65695 GEM65543:GEM65695 FUQ65543:FUQ65695 FKU65543:FKU65695 FAY65543:FAY65695 ERC65543:ERC65695 EHG65543:EHG65695 DXK65543:DXK65695 DNO65543:DNO65695 DDS65543:DDS65695 CTW65543:CTW65695 CKA65543:CKA65695 CAE65543:CAE65695 BQI65543:BQI65695 BGM65543:BGM65695 AWQ65543:AWQ65695 AMU65543:AMU65695 ACY65543:ACY65695 TC65543:TC65695 JG65543:JG65695 K65543:K65695 WVS7:WVS159 WLW7:WLW159 WCA7:WCA159 VSE7:VSE159 VII7:VII159 UYM7:UYM159 UOQ7:UOQ159 UEU7:UEU159 TUY7:TUY159 TLC7:TLC159 TBG7:TBG159 SRK7:SRK159 SHO7:SHO159 RXS7:RXS159 RNW7:RNW159 REA7:REA159 QUE7:QUE159 QKI7:QKI159 QAM7:QAM159 PQQ7:PQQ159 PGU7:PGU159 OWY7:OWY159 ONC7:ONC159 ODG7:ODG159 NTK7:NTK159 NJO7:NJO159 MZS7:MZS159 MPW7:MPW159 MGA7:MGA159 LWE7:LWE159 LMI7:LMI159 LCM7:LCM159 KSQ7:KSQ159 KIU7:KIU159 JYY7:JYY159 JPC7:JPC159 JFG7:JFG159 IVK7:IVK159 ILO7:ILO159 IBS7:IBS159 HRW7:HRW159 HIA7:HIA159 GYE7:GYE159 GOI7:GOI159 GEM7:GEM159 FUQ7:FUQ159 FKU7:FKU159 FAY7:FAY159 ERC7:ERC159 EHG7:EHG159 DXK7:DXK159 DNO7:DNO159 DDS7:DDS159 CTW7:CTW159 CKA7:CKA159 CAE7:CAE159 BQI7:BQI159 BGM7:BGM159 AWQ7:AWQ159 AMU7:AMU159 ACY7:ACY159 TC7:TC159 K7:K159" xr:uid="{16400355-3C3D-43F8-B702-E29A5B9CC1B1}">
       <formula1>$AQ$45:$AQ$48</formula1>
     </dataValidation>
   </dataValidations>

--- a/Testing/Revised Plan.xlsx
+++ b/Testing/Revised Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Revised Plan and Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="465" documentId="8_{783EC7BA-7F55-4B35-8C25-054FADF87783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8274F13A-17F9-451E-B623-F8679D27384F}"/>
+  <xr:revisionPtr revIDLastSave="502" documentId="8_{783EC7BA-7F55-4B35-8C25-054FADF87783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71CCA134-BA4C-4813-B8D2-C27FEA5E6C95}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{FF53E854-575C-4B97-B6D0-9B270F57EAA4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="811">
   <si>
     <t>WEEK 0</t>
   </si>
@@ -2916,6 +2916,18 @@
   </si>
   <si>
     <t>Functionality</t>
+  </si>
+  <si>
+    <t>Pool members cannot be added to a newly created pool</t>
+  </si>
+  <si>
+    <t>TAC - Manage Pool</t>
+  </si>
+  <si>
+    <t>Interviewer Cancel Interview Page</t>
+  </si>
+  <si>
+    <t>Comment allows unlimited characters. Maximum boundary is not fixed</t>
   </si>
 </sst>
 </file>
@@ -3164,7 +3176,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF242424"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -4738,18 +4750,180 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4780,162 +4954,21 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4993,6 +5026,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5026,54 +5107,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5118,27 +5151,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6108,7 +6120,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="228" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -6125,14 +6137,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="221"/>
+      <c r="A2" s="228"/>
       <c r="B2" s="1">
         <v>44642</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="222" t="s">
+      <c r="D2" s="230" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -6140,27 +6152,27 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="221"/>
+      <c r="A3" s="228"/>
       <c r="B3" s="1">
         <v>44643</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="223"/>
+      <c r="D3" s="229"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="221"/>
+      <c r="A4" s="228"/>
       <c r="B4" s="1">
         <v>44644</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="222" t="s">
+      <c r="D4" s="230" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -6168,20 +6180,20 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="221"/>
+      <c r="A5" s="228"/>
       <c r="B5" s="1">
         <v>44645</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="222"/>
+      <c r="D5" s="230"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="221" t="s">
+      <c r="A6" s="228" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
@@ -6190,7 +6202,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="222" t="s">
+      <c r="D6" s="230" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -6198,27 +6210,27 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="221"/>
+      <c r="A7" s="228"/>
       <c r="B7" s="1">
         <v>44649</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="222"/>
+      <c r="D7" s="230"/>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="221"/>
+      <c r="A8" s="228"/>
       <c r="B8" s="1">
         <v>44650</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="222" t="s">
+      <c r="D8" s="230" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -6226,20 +6238,20 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="221"/>
+      <c r="A9" s="228"/>
       <c r="B9" s="1">
         <v>44651</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="222"/>
+      <c r="D9" s="230"/>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="221"/>
+      <c r="A10" s="228"/>
       <c r="B10" s="1">
         <v>44652</v>
       </c>
@@ -6254,7 +6266,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="221"/>
+      <c r="A11" s="228"/>
       <c r="B11" s="1">
         <v>44653</v>
       </c>
@@ -6269,7 +6281,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="228" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1">
@@ -6278,7 +6290,7 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="223" t="s">
+      <c r="D12" s="229" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -6286,59 +6298,59 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="221"/>
+      <c r="A13" s="228"/>
       <c r="B13" s="1">
         <v>44656</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="223"/>
+      <c r="D13" s="229"/>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="221"/>
+      <c r="A14" s="228"/>
       <c r="B14" s="1">
         <v>44657</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="223"/>
+      <c r="D14" s="229"/>
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="221"/>
+      <c r="A15" s="228"/>
       <c r="B15" s="1">
         <v>44658</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="223"/>
+      <c r="D15" s="229"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="221"/>
+      <c r="A16" s="228"/>
       <c r="B16" s="1">
         <v>44659</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="223"/>
+      <c r="D16" s="229"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="221"/>
+      <c r="A17" s="228"/>
       <c r="B17" s="1">
         <v>44660</v>
       </c>
@@ -6353,7 +6365,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="221" t="s">
+      <c r="A18" s="228" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1">
@@ -6362,7 +6374,7 @@
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="223" t="s">
+      <c r="D18" s="229" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -6370,33 +6382,33 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="221"/>
+      <c r="A19" s="228"/>
       <c r="B19" s="1">
         <v>44663</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="223"/>
+      <c r="D19" s="229"/>
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="221"/>
+      <c r="A20" s="228"/>
       <c r="B20" s="1">
         <v>44664</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="223"/>
+      <c r="D20" s="229"/>
       <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="221" t="s">
+      <c r="A21" s="228" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1">
@@ -6405,7 +6417,7 @@
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="223" t="s">
+      <c r="D21" s="229" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -6413,27 +6425,27 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="221"/>
+      <c r="A22" s="228"/>
       <c r="B22" s="1">
         <v>44672</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="223"/>
+      <c r="D22" s="229"/>
       <c r="E22" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="221"/>
+      <c r="A23" s="228"/>
       <c r="B23" s="1">
         <v>44673</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="223" t="s">
+      <c r="D23" s="229" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -6441,20 +6453,20 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="221"/>
+      <c r="A24" s="228"/>
       <c r="B24" s="1">
         <v>44674</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="223"/>
+      <c r="D24" s="229"/>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="221" t="s">
+      <c r="A25" s="228" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="1">
@@ -6463,7 +6475,7 @@
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="222" t="s">
+      <c r="D25" s="230" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -6471,66 +6483,66 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="221"/>
+      <c r="A26" s="228"/>
       <c r="B26" s="1">
         <v>44677</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="222"/>
+      <c r="D26" s="230"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="221"/>
+      <c r="A27" s="228"/>
       <c r="B27" s="1">
         <v>44678</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="222"/>
+      <c r="D27" s="230"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="221"/>
+      <c r="A28" s="228"/>
       <c r="B28" s="1">
         <v>44679</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="223" t="s">
+      <c r="D28" s="229" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="221"/>
+      <c r="A29" s="228"/>
       <c r="B29" s="1">
         <v>44680</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="223"/>
+      <c r="D29" s="229"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="221"/>
+      <c r="A30" s="228"/>
       <c r="B30" s="1">
         <v>44681</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="223"/>
+      <c r="D30" s="229"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="221" t="s">
+      <c r="A31" s="228" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="1">
@@ -6539,24 +6551,24 @@
       <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="223" t="s">
+      <c r="D31" s="229" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="221"/>
+      <c r="A32" s="228"/>
       <c r="B32" s="1">
         <v>44687</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="223"/>
+      <c r="D32" s="229"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="221"/>
+      <c r="A33" s="228"/>
       <c r="B33" s="1">
         <v>44688</v>
       </c>
@@ -6569,7 +6581,7 @@
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="221" t="s">
+      <c r="A34" s="228" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="1">
@@ -6578,70 +6590,70 @@
       <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="223" t="s">
+      <c r="D34" s="229" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="221"/>
+      <c r="A35" s="228"/>
       <c r="B35" s="1">
         <v>44691</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="223"/>
+      <c r="D35" s="229"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="221"/>
+      <c r="A36" s="228"/>
       <c r="B36" s="1">
         <v>44692</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="223"/>
+      <c r="D36" s="229"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="221"/>
+      <c r="A37" s="228"/>
       <c r="B37" s="1">
         <v>44693</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="223"/>
+      <c r="D37" s="229"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="221"/>
+      <c r="A38" s="228"/>
       <c r="B38" s="1">
         <v>44694</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="222" t="s">
+      <c r="D38" s="230" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="221"/>
+      <c r="A39" s="228"/>
       <c r="B39" s="1">
         <v>44695</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="222"/>
+      <c r="D39" s="230"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="221" t="s">
+      <c r="A40" s="228" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="1">
@@ -6650,70 +6662,83 @@
       <c r="C40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="223" t="s">
+      <c r="D40" s="229" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="221"/>
+      <c r="A41" s="228"/>
       <c r="B41" s="1">
         <v>44698</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="223"/>
+      <c r="D41" s="229"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="221"/>
+      <c r="A42" s="228"/>
       <c r="B42" s="1">
         <v>44699</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="223"/>
+      <c r="D42" s="229"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="221"/>
+      <c r="A43" s="228"/>
       <c r="B43" s="1">
         <v>44700</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="223" t="s">
+      <c r="D43" s="229" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="221"/>
+      <c r="A44" s="228"/>
       <c r="B44" s="1">
         <v>44701</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="223"/>
+      <c r="D44" s="229"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="221"/>
+      <c r="A45" s="228"/>
       <c r="B45" s="1">
         <v>44702</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="223"/>
+      <c r="D45" s="229"/>
       <c r="E45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="D43:D45"/>
@@ -6725,19 +6750,6 @@
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6880,10 +6892,10 @@
       <c r="C9" s="7">
         <v>44696</v>
       </c>
-      <c r="D9" s="224" t="s">
+      <c r="D9" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="224"/>
+      <c r="E9" s="231"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -7102,10 +7114,10 @@
       <c r="C25" s="7">
         <v>44710</v>
       </c>
-      <c r="D25" s="224" t="s">
+      <c r="D25" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="224"/>
+      <c r="E25" s="231"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -7212,10 +7224,10 @@
       <c r="C33" s="7">
         <v>44717</v>
       </c>
-      <c r="D33" s="224" t="s">
+      <c r="D33" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="224"/>
+      <c r="E33" s="231"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
@@ -7322,10 +7334,10 @@
       <c r="C41" s="7">
         <v>44724</v>
       </c>
-      <c r="D41" s="224" t="s">
+      <c r="D41" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="224"/>
+      <c r="E41" s="231"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
@@ -7432,10 +7444,10 @@
       <c r="C49" s="7">
         <v>44731</v>
       </c>
-      <c r="D49" s="224" t="s">
+      <c r="D49" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="224"/>
+      <c r="E49" s="231"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
@@ -7542,10 +7554,10 @@
       <c r="C57" s="7">
         <v>44738</v>
       </c>
-      <c r="D57" s="224" t="s">
+      <c r="D57" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="224"/>
+      <c r="E57" s="231"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
@@ -7624,10 +7636,10 @@
       <c r="C63" s="7">
         <v>44744</v>
       </c>
-      <c r="D63" s="224" t="s">
+      <c r="D63" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="224"/>
+      <c r="E63" s="231"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
@@ -7636,10 +7648,10 @@
       <c r="C64" s="7">
         <v>44745</v>
       </c>
-      <c r="D64" s="224" t="s">
+      <c r="D64" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="224"/>
+      <c r="E64" s="231"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
@@ -7718,10 +7730,10 @@
       <c r="C70" s="7">
         <v>44751</v>
       </c>
-      <c r="D70" s="224" t="s">
+      <c r="D70" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="224"/>
+      <c r="E70" s="231"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
@@ -7730,10 +7742,10 @@
       <c r="C71" s="7">
         <v>44752</v>
       </c>
-      <c r="D71" s="224" t="s">
+      <c r="D71" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="E71" s="224"/>
+      <c r="E71" s="231"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C72" s="7"/>
@@ -7743,16 +7755,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8054,20 +8066,20 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="268" t="s">
+      <c r="B4" s="241" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="269"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="269"/>
-      <c r="J4" s="269"/>
-      <c r="K4" s="269"/>
-      <c r="L4" s="269"/>
-      <c r="M4" s="270"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="243"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
@@ -8084,242 +8096,242 @@
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="247" t="s">
+      <c r="B6" s="254" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="249"/>
-      <c r="D6" s="275" t="s">
+      <c r="C6" s="255"/>
+      <c r="D6" s="260" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="265" t="s">
+      <c r="E6" s="271" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="266"/>
-      <c r="G6" s="266"/>
-      <c r="H6" s="266"/>
-      <c r="I6" s="266"/>
-      <c r="J6" s="266"/>
-      <c r="K6" s="266"/>
-      <c r="L6" s="266"/>
-      <c r="M6" s="267"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="272"/>
+      <c r="I6" s="272"/>
+      <c r="J6" s="272"/>
+      <c r="K6" s="272"/>
+      <c r="L6" s="272"/>
+      <c r="M6" s="273"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="250"/>
-      <c r="C7" s="252"/>
-      <c r="D7" s="276"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="239"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="239"/>
-      <c r="M7" s="240"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="249"/>
+      <c r="K7" s="249"/>
+      <c r="L7" s="249"/>
+      <c r="M7" s="250"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="250"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="235" t="s">
+      <c r="B8" s="256"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="262" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="241" t="s">
+      <c r="E8" s="267" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="239"/>
-      <c r="I8" s="239"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="239"/>
-      <c r="M8" s="240"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="249"/>
+      <c r="K8" s="249"/>
+      <c r="L8" s="249"/>
+      <c r="M8" s="250"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="253"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="239"/>
-      <c r="G9" s="239"/>
-      <c r="H9" s="239"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="239"/>
-      <c r="M9" s="240"/>
+      <c r="B9" s="258"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="248"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="249"/>
+      <c r="K9" s="249"/>
+      <c r="L9" s="249"/>
+      <c r="M9" s="250"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="247" t="s">
+      <c r="B10" s="254" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="248"/>
-      <c r="D10" s="249"/>
-      <c r="E10" s="272" t="s">
+      <c r="C10" s="268"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="273"/>
-      <c r="G10" s="273"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="273"/>
-      <c r="K10" s="273"/>
-      <c r="L10" s="273"/>
-      <c r="M10" s="274"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="252"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="252"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="253"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="250"/>
-      <c r="C11" s="251"/>
-      <c r="D11" s="252"/>
-      <c r="E11" s="238"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="239"/>
-      <c r="J11" s="239"/>
-      <c r="K11" s="239"/>
-      <c r="L11" s="239"/>
-      <c r="M11" s="240"/>
+      <c r="B11" s="256"/>
+      <c r="C11" s="269"/>
+      <c r="D11" s="257"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="249"/>
+      <c r="K11" s="249"/>
+      <c r="L11" s="249"/>
+      <c r="M11" s="250"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="250"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="252"/>
-      <c r="E12" s="238"/>
-      <c r="F12" s="239"/>
-      <c r="G12" s="239"/>
-      <c r="H12" s="239"/>
-      <c r="I12" s="239"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="239"/>
-      <c r="M12" s="240"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="269"/>
+      <c r="D12" s="257"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="249"/>
+      <c r="K12" s="249"/>
+      <c r="L12" s="249"/>
+      <c r="M12" s="250"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="253"/>
-      <c r="C13" s="254"/>
-      <c r="D13" s="255"/>
-      <c r="E13" s="238"/>
-      <c r="F13" s="239"/>
-      <c r="G13" s="239"/>
-      <c r="H13" s="239"/>
-      <c r="I13" s="239"/>
-      <c r="J13" s="239"/>
-      <c r="K13" s="239"/>
-      <c r="L13" s="239"/>
-      <c r="M13" s="240"/>
+      <c r="B13" s="258"/>
+      <c r="C13" s="270"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="249"/>
+      <c r="K13" s="249"/>
+      <c r="L13" s="249"/>
+      <c r="M13" s="250"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="247" t="s">
+      <c r="B14" s="254" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="248"/>
-      <c r="D14" s="249"/>
-      <c r="E14" s="241" t="s">
+      <c r="C14" s="268"/>
+      <c r="D14" s="255"/>
+      <c r="E14" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="239"/>
-      <c r="G14" s="239"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="239"/>
-      <c r="J14" s="239"/>
-      <c r="K14" s="239"/>
-      <c r="L14" s="239"/>
-      <c r="M14" s="240"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="249"/>
+      <c r="K14" s="249"/>
+      <c r="L14" s="249"/>
+      <c r="M14" s="250"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="250"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="252"/>
-      <c r="E15" s="238"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="239"/>
-      <c r="H15" s="239"/>
-      <c r="I15" s="239"/>
-      <c r="J15" s="239"/>
-      <c r="K15" s="239"/>
-      <c r="L15" s="239"/>
-      <c r="M15" s="240"/>
+      <c r="B15" s="256"/>
+      <c r="C15" s="269"/>
+      <c r="D15" s="257"/>
+      <c r="E15" s="248"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="249"/>
+      <c r="I15" s="249"/>
+      <c r="J15" s="249"/>
+      <c r="K15" s="249"/>
+      <c r="L15" s="249"/>
+      <c r="M15" s="250"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="250"/>
-      <c r="C16" s="251"/>
-      <c r="D16" s="252"/>
-      <c r="E16" s="238"/>
-      <c r="F16" s="239"/>
-      <c r="G16" s="239"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="239"/>
-      <c r="J16" s="239"/>
-      <c r="K16" s="239"/>
-      <c r="L16" s="239"/>
-      <c r="M16" s="240"/>
+      <c r="B16" s="256"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="257"/>
+      <c r="E16" s="248"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="249"/>
+      <c r="K16" s="249"/>
+      <c r="L16" s="249"/>
+      <c r="M16" s="250"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="253"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="255"/>
-      <c r="E17" s="238"/>
-      <c r="F17" s="239"/>
-      <c r="G17" s="239"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="239"/>
-      <c r="J17" s="239"/>
-      <c r="K17" s="239"/>
-      <c r="L17" s="239"/>
-      <c r="M17" s="240"/>
+      <c r="B17" s="258"/>
+      <c r="C17" s="270"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="248"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="249"/>
+      <c r="K17" s="249"/>
+      <c r="L17" s="249"/>
+      <c r="M17" s="250"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="232" t="s">
+      <c r="B18" s="286" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="233"/>
+      <c r="C18" s="287"/>
       <c r="D18" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="241" t="s">
+      <c r="E18" s="267" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="239"/>
-      <c r="G18" s="239"/>
-      <c r="H18" s="239"/>
-      <c r="I18" s="239"/>
-      <c r="J18" s="239"/>
-      <c r="K18" s="239"/>
-      <c r="L18" s="239"/>
-      <c r="M18" s="240"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="249"/>
+      <c r="K18" s="249"/>
+      <c r="L18" s="249"/>
+      <c r="M18" s="250"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="234"/>
-      <c r="C19" s="235"/>
+      <c r="B19" s="288"/>
+      <c r="C19" s="262"/>
       <c r="D19" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="241"/>
-      <c r="F19" s="239"/>
-      <c r="G19" s="239"/>
-      <c r="H19" s="239"/>
-      <c r="I19" s="239"/>
-      <c r="J19" s="239"/>
-      <c r="K19" s="239"/>
-      <c r="L19" s="239"/>
-      <c r="M19" s="240"/>
+      <c r="E19" s="267"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="249"/>
+      <c r="K19" s="249"/>
+      <c r="L19" s="249"/>
+      <c r="M19" s="250"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="236"/>
-      <c r="C20" s="237"/>
+      <c r="B20" s="289"/>
+      <c r="C20" s="290"/>
       <c r="D20" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="238"/>
-      <c r="F20" s="239"/>
-      <c r="G20" s="239"/>
-      <c r="H20" s="239"/>
-      <c r="I20" s="239"/>
-      <c r="J20" s="239"/>
-      <c r="K20" s="239"/>
-      <c r="L20" s="239"/>
-      <c r="M20" s="240"/>
+      <c r="E20" s="248"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="249"/>
+      <c r="K20" s="249"/>
+      <c r="L20" s="249"/>
+      <c r="M20" s="250"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
@@ -8350,126 +8362,126 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="226" t="s">
+      <c r="B23" s="280" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="227"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="227"/>
-      <c r="F23" s="227"/>
-      <c r="G23" s="227"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="227"/>
-      <c r="J23" s="227"/>
-      <c r="K23" s="227"/>
-      <c r="L23" s="227"/>
-      <c r="M23" s="228"/>
+      <c r="C23" s="281"/>
+      <c r="D23" s="281"/>
+      <c r="E23" s="281"/>
+      <c r="F23" s="281"/>
+      <c r="G23" s="281"/>
+      <c r="H23" s="281"/>
+      <c r="I23" s="281"/>
+      <c r="J23" s="281"/>
+      <c r="K23" s="281"/>
+      <c r="L23" s="281"/>
+      <c r="M23" s="282"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="229" t="s">
+      <c r="C24" s="283" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="231"/>
-      <c r="E24" s="229" t="s">
+      <c r="D24" s="285"/>
+      <c r="E24" s="283" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="230"/>
-      <c r="G24" s="230"/>
-      <c r="H24" s="230"/>
-      <c r="I24" s="230"/>
-      <c r="J24" s="230"/>
-      <c r="K24" s="231"/>
-      <c r="L24" s="277" t="s">
+      <c r="F24" s="284"/>
+      <c r="G24" s="284"/>
+      <c r="H24" s="284"/>
+      <c r="I24" s="284"/>
+      <c r="J24" s="284"/>
+      <c r="K24" s="285"/>
+      <c r="L24" s="263" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="278"/>
+      <c r="M24" s="264"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="242"/>
-      <c r="D25" s="244"/>
-      <c r="E25" s="242"/>
-      <c r="F25" s="243"/>
-      <c r="G25" s="243"/>
-      <c r="H25" s="243"/>
-      <c r="I25" s="243"/>
-      <c r="J25" s="243"/>
-      <c r="K25" s="244"/>
-      <c r="L25" s="242"/>
-      <c r="M25" s="271"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="292"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="291"/>
+      <c r="G25" s="291"/>
+      <c r="H25" s="291"/>
+      <c r="I25" s="291"/>
+      <c r="J25" s="291"/>
+      <c r="K25" s="292"/>
+      <c r="L25" s="244"/>
+      <c r="M25" s="245"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="245"/>
-      <c r="D26" s="246"/>
-      <c r="E26" s="245"/>
-      <c r="F26" s="262"/>
-      <c r="G26" s="262"/>
-      <c r="H26" s="262"/>
-      <c r="I26" s="262"/>
-      <c r="J26" s="262"/>
-      <c r="K26" s="246"/>
-      <c r="L26" s="245"/>
-      <c r="M26" s="264"/>
+      <c r="C26" s="246"/>
+      <c r="D26" s="266"/>
+      <c r="E26" s="246"/>
+      <c r="F26" s="265"/>
+      <c r="G26" s="265"/>
+      <c r="H26" s="265"/>
+      <c r="I26" s="265"/>
+      <c r="J26" s="265"/>
+      <c r="K26" s="266"/>
+      <c r="L26" s="246"/>
+      <c r="M26" s="247"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="245"/>
-      <c r="D27" s="246"/>
-      <c r="E27" s="245"/>
-      <c r="F27" s="262"/>
-      <c r="G27" s="262"/>
-      <c r="H27" s="262"/>
-      <c r="I27" s="262"/>
-      <c r="J27" s="262"/>
-      <c r="K27" s="246"/>
-      <c r="L27" s="245"/>
-      <c r="M27" s="264"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="266"/>
+      <c r="E27" s="246"/>
+      <c r="F27" s="265"/>
+      <c r="G27" s="265"/>
+      <c r="H27" s="265"/>
+      <c r="I27" s="265"/>
+      <c r="J27" s="265"/>
+      <c r="K27" s="266"/>
+      <c r="L27" s="246"/>
+      <c r="M27" s="247"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
-      <c r="C28" s="245"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="245"/>
-      <c r="F28" s="262"/>
-      <c r="G28" s="262"/>
-      <c r="H28" s="262"/>
-      <c r="I28" s="262"/>
-      <c r="J28" s="262"/>
-      <c r="K28" s="246"/>
-      <c r="L28" s="245"/>
-      <c r="M28" s="264"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="266"/>
+      <c r="E28" s="246"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="265"/>
+      <c r="H28" s="265"/>
+      <c r="I28" s="265"/>
+      <c r="J28" s="265"/>
+      <c r="K28" s="266"/>
+      <c r="L28" s="246"/>
+      <c r="M28" s="247"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="245"/>
-      <c r="D29" s="246"/>
-      <c r="E29" s="245"/>
-      <c r="F29" s="262"/>
-      <c r="G29" s="262"/>
-      <c r="H29" s="262"/>
-      <c r="I29" s="262"/>
-      <c r="J29" s="262"/>
-      <c r="K29" s="246"/>
-      <c r="L29" s="245"/>
-      <c r="M29" s="264"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="266"/>
+      <c r="E29" s="246"/>
+      <c r="F29" s="265"/>
+      <c r="G29" s="265"/>
+      <c r="H29" s="265"/>
+      <c r="I29" s="265"/>
+      <c r="J29" s="265"/>
+      <c r="K29" s="266"/>
+      <c r="L29" s="246"/>
+      <c r="M29" s="247"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
-      <c r="C30" s="259"/>
-      <c r="D30" s="261"/>
-      <c r="E30" s="259"/>
-      <c r="F30" s="263"/>
-      <c r="G30" s="263"/>
-      <c r="H30" s="263"/>
-      <c r="I30" s="263"/>
-      <c r="J30" s="263"/>
-      <c r="K30" s="261"/>
-      <c r="L30" s="259"/>
-      <c r="M30" s="260"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="277"/>
+      <c r="E30" s="275"/>
+      <c r="F30" s="278"/>
+      <c r="G30" s="278"/>
+      <c r="H30" s="278"/>
+      <c r="I30" s="278"/>
+      <c r="J30" s="278"/>
+      <c r="K30" s="277"/>
+      <c r="L30" s="275"/>
+      <c r="M30" s="276"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
@@ -8486,20 +8498,20 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="226" t="s">
+      <c r="B32" s="280" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="227"/>
-      <c r="D32" s="227"/>
-      <c r="E32" s="227"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="227"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="227"/>
-      <c r="K32" s="227"/>
-      <c r="L32" s="227"/>
-      <c r="M32" s="228"/>
+      <c r="C32" s="281"/>
+      <c r="D32" s="281"/>
+      <c r="E32" s="281"/>
+      <c r="F32" s="281"/>
+      <c r="G32" s="281"/>
+      <c r="H32" s="281"/>
+      <c r="I32" s="281"/>
+      <c r="J32" s="281"/>
+      <c r="K32" s="281"/>
+      <c r="L32" s="281"/>
+      <c r="M32" s="282"/>
     </row>
     <row r="33" spans="2:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
@@ -8508,10 +8520,10 @@
       <c r="C33" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="229" t="s">
+      <c r="D33" s="283" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="231"/>
+      <c r="E33" s="285"/>
       <c r="F33" s="27" t="s">
         <v>162</v>
       </c>
@@ -8542,8 +8554,8 @@
         <v>1</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="256"/>
-      <c r="E34" s="256"/>
+      <c r="D34" s="293"/>
+      <c r="E34" s="293"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -8558,8 +8570,8 @@
         <v>2</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="257"/>
-      <c r="E35" s="257"/>
+      <c r="D35" s="240"/>
+      <c r="E35" s="240"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -8574,8 +8586,8 @@
         <v>3</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="257"/>
-      <c r="E36" s="257"/>
+      <c r="D36" s="240"/>
+      <c r="E36" s="240"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -8590,8 +8602,8 @@
         <v>4</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="258"/>
-      <c r="E37" s="258"/>
+      <c r="D37" s="274"/>
+      <c r="E37" s="274"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -8604,8 +8616,8 @@
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="225"/>
-      <c r="E38" s="225"/>
+      <c r="D38" s="279"/>
+      <c r="E38" s="279"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34" t="s">
         <v>169</v>
@@ -8626,16 +8638,16 @@
       <c r="M38" s="36"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="283" t="s">
+      <c r="B41" s="236" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="283"/>
-      <c r="D41" s="283"/>
-      <c r="E41" s="283"/>
-      <c r="F41" s="283"/>
-      <c r="G41" s="283"/>
-      <c r="H41" s="283"/>
-      <c r="I41" s="283"/>
+      <c r="C41" s="236"/>
+      <c r="D41" s="236"/>
+      <c r="E41" s="236"/>
+      <c r="F41" s="236"/>
+      <c r="G41" s="236"/>
+      <c r="H41" s="236"/>
+      <c r="I41" s="236"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
@@ -8648,16 +8660,16 @@
       <c r="C42" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="282" t="s">
+      <c r="D42" s="235" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="282"/>
-      <c r="F42" s="282" t="s">
+      <c r="E42" s="235"/>
+      <c r="F42" s="235" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="282"/>
-      <c r="H42" s="282"/>
-      <c r="I42" s="282"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="235"/>
+      <c r="I42" s="235"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -8668,8 +8680,8 @@
         <v>1</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="257"/>
-      <c r="E43" s="257"/>
+      <c r="D43" s="240"/>
+      <c r="E43" s="240"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -8684,8 +8696,8 @@
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="257"/>
-      <c r="E44" s="257"/>
+      <c r="D44" s="240"/>
+      <c r="E44" s="240"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -8700,8 +8712,8 @@
         <v>3</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="257"/>
-      <c r="E45" s="257"/>
+      <c r="D45" s="240"/>
+      <c r="E45" s="240"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -8712,16 +8724,16 @@
       <c r="M45" s="12"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="283" t="s">
+      <c r="B47" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="283"/>
-      <c r="D47" s="283"/>
-      <c r="E47" s="283"/>
-      <c r="F47" s="283"/>
-      <c r="G47" s="283"/>
-      <c r="H47" s="283"/>
-      <c r="I47" s="283"/>
+      <c r="C47" s="236"/>
+      <c r="D47" s="236"/>
+      <c r="E47" s="236"/>
+      <c r="F47" s="236"/>
+      <c r="G47" s="236"/>
+      <c r="H47" s="236"/>
+      <c r="I47" s="236"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
@@ -8734,14 +8746,14 @@
       <c r="C48" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D48" s="284" t="s">
+      <c r="D48" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="285"/>
-      <c r="F48" s="285"/>
-      <c r="G48" s="285"/>
-      <c r="H48" s="285"/>
-      <c r="I48" s="286"/>
+      <c r="E48" s="238"/>
+      <c r="F48" s="238"/>
+      <c r="G48" s="238"/>
+      <c r="H48" s="238"/>
+      <c r="I48" s="239"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
@@ -8754,12 +8766,12 @@
       <c r="C49" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="279"/>
-      <c r="E49" s="280"/>
-      <c r="F49" s="280"/>
-      <c r="G49" s="280"/>
-      <c r="H49" s="280"/>
-      <c r="I49" s="281"/>
+      <c r="D49" s="232"/>
+      <c r="E49" s="233"/>
+      <c r="F49" s="233"/>
+      <c r="G49" s="233"/>
+      <c r="H49" s="233"/>
+      <c r="I49" s="234"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="17">
@@ -8768,12 +8780,12 @@
       <c r="C50" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="279"/>
-      <c r="E50" s="280"/>
-      <c r="F50" s="280"/>
-      <c r="G50" s="280"/>
-      <c r="H50" s="280"/>
-      <c r="I50" s="281"/>
+      <c r="D50" s="232"/>
+      <c r="E50" s="233"/>
+      <c r="F50" s="233"/>
+      <c r="G50" s="233"/>
+      <c r="H50" s="233"/>
+      <c r="I50" s="234"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="17">
@@ -8782,77 +8794,128 @@
       <c r="C51" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="279"/>
-      <c r="E51" s="280"/>
-      <c r="F51" s="280"/>
-      <c r="G51" s="280"/>
-      <c r="H51" s="280"/>
-      <c r="I51" s="281"/>
+      <c r="D51" s="232"/>
+      <c r="E51" s="233"/>
+      <c r="F51" s="233"/>
+      <c r="G51" s="233"/>
+      <c r="H51" s="233"/>
+      <c r="I51" s="234"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="283" t="s">
+      <c r="B54" s="236" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="283"/>
-      <c r="D54" s="283"/>
-      <c r="E54" s="283"/>
-      <c r="F54" s="283"/>
-      <c r="G54" s="283"/>
-      <c r="H54" s="283"/>
-      <c r="I54" s="283"/>
+      <c r="C54" s="236"/>
+      <c r="D54" s="236"/>
+      <c r="E54" s="236"/>
+      <c r="F54" s="236"/>
+      <c r="G54" s="236"/>
+      <c r="H54" s="236"/>
+      <c r="I54" s="236"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="284" t="s">
+      <c r="C55" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="285"/>
-      <c r="E55" s="285"/>
-      <c r="F55" s="285"/>
-      <c r="G55" s="285"/>
-      <c r="H55" s="285"/>
-      <c r="I55" s="286"/>
+      <c r="D55" s="238"/>
+      <c r="E55" s="238"/>
+      <c r="F55" s="238"/>
+      <c r="G55" s="238"/>
+      <c r="H55" s="238"/>
+      <c r="I55" s="239"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="17">
         <v>1</v>
       </c>
-      <c r="C56" s="279"/>
-      <c r="D56" s="280"/>
-      <c r="E56" s="280"/>
-      <c r="F56" s="280"/>
-      <c r="G56" s="280"/>
-      <c r="H56" s="280"/>
-      <c r="I56" s="281"/>
+      <c r="C56" s="232"/>
+      <c r="D56" s="233"/>
+      <c r="E56" s="233"/>
+      <c r="F56" s="233"/>
+      <c r="G56" s="233"/>
+      <c r="H56" s="233"/>
+      <c r="I56" s="234"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="17">
         <v>2</v>
       </c>
-      <c r="C57" s="279"/>
-      <c r="D57" s="280"/>
-      <c r="E57" s="280"/>
-      <c r="F57" s="280"/>
-      <c r="G57" s="280"/>
-      <c r="H57" s="280"/>
-      <c r="I57" s="281"/>
+      <c r="C57" s="232"/>
+      <c r="D57" s="233"/>
+      <c r="E57" s="233"/>
+      <c r="F57" s="233"/>
+      <c r="G57" s="233"/>
+      <c r="H57" s="233"/>
+      <c r="I57" s="234"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="17">
         <v>3</v>
       </c>
-      <c r="C58" s="279"/>
-      <c r="D58" s="280"/>
-      <c r="E58" s="280"/>
-      <c r="F58" s="280"/>
-      <c r="G58" s="280"/>
-      <c r="H58" s="280"/>
-      <c r="I58" s="281"/>
+      <c r="C58" s="232"/>
+      <c r="D58" s="233"/>
+      <c r="E58" s="233"/>
+      <c r="F58" s="233"/>
+      <c r="G58" s="233"/>
+      <c r="H58" s="233"/>
+      <c r="I58" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="B18:C20"/>
+    <mergeCell ref="E17:M17"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B14:D17"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="B10:D13"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E14:M14"/>
     <mergeCell ref="C57:I57"/>
     <mergeCell ref="C58:I58"/>
     <mergeCell ref="F42:I42"/>
@@ -8869,57 +8932,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="C56:I56"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="B10:D13"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="B18:C20"/>
-    <mergeCell ref="E17:M17"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B14:D17"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9195,44 +9207,44 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="297" t="s">
+      <c r="B2" s="304" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="299"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="306"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="300" t="s">
+      <c r="B3" s="307" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="302"/>
+      <c r="C3" s="308"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="309"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="303" t="s">
+      <c r="B4" s="310" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="304"/>
-      <c r="D4" s="304"/>
-      <c r="E4" s="305"/>
+      <c r="C4" s="311"/>
+      <c r="D4" s="311"/>
+      <c r="E4" s="312"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="303" t="s">
+      <c r="B5" s="310" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="305"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="312"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="289" t="s">
+      <c r="B6" s="296" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="290"/>
-      <c r="D6" s="290"/>
-      <c r="E6" s="291"/>
+      <c r="C6" s="297"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="298"/>
     </row>
     <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.2">
       <c r="B7" s="41" t="s">
@@ -10121,37 +10133,37 @@
       <c r="E81" s="146"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="292" t="s">
+      <c r="B82" s="299" t="s">
         <v>382</v>
       </c>
-      <c r="C82" s="293"/>
-      <c r="D82" s="293"/>
-      <c r="E82" s="294"/>
+      <c r="C82" s="300"/>
+      <c r="D82" s="300"/>
+      <c r="E82" s="301"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="295" t="s">
+      <c r="B83" s="302" t="s">
         <v>383</v>
       </c>
-      <c r="C83" s="296"/>
-      <c r="D83" s="296"/>
+      <c r="C83" s="303"/>
+      <c r="D83" s="303"/>
       <c r="E83" s="47" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="295" t="s">
+      <c r="B84" s="302" t="s">
         <v>384</v>
       </c>
-      <c r="C84" s="296"/>
-      <c r="D84" s="296"/>
+      <c r="C84" s="303"/>
+      <c r="D84" s="303"/>
       <c r="E84" s="47"/>
     </row>
     <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="287" t="s">
+      <c r="B85" s="294" t="s">
         <v>385</v>
       </c>
-      <c r="C85" s="288"/>
-      <c r="D85" s="288"/>
+      <c r="C85" s="295"/>
+      <c r="D85" s="295"/>
       <c r="E85" s="48" t="s">
         <v>191</v>
       </c>
@@ -10711,109 +10723,109 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="320" t="s">
+      <c r="B2" s="316" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="321"/>
-      <c r="K2" s="322"/>
-      <c r="L2" s="323"/>
+      <c r="C2" s="317"/>
+      <c r="D2" s="317"/>
+      <c r="E2" s="317"/>
+      <c r="F2" s="317"/>
+      <c r="G2" s="317"/>
+      <c r="H2" s="317"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="319"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="320" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325"/>
-      <c r="F3" s="325"/>
-      <c r="G3" s="325"/>
-      <c r="H3" s="325"/>
-      <c r="I3" s="325"/>
-      <c r="J3" s="325"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="327"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="323"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="300" t="s">
+      <c r="B4" s="307" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="328"/>
-      <c r="L4" s="302"/>
+      <c r="C4" s="308"/>
+      <c r="D4" s="308"/>
+      <c r="E4" s="308"/>
+      <c r="F4" s="308"/>
+      <c r="G4" s="308"/>
+      <c r="H4" s="308"/>
+      <c r="I4" s="308"/>
+      <c r="J4" s="308"/>
+      <c r="K4" s="324"/>
+      <c r="L4" s="309"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="289" t="s">
+      <c r="B5" s="296" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="290"/>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="290"/>
-      <c r="J5" s="290"/>
-      <c r="K5" s="329"/>
-      <c r="L5" s="291"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="297"/>
+      <c r="G5" s="297"/>
+      <c r="H5" s="297"/>
+      <c r="I5" s="297"/>
+      <c r="J5" s="297"/>
+      <c r="K5" s="325"/>
+      <c r="L5" s="298"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="330" t="s">
+      <c r="B6" s="326" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
-      <c r="F6" s="331"/>
-      <c r="G6" s="331"/>
-      <c r="H6" s="331"/>
-      <c r="I6" s="331"/>
-      <c r="J6" s="331"/>
-      <c r="K6" s="331"/>
-      <c r="L6" s="332"/>
+      <c r="C6" s="327"/>
+      <c r="D6" s="327"/>
+      <c r="E6" s="327"/>
+      <c r="F6" s="327"/>
+      <c r="G6" s="327"/>
+      <c r="H6" s="327"/>
+      <c r="I6" s="327"/>
+      <c r="J6" s="327"/>
+      <c r="K6" s="327"/>
+      <c r="L6" s="328"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="317" t="s">
+      <c r="B7" s="313" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="318"/>
-      <c r="D7" s="318"/>
-      <c r="E7" s="318"/>
-      <c r="F7" s="318"/>
-      <c r="G7" s="318"/>
-      <c r="H7" s="318"/>
-      <c r="I7" s="318"/>
-      <c r="J7" s="318"/>
-      <c r="K7" s="318"/>
-      <c r="L7" s="319"/>
+      <c r="C7" s="314"/>
+      <c r="D7" s="314"/>
+      <c r="E7" s="314"/>
+      <c r="F7" s="314"/>
+      <c r="G7" s="314"/>
+      <c r="H7" s="314"/>
+      <c r="I7" s="314"/>
+      <c r="J7" s="314"/>
+      <c r="K7" s="314"/>
+      <c r="L7" s="315"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="310" t="s">
+      <c r="B8" s="333" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311"/>
-      <c r="F8" s="311"/>
-      <c r="G8" s="311"/>
-      <c r="H8" s="311"/>
-      <c r="I8" s="311"/>
-      <c r="J8" s="311"/>
-      <c r="K8" s="311"/>
-      <c r="L8" s="312"/>
+      <c r="C8" s="334"/>
+      <c r="D8" s="334"/>
+      <c r="E8" s="334"/>
+      <c r="F8" s="334"/>
+      <c r="G8" s="334"/>
+      <c r="H8" s="334"/>
+      <c r="I8" s="334"/>
+      <c r="J8" s="334"/>
+      <c r="K8" s="334"/>
+      <c r="L8" s="335"/>
     </row>
     <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
@@ -12149,92 +12161,86 @@
       <c r="L65" s="51"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="313" t="s">
+      <c r="B66" s="336" t="s">
         <v>382</v>
       </c>
-      <c r="C66" s="314"/>
-      <c r="D66" s="314"/>
-      <c r="E66" s="314"/>
-      <c r="F66" s="314"/>
-      <c r="G66" s="314"/>
-      <c r="H66" s="314"/>
-      <c r="I66" s="314"/>
-      <c r="J66" s="314"/>
-      <c r="K66" s="315"/>
-      <c r="L66" s="316"/>
+      <c r="C66" s="337"/>
+      <c r="D66" s="337"/>
+      <c r="E66" s="337"/>
+      <c r="F66" s="337"/>
+      <c r="G66" s="337"/>
+      <c r="H66" s="337"/>
+      <c r="I66" s="337"/>
+      <c r="J66" s="337"/>
+      <c r="K66" s="338"/>
+      <c r="L66" s="339"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="295" t="s">
+      <c r="B67" s="302" t="s">
         <v>383</v>
       </c>
-      <c r="C67" s="296"/>
-      <c r="D67" s="296"/>
+      <c r="C67" s="303"/>
+      <c r="D67" s="303"/>
       <c r="E67" s="52"/>
-      <c r="F67" s="306" t="s">
+      <c r="F67" s="329" t="s">
         <v>191</v>
       </c>
-      <c r="G67" s="306"/>
-      <c r="H67" s="306"/>
-      <c r="I67" s="306"/>
-      <c r="J67" s="306"/>
-      <c r="K67" s="306"/>
-      <c r="L67" s="307"/>
+      <c r="G67" s="329"/>
+      <c r="H67" s="329"/>
+      <c r="I67" s="329"/>
+      <c r="J67" s="329"/>
+      <c r="K67" s="329"/>
+      <c r="L67" s="330"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="295" t="s">
+      <c r="B68" s="302" t="s">
         <v>384</v>
       </c>
-      <c r="C68" s="296"/>
-      <c r="D68" s="296"/>
+      <c r="C68" s="303"/>
+      <c r="D68" s="303"/>
       <c r="E68" s="52"/>
-      <c r="F68" s="306"/>
-      <c r="G68" s="306"/>
-      <c r="H68" s="306"/>
-      <c r="I68" s="306"/>
-      <c r="J68" s="306"/>
-      <c r="K68" s="306"/>
-      <c r="L68" s="307"/>
+      <c r="F68" s="329"/>
+      <c r="G68" s="329"/>
+      <c r="H68" s="329"/>
+      <c r="I68" s="329"/>
+      <c r="J68" s="329"/>
+      <c r="K68" s="329"/>
+      <c r="L68" s="330"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="295" t="s">
+      <c r="B69" s="302" t="s">
         <v>385</v>
       </c>
-      <c r="C69" s="296"/>
-      <c r="D69" s="296"/>
+      <c r="C69" s="303"/>
+      <c r="D69" s="303"/>
       <c r="E69" s="52"/>
-      <c r="F69" s="306" t="s">
+      <c r="F69" s="329" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="306"/>
-      <c r="H69" s="306"/>
-      <c r="I69" s="306"/>
-      <c r="J69" s="306"/>
-      <c r="K69" s="306"/>
-      <c r="L69" s="307"/>
+      <c r="G69" s="329"/>
+      <c r="H69" s="329"/>
+      <c r="I69" s="329"/>
+      <c r="J69" s="329"/>
+      <c r="K69" s="329"/>
+      <c r="L69" s="330"/>
     </row>
     <row r="70" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="287" t="s">
+      <c r="B70" s="294" t="s">
         <v>588</v>
       </c>
-      <c r="C70" s="288"/>
-      <c r="D70" s="288"/>
+      <c r="C70" s="295"/>
+      <c r="D70" s="295"/>
       <c r="E70" s="53"/>
-      <c r="F70" s="308"/>
-      <c r="G70" s="308"/>
-      <c r="H70" s="308"/>
-      <c r="I70" s="308"/>
-      <c r="J70" s="308"/>
-      <c r="K70" s="308"/>
-      <c r="L70" s="309"/>
+      <c r="F70" s="331"/>
+      <c r="G70" s="331"/>
+      <c r="H70" s="331"/>
+      <c r="I70" s="331"/>
+      <c r="J70" s="331"/>
+      <c r="K70" s="331"/>
+      <c r="L70" s="332"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="F69:L69"/>
     <mergeCell ref="B70:D70"/>
@@ -12245,6 +12251,12 @@
     <mergeCell ref="F67:L67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="F68:L68"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12254,8 +12266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F031F4EE-3EC7-47DE-91AF-34380ED2D64A}">
   <dimension ref="B1:AX159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14313,41 +14325,41 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="333" t="s">
+      <c r="B2" s="340" t="s">
         <v>589</v>
       </c>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334"/>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334"/>
-      <c r="R2" s="334"/>
-      <c r="S2" s="334"/>
-      <c r="T2" s="334"/>
-      <c r="U2" s="335"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341"/>
+      <c r="K2" s="341"/>
+      <c r="L2" s="341"/>
+      <c r="M2" s="341"/>
+      <c r="N2" s="341"/>
+      <c r="O2" s="341"/>
+      <c r="P2" s="341"/>
+      <c r="Q2" s="341"/>
+      <c r="R2" s="341"/>
+      <c r="S2" s="341"/>
+      <c r="T2" s="341"/>
+      <c r="U2" s="342"/>
     </row>
     <row r="3" spans="2:23" s="205" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="203" t="s">
         <v>590</v>
       </c>
-      <c r="C3" s="336"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="337"/>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
-      <c r="J3" s="338"/>
+      <c r="C3" s="343"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="345"/>
       <c r="K3" s="104"/>
       <c r="L3" s="104"/>
       <c r="M3" s="204"/>
@@ -14366,16 +14378,16 @@
       <c r="B4" s="206" t="s">
         <v>591</v>
       </c>
-      <c r="C4" s="339" t="s">
+      <c r="C4" s="346" t="s">
         <v>697</v>
       </c>
-      <c r="D4" s="340"/>
-      <c r="E4" s="340"/>
-      <c r="F4" s="340"/>
-      <c r="G4" s="340"/>
-      <c r="H4" s="340"/>
-      <c r="I4" s="340"/>
-      <c r="J4" s="341"/>
+      <c r="D4" s="347"/>
+      <c r="E4" s="347"/>
+      <c r="F4" s="347"/>
+      <c r="G4" s="347"/>
+      <c r="H4" s="347"/>
+      <c r="I4" s="347"/>
+      <c r="J4" s="348"/>
       <c r="M4" s="208"/>
       <c r="N4" s="208"/>
       <c r="O4" s="208"/>
@@ -14446,7 +14458,7 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="348">
+      <c r="B7" s="221">
         <v>1</v>
       </c>
       <c r="C7" s="189" t="s">
@@ -14461,10 +14473,10 @@
       <c r="F7" s="189" t="s">
         <v>626</v>
       </c>
-      <c r="G7" s="349" t="s">
+      <c r="G7" s="222" t="s">
         <v>631</v>
       </c>
-      <c r="H7" s="350" t="s">
+      <c r="H7" s="223" t="s">
         <v>632</v>
       </c>
       <c r="I7" s="191" t="s">
@@ -14473,7 +14485,7 @@
       <c r="J7" s="197" t="s">
         <v>615</v>
       </c>
-      <c r="K7" s="351" t="s">
+      <c r="K7" s="224" t="s">
         <v>624</v>
       </c>
       <c r="L7" s="197" t="s">
@@ -15509,7 +15521,7 @@
       <c r="AS28" s="67"/>
       <c r="AT28" s="67"/>
       <c r="AU28" s="67"/>
-      <c r="AV28" s="342" t="s">
+      <c r="AV28" s="349" t="s">
         <v>617</v>
       </c>
       <c r="AW28" s="99" t="s">
@@ -15580,7 +15592,7 @@
       </c>
       <c r="AT29" s="67"/>
       <c r="AU29" s="97"/>
-      <c r="AV29" s="343"/>
+      <c r="AV29" s="350"/>
       <c r="AW29" s="92" t="s">
         <v>620</v>
       </c>
@@ -15649,7 +15661,7 @@
       </c>
       <c r="AT30" s="67"/>
       <c r="AU30" s="67"/>
-      <c r="AV30" s="343"/>
+      <c r="AV30" s="350"/>
       <c r="AW30" s="92" t="s">
         <v>625</v>
       </c>
@@ -15718,7 +15730,7 @@
       </c>
       <c r="AT31" s="67"/>
       <c r="AU31" s="67"/>
-      <c r="AV31" s="343"/>
+      <c r="AV31" s="350"/>
       <c r="AW31" s="92" t="s">
         <v>629</v>
       </c>
@@ -15787,7 +15799,7 @@
       </c>
       <c r="AT32" s="67"/>
       <c r="AU32" s="67"/>
-      <c r="AV32" s="343"/>
+      <c r="AV32" s="350"/>
       <c r="AW32" s="92" t="s">
         <v>634</v>
       </c>
@@ -15856,7 +15868,7 @@
       </c>
       <c r="AT33" s="67"/>
       <c r="AU33" s="67"/>
-      <c r="AV33" s="343"/>
+      <c r="AV33" s="350"/>
       <c r="AW33" s="92" t="s">
         <v>639</v>
       </c>
@@ -15921,7 +15933,7 @@
       </c>
       <c r="AT34" s="67"/>
       <c r="AU34" s="67"/>
-      <c r="AV34" s="343"/>
+      <c r="AV34" s="350"/>
       <c r="AW34" s="72" t="s">
         <v>642</v>
       </c>
@@ -15988,7 +16000,7 @@
       </c>
       <c r="AT35" s="67"/>
       <c r="AU35" s="67"/>
-      <c r="AV35" s="343"/>
+      <c r="AV35" s="350"/>
       <c r="AW35" s="72" t="s">
         <v>646</v>
       </c>
@@ -16053,7 +16065,7 @@
       <c r="AS36" s="85"/>
       <c r="AT36" s="67"/>
       <c r="AU36" s="67"/>
-      <c r="AV36" s="343"/>
+      <c r="AV36" s="350"/>
       <c r="AW36" s="72" t="s">
         <v>649</v>
       </c>
@@ -16118,7 +16130,7 @@
       <c r="AS37" s="67"/>
       <c r="AT37" s="67"/>
       <c r="AU37" s="67"/>
-      <c r="AV37" s="343"/>
+      <c r="AV37" s="350"/>
       <c r="AW37" s="72" t="s">
         <v>651</v>
       </c>
@@ -16179,7 +16191,7 @@
       <c r="AS38" s="67"/>
       <c r="AT38" s="67"/>
       <c r="AU38" s="67"/>
-      <c r="AV38" s="343"/>
+      <c r="AV38" s="350"/>
       <c r="AW38" s="72" t="s">
         <v>652</v>
       </c>
@@ -16240,7 +16252,7 @@
       <c r="AS39" s="67"/>
       <c r="AT39" s="67"/>
       <c r="AU39" s="67"/>
-      <c r="AV39" s="343"/>
+      <c r="AV39" s="350"/>
       <c r="AW39" s="72" t="s">
         <v>653</v>
       </c>
@@ -16301,7 +16313,7 @@
       <c r="AS40" s="67"/>
       <c r="AT40" s="67"/>
       <c r="AU40" s="67"/>
-      <c r="AV40" s="343"/>
+      <c r="AV40" s="350"/>
       <c r="AW40" s="72" t="s">
         <v>654</v>
       </c>
@@ -16362,7 +16374,7 @@
       <c r="AS41" s="67"/>
       <c r="AT41" s="67"/>
       <c r="AU41" s="67"/>
-      <c r="AV41" s="343"/>
+      <c r="AV41" s="350"/>
       <c r="AW41" s="72" t="s">
         <v>655</v>
       </c>
@@ -16423,7 +16435,7 @@
       <c r="AS42" s="67"/>
       <c r="AT42" s="67"/>
       <c r="AU42" s="67"/>
-      <c r="AV42" s="343"/>
+      <c r="AV42" s="350"/>
       <c r="AW42" s="72" t="s">
         <v>656</v>
       </c>
@@ -16484,7 +16496,7 @@
       <c r="AS43" s="67"/>
       <c r="AT43" s="67"/>
       <c r="AU43" s="67"/>
-      <c r="AV43" s="343"/>
+      <c r="AV43" s="350"/>
       <c r="AW43" s="72" t="s">
         <v>657</v>
       </c>
@@ -16536,7 +16548,7 @@
       <c r="T44" s="191"/>
       <c r="U44" s="191"/>
       <c r="AL44" s="69"/>
-      <c r="AM44" s="342" t="s">
+      <c r="AM44" s="349" t="s">
         <v>658</v>
       </c>
       <c r="AN44" s="84" t="s">
@@ -16550,14 +16562,14 @@
         <v>601</v>
       </c>
       <c r="AR44" s="67"/>
-      <c r="AS44" s="345" t="s">
+      <c r="AS44" s="352" t="s">
         <v>606</v>
       </c>
       <c r="AT44" s="82" t="s">
         <v>660</v>
       </c>
       <c r="AU44" s="67"/>
-      <c r="AV44" s="343"/>
+      <c r="AV44" s="350"/>
       <c r="AW44" s="72" t="s">
         <v>661</v>
       </c>
@@ -16609,7 +16621,7 @@
       <c r="T45" s="191"/>
       <c r="U45" s="191"/>
       <c r="AL45" s="69"/>
-      <c r="AM45" s="343"/>
+      <c r="AM45" s="350"/>
       <c r="AN45" s="78" t="s">
         <v>612</v>
       </c>
@@ -16621,12 +16633,12 @@
         <v>662</v>
       </c>
       <c r="AR45" s="67"/>
-      <c r="AS45" s="346"/>
+      <c r="AS45" s="353"/>
       <c r="AT45" s="75" t="s">
         <v>663</v>
       </c>
       <c r="AU45" s="67"/>
-      <c r="AV45" s="343"/>
+      <c r="AV45" s="350"/>
       <c r="AW45" s="72" t="s">
         <v>664</v>
       </c>
@@ -16678,7 +16690,7 @@
       <c r="T46" s="191"/>
       <c r="U46" s="191"/>
       <c r="AL46" s="69"/>
-      <c r="AM46" s="343"/>
+      <c r="AM46" s="350"/>
       <c r="AN46" s="78" t="s">
         <v>613</v>
       </c>
@@ -16690,12 +16702,12 @@
         <v>665</v>
       </c>
       <c r="AR46" s="67"/>
-      <c r="AS46" s="346"/>
+      <c r="AS46" s="353"/>
       <c r="AT46" s="75" t="s">
         <v>666</v>
       </c>
       <c r="AU46" s="67"/>
-      <c r="AV46" s="343"/>
+      <c r="AV46" s="350"/>
       <c r="AW46" s="72" t="s">
         <v>667</v>
       </c>
@@ -16747,7 +16759,7 @@
       <c r="T47" s="191"/>
       <c r="U47" s="191"/>
       <c r="AL47" s="69"/>
-      <c r="AM47" s="343"/>
+      <c r="AM47" s="350"/>
       <c r="AN47" s="78" t="s">
         <v>614</v>
       </c>
@@ -16759,12 +16771,12 @@
         <v>669</v>
       </c>
       <c r="AR47" s="67"/>
-      <c r="AS47" s="346"/>
+      <c r="AS47" s="353"/>
       <c r="AT47" s="75" t="s">
         <v>670</v>
       </c>
       <c r="AU47" s="67"/>
-      <c r="AV47" s="343"/>
+      <c r="AV47" s="350"/>
       <c r="AW47" s="72" t="s">
         <v>671</v>
       </c>
@@ -16816,7 +16828,7 @@
       <c r="T48" s="191"/>
       <c r="U48" s="191"/>
       <c r="AL48" s="69"/>
-      <c r="AM48" s="343"/>
+      <c r="AM48" s="350"/>
       <c r="AN48" s="78" t="s">
         <v>615</v>
       </c>
@@ -16828,12 +16840,12 @@
         <v>624</v>
       </c>
       <c r="AR48" s="67"/>
-      <c r="AS48" s="346"/>
+      <c r="AS48" s="353"/>
       <c r="AT48" s="75" t="s">
         <v>672</v>
       </c>
       <c r="AU48" s="67"/>
-      <c r="AV48" s="343"/>
+      <c r="AV48" s="350"/>
       <c r="AW48" s="72" t="s">
         <v>673</v>
       </c>
@@ -16885,7 +16897,7 @@
       <c r="T49" s="191"/>
       <c r="U49" s="191"/>
       <c r="AL49" s="69"/>
-      <c r="AM49" s="343"/>
+      <c r="AM49" s="350"/>
       <c r="AN49" s="78" t="s">
         <v>616</v>
       </c>
@@ -16893,12 +16905,12 @@
       <c r="AP49" s="67"/>
       <c r="AQ49" s="67"/>
       <c r="AR49" s="67"/>
-      <c r="AS49" s="346"/>
+      <c r="AS49" s="353"/>
       <c r="AT49" s="75" t="s">
         <v>674</v>
       </c>
       <c r="AU49" s="67"/>
-      <c r="AV49" s="343"/>
+      <c r="AV49" s="350"/>
       <c r="AW49" s="72" t="s">
         <v>675</v>
       </c>
@@ -16950,18 +16962,18 @@
       <c r="T50" s="191"/>
       <c r="U50" s="191"/>
       <c r="AL50" s="69"/>
-      <c r="AM50" s="344"/>
+      <c r="AM50" s="351"/>
       <c r="AN50" s="77"/>
       <c r="AO50" s="77"/>
       <c r="AP50" s="67"/>
       <c r="AQ50" s="76"/>
       <c r="AR50" s="67"/>
-      <c r="AS50" s="346"/>
+      <c r="AS50" s="353"/>
       <c r="AT50" s="75" t="s">
         <v>676</v>
       </c>
       <c r="AU50" s="67"/>
-      <c r="AV50" s="343"/>
+      <c r="AV50" s="350"/>
       <c r="AW50" s="72" t="s">
         <v>677</v>
       </c>
@@ -17019,12 +17031,12 @@
       <c r="AP51" s="67"/>
       <c r="AQ51" s="67"/>
       <c r="AR51" s="67"/>
-      <c r="AS51" s="346"/>
+      <c r="AS51" s="353"/>
       <c r="AT51" s="74" t="s">
         <v>678</v>
       </c>
       <c r="AU51" s="67"/>
-      <c r="AV51" s="343"/>
+      <c r="AV51" s="350"/>
       <c r="AW51" s="72" t="s">
         <v>679</v>
       </c>
@@ -17082,12 +17094,12 @@
       <c r="AP52" s="67"/>
       <c r="AQ52" s="67"/>
       <c r="AR52" s="67"/>
-      <c r="AS52" s="346"/>
+      <c r="AS52" s="353"/>
       <c r="AT52" s="74" t="s">
         <v>680</v>
       </c>
       <c r="AU52" s="67"/>
-      <c r="AV52" s="343"/>
+      <c r="AV52" s="350"/>
       <c r="AW52" s="72" t="s">
         <v>681</v>
       </c>
@@ -17145,12 +17157,12 @@
       <c r="AP53" s="67"/>
       <c r="AQ53" s="67"/>
       <c r="AR53" s="67"/>
-      <c r="AS53" s="346"/>
+      <c r="AS53" s="353"/>
       <c r="AT53" s="74" t="s">
         <v>682</v>
       </c>
       <c r="AU53" s="67"/>
-      <c r="AV53" s="343"/>
+      <c r="AV53" s="350"/>
       <c r="AW53" s="72" t="s">
         <v>683</v>
       </c>
@@ -17208,12 +17220,12 @@
       <c r="AP54" s="67"/>
       <c r="AQ54" s="67"/>
       <c r="AR54" s="67"/>
-      <c r="AS54" s="346"/>
+      <c r="AS54" s="353"/>
       <c r="AT54" s="74" t="s">
         <v>684</v>
       </c>
       <c r="AU54" s="67"/>
-      <c r="AV54" s="343"/>
+      <c r="AV54" s="350"/>
       <c r="AW54" s="72" t="s">
         <v>685</v>
       </c>
@@ -17271,12 +17283,12 @@
       <c r="AP55" s="67"/>
       <c r="AQ55" s="67"/>
       <c r="AR55" s="67"/>
-      <c r="AS55" s="346"/>
+      <c r="AS55" s="353"/>
       <c r="AT55" s="74" t="s">
         <v>686</v>
       </c>
       <c r="AU55" s="67"/>
-      <c r="AV55" s="343"/>
+      <c r="AV55" s="350"/>
       <c r="AW55" s="72" t="s">
         <v>687</v>
       </c>
@@ -17334,12 +17346,12 @@
       <c r="AP56" s="67"/>
       <c r="AQ56" s="67"/>
       <c r="AR56" s="67"/>
-      <c r="AS56" s="347"/>
+      <c r="AS56" s="354"/>
       <c r="AT56" s="73" t="s">
         <v>688</v>
       </c>
       <c r="AU56" s="67"/>
-      <c r="AV56" s="343"/>
+      <c r="AV56" s="350"/>
       <c r="AW56" s="72" t="s">
         <v>689</v>
       </c>
@@ -17400,7 +17412,7 @@
       <c r="AS57" s="68"/>
       <c r="AT57" s="67"/>
       <c r="AU57" s="67"/>
-      <c r="AV57" s="343"/>
+      <c r="AV57" s="350"/>
       <c r="AW57" s="72" t="s">
         <v>690</v>
       </c>
@@ -17461,7 +17473,7 @@
       <c r="AS58" s="68"/>
       <c r="AT58" s="67"/>
       <c r="AU58" s="67"/>
-      <c r="AV58" s="343"/>
+      <c r="AV58" s="350"/>
       <c r="AW58" s="72" t="s">
         <v>691</v>
       </c>
@@ -17522,7 +17534,7 @@
       <c r="AS59" s="68"/>
       <c r="AT59" s="67"/>
       <c r="AU59" s="67"/>
-      <c r="AV59" s="343"/>
+      <c r="AV59" s="350"/>
       <c r="AW59" s="72" t="s">
         <v>692</v>
       </c>
@@ -17583,7 +17595,7 @@
       <c r="AS60" s="68"/>
       <c r="AT60" s="67"/>
       <c r="AU60" s="67"/>
-      <c r="AV60" s="343"/>
+      <c r="AV60" s="350"/>
       <c r="AW60" s="72" t="s">
         <v>693</v>
       </c>
@@ -17644,7 +17656,7 @@
       <c r="AS61" s="68"/>
       <c r="AT61" s="67"/>
       <c r="AU61" s="67"/>
-      <c r="AV61" s="343"/>
+      <c r="AV61" s="350"/>
       <c r="AW61" s="72" t="s">
         <v>694</v>
       </c>
@@ -17705,7 +17717,7 @@
       <c r="AS62" s="68"/>
       <c r="AT62" s="67"/>
       <c r="AU62" s="67"/>
-      <c r="AV62" s="343"/>
+      <c r="AV62" s="350"/>
       <c r="AW62" s="72" t="s">
         <v>695</v>
       </c>
@@ -17766,7 +17778,7 @@
       <c r="AS63" s="68"/>
       <c r="AT63" s="67"/>
       <c r="AU63" s="67"/>
-      <c r="AV63" s="343"/>
+      <c r="AV63" s="350"/>
       <c r="AW63" s="72" t="s">
         <v>696</v>
       </c>
@@ -17827,7 +17839,7 @@
       <c r="AS64" s="67"/>
       <c r="AT64" s="67"/>
       <c r="AU64" s="67"/>
-      <c r="AV64" s="344"/>
+      <c r="AV64" s="351"/>
       <c r="AW64" s="70"/>
       <c r="AX64" s="66"/>
     </row>
@@ -18009,8 +18021,8 @@
       <c r="E68" s="191" t="s">
         <v>786</v>
       </c>
-      <c r="F68" s="191" t="s">
-        <v>626</v>
+      <c r="F68" s="213" t="s">
+        <v>640</v>
       </c>
       <c r="G68" s="192" t="s">
         <v>627</v>
@@ -18056,8 +18068,8 @@
       <c r="E69" s="54" t="s">
         <v>786</v>
       </c>
-      <c r="F69" s="191" t="s">
-        <v>626</v>
+      <c r="F69" s="213" t="s">
+        <v>640</v>
       </c>
       <c r="G69" s="192" t="s">
         <v>627</v>
@@ -18103,8 +18115,8 @@
       <c r="E70" s="54" t="s">
         <v>786</v>
       </c>
-      <c r="F70" s="191" t="s">
-        <v>626</v>
+      <c r="F70" s="213" t="s">
+        <v>640</v>
       </c>
       <c r="G70" s="192" t="s">
         <v>627</v>
@@ -18150,8 +18162,8 @@
       <c r="E71" s="54" t="s">
         <v>786</v>
       </c>
-      <c r="F71" s="191" t="s">
-        <v>626</v>
+      <c r="F71" s="213" t="s">
+        <v>640</v>
       </c>
       <c r="G71" s="192" t="s">
         <v>627</v>
@@ -18564,22 +18576,22 @@
       <c r="B80" s="194">
         <v>74</v>
       </c>
-      <c r="C80" s="54" t="s">
+      <c r="C80" s="191" t="s">
         <v>799</v>
       </c>
-      <c r="D80" s="353" t="s">
+      <c r="D80" s="225" t="s">
         <v>798</v>
       </c>
-      <c r="E80" s="352" t="s">
+      <c r="E80" s="227" t="s">
         <v>797</v>
       </c>
-      <c r="F80" s="354" t="s">
+      <c r="F80" s="226" t="s">
         <v>640</v>
       </c>
-      <c r="G80" s="58" t="s">
+      <c r="G80" s="192" t="s">
         <v>631</v>
       </c>
-      <c r="H80" s="54" t="s">
+      <c r="H80" s="191" t="s">
         <v>632</v>
       </c>
       <c r="I80" s="191" t="s">
@@ -18588,45 +18600,45 @@
       <c r="J80" s="197" t="s">
         <v>615</v>
       </c>
-      <c r="K80" s="57" t="s">
+      <c r="K80" s="198" t="s">
         <v>624</v>
       </c>
       <c r="L80" s="197" t="s">
         <v>616</v>
       </c>
-      <c r="M80" s="54"/>
-      <c r="N80" s="220">
+      <c r="M80" s="191"/>
+      <c r="N80" s="209">
         <v>44756</v>
       </c>
-      <c r="O80" s="54"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="54"/>
-      <c r="R80" s="54"/>
-      <c r="S80" s="55"/>
-      <c r="T80" s="54"/>
-      <c r="U80" s="54"/>
+      <c r="O80" s="191"/>
+      <c r="P80" s="197"/>
+      <c r="Q80" s="191"/>
+      <c r="R80" s="191"/>
+      <c r="S80" s="201"/>
+      <c r="T80" s="191"/>
+      <c r="U80" s="191"/>
       <c r="AO80" s="60"/>
     </row>
     <row r="81" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B81" s="194">
         <v>75</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C81" s="191" t="s">
         <v>783</v>
       </c>
-      <c r="D81" s="54" t="s">
+      <c r="D81" s="191" t="s">
         <v>800</v>
       </c>
-      <c r="E81" s="188" t="s">
+      <c r="E81" s="190" t="s">
         <v>786</v>
       </c>
-      <c r="F81" s="54" t="s">
+      <c r="F81" s="191" t="s">
         <v>626</v>
       </c>
-      <c r="G81" s="58" t="s">
+      <c r="G81" s="192" t="s">
         <v>631</v>
       </c>
-      <c r="H81" s="54" t="s">
+      <c r="H81" s="191" t="s">
         <v>632</v>
       </c>
       <c r="I81" s="191" t="s">
@@ -18635,41 +18647,45 @@
       <c r="J81" s="197" t="s">
         <v>615</v>
       </c>
-      <c r="K81" s="57"/>
+      <c r="K81" s="198" t="s">
+        <v>624</v>
+      </c>
       <c r="L81" s="197" t="s">
         <v>616</v>
       </c>
-      <c r="M81" s="54"/>
-      <c r="N81" s="54"/>
-      <c r="O81" s="54"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="54"/>
-      <c r="R81" s="54"/>
-      <c r="S81" s="55"/>
-      <c r="T81" s="54"/>
-      <c r="U81" s="54"/>
+      <c r="M81" s="191"/>
+      <c r="N81" s="209">
+        <v>44756</v>
+      </c>
+      <c r="O81" s="191"/>
+      <c r="P81" s="197"/>
+      <c r="Q81" s="191"/>
+      <c r="R81" s="191"/>
+      <c r="S81" s="201"/>
+      <c r="T81" s="191"/>
+      <c r="U81" s="191"/>
       <c r="AO81" s="60"/>
     </row>
     <row r="82" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B82" s="194">
         <v>76</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="191" t="s">
         <v>699</v>
       </c>
-      <c r="D82" s="54" t="s">
+      <c r="D82" s="191" t="s">
         <v>750</v>
       </c>
-      <c r="E82" s="54" t="s">
+      <c r="E82" s="191" t="s">
         <v>802</v>
       </c>
-      <c r="F82" s="54" t="s">
+      <c r="F82" s="191" t="s">
         <v>626</v>
       </c>
-      <c r="G82" s="58" t="s">
+      <c r="G82" s="192" t="s">
         <v>631</v>
       </c>
-      <c r="H82" s="54" t="s">
+      <c r="H82" s="191" t="s">
         <v>632</v>
       </c>
       <c r="I82" s="191" t="s">
@@ -18678,41 +18694,45 @@
       <c r="J82" s="197" t="s">
         <v>615</v>
       </c>
-      <c r="K82" s="57"/>
+      <c r="K82" s="198" t="s">
+        <v>624</v>
+      </c>
       <c r="L82" s="197" t="s">
         <v>616</v>
       </c>
-      <c r="M82" s="54"/>
-      <c r="N82" s="54"/>
-      <c r="O82" s="54"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="54"/>
-      <c r="R82" s="54"/>
-      <c r="S82" s="55"/>
-      <c r="T82" s="54"/>
-      <c r="U82" s="54"/>
+      <c r="M82" s="191"/>
+      <c r="N82" s="209">
+        <v>44756</v>
+      </c>
+      <c r="O82" s="191"/>
+      <c r="P82" s="197"/>
+      <c r="Q82" s="191"/>
+      <c r="R82" s="191"/>
+      <c r="S82" s="201"/>
+      <c r="T82" s="191"/>
+      <c r="U82" s="191"/>
       <c r="AO82" s="60"/>
     </row>
     <row r="83" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B83" s="194">
         <v>77</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="191" t="s">
         <v>699</v>
       </c>
-      <c r="D83" s="54" t="s">
+      <c r="D83" s="191" t="s">
         <v>750</v>
       </c>
-      <c r="E83" s="54" t="s">
+      <c r="E83" s="191" t="s">
         <v>803</v>
       </c>
-      <c r="F83" s="54" t="s">
-        <v>626</v>
-      </c>
-      <c r="G83" s="58" t="s">
+      <c r="F83" s="213" t="s">
+        <v>640</v>
+      </c>
+      <c r="G83" s="192" t="s">
         <v>631</v>
       </c>
-      <c r="H83" s="54" t="s">
+      <c r="H83" s="191" t="s">
         <v>632</v>
       </c>
       <c r="I83" s="191" t="s">
@@ -18721,103 +18741,161 @@
       <c r="J83" s="197" t="s">
         <v>615</v>
       </c>
-      <c r="K83" s="57"/>
+      <c r="K83" s="198" t="s">
+        <v>624</v>
+      </c>
       <c r="L83" s="197" t="s">
         <v>616</v>
       </c>
-      <c r="M83" s="54"/>
-      <c r="N83" s="54"/>
-      <c r="O83" s="54"/>
-      <c r="P83" s="56"/>
-      <c r="Q83" s="54"/>
-      <c r="R83" s="54"/>
-      <c r="S83" s="55"/>
-      <c r="T83" s="54"/>
-      <c r="U83" s="54"/>
+      <c r="M83" s="191"/>
+      <c r="N83" s="209">
+        <v>44756</v>
+      </c>
+      <c r="O83" s="191"/>
+      <c r="P83" s="197"/>
+      <c r="Q83" s="191"/>
+      <c r="R83" s="191"/>
+      <c r="S83" s="201"/>
+      <c r="T83" s="191"/>
+      <c r="U83" s="191"/>
       <c r="AO83" s="60"/>
     </row>
     <row r="84" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B84" s="194">
         <v>78</v>
       </c>
-      <c r="C84" s="54" t="s">
+      <c r="C84" s="191" t="s">
         <v>805</v>
       </c>
-      <c r="D84" s="54" t="s">
+      <c r="D84" s="191" t="s">
         <v>717</v>
       </c>
-      <c r="E84" s="54" t="s">
+      <c r="E84" s="191" t="s">
         <v>804</v>
       </c>
-      <c r="F84" s="54"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
+      <c r="F84" s="191" t="s">
+        <v>626</v>
+      </c>
+      <c r="G84" s="192" t="s">
+        <v>627</v>
+      </c>
+      <c r="H84" s="191" t="s">
+        <v>623</v>
+      </c>
+      <c r="I84" s="191" t="s">
+        <v>633</v>
+      </c>
       <c r="J84" s="197" t="s">
         <v>615</v>
       </c>
-      <c r="K84" s="57"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="54"/>
-      <c r="N84" s="54"/>
-      <c r="O84" s="54"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="54"/>
-      <c r="R84" s="54"/>
-      <c r="S84" s="55"/>
-      <c r="T84" s="54"/>
-      <c r="U84" s="54"/>
+      <c r="K84" s="198" t="s">
+        <v>624</v>
+      </c>
+      <c r="L84" s="197" t="s">
+        <v>616</v>
+      </c>
+      <c r="M84" s="191"/>
+      <c r="N84" s="209">
+        <v>44756</v>
+      </c>
+      <c r="O84" s="191"/>
+      <c r="P84" s="197"/>
+      <c r="Q84" s="191"/>
+      <c r="R84" s="191"/>
+      <c r="S84" s="201"/>
+      <c r="T84" s="191"/>
+      <c r="U84" s="191"/>
       <c r="AO84" s="60"/>
     </row>
     <row r="85" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B85" s="194">
         <v>79</v>
       </c>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
+      <c r="C85" s="191" t="s">
+        <v>805</v>
+      </c>
+      <c r="D85" s="191" t="s">
+        <v>807</v>
+      </c>
+      <c r="E85" s="191" t="s">
+        <v>806</v>
+      </c>
+      <c r="F85" s="191" t="s">
+        <v>626</v>
+      </c>
+      <c r="G85" s="192" t="s">
+        <v>627</v>
+      </c>
+      <c r="H85" s="191" t="s">
+        <v>623</v>
+      </c>
+      <c r="I85" s="191" t="s">
+        <v>633</v>
+      </c>
       <c r="J85" s="197" t="s">
         <v>615</v>
       </c>
-      <c r="K85" s="57"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="54"/>
-      <c r="O85" s="54"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="54"/>
-      <c r="R85" s="54"/>
-      <c r="S85" s="55"/>
-      <c r="T85" s="54"/>
-      <c r="U85" s="54"/>
+      <c r="K85" s="198" t="s">
+        <v>624</v>
+      </c>
+      <c r="L85" s="197" t="s">
+        <v>616</v>
+      </c>
+      <c r="M85" s="191"/>
+      <c r="N85" s="209">
+        <v>44756</v>
+      </c>
+      <c r="O85" s="191"/>
+      <c r="P85" s="197"/>
+      <c r="Q85" s="191"/>
+      <c r="R85" s="191"/>
+      <c r="S85" s="201"/>
+      <c r="T85" s="191"/>
+      <c r="U85" s="191"/>
       <c r="AO85" s="60"/>
     </row>
     <row r="86" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B86" s="194">
         <v>80</v>
       </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="54"/>
+      <c r="C86" s="191" t="s">
+        <v>805</v>
+      </c>
+      <c r="D86" s="191" t="s">
+        <v>808</v>
+      </c>
+      <c r="E86" s="191" t="s">
+        <v>809</v>
+      </c>
+      <c r="F86" s="191" t="s">
+        <v>626</v>
+      </c>
+      <c r="G86" s="192" t="s">
+        <v>627</v>
+      </c>
+      <c r="H86" s="191" t="s">
+        <v>623</v>
+      </c>
+      <c r="I86" s="191" t="s">
+        <v>633</v>
+      </c>
       <c r="J86" s="197" t="s">
         <v>615</v>
       </c>
-      <c r="K86" s="57"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="54"/>
-      <c r="N86" s="54"/>
-      <c r="O86" s="54"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="54"/>
-      <c r="R86" s="54"/>
+      <c r="K86" s="198" t="s">
+        <v>624</v>
+      </c>
+      <c r="L86" s="197" t="s">
+        <v>616</v>
+      </c>
+      <c r="M86" s="191"/>
+      <c r="N86" s="209">
+        <v>44756</v>
+      </c>
+      <c r="O86" s="191"/>
+      <c r="P86" s="197"/>
+      <c r="Q86" s="191"/>
+      <c r="R86" s="191"/>
       <c r="S86" s="55"/>
       <c r="T86" s="54"/>
       <c r="U86" s="54"/>
@@ -18832,9 +18910,7 @@
       <c r="G87" s="58"/>
       <c r="H87" s="54"/>
       <c r="I87" s="54"/>
-      <c r="J87" s="197" t="s">
-        <v>615</v>
-      </c>
+      <c r="J87" s="197"/>
       <c r="K87" s="57"/>
       <c r="L87" s="56"/>
       <c r="M87" s="54"/>
@@ -18857,9 +18933,7 @@
       <c r="G88" s="58"/>
       <c r="H88" s="54"/>
       <c r="I88" s="54"/>
-      <c r="J88" s="197" t="s">
-        <v>615</v>
-      </c>
+      <c r="J88" s="197"/>
       <c r="K88" s="57"/>
       <c r="L88" s="56"/>
       <c r="M88" s="54"/>
@@ -18882,9 +18956,7 @@
       <c r="G89" s="58"/>
       <c r="H89" s="54"/>
       <c r="I89" s="54"/>
-      <c r="J89" s="197" t="s">
-        <v>615</v>
-      </c>
+      <c r="J89" s="197"/>
       <c r="K89" s="57"/>
       <c r="L89" s="56"/>
       <c r="M89" s="54"/>
@@ -18907,9 +18979,7 @@
       <c r="G90" s="58"/>
       <c r="H90" s="54"/>
       <c r="I90" s="54"/>
-      <c r="J90" s="197" t="s">
-        <v>615</v>
-      </c>
+      <c r="J90" s="197"/>
       <c r="K90" s="57"/>
       <c r="L90" s="56"/>
       <c r="M90" s="54"/>
@@ -18932,9 +19002,7 @@
       <c r="G91" s="58"/>
       <c r="H91" s="54"/>
       <c r="I91" s="54"/>
-      <c r="J91" s="197" t="s">
-        <v>615</v>
-      </c>
+      <c r="J91" s="197"/>
       <c r="K91" s="57"/>
       <c r="L91" s="56"/>
       <c r="M91" s="54"/>
@@ -18957,9 +19025,7 @@
       <c r="G92" s="58"/>
       <c r="H92" s="54"/>
       <c r="I92" s="54"/>
-      <c r="J92" s="197" t="s">
-        <v>615</v>
-      </c>
+      <c r="J92" s="197"/>
       <c r="K92" s="57"/>
       <c r="L92" s="56"/>
       <c r="M92" s="54"/>
@@ -18982,9 +19048,7 @@
       <c r="G93" s="58"/>
       <c r="H93" s="54"/>
       <c r="I93" s="54"/>
-      <c r="J93" s="197" t="s">
-        <v>615</v>
-      </c>
+      <c r="J93" s="197"/>
       <c r="K93" s="57"/>
       <c r="L93" s="56"/>
       <c r="M93" s="54"/>

--- a/Testing/Revised Plan.xlsx
+++ b/Testing/Revised Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Revised Plan and Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="594" documentId="8_{783EC7BA-7F55-4B35-8C25-054FADF87783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA7829CA-6261-4CE8-B5A7-A9C72D0A3DBF}"/>
+  <xr:revisionPtr revIDLastSave="682" documentId="8_{783EC7BA-7F55-4B35-8C25-054FADF87783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31AC8B75-F69C-4128-BDA6-B215B0D26414}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{FF53E854-575C-4B97-B6D0-9B270F57EAA4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="836">
   <si>
     <t>WEEK 0</t>
   </si>
@@ -2961,6 +2961,51 @@
   </si>
   <si>
     <t>Add Pool card is misaligned</t>
+  </si>
+  <si>
+    <t>Renaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAC - Create Pool </t>
+  </si>
+  <si>
+    <t>TAC - Edit pool</t>
+  </si>
+  <si>
+    <t>Special characters should be accepted when editing a pool's name</t>
+  </si>
+  <si>
+    <t>If a pool is renamed with special characters, Error message is not thrown</t>
+  </si>
+  <si>
+    <t>Remove Reason from card</t>
+  </si>
+  <si>
+    <t>Data is not displayed</t>
+  </si>
+  <si>
+    <t>Department Performance</t>
+  </si>
+  <si>
+    <t>My Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mispelled word </t>
+  </si>
+  <si>
+    <t>Time slot given - Card size is small</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>If multiple slots are given, only 4 cards are displayed. Pagination is missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAC - Upcoming </t>
+  </si>
+  <si>
+    <t>Kumaresh,Gokul</t>
   </si>
 </sst>
 </file>
@@ -4804,18 +4849,189 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4840,168 +5056,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5059,6 +5113,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5107,39 +5194,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5181,15 +5235,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5898,7 +5943,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="231" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -5915,14 +5960,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="228"/>
+      <c r="A2" s="231"/>
       <c r="B2" s="1">
         <v>44642</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="230" t="s">
+      <c r="D2" s="232" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5930,27 +5975,27 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="228"/>
+      <c r="A3" s="231"/>
       <c r="B3" s="1">
         <v>44643</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="229"/>
+      <c r="D3" s="233"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="228"/>
+      <c r="A4" s="231"/>
       <c r="B4" s="1">
         <v>44644</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="230" t="s">
+      <c r="D4" s="232" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -5958,20 +6003,20 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="228"/>
+      <c r="A5" s="231"/>
       <c r="B5" s="1">
         <v>44645</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="230"/>
+      <c r="D5" s="232"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="228" t="s">
+      <c r="A6" s="231" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
@@ -5980,7 +6025,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="230" t="s">
+      <c r="D6" s="232" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -5988,27 +6033,27 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="228"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="1">
         <v>44649</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="230"/>
+      <c r="D7" s="232"/>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="228"/>
+      <c r="A8" s="231"/>
       <c r="B8" s="1">
         <v>44650</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="230" t="s">
+      <c r="D8" s="232" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -6016,20 +6061,20 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="228"/>
+      <c r="A9" s="231"/>
       <c r="B9" s="1">
         <v>44651</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="230"/>
+      <c r="D9" s="232"/>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="228"/>
+      <c r="A10" s="231"/>
       <c r="B10" s="1">
         <v>44652</v>
       </c>
@@ -6044,7 +6089,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="228"/>
+      <c r="A11" s="231"/>
       <c r="B11" s="1">
         <v>44653</v>
       </c>
@@ -6059,7 +6104,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="228" t="s">
+      <c r="A12" s="231" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1">
@@ -6068,7 +6113,7 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="229" t="s">
+      <c r="D12" s="233" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -6076,59 +6121,59 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="228"/>
+      <c r="A13" s="231"/>
       <c r="B13" s="1">
         <v>44656</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="229"/>
+      <c r="D13" s="233"/>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="228"/>
+      <c r="A14" s="231"/>
       <c r="B14" s="1">
         <v>44657</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="229"/>
+      <c r="D14" s="233"/>
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="228"/>
+      <c r="A15" s="231"/>
       <c r="B15" s="1">
         <v>44658</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="229"/>
+      <c r="D15" s="233"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="228"/>
+      <c r="A16" s="231"/>
       <c r="B16" s="1">
         <v>44659</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="229"/>
+      <c r="D16" s="233"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="228"/>
+      <c r="A17" s="231"/>
       <c r="B17" s="1">
         <v>44660</v>
       </c>
@@ -6143,7 +6188,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="228" t="s">
+      <c r="A18" s="231" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1">
@@ -6152,7 +6197,7 @@
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="229" t="s">
+      <c r="D18" s="233" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -6160,33 +6205,33 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="228"/>
+      <c r="A19" s="231"/>
       <c r="B19" s="1">
         <v>44663</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="229"/>
+      <c r="D19" s="233"/>
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="228"/>
+      <c r="A20" s="231"/>
       <c r="B20" s="1">
         <v>44664</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="229"/>
+      <c r="D20" s="233"/>
       <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="228" t="s">
+      <c r="A21" s="231" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1">
@@ -6195,7 +6240,7 @@
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="229" t="s">
+      <c r="D21" s="233" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -6203,27 +6248,27 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="228"/>
+      <c r="A22" s="231"/>
       <c r="B22" s="1">
         <v>44672</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="229"/>
+      <c r="D22" s="233"/>
       <c r="E22" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="228"/>
+      <c r="A23" s="231"/>
       <c r="B23" s="1">
         <v>44673</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="229" t="s">
+      <c r="D23" s="233" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -6231,20 +6276,20 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="228"/>
+      <c r="A24" s="231"/>
       <c r="B24" s="1">
         <v>44674</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="229"/>
+      <c r="D24" s="233"/>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="228" t="s">
+      <c r="A25" s="231" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="1">
@@ -6253,7 +6298,7 @@
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="230" t="s">
+      <c r="D25" s="232" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -6261,66 +6306,66 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="228"/>
+      <c r="A26" s="231"/>
       <c r="B26" s="1">
         <v>44677</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="230"/>
+      <c r="D26" s="232"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="228"/>
+      <c r="A27" s="231"/>
       <c r="B27" s="1">
         <v>44678</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="230"/>
+      <c r="D27" s="232"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="228"/>
+      <c r="A28" s="231"/>
       <c r="B28" s="1">
         <v>44679</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="229" t="s">
+      <c r="D28" s="233" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="228"/>
+      <c r="A29" s="231"/>
       <c r="B29" s="1">
         <v>44680</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="229"/>
+      <c r="D29" s="233"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="228"/>
+      <c r="A30" s="231"/>
       <c r="B30" s="1">
         <v>44681</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="229"/>
+      <c r="D30" s="233"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="228" t="s">
+      <c r="A31" s="231" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="1">
@@ -6329,24 +6374,24 @@
       <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="229" t="s">
+      <c r="D31" s="233" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="228"/>
+      <c r="A32" s="231"/>
       <c r="B32" s="1">
         <v>44687</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="229"/>
+      <c r="D32" s="233"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="228"/>
+      <c r="A33" s="231"/>
       <c r="B33" s="1">
         <v>44688</v>
       </c>
@@ -6359,7 +6404,7 @@
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="228" t="s">
+      <c r="A34" s="231" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="1">
@@ -6368,70 +6413,70 @@
       <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="229" t="s">
+      <c r="D34" s="233" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="228"/>
+      <c r="A35" s="231"/>
       <c r="B35" s="1">
         <v>44691</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="229"/>
+      <c r="D35" s="233"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="228"/>
+      <c r="A36" s="231"/>
       <c r="B36" s="1">
         <v>44692</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="229"/>
+      <c r="D36" s="233"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="228"/>
+      <c r="A37" s="231"/>
       <c r="B37" s="1">
         <v>44693</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="229"/>
+      <c r="D37" s="233"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="228"/>
+      <c r="A38" s="231"/>
       <c r="B38" s="1">
         <v>44694</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="230" t="s">
+      <c r="D38" s="232" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="228"/>
+      <c r="A39" s="231"/>
       <c r="B39" s="1">
         <v>44695</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="230"/>
+      <c r="D39" s="232"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="228" t="s">
+      <c r="A40" s="231" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="1">
@@ -6440,83 +6485,70 @@
       <c r="C40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="229" t="s">
+      <c r="D40" s="233" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="228"/>
+      <c r="A41" s="231"/>
       <c r="B41" s="1">
         <v>44698</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="229"/>
+      <c r="D41" s="233"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="228"/>
+      <c r="A42" s="231"/>
       <c r="B42" s="1">
         <v>44699</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="229"/>
+      <c r="D42" s="233"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="228"/>
+      <c r="A43" s="231"/>
       <c r="B43" s="1">
         <v>44700</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="229" t="s">
+      <c r="D43" s="233" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="228"/>
+      <c r="A44" s="231"/>
       <c r="B44" s="1">
         <v>44701</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="229"/>
+      <c r="D44" s="233"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="228"/>
+      <c r="A45" s="231"/>
       <c r="B45" s="1">
         <v>44702</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="229"/>
+      <c r="D45" s="233"/>
       <c r="E45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="D43:D45"/>
@@ -6528,6 +6560,19 @@
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6670,10 +6715,10 @@
       <c r="C9" s="7">
         <v>44696</v>
       </c>
-      <c r="D9" s="231" t="s">
+      <c r="D9" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="231"/>
+      <c r="E9" s="234"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -6892,10 +6937,10 @@
       <c r="C25" s="7">
         <v>44710</v>
       </c>
-      <c r="D25" s="231" t="s">
+      <c r="D25" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="231"/>
+      <c r="E25" s="234"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -7002,10 +7047,10 @@
       <c r="C33" s="7">
         <v>44717</v>
       </c>
-      <c r="D33" s="231" t="s">
+      <c r="D33" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="231"/>
+      <c r="E33" s="234"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
@@ -7112,10 +7157,10 @@
       <c r="C41" s="7">
         <v>44724</v>
       </c>
-      <c r="D41" s="231" t="s">
+      <c r="D41" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="231"/>
+      <c r="E41" s="234"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
@@ -7222,10 +7267,10 @@
       <c r="C49" s="7">
         <v>44731</v>
       </c>
-      <c r="D49" s="231" t="s">
+      <c r="D49" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="231"/>
+      <c r="E49" s="234"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
@@ -7332,10 +7377,10 @@
       <c r="C57" s="7">
         <v>44738</v>
       </c>
-      <c r="D57" s="231" t="s">
+      <c r="D57" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="231"/>
+      <c r="E57" s="234"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
@@ -7414,10 +7459,10 @@
       <c r="C63" s="7">
         <v>44744</v>
       </c>
-      <c r="D63" s="231" t="s">
+      <c r="D63" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="231"/>
+      <c r="E63" s="234"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
@@ -7426,10 +7471,10 @@
       <c r="C64" s="7">
         <v>44745</v>
       </c>
-      <c r="D64" s="231" t="s">
+      <c r="D64" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="231"/>
+      <c r="E64" s="234"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
@@ -7508,10 +7553,10 @@
       <c r="C70" s="7">
         <v>44751</v>
       </c>
-      <c r="D70" s="231" t="s">
+      <c r="D70" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="231"/>
+      <c r="E70" s="234"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
@@ -7520,10 +7565,10 @@
       <c r="C71" s="7">
         <v>44752</v>
       </c>
-      <c r="D71" s="231" t="s">
+      <c r="D71" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="E71" s="231"/>
+      <c r="E71" s="234"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C72" s="7"/>
@@ -7533,16 +7578,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D57:E57"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D57:E57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7844,20 +7889,20 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="278" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="243"/>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="279"/>
+      <c r="G4" s="279"/>
+      <c r="H4" s="279"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="279"/>
+      <c r="K4" s="279"/>
+      <c r="L4" s="279"/>
+      <c r="M4" s="280"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
@@ -7874,29 +7919,29 @@
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="254" t="s">
+      <c r="B6" s="257" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="255"/>
-      <c r="D6" s="260" t="s">
+      <c r="C6" s="259"/>
+      <c r="D6" s="285" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="271" t="s">
+      <c r="E6" s="275" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="272"/>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="272"/>
-      <c r="M6" s="273"/>
+      <c r="F6" s="276"/>
+      <c r="G6" s="276"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="276"/>
+      <c r="K6" s="276"/>
+      <c r="L6" s="276"/>
+      <c r="M6" s="277"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="256"/>
-      <c r="C7" s="257"/>
-      <c r="D7" s="261"/>
+      <c r="B7" s="260"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="286"/>
       <c r="E7" s="248"/>
       <c r="F7" s="249"/>
       <c r="G7" s="249"/>
@@ -7908,12 +7953,12 @@
       <c r="M7" s="250"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="256"/>
-      <c r="C8" s="257"/>
-      <c r="D8" s="262" t="s">
+      <c r="B8" s="260"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="245" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="267" t="s">
+      <c r="E8" s="251" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="249"/>
@@ -7926,9 +7971,9 @@
       <c r="M8" s="250"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="258"/>
-      <c r="C9" s="259"/>
-      <c r="D9" s="262"/>
+      <c r="B9" s="263"/>
+      <c r="C9" s="265"/>
+      <c r="D9" s="245"/>
       <c r="E9" s="248"/>
       <c r="F9" s="249"/>
       <c r="G9" s="249"/>
@@ -7940,27 +7985,27 @@
       <c r="M9" s="250"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="254" t="s">
+      <c r="B10" s="257" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="268"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="251" t="s">
+      <c r="C10" s="258"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="282" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="252"/>
-      <c r="G10" s="252"/>
-      <c r="H10" s="252"/>
-      <c r="I10" s="252"/>
-      <c r="J10" s="252"/>
-      <c r="K10" s="252"/>
-      <c r="L10" s="252"/>
-      <c r="M10" s="253"/>
+      <c r="F10" s="283"/>
+      <c r="G10" s="283"/>
+      <c r="H10" s="283"/>
+      <c r="I10" s="283"/>
+      <c r="J10" s="283"/>
+      <c r="K10" s="283"/>
+      <c r="L10" s="283"/>
+      <c r="M10" s="284"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="256"/>
-      <c r="C11" s="269"/>
-      <c r="D11" s="257"/>
+      <c r="B11" s="260"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="262"/>
       <c r="E11" s="248"/>
       <c r="F11" s="249"/>
       <c r="G11" s="249"/>
@@ -7972,9 +8017,9 @@
       <c r="M11" s="250"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="256"/>
-      <c r="C12" s="269"/>
-      <c r="D12" s="257"/>
+      <c r="B12" s="260"/>
+      <c r="C12" s="261"/>
+      <c r="D12" s="262"/>
       <c r="E12" s="248"/>
       <c r="F12" s="249"/>
       <c r="G12" s="249"/>
@@ -7986,9 +8031,9 @@
       <c r="M12" s="250"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="258"/>
-      <c r="C13" s="270"/>
-      <c r="D13" s="259"/>
+      <c r="B13" s="263"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="265"/>
       <c r="E13" s="248"/>
       <c r="F13" s="249"/>
       <c r="G13" s="249"/>
@@ -8000,12 +8045,12 @@
       <c r="M13" s="250"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="254" t="s">
+      <c r="B14" s="257" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="268"/>
-      <c r="D14" s="255"/>
-      <c r="E14" s="267" t="s">
+      <c r="C14" s="258"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="251" t="s">
         <v>147</v>
       </c>
       <c r="F14" s="249"/>
@@ -8018,9 +8063,9 @@
       <c r="M14" s="250"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="256"/>
-      <c r="C15" s="269"/>
-      <c r="D15" s="257"/>
+      <c r="B15" s="260"/>
+      <c r="C15" s="261"/>
+      <c r="D15" s="262"/>
       <c r="E15" s="248"/>
       <c r="F15" s="249"/>
       <c r="G15" s="249"/>
@@ -8032,9 +8077,9 @@
       <c r="M15" s="250"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="256"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="257"/>
+      <c r="B16" s="260"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="262"/>
       <c r="E16" s="248"/>
       <c r="F16" s="249"/>
       <c r="G16" s="249"/>
@@ -8046,9 +8091,9 @@
       <c r="M16" s="250"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="258"/>
-      <c r="C17" s="270"/>
-      <c r="D17" s="259"/>
+      <c r="B17" s="263"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="265"/>
       <c r="E17" s="248"/>
       <c r="F17" s="249"/>
       <c r="G17" s="249"/>
@@ -8060,14 +8105,14 @@
       <c r="M17" s="250"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="286" t="s">
+      <c r="B18" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="287"/>
+      <c r="C18" s="243"/>
       <c r="D18" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="267" t="s">
+      <c r="E18" s="251" t="s">
         <v>150</v>
       </c>
       <c r="F18" s="249"/>
@@ -8080,12 +8125,12 @@
       <c r="M18" s="250"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="288"/>
-      <c r="C19" s="262"/>
+      <c r="B19" s="244"/>
+      <c r="C19" s="245"/>
       <c r="D19" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="267"/>
+      <c r="E19" s="251"/>
       <c r="F19" s="249"/>
       <c r="G19" s="249"/>
       <c r="H19" s="249"/>
@@ -8096,8 +8141,8 @@
       <c r="M19" s="250"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="289"/>
-      <c r="C20" s="290"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="247"/>
       <c r="D20" s="38" t="s">
         <v>152</v>
       </c>
@@ -8140,126 +8185,126 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="280" t="s">
+      <c r="B23" s="236" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="281"/>
-      <c r="D23" s="281"/>
-      <c r="E23" s="281"/>
-      <c r="F23" s="281"/>
-      <c r="G23" s="281"/>
-      <c r="H23" s="281"/>
-      <c r="I23" s="281"/>
-      <c r="J23" s="281"/>
-      <c r="K23" s="281"/>
-      <c r="L23" s="281"/>
-      <c r="M23" s="282"/>
+      <c r="C23" s="237"/>
+      <c r="D23" s="237"/>
+      <c r="E23" s="237"/>
+      <c r="F23" s="237"/>
+      <c r="G23" s="237"/>
+      <c r="H23" s="237"/>
+      <c r="I23" s="237"/>
+      <c r="J23" s="237"/>
+      <c r="K23" s="237"/>
+      <c r="L23" s="237"/>
+      <c r="M23" s="238"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="283" t="s">
+      <c r="C24" s="239" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="285"/>
-      <c r="E24" s="283" t="s">
+      <c r="D24" s="241"/>
+      <c r="E24" s="239" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="284"/>
-      <c r="G24" s="284"/>
-      <c r="H24" s="284"/>
-      <c r="I24" s="284"/>
-      <c r="J24" s="284"/>
-      <c r="K24" s="285"/>
-      <c r="L24" s="263" t="s">
+      <c r="F24" s="240"/>
+      <c r="G24" s="240"/>
+      <c r="H24" s="240"/>
+      <c r="I24" s="240"/>
+      <c r="J24" s="240"/>
+      <c r="K24" s="241"/>
+      <c r="L24" s="287" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="264"/>
+      <c r="M24" s="288"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="244"/>
-      <c r="D25" s="292"/>
-      <c r="E25" s="244"/>
-      <c r="F25" s="291"/>
-      <c r="G25" s="291"/>
-      <c r="H25" s="291"/>
-      <c r="I25" s="291"/>
-      <c r="J25" s="291"/>
-      <c r="K25" s="292"/>
-      <c r="L25" s="244"/>
-      <c r="M25" s="245"/>
+      <c r="C25" s="252"/>
+      <c r="D25" s="254"/>
+      <c r="E25" s="252"/>
+      <c r="F25" s="253"/>
+      <c r="G25" s="253"/>
+      <c r="H25" s="253"/>
+      <c r="I25" s="253"/>
+      <c r="J25" s="253"/>
+      <c r="K25" s="254"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="281"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="246"/>
-      <c r="D26" s="266"/>
-      <c r="E26" s="246"/>
-      <c r="F26" s="265"/>
-      <c r="G26" s="265"/>
-      <c r="H26" s="265"/>
-      <c r="I26" s="265"/>
-      <c r="J26" s="265"/>
-      <c r="K26" s="266"/>
-      <c r="L26" s="246"/>
-      <c r="M26" s="247"/>
+      <c r="C26" s="255"/>
+      <c r="D26" s="256"/>
+      <c r="E26" s="255"/>
+      <c r="F26" s="272"/>
+      <c r="G26" s="272"/>
+      <c r="H26" s="272"/>
+      <c r="I26" s="272"/>
+      <c r="J26" s="272"/>
+      <c r="K26" s="256"/>
+      <c r="L26" s="255"/>
+      <c r="M26" s="274"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="246"/>
-      <c r="D27" s="266"/>
-      <c r="E27" s="246"/>
-      <c r="F27" s="265"/>
-      <c r="G27" s="265"/>
-      <c r="H27" s="265"/>
-      <c r="I27" s="265"/>
-      <c r="J27" s="265"/>
-      <c r="K27" s="266"/>
-      <c r="L27" s="246"/>
-      <c r="M27" s="247"/>
+      <c r="C27" s="255"/>
+      <c r="D27" s="256"/>
+      <c r="E27" s="255"/>
+      <c r="F27" s="272"/>
+      <c r="G27" s="272"/>
+      <c r="H27" s="272"/>
+      <c r="I27" s="272"/>
+      <c r="J27" s="272"/>
+      <c r="K27" s="256"/>
+      <c r="L27" s="255"/>
+      <c r="M27" s="274"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
-      <c r="C28" s="246"/>
-      <c r="D28" s="266"/>
-      <c r="E28" s="246"/>
-      <c r="F28" s="265"/>
-      <c r="G28" s="265"/>
-      <c r="H28" s="265"/>
-      <c r="I28" s="265"/>
-      <c r="J28" s="265"/>
-      <c r="K28" s="266"/>
-      <c r="L28" s="246"/>
-      <c r="M28" s="247"/>
+      <c r="C28" s="255"/>
+      <c r="D28" s="256"/>
+      <c r="E28" s="255"/>
+      <c r="F28" s="272"/>
+      <c r="G28" s="272"/>
+      <c r="H28" s="272"/>
+      <c r="I28" s="272"/>
+      <c r="J28" s="272"/>
+      <c r="K28" s="256"/>
+      <c r="L28" s="255"/>
+      <c r="M28" s="274"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="246"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="246"/>
-      <c r="F29" s="265"/>
-      <c r="G29" s="265"/>
-      <c r="H29" s="265"/>
-      <c r="I29" s="265"/>
-      <c r="J29" s="265"/>
-      <c r="K29" s="266"/>
-      <c r="L29" s="246"/>
-      <c r="M29" s="247"/>
+      <c r="C29" s="255"/>
+      <c r="D29" s="256"/>
+      <c r="E29" s="255"/>
+      <c r="F29" s="272"/>
+      <c r="G29" s="272"/>
+      <c r="H29" s="272"/>
+      <c r="I29" s="272"/>
+      <c r="J29" s="272"/>
+      <c r="K29" s="256"/>
+      <c r="L29" s="255"/>
+      <c r="M29" s="274"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
-      <c r="C30" s="275"/>
-      <c r="D30" s="277"/>
-      <c r="E30" s="275"/>
-      <c r="F30" s="278"/>
-      <c r="G30" s="278"/>
-      <c r="H30" s="278"/>
-      <c r="I30" s="278"/>
-      <c r="J30" s="278"/>
-      <c r="K30" s="277"/>
-      <c r="L30" s="275"/>
-      <c r="M30" s="276"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="271"/>
+      <c r="E30" s="269"/>
+      <c r="F30" s="273"/>
+      <c r="G30" s="273"/>
+      <c r="H30" s="273"/>
+      <c r="I30" s="273"/>
+      <c r="J30" s="273"/>
+      <c r="K30" s="271"/>
+      <c r="L30" s="269"/>
+      <c r="M30" s="270"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
@@ -8276,20 +8321,20 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="280" t="s">
+      <c r="B32" s="236" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="281"/>
-      <c r="D32" s="281"/>
-      <c r="E32" s="281"/>
-      <c r="F32" s="281"/>
-      <c r="G32" s="281"/>
-      <c r="H32" s="281"/>
-      <c r="I32" s="281"/>
-      <c r="J32" s="281"/>
-      <c r="K32" s="281"/>
-      <c r="L32" s="281"/>
-      <c r="M32" s="282"/>
+      <c r="C32" s="237"/>
+      <c r="D32" s="237"/>
+      <c r="E32" s="237"/>
+      <c r="F32" s="237"/>
+      <c r="G32" s="237"/>
+      <c r="H32" s="237"/>
+      <c r="I32" s="237"/>
+      <c r="J32" s="237"/>
+      <c r="K32" s="237"/>
+      <c r="L32" s="237"/>
+      <c r="M32" s="238"/>
     </row>
     <row r="33" spans="2:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
@@ -8298,10 +8343,10 @@
       <c r="C33" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="283" t="s">
+      <c r="D33" s="239" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="285"/>
+      <c r="E33" s="241"/>
       <c r="F33" s="27" t="s">
         <v>162</v>
       </c>
@@ -8332,8 +8377,8 @@
         <v>1</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="293"/>
-      <c r="E34" s="293"/>
+      <c r="D34" s="266"/>
+      <c r="E34" s="266"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -8348,8 +8393,8 @@
         <v>2</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="240"/>
-      <c r="E35" s="240"/>
+      <c r="D35" s="267"/>
+      <c r="E35" s="267"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -8364,8 +8409,8 @@
         <v>3</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="240"/>
-      <c r="E36" s="240"/>
+      <c r="D36" s="267"/>
+      <c r="E36" s="267"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -8380,8 +8425,8 @@
         <v>4</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="274"/>
-      <c r="E37" s="274"/>
+      <c r="D37" s="268"/>
+      <c r="E37" s="268"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -8394,8 +8439,8 @@
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="279"/>
+      <c r="D38" s="235"/>
+      <c r="E38" s="235"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34" t="s">
         <v>169</v>
@@ -8416,16 +8461,16 @@
       <c r="M38" s="36"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="236" t="s">
+      <c r="B41" s="293" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="236"/>
-      <c r="D41" s="236"/>
-      <c r="E41" s="236"/>
-      <c r="F41" s="236"/>
-      <c r="G41" s="236"/>
-      <c r="H41" s="236"/>
-      <c r="I41" s="236"/>
+      <c r="C41" s="293"/>
+      <c r="D41" s="293"/>
+      <c r="E41" s="293"/>
+      <c r="F41" s="293"/>
+      <c r="G41" s="293"/>
+      <c r="H41" s="293"/>
+      <c r="I41" s="293"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
@@ -8438,16 +8483,16 @@
       <c r="C42" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="235" t="s">
+      <c r="D42" s="292" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="235"/>
-      <c r="F42" s="235" t="s">
+      <c r="E42" s="292"/>
+      <c r="F42" s="292" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="235"/>
-      <c r="H42" s="235"/>
-      <c r="I42" s="235"/>
+      <c r="G42" s="292"/>
+      <c r="H42" s="292"/>
+      <c r="I42" s="292"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -8458,8 +8503,8 @@
         <v>1</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="240"/>
-      <c r="E43" s="240"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="267"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -8474,8 +8519,8 @@
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="240"/>
-      <c r="E44" s="240"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="267"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -8490,8 +8535,8 @@
         <v>3</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="240"/>
-      <c r="E45" s="240"/>
+      <c r="D45" s="267"/>
+      <c r="E45" s="267"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -8502,16 +8547,16 @@
       <c r="M45" s="12"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="236" t="s">
+      <c r="B47" s="293" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="236"/>
-      <c r="D47" s="236"/>
-      <c r="E47" s="236"/>
-      <c r="F47" s="236"/>
-      <c r="G47" s="236"/>
-      <c r="H47" s="236"/>
-      <c r="I47" s="236"/>
+      <c r="C47" s="293"/>
+      <c r="D47" s="293"/>
+      <c r="E47" s="293"/>
+      <c r="F47" s="293"/>
+      <c r="G47" s="293"/>
+      <c r="H47" s="293"/>
+      <c r="I47" s="293"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
@@ -8524,14 +8569,14 @@
       <c r="C48" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D48" s="237" t="s">
+      <c r="D48" s="294" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="238"/>
-      <c r="F48" s="238"/>
-      <c r="G48" s="238"/>
-      <c r="H48" s="238"/>
-      <c r="I48" s="239"/>
+      <c r="E48" s="295"/>
+      <c r="F48" s="295"/>
+      <c r="G48" s="295"/>
+      <c r="H48" s="295"/>
+      <c r="I48" s="296"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
@@ -8544,12 +8589,12 @@
       <c r="C49" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="232"/>
-      <c r="E49" s="233"/>
-      <c r="F49" s="233"/>
-      <c r="G49" s="233"/>
-      <c r="H49" s="233"/>
-      <c r="I49" s="234"/>
+      <c r="D49" s="289"/>
+      <c r="E49" s="290"/>
+      <c r="F49" s="290"/>
+      <c r="G49" s="290"/>
+      <c r="H49" s="290"/>
+      <c r="I49" s="291"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="17">
@@ -8558,12 +8603,12 @@
       <c r="C50" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="232"/>
-      <c r="E50" s="233"/>
-      <c r="F50" s="233"/>
-      <c r="G50" s="233"/>
-      <c r="H50" s="233"/>
-      <c r="I50" s="234"/>
+      <c r="D50" s="289"/>
+      <c r="E50" s="290"/>
+      <c r="F50" s="290"/>
+      <c r="G50" s="290"/>
+      <c r="H50" s="290"/>
+      <c r="I50" s="291"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="17">
@@ -8572,77 +8617,128 @@
       <c r="C51" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="232"/>
-      <c r="E51" s="233"/>
-      <c r="F51" s="233"/>
-      <c r="G51" s="233"/>
-      <c r="H51" s="233"/>
-      <c r="I51" s="234"/>
+      <c r="D51" s="289"/>
+      <c r="E51" s="290"/>
+      <c r="F51" s="290"/>
+      <c r="G51" s="290"/>
+      <c r="H51" s="290"/>
+      <c r="I51" s="291"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="236" t="s">
+      <c r="B54" s="293" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="236"/>
-      <c r="D54" s="236"/>
-      <c r="E54" s="236"/>
-      <c r="F54" s="236"/>
-      <c r="G54" s="236"/>
-      <c r="H54" s="236"/>
-      <c r="I54" s="236"/>
+      <c r="C54" s="293"/>
+      <c r="D54" s="293"/>
+      <c r="E54" s="293"/>
+      <c r="F54" s="293"/>
+      <c r="G54" s="293"/>
+      <c r="H54" s="293"/>
+      <c r="I54" s="293"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="237" t="s">
+      <c r="C55" s="294" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="238"/>
-      <c r="E55" s="238"/>
-      <c r="F55" s="238"/>
-      <c r="G55" s="238"/>
-      <c r="H55" s="238"/>
-      <c r="I55" s="239"/>
+      <c r="D55" s="295"/>
+      <c r="E55" s="295"/>
+      <c r="F55" s="295"/>
+      <c r="G55" s="295"/>
+      <c r="H55" s="295"/>
+      <c r="I55" s="296"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="17">
         <v>1</v>
       </c>
-      <c r="C56" s="232"/>
-      <c r="D56" s="233"/>
-      <c r="E56" s="233"/>
-      <c r="F56" s="233"/>
-      <c r="G56" s="233"/>
-      <c r="H56" s="233"/>
-      <c r="I56" s="234"/>
+      <c r="C56" s="289"/>
+      <c r="D56" s="290"/>
+      <c r="E56" s="290"/>
+      <c r="F56" s="290"/>
+      <c r="G56" s="290"/>
+      <c r="H56" s="290"/>
+      <c r="I56" s="291"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="17">
         <v>2</v>
       </c>
-      <c r="C57" s="232"/>
-      <c r="D57" s="233"/>
-      <c r="E57" s="233"/>
-      <c r="F57" s="233"/>
-      <c r="G57" s="233"/>
-      <c r="H57" s="233"/>
-      <c r="I57" s="234"/>
+      <c r="C57" s="289"/>
+      <c r="D57" s="290"/>
+      <c r="E57" s="290"/>
+      <c r="F57" s="290"/>
+      <c r="G57" s="290"/>
+      <c r="H57" s="290"/>
+      <c r="I57" s="291"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="17">
         <v>3</v>
       </c>
-      <c r="C58" s="232"/>
-      <c r="D58" s="233"/>
-      <c r="E58" s="233"/>
-      <c r="F58" s="233"/>
-      <c r="G58" s="233"/>
-      <c r="H58" s="233"/>
-      <c r="I58" s="234"/>
+      <c r="C58" s="289"/>
+      <c r="D58" s="290"/>
+      <c r="E58" s="290"/>
+      <c r="F58" s="290"/>
+      <c r="G58" s="290"/>
+      <c r="H58" s="290"/>
+      <c r="I58" s="291"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="B10:D13"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="L29:M29"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B23:M23"/>
     <mergeCell ref="E24:K24"/>
@@ -8659,57 +8755,6 @@
     <mergeCell ref="B14:D17"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="B10:D13"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="C57:I57"/>
-    <mergeCell ref="C58:I58"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="C55:I55"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="C56:I56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8985,44 +9030,44 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="307" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="306"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="309"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="307" t="s">
+      <c r="B3" s="310" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="308"/>
-      <c r="D3" s="308"/>
-      <c r="E3" s="309"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="312"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="310" t="s">
+      <c r="B4" s="313" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="311"/>
-      <c r="D4" s="311"/>
-      <c r="E4" s="312"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="315"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="310" t="s">
+      <c r="B5" s="313" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="311"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="312"/>
+      <c r="C5" s="314"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="315"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="296" t="s">
+      <c r="B6" s="299" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="298"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="301"/>
     </row>
     <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.2">
       <c r="B7" s="41" t="s">
@@ -9911,37 +9956,37 @@
       <c r="E81" s="146"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="299" t="s">
+      <c r="B82" s="302" t="s">
         <v>382</v>
       </c>
-      <c r="C82" s="300"/>
-      <c r="D82" s="300"/>
-      <c r="E82" s="301"/>
+      <c r="C82" s="303"/>
+      <c r="D82" s="303"/>
+      <c r="E82" s="304"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="302" t="s">
+      <c r="B83" s="305" t="s">
         <v>383</v>
       </c>
-      <c r="C83" s="303"/>
-      <c r="D83" s="303"/>
+      <c r="C83" s="306"/>
+      <c r="D83" s="306"/>
       <c r="E83" s="47" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="302" t="s">
+      <c r="B84" s="305" t="s">
         <v>384</v>
       </c>
-      <c r="C84" s="303"/>
-      <c r="D84" s="303"/>
+      <c r="C84" s="306"/>
+      <c r="D84" s="306"/>
       <c r="E84" s="47"/>
     </row>
     <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="294" t="s">
+      <c r="B85" s="297" t="s">
         <v>385</v>
       </c>
-      <c r="C85" s="295"/>
-      <c r="D85" s="295"/>
+      <c r="C85" s="298"/>
+      <c r="D85" s="298"/>
       <c r="E85" s="48" t="s">
         <v>191</v>
       </c>
@@ -10501,109 +10546,109 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="316" t="s">
+      <c r="B2" s="330" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="319"/>
+      <c r="C2" s="331"/>
+      <c r="D2" s="331"/>
+      <c r="E2" s="331"/>
+      <c r="F2" s="331"/>
+      <c r="G2" s="331"/>
+      <c r="H2" s="331"/>
+      <c r="I2" s="331"/>
+      <c r="J2" s="331"/>
+      <c r="K2" s="332"/>
+      <c r="L2" s="333"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="320" t="s">
+      <c r="B3" s="334" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="322"/>
-      <c r="L3" s="323"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="337"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="307" t="s">
+      <c r="B4" s="310" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="308"/>
-      <c r="D4" s="308"/>
-      <c r="E4" s="308"/>
-      <c r="F4" s="308"/>
-      <c r="G4" s="308"/>
-      <c r="H4" s="308"/>
-      <c r="I4" s="308"/>
-      <c r="J4" s="308"/>
-      <c r="K4" s="324"/>
-      <c r="L4" s="309"/>
+      <c r="C4" s="311"/>
+      <c r="D4" s="311"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="311"/>
+      <c r="I4" s="311"/>
+      <c r="J4" s="311"/>
+      <c r="K4" s="338"/>
+      <c r="L4" s="312"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="296" t="s">
+      <c r="B5" s="299" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="297"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="298"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="300"/>
+      <c r="E5" s="300"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="300"/>
+      <c r="H5" s="300"/>
+      <c r="I5" s="300"/>
+      <c r="J5" s="300"/>
+      <c r="K5" s="339"/>
+      <c r="L5" s="301"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="326" t="s">
+      <c r="B6" s="340" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="327"/>
-      <c r="D6" s="327"/>
-      <c r="E6" s="327"/>
-      <c r="F6" s="327"/>
-      <c r="G6" s="327"/>
-      <c r="H6" s="327"/>
-      <c r="I6" s="327"/>
-      <c r="J6" s="327"/>
-      <c r="K6" s="327"/>
-      <c r="L6" s="328"/>
+      <c r="C6" s="341"/>
+      <c r="D6" s="341"/>
+      <c r="E6" s="341"/>
+      <c r="F6" s="341"/>
+      <c r="G6" s="341"/>
+      <c r="H6" s="341"/>
+      <c r="I6" s="341"/>
+      <c r="J6" s="341"/>
+      <c r="K6" s="341"/>
+      <c r="L6" s="342"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="313" t="s">
+      <c r="B7" s="327" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="314"/>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="314"/>
-      <c r="J7" s="314"/>
-      <c r="K7" s="314"/>
-      <c r="L7" s="315"/>
+      <c r="C7" s="328"/>
+      <c r="D7" s="328"/>
+      <c r="E7" s="328"/>
+      <c r="F7" s="328"/>
+      <c r="G7" s="328"/>
+      <c r="H7" s="328"/>
+      <c r="I7" s="328"/>
+      <c r="J7" s="328"/>
+      <c r="K7" s="328"/>
+      <c r="L7" s="329"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="333" t="s">
+      <c r="B8" s="320" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="334"/>
-      <c r="D8" s="334"/>
-      <c r="E8" s="334"/>
-      <c r="F8" s="334"/>
-      <c r="G8" s="334"/>
-      <c r="H8" s="334"/>
-      <c r="I8" s="334"/>
-      <c r="J8" s="334"/>
-      <c r="K8" s="334"/>
-      <c r="L8" s="335"/>
+      <c r="C8" s="321"/>
+      <c r="D8" s="321"/>
+      <c r="E8" s="321"/>
+      <c r="F8" s="321"/>
+      <c r="G8" s="321"/>
+      <c r="H8" s="321"/>
+      <c r="I8" s="321"/>
+      <c r="J8" s="321"/>
+      <c r="K8" s="321"/>
+      <c r="L8" s="322"/>
     </row>
     <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
@@ -11939,86 +11984,92 @@
       <c r="L65" s="51"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="336" t="s">
+      <c r="B66" s="323" t="s">
         <v>382</v>
       </c>
-      <c r="C66" s="337"/>
-      <c r="D66" s="337"/>
-      <c r="E66" s="337"/>
-      <c r="F66" s="337"/>
-      <c r="G66" s="337"/>
-      <c r="H66" s="337"/>
-      <c r="I66" s="337"/>
-      <c r="J66" s="337"/>
-      <c r="K66" s="338"/>
-      <c r="L66" s="339"/>
+      <c r="C66" s="324"/>
+      <c r="D66" s="324"/>
+      <c r="E66" s="324"/>
+      <c r="F66" s="324"/>
+      <c r="G66" s="324"/>
+      <c r="H66" s="324"/>
+      <c r="I66" s="324"/>
+      <c r="J66" s="324"/>
+      <c r="K66" s="325"/>
+      <c r="L66" s="326"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="302" t="s">
+      <c r="B67" s="305" t="s">
         <v>383</v>
       </c>
-      <c r="C67" s="303"/>
-      <c r="D67" s="303"/>
+      <c r="C67" s="306"/>
+      <c r="D67" s="306"/>
       <c r="E67" s="52"/>
-      <c r="F67" s="329" t="s">
+      <c r="F67" s="316" t="s">
         <v>191</v>
       </c>
-      <c r="G67" s="329"/>
-      <c r="H67" s="329"/>
-      <c r="I67" s="329"/>
-      <c r="J67" s="329"/>
-      <c r="K67" s="329"/>
-      <c r="L67" s="330"/>
+      <c r="G67" s="316"/>
+      <c r="H67" s="316"/>
+      <c r="I67" s="316"/>
+      <c r="J67" s="316"/>
+      <c r="K67" s="316"/>
+      <c r="L67" s="317"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="302" t="s">
+      <c r="B68" s="305" t="s">
         <v>384</v>
       </c>
-      <c r="C68" s="303"/>
-      <c r="D68" s="303"/>
+      <c r="C68" s="306"/>
+      <c r="D68" s="306"/>
       <c r="E68" s="52"/>
-      <c r="F68" s="329"/>
-      <c r="G68" s="329"/>
-      <c r="H68" s="329"/>
-      <c r="I68" s="329"/>
-      <c r="J68" s="329"/>
-      <c r="K68" s="329"/>
-      <c r="L68" s="330"/>
+      <c r="F68" s="316"/>
+      <c r="G68" s="316"/>
+      <c r="H68" s="316"/>
+      <c r="I68" s="316"/>
+      <c r="J68" s="316"/>
+      <c r="K68" s="316"/>
+      <c r="L68" s="317"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="302" t="s">
+      <c r="B69" s="305" t="s">
         <v>385</v>
       </c>
-      <c r="C69" s="303"/>
-      <c r="D69" s="303"/>
+      <c r="C69" s="306"/>
+      <c r="D69" s="306"/>
       <c r="E69" s="52"/>
-      <c r="F69" s="329" t="s">
+      <c r="F69" s="316" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="329"/>
-      <c r="H69" s="329"/>
-      <c r="I69" s="329"/>
-      <c r="J69" s="329"/>
-      <c r="K69" s="329"/>
-      <c r="L69" s="330"/>
+      <c r="G69" s="316"/>
+      <c r="H69" s="316"/>
+      <c r="I69" s="316"/>
+      <c r="J69" s="316"/>
+      <c r="K69" s="316"/>
+      <c r="L69" s="317"/>
     </row>
     <row r="70" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="294" t="s">
+      <c r="B70" s="297" t="s">
         <v>588</v>
       </c>
-      <c r="C70" s="295"/>
-      <c r="D70" s="295"/>
+      <c r="C70" s="298"/>
+      <c r="D70" s="298"/>
       <c r="E70" s="53"/>
-      <c r="F70" s="331"/>
-      <c r="G70" s="331"/>
-      <c r="H70" s="331"/>
-      <c r="I70" s="331"/>
-      <c r="J70" s="331"/>
-      <c r="K70" s="331"/>
-      <c r="L70" s="332"/>
+      <c r="F70" s="318"/>
+      <c r="G70" s="318"/>
+      <c r="H70" s="318"/>
+      <c r="I70" s="318"/>
+      <c r="J70" s="318"/>
+      <c r="K70" s="318"/>
+      <c r="L70" s="319"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="F69:L69"/>
     <mergeCell ref="B70:D70"/>
@@ -12029,12 +12080,6 @@
     <mergeCell ref="F67:L67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="F68:L68"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12044,8 +12089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F031F4EE-3EC7-47DE-91AF-34380ED2D64A}">
   <dimension ref="B1:AO159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="N90" sqref="N90"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14101,32 +14146,32 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:22" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="340" t="s">
+      <c r="B2" s="343" t="s">
         <v>589</v>
       </c>
-      <c r="C2" s="341"/>
-      <c r="D2" s="341"/>
-      <c r="E2" s="341"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="341"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341"/>
-      <c r="K2" s="341"/>
-      <c r="L2" s="341"/>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
+      <c r="F2" s="344"/>
+      <c r="G2" s="344"/>
+      <c r="H2" s="344"/>
+      <c r="I2" s="344"/>
+      <c r="J2" s="344"/>
+      <c r="K2" s="344"/>
+      <c r="L2" s="344"/>
     </row>
     <row r="3" spans="2:22" s="205" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="203" t="s">
         <v>590</v>
       </c>
-      <c r="C3" s="342"/>
-      <c r="D3" s="343"/>
-      <c r="E3" s="343"/>
-      <c r="F3" s="343"/>
-      <c r="G3" s="343"/>
-      <c r="H3" s="343"/>
-      <c r="I3" s="343"/>
-      <c r="J3" s="344"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="346"/>
+      <c r="G3" s="346"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="347"/>
       <c r="K3" s="104"/>
       <c r="L3" s="104"/>
       <c r="M3" s="204"/>
@@ -14144,16 +14189,16 @@
       <c r="B4" s="206" t="s">
         <v>591</v>
       </c>
-      <c r="C4" s="345" t="s">
+      <c r="C4" s="348" t="s">
         <v>697</v>
       </c>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
-      <c r="F4" s="346"/>
-      <c r="G4" s="346"/>
-      <c r="H4" s="346"/>
-      <c r="I4" s="346"/>
-      <c r="J4" s="347"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="349"/>
+      <c r="I4" s="349"/>
+      <c r="J4" s="350"/>
       <c r="M4" s="208"/>
       <c r="N4" s="208"/>
       <c r="O4" s="208"/>
@@ -15357,7 +15402,7 @@
       <c r="AJ28" s="67"/>
       <c r="AK28" s="67"/>
       <c r="AL28" s="67"/>
-      <c r="AM28" s="348" t="s">
+      <c r="AM28" s="351" t="s">
         <v>617</v>
       </c>
       <c r="AN28" s="99" t="s">
@@ -15431,7 +15476,7 @@
       </c>
       <c r="AK29" s="67"/>
       <c r="AL29" s="97"/>
-      <c r="AM29" s="349"/>
+      <c r="AM29" s="352"/>
       <c r="AN29" s="92" t="s">
         <v>620</v>
       </c>
@@ -15503,7 +15548,7 @@
       </c>
       <c r="AK30" s="67"/>
       <c r="AL30" s="67"/>
-      <c r="AM30" s="349"/>
+      <c r="AM30" s="352"/>
       <c r="AN30" s="92" t="s">
         <v>625</v>
       </c>
@@ -15575,7 +15620,7 @@
       </c>
       <c r="AK31" s="67"/>
       <c r="AL31" s="67"/>
-      <c r="AM31" s="349"/>
+      <c r="AM31" s="352"/>
       <c r="AN31" s="92" t="s">
         <v>629</v>
       </c>
@@ -15647,7 +15692,7 @@
       </c>
       <c r="AK32" s="67"/>
       <c r="AL32" s="67"/>
-      <c r="AM32" s="349"/>
+      <c r="AM32" s="352"/>
       <c r="AN32" s="92" t="s">
         <v>634</v>
       </c>
@@ -15719,7 +15764,7 @@
       </c>
       <c r="AK33" s="67"/>
       <c r="AL33" s="67"/>
-      <c r="AM33" s="349"/>
+      <c r="AM33" s="352"/>
       <c r="AN33" s="92" t="s">
         <v>639</v>
       </c>
@@ -15787,7 +15832,7 @@
       </c>
       <c r="AK34" s="67"/>
       <c r="AL34" s="67"/>
-      <c r="AM34" s="349"/>
+      <c r="AM34" s="352"/>
       <c r="AN34" s="72" t="s">
         <v>642</v>
       </c>
@@ -15857,7 +15902,7 @@
       </c>
       <c r="AK35" s="67"/>
       <c r="AL35" s="67"/>
-      <c r="AM35" s="349"/>
+      <c r="AM35" s="352"/>
       <c r="AN35" s="72" t="s">
         <v>646</v>
       </c>
@@ -15925,7 +15970,7 @@
       <c r="AJ36" s="85"/>
       <c r="AK36" s="67"/>
       <c r="AL36" s="67"/>
-      <c r="AM36" s="349"/>
+      <c r="AM36" s="352"/>
       <c r="AN36" s="72" t="s">
         <v>649</v>
       </c>
@@ -15993,7 +16038,7 @@
       <c r="AJ37" s="67"/>
       <c r="AK37" s="67"/>
       <c r="AL37" s="67"/>
-      <c r="AM37" s="349"/>
+      <c r="AM37" s="352"/>
       <c r="AN37" s="72" t="s">
         <v>651</v>
       </c>
@@ -16057,7 +16102,7 @@
       <c r="AJ38" s="67"/>
       <c r="AK38" s="67"/>
       <c r="AL38" s="67"/>
-      <c r="AM38" s="349"/>
+      <c r="AM38" s="352"/>
       <c r="AN38" s="72" t="s">
         <v>652</v>
       </c>
@@ -16121,7 +16166,7 @@
       <c r="AJ39" s="67"/>
       <c r="AK39" s="67"/>
       <c r="AL39" s="67"/>
-      <c r="AM39" s="349"/>
+      <c r="AM39" s="352"/>
       <c r="AN39" s="72" t="s">
         <v>653</v>
       </c>
@@ -16185,7 +16230,7 @@
       <c r="AJ40" s="67"/>
       <c r="AK40" s="67"/>
       <c r="AL40" s="67"/>
-      <c r="AM40" s="349"/>
+      <c r="AM40" s="352"/>
       <c r="AN40" s="72" t="s">
         <v>654</v>
       </c>
@@ -16249,7 +16294,7 @@
       <c r="AJ41" s="67"/>
       <c r="AK41" s="67"/>
       <c r="AL41" s="67"/>
-      <c r="AM41" s="349"/>
+      <c r="AM41" s="352"/>
       <c r="AN41" s="72" t="s">
         <v>655</v>
       </c>
@@ -16313,7 +16358,7 @@
       <c r="AJ42" s="67"/>
       <c r="AK42" s="67"/>
       <c r="AL42" s="67"/>
-      <c r="AM42" s="349"/>
+      <c r="AM42" s="352"/>
       <c r="AN42" s="72" t="s">
         <v>656</v>
       </c>
@@ -16377,7 +16422,7 @@
       <c r="AJ43" s="67"/>
       <c r="AK43" s="67"/>
       <c r="AL43" s="67"/>
-      <c r="AM43" s="349"/>
+      <c r="AM43" s="352"/>
       <c r="AN43" s="72" t="s">
         <v>657</v>
       </c>
@@ -16432,7 +16477,7 @@
       <c r="U44" s="191"/>
       <c r="V44" s="191"/>
       <c r="AC44" s="69"/>
-      <c r="AD44" s="348" t="s">
+      <c r="AD44" s="351" t="s">
         <v>658</v>
       </c>
       <c r="AE44" s="84" t="s">
@@ -16446,14 +16491,14 @@
         <v>601</v>
       </c>
       <c r="AI44" s="67"/>
-      <c r="AJ44" s="351" t="s">
+      <c r="AJ44" s="354" t="s">
         <v>606</v>
       </c>
       <c r="AK44" s="82" t="s">
         <v>660</v>
       </c>
       <c r="AL44" s="67"/>
-      <c r="AM44" s="349"/>
+      <c r="AM44" s="352"/>
       <c r="AN44" s="72" t="s">
         <v>661</v>
       </c>
@@ -16508,7 +16553,7 @@
       <c r="U45" s="191"/>
       <c r="V45" s="191"/>
       <c r="AC45" s="69"/>
-      <c r="AD45" s="349"/>
+      <c r="AD45" s="352"/>
       <c r="AE45" s="78" t="s">
         <v>612</v>
       </c>
@@ -16520,12 +16565,12 @@
         <v>662</v>
       </c>
       <c r="AI45" s="67"/>
-      <c r="AJ45" s="352"/>
+      <c r="AJ45" s="355"/>
       <c r="AK45" s="75" t="s">
         <v>663</v>
       </c>
       <c r="AL45" s="67"/>
-      <c r="AM45" s="349"/>
+      <c r="AM45" s="352"/>
       <c r="AN45" s="72" t="s">
         <v>664</v>
       </c>
@@ -16580,7 +16625,7 @@
       <c r="U46" s="191"/>
       <c r="V46" s="191"/>
       <c r="AC46" s="69"/>
-      <c r="AD46" s="349"/>
+      <c r="AD46" s="352"/>
       <c r="AE46" s="78" t="s">
         <v>613</v>
       </c>
@@ -16592,12 +16637,12 @@
         <v>665</v>
       </c>
       <c r="AI46" s="67"/>
-      <c r="AJ46" s="352"/>
+      <c r="AJ46" s="355"/>
       <c r="AK46" s="75" t="s">
         <v>666</v>
       </c>
       <c r="AL46" s="67"/>
-      <c r="AM46" s="349"/>
+      <c r="AM46" s="352"/>
       <c r="AN46" s="72" t="s">
         <v>667</v>
       </c>
@@ -16652,7 +16697,7 @@
       <c r="U47" s="191"/>
       <c r="V47" s="191"/>
       <c r="AC47" s="69"/>
-      <c r="AD47" s="349"/>
+      <c r="AD47" s="352"/>
       <c r="AE47" s="78" t="s">
         <v>614</v>
       </c>
@@ -16664,12 +16709,12 @@
         <v>669</v>
       </c>
       <c r="AI47" s="67"/>
-      <c r="AJ47" s="352"/>
+      <c r="AJ47" s="355"/>
       <c r="AK47" s="75" t="s">
         <v>670</v>
       </c>
       <c r="AL47" s="67"/>
-      <c r="AM47" s="349"/>
+      <c r="AM47" s="352"/>
       <c r="AN47" s="72" t="s">
         <v>671</v>
       </c>
@@ -16724,7 +16769,7 @@
       <c r="U48" s="191"/>
       <c r="V48" s="191"/>
       <c r="AC48" s="69"/>
-      <c r="AD48" s="349"/>
+      <c r="AD48" s="352"/>
       <c r="AE48" s="78" t="s">
         <v>615</v>
       </c>
@@ -16736,12 +16781,12 @@
         <v>624</v>
       </c>
       <c r="AI48" s="67"/>
-      <c r="AJ48" s="352"/>
+      <c r="AJ48" s="355"/>
       <c r="AK48" s="75" t="s">
         <v>672</v>
       </c>
       <c r="AL48" s="67"/>
-      <c r="AM48" s="349"/>
+      <c r="AM48" s="352"/>
       <c r="AN48" s="72" t="s">
         <v>673</v>
       </c>
@@ -16796,7 +16841,7 @@
       <c r="U49" s="191"/>
       <c r="V49" s="191"/>
       <c r="AC49" s="69"/>
-      <c r="AD49" s="349"/>
+      <c r="AD49" s="352"/>
       <c r="AE49" s="78" t="s">
         <v>616</v>
       </c>
@@ -16804,12 +16849,12 @@
       <c r="AG49" s="67"/>
       <c r="AH49" s="67"/>
       <c r="AI49" s="67"/>
-      <c r="AJ49" s="352"/>
+      <c r="AJ49" s="355"/>
       <c r="AK49" s="75" t="s">
         <v>674</v>
       </c>
       <c r="AL49" s="67"/>
-      <c r="AM49" s="349"/>
+      <c r="AM49" s="352"/>
       <c r="AN49" s="72" t="s">
         <v>675</v>
       </c>
@@ -16864,18 +16909,18 @@
       <c r="U50" s="191"/>
       <c r="V50" s="191"/>
       <c r="AC50" s="69"/>
-      <c r="AD50" s="350"/>
+      <c r="AD50" s="353"/>
       <c r="AE50" s="77"/>
       <c r="AF50" s="77"/>
       <c r="AG50" s="67"/>
       <c r="AH50" s="76"/>
       <c r="AI50" s="67"/>
-      <c r="AJ50" s="352"/>
+      <c r="AJ50" s="355"/>
       <c r="AK50" s="75" t="s">
         <v>676</v>
       </c>
       <c r="AL50" s="67"/>
-      <c r="AM50" s="349"/>
+      <c r="AM50" s="352"/>
       <c r="AN50" s="72" t="s">
         <v>677</v>
       </c>
@@ -16936,12 +16981,12 @@
       <c r="AG51" s="67"/>
       <c r="AH51" s="67"/>
       <c r="AI51" s="67"/>
-      <c r="AJ51" s="352"/>
+      <c r="AJ51" s="355"/>
       <c r="AK51" s="74" t="s">
         <v>678</v>
       </c>
       <c r="AL51" s="67"/>
-      <c r="AM51" s="349"/>
+      <c r="AM51" s="352"/>
       <c r="AN51" s="72" t="s">
         <v>679</v>
       </c>
@@ -17002,12 +17047,12 @@
       <c r="AG52" s="67"/>
       <c r="AH52" s="67"/>
       <c r="AI52" s="67"/>
-      <c r="AJ52" s="352"/>
+      <c r="AJ52" s="355"/>
       <c r="AK52" s="74" t="s">
         <v>680</v>
       </c>
       <c r="AL52" s="67"/>
-      <c r="AM52" s="349"/>
+      <c r="AM52" s="352"/>
       <c r="AN52" s="72" t="s">
         <v>681</v>
       </c>
@@ -17068,12 +17113,12 @@
       <c r="AG53" s="67"/>
       <c r="AH53" s="67"/>
       <c r="AI53" s="67"/>
-      <c r="AJ53" s="352"/>
+      <c r="AJ53" s="355"/>
       <c r="AK53" s="74" t="s">
         <v>682</v>
       </c>
       <c r="AL53" s="67"/>
-      <c r="AM53" s="349"/>
+      <c r="AM53" s="352"/>
       <c r="AN53" s="72" t="s">
         <v>683</v>
       </c>
@@ -17134,12 +17179,12 @@
       <c r="AG54" s="67"/>
       <c r="AH54" s="67"/>
       <c r="AI54" s="67"/>
-      <c r="AJ54" s="352"/>
+      <c r="AJ54" s="355"/>
       <c r="AK54" s="74" t="s">
         <v>684</v>
       </c>
       <c r="AL54" s="67"/>
-      <c r="AM54" s="349"/>
+      <c r="AM54" s="352"/>
       <c r="AN54" s="72" t="s">
         <v>685</v>
       </c>
@@ -17200,12 +17245,12 @@
       <c r="AG55" s="67"/>
       <c r="AH55" s="67"/>
       <c r="AI55" s="67"/>
-      <c r="AJ55" s="352"/>
+      <c r="AJ55" s="355"/>
       <c r="AK55" s="74" t="s">
         <v>686</v>
       </c>
       <c r="AL55" s="67"/>
-      <c r="AM55" s="349"/>
+      <c r="AM55" s="352"/>
       <c r="AN55" s="72" t="s">
         <v>687</v>
       </c>
@@ -17266,12 +17311,12 @@
       <c r="AG56" s="67"/>
       <c r="AH56" s="67"/>
       <c r="AI56" s="67"/>
-      <c r="AJ56" s="353"/>
+      <c r="AJ56" s="356"/>
       <c r="AK56" s="73" t="s">
         <v>688</v>
       </c>
       <c r="AL56" s="67"/>
-      <c r="AM56" s="349"/>
+      <c r="AM56" s="352"/>
       <c r="AN56" s="72" t="s">
         <v>689</v>
       </c>
@@ -17335,7 +17380,7 @@
       <c r="AJ57" s="68"/>
       <c r="AK57" s="67"/>
       <c r="AL57" s="67"/>
-      <c r="AM57" s="349"/>
+      <c r="AM57" s="352"/>
       <c r="AN57" s="72" t="s">
         <v>690</v>
       </c>
@@ -17399,7 +17444,7 @@
       <c r="AJ58" s="68"/>
       <c r="AK58" s="67"/>
       <c r="AL58" s="67"/>
-      <c r="AM58" s="349"/>
+      <c r="AM58" s="352"/>
       <c r="AN58" s="72" t="s">
         <v>691</v>
       </c>
@@ -17463,7 +17508,7 @@
       <c r="AJ59" s="68"/>
       <c r="AK59" s="67"/>
       <c r="AL59" s="67"/>
-      <c r="AM59" s="349"/>
+      <c r="AM59" s="352"/>
       <c r="AN59" s="72" t="s">
         <v>692</v>
       </c>
@@ -17527,7 +17572,7 @@
       <c r="AJ60" s="68"/>
       <c r="AK60" s="67"/>
       <c r="AL60" s="67"/>
-      <c r="AM60" s="349"/>
+      <c r="AM60" s="352"/>
       <c r="AN60" s="72" t="s">
         <v>693</v>
       </c>
@@ -17591,7 +17636,7 @@
       <c r="AJ61" s="68"/>
       <c r="AK61" s="67"/>
       <c r="AL61" s="67"/>
-      <c r="AM61" s="349"/>
+      <c r="AM61" s="352"/>
       <c r="AN61" s="72" t="s">
         <v>694</v>
       </c>
@@ -17655,7 +17700,7 @@
       <c r="AJ62" s="68"/>
       <c r="AK62" s="67"/>
       <c r="AL62" s="67"/>
-      <c r="AM62" s="349"/>
+      <c r="AM62" s="352"/>
       <c r="AN62" s="72" t="s">
         <v>695</v>
       </c>
@@ -17719,7 +17764,7 @@
       <c r="AJ63" s="68"/>
       <c r="AK63" s="67"/>
       <c r="AL63" s="67"/>
-      <c r="AM63" s="349"/>
+      <c r="AM63" s="352"/>
       <c r="AN63" s="72" t="s">
         <v>696</v>
       </c>
@@ -17783,7 +17828,7 @@
       <c r="AJ64" s="67"/>
       <c r="AK64" s="67"/>
       <c r="AL64" s="67"/>
-      <c r="AM64" s="350"/>
+      <c r="AM64" s="353"/>
       <c r="AN64" s="70"/>
       <c r="AO64" s="66"/>
     </row>
@@ -18724,7 +18769,7 @@
       <c r="E83" s="191" t="s">
         <v>802</v>
       </c>
-      <c r="F83" s="354" t="s">
+      <c r="F83" s="228" t="s">
         <v>626</v>
       </c>
       <c r="G83" s="192" t="s">
@@ -18774,8 +18819,8 @@
       <c r="E84" s="191" t="s">
         <v>803</v>
       </c>
-      <c r="F84" s="191" t="s">
-        <v>626</v>
+      <c r="F84" s="213" t="s">
+        <v>640</v>
       </c>
       <c r="G84" s="192" t="s">
         <v>627</v>
@@ -18824,7 +18869,7 @@
       <c r="E85" s="191" t="s">
         <v>805</v>
       </c>
-      <c r="F85" s="354" t="s">
+      <c r="F85" s="228" t="s">
         <v>626</v>
       </c>
       <c r="G85" s="192" t="s">
@@ -18963,14 +19008,16 @@
       <c r="B88" s="194">
         <v>82</v>
       </c>
-      <c r="C88" s="54"/>
+      <c r="C88" s="54" t="s">
+        <v>821</v>
+      </c>
       <c r="D88" s="54" t="s">
         <v>819</v>
       </c>
       <c r="E88" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="F88" s="355" t="s">
+      <c r="F88" s="229" t="s">
         <v>640</v>
       </c>
       <c r="G88" s="58" t="s">
@@ -18979,10 +19026,18 @@
       <c r="H88" s="54" t="s">
         <v>632</v>
       </c>
-      <c r="I88" s="54"/>
-      <c r="J88" s="197"/>
-      <c r="K88" s="57"/>
-      <c r="L88" s="56"/>
+      <c r="I88" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="J88" s="197" t="s">
+        <v>615</v>
+      </c>
+      <c r="K88" s="57" t="s">
+        <v>624</v>
+      </c>
+      <c r="L88" s="56" t="s">
+        <v>616</v>
+      </c>
       <c r="M88" s="54"/>
       <c r="N88" s="54" t="s">
         <v>816</v>
@@ -19001,12 +19056,16 @@
       <c r="B89" s="194">
         <v>83</v>
       </c>
-      <c r="C89" s="54"/>
-      <c r="D89" s="54"/>
+      <c r="C89" s="54" t="s">
+        <v>783</v>
+      </c>
+      <c r="D89" s="54" t="s">
+        <v>822</v>
+      </c>
       <c r="E89" s="54" t="s">
         <v>820</v>
       </c>
-      <c r="F89" s="356" t="s">
+      <c r="F89" s="230" t="s">
         <v>626</v>
       </c>
       <c r="G89" s="58" t="s">
@@ -19015,10 +19074,18 @@
       <c r="H89" s="54" t="s">
         <v>632</v>
       </c>
-      <c r="I89" s="54"/>
-      <c r="J89" s="197"/>
-      <c r="K89" s="57"/>
-      <c r="L89" s="56"/>
+      <c r="I89" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="J89" s="197" t="s">
+        <v>615</v>
+      </c>
+      <c r="K89" s="57" t="s">
+        <v>624</v>
+      </c>
+      <c r="L89" s="56" t="s">
+        <v>616</v>
+      </c>
       <c r="M89" s="54"/>
       <c r="N89" s="54" t="s">
         <v>810</v>
@@ -19037,18 +19104,40 @@
       <c r="B90" s="194">
         <v>84</v>
       </c>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="197"/>
-      <c r="K90" s="57"/>
-      <c r="L90" s="56"/>
+      <c r="C90" s="54" t="s">
+        <v>699</v>
+      </c>
+      <c r="D90" s="54" t="s">
+        <v>823</v>
+      </c>
+      <c r="E90" s="54" t="s">
+        <v>825</v>
+      </c>
+      <c r="F90" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="G90" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="H90" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="I90" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="J90" s="197" t="s">
+        <v>615</v>
+      </c>
+      <c r="K90" s="57" t="s">
+        <v>624</v>
+      </c>
+      <c r="L90" s="56" t="s">
+        <v>616</v>
+      </c>
       <c r="M90" s="54"/>
-      <c r="N90" s="54"/>
+      <c r="N90" s="54" t="s">
+        <v>816</v>
+      </c>
       <c r="O90" s="54"/>
       <c r="P90" s="54"/>
       <c r="Q90" s="56"/>
@@ -19063,18 +19152,40 @@
       <c r="B91" s="194">
         <v>85</v>
       </c>
-      <c r="C91" s="54"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="197"/>
-      <c r="K91" s="57"/>
-      <c r="L91" s="56"/>
+      <c r="C91" s="54" t="s">
+        <v>699</v>
+      </c>
+      <c r="D91" s="54" t="s">
+        <v>823</v>
+      </c>
+      <c r="E91" s="54" t="s">
+        <v>824</v>
+      </c>
+      <c r="F91" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="G91" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="H91" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="I91" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="J91" s="197" t="s">
+        <v>615</v>
+      </c>
+      <c r="K91" s="57" t="s">
+        <v>624</v>
+      </c>
+      <c r="L91" s="56" t="s">
+        <v>616</v>
+      </c>
       <c r="M91" s="54"/>
-      <c r="N91" s="54"/>
+      <c r="N91" s="54" t="s">
+        <v>810</v>
+      </c>
       <c r="O91" s="54"/>
       <c r="P91" s="54"/>
       <c r="Q91" s="56"/>
@@ -19089,18 +19200,40 @@
       <c r="B92" s="194">
         <v>86</v>
       </c>
-      <c r="C92" s="54"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="54"/>
-      <c r="F92" s="54"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="197"/>
-      <c r="K92" s="57"/>
-      <c r="L92" s="56"/>
+      <c r="C92" s="54" t="s">
+        <v>799</v>
+      </c>
+      <c r="D92" s="54" t="s">
+        <v>720</v>
+      </c>
+      <c r="E92" s="54" t="s">
+        <v>826</v>
+      </c>
+      <c r="F92" s="229" t="s">
+        <v>640</v>
+      </c>
+      <c r="G92" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="H92" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="I92" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="J92" s="197" t="s">
+        <v>615</v>
+      </c>
+      <c r="K92" s="57" t="s">
+        <v>624</v>
+      </c>
+      <c r="L92" s="56" t="s">
+        <v>616</v>
+      </c>
       <c r="M92" s="54"/>
-      <c r="N92" s="54"/>
+      <c r="N92" s="54" t="s">
+        <v>810</v>
+      </c>
       <c r="O92" s="54"/>
       <c r="P92" s="54"/>
       <c r="Q92" s="56"/>
@@ -19115,18 +19248,40 @@
       <c r="B93" s="194">
         <v>87</v>
       </c>
-      <c r="C93" s="54"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="54"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="197"/>
-      <c r="K93" s="57"/>
-      <c r="L93" s="56"/>
+      <c r="C93" s="54" t="s">
+        <v>804</v>
+      </c>
+      <c r="D93" s="54" t="s">
+        <v>828</v>
+      </c>
+      <c r="E93" s="230" t="s">
+        <v>827</v>
+      </c>
+      <c r="F93" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="G93" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="H93" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="I93" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="J93" s="197" t="s">
+        <v>615</v>
+      </c>
+      <c r="K93" s="57" t="s">
+        <v>624</v>
+      </c>
+      <c r="L93" s="56" t="s">
+        <v>616</v>
+      </c>
       <c r="M93" s="54"/>
-      <c r="N93" s="54"/>
+      <c r="N93" s="54" t="s">
+        <v>816</v>
+      </c>
       <c r="O93" s="54"/>
       <c r="P93" s="54"/>
       <c r="Q93" s="56"/>
@@ -19141,12 +19296,24 @@
       <c r="B94" s="194">
         <v>88</v>
       </c>
-      <c r="C94" s="54"/>
-      <c r="D94" s="54"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="54"/>
+      <c r="C94" s="54" t="s">
+        <v>746</v>
+      </c>
+      <c r="D94" s="54" t="s">
+        <v>829</v>
+      </c>
+      <c r="E94" s="54" t="s">
+        <v>830</v>
+      </c>
+      <c r="F94" s="229" t="s">
+        <v>640</v>
+      </c>
+      <c r="G94" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="H94" s="54" t="s">
+        <v>632</v>
+      </c>
       <c r="I94" s="54"/>
       <c r="J94" s="56"/>
       <c r="K94" s="57"/>
@@ -19167,12 +19334,24 @@
       <c r="B95" s="194">
         <v>89</v>
       </c>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="58"/>
-      <c r="H95" s="54"/>
+      <c r="C95" s="54" t="s">
+        <v>746</v>
+      </c>
+      <c r="D95" s="54" t="s">
+        <v>828</v>
+      </c>
+      <c r="E95" s="54" t="s">
+        <v>830</v>
+      </c>
+      <c r="F95" s="229" t="s">
+        <v>640</v>
+      </c>
+      <c r="G95" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="H95" s="54" t="s">
+        <v>632</v>
+      </c>
       <c r="I95" s="54"/>
       <c r="J95" s="56"/>
       <c r="K95" s="57"/>
@@ -19193,10 +19372,18 @@
       <c r="B96" s="194">
         <v>90</v>
       </c>
-      <c r="C96" s="54"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="54"/>
-      <c r="F96" s="54"/>
+      <c r="C96" s="191" t="s">
+        <v>783</v>
+      </c>
+      <c r="D96" s="191" t="s">
+        <v>785</v>
+      </c>
+      <c r="E96" s="191" t="s">
+        <v>786</v>
+      </c>
+      <c r="F96" s="213" t="s">
+        <v>640</v>
+      </c>
       <c r="G96" s="58"/>
       <c r="H96" s="54"/>
       <c r="I96" s="54"/>
@@ -19204,7 +19391,9 @@
       <c r="K96" s="57"/>
       <c r="L96" s="56"/>
       <c r="M96" s="54"/>
-      <c r="N96" s="54"/>
+      <c r="N96" s="54" t="s">
+        <v>810</v>
+      </c>
       <c r="O96" s="54"/>
       <c r="P96" s="54"/>
       <c r="Q96" s="56"/>
@@ -19219,10 +19408,18 @@
       <c r="B97" s="194">
         <v>91</v>
       </c>
-      <c r="C97" s="54"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="54"/>
+      <c r="C97" s="191" t="s">
+        <v>783</v>
+      </c>
+      <c r="D97" s="191" t="s">
+        <v>707</v>
+      </c>
+      <c r="E97" s="191" t="s">
+        <v>786</v>
+      </c>
+      <c r="F97" s="213" t="s">
+        <v>640</v>
+      </c>
       <c r="G97" s="58"/>
       <c r="H97" s="54"/>
       <c r="I97" s="54"/>
@@ -19230,7 +19427,9 @@
       <c r="K97" s="57"/>
       <c r="L97" s="56"/>
       <c r="M97" s="54"/>
-      <c r="N97" s="54"/>
+      <c r="N97" s="54" t="s">
+        <v>810</v>
+      </c>
       <c r="O97" s="54"/>
       <c r="P97" s="54"/>
       <c r="Q97" s="56"/>
@@ -19245,10 +19444,18 @@
       <c r="B98" s="194">
         <v>92</v>
       </c>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="54"/>
+      <c r="C98" s="191" t="s">
+        <v>783</v>
+      </c>
+      <c r="D98" s="191" t="s">
+        <v>784</v>
+      </c>
+      <c r="E98" s="191" t="s">
+        <v>786</v>
+      </c>
+      <c r="F98" s="213" t="s">
+        <v>640</v>
+      </c>
       <c r="G98" s="58"/>
       <c r="H98" s="54"/>
       <c r="I98" s="54"/>
@@ -19256,7 +19463,9 @@
       <c r="K98" s="57"/>
       <c r="L98" s="56"/>
       <c r="M98" s="54"/>
-      <c r="N98" s="54"/>
+      <c r="N98" s="54" t="s">
+        <v>810</v>
+      </c>
       <c r="O98" s="54"/>
       <c r="P98" s="54"/>
       <c r="Q98" s="56"/>
@@ -19271,18 +19480,32 @@
       <c r="B99" s="194">
         <v>93</v>
       </c>
-      <c r="C99" s="54"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="54"/>
+      <c r="C99" s="191" t="s">
+        <v>832</v>
+      </c>
+      <c r="D99" s="191" t="s">
+        <v>717</v>
+      </c>
+      <c r="E99" s="191" t="s">
+        <v>831</v>
+      </c>
+      <c r="F99" s="213" t="s">
+        <v>640</v>
+      </c>
+      <c r="G99" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="H99" s="54" t="s">
+        <v>623</v>
+      </c>
       <c r="I99" s="54"/>
       <c r="J99" s="56"/>
       <c r="K99" s="57"/>
       <c r="L99" s="56"/>
       <c r="M99" s="54"/>
-      <c r="N99" s="54"/>
+      <c r="N99" s="54" t="s">
+        <v>810</v>
+      </c>
       <c r="O99" s="54"/>
       <c r="P99" s="54"/>
       <c r="Q99" s="56"/>
@@ -19297,19 +19520,35 @@
       <c r="B100" s="194">
         <v>94</v>
       </c>
-      <c r="C100" s="54"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="54"/>
+      <c r="C100" s="54" t="s">
+        <v>804</v>
+      </c>
+      <c r="D100" s="54" t="s">
+        <v>834</v>
+      </c>
+      <c r="E100" s="54" t="s">
+        <v>833</v>
+      </c>
+      <c r="F100" s="229" t="s">
+        <v>640</v>
+      </c>
+      <c r="G100" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="H100" s="54" t="s">
+        <v>623</v>
+      </c>
       <c r="I100" s="54"/>
       <c r="J100" s="56"/>
       <c r="K100" s="57"/>
       <c r="L100" s="56"/>
       <c r="M100" s="54"/>
-      <c r="N100" s="54"/>
-      <c r="O100" s="54"/>
+      <c r="N100" s="54" t="s">
+        <v>835</v>
+      </c>
+      <c r="O100" s="220">
+        <v>44757</v>
+      </c>
       <c r="P100" s="54"/>
       <c r="Q100" s="56"/>
       <c r="R100" s="54"/>
@@ -20705,7 +20944,7 @@
     <mergeCell ref="AJ44:AJ56"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IS6:IS159 F37:F159 F6 SO6:SO159 ACK6:ACK159 AMG6:AMG159 AWC6:AWC159 BFY6:BFY159 BPU6:BPU159 BZQ6:BZQ159 CJM6:CJM159 CTI6:CTI159 DDE6:DDE159 DNA6:DNA159 DWW6:DWW159 EGS6:EGS159 EQO6:EQO159 FAK6:FAK159 FKG6:FKG159 FUC6:FUC159 GDY6:GDY159 GNU6:GNU159 GXQ6:GXQ159 HHM6:HHM159 HRI6:HRI159 IBE6:IBE159 ILA6:ILA159 IUW6:IUW159 JES6:JES159 JOO6:JOO159 JYK6:JYK159 KIG6:KIG159 KSC6:KSC159 LBY6:LBY159 LLU6:LLU159 LVQ6:LVQ159 MFM6:MFM159 MPI6:MPI159 MZE6:MZE159 NJA6:NJA159 NSW6:NSW159 OCS6:OCS159 OMO6:OMO159 OWK6:OWK159 PGG6:PGG159 PQC6:PQC159 PZY6:PZY159 QJU6:QJU159 QTQ6:QTQ159 RDM6:RDM159 RNI6:RNI159 RXE6:RXE159 SHA6:SHA159 SQW6:SQW159 TAS6:TAS159 TKO6:TKO159 TUK6:TUK159 UEG6:UEG159 UOC6:UOC159 UXY6:UXY159 VHU6:VHU159 VRQ6:VRQ159 WBM6:WBM159 WLI6:WLI159 WVE6:WVE159 F65542:F65695 IS65542:IS65695 SO65542:SO65695 ACK65542:ACK65695 AMG65542:AMG65695 AWC65542:AWC65695 BFY65542:BFY65695 BPU65542:BPU65695 BZQ65542:BZQ65695 CJM65542:CJM65695 CTI65542:CTI65695 DDE65542:DDE65695 DNA65542:DNA65695 DWW65542:DWW65695 EGS65542:EGS65695 EQO65542:EQO65695 FAK65542:FAK65695 FKG65542:FKG65695 FUC65542:FUC65695 GDY65542:GDY65695 GNU65542:GNU65695 GXQ65542:GXQ65695 HHM65542:HHM65695 HRI65542:HRI65695 IBE65542:IBE65695 ILA65542:ILA65695 IUW65542:IUW65695 JES65542:JES65695 JOO65542:JOO65695 JYK65542:JYK65695 KIG65542:KIG65695 KSC65542:KSC65695 LBY65542:LBY65695 LLU65542:LLU65695 LVQ65542:LVQ65695 MFM65542:MFM65695 MPI65542:MPI65695 MZE65542:MZE65695 NJA65542:NJA65695 NSW65542:NSW65695 OCS65542:OCS65695 OMO65542:OMO65695 OWK65542:OWK65695 PGG65542:PGG65695 PQC65542:PQC65695 PZY65542:PZY65695 QJU65542:QJU65695 QTQ65542:QTQ65695 RDM65542:RDM65695 RNI65542:RNI65695 RXE65542:RXE65695 SHA65542:SHA65695 SQW65542:SQW65695 TAS65542:TAS65695 TKO65542:TKO65695 TUK65542:TUK65695 UEG65542:UEG65695 UOC65542:UOC65695 UXY65542:UXY65695 VHU65542:VHU65695 VRQ65542:VRQ65695 WBM65542:WBM65695 WLI65542:WLI65695 WVE65542:WVE65695 F131078:F131231 IS131078:IS131231 SO131078:SO131231 ACK131078:ACK131231 AMG131078:AMG131231 AWC131078:AWC131231 BFY131078:BFY131231 BPU131078:BPU131231 BZQ131078:BZQ131231 CJM131078:CJM131231 CTI131078:CTI131231 DDE131078:DDE131231 DNA131078:DNA131231 DWW131078:DWW131231 EGS131078:EGS131231 EQO131078:EQO131231 FAK131078:FAK131231 FKG131078:FKG131231 FUC131078:FUC131231 GDY131078:GDY131231 GNU131078:GNU131231 GXQ131078:GXQ131231 HHM131078:HHM131231 HRI131078:HRI131231 IBE131078:IBE131231 ILA131078:ILA131231 IUW131078:IUW131231 JES131078:JES131231 JOO131078:JOO131231 JYK131078:JYK131231 KIG131078:KIG131231 KSC131078:KSC131231 LBY131078:LBY131231 LLU131078:LLU131231 LVQ131078:LVQ131231 MFM131078:MFM131231 MPI131078:MPI131231 MZE131078:MZE131231 NJA131078:NJA131231 NSW131078:NSW131231 OCS131078:OCS131231 OMO131078:OMO131231 OWK131078:OWK131231 PGG131078:PGG131231 PQC131078:PQC131231 PZY131078:PZY131231 QJU131078:QJU131231 QTQ131078:QTQ131231 RDM131078:RDM131231 RNI131078:RNI131231 RXE131078:RXE131231 SHA131078:SHA131231 SQW131078:SQW131231 TAS131078:TAS131231 TKO131078:TKO131231 TUK131078:TUK131231 UEG131078:UEG131231 UOC131078:UOC131231 UXY131078:UXY131231 VHU131078:VHU131231 VRQ131078:VRQ131231 WBM131078:WBM131231 WLI131078:WLI131231 WVE131078:WVE131231 F196614:F196767 IS196614:IS196767 SO196614:SO196767 ACK196614:ACK196767 AMG196614:AMG196767 AWC196614:AWC196767 BFY196614:BFY196767 BPU196614:BPU196767 BZQ196614:BZQ196767 CJM196614:CJM196767 CTI196614:CTI196767 DDE196614:DDE196767 DNA196614:DNA196767 DWW196614:DWW196767 EGS196614:EGS196767 EQO196614:EQO196767 FAK196614:FAK196767 FKG196614:FKG196767 FUC196614:FUC196767 GDY196614:GDY196767 GNU196614:GNU196767 GXQ196614:GXQ196767 HHM196614:HHM196767 HRI196614:HRI196767 IBE196614:IBE196767 ILA196614:ILA196767 IUW196614:IUW196767 JES196614:JES196767 JOO196614:JOO196767 JYK196614:JYK196767 KIG196614:KIG196767 KSC196614:KSC196767 LBY196614:LBY196767 LLU196614:LLU196767 LVQ196614:LVQ196767 MFM196614:MFM196767 MPI196614:MPI196767 MZE196614:MZE196767 NJA196614:NJA196767 NSW196614:NSW196767 OCS196614:OCS196767 OMO196614:OMO196767 OWK196614:OWK196767 PGG196614:PGG196767 PQC196614:PQC196767 PZY196614:PZY196767 QJU196614:QJU196767 QTQ196614:QTQ196767 RDM196614:RDM196767 RNI196614:RNI196767 RXE196614:RXE196767 SHA196614:SHA196767 SQW196614:SQW196767 TAS196614:TAS196767 TKO196614:TKO196767 TUK196614:TUK196767 UEG196614:UEG196767 UOC196614:UOC196767 UXY196614:UXY196767 VHU196614:VHU196767 VRQ196614:VRQ196767 WBM196614:WBM196767 WLI196614:WLI196767 WVE196614:WVE196767 F262150:F262303 IS262150:IS262303 SO262150:SO262303 ACK262150:ACK262303 AMG262150:AMG262303 AWC262150:AWC262303 BFY262150:BFY262303 BPU262150:BPU262303 BZQ262150:BZQ262303 CJM262150:CJM262303 CTI262150:CTI262303 DDE262150:DDE262303 DNA262150:DNA262303 DWW262150:DWW262303 EGS262150:EGS262303 EQO262150:EQO262303 FAK262150:FAK262303 FKG262150:FKG262303 FUC262150:FUC262303 GDY262150:GDY262303 GNU262150:GNU262303 GXQ262150:GXQ262303 HHM262150:HHM262303 HRI262150:HRI262303 IBE262150:IBE262303 ILA262150:ILA262303 IUW262150:IUW262303 JES262150:JES262303 JOO262150:JOO262303 JYK262150:JYK262303 KIG262150:KIG262303 KSC262150:KSC262303 LBY262150:LBY262303 LLU262150:LLU262303 LVQ262150:LVQ262303 MFM262150:MFM262303 MPI262150:MPI262303 MZE262150:MZE262303 NJA262150:NJA262303 NSW262150:NSW262303 OCS262150:OCS262303 OMO262150:OMO262303 OWK262150:OWK262303 PGG262150:PGG262303 PQC262150:PQC262303 PZY262150:PZY262303 QJU262150:QJU262303 QTQ262150:QTQ262303 RDM262150:RDM262303 RNI262150:RNI262303 RXE262150:RXE262303 SHA262150:SHA262303 SQW262150:SQW262303 TAS262150:TAS262303 TKO262150:TKO262303 TUK262150:TUK262303 UEG262150:UEG262303 UOC262150:UOC262303 UXY262150:UXY262303 VHU262150:VHU262303 VRQ262150:VRQ262303 WBM262150:WBM262303 WLI262150:WLI262303 WVE262150:WVE262303 F327686:F327839 IS327686:IS327839 SO327686:SO327839 ACK327686:ACK327839 AMG327686:AMG327839 AWC327686:AWC327839 BFY327686:BFY327839 BPU327686:BPU327839 BZQ327686:BZQ327839 CJM327686:CJM327839 CTI327686:CTI327839 DDE327686:DDE327839 DNA327686:DNA327839 DWW327686:DWW327839 EGS327686:EGS327839 EQO327686:EQO327839 FAK327686:FAK327839 FKG327686:FKG327839 FUC327686:FUC327839 GDY327686:GDY327839 GNU327686:GNU327839 GXQ327686:GXQ327839 HHM327686:HHM327839 HRI327686:HRI327839 IBE327686:IBE327839 ILA327686:ILA327839 IUW327686:IUW327839 JES327686:JES327839 JOO327686:JOO327839 JYK327686:JYK327839 KIG327686:KIG327839 KSC327686:KSC327839 LBY327686:LBY327839 LLU327686:LLU327839 LVQ327686:LVQ327839 MFM327686:MFM327839 MPI327686:MPI327839 MZE327686:MZE327839 NJA327686:NJA327839 NSW327686:NSW327839 OCS327686:OCS327839 OMO327686:OMO327839 OWK327686:OWK327839 PGG327686:PGG327839 PQC327686:PQC327839 PZY327686:PZY327839 QJU327686:QJU327839 QTQ327686:QTQ327839 RDM327686:RDM327839 RNI327686:RNI327839 RXE327686:RXE327839 SHA327686:SHA327839 SQW327686:SQW327839 TAS327686:TAS327839 TKO327686:TKO327839 TUK327686:TUK327839 UEG327686:UEG327839 UOC327686:UOC327839 UXY327686:UXY327839 VHU327686:VHU327839 VRQ327686:VRQ327839 WBM327686:WBM327839 WLI327686:WLI327839 WVE327686:WVE327839 F393222:F393375 IS393222:IS393375 SO393222:SO393375 ACK393222:ACK393375 AMG393222:AMG393375 AWC393222:AWC393375 BFY393222:BFY393375 BPU393222:BPU393375 BZQ393222:BZQ393375 CJM393222:CJM393375 CTI393222:CTI393375 DDE393222:DDE393375 DNA393222:DNA393375 DWW393222:DWW393375 EGS393222:EGS393375 EQO393222:EQO393375 FAK393222:FAK393375 FKG393222:FKG393375 FUC393222:FUC393375 GDY393222:GDY393375 GNU393222:GNU393375 GXQ393222:GXQ393375 HHM393222:HHM393375 HRI393222:HRI393375 IBE393222:IBE393375 ILA393222:ILA393375 IUW393222:IUW393375 JES393222:JES393375 JOO393222:JOO393375 JYK393222:JYK393375 KIG393222:KIG393375 KSC393222:KSC393375 LBY393222:LBY393375 LLU393222:LLU393375 LVQ393222:LVQ393375 MFM393222:MFM393375 MPI393222:MPI393375 MZE393222:MZE393375 NJA393222:NJA393375 NSW393222:NSW393375 OCS393222:OCS393375 OMO393222:OMO393375 OWK393222:OWK393375 PGG393222:PGG393375 PQC393222:PQC393375 PZY393222:PZY393375 QJU393222:QJU393375 QTQ393222:QTQ393375 RDM393222:RDM393375 RNI393222:RNI393375 RXE393222:RXE393375 SHA393222:SHA393375 SQW393222:SQW393375 TAS393222:TAS393375 TKO393222:TKO393375 TUK393222:TUK393375 UEG393222:UEG393375 UOC393222:UOC393375 UXY393222:UXY393375 VHU393222:VHU393375 VRQ393222:VRQ393375 WBM393222:WBM393375 WLI393222:WLI393375 WVE393222:WVE393375 F458758:F458911 IS458758:IS458911 SO458758:SO458911 ACK458758:ACK458911 AMG458758:AMG458911 AWC458758:AWC458911 BFY458758:BFY458911 BPU458758:BPU458911 BZQ458758:BZQ458911 CJM458758:CJM458911 CTI458758:CTI458911 DDE458758:DDE458911 DNA458758:DNA458911 DWW458758:DWW458911 EGS458758:EGS458911 EQO458758:EQO458911 FAK458758:FAK458911 FKG458758:FKG458911 FUC458758:FUC458911 GDY458758:GDY458911 GNU458758:GNU458911 GXQ458758:GXQ458911 HHM458758:HHM458911 HRI458758:HRI458911 IBE458758:IBE458911 ILA458758:ILA458911 IUW458758:IUW458911 JES458758:JES458911 JOO458758:JOO458911 JYK458758:JYK458911 KIG458758:KIG458911 KSC458758:KSC458911 LBY458758:LBY458911 LLU458758:LLU458911 LVQ458758:LVQ458911 MFM458758:MFM458911 MPI458758:MPI458911 MZE458758:MZE458911 NJA458758:NJA458911 NSW458758:NSW458911 OCS458758:OCS458911 OMO458758:OMO458911 OWK458758:OWK458911 PGG458758:PGG458911 PQC458758:PQC458911 PZY458758:PZY458911 QJU458758:QJU458911 QTQ458758:QTQ458911 RDM458758:RDM458911 RNI458758:RNI458911 RXE458758:RXE458911 SHA458758:SHA458911 SQW458758:SQW458911 TAS458758:TAS458911 TKO458758:TKO458911 TUK458758:TUK458911 UEG458758:UEG458911 UOC458758:UOC458911 UXY458758:UXY458911 VHU458758:VHU458911 VRQ458758:VRQ458911 WBM458758:WBM458911 WLI458758:WLI458911 WVE458758:WVE458911 F524294:F524447 IS524294:IS524447 SO524294:SO524447 ACK524294:ACK524447 AMG524294:AMG524447 AWC524294:AWC524447 BFY524294:BFY524447 BPU524294:BPU524447 BZQ524294:BZQ524447 CJM524294:CJM524447 CTI524294:CTI524447 DDE524294:DDE524447 DNA524294:DNA524447 DWW524294:DWW524447 EGS524294:EGS524447 EQO524294:EQO524447 FAK524294:FAK524447 FKG524294:FKG524447 FUC524294:FUC524447 GDY524294:GDY524447 GNU524294:GNU524447 GXQ524294:GXQ524447 HHM524294:HHM524447 HRI524294:HRI524447 IBE524294:IBE524447 ILA524294:ILA524447 IUW524294:IUW524447 JES524294:JES524447 JOO524294:JOO524447 JYK524294:JYK524447 KIG524294:KIG524447 KSC524294:KSC524447 LBY524294:LBY524447 LLU524294:LLU524447 LVQ524294:LVQ524447 MFM524294:MFM524447 MPI524294:MPI524447 MZE524294:MZE524447 NJA524294:NJA524447 NSW524294:NSW524447 OCS524294:OCS524447 OMO524294:OMO524447 OWK524294:OWK524447 PGG524294:PGG524447 PQC524294:PQC524447 PZY524294:PZY524447 QJU524294:QJU524447 QTQ524294:QTQ524447 RDM524294:RDM524447 RNI524294:RNI524447 RXE524294:RXE524447 SHA524294:SHA524447 SQW524294:SQW524447 TAS524294:TAS524447 TKO524294:TKO524447 TUK524294:TUK524447 UEG524294:UEG524447 UOC524294:UOC524447 UXY524294:UXY524447 VHU524294:VHU524447 VRQ524294:VRQ524447 WBM524294:WBM524447 WLI524294:WLI524447 WVE524294:WVE524447 F589830:F589983 IS589830:IS589983 SO589830:SO589983 ACK589830:ACK589983 AMG589830:AMG589983 AWC589830:AWC589983 BFY589830:BFY589983 BPU589830:BPU589983 BZQ589830:BZQ589983 CJM589830:CJM589983 CTI589830:CTI589983 DDE589830:DDE589983 DNA589830:DNA589983 DWW589830:DWW589983 EGS589830:EGS589983 EQO589830:EQO589983 FAK589830:FAK589983 FKG589830:FKG589983 FUC589830:FUC589983 GDY589830:GDY589983 GNU589830:GNU589983 GXQ589830:GXQ589983 HHM589830:HHM589983 HRI589830:HRI589983 IBE589830:IBE589983 ILA589830:ILA589983 IUW589830:IUW589983 JES589830:JES589983 JOO589830:JOO589983 JYK589830:JYK589983 KIG589830:KIG589983 KSC589830:KSC589983 LBY589830:LBY589983 LLU589830:LLU589983 LVQ589830:LVQ589983 MFM589830:MFM589983 MPI589830:MPI589983 MZE589830:MZE589983 NJA589830:NJA589983 NSW589830:NSW589983 OCS589830:OCS589983 OMO589830:OMO589983 OWK589830:OWK589983 PGG589830:PGG589983 PQC589830:PQC589983 PZY589830:PZY589983 QJU589830:QJU589983 QTQ589830:QTQ589983 RDM589830:RDM589983 RNI589830:RNI589983 RXE589830:RXE589983 SHA589830:SHA589983 SQW589830:SQW589983 TAS589830:TAS589983 TKO589830:TKO589983 TUK589830:TUK589983 UEG589830:UEG589983 UOC589830:UOC589983 UXY589830:UXY589983 VHU589830:VHU589983 VRQ589830:VRQ589983 WBM589830:WBM589983 WLI589830:WLI589983 WVE589830:WVE589983 F655366:F655519 IS655366:IS655519 SO655366:SO655519 ACK655366:ACK655519 AMG655366:AMG655519 AWC655366:AWC655519 BFY655366:BFY655519 BPU655366:BPU655519 BZQ655366:BZQ655519 CJM655366:CJM655519 CTI655366:CTI655519 DDE655366:DDE655519 DNA655366:DNA655519 DWW655366:DWW655519 EGS655366:EGS655519 EQO655366:EQO655519 FAK655366:FAK655519 FKG655366:FKG655519 FUC655366:FUC655519 GDY655366:GDY655519 GNU655366:GNU655519 GXQ655366:GXQ655519 HHM655366:HHM655519 HRI655366:HRI655519 IBE655366:IBE655519 ILA655366:ILA655519 IUW655366:IUW655519 JES655366:JES655519 JOO655366:JOO655519 JYK655366:JYK655519 KIG655366:KIG655519 KSC655366:KSC655519 LBY655366:LBY655519 LLU655366:LLU655519 LVQ655366:LVQ655519 MFM655366:MFM655519 MPI655366:MPI655519 MZE655366:MZE655519 NJA655366:NJA655519 NSW655366:NSW655519 OCS655366:OCS655519 OMO655366:OMO655519 OWK655366:OWK655519 PGG655366:PGG655519 PQC655366:PQC655519 PZY655366:PZY655519 QJU655366:QJU655519 QTQ655366:QTQ655519 RDM655366:RDM655519 RNI655366:RNI655519 RXE655366:RXE655519 SHA655366:SHA655519 SQW655366:SQW655519 TAS655366:TAS655519 TKO655366:TKO655519 TUK655366:TUK655519 UEG655366:UEG655519 UOC655366:UOC655519 UXY655366:UXY655519 VHU655366:VHU655519 VRQ655366:VRQ655519 WBM655366:WBM655519 WLI655366:WLI655519 WVE655366:WVE655519 F720902:F721055 IS720902:IS721055 SO720902:SO721055 ACK720902:ACK721055 AMG720902:AMG721055 AWC720902:AWC721055 BFY720902:BFY721055 BPU720902:BPU721055 BZQ720902:BZQ721055 CJM720902:CJM721055 CTI720902:CTI721055 DDE720902:DDE721055 DNA720902:DNA721055 DWW720902:DWW721055 EGS720902:EGS721055 EQO720902:EQO721055 FAK720902:FAK721055 FKG720902:FKG721055 FUC720902:FUC721055 GDY720902:GDY721055 GNU720902:GNU721055 GXQ720902:GXQ721055 HHM720902:HHM721055 HRI720902:HRI721055 IBE720902:IBE721055 ILA720902:ILA721055 IUW720902:IUW721055 JES720902:JES721055 JOO720902:JOO721055 JYK720902:JYK721055 KIG720902:KIG721055 KSC720902:KSC721055 LBY720902:LBY721055 LLU720902:LLU721055 LVQ720902:LVQ721055 MFM720902:MFM721055 MPI720902:MPI721055 MZE720902:MZE721055 NJA720902:NJA721055 NSW720902:NSW721055 OCS720902:OCS721055 OMO720902:OMO721055 OWK720902:OWK721055 PGG720902:PGG721055 PQC720902:PQC721055 PZY720902:PZY721055 QJU720902:QJU721055 QTQ720902:QTQ721055 RDM720902:RDM721055 RNI720902:RNI721055 RXE720902:RXE721055 SHA720902:SHA721055 SQW720902:SQW721055 TAS720902:TAS721055 TKO720902:TKO721055 TUK720902:TUK721055 UEG720902:UEG721055 UOC720902:UOC721055 UXY720902:UXY721055 VHU720902:VHU721055 VRQ720902:VRQ721055 WBM720902:WBM721055 WLI720902:WLI721055 WVE720902:WVE721055 F786438:F786591 IS786438:IS786591 SO786438:SO786591 ACK786438:ACK786591 AMG786438:AMG786591 AWC786438:AWC786591 BFY786438:BFY786591 BPU786438:BPU786591 BZQ786438:BZQ786591 CJM786438:CJM786591 CTI786438:CTI786591 DDE786438:DDE786591 DNA786438:DNA786591 DWW786438:DWW786591 EGS786438:EGS786591 EQO786438:EQO786591 FAK786438:FAK786591 FKG786438:FKG786591 FUC786438:FUC786591 GDY786438:GDY786591 GNU786438:GNU786591 GXQ786438:GXQ786591 HHM786438:HHM786591 HRI786438:HRI786591 IBE786438:IBE786591 ILA786438:ILA786591 IUW786438:IUW786591 JES786438:JES786591 JOO786438:JOO786591 JYK786438:JYK786591 KIG786438:KIG786591 KSC786438:KSC786591 LBY786438:LBY786591 LLU786438:LLU786591 LVQ786438:LVQ786591 MFM786438:MFM786591 MPI786438:MPI786591 MZE786438:MZE786591 NJA786438:NJA786591 NSW786438:NSW786591 OCS786438:OCS786591 OMO786438:OMO786591 OWK786438:OWK786591 PGG786438:PGG786591 PQC786438:PQC786591 PZY786438:PZY786591 QJU786438:QJU786591 QTQ786438:QTQ786591 RDM786438:RDM786591 RNI786438:RNI786591 RXE786438:RXE786591 SHA786438:SHA786591 SQW786438:SQW786591 TAS786438:TAS786591 TKO786438:TKO786591 TUK786438:TUK786591 UEG786438:UEG786591 UOC786438:UOC786591 UXY786438:UXY786591 VHU786438:VHU786591 VRQ786438:VRQ786591 WBM786438:WBM786591 WLI786438:WLI786591 WVE786438:WVE786591 F851974:F852127 IS851974:IS852127 SO851974:SO852127 ACK851974:ACK852127 AMG851974:AMG852127 AWC851974:AWC852127 BFY851974:BFY852127 BPU851974:BPU852127 BZQ851974:BZQ852127 CJM851974:CJM852127 CTI851974:CTI852127 DDE851974:DDE852127 DNA851974:DNA852127 DWW851974:DWW852127 EGS851974:EGS852127 EQO851974:EQO852127 FAK851974:FAK852127 FKG851974:FKG852127 FUC851974:FUC852127 GDY851974:GDY852127 GNU851974:GNU852127 GXQ851974:GXQ852127 HHM851974:HHM852127 HRI851974:HRI852127 IBE851974:IBE852127 ILA851974:ILA852127 IUW851974:IUW852127 JES851974:JES852127 JOO851974:JOO852127 JYK851974:JYK852127 KIG851974:KIG852127 KSC851974:KSC852127 LBY851974:LBY852127 LLU851974:LLU852127 LVQ851974:LVQ852127 MFM851974:MFM852127 MPI851974:MPI852127 MZE851974:MZE852127 NJA851974:NJA852127 NSW851974:NSW852127 OCS851974:OCS852127 OMO851974:OMO852127 OWK851974:OWK852127 PGG851974:PGG852127 PQC851974:PQC852127 PZY851974:PZY852127 QJU851974:QJU852127 QTQ851974:QTQ852127 RDM851974:RDM852127 RNI851974:RNI852127 RXE851974:RXE852127 SHA851974:SHA852127 SQW851974:SQW852127 TAS851974:TAS852127 TKO851974:TKO852127 TUK851974:TUK852127 UEG851974:UEG852127 UOC851974:UOC852127 UXY851974:UXY852127 VHU851974:VHU852127 VRQ851974:VRQ852127 WBM851974:WBM852127 WLI851974:WLI852127 WVE851974:WVE852127 F917510:F917663 IS917510:IS917663 SO917510:SO917663 ACK917510:ACK917663 AMG917510:AMG917663 AWC917510:AWC917663 BFY917510:BFY917663 BPU917510:BPU917663 BZQ917510:BZQ917663 CJM917510:CJM917663 CTI917510:CTI917663 DDE917510:DDE917663 DNA917510:DNA917663 DWW917510:DWW917663 EGS917510:EGS917663 EQO917510:EQO917663 FAK917510:FAK917663 FKG917510:FKG917663 FUC917510:FUC917663 GDY917510:GDY917663 GNU917510:GNU917663 GXQ917510:GXQ917663 HHM917510:HHM917663 HRI917510:HRI917663 IBE917510:IBE917663 ILA917510:ILA917663 IUW917510:IUW917663 JES917510:JES917663 JOO917510:JOO917663 JYK917510:JYK917663 KIG917510:KIG917663 KSC917510:KSC917663 LBY917510:LBY917663 LLU917510:LLU917663 LVQ917510:LVQ917663 MFM917510:MFM917663 MPI917510:MPI917663 MZE917510:MZE917663 NJA917510:NJA917663 NSW917510:NSW917663 OCS917510:OCS917663 OMO917510:OMO917663 OWK917510:OWK917663 PGG917510:PGG917663 PQC917510:PQC917663 PZY917510:PZY917663 QJU917510:QJU917663 QTQ917510:QTQ917663 RDM917510:RDM917663 RNI917510:RNI917663 RXE917510:RXE917663 SHA917510:SHA917663 SQW917510:SQW917663 TAS917510:TAS917663 TKO917510:TKO917663 TUK917510:TUK917663 UEG917510:UEG917663 UOC917510:UOC917663 UXY917510:UXY917663 VHU917510:VHU917663 VRQ917510:VRQ917663 WBM917510:WBM917663 WLI917510:WLI917663 WVE917510:WVE917663 F983046:F983199 IS983046:IS983199 SO983046:SO983199 ACK983046:ACK983199 AMG983046:AMG983199 AWC983046:AWC983199 BFY983046:BFY983199 BPU983046:BPU983199 BZQ983046:BZQ983199 CJM983046:CJM983199 CTI983046:CTI983199 DDE983046:DDE983199 DNA983046:DNA983199 DWW983046:DWW983199 EGS983046:EGS983199 EQO983046:EQO983199 FAK983046:FAK983199 FKG983046:FKG983199 FUC983046:FUC983199 GDY983046:GDY983199 GNU983046:GNU983199 GXQ983046:GXQ983199 HHM983046:HHM983199 HRI983046:HRI983199 IBE983046:IBE983199 ILA983046:ILA983199 IUW983046:IUW983199 JES983046:JES983199 JOO983046:JOO983199 JYK983046:JYK983199 KIG983046:KIG983199 KSC983046:KSC983199 LBY983046:LBY983199 LLU983046:LLU983199 LVQ983046:LVQ983199 MFM983046:MFM983199 MPI983046:MPI983199 MZE983046:MZE983199 NJA983046:NJA983199 NSW983046:NSW983199 OCS983046:OCS983199 OMO983046:OMO983199 OWK983046:OWK983199 PGG983046:PGG983199 PQC983046:PQC983199 PZY983046:PZY983199 QJU983046:QJU983199 QTQ983046:QTQ983199 RDM983046:RDM983199 RNI983046:RNI983199 RXE983046:RXE983199 SHA983046:SHA983199 SQW983046:SQW983199 TAS983046:TAS983199 TKO983046:TKO983199 TUK983046:TUK983199 UEG983046:UEG983199 UOC983046:UOC983199 UXY983046:UXY983199 VHU983046:VHU983199 VRQ983046:VRQ983199 WBM983046:WBM983199 WLI983046:WLI983199 WVE983046:WVE983199" xr:uid="{047E5A7D-3F66-4A74-9334-FE5570FDAD13}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IS6:IS159 WVE983046:WVE983199 F6 SO6:SO159 ACK6:ACK159 AMG6:AMG159 AWC6:AWC159 BFY6:BFY159 BPU6:BPU159 BZQ6:BZQ159 CJM6:CJM159 CTI6:CTI159 DDE6:DDE159 DNA6:DNA159 DWW6:DWW159 EGS6:EGS159 EQO6:EQO159 FAK6:FAK159 FKG6:FKG159 FUC6:FUC159 GDY6:GDY159 GNU6:GNU159 GXQ6:GXQ159 HHM6:HHM159 HRI6:HRI159 IBE6:IBE159 ILA6:ILA159 IUW6:IUW159 JES6:JES159 JOO6:JOO159 JYK6:JYK159 KIG6:KIG159 KSC6:KSC159 LBY6:LBY159 LLU6:LLU159 LVQ6:LVQ159 MFM6:MFM159 MPI6:MPI159 MZE6:MZE159 NJA6:NJA159 NSW6:NSW159 OCS6:OCS159 OMO6:OMO159 OWK6:OWK159 PGG6:PGG159 PQC6:PQC159 PZY6:PZY159 QJU6:QJU159 QTQ6:QTQ159 RDM6:RDM159 RNI6:RNI159 RXE6:RXE159 SHA6:SHA159 SQW6:SQW159 TAS6:TAS159 TKO6:TKO159 TUK6:TUK159 UEG6:UEG159 UOC6:UOC159 UXY6:UXY159 VHU6:VHU159 VRQ6:VRQ159 WBM6:WBM159 WLI6:WLI159 WVE6:WVE159 F65542:F65695 IS65542:IS65695 SO65542:SO65695 ACK65542:ACK65695 AMG65542:AMG65695 AWC65542:AWC65695 BFY65542:BFY65695 BPU65542:BPU65695 BZQ65542:BZQ65695 CJM65542:CJM65695 CTI65542:CTI65695 DDE65542:DDE65695 DNA65542:DNA65695 DWW65542:DWW65695 EGS65542:EGS65695 EQO65542:EQO65695 FAK65542:FAK65695 FKG65542:FKG65695 FUC65542:FUC65695 GDY65542:GDY65695 GNU65542:GNU65695 GXQ65542:GXQ65695 HHM65542:HHM65695 HRI65542:HRI65695 IBE65542:IBE65695 ILA65542:ILA65695 IUW65542:IUW65695 JES65542:JES65695 JOO65542:JOO65695 JYK65542:JYK65695 KIG65542:KIG65695 KSC65542:KSC65695 LBY65542:LBY65695 LLU65542:LLU65695 LVQ65542:LVQ65695 MFM65542:MFM65695 MPI65542:MPI65695 MZE65542:MZE65695 NJA65542:NJA65695 NSW65542:NSW65695 OCS65542:OCS65695 OMO65542:OMO65695 OWK65542:OWK65695 PGG65542:PGG65695 PQC65542:PQC65695 PZY65542:PZY65695 QJU65542:QJU65695 QTQ65542:QTQ65695 RDM65542:RDM65695 RNI65542:RNI65695 RXE65542:RXE65695 SHA65542:SHA65695 SQW65542:SQW65695 TAS65542:TAS65695 TKO65542:TKO65695 TUK65542:TUK65695 UEG65542:UEG65695 UOC65542:UOC65695 UXY65542:UXY65695 VHU65542:VHU65695 VRQ65542:VRQ65695 WBM65542:WBM65695 WLI65542:WLI65695 WVE65542:WVE65695 F131078:F131231 IS131078:IS131231 SO131078:SO131231 ACK131078:ACK131231 AMG131078:AMG131231 AWC131078:AWC131231 BFY131078:BFY131231 BPU131078:BPU131231 BZQ131078:BZQ131231 CJM131078:CJM131231 CTI131078:CTI131231 DDE131078:DDE131231 DNA131078:DNA131231 DWW131078:DWW131231 EGS131078:EGS131231 EQO131078:EQO131231 FAK131078:FAK131231 FKG131078:FKG131231 FUC131078:FUC131231 GDY131078:GDY131231 GNU131078:GNU131231 GXQ131078:GXQ131231 HHM131078:HHM131231 HRI131078:HRI131231 IBE131078:IBE131231 ILA131078:ILA131231 IUW131078:IUW131231 JES131078:JES131231 JOO131078:JOO131231 JYK131078:JYK131231 KIG131078:KIG131231 KSC131078:KSC131231 LBY131078:LBY131231 LLU131078:LLU131231 LVQ131078:LVQ131231 MFM131078:MFM131231 MPI131078:MPI131231 MZE131078:MZE131231 NJA131078:NJA131231 NSW131078:NSW131231 OCS131078:OCS131231 OMO131078:OMO131231 OWK131078:OWK131231 PGG131078:PGG131231 PQC131078:PQC131231 PZY131078:PZY131231 QJU131078:QJU131231 QTQ131078:QTQ131231 RDM131078:RDM131231 RNI131078:RNI131231 RXE131078:RXE131231 SHA131078:SHA131231 SQW131078:SQW131231 TAS131078:TAS131231 TKO131078:TKO131231 TUK131078:TUK131231 UEG131078:UEG131231 UOC131078:UOC131231 UXY131078:UXY131231 VHU131078:VHU131231 VRQ131078:VRQ131231 WBM131078:WBM131231 WLI131078:WLI131231 WVE131078:WVE131231 F196614:F196767 IS196614:IS196767 SO196614:SO196767 ACK196614:ACK196767 AMG196614:AMG196767 AWC196614:AWC196767 BFY196614:BFY196767 BPU196614:BPU196767 BZQ196614:BZQ196767 CJM196614:CJM196767 CTI196614:CTI196767 DDE196614:DDE196767 DNA196614:DNA196767 DWW196614:DWW196767 EGS196614:EGS196767 EQO196614:EQO196767 FAK196614:FAK196767 FKG196614:FKG196767 FUC196614:FUC196767 GDY196614:GDY196767 GNU196614:GNU196767 GXQ196614:GXQ196767 HHM196614:HHM196767 HRI196614:HRI196767 IBE196614:IBE196767 ILA196614:ILA196767 IUW196614:IUW196767 JES196614:JES196767 JOO196614:JOO196767 JYK196614:JYK196767 KIG196614:KIG196767 KSC196614:KSC196767 LBY196614:LBY196767 LLU196614:LLU196767 LVQ196614:LVQ196767 MFM196614:MFM196767 MPI196614:MPI196767 MZE196614:MZE196767 NJA196614:NJA196767 NSW196614:NSW196767 OCS196614:OCS196767 OMO196614:OMO196767 OWK196614:OWK196767 PGG196614:PGG196767 PQC196614:PQC196767 PZY196614:PZY196767 QJU196614:QJU196767 QTQ196614:QTQ196767 RDM196614:RDM196767 RNI196614:RNI196767 RXE196614:RXE196767 SHA196614:SHA196767 SQW196614:SQW196767 TAS196614:TAS196767 TKO196614:TKO196767 TUK196614:TUK196767 UEG196614:UEG196767 UOC196614:UOC196767 UXY196614:UXY196767 VHU196614:VHU196767 VRQ196614:VRQ196767 WBM196614:WBM196767 WLI196614:WLI196767 WVE196614:WVE196767 F262150:F262303 IS262150:IS262303 SO262150:SO262303 ACK262150:ACK262303 AMG262150:AMG262303 AWC262150:AWC262303 BFY262150:BFY262303 BPU262150:BPU262303 BZQ262150:BZQ262303 CJM262150:CJM262303 CTI262150:CTI262303 DDE262150:DDE262303 DNA262150:DNA262303 DWW262150:DWW262303 EGS262150:EGS262303 EQO262150:EQO262303 FAK262150:FAK262303 FKG262150:FKG262303 FUC262150:FUC262303 GDY262150:GDY262303 GNU262150:GNU262303 GXQ262150:GXQ262303 HHM262150:HHM262303 HRI262150:HRI262303 IBE262150:IBE262303 ILA262150:ILA262303 IUW262150:IUW262303 JES262150:JES262303 JOO262150:JOO262303 JYK262150:JYK262303 KIG262150:KIG262303 KSC262150:KSC262303 LBY262150:LBY262303 LLU262150:LLU262303 LVQ262150:LVQ262303 MFM262150:MFM262303 MPI262150:MPI262303 MZE262150:MZE262303 NJA262150:NJA262303 NSW262150:NSW262303 OCS262150:OCS262303 OMO262150:OMO262303 OWK262150:OWK262303 PGG262150:PGG262303 PQC262150:PQC262303 PZY262150:PZY262303 QJU262150:QJU262303 QTQ262150:QTQ262303 RDM262150:RDM262303 RNI262150:RNI262303 RXE262150:RXE262303 SHA262150:SHA262303 SQW262150:SQW262303 TAS262150:TAS262303 TKO262150:TKO262303 TUK262150:TUK262303 UEG262150:UEG262303 UOC262150:UOC262303 UXY262150:UXY262303 VHU262150:VHU262303 VRQ262150:VRQ262303 WBM262150:WBM262303 WLI262150:WLI262303 WVE262150:WVE262303 F327686:F327839 IS327686:IS327839 SO327686:SO327839 ACK327686:ACK327839 AMG327686:AMG327839 AWC327686:AWC327839 BFY327686:BFY327839 BPU327686:BPU327839 BZQ327686:BZQ327839 CJM327686:CJM327839 CTI327686:CTI327839 DDE327686:DDE327839 DNA327686:DNA327839 DWW327686:DWW327839 EGS327686:EGS327839 EQO327686:EQO327839 FAK327686:FAK327839 FKG327686:FKG327839 FUC327686:FUC327839 GDY327686:GDY327839 GNU327686:GNU327839 GXQ327686:GXQ327839 HHM327686:HHM327839 HRI327686:HRI327839 IBE327686:IBE327839 ILA327686:ILA327839 IUW327686:IUW327839 JES327686:JES327839 JOO327686:JOO327839 JYK327686:JYK327839 KIG327686:KIG327839 KSC327686:KSC327839 LBY327686:LBY327839 LLU327686:LLU327839 LVQ327686:LVQ327839 MFM327686:MFM327839 MPI327686:MPI327839 MZE327686:MZE327839 NJA327686:NJA327839 NSW327686:NSW327839 OCS327686:OCS327839 OMO327686:OMO327839 OWK327686:OWK327839 PGG327686:PGG327839 PQC327686:PQC327839 PZY327686:PZY327839 QJU327686:QJU327839 QTQ327686:QTQ327839 RDM327686:RDM327839 RNI327686:RNI327839 RXE327686:RXE327839 SHA327686:SHA327839 SQW327686:SQW327839 TAS327686:TAS327839 TKO327686:TKO327839 TUK327686:TUK327839 UEG327686:UEG327839 UOC327686:UOC327839 UXY327686:UXY327839 VHU327686:VHU327839 VRQ327686:VRQ327839 WBM327686:WBM327839 WLI327686:WLI327839 WVE327686:WVE327839 F393222:F393375 IS393222:IS393375 SO393222:SO393375 ACK393222:ACK393375 AMG393222:AMG393375 AWC393222:AWC393375 BFY393222:BFY393375 BPU393222:BPU393375 BZQ393222:BZQ393375 CJM393222:CJM393375 CTI393222:CTI393375 DDE393222:DDE393375 DNA393222:DNA393375 DWW393222:DWW393375 EGS393222:EGS393375 EQO393222:EQO393375 FAK393222:FAK393375 FKG393222:FKG393375 FUC393222:FUC393375 GDY393222:GDY393375 GNU393222:GNU393375 GXQ393222:GXQ393375 HHM393222:HHM393375 HRI393222:HRI393375 IBE393222:IBE393375 ILA393222:ILA393375 IUW393222:IUW393375 JES393222:JES393375 JOO393222:JOO393375 JYK393222:JYK393375 KIG393222:KIG393375 KSC393222:KSC393375 LBY393222:LBY393375 LLU393222:LLU393375 LVQ393222:LVQ393375 MFM393222:MFM393375 MPI393222:MPI393375 MZE393222:MZE393375 NJA393222:NJA393375 NSW393222:NSW393375 OCS393222:OCS393375 OMO393222:OMO393375 OWK393222:OWK393375 PGG393222:PGG393375 PQC393222:PQC393375 PZY393222:PZY393375 QJU393222:QJU393375 QTQ393222:QTQ393375 RDM393222:RDM393375 RNI393222:RNI393375 RXE393222:RXE393375 SHA393222:SHA393375 SQW393222:SQW393375 TAS393222:TAS393375 TKO393222:TKO393375 TUK393222:TUK393375 UEG393222:UEG393375 UOC393222:UOC393375 UXY393222:UXY393375 VHU393222:VHU393375 VRQ393222:VRQ393375 WBM393222:WBM393375 WLI393222:WLI393375 WVE393222:WVE393375 F458758:F458911 IS458758:IS458911 SO458758:SO458911 ACK458758:ACK458911 AMG458758:AMG458911 AWC458758:AWC458911 BFY458758:BFY458911 BPU458758:BPU458911 BZQ458758:BZQ458911 CJM458758:CJM458911 CTI458758:CTI458911 DDE458758:DDE458911 DNA458758:DNA458911 DWW458758:DWW458911 EGS458758:EGS458911 EQO458758:EQO458911 FAK458758:FAK458911 FKG458758:FKG458911 FUC458758:FUC458911 GDY458758:GDY458911 GNU458758:GNU458911 GXQ458758:GXQ458911 HHM458758:HHM458911 HRI458758:HRI458911 IBE458758:IBE458911 ILA458758:ILA458911 IUW458758:IUW458911 JES458758:JES458911 JOO458758:JOO458911 JYK458758:JYK458911 KIG458758:KIG458911 KSC458758:KSC458911 LBY458758:LBY458911 LLU458758:LLU458911 LVQ458758:LVQ458911 MFM458758:MFM458911 MPI458758:MPI458911 MZE458758:MZE458911 NJA458758:NJA458911 NSW458758:NSW458911 OCS458758:OCS458911 OMO458758:OMO458911 OWK458758:OWK458911 PGG458758:PGG458911 PQC458758:PQC458911 PZY458758:PZY458911 QJU458758:QJU458911 QTQ458758:QTQ458911 RDM458758:RDM458911 RNI458758:RNI458911 RXE458758:RXE458911 SHA458758:SHA458911 SQW458758:SQW458911 TAS458758:TAS458911 TKO458758:TKO458911 TUK458758:TUK458911 UEG458758:UEG458911 UOC458758:UOC458911 UXY458758:UXY458911 VHU458758:VHU458911 VRQ458758:VRQ458911 WBM458758:WBM458911 WLI458758:WLI458911 WVE458758:WVE458911 F524294:F524447 IS524294:IS524447 SO524294:SO524447 ACK524294:ACK524447 AMG524294:AMG524447 AWC524294:AWC524447 BFY524294:BFY524447 BPU524294:BPU524447 BZQ524294:BZQ524447 CJM524294:CJM524447 CTI524294:CTI524447 DDE524294:DDE524447 DNA524294:DNA524447 DWW524294:DWW524447 EGS524294:EGS524447 EQO524294:EQO524447 FAK524294:FAK524447 FKG524294:FKG524447 FUC524294:FUC524447 GDY524294:GDY524447 GNU524294:GNU524447 GXQ524294:GXQ524447 HHM524294:HHM524447 HRI524294:HRI524447 IBE524294:IBE524447 ILA524294:ILA524447 IUW524294:IUW524447 JES524294:JES524447 JOO524294:JOO524447 JYK524294:JYK524447 KIG524294:KIG524447 KSC524294:KSC524447 LBY524294:LBY524447 LLU524294:LLU524447 LVQ524294:LVQ524447 MFM524294:MFM524447 MPI524294:MPI524447 MZE524294:MZE524447 NJA524294:NJA524447 NSW524294:NSW524447 OCS524294:OCS524447 OMO524294:OMO524447 OWK524294:OWK524447 PGG524294:PGG524447 PQC524294:PQC524447 PZY524294:PZY524447 QJU524294:QJU524447 QTQ524294:QTQ524447 RDM524294:RDM524447 RNI524294:RNI524447 RXE524294:RXE524447 SHA524294:SHA524447 SQW524294:SQW524447 TAS524294:TAS524447 TKO524294:TKO524447 TUK524294:TUK524447 UEG524294:UEG524447 UOC524294:UOC524447 UXY524294:UXY524447 VHU524294:VHU524447 VRQ524294:VRQ524447 WBM524294:WBM524447 WLI524294:WLI524447 WVE524294:WVE524447 F589830:F589983 IS589830:IS589983 SO589830:SO589983 ACK589830:ACK589983 AMG589830:AMG589983 AWC589830:AWC589983 BFY589830:BFY589983 BPU589830:BPU589983 BZQ589830:BZQ589983 CJM589830:CJM589983 CTI589830:CTI589983 DDE589830:DDE589983 DNA589830:DNA589983 DWW589830:DWW589983 EGS589830:EGS589983 EQO589830:EQO589983 FAK589830:FAK589983 FKG589830:FKG589983 FUC589830:FUC589983 GDY589830:GDY589983 GNU589830:GNU589983 GXQ589830:GXQ589983 HHM589830:HHM589983 HRI589830:HRI589983 IBE589830:IBE589983 ILA589830:ILA589983 IUW589830:IUW589983 JES589830:JES589983 JOO589830:JOO589983 JYK589830:JYK589983 KIG589830:KIG589983 KSC589830:KSC589983 LBY589830:LBY589983 LLU589830:LLU589983 LVQ589830:LVQ589983 MFM589830:MFM589983 MPI589830:MPI589983 MZE589830:MZE589983 NJA589830:NJA589983 NSW589830:NSW589983 OCS589830:OCS589983 OMO589830:OMO589983 OWK589830:OWK589983 PGG589830:PGG589983 PQC589830:PQC589983 PZY589830:PZY589983 QJU589830:QJU589983 QTQ589830:QTQ589983 RDM589830:RDM589983 RNI589830:RNI589983 RXE589830:RXE589983 SHA589830:SHA589983 SQW589830:SQW589983 TAS589830:TAS589983 TKO589830:TKO589983 TUK589830:TUK589983 UEG589830:UEG589983 UOC589830:UOC589983 UXY589830:UXY589983 VHU589830:VHU589983 VRQ589830:VRQ589983 WBM589830:WBM589983 WLI589830:WLI589983 WVE589830:WVE589983 F655366:F655519 IS655366:IS655519 SO655366:SO655519 ACK655366:ACK655519 AMG655366:AMG655519 AWC655366:AWC655519 BFY655366:BFY655519 BPU655366:BPU655519 BZQ655366:BZQ655519 CJM655366:CJM655519 CTI655366:CTI655519 DDE655366:DDE655519 DNA655366:DNA655519 DWW655366:DWW655519 EGS655366:EGS655519 EQO655366:EQO655519 FAK655366:FAK655519 FKG655366:FKG655519 FUC655366:FUC655519 GDY655366:GDY655519 GNU655366:GNU655519 GXQ655366:GXQ655519 HHM655366:HHM655519 HRI655366:HRI655519 IBE655366:IBE655519 ILA655366:ILA655519 IUW655366:IUW655519 JES655366:JES655519 JOO655366:JOO655519 JYK655366:JYK655519 KIG655366:KIG655519 KSC655366:KSC655519 LBY655366:LBY655519 LLU655366:LLU655519 LVQ655366:LVQ655519 MFM655366:MFM655519 MPI655366:MPI655519 MZE655366:MZE655519 NJA655366:NJA655519 NSW655366:NSW655519 OCS655366:OCS655519 OMO655366:OMO655519 OWK655366:OWK655519 PGG655366:PGG655519 PQC655366:PQC655519 PZY655366:PZY655519 QJU655366:QJU655519 QTQ655366:QTQ655519 RDM655366:RDM655519 RNI655366:RNI655519 RXE655366:RXE655519 SHA655366:SHA655519 SQW655366:SQW655519 TAS655366:TAS655519 TKO655366:TKO655519 TUK655366:TUK655519 UEG655366:UEG655519 UOC655366:UOC655519 UXY655366:UXY655519 VHU655366:VHU655519 VRQ655366:VRQ655519 WBM655366:WBM655519 WLI655366:WLI655519 WVE655366:WVE655519 F720902:F721055 IS720902:IS721055 SO720902:SO721055 ACK720902:ACK721055 AMG720902:AMG721055 AWC720902:AWC721055 BFY720902:BFY721055 BPU720902:BPU721055 BZQ720902:BZQ721055 CJM720902:CJM721055 CTI720902:CTI721055 DDE720902:DDE721055 DNA720902:DNA721055 DWW720902:DWW721055 EGS720902:EGS721055 EQO720902:EQO721055 FAK720902:FAK721055 FKG720902:FKG721055 FUC720902:FUC721055 GDY720902:GDY721055 GNU720902:GNU721055 GXQ720902:GXQ721055 HHM720902:HHM721055 HRI720902:HRI721055 IBE720902:IBE721055 ILA720902:ILA721055 IUW720902:IUW721055 JES720902:JES721055 JOO720902:JOO721055 JYK720902:JYK721055 KIG720902:KIG721055 KSC720902:KSC721055 LBY720902:LBY721055 LLU720902:LLU721055 LVQ720902:LVQ721055 MFM720902:MFM721055 MPI720902:MPI721055 MZE720902:MZE721055 NJA720902:NJA721055 NSW720902:NSW721055 OCS720902:OCS721055 OMO720902:OMO721055 OWK720902:OWK721055 PGG720902:PGG721055 PQC720902:PQC721055 PZY720902:PZY721055 QJU720902:QJU721055 QTQ720902:QTQ721055 RDM720902:RDM721055 RNI720902:RNI721055 RXE720902:RXE721055 SHA720902:SHA721055 SQW720902:SQW721055 TAS720902:TAS721055 TKO720902:TKO721055 TUK720902:TUK721055 UEG720902:UEG721055 UOC720902:UOC721055 UXY720902:UXY721055 VHU720902:VHU721055 VRQ720902:VRQ721055 WBM720902:WBM721055 WLI720902:WLI721055 WVE720902:WVE721055 F786438:F786591 IS786438:IS786591 SO786438:SO786591 ACK786438:ACK786591 AMG786438:AMG786591 AWC786438:AWC786591 BFY786438:BFY786591 BPU786438:BPU786591 BZQ786438:BZQ786591 CJM786438:CJM786591 CTI786438:CTI786591 DDE786438:DDE786591 DNA786438:DNA786591 DWW786438:DWW786591 EGS786438:EGS786591 EQO786438:EQO786591 FAK786438:FAK786591 FKG786438:FKG786591 FUC786438:FUC786591 GDY786438:GDY786591 GNU786438:GNU786591 GXQ786438:GXQ786591 HHM786438:HHM786591 HRI786438:HRI786591 IBE786438:IBE786591 ILA786438:ILA786591 IUW786438:IUW786591 JES786438:JES786591 JOO786438:JOO786591 JYK786438:JYK786591 KIG786438:KIG786591 KSC786438:KSC786591 LBY786438:LBY786591 LLU786438:LLU786591 LVQ786438:LVQ786591 MFM786438:MFM786591 MPI786438:MPI786591 MZE786438:MZE786591 NJA786438:NJA786591 NSW786438:NSW786591 OCS786438:OCS786591 OMO786438:OMO786591 OWK786438:OWK786591 PGG786438:PGG786591 PQC786438:PQC786591 PZY786438:PZY786591 QJU786438:QJU786591 QTQ786438:QTQ786591 RDM786438:RDM786591 RNI786438:RNI786591 RXE786438:RXE786591 SHA786438:SHA786591 SQW786438:SQW786591 TAS786438:TAS786591 TKO786438:TKO786591 TUK786438:TUK786591 UEG786438:UEG786591 UOC786438:UOC786591 UXY786438:UXY786591 VHU786438:VHU786591 VRQ786438:VRQ786591 WBM786438:WBM786591 WLI786438:WLI786591 WVE786438:WVE786591 F851974:F852127 IS851974:IS852127 SO851974:SO852127 ACK851974:ACK852127 AMG851974:AMG852127 AWC851974:AWC852127 BFY851974:BFY852127 BPU851974:BPU852127 BZQ851974:BZQ852127 CJM851974:CJM852127 CTI851974:CTI852127 DDE851974:DDE852127 DNA851974:DNA852127 DWW851974:DWW852127 EGS851974:EGS852127 EQO851974:EQO852127 FAK851974:FAK852127 FKG851974:FKG852127 FUC851974:FUC852127 GDY851974:GDY852127 GNU851974:GNU852127 GXQ851974:GXQ852127 HHM851974:HHM852127 HRI851974:HRI852127 IBE851974:IBE852127 ILA851974:ILA852127 IUW851974:IUW852127 JES851974:JES852127 JOO851974:JOO852127 JYK851974:JYK852127 KIG851974:KIG852127 KSC851974:KSC852127 LBY851974:LBY852127 LLU851974:LLU852127 LVQ851974:LVQ852127 MFM851974:MFM852127 MPI851974:MPI852127 MZE851974:MZE852127 NJA851974:NJA852127 NSW851974:NSW852127 OCS851974:OCS852127 OMO851974:OMO852127 OWK851974:OWK852127 PGG851974:PGG852127 PQC851974:PQC852127 PZY851974:PZY852127 QJU851974:QJU852127 QTQ851974:QTQ852127 RDM851974:RDM852127 RNI851974:RNI852127 RXE851974:RXE852127 SHA851974:SHA852127 SQW851974:SQW852127 TAS851974:TAS852127 TKO851974:TKO852127 TUK851974:TUK852127 UEG851974:UEG852127 UOC851974:UOC852127 UXY851974:UXY852127 VHU851974:VHU852127 VRQ851974:VRQ852127 WBM851974:WBM852127 WLI851974:WLI852127 WVE851974:WVE852127 F917510:F917663 IS917510:IS917663 SO917510:SO917663 ACK917510:ACK917663 AMG917510:AMG917663 AWC917510:AWC917663 BFY917510:BFY917663 BPU917510:BPU917663 BZQ917510:BZQ917663 CJM917510:CJM917663 CTI917510:CTI917663 DDE917510:DDE917663 DNA917510:DNA917663 DWW917510:DWW917663 EGS917510:EGS917663 EQO917510:EQO917663 FAK917510:FAK917663 FKG917510:FKG917663 FUC917510:FUC917663 GDY917510:GDY917663 GNU917510:GNU917663 GXQ917510:GXQ917663 HHM917510:HHM917663 HRI917510:HRI917663 IBE917510:IBE917663 ILA917510:ILA917663 IUW917510:IUW917663 JES917510:JES917663 JOO917510:JOO917663 JYK917510:JYK917663 KIG917510:KIG917663 KSC917510:KSC917663 LBY917510:LBY917663 LLU917510:LLU917663 LVQ917510:LVQ917663 MFM917510:MFM917663 MPI917510:MPI917663 MZE917510:MZE917663 NJA917510:NJA917663 NSW917510:NSW917663 OCS917510:OCS917663 OMO917510:OMO917663 OWK917510:OWK917663 PGG917510:PGG917663 PQC917510:PQC917663 PZY917510:PZY917663 QJU917510:QJU917663 QTQ917510:QTQ917663 RDM917510:RDM917663 RNI917510:RNI917663 RXE917510:RXE917663 SHA917510:SHA917663 SQW917510:SQW917663 TAS917510:TAS917663 TKO917510:TKO917663 TUK917510:TUK917663 UEG917510:UEG917663 UOC917510:UOC917663 UXY917510:UXY917663 VHU917510:VHU917663 VRQ917510:VRQ917663 WBM917510:WBM917663 WLI917510:WLI917663 WVE917510:WVE917663 F983046:F983199 IS983046:IS983199 SO983046:SO983199 ACK983046:ACK983199 AMG983046:AMG983199 AWC983046:AWC983199 BFY983046:BFY983199 BPU983046:BPU983199 BZQ983046:BZQ983199 CJM983046:CJM983199 CTI983046:CTI983199 DDE983046:DDE983199 DNA983046:DNA983199 DWW983046:DWW983199 EGS983046:EGS983199 EQO983046:EQO983199 FAK983046:FAK983199 FKG983046:FKG983199 FUC983046:FUC983199 GDY983046:GDY983199 GNU983046:GNU983199 GXQ983046:GXQ983199 HHM983046:HHM983199 HRI983046:HRI983199 IBE983046:IBE983199 ILA983046:ILA983199 IUW983046:IUW983199 JES983046:JES983199 JOO983046:JOO983199 JYK983046:JYK983199 KIG983046:KIG983199 KSC983046:KSC983199 LBY983046:LBY983199 LLU983046:LLU983199 LVQ983046:LVQ983199 MFM983046:MFM983199 MPI983046:MPI983199 MZE983046:MZE983199 NJA983046:NJA983199 NSW983046:NSW983199 OCS983046:OCS983199 OMO983046:OMO983199 OWK983046:OWK983199 PGG983046:PGG983199 PQC983046:PQC983199 PZY983046:PZY983199 QJU983046:QJU983199 QTQ983046:QTQ983199 RDM983046:RDM983199 RNI983046:RNI983199 RXE983046:RXE983199 SHA983046:SHA983199 SQW983046:SQW983199 TAS983046:TAS983199 TKO983046:TKO983199 TUK983046:TUK983199 UEG983046:UEG983199 UOC983046:UOC983199 UXY983046:UXY983199 VHU983046:VHU983199 VRQ983046:VRQ983199 WBM983046:WBM983199 WLI983046:WLI983199 F37:F159" xr:uid="{047E5A7D-3F66-4A74-9334-FE5570FDAD13}">
       <formula1>$AD$30:$AD$36</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IT7:IT159 WVF983047:WVF983199 SP7:SP159 ACL7:ACL159 AMH7:AMH159 AWD7:AWD159 BFZ7:BFZ159 BPV7:BPV159 BZR7:BZR159 CJN7:CJN159 CTJ7:CTJ159 DDF7:DDF159 DNB7:DNB159 DWX7:DWX159 EGT7:EGT159 EQP7:EQP159 FAL7:FAL159 FKH7:FKH159 FUD7:FUD159 GDZ7:GDZ159 GNV7:GNV159 GXR7:GXR159 HHN7:HHN159 HRJ7:HRJ159 IBF7:IBF159 ILB7:ILB159 IUX7:IUX159 JET7:JET159 JOP7:JOP159 JYL7:JYL159 KIH7:KIH159 KSD7:KSD159 LBZ7:LBZ159 LLV7:LLV159 LVR7:LVR159 MFN7:MFN159 MPJ7:MPJ159 MZF7:MZF159 NJB7:NJB159 NSX7:NSX159 OCT7:OCT159 OMP7:OMP159 OWL7:OWL159 PGH7:PGH159 PQD7:PQD159 PZZ7:PZZ159 QJV7:QJV159 QTR7:QTR159 RDN7:RDN159 RNJ7:RNJ159 RXF7:RXF159 SHB7:SHB159 SQX7:SQX159 TAT7:TAT159 TKP7:TKP159 TUL7:TUL159 UEH7:UEH159 UOD7:UOD159 UXZ7:UXZ159 VHV7:VHV159 VRR7:VRR159 WBN7:WBN159 WLJ7:WLJ159 WVF7:WVF159 G65543:G65695 IT65543:IT65695 SP65543:SP65695 ACL65543:ACL65695 AMH65543:AMH65695 AWD65543:AWD65695 BFZ65543:BFZ65695 BPV65543:BPV65695 BZR65543:BZR65695 CJN65543:CJN65695 CTJ65543:CTJ65695 DDF65543:DDF65695 DNB65543:DNB65695 DWX65543:DWX65695 EGT65543:EGT65695 EQP65543:EQP65695 FAL65543:FAL65695 FKH65543:FKH65695 FUD65543:FUD65695 GDZ65543:GDZ65695 GNV65543:GNV65695 GXR65543:GXR65695 HHN65543:HHN65695 HRJ65543:HRJ65695 IBF65543:IBF65695 ILB65543:ILB65695 IUX65543:IUX65695 JET65543:JET65695 JOP65543:JOP65695 JYL65543:JYL65695 KIH65543:KIH65695 KSD65543:KSD65695 LBZ65543:LBZ65695 LLV65543:LLV65695 LVR65543:LVR65695 MFN65543:MFN65695 MPJ65543:MPJ65695 MZF65543:MZF65695 NJB65543:NJB65695 NSX65543:NSX65695 OCT65543:OCT65695 OMP65543:OMP65695 OWL65543:OWL65695 PGH65543:PGH65695 PQD65543:PQD65695 PZZ65543:PZZ65695 QJV65543:QJV65695 QTR65543:QTR65695 RDN65543:RDN65695 RNJ65543:RNJ65695 RXF65543:RXF65695 SHB65543:SHB65695 SQX65543:SQX65695 TAT65543:TAT65695 TKP65543:TKP65695 TUL65543:TUL65695 UEH65543:UEH65695 UOD65543:UOD65695 UXZ65543:UXZ65695 VHV65543:VHV65695 VRR65543:VRR65695 WBN65543:WBN65695 WLJ65543:WLJ65695 WVF65543:WVF65695 G131079:G131231 IT131079:IT131231 SP131079:SP131231 ACL131079:ACL131231 AMH131079:AMH131231 AWD131079:AWD131231 BFZ131079:BFZ131231 BPV131079:BPV131231 BZR131079:BZR131231 CJN131079:CJN131231 CTJ131079:CTJ131231 DDF131079:DDF131231 DNB131079:DNB131231 DWX131079:DWX131231 EGT131079:EGT131231 EQP131079:EQP131231 FAL131079:FAL131231 FKH131079:FKH131231 FUD131079:FUD131231 GDZ131079:GDZ131231 GNV131079:GNV131231 GXR131079:GXR131231 HHN131079:HHN131231 HRJ131079:HRJ131231 IBF131079:IBF131231 ILB131079:ILB131231 IUX131079:IUX131231 JET131079:JET131231 JOP131079:JOP131231 JYL131079:JYL131231 KIH131079:KIH131231 KSD131079:KSD131231 LBZ131079:LBZ131231 LLV131079:LLV131231 LVR131079:LVR131231 MFN131079:MFN131231 MPJ131079:MPJ131231 MZF131079:MZF131231 NJB131079:NJB131231 NSX131079:NSX131231 OCT131079:OCT131231 OMP131079:OMP131231 OWL131079:OWL131231 PGH131079:PGH131231 PQD131079:PQD131231 PZZ131079:PZZ131231 QJV131079:QJV131231 QTR131079:QTR131231 RDN131079:RDN131231 RNJ131079:RNJ131231 RXF131079:RXF131231 SHB131079:SHB131231 SQX131079:SQX131231 TAT131079:TAT131231 TKP131079:TKP131231 TUL131079:TUL131231 UEH131079:UEH131231 UOD131079:UOD131231 UXZ131079:UXZ131231 VHV131079:VHV131231 VRR131079:VRR131231 WBN131079:WBN131231 WLJ131079:WLJ131231 WVF131079:WVF131231 G196615:G196767 IT196615:IT196767 SP196615:SP196767 ACL196615:ACL196767 AMH196615:AMH196767 AWD196615:AWD196767 BFZ196615:BFZ196767 BPV196615:BPV196767 BZR196615:BZR196767 CJN196615:CJN196767 CTJ196615:CTJ196767 DDF196615:DDF196767 DNB196615:DNB196767 DWX196615:DWX196767 EGT196615:EGT196767 EQP196615:EQP196767 FAL196615:FAL196767 FKH196615:FKH196767 FUD196615:FUD196767 GDZ196615:GDZ196767 GNV196615:GNV196767 GXR196615:GXR196767 HHN196615:HHN196767 HRJ196615:HRJ196767 IBF196615:IBF196767 ILB196615:ILB196767 IUX196615:IUX196767 JET196615:JET196767 JOP196615:JOP196767 JYL196615:JYL196767 KIH196615:KIH196767 KSD196615:KSD196767 LBZ196615:LBZ196767 LLV196615:LLV196767 LVR196615:LVR196767 MFN196615:MFN196767 MPJ196615:MPJ196767 MZF196615:MZF196767 NJB196615:NJB196767 NSX196615:NSX196767 OCT196615:OCT196767 OMP196615:OMP196767 OWL196615:OWL196767 PGH196615:PGH196767 PQD196615:PQD196767 PZZ196615:PZZ196767 QJV196615:QJV196767 QTR196615:QTR196767 RDN196615:RDN196767 RNJ196615:RNJ196767 RXF196615:RXF196767 SHB196615:SHB196767 SQX196615:SQX196767 TAT196615:TAT196767 TKP196615:TKP196767 TUL196615:TUL196767 UEH196615:UEH196767 UOD196615:UOD196767 UXZ196615:UXZ196767 VHV196615:VHV196767 VRR196615:VRR196767 WBN196615:WBN196767 WLJ196615:WLJ196767 WVF196615:WVF196767 G262151:G262303 IT262151:IT262303 SP262151:SP262303 ACL262151:ACL262303 AMH262151:AMH262303 AWD262151:AWD262303 BFZ262151:BFZ262303 BPV262151:BPV262303 BZR262151:BZR262303 CJN262151:CJN262303 CTJ262151:CTJ262303 DDF262151:DDF262303 DNB262151:DNB262303 DWX262151:DWX262303 EGT262151:EGT262303 EQP262151:EQP262303 FAL262151:FAL262303 FKH262151:FKH262303 FUD262151:FUD262303 GDZ262151:GDZ262303 GNV262151:GNV262303 GXR262151:GXR262303 HHN262151:HHN262303 HRJ262151:HRJ262303 IBF262151:IBF262303 ILB262151:ILB262303 IUX262151:IUX262303 JET262151:JET262303 JOP262151:JOP262303 JYL262151:JYL262303 KIH262151:KIH262303 KSD262151:KSD262303 LBZ262151:LBZ262303 LLV262151:LLV262303 LVR262151:LVR262303 MFN262151:MFN262303 MPJ262151:MPJ262303 MZF262151:MZF262303 NJB262151:NJB262303 NSX262151:NSX262303 OCT262151:OCT262303 OMP262151:OMP262303 OWL262151:OWL262303 PGH262151:PGH262303 PQD262151:PQD262303 PZZ262151:PZZ262303 QJV262151:QJV262303 QTR262151:QTR262303 RDN262151:RDN262303 RNJ262151:RNJ262303 RXF262151:RXF262303 SHB262151:SHB262303 SQX262151:SQX262303 TAT262151:TAT262303 TKP262151:TKP262303 TUL262151:TUL262303 UEH262151:UEH262303 UOD262151:UOD262303 UXZ262151:UXZ262303 VHV262151:VHV262303 VRR262151:VRR262303 WBN262151:WBN262303 WLJ262151:WLJ262303 WVF262151:WVF262303 G327687:G327839 IT327687:IT327839 SP327687:SP327839 ACL327687:ACL327839 AMH327687:AMH327839 AWD327687:AWD327839 BFZ327687:BFZ327839 BPV327687:BPV327839 BZR327687:BZR327839 CJN327687:CJN327839 CTJ327687:CTJ327839 DDF327687:DDF327839 DNB327687:DNB327839 DWX327687:DWX327839 EGT327687:EGT327839 EQP327687:EQP327839 FAL327687:FAL327839 FKH327687:FKH327839 FUD327687:FUD327839 GDZ327687:GDZ327839 GNV327687:GNV327839 GXR327687:GXR327839 HHN327687:HHN327839 HRJ327687:HRJ327839 IBF327687:IBF327839 ILB327687:ILB327839 IUX327687:IUX327839 JET327687:JET327839 JOP327687:JOP327839 JYL327687:JYL327839 KIH327687:KIH327839 KSD327687:KSD327839 LBZ327687:LBZ327839 LLV327687:LLV327839 LVR327687:LVR327839 MFN327687:MFN327839 MPJ327687:MPJ327839 MZF327687:MZF327839 NJB327687:NJB327839 NSX327687:NSX327839 OCT327687:OCT327839 OMP327687:OMP327839 OWL327687:OWL327839 PGH327687:PGH327839 PQD327687:PQD327839 PZZ327687:PZZ327839 QJV327687:QJV327839 QTR327687:QTR327839 RDN327687:RDN327839 RNJ327687:RNJ327839 RXF327687:RXF327839 SHB327687:SHB327839 SQX327687:SQX327839 TAT327687:TAT327839 TKP327687:TKP327839 TUL327687:TUL327839 UEH327687:UEH327839 UOD327687:UOD327839 UXZ327687:UXZ327839 VHV327687:VHV327839 VRR327687:VRR327839 WBN327687:WBN327839 WLJ327687:WLJ327839 WVF327687:WVF327839 G393223:G393375 IT393223:IT393375 SP393223:SP393375 ACL393223:ACL393375 AMH393223:AMH393375 AWD393223:AWD393375 BFZ393223:BFZ393375 BPV393223:BPV393375 BZR393223:BZR393375 CJN393223:CJN393375 CTJ393223:CTJ393375 DDF393223:DDF393375 DNB393223:DNB393375 DWX393223:DWX393375 EGT393223:EGT393375 EQP393223:EQP393375 FAL393223:FAL393375 FKH393223:FKH393375 FUD393223:FUD393375 GDZ393223:GDZ393375 GNV393223:GNV393375 GXR393223:GXR393375 HHN393223:HHN393375 HRJ393223:HRJ393375 IBF393223:IBF393375 ILB393223:ILB393375 IUX393223:IUX393375 JET393223:JET393375 JOP393223:JOP393375 JYL393223:JYL393375 KIH393223:KIH393375 KSD393223:KSD393375 LBZ393223:LBZ393375 LLV393223:LLV393375 LVR393223:LVR393375 MFN393223:MFN393375 MPJ393223:MPJ393375 MZF393223:MZF393375 NJB393223:NJB393375 NSX393223:NSX393375 OCT393223:OCT393375 OMP393223:OMP393375 OWL393223:OWL393375 PGH393223:PGH393375 PQD393223:PQD393375 PZZ393223:PZZ393375 QJV393223:QJV393375 QTR393223:QTR393375 RDN393223:RDN393375 RNJ393223:RNJ393375 RXF393223:RXF393375 SHB393223:SHB393375 SQX393223:SQX393375 TAT393223:TAT393375 TKP393223:TKP393375 TUL393223:TUL393375 UEH393223:UEH393375 UOD393223:UOD393375 UXZ393223:UXZ393375 VHV393223:VHV393375 VRR393223:VRR393375 WBN393223:WBN393375 WLJ393223:WLJ393375 WVF393223:WVF393375 G458759:G458911 IT458759:IT458911 SP458759:SP458911 ACL458759:ACL458911 AMH458759:AMH458911 AWD458759:AWD458911 BFZ458759:BFZ458911 BPV458759:BPV458911 BZR458759:BZR458911 CJN458759:CJN458911 CTJ458759:CTJ458911 DDF458759:DDF458911 DNB458759:DNB458911 DWX458759:DWX458911 EGT458759:EGT458911 EQP458759:EQP458911 FAL458759:FAL458911 FKH458759:FKH458911 FUD458759:FUD458911 GDZ458759:GDZ458911 GNV458759:GNV458911 GXR458759:GXR458911 HHN458759:HHN458911 HRJ458759:HRJ458911 IBF458759:IBF458911 ILB458759:ILB458911 IUX458759:IUX458911 JET458759:JET458911 JOP458759:JOP458911 JYL458759:JYL458911 KIH458759:KIH458911 KSD458759:KSD458911 LBZ458759:LBZ458911 LLV458759:LLV458911 LVR458759:LVR458911 MFN458759:MFN458911 MPJ458759:MPJ458911 MZF458759:MZF458911 NJB458759:NJB458911 NSX458759:NSX458911 OCT458759:OCT458911 OMP458759:OMP458911 OWL458759:OWL458911 PGH458759:PGH458911 PQD458759:PQD458911 PZZ458759:PZZ458911 QJV458759:QJV458911 QTR458759:QTR458911 RDN458759:RDN458911 RNJ458759:RNJ458911 RXF458759:RXF458911 SHB458759:SHB458911 SQX458759:SQX458911 TAT458759:TAT458911 TKP458759:TKP458911 TUL458759:TUL458911 UEH458759:UEH458911 UOD458759:UOD458911 UXZ458759:UXZ458911 VHV458759:VHV458911 VRR458759:VRR458911 WBN458759:WBN458911 WLJ458759:WLJ458911 WVF458759:WVF458911 G524295:G524447 IT524295:IT524447 SP524295:SP524447 ACL524295:ACL524447 AMH524295:AMH524447 AWD524295:AWD524447 BFZ524295:BFZ524447 BPV524295:BPV524447 BZR524295:BZR524447 CJN524295:CJN524447 CTJ524295:CTJ524447 DDF524295:DDF524447 DNB524295:DNB524447 DWX524295:DWX524447 EGT524295:EGT524447 EQP524295:EQP524447 FAL524295:FAL524447 FKH524295:FKH524447 FUD524295:FUD524447 GDZ524295:GDZ524447 GNV524295:GNV524447 GXR524295:GXR524447 HHN524295:HHN524447 HRJ524295:HRJ524447 IBF524295:IBF524447 ILB524295:ILB524447 IUX524295:IUX524447 JET524295:JET524447 JOP524295:JOP524447 JYL524295:JYL524447 KIH524295:KIH524447 KSD524295:KSD524447 LBZ524295:LBZ524447 LLV524295:LLV524447 LVR524295:LVR524447 MFN524295:MFN524447 MPJ524295:MPJ524447 MZF524295:MZF524447 NJB524295:NJB524447 NSX524295:NSX524447 OCT524295:OCT524447 OMP524295:OMP524447 OWL524295:OWL524447 PGH524295:PGH524447 PQD524295:PQD524447 PZZ524295:PZZ524447 QJV524295:QJV524447 QTR524295:QTR524447 RDN524295:RDN524447 RNJ524295:RNJ524447 RXF524295:RXF524447 SHB524295:SHB524447 SQX524295:SQX524447 TAT524295:TAT524447 TKP524295:TKP524447 TUL524295:TUL524447 UEH524295:UEH524447 UOD524295:UOD524447 UXZ524295:UXZ524447 VHV524295:VHV524447 VRR524295:VRR524447 WBN524295:WBN524447 WLJ524295:WLJ524447 WVF524295:WVF524447 G589831:G589983 IT589831:IT589983 SP589831:SP589983 ACL589831:ACL589983 AMH589831:AMH589983 AWD589831:AWD589983 BFZ589831:BFZ589983 BPV589831:BPV589983 BZR589831:BZR589983 CJN589831:CJN589983 CTJ589831:CTJ589983 DDF589831:DDF589983 DNB589831:DNB589983 DWX589831:DWX589983 EGT589831:EGT589983 EQP589831:EQP589983 FAL589831:FAL589983 FKH589831:FKH589983 FUD589831:FUD589983 GDZ589831:GDZ589983 GNV589831:GNV589983 GXR589831:GXR589983 HHN589831:HHN589983 HRJ589831:HRJ589983 IBF589831:IBF589983 ILB589831:ILB589983 IUX589831:IUX589983 JET589831:JET589983 JOP589831:JOP589983 JYL589831:JYL589983 KIH589831:KIH589983 KSD589831:KSD589983 LBZ589831:LBZ589983 LLV589831:LLV589983 LVR589831:LVR589983 MFN589831:MFN589983 MPJ589831:MPJ589983 MZF589831:MZF589983 NJB589831:NJB589983 NSX589831:NSX589983 OCT589831:OCT589983 OMP589831:OMP589983 OWL589831:OWL589983 PGH589831:PGH589983 PQD589831:PQD589983 PZZ589831:PZZ589983 QJV589831:QJV589983 QTR589831:QTR589983 RDN589831:RDN589983 RNJ589831:RNJ589983 RXF589831:RXF589983 SHB589831:SHB589983 SQX589831:SQX589983 TAT589831:TAT589983 TKP589831:TKP589983 TUL589831:TUL589983 UEH589831:UEH589983 UOD589831:UOD589983 UXZ589831:UXZ589983 VHV589831:VHV589983 VRR589831:VRR589983 WBN589831:WBN589983 WLJ589831:WLJ589983 WVF589831:WVF589983 G655367:G655519 IT655367:IT655519 SP655367:SP655519 ACL655367:ACL655519 AMH655367:AMH655519 AWD655367:AWD655519 BFZ655367:BFZ655519 BPV655367:BPV655519 BZR655367:BZR655519 CJN655367:CJN655519 CTJ655367:CTJ655519 DDF655367:DDF655519 DNB655367:DNB655519 DWX655367:DWX655519 EGT655367:EGT655519 EQP655367:EQP655519 FAL655367:FAL655519 FKH655367:FKH655519 FUD655367:FUD655519 GDZ655367:GDZ655519 GNV655367:GNV655519 GXR655367:GXR655519 HHN655367:HHN655519 HRJ655367:HRJ655519 IBF655367:IBF655519 ILB655367:ILB655519 IUX655367:IUX655519 JET655367:JET655519 JOP655367:JOP655519 JYL655367:JYL655519 KIH655367:KIH655519 KSD655367:KSD655519 LBZ655367:LBZ655519 LLV655367:LLV655519 LVR655367:LVR655519 MFN655367:MFN655519 MPJ655367:MPJ655519 MZF655367:MZF655519 NJB655367:NJB655519 NSX655367:NSX655519 OCT655367:OCT655519 OMP655367:OMP655519 OWL655367:OWL655519 PGH655367:PGH655519 PQD655367:PQD655519 PZZ655367:PZZ655519 QJV655367:QJV655519 QTR655367:QTR655519 RDN655367:RDN655519 RNJ655367:RNJ655519 RXF655367:RXF655519 SHB655367:SHB655519 SQX655367:SQX655519 TAT655367:TAT655519 TKP655367:TKP655519 TUL655367:TUL655519 UEH655367:UEH655519 UOD655367:UOD655519 UXZ655367:UXZ655519 VHV655367:VHV655519 VRR655367:VRR655519 WBN655367:WBN655519 WLJ655367:WLJ655519 WVF655367:WVF655519 G720903:G721055 IT720903:IT721055 SP720903:SP721055 ACL720903:ACL721055 AMH720903:AMH721055 AWD720903:AWD721055 BFZ720903:BFZ721055 BPV720903:BPV721055 BZR720903:BZR721055 CJN720903:CJN721055 CTJ720903:CTJ721055 DDF720903:DDF721055 DNB720903:DNB721055 DWX720903:DWX721055 EGT720903:EGT721055 EQP720903:EQP721055 FAL720903:FAL721055 FKH720903:FKH721055 FUD720903:FUD721055 GDZ720903:GDZ721055 GNV720903:GNV721055 GXR720903:GXR721055 HHN720903:HHN721055 HRJ720903:HRJ721055 IBF720903:IBF721055 ILB720903:ILB721055 IUX720903:IUX721055 JET720903:JET721055 JOP720903:JOP721055 JYL720903:JYL721055 KIH720903:KIH721055 KSD720903:KSD721055 LBZ720903:LBZ721055 LLV720903:LLV721055 LVR720903:LVR721055 MFN720903:MFN721055 MPJ720903:MPJ721055 MZF720903:MZF721055 NJB720903:NJB721055 NSX720903:NSX721055 OCT720903:OCT721055 OMP720903:OMP721055 OWL720903:OWL721055 PGH720903:PGH721055 PQD720903:PQD721055 PZZ720903:PZZ721055 QJV720903:QJV721055 QTR720903:QTR721055 RDN720903:RDN721055 RNJ720903:RNJ721055 RXF720903:RXF721055 SHB720903:SHB721055 SQX720903:SQX721055 TAT720903:TAT721055 TKP720903:TKP721055 TUL720903:TUL721055 UEH720903:UEH721055 UOD720903:UOD721055 UXZ720903:UXZ721055 VHV720903:VHV721055 VRR720903:VRR721055 WBN720903:WBN721055 WLJ720903:WLJ721055 WVF720903:WVF721055 G786439:G786591 IT786439:IT786591 SP786439:SP786591 ACL786439:ACL786591 AMH786439:AMH786591 AWD786439:AWD786591 BFZ786439:BFZ786591 BPV786439:BPV786591 BZR786439:BZR786591 CJN786439:CJN786591 CTJ786439:CTJ786591 DDF786439:DDF786591 DNB786439:DNB786591 DWX786439:DWX786591 EGT786439:EGT786591 EQP786439:EQP786591 FAL786439:FAL786591 FKH786439:FKH786591 FUD786439:FUD786591 GDZ786439:GDZ786591 GNV786439:GNV786591 GXR786439:GXR786591 HHN786439:HHN786591 HRJ786439:HRJ786591 IBF786439:IBF786591 ILB786439:ILB786591 IUX786439:IUX786591 JET786439:JET786591 JOP786439:JOP786591 JYL786439:JYL786591 KIH786439:KIH786591 KSD786439:KSD786591 LBZ786439:LBZ786591 LLV786439:LLV786591 LVR786439:LVR786591 MFN786439:MFN786591 MPJ786439:MPJ786591 MZF786439:MZF786591 NJB786439:NJB786591 NSX786439:NSX786591 OCT786439:OCT786591 OMP786439:OMP786591 OWL786439:OWL786591 PGH786439:PGH786591 PQD786439:PQD786591 PZZ786439:PZZ786591 QJV786439:QJV786591 QTR786439:QTR786591 RDN786439:RDN786591 RNJ786439:RNJ786591 RXF786439:RXF786591 SHB786439:SHB786591 SQX786439:SQX786591 TAT786439:TAT786591 TKP786439:TKP786591 TUL786439:TUL786591 UEH786439:UEH786591 UOD786439:UOD786591 UXZ786439:UXZ786591 VHV786439:VHV786591 VRR786439:VRR786591 WBN786439:WBN786591 WLJ786439:WLJ786591 WVF786439:WVF786591 G851975:G852127 IT851975:IT852127 SP851975:SP852127 ACL851975:ACL852127 AMH851975:AMH852127 AWD851975:AWD852127 BFZ851975:BFZ852127 BPV851975:BPV852127 BZR851975:BZR852127 CJN851975:CJN852127 CTJ851975:CTJ852127 DDF851975:DDF852127 DNB851975:DNB852127 DWX851975:DWX852127 EGT851975:EGT852127 EQP851975:EQP852127 FAL851975:FAL852127 FKH851975:FKH852127 FUD851975:FUD852127 GDZ851975:GDZ852127 GNV851975:GNV852127 GXR851975:GXR852127 HHN851975:HHN852127 HRJ851975:HRJ852127 IBF851975:IBF852127 ILB851975:ILB852127 IUX851975:IUX852127 JET851975:JET852127 JOP851975:JOP852127 JYL851975:JYL852127 KIH851975:KIH852127 KSD851975:KSD852127 LBZ851975:LBZ852127 LLV851975:LLV852127 LVR851975:LVR852127 MFN851975:MFN852127 MPJ851975:MPJ852127 MZF851975:MZF852127 NJB851975:NJB852127 NSX851975:NSX852127 OCT851975:OCT852127 OMP851975:OMP852127 OWL851975:OWL852127 PGH851975:PGH852127 PQD851975:PQD852127 PZZ851975:PZZ852127 QJV851975:QJV852127 QTR851975:QTR852127 RDN851975:RDN852127 RNJ851975:RNJ852127 RXF851975:RXF852127 SHB851975:SHB852127 SQX851975:SQX852127 TAT851975:TAT852127 TKP851975:TKP852127 TUL851975:TUL852127 UEH851975:UEH852127 UOD851975:UOD852127 UXZ851975:UXZ852127 VHV851975:VHV852127 VRR851975:VRR852127 WBN851975:WBN852127 WLJ851975:WLJ852127 WVF851975:WVF852127 G917511:G917663 IT917511:IT917663 SP917511:SP917663 ACL917511:ACL917663 AMH917511:AMH917663 AWD917511:AWD917663 BFZ917511:BFZ917663 BPV917511:BPV917663 BZR917511:BZR917663 CJN917511:CJN917663 CTJ917511:CTJ917663 DDF917511:DDF917663 DNB917511:DNB917663 DWX917511:DWX917663 EGT917511:EGT917663 EQP917511:EQP917663 FAL917511:FAL917663 FKH917511:FKH917663 FUD917511:FUD917663 GDZ917511:GDZ917663 GNV917511:GNV917663 GXR917511:GXR917663 HHN917511:HHN917663 HRJ917511:HRJ917663 IBF917511:IBF917663 ILB917511:ILB917663 IUX917511:IUX917663 JET917511:JET917663 JOP917511:JOP917663 JYL917511:JYL917663 KIH917511:KIH917663 KSD917511:KSD917663 LBZ917511:LBZ917663 LLV917511:LLV917663 LVR917511:LVR917663 MFN917511:MFN917663 MPJ917511:MPJ917663 MZF917511:MZF917663 NJB917511:NJB917663 NSX917511:NSX917663 OCT917511:OCT917663 OMP917511:OMP917663 OWL917511:OWL917663 PGH917511:PGH917663 PQD917511:PQD917663 PZZ917511:PZZ917663 QJV917511:QJV917663 QTR917511:QTR917663 RDN917511:RDN917663 RNJ917511:RNJ917663 RXF917511:RXF917663 SHB917511:SHB917663 SQX917511:SQX917663 TAT917511:TAT917663 TKP917511:TKP917663 TUL917511:TUL917663 UEH917511:UEH917663 UOD917511:UOD917663 UXZ917511:UXZ917663 VHV917511:VHV917663 VRR917511:VRR917663 WBN917511:WBN917663 WLJ917511:WLJ917663 WVF917511:WVF917663 G983047:G983199 IT983047:IT983199 SP983047:SP983199 ACL983047:ACL983199 AMH983047:AMH983199 AWD983047:AWD983199 BFZ983047:BFZ983199 BPV983047:BPV983199 BZR983047:BZR983199 CJN983047:CJN983199 CTJ983047:CTJ983199 DDF983047:DDF983199 DNB983047:DNB983199 DWX983047:DWX983199 EGT983047:EGT983199 EQP983047:EQP983199 FAL983047:FAL983199 FKH983047:FKH983199 FUD983047:FUD983199 GDZ983047:GDZ983199 GNV983047:GNV983199 GXR983047:GXR983199 HHN983047:HHN983199 HRJ983047:HRJ983199 IBF983047:IBF983199 ILB983047:ILB983199 IUX983047:IUX983199 JET983047:JET983199 JOP983047:JOP983199 JYL983047:JYL983199 KIH983047:KIH983199 KSD983047:KSD983199 LBZ983047:LBZ983199 LLV983047:LLV983199 LVR983047:LVR983199 MFN983047:MFN983199 MPJ983047:MPJ983199 MZF983047:MZF983199 NJB983047:NJB983199 NSX983047:NSX983199 OCT983047:OCT983199 OMP983047:OMP983199 OWL983047:OWL983199 PGH983047:PGH983199 PQD983047:PQD983199 PZZ983047:PZZ983199 QJV983047:QJV983199 QTR983047:QTR983199 RDN983047:RDN983199 RNJ983047:RNJ983199 RXF983047:RXF983199 SHB983047:SHB983199 SQX983047:SQX983199 TAT983047:TAT983199 TKP983047:TKP983199 TUL983047:TUL983199 UEH983047:UEH983199 UOD983047:UOD983199 UXZ983047:UXZ983199 VHV983047:VHV983199 VRR983047:VRR983199 WBN983047:WBN983199 WLJ983047:WLJ983199 G7:G159" xr:uid="{EDC6663F-7307-453A-88F3-A3C62A439D69}">
@@ -20714,16 +20953,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IU7:IU159 WVG983047:WVG983199 SQ7:SQ159 ACM7:ACM159 AMI7:AMI159 AWE7:AWE159 BGA7:BGA159 BPW7:BPW159 BZS7:BZS159 CJO7:CJO159 CTK7:CTK159 DDG7:DDG159 DNC7:DNC159 DWY7:DWY159 EGU7:EGU159 EQQ7:EQQ159 FAM7:FAM159 FKI7:FKI159 FUE7:FUE159 GEA7:GEA159 GNW7:GNW159 GXS7:GXS159 HHO7:HHO159 HRK7:HRK159 IBG7:IBG159 ILC7:ILC159 IUY7:IUY159 JEU7:JEU159 JOQ7:JOQ159 JYM7:JYM159 KII7:KII159 KSE7:KSE159 LCA7:LCA159 LLW7:LLW159 LVS7:LVS159 MFO7:MFO159 MPK7:MPK159 MZG7:MZG159 NJC7:NJC159 NSY7:NSY159 OCU7:OCU159 OMQ7:OMQ159 OWM7:OWM159 PGI7:PGI159 PQE7:PQE159 QAA7:QAA159 QJW7:QJW159 QTS7:QTS159 RDO7:RDO159 RNK7:RNK159 RXG7:RXG159 SHC7:SHC159 SQY7:SQY159 TAU7:TAU159 TKQ7:TKQ159 TUM7:TUM159 UEI7:UEI159 UOE7:UOE159 UYA7:UYA159 VHW7:VHW159 VRS7:VRS159 WBO7:WBO159 WLK7:WLK159 WVG7:WVG159 H65543:H65695 IU65543:IU65695 SQ65543:SQ65695 ACM65543:ACM65695 AMI65543:AMI65695 AWE65543:AWE65695 BGA65543:BGA65695 BPW65543:BPW65695 BZS65543:BZS65695 CJO65543:CJO65695 CTK65543:CTK65695 DDG65543:DDG65695 DNC65543:DNC65695 DWY65543:DWY65695 EGU65543:EGU65695 EQQ65543:EQQ65695 FAM65543:FAM65695 FKI65543:FKI65695 FUE65543:FUE65695 GEA65543:GEA65695 GNW65543:GNW65695 GXS65543:GXS65695 HHO65543:HHO65695 HRK65543:HRK65695 IBG65543:IBG65695 ILC65543:ILC65695 IUY65543:IUY65695 JEU65543:JEU65695 JOQ65543:JOQ65695 JYM65543:JYM65695 KII65543:KII65695 KSE65543:KSE65695 LCA65543:LCA65695 LLW65543:LLW65695 LVS65543:LVS65695 MFO65543:MFO65695 MPK65543:MPK65695 MZG65543:MZG65695 NJC65543:NJC65695 NSY65543:NSY65695 OCU65543:OCU65695 OMQ65543:OMQ65695 OWM65543:OWM65695 PGI65543:PGI65695 PQE65543:PQE65695 QAA65543:QAA65695 QJW65543:QJW65695 QTS65543:QTS65695 RDO65543:RDO65695 RNK65543:RNK65695 RXG65543:RXG65695 SHC65543:SHC65695 SQY65543:SQY65695 TAU65543:TAU65695 TKQ65543:TKQ65695 TUM65543:TUM65695 UEI65543:UEI65695 UOE65543:UOE65695 UYA65543:UYA65695 VHW65543:VHW65695 VRS65543:VRS65695 WBO65543:WBO65695 WLK65543:WLK65695 WVG65543:WVG65695 H131079:H131231 IU131079:IU131231 SQ131079:SQ131231 ACM131079:ACM131231 AMI131079:AMI131231 AWE131079:AWE131231 BGA131079:BGA131231 BPW131079:BPW131231 BZS131079:BZS131231 CJO131079:CJO131231 CTK131079:CTK131231 DDG131079:DDG131231 DNC131079:DNC131231 DWY131079:DWY131231 EGU131079:EGU131231 EQQ131079:EQQ131231 FAM131079:FAM131231 FKI131079:FKI131231 FUE131079:FUE131231 GEA131079:GEA131231 GNW131079:GNW131231 GXS131079:GXS131231 HHO131079:HHO131231 HRK131079:HRK131231 IBG131079:IBG131231 ILC131079:ILC131231 IUY131079:IUY131231 JEU131079:JEU131231 JOQ131079:JOQ131231 JYM131079:JYM131231 KII131079:KII131231 KSE131079:KSE131231 LCA131079:LCA131231 LLW131079:LLW131231 LVS131079:LVS131231 MFO131079:MFO131231 MPK131079:MPK131231 MZG131079:MZG131231 NJC131079:NJC131231 NSY131079:NSY131231 OCU131079:OCU131231 OMQ131079:OMQ131231 OWM131079:OWM131231 PGI131079:PGI131231 PQE131079:PQE131231 QAA131079:QAA131231 QJW131079:QJW131231 QTS131079:QTS131231 RDO131079:RDO131231 RNK131079:RNK131231 RXG131079:RXG131231 SHC131079:SHC131231 SQY131079:SQY131231 TAU131079:TAU131231 TKQ131079:TKQ131231 TUM131079:TUM131231 UEI131079:UEI131231 UOE131079:UOE131231 UYA131079:UYA131231 VHW131079:VHW131231 VRS131079:VRS131231 WBO131079:WBO131231 WLK131079:WLK131231 WVG131079:WVG131231 H196615:H196767 IU196615:IU196767 SQ196615:SQ196767 ACM196615:ACM196767 AMI196615:AMI196767 AWE196615:AWE196767 BGA196615:BGA196767 BPW196615:BPW196767 BZS196615:BZS196767 CJO196615:CJO196767 CTK196615:CTK196767 DDG196615:DDG196767 DNC196615:DNC196767 DWY196615:DWY196767 EGU196615:EGU196767 EQQ196615:EQQ196767 FAM196615:FAM196767 FKI196615:FKI196767 FUE196615:FUE196767 GEA196615:GEA196767 GNW196615:GNW196767 GXS196615:GXS196767 HHO196615:HHO196767 HRK196615:HRK196767 IBG196615:IBG196767 ILC196615:ILC196767 IUY196615:IUY196767 JEU196615:JEU196767 JOQ196615:JOQ196767 JYM196615:JYM196767 KII196615:KII196767 KSE196615:KSE196767 LCA196615:LCA196767 LLW196615:LLW196767 LVS196615:LVS196767 MFO196615:MFO196767 MPK196615:MPK196767 MZG196615:MZG196767 NJC196615:NJC196767 NSY196615:NSY196767 OCU196615:OCU196767 OMQ196615:OMQ196767 OWM196615:OWM196767 PGI196615:PGI196767 PQE196615:PQE196767 QAA196615:QAA196767 QJW196615:QJW196767 QTS196615:QTS196767 RDO196615:RDO196767 RNK196615:RNK196767 RXG196615:RXG196767 SHC196615:SHC196767 SQY196615:SQY196767 TAU196615:TAU196767 TKQ196615:TKQ196767 TUM196615:TUM196767 UEI196615:UEI196767 UOE196615:UOE196767 UYA196615:UYA196767 VHW196615:VHW196767 VRS196615:VRS196767 WBO196615:WBO196767 WLK196615:WLK196767 WVG196615:WVG196767 H262151:H262303 IU262151:IU262303 SQ262151:SQ262303 ACM262151:ACM262303 AMI262151:AMI262303 AWE262151:AWE262303 BGA262151:BGA262303 BPW262151:BPW262303 BZS262151:BZS262303 CJO262151:CJO262303 CTK262151:CTK262303 DDG262151:DDG262303 DNC262151:DNC262303 DWY262151:DWY262303 EGU262151:EGU262303 EQQ262151:EQQ262303 FAM262151:FAM262303 FKI262151:FKI262303 FUE262151:FUE262303 GEA262151:GEA262303 GNW262151:GNW262303 GXS262151:GXS262303 HHO262151:HHO262303 HRK262151:HRK262303 IBG262151:IBG262303 ILC262151:ILC262303 IUY262151:IUY262303 JEU262151:JEU262303 JOQ262151:JOQ262303 JYM262151:JYM262303 KII262151:KII262303 KSE262151:KSE262303 LCA262151:LCA262303 LLW262151:LLW262303 LVS262151:LVS262303 MFO262151:MFO262303 MPK262151:MPK262303 MZG262151:MZG262303 NJC262151:NJC262303 NSY262151:NSY262303 OCU262151:OCU262303 OMQ262151:OMQ262303 OWM262151:OWM262303 PGI262151:PGI262303 PQE262151:PQE262303 QAA262151:QAA262303 QJW262151:QJW262303 QTS262151:QTS262303 RDO262151:RDO262303 RNK262151:RNK262303 RXG262151:RXG262303 SHC262151:SHC262303 SQY262151:SQY262303 TAU262151:TAU262303 TKQ262151:TKQ262303 TUM262151:TUM262303 UEI262151:UEI262303 UOE262151:UOE262303 UYA262151:UYA262303 VHW262151:VHW262303 VRS262151:VRS262303 WBO262151:WBO262303 WLK262151:WLK262303 WVG262151:WVG262303 H327687:H327839 IU327687:IU327839 SQ327687:SQ327839 ACM327687:ACM327839 AMI327687:AMI327839 AWE327687:AWE327839 BGA327687:BGA327839 BPW327687:BPW327839 BZS327687:BZS327839 CJO327687:CJO327839 CTK327687:CTK327839 DDG327687:DDG327839 DNC327687:DNC327839 DWY327687:DWY327839 EGU327687:EGU327839 EQQ327687:EQQ327839 FAM327687:FAM327839 FKI327687:FKI327839 FUE327687:FUE327839 GEA327687:GEA327839 GNW327687:GNW327839 GXS327687:GXS327839 HHO327687:HHO327839 HRK327687:HRK327839 IBG327687:IBG327839 ILC327687:ILC327839 IUY327687:IUY327839 JEU327687:JEU327839 JOQ327687:JOQ327839 JYM327687:JYM327839 KII327687:KII327839 KSE327687:KSE327839 LCA327687:LCA327839 LLW327687:LLW327839 LVS327687:LVS327839 MFO327687:MFO327839 MPK327687:MPK327839 MZG327687:MZG327839 NJC327687:NJC327839 NSY327687:NSY327839 OCU327687:OCU327839 OMQ327687:OMQ327839 OWM327687:OWM327839 PGI327687:PGI327839 PQE327687:PQE327839 QAA327687:QAA327839 QJW327687:QJW327839 QTS327687:QTS327839 RDO327687:RDO327839 RNK327687:RNK327839 RXG327687:RXG327839 SHC327687:SHC327839 SQY327687:SQY327839 TAU327687:TAU327839 TKQ327687:TKQ327839 TUM327687:TUM327839 UEI327687:UEI327839 UOE327687:UOE327839 UYA327687:UYA327839 VHW327687:VHW327839 VRS327687:VRS327839 WBO327687:WBO327839 WLK327687:WLK327839 WVG327687:WVG327839 H393223:H393375 IU393223:IU393375 SQ393223:SQ393375 ACM393223:ACM393375 AMI393223:AMI393375 AWE393223:AWE393375 BGA393223:BGA393375 BPW393223:BPW393375 BZS393223:BZS393375 CJO393223:CJO393375 CTK393223:CTK393375 DDG393223:DDG393375 DNC393223:DNC393375 DWY393223:DWY393375 EGU393223:EGU393375 EQQ393223:EQQ393375 FAM393223:FAM393375 FKI393223:FKI393375 FUE393223:FUE393375 GEA393223:GEA393375 GNW393223:GNW393375 GXS393223:GXS393375 HHO393223:HHO393375 HRK393223:HRK393375 IBG393223:IBG393375 ILC393223:ILC393375 IUY393223:IUY393375 JEU393223:JEU393375 JOQ393223:JOQ393375 JYM393223:JYM393375 KII393223:KII393375 KSE393223:KSE393375 LCA393223:LCA393375 LLW393223:LLW393375 LVS393223:LVS393375 MFO393223:MFO393375 MPK393223:MPK393375 MZG393223:MZG393375 NJC393223:NJC393375 NSY393223:NSY393375 OCU393223:OCU393375 OMQ393223:OMQ393375 OWM393223:OWM393375 PGI393223:PGI393375 PQE393223:PQE393375 QAA393223:QAA393375 QJW393223:QJW393375 QTS393223:QTS393375 RDO393223:RDO393375 RNK393223:RNK393375 RXG393223:RXG393375 SHC393223:SHC393375 SQY393223:SQY393375 TAU393223:TAU393375 TKQ393223:TKQ393375 TUM393223:TUM393375 UEI393223:UEI393375 UOE393223:UOE393375 UYA393223:UYA393375 VHW393223:VHW393375 VRS393223:VRS393375 WBO393223:WBO393375 WLK393223:WLK393375 WVG393223:WVG393375 H458759:H458911 IU458759:IU458911 SQ458759:SQ458911 ACM458759:ACM458911 AMI458759:AMI458911 AWE458759:AWE458911 BGA458759:BGA458911 BPW458759:BPW458911 BZS458759:BZS458911 CJO458759:CJO458911 CTK458759:CTK458911 DDG458759:DDG458911 DNC458759:DNC458911 DWY458759:DWY458911 EGU458759:EGU458911 EQQ458759:EQQ458911 FAM458759:FAM458911 FKI458759:FKI458911 FUE458759:FUE458911 GEA458759:GEA458911 GNW458759:GNW458911 GXS458759:GXS458911 HHO458759:HHO458911 HRK458759:HRK458911 IBG458759:IBG458911 ILC458759:ILC458911 IUY458759:IUY458911 JEU458759:JEU458911 JOQ458759:JOQ458911 JYM458759:JYM458911 KII458759:KII458911 KSE458759:KSE458911 LCA458759:LCA458911 LLW458759:LLW458911 LVS458759:LVS458911 MFO458759:MFO458911 MPK458759:MPK458911 MZG458759:MZG458911 NJC458759:NJC458911 NSY458759:NSY458911 OCU458759:OCU458911 OMQ458759:OMQ458911 OWM458759:OWM458911 PGI458759:PGI458911 PQE458759:PQE458911 QAA458759:QAA458911 QJW458759:QJW458911 QTS458759:QTS458911 RDO458759:RDO458911 RNK458759:RNK458911 RXG458759:RXG458911 SHC458759:SHC458911 SQY458759:SQY458911 TAU458759:TAU458911 TKQ458759:TKQ458911 TUM458759:TUM458911 UEI458759:UEI458911 UOE458759:UOE458911 UYA458759:UYA458911 VHW458759:VHW458911 VRS458759:VRS458911 WBO458759:WBO458911 WLK458759:WLK458911 WVG458759:WVG458911 H524295:H524447 IU524295:IU524447 SQ524295:SQ524447 ACM524295:ACM524447 AMI524295:AMI524447 AWE524295:AWE524447 BGA524295:BGA524447 BPW524295:BPW524447 BZS524295:BZS524447 CJO524295:CJO524447 CTK524295:CTK524447 DDG524295:DDG524447 DNC524295:DNC524447 DWY524295:DWY524447 EGU524295:EGU524447 EQQ524295:EQQ524447 FAM524295:FAM524447 FKI524295:FKI524447 FUE524295:FUE524447 GEA524295:GEA524447 GNW524295:GNW524447 GXS524295:GXS524447 HHO524295:HHO524447 HRK524295:HRK524447 IBG524295:IBG524447 ILC524295:ILC524447 IUY524295:IUY524447 JEU524295:JEU524447 JOQ524295:JOQ524447 JYM524295:JYM524447 KII524295:KII524447 KSE524295:KSE524447 LCA524295:LCA524447 LLW524295:LLW524447 LVS524295:LVS524447 MFO524295:MFO524447 MPK524295:MPK524447 MZG524295:MZG524447 NJC524295:NJC524447 NSY524295:NSY524447 OCU524295:OCU524447 OMQ524295:OMQ524447 OWM524295:OWM524447 PGI524295:PGI524447 PQE524295:PQE524447 QAA524295:QAA524447 QJW524295:QJW524447 QTS524295:QTS524447 RDO524295:RDO524447 RNK524295:RNK524447 RXG524295:RXG524447 SHC524295:SHC524447 SQY524295:SQY524447 TAU524295:TAU524447 TKQ524295:TKQ524447 TUM524295:TUM524447 UEI524295:UEI524447 UOE524295:UOE524447 UYA524295:UYA524447 VHW524295:VHW524447 VRS524295:VRS524447 WBO524295:WBO524447 WLK524295:WLK524447 WVG524295:WVG524447 H589831:H589983 IU589831:IU589983 SQ589831:SQ589983 ACM589831:ACM589983 AMI589831:AMI589983 AWE589831:AWE589983 BGA589831:BGA589983 BPW589831:BPW589983 BZS589831:BZS589983 CJO589831:CJO589983 CTK589831:CTK589983 DDG589831:DDG589983 DNC589831:DNC589983 DWY589831:DWY589983 EGU589831:EGU589983 EQQ589831:EQQ589983 FAM589831:FAM589983 FKI589831:FKI589983 FUE589831:FUE589983 GEA589831:GEA589983 GNW589831:GNW589983 GXS589831:GXS589983 HHO589831:HHO589983 HRK589831:HRK589983 IBG589831:IBG589983 ILC589831:ILC589983 IUY589831:IUY589983 JEU589831:JEU589983 JOQ589831:JOQ589983 JYM589831:JYM589983 KII589831:KII589983 KSE589831:KSE589983 LCA589831:LCA589983 LLW589831:LLW589983 LVS589831:LVS589983 MFO589831:MFO589983 MPK589831:MPK589983 MZG589831:MZG589983 NJC589831:NJC589983 NSY589831:NSY589983 OCU589831:OCU589983 OMQ589831:OMQ589983 OWM589831:OWM589983 PGI589831:PGI589983 PQE589831:PQE589983 QAA589831:QAA589983 QJW589831:QJW589983 QTS589831:QTS589983 RDO589831:RDO589983 RNK589831:RNK589983 RXG589831:RXG589983 SHC589831:SHC589983 SQY589831:SQY589983 TAU589831:TAU589983 TKQ589831:TKQ589983 TUM589831:TUM589983 UEI589831:UEI589983 UOE589831:UOE589983 UYA589831:UYA589983 VHW589831:VHW589983 VRS589831:VRS589983 WBO589831:WBO589983 WLK589831:WLK589983 WVG589831:WVG589983 H655367:H655519 IU655367:IU655519 SQ655367:SQ655519 ACM655367:ACM655519 AMI655367:AMI655519 AWE655367:AWE655519 BGA655367:BGA655519 BPW655367:BPW655519 BZS655367:BZS655519 CJO655367:CJO655519 CTK655367:CTK655519 DDG655367:DDG655519 DNC655367:DNC655519 DWY655367:DWY655519 EGU655367:EGU655519 EQQ655367:EQQ655519 FAM655367:FAM655519 FKI655367:FKI655519 FUE655367:FUE655519 GEA655367:GEA655519 GNW655367:GNW655519 GXS655367:GXS655519 HHO655367:HHO655519 HRK655367:HRK655519 IBG655367:IBG655519 ILC655367:ILC655519 IUY655367:IUY655519 JEU655367:JEU655519 JOQ655367:JOQ655519 JYM655367:JYM655519 KII655367:KII655519 KSE655367:KSE655519 LCA655367:LCA655519 LLW655367:LLW655519 LVS655367:LVS655519 MFO655367:MFO655519 MPK655367:MPK655519 MZG655367:MZG655519 NJC655367:NJC655519 NSY655367:NSY655519 OCU655367:OCU655519 OMQ655367:OMQ655519 OWM655367:OWM655519 PGI655367:PGI655519 PQE655367:PQE655519 QAA655367:QAA655519 QJW655367:QJW655519 QTS655367:QTS655519 RDO655367:RDO655519 RNK655367:RNK655519 RXG655367:RXG655519 SHC655367:SHC655519 SQY655367:SQY655519 TAU655367:TAU655519 TKQ655367:TKQ655519 TUM655367:TUM655519 UEI655367:UEI655519 UOE655367:UOE655519 UYA655367:UYA655519 VHW655367:VHW655519 VRS655367:VRS655519 WBO655367:WBO655519 WLK655367:WLK655519 WVG655367:WVG655519 H720903:H721055 IU720903:IU721055 SQ720903:SQ721055 ACM720903:ACM721055 AMI720903:AMI721055 AWE720903:AWE721055 BGA720903:BGA721055 BPW720903:BPW721055 BZS720903:BZS721055 CJO720903:CJO721055 CTK720903:CTK721055 DDG720903:DDG721055 DNC720903:DNC721055 DWY720903:DWY721055 EGU720903:EGU721055 EQQ720903:EQQ721055 FAM720903:FAM721055 FKI720903:FKI721055 FUE720903:FUE721055 GEA720903:GEA721055 GNW720903:GNW721055 GXS720903:GXS721055 HHO720903:HHO721055 HRK720903:HRK721055 IBG720903:IBG721055 ILC720903:ILC721055 IUY720903:IUY721055 JEU720903:JEU721055 JOQ720903:JOQ721055 JYM720903:JYM721055 KII720903:KII721055 KSE720903:KSE721055 LCA720903:LCA721055 LLW720903:LLW721055 LVS720903:LVS721055 MFO720903:MFO721055 MPK720903:MPK721055 MZG720903:MZG721055 NJC720903:NJC721055 NSY720903:NSY721055 OCU720903:OCU721055 OMQ720903:OMQ721055 OWM720903:OWM721055 PGI720903:PGI721055 PQE720903:PQE721055 QAA720903:QAA721055 QJW720903:QJW721055 QTS720903:QTS721055 RDO720903:RDO721055 RNK720903:RNK721055 RXG720903:RXG721055 SHC720903:SHC721055 SQY720903:SQY721055 TAU720903:TAU721055 TKQ720903:TKQ721055 TUM720903:TUM721055 UEI720903:UEI721055 UOE720903:UOE721055 UYA720903:UYA721055 VHW720903:VHW721055 VRS720903:VRS721055 WBO720903:WBO721055 WLK720903:WLK721055 WVG720903:WVG721055 H786439:H786591 IU786439:IU786591 SQ786439:SQ786591 ACM786439:ACM786591 AMI786439:AMI786591 AWE786439:AWE786591 BGA786439:BGA786591 BPW786439:BPW786591 BZS786439:BZS786591 CJO786439:CJO786591 CTK786439:CTK786591 DDG786439:DDG786591 DNC786439:DNC786591 DWY786439:DWY786591 EGU786439:EGU786591 EQQ786439:EQQ786591 FAM786439:FAM786591 FKI786439:FKI786591 FUE786439:FUE786591 GEA786439:GEA786591 GNW786439:GNW786591 GXS786439:GXS786591 HHO786439:HHO786591 HRK786439:HRK786591 IBG786439:IBG786591 ILC786439:ILC786591 IUY786439:IUY786591 JEU786439:JEU786591 JOQ786439:JOQ786591 JYM786439:JYM786591 KII786439:KII786591 KSE786439:KSE786591 LCA786439:LCA786591 LLW786439:LLW786591 LVS786439:LVS786591 MFO786439:MFO786591 MPK786439:MPK786591 MZG786439:MZG786591 NJC786439:NJC786591 NSY786439:NSY786591 OCU786439:OCU786591 OMQ786439:OMQ786591 OWM786439:OWM786591 PGI786439:PGI786591 PQE786439:PQE786591 QAA786439:QAA786591 QJW786439:QJW786591 QTS786439:QTS786591 RDO786439:RDO786591 RNK786439:RNK786591 RXG786439:RXG786591 SHC786439:SHC786591 SQY786439:SQY786591 TAU786439:TAU786591 TKQ786439:TKQ786591 TUM786439:TUM786591 UEI786439:UEI786591 UOE786439:UOE786591 UYA786439:UYA786591 VHW786439:VHW786591 VRS786439:VRS786591 WBO786439:WBO786591 WLK786439:WLK786591 WVG786439:WVG786591 H851975:H852127 IU851975:IU852127 SQ851975:SQ852127 ACM851975:ACM852127 AMI851975:AMI852127 AWE851975:AWE852127 BGA851975:BGA852127 BPW851975:BPW852127 BZS851975:BZS852127 CJO851975:CJO852127 CTK851975:CTK852127 DDG851975:DDG852127 DNC851975:DNC852127 DWY851975:DWY852127 EGU851975:EGU852127 EQQ851975:EQQ852127 FAM851975:FAM852127 FKI851975:FKI852127 FUE851975:FUE852127 GEA851975:GEA852127 GNW851975:GNW852127 GXS851975:GXS852127 HHO851975:HHO852127 HRK851975:HRK852127 IBG851975:IBG852127 ILC851975:ILC852127 IUY851975:IUY852127 JEU851975:JEU852127 JOQ851975:JOQ852127 JYM851975:JYM852127 KII851975:KII852127 KSE851975:KSE852127 LCA851975:LCA852127 LLW851975:LLW852127 LVS851975:LVS852127 MFO851975:MFO852127 MPK851975:MPK852127 MZG851975:MZG852127 NJC851975:NJC852127 NSY851975:NSY852127 OCU851975:OCU852127 OMQ851975:OMQ852127 OWM851975:OWM852127 PGI851975:PGI852127 PQE851975:PQE852127 QAA851975:QAA852127 QJW851975:QJW852127 QTS851975:QTS852127 RDO851975:RDO852127 RNK851975:RNK852127 RXG851975:RXG852127 SHC851975:SHC852127 SQY851975:SQY852127 TAU851975:TAU852127 TKQ851975:TKQ852127 TUM851975:TUM852127 UEI851975:UEI852127 UOE851975:UOE852127 UYA851975:UYA852127 VHW851975:VHW852127 VRS851975:VRS852127 WBO851975:WBO852127 WLK851975:WLK852127 WVG851975:WVG852127 H917511:H917663 IU917511:IU917663 SQ917511:SQ917663 ACM917511:ACM917663 AMI917511:AMI917663 AWE917511:AWE917663 BGA917511:BGA917663 BPW917511:BPW917663 BZS917511:BZS917663 CJO917511:CJO917663 CTK917511:CTK917663 DDG917511:DDG917663 DNC917511:DNC917663 DWY917511:DWY917663 EGU917511:EGU917663 EQQ917511:EQQ917663 FAM917511:FAM917663 FKI917511:FKI917663 FUE917511:FUE917663 GEA917511:GEA917663 GNW917511:GNW917663 GXS917511:GXS917663 HHO917511:HHO917663 HRK917511:HRK917663 IBG917511:IBG917663 ILC917511:ILC917663 IUY917511:IUY917663 JEU917511:JEU917663 JOQ917511:JOQ917663 JYM917511:JYM917663 KII917511:KII917663 KSE917511:KSE917663 LCA917511:LCA917663 LLW917511:LLW917663 LVS917511:LVS917663 MFO917511:MFO917663 MPK917511:MPK917663 MZG917511:MZG917663 NJC917511:NJC917663 NSY917511:NSY917663 OCU917511:OCU917663 OMQ917511:OMQ917663 OWM917511:OWM917663 PGI917511:PGI917663 PQE917511:PQE917663 QAA917511:QAA917663 QJW917511:QJW917663 QTS917511:QTS917663 RDO917511:RDO917663 RNK917511:RNK917663 RXG917511:RXG917663 SHC917511:SHC917663 SQY917511:SQY917663 TAU917511:TAU917663 TKQ917511:TKQ917663 TUM917511:TUM917663 UEI917511:UEI917663 UOE917511:UOE917663 UYA917511:UYA917663 VHW917511:VHW917663 VRS917511:VRS917663 WBO917511:WBO917663 WLK917511:WLK917663 WVG917511:WVG917663 H983047:H983199 IU983047:IU983199 SQ983047:SQ983199 ACM983047:ACM983199 AMI983047:AMI983199 AWE983047:AWE983199 BGA983047:BGA983199 BPW983047:BPW983199 BZS983047:BZS983199 CJO983047:CJO983199 CTK983047:CTK983199 DDG983047:DDG983199 DNC983047:DNC983199 DWY983047:DWY983199 EGU983047:EGU983199 EQQ983047:EQQ983199 FAM983047:FAM983199 FKI983047:FKI983199 FUE983047:FUE983199 GEA983047:GEA983199 GNW983047:GNW983199 GXS983047:GXS983199 HHO983047:HHO983199 HRK983047:HRK983199 IBG983047:IBG983199 ILC983047:ILC983199 IUY983047:IUY983199 JEU983047:JEU983199 JOQ983047:JOQ983199 JYM983047:JYM983199 KII983047:KII983199 KSE983047:KSE983199 LCA983047:LCA983199 LLW983047:LLW983199 LVS983047:LVS983199 MFO983047:MFO983199 MPK983047:MPK983199 MZG983047:MZG983199 NJC983047:NJC983199 NSY983047:NSY983199 OCU983047:OCU983199 OMQ983047:OMQ983199 OWM983047:OWM983199 PGI983047:PGI983199 PQE983047:PQE983199 QAA983047:QAA983199 QJW983047:QJW983199 QTS983047:QTS983199 RDO983047:RDO983199 RNK983047:RNK983199 RXG983047:RXG983199 SHC983047:SHC983199 SQY983047:SQY983199 TAU983047:TAU983199 TKQ983047:TKQ983199 TUM983047:TUM983199 UEI983047:UEI983199 UOE983047:UOE983199 UYA983047:UYA983199 VHW983047:VHW983199 VRS983047:VRS983199 WBO983047:WBO983199 WLK983047:WLK983199 H7:H159" xr:uid="{95EF879B-E274-4E02-9B97-55BA2F142327}">
       <formula1>$AH$30:$AH$33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IV7:IV159 I7:I159 SR7:SR159 ACN7:ACN159 AMJ7:AMJ159 AWF7:AWF159 BGB7:BGB159 BPX7:BPX159 BZT7:BZT159 CJP7:CJP159 CTL7:CTL159 DDH7:DDH159 DND7:DND159 DWZ7:DWZ159 EGV7:EGV159 EQR7:EQR159 FAN7:FAN159 FKJ7:FKJ159 FUF7:FUF159 GEB7:GEB159 GNX7:GNX159 GXT7:GXT159 HHP7:HHP159 HRL7:HRL159 IBH7:IBH159 ILD7:ILD159 IUZ7:IUZ159 JEV7:JEV159 JOR7:JOR159 JYN7:JYN159 KIJ7:KIJ159 KSF7:KSF159 LCB7:LCB159 LLX7:LLX159 LVT7:LVT159 MFP7:MFP159 MPL7:MPL159 MZH7:MZH159 NJD7:NJD159 NSZ7:NSZ159 OCV7:OCV159 OMR7:OMR159 OWN7:OWN159 PGJ7:PGJ159 PQF7:PQF159 QAB7:QAB159 QJX7:QJX159 QTT7:QTT159 RDP7:RDP159 RNL7:RNL159 RXH7:RXH159 SHD7:SHD159 SQZ7:SQZ159 TAV7:TAV159 TKR7:TKR159 TUN7:TUN159 UEJ7:UEJ159 UOF7:UOF159 UYB7:UYB159 VHX7:VHX159 VRT7:VRT159 WBP7:WBP159 WLL7:WLL159 WVH7:WVH159 I65543:I65695 IV65543:IV65695 SR65543:SR65695 ACN65543:ACN65695 AMJ65543:AMJ65695 AWF65543:AWF65695 BGB65543:BGB65695 BPX65543:BPX65695 BZT65543:BZT65695 CJP65543:CJP65695 CTL65543:CTL65695 DDH65543:DDH65695 DND65543:DND65695 DWZ65543:DWZ65695 EGV65543:EGV65695 EQR65543:EQR65695 FAN65543:FAN65695 FKJ65543:FKJ65695 FUF65543:FUF65695 GEB65543:GEB65695 GNX65543:GNX65695 GXT65543:GXT65695 HHP65543:HHP65695 HRL65543:HRL65695 IBH65543:IBH65695 ILD65543:ILD65695 IUZ65543:IUZ65695 JEV65543:JEV65695 JOR65543:JOR65695 JYN65543:JYN65695 KIJ65543:KIJ65695 KSF65543:KSF65695 LCB65543:LCB65695 LLX65543:LLX65695 LVT65543:LVT65695 MFP65543:MFP65695 MPL65543:MPL65695 MZH65543:MZH65695 NJD65543:NJD65695 NSZ65543:NSZ65695 OCV65543:OCV65695 OMR65543:OMR65695 OWN65543:OWN65695 PGJ65543:PGJ65695 PQF65543:PQF65695 QAB65543:QAB65695 QJX65543:QJX65695 QTT65543:QTT65695 RDP65543:RDP65695 RNL65543:RNL65695 RXH65543:RXH65695 SHD65543:SHD65695 SQZ65543:SQZ65695 TAV65543:TAV65695 TKR65543:TKR65695 TUN65543:TUN65695 UEJ65543:UEJ65695 UOF65543:UOF65695 UYB65543:UYB65695 VHX65543:VHX65695 VRT65543:VRT65695 WBP65543:WBP65695 WLL65543:WLL65695 WVH65543:WVH65695 I131079:I131231 IV131079:IV131231 SR131079:SR131231 ACN131079:ACN131231 AMJ131079:AMJ131231 AWF131079:AWF131231 BGB131079:BGB131231 BPX131079:BPX131231 BZT131079:BZT131231 CJP131079:CJP131231 CTL131079:CTL131231 DDH131079:DDH131231 DND131079:DND131231 DWZ131079:DWZ131231 EGV131079:EGV131231 EQR131079:EQR131231 FAN131079:FAN131231 FKJ131079:FKJ131231 FUF131079:FUF131231 GEB131079:GEB131231 GNX131079:GNX131231 GXT131079:GXT131231 HHP131079:HHP131231 HRL131079:HRL131231 IBH131079:IBH131231 ILD131079:ILD131231 IUZ131079:IUZ131231 JEV131079:JEV131231 JOR131079:JOR131231 JYN131079:JYN131231 KIJ131079:KIJ131231 KSF131079:KSF131231 LCB131079:LCB131231 LLX131079:LLX131231 LVT131079:LVT131231 MFP131079:MFP131231 MPL131079:MPL131231 MZH131079:MZH131231 NJD131079:NJD131231 NSZ131079:NSZ131231 OCV131079:OCV131231 OMR131079:OMR131231 OWN131079:OWN131231 PGJ131079:PGJ131231 PQF131079:PQF131231 QAB131079:QAB131231 QJX131079:QJX131231 QTT131079:QTT131231 RDP131079:RDP131231 RNL131079:RNL131231 RXH131079:RXH131231 SHD131079:SHD131231 SQZ131079:SQZ131231 TAV131079:TAV131231 TKR131079:TKR131231 TUN131079:TUN131231 UEJ131079:UEJ131231 UOF131079:UOF131231 UYB131079:UYB131231 VHX131079:VHX131231 VRT131079:VRT131231 WBP131079:WBP131231 WLL131079:WLL131231 WVH131079:WVH131231 I196615:I196767 IV196615:IV196767 SR196615:SR196767 ACN196615:ACN196767 AMJ196615:AMJ196767 AWF196615:AWF196767 BGB196615:BGB196767 BPX196615:BPX196767 BZT196615:BZT196767 CJP196615:CJP196767 CTL196615:CTL196767 DDH196615:DDH196767 DND196615:DND196767 DWZ196615:DWZ196767 EGV196615:EGV196767 EQR196615:EQR196767 FAN196615:FAN196767 FKJ196615:FKJ196767 FUF196615:FUF196767 GEB196615:GEB196767 GNX196615:GNX196767 GXT196615:GXT196767 HHP196615:HHP196767 HRL196615:HRL196767 IBH196615:IBH196767 ILD196615:ILD196767 IUZ196615:IUZ196767 JEV196615:JEV196767 JOR196615:JOR196767 JYN196615:JYN196767 KIJ196615:KIJ196767 KSF196615:KSF196767 LCB196615:LCB196767 LLX196615:LLX196767 LVT196615:LVT196767 MFP196615:MFP196767 MPL196615:MPL196767 MZH196615:MZH196767 NJD196615:NJD196767 NSZ196615:NSZ196767 OCV196615:OCV196767 OMR196615:OMR196767 OWN196615:OWN196767 PGJ196615:PGJ196767 PQF196615:PQF196767 QAB196615:QAB196767 QJX196615:QJX196767 QTT196615:QTT196767 RDP196615:RDP196767 RNL196615:RNL196767 RXH196615:RXH196767 SHD196615:SHD196767 SQZ196615:SQZ196767 TAV196615:TAV196767 TKR196615:TKR196767 TUN196615:TUN196767 UEJ196615:UEJ196767 UOF196615:UOF196767 UYB196615:UYB196767 VHX196615:VHX196767 VRT196615:VRT196767 WBP196615:WBP196767 WLL196615:WLL196767 WVH196615:WVH196767 I262151:I262303 IV262151:IV262303 SR262151:SR262303 ACN262151:ACN262303 AMJ262151:AMJ262303 AWF262151:AWF262303 BGB262151:BGB262303 BPX262151:BPX262303 BZT262151:BZT262303 CJP262151:CJP262303 CTL262151:CTL262303 DDH262151:DDH262303 DND262151:DND262303 DWZ262151:DWZ262303 EGV262151:EGV262303 EQR262151:EQR262303 FAN262151:FAN262303 FKJ262151:FKJ262303 FUF262151:FUF262303 GEB262151:GEB262303 GNX262151:GNX262303 GXT262151:GXT262303 HHP262151:HHP262303 HRL262151:HRL262303 IBH262151:IBH262303 ILD262151:ILD262303 IUZ262151:IUZ262303 JEV262151:JEV262303 JOR262151:JOR262303 JYN262151:JYN262303 KIJ262151:KIJ262303 KSF262151:KSF262303 LCB262151:LCB262303 LLX262151:LLX262303 LVT262151:LVT262303 MFP262151:MFP262303 MPL262151:MPL262303 MZH262151:MZH262303 NJD262151:NJD262303 NSZ262151:NSZ262303 OCV262151:OCV262303 OMR262151:OMR262303 OWN262151:OWN262303 PGJ262151:PGJ262303 PQF262151:PQF262303 QAB262151:QAB262303 QJX262151:QJX262303 QTT262151:QTT262303 RDP262151:RDP262303 RNL262151:RNL262303 RXH262151:RXH262303 SHD262151:SHD262303 SQZ262151:SQZ262303 TAV262151:TAV262303 TKR262151:TKR262303 TUN262151:TUN262303 UEJ262151:UEJ262303 UOF262151:UOF262303 UYB262151:UYB262303 VHX262151:VHX262303 VRT262151:VRT262303 WBP262151:WBP262303 WLL262151:WLL262303 WVH262151:WVH262303 I327687:I327839 IV327687:IV327839 SR327687:SR327839 ACN327687:ACN327839 AMJ327687:AMJ327839 AWF327687:AWF327839 BGB327687:BGB327839 BPX327687:BPX327839 BZT327687:BZT327839 CJP327687:CJP327839 CTL327687:CTL327839 DDH327687:DDH327839 DND327687:DND327839 DWZ327687:DWZ327839 EGV327687:EGV327839 EQR327687:EQR327839 FAN327687:FAN327839 FKJ327687:FKJ327839 FUF327687:FUF327839 GEB327687:GEB327839 GNX327687:GNX327839 GXT327687:GXT327839 HHP327687:HHP327839 HRL327687:HRL327839 IBH327687:IBH327839 ILD327687:ILD327839 IUZ327687:IUZ327839 JEV327687:JEV327839 JOR327687:JOR327839 JYN327687:JYN327839 KIJ327687:KIJ327839 KSF327687:KSF327839 LCB327687:LCB327839 LLX327687:LLX327839 LVT327687:LVT327839 MFP327687:MFP327839 MPL327687:MPL327839 MZH327687:MZH327839 NJD327687:NJD327839 NSZ327687:NSZ327839 OCV327687:OCV327839 OMR327687:OMR327839 OWN327687:OWN327839 PGJ327687:PGJ327839 PQF327687:PQF327839 QAB327687:QAB327839 QJX327687:QJX327839 QTT327687:QTT327839 RDP327687:RDP327839 RNL327687:RNL327839 RXH327687:RXH327839 SHD327687:SHD327839 SQZ327687:SQZ327839 TAV327687:TAV327839 TKR327687:TKR327839 TUN327687:TUN327839 UEJ327687:UEJ327839 UOF327687:UOF327839 UYB327687:UYB327839 VHX327687:VHX327839 VRT327687:VRT327839 WBP327687:WBP327839 WLL327687:WLL327839 WVH327687:WVH327839 I393223:I393375 IV393223:IV393375 SR393223:SR393375 ACN393223:ACN393375 AMJ393223:AMJ393375 AWF393223:AWF393375 BGB393223:BGB393375 BPX393223:BPX393375 BZT393223:BZT393375 CJP393223:CJP393375 CTL393223:CTL393375 DDH393223:DDH393375 DND393223:DND393375 DWZ393223:DWZ393375 EGV393223:EGV393375 EQR393223:EQR393375 FAN393223:FAN393375 FKJ393223:FKJ393375 FUF393223:FUF393375 GEB393223:GEB393375 GNX393223:GNX393375 GXT393223:GXT393375 HHP393223:HHP393375 HRL393223:HRL393375 IBH393223:IBH393375 ILD393223:ILD393375 IUZ393223:IUZ393375 JEV393223:JEV393375 JOR393223:JOR393375 JYN393223:JYN393375 KIJ393223:KIJ393375 KSF393223:KSF393375 LCB393223:LCB393375 LLX393223:LLX393375 LVT393223:LVT393375 MFP393223:MFP393375 MPL393223:MPL393375 MZH393223:MZH393375 NJD393223:NJD393375 NSZ393223:NSZ393375 OCV393223:OCV393375 OMR393223:OMR393375 OWN393223:OWN393375 PGJ393223:PGJ393375 PQF393223:PQF393375 QAB393223:QAB393375 QJX393223:QJX393375 QTT393223:QTT393375 RDP393223:RDP393375 RNL393223:RNL393375 RXH393223:RXH393375 SHD393223:SHD393375 SQZ393223:SQZ393375 TAV393223:TAV393375 TKR393223:TKR393375 TUN393223:TUN393375 UEJ393223:UEJ393375 UOF393223:UOF393375 UYB393223:UYB393375 VHX393223:VHX393375 VRT393223:VRT393375 WBP393223:WBP393375 WLL393223:WLL393375 WVH393223:WVH393375 I458759:I458911 IV458759:IV458911 SR458759:SR458911 ACN458759:ACN458911 AMJ458759:AMJ458911 AWF458759:AWF458911 BGB458759:BGB458911 BPX458759:BPX458911 BZT458759:BZT458911 CJP458759:CJP458911 CTL458759:CTL458911 DDH458759:DDH458911 DND458759:DND458911 DWZ458759:DWZ458911 EGV458759:EGV458911 EQR458759:EQR458911 FAN458759:FAN458911 FKJ458759:FKJ458911 FUF458759:FUF458911 GEB458759:GEB458911 GNX458759:GNX458911 GXT458759:GXT458911 HHP458759:HHP458911 HRL458759:HRL458911 IBH458759:IBH458911 ILD458759:ILD458911 IUZ458759:IUZ458911 JEV458759:JEV458911 JOR458759:JOR458911 JYN458759:JYN458911 KIJ458759:KIJ458911 KSF458759:KSF458911 LCB458759:LCB458911 LLX458759:LLX458911 LVT458759:LVT458911 MFP458759:MFP458911 MPL458759:MPL458911 MZH458759:MZH458911 NJD458759:NJD458911 NSZ458759:NSZ458911 OCV458759:OCV458911 OMR458759:OMR458911 OWN458759:OWN458911 PGJ458759:PGJ458911 PQF458759:PQF458911 QAB458759:QAB458911 QJX458759:QJX458911 QTT458759:QTT458911 RDP458759:RDP458911 RNL458759:RNL458911 RXH458759:RXH458911 SHD458759:SHD458911 SQZ458759:SQZ458911 TAV458759:TAV458911 TKR458759:TKR458911 TUN458759:TUN458911 UEJ458759:UEJ458911 UOF458759:UOF458911 UYB458759:UYB458911 VHX458759:VHX458911 VRT458759:VRT458911 WBP458759:WBP458911 WLL458759:WLL458911 WVH458759:WVH458911 I524295:I524447 IV524295:IV524447 SR524295:SR524447 ACN524295:ACN524447 AMJ524295:AMJ524447 AWF524295:AWF524447 BGB524295:BGB524447 BPX524295:BPX524447 BZT524295:BZT524447 CJP524295:CJP524447 CTL524295:CTL524447 DDH524295:DDH524447 DND524295:DND524447 DWZ524295:DWZ524447 EGV524295:EGV524447 EQR524295:EQR524447 FAN524295:FAN524447 FKJ524295:FKJ524447 FUF524295:FUF524447 GEB524295:GEB524447 GNX524295:GNX524447 GXT524295:GXT524447 HHP524295:HHP524447 HRL524295:HRL524447 IBH524295:IBH524447 ILD524295:ILD524447 IUZ524295:IUZ524447 JEV524295:JEV524447 JOR524295:JOR524447 JYN524295:JYN524447 KIJ524295:KIJ524447 KSF524295:KSF524447 LCB524295:LCB524447 LLX524295:LLX524447 LVT524295:LVT524447 MFP524295:MFP524447 MPL524295:MPL524447 MZH524295:MZH524447 NJD524295:NJD524447 NSZ524295:NSZ524447 OCV524295:OCV524447 OMR524295:OMR524447 OWN524295:OWN524447 PGJ524295:PGJ524447 PQF524295:PQF524447 QAB524295:QAB524447 QJX524295:QJX524447 QTT524295:QTT524447 RDP524295:RDP524447 RNL524295:RNL524447 RXH524295:RXH524447 SHD524295:SHD524447 SQZ524295:SQZ524447 TAV524295:TAV524447 TKR524295:TKR524447 TUN524295:TUN524447 UEJ524295:UEJ524447 UOF524295:UOF524447 UYB524295:UYB524447 VHX524295:VHX524447 VRT524295:VRT524447 WBP524295:WBP524447 WLL524295:WLL524447 WVH524295:WVH524447 I589831:I589983 IV589831:IV589983 SR589831:SR589983 ACN589831:ACN589983 AMJ589831:AMJ589983 AWF589831:AWF589983 BGB589831:BGB589983 BPX589831:BPX589983 BZT589831:BZT589983 CJP589831:CJP589983 CTL589831:CTL589983 DDH589831:DDH589983 DND589831:DND589983 DWZ589831:DWZ589983 EGV589831:EGV589983 EQR589831:EQR589983 FAN589831:FAN589983 FKJ589831:FKJ589983 FUF589831:FUF589983 GEB589831:GEB589983 GNX589831:GNX589983 GXT589831:GXT589983 HHP589831:HHP589983 HRL589831:HRL589983 IBH589831:IBH589983 ILD589831:ILD589983 IUZ589831:IUZ589983 JEV589831:JEV589983 JOR589831:JOR589983 JYN589831:JYN589983 KIJ589831:KIJ589983 KSF589831:KSF589983 LCB589831:LCB589983 LLX589831:LLX589983 LVT589831:LVT589983 MFP589831:MFP589983 MPL589831:MPL589983 MZH589831:MZH589983 NJD589831:NJD589983 NSZ589831:NSZ589983 OCV589831:OCV589983 OMR589831:OMR589983 OWN589831:OWN589983 PGJ589831:PGJ589983 PQF589831:PQF589983 QAB589831:QAB589983 QJX589831:QJX589983 QTT589831:QTT589983 RDP589831:RDP589983 RNL589831:RNL589983 RXH589831:RXH589983 SHD589831:SHD589983 SQZ589831:SQZ589983 TAV589831:TAV589983 TKR589831:TKR589983 TUN589831:TUN589983 UEJ589831:UEJ589983 UOF589831:UOF589983 UYB589831:UYB589983 VHX589831:VHX589983 VRT589831:VRT589983 WBP589831:WBP589983 WLL589831:WLL589983 WVH589831:WVH589983 I655367:I655519 IV655367:IV655519 SR655367:SR655519 ACN655367:ACN655519 AMJ655367:AMJ655519 AWF655367:AWF655519 BGB655367:BGB655519 BPX655367:BPX655519 BZT655367:BZT655519 CJP655367:CJP655519 CTL655367:CTL655519 DDH655367:DDH655519 DND655367:DND655519 DWZ655367:DWZ655519 EGV655367:EGV655519 EQR655367:EQR655519 FAN655367:FAN655519 FKJ655367:FKJ655519 FUF655367:FUF655519 GEB655367:GEB655519 GNX655367:GNX655519 GXT655367:GXT655519 HHP655367:HHP655519 HRL655367:HRL655519 IBH655367:IBH655519 ILD655367:ILD655519 IUZ655367:IUZ655519 JEV655367:JEV655519 JOR655367:JOR655519 JYN655367:JYN655519 KIJ655367:KIJ655519 KSF655367:KSF655519 LCB655367:LCB655519 LLX655367:LLX655519 LVT655367:LVT655519 MFP655367:MFP655519 MPL655367:MPL655519 MZH655367:MZH655519 NJD655367:NJD655519 NSZ655367:NSZ655519 OCV655367:OCV655519 OMR655367:OMR655519 OWN655367:OWN655519 PGJ655367:PGJ655519 PQF655367:PQF655519 QAB655367:QAB655519 QJX655367:QJX655519 QTT655367:QTT655519 RDP655367:RDP655519 RNL655367:RNL655519 RXH655367:RXH655519 SHD655367:SHD655519 SQZ655367:SQZ655519 TAV655367:TAV655519 TKR655367:TKR655519 TUN655367:TUN655519 UEJ655367:UEJ655519 UOF655367:UOF655519 UYB655367:UYB655519 VHX655367:VHX655519 VRT655367:VRT655519 WBP655367:WBP655519 WLL655367:WLL655519 WVH655367:WVH655519 I720903:I721055 IV720903:IV721055 SR720903:SR721055 ACN720903:ACN721055 AMJ720903:AMJ721055 AWF720903:AWF721055 BGB720903:BGB721055 BPX720903:BPX721055 BZT720903:BZT721055 CJP720903:CJP721055 CTL720903:CTL721055 DDH720903:DDH721055 DND720903:DND721055 DWZ720903:DWZ721055 EGV720903:EGV721055 EQR720903:EQR721055 FAN720903:FAN721055 FKJ720903:FKJ721055 FUF720903:FUF721055 GEB720903:GEB721055 GNX720903:GNX721055 GXT720903:GXT721055 HHP720903:HHP721055 HRL720903:HRL721055 IBH720903:IBH721055 ILD720903:ILD721055 IUZ720903:IUZ721055 JEV720903:JEV721055 JOR720903:JOR721055 JYN720903:JYN721055 KIJ720903:KIJ721055 KSF720903:KSF721055 LCB720903:LCB721055 LLX720903:LLX721055 LVT720903:LVT721055 MFP720903:MFP721055 MPL720903:MPL721055 MZH720903:MZH721055 NJD720903:NJD721055 NSZ720903:NSZ721055 OCV720903:OCV721055 OMR720903:OMR721055 OWN720903:OWN721055 PGJ720903:PGJ721055 PQF720903:PQF721055 QAB720903:QAB721055 QJX720903:QJX721055 QTT720903:QTT721055 RDP720903:RDP721055 RNL720903:RNL721055 RXH720903:RXH721055 SHD720903:SHD721055 SQZ720903:SQZ721055 TAV720903:TAV721055 TKR720903:TKR721055 TUN720903:TUN721055 UEJ720903:UEJ721055 UOF720903:UOF721055 UYB720903:UYB721055 VHX720903:VHX721055 VRT720903:VRT721055 WBP720903:WBP721055 WLL720903:WLL721055 WVH720903:WVH721055 I786439:I786591 IV786439:IV786591 SR786439:SR786591 ACN786439:ACN786591 AMJ786439:AMJ786591 AWF786439:AWF786591 BGB786439:BGB786591 BPX786439:BPX786591 BZT786439:BZT786591 CJP786439:CJP786591 CTL786439:CTL786591 DDH786439:DDH786591 DND786439:DND786591 DWZ786439:DWZ786591 EGV786439:EGV786591 EQR786439:EQR786591 FAN786439:FAN786591 FKJ786439:FKJ786591 FUF786439:FUF786591 GEB786439:GEB786591 GNX786439:GNX786591 GXT786439:GXT786591 HHP786439:HHP786591 HRL786439:HRL786591 IBH786439:IBH786591 ILD786439:ILD786591 IUZ786439:IUZ786591 JEV786439:JEV786591 JOR786439:JOR786591 JYN786439:JYN786591 KIJ786439:KIJ786591 KSF786439:KSF786591 LCB786439:LCB786591 LLX786439:LLX786591 LVT786439:LVT786591 MFP786439:MFP786591 MPL786439:MPL786591 MZH786439:MZH786591 NJD786439:NJD786591 NSZ786439:NSZ786591 OCV786439:OCV786591 OMR786439:OMR786591 OWN786439:OWN786591 PGJ786439:PGJ786591 PQF786439:PQF786591 QAB786439:QAB786591 QJX786439:QJX786591 QTT786439:QTT786591 RDP786439:RDP786591 RNL786439:RNL786591 RXH786439:RXH786591 SHD786439:SHD786591 SQZ786439:SQZ786591 TAV786439:TAV786591 TKR786439:TKR786591 TUN786439:TUN786591 UEJ786439:UEJ786591 UOF786439:UOF786591 UYB786439:UYB786591 VHX786439:VHX786591 VRT786439:VRT786591 WBP786439:WBP786591 WLL786439:WLL786591 WVH786439:WVH786591 I851975:I852127 IV851975:IV852127 SR851975:SR852127 ACN851975:ACN852127 AMJ851975:AMJ852127 AWF851975:AWF852127 BGB851975:BGB852127 BPX851975:BPX852127 BZT851975:BZT852127 CJP851975:CJP852127 CTL851975:CTL852127 DDH851975:DDH852127 DND851975:DND852127 DWZ851975:DWZ852127 EGV851975:EGV852127 EQR851975:EQR852127 FAN851975:FAN852127 FKJ851975:FKJ852127 FUF851975:FUF852127 GEB851975:GEB852127 GNX851975:GNX852127 GXT851975:GXT852127 HHP851975:HHP852127 HRL851975:HRL852127 IBH851975:IBH852127 ILD851975:ILD852127 IUZ851975:IUZ852127 JEV851975:JEV852127 JOR851975:JOR852127 JYN851975:JYN852127 KIJ851975:KIJ852127 KSF851975:KSF852127 LCB851975:LCB852127 LLX851975:LLX852127 LVT851975:LVT852127 MFP851975:MFP852127 MPL851975:MPL852127 MZH851975:MZH852127 NJD851975:NJD852127 NSZ851975:NSZ852127 OCV851975:OCV852127 OMR851975:OMR852127 OWN851975:OWN852127 PGJ851975:PGJ852127 PQF851975:PQF852127 QAB851975:QAB852127 QJX851975:QJX852127 QTT851975:QTT852127 RDP851975:RDP852127 RNL851975:RNL852127 RXH851975:RXH852127 SHD851975:SHD852127 SQZ851975:SQZ852127 TAV851975:TAV852127 TKR851975:TKR852127 TUN851975:TUN852127 UEJ851975:UEJ852127 UOF851975:UOF852127 UYB851975:UYB852127 VHX851975:VHX852127 VRT851975:VRT852127 WBP851975:WBP852127 WLL851975:WLL852127 WVH851975:WVH852127 I917511:I917663 IV917511:IV917663 SR917511:SR917663 ACN917511:ACN917663 AMJ917511:AMJ917663 AWF917511:AWF917663 BGB917511:BGB917663 BPX917511:BPX917663 BZT917511:BZT917663 CJP917511:CJP917663 CTL917511:CTL917663 DDH917511:DDH917663 DND917511:DND917663 DWZ917511:DWZ917663 EGV917511:EGV917663 EQR917511:EQR917663 FAN917511:FAN917663 FKJ917511:FKJ917663 FUF917511:FUF917663 GEB917511:GEB917663 GNX917511:GNX917663 GXT917511:GXT917663 HHP917511:HHP917663 HRL917511:HRL917663 IBH917511:IBH917663 ILD917511:ILD917663 IUZ917511:IUZ917663 JEV917511:JEV917663 JOR917511:JOR917663 JYN917511:JYN917663 KIJ917511:KIJ917663 KSF917511:KSF917663 LCB917511:LCB917663 LLX917511:LLX917663 LVT917511:LVT917663 MFP917511:MFP917663 MPL917511:MPL917663 MZH917511:MZH917663 NJD917511:NJD917663 NSZ917511:NSZ917663 OCV917511:OCV917663 OMR917511:OMR917663 OWN917511:OWN917663 PGJ917511:PGJ917663 PQF917511:PQF917663 QAB917511:QAB917663 QJX917511:QJX917663 QTT917511:QTT917663 RDP917511:RDP917663 RNL917511:RNL917663 RXH917511:RXH917663 SHD917511:SHD917663 SQZ917511:SQZ917663 TAV917511:TAV917663 TKR917511:TKR917663 TUN917511:TUN917663 UEJ917511:UEJ917663 UOF917511:UOF917663 UYB917511:UYB917663 VHX917511:VHX917663 VRT917511:VRT917663 WBP917511:WBP917663 WLL917511:WLL917663 WVH917511:WVH917663 I983047:I983199 IV983047:IV983199 SR983047:SR983199 ACN983047:ACN983199 AMJ983047:AMJ983199 AWF983047:AWF983199 BGB983047:BGB983199 BPX983047:BPX983199 BZT983047:BZT983199 CJP983047:CJP983199 CTL983047:CTL983199 DDH983047:DDH983199 DND983047:DND983199 DWZ983047:DWZ983199 EGV983047:EGV983199 EQR983047:EQR983199 FAN983047:FAN983199 FKJ983047:FKJ983199 FUF983047:FUF983199 GEB983047:GEB983199 GNX983047:GNX983199 GXT983047:GXT983199 HHP983047:HHP983199 HRL983047:HRL983199 IBH983047:IBH983199 ILD983047:ILD983199 IUZ983047:IUZ983199 JEV983047:JEV983199 JOR983047:JOR983199 JYN983047:JYN983199 KIJ983047:KIJ983199 KSF983047:KSF983199 LCB983047:LCB983199 LLX983047:LLX983199 LVT983047:LVT983199 MFP983047:MFP983199 MPL983047:MPL983199 MZH983047:MZH983199 NJD983047:NJD983199 NSZ983047:NSZ983199 OCV983047:OCV983199 OMR983047:OMR983199 OWN983047:OWN983199 PGJ983047:PGJ983199 PQF983047:PQF983199 QAB983047:QAB983199 QJX983047:QJX983199 QTT983047:QTT983199 RDP983047:RDP983199 RNL983047:RNL983199 RXH983047:RXH983199 SHD983047:SHD983199 SQZ983047:SQZ983199 TAV983047:TAV983199 TKR983047:TKR983199 TUN983047:TUN983199 UEJ983047:UEJ983199 UOF983047:UOF983199 UYB983047:UYB983199 VHX983047:VHX983199 VRT983047:VRT983199 WBP983047:WBP983199 WLL983047:WLL983199 WVH983047:WVH983199" xr:uid="{EF164A01-28C1-4FE5-897F-1EFC6A308311}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IV7:IV159 WVH983047:WVH983199 SR7:SR159 ACN7:ACN159 AMJ7:AMJ159 AWF7:AWF159 BGB7:BGB159 BPX7:BPX159 BZT7:BZT159 CJP7:CJP159 CTL7:CTL159 DDH7:DDH159 DND7:DND159 DWZ7:DWZ159 EGV7:EGV159 EQR7:EQR159 FAN7:FAN159 FKJ7:FKJ159 FUF7:FUF159 GEB7:GEB159 GNX7:GNX159 GXT7:GXT159 HHP7:HHP159 HRL7:HRL159 IBH7:IBH159 ILD7:ILD159 IUZ7:IUZ159 JEV7:JEV159 JOR7:JOR159 JYN7:JYN159 KIJ7:KIJ159 KSF7:KSF159 LCB7:LCB159 LLX7:LLX159 LVT7:LVT159 MFP7:MFP159 MPL7:MPL159 MZH7:MZH159 NJD7:NJD159 NSZ7:NSZ159 OCV7:OCV159 OMR7:OMR159 OWN7:OWN159 PGJ7:PGJ159 PQF7:PQF159 QAB7:QAB159 QJX7:QJX159 QTT7:QTT159 RDP7:RDP159 RNL7:RNL159 RXH7:RXH159 SHD7:SHD159 SQZ7:SQZ159 TAV7:TAV159 TKR7:TKR159 TUN7:TUN159 UEJ7:UEJ159 UOF7:UOF159 UYB7:UYB159 VHX7:VHX159 VRT7:VRT159 WBP7:WBP159 WLL7:WLL159 WVH7:WVH159 I65543:I65695 IV65543:IV65695 SR65543:SR65695 ACN65543:ACN65695 AMJ65543:AMJ65695 AWF65543:AWF65695 BGB65543:BGB65695 BPX65543:BPX65695 BZT65543:BZT65695 CJP65543:CJP65695 CTL65543:CTL65695 DDH65543:DDH65695 DND65543:DND65695 DWZ65543:DWZ65695 EGV65543:EGV65695 EQR65543:EQR65695 FAN65543:FAN65695 FKJ65543:FKJ65695 FUF65543:FUF65695 GEB65543:GEB65695 GNX65543:GNX65695 GXT65543:GXT65695 HHP65543:HHP65695 HRL65543:HRL65695 IBH65543:IBH65695 ILD65543:ILD65695 IUZ65543:IUZ65695 JEV65543:JEV65695 JOR65543:JOR65695 JYN65543:JYN65695 KIJ65543:KIJ65695 KSF65543:KSF65695 LCB65543:LCB65695 LLX65543:LLX65695 LVT65543:LVT65695 MFP65543:MFP65695 MPL65543:MPL65695 MZH65543:MZH65695 NJD65543:NJD65695 NSZ65543:NSZ65695 OCV65543:OCV65695 OMR65543:OMR65695 OWN65543:OWN65695 PGJ65543:PGJ65695 PQF65543:PQF65695 QAB65543:QAB65695 QJX65543:QJX65695 QTT65543:QTT65695 RDP65543:RDP65695 RNL65543:RNL65695 RXH65543:RXH65695 SHD65543:SHD65695 SQZ65543:SQZ65695 TAV65543:TAV65695 TKR65543:TKR65695 TUN65543:TUN65695 UEJ65543:UEJ65695 UOF65543:UOF65695 UYB65543:UYB65695 VHX65543:VHX65695 VRT65543:VRT65695 WBP65543:WBP65695 WLL65543:WLL65695 WVH65543:WVH65695 I131079:I131231 IV131079:IV131231 SR131079:SR131231 ACN131079:ACN131231 AMJ131079:AMJ131231 AWF131079:AWF131231 BGB131079:BGB131231 BPX131079:BPX131231 BZT131079:BZT131231 CJP131079:CJP131231 CTL131079:CTL131231 DDH131079:DDH131231 DND131079:DND131231 DWZ131079:DWZ131231 EGV131079:EGV131231 EQR131079:EQR131231 FAN131079:FAN131231 FKJ131079:FKJ131231 FUF131079:FUF131231 GEB131079:GEB131231 GNX131079:GNX131231 GXT131079:GXT131231 HHP131079:HHP131231 HRL131079:HRL131231 IBH131079:IBH131231 ILD131079:ILD131231 IUZ131079:IUZ131231 JEV131079:JEV131231 JOR131079:JOR131231 JYN131079:JYN131231 KIJ131079:KIJ131231 KSF131079:KSF131231 LCB131079:LCB131231 LLX131079:LLX131231 LVT131079:LVT131231 MFP131079:MFP131231 MPL131079:MPL131231 MZH131079:MZH131231 NJD131079:NJD131231 NSZ131079:NSZ131231 OCV131079:OCV131231 OMR131079:OMR131231 OWN131079:OWN131231 PGJ131079:PGJ131231 PQF131079:PQF131231 QAB131079:QAB131231 QJX131079:QJX131231 QTT131079:QTT131231 RDP131079:RDP131231 RNL131079:RNL131231 RXH131079:RXH131231 SHD131079:SHD131231 SQZ131079:SQZ131231 TAV131079:TAV131231 TKR131079:TKR131231 TUN131079:TUN131231 UEJ131079:UEJ131231 UOF131079:UOF131231 UYB131079:UYB131231 VHX131079:VHX131231 VRT131079:VRT131231 WBP131079:WBP131231 WLL131079:WLL131231 WVH131079:WVH131231 I196615:I196767 IV196615:IV196767 SR196615:SR196767 ACN196615:ACN196767 AMJ196615:AMJ196767 AWF196615:AWF196767 BGB196615:BGB196767 BPX196615:BPX196767 BZT196615:BZT196767 CJP196615:CJP196767 CTL196615:CTL196767 DDH196615:DDH196767 DND196615:DND196767 DWZ196615:DWZ196767 EGV196615:EGV196767 EQR196615:EQR196767 FAN196615:FAN196767 FKJ196615:FKJ196767 FUF196615:FUF196767 GEB196615:GEB196767 GNX196615:GNX196767 GXT196615:GXT196767 HHP196615:HHP196767 HRL196615:HRL196767 IBH196615:IBH196767 ILD196615:ILD196767 IUZ196615:IUZ196767 JEV196615:JEV196767 JOR196615:JOR196767 JYN196615:JYN196767 KIJ196615:KIJ196767 KSF196615:KSF196767 LCB196615:LCB196767 LLX196615:LLX196767 LVT196615:LVT196767 MFP196615:MFP196767 MPL196615:MPL196767 MZH196615:MZH196767 NJD196615:NJD196767 NSZ196615:NSZ196767 OCV196615:OCV196767 OMR196615:OMR196767 OWN196615:OWN196767 PGJ196615:PGJ196767 PQF196615:PQF196767 QAB196615:QAB196767 QJX196615:QJX196767 QTT196615:QTT196767 RDP196615:RDP196767 RNL196615:RNL196767 RXH196615:RXH196767 SHD196615:SHD196767 SQZ196615:SQZ196767 TAV196615:TAV196767 TKR196615:TKR196767 TUN196615:TUN196767 UEJ196615:UEJ196767 UOF196615:UOF196767 UYB196615:UYB196767 VHX196615:VHX196767 VRT196615:VRT196767 WBP196615:WBP196767 WLL196615:WLL196767 WVH196615:WVH196767 I262151:I262303 IV262151:IV262303 SR262151:SR262303 ACN262151:ACN262303 AMJ262151:AMJ262303 AWF262151:AWF262303 BGB262151:BGB262303 BPX262151:BPX262303 BZT262151:BZT262303 CJP262151:CJP262303 CTL262151:CTL262303 DDH262151:DDH262303 DND262151:DND262303 DWZ262151:DWZ262303 EGV262151:EGV262303 EQR262151:EQR262303 FAN262151:FAN262303 FKJ262151:FKJ262303 FUF262151:FUF262303 GEB262151:GEB262303 GNX262151:GNX262303 GXT262151:GXT262303 HHP262151:HHP262303 HRL262151:HRL262303 IBH262151:IBH262303 ILD262151:ILD262303 IUZ262151:IUZ262303 JEV262151:JEV262303 JOR262151:JOR262303 JYN262151:JYN262303 KIJ262151:KIJ262303 KSF262151:KSF262303 LCB262151:LCB262303 LLX262151:LLX262303 LVT262151:LVT262303 MFP262151:MFP262303 MPL262151:MPL262303 MZH262151:MZH262303 NJD262151:NJD262303 NSZ262151:NSZ262303 OCV262151:OCV262303 OMR262151:OMR262303 OWN262151:OWN262303 PGJ262151:PGJ262303 PQF262151:PQF262303 QAB262151:QAB262303 QJX262151:QJX262303 QTT262151:QTT262303 RDP262151:RDP262303 RNL262151:RNL262303 RXH262151:RXH262303 SHD262151:SHD262303 SQZ262151:SQZ262303 TAV262151:TAV262303 TKR262151:TKR262303 TUN262151:TUN262303 UEJ262151:UEJ262303 UOF262151:UOF262303 UYB262151:UYB262303 VHX262151:VHX262303 VRT262151:VRT262303 WBP262151:WBP262303 WLL262151:WLL262303 WVH262151:WVH262303 I327687:I327839 IV327687:IV327839 SR327687:SR327839 ACN327687:ACN327839 AMJ327687:AMJ327839 AWF327687:AWF327839 BGB327687:BGB327839 BPX327687:BPX327839 BZT327687:BZT327839 CJP327687:CJP327839 CTL327687:CTL327839 DDH327687:DDH327839 DND327687:DND327839 DWZ327687:DWZ327839 EGV327687:EGV327839 EQR327687:EQR327839 FAN327687:FAN327839 FKJ327687:FKJ327839 FUF327687:FUF327839 GEB327687:GEB327839 GNX327687:GNX327839 GXT327687:GXT327839 HHP327687:HHP327839 HRL327687:HRL327839 IBH327687:IBH327839 ILD327687:ILD327839 IUZ327687:IUZ327839 JEV327687:JEV327839 JOR327687:JOR327839 JYN327687:JYN327839 KIJ327687:KIJ327839 KSF327687:KSF327839 LCB327687:LCB327839 LLX327687:LLX327839 LVT327687:LVT327839 MFP327687:MFP327839 MPL327687:MPL327839 MZH327687:MZH327839 NJD327687:NJD327839 NSZ327687:NSZ327839 OCV327687:OCV327839 OMR327687:OMR327839 OWN327687:OWN327839 PGJ327687:PGJ327839 PQF327687:PQF327839 QAB327687:QAB327839 QJX327687:QJX327839 QTT327687:QTT327839 RDP327687:RDP327839 RNL327687:RNL327839 RXH327687:RXH327839 SHD327687:SHD327839 SQZ327687:SQZ327839 TAV327687:TAV327839 TKR327687:TKR327839 TUN327687:TUN327839 UEJ327687:UEJ327839 UOF327687:UOF327839 UYB327687:UYB327839 VHX327687:VHX327839 VRT327687:VRT327839 WBP327687:WBP327839 WLL327687:WLL327839 WVH327687:WVH327839 I393223:I393375 IV393223:IV393375 SR393223:SR393375 ACN393223:ACN393375 AMJ393223:AMJ393375 AWF393223:AWF393375 BGB393223:BGB393375 BPX393223:BPX393375 BZT393223:BZT393375 CJP393223:CJP393375 CTL393223:CTL393375 DDH393223:DDH393375 DND393223:DND393375 DWZ393223:DWZ393375 EGV393223:EGV393375 EQR393223:EQR393375 FAN393223:FAN393375 FKJ393223:FKJ393375 FUF393223:FUF393375 GEB393223:GEB393375 GNX393223:GNX393375 GXT393223:GXT393375 HHP393223:HHP393375 HRL393223:HRL393375 IBH393223:IBH393375 ILD393223:ILD393375 IUZ393223:IUZ393375 JEV393223:JEV393375 JOR393223:JOR393375 JYN393223:JYN393375 KIJ393223:KIJ393375 KSF393223:KSF393375 LCB393223:LCB393375 LLX393223:LLX393375 LVT393223:LVT393375 MFP393223:MFP393375 MPL393223:MPL393375 MZH393223:MZH393375 NJD393223:NJD393375 NSZ393223:NSZ393375 OCV393223:OCV393375 OMR393223:OMR393375 OWN393223:OWN393375 PGJ393223:PGJ393375 PQF393223:PQF393375 QAB393223:QAB393375 QJX393223:QJX393375 QTT393223:QTT393375 RDP393223:RDP393375 RNL393223:RNL393375 RXH393223:RXH393375 SHD393223:SHD393375 SQZ393223:SQZ393375 TAV393223:TAV393375 TKR393223:TKR393375 TUN393223:TUN393375 UEJ393223:UEJ393375 UOF393223:UOF393375 UYB393223:UYB393375 VHX393223:VHX393375 VRT393223:VRT393375 WBP393223:WBP393375 WLL393223:WLL393375 WVH393223:WVH393375 I458759:I458911 IV458759:IV458911 SR458759:SR458911 ACN458759:ACN458911 AMJ458759:AMJ458911 AWF458759:AWF458911 BGB458759:BGB458911 BPX458759:BPX458911 BZT458759:BZT458911 CJP458759:CJP458911 CTL458759:CTL458911 DDH458759:DDH458911 DND458759:DND458911 DWZ458759:DWZ458911 EGV458759:EGV458911 EQR458759:EQR458911 FAN458759:FAN458911 FKJ458759:FKJ458911 FUF458759:FUF458911 GEB458759:GEB458911 GNX458759:GNX458911 GXT458759:GXT458911 HHP458759:HHP458911 HRL458759:HRL458911 IBH458759:IBH458911 ILD458759:ILD458911 IUZ458759:IUZ458911 JEV458759:JEV458911 JOR458759:JOR458911 JYN458759:JYN458911 KIJ458759:KIJ458911 KSF458759:KSF458911 LCB458759:LCB458911 LLX458759:LLX458911 LVT458759:LVT458911 MFP458759:MFP458911 MPL458759:MPL458911 MZH458759:MZH458911 NJD458759:NJD458911 NSZ458759:NSZ458911 OCV458759:OCV458911 OMR458759:OMR458911 OWN458759:OWN458911 PGJ458759:PGJ458911 PQF458759:PQF458911 QAB458759:QAB458911 QJX458759:QJX458911 QTT458759:QTT458911 RDP458759:RDP458911 RNL458759:RNL458911 RXH458759:RXH458911 SHD458759:SHD458911 SQZ458759:SQZ458911 TAV458759:TAV458911 TKR458759:TKR458911 TUN458759:TUN458911 UEJ458759:UEJ458911 UOF458759:UOF458911 UYB458759:UYB458911 VHX458759:VHX458911 VRT458759:VRT458911 WBP458759:WBP458911 WLL458759:WLL458911 WVH458759:WVH458911 I524295:I524447 IV524295:IV524447 SR524295:SR524447 ACN524295:ACN524447 AMJ524295:AMJ524447 AWF524295:AWF524447 BGB524295:BGB524447 BPX524295:BPX524447 BZT524295:BZT524447 CJP524295:CJP524447 CTL524295:CTL524447 DDH524295:DDH524447 DND524295:DND524447 DWZ524295:DWZ524447 EGV524295:EGV524447 EQR524295:EQR524447 FAN524295:FAN524447 FKJ524295:FKJ524447 FUF524295:FUF524447 GEB524295:GEB524447 GNX524295:GNX524447 GXT524295:GXT524447 HHP524295:HHP524447 HRL524295:HRL524447 IBH524295:IBH524447 ILD524295:ILD524447 IUZ524295:IUZ524447 JEV524295:JEV524447 JOR524295:JOR524447 JYN524295:JYN524447 KIJ524295:KIJ524447 KSF524295:KSF524447 LCB524295:LCB524447 LLX524295:LLX524447 LVT524295:LVT524447 MFP524295:MFP524447 MPL524295:MPL524447 MZH524295:MZH524447 NJD524295:NJD524447 NSZ524295:NSZ524447 OCV524295:OCV524447 OMR524295:OMR524447 OWN524295:OWN524447 PGJ524295:PGJ524447 PQF524295:PQF524447 QAB524295:QAB524447 QJX524295:QJX524447 QTT524295:QTT524447 RDP524295:RDP524447 RNL524295:RNL524447 RXH524295:RXH524447 SHD524295:SHD524447 SQZ524295:SQZ524447 TAV524295:TAV524447 TKR524295:TKR524447 TUN524295:TUN524447 UEJ524295:UEJ524447 UOF524295:UOF524447 UYB524295:UYB524447 VHX524295:VHX524447 VRT524295:VRT524447 WBP524295:WBP524447 WLL524295:WLL524447 WVH524295:WVH524447 I589831:I589983 IV589831:IV589983 SR589831:SR589983 ACN589831:ACN589983 AMJ589831:AMJ589983 AWF589831:AWF589983 BGB589831:BGB589983 BPX589831:BPX589983 BZT589831:BZT589983 CJP589831:CJP589983 CTL589831:CTL589983 DDH589831:DDH589983 DND589831:DND589983 DWZ589831:DWZ589983 EGV589831:EGV589983 EQR589831:EQR589983 FAN589831:FAN589983 FKJ589831:FKJ589983 FUF589831:FUF589983 GEB589831:GEB589983 GNX589831:GNX589983 GXT589831:GXT589983 HHP589831:HHP589983 HRL589831:HRL589983 IBH589831:IBH589983 ILD589831:ILD589983 IUZ589831:IUZ589983 JEV589831:JEV589983 JOR589831:JOR589983 JYN589831:JYN589983 KIJ589831:KIJ589983 KSF589831:KSF589983 LCB589831:LCB589983 LLX589831:LLX589983 LVT589831:LVT589983 MFP589831:MFP589983 MPL589831:MPL589983 MZH589831:MZH589983 NJD589831:NJD589983 NSZ589831:NSZ589983 OCV589831:OCV589983 OMR589831:OMR589983 OWN589831:OWN589983 PGJ589831:PGJ589983 PQF589831:PQF589983 QAB589831:QAB589983 QJX589831:QJX589983 QTT589831:QTT589983 RDP589831:RDP589983 RNL589831:RNL589983 RXH589831:RXH589983 SHD589831:SHD589983 SQZ589831:SQZ589983 TAV589831:TAV589983 TKR589831:TKR589983 TUN589831:TUN589983 UEJ589831:UEJ589983 UOF589831:UOF589983 UYB589831:UYB589983 VHX589831:VHX589983 VRT589831:VRT589983 WBP589831:WBP589983 WLL589831:WLL589983 WVH589831:WVH589983 I655367:I655519 IV655367:IV655519 SR655367:SR655519 ACN655367:ACN655519 AMJ655367:AMJ655519 AWF655367:AWF655519 BGB655367:BGB655519 BPX655367:BPX655519 BZT655367:BZT655519 CJP655367:CJP655519 CTL655367:CTL655519 DDH655367:DDH655519 DND655367:DND655519 DWZ655367:DWZ655519 EGV655367:EGV655519 EQR655367:EQR655519 FAN655367:FAN655519 FKJ655367:FKJ655519 FUF655367:FUF655519 GEB655367:GEB655519 GNX655367:GNX655519 GXT655367:GXT655519 HHP655367:HHP655519 HRL655367:HRL655519 IBH655367:IBH655519 ILD655367:ILD655519 IUZ655367:IUZ655519 JEV655367:JEV655519 JOR655367:JOR655519 JYN655367:JYN655519 KIJ655367:KIJ655519 KSF655367:KSF655519 LCB655367:LCB655519 LLX655367:LLX655519 LVT655367:LVT655519 MFP655367:MFP655519 MPL655367:MPL655519 MZH655367:MZH655519 NJD655367:NJD655519 NSZ655367:NSZ655519 OCV655367:OCV655519 OMR655367:OMR655519 OWN655367:OWN655519 PGJ655367:PGJ655519 PQF655367:PQF655519 QAB655367:QAB655519 QJX655367:QJX655519 QTT655367:QTT655519 RDP655367:RDP655519 RNL655367:RNL655519 RXH655367:RXH655519 SHD655367:SHD655519 SQZ655367:SQZ655519 TAV655367:TAV655519 TKR655367:TKR655519 TUN655367:TUN655519 UEJ655367:UEJ655519 UOF655367:UOF655519 UYB655367:UYB655519 VHX655367:VHX655519 VRT655367:VRT655519 WBP655367:WBP655519 WLL655367:WLL655519 WVH655367:WVH655519 I720903:I721055 IV720903:IV721055 SR720903:SR721055 ACN720903:ACN721055 AMJ720903:AMJ721055 AWF720903:AWF721055 BGB720903:BGB721055 BPX720903:BPX721055 BZT720903:BZT721055 CJP720903:CJP721055 CTL720903:CTL721055 DDH720903:DDH721055 DND720903:DND721055 DWZ720903:DWZ721055 EGV720903:EGV721055 EQR720903:EQR721055 FAN720903:FAN721055 FKJ720903:FKJ721055 FUF720903:FUF721055 GEB720903:GEB721055 GNX720903:GNX721055 GXT720903:GXT721055 HHP720903:HHP721055 HRL720903:HRL721055 IBH720903:IBH721055 ILD720903:ILD721055 IUZ720903:IUZ721055 JEV720903:JEV721055 JOR720903:JOR721055 JYN720903:JYN721055 KIJ720903:KIJ721055 KSF720903:KSF721055 LCB720903:LCB721055 LLX720903:LLX721055 LVT720903:LVT721055 MFP720903:MFP721055 MPL720903:MPL721055 MZH720903:MZH721055 NJD720903:NJD721055 NSZ720903:NSZ721055 OCV720903:OCV721055 OMR720903:OMR721055 OWN720903:OWN721055 PGJ720903:PGJ721055 PQF720903:PQF721055 QAB720903:QAB721055 QJX720903:QJX721055 QTT720903:QTT721055 RDP720903:RDP721055 RNL720903:RNL721055 RXH720903:RXH721055 SHD720903:SHD721055 SQZ720903:SQZ721055 TAV720903:TAV721055 TKR720903:TKR721055 TUN720903:TUN721055 UEJ720903:UEJ721055 UOF720903:UOF721055 UYB720903:UYB721055 VHX720903:VHX721055 VRT720903:VRT721055 WBP720903:WBP721055 WLL720903:WLL721055 WVH720903:WVH721055 I786439:I786591 IV786439:IV786591 SR786439:SR786591 ACN786439:ACN786591 AMJ786439:AMJ786591 AWF786439:AWF786591 BGB786439:BGB786591 BPX786439:BPX786591 BZT786439:BZT786591 CJP786439:CJP786591 CTL786439:CTL786591 DDH786439:DDH786591 DND786439:DND786591 DWZ786439:DWZ786591 EGV786439:EGV786591 EQR786439:EQR786591 FAN786439:FAN786591 FKJ786439:FKJ786591 FUF786439:FUF786591 GEB786439:GEB786591 GNX786439:GNX786591 GXT786439:GXT786591 HHP786439:HHP786591 HRL786439:HRL786591 IBH786439:IBH786591 ILD786439:ILD786591 IUZ786439:IUZ786591 JEV786439:JEV786591 JOR786439:JOR786591 JYN786439:JYN786591 KIJ786439:KIJ786591 KSF786439:KSF786591 LCB786439:LCB786591 LLX786439:LLX786591 LVT786439:LVT786591 MFP786439:MFP786591 MPL786439:MPL786591 MZH786439:MZH786591 NJD786439:NJD786591 NSZ786439:NSZ786591 OCV786439:OCV786591 OMR786439:OMR786591 OWN786439:OWN786591 PGJ786439:PGJ786591 PQF786439:PQF786591 QAB786439:QAB786591 QJX786439:QJX786591 QTT786439:QTT786591 RDP786439:RDP786591 RNL786439:RNL786591 RXH786439:RXH786591 SHD786439:SHD786591 SQZ786439:SQZ786591 TAV786439:TAV786591 TKR786439:TKR786591 TUN786439:TUN786591 UEJ786439:UEJ786591 UOF786439:UOF786591 UYB786439:UYB786591 VHX786439:VHX786591 VRT786439:VRT786591 WBP786439:WBP786591 WLL786439:WLL786591 WVH786439:WVH786591 I851975:I852127 IV851975:IV852127 SR851975:SR852127 ACN851975:ACN852127 AMJ851975:AMJ852127 AWF851975:AWF852127 BGB851975:BGB852127 BPX851975:BPX852127 BZT851975:BZT852127 CJP851975:CJP852127 CTL851975:CTL852127 DDH851975:DDH852127 DND851975:DND852127 DWZ851975:DWZ852127 EGV851975:EGV852127 EQR851975:EQR852127 FAN851975:FAN852127 FKJ851975:FKJ852127 FUF851975:FUF852127 GEB851975:GEB852127 GNX851975:GNX852127 GXT851975:GXT852127 HHP851975:HHP852127 HRL851975:HRL852127 IBH851975:IBH852127 ILD851975:ILD852127 IUZ851975:IUZ852127 JEV851975:JEV852127 JOR851975:JOR852127 JYN851975:JYN852127 KIJ851975:KIJ852127 KSF851975:KSF852127 LCB851975:LCB852127 LLX851975:LLX852127 LVT851975:LVT852127 MFP851975:MFP852127 MPL851975:MPL852127 MZH851975:MZH852127 NJD851975:NJD852127 NSZ851975:NSZ852127 OCV851975:OCV852127 OMR851975:OMR852127 OWN851975:OWN852127 PGJ851975:PGJ852127 PQF851975:PQF852127 QAB851975:QAB852127 QJX851975:QJX852127 QTT851975:QTT852127 RDP851975:RDP852127 RNL851975:RNL852127 RXH851975:RXH852127 SHD851975:SHD852127 SQZ851975:SQZ852127 TAV851975:TAV852127 TKR851975:TKR852127 TUN851975:TUN852127 UEJ851975:UEJ852127 UOF851975:UOF852127 UYB851975:UYB852127 VHX851975:VHX852127 VRT851975:VRT852127 WBP851975:WBP852127 WLL851975:WLL852127 WVH851975:WVH852127 I917511:I917663 IV917511:IV917663 SR917511:SR917663 ACN917511:ACN917663 AMJ917511:AMJ917663 AWF917511:AWF917663 BGB917511:BGB917663 BPX917511:BPX917663 BZT917511:BZT917663 CJP917511:CJP917663 CTL917511:CTL917663 DDH917511:DDH917663 DND917511:DND917663 DWZ917511:DWZ917663 EGV917511:EGV917663 EQR917511:EQR917663 FAN917511:FAN917663 FKJ917511:FKJ917663 FUF917511:FUF917663 GEB917511:GEB917663 GNX917511:GNX917663 GXT917511:GXT917663 HHP917511:HHP917663 HRL917511:HRL917663 IBH917511:IBH917663 ILD917511:ILD917663 IUZ917511:IUZ917663 JEV917511:JEV917663 JOR917511:JOR917663 JYN917511:JYN917663 KIJ917511:KIJ917663 KSF917511:KSF917663 LCB917511:LCB917663 LLX917511:LLX917663 LVT917511:LVT917663 MFP917511:MFP917663 MPL917511:MPL917663 MZH917511:MZH917663 NJD917511:NJD917663 NSZ917511:NSZ917663 OCV917511:OCV917663 OMR917511:OMR917663 OWN917511:OWN917663 PGJ917511:PGJ917663 PQF917511:PQF917663 QAB917511:QAB917663 QJX917511:QJX917663 QTT917511:QTT917663 RDP917511:RDP917663 RNL917511:RNL917663 RXH917511:RXH917663 SHD917511:SHD917663 SQZ917511:SQZ917663 TAV917511:TAV917663 TKR917511:TKR917663 TUN917511:TUN917663 UEJ917511:UEJ917663 UOF917511:UOF917663 UYB917511:UYB917663 VHX917511:VHX917663 VRT917511:VRT917663 WBP917511:WBP917663 WLL917511:WLL917663 WVH917511:WVH917663 I983047:I983199 IV983047:IV983199 SR983047:SR983199 ACN983047:ACN983199 AMJ983047:AMJ983199 AWF983047:AWF983199 BGB983047:BGB983199 BPX983047:BPX983199 BZT983047:BZT983199 CJP983047:CJP983199 CTL983047:CTL983199 DDH983047:DDH983199 DND983047:DND983199 DWZ983047:DWZ983199 EGV983047:EGV983199 EQR983047:EQR983199 FAN983047:FAN983199 FKJ983047:FKJ983199 FUF983047:FUF983199 GEB983047:GEB983199 GNX983047:GNX983199 GXT983047:GXT983199 HHP983047:HHP983199 HRL983047:HRL983199 IBH983047:IBH983199 ILD983047:ILD983199 IUZ983047:IUZ983199 JEV983047:JEV983199 JOR983047:JOR983199 JYN983047:JYN983199 KIJ983047:KIJ983199 KSF983047:KSF983199 LCB983047:LCB983199 LLX983047:LLX983199 LVT983047:LVT983199 MFP983047:MFP983199 MPL983047:MPL983199 MZH983047:MZH983199 NJD983047:NJD983199 NSZ983047:NSZ983199 OCV983047:OCV983199 OMR983047:OMR983199 OWN983047:OWN983199 PGJ983047:PGJ983199 PQF983047:PQF983199 QAB983047:QAB983199 QJX983047:QJX983199 QTT983047:QTT983199 RDP983047:RDP983199 RNL983047:RNL983199 RXH983047:RXH983199 SHD983047:SHD983199 SQZ983047:SQZ983199 TAV983047:TAV983199 TKR983047:TKR983199 TUN983047:TUN983199 UEJ983047:UEJ983199 UOF983047:UOF983199 UYB983047:UYB983199 VHX983047:VHX983199 VRT983047:VRT983199 WBP983047:WBP983199 WLL983047:WLL983199 I7:I159" xr:uid="{EF164A01-28C1-4FE5-897F-1EFC6A308311}">
       <formula1>$AJ$30:$AJ$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IW7:IW159 L7:L159 SS7:SS159 ACO7:ACO159 AMK7:AMK159 AWG7:AWG159 BGC7:BGC159 BPY7:BPY159 BZU7:BZU159 CJQ7:CJQ159 CTM7:CTM159 DDI7:DDI159 DNE7:DNE159 DXA7:DXA159 EGW7:EGW159 EQS7:EQS159 FAO7:FAO159 FKK7:FKK159 FUG7:FUG159 GEC7:GEC159 GNY7:GNY159 GXU7:GXU159 HHQ7:HHQ159 HRM7:HRM159 IBI7:IBI159 ILE7:ILE159 IVA7:IVA159 JEW7:JEW159 JOS7:JOS159 JYO7:JYO159 KIK7:KIK159 KSG7:KSG159 LCC7:LCC159 LLY7:LLY159 LVU7:LVU159 MFQ7:MFQ159 MPM7:MPM159 MZI7:MZI159 NJE7:NJE159 NTA7:NTA159 OCW7:OCW159 OMS7:OMS159 OWO7:OWO159 PGK7:PGK159 PQG7:PQG159 QAC7:QAC159 QJY7:QJY159 QTU7:QTU159 RDQ7:RDQ159 RNM7:RNM159 RXI7:RXI159 SHE7:SHE159 SRA7:SRA159 TAW7:TAW159 TKS7:TKS159 TUO7:TUO159 UEK7:UEK159 UOG7:UOG159 UYC7:UYC159 VHY7:VHY159 VRU7:VRU159 WBQ7:WBQ159 WLM7:WLM159 WVI7:WVI159 J65543:J65695 IW65543:IW65695 SS65543:SS65695 ACO65543:ACO65695 AMK65543:AMK65695 AWG65543:AWG65695 BGC65543:BGC65695 BPY65543:BPY65695 BZU65543:BZU65695 CJQ65543:CJQ65695 CTM65543:CTM65695 DDI65543:DDI65695 DNE65543:DNE65695 DXA65543:DXA65695 EGW65543:EGW65695 EQS65543:EQS65695 FAO65543:FAO65695 FKK65543:FKK65695 FUG65543:FUG65695 GEC65543:GEC65695 GNY65543:GNY65695 GXU65543:GXU65695 HHQ65543:HHQ65695 HRM65543:HRM65695 IBI65543:IBI65695 ILE65543:ILE65695 IVA65543:IVA65695 JEW65543:JEW65695 JOS65543:JOS65695 JYO65543:JYO65695 KIK65543:KIK65695 KSG65543:KSG65695 LCC65543:LCC65695 LLY65543:LLY65695 LVU65543:LVU65695 MFQ65543:MFQ65695 MPM65543:MPM65695 MZI65543:MZI65695 NJE65543:NJE65695 NTA65543:NTA65695 OCW65543:OCW65695 OMS65543:OMS65695 OWO65543:OWO65695 PGK65543:PGK65695 PQG65543:PQG65695 QAC65543:QAC65695 QJY65543:QJY65695 QTU65543:QTU65695 RDQ65543:RDQ65695 RNM65543:RNM65695 RXI65543:RXI65695 SHE65543:SHE65695 SRA65543:SRA65695 TAW65543:TAW65695 TKS65543:TKS65695 TUO65543:TUO65695 UEK65543:UEK65695 UOG65543:UOG65695 UYC65543:UYC65695 VHY65543:VHY65695 VRU65543:VRU65695 WBQ65543:WBQ65695 WLM65543:WLM65695 WVI65543:WVI65695 J131079:J131231 IW131079:IW131231 SS131079:SS131231 ACO131079:ACO131231 AMK131079:AMK131231 AWG131079:AWG131231 BGC131079:BGC131231 BPY131079:BPY131231 BZU131079:BZU131231 CJQ131079:CJQ131231 CTM131079:CTM131231 DDI131079:DDI131231 DNE131079:DNE131231 DXA131079:DXA131231 EGW131079:EGW131231 EQS131079:EQS131231 FAO131079:FAO131231 FKK131079:FKK131231 FUG131079:FUG131231 GEC131079:GEC131231 GNY131079:GNY131231 GXU131079:GXU131231 HHQ131079:HHQ131231 HRM131079:HRM131231 IBI131079:IBI131231 ILE131079:ILE131231 IVA131079:IVA131231 JEW131079:JEW131231 JOS131079:JOS131231 JYO131079:JYO131231 KIK131079:KIK131231 KSG131079:KSG131231 LCC131079:LCC131231 LLY131079:LLY131231 LVU131079:LVU131231 MFQ131079:MFQ131231 MPM131079:MPM131231 MZI131079:MZI131231 NJE131079:NJE131231 NTA131079:NTA131231 OCW131079:OCW131231 OMS131079:OMS131231 OWO131079:OWO131231 PGK131079:PGK131231 PQG131079:PQG131231 QAC131079:QAC131231 QJY131079:QJY131231 QTU131079:QTU131231 RDQ131079:RDQ131231 RNM131079:RNM131231 RXI131079:RXI131231 SHE131079:SHE131231 SRA131079:SRA131231 TAW131079:TAW131231 TKS131079:TKS131231 TUO131079:TUO131231 UEK131079:UEK131231 UOG131079:UOG131231 UYC131079:UYC131231 VHY131079:VHY131231 VRU131079:VRU131231 WBQ131079:WBQ131231 WLM131079:WLM131231 WVI131079:WVI131231 J196615:J196767 IW196615:IW196767 SS196615:SS196767 ACO196615:ACO196767 AMK196615:AMK196767 AWG196615:AWG196767 BGC196615:BGC196767 BPY196615:BPY196767 BZU196615:BZU196767 CJQ196615:CJQ196767 CTM196615:CTM196767 DDI196615:DDI196767 DNE196615:DNE196767 DXA196615:DXA196767 EGW196615:EGW196767 EQS196615:EQS196767 FAO196615:FAO196767 FKK196615:FKK196767 FUG196615:FUG196767 GEC196615:GEC196767 GNY196615:GNY196767 GXU196615:GXU196767 HHQ196615:HHQ196767 HRM196615:HRM196767 IBI196615:IBI196767 ILE196615:ILE196767 IVA196615:IVA196767 JEW196615:JEW196767 JOS196615:JOS196767 JYO196615:JYO196767 KIK196615:KIK196767 KSG196615:KSG196767 LCC196615:LCC196767 LLY196615:LLY196767 LVU196615:LVU196767 MFQ196615:MFQ196767 MPM196615:MPM196767 MZI196615:MZI196767 NJE196615:NJE196767 NTA196615:NTA196767 OCW196615:OCW196767 OMS196615:OMS196767 OWO196615:OWO196767 PGK196615:PGK196767 PQG196615:PQG196767 QAC196615:QAC196767 QJY196615:QJY196767 QTU196615:QTU196767 RDQ196615:RDQ196767 RNM196615:RNM196767 RXI196615:RXI196767 SHE196615:SHE196767 SRA196615:SRA196767 TAW196615:TAW196767 TKS196615:TKS196767 TUO196615:TUO196767 UEK196615:UEK196767 UOG196615:UOG196767 UYC196615:UYC196767 VHY196615:VHY196767 VRU196615:VRU196767 WBQ196615:WBQ196767 WLM196615:WLM196767 WVI196615:WVI196767 J262151:J262303 IW262151:IW262303 SS262151:SS262303 ACO262151:ACO262303 AMK262151:AMK262303 AWG262151:AWG262303 BGC262151:BGC262303 BPY262151:BPY262303 BZU262151:BZU262303 CJQ262151:CJQ262303 CTM262151:CTM262303 DDI262151:DDI262303 DNE262151:DNE262303 DXA262151:DXA262303 EGW262151:EGW262303 EQS262151:EQS262303 FAO262151:FAO262303 FKK262151:FKK262303 FUG262151:FUG262303 GEC262151:GEC262303 GNY262151:GNY262303 GXU262151:GXU262303 HHQ262151:HHQ262303 HRM262151:HRM262303 IBI262151:IBI262303 ILE262151:ILE262303 IVA262151:IVA262303 JEW262151:JEW262303 JOS262151:JOS262303 JYO262151:JYO262303 KIK262151:KIK262303 KSG262151:KSG262303 LCC262151:LCC262303 LLY262151:LLY262303 LVU262151:LVU262303 MFQ262151:MFQ262303 MPM262151:MPM262303 MZI262151:MZI262303 NJE262151:NJE262303 NTA262151:NTA262303 OCW262151:OCW262303 OMS262151:OMS262303 OWO262151:OWO262303 PGK262151:PGK262303 PQG262151:PQG262303 QAC262151:QAC262303 QJY262151:QJY262303 QTU262151:QTU262303 RDQ262151:RDQ262303 RNM262151:RNM262303 RXI262151:RXI262303 SHE262151:SHE262303 SRA262151:SRA262303 TAW262151:TAW262303 TKS262151:TKS262303 TUO262151:TUO262303 UEK262151:UEK262303 UOG262151:UOG262303 UYC262151:UYC262303 VHY262151:VHY262303 VRU262151:VRU262303 WBQ262151:WBQ262303 WLM262151:WLM262303 WVI262151:WVI262303 J327687:J327839 IW327687:IW327839 SS327687:SS327839 ACO327687:ACO327839 AMK327687:AMK327839 AWG327687:AWG327839 BGC327687:BGC327839 BPY327687:BPY327839 BZU327687:BZU327839 CJQ327687:CJQ327839 CTM327687:CTM327839 DDI327687:DDI327839 DNE327687:DNE327839 DXA327687:DXA327839 EGW327687:EGW327839 EQS327687:EQS327839 FAO327687:FAO327839 FKK327687:FKK327839 FUG327687:FUG327839 GEC327687:GEC327839 GNY327687:GNY327839 GXU327687:GXU327839 HHQ327687:HHQ327839 HRM327687:HRM327839 IBI327687:IBI327839 ILE327687:ILE327839 IVA327687:IVA327839 JEW327687:JEW327839 JOS327687:JOS327839 JYO327687:JYO327839 KIK327687:KIK327839 KSG327687:KSG327839 LCC327687:LCC327839 LLY327687:LLY327839 LVU327687:LVU327839 MFQ327687:MFQ327839 MPM327687:MPM327839 MZI327687:MZI327839 NJE327687:NJE327839 NTA327687:NTA327839 OCW327687:OCW327839 OMS327687:OMS327839 OWO327687:OWO327839 PGK327687:PGK327839 PQG327687:PQG327839 QAC327687:QAC327839 QJY327687:QJY327839 QTU327687:QTU327839 RDQ327687:RDQ327839 RNM327687:RNM327839 RXI327687:RXI327839 SHE327687:SHE327839 SRA327687:SRA327839 TAW327687:TAW327839 TKS327687:TKS327839 TUO327687:TUO327839 UEK327687:UEK327839 UOG327687:UOG327839 UYC327687:UYC327839 VHY327687:VHY327839 VRU327687:VRU327839 WBQ327687:WBQ327839 WLM327687:WLM327839 WVI327687:WVI327839 J393223:J393375 IW393223:IW393375 SS393223:SS393375 ACO393223:ACO393375 AMK393223:AMK393375 AWG393223:AWG393375 BGC393223:BGC393375 BPY393223:BPY393375 BZU393223:BZU393375 CJQ393223:CJQ393375 CTM393223:CTM393375 DDI393223:DDI393375 DNE393223:DNE393375 DXA393223:DXA393375 EGW393223:EGW393375 EQS393223:EQS393375 FAO393223:FAO393375 FKK393223:FKK393375 FUG393223:FUG393375 GEC393223:GEC393375 GNY393223:GNY393375 GXU393223:GXU393375 HHQ393223:HHQ393375 HRM393223:HRM393375 IBI393223:IBI393375 ILE393223:ILE393375 IVA393223:IVA393375 JEW393223:JEW393375 JOS393223:JOS393375 JYO393223:JYO393375 KIK393223:KIK393375 KSG393223:KSG393375 LCC393223:LCC393375 LLY393223:LLY393375 LVU393223:LVU393375 MFQ393223:MFQ393375 MPM393223:MPM393375 MZI393223:MZI393375 NJE393223:NJE393375 NTA393223:NTA393375 OCW393223:OCW393375 OMS393223:OMS393375 OWO393223:OWO393375 PGK393223:PGK393375 PQG393223:PQG393375 QAC393223:QAC393375 QJY393223:QJY393375 QTU393223:QTU393375 RDQ393223:RDQ393375 RNM393223:RNM393375 RXI393223:RXI393375 SHE393223:SHE393375 SRA393223:SRA393375 TAW393223:TAW393375 TKS393223:TKS393375 TUO393223:TUO393375 UEK393223:UEK393375 UOG393223:UOG393375 UYC393223:UYC393375 VHY393223:VHY393375 VRU393223:VRU393375 WBQ393223:WBQ393375 WLM393223:WLM393375 WVI393223:WVI393375 J458759:J458911 IW458759:IW458911 SS458759:SS458911 ACO458759:ACO458911 AMK458759:AMK458911 AWG458759:AWG458911 BGC458759:BGC458911 BPY458759:BPY458911 BZU458759:BZU458911 CJQ458759:CJQ458911 CTM458759:CTM458911 DDI458759:DDI458911 DNE458759:DNE458911 DXA458759:DXA458911 EGW458759:EGW458911 EQS458759:EQS458911 FAO458759:FAO458911 FKK458759:FKK458911 FUG458759:FUG458911 GEC458759:GEC458911 GNY458759:GNY458911 GXU458759:GXU458911 HHQ458759:HHQ458911 HRM458759:HRM458911 IBI458759:IBI458911 ILE458759:ILE458911 IVA458759:IVA458911 JEW458759:JEW458911 JOS458759:JOS458911 JYO458759:JYO458911 KIK458759:KIK458911 KSG458759:KSG458911 LCC458759:LCC458911 LLY458759:LLY458911 LVU458759:LVU458911 MFQ458759:MFQ458911 MPM458759:MPM458911 MZI458759:MZI458911 NJE458759:NJE458911 NTA458759:NTA458911 OCW458759:OCW458911 OMS458759:OMS458911 OWO458759:OWO458911 PGK458759:PGK458911 PQG458759:PQG458911 QAC458759:QAC458911 QJY458759:QJY458911 QTU458759:QTU458911 RDQ458759:RDQ458911 RNM458759:RNM458911 RXI458759:RXI458911 SHE458759:SHE458911 SRA458759:SRA458911 TAW458759:TAW458911 TKS458759:TKS458911 TUO458759:TUO458911 UEK458759:UEK458911 UOG458759:UOG458911 UYC458759:UYC458911 VHY458759:VHY458911 VRU458759:VRU458911 WBQ458759:WBQ458911 WLM458759:WLM458911 WVI458759:WVI458911 J524295:J524447 IW524295:IW524447 SS524295:SS524447 ACO524295:ACO524447 AMK524295:AMK524447 AWG524295:AWG524447 BGC524295:BGC524447 BPY524295:BPY524447 BZU524295:BZU524447 CJQ524295:CJQ524447 CTM524295:CTM524447 DDI524295:DDI524447 DNE524295:DNE524447 DXA524295:DXA524447 EGW524295:EGW524447 EQS524295:EQS524447 FAO524295:FAO524447 FKK524295:FKK524447 FUG524295:FUG524447 GEC524295:GEC524447 GNY524295:GNY524447 GXU524295:GXU524447 HHQ524295:HHQ524447 HRM524295:HRM524447 IBI524295:IBI524447 ILE524295:ILE524447 IVA524295:IVA524447 JEW524295:JEW524447 JOS524295:JOS524447 JYO524295:JYO524447 KIK524295:KIK524447 KSG524295:KSG524447 LCC524295:LCC524447 LLY524295:LLY524447 LVU524295:LVU524447 MFQ524295:MFQ524447 MPM524295:MPM524447 MZI524295:MZI524447 NJE524295:NJE524447 NTA524295:NTA524447 OCW524295:OCW524447 OMS524295:OMS524447 OWO524295:OWO524447 PGK524295:PGK524447 PQG524295:PQG524447 QAC524295:QAC524447 QJY524295:QJY524447 QTU524295:QTU524447 RDQ524295:RDQ524447 RNM524295:RNM524447 RXI524295:RXI524447 SHE524295:SHE524447 SRA524295:SRA524447 TAW524295:TAW524447 TKS524295:TKS524447 TUO524295:TUO524447 UEK524295:UEK524447 UOG524295:UOG524447 UYC524295:UYC524447 VHY524295:VHY524447 VRU524295:VRU524447 WBQ524295:WBQ524447 WLM524295:WLM524447 WVI524295:WVI524447 J589831:J589983 IW589831:IW589983 SS589831:SS589983 ACO589831:ACO589983 AMK589831:AMK589983 AWG589831:AWG589983 BGC589831:BGC589983 BPY589831:BPY589983 BZU589831:BZU589983 CJQ589831:CJQ589983 CTM589831:CTM589983 DDI589831:DDI589983 DNE589831:DNE589983 DXA589831:DXA589983 EGW589831:EGW589983 EQS589831:EQS589983 FAO589831:FAO589983 FKK589831:FKK589983 FUG589831:FUG589983 GEC589831:GEC589983 GNY589831:GNY589983 GXU589831:GXU589983 HHQ589831:HHQ589983 HRM589831:HRM589983 IBI589831:IBI589983 ILE589831:ILE589983 IVA589831:IVA589983 JEW589831:JEW589983 JOS589831:JOS589983 JYO589831:JYO589983 KIK589831:KIK589983 KSG589831:KSG589983 LCC589831:LCC589983 LLY589831:LLY589983 LVU589831:LVU589983 MFQ589831:MFQ589983 MPM589831:MPM589983 MZI589831:MZI589983 NJE589831:NJE589983 NTA589831:NTA589983 OCW589831:OCW589983 OMS589831:OMS589983 OWO589831:OWO589983 PGK589831:PGK589983 PQG589831:PQG589983 QAC589831:QAC589983 QJY589831:QJY589983 QTU589831:QTU589983 RDQ589831:RDQ589983 RNM589831:RNM589983 RXI589831:RXI589983 SHE589831:SHE589983 SRA589831:SRA589983 TAW589831:TAW589983 TKS589831:TKS589983 TUO589831:TUO589983 UEK589831:UEK589983 UOG589831:UOG589983 UYC589831:UYC589983 VHY589831:VHY589983 VRU589831:VRU589983 WBQ589831:WBQ589983 WLM589831:WLM589983 WVI589831:WVI589983 J655367:J655519 IW655367:IW655519 SS655367:SS655519 ACO655367:ACO655519 AMK655367:AMK655519 AWG655367:AWG655519 BGC655367:BGC655519 BPY655367:BPY655519 BZU655367:BZU655519 CJQ655367:CJQ655519 CTM655367:CTM655519 DDI655367:DDI655519 DNE655367:DNE655519 DXA655367:DXA655519 EGW655367:EGW655519 EQS655367:EQS655519 FAO655367:FAO655519 FKK655367:FKK655519 FUG655367:FUG655519 GEC655367:GEC655519 GNY655367:GNY655519 GXU655367:GXU655519 HHQ655367:HHQ655519 HRM655367:HRM655519 IBI655367:IBI655519 ILE655367:ILE655519 IVA655367:IVA655519 JEW655367:JEW655519 JOS655367:JOS655519 JYO655367:JYO655519 KIK655367:KIK655519 KSG655367:KSG655519 LCC655367:LCC655519 LLY655367:LLY655519 LVU655367:LVU655519 MFQ655367:MFQ655519 MPM655367:MPM655519 MZI655367:MZI655519 NJE655367:NJE655519 NTA655367:NTA655519 OCW655367:OCW655519 OMS655367:OMS655519 OWO655367:OWO655519 PGK655367:PGK655519 PQG655367:PQG655519 QAC655367:QAC655519 QJY655367:QJY655519 QTU655367:QTU655519 RDQ655367:RDQ655519 RNM655367:RNM655519 RXI655367:RXI655519 SHE655367:SHE655519 SRA655367:SRA655519 TAW655367:TAW655519 TKS655367:TKS655519 TUO655367:TUO655519 UEK655367:UEK655519 UOG655367:UOG655519 UYC655367:UYC655519 VHY655367:VHY655519 VRU655367:VRU655519 WBQ655367:WBQ655519 WLM655367:WLM655519 WVI655367:WVI655519 J720903:J721055 IW720903:IW721055 SS720903:SS721055 ACO720903:ACO721055 AMK720903:AMK721055 AWG720903:AWG721055 BGC720903:BGC721055 BPY720903:BPY721055 BZU720903:BZU721055 CJQ720903:CJQ721055 CTM720903:CTM721055 DDI720903:DDI721055 DNE720903:DNE721055 DXA720903:DXA721055 EGW720903:EGW721055 EQS720903:EQS721055 FAO720903:FAO721055 FKK720903:FKK721055 FUG720903:FUG721055 GEC720903:GEC721055 GNY720903:GNY721055 GXU720903:GXU721055 HHQ720903:HHQ721055 HRM720903:HRM721055 IBI720903:IBI721055 ILE720903:ILE721055 IVA720903:IVA721055 JEW720903:JEW721055 JOS720903:JOS721055 JYO720903:JYO721055 KIK720903:KIK721055 KSG720903:KSG721055 LCC720903:LCC721055 LLY720903:LLY721055 LVU720903:LVU721055 MFQ720903:MFQ721055 MPM720903:MPM721055 MZI720903:MZI721055 NJE720903:NJE721055 NTA720903:NTA721055 OCW720903:OCW721055 OMS720903:OMS721055 OWO720903:OWO721055 PGK720903:PGK721055 PQG720903:PQG721055 QAC720903:QAC721055 QJY720903:QJY721055 QTU720903:QTU721055 RDQ720903:RDQ721055 RNM720903:RNM721055 RXI720903:RXI721055 SHE720903:SHE721055 SRA720903:SRA721055 TAW720903:TAW721055 TKS720903:TKS721055 TUO720903:TUO721055 UEK720903:UEK721055 UOG720903:UOG721055 UYC720903:UYC721055 VHY720903:VHY721055 VRU720903:VRU721055 WBQ720903:WBQ721055 WLM720903:WLM721055 WVI720903:WVI721055 J786439:J786591 IW786439:IW786591 SS786439:SS786591 ACO786439:ACO786591 AMK786439:AMK786591 AWG786439:AWG786591 BGC786439:BGC786591 BPY786439:BPY786591 BZU786439:BZU786591 CJQ786439:CJQ786591 CTM786439:CTM786591 DDI786439:DDI786591 DNE786439:DNE786591 DXA786439:DXA786591 EGW786439:EGW786591 EQS786439:EQS786591 FAO786439:FAO786591 FKK786439:FKK786591 FUG786439:FUG786591 GEC786439:GEC786591 GNY786439:GNY786591 GXU786439:GXU786591 HHQ786439:HHQ786591 HRM786439:HRM786591 IBI786439:IBI786591 ILE786439:ILE786591 IVA786439:IVA786591 JEW786439:JEW786591 JOS786439:JOS786591 JYO786439:JYO786591 KIK786439:KIK786591 KSG786439:KSG786591 LCC786439:LCC786591 LLY786439:LLY786591 LVU786439:LVU786591 MFQ786439:MFQ786591 MPM786439:MPM786591 MZI786439:MZI786591 NJE786439:NJE786591 NTA786439:NTA786591 OCW786439:OCW786591 OMS786439:OMS786591 OWO786439:OWO786591 PGK786439:PGK786591 PQG786439:PQG786591 QAC786439:QAC786591 QJY786439:QJY786591 QTU786439:QTU786591 RDQ786439:RDQ786591 RNM786439:RNM786591 RXI786439:RXI786591 SHE786439:SHE786591 SRA786439:SRA786591 TAW786439:TAW786591 TKS786439:TKS786591 TUO786439:TUO786591 UEK786439:UEK786591 UOG786439:UOG786591 UYC786439:UYC786591 VHY786439:VHY786591 VRU786439:VRU786591 WBQ786439:WBQ786591 WLM786439:WLM786591 WVI786439:WVI786591 J851975:J852127 IW851975:IW852127 SS851975:SS852127 ACO851975:ACO852127 AMK851975:AMK852127 AWG851975:AWG852127 BGC851975:BGC852127 BPY851975:BPY852127 BZU851975:BZU852127 CJQ851975:CJQ852127 CTM851975:CTM852127 DDI851975:DDI852127 DNE851975:DNE852127 DXA851975:DXA852127 EGW851975:EGW852127 EQS851975:EQS852127 FAO851975:FAO852127 FKK851975:FKK852127 FUG851975:FUG852127 GEC851975:GEC852127 GNY851975:GNY852127 GXU851975:GXU852127 HHQ851975:HHQ852127 HRM851975:HRM852127 IBI851975:IBI852127 ILE851975:ILE852127 IVA851975:IVA852127 JEW851975:JEW852127 JOS851975:JOS852127 JYO851975:JYO852127 KIK851975:KIK852127 KSG851975:KSG852127 LCC851975:LCC852127 LLY851975:LLY852127 LVU851975:LVU852127 MFQ851975:MFQ852127 MPM851975:MPM852127 MZI851975:MZI852127 NJE851975:NJE852127 NTA851975:NTA852127 OCW851975:OCW852127 OMS851975:OMS852127 OWO851975:OWO852127 PGK851975:PGK852127 PQG851975:PQG852127 QAC851975:QAC852127 QJY851975:QJY852127 QTU851975:QTU852127 RDQ851975:RDQ852127 RNM851975:RNM852127 RXI851975:RXI852127 SHE851975:SHE852127 SRA851975:SRA852127 TAW851975:TAW852127 TKS851975:TKS852127 TUO851975:TUO852127 UEK851975:UEK852127 UOG851975:UOG852127 UYC851975:UYC852127 VHY851975:VHY852127 VRU851975:VRU852127 WBQ851975:WBQ852127 WLM851975:WLM852127 WVI851975:WVI852127 J917511:J917663 IW917511:IW917663 SS917511:SS917663 ACO917511:ACO917663 AMK917511:AMK917663 AWG917511:AWG917663 BGC917511:BGC917663 BPY917511:BPY917663 BZU917511:BZU917663 CJQ917511:CJQ917663 CTM917511:CTM917663 DDI917511:DDI917663 DNE917511:DNE917663 DXA917511:DXA917663 EGW917511:EGW917663 EQS917511:EQS917663 FAO917511:FAO917663 FKK917511:FKK917663 FUG917511:FUG917663 GEC917511:GEC917663 GNY917511:GNY917663 GXU917511:GXU917663 HHQ917511:HHQ917663 HRM917511:HRM917663 IBI917511:IBI917663 ILE917511:ILE917663 IVA917511:IVA917663 JEW917511:JEW917663 JOS917511:JOS917663 JYO917511:JYO917663 KIK917511:KIK917663 KSG917511:KSG917663 LCC917511:LCC917663 LLY917511:LLY917663 LVU917511:LVU917663 MFQ917511:MFQ917663 MPM917511:MPM917663 MZI917511:MZI917663 NJE917511:NJE917663 NTA917511:NTA917663 OCW917511:OCW917663 OMS917511:OMS917663 OWO917511:OWO917663 PGK917511:PGK917663 PQG917511:PQG917663 QAC917511:QAC917663 QJY917511:QJY917663 QTU917511:QTU917663 RDQ917511:RDQ917663 RNM917511:RNM917663 RXI917511:RXI917663 SHE917511:SHE917663 SRA917511:SRA917663 TAW917511:TAW917663 TKS917511:TKS917663 TUO917511:TUO917663 UEK917511:UEK917663 UOG917511:UOG917663 UYC917511:UYC917663 VHY917511:VHY917663 VRU917511:VRU917663 WBQ917511:WBQ917663 WLM917511:WLM917663 WVI917511:WVI917663 J983047:J983199 IW983047:IW983199 SS983047:SS983199 ACO983047:ACO983199 AMK983047:AMK983199 AWG983047:AWG983199 BGC983047:BGC983199 BPY983047:BPY983199 BZU983047:BZU983199 CJQ983047:CJQ983199 CTM983047:CTM983199 DDI983047:DDI983199 DNE983047:DNE983199 DXA983047:DXA983199 EGW983047:EGW983199 EQS983047:EQS983199 FAO983047:FAO983199 FKK983047:FKK983199 FUG983047:FUG983199 GEC983047:GEC983199 GNY983047:GNY983199 GXU983047:GXU983199 HHQ983047:HHQ983199 HRM983047:HRM983199 IBI983047:IBI983199 ILE983047:ILE983199 IVA983047:IVA983199 JEW983047:JEW983199 JOS983047:JOS983199 JYO983047:JYO983199 KIK983047:KIK983199 KSG983047:KSG983199 LCC983047:LCC983199 LLY983047:LLY983199 LVU983047:LVU983199 MFQ983047:MFQ983199 MPM983047:MPM983199 MZI983047:MZI983199 NJE983047:NJE983199 NTA983047:NTA983199 OCW983047:OCW983199 OMS983047:OMS983199 OWO983047:OWO983199 PGK983047:PGK983199 PQG983047:PQG983199 QAC983047:QAC983199 QJY983047:QJY983199 QTU983047:QTU983199 RDQ983047:RDQ983199 RNM983047:RNM983199 RXI983047:RXI983199 SHE983047:SHE983199 SRA983047:SRA983199 TAW983047:TAW983199 TKS983047:TKS983199 TUO983047:TUO983199 UEK983047:UEK983199 UOG983047:UOG983199 UYC983047:UYC983199 VHY983047:VHY983199 VRU983047:VRU983199 WBQ983047:WBQ983199 WLM983047:WLM983199 WVI983047:WVI983199 J7:J159 IY7:IY159 SU7:SU159 ACQ7:ACQ159 AMM7:AMM159 AWI7:AWI159 BGE7:BGE159 BQA7:BQA159 BZW7:BZW159 CJS7:CJS159 CTO7:CTO159 DDK7:DDK159 DNG7:DNG159 DXC7:DXC159 EGY7:EGY159 EQU7:EQU159 FAQ7:FAQ159 FKM7:FKM159 FUI7:FUI159 GEE7:GEE159 GOA7:GOA159 GXW7:GXW159 HHS7:HHS159 HRO7:HRO159 IBK7:IBK159 ILG7:ILG159 IVC7:IVC159 JEY7:JEY159 JOU7:JOU159 JYQ7:JYQ159 KIM7:KIM159 KSI7:KSI159 LCE7:LCE159 LMA7:LMA159 LVW7:LVW159 MFS7:MFS159 MPO7:MPO159 MZK7:MZK159 NJG7:NJG159 NTC7:NTC159 OCY7:OCY159 OMU7:OMU159 OWQ7:OWQ159 PGM7:PGM159 PQI7:PQI159 QAE7:QAE159 QKA7:QKA159 QTW7:QTW159 RDS7:RDS159 RNO7:RNO159 RXK7:RXK159 SHG7:SHG159 SRC7:SRC159 TAY7:TAY159 TKU7:TKU159 TUQ7:TUQ159 UEM7:UEM159 UOI7:UOI159 UYE7:UYE159 VIA7:VIA159 VRW7:VRW159 WBS7:WBS159 WLO7:WLO159 WVK7:WVK159 L65543:L65695 IY65543:IY65695 SU65543:SU65695 ACQ65543:ACQ65695 AMM65543:AMM65695 AWI65543:AWI65695 BGE65543:BGE65695 BQA65543:BQA65695 BZW65543:BZW65695 CJS65543:CJS65695 CTO65543:CTO65695 DDK65543:DDK65695 DNG65543:DNG65695 DXC65543:DXC65695 EGY65543:EGY65695 EQU65543:EQU65695 FAQ65543:FAQ65695 FKM65543:FKM65695 FUI65543:FUI65695 GEE65543:GEE65695 GOA65543:GOA65695 GXW65543:GXW65695 HHS65543:HHS65695 HRO65543:HRO65695 IBK65543:IBK65695 ILG65543:ILG65695 IVC65543:IVC65695 JEY65543:JEY65695 JOU65543:JOU65695 JYQ65543:JYQ65695 KIM65543:KIM65695 KSI65543:KSI65695 LCE65543:LCE65695 LMA65543:LMA65695 LVW65543:LVW65695 MFS65543:MFS65695 MPO65543:MPO65695 MZK65543:MZK65695 NJG65543:NJG65695 NTC65543:NTC65695 OCY65543:OCY65695 OMU65543:OMU65695 OWQ65543:OWQ65695 PGM65543:PGM65695 PQI65543:PQI65695 QAE65543:QAE65695 QKA65543:QKA65695 QTW65543:QTW65695 RDS65543:RDS65695 RNO65543:RNO65695 RXK65543:RXK65695 SHG65543:SHG65695 SRC65543:SRC65695 TAY65543:TAY65695 TKU65543:TKU65695 TUQ65543:TUQ65695 UEM65543:UEM65695 UOI65543:UOI65695 UYE65543:UYE65695 VIA65543:VIA65695 VRW65543:VRW65695 WBS65543:WBS65695 WLO65543:WLO65695 WVK65543:WVK65695 L131079:L131231 IY131079:IY131231 SU131079:SU131231 ACQ131079:ACQ131231 AMM131079:AMM131231 AWI131079:AWI131231 BGE131079:BGE131231 BQA131079:BQA131231 BZW131079:BZW131231 CJS131079:CJS131231 CTO131079:CTO131231 DDK131079:DDK131231 DNG131079:DNG131231 DXC131079:DXC131231 EGY131079:EGY131231 EQU131079:EQU131231 FAQ131079:FAQ131231 FKM131079:FKM131231 FUI131079:FUI131231 GEE131079:GEE131231 GOA131079:GOA131231 GXW131079:GXW131231 HHS131079:HHS131231 HRO131079:HRO131231 IBK131079:IBK131231 ILG131079:ILG131231 IVC131079:IVC131231 JEY131079:JEY131231 JOU131079:JOU131231 JYQ131079:JYQ131231 KIM131079:KIM131231 KSI131079:KSI131231 LCE131079:LCE131231 LMA131079:LMA131231 LVW131079:LVW131231 MFS131079:MFS131231 MPO131079:MPO131231 MZK131079:MZK131231 NJG131079:NJG131231 NTC131079:NTC131231 OCY131079:OCY131231 OMU131079:OMU131231 OWQ131079:OWQ131231 PGM131079:PGM131231 PQI131079:PQI131231 QAE131079:QAE131231 QKA131079:QKA131231 QTW131079:QTW131231 RDS131079:RDS131231 RNO131079:RNO131231 RXK131079:RXK131231 SHG131079:SHG131231 SRC131079:SRC131231 TAY131079:TAY131231 TKU131079:TKU131231 TUQ131079:TUQ131231 UEM131079:UEM131231 UOI131079:UOI131231 UYE131079:UYE131231 VIA131079:VIA131231 VRW131079:VRW131231 WBS131079:WBS131231 WLO131079:WLO131231 WVK131079:WVK131231 L196615:L196767 IY196615:IY196767 SU196615:SU196767 ACQ196615:ACQ196767 AMM196615:AMM196767 AWI196615:AWI196767 BGE196615:BGE196767 BQA196615:BQA196767 BZW196615:BZW196767 CJS196615:CJS196767 CTO196615:CTO196767 DDK196615:DDK196767 DNG196615:DNG196767 DXC196615:DXC196767 EGY196615:EGY196767 EQU196615:EQU196767 FAQ196615:FAQ196767 FKM196615:FKM196767 FUI196615:FUI196767 GEE196615:GEE196767 GOA196615:GOA196767 GXW196615:GXW196767 HHS196615:HHS196767 HRO196615:HRO196767 IBK196615:IBK196767 ILG196615:ILG196767 IVC196615:IVC196767 JEY196615:JEY196767 JOU196615:JOU196767 JYQ196615:JYQ196767 KIM196615:KIM196767 KSI196615:KSI196767 LCE196615:LCE196767 LMA196615:LMA196767 LVW196615:LVW196767 MFS196615:MFS196767 MPO196615:MPO196767 MZK196615:MZK196767 NJG196615:NJG196767 NTC196615:NTC196767 OCY196615:OCY196767 OMU196615:OMU196767 OWQ196615:OWQ196767 PGM196615:PGM196767 PQI196615:PQI196767 QAE196615:QAE196767 QKA196615:QKA196767 QTW196615:QTW196767 RDS196615:RDS196767 RNO196615:RNO196767 RXK196615:RXK196767 SHG196615:SHG196767 SRC196615:SRC196767 TAY196615:TAY196767 TKU196615:TKU196767 TUQ196615:TUQ196767 UEM196615:UEM196767 UOI196615:UOI196767 UYE196615:UYE196767 VIA196615:VIA196767 VRW196615:VRW196767 WBS196615:WBS196767 WLO196615:WLO196767 WVK196615:WVK196767 L262151:L262303 IY262151:IY262303 SU262151:SU262303 ACQ262151:ACQ262303 AMM262151:AMM262303 AWI262151:AWI262303 BGE262151:BGE262303 BQA262151:BQA262303 BZW262151:BZW262303 CJS262151:CJS262303 CTO262151:CTO262303 DDK262151:DDK262303 DNG262151:DNG262303 DXC262151:DXC262303 EGY262151:EGY262303 EQU262151:EQU262303 FAQ262151:FAQ262303 FKM262151:FKM262303 FUI262151:FUI262303 GEE262151:GEE262303 GOA262151:GOA262303 GXW262151:GXW262303 HHS262151:HHS262303 HRO262151:HRO262303 IBK262151:IBK262303 ILG262151:ILG262303 IVC262151:IVC262303 JEY262151:JEY262303 JOU262151:JOU262303 JYQ262151:JYQ262303 KIM262151:KIM262303 KSI262151:KSI262303 LCE262151:LCE262303 LMA262151:LMA262303 LVW262151:LVW262303 MFS262151:MFS262303 MPO262151:MPO262303 MZK262151:MZK262303 NJG262151:NJG262303 NTC262151:NTC262303 OCY262151:OCY262303 OMU262151:OMU262303 OWQ262151:OWQ262303 PGM262151:PGM262303 PQI262151:PQI262303 QAE262151:QAE262303 QKA262151:QKA262303 QTW262151:QTW262303 RDS262151:RDS262303 RNO262151:RNO262303 RXK262151:RXK262303 SHG262151:SHG262303 SRC262151:SRC262303 TAY262151:TAY262303 TKU262151:TKU262303 TUQ262151:TUQ262303 UEM262151:UEM262303 UOI262151:UOI262303 UYE262151:UYE262303 VIA262151:VIA262303 VRW262151:VRW262303 WBS262151:WBS262303 WLO262151:WLO262303 WVK262151:WVK262303 L327687:L327839 IY327687:IY327839 SU327687:SU327839 ACQ327687:ACQ327839 AMM327687:AMM327839 AWI327687:AWI327839 BGE327687:BGE327839 BQA327687:BQA327839 BZW327687:BZW327839 CJS327687:CJS327839 CTO327687:CTO327839 DDK327687:DDK327839 DNG327687:DNG327839 DXC327687:DXC327839 EGY327687:EGY327839 EQU327687:EQU327839 FAQ327687:FAQ327839 FKM327687:FKM327839 FUI327687:FUI327839 GEE327687:GEE327839 GOA327687:GOA327839 GXW327687:GXW327839 HHS327687:HHS327839 HRO327687:HRO327839 IBK327687:IBK327839 ILG327687:ILG327839 IVC327687:IVC327839 JEY327687:JEY327839 JOU327687:JOU327839 JYQ327687:JYQ327839 KIM327687:KIM327839 KSI327687:KSI327839 LCE327687:LCE327839 LMA327687:LMA327839 LVW327687:LVW327839 MFS327687:MFS327839 MPO327687:MPO327839 MZK327687:MZK327839 NJG327687:NJG327839 NTC327687:NTC327839 OCY327687:OCY327839 OMU327687:OMU327839 OWQ327687:OWQ327839 PGM327687:PGM327839 PQI327687:PQI327839 QAE327687:QAE327839 QKA327687:QKA327839 QTW327687:QTW327839 RDS327687:RDS327839 RNO327687:RNO327839 RXK327687:RXK327839 SHG327687:SHG327839 SRC327687:SRC327839 TAY327687:TAY327839 TKU327687:TKU327839 TUQ327687:TUQ327839 UEM327687:UEM327839 UOI327687:UOI327839 UYE327687:UYE327839 VIA327687:VIA327839 VRW327687:VRW327839 WBS327687:WBS327839 WLO327687:WLO327839 WVK327687:WVK327839 L393223:L393375 IY393223:IY393375 SU393223:SU393375 ACQ393223:ACQ393375 AMM393223:AMM393375 AWI393223:AWI393375 BGE393223:BGE393375 BQA393223:BQA393375 BZW393223:BZW393375 CJS393223:CJS393375 CTO393223:CTO393375 DDK393223:DDK393375 DNG393223:DNG393375 DXC393223:DXC393375 EGY393223:EGY393375 EQU393223:EQU393375 FAQ393223:FAQ393375 FKM393223:FKM393375 FUI393223:FUI393375 GEE393223:GEE393375 GOA393223:GOA393375 GXW393223:GXW393375 HHS393223:HHS393375 HRO393223:HRO393375 IBK393223:IBK393375 ILG393223:ILG393375 IVC393223:IVC393375 JEY393223:JEY393375 JOU393223:JOU393375 JYQ393223:JYQ393375 KIM393223:KIM393375 KSI393223:KSI393375 LCE393223:LCE393375 LMA393223:LMA393375 LVW393223:LVW393375 MFS393223:MFS393375 MPO393223:MPO393375 MZK393223:MZK393375 NJG393223:NJG393375 NTC393223:NTC393375 OCY393223:OCY393375 OMU393223:OMU393375 OWQ393223:OWQ393375 PGM393223:PGM393375 PQI393223:PQI393375 QAE393223:QAE393375 QKA393223:QKA393375 QTW393223:QTW393375 RDS393223:RDS393375 RNO393223:RNO393375 RXK393223:RXK393375 SHG393223:SHG393375 SRC393223:SRC393375 TAY393223:TAY393375 TKU393223:TKU393375 TUQ393223:TUQ393375 UEM393223:UEM393375 UOI393223:UOI393375 UYE393223:UYE393375 VIA393223:VIA393375 VRW393223:VRW393375 WBS393223:WBS393375 WLO393223:WLO393375 WVK393223:WVK393375 L458759:L458911 IY458759:IY458911 SU458759:SU458911 ACQ458759:ACQ458911 AMM458759:AMM458911 AWI458759:AWI458911 BGE458759:BGE458911 BQA458759:BQA458911 BZW458759:BZW458911 CJS458759:CJS458911 CTO458759:CTO458911 DDK458759:DDK458911 DNG458759:DNG458911 DXC458759:DXC458911 EGY458759:EGY458911 EQU458759:EQU458911 FAQ458759:FAQ458911 FKM458759:FKM458911 FUI458759:FUI458911 GEE458759:GEE458911 GOA458759:GOA458911 GXW458759:GXW458911 HHS458759:HHS458911 HRO458759:HRO458911 IBK458759:IBK458911 ILG458759:ILG458911 IVC458759:IVC458911 JEY458759:JEY458911 JOU458759:JOU458911 JYQ458759:JYQ458911 KIM458759:KIM458911 KSI458759:KSI458911 LCE458759:LCE458911 LMA458759:LMA458911 LVW458759:LVW458911 MFS458759:MFS458911 MPO458759:MPO458911 MZK458759:MZK458911 NJG458759:NJG458911 NTC458759:NTC458911 OCY458759:OCY458911 OMU458759:OMU458911 OWQ458759:OWQ458911 PGM458759:PGM458911 PQI458759:PQI458911 QAE458759:QAE458911 QKA458759:QKA458911 QTW458759:QTW458911 RDS458759:RDS458911 RNO458759:RNO458911 RXK458759:RXK458911 SHG458759:SHG458911 SRC458759:SRC458911 TAY458759:TAY458911 TKU458759:TKU458911 TUQ458759:TUQ458911 UEM458759:UEM458911 UOI458759:UOI458911 UYE458759:UYE458911 VIA458759:VIA458911 VRW458759:VRW458911 WBS458759:WBS458911 WLO458759:WLO458911 WVK458759:WVK458911 L524295:L524447 IY524295:IY524447 SU524295:SU524447 ACQ524295:ACQ524447 AMM524295:AMM524447 AWI524295:AWI524447 BGE524295:BGE524447 BQA524295:BQA524447 BZW524295:BZW524447 CJS524295:CJS524447 CTO524295:CTO524447 DDK524295:DDK524447 DNG524295:DNG524447 DXC524295:DXC524447 EGY524295:EGY524447 EQU524295:EQU524447 FAQ524295:FAQ524447 FKM524295:FKM524447 FUI524295:FUI524447 GEE524295:GEE524447 GOA524295:GOA524447 GXW524295:GXW524447 HHS524295:HHS524447 HRO524295:HRO524447 IBK524295:IBK524447 ILG524295:ILG524447 IVC524295:IVC524447 JEY524295:JEY524447 JOU524295:JOU524447 JYQ524295:JYQ524447 KIM524295:KIM524447 KSI524295:KSI524447 LCE524295:LCE524447 LMA524295:LMA524447 LVW524295:LVW524447 MFS524295:MFS524447 MPO524295:MPO524447 MZK524295:MZK524447 NJG524295:NJG524447 NTC524295:NTC524447 OCY524295:OCY524447 OMU524295:OMU524447 OWQ524295:OWQ524447 PGM524295:PGM524447 PQI524295:PQI524447 QAE524295:QAE524447 QKA524295:QKA524447 QTW524295:QTW524447 RDS524295:RDS524447 RNO524295:RNO524447 RXK524295:RXK524447 SHG524295:SHG524447 SRC524295:SRC524447 TAY524295:TAY524447 TKU524295:TKU524447 TUQ524295:TUQ524447 UEM524295:UEM524447 UOI524295:UOI524447 UYE524295:UYE524447 VIA524295:VIA524447 VRW524295:VRW524447 WBS524295:WBS524447 WLO524295:WLO524447 WVK524295:WVK524447 L589831:L589983 IY589831:IY589983 SU589831:SU589983 ACQ589831:ACQ589983 AMM589831:AMM589983 AWI589831:AWI589983 BGE589831:BGE589983 BQA589831:BQA589983 BZW589831:BZW589983 CJS589831:CJS589983 CTO589831:CTO589983 DDK589831:DDK589983 DNG589831:DNG589983 DXC589831:DXC589983 EGY589831:EGY589983 EQU589831:EQU589983 FAQ589831:FAQ589983 FKM589831:FKM589983 FUI589831:FUI589983 GEE589831:GEE589983 GOA589831:GOA589983 GXW589831:GXW589983 HHS589831:HHS589983 HRO589831:HRO589983 IBK589831:IBK589983 ILG589831:ILG589983 IVC589831:IVC589983 JEY589831:JEY589983 JOU589831:JOU589983 JYQ589831:JYQ589983 KIM589831:KIM589983 KSI589831:KSI589983 LCE589831:LCE589983 LMA589831:LMA589983 LVW589831:LVW589983 MFS589831:MFS589983 MPO589831:MPO589983 MZK589831:MZK589983 NJG589831:NJG589983 NTC589831:NTC589983 OCY589831:OCY589983 OMU589831:OMU589983 OWQ589831:OWQ589983 PGM589831:PGM589983 PQI589831:PQI589983 QAE589831:QAE589983 QKA589831:QKA589983 QTW589831:QTW589983 RDS589831:RDS589983 RNO589831:RNO589983 RXK589831:RXK589983 SHG589831:SHG589983 SRC589831:SRC589983 TAY589831:TAY589983 TKU589831:TKU589983 TUQ589831:TUQ589983 UEM589831:UEM589983 UOI589831:UOI589983 UYE589831:UYE589983 VIA589831:VIA589983 VRW589831:VRW589983 WBS589831:WBS589983 WLO589831:WLO589983 WVK589831:WVK589983 L655367:L655519 IY655367:IY655519 SU655367:SU655519 ACQ655367:ACQ655519 AMM655367:AMM655519 AWI655367:AWI655519 BGE655367:BGE655519 BQA655367:BQA655519 BZW655367:BZW655519 CJS655367:CJS655519 CTO655367:CTO655519 DDK655367:DDK655519 DNG655367:DNG655519 DXC655367:DXC655519 EGY655367:EGY655519 EQU655367:EQU655519 FAQ655367:FAQ655519 FKM655367:FKM655519 FUI655367:FUI655519 GEE655367:GEE655519 GOA655367:GOA655519 GXW655367:GXW655519 HHS655367:HHS655519 HRO655367:HRO655519 IBK655367:IBK655519 ILG655367:ILG655519 IVC655367:IVC655519 JEY655367:JEY655519 JOU655367:JOU655519 JYQ655367:JYQ655519 KIM655367:KIM655519 KSI655367:KSI655519 LCE655367:LCE655519 LMA655367:LMA655519 LVW655367:LVW655519 MFS655367:MFS655519 MPO655367:MPO655519 MZK655367:MZK655519 NJG655367:NJG655519 NTC655367:NTC655519 OCY655367:OCY655519 OMU655367:OMU655519 OWQ655367:OWQ655519 PGM655367:PGM655519 PQI655367:PQI655519 QAE655367:QAE655519 QKA655367:QKA655519 QTW655367:QTW655519 RDS655367:RDS655519 RNO655367:RNO655519 RXK655367:RXK655519 SHG655367:SHG655519 SRC655367:SRC655519 TAY655367:TAY655519 TKU655367:TKU655519 TUQ655367:TUQ655519 UEM655367:UEM655519 UOI655367:UOI655519 UYE655367:UYE655519 VIA655367:VIA655519 VRW655367:VRW655519 WBS655367:WBS655519 WLO655367:WLO655519 WVK655367:WVK655519 L720903:L721055 IY720903:IY721055 SU720903:SU721055 ACQ720903:ACQ721055 AMM720903:AMM721055 AWI720903:AWI721055 BGE720903:BGE721055 BQA720903:BQA721055 BZW720903:BZW721055 CJS720903:CJS721055 CTO720903:CTO721055 DDK720903:DDK721055 DNG720903:DNG721055 DXC720903:DXC721055 EGY720903:EGY721055 EQU720903:EQU721055 FAQ720903:FAQ721055 FKM720903:FKM721055 FUI720903:FUI721055 GEE720903:GEE721055 GOA720903:GOA721055 GXW720903:GXW721055 HHS720903:HHS721055 HRO720903:HRO721055 IBK720903:IBK721055 ILG720903:ILG721055 IVC720903:IVC721055 JEY720903:JEY721055 JOU720903:JOU721055 JYQ720903:JYQ721055 KIM720903:KIM721055 KSI720903:KSI721055 LCE720903:LCE721055 LMA720903:LMA721055 LVW720903:LVW721055 MFS720903:MFS721055 MPO720903:MPO721055 MZK720903:MZK721055 NJG720903:NJG721055 NTC720903:NTC721055 OCY720903:OCY721055 OMU720903:OMU721055 OWQ720903:OWQ721055 PGM720903:PGM721055 PQI720903:PQI721055 QAE720903:QAE721055 QKA720903:QKA721055 QTW720903:QTW721055 RDS720903:RDS721055 RNO720903:RNO721055 RXK720903:RXK721055 SHG720903:SHG721055 SRC720903:SRC721055 TAY720903:TAY721055 TKU720903:TKU721055 TUQ720903:TUQ721055 UEM720903:UEM721055 UOI720903:UOI721055 UYE720903:UYE721055 VIA720903:VIA721055 VRW720903:VRW721055 WBS720903:WBS721055 WLO720903:WLO721055 WVK720903:WVK721055 L786439:L786591 IY786439:IY786591 SU786439:SU786591 ACQ786439:ACQ786591 AMM786439:AMM786591 AWI786439:AWI786591 BGE786439:BGE786591 BQA786439:BQA786591 BZW786439:BZW786591 CJS786439:CJS786591 CTO786439:CTO786591 DDK786439:DDK786591 DNG786439:DNG786591 DXC786439:DXC786591 EGY786439:EGY786591 EQU786439:EQU786591 FAQ786439:FAQ786591 FKM786439:FKM786591 FUI786439:FUI786591 GEE786439:GEE786591 GOA786439:GOA786591 GXW786439:GXW786591 HHS786439:HHS786591 HRO786439:HRO786591 IBK786439:IBK786591 ILG786439:ILG786591 IVC786439:IVC786591 JEY786439:JEY786591 JOU786439:JOU786591 JYQ786439:JYQ786591 KIM786439:KIM786591 KSI786439:KSI786591 LCE786439:LCE786591 LMA786439:LMA786591 LVW786439:LVW786591 MFS786439:MFS786591 MPO786439:MPO786591 MZK786439:MZK786591 NJG786439:NJG786591 NTC786439:NTC786591 OCY786439:OCY786591 OMU786439:OMU786591 OWQ786439:OWQ786591 PGM786439:PGM786591 PQI786439:PQI786591 QAE786439:QAE786591 QKA786439:QKA786591 QTW786439:QTW786591 RDS786439:RDS786591 RNO786439:RNO786591 RXK786439:RXK786591 SHG786439:SHG786591 SRC786439:SRC786591 TAY786439:TAY786591 TKU786439:TKU786591 TUQ786439:TUQ786591 UEM786439:UEM786591 UOI786439:UOI786591 UYE786439:UYE786591 VIA786439:VIA786591 VRW786439:VRW786591 WBS786439:WBS786591 WLO786439:WLO786591 WVK786439:WVK786591 L851975:L852127 IY851975:IY852127 SU851975:SU852127 ACQ851975:ACQ852127 AMM851975:AMM852127 AWI851975:AWI852127 BGE851975:BGE852127 BQA851975:BQA852127 BZW851975:BZW852127 CJS851975:CJS852127 CTO851975:CTO852127 DDK851975:DDK852127 DNG851975:DNG852127 DXC851975:DXC852127 EGY851975:EGY852127 EQU851975:EQU852127 FAQ851975:FAQ852127 FKM851975:FKM852127 FUI851975:FUI852127 GEE851975:GEE852127 GOA851975:GOA852127 GXW851975:GXW852127 HHS851975:HHS852127 HRO851975:HRO852127 IBK851975:IBK852127 ILG851975:ILG852127 IVC851975:IVC852127 JEY851975:JEY852127 JOU851975:JOU852127 JYQ851975:JYQ852127 KIM851975:KIM852127 KSI851975:KSI852127 LCE851975:LCE852127 LMA851975:LMA852127 LVW851975:LVW852127 MFS851975:MFS852127 MPO851975:MPO852127 MZK851975:MZK852127 NJG851975:NJG852127 NTC851975:NTC852127 OCY851975:OCY852127 OMU851975:OMU852127 OWQ851975:OWQ852127 PGM851975:PGM852127 PQI851975:PQI852127 QAE851975:QAE852127 QKA851975:QKA852127 QTW851975:QTW852127 RDS851975:RDS852127 RNO851975:RNO852127 RXK851975:RXK852127 SHG851975:SHG852127 SRC851975:SRC852127 TAY851975:TAY852127 TKU851975:TKU852127 TUQ851975:TUQ852127 UEM851975:UEM852127 UOI851975:UOI852127 UYE851975:UYE852127 VIA851975:VIA852127 VRW851975:VRW852127 WBS851975:WBS852127 WLO851975:WLO852127 WVK851975:WVK852127 L917511:L917663 IY917511:IY917663 SU917511:SU917663 ACQ917511:ACQ917663 AMM917511:AMM917663 AWI917511:AWI917663 BGE917511:BGE917663 BQA917511:BQA917663 BZW917511:BZW917663 CJS917511:CJS917663 CTO917511:CTO917663 DDK917511:DDK917663 DNG917511:DNG917663 DXC917511:DXC917663 EGY917511:EGY917663 EQU917511:EQU917663 FAQ917511:FAQ917663 FKM917511:FKM917663 FUI917511:FUI917663 GEE917511:GEE917663 GOA917511:GOA917663 GXW917511:GXW917663 HHS917511:HHS917663 HRO917511:HRO917663 IBK917511:IBK917663 ILG917511:ILG917663 IVC917511:IVC917663 JEY917511:JEY917663 JOU917511:JOU917663 JYQ917511:JYQ917663 KIM917511:KIM917663 KSI917511:KSI917663 LCE917511:LCE917663 LMA917511:LMA917663 LVW917511:LVW917663 MFS917511:MFS917663 MPO917511:MPO917663 MZK917511:MZK917663 NJG917511:NJG917663 NTC917511:NTC917663 OCY917511:OCY917663 OMU917511:OMU917663 OWQ917511:OWQ917663 PGM917511:PGM917663 PQI917511:PQI917663 QAE917511:QAE917663 QKA917511:QKA917663 QTW917511:QTW917663 RDS917511:RDS917663 RNO917511:RNO917663 RXK917511:RXK917663 SHG917511:SHG917663 SRC917511:SRC917663 TAY917511:TAY917663 TKU917511:TKU917663 TUQ917511:TUQ917663 UEM917511:UEM917663 UOI917511:UOI917663 UYE917511:UYE917663 VIA917511:VIA917663 VRW917511:VRW917663 WBS917511:WBS917663 WLO917511:WLO917663 WVK917511:WVK917663 L983047:L983199 IY983047:IY983199 SU983047:SU983199 ACQ983047:ACQ983199 AMM983047:AMM983199 AWI983047:AWI983199 BGE983047:BGE983199 BQA983047:BQA983199 BZW983047:BZW983199 CJS983047:CJS983199 CTO983047:CTO983199 DDK983047:DDK983199 DNG983047:DNG983199 DXC983047:DXC983199 EGY983047:EGY983199 EQU983047:EQU983199 FAQ983047:FAQ983199 FKM983047:FKM983199 FUI983047:FUI983199 GEE983047:GEE983199 GOA983047:GOA983199 GXW983047:GXW983199 HHS983047:HHS983199 HRO983047:HRO983199 IBK983047:IBK983199 ILG983047:ILG983199 IVC983047:IVC983199 JEY983047:JEY983199 JOU983047:JOU983199 JYQ983047:JYQ983199 KIM983047:KIM983199 KSI983047:KSI983199 LCE983047:LCE983199 LMA983047:LMA983199 LVW983047:LVW983199 MFS983047:MFS983199 MPO983047:MPO983199 MZK983047:MZK983199 NJG983047:NJG983199 NTC983047:NTC983199 OCY983047:OCY983199 OMU983047:OMU983199 OWQ983047:OWQ983199 PGM983047:PGM983199 PQI983047:PQI983199 QAE983047:QAE983199 QKA983047:QKA983199 QTW983047:QTW983199 RDS983047:RDS983199 RNO983047:RNO983199 RXK983047:RXK983199 SHG983047:SHG983199 SRC983047:SRC983199 TAY983047:TAY983199 TKU983047:TKU983199 TUQ983047:TUQ983199 UEM983047:UEM983199 UOI983047:UOI983199 UYE983047:UYE983199 VIA983047:VIA983199 VRW983047:VRW983199 WBS983047:WBS983199 WLO983047:WLO983199 WVK983047:WVK983199" xr:uid="{9D3809C6-2706-41E8-B9C2-EB4A0B9B8106}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IW7:IW159 J7:J159 SS7:SS159 ACO7:ACO159 AMK7:AMK159 AWG7:AWG159 BGC7:BGC159 BPY7:BPY159 BZU7:BZU159 CJQ7:CJQ159 CTM7:CTM159 DDI7:DDI159 DNE7:DNE159 DXA7:DXA159 EGW7:EGW159 EQS7:EQS159 FAO7:FAO159 FKK7:FKK159 FUG7:FUG159 GEC7:GEC159 GNY7:GNY159 GXU7:GXU159 HHQ7:HHQ159 HRM7:HRM159 IBI7:IBI159 ILE7:ILE159 IVA7:IVA159 JEW7:JEW159 JOS7:JOS159 JYO7:JYO159 KIK7:KIK159 KSG7:KSG159 LCC7:LCC159 LLY7:LLY159 LVU7:LVU159 MFQ7:MFQ159 MPM7:MPM159 MZI7:MZI159 NJE7:NJE159 NTA7:NTA159 OCW7:OCW159 OMS7:OMS159 OWO7:OWO159 PGK7:PGK159 PQG7:PQG159 QAC7:QAC159 QJY7:QJY159 QTU7:QTU159 RDQ7:RDQ159 RNM7:RNM159 RXI7:RXI159 SHE7:SHE159 SRA7:SRA159 TAW7:TAW159 TKS7:TKS159 TUO7:TUO159 UEK7:UEK159 UOG7:UOG159 UYC7:UYC159 VHY7:VHY159 VRU7:VRU159 WBQ7:WBQ159 WLM7:WLM159 WVI7:WVI159 J65543:J65695 IW65543:IW65695 SS65543:SS65695 ACO65543:ACO65695 AMK65543:AMK65695 AWG65543:AWG65695 BGC65543:BGC65695 BPY65543:BPY65695 BZU65543:BZU65695 CJQ65543:CJQ65695 CTM65543:CTM65695 DDI65543:DDI65695 DNE65543:DNE65695 DXA65543:DXA65695 EGW65543:EGW65695 EQS65543:EQS65695 FAO65543:FAO65695 FKK65543:FKK65695 FUG65543:FUG65695 GEC65543:GEC65695 GNY65543:GNY65695 GXU65543:GXU65695 HHQ65543:HHQ65695 HRM65543:HRM65695 IBI65543:IBI65695 ILE65543:ILE65695 IVA65543:IVA65695 JEW65543:JEW65695 JOS65543:JOS65695 JYO65543:JYO65695 KIK65543:KIK65695 KSG65543:KSG65695 LCC65543:LCC65695 LLY65543:LLY65695 LVU65543:LVU65695 MFQ65543:MFQ65695 MPM65543:MPM65695 MZI65543:MZI65695 NJE65543:NJE65695 NTA65543:NTA65695 OCW65543:OCW65695 OMS65543:OMS65695 OWO65543:OWO65695 PGK65543:PGK65695 PQG65543:PQG65695 QAC65543:QAC65695 QJY65543:QJY65695 QTU65543:QTU65695 RDQ65543:RDQ65695 RNM65543:RNM65695 RXI65543:RXI65695 SHE65543:SHE65695 SRA65543:SRA65695 TAW65543:TAW65695 TKS65543:TKS65695 TUO65543:TUO65695 UEK65543:UEK65695 UOG65543:UOG65695 UYC65543:UYC65695 VHY65543:VHY65695 VRU65543:VRU65695 WBQ65543:WBQ65695 WLM65543:WLM65695 WVI65543:WVI65695 J131079:J131231 IW131079:IW131231 SS131079:SS131231 ACO131079:ACO131231 AMK131079:AMK131231 AWG131079:AWG131231 BGC131079:BGC131231 BPY131079:BPY131231 BZU131079:BZU131231 CJQ131079:CJQ131231 CTM131079:CTM131231 DDI131079:DDI131231 DNE131079:DNE131231 DXA131079:DXA131231 EGW131079:EGW131231 EQS131079:EQS131231 FAO131079:FAO131231 FKK131079:FKK131231 FUG131079:FUG131231 GEC131079:GEC131231 GNY131079:GNY131231 GXU131079:GXU131231 HHQ131079:HHQ131231 HRM131079:HRM131231 IBI131079:IBI131231 ILE131079:ILE131231 IVA131079:IVA131231 JEW131079:JEW131231 JOS131079:JOS131231 JYO131079:JYO131231 KIK131079:KIK131231 KSG131079:KSG131231 LCC131079:LCC131231 LLY131079:LLY131231 LVU131079:LVU131231 MFQ131079:MFQ131231 MPM131079:MPM131231 MZI131079:MZI131231 NJE131079:NJE131231 NTA131079:NTA131231 OCW131079:OCW131231 OMS131079:OMS131231 OWO131079:OWO131231 PGK131079:PGK131231 PQG131079:PQG131231 QAC131079:QAC131231 QJY131079:QJY131231 QTU131079:QTU131231 RDQ131079:RDQ131231 RNM131079:RNM131231 RXI131079:RXI131231 SHE131079:SHE131231 SRA131079:SRA131231 TAW131079:TAW131231 TKS131079:TKS131231 TUO131079:TUO131231 UEK131079:UEK131231 UOG131079:UOG131231 UYC131079:UYC131231 VHY131079:VHY131231 VRU131079:VRU131231 WBQ131079:WBQ131231 WLM131079:WLM131231 WVI131079:WVI131231 J196615:J196767 IW196615:IW196767 SS196615:SS196767 ACO196615:ACO196767 AMK196615:AMK196767 AWG196615:AWG196767 BGC196615:BGC196767 BPY196615:BPY196767 BZU196615:BZU196767 CJQ196615:CJQ196767 CTM196615:CTM196767 DDI196615:DDI196767 DNE196615:DNE196767 DXA196615:DXA196767 EGW196615:EGW196767 EQS196615:EQS196767 FAO196615:FAO196767 FKK196615:FKK196767 FUG196615:FUG196767 GEC196615:GEC196767 GNY196615:GNY196767 GXU196615:GXU196767 HHQ196615:HHQ196767 HRM196615:HRM196767 IBI196615:IBI196767 ILE196615:ILE196767 IVA196615:IVA196767 JEW196615:JEW196767 JOS196615:JOS196767 JYO196615:JYO196767 KIK196615:KIK196767 KSG196615:KSG196767 LCC196615:LCC196767 LLY196615:LLY196767 LVU196615:LVU196767 MFQ196615:MFQ196767 MPM196615:MPM196767 MZI196615:MZI196767 NJE196615:NJE196767 NTA196615:NTA196767 OCW196615:OCW196767 OMS196615:OMS196767 OWO196615:OWO196767 PGK196615:PGK196767 PQG196615:PQG196767 QAC196615:QAC196767 QJY196615:QJY196767 QTU196615:QTU196767 RDQ196615:RDQ196767 RNM196615:RNM196767 RXI196615:RXI196767 SHE196615:SHE196767 SRA196615:SRA196767 TAW196615:TAW196767 TKS196615:TKS196767 TUO196615:TUO196767 UEK196615:UEK196767 UOG196615:UOG196767 UYC196615:UYC196767 VHY196615:VHY196767 VRU196615:VRU196767 WBQ196615:WBQ196767 WLM196615:WLM196767 WVI196615:WVI196767 J262151:J262303 IW262151:IW262303 SS262151:SS262303 ACO262151:ACO262303 AMK262151:AMK262303 AWG262151:AWG262303 BGC262151:BGC262303 BPY262151:BPY262303 BZU262151:BZU262303 CJQ262151:CJQ262303 CTM262151:CTM262303 DDI262151:DDI262303 DNE262151:DNE262303 DXA262151:DXA262303 EGW262151:EGW262303 EQS262151:EQS262303 FAO262151:FAO262303 FKK262151:FKK262303 FUG262151:FUG262303 GEC262151:GEC262303 GNY262151:GNY262303 GXU262151:GXU262303 HHQ262151:HHQ262303 HRM262151:HRM262303 IBI262151:IBI262303 ILE262151:ILE262303 IVA262151:IVA262303 JEW262151:JEW262303 JOS262151:JOS262303 JYO262151:JYO262303 KIK262151:KIK262303 KSG262151:KSG262303 LCC262151:LCC262303 LLY262151:LLY262303 LVU262151:LVU262303 MFQ262151:MFQ262303 MPM262151:MPM262303 MZI262151:MZI262303 NJE262151:NJE262303 NTA262151:NTA262303 OCW262151:OCW262303 OMS262151:OMS262303 OWO262151:OWO262303 PGK262151:PGK262303 PQG262151:PQG262303 QAC262151:QAC262303 QJY262151:QJY262303 QTU262151:QTU262303 RDQ262151:RDQ262303 RNM262151:RNM262303 RXI262151:RXI262303 SHE262151:SHE262303 SRA262151:SRA262303 TAW262151:TAW262303 TKS262151:TKS262303 TUO262151:TUO262303 UEK262151:UEK262303 UOG262151:UOG262303 UYC262151:UYC262303 VHY262151:VHY262303 VRU262151:VRU262303 WBQ262151:WBQ262303 WLM262151:WLM262303 WVI262151:WVI262303 J327687:J327839 IW327687:IW327839 SS327687:SS327839 ACO327687:ACO327839 AMK327687:AMK327839 AWG327687:AWG327839 BGC327687:BGC327839 BPY327687:BPY327839 BZU327687:BZU327839 CJQ327687:CJQ327839 CTM327687:CTM327839 DDI327687:DDI327839 DNE327687:DNE327839 DXA327687:DXA327839 EGW327687:EGW327839 EQS327687:EQS327839 FAO327687:FAO327839 FKK327687:FKK327839 FUG327687:FUG327839 GEC327687:GEC327839 GNY327687:GNY327839 GXU327687:GXU327839 HHQ327687:HHQ327839 HRM327687:HRM327839 IBI327687:IBI327839 ILE327687:ILE327839 IVA327687:IVA327839 JEW327687:JEW327839 JOS327687:JOS327839 JYO327687:JYO327839 KIK327687:KIK327839 KSG327687:KSG327839 LCC327687:LCC327839 LLY327687:LLY327839 LVU327687:LVU327839 MFQ327687:MFQ327839 MPM327687:MPM327839 MZI327687:MZI327839 NJE327687:NJE327839 NTA327687:NTA327839 OCW327687:OCW327839 OMS327687:OMS327839 OWO327687:OWO327839 PGK327687:PGK327839 PQG327687:PQG327839 QAC327687:QAC327839 QJY327687:QJY327839 QTU327687:QTU327839 RDQ327687:RDQ327839 RNM327687:RNM327839 RXI327687:RXI327839 SHE327687:SHE327839 SRA327687:SRA327839 TAW327687:TAW327839 TKS327687:TKS327839 TUO327687:TUO327839 UEK327687:UEK327839 UOG327687:UOG327839 UYC327687:UYC327839 VHY327687:VHY327839 VRU327687:VRU327839 WBQ327687:WBQ327839 WLM327687:WLM327839 WVI327687:WVI327839 J393223:J393375 IW393223:IW393375 SS393223:SS393375 ACO393223:ACO393375 AMK393223:AMK393375 AWG393223:AWG393375 BGC393223:BGC393375 BPY393223:BPY393375 BZU393223:BZU393375 CJQ393223:CJQ393375 CTM393223:CTM393375 DDI393223:DDI393375 DNE393223:DNE393375 DXA393223:DXA393375 EGW393223:EGW393375 EQS393223:EQS393375 FAO393223:FAO393375 FKK393223:FKK393375 FUG393223:FUG393375 GEC393223:GEC393375 GNY393223:GNY393375 GXU393223:GXU393375 HHQ393223:HHQ393375 HRM393223:HRM393375 IBI393223:IBI393375 ILE393223:ILE393375 IVA393223:IVA393375 JEW393223:JEW393375 JOS393223:JOS393375 JYO393223:JYO393375 KIK393223:KIK393375 KSG393223:KSG393375 LCC393223:LCC393375 LLY393223:LLY393375 LVU393223:LVU393375 MFQ393223:MFQ393375 MPM393223:MPM393375 MZI393223:MZI393375 NJE393223:NJE393375 NTA393223:NTA393375 OCW393223:OCW393375 OMS393223:OMS393375 OWO393223:OWO393375 PGK393223:PGK393375 PQG393223:PQG393375 QAC393223:QAC393375 QJY393223:QJY393375 QTU393223:QTU393375 RDQ393223:RDQ393375 RNM393223:RNM393375 RXI393223:RXI393375 SHE393223:SHE393375 SRA393223:SRA393375 TAW393223:TAW393375 TKS393223:TKS393375 TUO393223:TUO393375 UEK393223:UEK393375 UOG393223:UOG393375 UYC393223:UYC393375 VHY393223:VHY393375 VRU393223:VRU393375 WBQ393223:WBQ393375 WLM393223:WLM393375 WVI393223:WVI393375 J458759:J458911 IW458759:IW458911 SS458759:SS458911 ACO458759:ACO458911 AMK458759:AMK458911 AWG458759:AWG458911 BGC458759:BGC458911 BPY458759:BPY458911 BZU458759:BZU458911 CJQ458759:CJQ458911 CTM458759:CTM458911 DDI458759:DDI458911 DNE458759:DNE458911 DXA458759:DXA458911 EGW458759:EGW458911 EQS458759:EQS458911 FAO458759:FAO458911 FKK458759:FKK458911 FUG458759:FUG458911 GEC458759:GEC458911 GNY458759:GNY458911 GXU458759:GXU458911 HHQ458759:HHQ458911 HRM458759:HRM458911 IBI458759:IBI458911 ILE458759:ILE458911 IVA458759:IVA458911 JEW458759:JEW458911 JOS458759:JOS458911 JYO458759:JYO458911 KIK458759:KIK458911 KSG458759:KSG458911 LCC458759:LCC458911 LLY458759:LLY458911 LVU458759:LVU458911 MFQ458759:MFQ458911 MPM458759:MPM458911 MZI458759:MZI458911 NJE458759:NJE458911 NTA458759:NTA458911 OCW458759:OCW458911 OMS458759:OMS458911 OWO458759:OWO458911 PGK458759:PGK458911 PQG458759:PQG458911 QAC458759:QAC458911 QJY458759:QJY458911 QTU458759:QTU458911 RDQ458759:RDQ458911 RNM458759:RNM458911 RXI458759:RXI458911 SHE458759:SHE458911 SRA458759:SRA458911 TAW458759:TAW458911 TKS458759:TKS458911 TUO458759:TUO458911 UEK458759:UEK458911 UOG458759:UOG458911 UYC458759:UYC458911 VHY458759:VHY458911 VRU458759:VRU458911 WBQ458759:WBQ458911 WLM458759:WLM458911 WVI458759:WVI458911 J524295:J524447 IW524295:IW524447 SS524295:SS524447 ACO524295:ACO524447 AMK524295:AMK524447 AWG524295:AWG524447 BGC524295:BGC524447 BPY524295:BPY524447 BZU524295:BZU524447 CJQ524295:CJQ524447 CTM524295:CTM524447 DDI524295:DDI524447 DNE524295:DNE524447 DXA524295:DXA524447 EGW524295:EGW524447 EQS524295:EQS524447 FAO524295:FAO524447 FKK524295:FKK524447 FUG524295:FUG524447 GEC524295:GEC524447 GNY524295:GNY524447 GXU524295:GXU524447 HHQ524295:HHQ524447 HRM524295:HRM524447 IBI524295:IBI524447 ILE524295:ILE524447 IVA524295:IVA524447 JEW524295:JEW524447 JOS524295:JOS524447 JYO524295:JYO524447 KIK524295:KIK524447 KSG524295:KSG524447 LCC524295:LCC524447 LLY524295:LLY524447 LVU524295:LVU524447 MFQ524295:MFQ524447 MPM524295:MPM524447 MZI524295:MZI524447 NJE524295:NJE524447 NTA524295:NTA524447 OCW524295:OCW524447 OMS524295:OMS524447 OWO524295:OWO524447 PGK524295:PGK524447 PQG524295:PQG524447 QAC524295:QAC524447 QJY524295:QJY524447 QTU524295:QTU524447 RDQ524295:RDQ524447 RNM524295:RNM524447 RXI524295:RXI524447 SHE524295:SHE524447 SRA524295:SRA524447 TAW524295:TAW524447 TKS524295:TKS524447 TUO524295:TUO524447 UEK524295:UEK524447 UOG524295:UOG524447 UYC524295:UYC524447 VHY524295:VHY524447 VRU524295:VRU524447 WBQ524295:WBQ524447 WLM524295:WLM524447 WVI524295:WVI524447 J589831:J589983 IW589831:IW589983 SS589831:SS589983 ACO589831:ACO589983 AMK589831:AMK589983 AWG589831:AWG589983 BGC589831:BGC589983 BPY589831:BPY589983 BZU589831:BZU589983 CJQ589831:CJQ589983 CTM589831:CTM589983 DDI589831:DDI589983 DNE589831:DNE589983 DXA589831:DXA589983 EGW589831:EGW589983 EQS589831:EQS589983 FAO589831:FAO589983 FKK589831:FKK589983 FUG589831:FUG589983 GEC589831:GEC589983 GNY589831:GNY589983 GXU589831:GXU589983 HHQ589831:HHQ589983 HRM589831:HRM589983 IBI589831:IBI589983 ILE589831:ILE589983 IVA589831:IVA589983 JEW589831:JEW589983 JOS589831:JOS589983 JYO589831:JYO589983 KIK589831:KIK589983 KSG589831:KSG589983 LCC589831:LCC589983 LLY589831:LLY589983 LVU589831:LVU589983 MFQ589831:MFQ589983 MPM589831:MPM589983 MZI589831:MZI589983 NJE589831:NJE589983 NTA589831:NTA589983 OCW589831:OCW589983 OMS589831:OMS589983 OWO589831:OWO589983 PGK589831:PGK589983 PQG589831:PQG589983 QAC589831:QAC589983 QJY589831:QJY589983 QTU589831:QTU589983 RDQ589831:RDQ589983 RNM589831:RNM589983 RXI589831:RXI589983 SHE589831:SHE589983 SRA589831:SRA589983 TAW589831:TAW589983 TKS589831:TKS589983 TUO589831:TUO589983 UEK589831:UEK589983 UOG589831:UOG589983 UYC589831:UYC589983 VHY589831:VHY589983 VRU589831:VRU589983 WBQ589831:WBQ589983 WLM589831:WLM589983 WVI589831:WVI589983 J655367:J655519 IW655367:IW655519 SS655367:SS655519 ACO655367:ACO655519 AMK655367:AMK655519 AWG655367:AWG655519 BGC655367:BGC655519 BPY655367:BPY655519 BZU655367:BZU655519 CJQ655367:CJQ655519 CTM655367:CTM655519 DDI655367:DDI655519 DNE655367:DNE655519 DXA655367:DXA655519 EGW655367:EGW655519 EQS655367:EQS655519 FAO655367:FAO655519 FKK655367:FKK655519 FUG655367:FUG655519 GEC655367:GEC655519 GNY655367:GNY655519 GXU655367:GXU655519 HHQ655367:HHQ655519 HRM655367:HRM655519 IBI655367:IBI655519 ILE655367:ILE655519 IVA655367:IVA655519 JEW655367:JEW655519 JOS655367:JOS655519 JYO655367:JYO655519 KIK655367:KIK655519 KSG655367:KSG655519 LCC655367:LCC655519 LLY655367:LLY655519 LVU655367:LVU655519 MFQ655367:MFQ655519 MPM655367:MPM655519 MZI655367:MZI655519 NJE655367:NJE655519 NTA655367:NTA655519 OCW655367:OCW655519 OMS655367:OMS655519 OWO655367:OWO655519 PGK655367:PGK655519 PQG655367:PQG655519 QAC655367:QAC655519 QJY655367:QJY655519 QTU655367:QTU655519 RDQ655367:RDQ655519 RNM655367:RNM655519 RXI655367:RXI655519 SHE655367:SHE655519 SRA655367:SRA655519 TAW655367:TAW655519 TKS655367:TKS655519 TUO655367:TUO655519 UEK655367:UEK655519 UOG655367:UOG655519 UYC655367:UYC655519 VHY655367:VHY655519 VRU655367:VRU655519 WBQ655367:WBQ655519 WLM655367:WLM655519 WVI655367:WVI655519 J720903:J721055 IW720903:IW721055 SS720903:SS721055 ACO720903:ACO721055 AMK720903:AMK721055 AWG720903:AWG721055 BGC720903:BGC721055 BPY720903:BPY721055 BZU720903:BZU721055 CJQ720903:CJQ721055 CTM720903:CTM721055 DDI720903:DDI721055 DNE720903:DNE721055 DXA720903:DXA721055 EGW720903:EGW721055 EQS720903:EQS721055 FAO720903:FAO721055 FKK720903:FKK721055 FUG720903:FUG721055 GEC720903:GEC721055 GNY720903:GNY721055 GXU720903:GXU721055 HHQ720903:HHQ721055 HRM720903:HRM721055 IBI720903:IBI721055 ILE720903:ILE721055 IVA720903:IVA721055 JEW720903:JEW721055 JOS720903:JOS721055 JYO720903:JYO721055 KIK720903:KIK721055 KSG720903:KSG721055 LCC720903:LCC721055 LLY720903:LLY721055 LVU720903:LVU721055 MFQ720903:MFQ721055 MPM720903:MPM721055 MZI720903:MZI721055 NJE720903:NJE721055 NTA720903:NTA721055 OCW720903:OCW721055 OMS720903:OMS721055 OWO720903:OWO721055 PGK720903:PGK721055 PQG720903:PQG721055 QAC720903:QAC721055 QJY720903:QJY721055 QTU720903:QTU721055 RDQ720903:RDQ721055 RNM720903:RNM721055 RXI720903:RXI721055 SHE720903:SHE721055 SRA720903:SRA721055 TAW720903:TAW721055 TKS720903:TKS721055 TUO720903:TUO721055 UEK720903:UEK721055 UOG720903:UOG721055 UYC720903:UYC721055 VHY720903:VHY721055 VRU720903:VRU721055 WBQ720903:WBQ721055 WLM720903:WLM721055 WVI720903:WVI721055 J786439:J786591 IW786439:IW786591 SS786439:SS786591 ACO786439:ACO786591 AMK786439:AMK786591 AWG786439:AWG786591 BGC786439:BGC786591 BPY786439:BPY786591 BZU786439:BZU786591 CJQ786439:CJQ786591 CTM786439:CTM786591 DDI786439:DDI786591 DNE786439:DNE786591 DXA786439:DXA786591 EGW786439:EGW786591 EQS786439:EQS786591 FAO786439:FAO786591 FKK786439:FKK786591 FUG786439:FUG786591 GEC786439:GEC786591 GNY786439:GNY786591 GXU786439:GXU786591 HHQ786439:HHQ786591 HRM786439:HRM786591 IBI786439:IBI786591 ILE786439:ILE786591 IVA786439:IVA786591 JEW786439:JEW786591 JOS786439:JOS786591 JYO786439:JYO786591 KIK786439:KIK786591 KSG786439:KSG786591 LCC786439:LCC786591 LLY786439:LLY786591 LVU786439:LVU786591 MFQ786439:MFQ786591 MPM786439:MPM786591 MZI786439:MZI786591 NJE786439:NJE786591 NTA786439:NTA786591 OCW786439:OCW786591 OMS786439:OMS786591 OWO786439:OWO786591 PGK786439:PGK786591 PQG786439:PQG786591 QAC786439:QAC786591 QJY786439:QJY786591 QTU786439:QTU786591 RDQ786439:RDQ786591 RNM786439:RNM786591 RXI786439:RXI786591 SHE786439:SHE786591 SRA786439:SRA786591 TAW786439:TAW786591 TKS786439:TKS786591 TUO786439:TUO786591 UEK786439:UEK786591 UOG786439:UOG786591 UYC786439:UYC786591 VHY786439:VHY786591 VRU786439:VRU786591 WBQ786439:WBQ786591 WLM786439:WLM786591 WVI786439:WVI786591 J851975:J852127 IW851975:IW852127 SS851975:SS852127 ACO851975:ACO852127 AMK851975:AMK852127 AWG851975:AWG852127 BGC851975:BGC852127 BPY851975:BPY852127 BZU851975:BZU852127 CJQ851975:CJQ852127 CTM851975:CTM852127 DDI851975:DDI852127 DNE851975:DNE852127 DXA851975:DXA852127 EGW851975:EGW852127 EQS851975:EQS852127 FAO851975:FAO852127 FKK851975:FKK852127 FUG851975:FUG852127 GEC851975:GEC852127 GNY851975:GNY852127 GXU851975:GXU852127 HHQ851975:HHQ852127 HRM851975:HRM852127 IBI851975:IBI852127 ILE851975:ILE852127 IVA851975:IVA852127 JEW851975:JEW852127 JOS851975:JOS852127 JYO851975:JYO852127 KIK851975:KIK852127 KSG851975:KSG852127 LCC851975:LCC852127 LLY851975:LLY852127 LVU851975:LVU852127 MFQ851975:MFQ852127 MPM851975:MPM852127 MZI851975:MZI852127 NJE851975:NJE852127 NTA851975:NTA852127 OCW851975:OCW852127 OMS851975:OMS852127 OWO851975:OWO852127 PGK851975:PGK852127 PQG851975:PQG852127 QAC851975:QAC852127 QJY851975:QJY852127 QTU851975:QTU852127 RDQ851975:RDQ852127 RNM851975:RNM852127 RXI851975:RXI852127 SHE851975:SHE852127 SRA851975:SRA852127 TAW851975:TAW852127 TKS851975:TKS852127 TUO851975:TUO852127 UEK851975:UEK852127 UOG851975:UOG852127 UYC851975:UYC852127 VHY851975:VHY852127 VRU851975:VRU852127 WBQ851975:WBQ852127 WLM851975:WLM852127 WVI851975:WVI852127 J917511:J917663 IW917511:IW917663 SS917511:SS917663 ACO917511:ACO917663 AMK917511:AMK917663 AWG917511:AWG917663 BGC917511:BGC917663 BPY917511:BPY917663 BZU917511:BZU917663 CJQ917511:CJQ917663 CTM917511:CTM917663 DDI917511:DDI917663 DNE917511:DNE917663 DXA917511:DXA917663 EGW917511:EGW917663 EQS917511:EQS917663 FAO917511:FAO917663 FKK917511:FKK917663 FUG917511:FUG917663 GEC917511:GEC917663 GNY917511:GNY917663 GXU917511:GXU917663 HHQ917511:HHQ917663 HRM917511:HRM917663 IBI917511:IBI917663 ILE917511:ILE917663 IVA917511:IVA917663 JEW917511:JEW917663 JOS917511:JOS917663 JYO917511:JYO917663 KIK917511:KIK917663 KSG917511:KSG917663 LCC917511:LCC917663 LLY917511:LLY917663 LVU917511:LVU917663 MFQ917511:MFQ917663 MPM917511:MPM917663 MZI917511:MZI917663 NJE917511:NJE917663 NTA917511:NTA917663 OCW917511:OCW917663 OMS917511:OMS917663 OWO917511:OWO917663 PGK917511:PGK917663 PQG917511:PQG917663 QAC917511:QAC917663 QJY917511:QJY917663 QTU917511:QTU917663 RDQ917511:RDQ917663 RNM917511:RNM917663 RXI917511:RXI917663 SHE917511:SHE917663 SRA917511:SRA917663 TAW917511:TAW917663 TKS917511:TKS917663 TUO917511:TUO917663 UEK917511:UEK917663 UOG917511:UOG917663 UYC917511:UYC917663 VHY917511:VHY917663 VRU917511:VRU917663 WBQ917511:WBQ917663 WLM917511:WLM917663 WVI917511:WVI917663 J983047:J983199 IW983047:IW983199 SS983047:SS983199 ACO983047:ACO983199 AMK983047:AMK983199 AWG983047:AWG983199 BGC983047:BGC983199 BPY983047:BPY983199 BZU983047:BZU983199 CJQ983047:CJQ983199 CTM983047:CTM983199 DDI983047:DDI983199 DNE983047:DNE983199 DXA983047:DXA983199 EGW983047:EGW983199 EQS983047:EQS983199 FAO983047:FAO983199 FKK983047:FKK983199 FUG983047:FUG983199 GEC983047:GEC983199 GNY983047:GNY983199 GXU983047:GXU983199 HHQ983047:HHQ983199 HRM983047:HRM983199 IBI983047:IBI983199 ILE983047:ILE983199 IVA983047:IVA983199 JEW983047:JEW983199 JOS983047:JOS983199 JYO983047:JYO983199 KIK983047:KIK983199 KSG983047:KSG983199 LCC983047:LCC983199 LLY983047:LLY983199 LVU983047:LVU983199 MFQ983047:MFQ983199 MPM983047:MPM983199 MZI983047:MZI983199 NJE983047:NJE983199 NTA983047:NTA983199 OCW983047:OCW983199 OMS983047:OMS983199 OWO983047:OWO983199 PGK983047:PGK983199 PQG983047:PQG983199 QAC983047:QAC983199 QJY983047:QJY983199 QTU983047:QTU983199 RDQ983047:RDQ983199 RNM983047:RNM983199 RXI983047:RXI983199 SHE983047:SHE983199 SRA983047:SRA983199 TAW983047:TAW983199 TKS983047:TKS983199 TUO983047:TUO983199 UEK983047:UEK983199 UOG983047:UOG983199 UYC983047:UYC983199 VHY983047:VHY983199 VRU983047:VRU983199 WBQ983047:WBQ983199 WLM983047:WLM983199 WVI983047:WVI983199 WVK983047:WVK983199 IY7:IY159 SU7:SU159 ACQ7:ACQ159 AMM7:AMM159 AWI7:AWI159 BGE7:BGE159 BQA7:BQA159 BZW7:BZW159 CJS7:CJS159 CTO7:CTO159 DDK7:DDK159 DNG7:DNG159 DXC7:DXC159 EGY7:EGY159 EQU7:EQU159 FAQ7:FAQ159 FKM7:FKM159 FUI7:FUI159 GEE7:GEE159 GOA7:GOA159 GXW7:GXW159 HHS7:HHS159 HRO7:HRO159 IBK7:IBK159 ILG7:ILG159 IVC7:IVC159 JEY7:JEY159 JOU7:JOU159 JYQ7:JYQ159 KIM7:KIM159 KSI7:KSI159 LCE7:LCE159 LMA7:LMA159 LVW7:LVW159 MFS7:MFS159 MPO7:MPO159 MZK7:MZK159 NJG7:NJG159 NTC7:NTC159 OCY7:OCY159 OMU7:OMU159 OWQ7:OWQ159 PGM7:PGM159 PQI7:PQI159 QAE7:QAE159 QKA7:QKA159 QTW7:QTW159 RDS7:RDS159 RNO7:RNO159 RXK7:RXK159 SHG7:SHG159 SRC7:SRC159 TAY7:TAY159 TKU7:TKU159 TUQ7:TUQ159 UEM7:UEM159 UOI7:UOI159 UYE7:UYE159 VIA7:VIA159 VRW7:VRW159 WBS7:WBS159 WLO7:WLO159 WVK7:WVK159 L65543:L65695 IY65543:IY65695 SU65543:SU65695 ACQ65543:ACQ65695 AMM65543:AMM65695 AWI65543:AWI65695 BGE65543:BGE65695 BQA65543:BQA65695 BZW65543:BZW65695 CJS65543:CJS65695 CTO65543:CTO65695 DDK65543:DDK65695 DNG65543:DNG65695 DXC65543:DXC65695 EGY65543:EGY65695 EQU65543:EQU65695 FAQ65543:FAQ65695 FKM65543:FKM65695 FUI65543:FUI65695 GEE65543:GEE65695 GOA65543:GOA65695 GXW65543:GXW65695 HHS65543:HHS65695 HRO65543:HRO65695 IBK65543:IBK65695 ILG65543:ILG65695 IVC65543:IVC65695 JEY65543:JEY65695 JOU65543:JOU65695 JYQ65543:JYQ65695 KIM65543:KIM65695 KSI65543:KSI65695 LCE65543:LCE65695 LMA65543:LMA65695 LVW65543:LVW65695 MFS65543:MFS65695 MPO65543:MPO65695 MZK65543:MZK65695 NJG65543:NJG65695 NTC65543:NTC65695 OCY65543:OCY65695 OMU65543:OMU65695 OWQ65543:OWQ65695 PGM65543:PGM65695 PQI65543:PQI65695 QAE65543:QAE65695 QKA65543:QKA65695 QTW65543:QTW65695 RDS65543:RDS65695 RNO65543:RNO65695 RXK65543:RXK65695 SHG65543:SHG65695 SRC65543:SRC65695 TAY65543:TAY65695 TKU65543:TKU65695 TUQ65543:TUQ65695 UEM65543:UEM65695 UOI65543:UOI65695 UYE65543:UYE65695 VIA65543:VIA65695 VRW65543:VRW65695 WBS65543:WBS65695 WLO65543:WLO65695 WVK65543:WVK65695 L131079:L131231 IY131079:IY131231 SU131079:SU131231 ACQ131079:ACQ131231 AMM131079:AMM131231 AWI131079:AWI131231 BGE131079:BGE131231 BQA131079:BQA131231 BZW131079:BZW131231 CJS131079:CJS131231 CTO131079:CTO131231 DDK131079:DDK131231 DNG131079:DNG131231 DXC131079:DXC131231 EGY131079:EGY131231 EQU131079:EQU131231 FAQ131079:FAQ131231 FKM131079:FKM131231 FUI131079:FUI131231 GEE131079:GEE131231 GOA131079:GOA131231 GXW131079:GXW131231 HHS131079:HHS131231 HRO131079:HRO131231 IBK131079:IBK131231 ILG131079:ILG131231 IVC131079:IVC131231 JEY131079:JEY131231 JOU131079:JOU131231 JYQ131079:JYQ131231 KIM131079:KIM131231 KSI131079:KSI131231 LCE131079:LCE131231 LMA131079:LMA131231 LVW131079:LVW131231 MFS131079:MFS131231 MPO131079:MPO131231 MZK131079:MZK131231 NJG131079:NJG131231 NTC131079:NTC131231 OCY131079:OCY131231 OMU131079:OMU131231 OWQ131079:OWQ131231 PGM131079:PGM131231 PQI131079:PQI131231 QAE131079:QAE131231 QKA131079:QKA131231 QTW131079:QTW131231 RDS131079:RDS131231 RNO131079:RNO131231 RXK131079:RXK131231 SHG131079:SHG131231 SRC131079:SRC131231 TAY131079:TAY131231 TKU131079:TKU131231 TUQ131079:TUQ131231 UEM131079:UEM131231 UOI131079:UOI131231 UYE131079:UYE131231 VIA131079:VIA131231 VRW131079:VRW131231 WBS131079:WBS131231 WLO131079:WLO131231 WVK131079:WVK131231 L196615:L196767 IY196615:IY196767 SU196615:SU196767 ACQ196615:ACQ196767 AMM196615:AMM196767 AWI196615:AWI196767 BGE196615:BGE196767 BQA196615:BQA196767 BZW196615:BZW196767 CJS196615:CJS196767 CTO196615:CTO196767 DDK196615:DDK196767 DNG196615:DNG196767 DXC196615:DXC196767 EGY196615:EGY196767 EQU196615:EQU196767 FAQ196615:FAQ196767 FKM196615:FKM196767 FUI196615:FUI196767 GEE196615:GEE196767 GOA196615:GOA196767 GXW196615:GXW196767 HHS196615:HHS196767 HRO196615:HRO196767 IBK196615:IBK196767 ILG196615:ILG196767 IVC196615:IVC196767 JEY196615:JEY196767 JOU196615:JOU196767 JYQ196615:JYQ196767 KIM196615:KIM196767 KSI196615:KSI196767 LCE196615:LCE196767 LMA196615:LMA196767 LVW196615:LVW196767 MFS196615:MFS196767 MPO196615:MPO196767 MZK196615:MZK196767 NJG196615:NJG196767 NTC196615:NTC196767 OCY196615:OCY196767 OMU196615:OMU196767 OWQ196615:OWQ196767 PGM196615:PGM196767 PQI196615:PQI196767 QAE196615:QAE196767 QKA196615:QKA196767 QTW196615:QTW196767 RDS196615:RDS196767 RNO196615:RNO196767 RXK196615:RXK196767 SHG196615:SHG196767 SRC196615:SRC196767 TAY196615:TAY196767 TKU196615:TKU196767 TUQ196615:TUQ196767 UEM196615:UEM196767 UOI196615:UOI196767 UYE196615:UYE196767 VIA196615:VIA196767 VRW196615:VRW196767 WBS196615:WBS196767 WLO196615:WLO196767 WVK196615:WVK196767 L262151:L262303 IY262151:IY262303 SU262151:SU262303 ACQ262151:ACQ262303 AMM262151:AMM262303 AWI262151:AWI262303 BGE262151:BGE262303 BQA262151:BQA262303 BZW262151:BZW262303 CJS262151:CJS262303 CTO262151:CTO262303 DDK262151:DDK262303 DNG262151:DNG262303 DXC262151:DXC262303 EGY262151:EGY262303 EQU262151:EQU262303 FAQ262151:FAQ262303 FKM262151:FKM262303 FUI262151:FUI262303 GEE262151:GEE262303 GOA262151:GOA262303 GXW262151:GXW262303 HHS262151:HHS262303 HRO262151:HRO262303 IBK262151:IBK262303 ILG262151:ILG262303 IVC262151:IVC262303 JEY262151:JEY262303 JOU262151:JOU262303 JYQ262151:JYQ262303 KIM262151:KIM262303 KSI262151:KSI262303 LCE262151:LCE262303 LMA262151:LMA262303 LVW262151:LVW262303 MFS262151:MFS262303 MPO262151:MPO262303 MZK262151:MZK262303 NJG262151:NJG262303 NTC262151:NTC262303 OCY262151:OCY262303 OMU262151:OMU262303 OWQ262151:OWQ262303 PGM262151:PGM262303 PQI262151:PQI262303 QAE262151:QAE262303 QKA262151:QKA262303 QTW262151:QTW262303 RDS262151:RDS262303 RNO262151:RNO262303 RXK262151:RXK262303 SHG262151:SHG262303 SRC262151:SRC262303 TAY262151:TAY262303 TKU262151:TKU262303 TUQ262151:TUQ262303 UEM262151:UEM262303 UOI262151:UOI262303 UYE262151:UYE262303 VIA262151:VIA262303 VRW262151:VRW262303 WBS262151:WBS262303 WLO262151:WLO262303 WVK262151:WVK262303 L327687:L327839 IY327687:IY327839 SU327687:SU327839 ACQ327687:ACQ327839 AMM327687:AMM327839 AWI327687:AWI327839 BGE327687:BGE327839 BQA327687:BQA327839 BZW327687:BZW327839 CJS327687:CJS327839 CTO327687:CTO327839 DDK327687:DDK327839 DNG327687:DNG327839 DXC327687:DXC327839 EGY327687:EGY327839 EQU327687:EQU327839 FAQ327687:FAQ327839 FKM327687:FKM327839 FUI327687:FUI327839 GEE327687:GEE327839 GOA327687:GOA327839 GXW327687:GXW327839 HHS327687:HHS327839 HRO327687:HRO327839 IBK327687:IBK327839 ILG327687:ILG327839 IVC327687:IVC327839 JEY327687:JEY327839 JOU327687:JOU327839 JYQ327687:JYQ327839 KIM327687:KIM327839 KSI327687:KSI327839 LCE327687:LCE327839 LMA327687:LMA327839 LVW327687:LVW327839 MFS327687:MFS327839 MPO327687:MPO327839 MZK327687:MZK327839 NJG327687:NJG327839 NTC327687:NTC327839 OCY327687:OCY327839 OMU327687:OMU327839 OWQ327687:OWQ327839 PGM327687:PGM327839 PQI327687:PQI327839 QAE327687:QAE327839 QKA327687:QKA327839 QTW327687:QTW327839 RDS327687:RDS327839 RNO327687:RNO327839 RXK327687:RXK327839 SHG327687:SHG327839 SRC327687:SRC327839 TAY327687:TAY327839 TKU327687:TKU327839 TUQ327687:TUQ327839 UEM327687:UEM327839 UOI327687:UOI327839 UYE327687:UYE327839 VIA327687:VIA327839 VRW327687:VRW327839 WBS327687:WBS327839 WLO327687:WLO327839 WVK327687:WVK327839 L393223:L393375 IY393223:IY393375 SU393223:SU393375 ACQ393223:ACQ393375 AMM393223:AMM393375 AWI393223:AWI393375 BGE393223:BGE393375 BQA393223:BQA393375 BZW393223:BZW393375 CJS393223:CJS393375 CTO393223:CTO393375 DDK393223:DDK393375 DNG393223:DNG393375 DXC393223:DXC393375 EGY393223:EGY393375 EQU393223:EQU393375 FAQ393223:FAQ393375 FKM393223:FKM393375 FUI393223:FUI393375 GEE393223:GEE393375 GOA393223:GOA393375 GXW393223:GXW393375 HHS393223:HHS393375 HRO393223:HRO393375 IBK393223:IBK393375 ILG393223:ILG393375 IVC393223:IVC393375 JEY393223:JEY393375 JOU393223:JOU393375 JYQ393223:JYQ393375 KIM393223:KIM393375 KSI393223:KSI393375 LCE393223:LCE393375 LMA393223:LMA393375 LVW393223:LVW393375 MFS393223:MFS393375 MPO393223:MPO393375 MZK393223:MZK393375 NJG393223:NJG393375 NTC393223:NTC393375 OCY393223:OCY393375 OMU393223:OMU393375 OWQ393223:OWQ393375 PGM393223:PGM393375 PQI393223:PQI393375 QAE393223:QAE393375 QKA393223:QKA393375 QTW393223:QTW393375 RDS393223:RDS393375 RNO393223:RNO393375 RXK393223:RXK393375 SHG393223:SHG393375 SRC393223:SRC393375 TAY393223:TAY393375 TKU393223:TKU393375 TUQ393223:TUQ393375 UEM393223:UEM393375 UOI393223:UOI393375 UYE393223:UYE393375 VIA393223:VIA393375 VRW393223:VRW393375 WBS393223:WBS393375 WLO393223:WLO393375 WVK393223:WVK393375 L458759:L458911 IY458759:IY458911 SU458759:SU458911 ACQ458759:ACQ458911 AMM458759:AMM458911 AWI458759:AWI458911 BGE458759:BGE458911 BQA458759:BQA458911 BZW458759:BZW458911 CJS458759:CJS458911 CTO458759:CTO458911 DDK458759:DDK458911 DNG458759:DNG458911 DXC458759:DXC458911 EGY458759:EGY458911 EQU458759:EQU458911 FAQ458759:FAQ458911 FKM458759:FKM458911 FUI458759:FUI458911 GEE458759:GEE458911 GOA458759:GOA458911 GXW458759:GXW458911 HHS458759:HHS458911 HRO458759:HRO458911 IBK458759:IBK458911 ILG458759:ILG458911 IVC458759:IVC458911 JEY458759:JEY458911 JOU458759:JOU458911 JYQ458759:JYQ458911 KIM458759:KIM458911 KSI458759:KSI458911 LCE458759:LCE458911 LMA458759:LMA458911 LVW458759:LVW458911 MFS458759:MFS458911 MPO458759:MPO458911 MZK458759:MZK458911 NJG458759:NJG458911 NTC458759:NTC458911 OCY458759:OCY458911 OMU458759:OMU458911 OWQ458759:OWQ458911 PGM458759:PGM458911 PQI458759:PQI458911 QAE458759:QAE458911 QKA458759:QKA458911 QTW458759:QTW458911 RDS458759:RDS458911 RNO458759:RNO458911 RXK458759:RXK458911 SHG458759:SHG458911 SRC458759:SRC458911 TAY458759:TAY458911 TKU458759:TKU458911 TUQ458759:TUQ458911 UEM458759:UEM458911 UOI458759:UOI458911 UYE458759:UYE458911 VIA458759:VIA458911 VRW458759:VRW458911 WBS458759:WBS458911 WLO458759:WLO458911 WVK458759:WVK458911 L524295:L524447 IY524295:IY524447 SU524295:SU524447 ACQ524295:ACQ524447 AMM524295:AMM524447 AWI524295:AWI524447 BGE524295:BGE524447 BQA524295:BQA524447 BZW524295:BZW524447 CJS524295:CJS524447 CTO524295:CTO524447 DDK524295:DDK524447 DNG524295:DNG524447 DXC524295:DXC524447 EGY524295:EGY524447 EQU524295:EQU524447 FAQ524295:FAQ524447 FKM524295:FKM524447 FUI524295:FUI524447 GEE524295:GEE524447 GOA524295:GOA524447 GXW524295:GXW524447 HHS524295:HHS524447 HRO524295:HRO524447 IBK524295:IBK524447 ILG524295:ILG524447 IVC524295:IVC524447 JEY524295:JEY524447 JOU524295:JOU524447 JYQ524295:JYQ524447 KIM524295:KIM524447 KSI524295:KSI524447 LCE524295:LCE524447 LMA524295:LMA524447 LVW524295:LVW524447 MFS524295:MFS524447 MPO524295:MPO524447 MZK524295:MZK524447 NJG524295:NJG524447 NTC524295:NTC524447 OCY524295:OCY524447 OMU524295:OMU524447 OWQ524295:OWQ524447 PGM524295:PGM524447 PQI524295:PQI524447 QAE524295:QAE524447 QKA524295:QKA524447 QTW524295:QTW524447 RDS524295:RDS524447 RNO524295:RNO524447 RXK524295:RXK524447 SHG524295:SHG524447 SRC524295:SRC524447 TAY524295:TAY524447 TKU524295:TKU524447 TUQ524295:TUQ524447 UEM524295:UEM524447 UOI524295:UOI524447 UYE524295:UYE524447 VIA524295:VIA524447 VRW524295:VRW524447 WBS524295:WBS524447 WLO524295:WLO524447 WVK524295:WVK524447 L589831:L589983 IY589831:IY589983 SU589831:SU589983 ACQ589831:ACQ589983 AMM589831:AMM589983 AWI589831:AWI589983 BGE589831:BGE589983 BQA589831:BQA589983 BZW589831:BZW589983 CJS589831:CJS589983 CTO589831:CTO589983 DDK589831:DDK589983 DNG589831:DNG589983 DXC589831:DXC589983 EGY589831:EGY589983 EQU589831:EQU589983 FAQ589831:FAQ589983 FKM589831:FKM589983 FUI589831:FUI589983 GEE589831:GEE589983 GOA589831:GOA589983 GXW589831:GXW589983 HHS589831:HHS589983 HRO589831:HRO589983 IBK589831:IBK589983 ILG589831:ILG589983 IVC589831:IVC589983 JEY589831:JEY589983 JOU589831:JOU589983 JYQ589831:JYQ589983 KIM589831:KIM589983 KSI589831:KSI589983 LCE589831:LCE589983 LMA589831:LMA589983 LVW589831:LVW589983 MFS589831:MFS589983 MPO589831:MPO589983 MZK589831:MZK589983 NJG589831:NJG589983 NTC589831:NTC589983 OCY589831:OCY589983 OMU589831:OMU589983 OWQ589831:OWQ589983 PGM589831:PGM589983 PQI589831:PQI589983 QAE589831:QAE589983 QKA589831:QKA589983 QTW589831:QTW589983 RDS589831:RDS589983 RNO589831:RNO589983 RXK589831:RXK589983 SHG589831:SHG589983 SRC589831:SRC589983 TAY589831:TAY589983 TKU589831:TKU589983 TUQ589831:TUQ589983 UEM589831:UEM589983 UOI589831:UOI589983 UYE589831:UYE589983 VIA589831:VIA589983 VRW589831:VRW589983 WBS589831:WBS589983 WLO589831:WLO589983 WVK589831:WVK589983 L655367:L655519 IY655367:IY655519 SU655367:SU655519 ACQ655367:ACQ655519 AMM655367:AMM655519 AWI655367:AWI655519 BGE655367:BGE655519 BQA655367:BQA655519 BZW655367:BZW655519 CJS655367:CJS655519 CTO655367:CTO655519 DDK655367:DDK655519 DNG655367:DNG655519 DXC655367:DXC655519 EGY655367:EGY655519 EQU655367:EQU655519 FAQ655367:FAQ655519 FKM655367:FKM655519 FUI655367:FUI655519 GEE655367:GEE655519 GOA655367:GOA655519 GXW655367:GXW655519 HHS655367:HHS655519 HRO655367:HRO655519 IBK655367:IBK655519 ILG655367:ILG655519 IVC655367:IVC655519 JEY655367:JEY655519 JOU655367:JOU655519 JYQ655367:JYQ655519 KIM655367:KIM655519 KSI655367:KSI655519 LCE655367:LCE655519 LMA655367:LMA655519 LVW655367:LVW655519 MFS655367:MFS655519 MPO655367:MPO655519 MZK655367:MZK655519 NJG655367:NJG655519 NTC655367:NTC655519 OCY655367:OCY655519 OMU655367:OMU655519 OWQ655367:OWQ655519 PGM655367:PGM655519 PQI655367:PQI655519 QAE655367:QAE655519 QKA655367:QKA655519 QTW655367:QTW655519 RDS655367:RDS655519 RNO655367:RNO655519 RXK655367:RXK655519 SHG655367:SHG655519 SRC655367:SRC655519 TAY655367:TAY655519 TKU655367:TKU655519 TUQ655367:TUQ655519 UEM655367:UEM655519 UOI655367:UOI655519 UYE655367:UYE655519 VIA655367:VIA655519 VRW655367:VRW655519 WBS655367:WBS655519 WLO655367:WLO655519 WVK655367:WVK655519 L720903:L721055 IY720903:IY721055 SU720903:SU721055 ACQ720903:ACQ721055 AMM720903:AMM721055 AWI720903:AWI721055 BGE720903:BGE721055 BQA720903:BQA721055 BZW720903:BZW721055 CJS720903:CJS721055 CTO720903:CTO721055 DDK720903:DDK721055 DNG720903:DNG721055 DXC720903:DXC721055 EGY720903:EGY721055 EQU720903:EQU721055 FAQ720903:FAQ721055 FKM720903:FKM721055 FUI720903:FUI721055 GEE720903:GEE721055 GOA720903:GOA721055 GXW720903:GXW721055 HHS720903:HHS721055 HRO720903:HRO721055 IBK720903:IBK721055 ILG720903:ILG721055 IVC720903:IVC721055 JEY720903:JEY721055 JOU720903:JOU721055 JYQ720903:JYQ721055 KIM720903:KIM721055 KSI720903:KSI721055 LCE720903:LCE721055 LMA720903:LMA721055 LVW720903:LVW721055 MFS720903:MFS721055 MPO720903:MPO721055 MZK720903:MZK721055 NJG720903:NJG721055 NTC720903:NTC721055 OCY720903:OCY721055 OMU720903:OMU721055 OWQ720903:OWQ721055 PGM720903:PGM721055 PQI720903:PQI721055 QAE720903:QAE721055 QKA720903:QKA721055 QTW720903:QTW721055 RDS720903:RDS721055 RNO720903:RNO721055 RXK720903:RXK721055 SHG720903:SHG721055 SRC720903:SRC721055 TAY720903:TAY721055 TKU720903:TKU721055 TUQ720903:TUQ721055 UEM720903:UEM721055 UOI720903:UOI721055 UYE720903:UYE721055 VIA720903:VIA721055 VRW720903:VRW721055 WBS720903:WBS721055 WLO720903:WLO721055 WVK720903:WVK721055 L786439:L786591 IY786439:IY786591 SU786439:SU786591 ACQ786439:ACQ786591 AMM786439:AMM786591 AWI786439:AWI786591 BGE786439:BGE786591 BQA786439:BQA786591 BZW786439:BZW786591 CJS786439:CJS786591 CTO786439:CTO786591 DDK786439:DDK786591 DNG786439:DNG786591 DXC786439:DXC786591 EGY786439:EGY786591 EQU786439:EQU786591 FAQ786439:FAQ786591 FKM786439:FKM786591 FUI786439:FUI786591 GEE786439:GEE786591 GOA786439:GOA786591 GXW786439:GXW786591 HHS786439:HHS786591 HRO786439:HRO786591 IBK786439:IBK786591 ILG786439:ILG786591 IVC786439:IVC786591 JEY786439:JEY786591 JOU786439:JOU786591 JYQ786439:JYQ786591 KIM786439:KIM786591 KSI786439:KSI786591 LCE786439:LCE786591 LMA786439:LMA786591 LVW786439:LVW786591 MFS786439:MFS786591 MPO786439:MPO786591 MZK786439:MZK786591 NJG786439:NJG786591 NTC786439:NTC786591 OCY786439:OCY786591 OMU786439:OMU786591 OWQ786439:OWQ786591 PGM786439:PGM786591 PQI786439:PQI786591 QAE786439:QAE786591 QKA786439:QKA786591 QTW786439:QTW786591 RDS786439:RDS786591 RNO786439:RNO786591 RXK786439:RXK786591 SHG786439:SHG786591 SRC786439:SRC786591 TAY786439:TAY786591 TKU786439:TKU786591 TUQ786439:TUQ786591 UEM786439:UEM786591 UOI786439:UOI786591 UYE786439:UYE786591 VIA786439:VIA786591 VRW786439:VRW786591 WBS786439:WBS786591 WLO786439:WLO786591 WVK786439:WVK786591 L851975:L852127 IY851975:IY852127 SU851975:SU852127 ACQ851975:ACQ852127 AMM851975:AMM852127 AWI851975:AWI852127 BGE851975:BGE852127 BQA851975:BQA852127 BZW851975:BZW852127 CJS851975:CJS852127 CTO851975:CTO852127 DDK851975:DDK852127 DNG851975:DNG852127 DXC851975:DXC852127 EGY851975:EGY852127 EQU851975:EQU852127 FAQ851975:FAQ852127 FKM851975:FKM852127 FUI851975:FUI852127 GEE851975:GEE852127 GOA851975:GOA852127 GXW851975:GXW852127 HHS851975:HHS852127 HRO851975:HRO852127 IBK851975:IBK852127 ILG851975:ILG852127 IVC851975:IVC852127 JEY851975:JEY852127 JOU851975:JOU852127 JYQ851975:JYQ852127 KIM851975:KIM852127 KSI851975:KSI852127 LCE851975:LCE852127 LMA851975:LMA852127 LVW851975:LVW852127 MFS851975:MFS852127 MPO851975:MPO852127 MZK851975:MZK852127 NJG851975:NJG852127 NTC851975:NTC852127 OCY851975:OCY852127 OMU851975:OMU852127 OWQ851975:OWQ852127 PGM851975:PGM852127 PQI851975:PQI852127 QAE851975:QAE852127 QKA851975:QKA852127 QTW851975:QTW852127 RDS851975:RDS852127 RNO851975:RNO852127 RXK851975:RXK852127 SHG851975:SHG852127 SRC851975:SRC852127 TAY851975:TAY852127 TKU851975:TKU852127 TUQ851975:TUQ852127 UEM851975:UEM852127 UOI851975:UOI852127 UYE851975:UYE852127 VIA851975:VIA852127 VRW851975:VRW852127 WBS851975:WBS852127 WLO851975:WLO852127 WVK851975:WVK852127 L917511:L917663 IY917511:IY917663 SU917511:SU917663 ACQ917511:ACQ917663 AMM917511:AMM917663 AWI917511:AWI917663 BGE917511:BGE917663 BQA917511:BQA917663 BZW917511:BZW917663 CJS917511:CJS917663 CTO917511:CTO917663 DDK917511:DDK917663 DNG917511:DNG917663 DXC917511:DXC917663 EGY917511:EGY917663 EQU917511:EQU917663 FAQ917511:FAQ917663 FKM917511:FKM917663 FUI917511:FUI917663 GEE917511:GEE917663 GOA917511:GOA917663 GXW917511:GXW917663 HHS917511:HHS917663 HRO917511:HRO917663 IBK917511:IBK917663 ILG917511:ILG917663 IVC917511:IVC917663 JEY917511:JEY917663 JOU917511:JOU917663 JYQ917511:JYQ917663 KIM917511:KIM917663 KSI917511:KSI917663 LCE917511:LCE917663 LMA917511:LMA917663 LVW917511:LVW917663 MFS917511:MFS917663 MPO917511:MPO917663 MZK917511:MZK917663 NJG917511:NJG917663 NTC917511:NTC917663 OCY917511:OCY917663 OMU917511:OMU917663 OWQ917511:OWQ917663 PGM917511:PGM917663 PQI917511:PQI917663 QAE917511:QAE917663 QKA917511:QKA917663 QTW917511:QTW917663 RDS917511:RDS917663 RNO917511:RNO917663 RXK917511:RXK917663 SHG917511:SHG917663 SRC917511:SRC917663 TAY917511:TAY917663 TKU917511:TKU917663 TUQ917511:TUQ917663 UEM917511:UEM917663 UOI917511:UOI917663 UYE917511:UYE917663 VIA917511:VIA917663 VRW917511:VRW917663 WBS917511:WBS917663 WLO917511:WLO917663 WVK917511:WVK917663 L983047:L983199 IY983047:IY983199 SU983047:SU983199 ACQ983047:ACQ983199 AMM983047:AMM983199 AWI983047:AWI983199 BGE983047:BGE983199 BQA983047:BQA983199 BZW983047:BZW983199 CJS983047:CJS983199 CTO983047:CTO983199 DDK983047:DDK983199 DNG983047:DNG983199 DXC983047:DXC983199 EGY983047:EGY983199 EQU983047:EQU983199 FAQ983047:FAQ983199 FKM983047:FKM983199 FUI983047:FUI983199 GEE983047:GEE983199 GOA983047:GOA983199 GXW983047:GXW983199 HHS983047:HHS983199 HRO983047:HRO983199 IBK983047:IBK983199 ILG983047:ILG983199 IVC983047:IVC983199 JEY983047:JEY983199 JOU983047:JOU983199 JYQ983047:JYQ983199 KIM983047:KIM983199 KSI983047:KSI983199 LCE983047:LCE983199 LMA983047:LMA983199 LVW983047:LVW983199 MFS983047:MFS983199 MPO983047:MPO983199 MZK983047:MZK983199 NJG983047:NJG983199 NTC983047:NTC983199 OCY983047:OCY983199 OMU983047:OMU983199 OWQ983047:OWQ983199 PGM983047:PGM983199 PQI983047:PQI983199 QAE983047:QAE983199 QKA983047:QKA983199 QTW983047:QTW983199 RDS983047:RDS983199 RNO983047:RNO983199 RXK983047:RXK983199 SHG983047:SHG983199 SRC983047:SRC983199 TAY983047:TAY983199 TKU983047:TKU983199 TUQ983047:TUQ983199 UEM983047:UEM983199 UOI983047:UOI983199 UYE983047:UYE983199 VIA983047:VIA983199 VRW983047:VRW983199 WBS983047:WBS983199 WLO983047:WLO983199 L7:L159" xr:uid="{9D3809C6-2706-41E8-B9C2-EB4A0B9B8106}">
       <formula1>$AE$45:$AE$49</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q65543:Q65695 Q131079:Q131231 Q196615:Q196767 Q262151:Q262303 Q327687:Q327839 Q393223:Q393375 Q458759:Q458911 Q524295:Q524447 Q589831:Q589983 Q655367:Q655519 Q720903:Q721055 Q786439:Q786591 Q851975:Q852127 Q917511:Q917663 Q983047:Q983199 Q7:Q159 JC7:JC159 SY7:SY159 ACU7:ACU159 AMQ7:AMQ159 AWM7:AWM159 BGI7:BGI159 BQE7:BQE159 CAA7:CAA159 CJW7:CJW159 CTS7:CTS159 DDO7:DDO159 DNK7:DNK159 DXG7:DXG159 EHC7:EHC159 EQY7:EQY159 FAU7:FAU159 FKQ7:FKQ159 FUM7:FUM159 GEI7:GEI159 GOE7:GOE159 GYA7:GYA159 HHW7:HHW159 HRS7:HRS159 IBO7:IBO159 ILK7:ILK159 IVG7:IVG159 JFC7:JFC159 JOY7:JOY159 JYU7:JYU159 KIQ7:KIQ159 KSM7:KSM159 LCI7:LCI159 LME7:LME159 LWA7:LWA159 MFW7:MFW159 MPS7:MPS159 MZO7:MZO159 NJK7:NJK159 NTG7:NTG159 ODC7:ODC159 OMY7:OMY159 OWU7:OWU159 PGQ7:PGQ159 PQM7:PQM159 QAI7:QAI159 QKE7:QKE159 QUA7:QUA159 RDW7:RDW159 RNS7:RNS159 RXO7:RXO159 SHK7:SHK159 SRG7:SRG159 TBC7:TBC159 TKY7:TKY159 TUU7:TUU159 UEQ7:UEQ159 UOM7:UOM159 UYI7:UYI159 VIE7:VIE159 VSA7:VSA159 WBW7:WBW159 WLS7:WLS159 WVO7:WVO159 JC65543:JC65695 SY65543:SY65695 ACU65543:ACU65695 AMQ65543:AMQ65695 AWM65543:AWM65695 BGI65543:BGI65695 BQE65543:BQE65695 CAA65543:CAA65695 CJW65543:CJW65695 CTS65543:CTS65695 DDO65543:DDO65695 DNK65543:DNK65695 DXG65543:DXG65695 EHC65543:EHC65695 EQY65543:EQY65695 FAU65543:FAU65695 FKQ65543:FKQ65695 FUM65543:FUM65695 GEI65543:GEI65695 GOE65543:GOE65695 GYA65543:GYA65695 HHW65543:HHW65695 HRS65543:HRS65695 IBO65543:IBO65695 ILK65543:ILK65695 IVG65543:IVG65695 JFC65543:JFC65695 JOY65543:JOY65695 JYU65543:JYU65695 KIQ65543:KIQ65695 KSM65543:KSM65695 LCI65543:LCI65695 LME65543:LME65695 LWA65543:LWA65695 MFW65543:MFW65695 MPS65543:MPS65695 MZO65543:MZO65695 NJK65543:NJK65695 NTG65543:NTG65695 ODC65543:ODC65695 OMY65543:OMY65695 OWU65543:OWU65695 PGQ65543:PGQ65695 PQM65543:PQM65695 QAI65543:QAI65695 QKE65543:QKE65695 QUA65543:QUA65695 RDW65543:RDW65695 RNS65543:RNS65695 RXO65543:RXO65695 SHK65543:SHK65695 SRG65543:SRG65695 TBC65543:TBC65695 TKY65543:TKY65695 TUU65543:TUU65695 UEQ65543:UEQ65695 UOM65543:UOM65695 UYI65543:UYI65695 VIE65543:VIE65695 VSA65543:VSA65695 WBW65543:WBW65695 WLS65543:WLS65695 WVO65543:WVO65695 JC131079:JC131231 SY131079:SY131231 ACU131079:ACU131231 AMQ131079:AMQ131231 AWM131079:AWM131231 BGI131079:BGI131231 BQE131079:BQE131231 CAA131079:CAA131231 CJW131079:CJW131231 CTS131079:CTS131231 DDO131079:DDO131231 DNK131079:DNK131231 DXG131079:DXG131231 EHC131079:EHC131231 EQY131079:EQY131231 FAU131079:FAU131231 FKQ131079:FKQ131231 FUM131079:FUM131231 GEI131079:GEI131231 GOE131079:GOE131231 GYA131079:GYA131231 HHW131079:HHW131231 HRS131079:HRS131231 IBO131079:IBO131231 ILK131079:ILK131231 IVG131079:IVG131231 JFC131079:JFC131231 JOY131079:JOY131231 JYU131079:JYU131231 KIQ131079:KIQ131231 KSM131079:KSM131231 LCI131079:LCI131231 LME131079:LME131231 LWA131079:LWA131231 MFW131079:MFW131231 MPS131079:MPS131231 MZO131079:MZO131231 NJK131079:NJK131231 NTG131079:NTG131231 ODC131079:ODC131231 OMY131079:OMY131231 OWU131079:OWU131231 PGQ131079:PGQ131231 PQM131079:PQM131231 QAI131079:QAI131231 QKE131079:QKE131231 QUA131079:QUA131231 RDW131079:RDW131231 RNS131079:RNS131231 RXO131079:RXO131231 SHK131079:SHK131231 SRG131079:SRG131231 TBC131079:TBC131231 TKY131079:TKY131231 TUU131079:TUU131231 UEQ131079:UEQ131231 UOM131079:UOM131231 UYI131079:UYI131231 VIE131079:VIE131231 VSA131079:VSA131231 WBW131079:WBW131231 WLS131079:WLS131231 WVO131079:WVO131231 JC196615:JC196767 SY196615:SY196767 ACU196615:ACU196767 AMQ196615:AMQ196767 AWM196615:AWM196767 BGI196615:BGI196767 BQE196615:BQE196767 CAA196615:CAA196767 CJW196615:CJW196767 CTS196615:CTS196767 DDO196615:DDO196767 DNK196615:DNK196767 DXG196615:DXG196767 EHC196615:EHC196767 EQY196615:EQY196767 FAU196615:FAU196767 FKQ196615:FKQ196767 FUM196615:FUM196767 GEI196615:GEI196767 GOE196615:GOE196767 GYA196615:GYA196767 HHW196615:HHW196767 HRS196615:HRS196767 IBO196615:IBO196767 ILK196615:ILK196767 IVG196615:IVG196767 JFC196615:JFC196767 JOY196615:JOY196767 JYU196615:JYU196767 KIQ196615:KIQ196767 KSM196615:KSM196767 LCI196615:LCI196767 LME196615:LME196767 LWA196615:LWA196767 MFW196615:MFW196767 MPS196615:MPS196767 MZO196615:MZO196767 NJK196615:NJK196767 NTG196615:NTG196767 ODC196615:ODC196767 OMY196615:OMY196767 OWU196615:OWU196767 PGQ196615:PGQ196767 PQM196615:PQM196767 QAI196615:QAI196767 QKE196615:QKE196767 QUA196615:QUA196767 RDW196615:RDW196767 RNS196615:RNS196767 RXO196615:RXO196767 SHK196615:SHK196767 SRG196615:SRG196767 TBC196615:TBC196767 TKY196615:TKY196767 TUU196615:TUU196767 UEQ196615:UEQ196767 UOM196615:UOM196767 UYI196615:UYI196767 VIE196615:VIE196767 VSA196615:VSA196767 WBW196615:WBW196767 WLS196615:WLS196767 WVO196615:WVO196767 JC262151:JC262303 SY262151:SY262303 ACU262151:ACU262303 AMQ262151:AMQ262303 AWM262151:AWM262303 BGI262151:BGI262303 BQE262151:BQE262303 CAA262151:CAA262303 CJW262151:CJW262303 CTS262151:CTS262303 DDO262151:DDO262303 DNK262151:DNK262303 DXG262151:DXG262303 EHC262151:EHC262303 EQY262151:EQY262303 FAU262151:FAU262303 FKQ262151:FKQ262303 FUM262151:FUM262303 GEI262151:GEI262303 GOE262151:GOE262303 GYA262151:GYA262303 HHW262151:HHW262303 HRS262151:HRS262303 IBO262151:IBO262303 ILK262151:ILK262303 IVG262151:IVG262303 JFC262151:JFC262303 JOY262151:JOY262303 JYU262151:JYU262303 KIQ262151:KIQ262303 KSM262151:KSM262303 LCI262151:LCI262303 LME262151:LME262303 LWA262151:LWA262303 MFW262151:MFW262303 MPS262151:MPS262303 MZO262151:MZO262303 NJK262151:NJK262303 NTG262151:NTG262303 ODC262151:ODC262303 OMY262151:OMY262303 OWU262151:OWU262303 PGQ262151:PGQ262303 PQM262151:PQM262303 QAI262151:QAI262303 QKE262151:QKE262303 QUA262151:QUA262303 RDW262151:RDW262303 RNS262151:RNS262303 RXO262151:RXO262303 SHK262151:SHK262303 SRG262151:SRG262303 TBC262151:TBC262303 TKY262151:TKY262303 TUU262151:TUU262303 UEQ262151:UEQ262303 UOM262151:UOM262303 UYI262151:UYI262303 VIE262151:VIE262303 VSA262151:VSA262303 WBW262151:WBW262303 WLS262151:WLS262303 WVO262151:WVO262303 JC327687:JC327839 SY327687:SY327839 ACU327687:ACU327839 AMQ327687:AMQ327839 AWM327687:AWM327839 BGI327687:BGI327839 BQE327687:BQE327839 CAA327687:CAA327839 CJW327687:CJW327839 CTS327687:CTS327839 DDO327687:DDO327839 DNK327687:DNK327839 DXG327687:DXG327839 EHC327687:EHC327839 EQY327687:EQY327839 FAU327687:FAU327839 FKQ327687:FKQ327839 FUM327687:FUM327839 GEI327687:GEI327839 GOE327687:GOE327839 GYA327687:GYA327839 HHW327687:HHW327839 HRS327687:HRS327839 IBO327687:IBO327839 ILK327687:ILK327839 IVG327687:IVG327839 JFC327687:JFC327839 JOY327687:JOY327839 JYU327687:JYU327839 KIQ327687:KIQ327839 KSM327687:KSM327839 LCI327687:LCI327839 LME327687:LME327839 LWA327687:LWA327839 MFW327687:MFW327839 MPS327687:MPS327839 MZO327687:MZO327839 NJK327687:NJK327839 NTG327687:NTG327839 ODC327687:ODC327839 OMY327687:OMY327839 OWU327687:OWU327839 PGQ327687:PGQ327839 PQM327687:PQM327839 QAI327687:QAI327839 QKE327687:QKE327839 QUA327687:QUA327839 RDW327687:RDW327839 RNS327687:RNS327839 RXO327687:RXO327839 SHK327687:SHK327839 SRG327687:SRG327839 TBC327687:TBC327839 TKY327687:TKY327839 TUU327687:TUU327839 UEQ327687:UEQ327839 UOM327687:UOM327839 UYI327687:UYI327839 VIE327687:VIE327839 VSA327687:VSA327839 WBW327687:WBW327839 WLS327687:WLS327839 WVO327687:WVO327839 JC393223:JC393375 SY393223:SY393375 ACU393223:ACU393375 AMQ393223:AMQ393375 AWM393223:AWM393375 BGI393223:BGI393375 BQE393223:BQE393375 CAA393223:CAA393375 CJW393223:CJW393375 CTS393223:CTS393375 DDO393223:DDO393375 DNK393223:DNK393375 DXG393223:DXG393375 EHC393223:EHC393375 EQY393223:EQY393375 FAU393223:FAU393375 FKQ393223:FKQ393375 FUM393223:FUM393375 GEI393223:GEI393375 GOE393223:GOE393375 GYA393223:GYA393375 HHW393223:HHW393375 HRS393223:HRS393375 IBO393223:IBO393375 ILK393223:ILK393375 IVG393223:IVG393375 JFC393223:JFC393375 JOY393223:JOY393375 JYU393223:JYU393375 KIQ393223:KIQ393375 KSM393223:KSM393375 LCI393223:LCI393375 LME393223:LME393375 LWA393223:LWA393375 MFW393223:MFW393375 MPS393223:MPS393375 MZO393223:MZO393375 NJK393223:NJK393375 NTG393223:NTG393375 ODC393223:ODC393375 OMY393223:OMY393375 OWU393223:OWU393375 PGQ393223:PGQ393375 PQM393223:PQM393375 QAI393223:QAI393375 QKE393223:QKE393375 QUA393223:QUA393375 RDW393223:RDW393375 RNS393223:RNS393375 RXO393223:RXO393375 SHK393223:SHK393375 SRG393223:SRG393375 TBC393223:TBC393375 TKY393223:TKY393375 TUU393223:TUU393375 UEQ393223:UEQ393375 UOM393223:UOM393375 UYI393223:UYI393375 VIE393223:VIE393375 VSA393223:VSA393375 WBW393223:WBW393375 WLS393223:WLS393375 WVO393223:WVO393375 JC458759:JC458911 SY458759:SY458911 ACU458759:ACU458911 AMQ458759:AMQ458911 AWM458759:AWM458911 BGI458759:BGI458911 BQE458759:BQE458911 CAA458759:CAA458911 CJW458759:CJW458911 CTS458759:CTS458911 DDO458759:DDO458911 DNK458759:DNK458911 DXG458759:DXG458911 EHC458759:EHC458911 EQY458759:EQY458911 FAU458759:FAU458911 FKQ458759:FKQ458911 FUM458759:FUM458911 GEI458759:GEI458911 GOE458759:GOE458911 GYA458759:GYA458911 HHW458759:HHW458911 HRS458759:HRS458911 IBO458759:IBO458911 ILK458759:ILK458911 IVG458759:IVG458911 JFC458759:JFC458911 JOY458759:JOY458911 JYU458759:JYU458911 KIQ458759:KIQ458911 KSM458759:KSM458911 LCI458759:LCI458911 LME458759:LME458911 LWA458759:LWA458911 MFW458759:MFW458911 MPS458759:MPS458911 MZO458759:MZO458911 NJK458759:NJK458911 NTG458759:NTG458911 ODC458759:ODC458911 OMY458759:OMY458911 OWU458759:OWU458911 PGQ458759:PGQ458911 PQM458759:PQM458911 QAI458759:QAI458911 QKE458759:QKE458911 QUA458759:QUA458911 RDW458759:RDW458911 RNS458759:RNS458911 RXO458759:RXO458911 SHK458759:SHK458911 SRG458759:SRG458911 TBC458759:TBC458911 TKY458759:TKY458911 TUU458759:TUU458911 UEQ458759:UEQ458911 UOM458759:UOM458911 UYI458759:UYI458911 VIE458759:VIE458911 VSA458759:VSA458911 WBW458759:WBW458911 WLS458759:WLS458911 WVO458759:WVO458911 JC524295:JC524447 SY524295:SY524447 ACU524295:ACU524447 AMQ524295:AMQ524447 AWM524295:AWM524447 BGI524295:BGI524447 BQE524295:BQE524447 CAA524295:CAA524447 CJW524295:CJW524447 CTS524295:CTS524447 DDO524295:DDO524447 DNK524295:DNK524447 DXG524295:DXG524447 EHC524295:EHC524447 EQY524295:EQY524447 FAU524295:FAU524447 FKQ524295:FKQ524447 FUM524295:FUM524447 GEI524295:GEI524447 GOE524295:GOE524447 GYA524295:GYA524447 HHW524295:HHW524447 HRS524295:HRS524447 IBO524295:IBO524447 ILK524295:ILK524447 IVG524295:IVG524447 JFC524295:JFC524447 JOY524295:JOY524447 JYU524295:JYU524447 KIQ524295:KIQ524447 KSM524295:KSM524447 LCI524295:LCI524447 LME524295:LME524447 LWA524295:LWA524447 MFW524295:MFW524447 MPS524295:MPS524447 MZO524295:MZO524447 NJK524295:NJK524447 NTG524295:NTG524447 ODC524295:ODC524447 OMY524295:OMY524447 OWU524295:OWU524447 PGQ524295:PGQ524447 PQM524295:PQM524447 QAI524295:QAI524447 QKE524295:QKE524447 QUA524295:QUA524447 RDW524295:RDW524447 RNS524295:RNS524447 RXO524295:RXO524447 SHK524295:SHK524447 SRG524295:SRG524447 TBC524295:TBC524447 TKY524295:TKY524447 TUU524295:TUU524447 UEQ524295:UEQ524447 UOM524295:UOM524447 UYI524295:UYI524447 VIE524295:VIE524447 VSA524295:VSA524447 WBW524295:WBW524447 WLS524295:WLS524447 WVO524295:WVO524447 JC589831:JC589983 SY589831:SY589983 ACU589831:ACU589983 AMQ589831:AMQ589983 AWM589831:AWM589983 BGI589831:BGI589983 BQE589831:BQE589983 CAA589831:CAA589983 CJW589831:CJW589983 CTS589831:CTS589983 DDO589831:DDO589983 DNK589831:DNK589983 DXG589831:DXG589983 EHC589831:EHC589983 EQY589831:EQY589983 FAU589831:FAU589983 FKQ589831:FKQ589983 FUM589831:FUM589983 GEI589831:GEI589983 GOE589831:GOE589983 GYA589831:GYA589983 HHW589831:HHW589983 HRS589831:HRS589983 IBO589831:IBO589983 ILK589831:ILK589983 IVG589831:IVG589983 JFC589831:JFC589983 JOY589831:JOY589983 JYU589831:JYU589983 KIQ589831:KIQ589983 KSM589831:KSM589983 LCI589831:LCI589983 LME589831:LME589983 LWA589831:LWA589983 MFW589831:MFW589983 MPS589831:MPS589983 MZO589831:MZO589983 NJK589831:NJK589983 NTG589831:NTG589983 ODC589831:ODC589983 OMY589831:OMY589983 OWU589831:OWU589983 PGQ589831:PGQ589983 PQM589831:PQM589983 QAI589831:QAI589983 QKE589831:QKE589983 QUA589831:QUA589983 RDW589831:RDW589983 RNS589831:RNS589983 RXO589831:RXO589983 SHK589831:SHK589983 SRG589831:SRG589983 TBC589831:TBC589983 TKY589831:TKY589983 TUU589831:TUU589983 UEQ589831:UEQ589983 UOM589831:UOM589983 UYI589831:UYI589983 VIE589831:VIE589983 VSA589831:VSA589983 WBW589831:WBW589983 WLS589831:WLS589983 WVO589831:WVO589983 JC655367:JC655519 SY655367:SY655519 ACU655367:ACU655519 AMQ655367:AMQ655519 AWM655367:AWM655519 BGI655367:BGI655519 BQE655367:BQE655519 CAA655367:CAA655519 CJW655367:CJW655519 CTS655367:CTS655519 DDO655367:DDO655519 DNK655367:DNK655519 DXG655367:DXG655519 EHC655367:EHC655519 EQY655367:EQY655519 FAU655367:FAU655519 FKQ655367:FKQ655519 FUM655367:FUM655519 GEI655367:GEI655519 GOE655367:GOE655519 GYA655367:GYA655519 HHW655367:HHW655519 HRS655367:HRS655519 IBO655367:IBO655519 ILK655367:ILK655519 IVG655367:IVG655519 JFC655367:JFC655519 JOY655367:JOY655519 JYU655367:JYU655519 KIQ655367:KIQ655519 KSM655367:KSM655519 LCI655367:LCI655519 LME655367:LME655519 LWA655367:LWA655519 MFW655367:MFW655519 MPS655367:MPS655519 MZO655367:MZO655519 NJK655367:NJK655519 NTG655367:NTG655519 ODC655367:ODC655519 OMY655367:OMY655519 OWU655367:OWU655519 PGQ655367:PGQ655519 PQM655367:PQM655519 QAI655367:QAI655519 QKE655367:QKE655519 QUA655367:QUA655519 RDW655367:RDW655519 RNS655367:RNS655519 RXO655367:RXO655519 SHK655367:SHK655519 SRG655367:SRG655519 TBC655367:TBC655519 TKY655367:TKY655519 TUU655367:TUU655519 UEQ655367:UEQ655519 UOM655367:UOM655519 UYI655367:UYI655519 VIE655367:VIE655519 VSA655367:VSA655519 WBW655367:WBW655519 WLS655367:WLS655519 WVO655367:WVO655519 JC720903:JC721055 SY720903:SY721055 ACU720903:ACU721055 AMQ720903:AMQ721055 AWM720903:AWM721055 BGI720903:BGI721055 BQE720903:BQE721055 CAA720903:CAA721055 CJW720903:CJW721055 CTS720903:CTS721055 DDO720903:DDO721055 DNK720903:DNK721055 DXG720903:DXG721055 EHC720903:EHC721055 EQY720903:EQY721055 FAU720903:FAU721055 FKQ720903:FKQ721055 FUM720903:FUM721055 GEI720903:GEI721055 GOE720903:GOE721055 GYA720903:GYA721055 HHW720903:HHW721055 HRS720903:HRS721055 IBO720903:IBO721055 ILK720903:ILK721055 IVG720903:IVG721055 JFC720903:JFC721055 JOY720903:JOY721055 JYU720903:JYU721055 KIQ720903:KIQ721055 KSM720903:KSM721055 LCI720903:LCI721055 LME720903:LME721055 LWA720903:LWA721055 MFW720903:MFW721055 MPS720903:MPS721055 MZO720903:MZO721055 NJK720903:NJK721055 NTG720903:NTG721055 ODC720903:ODC721055 OMY720903:OMY721055 OWU720903:OWU721055 PGQ720903:PGQ721055 PQM720903:PQM721055 QAI720903:QAI721055 QKE720903:QKE721055 QUA720903:QUA721055 RDW720903:RDW721055 RNS720903:RNS721055 RXO720903:RXO721055 SHK720903:SHK721055 SRG720903:SRG721055 TBC720903:TBC721055 TKY720903:TKY721055 TUU720903:TUU721055 UEQ720903:UEQ721055 UOM720903:UOM721055 UYI720903:UYI721055 VIE720903:VIE721055 VSA720903:VSA721055 WBW720903:WBW721055 WLS720903:WLS721055 WVO720903:WVO721055 JC786439:JC786591 SY786439:SY786591 ACU786439:ACU786591 AMQ786439:AMQ786591 AWM786439:AWM786591 BGI786439:BGI786591 BQE786439:BQE786591 CAA786439:CAA786591 CJW786439:CJW786591 CTS786439:CTS786591 DDO786439:DDO786591 DNK786439:DNK786591 DXG786439:DXG786591 EHC786439:EHC786591 EQY786439:EQY786591 FAU786439:FAU786591 FKQ786439:FKQ786591 FUM786439:FUM786591 GEI786439:GEI786591 GOE786439:GOE786591 GYA786439:GYA786591 HHW786439:HHW786591 HRS786439:HRS786591 IBO786439:IBO786591 ILK786439:ILK786591 IVG786439:IVG786591 JFC786439:JFC786591 JOY786439:JOY786591 JYU786439:JYU786591 KIQ786439:KIQ786591 KSM786439:KSM786591 LCI786439:LCI786591 LME786439:LME786591 LWA786439:LWA786591 MFW786439:MFW786591 MPS786439:MPS786591 MZO786439:MZO786591 NJK786439:NJK786591 NTG786439:NTG786591 ODC786439:ODC786591 OMY786439:OMY786591 OWU786439:OWU786591 PGQ786439:PGQ786591 PQM786439:PQM786591 QAI786439:QAI786591 QKE786439:QKE786591 QUA786439:QUA786591 RDW786439:RDW786591 RNS786439:RNS786591 RXO786439:RXO786591 SHK786439:SHK786591 SRG786439:SRG786591 TBC786439:TBC786591 TKY786439:TKY786591 TUU786439:TUU786591 UEQ786439:UEQ786591 UOM786439:UOM786591 UYI786439:UYI786591 VIE786439:VIE786591 VSA786439:VSA786591 WBW786439:WBW786591 WLS786439:WLS786591 WVO786439:WVO786591 JC851975:JC852127 SY851975:SY852127 ACU851975:ACU852127 AMQ851975:AMQ852127 AWM851975:AWM852127 BGI851975:BGI852127 BQE851975:BQE852127 CAA851975:CAA852127 CJW851975:CJW852127 CTS851975:CTS852127 DDO851975:DDO852127 DNK851975:DNK852127 DXG851975:DXG852127 EHC851975:EHC852127 EQY851975:EQY852127 FAU851975:FAU852127 FKQ851975:FKQ852127 FUM851975:FUM852127 GEI851975:GEI852127 GOE851975:GOE852127 GYA851975:GYA852127 HHW851975:HHW852127 HRS851975:HRS852127 IBO851975:IBO852127 ILK851975:ILK852127 IVG851975:IVG852127 JFC851975:JFC852127 JOY851975:JOY852127 JYU851975:JYU852127 KIQ851975:KIQ852127 KSM851975:KSM852127 LCI851975:LCI852127 LME851975:LME852127 LWA851975:LWA852127 MFW851975:MFW852127 MPS851975:MPS852127 MZO851975:MZO852127 NJK851975:NJK852127 NTG851975:NTG852127 ODC851975:ODC852127 OMY851975:OMY852127 OWU851975:OWU852127 PGQ851975:PGQ852127 PQM851975:PQM852127 QAI851975:QAI852127 QKE851975:QKE852127 QUA851975:QUA852127 RDW851975:RDW852127 RNS851975:RNS852127 RXO851975:RXO852127 SHK851975:SHK852127 SRG851975:SRG852127 TBC851975:TBC852127 TKY851975:TKY852127 TUU851975:TUU852127 UEQ851975:UEQ852127 UOM851975:UOM852127 UYI851975:UYI852127 VIE851975:VIE852127 VSA851975:VSA852127 WBW851975:WBW852127 WLS851975:WLS852127 WVO851975:WVO852127 JC917511:JC917663 SY917511:SY917663 ACU917511:ACU917663 AMQ917511:AMQ917663 AWM917511:AWM917663 BGI917511:BGI917663 BQE917511:BQE917663 CAA917511:CAA917663 CJW917511:CJW917663 CTS917511:CTS917663 DDO917511:DDO917663 DNK917511:DNK917663 DXG917511:DXG917663 EHC917511:EHC917663 EQY917511:EQY917663 FAU917511:FAU917663 FKQ917511:FKQ917663 FUM917511:FUM917663 GEI917511:GEI917663 GOE917511:GOE917663 GYA917511:GYA917663 HHW917511:HHW917663 HRS917511:HRS917663 IBO917511:IBO917663 ILK917511:ILK917663 IVG917511:IVG917663 JFC917511:JFC917663 JOY917511:JOY917663 JYU917511:JYU917663 KIQ917511:KIQ917663 KSM917511:KSM917663 LCI917511:LCI917663 LME917511:LME917663 LWA917511:LWA917663 MFW917511:MFW917663 MPS917511:MPS917663 MZO917511:MZO917663 NJK917511:NJK917663 NTG917511:NTG917663 ODC917511:ODC917663 OMY917511:OMY917663 OWU917511:OWU917663 PGQ917511:PGQ917663 PQM917511:PQM917663 QAI917511:QAI917663 QKE917511:QKE917663 QUA917511:QUA917663 RDW917511:RDW917663 RNS917511:RNS917663 RXO917511:RXO917663 SHK917511:SHK917663 SRG917511:SRG917663 TBC917511:TBC917663 TKY917511:TKY917663 TUU917511:TUU917663 UEQ917511:UEQ917663 UOM917511:UOM917663 UYI917511:UYI917663 VIE917511:VIE917663 VSA917511:VSA917663 WBW917511:WBW917663 WLS917511:WLS917663 WVO917511:WVO917663 JC983047:JC983199 SY983047:SY983199 ACU983047:ACU983199 AMQ983047:AMQ983199 AWM983047:AWM983199 BGI983047:BGI983199 BQE983047:BQE983199 CAA983047:CAA983199 CJW983047:CJW983199 CTS983047:CTS983199 DDO983047:DDO983199 DNK983047:DNK983199 DXG983047:DXG983199 EHC983047:EHC983199 EQY983047:EQY983199 FAU983047:FAU983199 FKQ983047:FKQ983199 FUM983047:FUM983199 GEI983047:GEI983199 GOE983047:GOE983199 GYA983047:GYA983199 HHW983047:HHW983199 HRS983047:HRS983199 IBO983047:IBO983199 ILK983047:ILK983199 IVG983047:IVG983199 JFC983047:JFC983199 JOY983047:JOY983199 JYU983047:JYU983199 KIQ983047:KIQ983199 KSM983047:KSM983199 LCI983047:LCI983199 LME983047:LME983199 LWA983047:LWA983199 MFW983047:MFW983199 MPS983047:MPS983199 MZO983047:MZO983199 NJK983047:NJK983199 NTG983047:NTG983199 ODC983047:ODC983199 OMY983047:OMY983199 OWU983047:OWU983199 PGQ983047:PGQ983199 PQM983047:PQM983199 QAI983047:QAI983199 QKE983047:QKE983199 QUA983047:QUA983199 RDW983047:RDW983199 RNS983047:RNS983199 RXO983047:RXO983199 SHK983047:SHK983199 SRG983047:SRG983199 TBC983047:TBC983199 TKY983047:TKY983199 TUU983047:TUU983199 UEQ983047:UEQ983199 UOM983047:UOM983199 UYI983047:UYI983199 VIE983047:VIE983199 VSA983047:VSA983199 WBW983047:WBW983199 WLS983047:WLS983199 WVO983047:WVO983199" xr:uid="{E7830AF5-61D6-458D-A73E-440033A2476A}">
       <formula1>$AK$44:$AK$56</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IX7:IX159 K7:K159 ST7:ST159 ACP7:ACP159 AML7:AML159 AWH7:AWH159 BGD7:BGD159 BPZ7:BPZ159 BZV7:BZV159 CJR7:CJR159 CTN7:CTN159 DDJ7:DDJ159 DNF7:DNF159 DXB7:DXB159 EGX7:EGX159 EQT7:EQT159 FAP7:FAP159 FKL7:FKL159 FUH7:FUH159 GED7:GED159 GNZ7:GNZ159 GXV7:GXV159 HHR7:HHR159 HRN7:HRN159 IBJ7:IBJ159 ILF7:ILF159 IVB7:IVB159 JEX7:JEX159 JOT7:JOT159 JYP7:JYP159 KIL7:KIL159 KSH7:KSH159 LCD7:LCD159 LLZ7:LLZ159 LVV7:LVV159 MFR7:MFR159 MPN7:MPN159 MZJ7:MZJ159 NJF7:NJF159 NTB7:NTB159 OCX7:OCX159 OMT7:OMT159 OWP7:OWP159 PGL7:PGL159 PQH7:PQH159 QAD7:QAD159 QJZ7:QJZ159 QTV7:QTV159 RDR7:RDR159 RNN7:RNN159 RXJ7:RXJ159 SHF7:SHF159 SRB7:SRB159 TAX7:TAX159 TKT7:TKT159 TUP7:TUP159 UEL7:UEL159 UOH7:UOH159 UYD7:UYD159 VHZ7:VHZ159 VRV7:VRV159 WBR7:WBR159 WLN7:WLN159 WVJ7:WVJ159 K65543:K65695 IX65543:IX65695 ST65543:ST65695 ACP65543:ACP65695 AML65543:AML65695 AWH65543:AWH65695 BGD65543:BGD65695 BPZ65543:BPZ65695 BZV65543:BZV65695 CJR65543:CJR65695 CTN65543:CTN65695 DDJ65543:DDJ65695 DNF65543:DNF65695 DXB65543:DXB65695 EGX65543:EGX65695 EQT65543:EQT65695 FAP65543:FAP65695 FKL65543:FKL65695 FUH65543:FUH65695 GED65543:GED65695 GNZ65543:GNZ65695 GXV65543:GXV65695 HHR65543:HHR65695 HRN65543:HRN65695 IBJ65543:IBJ65695 ILF65543:ILF65695 IVB65543:IVB65695 JEX65543:JEX65695 JOT65543:JOT65695 JYP65543:JYP65695 KIL65543:KIL65695 KSH65543:KSH65695 LCD65543:LCD65695 LLZ65543:LLZ65695 LVV65543:LVV65695 MFR65543:MFR65695 MPN65543:MPN65695 MZJ65543:MZJ65695 NJF65543:NJF65695 NTB65543:NTB65695 OCX65543:OCX65695 OMT65543:OMT65695 OWP65543:OWP65695 PGL65543:PGL65695 PQH65543:PQH65695 QAD65543:QAD65695 QJZ65543:QJZ65695 QTV65543:QTV65695 RDR65543:RDR65695 RNN65543:RNN65695 RXJ65543:RXJ65695 SHF65543:SHF65695 SRB65543:SRB65695 TAX65543:TAX65695 TKT65543:TKT65695 TUP65543:TUP65695 UEL65543:UEL65695 UOH65543:UOH65695 UYD65543:UYD65695 VHZ65543:VHZ65695 VRV65543:VRV65695 WBR65543:WBR65695 WLN65543:WLN65695 WVJ65543:WVJ65695 K131079:K131231 IX131079:IX131231 ST131079:ST131231 ACP131079:ACP131231 AML131079:AML131231 AWH131079:AWH131231 BGD131079:BGD131231 BPZ131079:BPZ131231 BZV131079:BZV131231 CJR131079:CJR131231 CTN131079:CTN131231 DDJ131079:DDJ131231 DNF131079:DNF131231 DXB131079:DXB131231 EGX131079:EGX131231 EQT131079:EQT131231 FAP131079:FAP131231 FKL131079:FKL131231 FUH131079:FUH131231 GED131079:GED131231 GNZ131079:GNZ131231 GXV131079:GXV131231 HHR131079:HHR131231 HRN131079:HRN131231 IBJ131079:IBJ131231 ILF131079:ILF131231 IVB131079:IVB131231 JEX131079:JEX131231 JOT131079:JOT131231 JYP131079:JYP131231 KIL131079:KIL131231 KSH131079:KSH131231 LCD131079:LCD131231 LLZ131079:LLZ131231 LVV131079:LVV131231 MFR131079:MFR131231 MPN131079:MPN131231 MZJ131079:MZJ131231 NJF131079:NJF131231 NTB131079:NTB131231 OCX131079:OCX131231 OMT131079:OMT131231 OWP131079:OWP131231 PGL131079:PGL131231 PQH131079:PQH131231 QAD131079:QAD131231 QJZ131079:QJZ131231 QTV131079:QTV131231 RDR131079:RDR131231 RNN131079:RNN131231 RXJ131079:RXJ131231 SHF131079:SHF131231 SRB131079:SRB131231 TAX131079:TAX131231 TKT131079:TKT131231 TUP131079:TUP131231 UEL131079:UEL131231 UOH131079:UOH131231 UYD131079:UYD131231 VHZ131079:VHZ131231 VRV131079:VRV131231 WBR131079:WBR131231 WLN131079:WLN131231 WVJ131079:WVJ131231 K196615:K196767 IX196615:IX196767 ST196615:ST196767 ACP196615:ACP196767 AML196615:AML196767 AWH196615:AWH196767 BGD196615:BGD196767 BPZ196615:BPZ196767 BZV196615:BZV196767 CJR196615:CJR196767 CTN196615:CTN196767 DDJ196615:DDJ196767 DNF196615:DNF196767 DXB196615:DXB196767 EGX196615:EGX196767 EQT196615:EQT196767 FAP196615:FAP196767 FKL196615:FKL196767 FUH196615:FUH196767 GED196615:GED196767 GNZ196615:GNZ196767 GXV196615:GXV196767 HHR196615:HHR196767 HRN196615:HRN196767 IBJ196615:IBJ196767 ILF196615:ILF196767 IVB196615:IVB196767 JEX196615:JEX196767 JOT196615:JOT196767 JYP196615:JYP196767 KIL196615:KIL196767 KSH196615:KSH196767 LCD196615:LCD196767 LLZ196615:LLZ196767 LVV196615:LVV196767 MFR196615:MFR196767 MPN196615:MPN196767 MZJ196615:MZJ196767 NJF196615:NJF196767 NTB196615:NTB196767 OCX196615:OCX196767 OMT196615:OMT196767 OWP196615:OWP196767 PGL196615:PGL196767 PQH196615:PQH196767 QAD196615:QAD196767 QJZ196615:QJZ196767 QTV196615:QTV196767 RDR196615:RDR196767 RNN196615:RNN196767 RXJ196615:RXJ196767 SHF196615:SHF196767 SRB196615:SRB196767 TAX196615:TAX196767 TKT196615:TKT196767 TUP196615:TUP196767 UEL196615:UEL196767 UOH196615:UOH196767 UYD196615:UYD196767 VHZ196615:VHZ196767 VRV196615:VRV196767 WBR196615:WBR196767 WLN196615:WLN196767 WVJ196615:WVJ196767 K262151:K262303 IX262151:IX262303 ST262151:ST262303 ACP262151:ACP262303 AML262151:AML262303 AWH262151:AWH262303 BGD262151:BGD262303 BPZ262151:BPZ262303 BZV262151:BZV262303 CJR262151:CJR262303 CTN262151:CTN262303 DDJ262151:DDJ262303 DNF262151:DNF262303 DXB262151:DXB262303 EGX262151:EGX262303 EQT262151:EQT262303 FAP262151:FAP262303 FKL262151:FKL262303 FUH262151:FUH262303 GED262151:GED262303 GNZ262151:GNZ262303 GXV262151:GXV262303 HHR262151:HHR262303 HRN262151:HRN262303 IBJ262151:IBJ262303 ILF262151:ILF262303 IVB262151:IVB262303 JEX262151:JEX262303 JOT262151:JOT262303 JYP262151:JYP262303 KIL262151:KIL262303 KSH262151:KSH262303 LCD262151:LCD262303 LLZ262151:LLZ262303 LVV262151:LVV262303 MFR262151:MFR262303 MPN262151:MPN262303 MZJ262151:MZJ262303 NJF262151:NJF262303 NTB262151:NTB262303 OCX262151:OCX262303 OMT262151:OMT262303 OWP262151:OWP262303 PGL262151:PGL262303 PQH262151:PQH262303 QAD262151:QAD262303 QJZ262151:QJZ262303 QTV262151:QTV262303 RDR262151:RDR262303 RNN262151:RNN262303 RXJ262151:RXJ262303 SHF262151:SHF262303 SRB262151:SRB262303 TAX262151:TAX262303 TKT262151:TKT262303 TUP262151:TUP262303 UEL262151:UEL262303 UOH262151:UOH262303 UYD262151:UYD262303 VHZ262151:VHZ262303 VRV262151:VRV262303 WBR262151:WBR262303 WLN262151:WLN262303 WVJ262151:WVJ262303 K327687:K327839 IX327687:IX327839 ST327687:ST327839 ACP327687:ACP327839 AML327687:AML327839 AWH327687:AWH327839 BGD327687:BGD327839 BPZ327687:BPZ327839 BZV327687:BZV327839 CJR327687:CJR327839 CTN327687:CTN327839 DDJ327687:DDJ327839 DNF327687:DNF327839 DXB327687:DXB327839 EGX327687:EGX327839 EQT327687:EQT327839 FAP327687:FAP327839 FKL327687:FKL327839 FUH327687:FUH327839 GED327687:GED327839 GNZ327687:GNZ327839 GXV327687:GXV327839 HHR327687:HHR327839 HRN327687:HRN327839 IBJ327687:IBJ327839 ILF327687:ILF327839 IVB327687:IVB327839 JEX327687:JEX327839 JOT327687:JOT327839 JYP327687:JYP327839 KIL327687:KIL327839 KSH327687:KSH327839 LCD327687:LCD327839 LLZ327687:LLZ327839 LVV327687:LVV327839 MFR327687:MFR327839 MPN327687:MPN327839 MZJ327687:MZJ327839 NJF327687:NJF327839 NTB327687:NTB327839 OCX327687:OCX327839 OMT327687:OMT327839 OWP327687:OWP327839 PGL327687:PGL327839 PQH327687:PQH327839 QAD327687:QAD327839 QJZ327687:QJZ327839 QTV327687:QTV327839 RDR327687:RDR327839 RNN327687:RNN327839 RXJ327687:RXJ327839 SHF327687:SHF327839 SRB327687:SRB327839 TAX327687:TAX327839 TKT327687:TKT327839 TUP327687:TUP327839 UEL327687:UEL327839 UOH327687:UOH327839 UYD327687:UYD327839 VHZ327687:VHZ327839 VRV327687:VRV327839 WBR327687:WBR327839 WLN327687:WLN327839 WVJ327687:WVJ327839 K393223:K393375 IX393223:IX393375 ST393223:ST393375 ACP393223:ACP393375 AML393223:AML393375 AWH393223:AWH393375 BGD393223:BGD393375 BPZ393223:BPZ393375 BZV393223:BZV393375 CJR393223:CJR393375 CTN393223:CTN393375 DDJ393223:DDJ393375 DNF393223:DNF393375 DXB393223:DXB393375 EGX393223:EGX393375 EQT393223:EQT393375 FAP393223:FAP393375 FKL393223:FKL393375 FUH393223:FUH393375 GED393223:GED393375 GNZ393223:GNZ393375 GXV393223:GXV393375 HHR393223:HHR393375 HRN393223:HRN393375 IBJ393223:IBJ393375 ILF393223:ILF393375 IVB393223:IVB393375 JEX393223:JEX393375 JOT393223:JOT393375 JYP393223:JYP393375 KIL393223:KIL393375 KSH393223:KSH393375 LCD393223:LCD393375 LLZ393223:LLZ393375 LVV393223:LVV393375 MFR393223:MFR393375 MPN393223:MPN393375 MZJ393223:MZJ393375 NJF393223:NJF393375 NTB393223:NTB393375 OCX393223:OCX393375 OMT393223:OMT393375 OWP393223:OWP393375 PGL393223:PGL393375 PQH393223:PQH393375 QAD393223:QAD393375 QJZ393223:QJZ393375 QTV393223:QTV393375 RDR393223:RDR393375 RNN393223:RNN393375 RXJ393223:RXJ393375 SHF393223:SHF393375 SRB393223:SRB393375 TAX393223:TAX393375 TKT393223:TKT393375 TUP393223:TUP393375 UEL393223:UEL393375 UOH393223:UOH393375 UYD393223:UYD393375 VHZ393223:VHZ393375 VRV393223:VRV393375 WBR393223:WBR393375 WLN393223:WLN393375 WVJ393223:WVJ393375 K458759:K458911 IX458759:IX458911 ST458759:ST458911 ACP458759:ACP458911 AML458759:AML458911 AWH458759:AWH458911 BGD458759:BGD458911 BPZ458759:BPZ458911 BZV458759:BZV458911 CJR458759:CJR458911 CTN458759:CTN458911 DDJ458759:DDJ458911 DNF458759:DNF458911 DXB458759:DXB458911 EGX458759:EGX458911 EQT458759:EQT458911 FAP458759:FAP458911 FKL458759:FKL458911 FUH458759:FUH458911 GED458759:GED458911 GNZ458759:GNZ458911 GXV458759:GXV458911 HHR458759:HHR458911 HRN458759:HRN458911 IBJ458759:IBJ458911 ILF458759:ILF458911 IVB458759:IVB458911 JEX458759:JEX458911 JOT458759:JOT458911 JYP458759:JYP458911 KIL458759:KIL458911 KSH458759:KSH458911 LCD458759:LCD458911 LLZ458759:LLZ458911 LVV458759:LVV458911 MFR458759:MFR458911 MPN458759:MPN458911 MZJ458759:MZJ458911 NJF458759:NJF458911 NTB458759:NTB458911 OCX458759:OCX458911 OMT458759:OMT458911 OWP458759:OWP458911 PGL458759:PGL458911 PQH458759:PQH458911 QAD458759:QAD458911 QJZ458759:QJZ458911 QTV458759:QTV458911 RDR458759:RDR458911 RNN458759:RNN458911 RXJ458759:RXJ458911 SHF458759:SHF458911 SRB458759:SRB458911 TAX458759:TAX458911 TKT458759:TKT458911 TUP458759:TUP458911 UEL458759:UEL458911 UOH458759:UOH458911 UYD458759:UYD458911 VHZ458759:VHZ458911 VRV458759:VRV458911 WBR458759:WBR458911 WLN458759:WLN458911 WVJ458759:WVJ458911 K524295:K524447 IX524295:IX524447 ST524295:ST524447 ACP524295:ACP524447 AML524295:AML524447 AWH524295:AWH524447 BGD524295:BGD524447 BPZ524295:BPZ524447 BZV524295:BZV524447 CJR524295:CJR524447 CTN524295:CTN524447 DDJ524295:DDJ524447 DNF524295:DNF524447 DXB524295:DXB524447 EGX524295:EGX524447 EQT524295:EQT524447 FAP524295:FAP524447 FKL524295:FKL524447 FUH524295:FUH524447 GED524295:GED524447 GNZ524295:GNZ524447 GXV524295:GXV524447 HHR524295:HHR524447 HRN524295:HRN524447 IBJ524295:IBJ524447 ILF524295:ILF524447 IVB524295:IVB524447 JEX524295:JEX524447 JOT524295:JOT524447 JYP524295:JYP524447 KIL524295:KIL524447 KSH524295:KSH524447 LCD524295:LCD524447 LLZ524295:LLZ524447 LVV524295:LVV524447 MFR524295:MFR524447 MPN524295:MPN524447 MZJ524295:MZJ524447 NJF524295:NJF524447 NTB524295:NTB524447 OCX524295:OCX524447 OMT524295:OMT524447 OWP524295:OWP524447 PGL524295:PGL524447 PQH524295:PQH524447 QAD524295:QAD524447 QJZ524295:QJZ524447 QTV524295:QTV524447 RDR524295:RDR524447 RNN524295:RNN524447 RXJ524295:RXJ524447 SHF524295:SHF524447 SRB524295:SRB524447 TAX524295:TAX524447 TKT524295:TKT524447 TUP524295:TUP524447 UEL524295:UEL524447 UOH524295:UOH524447 UYD524295:UYD524447 VHZ524295:VHZ524447 VRV524295:VRV524447 WBR524295:WBR524447 WLN524295:WLN524447 WVJ524295:WVJ524447 K589831:K589983 IX589831:IX589983 ST589831:ST589983 ACP589831:ACP589983 AML589831:AML589983 AWH589831:AWH589983 BGD589831:BGD589983 BPZ589831:BPZ589983 BZV589831:BZV589983 CJR589831:CJR589983 CTN589831:CTN589983 DDJ589831:DDJ589983 DNF589831:DNF589983 DXB589831:DXB589983 EGX589831:EGX589983 EQT589831:EQT589983 FAP589831:FAP589983 FKL589831:FKL589983 FUH589831:FUH589983 GED589831:GED589983 GNZ589831:GNZ589983 GXV589831:GXV589983 HHR589831:HHR589983 HRN589831:HRN589983 IBJ589831:IBJ589983 ILF589831:ILF589983 IVB589831:IVB589983 JEX589831:JEX589983 JOT589831:JOT589983 JYP589831:JYP589983 KIL589831:KIL589983 KSH589831:KSH589983 LCD589831:LCD589983 LLZ589831:LLZ589983 LVV589831:LVV589983 MFR589831:MFR589983 MPN589831:MPN589983 MZJ589831:MZJ589983 NJF589831:NJF589983 NTB589831:NTB589983 OCX589831:OCX589983 OMT589831:OMT589983 OWP589831:OWP589983 PGL589831:PGL589983 PQH589831:PQH589983 QAD589831:QAD589983 QJZ589831:QJZ589983 QTV589831:QTV589983 RDR589831:RDR589983 RNN589831:RNN589983 RXJ589831:RXJ589983 SHF589831:SHF589983 SRB589831:SRB589983 TAX589831:TAX589983 TKT589831:TKT589983 TUP589831:TUP589983 UEL589831:UEL589983 UOH589831:UOH589983 UYD589831:UYD589983 VHZ589831:VHZ589983 VRV589831:VRV589983 WBR589831:WBR589983 WLN589831:WLN589983 WVJ589831:WVJ589983 K655367:K655519 IX655367:IX655519 ST655367:ST655519 ACP655367:ACP655519 AML655367:AML655519 AWH655367:AWH655519 BGD655367:BGD655519 BPZ655367:BPZ655519 BZV655367:BZV655519 CJR655367:CJR655519 CTN655367:CTN655519 DDJ655367:DDJ655519 DNF655367:DNF655519 DXB655367:DXB655519 EGX655367:EGX655519 EQT655367:EQT655519 FAP655367:FAP655519 FKL655367:FKL655519 FUH655367:FUH655519 GED655367:GED655519 GNZ655367:GNZ655519 GXV655367:GXV655519 HHR655367:HHR655519 HRN655367:HRN655519 IBJ655367:IBJ655519 ILF655367:ILF655519 IVB655367:IVB655519 JEX655367:JEX655519 JOT655367:JOT655519 JYP655367:JYP655519 KIL655367:KIL655519 KSH655367:KSH655519 LCD655367:LCD655519 LLZ655367:LLZ655519 LVV655367:LVV655519 MFR655367:MFR655519 MPN655367:MPN655519 MZJ655367:MZJ655519 NJF655367:NJF655519 NTB655367:NTB655519 OCX655367:OCX655519 OMT655367:OMT655519 OWP655367:OWP655519 PGL655367:PGL655519 PQH655367:PQH655519 QAD655367:QAD655519 QJZ655367:QJZ655519 QTV655367:QTV655519 RDR655367:RDR655519 RNN655367:RNN655519 RXJ655367:RXJ655519 SHF655367:SHF655519 SRB655367:SRB655519 TAX655367:TAX655519 TKT655367:TKT655519 TUP655367:TUP655519 UEL655367:UEL655519 UOH655367:UOH655519 UYD655367:UYD655519 VHZ655367:VHZ655519 VRV655367:VRV655519 WBR655367:WBR655519 WLN655367:WLN655519 WVJ655367:WVJ655519 K720903:K721055 IX720903:IX721055 ST720903:ST721055 ACP720903:ACP721055 AML720903:AML721055 AWH720903:AWH721055 BGD720903:BGD721055 BPZ720903:BPZ721055 BZV720903:BZV721055 CJR720903:CJR721055 CTN720903:CTN721055 DDJ720903:DDJ721055 DNF720903:DNF721055 DXB720903:DXB721055 EGX720903:EGX721055 EQT720903:EQT721055 FAP720903:FAP721055 FKL720903:FKL721055 FUH720903:FUH721055 GED720903:GED721055 GNZ720903:GNZ721055 GXV720903:GXV721055 HHR720903:HHR721055 HRN720903:HRN721055 IBJ720903:IBJ721055 ILF720903:ILF721055 IVB720903:IVB721055 JEX720903:JEX721055 JOT720903:JOT721055 JYP720903:JYP721055 KIL720903:KIL721055 KSH720903:KSH721055 LCD720903:LCD721055 LLZ720903:LLZ721055 LVV720903:LVV721055 MFR720903:MFR721055 MPN720903:MPN721055 MZJ720903:MZJ721055 NJF720903:NJF721055 NTB720903:NTB721055 OCX720903:OCX721055 OMT720903:OMT721055 OWP720903:OWP721055 PGL720903:PGL721055 PQH720903:PQH721055 QAD720903:QAD721055 QJZ720903:QJZ721055 QTV720903:QTV721055 RDR720903:RDR721055 RNN720903:RNN721055 RXJ720903:RXJ721055 SHF720903:SHF721055 SRB720903:SRB721055 TAX720903:TAX721055 TKT720903:TKT721055 TUP720903:TUP721055 UEL720903:UEL721055 UOH720903:UOH721055 UYD720903:UYD721055 VHZ720903:VHZ721055 VRV720903:VRV721055 WBR720903:WBR721055 WLN720903:WLN721055 WVJ720903:WVJ721055 K786439:K786591 IX786439:IX786591 ST786439:ST786591 ACP786439:ACP786591 AML786439:AML786591 AWH786439:AWH786591 BGD786439:BGD786591 BPZ786439:BPZ786591 BZV786439:BZV786591 CJR786439:CJR786591 CTN786439:CTN786591 DDJ786439:DDJ786591 DNF786439:DNF786591 DXB786439:DXB786591 EGX786439:EGX786591 EQT786439:EQT786591 FAP786439:FAP786591 FKL786439:FKL786591 FUH786439:FUH786591 GED786439:GED786591 GNZ786439:GNZ786591 GXV786439:GXV786591 HHR786439:HHR786591 HRN786439:HRN786591 IBJ786439:IBJ786591 ILF786439:ILF786591 IVB786439:IVB786591 JEX786439:JEX786591 JOT786439:JOT786591 JYP786439:JYP786591 KIL786439:KIL786591 KSH786439:KSH786591 LCD786439:LCD786591 LLZ786439:LLZ786591 LVV786439:LVV786591 MFR786439:MFR786591 MPN786439:MPN786591 MZJ786439:MZJ786591 NJF786439:NJF786591 NTB786439:NTB786591 OCX786439:OCX786591 OMT786439:OMT786591 OWP786439:OWP786591 PGL786439:PGL786591 PQH786439:PQH786591 QAD786439:QAD786591 QJZ786439:QJZ786591 QTV786439:QTV786591 RDR786439:RDR786591 RNN786439:RNN786591 RXJ786439:RXJ786591 SHF786439:SHF786591 SRB786439:SRB786591 TAX786439:TAX786591 TKT786439:TKT786591 TUP786439:TUP786591 UEL786439:UEL786591 UOH786439:UOH786591 UYD786439:UYD786591 VHZ786439:VHZ786591 VRV786439:VRV786591 WBR786439:WBR786591 WLN786439:WLN786591 WVJ786439:WVJ786591 K851975:K852127 IX851975:IX852127 ST851975:ST852127 ACP851975:ACP852127 AML851975:AML852127 AWH851975:AWH852127 BGD851975:BGD852127 BPZ851975:BPZ852127 BZV851975:BZV852127 CJR851975:CJR852127 CTN851975:CTN852127 DDJ851975:DDJ852127 DNF851975:DNF852127 DXB851975:DXB852127 EGX851975:EGX852127 EQT851975:EQT852127 FAP851975:FAP852127 FKL851975:FKL852127 FUH851975:FUH852127 GED851975:GED852127 GNZ851975:GNZ852127 GXV851975:GXV852127 HHR851975:HHR852127 HRN851975:HRN852127 IBJ851975:IBJ852127 ILF851975:ILF852127 IVB851975:IVB852127 JEX851975:JEX852127 JOT851975:JOT852127 JYP851975:JYP852127 KIL851975:KIL852127 KSH851975:KSH852127 LCD851975:LCD852127 LLZ851975:LLZ852127 LVV851975:LVV852127 MFR851975:MFR852127 MPN851975:MPN852127 MZJ851975:MZJ852127 NJF851975:NJF852127 NTB851975:NTB852127 OCX851975:OCX852127 OMT851975:OMT852127 OWP851975:OWP852127 PGL851975:PGL852127 PQH851975:PQH852127 QAD851975:QAD852127 QJZ851975:QJZ852127 QTV851975:QTV852127 RDR851975:RDR852127 RNN851975:RNN852127 RXJ851975:RXJ852127 SHF851975:SHF852127 SRB851975:SRB852127 TAX851975:TAX852127 TKT851975:TKT852127 TUP851975:TUP852127 UEL851975:UEL852127 UOH851975:UOH852127 UYD851975:UYD852127 VHZ851975:VHZ852127 VRV851975:VRV852127 WBR851975:WBR852127 WLN851975:WLN852127 WVJ851975:WVJ852127 K917511:K917663 IX917511:IX917663 ST917511:ST917663 ACP917511:ACP917663 AML917511:AML917663 AWH917511:AWH917663 BGD917511:BGD917663 BPZ917511:BPZ917663 BZV917511:BZV917663 CJR917511:CJR917663 CTN917511:CTN917663 DDJ917511:DDJ917663 DNF917511:DNF917663 DXB917511:DXB917663 EGX917511:EGX917663 EQT917511:EQT917663 FAP917511:FAP917663 FKL917511:FKL917663 FUH917511:FUH917663 GED917511:GED917663 GNZ917511:GNZ917663 GXV917511:GXV917663 HHR917511:HHR917663 HRN917511:HRN917663 IBJ917511:IBJ917663 ILF917511:ILF917663 IVB917511:IVB917663 JEX917511:JEX917663 JOT917511:JOT917663 JYP917511:JYP917663 KIL917511:KIL917663 KSH917511:KSH917663 LCD917511:LCD917663 LLZ917511:LLZ917663 LVV917511:LVV917663 MFR917511:MFR917663 MPN917511:MPN917663 MZJ917511:MZJ917663 NJF917511:NJF917663 NTB917511:NTB917663 OCX917511:OCX917663 OMT917511:OMT917663 OWP917511:OWP917663 PGL917511:PGL917663 PQH917511:PQH917663 QAD917511:QAD917663 QJZ917511:QJZ917663 QTV917511:QTV917663 RDR917511:RDR917663 RNN917511:RNN917663 RXJ917511:RXJ917663 SHF917511:SHF917663 SRB917511:SRB917663 TAX917511:TAX917663 TKT917511:TKT917663 TUP917511:TUP917663 UEL917511:UEL917663 UOH917511:UOH917663 UYD917511:UYD917663 VHZ917511:VHZ917663 VRV917511:VRV917663 WBR917511:WBR917663 WLN917511:WLN917663 WVJ917511:WVJ917663 K983047:K983199 IX983047:IX983199 ST983047:ST983199 ACP983047:ACP983199 AML983047:AML983199 AWH983047:AWH983199 BGD983047:BGD983199 BPZ983047:BPZ983199 BZV983047:BZV983199 CJR983047:CJR983199 CTN983047:CTN983199 DDJ983047:DDJ983199 DNF983047:DNF983199 DXB983047:DXB983199 EGX983047:EGX983199 EQT983047:EQT983199 FAP983047:FAP983199 FKL983047:FKL983199 FUH983047:FUH983199 GED983047:GED983199 GNZ983047:GNZ983199 GXV983047:GXV983199 HHR983047:HHR983199 HRN983047:HRN983199 IBJ983047:IBJ983199 ILF983047:ILF983199 IVB983047:IVB983199 JEX983047:JEX983199 JOT983047:JOT983199 JYP983047:JYP983199 KIL983047:KIL983199 KSH983047:KSH983199 LCD983047:LCD983199 LLZ983047:LLZ983199 LVV983047:LVV983199 MFR983047:MFR983199 MPN983047:MPN983199 MZJ983047:MZJ983199 NJF983047:NJF983199 NTB983047:NTB983199 OCX983047:OCX983199 OMT983047:OMT983199 OWP983047:OWP983199 PGL983047:PGL983199 PQH983047:PQH983199 QAD983047:QAD983199 QJZ983047:QJZ983199 QTV983047:QTV983199 RDR983047:RDR983199 RNN983047:RNN983199 RXJ983047:RXJ983199 SHF983047:SHF983199 SRB983047:SRB983199 TAX983047:TAX983199 TKT983047:TKT983199 TUP983047:TUP983199 UEL983047:UEL983199 UOH983047:UOH983199 UYD983047:UYD983199 VHZ983047:VHZ983199 VRV983047:VRV983199 WBR983047:WBR983199 WLN983047:WLN983199 WVJ983047:WVJ983199" xr:uid="{16400355-3C3D-43F8-B702-E29A5B9CC1B1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IX7:IX159 WVJ983047:WVJ983199 ST7:ST159 ACP7:ACP159 AML7:AML159 AWH7:AWH159 BGD7:BGD159 BPZ7:BPZ159 BZV7:BZV159 CJR7:CJR159 CTN7:CTN159 DDJ7:DDJ159 DNF7:DNF159 DXB7:DXB159 EGX7:EGX159 EQT7:EQT159 FAP7:FAP159 FKL7:FKL159 FUH7:FUH159 GED7:GED159 GNZ7:GNZ159 GXV7:GXV159 HHR7:HHR159 HRN7:HRN159 IBJ7:IBJ159 ILF7:ILF159 IVB7:IVB159 JEX7:JEX159 JOT7:JOT159 JYP7:JYP159 KIL7:KIL159 KSH7:KSH159 LCD7:LCD159 LLZ7:LLZ159 LVV7:LVV159 MFR7:MFR159 MPN7:MPN159 MZJ7:MZJ159 NJF7:NJF159 NTB7:NTB159 OCX7:OCX159 OMT7:OMT159 OWP7:OWP159 PGL7:PGL159 PQH7:PQH159 QAD7:QAD159 QJZ7:QJZ159 QTV7:QTV159 RDR7:RDR159 RNN7:RNN159 RXJ7:RXJ159 SHF7:SHF159 SRB7:SRB159 TAX7:TAX159 TKT7:TKT159 TUP7:TUP159 UEL7:UEL159 UOH7:UOH159 UYD7:UYD159 VHZ7:VHZ159 VRV7:VRV159 WBR7:WBR159 WLN7:WLN159 WVJ7:WVJ159 K65543:K65695 IX65543:IX65695 ST65543:ST65695 ACP65543:ACP65695 AML65543:AML65695 AWH65543:AWH65695 BGD65543:BGD65695 BPZ65543:BPZ65695 BZV65543:BZV65695 CJR65543:CJR65695 CTN65543:CTN65695 DDJ65543:DDJ65695 DNF65543:DNF65695 DXB65543:DXB65695 EGX65543:EGX65695 EQT65543:EQT65695 FAP65543:FAP65695 FKL65543:FKL65695 FUH65543:FUH65695 GED65543:GED65695 GNZ65543:GNZ65695 GXV65543:GXV65695 HHR65543:HHR65695 HRN65543:HRN65695 IBJ65543:IBJ65695 ILF65543:ILF65695 IVB65543:IVB65695 JEX65543:JEX65695 JOT65543:JOT65695 JYP65543:JYP65695 KIL65543:KIL65695 KSH65543:KSH65695 LCD65543:LCD65695 LLZ65543:LLZ65695 LVV65543:LVV65695 MFR65543:MFR65695 MPN65543:MPN65695 MZJ65543:MZJ65695 NJF65543:NJF65695 NTB65543:NTB65695 OCX65543:OCX65695 OMT65543:OMT65695 OWP65543:OWP65695 PGL65543:PGL65695 PQH65543:PQH65695 QAD65543:QAD65695 QJZ65543:QJZ65695 QTV65543:QTV65695 RDR65543:RDR65695 RNN65543:RNN65695 RXJ65543:RXJ65695 SHF65543:SHF65695 SRB65543:SRB65695 TAX65543:TAX65695 TKT65543:TKT65695 TUP65543:TUP65695 UEL65543:UEL65695 UOH65543:UOH65695 UYD65543:UYD65695 VHZ65543:VHZ65695 VRV65543:VRV65695 WBR65543:WBR65695 WLN65543:WLN65695 WVJ65543:WVJ65695 K131079:K131231 IX131079:IX131231 ST131079:ST131231 ACP131079:ACP131231 AML131079:AML131231 AWH131079:AWH131231 BGD131079:BGD131231 BPZ131079:BPZ131231 BZV131079:BZV131231 CJR131079:CJR131231 CTN131079:CTN131231 DDJ131079:DDJ131231 DNF131079:DNF131231 DXB131079:DXB131231 EGX131079:EGX131231 EQT131079:EQT131231 FAP131079:FAP131231 FKL131079:FKL131231 FUH131079:FUH131231 GED131079:GED131231 GNZ131079:GNZ131231 GXV131079:GXV131231 HHR131079:HHR131231 HRN131079:HRN131231 IBJ131079:IBJ131231 ILF131079:ILF131231 IVB131079:IVB131231 JEX131079:JEX131231 JOT131079:JOT131231 JYP131079:JYP131231 KIL131079:KIL131231 KSH131079:KSH131231 LCD131079:LCD131231 LLZ131079:LLZ131231 LVV131079:LVV131231 MFR131079:MFR131231 MPN131079:MPN131231 MZJ131079:MZJ131231 NJF131079:NJF131231 NTB131079:NTB131231 OCX131079:OCX131231 OMT131079:OMT131231 OWP131079:OWP131231 PGL131079:PGL131231 PQH131079:PQH131231 QAD131079:QAD131231 QJZ131079:QJZ131231 QTV131079:QTV131231 RDR131079:RDR131231 RNN131079:RNN131231 RXJ131079:RXJ131231 SHF131079:SHF131231 SRB131079:SRB131231 TAX131079:TAX131231 TKT131079:TKT131231 TUP131079:TUP131231 UEL131079:UEL131231 UOH131079:UOH131231 UYD131079:UYD131231 VHZ131079:VHZ131231 VRV131079:VRV131231 WBR131079:WBR131231 WLN131079:WLN131231 WVJ131079:WVJ131231 K196615:K196767 IX196615:IX196767 ST196615:ST196767 ACP196615:ACP196767 AML196615:AML196767 AWH196615:AWH196767 BGD196615:BGD196767 BPZ196615:BPZ196767 BZV196615:BZV196767 CJR196615:CJR196767 CTN196615:CTN196767 DDJ196615:DDJ196767 DNF196615:DNF196767 DXB196615:DXB196767 EGX196615:EGX196767 EQT196615:EQT196767 FAP196615:FAP196767 FKL196615:FKL196767 FUH196615:FUH196767 GED196615:GED196767 GNZ196615:GNZ196767 GXV196615:GXV196767 HHR196615:HHR196767 HRN196615:HRN196767 IBJ196615:IBJ196767 ILF196615:ILF196767 IVB196615:IVB196767 JEX196615:JEX196767 JOT196615:JOT196767 JYP196615:JYP196767 KIL196615:KIL196767 KSH196615:KSH196767 LCD196615:LCD196767 LLZ196615:LLZ196767 LVV196615:LVV196767 MFR196615:MFR196767 MPN196615:MPN196767 MZJ196615:MZJ196767 NJF196615:NJF196767 NTB196615:NTB196767 OCX196615:OCX196767 OMT196615:OMT196767 OWP196615:OWP196767 PGL196615:PGL196767 PQH196615:PQH196767 QAD196615:QAD196767 QJZ196615:QJZ196767 QTV196615:QTV196767 RDR196615:RDR196767 RNN196615:RNN196767 RXJ196615:RXJ196767 SHF196615:SHF196767 SRB196615:SRB196767 TAX196615:TAX196767 TKT196615:TKT196767 TUP196615:TUP196767 UEL196615:UEL196767 UOH196615:UOH196767 UYD196615:UYD196767 VHZ196615:VHZ196767 VRV196615:VRV196767 WBR196615:WBR196767 WLN196615:WLN196767 WVJ196615:WVJ196767 K262151:K262303 IX262151:IX262303 ST262151:ST262303 ACP262151:ACP262303 AML262151:AML262303 AWH262151:AWH262303 BGD262151:BGD262303 BPZ262151:BPZ262303 BZV262151:BZV262303 CJR262151:CJR262303 CTN262151:CTN262303 DDJ262151:DDJ262303 DNF262151:DNF262303 DXB262151:DXB262303 EGX262151:EGX262303 EQT262151:EQT262303 FAP262151:FAP262303 FKL262151:FKL262303 FUH262151:FUH262303 GED262151:GED262303 GNZ262151:GNZ262303 GXV262151:GXV262303 HHR262151:HHR262303 HRN262151:HRN262303 IBJ262151:IBJ262303 ILF262151:ILF262303 IVB262151:IVB262303 JEX262151:JEX262303 JOT262151:JOT262303 JYP262151:JYP262303 KIL262151:KIL262303 KSH262151:KSH262303 LCD262151:LCD262303 LLZ262151:LLZ262303 LVV262151:LVV262303 MFR262151:MFR262303 MPN262151:MPN262303 MZJ262151:MZJ262303 NJF262151:NJF262303 NTB262151:NTB262303 OCX262151:OCX262303 OMT262151:OMT262303 OWP262151:OWP262303 PGL262151:PGL262303 PQH262151:PQH262303 QAD262151:QAD262303 QJZ262151:QJZ262303 QTV262151:QTV262303 RDR262151:RDR262303 RNN262151:RNN262303 RXJ262151:RXJ262303 SHF262151:SHF262303 SRB262151:SRB262303 TAX262151:TAX262303 TKT262151:TKT262303 TUP262151:TUP262303 UEL262151:UEL262303 UOH262151:UOH262303 UYD262151:UYD262303 VHZ262151:VHZ262303 VRV262151:VRV262303 WBR262151:WBR262303 WLN262151:WLN262303 WVJ262151:WVJ262303 K327687:K327839 IX327687:IX327839 ST327687:ST327839 ACP327687:ACP327839 AML327687:AML327839 AWH327687:AWH327839 BGD327687:BGD327839 BPZ327687:BPZ327839 BZV327687:BZV327839 CJR327687:CJR327839 CTN327687:CTN327839 DDJ327687:DDJ327839 DNF327687:DNF327839 DXB327687:DXB327839 EGX327687:EGX327839 EQT327687:EQT327839 FAP327687:FAP327839 FKL327687:FKL327839 FUH327687:FUH327839 GED327687:GED327839 GNZ327687:GNZ327839 GXV327687:GXV327839 HHR327687:HHR327839 HRN327687:HRN327839 IBJ327687:IBJ327839 ILF327687:ILF327839 IVB327687:IVB327839 JEX327687:JEX327839 JOT327687:JOT327839 JYP327687:JYP327839 KIL327687:KIL327839 KSH327687:KSH327839 LCD327687:LCD327839 LLZ327687:LLZ327839 LVV327687:LVV327839 MFR327687:MFR327839 MPN327687:MPN327839 MZJ327687:MZJ327839 NJF327687:NJF327839 NTB327687:NTB327839 OCX327687:OCX327839 OMT327687:OMT327839 OWP327687:OWP327839 PGL327687:PGL327839 PQH327687:PQH327839 QAD327687:QAD327839 QJZ327687:QJZ327839 QTV327687:QTV327839 RDR327687:RDR327839 RNN327687:RNN327839 RXJ327687:RXJ327839 SHF327687:SHF327839 SRB327687:SRB327839 TAX327687:TAX327839 TKT327687:TKT327839 TUP327687:TUP327839 UEL327687:UEL327839 UOH327687:UOH327839 UYD327687:UYD327839 VHZ327687:VHZ327839 VRV327687:VRV327839 WBR327687:WBR327839 WLN327687:WLN327839 WVJ327687:WVJ327839 K393223:K393375 IX393223:IX393375 ST393223:ST393375 ACP393223:ACP393375 AML393223:AML393375 AWH393223:AWH393375 BGD393223:BGD393375 BPZ393223:BPZ393375 BZV393223:BZV393375 CJR393223:CJR393375 CTN393223:CTN393375 DDJ393223:DDJ393375 DNF393223:DNF393375 DXB393223:DXB393375 EGX393223:EGX393375 EQT393223:EQT393375 FAP393223:FAP393375 FKL393223:FKL393375 FUH393223:FUH393375 GED393223:GED393375 GNZ393223:GNZ393375 GXV393223:GXV393375 HHR393223:HHR393375 HRN393223:HRN393375 IBJ393223:IBJ393375 ILF393223:ILF393375 IVB393223:IVB393375 JEX393223:JEX393375 JOT393223:JOT393375 JYP393223:JYP393375 KIL393223:KIL393375 KSH393223:KSH393375 LCD393223:LCD393375 LLZ393223:LLZ393375 LVV393223:LVV393375 MFR393223:MFR393375 MPN393223:MPN393375 MZJ393223:MZJ393375 NJF393223:NJF393375 NTB393223:NTB393375 OCX393223:OCX393375 OMT393223:OMT393375 OWP393223:OWP393375 PGL393223:PGL393375 PQH393223:PQH393375 QAD393223:QAD393375 QJZ393223:QJZ393375 QTV393223:QTV393375 RDR393223:RDR393375 RNN393223:RNN393375 RXJ393223:RXJ393375 SHF393223:SHF393375 SRB393223:SRB393375 TAX393223:TAX393375 TKT393223:TKT393375 TUP393223:TUP393375 UEL393223:UEL393375 UOH393223:UOH393375 UYD393223:UYD393375 VHZ393223:VHZ393375 VRV393223:VRV393375 WBR393223:WBR393375 WLN393223:WLN393375 WVJ393223:WVJ393375 K458759:K458911 IX458759:IX458911 ST458759:ST458911 ACP458759:ACP458911 AML458759:AML458911 AWH458759:AWH458911 BGD458759:BGD458911 BPZ458759:BPZ458911 BZV458759:BZV458911 CJR458759:CJR458911 CTN458759:CTN458911 DDJ458759:DDJ458911 DNF458759:DNF458911 DXB458759:DXB458911 EGX458759:EGX458911 EQT458759:EQT458911 FAP458759:FAP458911 FKL458759:FKL458911 FUH458759:FUH458911 GED458759:GED458911 GNZ458759:GNZ458911 GXV458759:GXV458911 HHR458759:HHR458911 HRN458759:HRN458911 IBJ458759:IBJ458911 ILF458759:ILF458911 IVB458759:IVB458911 JEX458759:JEX458911 JOT458759:JOT458911 JYP458759:JYP458911 KIL458759:KIL458911 KSH458759:KSH458911 LCD458759:LCD458911 LLZ458759:LLZ458911 LVV458759:LVV458911 MFR458759:MFR458911 MPN458759:MPN458911 MZJ458759:MZJ458911 NJF458759:NJF458911 NTB458759:NTB458911 OCX458759:OCX458911 OMT458759:OMT458911 OWP458759:OWP458911 PGL458759:PGL458911 PQH458759:PQH458911 QAD458759:QAD458911 QJZ458759:QJZ458911 QTV458759:QTV458911 RDR458759:RDR458911 RNN458759:RNN458911 RXJ458759:RXJ458911 SHF458759:SHF458911 SRB458759:SRB458911 TAX458759:TAX458911 TKT458759:TKT458911 TUP458759:TUP458911 UEL458759:UEL458911 UOH458759:UOH458911 UYD458759:UYD458911 VHZ458759:VHZ458911 VRV458759:VRV458911 WBR458759:WBR458911 WLN458759:WLN458911 WVJ458759:WVJ458911 K524295:K524447 IX524295:IX524447 ST524295:ST524447 ACP524295:ACP524447 AML524295:AML524447 AWH524295:AWH524447 BGD524295:BGD524447 BPZ524295:BPZ524447 BZV524295:BZV524447 CJR524295:CJR524447 CTN524295:CTN524447 DDJ524295:DDJ524447 DNF524295:DNF524447 DXB524295:DXB524447 EGX524295:EGX524447 EQT524295:EQT524447 FAP524295:FAP524447 FKL524295:FKL524447 FUH524295:FUH524447 GED524295:GED524447 GNZ524295:GNZ524447 GXV524295:GXV524447 HHR524295:HHR524447 HRN524295:HRN524447 IBJ524295:IBJ524447 ILF524295:ILF524447 IVB524295:IVB524447 JEX524295:JEX524447 JOT524295:JOT524447 JYP524295:JYP524447 KIL524295:KIL524447 KSH524295:KSH524447 LCD524295:LCD524447 LLZ524295:LLZ524447 LVV524295:LVV524447 MFR524295:MFR524447 MPN524295:MPN524447 MZJ524295:MZJ524447 NJF524295:NJF524447 NTB524295:NTB524447 OCX524295:OCX524447 OMT524295:OMT524447 OWP524295:OWP524447 PGL524295:PGL524447 PQH524295:PQH524447 QAD524295:QAD524447 QJZ524295:QJZ524447 QTV524295:QTV524447 RDR524295:RDR524447 RNN524295:RNN524447 RXJ524295:RXJ524447 SHF524295:SHF524447 SRB524295:SRB524447 TAX524295:TAX524447 TKT524295:TKT524447 TUP524295:TUP524447 UEL524295:UEL524447 UOH524295:UOH524447 UYD524295:UYD524447 VHZ524295:VHZ524447 VRV524295:VRV524447 WBR524295:WBR524447 WLN524295:WLN524447 WVJ524295:WVJ524447 K589831:K589983 IX589831:IX589983 ST589831:ST589983 ACP589831:ACP589983 AML589831:AML589983 AWH589831:AWH589983 BGD589831:BGD589983 BPZ589831:BPZ589983 BZV589831:BZV589983 CJR589831:CJR589983 CTN589831:CTN589983 DDJ589831:DDJ589983 DNF589831:DNF589983 DXB589831:DXB589983 EGX589831:EGX589983 EQT589831:EQT589983 FAP589831:FAP589983 FKL589831:FKL589983 FUH589831:FUH589983 GED589831:GED589983 GNZ589831:GNZ589983 GXV589831:GXV589983 HHR589831:HHR589983 HRN589831:HRN589983 IBJ589831:IBJ589983 ILF589831:ILF589983 IVB589831:IVB589983 JEX589831:JEX589983 JOT589831:JOT589983 JYP589831:JYP589983 KIL589831:KIL589983 KSH589831:KSH589983 LCD589831:LCD589983 LLZ589831:LLZ589983 LVV589831:LVV589983 MFR589831:MFR589983 MPN589831:MPN589983 MZJ589831:MZJ589983 NJF589831:NJF589983 NTB589831:NTB589983 OCX589831:OCX589983 OMT589831:OMT589983 OWP589831:OWP589983 PGL589831:PGL589983 PQH589831:PQH589983 QAD589831:QAD589983 QJZ589831:QJZ589983 QTV589831:QTV589983 RDR589831:RDR589983 RNN589831:RNN589983 RXJ589831:RXJ589983 SHF589831:SHF589983 SRB589831:SRB589983 TAX589831:TAX589983 TKT589831:TKT589983 TUP589831:TUP589983 UEL589831:UEL589983 UOH589831:UOH589983 UYD589831:UYD589983 VHZ589831:VHZ589983 VRV589831:VRV589983 WBR589831:WBR589983 WLN589831:WLN589983 WVJ589831:WVJ589983 K655367:K655519 IX655367:IX655519 ST655367:ST655519 ACP655367:ACP655519 AML655367:AML655519 AWH655367:AWH655519 BGD655367:BGD655519 BPZ655367:BPZ655519 BZV655367:BZV655519 CJR655367:CJR655519 CTN655367:CTN655519 DDJ655367:DDJ655519 DNF655367:DNF655519 DXB655367:DXB655519 EGX655367:EGX655519 EQT655367:EQT655519 FAP655367:FAP655519 FKL655367:FKL655519 FUH655367:FUH655519 GED655367:GED655519 GNZ655367:GNZ655519 GXV655367:GXV655519 HHR655367:HHR655519 HRN655367:HRN655519 IBJ655367:IBJ655519 ILF655367:ILF655519 IVB655367:IVB655519 JEX655367:JEX655519 JOT655367:JOT655519 JYP655367:JYP655519 KIL655367:KIL655519 KSH655367:KSH655519 LCD655367:LCD655519 LLZ655367:LLZ655519 LVV655367:LVV655519 MFR655367:MFR655519 MPN655367:MPN655519 MZJ655367:MZJ655519 NJF655367:NJF655519 NTB655367:NTB655519 OCX655367:OCX655519 OMT655367:OMT655519 OWP655367:OWP655519 PGL655367:PGL655519 PQH655367:PQH655519 QAD655367:QAD655519 QJZ655367:QJZ655519 QTV655367:QTV655519 RDR655367:RDR655519 RNN655367:RNN655519 RXJ655367:RXJ655519 SHF655367:SHF655519 SRB655367:SRB655519 TAX655367:TAX655519 TKT655367:TKT655519 TUP655367:TUP655519 UEL655367:UEL655519 UOH655367:UOH655519 UYD655367:UYD655519 VHZ655367:VHZ655519 VRV655367:VRV655519 WBR655367:WBR655519 WLN655367:WLN655519 WVJ655367:WVJ655519 K720903:K721055 IX720903:IX721055 ST720903:ST721055 ACP720903:ACP721055 AML720903:AML721055 AWH720903:AWH721055 BGD720903:BGD721055 BPZ720903:BPZ721055 BZV720903:BZV721055 CJR720903:CJR721055 CTN720903:CTN721055 DDJ720903:DDJ721055 DNF720903:DNF721055 DXB720903:DXB721055 EGX720903:EGX721055 EQT720903:EQT721055 FAP720903:FAP721055 FKL720903:FKL721055 FUH720903:FUH721055 GED720903:GED721055 GNZ720903:GNZ721055 GXV720903:GXV721055 HHR720903:HHR721055 HRN720903:HRN721055 IBJ720903:IBJ721055 ILF720903:ILF721055 IVB720903:IVB721055 JEX720903:JEX721055 JOT720903:JOT721055 JYP720903:JYP721055 KIL720903:KIL721055 KSH720903:KSH721055 LCD720903:LCD721055 LLZ720903:LLZ721055 LVV720903:LVV721055 MFR720903:MFR721055 MPN720903:MPN721055 MZJ720903:MZJ721055 NJF720903:NJF721055 NTB720903:NTB721055 OCX720903:OCX721055 OMT720903:OMT721055 OWP720903:OWP721055 PGL720903:PGL721055 PQH720903:PQH721055 QAD720903:QAD721055 QJZ720903:QJZ721055 QTV720903:QTV721055 RDR720903:RDR721055 RNN720903:RNN721055 RXJ720903:RXJ721055 SHF720903:SHF721055 SRB720903:SRB721055 TAX720903:TAX721055 TKT720903:TKT721055 TUP720903:TUP721055 UEL720903:UEL721055 UOH720903:UOH721055 UYD720903:UYD721055 VHZ720903:VHZ721055 VRV720903:VRV721055 WBR720903:WBR721055 WLN720903:WLN721055 WVJ720903:WVJ721055 K786439:K786591 IX786439:IX786591 ST786439:ST786591 ACP786439:ACP786591 AML786439:AML786591 AWH786439:AWH786591 BGD786439:BGD786591 BPZ786439:BPZ786591 BZV786439:BZV786591 CJR786439:CJR786591 CTN786439:CTN786591 DDJ786439:DDJ786591 DNF786439:DNF786591 DXB786439:DXB786591 EGX786439:EGX786591 EQT786439:EQT786591 FAP786439:FAP786591 FKL786439:FKL786591 FUH786439:FUH786591 GED786439:GED786591 GNZ786439:GNZ786591 GXV786439:GXV786591 HHR786439:HHR786591 HRN786439:HRN786591 IBJ786439:IBJ786591 ILF786439:ILF786591 IVB786439:IVB786591 JEX786439:JEX786591 JOT786439:JOT786591 JYP786439:JYP786591 KIL786439:KIL786591 KSH786439:KSH786591 LCD786439:LCD786591 LLZ786439:LLZ786591 LVV786439:LVV786591 MFR786439:MFR786591 MPN786439:MPN786591 MZJ786439:MZJ786591 NJF786439:NJF786591 NTB786439:NTB786591 OCX786439:OCX786591 OMT786439:OMT786591 OWP786439:OWP786591 PGL786439:PGL786591 PQH786439:PQH786591 QAD786439:QAD786591 QJZ786439:QJZ786591 QTV786439:QTV786591 RDR786439:RDR786591 RNN786439:RNN786591 RXJ786439:RXJ786591 SHF786439:SHF786591 SRB786439:SRB786591 TAX786439:TAX786591 TKT786439:TKT786591 TUP786439:TUP786591 UEL786439:UEL786591 UOH786439:UOH786591 UYD786439:UYD786591 VHZ786439:VHZ786591 VRV786439:VRV786591 WBR786439:WBR786591 WLN786439:WLN786591 WVJ786439:WVJ786591 K851975:K852127 IX851975:IX852127 ST851975:ST852127 ACP851975:ACP852127 AML851975:AML852127 AWH851975:AWH852127 BGD851975:BGD852127 BPZ851975:BPZ852127 BZV851975:BZV852127 CJR851975:CJR852127 CTN851975:CTN852127 DDJ851975:DDJ852127 DNF851975:DNF852127 DXB851975:DXB852127 EGX851975:EGX852127 EQT851975:EQT852127 FAP851975:FAP852127 FKL851975:FKL852127 FUH851975:FUH852127 GED851975:GED852127 GNZ851975:GNZ852127 GXV851975:GXV852127 HHR851975:HHR852127 HRN851975:HRN852127 IBJ851975:IBJ852127 ILF851975:ILF852127 IVB851975:IVB852127 JEX851975:JEX852127 JOT851975:JOT852127 JYP851975:JYP852127 KIL851975:KIL852127 KSH851975:KSH852127 LCD851975:LCD852127 LLZ851975:LLZ852127 LVV851975:LVV852127 MFR851975:MFR852127 MPN851975:MPN852127 MZJ851975:MZJ852127 NJF851975:NJF852127 NTB851975:NTB852127 OCX851975:OCX852127 OMT851975:OMT852127 OWP851975:OWP852127 PGL851975:PGL852127 PQH851975:PQH852127 QAD851975:QAD852127 QJZ851975:QJZ852127 QTV851975:QTV852127 RDR851975:RDR852127 RNN851975:RNN852127 RXJ851975:RXJ852127 SHF851975:SHF852127 SRB851975:SRB852127 TAX851975:TAX852127 TKT851975:TKT852127 TUP851975:TUP852127 UEL851975:UEL852127 UOH851975:UOH852127 UYD851975:UYD852127 VHZ851975:VHZ852127 VRV851975:VRV852127 WBR851975:WBR852127 WLN851975:WLN852127 WVJ851975:WVJ852127 K917511:K917663 IX917511:IX917663 ST917511:ST917663 ACP917511:ACP917663 AML917511:AML917663 AWH917511:AWH917663 BGD917511:BGD917663 BPZ917511:BPZ917663 BZV917511:BZV917663 CJR917511:CJR917663 CTN917511:CTN917663 DDJ917511:DDJ917663 DNF917511:DNF917663 DXB917511:DXB917663 EGX917511:EGX917663 EQT917511:EQT917663 FAP917511:FAP917663 FKL917511:FKL917663 FUH917511:FUH917663 GED917511:GED917663 GNZ917511:GNZ917663 GXV917511:GXV917663 HHR917511:HHR917663 HRN917511:HRN917663 IBJ917511:IBJ917663 ILF917511:ILF917663 IVB917511:IVB917663 JEX917511:JEX917663 JOT917511:JOT917663 JYP917511:JYP917663 KIL917511:KIL917663 KSH917511:KSH917663 LCD917511:LCD917663 LLZ917511:LLZ917663 LVV917511:LVV917663 MFR917511:MFR917663 MPN917511:MPN917663 MZJ917511:MZJ917663 NJF917511:NJF917663 NTB917511:NTB917663 OCX917511:OCX917663 OMT917511:OMT917663 OWP917511:OWP917663 PGL917511:PGL917663 PQH917511:PQH917663 QAD917511:QAD917663 QJZ917511:QJZ917663 QTV917511:QTV917663 RDR917511:RDR917663 RNN917511:RNN917663 RXJ917511:RXJ917663 SHF917511:SHF917663 SRB917511:SRB917663 TAX917511:TAX917663 TKT917511:TKT917663 TUP917511:TUP917663 UEL917511:UEL917663 UOH917511:UOH917663 UYD917511:UYD917663 VHZ917511:VHZ917663 VRV917511:VRV917663 WBR917511:WBR917663 WLN917511:WLN917663 WVJ917511:WVJ917663 K983047:K983199 IX983047:IX983199 ST983047:ST983199 ACP983047:ACP983199 AML983047:AML983199 AWH983047:AWH983199 BGD983047:BGD983199 BPZ983047:BPZ983199 BZV983047:BZV983199 CJR983047:CJR983199 CTN983047:CTN983199 DDJ983047:DDJ983199 DNF983047:DNF983199 DXB983047:DXB983199 EGX983047:EGX983199 EQT983047:EQT983199 FAP983047:FAP983199 FKL983047:FKL983199 FUH983047:FUH983199 GED983047:GED983199 GNZ983047:GNZ983199 GXV983047:GXV983199 HHR983047:HHR983199 HRN983047:HRN983199 IBJ983047:IBJ983199 ILF983047:ILF983199 IVB983047:IVB983199 JEX983047:JEX983199 JOT983047:JOT983199 JYP983047:JYP983199 KIL983047:KIL983199 KSH983047:KSH983199 LCD983047:LCD983199 LLZ983047:LLZ983199 LVV983047:LVV983199 MFR983047:MFR983199 MPN983047:MPN983199 MZJ983047:MZJ983199 NJF983047:NJF983199 NTB983047:NTB983199 OCX983047:OCX983199 OMT983047:OMT983199 OWP983047:OWP983199 PGL983047:PGL983199 PQH983047:PQH983199 QAD983047:QAD983199 QJZ983047:QJZ983199 QTV983047:QTV983199 RDR983047:RDR983199 RNN983047:RNN983199 RXJ983047:RXJ983199 SHF983047:SHF983199 SRB983047:SRB983199 TAX983047:TAX983199 TKT983047:TKT983199 TUP983047:TUP983199 UEL983047:UEL983199 UOH983047:UOH983199 UYD983047:UYD983199 VHZ983047:VHZ983199 VRV983047:VRV983199 WBR983047:WBR983199 WLN983047:WLN983199 K7:K159" xr:uid="{16400355-3C3D-43F8-B702-E29A5B9CC1B1}">
       <formula1>$AH$45:$AH$48</formula1>
     </dataValidation>
   </dataValidations>

--- a/Testing/Revised Plan.xlsx
+++ b/Testing/Revised Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Revised Plan and Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="810" documentId="8_{783EC7BA-7F55-4B35-8C25-054FADF87783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA3416E5-B615-43E0-8407-9B7C3003AA4D}"/>
+  <xr:revisionPtr revIDLastSave="839" documentId="8_{783EC7BA-7F55-4B35-8C25-054FADF87783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{304D0766-4F27-4208-B20E-52E59A0DAB1E}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{FF53E854-575C-4B97-B6D0-9B270F57EAA4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="846">
   <si>
     <t>WEEK 0</t>
   </si>
@@ -3021,6 +3021,18 @@
   </si>
   <si>
     <t>Kumaresh</t>
+  </si>
+  <si>
+    <t>Filter dropdown is not working</t>
+  </si>
+  <si>
+    <t>Pagination is not there</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>Gokul,Kumaresh</t>
   </si>
 </sst>
 </file>
@@ -4344,7 +4356,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4864,14 +4876,155 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4902,162 +5055,21 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5115,6 +5127,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5148,54 +5208,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5234,6 +5246,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5967,7 +5982,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="230" t="s">
+      <c r="D2" s="231" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5982,7 +5997,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="231"/>
+      <c r="D3" s="230"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5995,7 +6010,7 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="230" t="s">
+      <c r="D4" s="231" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -6010,7 +6025,7 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="230"/>
+      <c r="D5" s="231"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
@@ -6025,7 +6040,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="230" t="s">
+      <c r="D6" s="231" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -6040,7 +6055,7 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="230"/>
+      <c r="D7" s="231"/>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
@@ -6053,7 +6068,7 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="230" t="s">
+      <c r="D8" s="231" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -6068,7 +6083,7 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="230"/>
+      <c r="D9" s="231"/>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6113,7 +6128,7 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="231" t="s">
+      <c r="D12" s="230" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -6128,7 +6143,7 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="231"/>
+      <c r="D13" s="230"/>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
@@ -6141,7 +6156,7 @@
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="231"/>
+      <c r="D14" s="230"/>
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
@@ -6154,7 +6169,7 @@
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="231"/>
+      <c r="D15" s="230"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
@@ -6167,7 +6182,7 @@
       <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="231"/>
+      <c r="D16" s="230"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
@@ -6197,7 +6212,7 @@
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="231" t="s">
+      <c r="D18" s="230" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -6212,7 +6227,7 @@
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="231"/>
+      <c r="D19" s="230"/>
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
@@ -6225,7 +6240,7 @@
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="231"/>
+      <c r="D20" s="230"/>
       <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
@@ -6240,7 +6255,7 @@
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="231" t="s">
+      <c r="D21" s="230" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -6255,7 +6270,7 @@
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="231"/>
+      <c r="D22" s="230"/>
       <c r="E22" s="4" t="s">
         <v>3</v>
       </c>
@@ -6268,7 +6283,7 @@
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="231" t="s">
+      <c r="D23" s="230" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -6283,7 +6298,7 @@
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="231"/>
+      <c r="D24" s="230"/>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
@@ -6298,7 +6313,7 @@
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="230" t="s">
+      <c r="D25" s="231" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -6313,7 +6328,7 @@
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="230"/>
+      <c r="D26" s="231"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
@@ -6326,7 +6341,7 @@
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="230"/>
+      <c r="D27" s="231"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -6337,7 +6352,7 @@
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="231" t="s">
+      <c r="D28" s="230" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="4"/>
@@ -6350,7 +6365,7 @@
       <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="231"/>
+      <c r="D29" s="230"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -6361,7 +6376,7 @@
       <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="231"/>
+      <c r="D30" s="230"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -6374,7 +6389,7 @@
       <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="231" t="s">
+      <c r="D31" s="230" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="4"/>
@@ -6387,7 +6402,7 @@
       <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="231"/>
+      <c r="D32" s="230"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -6413,7 +6428,7 @@
       <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="231" t="s">
+      <c r="D34" s="230" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="4"/>
@@ -6426,7 +6441,7 @@
       <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="231"/>
+      <c r="D35" s="230"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -6437,7 +6452,7 @@
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="231"/>
+      <c r="D36" s="230"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -6448,7 +6463,7 @@
       <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="231"/>
+      <c r="D37" s="230"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -6459,7 +6474,7 @@
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="230" t="s">
+      <c r="D38" s="231" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="4"/>
@@ -6472,7 +6487,7 @@
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="230"/>
+      <c r="D39" s="231"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -6485,7 +6500,7 @@
       <c r="C40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="231" t="s">
+      <c r="D40" s="230" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="4"/>
@@ -6498,7 +6513,7 @@
       <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="231"/>
+      <c r="D41" s="230"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -6509,7 +6524,7 @@
       <c r="C42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="231"/>
+      <c r="D42" s="230"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -6520,7 +6535,7 @@
       <c r="C43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="231" t="s">
+      <c r="D43" s="230" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="4"/>
@@ -6533,7 +6548,7 @@
       <c r="C44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="231"/>
+      <c r="D44" s="230"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -6544,11 +6559,24 @@
       <c r="C45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="231"/>
+      <c r="D45" s="230"/>
       <c r="E45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="D43:D45"/>
@@ -6560,19 +6588,6 @@
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7578,16 +7593,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7889,20 +7904,20 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="276" t="s">
+      <c r="B4" s="242" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="277"/>
-      <c r="K4" s="277"/>
-      <c r="L4" s="277"/>
-      <c r="M4" s="278"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="244"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
@@ -7922,239 +7937,239 @@
       <c r="B6" s="255" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="257"/>
-      <c r="D6" s="283" t="s">
+      <c r="C6" s="256"/>
+      <c r="D6" s="261" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="273" t="s">
+      <c r="E6" s="272" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
-      <c r="H6" s="274"/>
-      <c r="I6" s="274"/>
-      <c r="J6" s="274"/>
-      <c r="K6" s="274"/>
-      <c r="L6" s="274"/>
-      <c r="M6" s="275"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="273"/>
+      <c r="J6" s="273"/>
+      <c r="K6" s="273"/>
+      <c r="L6" s="273"/>
+      <c r="M6" s="274"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="258"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="247"/>
-      <c r="H7" s="247"/>
-      <c r="I7" s="247"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="247"/>
-      <c r="M7" s="248"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="258"/>
+      <c r="D7" s="262"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="250"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="250"/>
+      <c r="L7" s="250"/>
+      <c r="M7" s="251"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="258"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="243" t="s">
+      <c r="B8" s="257"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="263" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="249" t="s">
+      <c r="E8" s="268" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="247"/>
-      <c r="G8" s="247"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="247"/>
-      <c r="L8" s="247"/>
-      <c r="M8" s="248"/>
+      <c r="F8" s="250"/>
+      <c r="G8" s="250"/>
+      <c r="H8" s="250"/>
+      <c r="I8" s="250"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="250"/>
+      <c r="L8" s="250"/>
+      <c r="M8" s="251"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="261"/>
-      <c r="C9" s="263"/>
-      <c r="D9" s="243"/>
-      <c r="E9" s="246"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="247"/>
-      <c r="I9" s="247"/>
-      <c r="J9" s="247"/>
-      <c r="K9" s="247"/>
-      <c r="L9" s="247"/>
-      <c r="M9" s="248"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="250"/>
+      <c r="G9" s="250"/>
+      <c r="H9" s="250"/>
+      <c r="I9" s="250"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="250"/>
+      <c r="L9" s="250"/>
+      <c r="M9" s="251"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="255" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="256"/>
-      <c r="D10" s="257"/>
-      <c r="E10" s="280" t="s">
+      <c r="C10" s="269"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="252" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="281"/>
-      <c r="G10" s="281"/>
-      <c r="H10" s="281"/>
-      <c r="I10" s="281"/>
-      <c r="J10" s="281"/>
-      <c r="K10" s="281"/>
-      <c r="L10" s="281"/>
-      <c r="M10" s="282"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="253"/>
+      <c r="J10" s="253"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="253"/>
+      <c r="M10" s="254"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="258"/>
-      <c r="C11" s="259"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="247"/>
-      <c r="G11" s="247"/>
-      <c r="H11" s="247"/>
-      <c r="I11" s="247"/>
-      <c r="J11" s="247"/>
-      <c r="K11" s="247"/>
-      <c r="L11" s="247"/>
-      <c r="M11" s="248"/>
+      <c r="B11" s="257"/>
+      <c r="C11" s="270"/>
+      <c r="D11" s="258"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="250"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="250"/>
+      <c r="I11" s="250"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="250"/>
+      <c r="L11" s="250"/>
+      <c r="M11" s="251"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="258"/>
-      <c r="C12" s="259"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247"/>
-      <c r="I12" s="247"/>
-      <c r="J12" s="247"/>
-      <c r="K12" s="247"/>
-      <c r="L12" s="247"/>
-      <c r="M12" s="248"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="270"/>
+      <c r="D12" s="258"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="250"/>
+      <c r="G12" s="250"/>
+      <c r="H12" s="250"/>
+      <c r="I12" s="250"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="250"/>
+      <c r="L12" s="250"/>
+      <c r="M12" s="251"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="261"/>
-      <c r="C13" s="262"/>
-      <c r="D13" s="263"/>
-      <c r="E13" s="246"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="247"/>
-      <c r="M13" s="248"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="271"/>
+      <c r="D13" s="260"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="250"/>
+      <c r="G13" s="250"/>
+      <c r="H13" s="250"/>
+      <c r="I13" s="250"/>
+      <c r="J13" s="250"/>
+      <c r="K13" s="250"/>
+      <c r="L13" s="250"/>
+      <c r="M13" s="251"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="255" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="256"/>
-      <c r="D14" s="257"/>
-      <c r="E14" s="249" t="s">
+      <c r="C14" s="269"/>
+      <c r="D14" s="256"/>
+      <c r="E14" s="268" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="247"/>
-      <c r="G14" s="247"/>
-      <c r="H14" s="247"/>
-      <c r="I14" s="247"/>
-      <c r="J14" s="247"/>
-      <c r="K14" s="247"/>
-      <c r="L14" s="247"/>
-      <c r="M14" s="248"/>
+      <c r="F14" s="250"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="250"/>
+      <c r="I14" s="250"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="250"/>
+      <c r="L14" s="250"/>
+      <c r="M14" s="251"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="258"/>
-      <c r="C15" s="259"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="246"/>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="247"/>
-      <c r="K15" s="247"/>
-      <c r="L15" s="247"/>
-      <c r="M15" s="248"/>
+      <c r="B15" s="257"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="250"/>
+      <c r="G15" s="250"/>
+      <c r="H15" s="250"/>
+      <c r="I15" s="250"/>
+      <c r="J15" s="250"/>
+      <c r="K15" s="250"/>
+      <c r="L15" s="250"/>
+      <c r="M15" s="251"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="258"/>
-      <c r="C16" s="259"/>
-      <c r="D16" s="260"/>
-      <c r="E16" s="246"/>
-      <c r="F16" s="247"/>
-      <c r="G16" s="247"/>
-      <c r="H16" s="247"/>
-      <c r="I16" s="247"/>
-      <c r="J16" s="247"/>
-      <c r="K16" s="247"/>
-      <c r="L16" s="247"/>
-      <c r="M16" s="248"/>
+      <c r="B16" s="257"/>
+      <c r="C16" s="270"/>
+      <c r="D16" s="258"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="250"/>
+      <c r="G16" s="250"/>
+      <c r="H16" s="250"/>
+      <c r="I16" s="250"/>
+      <c r="J16" s="250"/>
+      <c r="K16" s="250"/>
+      <c r="L16" s="250"/>
+      <c r="M16" s="251"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="261"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="263"/>
-      <c r="E17" s="246"/>
-      <c r="F17" s="247"/>
-      <c r="G17" s="247"/>
-      <c r="H17" s="247"/>
-      <c r="I17" s="247"/>
-      <c r="J17" s="247"/>
-      <c r="K17" s="247"/>
-      <c r="L17" s="247"/>
-      <c r="M17" s="248"/>
+      <c r="B17" s="259"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="260"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="250"/>
+      <c r="G17" s="250"/>
+      <c r="H17" s="250"/>
+      <c r="I17" s="250"/>
+      <c r="J17" s="250"/>
+      <c r="K17" s="250"/>
+      <c r="L17" s="250"/>
+      <c r="M17" s="251"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="287" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="241"/>
+      <c r="C18" s="288"/>
       <c r="D18" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="249" t="s">
+      <c r="E18" s="268" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="247"/>
-      <c r="G18" s="247"/>
-      <c r="H18" s="247"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="247"/>
-      <c r="K18" s="247"/>
-      <c r="L18" s="247"/>
-      <c r="M18" s="248"/>
+      <c r="F18" s="250"/>
+      <c r="G18" s="250"/>
+      <c r="H18" s="250"/>
+      <c r="I18" s="250"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="250"/>
+      <c r="L18" s="250"/>
+      <c r="M18" s="251"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="242"/>
-      <c r="C19" s="243"/>
+      <c r="B19" s="289"/>
+      <c r="C19" s="263"/>
       <c r="D19" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="249"/>
-      <c r="F19" s="247"/>
-      <c r="G19" s="247"/>
-      <c r="H19" s="247"/>
-      <c r="I19" s="247"/>
-      <c r="J19" s="247"/>
-      <c r="K19" s="247"/>
-      <c r="L19" s="247"/>
-      <c r="M19" s="248"/>
+      <c r="E19" s="268"/>
+      <c r="F19" s="250"/>
+      <c r="G19" s="250"/>
+      <c r="H19" s="250"/>
+      <c r="I19" s="250"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="250"/>
+      <c r="L19" s="250"/>
+      <c r="M19" s="251"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="244"/>
-      <c r="C20" s="245"/>
+      <c r="B20" s="290"/>
+      <c r="C20" s="291"/>
       <c r="D20" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="246"/>
-      <c r="F20" s="247"/>
-      <c r="G20" s="247"/>
-      <c r="H20" s="247"/>
-      <c r="I20" s="247"/>
-      <c r="J20" s="247"/>
-      <c r="K20" s="247"/>
-      <c r="L20" s="247"/>
-      <c r="M20" s="248"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="250"/>
+      <c r="G20" s="250"/>
+      <c r="H20" s="250"/>
+      <c r="I20" s="250"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="250"/>
+      <c r="L20" s="250"/>
+      <c r="M20" s="251"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
@@ -8185,126 +8200,126 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="234" t="s">
+      <c r="B23" s="281" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="235"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="235"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="235"/>
-      <c r="K23" s="235"/>
-      <c r="L23" s="235"/>
-      <c r="M23" s="236"/>
+      <c r="C23" s="282"/>
+      <c r="D23" s="282"/>
+      <c r="E23" s="282"/>
+      <c r="F23" s="282"/>
+      <c r="G23" s="282"/>
+      <c r="H23" s="282"/>
+      <c r="I23" s="282"/>
+      <c r="J23" s="282"/>
+      <c r="K23" s="282"/>
+      <c r="L23" s="282"/>
+      <c r="M23" s="283"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="237" t="s">
+      <c r="C24" s="284" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="239"/>
-      <c r="E24" s="237" t="s">
+      <c r="D24" s="286"/>
+      <c r="E24" s="284" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="238"/>
-      <c r="G24" s="238"/>
-      <c r="H24" s="238"/>
-      <c r="I24" s="238"/>
-      <c r="J24" s="238"/>
-      <c r="K24" s="239"/>
-      <c r="L24" s="285" t="s">
+      <c r="F24" s="285"/>
+      <c r="G24" s="285"/>
+      <c r="H24" s="285"/>
+      <c r="I24" s="285"/>
+      <c r="J24" s="285"/>
+      <c r="K24" s="286"/>
+      <c r="L24" s="264" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="286"/>
+      <c r="M24" s="265"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="252"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="251"/>
-      <c r="G25" s="251"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="251"/>
-      <c r="K25" s="252"/>
-      <c r="L25" s="250"/>
-      <c r="M25" s="279"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="245"/>
+      <c r="F25" s="292"/>
+      <c r="G25" s="292"/>
+      <c r="H25" s="292"/>
+      <c r="I25" s="292"/>
+      <c r="J25" s="292"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="245"/>
+      <c r="M25" s="246"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="253"/>
-      <c r="D26" s="254"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="270"/>
-      <c r="G26" s="270"/>
-      <c r="H26" s="270"/>
-      <c r="I26" s="270"/>
-      <c r="J26" s="270"/>
-      <c r="K26" s="254"/>
-      <c r="L26" s="253"/>
-      <c r="M26" s="272"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="267"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="266"/>
+      <c r="G26" s="266"/>
+      <c r="H26" s="266"/>
+      <c r="I26" s="266"/>
+      <c r="J26" s="266"/>
+      <c r="K26" s="267"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="248"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="253"/>
-      <c r="D27" s="254"/>
-      <c r="E27" s="253"/>
-      <c r="F27" s="270"/>
-      <c r="G27" s="270"/>
-      <c r="H27" s="270"/>
-      <c r="I27" s="270"/>
-      <c r="J27" s="270"/>
-      <c r="K27" s="254"/>
-      <c r="L27" s="253"/>
-      <c r="M27" s="272"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="267"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="266"/>
+      <c r="G27" s="266"/>
+      <c r="H27" s="266"/>
+      <c r="I27" s="266"/>
+      <c r="J27" s="266"/>
+      <c r="K27" s="267"/>
+      <c r="L27" s="247"/>
+      <c r="M27" s="248"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
-      <c r="C28" s="253"/>
-      <c r="D28" s="254"/>
-      <c r="E28" s="253"/>
-      <c r="F28" s="270"/>
-      <c r="G28" s="270"/>
-      <c r="H28" s="270"/>
-      <c r="I28" s="270"/>
-      <c r="J28" s="270"/>
-      <c r="K28" s="254"/>
-      <c r="L28" s="253"/>
-      <c r="M28" s="272"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="267"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="266"/>
+      <c r="G28" s="266"/>
+      <c r="H28" s="266"/>
+      <c r="I28" s="266"/>
+      <c r="J28" s="266"/>
+      <c r="K28" s="267"/>
+      <c r="L28" s="247"/>
+      <c r="M28" s="248"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="253"/>
-      <c r="D29" s="254"/>
-      <c r="E29" s="253"/>
-      <c r="F29" s="270"/>
-      <c r="G29" s="270"/>
-      <c r="H29" s="270"/>
-      <c r="I29" s="270"/>
-      <c r="J29" s="270"/>
-      <c r="K29" s="254"/>
-      <c r="L29" s="253"/>
-      <c r="M29" s="272"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="267"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="266"/>
+      <c r="G29" s="266"/>
+      <c r="H29" s="266"/>
+      <c r="I29" s="266"/>
+      <c r="J29" s="266"/>
+      <c r="K29" s="267"/>
+      <c r="L29" s="247"/>
+      <c r="M29" s="248"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
-      <c r="C30" s="267"/>
-      <c r="D30" s="269"/>
-      <c r="E30" s="267"/>
-      <c r="F30" s="271"/>
-      <c r="G30" s="271"/>
-      <c r="H30" s="271"/>
-      <c r="I30" s="271"/>
-      <c r="J30" s="271"/>
-      <c r="K30" s="269"/>
-      <c r="L30" s="267"/>
-      <c r="M30" s="268"/>
+      <c r="C30" s="276"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="276"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
+      <c r="H30" s="279"/>
+      <c r="I30" s="279"/>
+      <c r="J30" s="279"/>
+      <c r="K30" s="278"/>
+      <c r="L30" s="276"/>
+      <c r="M30" s="277"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
@@ -8321,20 +8336,20 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="234" t="s">
+      <c r="B32" s="281" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="235"/>
-      <c r="D32" s="235"/>
-      <c r="E32" s="235"/>
-      <c r="F32" s="235"/>
-      <c r="G32" s="235"/>
-      <c r="H32" s="235"/>
-      <c r="I32" s="235"/>
-      <c r="J32" s="235"/>
-      <c r="K32" s="235"/>
-      <c r="L32" s="235"/>
-      <c r="M32" s="236"/>
+      <c r="C32" s="282"/>
+      <c r="D32" s="282"/>
+      <c r="E32" s="282"/>
+      <c r="F32" s="282"/>
+      <c r="G32" s="282"/>
+      <c r="H32" s="282"/>
+      <c r="I32" s="282"/>
+      <c r="J32" s="282"/>
+      <c r="K32" s="282"/>
+      <c r="L32" s="282"/>
+      <c r="M32" s="283"/>
     </row>
     <row r="33" spans="2:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
@@ -8343,10 +8358,10 @@
       <c r="C33" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="237" t="s">
+      <c r="D33" s="284" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="239"/>
+      <c r="E33" s="286"/>
       <c r="F33" s="27" t="s">
         <v>162</v>
       </c>
@@ -8377,8 +8392,8 @@
         <v>1</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="264"/>
-      <c r="E34" s="264"/>
+      <c r="D34" s="294"/>
+      <c r="E34" s="294"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -8393,8 +8408,8 @@
         <v>2</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="265"/>
-      <c r="E35" s="265"/>
+      <c r="D35" s="241"/>
+      <c r="E35" s="241"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -8409,8 +8424,8 @@
         <v>3</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="265"/>
-      <c r="E36" s="265"/>
+      <c r="D36" s="241"/>
+      <c r="E36" s="241"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -8425,8 +8440,8 @@
         <v>4</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="266"/>
-      <c r="E37" s="266"/>
+      <c r="D37" s="275"/>
+      <c r="E37" s="275"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -8439,8 +8454,8 @@
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="233"/>
-      <c r="E38" s="233"/>
+      <c r="D38" s="280"/>
+      <c r="E38" s="280"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34" t="s">
         <v>169</v>
@@ -8461,16 +8476,16 @@
       <c r="M38" s="36"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="291" t="s">
+      <c r="B41" s="237" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="291"/>
-      <c r="D41" s="291"/>
-      <c r="E41" s="291"/>
-      <c r="F41" s="291"/>
-      <c r="G41" s="291"/>
-      <c r="H41" s="291"/>
-      <c r="I41" s="291"/>
+      <c r="C41" s="237"/>
+      <c r="D41" s="237"/>
+      <c r="E41" s="237"/>
+      <c r="F41" s="237"/>
+      <c r="G41" s="237"/>
+      <c r="H41" s="237"/>
+      <c r="I41" s="237"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
@@ -8483,16 +8498,16 @@
       <c r="C42" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="290" t="s">
+      <c r="D42" s="236" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="290"/>
-      <c r="F42" s="290" t="s">
+      <c r="E42" s="236"/>
+      <c r="F42" s="236" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="290"/>
-      <c r="H42" s="290"/>
-      <c r="I42" s="290"/>
+      <c r="G42" s="236"/>
+      <c r="H42" s="236"/>
+      <c r="I42" s="236"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -8503,8 +8518,8 @@
         <v>1</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="265"/>
-      <c r="E43" s="265"/>
+      <c r="D43" s="241"/>
+      <c r="E43" s="241"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -8519,8 +8534,8 @@
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="265"/>
-      <c r="E44" s="265"/>
+      <c r="D44" s="241"/>
+      <c r="E44" s="241"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -8535,8 +8550,8 @@
         <v>3</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="265"/>
-      <c r="E45" s="265"/>
+      <c r="D45" s="241"/>
+      <c r="E45" s="241"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -8547,16 +8562,16 @@
       <c r="M45" s="12"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="291" t="s">
+      <c r="B47" s="237" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="291"/>
-      <c r="D47" s="291"/>
-      <c r="E47" s="291"/>
-      <c r="F47" s="291"/>
-      <c r="G47" s="291"/>
-      <c r="H47" s="291"/>
-      <c r="I47" s="291"/>
+      <c r="C47" s="237"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="237"/>
+      <c r="F47" s="237"/>
+      <c r="G47" s="237"/>
+      <c r="H47" s="237"/>
+      <c r="I47" s="237"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
@@ -8569,14 +8584,14 @@
       <c r="C48" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D48" s="292" t="s">
+      <c r="D48" s="238" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="293"/>
-      <c r="F48" s="293"/>
-      <c r="G48" s="293"/>
-      <c r="H48" s="293"/>
-      <c r="I48" s="294"/>
+      <c r="E48" s="239"/>
+      <c r="F48" s="239"/>
+      <c r="G48" s="239"/>
+      <c r="H48" s="239"/>
+      <c r="I48" s="240"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
@@ -8589,12 +8604,12 @@
       <c r="C49" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="287"/>
-      <c r="E49" s="288"/>
-      <c r="F49" s="288"/>
-      <c r="G49" s="288"/>
-      <c r="H49" s="288"/>
-      <c r="I49" s="289"/>
+      <c r="D49" s="233"/>
+      <c r="E49" s="234"/>
+      <c r="F49" s="234"/>
+      <c r="G49" s="234"/>
+      <c r="H49" s="234"/>
+      <c r="I49" s="235"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="17">
@@ -8603,12 +8618,12 @@
       <c r="C50" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="287"/>
-      <c r="E50" s="288"/>
-      <c r="F50" s="288"/>
-      <c r="G50" s="288"/>
-      <c r="H50" s="288"/>
-      <c r="I50" s="289"/>
+      <c r="D50" s="233"/>
+      <c r="E50" s="234"/>
+      <c r="F50" s="234"/>
+      <c r="G50" s="234"/>
+      <c r="H50" s="234"/>
+      <c r="I50" s="235"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="17">
@@ -8617,77 +8632,128 @@
       <c r="C51" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="287"/>
-      <c r="E51" s="288"/>
-      <c r="F51" s="288"/>
-      <c r="G51" s="288"/>
-      <c r="H51" s="288"/>
-      <c r="I51" s="289"/>
+      <c r="D51" s="233"/>
+      <c r="E51" s="234"/>
+      <c r="F51" s="234"/>
+      <c r="G51" s="234"/>
+      <c r="H51" s="234"/>
+      <c r="I51" s="235"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="291" t="s">
+      <c r="B54" s="237" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="291"/>
-      <c r="D54" s="291"/>
-      <c r="E54" s="291"/>
-      <c r="F54" s="291"/>
-      <c r="G54" s="291"/>
-      <c r="H54" s="291"/>
-      <c r="I54" s="291"/>
+      <c r="C54" s="237"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="237"/>
+      <c r="F54" s="237"/>
+      <c r="G54" s="237"/>
+      <c r="H54" s="237"/>
+      <c r="I54" s="237"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="292" t="s">
+      <c r="C55" s="238" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="293"/>
-      <c r="E55" s="293"/>
-      <c r="F55" s="293"/>
-      <c r="G55" s="293"/>
-      <c r="H55" s="293"/>
-      <c r="I55" s="294"/>
+      <c r="D55" s="239"/>
+      <c r="E55" s="239"/>
+      <c r="F55" s="239"/>
+      <c r="G55" s="239"/>
+      <c r="H55" s="239"/>
+      <c r="I55" s="240"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="17">
         <v>1</v>
       </c>
-      <c r="C56" s="287"/>
-      <c r="D56" s="288"/>
-      <c r="E56" s="288"/>
-      <c r="F56" s="288"/>
-      <c r="G56" s="288"/>
-      <c r="H56" s="288"/>
-      <c r="I56" s="289"/>
+      <c r="C56" s="233"/>
+      <c r="D56" s="234"/>
+      <c r="E56" s="234"/>
+      <c r="F56" s="234"/>
+      <c r="G56" s="234"/>
+      <c r="H56" s="234"/>
+      <c r="I56" s="235"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="17">
         <v>2</v>
       </c>
-      <c r="C57" s="287"/>
-      <c r="D57" s="288"/>
-      <c r="E57" s="288"/>
-      <c r="F57" s="288"/>
-      <c r="G57" s="288"/>
-      <c r="H57" s="288"/>
-      <c r="I57" s="289"/>
+      <c r="C57" s="233"/>
+      <c r="D57" s="234"/>
+      <c r="E57" s="234"/>
+      <c r="F57" s="234"/>
+      <c r="G57" s="234"/>
+      <c r="H57" s="234"/>
+      <c r="I57" s="235"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="17">
         <v>3</v>
       </c>
-      <c r="C58" s="287"/>
-      <c r="D58" s="288"/>
-      <c r="E58" s="288"/>
-      <c r="F58" s="288"/>
-      <c r="G58" s="288"/>
-      <c r="H58" s="288"/>
-      <c r="I58" s="289"/>
+      <c r="C58" s="233"/>
+      <c r="D58" s="234"/>
+      <c r="E58" s="234"/>
+      <c r="F58" s="234"/>
+      <c r="G58" s="234"/>
+      <c r="H58" s="234"/>
+      <c r="I58" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="B18:C20"/>
+    <mergeCell ref="E17:M17"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B14:D17"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="B10:D13"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E14:M14"/>
     <mergeCell ref="C57:I57"/>
     <mergeCell ref="C58:I58"/>
     <mergeCell ref="F42:I42"/>
@@ -8704,57 +8770,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="C56:I56"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="B10:D13"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="B18:C20"/>
-    <mergeCell ref="E17:M17"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B14:D17"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10546,34 +10561,34 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="328" t="s">
+      <c r="B2" s="317" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="330"/>
-      <c r="L2" s="331"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="320"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="332" t="s">
+      <c r="B3" s="321" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333"/>
-      <c r="I3" s="333"/>
-      <c r="J3" s="333"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="335"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="324"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="308" t="s">
@@ -10587,7 +10602,7 @@
       <c r="H4" s="309"/>
       <c r="I4" s="309"/>
       <c r="J4" s="309"/>
-      <c r="K4" s="336"/>
+      <c r="K4" s="325"/>
       <c r="L4" s="310"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -10602,53 +10617,53 @@
       <c r="H5" s="298"/>
       <c r="I5" s="298"/>
       <c r="J5" s="298"/>
-      <c r="K5" s="337"/>
+      <c r="K5" s="326"/>
       <c r="L5" s="299"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="338" t="s">
+      <c r="B6" s="327" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="339"/>
-      <c r="F6" s="339"/>
-      <c r="G6" s="339"/>
-      <c r="H6" s="339"/>
-      <c r="I6" s="339"/>
-      <c r="J6" s="339"/>
-      <c r="K6" s="339"/>
-      <c r="L6" s="340"/>
+      <c r="C6" s="328"/>
+      <c r="D6" s="328"/>
+      <c r="E6" s="328"/>
+      <c r="F6" s="328"/>
+      <c r="G6" s="328"/>
+      <c r="H6" s="328"/>
+      <c r="I6" s="328"/>
+      <c r="J6" s="328"/>
+      <c r="K6" s="328"/>
+      <c r="L6" s="329"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="325" t="s">
+      <c r="B7" s="314" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="326"/>
-      <c r="D7" s="326"/>
-      <c r="E7" s="326"/>
-      <c r="F7" s="326"/>
-      <c r="G7" s="326"/>
-      <c r="H7" s="326"/>
-      <c r="I7" s="326"/>
-      <c r="J7" s="326"/>
-      <c r="K7" s="326"/>
-      <c r="L7" s="327"/>
+      <c r="C7" s="315"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="315"/>
+      <c r="J7" s="315"/>
+      <c r="K7" s="315"/>
+      <c r="L7" s="316"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="318" t="s">
+      <c r="B8" s="334" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="319"/>
-      <c r="D8" s="319"/>
-      <c r="E8" s="319"/>
-      <c r="F8" s="319"/>
-      <c r="G8" s="319"/>
-      <c r="H8" s="319"/>
-      <c r="I8" s="319"/>
-      <c r="J8" s="319"/>
-      <c r="K8" s="319"/>
-      <c r="L8" s="320"/>
+      <c r="C8" s="335"/>
+      <c r="D8" s="335"/>
+      <c r="E8" s="335"/>
+      <c r="F8" s="335"/>
+      <c r="G8" s="335"/>
+      <c r="H8" s="335"/>
+      <c r="I8" s="335"/>
+      <c r="J8" s="335"/>
+      <c r="K8" s="335"/>
+      <c r="L8" s="336"/>
     </row>
     <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
@@ -11984,19 +11999,19 @@
       <c r="L65" s="51"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="321" t="s">
+      <c r="B66" s="337" t="s">
         <v>382</v>
       </c>
-      <c r="C66" s="322"/>
-      <c r="D66" s="322"/>
-      <c r="E66" s="322"/>
-      <c r="F66" s="322"/>
-      <c r="G66" s="322"/>
-      <c r="H66" s="322"/>
-      <c r="I66" s="322"/>
-      <c r="J66" s="322"/>
-      <c r="K66" s="323"/>
-      <c r="L66" s="324"/>
+      <c r="C66" s="338"/>
+      <c r="D66" s="338"/>
+      <c r="E66" s="338"/>
+      <c r="F66" s="338"/>
+      <c r="G66" s="338"/>
+      <c r="H66" s="338"/>
+      <c r="I66" s="338"/>
+      <c r="J66" s="338"/>
+      <c r="K66" s="339"/>
+      <c r="L66" s="340"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="303" t="s">
@@ -12005,15 +12020,15 @@
       <c r="C67" s="304"/>
       <c r="D67" s="304"/>
       <c r="E67" s="52"/>
-      <c r="F67" s="314" t="s">
+      <c r="F67" s="330" t="s">
         <v>191</v>
       </c>
-      <c r="G67" s="314"/>
-      <c r="H67" s="314"/>
-      <c r="I67" s="314"/>
-      <c r="J67" s="314"/>
-      <c r="K67" s="314"/>
-      <c r="L67" s="315"/>
+      <c r="G67" s="330"/>
+      <c r="H67" s="330"/>
+      <c r="I67" s="330"/>
+      <c r="J67" s="330"/>
+      <c r="K67" s="330"/>
+      <c r="L67" s="331"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="303" t="s">
@@ -12022,13 +12037,13 @@
       <c r="C68" s="304"/>
       <c r="D68" s="304"/>
       <c r="E68" s="52"/>
-      <c r="F68" s="314"/>
-      <c r="G68" s="314"/>
-      <c r="H68" s="314"/>
-      <c r="I68" s="314"/>
-      <c r="J68" s="314"/>
-      <c r="K68" s="314"/>
-      <c r="L68" s="315"/>
+      <c r="F68" s="330"/>
+      <c r="G68" s="330"/>
+      <c r="H68" s="330"/>
+      <c r="I68" s="330"/>
+      <c r="J68" s="330"/>
+      <c r="K68" s="330"/>
+      <c r="L68" s="331"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="303" t="s">
@@ -12037,15 +12052,15 @@
       <c r="C69" s="304"/>
       <c r="D69" s="304"/>
       <c r="E69" s="52"/>
-      <c r="F69" s="314" t="s">
+      <c r="F69" s="330" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="314"/>
-      <c r="H69" s="314"/>
-      <c r="I69" s="314"/>
-      <c r="J69" s="314"/>
-      <c r="K69" s="314"/>
-      <c r="L69" s="315"/>
+      <c r="G69" s="330"/>
+      <c r="H69" s="330"/>
+      <c r="I69" s="330"/>
+      <c r="J69" s="330"/>
+      <c r="K69" s="330"/>
+      <c r="L69" s="331"/>
     </row>
     <row r="70" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="295" t="s">
@@ -12054,22 +12069,16 @@
       <c r="C70" s="296"/>
       <c r="D70" s="296"/>
       <c r="E70" s="53"/>
-      <c r="F70" s="316"/>
-      <c r="G70" s="316"/>
-      <c r="H70" s="316"/>
-      <c r="I70" s="316"/>
-      <c r="J70" s="316"/>
-      <c r="K70" s="316"/>
-      <c r="L70" s="317"/>
+      <c r="F70" s="332"/>
+      <c r="G70" s="332"/>
+      <c r="H70" s="332"/>
+      <c r="I70" s="332"/>
+      <c r="J70" s="332"/>
+      <c r="K70" s="332"/>
+      <c r="L70" s="333"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="F69:L69"/>
     <mergeCell ref="B70:D70"/>
@@ -12080,6 +12089,12 @@
     <mergeCell ref="F67:L67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="F68:L68"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12089,8 +12104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F031F4EE-3EC7-47DE-91AF-34380ED2D64A}">
   <dimension ref="B1:AO158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C90" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="G82" workbookViewId="0">
+      <selection activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18143,8 +18158,8 @@
       <c r="E71" s="189" t="s">
         <v>780</v>
       </c>
-      <c r="F71" s="189" t="s">
-        <v>626</v>
+      <c r="F71" s="211" t="s">
+        <v>640</v>
       </c>
       <c r="G71" s="190" t="s">
         <v>631</v>
@@ -18193,8 +18208,8 @@
       <c r="E72" s="189" t="s">
         <v>781</v>
       </c>
-      <c r="F72" s="189" t="s">
-        <v>626</v>
+      <c r="F72" s="211" t="s">
+        <v>640</v>
       </c>
       <c r="G72" s="190" t="s">
         <v>631</v>
@@ -18243,8 +18258,8 @@
       <c r="E73" s="189" t="s">
         <v>782</v>
       </c>
-      <c r="F73" s="189" t="s">
-        <v>626</v>
+      <c r="F73" s="211" t="s">
+        <v>640</v>
       </c>
       <c r="G73" s="190" t="s">
         <v>631</v>
@@ -18293,8 +18308,8 @@
       <c r="E74" s="189" t="s">
         <v>783</v>
       </c>
-      <c r="F74" s="189" t="s">
-        <v>626</v>
+      <c r="F74" s="211" t="s">
+        <v>640</v>
       </c>
       <c r="G74" s="190" t="s">
         <v>631</v>
@@ -18530,7 +18545,7 @@
       <c r="V78" s="54"/>
       <c r="AF78" s="60"/>
     </row>
-    <row r="79" spans="2:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="192">
         <v>73</v>
       </c>
@@ -19251,7 +19266,9 @@
         <v>616</v>
       </c>
       <c r="M93" s="54"/>
-      <c r="N93" s="54"/>
+      <c r="N93" s="54" t="s">
+        <v>803</v>
+      </c>
       <c r="O93" s="54"/>
       <c r="P93" s="54"/>
       <c r="Q93" s="56"/>
@@ -19297,7 +19314,9 @@
         <v>616</v>
       </c>
       <c r="M94" s="54"/>
-      <c r="N94" s="54"/>
+      <c r="N94" s="54" t="s">
+        <v>803</v>
+      </c>
       <c r="O94" s="54"/>
       <c r="P94" s="54"/>
       <c r="Q94" s="56"/>
@@ -19588,7 +19607,9 @@
       <c r="N100" s="54" t="s">
         <v>835</v>
       </c>
-      <c r="O100" s="54"/>
+      <c r="O100" s="218">
+        <v>44757</v>
+      </c>
       <c r="P100" s="54"/>
       <c r="Q100" s="56"/>
       <c r="R100" s="54"/>
@@ -19897,18 +19918,32 @@
       <c r="B107" s="192">
         <v>101</v>
       </c>
-      <c r="C107" s="54"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="58"/>
-      <c r="H107" s="54"/>
+      <c r="C107" s="54" t="s">
+        <v>772</v>
+      </c>
+      <c r="D107" s="54" t="s">
+        <v>832</v>
+      </c>
+      <c r="E107" s="54" t="s">
+        <v>841</v>
+      </c>
+      <c r="F107" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="G107" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="H107" s="54" t="s">
+        <v>623</v>
+      </c>
       <c r="I107" s="54"/>
       <c r="J107" s="56"/>
       <c r="K107" s="57"/>
       <c r="L107" s="56"/>
       <c r="M107" s="54"/>
-      <c r="N107" s="54"/>
+      <c r="N107" s="54" t="s">
+        <v>805</v>
+      </c>
       <c r="O107" s="54"/>
       <c r="P107" s="54"/>
       <c r="Q107" s="56"/>
@@ -19922,18 +19957,32 @@
       <c r="B108" s="192">
         <v>102</v>
       </c>
-      <c r="C108" s="54"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="54"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="54"/>
+      <c r="C108" s="54" t="s">
+        <v>772</v>
+      </c>
+      <c r="D108" s="54" t="s">
+        <v>716</v>
+      </c>
+      <c r="E108" s="54" t="s">
+        <v>841</v>
+      </c>
+      <c r="F108" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="G108" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="H108" s="54" t="s">
+        <v>623</v>
+      </c>
       <c r="I108" s="54"/>
       <c r="J108" s="56"/>
       <c r="K108" s="57"/>
       <c r="L108" s="56"/>
       <c r="M108" s="54"/>
-      <c r="N108" s="54"/>
+      <c r="N108" s="54" t="s">
+        <v>805</v>
+      </c>
       <c r="O108" s="54"/>
       <c r="P108" s="54"/>
       <c r="Q108" s="56"/>
@@ -19947,18 +19996,32 @@
       <c r="B109" s="192">
         <v>103</v>
       </c>
-      <c r="C109" s="54"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="54"/>
-      <c r="G109" s="58"/>
-      <c r="H109" s="54"/>
+      <c r="C109" s="54" t="s">
+        <v>843</v>
+      </c>
+      <c r="D109" s="54" t="s">
+        <v>832</v>
+      </c>
+      <c r="E109" s="54" t="s">
+        <v>842</v>
+      </c>
+      <c r="F109" s="227" t="s">
+        <v>640</v>
+      </c>
+      <c r="G109" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="H109" s="54" t="s">
+        <v>637</v>
+      </c>
       <c r="I109" s="54"/>
       <c r="J109" s="56"/>
       <c r="K109" s="57"/>
       <c r="L109" s="56"/>
       <c r="M109" s="54"/>
-      <c r="N109" s="54"/>
+      <c r="N109" s="54" t="s">
+        <v>844</v>
+      </c>
       <c r="O109" s="54"/>
       <c r="P109" s="54"/>
       <c r="Q109" s="56"/>
@@ -19974,7 +20037,7 @@
       </c>
       <c r="C110" s="54"/>
       <c r="D110" s="54"/>
-      <c r="E110" s="54"/>
+      <c r="E110" s="354"/>
       <c r="F110" s="54"/>
       <c r="G110" s="58"/>
       <c r="H110" s="54"/>
@@ -21110,7 +21173,7 @@
     <mergeCell ref="AJ44:AJ55"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVE983045:WVE983198 F6 F65541:F65694 IS65541:IS65694 SO65541:SO65694 ACK65541:ACK65694 AMG65541:AMG65694 AWC65541:AWC65694 BFY65541:BFY65694 BPU65541:BPU65694 BZQ65541:BZQ65694 CJM65541:CJM65694 CTI65541:CTI65694 DDE65541:DDE65694 DNA65541:DNA65694 DWW65541:DWW65694 EGS65541:EGS65694 EQO65541:EQO65694 FAK65541:FAK65694 FKG65541:FKG65694 FUC65541:FUC65694 GDY65541:GDY65694 GNU65541:GNU65694 GXQ65541:GXQ65694 HHM65541:HHM65694 HRI65541:HRI65694 IBE65541:IBE65694 ILA65541:ILA65694 IUW65541:IUW65694 JES65541:JES65694 JOO65541:JOO65694 JYK65541:JYK65694 KIG65541:KIG65694 KSC65541:KSC65694 LBY65541:LBY65694 LLU65541:LLU65694 LVQ65541:LVQ65694 MFM65541:MFM65694 MPI65541:MPI65694 MZE65541:MZE65694 NJA65541:NJA65694 NSW65541:NSW65694 OCS65541:OCS65694 OMO65541:OMO65694 OWK65541:OWK65694 PGG65541:PGG65694 PQC65541:PQC65694 PZY65541:PZY65694 QJU65541:QJU65694 QTQ65541:QTQ65694 RDM65541:RDM65694 RNI65541:RNI65694 RXE65541:RXE65694 SHA65541:SHA65694 SQW65541:SQW65694 TAS65541:TAS65694 TKO65541:TKO65694 TUK65541:TUK65694 UEG65541:UEG65694 UOC65541:UOC65694 UXY65541:UXY65694 VHU65541:VHU65694 VRQ65541:VRQ65694 WBM65541:WBM65694 WLI65541:WLI65694 WVE65541:WVE65694 F131077:F131230 IS131077:IS131230 SO131077:SO131230 ACK131077:ACK131230 AMG131077:AMG131230 AWC131077:AWC131230 BFY131077:BFY131230 BPU131077:BPU131230 BZQ131077:BZQ131230 CJM131077:CJM131230 CTI131077:CTI131230 DDE131077:DDE131230 DNA131077:DNA131230 DWW131077:DWW131230 EGS131077:EGS131230 EQO131077:EQO131230 FAK131077:FAK131230 FKG131077:FKG131230 FUC131077:FUC131230 GDY131077:GDY131230 GNU131077:GNU131230 GXQ131077:GXQ131230 HHM131077:HHM131230 HRI131077:HRI131230 IBE131077:IBE131230 ILA131077:ILA131230 IUW131077:IUW131230 JES131077:JES131230 JOO131077:JOO131230 JYK131077:JYK131230 KIG131077:KIG131230 KSC131077:KSC131230 LBY131077:LBY131230 LLU131077:LLU131230 LVQ131077:LVQ131230 MFM131077:MFM131230 MPI131077:MPI131230 MZE131077:MZE131230 NJA131077:NJA131230 NSW131077:NSW131230 OCS131077:OCS131230 OMO131077:OMO131230 OWK131077:OWK131230 PGG131077:PGG131230 PQC131077:PQC131230 PZY131077:PZY131230 QJU131077:QJU131230 QTQ131077:QTQ131230 RDM131077:RDM131230 RNI131077:RNI131230 RXE131077:RXE131230 SHA131077:SHA131230 SQW131077:SQW131230 TAS131077:TAS131230 TKO131077:TKO131230 TUK131077:TUK131230 UEG131077:UEG131230 UOC131077:UOC131230 UXY131077:UXY131230 VHU131077:VHU131230 VRQ131077:VRQ131230 WBM131077:WBM131230 WLI131077:WLI131230 WVE131077:WVE131230 F196613:F196766 IS196613:IS196766 SO196613:SO196766 ACK196613:ACK196766 AMG196613:AMG196766 AWC196613:AWC196766 BFY196613:BFY196766 BPU196613:BPU196766 BZQ196613:BZQ196766 CJM196613:CJM196766 CTI196613:CTI196766 DDE196613:DDE196766 DNA196613:DNA196766 DWW196613:DWW196766 EGS196613:EGS196766 EQO196613:EQO196766 FAK196613:FAK196766 FKG196613:FKG196766 FUC196613:FUC196766 GDY196613:GDY196766 GNU196613:GNU196766 GXQ196613:GXQ196766 HHM196613:HHM196766 HRI196613:HRI196766 IBE196613:IBE196766 ILA196613:ILA196766 IUW196613:IUW196766 JES196613:JES196766 JOO196613:JOO196766 JYK196613:JYK196766 KIG196613:KIG196766 KSC196613:KSC196766 LBY196613:LBY196766 LLU196613:LLU196766 LVQ196613:LVQ196766 MFM196613:MFM196766 MPI196613:MPI196766 MZE196613:MZE196766 NJA196613:NJA196766 NSW196613:NSW196766 OCS196613:OCS196766 OMO196613:OMO196766 OWK196613:OWK196766 PGG196613:PGG196766 PQC196613:PQC196766 PZY196613:PZY196766 QJU196613:QJU196766 QTQ196613:QTQ196766 RDM196613:RDM196766 RNI196613:RNI196766 RXE196613:RXE196766 SHA196613:SHA196766 SQW196613:SQW196766 TAS196613:TAS196766 TKO196613:TKO196766 TUK196613:TUK196766 UEG196613:UEG196766 UOC196613:UOC196766 UXY196613:UXY196766 VHU196613:VHU196766 VRQ196613:VRQ196766 WBM196613:WBM196766 WLI196613:WLI196766 WVE196613:WVE196766 F262149:F262302 IS262149:IS262302 SO262149:SO262302 ACK262149:ACK262302 AMG262149:AMG262302 AWC262149:AWC262302 BFY262149:BFY262302 BPU262149:BPU262302 BZQ262149:BZQ262302 CJM262149:CJM262302 CTI262149:CTI262302 DDE262149:DDE262302 DNA262149:DNA262302 DWW262149:DWW262302 EGS262149:EGS262302 EQO262149:EQO262302 FAK262149:FAK262302 FKG262149:FKG262302 FUC262149:FUC262302 GDY262149:GDY262302 GNU262149:GNU262302 GXQ262149:GXQ262302 HHM262149:HHM262302 HRI262149:HRI262302 IBE262149:IBE262302 ILA262149:ILA262302 IUW262149:IUW262302 JES262149:JES262302 JOO262149:JOO262302 JYK262149:JYK262302 KIG262149:KIG262302 KSC262149:KSC262302 LBY262149:LBY262302 LLU262149:LLU262302 LVQ262149:LVQ262302 MFM262149:MFM262302 MPI262149:MPI262302 MZE262149:MZE262302 NJA262149:NJA262302 NSW262149:NSW262302 OCS262149:OCS262302 OMO262149:OMO262302 OWK262149:OWK262302 PGG262149:PGG262302 PQC262149:PQC262302 PZY262149:PZY262302 QJU262149:QJU262302 QTQ262149:QTQ262302 RDM262149:RDM262302 RNI262149:RNI262302 RXE262149:RXE262302 SHA262149:SHA262302 SQW262149:SQW262302 TAS262149:TAS262302 TKO262149:TKO262302 TUK262149:TUK262302 UEG262149:UEG262302 UOC262149:UOC262302 UXY262149:UXY262302 VHU262149:VHU262302 VRQ262149:VRQ262302 WBM262149:WBM262302 WLI262149:WLI262302 WVE262149:WVE262302 F327685:F327838 IS327685:IS327838 SO327685:SO327838 ACK327685:ACK327838 AMG327685:AMG327838 AWC327685:AWC327838 BFY327685:BFY327838 BPU327685:BPU327838 BZQ327685:BZQ327838 CJM327685:CJM327838 CTI327685:CTI327838 DDE327685:DDE327838 DNA327685:DNA327838 DWW327685:DWW327838 EGS327685:EGS327838 EQO327685:EQO327838 FAK327685:FAK327838 FKG327685:FKG327838 FUC327685:FUC327838 GDY327685:GDY327838 GNU327685:GNU327838 GXQ327685:GXQ327838 HHM327685:HHM327838 HRI327685:HRI327838 IBE327685:IBE327838 ILA327685:ILA327838 IUW327685:IUW327838 JES327685:JES327838 JOO327685:JOO327838 JYK327685:JYK327838 KIG327685:KIG327838 KSC327685:KSC327838 LBY327685:LBY327838 LLU327685:LLU327838 LVQ327685:LVQ327838 MFM327685:MFM327838 MPI327685:MPI327838 MZE327685:MZE327838 NJA327685:NJA327838 NSW327685:NSW327838 OCS327685:OCS327838 OMO327685:OMO327838 OWK327685:OWK327838 PGG327685:PGG327838 PQC327685:PQC327838 PZY327685:PZY327838 QJU327685:QJU327838 QTQ327685:QTQ327838 RDM327685:RDM327838 RNI327685:RNI327838 RXE327685:RXE327838 SHA327685:SHA327838 SQW327685:SQW327838 TAS327685:TAS327838 TKO327685:TKO327838 TUK327685:TUK327838 UEG327685:UEG327838 UOC327685:UOC327838 UXY327685:UXY327838 VHU327685:VHU327838 VRQ327685:VRQ327838 WBM327685:WBM327838 WLI327685:WLI327838 WVE327685:WVE327838 F393221:F393374 IS393221:IS393374 SO393221:SO393374 ACK393221:ACK393374 AMG393221:AMG393374 AWC393221:AWC393374 BFY393221:BFY393374 BPU393221:BPU393374 BZQ393221:BZQ393374 CJM393221:CJM393374 CTI393221:CTI393374 DDE393221:DDE393374 DNA393221:DNA393374 DWW393221:DWW393374 EGS393221:EGS393374 EQO393221:EQO393374 FAK393221:FAK393374 FKG393221:FKG393374 FUC393221:FUC393374 GDY393221:GDY393374 GNU393221:GNU393374 GXQ393221:GXQ393374 HHM393221:HHM393374 HRI393221:HRI393374 IBE393221:IBE393374 ILA393221:ILA393374 IUW393221:IUW393374 JES393221:JES393374 JOO393221:JOO393374 JYK393221:JYK393374 KIG393221:KIG393374 KSC393221:KSC393374 LBY393221:LBY393374 LLU393221:LLU393374 LVQ393221:LVQ393374 MFM393221:MFM393374 MPI393221:MPI393374 MZE393221:MZE393374 NJA393221:NJA393374 NSW393221:NSW393374 OCS393221:OCS393374 OMO393221:OMO393374 OWK393221:OWK393374 PGG393221:PGG393374 PQC393221:PQC393374 PZY393221:PZY393374 QJU393221:QJU393374 QTQ393221:QTQ393374 RDM393221:RDM393374 RNI393221:RNI393374 RXE393221:RXE393374 SHA393221:SHA393374 SQW393221:SQW393374 TAS393221:TAS393374 TKO393221:TKO393374 TUK393221:TUK393374 UEG393221:UEG393374 UOC393221:UOC393374 UXY393221:UXY393374 VHU393221:VHU393374 VRQ393221:VRQ393374 WBM393221:WBM393374 WLI393221:WLI393374 WVE393221:WVE393374 F458757:F458910 IS458757:IS458910 SO458757:SO458910 ACK458757:ACK458910 AMG458757:AMG458910 AWC458757:AWC458910 BFY458757:BFY458910 BPU458757:BPU458910 BZQ458757:BZQ458910 CJM458757:CJM458910 CTI458757:CTI458910 DDE458757:DDE458910 DNA458757:DNA458910 DWW458757:DWW458910 EGS458757:EGS458910 EQO458757:EQO458910 FAK458757:FAK458910 FKG458757:FKG458910 FUC458757:FUC458910 GDY458757:GDY458910 GNU458757:GNU458910 GXQ458757:GXQ458910 HHM458757:HHM458910 HRI458757:HRI458910 IBE458757:IBE458910 ILA458757:ILA458910 IUW458757:IUW458910 JES458757:JES458910 JOO458757:JOO458910 JYK458757:JYK458910 KIG458757:KIG458910 KSC458757:KSC458910 LBY458757:LBY458910 LLU458757:LLU458910 LVQ458757:LVQ458910 MFM458757:MFM458910 MPI458757:MPI458910 MZE458757:MZE458910 NJA458757:NJA458910 NSW458757:NSW458910 OCS458757:OCS458910 OMO458757:OMO458910 OWK458757:OWK458910 PGG458757:PGG458910 PQC458757:PQC458910 PZY458757:PZY458910 QJU458757:QJU458910 QTQ458757:QTQ458910 RDM458757:RDM458910 RNI458757:RNI458910 RXE458757:RXE458910 SHA458757:SHA458910 SQW458757:SQW458910 TAS458757:TAS458910 TKO458757:TKO458910 TUK458757:TUK458910 UEG458757:UEG458910 UOC458757:UOC458910 UXY458757:UXY458910 VHU458757:VHU458910 VRQ458757:VRQ458910 WBM458757:WBM458910 WLI458757:WLI458910 WVE458757:WVE458910 F524293:F524446 IS524293:IS524446 SO524293:SO524446 ACK524293:ACK524446 AMG524293:AMG524446 AWC524293:AWC524446 BFY524293:BFY524446 BPU524293:BPU524446 BZQ524293:BZQ524446 CJM524293:CJM524446 CTI524293:CTI524446 DDE524293:DDE524446 DNA524293:DNA524446 DWW524293:DWW524446 EGS524293:EGS524446 EQO524293:EQO524446 FAK524293:FAK524446 FKG524293:FKG524446 FUC524293:FUC524446 GDY524293:GDY524446 GNU524293:GNU524446 GXQ524293:GXQ524446 HHM524293:HHM524446 HRI524293:HRI524446 IBE524293:IBE524446 ILA524293:ILA524446 IUW524293:IUW524446 JES524293:JES524446 JOO524293:JOO524446 JYK524293:JYK524446 KIG524293:KIG524446 KSC524293:KSC524446 LBY524293:LBY524446 LLU524293:LLU524446 LVQ524293:LVQ524446 MFM524293:MFM524446 MPI524293:MPI524446 MZE524293:MZE524446 NJA524293:NJA524446 NSW524293:NSW524446 OCS524293:OCS524446 OMO524293:OMO524446 OWK524293:OWK524446 PGG524293:PGG524446 PQC524293:PQC524446 PZY524293:PZY524446 QJU524293:QJU524446 QTQ524293:QTQ524446 RDM524293:RDM524446 RNI524293:RNI524446 RXE524293:RXE524446 SHA524293:SHA524446 SQW524293:SQW524446 TAS524293:TAS524446 TKO524293:TKO524446 TUK524293:TUK524446 UEG524293:UEG524446 UOC524293:UOC524446 UXY524293:UXY524446 VHU524293:VHU524446 VRQ524293:VRQ524446 WBM524293:WBM524446 WLI524293:WLI524446 WVE524293:WVE524446 F589829:F589982 IS589829:IS589982 SO589829:SO589982 ACK589829:ACK589982 AMG589829:AMG589982 AWC589829:AWC589982 BFY589829:BFY589982 BPU589829:BPU589982 BZQ589829:BZQ589982 CJM589829:CJM589982 CTI589829:CTI589982 DDE589829:DDE589982 DNA589829:DNA589982 DWW589829:DWW589982 EGS589829:EGS589982 EQO589829:EQO589982 FAK589829:FAK589982 FKG589829:FKG589982 FUC589829:FUC589982 GDY589829:GDY589982 GNU589829:GNU589982 GXQ589829:GXQ589982 HHM589829:HHM589982 HRI589829:HRI589982 IBE589829:IBE589982 ILA589829:ILA589982 IUW589829:IUW589982 JES589829:JES589982 JOO589829:JOO589982 JYK589829:JYK589982 KIG589829:KIG589982 KSC589829:KSC589982 LBY589829:LBY589982 LLU589829:LLU589982 LVQ589829:LVQ589982 MFM589829:MFM589982 MPI589829:MPI589982 MZE589829:MZE589982 NJA589829:NJA589982 NSW589829:NSW589982 OCS589829:OCS589982 OMO589829:OMO589982 OWK589829:OWK589982 PGG589829:PGG589982 PQC589829:PQC589982 PZY589829:PZY589982 QJU589829:QJU589982 QTQ589829:QTQ589982 RDM589829:RDM589982 RNI589829:RNI589982 RXE589829:RXE589982 SHA589829:SHA589982 SQW589829:SQW589982 TAS589829:TAS589982 TKO589829:TKO589982 TUK589829:TUK589982 UEG589829:UEG589982 UOC589829:UOC589982 UXY589829:UXY589982 VHU589829:VHU589982 VRQ589829:VRQ589982 WBM589829:WBM589982 WLI589829:WLI589982 WVE589829:WVE589982 F655365:F655518 IS655365:IS655518 SO655365:SO655518 ACK655365:ACK655518 AMG655365:AMG655518 AWC655365:AWC655518 BFY655365:BFY655518 BPU655365:BPU655518 BZQ655365:BZQ655518 CJM655365:CJM655518 CTI655365:CTI655518 DDE655365:DDE655518 DNA655365:DNA655518 DWW655365:DWW655518 EGS655365:EGS655518 EQO655365:EQO655518 FAK655365:FAK655518 FKG655365:FKG655518 FUC655365:FUC655518 GDY655365:GDY655518 GNU655365:GNU655518 GXQ655365:GXQ655518 HHM655365:HHM655518 HRI655365:HRI655518 IBE655365:IBE655518 ILA655365:ILA655518 IUW655365:IUW655518 JES655365:JES655518 JOO655365:JOO655518 JYK655365:JYK655518 KIG655365:KIG655518 KSC655365:KSC655518 LBY655365:LBY655518 LLU655365:LLU655518 LVQ655365:LVQ655518 MFM655365:MFM655518 MPI655365:MPI655518 MZE655365:MZE655518 NJA655365:NJA655518 NSW655365:NSW655518 OCS655365:OCS655518 OMO655365:OMO655518 OWK655365:OWK655518 PGG655365:PGG655518 PQC655365:PQC655518 PZY655365:PZY655518 QJU655365:QJU655518 QTQ655365:QTQ655518 RDM655365:RDM655518 RNI655365:RNI655518 RXE655365:RXE655518 SHA655365:SHA655518 SQW655365:SQW655518 TAS655365:TAS655518 TKO655365:TKO655518 TUK655365:TUK655518 UEG655365:UEG655518 UOC655365:UOC655518 UXY655365:UXY655518 VHU655365:VHU655518 VRQ655365:VRQ655518 WBM655365:WBM655518 WLI655365:WLI655518 WVE655365:WVE655518 F720901:F721054 IS720901:IS721054 SO720901:SO721054 ACK720901:ACK721054 AMG720901:AMG721054 AWC720901:AWC721054 BFY720901:BFY721054 BPU720901:BPU721054 BZQ720901:BZQ721054 CJM720901:CJM721054 CTI720901:CTI721054 DDE720901:DDE721054 DNA720901:DNA721054 DWW720901:DWW721054 EGS720901:EGS721054 EQO720901:EQO721054 FAK720901:FAK721054 FKG720901:FKG721054 FUC720901:FUC721054 GDY720901:GDY721054 GNU720901:GNU721054 GXQ720901:GXQ721054 HHM720901:HHM721054 HRI720901:HRI721054 IBE720901:IBE721054 ILA720901:ILA721054 IUW720901:IUW721054 JES720901:JES721054 JOO720901:JOO721054 JYK720901:JYK721054 KIG720901:KIG721054 KSC720901:KSC721054 LBY720901:LBY721054 LLU720901:LLU721054 LVQ720901:LVQ721054 MFM720901:MFM721054 MPI720901:MPI721054 MZE720901:MZE721054 NJA720901:NJA721054 NSW720901:NSW721054 OCS720901:OCS721054 OMO720901:OMO721054 OWK720901:OWK721054 PGG720901:PGG721054 PQC720901:PQC721054 PZY720901:PZY721054 QJU720901:QJU721054 QTQ720901:QTQ721054 RDM720901:RDM721054 RNI720901:RNI721054 RXE720901:RXE721054 SHA720901:SHA721054 SQW720901:SQW721054 TAS720901:TAS721054 TKO720901:TKO721054 TUK720901:TUK721054 UEG720901:UEG721054 UOC720901:UOC721054 UXY720901:UXY721054 VHU720901:VHU721054 VRQ720901:VRQ721054 WBM720901:WBM721054 WLI720901:WLI721054 WVE720901:WVE721054 F786437:F786590 IS786437:IS786590 SO786437:SO786590 ACK786437:ACK786590 AMG786437:AMG786590 AWC786437:AWC786590 BFY786437:BFY786590 BPU786437:BPU786590 BZQ786437:BZQ786590 CJM786437:CJM786590 CTI786437:CTI786590 DDE786437:DDE786590 DNA786437:DNA786590 DWW786437:DWW786590 EGS786437:EGS786590 EQO786437:EQO786590 FAK786437:FAK786590 FKG786437:FKG786590 FUC786437:FUC786590 GDY786437:GDY786590 GNU786437:GNU786590 GXQ786437:GXQ786590 HHM786437:HHM786590 HRI786437:HRI786590 IBE786437:IBE786590 ILA786437:ILA786590 IUW786437:IUW786590 JES786437:JES786590 JOO786437:JOO786590 JYK786437:JYK786590 KIG786437:KIG786590 KSC786437:KSC786590 LBY786437:LBY786590 LLU786437:LLU786590 LVQ786437:LVQ786590 MFM786437:MFM786590 MPI786437:MPI786590 MZE786437:MZE786590 NJA786437:NJA786590 NSW786437:NSW786590 OCS786437:OCS786590 OMO786437:OMO786590 OWK786437:OWK786590 PGG786437:PGG786590 PQC786437:PQC786590 PZY786437:PZY786590 QJU786437:QJU786590 QTQ786437:QTQ786590 RDM786437:RDM786590 RNI786437:RNI786590 RXE786437:RXE786590 SHA786437:SHA786590 SQW786437:SQW786590 TAS786437:TAS786590 TKO786437:TKO786590 TUK786437:TUK786590 UEG786437:UEG786590 UOC786437:UOC786590 UXY786437:UXY786590 VHU786437:VHU786590 VRQ786437:VRQ786590 WBM786437:WBM786590 WLI786437:WLI786590 WVE786437:WVE786590 F851973:F852126 IS851973:IS852126 SO851973:SO852126 ACK851973:ACK852126 AMG851973:AMG852126 AWC851973:AWC852126 BFY851973:BFY852126 BPU851973:BPU852126 BZQ851973:BZQ852126 CJM851973:CJM852126 CTI851973:CTI852126 DDE851973:DDE852126 DNA851973:DNA852126 DWW851973:DWW852126 EGS851973:EGS852126 EQO851973:EQO852126 FAK851973:FAK852126 FKG851973:FKG852126 FUC851973:FUC852126 GDY851973:GDY852126 GNU851973:GNU852126 GXQ851973:GXQ852126 HHM851973:HHM852126 HRI851973:HRI852126 IBE851973:IBE852126 ILA851973:ILA852126 IUW851973:IUW852126 JES851973:JES852126 JOO851973:JOO852126 JYK851973:JYK852126 KIG851973:KIG852126 KSC851973:KSC852126 LBY851973:LBY852126 LLU851973:LLU852126 LVQ851973:LVQ852126 MFM851973:MFM852126 MPI851973:MPI852126 MZE851973:MZE852126 NJA851973:NJA852126 NSW851973:NSW852126 OCS851973:OCS852126 OMO851973:OMO852126 OWK851973:OWK852126 PGG851973:PGG852126 PQC851973:PQC852126 PZY851973:PZY852126 QJU851973:QJU852126 QTQ851973:QTQ852126 RDM851973:RDM852126 RNI851973:RNI852126 RXE851973:RXE852126 SHA851973:SHA852126 SQW851973:SQW852126 TAS851973:TAS852126 TKO851973:TKO852126 TUK851973:TUK852126 UEG851973:UEG852126 UOC851973:UOC852126 UXY851973:UXY852126 VHU851973:VHU852126 VRQ851973:VRQ852126 WBM851973:WBM852126 WLI851973:WLI852126 WVE851973:WVE852126 F917509:F917662 IS917509:IS917662 SO917509:SO917662 ACK917509:ACK917662 AMG917509:AMG917662 AWC917509:AWC917662 BFY917509:BFY917662 BPU917509:BPU917662 BZQ917509:BZQ917662 CJM917509:CJM917662 CTI917509:CTI917662 DDE917509:DDE917662 DNA917509:DNA917662 DWW917509:DWW917662 EGS917509:EGS917662 EQO917509:EQO917662 FAK917509:FAK917662 FKG917509:FKG917662 FUC917509:FUC917662 GDY917509:GDY917662 GNU917509:GNU917662 GXQ917509:GXQ917662 HHM917509:HHM917662 HRI917509:HRI917662 IBE917509:IBE917662 ILA917509:ILA917662 IUW917509:IUW917662 JES917509:JES917662 JOO917509:JOO917662 JYK917509:JYK917662 KIG917509:KIG917662 KSC917509:KSC917662 LBY917509:LBY917662 LLU917509:LLU917662 LVQ917509:LVQ917662 MFM917509:MFM917662 MPI917509:MPI917662 MZE917509:MZE917662 NJA917509:NJA917662 NSW917509:NSW917662 OCS917509:OCS917662 OMO917509:OMO917662 OWK917509:OWK917662 PGG917509:PGG917662 PQC917509:PQC917662 PZY917509:PZY917662 QJU917509:QJU917662 QTQ917509:QTQ917662 RDM917509:RDM917662 RNI917509:RNI917662 RXE917509:RXE917662 SHA917509:SHA917662 SQW917509:SQW917662 TAS917509:TAS917662 TKO917509:TKO917662 TUK917509:TUK917662 UEG917509:UEG917662 UOC917509:UOC917662 UXY917509:UXY917662 VHU917509:VHU917662 VRQ917509:VRQ917662 WBM917509:WBM917662 WLI917509:WLI917662 WVE917509:WVE917662 F983045:F983198 IS983045:IS983198 SO983045:SO983198 ACK983045:ACK983198 AMG983045:AMG983198 AWC983045:AWC983198 BFY983045:BFY983198 BPU983045:BPU983198 BZQ983045:BZQ983198 CJM983045:CJM983198 CTI983045:CTI983198 DDE983045:DDE983198 DNA983045:DNA983198 DWW983045:DWW983198 EGS983045:EGS983198 EQO983045:EQO983198 FAK983045:FAK983198 FKG983045:FKG983198 FUC983045:FUC983198 GDY983045:GDY983198 GNU983045:GNU983198 GXQ983045:GXQ983198 HHM983045:HHM983198 HRI983045:HRI983198 IBE983045:IBE983198 ILA983045:ILA983198 IUW983045:IUW983198 JES983045:JES983198 JOO983045:JOO983198 JYK983045:JYK983198 KIG983045:KIG983198 KSC983045:KSC983198 LBY983045:LBY983198 LLU983045:LLU983198 LVQ983045:LVQ983198 MFM983045:MFM983198 MPI983045:MPI983198 MZE983045:MZE983198 NJA983045:NJA983198 NSW983045:NSW983198 OCS983045:OCS983198 OMO983045:OMO983198 OWK983045:OWK983198 PGG983045:PGG983198 PQC983045:PQC983198 PZY983045:PZY983198 QJU983045:QJU983198 QTQ983045:QTQ983198 RDM983045:RDM983198 RNI983045:RNI983198 RXE983045:RXE983198 SHA983045:SHA983198 SQW983045:SQW983198 TAS983045:TAS983198 TKO983045:TKO983198 TUK983045:TUK983198 UEG983045:UEG983198 UOC983045:UOC983198 UXY983045:UXY983198 VHU983045:VHU983198 VRQ983045:VRQ983198 WBM983045:WBM983198 WLI983045:WLI983198 F37:F158 WVE6:WVE158 WLI6:WLI158 WBM6:WBM158 VRQ6:VRQ158 VHU6:VHU158 UXY6:UXY158 UOC6:UOC158 UEG6:UEG158 TUK6:TUK158 TKO6:TKO158 TAS6:TAS158 SQW6:SQW158 SHA6:SHA158 RXE6:RXE158 RNI6:RNI158 RDM6:RDM158 QTQ6:QTQ158 QJU6:QJU158 PZY6:PZY158 PQC6:PQC158 PGG6:PGG158 OWK6:OWK158 OMO6:OMO158 OCS6:OCS158 NSW6:NSW158 NJA6:NJA158 MZE6:MZE158 MPI6:MPI158 MFM6:MFM158 LVQ6:LVQ158 LLU6:LLU158 LBY6:LBY158 KSC6:KSC158 KIG6:KIG158 JYK6:JYK158 JOO6:JOO158 JES6:JES158 IUW6:IUW158 ILA6:ILA158 IBE6:IBE158 HRI6:HRI158 HHM6:HHM158 GXQ6:GXQ158 GNU6:GNU158 GDY6:GDY158 FUC6:FUC158 FKG6:FKG158 FAK6:FAK158 EQO6:EQO158 EGS6:EGS158 DWW6:DWW158 DNA6:DNA158 DDE6:DDE158 CTI6:CTI158 CJM6:CJM158 BZQ6:BZQ158 BPU6:BPU158 BFY6:BFY158 AWC6:AWC158 AMG6:AMG158 ACK6:ACK158 SO6:SO158 IS6:IS158" xr:uid="{047E5A7D-3F66-4A74-9334-FE5570FDAD13}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVE983045:WVE983198 F6 F65541:F65694 IS65541:IS65694 SO65541:SO65694 ACK65541:ACK65694 AMG65541:AMG65694 AWC65541:AWC65694 BFY65541:BFY65694 BPU65541:BPU65694 BZQ65541:BZQ65694 CJM65541:CJM65694 CTI65541:CTI65694 DDE65541:DDE65694 DNA65541:DNA65694 DWW65541:DWW65694 EGS65541:EGS65694 EQO65541:EQO65694 FAK65541:FAK65694 FKG65541:FKG65694 FUC65541:FUC65694 GDY65541:GDY65694 GNU65541:GNU65694 GXQ65541:GXQ65694 HHM65541:HHM65694 HRI65541:HRI65694 IBE65541:IBE65694 ILA65541:ILA65694 IUW65541:IUW65694 JES65541:JES65694 JOO65541:JOO65694 JYK65541:JYK65694 KIG65541:KIG65694 KSC65541:KSC65694 LBY65541:LBY65694 LLU65541:LLU65694 LVQ65541:LVQ65694 MFM65541:MFM65694 MPI65541:MPI65694 MZE65541:MZE65694 NJA65541:NJA65694 NSW65541:NSW65694 OCS65541:OCS65694 OMO65541:OMO65694 OWK65541:OWK65694 PGG65541:PGG65694 PQC65541:PQC65694 PZY65541:PZY65694 QJU65541:QJU65694 QTQ65541:QTQ65694 RDM65541:RDM65694 RNI65541:RNI65694 RXE65541:RXE65694 SHA65541:SHA65694 SQW65541:SQW65694 TAS65541:TAS65694 TKO65541:TKO65694 TUK65541:TUK65694 UEG65541:UEG65694 UOC65541:UOC65694 UXY65541:UXY65694 VHU65541:VHU65694 VRQ65541:VRQ65694 WBM65541:WBM65694 WLI65541:WLI65694 WVE65541:WVE65694 F131077:F131230 IS131077:IS131230 SO131077:SO131230 ACK131077:ACK131230 AMG131077:AMG131230 AWC131077:AWC131230 BFY131077:BFY131230 BPU131077:BPU131230 BZQ131077:BZQ131230 CJM131077:CJM131230 CTI131077:CTI131230 DDE131077:DDE131230 DNA131077:DNA131230 DWW131077:DWW131230 EGS131077:EGS131230 EQO131077:EQO131230 FAK131077:FAK131230 FKG131077:FKG131230 FUC131077:FUC131230 GDY131077:GDY131230 GNU131077:GNU131230 GXQ131077:GXQ131230 HHM131077:HHM131230 HRI131077:HRI131230 IBE131077:IBE131230 ILA131077:ILA131230 IUW131077:IUW131230 JES131077:JES131230 JOO131077:JOO131230 JYK131077:JYK131230 KIG131077:KIG131230 KSC131077:KSC131230 LBY131077:LBY131230 LLU131077:LLU131230 LVQ131077:LVQ131230 MFM131077:MFM131230 MPI131077:MPI131230 MZE131077:MZE131230 NJA131077:NJA131230 NSW131077:NSW131230 OCS131077:OCS131230 OMO131077:OMO131230 OWK131077:OWK131230 PGG131077:PGG131230 PQC131077:PQC131230 PZY131077:PZY131230 QJU131077:QJU131230 QTQ131077:QTQ131230 RDM131077:RDM131230 RNI131077:RNI131230 RXE131077:RXE131230 SHA131077:SHA131230 SQW131077:SQW131230 TAS131077:TAS131230 TKO131077:TKO131230 TUK131077:TUK131230 UEG131077:UEG131230 UOC131077:UOC131230 UXY131077:UXY131230 VHU131077:VHU131230 VRQ131077:VRQ131230 WBM131077:WBM131230 WLI131077:WLI131230 WVE131077:WVE131230 F196613:F196766 IS196613:IS196766 SO196613:SO196766 ACK196613:ACK196766 AMG196613:AMG196766 AWC196613:AWC196766 BFY196613:BFY196766 BPU196613:BPU196766 BZQ196613:BZQ196766 CJM196613:CJM196766 CTI196613:CTI196766 DDE196613:DDE196766 DNA196613:DNA196766 DWW196613:DWW196766 EGS196613:EGS196766 EQO196613:EQO196766 FAK196613:FAK196766 FKG196613:FKG196766 FUC196613:FUC196766 GDY196613:GDY196766 GNU196613:GNU196766 GXQ196613:GXQ196766 HHM196613:HHM196766 HRI196613:HRI196766 IBE196613:IBE196766 ILA196613:ILA196766 IUW196613:IUW196766 JES196613:JES196766 JOO196613:JOO196766 JYK196613:JYK196766 KIG196613:KIG196766 KSC196613:KSC196766 LBY196613:LBY196766 LLU196613:LLU196766 LVQ196613:LVQ196766 MFM196613:MFM196766 MPI196613:MPI196766 MZE196613:MZE196766 NJA196613:NJA196766 NSW196613:NSW196766 OCS196613:OCS196766 OMO196613:OMO196766 OWK196613:OWK196766 PGG196613:PGG196766 PQC196613:PQC196766 PZY196613:PZY196766 QJU196613:QJU196766 QTQ196613:QTQ196766 RDM196613:RDM196766 RNI196613:RNI196766 RXE196613:RXE196766 SHA196613:SHA196766 SQW196613:SQW196766 TAS196613:TAS196766 TKO196613:TKO196766 TUK196613:TUK196766 UEG196613:UEG196766 UOC196613:UOC196766 UXY196613:UXY196766 VHU196613:VHU196766 VRQ196613:VRQ196766 WBM196613:WBM196766 WLI196613:WLI196766 WVE196613:WVE196766 F262149:F262302 IS262149:IS262302 SO262149:SO262302 ACK262149:ACK262302 AMG262149:AMG262302 AWC262149:AWC262302 BFY262149:BFY262302 BPU262149:BPU262302 BZQ262149:BZQ262302 CJM262149:CJM262302 CTI262149:CTI262302 DDE262149:DDE262302 DNA262149:DNA262302 DWW262149:DWW262302 EGS262149:EGS262302 EQO262149:EQO262302 FAK262149:FAK262302 FKG262149:FKG262302 FUC262149:FUC262302 GDY262149:GDY262302 GNU262149:GNU262302 GXQ262149:GXQ262302 HHM262149:HHM262302 HRI262149:HRI262302 IBE262149:IBE262302 ILA262149:ILA262302 IUW262149:IUW262302 JES262149:JES262302 JOO262149:JOO262302 JYK262149:JYK262302 KIG262149:KIG262302 KSC262149:KSC262302 LBY262149:LBY262302 LLU262149:LLU262302 LVQ262149:LVQ262302 MFM262149:MFM262302 MPI262149:MPI262302 MZE262149:MZE262302 NJA262149:NJA262302 NSW262149:NSW262302 OCS262149:OCS262302 OMO262149:OMO262302 OWK262149:OWK262302 PGG262149:PGG262302 PQC262149:PQC262302 PZY262149:PZY262302 QJU262149:QJU262302 QTQ262149:QTQ262302 RDM262149:RDM262302 RNI262149:RNI262302 RXE262149:RXE262302 SHA262149:SHA262302 SQW262149:SQW262302 TAS262149:TAS262302 TKO262149:TKO262302 TUK262149:TUK262302 UEG262149:UEG262302 UOC262149:UOC262302 UXY262149:UXY262302 VHU262149:VHU262302 VRQ262149:VRQ262302 WBM262149:WBM262302 WLI262149:WLI262302 WVE262149:WVE262302 F327685:F327838 IS327685:IS327838 SO327685:SO327838 ACK327685:ACK327838 AMG327685:AMG327838 AWC327685:AWC327838 BFY327685:BFY327838 BPU327685:BPU327838 BZQ327685:BZQ327838 CJM327685:CJM327838 CTI327685:CTI327838 DDE327685:DDE327838 DNA327685:DNA327838 DWW327685:DWW327838 EGS327685:EGS327838 EQO327685:EQO327838 FAK327685:FAK327838 FKG327685:FKG327838 FUC327685:FUC327838 GDY327685:GDY327838 GNU327685:GNU327838 GXQ327685:GXQ327838 HHM327685:HHM327838 HRI327685:HRI327838 IBE327685:IBE327838 ILA327685:ILA327838 IUW327685:IUW327838 JES327685:JES327838 JOO327685:JOO327838 JYK327685:JYK327838 KIG327685:KIG327838 KSC327685:KSC327838 LBY327685:LBY327838 LLU327685:LLU327838 LVQ327685:LVQ327838 MFM327685:MFM327838 MPI327685:MPI327838 MZE327685:MZE327838 NJA327685:NJA327838 NSW327685:NSW327838 OCS327685:OCS327838 OMO327685:OMO327838 OWK327685:OWK327838 PGG327685:PGG327838 PQC327685:PQC327838 PZY327685:PZY327838 QJU327685:QJU327838 QTQ327685:QTQ327838 RDM327685:RDM327838 RNI327685:RNI327838 RXE327685:RXE327838 SHA327685:SHA327838 SQW327685:SQW327838 TAS327685:TAS327838 TKO327685:TKO327838 TUK327685:TUK327838 UEG327685:UEG327838 UOC327685:UOC327838 UXY327685:UXY327838 VHU327685:VHU327838 VRQ327685:VRQ327838 WBM327685:WBM327838 WLI327685:WLI327838 WVE327685:WVE327838 F393221:F393374 IS393221:IS393374 SO393221:SO393374 ACK393221:ACK393374 AMG393221:AMG393374 AWC393221:AWC393374 BFY393221:BFY393374 BPU393221:BPU393374 BZQ393221:BZQ393374 CJM393221:CJM393374 CTI393221:CTI393374 DDE393221:DDE393374 DNA393221:DNA393374 DWW393221:DWW393374 EGS393221:EGS393374 EQO393221:EQO393374 FAK393221:FAK393374 FKG393221:FKG393374 FUC393221:FUC393374 GDY393221:GDY393374 GNU393221:GNU393374 GXQ393221:GXQ393374 HHM393221:HHM393374 HRI393221:HRI393374 IBE393221:IBE393374 ILA393221:ILA393374 IUW393221:IUW393374 JES393221:JES393374 JOO393221:JOO393374 JYK393221:JYK393374 KIG393221:KIG393374 KSC393221:KSC393374 LBY393221:LBY393374 LLU393221:LLU393374 LVQ393221:LVQ393374 MFM393221:MFM393374 MPI393221:MPI393374 MZE393221:MZE393374 NJA393221:NJA393374 NSW393221:NSW393374 OCS393221:OCS393374 OMO393221:OMO393374 OWK393221:OWK393374 PGG393221:PGG393374 PQC393221:PQC393374 PZY393221:PZY393374 QJU393221:QJU393374 QTQ393221:QTQ393374 RDM393221:RDM393374 RNI393221:RNI393374 RXE393221:RXE393374 SHA393221:SHA393374 SQW393221:SQW393374 TAS393221:TAS393374 TKO393221:TKO393374 TUK393221:TUK393374 UEG393221:UEG393374 UOC393221:UOC393374 UXY393221:UXY393374 VHU393221:VHU393374 VRQ393221:VRQ393374 WBM393221:WBM393374 WLI393221:WLI393374 WVE393221:WVE393374 F458757:F458910 IS458757:IS458910 SO458757:SO458910 ACK458757:ACK458910 AMG458757:AMG458910 AWC458757:AWC458910 BFY458757:BFY458910 BPU458757:BPU458910 BZQ458757:BZQ458910 CJM458757:CJM458910 CTI458757:CTI458910 DDE458757:DDE458910 DNA458757:DNA458910 DWW458757:DWW458910 EGS458757:EGS458910 EQO458757:EQO458910 FAK458757:FAK458910 FKG458757:FKG458910 FUC458757:FUC458910 GDY458757:GDY458910 GNU458757:GNU458910 GXQ458757:GXQ458910 HHM458757:HHM458910 HRI458757:HRI458910 IBE458757:IBE458910 ILA458757:ILA458910 IUW458757:IUW458910 JES458757:JES458910 JOO458757:JOO458910 JYK458757:JYK458910 KIG458757:KIG458910 KSC458757:KSC458910 LBY458757:LBY458910 LLU458757:LLU458910 LVQ458757:LVQ458910 MFM458757:MFM458910 MPI458757:MPI458910 MZE458757:MZE458910 NJA458757:NJA458910 NSW458757:NSW458910 OCS458757:OCS458910 OMO458757:OMO458910 OWK458757:OWK458910 PGG458757:PGG458910 PQC458757:PQC458910 PZY458757:PZY458910 QJU458757:QJU458910 QTQ458757:QTQ458910 RDM458757:RDM458910 RNI458757:RNI458910 RXE458757:RXE458910 SHA458757:SHA458910 SQW458757:SQW458910 TAS458757:TAS458910 TKO458757:TKO458910 TUK458757:TUK458910 UEG458757:UEG458910 UOC458757:UOC458910 UXY458757:UXY458910 VHU458757:VHU458910 VRQ458757:VRQ458910 WBM458757:WBM458910 WLI458757:WLI458910 WVE458757:WVE458910 F524293:F524446 IS524293:IS524446 SO524293:SO524446 ACK524293:ACK524446 AMG524293:AMG524446 AWC524293:AWC524446 BFY524293:BFY524446 BPU524293:BPU524446 BZQ524293:BZQ524446 CJM524293:CJM524446 CTI524293:CTI524446 DDE524293:DDE524446 DNA524293:DNA524446 DWW524293:DWW524446 EGS524293:EGS524446 EQO524293:EQO524446 FAK524293:FAK524446 FKG524293:FKG524446 FUC524293:FUC524446 GDY524293:GDY524446 GNU524293:GNU524446 GXQ524293:GXQ524446 HHM524293:HHM524446 HRI524293:HRI524446 IBE524293:IBE524446 ILA524293:ILA524446 IUW524293:IUW524446 JES524293:JES524446 JOO524293:JOO524446 JYK524293:JYK524446 KIG524293:KIG524446 KSC524293:KSC524446 LBY524293:LBY524446 LLU524293:LLU524446 LVQ524293:LVQ524446 MFM524293:MFM524446 MPI524293:MPI524446 MZE524293:MZE524446 NJA524293:NJA524446 NSW524293:NSW524446 OCS524293:OCS524446 OMO524293:OMO524446 OWK524293:OWK524446 PGG524293:PGG524446 PQC524293:PQC524446 PZY524293:PZY524446 QJU524293:QJU524446 QTQ524293:QTQ524446 RDM524293:RDM524446 RNI524293:RNI524446 RXE524293:RXE524446 SHA524293:SHA524446 SQW524293:SQW524446 TAS524293:TAS524446 TKO524293:TKO524446 TUK524293:TUK524446 UEG524293:UEG524446 UOC524293:UOC524446 UXY524293:UXY524446 VHU524293:VHU524446 VRQ524293:VRQ524446 WBM524293:WBM524446 WLI524293:WLI524446 WVE524293:WVE524446 F589829:F589982 IS589829:IS589982 SO589829:SO589982 ACK589829:ACK589982 AMG589829:AMG589982 AWC589829:AWC589982 BFY589829:BFY589982 BPU589829:BPU589982 BZQ589829:BZQ589982 CJM589829:CJM589982 CTI589829:CTI589982 DDE589829:DDE589982 DNA589829:DNA589982 DWW589829:DWW589982 EGS589829:EGS589982 EQO589829:EQO589982 FAK589829:FAK589982 FKG589829:FKG589982 FUC589829:FUC589982 GDY589829:GDY589982 GNU589829:GNU589982 GXQ589829:GXQ589982 HHM589829:HHM589982 HRI589829:HRI589982 IBE589829:IBE589982 ILA589829:ILA589982 IUW589829:IUW589982 JES589829:JES589982 JOO589829:JOO589982 JYK589829:JYK589982 KIG589829:KIG589982 KSC589829:KSC589982 LBY589829:LBY589982 LLU589829:LLU589982 LVQ589829:LVQ589982 MFM589829:MFM589982 MPI589829:MPI589982 MZE589829:MZE589982 NJA589829:NJA589982 NSW589829:NSW589982 OCS589829:OCS589982 OMO589829:OMO589982 OWK589829:OWK589982 PGG589829:PGG589982 PQC589829:PQC589982 PZY589829:PZY589982 QJU589829:QJU589982 QTQ589829:QTQ589982 RDM589829:RDM589982 RNI589829:RNI589982 RXE589829:RXE589982 SHA589829:SHA589982 SQW589829:SQW589982 TAS589829:TAS589982 TKO589829:TKO589982 TUK589829:TUK589982 UEG589829:UEG589982 UOC589829:UOC589982 UXY589829:UXY589982 VHU589829:VHU589982 VRQ589829:VRQ589982 WBM589829:WBM589982 WLI589829:WLI589982 WVE589829:WVE589982 F655365:F655518 IS655365:IS655518 SO655365:SO655518 ACK655365:ACK655518 AMG655365:AMG655518 AWC655365:AWC655518 BFY655365:BFY655518 BPU655365:BPU655518 BZQ655365:BZQ655518 CJM655365:CJM655518 CTI655365:CTI655518 DDE655365:DDE655518 DNA655365:DNA655518 DWW655365:DWW655518 EGS655365:EGS655518 EQO655365:EQO655518 FAK655365:FAK655518 FKG655365:FKG655518 FUC655365:FUC655518 GDY655365:GDY655518 GNU655365:GNU655518 GXQ655365:GXQ655518 HHM655365:HHM655518 HRI655365:HRI655518 IBE655365:IBE655518 ILA655365:ILA655518 IUW655365:IUW655518 JES655365:JES655518 JOO655365:JOO655518 JYK655365:JYK655518 KIG655365:KIG655518 KSC655365:KSC655518 LBY655365:LBY655518 LLU655365:LLU655518 LVQ655365:LVQ655518 MFM655365:MFM655518 MPI655365:MPI655518 MZE655365:MZE655518 NJA655365:NJA655518 NSW655365:NSW655518 OCS655365:OCS655518 OMO655365:OMO655518 OWK655365:OWK655518 PGG655365:PGG655518 PQC655365:PQC655518 PZY655365:PZY655518 QJU655365:QJU655518 QTQ655365:QTQ655518 RDM655365:RDM655518 RNI655365:RNI655518 RXE655365:RXE655518 SHA655365:SHA655518 SQW655365:SQW655518 TAS655365:TAS655518 TKO655365:TKO655518 TUK655365:TUK655518 UEG655365:UEG655518 UOC655365:UOC655518 UXY655365:UXY655518 VHU655365:VHU655518 VRQ655365:VRQ655518 WBM655365:WBM655518 WLI655365:WLI655518 WVE655365:WVE655518 F720901:F721054 IS720901:IS721054 SO720901:SO721054 ACK720901:ACK721054 AMG720901:AMG721054 AWC720901:AWC721054 BFY720901:BFY721054 BPU720901:BPU721054 BZQ720901:BZQ721054 CJM720901:CJM721054 CTI720901:CTI721054 DDE720901:DDE721054 DNA720901:DNA721054 DWW720901:DWW721054 EGS720901:EGS721054 EQO720901:EQO721054 FAK720901:FAK721054 FKG720901:FKG721054 FUC720901:FUC721054 GDY720901:GDY721054 GNU720901:GNU721054 GXQ720901:GXQ721054 HHM720901:HHM721054 HRI720901:HRI721054 IBE720901:IBE721054 ILA720901:ILA721054 IUW720901:IUW721054 JES720901:JES721054 JOO720901:JOO721054 JYK720901:JYK721054 KIG720901:KIG721054 KSC720901:KSC721054 LBY720901:LBY721054 LLU720901:LLU721054 LVQ720901:LVQ721054 MFM720901:MFM721054 MPI720901:MPI721054 MZE720901:MZE721054 NJA720901:NJA721054 NSW720901:NSW721054 OCS720901:OCS721054 OMO720901:OMO721054 OWK720901:OWK721054 PGG720901:PGG721054 PQC720901:PQC721054 PZY720901:PZY721054 QJU720901:QJU721054 QTQ720901:QTQ721054 RDM720901:RDM721054 RNI720901:RNI721054 RXE720901:RXE721054 SHA720901:SHA721054 SQW720901:SQW721054 TAS720901:TAS721054 TKO720901:TKO721054 TUK720901:TUK721054 UEG720901:UEG721054 UOC720901:UOC721054 UXY720901:UXY721054 VHU720901:VHU721054 VRQ720901:VRQ721054 WBM720901:WBM721054 WLI720901:WLI721054 WVE720901:WVE721054 F786437:F786590 IS786437:IS786590 SO786437:SO786590 ACK786437:ACK786590 AMG786437:AMG786590 AWC786437:AWC786590 BFY786437:BFY786590 BPU786437:BPU786590 BZQ786437:BZQ786590 CJM786437:CJM786590 CTI786437:CTI786590 DDE786437:DDE786590 DNA786437:DNA786590 DWW786437:DWW786590 EGS786437:EGS786590 EQO786437:EQO786590 FAK786437:FAK786590 FKG786437:FKG786590 FUC786437:FUC786590 GDY786437:GDY786590 GNU786437:GNU786590 GXQ786437:GXQ786590 HHM786437:HHM786590 HRI786437:HRI786590 IBE786437:IBE786590 ILA786437:ILA786590 IUW786437:IUW786590 JES786437:JES786590 JOO786437:JOO786590 JYK786437:JYK786590 KIG786437:KIG786590 KSC786437:KSC786590 LBY786437:LBY786590 LLU786437:LLU786590 LVQ786437:LVQ786590 MFM786437:MFM786590 MPI786437:MPI786590 MZE786437:MZE786590 NJA786437:NJA786590 NSW786437:NSW786590 OCS786437:OCS786590 OMO786437:OMO786590 OWK786437:OWK786590 PGG786437:PGG786590 PQC786437:PQC786590 PZY786437:PZY786590 QJU786437:QJU786590 QTQ786437:QTQ786590 RDM786437:RDM786590 RNI786437:RNI786590 RXE786437:RXE786590 SHA786437:SHA786590 SQW786437:SQW786590 TAS786437:TAS786590 TKO786437:TKO786590 TUK786437:TUK786590 UEG786437:UEG786590 UOC786437:UOC786590 UXY786437:UXY786590 VHU786437:VHU786590 VRQ786437:VRQ786590 WBM786437:WBM786590 WLI786437:WLI786590 WVE786437:WVE786590 F851973:F852126 IS851973:IS852126 SO851973:SO852126 ACK851973:ACK852126 AMG851973:AMG852126 AWC851973:AWC852126 BFY851973:BFY852126 BPU851973:BPU852126 BZQ851973:BZQ852126 CJM851973:CJM852126 CTI851973:CTI852126 DDE851973:DDE852126 DNA851973:DNA852126 DWW851973:DWW852126 EGS851973:EGS852126 EQO851973:EQO852126 FAK851973:FAK852126 FKG851973:FKG852126 FUC851973:FUC852126 GDY851973:GDY852126 GNU851973:GNU852126 GXQ851973:GXQ852126 HHM851973:HHM852126 HRI851973:HRI852126 IBE851973:IBE852126 ILA851973:ILA852126 IUW851973:IUW852126 JES851973:JES852126 JOO851973:JOO852126 JYK851973:JYK852126 KIG851973:KIG852126 KSC851973:KSC852126 LBY851973:LBY852126 LLU851973:LLU852126 LVQ851973:LVQ852126 MFM851973:MFM852126 MPI851973:MPI852126 MZE851973:MZE852126 NJA851973:NJA852126 NSW851973:NSW852126 OCS851973:OCS852126 OMO851973:OMO852126 OWK851973:OWK852126 PGG851973:PGG852126 PQC851973:PQC852126 PZY851973:PZY852126 QJU851973:QJU852126 QTQ851973:QTQ852126 RDM851973:RDM852126 RNI851973:RNI852126 RXE851973:RXE852126 SHA851973:SHA852126 SQW851973:SQW852126 TAS851973:TAS852126 TKO851973:TKO852126 TUK851973:TUK852126 UEG851973:UEG852126 UOC851973:UOC852126 UXY851973:UXY852126 VHU851973:VHU852126 VRQ851973:VRQ852126 WBM851973:WBM852126 WLI851973:WLI852126 WVE851973:WVE852126 F917509:F917662 IS917509:IS917662 SO917509:SO917662 ACK917509:ACK917662 AMG917509:AMG917662 AWC917509:AWC917662 BFY917509:BFY917662 BPU917509:BPU917662 BZQ917509:BZQ917662 CJM917509:CJM917662 CTI917509:CTI917662 DDE917509:DDE917662 DNA917509:DNA917662 DWW917509:DWW917662 EGS917509:EGS917662 EQO917509:EQO917662 FAK917509:FAK917662 FKG917509:FKG917662 FUC917509:FUC917662 GDY917509:GDY917662 GNU917509:GNU917662 GXQ917509:GXQ917662 HHM917509:HHM917662 HRI917509:HRI917662 IBE917509:IBE917662 ILA917509:ILA917662 IUW917509:IUW917662 JES917509:JES917662 JOO917509:JOO917662 JYK917509:JYK917662 KIG917509:KIG917662 KSC917509:KSC917662 LBY917509:LBY917662 LLU917509:LLU917662 LVQ917509:LVQ917662 MFM917509:MFM917662 MPI917509:MPI917662 MZE917509:MZE917662 NJA917509:NJA917662 NSW917509:NSW917662 OCS917509:OCS917662 OMO917509:OMO917662 OWK917509:OWK917662 PGG917509:PGG917662 PQC917509:PQC917662 PZY917509:PZY917662 QJU917509:QJU917662 QTQ917509:QTQ917662 RDM917509:RDM917662 RNI917509:RNI917662 RXE917509:RXE917662 SHA917509:SHA917662 SQW917509:SQW917662 TAS917509:TAS917662 TKO917509:TKO917662 TUK917509:TUK917662 UEG917509:UEG917662 UOC917509:UOC917662 UXY917509:UXY917662 VHU917509:VHU917662 VRQ917509:VRQ917662 WBM917509:WBM917662 WLI917509:WLI917662 WVE917509:WVE917662 F983045:F983198 IS983045:IS983198 SO983045:SO983198 ACK983045:ACK983198 AMG983045:AMG983198 AWC983045:AWC983198 BFY983045:BFY983198 BPU983045:BPU983198 BZQ983045:BZQ983198 CJM983045:CJM983198 CTI983045:CTI983198 DDE983045:DDE983198 DNA983045:DNA983198 DWW983045:DWW983198 EGS983045:EGS983198 EQO983045:EQO983198 FAK983045:FAK983198 FKG983045:FKG983198 FUC983045:FUC983198 GDY983045:GDY983198 GNU983045:GNU983198 GXQ983045:GXQ983198 HHM983045:HHM983198 HRI983045:HRI983198 IBE983045:IBE983198 ILA983045:ILA983198 IUW983045:IUW983198 JES983045:JES983198 JOO983045:JOO983198 JYK983045:JYK983198 KIG983045:KIG983198 KSC983045:KSC983198 LBY983045:LBY983198 LLU983045:LLU983198 LVQ983045:LVQ983198 MFM983045:MFM983198 MPI983045:MPI983198 MZE983045:MZE983198 NJA983045:NJA983198 NSW983045:NSW983198 OCS983045:OCS983198 OMO983045:OMO983198 OWK983045:OWK983198 PGG983045:PGG983198 PQC983045:PQC983198 PZY983045:PZY983198 QJU983045:QJU983198 QTQ983045:QTQ983198 RDM983045:RDM983198 RNI983045:RNI983198 RXE983045:RXE983198 SHA983045:SHA983198 SQW983045:SQW983198 TAS983045:TAS983198 TKO983045:TKO983198 TUK983045:TUK983198 UEG983045:UEG983198 UOC983045:UOC983198 UXY983045:UXY983198 VHU983045:VHU983198 VRQ983045:VRQ983198 WBM983045:WBM983198 WLI983045:WLI983198 IS6:IS158 WVE6:WVE158 WLI6:WLI158 WBM6:WBM158 VRQ6:VRQ158 VHU6:VHU158 UXY6:UXY158 UOC6:UOC158 UEG6:UEG158 TUK6:TUK158 TKO6:TKO158 TAS6:TAS158 SQW6:SQW158 SHA6:SHA158 RXE6:RXE158 RNI6:RNI158 RDM6:RDM158 QTQ6:QTQ158 QJU6:QJU158 PZY6:PZY158 PQC6:PQC158 PGG6:PGG158 OWK6:OWK158 OMO6:OMO158 OCS6:OCS158 NSW6:NSW158 NJA6:NJA158 MZE6:MZE158 MPI6:MPI158 MFM6:MFM158 LVQ6:LVQ158 LLU6:LLU158 LBY6:LBY158 KSC6:KSC158 KIG6:KIG158 JYK6:JYK158 JOO6:JOO158 JES6:JES158 IUW6:IUW158 ILA6:ILA158 IBE6:IBE158 HRI6:HRI158 HHM6:HHM158 GXQ6:GXQ158 GNU6:GNU158 GDY6:GDY158 FUC6:FUC158 FKG6:FKG158 FAK6:FAK158 EQO6:EQO158 EGS6:EGS158 DWW6:DWW158 DNA6:DNA158 DDE6:DDE158 CTI6:CTI158 CJM6:CJM158 BZQ6:BZQ158 BPU6:BPU158 BFY6:BFY158 AWC6:AWC158 AMG6:AMG158 ACK6:ACK158 SO6:SO158 F37:F158" xr:uid="{047E5A7D-3F66-4A74-9334-FE5570FDAD13}">
       <formula1>$AD$30:$AD$36</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVF983046:WVF983198 G65542:G65694 IT65542:IT65694 SP65542:SP65694 ACL65542:ACL65694 AMH65542:AMH65694 AWD65542:AWD65694 BFZ65542:BFZ65694 BPV65542:BPV65694 BZR65542:BZR65694 CJN65542:CJN65694 CTJ65542:CTJ65694 DDF65542:DDF65694 DNB65542:DNB65694 DWX65542:DWX65694 EGT65542:EGT65694 EQP65542:EQP65694 FAL65542:FAL65694 FKH65542:FKH65694 FUD65542:FUD65694 GDZ65542:GDZ65694 GNV65542:GNV65694 GXR65542:GXR65694 HHN65542:HHN65694 HRJ65542:HRJ65694 IBF65542:IBF65694 ILB65542:ILB65694 IUX65542:IUX65694 JET65542:JET65694 JOP65542:JOP65694 JYL65542:JYL65694 KIH65542:KIH65694 KSD65542:KSD65694 LBZ65542:LBZ65694 LLV65542:LLV65694 LVR65542:LVR65694 MFN65542:MFN65694 MPJ65542:MPJ65694 MZF65542:MZF65694 NJB65542:NJB65694 NSX65542:NSX65694 OCT65542:OCT65694 OMP65542:OMP65694 OWL65542:OWL65694 PGH65542:PGH65694 PQD65542:PQD65694 PZZ65542:PZZ65694 QJV65542:QJV65694 QTR65542:QTR65694 RDN65542:RDN65694 RNJ65542:RNJ65694 RXF65542:RXF65694 SHB65542:SHB65694 SQX65542:SQX65694 TAT65542:TAT65694 TKP65542:TKP65694 TUL65542:TUL65694 UEH65542:UEH65694 UOD65542:UOD65694 UXZ65542:UXZ65694 VHV65542:VHV65694 VRR65542:VRR65694 WBN65542:WBN65694 WLJ65542:WLJ65694 WVF65542:WVF65694 G131078:G131230 IT131078:IT131230 SP131078:SP131230 ACL131078:ACL131230 AMH131078:AMH131230 AWD131078:AWD131230 BFZ131078:BFZ131230 BPV131078:BPV131230 BZR131078:BZR131230 CJN131078:CJN131230 CTJ131078:CTJ131230 DDF131078:DDF131230 DNB131078:DNB131230 DWX131078:DWX131230 EGT131078:EGT131230 EQP131078:EQP131230 FAL131078:FAL131230 FKH131078:FKH131230 FUD131078:FUD131230 GDZ131078:GDZ131230 GNV131078:GNV131230 GXR131078:GXR131230 HHN131078:HHN131230 HRJ131078:HRJ131230 IBF131078:IBF131230 ILB131078:ILB131230 IUX131078:IUX131230 JET131078:JET131230 JOP131078:JOP131230 JYL131078:JYL131230 KIH131078:KIH131230 KSD131078:KSD131230 LBZ131078:LBZ131230 LLV131078:LLV131230 LVR131078:LVR131230 MFN131078:MFN131230 MPJ131078:MPJ131230 MZF131078:MZF131230 NJB131078:NJB131230 NSX131078:NSX131230 OCT131078:OCT131230 OMP131078:OMP131230 OWL131078:OWL131230 PGH131078:PGH131230 PQD131078:PQD131230 PZZ131078:PZZ131230 QJV131078:QJV131230 QTR131078:QTR131230 RDN131078:RDN131230 RNJ131078:RNJ131230 RXF131078:RXF131230 SHB131078:SHB131230 SQX131078:SQX131230 TAT131078:TAT131230 TKP131078:TKP131230 TUL131078:TUL131230 UEH131078:UEH131230 UOD131078:UOD131230 UXZ131078:UXZ131230 VHV131078:VHV131230 VRR131078:VRR131230 WBN131078:WBN131230 WLJ131078:WLJ131230 WVF131078:WVF131230 G196614:G196766 IT196614:IT196766 SP196614:SP196766 ACL196614:ACL196766 AMH196614:AMH196766 AWD196614:AWD196766 BFZ196614:BFZ196766 BPV196614:BPV196766 BZR196614:BZR196766 CJN196614:CJN196766 CTJ196614:CTJ196766 DDF196614:DDF196766 DNB196614:DNB196766 DWX196614:DWX196766 EGT196614:EGT196766 EQP196614:EQP196766 FAL196614:FAL196766 FKH196614:FKH196766 FUD196614:FUD196766 GDZ196614:GDZ196766 GNV196614:GNV196766 GXR196614:GXR196766 HHN196614:HHN196766 HRJ196614:HRJ196766 IBF196614:IBF196766 ILB196614:ILB196766 IUX196614:IUX196766 JET196614:JET196766 JOP196614:JOP196766 JYL196614:JYL196766 KIH196614:KIH196766 KSD196614:KSD196766 LBZ196614:LBZ196766 LLV196614:LLV196766 LVR196614:LVR196766 MFN196614:MFN196766 MPJ196614:MPJ196766 MZF196614:MZF196766 NJB196614:NJB196766 NSX196614:NSX196766 OCT196614:OCT196766 OMP196614:OMP196766 OWL196614:OWL196766 PGH196614:PGH196766 PQD196614:PQD196766 PZZ196614:PZZ196766 QJV196614:QJV196766 QTR196614:QTR196766 RDN196614:RDN196766 RNJ196614:RNJ196766 RXF196614:RXF196766 SHB196614:SHB196766 SQX196614:SQX196766 TAT196614:TAT196766 TKP196614:TKP196766 TUL196614:TUL196766 UEH196614:UEH196766 UOD196614:UOD196766 UXZ196614:UXZ196766 VHV196614:VHV196766 VRR196614:VRR196766 WBN196614:WBN196766 WLJ196614:WLJ196766 WVF196614:WVF196766 G262150:G262302 IT262150:IT262302 SP262150:SP262302 ACL262150:ACL262302 AMH262150:AMH262302 AWD262150:AWD262302 BFZ262150:BFZ262302 BPV262150:BPV262302 BZR262150:BZR262302 CJN262150:CJN262302 CTJ262150:CTJ262302 DDF262150:DDF262302 DNB262150:DNB262302 DWX262150:DWX262302 EGT262150:EGT262302 EQP262150:EQP262302 FAL262150:FAL262302 FKH262150:FKH262302 FUD262150:FUD262302 GDZ262150:GDZ262302 GNV262150:GNV262302 GXR262150:GXR262302 HHN262150:HHN262302 HRJ262150:HRJ262302 IBF262150:IBF262302 ILB262150:ILB262302 IUX262150:IUX262302 JET262150:JET262302 JOP262150:JOP262302 JYL262150:JYL262302 KIH262150:KIH262302 KSD262150:KSD262302 LBZ262150:LBZ262302 LLV262150:LLV262302 LVR262150:LVR262302 MFN262150:MFN262302 MPJ262150:MPJ262302 MZF262150:MZF262302 NJB262150:NJB262302 NSX262150:NSX262302 OCT262150:OCT262302 OMP262150:OMP262302 OWL262150:OWL262302 PGH262150:PGH262302 PQD262150:PQD262302 PZZ262150:PZZ262302 QJV262150:QJV262302 QTR262150:QTR262302 RDN262150:RDN262302 RNJ262150:RNJ262302 RXF262150:RXF262302 SHB262150:SHB262302 SQX262150:SQX262302 TAT262150:TAT262302 TKP262150:TKP262302 TUL262150:TUL262302 UEH262150:UEH262302 UOD262150:UOD262302 UXZ262150:UXZ262302 VHV262150:VHV262302 VRR262150:VRR262302 WBN262150:WBN262302 WLJ262150:WLJ262302 WVF262150:WVF262302 G327686:G327838 IT327686:IT327838 SP327686:SP327838 ACL327686:ACL327838 AMH327686:AMH327838 AWD327686:AWD327838 BFZ327686:BFZ327838 BPV327686:BPV327838 BZR327686:BZR327838 CJN327686:CJN327838 CTJ327686:CTJ327838 DDF327686:DDF327838 DNB327686:DNB327838 DWX327686:DWX327838 EGT327686:EGT327838 EQP327686:EQP327838 FAL327686:FAL327838 FKH327686:FKH327838 FUD327686:FUD327838 GDZ327686:GDZ327838 GNV327686:GNV327838 GXR327686:GXR327838 HHN327686:HHN327838 HRJ327686:HRJ327838 IBF327686:IBF327838 ILB327686:ILB327838 IUX327686:IUX327838 JET327686:JET327838 JOP327686:JOP327838 JYL327686:JYL327838 KIH327686:KIH327838 KSD327686:KSD327838 LBZ327686:LBZ327838 LLV327686:LLV327838 LVR327686:LVR327838 MFN327686:MFN327838 MPJ327686:MPJ327838 MZF327686:MZF327838 NJB327686:NJB327838 NSX327686:NSX327838 OCT327686:OCT327838 OMP327686:OMP327838 OWL327686:OWL327838 PGH327686:PGH327838 PQD327686:PQD327838 PZZ327686:PZZ327838 QJV327686:QJV327838 QTR327686:QTR327838 RDN327686:RDN327838 RNJ327686:RNJ327838 RXF327686:RXF327838 SHB327686:SHB327838 SQX327686:SQX327838 TAT327686:TAT327838 TKP327686:TKP327838 TUL327686:TUL327838 UEH327686:UEH327838 UOD327686:UOD327838 UXZ327686:UXZ327838 VHV327686:VHV327838 VRR327686:VRR327838 WBN327686:WBN327838 WLJ327686:WLJ327838 WVF327686:WVF327838 G393222:G393374 IT393222:IT393374 SP393222:SP393374 ACL393222:ACL393374 AMH393222:AMH393374 AWD393222:AWD393374 BFZ393222:BFZ393374 BPV393222:BPV393374 BZR393222:BZR393374 CJN393222:CJN393374 CTJ393222:CTJ393374 DDF393222:DDF393374 DNB393222:DNB393374 DWX393222:DWX393374 EGT393222:EGT393374 EQP393222:EQP393374 FAL393222:FAL393374 FKH393222:FKH393374 FUD393222:FUD393374 GDZ393222:GDZ393374 GNV393222:GNV393374 GXR393222:GXR393374 HHN393222:HHN393374 HRJ393222:HRJ393374 IBF393222:IBF393374 ILB393222:ILB393374 IUX393222:IUX393374 JET393222:JET393374 JOP393222:JOP393374 JYL393222:JYL393374 KIH393222:KIH393374 KSD393222:KSD393374 LBZ393222:LBZ393374 LLV393222:LLV393374 LVR393222:LVR393374 MFN393222:MFN393374 MPJ393222:MPJ393374 MZF393222:MZF393374 NJB393222:NJB393374 NSX393222:NSX393374 OCT393222:OCT393374 OMP393222:OMP393374 OWL393222:OWL393374 PGH393222:PGH393374 PQD393222:PQD393374 PZZ393222:PZZ393374 QJV393222:QJV393374 QTR393222:QTR393374 RDN393222:RDN393374 RNJ393222:RNJ393374 RXF393222:RXF393374 SHB393222:SHB393374 SQX393222:SQX393374 TAT393222:TAT393374 TKP393222:TKP393374 TUL393222:TUL393374 UEH393222:UEH393374 UOD393222:UOD393374 UXZ393222:UXZ393374 VHV393222:VHV393374 VRR393222:VRR393374 WBN393222:WBN393374 WLJ393222:WLJ393374 WVF393222:WVF393374 G458758:G458910 IT458758:IT458910 SP458758:SP458910 ACL458758:ACL458910 AMH458758:AMH458910 AWD458758:AWD458910 BFZ458758:BFZ458910 BPV458758:BPV458910 BZR458758:BZR458910 CJN458758:CJN458910 CTJ458758:CTJ458910 DDF458758:DDF458910 DNB458758:DNB458910 DWX458758:DWX458910 EGT458758:EGT458910 EQP458758:EQP458910 FAL458758:FAL458910 FKH458758:FKH458910 FUD458758:FUD458910 GDZ458758:GDZ458910 GNV458758:GNV458910 GXR458758:GXR458910 HHN458758:HHN458910 HRJ458758:HRJ458910 IBF458758:IBF458910 ILB458758:ILB458910 IUX458758:IUX458910 JET458758:JET458910 JOP458758:JOP458910 JYL458758:JYL458910 KIH458758:KIH458910 KSD458758:KSD458910 LBZ458758:LBZ458910 LLV458758:LLV458910 LVR458758:LVR458910 MFN458758:MFN458910 MPJ458758:MPJ458910 MZF458758:MZF458910 NJB458758:NJB458910 NSX458758:NSX458910 OCT458758:OCT458910 OMP458758:OMP458910 OWL458758:OWL458910 PGH458758:PGH458910 PQD458758:PQD458910 PZZ458758:PZZ458910 QJV458758:QJV458910 QTR458758:QTR458910 RDN458758:RDN458910 RNJ458758:RNJ458910 RXF458758:RXF458910 SHB458758:SHB458910 SQX458758:SQX458910 TAT458758:TAT458910 TKP458758:TKP458910 TUL458758:TUL458910 UEH458758:UEH458910 UOD458758:UOD458910 UXZ458758:UXZ458910 VHV458758:VHV458910 VRR458758:VRR458910 WBN458758:WBN458910 WLJ458758:WLJ458910 WVF458758:WVF458910 G524294:G524446 IT524294:IT524446 SP524294:SP524446 ACL524294:ACL524446 AMH524294:AMH524446 AWD524294:AWD524446 BFZ524294:BFZ524446 BPV524294:BPV524446 BZR524294:BZR524446 CJN524294:CJN524446 CTJ524294:CTJ524446 DDF524294:DDF524446 DNB524294:DNB524446 DWX524294:DWX524446 EGT524294:EGT524446 EQP524294:EQP524446 FAL524294:FAL524446 FKH524294:FKH524446 FUD524294:FUD524446 GDZ524294:GDZ524446 GNV524294:GNV524446 GXR524294:GXR524446 HHN524294:HHN524446 HRJ524294:HRJ524446 IBF524294:IBF524446 ILB524294:ILB524446 IUX524294:IUX524446 JET524294:JET524446 JOP524294:JOP524446 JYL524294:JYL524446 KIH524294:KIH524446 KSD524294:KSD524446 LBZ524294:LBZ524446 LLV524294:LLV524446 LVR524294:LVR524446 MFN524294:MFN524446 MPJ524294:MPJ524446 MZF524294:MZF524446 NJB524294:NJB524446 NSX524294:NSX524446 OCT524294:OCT524446 OMP524294:OMP524446 OWL524294:OWL524446 PGH524294:PGH524446 PQD524294:PQD524446 PZZ524294:PZZ524446 QJV524294:QJV524446 QTR524294:QTR524446 RDN524294:RDN524446 RNJ524294:RNJ524446 RXF524294:RXF524446 SHB524294:SHB524446 SQX524294:SQX524446 TAT524294:TAT524446 TKP524294:TKP524446 TUL524294:TUL524446 UEH524294:UEH524446 UOD524294:UOD524446 UXZ524294:UXZ524446 VHV524294:VHV524446 VRR524294:VRR524446 WBN524294:WBN524446 WLJ524294:WLJ524446 WVF524294:WVF524446 G589830:G589982 IT589830:IT589982 SP589830:SP589982 ACL589830:ACL589982 AMH589830:AMH589982 AWD589830:AWD589982 BFZ589830:BFZ589982 BPV589830:BPV589982 BZR589830:BZR589982 CJN589830:CJN589982 CTJ589830:CTJ589982 DDF589830:DDF589982 DNB589830:DNB589982 DWX589830:DWX589982 EGT589830:EGT589982 EQP589830:EQP589982 FAL589830:FAL589982 FKH589830:FKH589982 FUD589830:FUD589982 GDZ589830:GDZ589982 GNV589830:GNV589982 GXR589830:GXR589982 HHN589830:HHN589982 HRJ589830:HRJ589982 IBF589830:IBF589982 ILB589830:ILB589982 IUX589830:IUX589982 JET589830:JET589982 JOP589830:JOP589982 JYL589830:JYL589982 KIH589830:KIH589982 KSD589830:KSD589982 LBZ589830:LBZ589982 LLV589830:LLV589982 LVR589830:LVR589982 MFN589830:MFN589982 MPJ589830:MPJ589982 MZF589830:MZF589982 NJB589830:NJB589982 NSX589830:NSX589982 OCT589830:OCT589982 OMP589830:OMP589982 OWL589830:OWL589982 PGH589830:PGH589982 PQD589830:PQD589982 PZZ589830:PZZ589982 QJV589830:QJV589982 QTR589830:QTR589982 RDN589830:RDN589982 RNJ589830:RNJ589982 RXF589830:RXF589982 SHB589830:SHB589982 SQX589830:SQX589982 TAT589830:TAT589982 TKP589830:TKP589982 TUL589830:TUL589982 UEH589830:UEH589982 UOD589830:UOD589982 UXZ589830:UXZ589982 VHV589830:VHV589982 VRR589830:VRR589982 WBN589830:WBN589982 WLJ589830:WLJ589982 WVF589830:WVF589982 G655366:G655518 IT655366:IT655518 SP655366:SP655518 ACL655366:ACL655518 AMH655366:AMH655518 AWD655366:AWD655518 BFZ655366:BFZ655518 BPV655366:BPV655518 BZR655366:BZR655518 CJN655366:CJN655518 CTJ655366:CTJ655518 DDF655366:DDF655518 DNB655366:DNB655518 DWX655366:DWX655518 EGT655366:EGT655518 EQP655366:EQP655518 FAL655366:FAL655518 FKH655366:FKH655518 FUD655366:FUD655518 GDZ655366:GDZ655518 GNV655366:GNV655518 GXR655366:GXR655518 HHN655366:HHN655518 HRJ655366:HRJ655518 IBF655366:IBF655518 ILB655366:ILB655518 IUX655366:IUX655518 JET655366:JET655518 JOP655366:JOP655518 JYL655366:JYL655518 KIH655366:KIH655518 KSD655366:KSD655518 LBZ655366:LBZ655518 LLV655366:LLV655518 LVR655366:LVR655518 MFN655366:MFN655518 MPJ655366:MPJ655518 MZF655366:MZF655518 NJB655366:NJB655518 NSX655366:NSX655518 OCT655366:OCT655518 OMP655366:OMP655518 OWL655366:OWL655518 PGH655366:PGH655518 PQD655366:PQD655518 PZZ655366:PZZ655518 QJV655366:QJV655518 QTR655366:QTR655518 RDN655366:RDN655518 RNJ655366:RNJ655518 RXF655366:RXF655518 SHB655366:SHB655518 SQX655366:SQX655518 TAT655366:TAT655518 TKP655366:TKP655518 TUL655366:TUL655518 UEH655366:UEH655518 UOD655366:UOD655518 UXZ655366:UXZ655518 VHV655366:VHV655518 VRR655366:VRR655518 WBN655366:WBN655518 WLJ655366:WLJ655518 WVF655366:WVF655518 G720902:G721054 IT720902:IT721054 SP720902:SP721054 ACL720902:ACL721054 AMH720902:AMH721054 AWD720902:AWD721054 BFZ720902:BFZ721054 BPV720902:BPV721054 BZR720902:BZR721054 CJN720902:CJN721054 CTJ720902:CTJ721054 DDF720902:DDF721054 DNB720902:DNB721054 DWX720902:DWX721054 EGT720902:EGT721054 EQP720902:EQP721054 FAL720902:FAL721054 FKH720902:FKH721054 FUD720902:FUD721054 GDZ720902:GDZ721054 GNV720902:GNV721054 GXR720902:GXR721054 HHN720902:HHN721054 HRJ720902:HRJ721054 IBF720902:IBF721054 ILB720902:ILB721054 IUX720902:IUX721054 JET720902:JET721054 JOP720902:JOP721054 JYL720902:JYL721054 KIH720902:KIH721054 KSD720902:KSD721054 LBZ720902:LBZ721054 LLV720902:LLV721054 LVR720902:LVR721054 MFN720902:MFN721054 MPJ720902:MPJ721054 MZF720902:MZF721054 NJB720902:NJB721054 NSX720902:NSX721054 OCT720902:OCT721054 OMP720902:OMP721054 OWL720902:OWL721054 PGH720902:PGH721054 PQD720902:PQD721054 PZZ720902:PZZ721054 QJV720902:QJV721054 QTR720902:QTR721054 RDN720902:RDN721054 RNJ720902:RNJ721054 RXF720902:RXF721054 SHB720902:SHB721054 SQX720902:SQX721054 TAT720902:TAT721054 TKP720902:TKP721054 TUL720902:TUL721054 UEH720902:UEH721054 UOD720902:UOD721054 UXZ720902:UXZ721054 VHV720902:VHV721054 VRR720902:VRR721054 WBN720902:WBN721054 WLJ720902:WLJ721054 WVF720902:WVF721054 G786438:G786590 IT786438:IT786590 SP786438:SP786590 ACL786438:ACL786590 AMH786438:AMH786590 AWD786438:AWD786590 BFZ786438:BFZ786590 BPV786438:BPV786590 BZR786438:BZR786590 CJN786438:CJN786590 CTJ786438:CTJ786590 DDF786438:DDF786590 DNB786438:DNB786590 DWX786438:DWX786590 EGT786438:EGT786590 EQP786438:EQP786590 FAL786438:FAL786590 FKH786438:FKH786590 FUD786438:FUD786590 GDZ786438:GDZ786590 GNV786438:GNV786590 GXR786438:GXR786590 HHN786438:HHN786590 HRJ786438:HRJ786590 IBF786438:IBF786590 ILB786438:ILB786590 IUX786438:IUX786590 JET786438:JET786590 JOP786438:JOP786590 JYL786438:JYL786590 KIH786438:KIH786590 KSD786438:KSD786590 LBZ786438:LBZ786590 LLV786438:LLV786590 LVR786438:LVR786590 MFN786438:MFN786590 MPJ786438:MPJ786590 MZF786438:MZF786590 NJB786438:NJB786590 NSX786438:NSX786590 OCT786438:OCT786590 OMP786438:OMP786590 OWL786438:OWL786590 PGH786438:PGH786590 PQD786438:PQD786590 PZZ786438:PZZ786590 QJV786438:QJV786590 QTR786438:QTR786590 RDN786438:RDN786590 RNJ786438:RNJ786590 RXF786438:RXF786590 SHB786438:SHB786590 SQX786438:SQX786590 TAT786438:TAT786590 TKP786438:TKP786590 TUL786438:TUL786590 UEH786438:UEH786590 UOD786438:UOD786590 UXZ786438:UXZ786590 VHV786438:VHV786590 VRR786438:VRR786590 WBN786438:WBN786590 WLJ786438:WLJ786590 WVF786438:WVF786590 G851974:G852126 IT851974:IT852126 SP851974:SP852126 ACL851974:ACL852126 AMH851974:AMH852126 AWD851974:AWD852126 BFZ851974:BFZ852126 BPV851974:BPV852126 BZR851974:BZR852126 CJN851974:CJN852126 CTJ851974:CTJ852126 DDF851974:DDF852126 DNB851974:DNB852126 DWX851974:DWX852126 EGT851974:EGT852126 EQP851974:EQP852126 FAL851974:FAL852126 FKH851974:FKH852126 FUD851974:FUD852126 GDZ851974:GDZ852126 GNV851974:GNV852126 GXR851974:GXR852126 HHN851974:HHN852126 HRJ851974:HRJ852126 IBF851974:IBF852126 ILB851974:ILB852126 IUX851974:IUX852126 JET851974:JET852126 JOP851974:JOP852126 JYL851974:JYL852126 KIH851974:KIH852126 KSD851974:KSD852126 LBZ851974:LBZ852126 LLV851974:LLV852126 LVR851974:LVR852126 MFN851974:MFN852126 MPJ851974:MPJ852126 MZF851974:MZF852126 NJB851974:NJB852126 NSX851974:NSX852126 OCT851974:OCT852126 OMP851974:OMP852126 OWL851974:OWL852126 PGH851974:PGH852126 PQD851974:PQD852126 PZZ851974:PZZ852126 QJV851974:QJV852126 QTR851974:QTR852126 RDN851974:RDN852126 RNJ851974:RNJ852126 RXF851974:RXF852126 SHB851974:SHB852126 SQX851974:SQX852126 TAT851974:TAT852126 TKP851974:TKP852126 TUL851974:TUL852126 UEH851974:UEH852126 UOD851974:UOD852126 UXZ851974:UXZ852126 VHV851974:VHV852126 VRR851974:VRR852126 WBN851974:WBN852126 WLJ851974:WLJ852126 WVF851974:WVF852126 G917510:G917662 IT917510:IT917662 SP917510:SP917662 ACL917510:ACL917662 AMH917510:AMH917662 AWD917510:AWD917662 BFZ917510:BFZ917662 BPV917510:BPV917662 BZR917510:BZR917662 CJN917510:CJN917662 CTJ917510:CTJ917662 DDF917510:DDF917662 DNB917510:DNB917662 DWX917510:DWX917662 EGT917510:EGT917662 EQP917510:EQP917662 FAL917510:FAL917662 FKH917510:FKH917662 FUD917510:FUD917662 GDZ917510:GDZ917662 GNV917510:GNV917662 GXR917510:GXR917662 HHN917510:HHN917662 HRJ917510:HRJ917662 IBF917510:IBF917662 ILB917510:ILB917662 IUX917510:IUX917662 JET917510:JET917662 JOP917510:JOP917662 JYL917510:JYL917662 KIH917510:KIH917662 KSD917510:KSD917662 LBZ917510:LBZ917662 LLV917510:LLV917662 LVR917510:LVR917662 MFN917510:MFN917662 MPJ917510:MPJ917662 MZF917510:MZF917662 NJB917510:NJB917662 NSX917510:NSX917662 OCT917510:OCT917662 OMP917510:OMP917662 OWL917510:OWL917662 PGH917510:PGH917662 PQD917510:PQD917662 PZZ917510:PZZ917662 QJV917510:QJV917662 QTR917510:QTR917662 RDN917510:RDN917662 RNJ917510:RNJ917662 RXF917510:RXF917662 SHB917510:SHB917662 SQX917510:SQX917662 TAT917510:TAT917662 TKP917510:TKP917662 TUL917510:TUL917662 UEH917510:UEH917662 UOD917510:UOD917662 UXZ917510:UXZ917662 VHV917510:VHV917662 VRR917510:VRR917662 WBN917510:WBN917662 WLJ917510:WLJ917662 WVF917510:WVF917662 G983046:G983198 IT983046:IT983198 SP983046:SP983198 ACL983046:ACL983198 AMH983046:AMH983198 AWD983046:AWD983198 BFZ983046:BFZ983198 BPV983046:BPV983198 BZR983046:BZR983198 CJN983046:CJN983198 CTJ983046:CTJ983198 DDF983046:DDF983198 DNB983046:DNB983198 DWX983046:DWX983198 EGT983046:EGT983198 EQP983046:EQP983198 FAL983046:FAL983198 FKH983046:FKH983198 FUD983046:FUD983198 GDZ983046:GDZ983198 GNV983046:GNV983198 GXR983046:GXR983198 HHN983046:HHN983198 HRJ983046:HRJ983198 IBF983046:IBF983198 ILB983046:ILB983198 IUX983046:IUX983198 JET983046:JET983198 JOP983046:JOP983198 JYL983046:JYL983198 KIH983046:KIH983198 KSD983046:KSD983198 LBZ983046:LBZ983198 LLV983046:LLV983198 LVR983046:LVR983198 MFN983046:MFN983198 MPJ983046:MPJ983198 MZF983046:MZF983198 NJB983046:NJB983198 NSX983046:NSX983198 OCT983046:OCT983198 OMP983046:OMP983198 OWL983046:OWL983198 PGH983046:PGH983198 PQD983046:PQD983198 PZZ983046:PZZ983198 QJV983046:QJV983198 QTR983046:QTR983198 RDN983046:RDN983198 RNJ983046:RNJ983198 RXF983046:RXF983198 SHB983046:SHB983198 SQX983046:SQX983198 TAT983046:TAT983198 TKP983046:TKP983198 TUL983046:TUL983198 UEH983046:UEH983198 UOD983046:UOD983198 UXZ983046:UXZ983198 VHV983046:VHV983198 VRR983046:VRR983198 WBN983046:WBN983198 WLJ983046:WLJ983198 G7:G158 WVF7:WVF158 WLJ7:WLJ158 WBN7:WBN158 VRR7:VRR158 VHV7:VHV158 UXZ7:UXZ158 UOD7:UOD158 UEH7:UEH158 TUL7:TUL158 TKP7:TKP158 TAT7:TAT158 SQX7:SQX158 SHB7:SHB158 RXF7:RXF158 RNJ7:RNJ158 RDN7:RDN158 QTR7:QTR158 QJV7:QJV158 PZZ7:PZZ158 PQD7:PQD158 PGH7:PGH158 OWL7:OWL158 OMP7:OMP158 OCT7:OCT158 NSX7:NSX158 NJB7:NJB158 MZF7:MZF158 MPJ7:MPJ158 MFN7:MFN158 LVR7:LVR158 LLV7:LLV158 LBZ7:LBZ158 KSD7:KSD158 KIH7:KIH158 JYL7:JYL158 JOP7:JOP158 JET7:JET158 IUX7:IUX158 ILB7:ILB158 IBF7:IBF158 HRJ7:HRJ158 HHN7:HHN158 GXR7:GXR158 GNV7:GNV158 GDZ7:GDZ158 FUD7:FUD158 FKH7:FKH158 FAL7:FAL158 EQP7:EQP158 EGT7:EGT158 DWX7:DWX158 DNB7:DNB158 DDF7:DDF158 CTJ7:CTJ158 CJN7:CJN158 BZR7:BZR158 BPV7:BPV158 BFZ7:BFZ158 AWD7:AWD158 AMH7:AMH158 ACL7:ACL158 SP7:SP158 IT7:IT158" xr:uid="{EDC6663F-7307-453A-88F3-A3C62A439D69}">

--- a/Testing/Revised Plan.xlsx
+++ b/Testing/Revised Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Revised Plan and Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="861" documentId="8_{783EC7BA-7F55-4B35-8C25-054FADF87783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FBBB756-65E9-4ED8-8D58-D26F31B3F1DE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="4_{32FDE485-5194-4A48-B4DF-FAE26891D822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{FF53E854-575C-4B97-B6D0-9B270F57EAA4}"/>
   </bookViews>
@@ -5662,7 +5662,7 @@
   <autoFilter ref="B6:L158" xr:uid="{5E3F4BC3-2C61-4283-9F4D-4AD81D4F1176}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Open"/>
+        <filter val="Closed"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
@@ -12150,8 +12150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F031F4EE-3EC7-47DE-91AF-34380ED2D64A}">
   <dimension ref="B1:AO158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14382,7 +14382,7 @@
       <c r="U7" s="56"/>
       <c r="V7" s="56"/>
     </row>
-    <row r="8" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="189">
         <v>32</v>
       </c>
@@ -14533,7 +14533,7 @@
       <c r="U10" s="188"/>
       <c r="V10" s="188"/>
     </row>
-    <row r="11" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="189">
         <v>55</v>
       </c>
@@ -14582,7 +14582,7 @@
       <c r="U11" s="188"/>
       <c r="V11" s="188"/>
     </row>
-    <row r="12" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="189">
         <v>57</v>
       </c>
@@ -14631,7 +14631,7 @@
       <c r="U12" s="188"/>
       <c r="V12" s="188"/>
     </row>
-    <row r="13" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="189">
         <v>78</v>
       </c>
@@ -14778,7 +14778,7 @@
       <c r="U15" s="188"/>
       <c r="V15" s="188"/>
     </row>
-    <row r="16" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="189">
         <v>92</v>
       </c>
@@ -14827,7 +14827,7 @@
       <c r="U16" s="188"/>
       <c r="V16" s="188"/>
     </row>
-    <row r="17" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B17" s="189">
         <v>93</v>
       </c>
@@ -15121,7 +15121,7 @@
       <c r="U22" s="188"/>
       <c r="V22" s="188"/>
     </row>
-    <row r="23" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B23" s="189">
         <v>54</v>
       </c>
@@ -18833,7 +18833,7 @@
       <c r="V83" s="187"/>
       <c r="AF83" s="60"/>
     </row>
-    <row r="84" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B84" s="190">
         <v>33</v>
       </c>
@@ -18933,7 +18933,7 @@
       <c r="V85" s="54"/>
       <c r="AF85" s="60"/>
     </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="190">
         <v>50</v>
       </c>
@@ -18983,7 +18983,7 @@
       <c r="V86" s="54"/>
       <c r="AF86" s="60"/>
     </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="190">
         <v>79</v>
       </c>
@@ -19271,7 +19271,7 @@
       <c r="V92" s="54"/>
       <c r="AF92" s="60"/>
     </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="190">
         <v>86</v>
       </c>
@@ -19319,7 +19319,7 @@
       <c r="V93" s="54"/>
       <c r="AF93" s="60"/>
     </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="190">
         <v>100</v>
       </c>
@@ -19367,7 +19367,7 @@
       <c r="V94" s="54"/>
       <c r="AF94" s="60"/>
     </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="190">
         <v>101</v>
       </c>
@@ -19407,7 +19407,7 @@
       <c r="V95" s="54"/>
       <c r="AF95" s="60"/>
     </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="190">
         <v>102</v>
       </c>
@@ -19495,7 +19495,7 @@
       <c r="V97" s="54"/>
       <c r="AF97" s="60"/>
     </row>
-    <row r="98" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="190">
         <v>52</v>
       </c>
@@ -19543,7 +19543,7 @@
       <c r="V98" s="54"/>
       <c r="AF98" s="60"/>
     </row>
-    <row r="99" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="190">
         <v>53</v>
       </c>
@@ -19643,7 +19643,7 @@
       <c r="V100" s="54"/>
       <c r="AF100" s="60"/>
     </row>
-    <row r="101" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="190">
         <v>56</v>
       </c>
@@ -19744,7 +19744,7 @@
       <c r="U102" s="54"/>
       <c r="V102" s="54"/>
     </row>
-    <row r="103" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="190">
         <v>58</v>
       </c>
@@ -19793,7 +19793,7 @@
       <c r="U103" s="54"/>
       <c r="V103" s="54"/>
     </row>
-    <row r="104" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="190">
         <v>83</v>
       </c>

--- a/Testing/Revised Plan.xlsx
+++ b/Testing/Revised Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Revised Plan and Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="4_{32FDE485-5194-4A48-B4DF-FAE26891D822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24E4D158-9CC7-43A5-AD65-BF12D1EF3802}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="4_{32FDE485-5194-4A48-B4DF-FAE26891D822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B202E5DE-58B2-4CC8-A0B6-1A1212B3D4A4}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{FF53E854-575C-4B97-B6D0-9B270F57EAA4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="809">
   <si>
     <t>WEEK 0</t>
   </si>
@@ -4757,18 +4757,168 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4799,162 +4949,21 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5012,6 +5021,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5045,54 +5102,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5128,15 +5137,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5919,7 +5919,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="217" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -5936,14 +5936,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="214"/>
+      <c r="A2" s="217"/>
       <c r="B2" s="1">
         <v>44642</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="219" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5951,27 +5951,27 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="214"/>
+      <c r="A3" s="217"/>
       <c r="B3" s="1">
         <v>44643</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="216"/>
+      <c r="D3" s="218"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="214"/>
+      <c r="A4" s="217"/>
       <c r="B4" s="1">
         <v>44644</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="215" t="s">
+      <c r="D4" s="219" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -5979,20 +5979,20 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="214"/>
+      <c r="A5" s="217"/>
       <c r="B5" s="1">
         <v>44645</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="215"/>
+      <c r="D5" s="219"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="217" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
@@ -6001,7 +6001,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="215" t="s">
+      <c r="D6" s="219" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -6009,27 +6009,27 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="214"/>
+      <c r="A7" s="217"/>
       <c r="B7" s="1">
         <v>44649</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="215"/>
+      <c r="D7" s="219"/>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="214"/>
+      <c r="A8" s="217"/>
       <c r="B8" s="1">
         <v>44650</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="215" t="s">
+      <c r="D8" s="219" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -6037,20 +6037,20 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="214"/>
+      <c r="A9" s="217"/>
       <c r="B9" s="1">
         <v>44651</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="215"/>
+      <c r="D9" s="219"/>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="214"/>
+      <c r="A10" s="217"/>
       <c r="B10" s="1">
         <v>44652</v>
       </c>
@@ -6065,7 +6065,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="214"/>
+      <c r="A11" s="217"/>
       <c r="B11" s="1">
         <v>44653</v>
       </c>
@@ -6080,7 +6080,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="214" t="s">
+      <c r="A12" s="217" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1">
@@ -6089,7 +6089,7 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="216" t="s">
+      <c r="D12" s="218" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -6097,59 +6097,59 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="214"/>
+      <c r="A13" s="217"/>
       <c r="B13" s="1">
         <v>44656</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="216"/>
+      <c r="D13" s="218"/>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="214"/>
+      <c r="A14" s="217"/>
       <c r="B14" s="1">
         <v>44657</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="216"/>
+      <c r="D14" s="218"/>
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="214"/>
+      <c r="A15" s="217"/>
       <c r="B15" s="1">
         <v>44658</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="216"/>
+      <c r="D15" s="218"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="214"/>
+      <c r="A16" s="217"/>
       <c r="B16" s="1">
         <v>44659</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="216"/>
+      <c r="D16" s="218"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="214"/>
+      <c r="A17" s="217"/>
       <c r="B17" s="1">
         <v>44660</v>
       </c>
@@ -6164,7 +6164,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="217" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1">
@@ -6173,7 +6173,7 @@
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="216" t="s">
+      <c r="D18" s="218" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -6181,33 +6181,33 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="214"/>
+      <c r="A19" s="217"/>
       <c r="B19" s="1">
         <v>44663</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="216"/>
+      <c r="D19" s="218"/>
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="214"/>
+      <c r="A20" s="217"/>
       <c r="B20" s="1">
         <v>44664</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="216"/>
+      <c r="D20" s="218"/>
       <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="214" t="s">
+      <c r="A21" s="217" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1">
@@ -6216,7 +6216,7 @@
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="216" t="s">
+      <c r="D21" s="218" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -6224,27 +6224,27 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="214"/>
+      <c r="A22" s="217"/>
       <c r="B22" s="1">
         <v>44672</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="216"/>
+      <c r="D22" s="218"/>
       <c r="E22" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="214"/>
+      <c r="A23" s="217"/>
       <c r="B23" s="1">
         <v>44673</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="216" t="s">
+      <c r="D23" s="218" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -6252,20 +6252,20 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="214"/>
+      <c r="A24" s="217"/>
       <c r="B24" s="1">
         <v>44674</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="216"/>
+      <c r="D24" s="218"/>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="214" t="s">
+      <c r="A25" s="217" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="1">
@@ -6274,7 +6274,7 @@
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="215" t="s">
+      <c r="D25" s="219" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -6282,66 +6282,66 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="214"/>
+      <c r="A26" s="217"/>
       <c r="B26" s="1">
         <v>44677</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="215"/>
+      <c r="D26" s="219"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="214"/>
+      <c r="A27" s="217"/>
       <c r="B27" s="1">
         <v>44678</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="215"/>
+      <c r="D27" s="219"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="214"/>
+      <c r="A28" s="217"/>
       <c r="B28" s="1">
         <v>44679</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="216" t="s">
+      <c r="D28" s="218" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="214"/>
+      <c r="A29" s="217"/>
       <c r="B29" s="1">
         <v>44680</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="216"/>
+      <c r="D29" s="218"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="214"/>
+      <c r="A30" s="217"/>
       <c r="B30" s="1">
         <v>44681</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="216"/>
+      <c r="D30" s="218"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="214" t="s">
+      <c r="A31" s="217" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="1">
@@ -6350,24 +6350,24 @@
       <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="216" t="s">
+      <c r="D31" s="218" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="214"/>
+      <c r="A32" s="217"/>
       <c r="B32" s="1">
         <v>44687</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="216"/>
+      <c r="D32" s="218"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="214"/>
+      <c r="A33" s="217"/>
       <c r="B33" s="1">
         <v>44688</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="214" t="s">
+      <c r="A34" s="217" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="1">
@@ -6389,70 +6389,70 @@
       <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="216" t="s">
+      <c r="D34" s="218" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="214"/>
+      <c r="A35" s="217"/>
       <c r="B35" s="1">
         <v>44691</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="216"/>
+      <c r="D35" s="218"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="214"/>
+      <c r="A36" s="217"/>
       <c r="B36" s="1">
         <v>44692</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="216"/>
+      <c r="D36" s="218"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="214"/>
+      <c r="A37" s="217"/>
       <c r="B37" s="1">
         <v>44693</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="216"/>
+      <c r="D37" s="218"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="214"/>
+      <c r="A38" s="217"/>
       <c r="B38" s="1">
         <v>44694</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="215" t="s">
+      <c r="D38" s="219" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="214"/>
+      <c r="A39" s="217"/>
       <c r="B39" s="1">
         <v>44695</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="215"/>
+      <c r="D39" s="219"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="214" t="s">
+      <c r="A40" s="217" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="1">
@@ -6461,70 +6461,83 @@
       <c r="C40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="216" t="s">
+      <c r="D40" s="218" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="214"/>
+      <c r="A41" s="217"/>
       <c r="B41" s="1">
         <v>44698</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="216"/>
+      <c r="D41" s="218"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="214"/>
+      <c r="A42" s="217"/>
       <c r="B42" s="1">
         <v>44699</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="216"/>
+      <c r="D42" s="218"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="214"/>
+      <c r="A43" s="217"/>
       <c r="B43" s="1">
         <v>44700</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="216" t="s">
+      <c r="D43" s="218" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="214"/>
+      <c r="A44" s="217"/>
       <c r="B44" s="1">
         <v>44701</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="216"/>
+      <c r="D44" s="218"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="214"/>
+      <c r="A45" s="217"/>
       <c r="B45" s="1">
         <v>44702</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="216"/>
+      <c r="D45" s="218"/>
       <c r="E45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="D43:D45"/>
@@ -6536,19 +6549,6 @@
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6691,10 +6691,10 @@
       <c r="C9" s="7">
         <v>44696</v>
       </c>
-      <c r="D9" s="217" t="s">
+      <c r="D9" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="217"/>
+      <c r="E9" s="220"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -6913,10 +6913,10 @@
       <c r="C25" s="7">
         <v>44710</v>
       </c>
-      <c r="D25" s="217" t="s">
+      <c r="D25" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="217"/>
+      <c r="E25" s="220"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -7023,10 +7023,10 @@
       <c r="C33" s="7">
         <v>44717</v>
       </c>
-      <c r="D33" s="217" t="s">
+      <c r="D33" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="217"/>
+      <c r="E33" s="220"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
@@ -7133,10 +7133,10 @@
       <c r="C41" s="7">
         <v>44724</v>
       </c>
-      <c r="D41" s="217" t="s">
+      <c r="D41" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="217"/>
+      <c r="E41" s="220"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
@@ -7243,10 +7243,10 @@
       <c r="C49" s="7">
         <v>44731</v>
       </c>
-      <c r="D49" s="217" t="s">
+      <c r="D49" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="217"/>
+      <c r="E49" s="220"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
@@ -7353,10 +7353,10 @@
       <c r="C57" s="7">
         <v>44738</v>
       </c>
-      <c r="D57" s="217" t="s">
+      <c r="D57" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="217"/>
+      <c r="E57" s="220"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
@@ -7435,10 +7435,10 @@
       <c r="C63" s="7">
         <v>44744</v>
       </c>
-      <c r="D63" s="217" t="s">
+      <c r="D63" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="217"/>
+      <c r="E63" s="220"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
@@ -7447,10 +7447,10 @@
       <c r="C64" s="7">
         <v>44745</v>
       </c>
-      <c r="D64" s="217" t="s">
+      <c r="D64" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="217"/>
+      <c r="E64" s="220"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
@@ -7529,10 +7529,10 @@
       <c r="C70" s="7">
         <v>44751</v>
       </c>
-      <c r="D70" s="217" t="s">
+      <c r="D70" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="217"/>
+      <c r="E70" s="220"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
@@ -7541,10 +7541,10 @@
       <c r="C71" s="7">
         <v>44752</v>
       </c>
-      <c r="D71" s="217" t="s">
+      <c r="D71" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="E71" s="217"/>
+      <c r="E71" s="220"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C72" s="7"/>
@@ -7554,16 +7554,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7865,20 +7865,20 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="261" t="s">
+      <c r="B4" s="230" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="262"/>
-      <c r="D4" s="262"/>
-      <c r="E4" s="262"/>
-      <c r="F4" s="262"/>
-      <c r="G4" s="262"/>
-      <c r="H4" s="262"/>
-      <c r="I4" s="262"/>
-      <c r="J4" s="262"/>
-      <c r="K4" s="262"/>
-      <c r="L4" s="262"/>
-      <c r="M4" s="263"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="231"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="231"/>
+      <c r="K4" s="231"/>
+      <c r="L4" s="231"/>
+      <c r="M4" s="232"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
@@ -7895,242 +7895,242 @@
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="240" t="s">
+      <c r="B6" s="243" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="242"/>
-      <c r="D6" s="268" t="s">
+      <c r="C6" s="244"/>
+      <c r="D6" s="249" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="258" t="s">
+      <c r="E6" s="260" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="259"/>
-      <c r="G6" s="259"/>
-      <c r="H6" s="259"/>
-      <c r="I6" s="259"/>
-      <c r="J6" s="259"/>
-      <c r="K6" s="259"/>
-      <c r="L6" s="259"/>
-      <c r="M6" s="260"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
+      <c r="M6" s="262"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="243"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="269"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="232"/>
-      <c r="H7" s="232"/>
-      <c r="I7" s="232"/>
-      <c r="J7" s="232"/>
-      <c r="K7" s="232"/>
-      <c r="L7" s="232"/>
-      <c r="M7" s="233"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="250"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="238"/>
+      <c r="L7" s="238"/>
+      <c r="M7" s="239"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="243"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="228" t="s">
+      <c r="B8" s="245"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="251" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="234" t="s">
+      <c r="E8" s="256" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="232"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="232"/>
-      <c r="L8" s="232"/>
-      <c r="M8" s="233"/>
+      <c r="F8" s="238"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="238"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="238"/>
+      <c r="L8" s="238"/>
+      <c r="M8" s="239"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="246"/>
+      <c r="B9" s="247"/>
       <c r="C9" s="248"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="232"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="232"/>
-      <c r="L9" s="232"/>
-      <c r="M9" s="233"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="238"/>
+      <c r="G9" s="238"/>
+      <c r="H9" s="238"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="238"/>
+      <c r="K9" s="238"/>
+      <c r="L9" s="238"/>
+      <c r="M9" s="239"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="240" t="s">
+      <c r="B10" s="243" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="241"/>
-      <c r="D10" s="242"/>
-      <c r="E10" s="265" t="s">
+      <c r="C10" s="257"/>
+      <c r="D10" s="244"/>
+      <c r="E10" s="240" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="266"/>
-      <c r="G10" s="266"/>
-      <c r="H10" s="266"/>
-      <c r="I10" s="266"/>
-      <c r="J10" s="266"/>
-      <c r="K10" s="266"/>
-      <c r="L10" s="266"/>
-      <c r="M10" s="267"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="241"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="241"/>
+      <c r="L10" s="241"/>
+      <c r="M10" s="242"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="243"/>
-      <c r="C11" s="244"/>
-      <c r="D11" s="245"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="232"/>
-      <c r="G11" s="232"/>
-      <c r="H11" s="232"/>
-      <c r="I11" s="232"/>
-      <c r="J11" s="232"/>
-      <c r="K11" s="232"/>
-      <c r="L11" s="232"/>
-      <c r="M11" s="233"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="258"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="239"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="243"/>
-      <c r="C12" s="244"/>
-      <c r="D12" s="245"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="232"/>
-      <c r="H12" s="232"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="232"/>
-      <c r="L12" s="232"/>
-      <c r="M12" s="233"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="258"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="238"/>
+      <c r="G12" s="238"/>
+      <c r="H12" s="238"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="239"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="246"/>
-      <c r="C13" s="247"/>
+      <c r="B13" s="247"/>
+      <c r="C13" s="259"/>
       <c r="D13" s="248"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="232"/>
-      <c r="G13" s="232"/>
-      <c r="H13" s="232"/>
-      <c r="I13" s="232"/>
-      <c r="J13" s="232"/>
-      <c r="K13" s="232"/>
-      <c r="L13" s="232"/>
-      <c r="M13" s="233"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="238"/>
+      <c r="G13" s="238"/>
+      <c r="H13" s="238"/>
+      <c r="I13" s="238"/>
+      <c r="J13" s="238"/>
+      <c r="K13" s="238"/>
+      <c r="L13" s="238"/>
+      <c r="M13" s="239"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="240" t="s">
+      <c r="B14" s="243" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="241"/>
-      <c r="D14" s="242"/>
-      <c r="E14" s="234" t="s">
+      <c r="C14" s="257"/>
+      <c r="D14" s="244"/>
+      <c r="E14" s="256" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="232"/>
-      <c r="G14" s="232"/>
-      <c r="H14" s="232"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="232"/>
-      <c r="L14" s="232"/>
-      <c r="M14" s="233"/>
+      <c r="F14" s="238"/>
+      <c r="G14" s="238"/>
+      <c r="H14" s="238"/>
+      <c r="I14" s="238"/>
+      <c r="J14" s="238"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="238"/>
+      <c r="M14" s="239"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="243"/>
-      <c r="C15" s="244"/>
-      <c r="D15" s="245"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="232"/>
-      <c r="G15" s="232"/>
-      <c r="H15" s="232"/>
-      <c r="I15" s="232"/>
-      <c r="J15" s="232"/>
-      <c r="K15" s="232"/>
-      <c r="L15" s="232"/>
-      <c r="M15" s="233"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="238"/>
+      <c r="G15" s="238"/>
+      <c r="H15" s="238"/>
+      <c r="I15" s="238"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="238"/>
+      <c r="M15" s="239"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="243"/>
-      <c r="C16" s="244"/>
-      <c r="D16" s="245"/>
-      <c r="E16" s="231"/>
-      <c r="F16" s="232"/>
-      <c r="G16" s="232"/>
-      <c r="H16" s="232"/>
-      <c r="I16" s="232"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="232"/>
-      <c r="L16" s="232"/>
-      <c r="M16" s="233"/>
+      <c r="B16" s="245"/>
+      <c r="C16" s="258"/>
+      <c r="D16" s="246"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="238"/>
+      <c r="J16" s="238"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="238"/>
+      <c r="M16" s="239"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="246"/>
-      <c r="C17" s="247"/>
+      <c r="B17" s="247"/>
+      <c r="C17" s="259"/>
       <c r="D17" s="248"/>
-      <c r="E17" s="231"/>
-      <c r="F17" s="232"/>
-      <c r="G17" s="232"/>
-      <c r="H17" s="232"/>
-      <c r="I17" s="232"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="232"/>
-      <c r="L17" s="232"/>
-      <c r="M17" s="233"/>
+      <c r="E17" s="237"/>
+      <c r="F17" s="238"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="238"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
+      <c r="M17" s="239"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="225" t="s">
+      <c r="B18" s="275" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="226"/>
+      <c r="C18" s="276"/>
       <c r="D18" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="234" t="s">
+      <c r="E18" s="256" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="232"/>
-      <c r="G18" s="232"/>
-      <c r="H18" s="232"/>
-      <c r="I18" s="232"/>
-      <c r="J18" s="232"/>
-      <c r="K18" s="232"/>
-      <c r="L18" s="232"/>
-      <c r="M18" s="233"/>
+      <c r="F18" s="238"/>
+      <c r="G18" s="238"/>
+      <c r="H18" s="238"/>
+      <c r="I18" s="238"/>
+      <c r="J18" s="238"/>
+      <c r="K18" s="238"/>
+      <c r="L18" s="238"/>
+      <c r="M18" s="239"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="227"/>
-      <c r="C19" s="228"/>
+      <c r="B19" s="277"/>
+      <c r="C19" s="251"/>
       <c r="D19" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="234"/>
-      <c r="F19" s="232"/>
-      <c r="G19" s="232"/>
-      <c r="H19" s="232"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="232"/>
-      <c r="L19" s="232"/>
-      <c r="M19" s="233"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="238"/>
+      <c r="G19" s="238"/>
+      <c r="H19" s="238"/>
+      <c r="I19" s="238"/>
+      <c r="J19" s="238"/>
+      <c r="K19" s="238"/>
+      <c r="L19" s="238"/>
+      <c r="M19" s="239"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="229"/>
-      <c r="C20" s="230"/>
+      <c r="B20" s="278"/>
+      <c r="C20" s="279"/>
       <c r="D20" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="231"/>
-      <c r="F20" s="232"/>
-      <c r="G20" s="232"/>
-      <c r="H20" s="232"/>
-      <c r="I20" s="232"/>
-      <c r="J20" s="232"/>
-      <c r="K20" s="232"/>
-      <c r="L20" s="232"/>
-      <c r="M20" s="233"/>
+      <c r="E20" s="237"/>
+      <c r="F20" s="238"/>
+      <c r="G20" s="238"/>
+      <c r="H20" s="238"/>
+      <c r="I20" s="238"/>
+      <c r="J20" s="238"/>
+      <c r="K20" s="238"/>
+      <c r="L20" s="238"/>
+      <c r="M20" s="239"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
@@ -8161,126 +8161,126 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="219" t="s">
+      <c r="B23" s="269" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="220"/>
-      <c r="D23" s="220"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="220"/>
-      <c r="G23" s="220"/>
-      <c r="H23" s="220"/>
-      <c r="I23" s="220"/>
-      <c r="J23" s="220"/>
-      <c r="K23" s="220"/>
-      <c r="L23" s="220"/>
-      <c r="M23" s="221"/>
+      <c r="C23" s="270"/>
+      <c r="D23" s="270"/>
+      <c r="E23" s="270"/>
+      <c r="F23" s="270"/>
+      <c r="G23" s="270"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="270"/>
+      <c r="J23" s="270"/>
+      <c r="K23" s="270"/>
+      <c r="L23" s="270"/>
+      <c r="M23" s="271"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="222" t="s">
+      <c r="C24" s="272" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="224"/>
-      <c r="E24" s="222" t="s">
+      <c r="D24" s="274"/>
+      <c r="E24" s="272" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="224"/>
-      <c r="L24" s="270" t="s">
+      <c r="F24" s="273"/>
+      <c r="G24" s="273"/>
+      <c r="H24" s="273"/>
+      <c r="I24" s="273"/>
+      <c r="J24" s="273"/>
+      <c r="K24" s="274"/>
+      <c r="L24" s="252" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="271"/>
+      <c r="M24" s="253"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="235"/>
-      <c r="D25" s="237"/>
-      <c r="E25" s="235"/>
-      <c r="F25" s="236"/>
-      <c r="G25" s="236"/>
-      <c r="H25" s="236"/>
-      <c r="I25" s="236"/>
-      <c r="J25" s="236"/>
-      <c r="K25" s="237"/>
-      <c r="L25" s="235"/>
-      <c r="M25" s="264"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="281"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="280"/>
+      <c r="H25" s="280"/>
+      <c r="I25" s="280"/>
+      <c r="J25" s="280"/>
+      <c r="K25" s="281"/>
+      <c r="L25" s="233"/>
+      <c r="M25" s="234"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="238"/>
-      <c r="D26" s="239"/>
-      <c r="E26" s="238"/>
-      <c r="F26" s="255"/>
-      <c r="G26" s="255"/>
-      <c r="H26" s="255"/>
-      <c r="I26" s="255"/>
-      <c r="J26" s="255"/>
-      <c r="K26" s="239"/>
-      <c r="L26" s="238"/>
-      <c r="M26" s="257"/>
+      <c r="C26" s="235"/>
+      <c r="D26" s="255"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="254"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="254"/>
+      <c r="J26" s="254"/>
+      <c r="K26" s="255"/>
+      <c r="L26" s="235"/>
+      <c r="M26" s="236"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="238"/>
-      <c r="D27" s="239"/>
-      <c r="E27" s="238"/>
-      <c r="F27" s="255"/>
-      <c r="G27" s="255"/>
-      <c r="H27" s="255"/>
-      <c r="I27" s="255"/>
-      <c r="J27" s="255"/>
-      <c r="K27" s="239"/>
-      <c r="L27" s="238"/>
-      <c r="M27" s="257"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="255"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="254"/>
+      <c r="J27" s="254"/>
+      <c r="K27" s="255"/>
+      <c r="L27" s="235"/>
+      <c r="M27" s="236"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="255"/>
-      <c r="G28" s="255"/>
-      <c r="H28" s="255"/>
-      <c r="I28" s="255"/>
-      <c r="J28" s="255"/>
-      <c r="K28" s="239"/>
-      <c r="L28" s="238"/>
-      <c r="M28" s="257"/>
+      <c r="C28" s="235"/>
+      <c r="D28" s="255"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="254"/>
+      <c r="G28" s="254"/>
+      <c r="H28" s="254"/>
+      <c r="I28" s="254"/>
+      <c r="J28" s="254"/>
+      <c r="K28" s="255"/>
+      <c r="L28" s="235"/>
+      <c r="M28" s="236"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="238"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="238"/>
-      <c r="F29" s="255"/>
-      <c r="G29" s="255"/>
-      <c r="H29" s="255"/>
-      <c r="I29" s="255"/>
-      <c r="J29" s="255"/>
-      <c r="K29" s="239"/>
-      <c r="L29" s="238"/>
-      <c r="M29" s="257"/>
+      <c r="C29" s="235"/>
+      <c r="D29" s="255"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="254"/>
+      <c r="G29" s="254"/>
+      <c r="H29" s="254"/>
+      <c r="I29" s="254"/>
+      <c r="J29" s="254"/>
+      <c r="K29" s="255"/>
+      <c r="L29" s="235"/>
+      <c r="M29" s="236"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
-      <c r="C30" s="252"/>
-      <c r="D30" s="254"/>
-      <c r="E30" s="252"/>
-      <c r="F30" s="256"/>
-      <c r="G30" s="256"/>
-      <c r="H30" s="256"/>
-      <c r="I30" s="256"/>
-      <c r="J30" s="256"/>
-      <c r="K30" s="254"/>
-      <c r="L30" s="252"/>
-      <c r="M30" s="253"/>
+      <c r="C30" s="264"/>
+      <c r="D30" s="266"/>
+      <c r="E30" s="264"/>
+      <c r="F30" s="267"/>
+      <c r="G30" s="267"/>
+      <c r="H30" s="267"/>
+      <c r="I30" s="267"/>
+      <c r="J30" s="267"/>
+      <c r="K30" s="266"/>
+      <c r="L30" s="264"/>
+      <c r="M30" s="265"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
@@ -8297,20 +8297,20 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="219" t="s">
+      <c r="B32" s="269" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="220"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="220"/>
-      <c r="L32" s="220"/>
-      <c r="M32" s="221"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="270"/>
+      <c r="F32" s="270"/>
+      <c r="G32" s="270"/>
+      <c r="H32" s="270"/>
+      <c r="I32" s="270"/>
+      <c r="J32" s="270"/>
+      <c r="K32" s="270"/>
+      <c r="L32" s="270"/>
+      <c r="M32" s="271"/>
     </row>
     <row r="33" spans="2:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
@@ -8319,10 +8319,10 @@
       <c r="C33" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="222" t="s">
+      <c r="D33" s="272" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="224"/>
+      <c r="E33" s="274"/>
       <c r="F33" s="27" t="s">
         <v>162</v>
       </c>
@@ -8353,8 +8353,8 @@
         <v>1</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="249"/>
-      <c r="E34" s="249"/>
+      <c r="D34" s="282"/>
+      <c r="E34" s="282"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -8369,8 +8369,8 @@
         <v>2</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="250"/>
-      <c r="E35" s="250"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="229"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -8385,8 +8385,8 @@
         <v>3</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="250"/>
-      <c r="E36" s="250"/>
+      <c r="D36" s="229"/>
+      <c r="E36" s="229"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -8401,8 +8401,8 @@
         <v>4</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="251"/>
-      <c r="E37" s="251"/>
+      <c r="D37" s="263"/>
+      <c r="E37" s="263"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -8415,8 +8415,8 @@
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="218"/>
-      <c r="E38" s="218"/>
+      <c r="D38" s="268"/>
+      <c r="E38" s="268"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34" t="s">
         <v>169</v>
@@ -8437,16 +8437,16 @@
       <c r="M38" s="36"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="276" t="s">
+      <c r="B41" s="225" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="276"/>
-      <c r="D41" s="276"/>
-      <c r="E41" s="276"/>
-      <c r="F41" s="276"/>
-      <c r="G41" s="276"/>
-      <c r="H41" s="276"/>
-      <c r="I41" s="276"/>
+      <c r="C41" s="225"/>
+      <c r="D41" s="225"/>
+      <c r="E41" s="225"/>
+      <c r="F41" s="225"/>
+      <c r="G41" s="225"/>
+      <c r="H41" s="225"/>
+      <c r="I41" s="225"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
@@ -8459,16 +8459,16 @@
       <c r="C42" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="275" t="s">
+      <c r="D42" s="224" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="275"/>
-      <c r="F42" s="275" t="s">
+      <c r="E42" s="224"/>
+      <c r="F42" s="224" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="275"/>
-      <c r="H42" s="275"/>
-      <c r="I42" s="275"/>
+      <c r="G42" s="224"/>
+      <c r="H42" s="224"/>
+      <c r="I42" s="224"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -8479,8 +8479,8 @@
         <v>1</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="250"/>
+      <c r="D43" s="229"/>
+      <c r="E43" s="229"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -8495,8 +8495,8 @@
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
+      <c r="D44" s="229"/>
+      <c r="E44" s="229"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -8511,8 +8511,8 @@
         <v>3</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="250"/>
-      <c r="E45" s="250"/>
+      <c r="D45" s="229"/>
+      <c r="E45" s="229"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -8523,16 +8523,16 @@
       <c r="M45" s="12"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="276" t="s">
+      <c r="B47" s="225" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="276"/>
-      <c r="D47" s="276"/>
-      <c r="E47" s="276"/>
-      <c r="F47" s="276"/>
-      <c r="G47" s="276"/>
-      <c r="H47" s="276"/>
-      <c r="I47" s="276"/>
+      <c r="C47" s="225"/>
+      <c r="D47" s="225"/>
+      <c r="E47" s="225"/>
+      <c r="F47" s="225"/>
+      <c r="G47" s="225"/>
+      <c r="H47" s="225"/>
+      <c r="I47" s="225"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
@@ -8545,14 +8545,14 @@
       <c r="C48" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D48" s="277" t="s">
+      <c r="D48" s="226" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="278"/>
-      <c r="F48" s="278"/>
-      <c r="G48" s="278"/>
-      <c r="H48" s="278"/>
-      <c r="I48" s="279"/>
+      <c r="E48" s="227"/>
+      <c r="F48" s="227"/>
+      <c r="G48" s="227"/>
+      <c r="H48" s="227"/>
+      <c r="I48" s="228"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
@@ -8565,12 +8565,12 @@
       <c r="C49" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="272"/>
-      <c r="E49" s="273"/>
-      <c r="F49" s="273"/>
-      <c r="G49" s="273"/>
-      <c r="H49" s="273"/>
-      <c r="I49" s="274"/>
+      <c r="D49" s="221"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="222"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="222"/>
+      <c r="I49" s="223"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="17">
@@ -8579,12 +8579,12 @@
       <c r="C50" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="272"/>
-      <c r="E50" s="273"/>
-      <c r="F50" s="273"/>
-      <c r="G50" s="273"/>
-      <c r="H50" s="273"/>
-      <c r="I50" s="274"/>
+      <c r="D50" s="221"/>
+      <c r="E50" s="222"/>
+      <c r="F50" s="222"/>
+      <c r="G50" s="222"/>
+      <c r="H50" s="222"/>
+      <c r="I50" s="223"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="17">
@@ -8593,77 +8593,128 @@
       <c r="C51" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="272"/>
-      <c r="E51" s="273"/>
-      <c r="F51" s="273"/>
-      <c r="G51" s="273"/>
-      <c r="H51" s="273"/>
-      <c r="I51" s="274"/>
+      <c r="D51" s="221"/>
+      <c r="E51" s="222"/>
+      <c r="F51" s="222"/>
+      <c r="G51" s="222"/>
+      <c r="H51" s="222"/>
+      <c r="I51" s="223"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="276" t="s">
+      <c r="B54" s="225" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="276"/>
-      <c r="D54" s="276"/>
-      <c r="E54" s="276"/>
-      <c r="F54" s="276"/>
-      <c r="G54" s="276"/>
-      <c r="H54" s="276"/>
-      <c r="I54" s="276"/>
+      <c r="C54" s="225"/>
+      <c r="D54" s="225"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="225"/>
+      <c r="G54" s="225"/>
+      <c r="H54" s="225"/>
+      <c r="I54" s="225"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="277" t="s">
+      <c r="C55" s="226" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="278"/>
-      <c r="E55" s="278"/>
-      <c r="F55" s="278"/>
-      <c r="G55" s="278"/>
-      <c r="H55" s="278"/>
-      <c r="I55" s="279"/>
+      <c r="D55" s="227"/>
+      <c r="E55" s="227"/>
+      <c r="F55" s="227"/>
+      <c r="G55" s="227"/>
+      <c r="H55" s="227"/>
+      <c r="I55" s="228"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="17">
         <v>1</v>
       </c>
-      <c r="C56" s="272"/>
-      <c r="D56" s="273"/>
-      <c r="E56" s="273"/>
-      <c r="F56" s="273"/>
-      <c r="G56" s="273"/>
-      <c r="H56" s="273"/>
-      <c r="I56" s="274"/>
+      <c r="C56" s="221"/>
+      <c r="D56" s="222"/>
+      <c r="E56" s="222"/>
+      <c r="F56" s="222"/>
+      <c r="G56" s="222"/>
+      <c r="H56" s="222"/>
+      <c r="I56" s="223"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="17">
         <v>2</v>
       </c>
-      <c r="C57" s="272"/>
-      <c r="D57" s="273"/>
-      <c r="E57" s="273"/>
-      <c r="F57" s="273"/>
-      <c r="G57" s="273"/>
-      <c r="H57" s="273"/>
-      <c r="I57" s="274"/>
+      <c r="C57" s="221"/>
+      <c r="D57" s="222"/>
+      <c r="E57" s="222"/>
+      <c r="F57" s="222"/>
+      <c r="G57" s="222"/>
+      <c r="H57" s="222"/>
+      <c r="I57" s="223"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="17">
         <v>3</v>
       </c>
-      <c r="C58" s="272"/>
-      <c r="D58" s="273"/>
-      <c r="E58" s="273"/>
-      <c r="F58" s="273"/>
-      <c r="G58" s="273"/>
-      <c r="H58" s="273"/>
-      <c r="I58" s="274"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="222"/>
+      <c r="E58" s="222"/>
+      <c r="F58" s="222"/>
+      <c r="G58" s="222"/>
+      <c r="H58" s="222"/>
+      <c r="I58" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="B18:C20"/>
+    <mergeCell ref="E17:M17"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B14:D17"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="B10:D13"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E14:M14"/>
     <mergeCell ref="C57:I57"/>
     <mergeCell ref="C58:I58"/>
     <mergeCell ref="F42:I42"/>
@@ -8680,57 +8731,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="C56:I56"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="B10:D13"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="B18:C20"/>
-    <mergeCell ref="E17:M17"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B14:D17"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9006,44 +9006,44 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="290" t="s">
+      <c r="B2" s="293" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="292"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="295"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="293" t="s">
+      <c r="B3" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="295"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="298"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="296" t="s">
+      <c r="B4" s="299" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="297"/>
-      <c r="D4" s="297"/>
-      <c r="E4" s="298"/>
+      <c r="C4" s="300"/>
+      <c r="D4" s="300"/>
+      <c r="E4" s="301"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="296" t="s">
+      <c r="B5" s="299" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="298"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="300"/>
+      <c r="E5" s="301"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="282" t="s">
+      <c r="B6" s="285" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="283"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="284"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="287"/>
     </row>
     <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.2">
       <c r="B7" s="41" t="s">
@@ -9932,37 +9932,37 @@
       <c r="E81" s="121"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="285" t="s">
+      <c r="B82" s="288" t="s">
         <v>382</v>
       </c>
-      <c r="C82" s="286"/>
-      <c r="D82" s="286"/>
-      <c r="E82" s="287"/>
+      <c r="C82" s="289"/>
+      <c r="D82" s="289"/>
+      <c r="E82" s="290"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="288" t="s">
+      <c r="B83" s="291" t="s">
         <v>383</v>
       </c>
-      <c r="C83" s="289"/>
-      <c r="D83" s="289"/>
+      <c r="C83" s="292"/>
+      <c r="D83" s="292"/>
       <c r="E83" s="47" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="288" t="s">
+      <c r="B84" s="291" t="s">
         <v>384</v>
       </c>
-      <c r="C84" s="289"/>
-      <c r="D84" s="289"/>
+      <c r="C84" s="292"/>
+      <c r="D84" s="292"/>
       <c r="E84" s="47"/>
     </row>
     <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="280" t="s">
+      <c r="B85" s="283" t="s">
         <v>385</v>
       </c>
-      <c r="C85" s="281"/>
-      <c r="D85" s="281"/>
+      <c r="C85" s="284"/>
+      <c r="D85" s="284"/>
       <c r="E85" s="48" t="s">
         <v>191</v>
       </c>
@@ -10522,109 +10522,109 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="313" t="s">
+      <c r="B2" s="305" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314"/>
-      <c r="K2" s="315"/>
-      <c r="L2" s="316"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="306"/>
+      <c r="F2" s="306"/>
+      <c r="G2" s="306"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="306"/>
+      <c r="J2" s="306"/>
+      <c r="K2" s="307"/>
+      <c r="L2" s="308"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="317" t="s">
+      <c r="B3" s="309" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="319"/>
-      <c r="L3" s="320"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310"/>
+      <c r="F3" s="310"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="310"/>
+      <c r="I3" s="310"/>
+      <c r="J3" s="310"/>
+      <c r="K3" s="311"/>
+      <c r="L3" s="312"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="293" t="s">
+      <c r="B4" s="296" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="294"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294"/>
-      <c r="H4" s="294"/>
-      <c r="I4" s="294"/>
-      <c r="J4" s="294"/>
-      <c r="K4" s="321"/>
-      <c r="L4" s="295"/>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="297"/>
+      <c r="G4" s="297"/>
+      <c r="H4" s="297"/>
+      <c r="I4" s="297"/>
+      <c r="J4" s="297"/>
+      <c r="K4" s="313"/>
+      <c r="L4" s="298"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="285" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="283"/>
-      <c r="H5" s="283"/>
-      <c r="I5" s="283"/>
-      <c r="J5" s="283"/>
-      <c r="K5" s="322"/>
-      <c r="L5" s="284"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286"/>
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286"/>
+      <c r="K5" s="314"/>
+      <c r="L5" s="287"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="323" t="s">
+      <c r="B6" s="315" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="324"/>
-      <c r="D6" s="324"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="324"/>
-      <c r="H6" s="324"/>
-      <c r="I6" s="324"/>
-      <c r="J6" s="324"/>
-      <c r="K6" s="324"/>
-      <c r="L6" s="325"/>
+      <c r="C6" s="316"/>
+      <c r="D6" s="316"/>
+      <c r="E6" s="316"/>
+      <c r="F6" s="316"/>
+      <c r="G6" s="316"/>
+      <c r="H6" s="316"/>
+      <c r="I6" s="316"/>
+      <c r="J6" s="316"/>
+      <c r="K6" s="316"/>
+      <c r="L6" s="317"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="310" t="s">
+      <c r="B7" s="302" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="311"/>
-      <c r="G7" s="311"/>
-      <c r="H7" s="311"/>
-      <c r="I7" s="311"/>
-      <c r="J7" s="311"/>
-      <c r="K7" s="311"/>
-      <c r="L7" s="312"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="303"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
+      <c r="L7" s="304"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="303" t="s">
+      <c r="B8" s="322" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="304"/>
-      <c r="D8" s="304"/>
-      <c r="E8" s="304"/>
-      <c r="F8" s="304"/>
-      <c r="G8" s="304"/>
-      <c r="H8" s="304"/>
-      <c r="I8" s="304"/>
-      <c r="J8" s="304"/>
-      <c r="K8" s="304"/>
-      <c r="L8" s="305"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="323"/>
+      <c r="G8" s="323"/>
+      <c r="H8" s="323"/>
+      <c r="I8" s="323"/>
+      <c r="J8" s="323"/>
+      <c r="K8" s="323"/>
+      <c r="L8" s="324"/>
     </row>
     <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
@@ -11960,92 +11960,86 @@
       <c r="L65" s="51"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="306" t="s">
+      <c r="B66" s="325" t="s">
         <v>382</v>
       </c>
-      <c r="C66" s="307"/>
-      <c r="D66" s="307"/>
-      <c r="E66" s="307"/>
-      <c r="F66" s="307"/>
-      <c r="G66" s="307"/>
-      <c r="H66" s="307"/>
-      <c r="I66" s="307"/>
-      <c r="J66" s="307"/>
-      <c r="K66" s="308"/>
-      <c r="L66" s="309"/>
+      <c r="C66" s="326"/>
+      <c r="D66" s="326"/>
+      <c r="E66" s="326"/>
+      <c r="F66" s="326"/>
+      <c r="G66" s="326"/>
+      <c r="H66" s="326"/>
+      <c r="I66" s="326"/>
+      <c r="J66" s="326"/>
+      <c r="K66" s="327"/>
+      <c r="L66" s="328"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="288" t="s">
+      <c r="B67" s="291" t="s">
         <v>383</v>
       </c>
-      <c r="C67" s="289"/>
-      <c r="D67" s="289"/>
+      <c r="C67" s="292"/>
+      <c r="D67" s="292"/>
       <c r="E67" s="52"/>
-      <c r="F67" s="299" t="s">
+      <c r="F67" s="318" t="s">
         <v>191</v>
       </c>
-      <c r="G67" s="299"/>
-      <c r="H67" s="299"/>
-      <c r="I67" s="299"/>
-      <c r="J67" s="299"/>
-      <c r="K67" s="299"/>
-      <c r="L67" s="300"/>
+      <c r="G67" s="318"/>
+      <c r="H67" s="318"/>
+      <c r="I67" s="318"/>
+      <c r="J67" s="318"/>
+      <c r="K67" s="318"/>
+      <c r="L67" s="319"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="288" t="s">
+      <c r="B68" s="291" t="s">
         <v>384</v>
       </c>
-      <c r="C68" s="289"/>
-      <c r="D68" s="289"/>
+      <c r="C68" s="292"/>
+      <c r="D68" s="292"/>
       <c r="E68" s="52"/>
-      <c r="F68" s="299"/>
-      <c r="G68" s="299"/>
-      <c r="H68" s="299"/>
-      <c r="I68" s="299"/>
-      <c r="J68" s="299"/>
-      <c r="K68" s="299"/>
-      <c r="L68" s="300"/>
+      <c r="F68" s="318"/>
+      <c r="G68" s="318"/>
+      <c r="H68" s="318"/>
+      <c r="I68" s="318"/>
+      <c r="J68" s="318"/>
+      <c r="K68" s="318"/>
+      <c r="L68" s="319"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="288" t="s">
+      <c r="B69" s="291" t="s">
         <v>385</v>
       </c>
-      <c r="C69" s="289"/>
-      <c r="D69" s="289"/>
+      <c r="C69" s="292"/>
+      <c r="D69" s="292"/>
       <c r="E69" s="52"/>
-      <c r="F69" s="299" t="s">
+      <c r="F69" s="318" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="299"/>
-      <c r="H69" s="299"/>
-      <c r="I69" s="299"/>
-      <c r="J69" s="299"/>
-      <c r="K69" s="299"/>
-      <c r="L69" s="300"/>
+      <c r="G69" s="318"/>
+      <c r="H69" s="318"/>
+      <c r="I69" s="318"/>
+      <c r="J69" s="318"/>
+      <c r="K69" s="318"/>
+      <c r="L69" s="319"/>
     </row>
     <row r="70" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="280" t="s">
+      <c r="B70" s="283" t="s">
         <v>588</v>
       </c>
-      <c r="C70" s="281"/>
-      <c r="D70" s="281"/>
+      <c r="C70" s="284"/>
+      <c r="D70" s="284"/>
       <c r="E70" s="53"/>
-      <c r="F70" s="301"/>
-      <c r="G70" s="301"/>
-      <c r="H70" s="301"/>
-      <c r="I70" s="301"/>
-      <c r="J70" s="301"/>
-      <c r="K70" s="301"/>
-      <c r="L70" s="302"/>
+      <c r="F70" s="320"/>
+      <c r="G70" s="320"/>
+      <c r="H70" s="320"/>
+      <c r="I70" s="320"/>
+      <c r="J70" s="320"/>
+      <c r="K70" s="320"/>
+      <c r="L70" s="321"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="F69:L69"/>
     <mergeCell ref="B70:D70"/>
@@ -12056,6 +12050,12 @@
     <mergeCell ref="F67:L67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="F68:L68"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12065,8 +12065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F031F4EE-3EC7-47DE-91AF-34380ED2D64A}">
   <dimension ref="B1:AO126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14122,32 +14122,32 @@
   <sheetData>
     <row r="1" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:41" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="326" t="s">
+      <c r="B2" s="329" t="s">
         <v>589</v>
       </c>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
+      <c r="C2" s="330"/>
+      <c r="D2" s="330"/>
+      <c r="E2" s="330"/>
+      <c r="F2" s="330"/>
+      <c r="G2" s="330"/>
+      <c r="H2" s="330"/>
+      <c r="I2" s="330"/>
+      <c r="J2" s="330"/>
+      <c r="K2" s="330"/>
+      <c r="L2" s="330"/>
     </row>
     <row r="3" spans="2:41" s="172" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="170" t="s">
         <v>590</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="330"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="332"/>
+      <c r="E3" s="332"/>
+      <c r="F3" s="332"/>
+      <c r="G3" s="332"/>
+      <c r="H3" s="332"/>
+      <c r="I3" s="332"/>
+      <c r="J3" s="333"/>
       <c r="K3" s="79"/>
       <c r="L3" s="79"/>
       <c r="M3" s="171"/>
@@ -14165,16 +14165,16 @@
       <c r="B4" s="173" t="s">
         <v>591</v>
       </c>
-      <c r="C4" s="331" t="s">
+      <c r="C4" s="334" t="s">
         <v>651</v>
       </c>
-      <c r="D4" s="332"/>
-      <c r="E4" s="332"/>
-      <c r="F4" s="332"/>
-      <c r="G4" s="332"/>
-      <c r="H4" s="332"/>
-      <c r="I4" s="332"/>
-      <c r="J4" s="333"/>
+      <c r="D4" s="335"/>
+      <c r="E4" s="335"/>
+      <c r="F4" s="335"/>
+      <c r="G4" s="335"/>
+      <c r="H4" s="335"/>
+      <c r="I4" s="335"/>
+      <c r="J4" s="336"/>
       <c r="M4" s="175"/>
       <c r="N4" s="175"/>
       <c r="O4" s="175"/>
@@ -14409,7 +14409,7 @@
       <c r="D10" s="160" t="s">
         <v>659</v>
       </c>
-      <c r="E10" s="340" t="s">
+      <c r="E10" s="216" t="s">
         <v>666</v>
       </c>
       <c r="F10" s="160" t="s">
@@ -14461,8 +14461,8 @@
       <c r="E11" s="160" t="s">
         <v>667</v>
       </c>
-      <c r="F11" s="160" t="s">
-        <v>618</v>
+      <c r="F11" s="188" t="s">
+        <v>624</v>
       </c>
       <c r="G11" s="163" t="s">
         <v>620</v>
@@ -14514,7 +14514,7 @@
       </c>
       <c r="AK11" s="64"/>
       <c r="AL11" s="64"/>
-      <c r="AM11" s="334"/>
+      <c r="AM11" s="337"/>
       <c r="AN11" s="75" t="s">
         <v>617</v>
       </c>
@@ -14582,7 +14582,7 @@
       <c r="AJ12" s="72"/>
       <c r="AK12" s="64"/>
       <c r="AL12" s="64"/>
-      <c r="AM12" s="334"/>
+      <c r="AM12" s="337"/>
       <c r="AN12" s="69" t="s">
         <v>627</v>
       </c>
@@ -14650,7 +14650,7 @@
       <c r="AJ13" s="64"/>
       <c r="AK13" s="64"/>
       <c r="AL13" s="64"/>
-      <c r="AM13" s="334"/>
+      <c r="AM13" s="337"/>
       <c r="AN13" s="69" t="s">
         <v>629</v>
       </c>
@@ -14714,7 +14714,7 @@
       <c r="AJ14" s="64"/>
       <c r="AK14" s="64"/>
       <c r="AL14" s="64"/>
-      <c r="AM14" s="334"/>
+      <c r="AM14" s="337"/>
       <c r="AN14" s="69" t="s">
         <v>630</v>
       </c>
@@ -14730,7 +14730,7 @@
       <c r="D15" s="163" t="s">
         <v>663</v>
       </c>
-      <c r="E15" s="339" t="s">
+      <c r="E15" s="215" t="s">
         <v>674</v>
       </c>
       <c r="F15" s="204" t="s">
@@ -14778,7 +14778,7 @@
       <c r="AJ15" s="64"/>
       <c r="AK15" s="64"/>
       <c r="AL15" s="64"/>
-      <c r="AM15" s="334"/>
+      <c r="AM15" s="337"/>
       <c r="AN15" s="69" t="s">
         <v>631</v>
       </c>
@@ -14842,7 +14842,7 @@
       <c r="AJ16" s="64"/>
       <c r="AK16" s="64"/>
       <c r="AL16" s="64"/>
-      <c r="AM16" s="334"/>
+      <c r="AM16" s="337"/>
       <c r="AN16" s="69" t="s">
         <v>632</v>
       </c>
@@ -14858,7 +14858,7 @@
       <c r="D17" s="163" t="s">
         <v>679</v>
       </c>
-      <c r="E17" s="339" t="s">
+      <c r="E17" s="215" t="s">
         <v>680</v>
       </c>
       <c r="F17" s="204" t="s">
@@ -14906,7 +14906,7 @@
       <c r="AJ17" s="64"/>
       <c r="AK17" s="64"/>
       <c r="AL17" s="64"/>
-      <c r="AM17" s="334"/>
+      <c r="AM17" s="337"/>
       <c r="AN17" s="69" t="s">
         <v>633</v>
       </c>
@@ -14922,7 +14922,7 @@
       <c r="D18" s="163" t="s">
         <v>679</v>
       </c>
-      <c r="E18" s="339" t="s">
+      <c r="E18" s="215" t="s">
         <v>681</v>
       </c>
       <c r="F18" s="204" t="s">
@@ -14970,7 +14970,7 @@
       <c r="AJ18" s="64"/>
       <c r="AK18" s="64"/>
       <c r="AL18" s="64"/>
-      <c r="AM18" s="334"/>
+      <c r="AM18" s="337"/>
       <c r="AN18" s="69" t="s">
         <v>634</v>
       </c>
@@ -14989,8 +14989,8 @@
       <c r="E19" s="163" t="s">
         <v>682</v>
       </c>
-      <c r="F19" s="163" t="s">
-        <v>618</v>
+      <c r="F19" s="204" t="s">
+        <v>624</v>
       </c>
       <c r="G19" s="163" t="s">
         <v>620</v>
@@ -15034,7 +15034,7 @@
       <c r="AJ19" s="64"/>
       <c r="AK19" s="64"/>
       <c r="AL19" s="64"/>
-      <c r="AM19" s="334"/>
+      <c r="AM19" s="337"/>
       <c r="AN19" s="69" t="s">
         <v>635</v>
       </c>
@@ -15095,12 +15095,12 @@
       <c r="AG20" s="64"/>
       <c r="AH20" s="64"/>
       <c r="AI20" s="64"/>
-      <c r="AJ20" s="336"/>
+      <c r="AJ20" s="339"/>
       <c r="AK20" s="71" t="s">
         <v>636</v>
       </c>
       <c r="AL20" s="64"/>
-      <c r="AM20" s="334"/>
+      <c r="AM20" s="337"/>
       <c r="AN20" s="69" t="s">
         <v>637</v>
       </c>
@@ -15161,12 +15161,12 @@
       <c r="AG21" s="64"/>
       <c r="AH21" s="64"/>
       <c r="AI21" s="64"/>
-      <c r="AJ21" s="336"/>
+      <c r="AJ21" s="339"/>
       <c r="AK21" s="71" t="s">
         <v>638</v>
       </c>
       <c r="AL21" s="64"/>
-      <c r="AM21" s="334"/>
+      <c r="AM21" s="337"/>
       <c r="AN21" s="69" t="s">
         <v>639</v>
       </c>
@@ -15227,12 +15227,12 @@
       <c r="AG22" s="64"/>
       <c r="AH22" s="64"/>
       <c r="AI22" s="64"/>
-      <c r="AJ22" s="336"/>
+      <c r="AJ22" s="339"/>
       <c r="AK22" s="71" t="s">
         <v>640</v>
       </c>
       <c r="AL22" s="64"/>
-      <c r="AM22" s="334"/>
+      <c r="AM22" s="337"/>
       <c r="AN22" s="69" t="s">
         <v>641</v>
       </c>
@@ -15293,12 +15293,12 @@
       <c r="AG23" s="64"/>
       <c r="AH23" s="64"/>
       <c r="AI23" s="64"/>
-      <c r="AJ23" s="337"/>
+      <c r="AJ23" s="340"/>
       <c r="AK23" s="70" t="s">
         <v>642</v>
       </c>
       <c r="AL23" s="64"/>
-      <c r="AM23" s="334"/>
+      <c r="AM23" s="337"/>
       <c r="AN23" s="69" t="s">
         <v>643</v>
       </c>
@@ -15314,7 +15314,7 @@
       <c r="D24" s="163" t="s">
         <v>693</v>
       </c>
-      <c r="E24" s="339" t="s">
+      <c r="E24" s="215" t="s">
         <v>694</v>
       </c>
       <c r="F24" s="204" t="s">
@@ -15362,7 +15362,7 @@
       <c r="AJ24" s="65"/>
       <c r="AK24" s="64"/>
       <c r="AL24" s="64"/>
-      <c r="AM24" s="334"/>
+      <c r="AM24" s="337"/>
       <c r="AN24" s="69" t="s">
         <v>644</v>
       </c>
@@ -15426,7 +15426,7 @@
       <c r="AJ25" s="65"/>
       <c r="AK25" s="64"/>
       <c r="AL25" s="64"/>
-      <c r="AM25" s="334"/>
+      <c r="AM25" s="337"/>
       <c r="AN25" s="69" t="s">
         <v>645</v>
       </c>
@@ -15490,7 +15490,7 @@
       <c r="AJ26" s="65"/>
       <c r="AK26" s="64"/>
       <c r="AL26" s="64"/>
-      <c r="AM26" s="334"/>
+      <c r="AM26" s="337"/>
       <c r="AN26" s="69" t="s">
         <v>646</v>
       </c>
@@ -15554,7 +15554,7 @@
       <c r="AJ27" s="65"/>
       <c r="AK27" s="64"/>
       <c r="AL27" s="64"/>
-      <c r="AM27" s="334"/>
+      <c r="AM27" s="337"/>
       <c r="AN27" s="69" t="s">
         <v>647</v>
       </c>
@@ -15618,7 +15618,7 @@
       <c r="AJ28" s="65"/>
       <c r="AK28" s="64"/>
       <c r="AL28" s="64"/>
-      <c r="AM28" s="334"/>
+      <c r="AM28" s="337"/>
       <c r="AN28" s="69" t="s">
         <v>648</v>
       </c>
@@ -15682,7 +15682,7 @@
       <c r="AJ29" s="65"/>
       <c r="AK29" s="64"/>
       <c r="AL29" s="64"/>
-      <c r="AM29" s="334"/>
+      <c r="AM29" s="337"/>
       <c r="AN29" s="69" t="s">
         <v>649</v>
       </c>
@@ -15746,7 +15746,7 @@
       <c r="AJ30" s="65"/>
       <c r="AK30" s="64"/>
       <c r="AL30" s="64"/>
-      <c r="AM30" s="334"/>
+      <c r="AM30" s="337"/>
       <c r="AN30" s="69" t="s">
         <v>650</v>
       </c>
@@ -15810,7 +15810,7 @@
       <c r="AJ31" s="64"/>
       <c r="AK31" s="64"/>
       <c r="AL31" s="64"/>
-      <c r="AM31" s="335"/>
+      <c r="AM31" s="338"/>
       <c r="AN31" s="67"/>
       <c r="AO31" s="63"/>
     </row>
@@ -15824,11 +15824,11 @@
       <c r="D32" s="163" t="s">
         <v>708</v>
       </c>
-      <c r="E32" s="339" t="s">
+      <c r="E32" s="215" t="s">
         <v>701</v>
       </c>
-      <c r="F32" s="163" t="s">
-        <v>618</v>
+      <c r="F32" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G32" s="163" t="s">
         <v>620</v>
@@ -16901,7 +16901,7 @@
       <c r="E53" s="200" t="s">
         <v>734</v>
       </c>
-      <c r="F53" s="339" t="s">
+      <c r="F53" s="215" t="s">
         <v>618</v>
       </c>
       <c r="G53" s="163" t="s">
@@ -17998,8 +17998,8 @@
       <c r="E75" s="163" t="s">
         <v>774</v>
       </c>
-      <c r="F75" s="163" t="s">
-        <v>618</v>
+      <c r="F75" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G75" s="163" t="s">
         <v>619</v>
@@ -18047,8 +18047,8 @@
       <c r="E76" s="163" t="s">
         <v>774</v>
       </c>
-      <c r="F76" s="163" t="s">
-        <v>618</v>
+      <c r="F76" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G76" s="163" t="s">
         <v>619</v>
@@ -18292,8 +18292,8 @@
       <c r="E81" s="208" t="s">
         <v>786</v>
       </c>
-      <c r="F81" s="208" t="s">
-        <v>618</v>
+      <c r="F81" s="204" t="s">
+        <v>624</v>
       </c>
       <c r="G81" s="208" t="s">
         <v>620</v>
@@ -18341,8 +18341,8 @@
       <c r="E82" s="203" t="s">
         <v>787</v>
       </c>
-      <c r="F82" s="203" t="s">
-        <v>618</v>
+      <c r="F82" s="204" t="s">
+        <v>624</v>
       </c>
       <c r="G82" s="203" t="s">
         <v>620</v>
@@ -18586,8 +18586,8 @@
       <c r="E87" s="163" t="s">
         <v>796</v>
       </c>
-      <c r="F87" s="163" t="s">
-        <v>618</v>
+      <c r="F87" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G87" s="163" t="s">
         <v>619</v>
@@ -18807,7 +18807,7 @@
       <c r="N91" s="161" t="s">
         <v>736</v>
       </c>
-      <c r="O91" s="338">
+      <c r="O91" s="214">
         <v>44760</v>
       </c>
       <c r="P91" s="161"/>
@@ -19677,7 +19677,7 @@
     <mergeCell ref="AJ20:AJ23"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVE983013:WVE983166 F6 F65509:F65662 IS65509:IS65662 SO65509:SO65662 ACK65509:ACK65662 AMG65509:AMG65662 AWC65509:AWC65662 BFY65509:BFY65662 BPU65509:BPU65662 BZQ65509:BZQ65662 CJM65509:CJM65662 CTI65509:CTI65662 DDE65509:DDE65662 DNA65509:DNA65662 DWW65509:DWW65662 EGS65509:EGS65662 EQO65509:EQO65662 FAK65509:FAK65662 FKG65509:FKG65662 FUC65509:FUC65662 GDY65509:GDY65662 GNU65509:GNU65662 GXQ65509:GXQ65662 HHM65509:HHM65662 HRI65509:HRI65662 IBE65509:IBE65662 ILA65509:ILA65662 IUW65509:IUW65662 JES65509:JES65662 JOO65509:JOO65662 JYK65509:JYK65662 KIG65509:KIG65662 KSC65509:KSC65662 LBY65509:LBY65662 LLU65509:LLU65662 LVQ65509:LVQ65662 MFM65509:MFM65662 MPI65509:MPI65662 MZE65509:MZE65662 NJA65509:NJA65662 NSW65509:NSW65662 OCS65509:OCS65662 OMO65509:OMO65662 OWK65509:OWK65662 PGG65509:PGG65662 PQC65509:PQC65662 PZY65509:PZY65662 QJU65509:QJU65662 QTQ65509:QTQ65662 RDM65509:RDM65662 RNI65509:RNI65662 RXE65509:RXE65662 SHA65509:SHA65662 SQW65509:SQW65662 TAS65509:TAS65662 TKO65509:TKO65662 TUK65509:TUK65662 UEG65509:UEG65662 UOC65509:UOC65662 UXY65509:UXY65662 VHU65509:VHU65662 VRQ65509:VRQ65662 WBM65509:WBM65662 WLI65509:WLI65662 WVE65509:WVE65662 F131045:F131198 IS131045:IS131198 SO131045:SO131198 ACK131045:ACK131198 AMG131045:AMG131198 AWC131045:AWC131198 BFY131045:BFY131198 BPU131045:BPU131198 BZQ131045:BZQ131198 CJM131045:CJM131198 CTI131045:CTI131198 DDE131045:DDE131198 DNA131045:DNA131198 DWW131045:DWW131198 EGS131045:EGS131198 EQO131045:EQO131198 FAK131045:FAK131198 FKG131045:FKG131198 FUC131045:FUC131198 GDY131045:GDY131198 GNU131045:GNU131198 GXQ131045:GXQ131198 HHM131045:HHM131198 HRI131045:HRI131198 IBE131045:IBE131198 ILA131045:ILA131198 IUW131045:IUW131198 JES131045:JES131198 JOO131045:JOO131198 JYK131045:JYK131198 KIG131045:KIG131198 KSC131045:KSC131198 LBY131045:LBY131198 LLU131045:LLU131198 LVQ131045:LVQ131198 MFM131045:MFM131198 MPI131045:MPI131198 MZE131045:MZE131198 NJA131045:NJA131198 NSW131045:NSW131198 OCS131045:OCS131198 OMO131045:OMO131198 OWK131045:OWK131198 PGG131045:PGG131198 PQC131045:PQC131198 PZY131045:PZY131198 QJU131045:QJU131198 QTQ131045:QTQ131198 RDM131045:RDM131198 RNI131045:RNI131198 RXE131045:RXE131198 SHA131045:SHA131198 SQW131045:SQW131198 TAS131045:TAS131198 TKO131045:TKO131198 TUK131045:TUK131198 UEG131045:UEG131198 UOC131045:UOC131198 UXY131045:UXY131198 VHU131045:VHU131198 VRQ131045:VRQ131198 WBM131045:WBM131198 WLI131045:WLI131198 WVE131045:WVE131198 F196581:F196734 IS196581:IS196734 SO196581:SO196734 ACK196581:ACK196734 AMG196581:AMG196734 AWC196581:AWC196734 BFY196581:BFY196734 BPU196581:BPU196734 BZQ196581:BZQ196734 CJM196581:CJM196734 CTI196581:CTI196734 DDE196581:DDE196734 DNA196581:DNA196734 DWW196581:DWW196734 EGS196581:EGS196734 EQO196581:EQO196734 FAK196581:FAK196734 FKG196581:FKG196734 FUC196581:FUC196734 GDY196581:GDY196734 GNU196581:GNU196734 GXQ196581:GXQ196734 HHM196581:HHM196734 HRI196581:HRI196734 IBE196581:IBE196734 ILA196581:ILA196734 IUW196581:IUW196734 JES196581:JES196734 JOO196581:JOO196734 JYK196581:JYK196734 KIG196581:KIG196734 KSC196581:KSC196734 LBY196581:LBY196734 LLU196581:LLU196734 LVQ196581:LVQ196734 MFM196581:MFM196734 MPI196581:MPI196734 MZE196581:MZE196734 NJA196581:NJA196734 NSW196581:NSW196734 OCS196581:OCS196734 OMO196581:OMO196734 OWK196581:OWK196734 PGG196581:PGG196734 PQC196581:PQC196734 PZY196581:PZY196734 QJU196581:QJU196734 QTQ196581:QTQ196734 RDM196581:RDM196734 RNI196581:RNI196734 RXE196581:RXE196734 SHA196581:SHA196734 SQW196581:SQW196734 TAS196581:TAS196734 TKO196581:TKO196734 TUK196581:TUK196734 UEG196581:UEG196734 UOC196581:UOC196734 UXY196581:UXY196734 VHU196581:VHU196734 VRQ196581:VRQ196734 WBM196581:WBM196734 WLI196581:WLI196734 WVE196581:WVE196734 F262117:F262270 IS262117:IS262270 SO262117:SO262270 ACK262117:ACK262270 AMG262117:AMG262270 AWC262117:AWC262270 BFY262117:BFY262270 BPU262117:BPU262270 BZQ262117:BZQ262270 CJM262117:CJM262270 CTI262117:CTI262270 DDE262117:DDE262270 DNA262117:DNA262270 DWW262117:DWW262270 EGS262117:EGS262270 EQO262117:EQO262270 FAK262117:FAK262270 FKG262117:FKG262270 FUC262117:FUC262270 GDY262117:GDY262270 GNU262117:GNU262270 GXQ262117:GXQ262270 HHM262117:HHM262270 HRI262117:HRI262270 IBE262117:IBE262270 ILA262117:ILA262270 IUW262117:IUW262270 JES262117:JES262270 JOO262117:JOO262270 JYK262117:JYK262270 KIG262117:KIG262270 KSC262117:KSC262270 LBY262117:LBY262270 LLU262117:LLU262270 LVQ262117:LVQ262270 MFM262117:MFM262270 MPI262117:MPI262270 MZE262117:MZE262270 NJA262117:NJA262270 NSW262117:NSW262270 OCS262117:OCS262270 OMO262117:OMO262270 OWK262117:OWK262270 PGG262117:PGG262270 PQC262117:PQC262270 PZY262117:PZY262270 QJU262117:QJU262270 QTQ262117:QTQ262270 RDM262117:RDM262270 RNI262117:RNI262270 RXE262117:RXE262270 SHA262117:SHA262270 SQW262117:SQW262270 TAS262117:TAS262270 TKO262117:TKO262270 TUK262117:TUK262270 UEG262117:UEG262270 UOC262117:UOC262270 UXY262117:UXY262270 VHU262117:VHU262270 VRQ262117:VRQ262270 WBM262117:WBM262270 WLI262117:WLI262270 WVE262117:WVE262270 F327653:F327806 IS327653:IS327806 SO327653:SO327806 ACK327653:ACK327806 AMG327653:AMG327806 AWC327653:AWC327806 BFY327653:BFY327806 BPU327653:BPU327806 BZQ327653:BZQ327806 CJM327653:CJM327806 CTI327653:CTI327806 DDE327653:DDE327806 DNA327653:DNA327806 DWW327653:DWW327806 EGS327653:EGS327806 EQO327653:EQO327806 FAK327653:FAK327806 FKG327653:FKG327806 FUC327653:FUC327806 GDY327653:GDY327806 GNU327653:GNU327806 GXQ327653:GXQ327806 HHM327653:HHM327806 HRI327653:HRI327806 IBE327653:IBE327806 ILA327653:ILA327806 IUW327653:IUW327806 JES327653:JES327806 JOO327653:JOO327806 JYK327653:JYK327806 KIG327653:KIG327806 KSC327653:KSC327806 LBY327653:LBY327806 LLU327653:LLU327806 LVQ327653:LVQ327806 MFM327653:MFM327806 MPI327653:MPI327806 MZE327653:MZE327806 NJA327653:NJA327806 NSW327653:NSW327806 OCS327653:OCS327806 OMO327653:OMO327806 OWK327653:OWK327806 PGG327653:PGG327806 PQC327653:PQC327806 PZY327653:PZY327806 QJU327653:QJU327806 QTQ327653:QTQ327806 RDM327653:RDM327806 RNI327653:RNI327806 RXE327653:RXE327806 SHA327653:SHA327806 SQW327653:SQW327806 TAS327653:TAS327806 TKO327653:TKO327806 TUK327653:TUK327806 UEG327653:UEG327806 UOC327653:UOC327806 UXY327653:UXY327806 VHU327653:VHU327806 VRQ327653:VRQ327806 WBM327653:WBM327806 WLI327653:WLI327806 WVE327653:WVE327806 F393189:F393342 IS393189:IS393342 SO393189:SO393342 ACK393189:ACK393342 AMG393189:AMG393342 AWC393189:AWC393342 BFY393189:BFY393342 BPU393189:BPU393342 BZQ393189:BZQ393342 CJM393189:CJM393342 CTI393189:CTI393342 DDE393189:DDE393342 DNA393189:DNA393342 DWW393189:DWW393342 EGS393189:EGS393342 EQO393189:EQO393342 FAK393189:FAK393342 FKG393189:FKG393342 FUC393189:FUC393342 GDY393189:GDY393342 GNU393189:GNU393342 GXQ393189:GXQ393342 HHM393189:HHM393342 HRI393189:HRI393342 IBE393189:IBE393342 ILA393189:ILA393342 IUW393189:IUW393342 JES393189:JES393342 JOO393189:JOO393342 JYK393189:JYK393342 KIG393189:KIG393342 KSC393189:KSC393342 LBY393189:LBY393342 LLU393189:LLU393342 LVQ393189:LVQ393342 MFM393189:MFM393342 MPI393189:MPI393342 MZE393189:MZE393342 NJA393189:NJA393342 NSW393189:NSW393342 OCS393189:OCS393342 OMO393189:OMO393342 OWK393189:OWK393342 PGG393189:PGG393342 PQC393189:PQC393342 PZY393189:PZY393342 QJU393189:QJU393342 QTQ393189:QTQ393342 RDM393189:RDM393342 RNI393189:RNI393342 RXE393189:RXE393342 SHA393189:SHA393342 SQW393189:SQW393342 TAS393189:TAS393342 TKO393189:TKO393342 TUK393189:TUK393342 UEG393189:UEG393342 UOC393189:UOC393342 UXY393189:UXY393342 VHU393189:VHU393342 VRQ393189:VRQ393342 WBM393189:WBM393342 WLI393189:WLI393342 WVE393189:WVE393342 F458725:F458878 IS458725:IS458878 SO458725:SO458878 ACK458725:ACK458878 AMG458725:AMG458878 AWC458725:AWC458878 BFY458725:BFY458878 BPU458725:BPU458878 BZQ458725:BZQ458878 CJM458725:CJM458878 CTI458725:CTI458878 DDE458725:DDE458878 DNA458725:DNA458878 DWW458725:DWW458878 EGS458725:EGS458878 EQO458725:EQO458878 FAK458725:FAK458878 FKG458725:FKG458878 FUC458725:FUC458878 GDY458725:GDY458878 GNU458725:GNU458878 GXQ458725:GXQ458878 HHM458725:HHM458878 HRI458725:HRI458878 IBE458725:IBE458878 ILA458725:ILA458878 IUW458725:IUW458878 JES458725:JES458878 JOO458725:JOO458878 JYK458725:JYK458878 KIG458725:KIG458878 KSC458725:KSC458878 LBY458725:LBY458878 LLU458725:LLU458878 LVQ458725:LVQ458878 MFM458725:MFM458878 MPI458725:MPI458878 MZE458725:MZE458878 NJA458725:NJA458878 NSW458725:NSW458878 OCS458725:OCS458878 OMO458725:OMO458878 OWK458725:OWK458878 PGG458725:PGG458878 PQC458725:PQC458878 PZY458725:PZY458878 QJU458725:QJU458878 QTQ458725:QTQ458878 RDM458725:RDM458878 RNI458725:RNI458878 RXE458725:RXE458878 SHA458725:SHA458878 SQW458725:SQW458878 TAS458725:TAS458878 TKO458725:TKO458878 TUK458725:TUK458878 UEG458725:UEG458878 UOC458725:UOC458878 UXY458725:UXY458878 VHU458725:VHU458878 VRQ458725:VRQ458878 WBM458725:WBM458878 WLI458725:WLI458878 WVE458725:WVE458878 F524261:F524414 IS524261:IS524414 SO524261:SO524414 ACK524261:ACK524414 AMG524261:AMG524414 AWC524261:AWC524414 BFY524261:BFY524414 BPU524261:BPU524414 BZQ524261:BZQ524414 CJM524261:CJM524414 CTI524261:CTI524414 DDE524261:DDE524414 DNA524261:DNA524414 DWW524261:DWW524414 EGS524261:EGS524414 EQO524261:EQO524414 FAK524261:FAK524414 FKG524261:FKG524414 FUC524261:FUC524414 GDY524261:GDY524414 GNU524261:GNU524414 GXQ524261:GXQ524414 HHM524261:HHM524414 HRI524261:HRI524414 IBE524261:IBE524414 ILA524261:ILA524414 IUW524261:IUW524414 JES524261:JES524414 JOO524261:JOO524414 JYK524261:JYK524414 KIG524261:KIG524414 KSC524261:KSC524414 LBY524261:LBY524414 LLU524261:LLU524414 LVQ524261:LVQ524414 MFM524261:MFM524414 MPI524261:MPI524414 MZE524261:MZE524414 NJA524261:NJA524414 NSW524261:NSW524414 OCS524261:OCS524414 OMO524261:OMO524414 OWK524261:OWK524414 PGG524261:PGG524414 PQC524261:PQC524414 PZY524261:PZY524414 QJU524261:QJU524414 QTQ524261:QTQ524414 RDM524261:RDM524414 RNI524261:RNI524414 RXE524261:RXE524414 SHA524261:SHA524414 SQW524261:SQW524414 TAS524261:TAS524414 TKO524261:TKO524414 TUK524261:TUK524414 UEG524261:UEG524414 UOC524261:UOC524414 UXY524261:UXY524414 VHU524261:VHU524414 VRQ524261:VRQ524414 WBM524261:WBM524414 WLI524261:WLI524414 WVE524261:WVE524414 F589797:F589950 IS589797:IS589950 SO589797:SO589950 ACK589797:ACK589950 AMG589797:AMG589950 AWC589797:AWC589950 BFY589797:BFY589950 BPU589797:BPU589950 BZQ589797:BZQ589950 CJM589797:CJM589950 CTI589797:CTI589950 DDE589797:DDE589950 DNA589797:DNA589950 DWW589797:DWW589950 EGS589797:EGS589950 EQO589797:EQO589950 FAK589797:FAK589950 FKG589797:FKG589950 FUC589797:FUC589950 GDY589797:GDY589950 GNU589797:GNU589950 GXQ589797:GXQ589950 HHM589797:HHM589950 HRI589797:HRI589950 IBE589797:IBE589950 ILA589797:ILA589950 IUW589797:IUW589950 JES589797:JES589950 JOO589797:JOO589950 JYK589797:JYK589950 KIG589797:KIG589950 KSC589797:KSC589950 LBY589797:LBY589950 LLU589797:LLU589950 LVQ589797:LVQ589950 MFM589797:MFM589950 MPI589797:MPI589950 MZE589797:MZE589950 NJA589797:NJA589950 NSW589797:NSW589950 OCS589797:OCS589950 OMO589797:OMO589950 OWK589797:OWK589950 PGG589797:PGG589950 PQC589797:PQC589950 PZY589797:PZY589950 QJU589797:QJU589950 QTQ589797:QTQ589950 RDM589797:RDM589950 RNI589797:RNI589950 RXE589797:RXE589950 SHA589797:SHA589950 SQW589797:SQW589950 TAS589797:TAS589950 TKO589797:TKO589950 TUK589797:TUK589950 UEG589797:UEG589950 UOC589797:UOC589950 UXY589797:UXY589950 VHU589797:VHU589950 VRQ589797:VRQ589950 WBM589797:WBM589950 WLI589797:WLI589950 WVE589797:WVE589950 F655333:F655486 IS655333:IS655486 SO655333:SO655486 ACK655333:ACK655486 AMG655333:AMG655486 AWC655333:AWC655486 BFY655333:BFY655486 BPU655333:BPU655486 BZQ655333:BZQ655486 CJM655333:CJM655486 CTI655333:CTI655486 DDE655333:DDE655486 DNA655333:DNA655486 DWW655333:DWW655486 EGS655333:EGS655486 EQO655333:EQO655486 FAK655333:FAK655486 FKG655333:FKG655486 FUC655333:FUC655486 GDY655333:GDY655486 GNU655333:GNU655486 GXQ655333:GXQ655486 HHM655333:HHM655486 HRI655333:HRI655486 IBE655333:IBE655486 ILA655333:ILA655486 IUW655333:IUW655486 JES655333:JES655486 JOO655333:JOO655486 JYK655333:JYK655486 KIG655333:KIG655486 KSC655333:KSC655486 LBY655333:LBY655486 LLU655333:LLU655486 LVQ655333:LVQ655486 MFM655333:MFM655486 MPI655333:MPI655486 MZE655333:MZE655486 NJA655333:NJA655486 NSW655333:NSW655486 OCS655333:OCS655486 OMO655333:OMO655486 OWK655333:OWK655486 PGG655333:PGG655486 PQC655333:PQC655486 PZY655333:PZY655486 QJU655333:QJU655486 QTQ655333:QTQ655486 RDM655333:RDM655486 RNI655333:RNI655486 RXE655333:RXE655486 SHA655333:SHA655486 SQW655333:SQW655486 TAS655333:TAS655486 TKO655333:TKO655486 TUK655333:TUK655486 UEG655333:UEG655486 UOC655333:UOC655486 UXY655333:UXY655486 VHU655333:VHU655486 VRQ655333:VRQ655486 WBM655333:WBM655486 WLI655333:WLI655486 WVE655333:WVE655486 F720869:F721022 IS720869:IS721022 SO720869:SO721022 ACK720869:ACK721022 AMG720869:AMG721022 AWC720869:AWC721022 BFY720869:BFY721022 BPU720869:BPU721022 BZQ720869:BZQ721022 CJM720869:CJM721022 CTI720869:CTI721022 DDE720869:DDE721022 DNA720869:DNA721022 DWW720869:DWW721022 EGS720869:EGS721022 EQO720869:EQO721022 FAK720869:FAK721022 FKG720869:FKG721022 FUC720869:FUC721022 GDY720869:GDY721022 GNU720869:GNU721022 GXQ720869:GXQ721022 HHM720869:HHM721022 HRI720869:HRI721022 IBE720869:IBE721022 ILA720869:ILA721022 IUW720869:IUW721022 JES720869:JES721022 JOO720869:JOO721022 JYK720869:JYK721022 KIG720869:KIG721022 KSC720869:KSC721022 LBY720869:LBY721022 LLU720869:LLU721022 LVQ720869:LVQ721022 MFM720869:MFM721022 MPI720869:MPI721022 MZE720869:MZE721022 NJA720869:NJA721022 NSW720869:NSW721022 OCS720869:OCS721022 OMO720869:OMO721022 OWK720869:OWK721022 PGG720869:PGG721022 PQC720869:PQC721022 PZY720869:PZY721022 QJU720869:QJU721022 QTQ720869:QTQ721022 RDM720869:RDM721022 RNI720869:RNI721022 RXE720869:RXE721022 SHA720869:SHA721022 SQW720869:SQW721022 TAS720869:TAS721022 TKO720869:TKO721022 TUK720869:TUK721022 UEG720869:UEG721022 UOC720869:UOC721022 UXY720869:UXY721022 VHU720869:VHU721022 VRQ720869:VRQ721022 WBM720869:WBM721022 WLI720869:WLI721022 WVE720869:WVE721022 F786405:F786558 IS786405:IS786558 SO786405:SO786558 ACK786405:ACK786558 AMG786405:AMG786558 AWC786405:AWC786558 BFY786405:BFY786558 BPU786405:BPU786558 BZQ786405:BZQ786558 CJM786405:CJM786558 CTI786405:CTI786558 DDE786405:DDE786558 DNA786405:DNA786558 DWW786405:DWW786558 EGS786405:EGS786558 EQO786405:EQO786558 FAK786405:FAK786558 FKG786405:FKG786558 FUC786405:FUC786558 GDY786405:GDY786558 GNU786405:GNU786558 GXQ786405:GXQ786558 HHM786405:HHM786558 HRI786405:HRI786558 IBE786405:IBE786558 ILA786405:ILA786558 IUW786405:IUW786558 JES786405:JES786558 JOO786405:JOO786558 JYK786405:JYK786558 KIG786405:KIG786558 KSC786405:KSC786558 LBY786405:LBY786558 LLU786405:LLU786558 LVQ786405:LVQ786558 MFM786405:MFM786558 MPI786405:MPI786558 MZE786405:MZE786558 NJA786405:NJA786558 NSW786405:NSW786558 OCS786405:OCS786558 OMO786405:OMO786558 OWK786405:OWK786558 PGG786405:PGG786558 PQC786405:PQC786558 PZY786405:PZY786558 QJU786405:QJU786558 QTQ786405:QTQ786558 RDM786405:RDM786558 RNI786405:RNI786558 RXE786405:RXE786558 SHA786405:SHA786558 SQW786405:SQW786558 TAS786405:TAS786558 TKO786405:TKO786558 TUK786405:TUK786558 UEG786405:UEG786558 UOC786405:UOC786558 UXY786405:UXY786558 VHU786405:VHU786558 VRQ786405:VRQ786558 WBM786405:WBM786558 WLI786405:WLI786558 WVE786405:WVE786558 F851941:F852094 IS851941:IS852094 SO851941:SO852094 ACK851941:ACK852094 AMG851941:AMG852094 AWC851941:AWC852094 BFY851941:BFY852094 BPU851941:BPU852094 BZQ851941:BZQ852094 CJM851941:CJM852094 CTI851941:CTI852094 DDE851941:DDE852094 DNA851941:DNA852094 DWW851941:DWW852094 EGS851941:EGS852094 EQO851941:EQO852094 FAK851941:FAK852094 FKG851941:FKG852094 FUC851941:FUC852094 GDY851941:GDY852094 GNU851941:GNU852094 GXQ851941:GXQ852094 HHM851941:HHM852094 HRI851941:HRI852094 IBE851941:IBE852094 ILA851941:ILA852094 IUW851941:IUW852094 JES851941:JES852094 JOO851941:JOO852094 JYK851941:JYK852094 KIG851941:KIG852094 KSC851941:KSC852094 LBY851941:LBY852094 LLU851941:LLU852094 LVQ851941:LVQ852094 MFM851941:MFM852094 MPI851941:MPI852094 MZE851941:MZE852094 NJA851941:NJA852094 NSW851941:NSW852094 OCS851941:OCS852094 OMO851941:OMO852094 OWK851941:OWK852094 PGG851941:PGG852094 PQC851941:PQC852094 PZY851941:PZY852094 QJU851941:QJU852094 QTQ851941:QTQ852094 RDM851941:RDM852094 RNI851941:RNI852094 RXE851941:RXE852094 SHA851941:SHA852094 SQW851941:SQW852094 TAS851941:TAS852094 TKO851941:TKO852094 TUK851941:TUK852094 UEG851941:UEG852094 UOC851941:UOC852094 UXY851941:UXY852094 VHU851941:VHU852094 VRQ851941:VRQ852094 WBM851941:WBM852094 WLI851941:WLI852094 WVE851941:WVE852094 F917477:F917630 IS917477:IS917630 SO917477:SO917630 ACK917477:ACK917630 AMG917477:AMG917630 AWC917477:AWC917630 BFY917477:BFY917630 BPU917477:BPU917630 BZQ917477:BZQ917630 CJM917477:CJM917630 CTI917477:CTI917630 DDE917477:DDE917630 DNA917477:DNA917630 DWW917477:DWW917630 EGS917477:EGS917630 EQO917477:EQO917630 FAK917477:FAK917630 FKG917477:FKG917630 FUC917477:FUC917630 GDY917477:GDY917630 GNU917477:GNU917630 GXQ917477:GXQ917630 HHM917477:HHM917630 HRI917477:HRI917630 IBE917477:IBE917630 ILA917477:ILA917630 IUW917477:IUW917630 JES917477:JES917630 JOO917477:JOO917630 JYK917477:JYK917630 KIG917477:KIG917630 KSC917477:KSC917630 LBY917477:LBY917630 LLU917477:LLU917630 LVQ917477:LVQ917630 MFM917477:MFM917630 MPI917477:MPI917630 MZE917477:MZE917630 NJA917477:NJA917630 NSW917477:NSW917630 OCS917477:OCS917630 OMO917477:OMO917630 OWK917477:OWK917630 PGG917477:PGG917630 PQC917477:PQC917630 PZY917477:PZY917630 QJU917477:QJU917630 QTQ917477:QTQ917630 RDM917477:RDM917630 RNI917477:RNI917630 RXE917477:RXE917630 SHA917477:SHA917630 SQW917477:SQW917630 TAS917477:TAS917630 TKO917477:TKO917630 TUK917477:TUK917630 UEG917477:UEG917630 UOC917477:UOC917630 UXY917477:UXY917630 VHU917477:VHU917630 VRQ917477:VRQ917630 WBM917477:WBM917630 WLI917477:WLI917630 WVE917477:WVE917630 F983013:F983166 IS983013:IS983166 SO983013:SO983166 ACK983013:ACK983166 AMG983013:AMG983166 AWC983013:AWC983166 BFY983013:BFY983166 BPU983013:BPU983166 BZQ983013:BZQ983166 CJM983013:CJM983166 CTI983013:CTI983166 DDE983013:DDE983166 DNA983013:DNA983166 DWW983013:DWW983166 EGS983013:EGS983166 EQO983013:EQO983166 FAK983013:FAK983166 FKG983013:FKG983166 FUC983013:FUC983166 GDY983013:GDY983166 GNU983013:GNU983166 GXQ983013:GXQ983166 HHM983013:HHM983166 HRI983013:HRI983166 IBE983013:IBE983166 ILA983013:ILA983166 IUW983013:IUW983166 JES983013:JES983166 JOO983013:JOO983166 JYK983013:JYK983166 KIG983013:KIG983166 KSC983013:KSC983166 LBY983013:LBY983166 LLU983013:LLU983166 LVQ983013:LVQ983166 MFM983013:MFM983166 MPI983013:MPI983166 MZE983013:MZE983166 NJA983013:NJA983166 NSW983013:NSW983166 OCS983013:OCS983166 OMO983013:OMO983166 OWK983013:OWK983166 PGG983013:PGG983166 PQC983013:PQC983166 PZY983013:PZY983166 QJU983013:QJU983166 QTQ983013:QTQ983166 RDM983013:RDM983166 RNI983013:RNI983166 RXE983013:RXE983166 SHA983013:SHA983166 SQW983013:SQW983166 TAS983013:TAS983166 TKO983013:TKO983166 TUK983013:TUK983166 UEG983013:UEG983166 UOC983013:UOC983166 UXY983013:UXY983166 VHU983013:VHU983166 VRQ983013:VRQ983166 WBM983013:WBM983166 WLI983013:WLI983166 F86:F126 IS6:IS126 WVE6:WVE126 WLI6:WLI126 WBM6:WBM126 VRQ6:VRQ126 VHU6:VHU126 UXY6:UXY126 UOC6:UOC126 UEG6:UEG126 TUK6:TUK126 TKO6:TKO126 TAS6:TAS126 SQW6:SQW126 SHA6:SHA126 RXE6:RXE126 RNI6:RNI126 RDM6:RDM126 QTQ6:QTQ126 QJU6:QJU126 PZY6:PZY126 PQC6:PQC126 PGG6:PGG126 OWK6:OWK126 OMO6:OMO126 OCS6:OCS126 NSW6:NSW126 NJA6:NJA126 MZE6:MZE126 MPI6:MPI126 MFM6:MFM126 LVQ6:LVQ126 LLU6:LLU126 LBY6:LBY126 KSC6:KSC126 KIG6:KIG126 JYK6:JYK126 JOO6:JOO126 JES6:JES126 IUW6:IUW126 ILA6:ILA126 IBE6:IBE126 HRI6:HRI126 HHM6:HHM126 GXQ6:GXQ126 GNU6:GNU126 GDY6:GDY126 FUC6:FUC126 FKG6:FKG126 FAK6:FAK126 EQO6:EQO126 EGS6:EGS126 DWW6:DWW126 DNA6:DNA126 DDE6:DDE126 CTI6:CTI126 CJM6:CJM126 BZQ6:BZQ126 BPU6:BPU126 BFY6:BFY126 AWC6:AWC126 AMG6:AMG126 ACK6:ACK126 SO6:SO126 F25:F77 F19:F23 F13:F14 F16" xr:uid="{047E5A7D-3F66-4A74-9334-FE5570FDAD13}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVE983013:WVE983166 F6 F65509:F65662 IS65509:IS65662 SO65509:SO65662 ACK65509:ACK65662 AMG65509:AMG65662 AWC65509:AWC65662 BFY65509:BFY65662 BPU65509:BPU65662 BZQ65509:BZQ65662 CJM65509:CJM65662 CTI65509:CTI65662 DDE65509:DDE65662 DNA65509:DNA65662 DWW65509:DWW65662 EGS65509:EGS65662 EQO65509:EQO65662 FAK65509:FAK65662 FKG65509:FKG65662 FUC65509:FUC65662 GDY65509:GDY65662 GNU65509:GNU65662 GXQ65509:GXQ65662 HHM65509:HHM65662 HRI65509:HRI65662 IBE65509:IBE65662 ILA65509:ILA65662 IUW65509:IUW65662 JES65509:JES65662 JOO65509:JOO65662 JYK65509:JYK65662 KIG65509:KIG65662 KSC65509:KSC65662 LBY65509:LBY65662 LLU65509:LLU65662 LVQ65509:LVQ65662 MFM65509:MFM65662 MPI65509:MPI65662 MZE65509:MZE65662 NJA65509:NJA65662 NSW65509:NSW65662 OCS65509:OCS65662 OMO65509:OMO65662 OWK65509:OWK65662 PGG65509:PGG65662 PQC65509:PQC65662 PZY65509:PZY65662 QJU65509:QJU65662 QTQ65509:QTQ65662 RDM65509:RDM65662 RNI65509:RNI65662 RXE65509:RXE65662 SHA65509:SHA65662 SQW65509:SQW65662 TAS65509:TAS65662 TKO65509:TKO65662 TUK65509:TUK65662 UEG65509:UEG65662 UOC65509:UOC65662 UXY65509:UXY65662 VHU65509:VHU65662 VRQ65509:VRQ65662 WBM65509:WBM65662 WLI65509:WLI65662 WVE65509:WVE65662 F131045:F131198 IS131045:IS131198 SO131045:SO131198 ACK131045:ACK131198 AMG131045:AMG131198 AWC131045:AWC131198 BFY131045:BFY131198 BPU131045:BPU131198 BZQ131045:BZQ131198 CJM131045:CJM131198 CTI131045:CTI131198 DDE131045:DDE131198 DNA131045:DNA131198 DWW131045:DWW131198 EGS131045:EGS131198 EQO131045:EQO131198 FAK131045:FAK131198 FKG131045:FKG131198 FUC131045:FUC131198 GDY131045:GDY131198 GNU131045:GNU131198 GXQ131045:GXQ131198 HHM131045:HHM131198 HRI131045:HRI131198 IBE131045:IBE131198 ILA131045:ILA131198 IUW131045:IUW131198 JES131045:JES131198 JOO131045:JOO131198 JYK131045:JYK131198 KIG131045:KIG131198 KSC131045:KSC131198 LBY131045:LBY131198 LLU131045:LLU131198 LVQ131045:LVQ131198 MFM131045:MFM131198 MPI131045:MPI131198 MZE131045:MZE131198 NJA131045:NJA131198 NSW131045:NSW131198 OCS131045:OCS131198 OMO131045:OMO131198 OWK131045:OWK131198 PGG131045:PGG131198 PQC131045:PQC131198 PZY131045:PZY131198 QJU131045:QJU131198 QTQ131045:QTQ131198 RDM131045:RDM131198 RNI131045:RNI131198 RXE131045:RXE131198 SHA131045:SHA131198 SQW131045:SQW131198 TAS131045:TAS131198 TKO131045:TKO131198 TUK131045:TUK131198 UEG131045:UEG131198 UOC131045:UOC131198 UXY131045:UXY131198 VHU131045:VHU131198 VRQ131045:VRQ131198 WBM131045:WBM131198 WLI131045:WLI131198 WVE131045:WVE131198 F196581:F196734 IS196581:IS196734 SO196581:SO196734 ACK196581:ACK196734 AMG196581:AMG196734 AWC196581:AWC196734 BFY196581:BFY196734 BPU196581:BPU196734 BZQ196581:BZQ196734 CJM196581:CJM196734 CTI196581:CTI196734 DDE196581:DDE196734 DNA196581:DNA196734 DWW196581:DWW196734 EGS196581:EGS196734 EQO196581:EQO196734 FAK196581:FAK196734 FKG196581:FKG196734 FUC196581:FUC196734 GDY196581:GDY196734 GNU196581:GNU196734 GXQ196581:GXQ196734 HHM196581:HHM196734 HRI196581:HRI196734 IBE196581:IBE196734 ILA196581:ILA196734 IUW196581:IUW196734 JES196581:JES196734 JOO196581:JOO196734 JYK196581:JYK196734 KIG196581:KIG196734 KSC196581:KSC196734 LBY196581:LBY196734 LLU196581:LLU196734 LVQ196581:LVQ196734 MFM196581:MFM196734 MPI196581:MPI196734 MZE196581:MZE196734 NJA196581:NJA196734 NSW196581:NSW196734 OCS196581:OCS196734 OMO196581:OMO196734 OWK196581:OWK196734 PGG196581:PGG196734 PQC196581:PQC196734 PZY196581:PZY196734 QJU196581:QJU196734 QTQ196581:QTQ196734 RDM196581:RDM196734 RNI196581:RNI196734 RXE196581:RXE196734 SHA196581:SHA196734 SQW196581:SQW196734 TAS196581:TAS196734 TKO196581:TKO196734 TUK196581:TUK196734 UEG196581:UEG196734 UOC196581:UOC196734 UXY196581:UXY196734 VHU196581:VHU196734 VRQ196581:VRQ196734 WBM196581:WBM196734 WLI196581:WLI196734 WVE196581:WVE196734 F262117:F262270 IS262117:IS262270 SO262117:SO262270 ACK262117:ACK262270 AMG262117:AMG262270 AWC262117:AWC262270 BFY262117:BFY262270 BPU262117:BPU262270 BZQ262117:BZQ262270 CJM262117:CJM262270 CTI262117:CTI262270 DDE262117:DDE262270 DNA262117:DNA262270 DWW262117:DWW262270 EGS262117:EGS262270 EQO262117:EQO262270 FAK262117:FAK262270 FKG262117:FKG262270 FUC262117:FUC262270 GDY262117:GDY262270 GNU262117:GNU262270 GXQ262117:GXQ262270 HHM262117:HHM262270 HRI262117:HRI262270 IBE262117:IBE262270 ILA262117:ILA262270 IUW262117:IUW262270 JES262117:JES262270 JOO262117:JOO262270 JYK262117:JYK262270 KIG262117:KIG262270 KSC262117:KSC262270 LBY262117:LBY262270 LLU262117:LLU262270 LVQ262117:LVQ262270 MFM262117:MFM262270 MPI262117:MPI262270 MZE262117:MZE262270 NJA262117:NJA262270 NSW262117:NSW262270 OCS262117:OCS262270 OMO262117:OMO262270 OWK262117:OWK262270 PGG262117:PGG262270 PQC262117:PQC262270 PZY262117:PZY262270 QJU262117:QJU262270 QTQ262117:QTQ262270 RDM262117:RDM262270 RNI262117:RNI262270 RXE262117:RXE262270 SHA262117:SHA262270 SQW262117:SQW262270 TAS262117:TAS262270 TKO262117:TKO262270 TUK262117:TUK262270 UEG262117:UEG262270 UOC262117:UOC262270 UXY262117:UXY262270 VHU262117:VHU262270 VRQ262117:VRQ262270 WBM262117:WBM262270 WLI262117:WLI262270 WVE262117:WVE262270 F327653:F327806 IS327653:IS327806 SO327653:SO327806 ACK327653:ACK327806 AMG327653:AMG327806 AWC327653:AWC327806 BFY327653:BFY327806 BPU327653:BPU327806 BZQ327653:BZQ327806 CJM327653:CJM327806 CTI327653:CTI327806 DDE327653:DDE327806 DNA327653:DNA327806 DWW327653:DWW327806 EGS327653:EGS327806 EQO327653:EQO327806 FAK327653:FAK327806 FKG327653:FKG327806 FUC327653:FUC327806 GDY327653:GDY327806 GNU327653:GNU327806 GXQ327653:GXQ327806 HHM327653:HHM327806 HRI327653:HRI327806 IBE327653:IBE327806 ILA327653:ILA327806 IUW327653:IUW327806 JES327653:JES327806 JOO327653:JOO327806 JYK327653:JYK327806 KIG327653:KIG327806 KSC327653:KSC327806 LBY327653:LBY327806 LLU327653:LLU327806 LVQ327653:LVQ327806 MFM327653:MFM327806 MPI327653:MPI327806 MZE327653:MZE327806 NJA327653:NJA327806 NSW327653:NSW327806 OCS327653:OCS327806 OMO327653:OMO327806 OWK327653:OWK327806 PGG327653:PGG327806 PQC327653:PQC327806 PZY327653:PZY327806 QJU327653:QJU327806 QTQ327653:QTQ327806 RDM327653:RDM327806 RNI327653:RNI327806 RXE327653:RXE327806 SHA327653:SHA327806 SQW327653:SQW327806 TAS327653:TAS327806 TKO327653:TKO327806 TUK327653:TUK327806 UEG327653:UEG327806 UOC327653:UOC327806 UXY327653:UXY327806 VHU327653:VHU327806 VRQ327653:VRQ327806 WBM327653:WBM327806 WLI327653:WLI327806 WVE327653:WVE327806 F393189:F393342 IS393189:IS393342 SO393189:SO393342 ACK393189:ACK393342 AMG393189:AMG393342 AWC393189:AWC393342 BFY393189:BFY393342 BPU393189:BPU393342 BZQ393189:BZQ393342 CJM393189:CJM393342 CTI393189:CTI393342 DDE393189:DDE393342 DNA393189:DNA393342 DWW393189:DWW393342 EGS393189:EGS393342 EQO393189:EQO393342 FAK393189:FAK393342 FKG393189:FKG393342 FUC393189:FUC393342 GDY393189:GDY393342 GNU393189:GNU393342 GXQ393189:GXQ393342 HHM393189:HHM393342 HRI393189:HRI393342 IBE393189:IBE393342 ILA393189:ILA393342 IUW393189:IUW393342 JES393189:JES393342 JOO393189:JOO393342 JYK393189:JYK393342 KIG393189:KIG393342 KSC393189:KSC393342 LBY393189:LBY393342 LLU393189:LLU393342 LVQ393189:LVQ393342 MFM393189:MFM393342 MPI393189:MPI393342 MZE393189:MZE393342 NJA393189:NJA393342 NSW393189:NSW393342 OCS393189:OCS393342 OMO393189:OMO393342 OWK393189:OWK393342 PGG393189:PGG393342 PQC393189:PQC393342 PZY393189:PZY393342 QJU393189:QJU393342 QTQ393189:QTQ393342 RDM393189:RDM393342 RNI393189:RNI393342 RXE393189:RXE393342 SHA393189:SHA393342 SQW393189:SQW393342 TAS393189:TAS393342 TKO393189:TKO393342 TUK393189:TUK393342 UEG393189:UEG393342 UOC393189:UOC393342 UXY393189:UXY393342 VHU393189:VHU393342 VRQ393189:VRQ393342 WBM393189:WBM393342 WLI393189:WLI393342 WVE393189:WVE393342 F458725:F458878 IS458725:IS458878 SO458725:SO458878 ACK458725:ACK458878 AMG458725:AMG458878 AWC458725:AWC458878 BFY458725:BFY458878 BPU458725:BPU458878 BZQ458725:BZQ458878 CJM458725:CJM458878 CTI458725:CTI458878 DDE458725:DDE458878 DNA458725:DNA458878 DWW458725:DWW458878 EGS458725:EGS458878 EQO458725:EQO458878 FAK458725:FAK458878 FKG458725:FKG458878 FUC458725:FUC458878 GDY458725:GDY458878 GNU458725:GNU458878 GXQ458725:GXQ458878 HHM458725:HHM458878 HRI458725:HRI458878 IBE458725:IBE458878 ILA458725:ILA458878 IUW458725:IUW458878 JES458725:JES458878 JOO458725:JOO458878 JYK458725:JYK458878 KIG458725:KIG458878 KSC458725:KSC458878 LBY458725:LBY458878 LLU458725:LLU458878 LVQ458725:LVQ458878 MFM458725:MFM458878 MPI458725:MPI458878 MZE458725:MZE458878 NJA458725:NJA458878 NSW458725:NSW458878 OCS458725:OCS458878 OMO458725:OMO458878 OWK458725:OWK458878 PGG458725:PGG458878 PQC458725:PQC458878 PZY458725:PZY458878 QJU458725:QJU458878 QTQ458725:QTQ458878 RDM458725:RDM458878 RNI458725:RNI458878 RXE458725:RXE458878 SHA458725:SHA458878 SQW458725:SQW458878 TAS458725:TAS458878 TKO458725:TKO458878 TUK458725:TUK458878 UEG458725:UEG458878 UOC458725:UOC458878 UXY458725:UXY458878 VHU458725:VHU458878 VRQ458725:VRQ458878 WBM458725:WBM458878 WLI458725:WLI458878 WVE458725:WVE458878 F524261:F524414 IS524261:IS524414 SO524261:SO524414 ACK524261:ACK524414 AMG524261:AMG524414 AWC524261:AWC524414 BFY524261:BFY524414 BPU524261:BPU524414 BZQ524261:BZQ524414 CJM524261:CJM524414 CTI524261:CTI524414 DDE524261:DDE524414 DNA524261:DNA524414 DWW524261:DWW524414 EGS524261:EGS524414 EQO524261:EQO524414 FAK524261:FAK524414 FKG524261:FKG524414 FUC524261:FUC524414 GDY524261:GDY524414 GNU524261:GNU524414 GXQ524261:GXQ524414 HHM524261:HHM524414 HRI524261:HRI524414 IBE524261:IBE524414 ILA524261:ILA524414 IUW524261:IUW524414 JES524261:JES524414 JOO524261:JOO524414 JYK524261:JYK524414 KIG524261:KIG524414 KSC524261:KSC524414 LBY524261:LBY524414 LLU524261:LLU524414 LVQ524261:LVQ524414 MFM524261:MFM524414 MPI524261:MPI524414 MZE524261:MZE524414 NJA524261:NJA524414 NSW524261:NSW524414 OCS524261:OCS524414 OMO524261:OMO524414 OWK524261:OWK524414 PGG524261:PGG524414 PQC524261:PQC524414 PZY524261:PZY524414 QJU524261:QJU524414 QTQ524261:QTQ524414 RDM524261:RDM524414 RNI524261:RNI524414 RXE524261:RXE524414 SHA524261:SHA524414 SQW524261:SQW524414 TAS524261:TAS524414 TKO524261:TKO524414 TUK524261:TUK524414 UEG524261:UEG524414 UOC524261:UOC524414 UXY524261:UXY524414 VHU524261:VHU524414 VRQ524261:VRQ524414 WBM524261:WBM524414 WLI524261:WLI524414 WVE524261:WVE524414 F589797:F589950 IS589797:IS589950 SO589797:SO589950 ACK589797:ACK589950 AMG589797:AMG589950 AWC589797:AWC589950 BFY589797:BFY589950 BPU589797:BPU589950 BZQ589797:BZQ589950 CJM589797:CJM589950 CTI589797:CTI589950 DDE589797:DDE589950 DNA589797:DNA589950 DWW589797:DWW589950 EGS589797:EGS589950 EQO589797:EQO589950 FAK589797:FAK589950 FKG589797:FKG589950 FUC589797:FUC589950 GDY589797:GDY589950 GNU589797:GNU589950 GXQ589797:GXQ589950 HHM589797:HHM589950 HRI589797:HRI589950 IBE589797:IBE589950 ILA589797:ILA589950 IUW589797:IUW589950 JES589797:JES589950 JOO589797:JOO589950 JYK589797:JYK589950 KIG589797:KIG589950 KSC589797:KSC589950 LBY589797:LBY589950 LLU589797:LLU589950 LVQ589797:LVQ589950 MFM589797:MFM589950 MPI589797:MPI589950 MZE589797:MZE589950 NJA589797:NJA589950 NSW589797:NSW589950 OCS589797:OCS589950 OMO589797:OMO589950 OWK589797:OWK589950 PGG589797:PGG589950 PQC589797:PQC589950 PZY589797:PZY589950 QJU589797:QJU589950 QTQ589797:QTQ589950 RDM589797:RDM589950 RNI589797:RNI589950 RXE589797:RXE589950 SHA589797:SHA589950 SQW589797:SQW589950 TAS589797:TAS589950 TKO589797:TKO589950 TUK589797:TUK589950 UEG589797:UEG589950 UOC589797:UOC589950 UXY589797:UXY589950 VHU589797:VHU589950 VRQ589797:VRQ589950 WBM589797:WBM589950 WLI589797:WLI589950 WVE589797:WVE589950 F655333:F655486 IS655333:IS655486 SO655333:SO655486 ACK655333:ACK655486 AMG655333:AMG655486 AWC655333:AWC655486 BFY655333:BFY655486 BPU655333:BPU655486 BZQ655333:BZQ655486 CJM655333:CJM655486 CTI655333:CTI655486 DDE655333:DDE655486 DNA655333:DNA655486 DWW655333:DWW655486 EGS655333:EGS655486 EQO655333:EQO655486 FAK655333:FAK655486 FKG655333:FKG655486 FUC655333:FUC655486 GDY655333:GDY655486 GNU655333:GNU655486 GXQ655333:GXQ655486 HHM655333:HHM655486 HRI655333:HRI655486 IBE655333:IBE655486 ILA655333:ILA655486 IUW655333:IUW655486 JES655333:JES655486 JOO655333:JOO655486 JYK655333:JYK655486 KIG655333:KIG655486 KSC655333:KSC655486 LBY655333:LBY655486 LLU655333:LLU655486 LVQ655333:LVQ655486 MFM655333:MFM655486 MPI655333:MPI655486 MZE655333:MZE655486 NJA655333:NJA655486 NSW655333:NSW655486 OCS655333:OCS655486 OMO655333:OMO655486 OWK655333:OWK655486 PGG655333:PGG655486 PQC655333:PQC655486 PZY655333:PZY655486 QJU655333:QJU655486 QTQ655333:QTQ655486 RDM655333:RDM655486 RNI655333:RNI655486 RXE655333:RXE655486 SHA655333:SHA655486 SQW655333:SQW655486 TAS655333:TAS655486 TKO655333:TKO655486 TUK655333:TUK655486 UEG655333:UEG655486 UOC655333:UOC655486 UXY655333:UXY655486 VHU655333:VHU655486 VRQ655333:VRQ655486 WBM655333:WBM655486 WLI655333:WLI655486 WVE655333:WVE655486 F720869:F721022 IS720869:IS721022 SO720869:SO721022 ACK720869:ACK721022 AMG720869:AMG721022 AWC720869:AWC721022 BFY720869:BFY721022 BPU720869:BPU721022 BZQ720869:BZQ721022 CJM720869:CJM721022 CTI720869:CTI721022 DDE720869:DDE721022 DNA720869:DNA721022 DWW720869:DWW721022 EGS720869:EGS721022 EQO720869:EQO721022 FAK720869:FAK721022 FKG720869:FKG721022 FUC720869:FUC721022 GDY720869:GDY721022 GNU720869:GNU721022 GXQ720869:GXQ721022 HHM720869:HHM721022 HRI720869:HRI721022 IBE720869:IBE721022 ILA720869:ILA721022 IUW720869:IUW721022 JES720869:JES721022 JOO720869:JOO721022 JYK720869:JYK721022 KIG720869:KIG721022 KSC720869:KSC721022 LBY720869:LBY721022 LLU720869:LLU721022 LVQ720869:LVQ721022 MFM720869:MFM721022 MPI720869:MPI721022 MZE720869:MZE721022 NJA720869:NJA721022 NSW720869:NSW721022 OCS720869:OCS721022 OMO720869:OMO721022 OWK720869:OWK721022 PGG720869:PGG721022 PQC720869:PQC721022 PZY720869:PZY721022 QJU720869:QJU721022 QTQ720869:QTQ721022 RDM720869:RDM721022 RNI720869:RNI721022 RXE720869:RXE721022 SHA720869:SHA721022 SQW720869:SQW721022 TAS720869:TAS721022 TKO720869:TKO721022 TUK720869:TUK721022 UEG720869:UEG721022 UOC720869:UOC721022 UXY720869:UXY721022 VHU720869:VHU721022 VRQ720869:VRQ721022 WBM720869:WBM721022 WLI720869:WLI721022 WVE720869:WVE721022 F786405:F786558 IS786405:IS786558 SO786405:SO786558 ACK786405:ACK786558 AMG786405:AMG786558 AWC786405:AWC786558 BFY786405:BFY786558 BPU786405:BPU786558 BZQ786405:BZQ786558 CJM786405:CJM786558 CTI786405:CTI786558 DDE786405:DDE786558 DNA786405:DNA786558 DWW786405:DWW786558 EGS786405:EGS786558 EQO786405:EQO786558 FAK786405:FAK786558 FKG786405:FKG786558 FUC786405:FUC786558 GDY786405:GDY786558 GNU786405:GNU786558 GXQ786405:GXQ786558 HHM786405:HHM786558 HRI786405:HRI786558 IBE786405:IBE786558 ILA786405:ILA786558 IUW786405:IUW786558 JES786405:JES786558 JOO786405:JOO786558 JYK786405:JYK786558 KIG786405:KIG786558 KSC786405:KSC786558 LBY786405:LBY786558 LLU786405:LLU786558 LVQ786405:LVQ786558 MFM786405:MFM786558 MPI786405:MPI786558 MZE786405:MZE786558 NJA786405:NJA786558 NSW786405:NSW786558 OCS786405:OCS786558 OMO786405:OMO786558 OWK786405:OWK786558 PGG786405:PGG786558 PQC786405:PQC786558 PZY786405:PZY786558 QJU786405:QJU786558 QTQ786405:QTQ786558 RDM786405:RDM786558 RNI786405:RNI786558 RXE786405:RXE786558 SHA786405:SHA786558 SQW786405:SQW786558 TAS786405:TAS786558 TKO786405:TKO786558 TUK786405:TUK786558 UEG786405:UEG786558 UOC786405:UOC786558 UXY786405:UXY786558 VHU786405:VHU786558 VRQ786405:VRQ786558 WBM786405:WBM786558 WLI786405:WLI786558 WVE786405:WVE786558 F851941:F852094 IS851941:IS852094 SO851941:SO852094 ACK851941:ACK852094 AMG851941:AMG852094 AWC851941:AWC852094 BFY851941:BFY852094 BPU851941:BPU852094 BZQ851941:BZQ852094 CJM851941:CJM852094 CTI851941:CTI852094 DDE851941:DDE852094 DNA851941:DNA852094 DWW851941:DWW852094 EGS851941:EGS852094 EQO851941:EQO852094 FAK851941:FAK852094 FKG851941:FKG852094 FUC851941:FUC852094 GDY851941:GDY852094 GNU851941:GNU852094 GXQ851941:GXQ852094 HHM851941:HHM852094 HRI851941:HRI852094 IBE851941:IBE852094 ILA851941:ILA852094 IUW851941:IUW852094 JES851941:JES852094 JOO851941:JOO852094 JYK851941:JYK852094 KIG851941:KIG852094 KSC851941:KSC852094 LBY851941:LBY852094 LLU851941:LLU852094 LVQ851941:LVQ852094 MFM851941:MFM852094 MPI851941:MPI852094 MZE851941:MZE852094 NJA851941:NJA852094 NSW851941:NSW852094 OCS851941:OCS852094 OMO851941:OMO852094 OWK851941:OWK852094 PGG851941:PGG852094 PQC851941:PQC852094 PZY851941:PZY852094 QJU851941:QJU852094 QTQ851941:QTQ852094 RDM851941:RDM852094 RNI851941:RNI852094 RXE851941:RXE852094 SHA851941:SHA852094 SQW851941:SQW852094 TAS851941:TAS852094 TKO851941:TKO852094 TUK851941:TUK852094 UEG851941:UEG852094 UOC851941:UOC852094 UXY851941:UXY852094 VHU851941:VHU852094 VRQ851941:VRQ852094 WBM851941:WBM852094 WLI851941:WLI852094 WVE851941:WVE852094 F917477:F917630 IS917477:IS917630 SO917477:SO917630 ACK917477:ACK917630 AMG917477:AMG917630 AWC917477:AWC917630 BFY917477:BFY917630 BPU917477:BPU917630 BZQ917477:BZQ917630 CJM917477:CJM917630 CTI917477:CTI917630 DDE917477:DDE917630 DNA917477:DNA917630 DWW917477:DWW917630 EGS917477:EGS917630 EQO917477:EQO917630 FAK917477:FAK917630 FKG917477:FKG917630 FUC917477:FUC917630 GDY917477:GDY917630 GNU917477:GNU917630 GXQ917477:GXQ917630 HHM917477:HHM917630 HRI917477:HRI917630 IBE917477:IBE917630 ILA917477:ILA917630 IUW917477:IUW917630 JES917477:JES917630 JOO917477:JOO917630 JYK917477:JYK917630 KIG917477:KIG917630 KSC917477:KSC917630 LBY917477:LBY917630 LLU917477:LLU917630 LVQ917477:LVQ917630 MFM917477:MFM917630 MPI917477:MPI917630 MZE917477:MZE917630 NJA917477:NJA917630 NSW917477:NSW917630 OCS917477:OCS917630 OMO917477:OMO917630 OWK917477:OWK917630 PGG917477:PGG917630 PQC917477:PQC917630 PZY917477:PZY917630 QJU917477:QJU917630 QTQ917477:QTQ917630 RDM917477:RDM917630 RNI917477:RNI917630 RXE917477:RXE917630 SHA917477:SHA917630 SQW917477:SQW917630 TAS917477:TAS917630 TKO917477:TKO917630 TUK917477:TUK917630 UEG917477:UEG917630 UOC917477:UOC917630 UXY917477:UXY917630 VHU917477:VHU917630 VRQ917477:VRQ917630 WBM917477:WBM917630 WLI917477:WLI917630 WVE917477:WVE917630 F983013:F983166 IS983013:IS983166 SO983013:SO983166 ACK983013:ACK983166 AMG983013:AMG983166 AWC983013:AWC983166 BFY983013:BFY983166 BPU983013:BPU983166 BZQ983013:BZQ983166 CJM983013:CJM983166 CTI983013:CTI983166 DDE983013:DDE983166 DNA983013:DNA983166 DWW983013:DWW983166 EGS983013:EGS983166 EQO983013:EQO983166 FAK983013:FAK983166 FKG983013:FKG983166 FUC983013:FUC983166 GDY983013:GDY983166 GNU983013:GNU983166 GXQ983013:GXQ983166 HHM983013:HHM983166 HRI983013:HRI983166 IBE983013:IBE983166 ILA983013:ILA983166 IUW983013:IUW983166 JES983013:JES983166 JOO983013:JOO983166 JYK983013:JYK983166 KIG983013:KIG983166 KSC983013:KSC983166 LBY983013:LBY983166 LLU983013:LLU983166 LVQ983013:LVQ983166 MFM983013:MFM983166 MPI983013:MPI983166 MZE983013:MZE983166 NJA983013:NJA983166 NSW983013:NSW983166 OCS983013:OCS983166 OMO983013:OMO983166 OWK983013:OWK983166 PGG983013:PGG983166 PQC983013:PQC983166 PZY983013:PZY983166 QJU983013:QJU983166 QTQ983013:QTQ983166 RDM983013:RDM983166 RNI983013:RNI983166 RXE983013:RXE983166 SHA983013:SHA983166 SQW983013:SQW983166 TAS983013:TAS983166 TKO983013:TKO983166 TUK983013:TUK983166 UEG983013:UEG983166 UOC983013:UOC983166 UXY983013:UXY983166 VHU983013:VHU983166 VRQ983013:VRQ983166 WBM983013:WBM983166 WLI983013:WLI983166 F20:F23 IS6:IS126 WVE6:WVE126 WLI6:WLI126 WBM6:WBM126 VRQ6:VRQ126 VHU6:VHU126 UXY6:UXY126 UOC6:UOC126 UEG6:UEG126 TUK6:TUK126 TKO6:TKO126 TAS6:TAS126 SQW6:SQW126 SHA6:SHA126 RXE6:RXE126 RNI6:RNI126 RDM6:RDM126 QTQ6:QTQ126 QJU6:QJU126 PZY6:PZY126 PQC6:PQC126 PGG6:PGG126 OWK6:OWK126 OMO6:OMO126 OCS6:OCS126 NSW6:NSW126 NJA6:NJA126 MZE6:MZE126 MPI6:MPI126 MFM6:MFM126 LVQ6:LVQ126 LLU6:LLU126 LBY6:LBY126 KSC6:KSC126 KIG6:KIG126 JYK6:JYK126 JOO6:JOO126 JES6:JES126 IUW6:IUW126 ILA6:ILA126 IBE6:IBE126 HRI6:HRI126 HHM6:HHM126 GXQ6:GXQ126 GNU6:GNU126 GDY6:GDY126 FUC6:FUC126 FKG6:FKG126 FAK6:FAK126 EQO6:EQO126 EGS6:EGS126 DWW6:DWW126 DNA6:DNA126 DDE6:DDE126 CTI6:CTI126 CJM6:CJM126 BZQ6:BZQ126 BPU6:BPU126 BFY6:BFY126 AWC6:AWC126 AMG6:AMG126 ACK6:ACK126 SO6:SO126 F16 F86:F126 F13:F14 F25:F77" xr:uid="{047E5A7D-3F66-4A74-9334-FE5570FDAD13}">
       <formula1>$AD$11:$AD$12</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVF983014:WVF983166 G65510:G65662 IT65510:IT65662 SP65510:SP65662 ACL65510:ACL65662 AMH65510:AMH65662 AWD65510:AWD65662 BFZ65510:BFZ65662 BPV65510:BPV65662 BZR65510:BZR65662 CJN65510:CJN65662 CTJ65510:CTJ65662 DDF65510:DDF65662 DNB65510:DNB65662 DWX65510:DWX65662 EGT65510:EGT65662 EQP65510:EQP65662 FAL65510:FAL65662 FKH65510:FKH65662 FUD65510:FUD65662 GDZ65510:GDZ65662 GNV65510:GNV65662 GXR65510:GXR65662 HHN65510:HHN65662 HRJ65510:HRJ65662 IBF65510:IBF65662 ILB65510:ILB65662 IUX65510:IUX65662 JET65510:JET65662 JOP65510:JOP65662 JYL65510:JYL65662 KIH65510:KIH65662 KSD65510:KSD65662 LBZ65510:LBZ65662 LLV65510:LLV65662 LVR65510:LVR65662 MFN65510:MFN65662 MPJ65510:MPJ65662 MZF65510:MZF65662 NJB65510:NJB65662 NSX65510:NSX65662 OCT65510:OCT65662 OMP65510:OMP65662 OWL65510:OWL65662 PGH65510:PGH65662 PQD65510:PQD65662 PZZ65510:PZZ65662 QJV65510:QJV65662 QTR65510:QTR65662 RDN65510:RDN65662 RNJ65510:RNJ65662 RXF65510:RXF65662 SHB65510:SHB65662 SQX65510:SQX65662 TAT65510:TAT65662 TKP65510:TKP65662 TUL65510:TUL65662 UEH65510:UEH65662 UOD65510:UOD65662 UXZ65510:UXZ65662 VHV65510:VHV65662 VRR65510:VRR65662 WBN65510:WBN65662 WLJ65510:WLJ65662 WVF65510:WVF65662 G131046:G131198 IT131046:IT131198 SP131046:SP131198 ACL131046:ACL131198 AMH131046:AMH131198 AWD131046:AWD131198 BFZ131046:BFZ131198 BPV131046:BPV131198 BZR131046:BZR131198 CJN131046:CJN131198 CTJ131046:CTJ131198 DDF131046:DDF131198 DNB131046:DNB131198 DWX131046:DWX131198 EGT131046:EGT131198 EQP131046:EQP131198 FAL131046:FAL131198 FKH131046:FKH131198 FUD131046:FUD131198 GDZ131046:GDZ131198 GNV131046:GNV131198 GXR131046:GXR131198 HHN131046:HHN131198 HRJ131046:HRJ131198 IBF131046:IBF131198 ILB131046:ILB131198 IUX131046:IUX131198 JET131046:JET131198 JOP131046:JOP131198 JYL131046:JYL131198 KIH131046:KIH131198 KSD131046:KSD131198 LBZ131046:LBZ131198 LLV131046:LLV131198 LVR131046:LVR131198 MFN131046:MFN131198 MPJ131046:MPJ131198 MZF131046:MZF131198 NJB131046:NJB131198 NSX131046:NSX131198 OCT131046:OCT131198 OMP131046:OMP131198 OWL131046:OWL131198 PGH131046:PGH131198 PQD131046:PQD131198 PZZ131046:PZZ131198 QJV131046:QJV131198 QTR131046:QTR131198 RDN131046:RDN131198 RNJ131046:RNJ131198 RXF131046:RXF131198 SHB131046:SHB131198 SQX131046:SQX131198 TAT131046:TAT131198 TKP131046:TKP131198 TUL131046:TUL131198 UEH131046:UEH131198 UOD131046:UOD131198 UXZ131046:UXZ131198 VHV131046:VHV131198 VRR131046:VRR131198 WBN131046:WBN131198 WLJ131046:WLJ131198 WVF131046:WVF131198 G196582:G196734 IT196582:IT196734 SP196582:SP196734 ACL196582:ACL196734 AMH196582:AMH196734 AWD196582:AWD196734 BFZ196582:BFZ196734 BPV196582:BPV196734 BZR196582:BZR196734 CJN196582:CJN196734 CTJ196582:CTJ196734 DDF196582:DDF196734 DNB196582:DNB196734 DWX196582:DWX196734 EGT196582:EGT196734 EQP196582:EQP196734 FAL196582:FAL196734 FKH196582:FKH196734 FUD196582:FUD196734 GDZ196582:GDZ196734 GNV196582:GNV196734 GXR196582:GXR196734 HHN196582:HHN196734 HRJ196582:HRJ196734 IBF196582:IBF196734 ILB196582:ILB196734 IUX196582:IUX196734 JET196582:JET196734 JOP196582:JOP196734 JYL196582:JYL196734 KIH196582:KIH196734 KSD196582:KSD196734 LBZ196582:LBZ196734 LLV196582:LLV196734 LVR196582:LVR196734 MFN196582:MFN196734 MPJ196582:MPJ196734 MZF196582:MZF196734 NJB196582:NJB196734 NSX196582:NSX196734 OCT196582:OCT196734 OMP196582:OMP196734 OWL196582:OWL196734 PGH196582:PGH196734 PQD196582:PQD196734 PZZ196582:PZZ196734 QJV196582:QJV196734 QTR196582:QTR196734 RDN196582:RDN196734 RNJ196582:RNJ196734 RXF196582:RXF196734 SHB196582:SHB196734 SQX196582:SQX196734 TAT196582:TAT196734 TKP196582:TKP196734 TUL196582:TUL196734 UEH196582:UEH196734 UOD196582:UOD196734 UXZ196582:UXZ196734 VHV196582:VHV196734 VRR196582:VRR196734 WBN196582:WBN196734 WLJ196582:WLJ196734 WVF196582:WVF196734 G262118:G262270 IT262118:IT262270 SP262118:SP262270 ACL262118:ACL262270 AMH262118:AMH262270 AWD262118:AWD262270 BFZ262118:BFZ262270 BPV262118:BPV262270 BZR262118:BZR262270 CJN262118:CJN262270 CTJ262118:CTJ262270 DDF262118:DDF262270 DNB262118:DNB262270 DWX262118:DWX262270 EGT262118:EGT262270 EQP262118:EQP262270 FAL262118:FAL262270 FKH262118:FKH262270 FUD262118:FUD262270 GDZ262118:GDZ262270 GNV262118:GNV262270 GXR262118:GXR262270 HHN262118:HHN262270 HRJ262118:HRJ262270 IBF262118:IBF262270 ILB262118:ILB262270 IUX262118:IUX262270 JET262118:JET262270 JOP262118:JOP262270 JYL262118:JYL262270 KIH262118:KIH262270 KSD262118:KSD262270 LBZ262118:LBZ262270 LLV262118:LLV262270 LVR262118:LVR262270 MFN262118:MFN262270 MPJ262118:MPJ262270 MZF262118:MZF262270 NJB262118:NJB262270 NSX262118:NSX262270 OCT262118:OCT262270 OMP262118:OMP262270 OWL262118:OWL262270 PGH262118:PGH262270 PQD262118:PQD262270 PZZ262118:PZZ262270 QJV262118:QJV262270 QTR262118:QTR262270 RDN262118:RDN262270 RNJ262118:RNJ262270 RXF262118:RXF262270 SHB262118:SHB262270 SQX262118:SQX262270 TAT262118:TAT262270 TKP262118:TKP262270 TUL262118:TUL262270 UEH262118:UEH262270 UOD262118:UOD262270 UXZ262118:UXZ262270 VHV262118:VHV262270 VRR262118:VRR262270 WBN262118:WBN262270 WLJ262118:WLJ262270 WVF262118:WVF262270 G327654:G327806 IT327654:IT327806 SP327654:SP327806 ACL327654:ACL327806 AMH327654:AMH327806 AWD327654:AWD327806 BFZ327654:BFZ327806 BPV327654:BPV327806 BZR327654:BZR327806 CJN327654:CJN327806 CTJ327654:CTJ327806 DDF327654:DDF327806 DNB327654:DNB327806 DWX327654:DWX327806 EGT327654:EGT327806 EQP327654:EQP327806 FAL327654:FAL327806 FKH327654:FKH327806 FUD327654:FUD327806 GDZ327654:GDZ327806 GNV327654:GNV327806 GXR327654:GXR327806 HHN327654:HHN327806 HRJ327654:HRJ327806 IBF327654:IBF327806 ILB327654:ILB327806 IUX327654:IUX327806 JET327654:JET327806 JOP327654:JOP327806 JYL327654:JYL327806 KIH327654:KIH327806 KSD327654:KSD327806 LBZ327654:LBZ327806 LLV327654:LLV327806 LVR327654:LVR327806 MFN327654:MFN327806 MPJ327654:MPJ327806 MZF327654:MZF327806 NJB327654:NJB327806 NSX327654:NSX327806 OCT327654:OCT327806 OMP327654:OMP327806 OWL327654:OWL327806 PGH327654:PGH327806 PQD327654:PQD327806 PZZ327654:PZZ327806 QJV327654:QJV327806 QTR327654:QTR327806 RDN327654:RDN327806 RNJ327654:RNJ327806 RXF327654:RXF327806 SHB327654:SHB327806 SQX327654:SQX327806 TAT327654:TAT327806 TKP327654:TKP327806 TUL327654:TUL327806 UEH327654:UEH327806 UOD327654:UOD327806 UXZ327654:UXZ327806 VHV327654:VHV327806 VRR327654:VRR327806 WBN327654:WBN327806 WLJ327654:WLJ327806 WVF327654:WVF327806 G393190:G393342 IT393190:IT393342 SP393190:SP393342 ACL393190:ACL393342 AMH393190:AMH393342 AWD393190:AWD393342 BFZ393190:BFZ393342 BPV393190:BPV393342 BZR393190:BZR393342 CJN393190:CJN393342 CTJ393190:CTJ393342 DDF393190:DDF393342 DNB393190:DNB393342 DWX393190:DWX393342 EGT393190:EGT393342 EQP393190:EQP393342 FAL393190:FAL393342 FKH393190:FKH393342 FUD393190:FUD393342 GDZ393190:GDZ393342 GNV393190:GNV393342 GXR393190:GXR393342 HHN393190:HHN393342 HRJ393190:HRJ393342 IBF393190:IBF393342 ILB393190:ILB393342 IUX393190:IUX393342 JET393190:JET393342 JOP393190:JOP393342 JYL393190:JYL393342 KIH393190:KIH393342 KSD393190:KSD393342 LBZ393190:LBZ393342 LLV393190:LLV393342 LVR393190:LVR393342 MFN393190:MFN393342 MPJ393190:MPJ393342 MZF393190:MZF393342 NJB393190:NJB393342 NSX393190:NSX393342 OCT393190:OCT393342 OMP393190:OMP393342 OWL393190:OWL393342 PGH393190:PGH393342 PQD393190:PQD393342 PZZ393190:PZZ393342 QJV393190:QJV393342 QTR393190:QTR393342 RDN393190:RDN393342 RNJ393190:RNJ393342 RXF393190:RXF393342 SHB393190:SHB393342 SQX393190:SQX393342 TAT393190:TAT393342 TKP393190:TKP393342 TUL393190:TUL393342 UEH393190:UEH393342 UOD393190:UOD393342 UXZ393190:UXZ393342 VHV393190:VHV393342 VRR393190:VRR393342 WBN393190:WBN393342 WLJ393190:WLJ393342 WVF393190:WVF393342 G458726:G458878 IT458726:IT458878 SP458726:SP458878 ACL458726:ACL458878 AMH458726:AMH458878 AWD458726:AWD458878 BFZ458726:BFZ458878 BPV458726:BPV458878 BZR458726:BZR458878 CJN458726:CJN458878 CTJ458726:CTJ458878 DDF458726:DDF458878 DNB458726:DNB458878 DWX458726:DWX458878 EGT458726:EGT458878 EQP458726:EQP458878 FAL458726:FAL458878 FKH458726:FKH458878 FUD458726:FUD458878 GDZ458726:GDZ458878 GNV458726:GNV458878 GXR458726:GXR458878 HHN458726:HHN458878 HRJ458726:HRJ458878 IBF458726:IBF458878 ILB458726:ILB458878 IUX458726:IUX458878 JET458726:JET458878 JOP458726:JOP458878 JYL458726:JYL458878 KIH458726:KIH458878 KSD458726:KSD458878 LBZ458726:LBZ458878 LLV458726:LLV458878 LVR458726:LVR458878 MFN458726:MFN458878 MPJ458726:MPJ458878 MZF458726:MZF458878 NJB458726:NJB458878 NSX458726:NSX458878 OCT458726:OCT458878 OMP458726:OMP458878 OWL458726:OWL458878 PGH458726:PGH458878 PQD458726:PQD458878 PZZ458726:PZZ458878 QJV458726:QJV458878 QTR458726:QTR458878 RDN458726:RDN458878 RNJ458726:RNJ458878 RXF458726:RXF458878 SHB458726:SHB458878 SQX458726:SQX458878 TAT458726:TAT458878 TKP458726:TKP458878 TUL458726:TUL458878 UEH458726:UEH458878 UOD458726:UOD458878 UXZ458726:UXZ458878 VHV458726:VHV458878 VRR458726:VRR458878 WBN458726:WBN458878 WLJ458726:WLJ458878 WVF458726:WVF458878 G524262:G524414 IT524262:IT524414 SP524262:SP524414 ACL524262:ACL524414 AMH524262:AMH524414 AWD524262:AWD524414 BFZ524262:BFZ524414 BPV524262:BPV524414 BZR524262:BZR524414 CJN524262:CJN524414 CTJ524262:CTJ524414 DDF524262:DDF524414 DNB524262:DNB524414 DWX524262:DWX524414 EGT524262:EGT524414 EQP524262:EQP524414 FAL524262:FAL524414 FKH524262:FKH524414 FUD524262:FUD524414 GDZ524262:GDZ524414 GNV524262:GNV524414 GXR524262:GXR524414 HHN524262:HHN524414 HRJ524262:HRJ524414 IBF524262:IBF524414 ILB524262:ILB524414 IUX524262:IUX524414 JET524262:JET524414 JOP524262:JOP524414 JYL524262:JYL524414 KIH524262:KIH524414 KSD524262:KSD524414 LBZ524262:LBZ524414 LLV524262:LLV524414 LVR524262:LVR524414 MFN524262:MFN524414 MPJ524262:MPJ524414 MZF524262:MZF524414 NJB524262:NJB524414 NSX524262:NSX524414 OCT524262:OCT524414 OMP524262:OMP524414 OWL524262:OWL524414 PGH524262:PGH524414 PQD524262:PQD524414 PZZ524262:PZZ524414 QJV524262:QJV524414 QTR524262:QTR524414 RDN524262:RDN524414 RNJ524262:RNJ524414 RXF524262:RXF524414 SHB524262:SHB524414 SQX524262:SQX524414 TAT524262:TAT524414 TKP524262:TKP524414 TUL524262:TUL524414 UEH524262:UEH524414 UOD524262:UOD524414 UXZ524262:UXZ524414 VHV524262:VHV524414 VRR524262:VRR524414 WBN524262:WBN524414 WLJ524262:WLJ524414 WVF524262:WVF524414 G589798:G589950 IT589798:IT589950 SP589798:SP589950 ACL589798:ACL589950 AMH589798:AMH589950 AWD589798:AWD589950 BFZ589798:BFZ589950 BPV589798:BPV589950 BZR589798:BZR589950 CJN589798:CJN589950 CTJ589798:CTJ589950 DDF589798:DDF589950 DNB589798:DNB589950 DWX589798:DWX589950 EGT589798:EGT589950 EQP589798:EQP589950 FAL589798:FAL589950 FKH589798:FKH589950 FUD589798:FUD589950 GDZ589798:GDZ589950 GNV589798:GNV589950 GXR589798:GXR589950 HHN589798:HHN589950 HRJ589798:HRJ589950 IBF589798:IBF589950 ILB589798:ILB589950 IUX589798:IUX589950 JET589798:JET589950 JOP589798:JOP589950 JYL589798:JYL589950 KIH589798:KIH589950 KSD589798:KSD589950 LBZ589798:LBZ589950 LLV589798:LLV589950 LVR589798:LVR589950 MFN589798:MFN589950 MPJ589798:MPJ589950 MZF589798:MZF589950 NJB589798:NJB589950 NSX589798:NSX589950 OCT589798:OCT589950 OMP589798:OMP589950 OWL589798:OWL589950 PGH589798:PGH589950 PQD589798:PQD589950 PZZ589798:PZZ589950 QJV589798:QJV589950 QTR589798:QTR589950 RDN589798:RDN589950 RNJ589798:RNJ589950 RXF589798:RXF589950 SHB589798:SHB589950 SQX589798:SQX589950 TAT589798:TAT589950 TKP589798:TKP589950 TUL589798:TUL589950 UEH589798:UEH589950 UOD589798:UOD589950 UXZ589798:UXZ589950 VHV589798:VHV589950 VRR589798:VRR589950 WBN589798:WBN589950 WLJ589798:WLJ589950 WVF589798:WVF589950 G655334:G655486 IT655334:IT655486 SP655334:SP655486 ACL655334:ACL655486 AMH655334:AMH655486 AWD655334:AWD655486 BFZ655334:BFZ655486 BPV655334:BPV655486 BZR655334:BZR655486 CJN655334:CJN655486 CTJ655334:CTJ655486 DDF655334:DDF655486 DNB655334:DNB655486 DWX655334:DWX655486 EGT655334:EGT655486 EQP655334:EQP655486 FAL655334:FAL655486 FKH655334:FKH655486 FUD655334:FUD655486 GDZ655334:GDZ655486 GNV655334:GNV655486 GXR655334:GXR655486 HHN655334:HHN655486 HRJ655334:HRJ655486 IBF655334:IBF655486 ILB655334:ILB655486 IUX655334:IUX655486 JET655334:JET655486 JOP655334:JOP655486 JYL655334:JYL655486 KIH655334:KIH655486 KSD655334:KSD655486 LBZ655334:LBZ655486 LLV655334:LLV655486 LVR655334:LVR655486 MFN655334:MFN655486 MPJ655334:MPJ655486 MZF655334:MZF655486 NJB655334:NJB655486 NSX655334:NSX655486 OCT655334:OCT655486 OMP655334:OMP655486 OWL655334:OWL655486 PGH655334:PGH655486 PQD655334:PQD655486 PZZ655334:PZZ655486 QJV655334:QJV655486 QTR655334:QTR655486 RDN655334:RDN655486 RNJ655334:RNJ655486 RXF655334:RXF655486 SHB655334:SHB655486 SQX655334:SQX655486 TAT655334:TAT655486 TKP655334:TKP655486 TUL655334:TUL655486 UEH655334:UEH655486 UOD655334:UOD655486 UXZ655334:UXZ655486 VHV655334:VHV655486 VRR655334:VRR655486 WBN655334:WBN655486 WLJ655334:WLJ655486 WVF655334:WVF655486 G720870:G721022 IT720870:IT721022 SP720870:SP721022 ACL720870:ACL721022 AMH720870:AMH721022 AWD720870:AWD721022 BFZ720870:BFZ721022 BPV720870:BPV721022 BZR720870:BZR721022 CJN720870:CJN721022 CTJ720870:CTJ721022 DDF720870:DDF721022 DNB720870:DNB721022 DWX720870:DWX721022 EGT720870:EGT721022 EQP720870:EQP721022 FAL720870:FAL721022 FKH720870:FKH721022 FUD720870:FUD721022 GDZ720870:GDZ721022 GNV720870:GNV721022 GXR720870:GXR721022 HHN720870:HHN721022 HRJ720870:HRJ721022 IBF720870:IBF721022 ILB720870:ILB721022 IUX720870:IUX721022 JET720870:JET721022 JOP720870:JOP721022 JYL720870:JYL721022 KIH720870:KIH721022 KSD720870:KSD721022 LBZ720870:LBZ721022 LLV720870:LLV721022 LVR720870:LVR721022 MFN720870:MFN721022 MPJ720870:MPJ721022 MZF720870:MZF721022 NJB720870:NJB721022 NSX720870:NSX721022 OCT720870:OCT721022 OMP720870:OMP721022 OWL720870:OWL721022 PGH720870:PGH721022 PQD720870:PQD721022 PZZ720870:PZZ721022 QJV720870:QJV721022 QTR720870:QTR721022 RDN720870:RDN721022 RNJ720870:RNJ721022 RXF720870:RXF721022 SHB720870:SHB721022 SQX720870:SQX721022 TAT720870:TAT721022 TKP720870:TKP721022 TUL720870:TUL721022 UEH720870:UEH721022 UOD720870:UOD721022 UXZ720870:UXZ721022 VHV720870:VHV721022 VRR720870:VRR721022 WBN720870:WBN721022 WLJ720870:WLJ721022 WVF720870:WVF721022 G786406:G786558 IT786406:IT786558 SP786406:SP786558 ACL786406:ACL786558 AMH786406:AMH786558 AWD786406:AWD786558 BFZ786406:BFZ786558 BPV786406:BPV786558 BZR786406:BZR786558 CJN786406:CJN786558 CTJ786406:CTJ786558 DDF786406:DDF786558 DNB786406:DNB786558 DWX786406:DWX786558 EGT786406:EGT786558 EQP786406:EQP786558 FAL786406:FAL786558 FKH786406:FKH786558 FUD786406:FUD786558 GDZ786406:GDZ786558 GNV786406:GNV786558 GXR786406:GXR786558 HHN786406:HHN786558 HRJ786406:HRJ786558 IBF786406:IBF786558 ILB786406:ILB786558 IUX786406:IUX786558 JET786406:JET786558 JOP786406:JOP786558 JYL786406:JYL786558 KIH786406:KIH786558 KSD786406:KSD786558 LBZ786406:LBZ786558 LLV786406:LLV786558 LVR786406:LVR786558 MFN786406:MFN786558 MPJ786406:MPJ786558 MZF786406:MZF786558 NJB786406:NJB786558 NSX786406:NSX786558 OCT786406:OCT786558 OMP786406:OMP786558 OWL786406:OWL786558 PGH786406:PGH786558 PQD786406:PQD786558 PZZ786406:PZZ786558 QJV786406:QJV786558 QTR786406:QTR786558 RDN786406:RDN786558 RNJ786406:RNJ786558 RXF786406:RXF786558 SHB786406:SHB786558 SQX786406:SQX786558 TAT786406:TAT786558 TKP786406:TKP786558 TUL786406:TUL786558 UEH786406:UEH786558 UOD786406:UOD786558 UXZ786406:UXZ786558 VHV786406:VHV786558 VRR786406:VRR786558 WBN786406:WBN786558 WLJ786406:WLJ786558 WVF786406:WVF786558 G851942:G852094 IT851942:IT852094 SP851942:SP852094 ACL851942:ACL852094 AMH851942:AMH852094 AWD851942:AWD852094 BFZ851942:BFZ852094 BPV851942:BPV852094 BZR851942:BZR852094 CJN851942:CJN852094 CTJ851942:CTJ852094 DDF851942:DDF852094 DNB851942:DNB852094 DWX851942:DWX852094 EGT851942:EGT852094 EQP851942:EQP852094 FAL851942:FAL852094 FKH851942:FKH852094 FUD851942:FUD852094 GDZ851942:GDZ852094 GNV851942:GNV852094 GXR851942:GXR852094 HHN851942:HHN852094 HRJ851942:HRJ852094 IBF851942:IBF852094 ILB851942:ILB852094 IUX851942:IUX852094 JET851942:JET852094 JOP851942:JOP852094 JYL851942:JYL852094 KIH851942:KIH852094 KSD851942:KSD852094 LBZ851942:LBZ852094 LLV851942:LLV852094 LVR851942:LVR852094 MFN851942:MFN852094 MPJ851942:MPJ852094 MZF851942:MZF852094 NJB851942:NJB852094 NSX851942:NSX852094 OCT851942:OCT852094 OMP851942:OMP852094 OWL851942:OWL852094 PGH851942:PGH852094 PQD851942:PQD852094 PZZ851942:PZZ852094 QJV851942:QJV852094 QTR851942:QTR852094 RDN851942:RDN852094 RNJ851942:RNJ852094 RXF851942:RXF852094 SHB851942:SHB852094 SQX851942:SQX852094 TAT851942:TAT852094 TKP851942:TKP852094 TUL851942:TUL852094 UEH851942:UEH852094 UOD851942:UOD852094 UXZ851942:UXZ852094 VHV851942:VHV852094 VRR851942:VRR852094 WBN851942:WBN852094 WLJ851942:WLJ852094 WVF851942:WVF852094 G917478:G917630 IT917478:IT917630 SP917478:SP917630 ACL917478:ACL917630 AMH917478:AMH917630 AWD917478:AWD917630 BFZ917478:BFZ917630 BPV917478:BPV917630 BZR917478:BZR917630 CJN917478:CJN917630 CTJ917478:CTJ917630 DDF917478:DDF917630 DNB917478:DNB917630 DWX917478:DWX917630 EGT917478:EGT917630 EQP917478:EQP917630 FAL917478:FAL917630 FKH917478:FKH917630 FUD917478:FUD917630 GDZ917478:GDZ917630 GNV917478:GNV917630 GXR917478:GXR917630 HHN917478:HHN917630 HRJ917478:HRJ917630 IBF917478:IBF917630 ILB917478:ILB917630 IUX917478:IUX917630 JET917478:JET917630 JOP917478:JOP917630 JYL917478:JYL917630 KIH917478:KIH917630 KSD917478:KSD917630 LBZ917478:LBZ917630 LLV917478:LLV917630 LVR917478:LVR917630 MFN917478:MFN917630 MPJ917478:MPJ917630 MZF917478:MZF917630 NJB917478:NJB917630 NSX917478:NSX917630 OCT917478:OCT917630 OMP917478:OMP917630 OWL917478:OWL917630 PGH917478:PGH917630 PQD917478:PQD917630 PZZ917478:PZZ917630 QJV917478:QJV917630 QTR917478:QTR917630 RDN917478:RDN917630 RNJ917478:RNJ917630 RXF917478:RXF917630 SHB917478:SHB917630 SQX917478:SQX917630 TAT917478:TAT917630 TKP917478:TKP917630 TUL917478:TUL917630 UEH917478:UEH917630 UOD917478:UOD917630 UXZ917478:UXZ917630 VHV917478:VHV917630 VRR917478:VRR917630 WBN917478:WBN917630 WLJ917478:WLJ917630 WVF917478:WVF917630 G983014:G983166 IT983014:IT983166 SP983014:SP983166 ACL983014:ACL983166 AMH983014:AMH983166 AWD983014:AWD983166 BFZ983014:BFZ983166 BPV983014:BPV983166 BZR983014:BZR983166 CJN983014:CJN983166 CTJ983014:CTJ983166 DDF983014:DDF983166 DNB983014:DNB983166 DWX983014:DWX983166 EGT983014:EGT983166 EQP983014:EQP983166 FAL983014:FAL983166 FKH983014:FKH983166 FUD983014:FUD983166 GDZ983014:GDZ983166 GNV983014:GNV983166 GXR983014:GXR983166 HHN983014:HHN983166 HRJ983014:HRJ983166 IBF983014:IBF983166 ILB983014:ILB983166 IUX983014:IUX983166 JET983014:JET983166 JOP983014:JOP983166 JYL983014:JYL983166 KIH983014:KIH983166 KSD983014:KSD983166 LBZ983014:LBZ983166 LLV983014:LLV983166 LVR983014:LVR983166 MFN983014:MFN983166 MPJ983014:MPJ983166 MZF983014:MZF983166 NJB983014:NJB983166 NSX983014:NSX983166 OCT983014:OCT983166 OMP983014:OMP983166 OWL983014:OWL983166 PGH983014:PGH983166 PQD983014:PQD983166 PZZ983014:PZZ983166 QJV983014:QJV983166 QTR983014:QTR983166 RDN983014:RDN983166 RNJ983014:RNJ983166 RXF983014:RXF983166 SHB983014:SHB983166 SQX983014:SQX983166 TAT983014:TAT983166 TKP983014:TKP983166 TUL983014:TUL983166 UEH983014:UEH983166 UOD983014:UOD983166 UXZ983014:UXZ983166 VHV983014:VHV983166 VRR983014:VRR983166 WBN983014:WBN983166 WLJ983014:WLJ983166 G86:G126 IT7:IT126 WVF7:WVF126 WLJ7:WLJ126 WBN7:WBN126 VRR7:VRR126 VHV7:VHV126 UXZ7:UXZ126 UOD7:UOD126 UEH7:UEH126 TUL7:TUL126 TKP7:TKP126 TAT7:TAT126 SQX7:SQX126 SHB7:SHB126 RXF7:RXF126 RNJ7:RNJ126 RDN7:RDN126 QTR7:QTR126 QJV7:QJV126 PZZ7:PZZ126 PQD7:PQD126 PGH7:PGH126 OWL7:OWL126 OMP7:OMP126 OCT7:OCT126 NSX7:NSX126 NJB7:NJB126 MZF7:MZF126 MPJ7:MPJ126 MFN7:MFN126 LVR7:LVR126 LLV7:LLV126 LBZ7:LBZ126 KSD7:KSD126 KIH7:KIH126 JYL7:JYL126 JOP7:JOP126 JET7:JET126 IUX7:IUX126 ILB7:ILB126 IBF7:IBF126 HRJ7:HRJ126 HHN7:HHN126 GXR7:GXR126 GNV7:GNV126 GDZ7:GDZ126 FUD7:FUD126 FKH7:FKH126 FAL7:FAL126 EQP7:EQP126 EGT7:EGT126 DWX7:DWX126 DNB7:DNB126 DDF7:DDF126 CTJ7:CTJ126 CJN7:CJN126 BZR7:BZR126 BPV7:BPV126 BFZ7:BFZ126 AWD7:AWD126 AMH7:AMH126 ACL7:ACL126 SP7:SP126 G7:G77" xr:uid="{EDC6663F-7307-453A-88F3-A3C62A439D69}">

--- a/Testing/Revised Plan.xlsx
+++ b/Testing/Revised Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Revised Plan and Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="4_{32FDE485-5194-4A48-B4DF-FAE26891D822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B202E5DE-58B2-4CC8-A0B6-1A1212B3D4A4}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="4_{32FDE485-5194-4A48-B4DF-FAE26891D822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2BE2C5F-300B-4680-B9A6-8F300356150C}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{FF53E854-575C-4B97-B6D0-9B270F57EAA4}"/>
   </bookViews>
@@ -4770,14 +4770,176 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4802,168 +4964,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5021,6 +5021,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5068,39 +5101,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5585,7 +5585,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3F4BC3-2C61-4283-9F4D-4AD81D4F1176}" name="Table1" displayName="Table1" ref="B6:L126" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="B6:L126" xr:uid="{5E3F4BC3-2C61-4283-9F4D-4AD81D4F1176}"/>
+  <autoFilter ref="B6:L126" xr:uid="{5E3F4BC3-2C61-4283-9F4D-4AD81D4F1176}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Open"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:L126">
     <sortCondition ref="B6:B126"/>
   </sortState>
@@ -5943,7 +5949,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="219" t="s">
+      <c r="D2" s="218" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5958,7 +5964,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="218"/>
+      <c r="D3" s="219"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5971,7 +5977,7 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="219" t="s">
+      <c r="D4" s="218" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -5986,7 +5992,7 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="219"/>
+      <c r="D5" s="218"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
@@ -6001,7 +6007,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="219" t="s">
+      <c r="D6" s="218" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -6016,7 +6022,7 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="219"/>
+      <c r="D7" s="218"/>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
@@ -6029,7 +6035,7 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="219" t="s">
+      <c r="D8" s="218" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -6044,7 +6050,7 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="219"/>
+      <c r="D9" s="218"/>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6089,7 +6095,7 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="218" t="s">
+      <c r="D12" s="219" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -6104,7 +6110,7 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="218"/>
+      <c r="D13" s="219"/>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
@@ -6117,7 +6123,7 @@
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="218"/>
+      <c r="D14" s="219"/>
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
@@ -6130,7 +6136,7 @@
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="218"/>
+      <c r="D15" s="219"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
@@ -6143,7 +6149,7 @@
       <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="218"/>
+      <c r="D16" s="219"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
@@ -6173,7 +6179,7 @@
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="218" t="s">
+      <c r="D18" s="219" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -6188,7 +6194,7 @@
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="218"/>
+      <c r="D19" s="219"/>
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
@@ -6201,7 +6207,7 @@
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="218"/>
+      <c r="D20" s="219"/>
       <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
@@ -6216,7 +6222,7 @@
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="218" t="s">
+      <c r="D21" s="219" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -6231,7 +6237,7 @@
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="218"/>
+      <c r="D22" s="219"/>
       <c r="E22" s="4" t="s">
         <v>3</v>
       </c>
@@ -6244,7 +6250,7 @@
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="218" t="s">
+      <c r="D23" s="219" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -6259,7 +6265,7 @@
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="218"/>
+      <c r="D24" s="219"/>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
@@ -6274,7 +6280,7 @@
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="219" t="s">
+      <c r="D25" s="218" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -6289,7 +6295,7 @@
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="219"/>
+      <c r="D26" s="218"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
@@ -6302,7 +6308,7 @@
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="219"/>
+      <c r="D27" s="218"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -6313,7 +6319,7 @@
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="218" t="s">
+      <c r="D28" s="219" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="4"/>
@@ -6326,7 +6332,7 @@
       <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="218"/>
+      <c r="D29" s="219"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -6337,7 +6343,7 @@
       <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="218"/>
+      <c r="D30" s="219"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -6350,7 +6356,7 @@
       <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="218" t="s">
+      <c r="D31" s="219" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="4"/>
@@ -6363,7 +6369,7 @@
       <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="218"/>
+      <c r="D32" s="219"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -6389,7 +6395,7 @@
       <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="218" t="s">
+      <c r="D34" s="219" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="4"/>
@@ -6402,7 +6408,7 @@
       <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="218"/>
+      <c r="D35" s="219"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -6413,7 +6419,7 @@
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="218"/>
+      <c r="D36" s="219"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -6424,7 +6430,7 @@
       <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="218"/>
+      <c r="D37" s="219"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -6435,7 +6441,7 @@
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="219" t="s">
+      <c r="D38" s="218" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="4"/>
@@ -6448,7 +6454,7 @@
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="219"/>
+      <c r="D39" s="218"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -6461,7 +6467,7 @@
       <c r="C40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="218" t="s">
+      <c r="D40" s="219" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="4"/>
@@ -6474,7 +6480,7 @@
       <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="218"/>
+      <c r="D41" s="219"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -6485,7 +6491,7 @@
       <c r="C42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="218"/>
+      <c r="D42" s="219"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -6496,7 +6502,7 @@
       <c r="C43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="218" t="s">
+      <c r="D43" s="219" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="4"/>
@@ -6509,7 +6515,7 @@
       <c r="C44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="218"/>
+      <c r="D44" s="219"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -6520,24 +6526,11 @@
       <c r="C45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="218"/>
+      <c r="D45" s="219"/>
       <c r="E45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="D43:D45"/>
@@ -6549,6 +6542,19 @@
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7554,16 +7560,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D57:E57"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D57:E57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7865,20 +7871,20 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="264" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="231"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="231"/>
-      <c r="F4" s="231"/>
-      <c r="G4" s="231"/>
-      <c r="H4" s="231"/>
-      <c r="I4" s="231"/>
-      <c r="J4" s="231"/>
-      <c r="K4" s="231"/>
-      <c r="L4" s="231"/>
-      <c r="M4" s="232"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
+      <c r="F4" s="265"/>
+      <c r="G4" s="265"/>
+      <c r="H4" s="265"/>
+      <c r="I4" s="265"/>
+      <c r="J4" s="265"/>
+      <c r="K4" s="265"/>
+      <c r="L4" s="265"/>
+      <c r="M4" s="266"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
@@ -7898,239 +7904,239 @@
       <c r="B6" s="243" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="244"/>
-      <c r="D6" s="249" t="s">
+      <c r="C6" s="245"/>
+      <c r="D6" s="271" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="260" t="s">
+      <c r="E6" s="261" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="261"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="261"/>
-      <c r="I6" s="261"/>
-      <c r="J6" s="261"/>
-      <c r="K6" s="261"/>
-      <c r="L6" s="261"/>
-      <c r="M6" s="262"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="262"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="262"/>
+      <c r="J6" s="262"/>
+      <c r="K6" s="262"/>
+      <c r="L6" s="262"/>
+      <c r="M6" s="263"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="245"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="238"/>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="238"/>
-      <c r="M7" s="239"/>
+      <c r="B7" s="246"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="272"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="235"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="235"/>
+      <c r="K7" s="235"/>
+      <c r="L7" s="235"/>
+      <c r="M7" s="236"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="245"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="251" t="s">
+      <c r="B8" s="246"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="231" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="256" t="s">
+      <c r="E8" s="237" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="238"/>
-      <c r="G8" s="238"/>
-      <c r="H8" s="238"/>
-      <c r="I8" s="238"/>
-      <c r="J8" s="238"/>
-      <c r="K8" s="238"/>
-      <c r="L8" s="238"/>
-      <c r="M8" s="239"/>
+      <c r="F8" s="235"/>
+      <c r="G8" s="235"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="235"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="235"/>
+      <c r="M8" s="236"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="247"/>
-      <c r="C9" s="248"/>
-      <c r="D9" s="251"/>
-      <c r="E9" s="237"/>
-      <c r="F9" s="238"/>
-      <c r="G9" s="238"/>
-      <c r="H9" s="238"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="238"/>
-      <c r="K9" s="238"/>
-      <c r="L9" s="238"/>
-      <c r="M9" s="239"/>
+      <c r="B9" s="249"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="235"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="235"/>
+      <c r="M9" s="236"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="243" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="257"/>
-      <c r="D10" s="244"/>
-      <c r="E10" s="240" t="s">
+      <c r="C10" s="244"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="268" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="241"/>
-      <c r="G10" s="241"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="241"/>
-      <c r="J10" s="241"/>
-      <c r="K10" s="241"/>
-      <c r="L10" s="241"/>
-      <c r="M10" s="242"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="269"/>
+      <c r="H10" s="269"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="269"/>
+      <c r="M10" s="270"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="245"/>
-      <c r="C11" s="258"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="238"/>
-      <c r="G11" s="238"/>
-      <c r="H11" s="238"/>
-      <c r="I11" s="238"/>
-      <c r="J11" s="238"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="239"/>
+      <c r="B11" s="246"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="235"/>
+      <c r="H11" s="235"/>
+      <c r="I11" s="235"/>
+      <c r="J11" s="235"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="235"/>
+      <c r="M11" s="236"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="245"/>
-      <c r="C12" s="258"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="237"/>
-      <c r="F12" s="238"/>
-      <c r="G12" s="238"/>
-      <c r="H12" s="238"/>
-      <c r="I12" s="238"/>
-      <c r="J12" s="238"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="239"/>
+      <c r="B12" s="246"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="235"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="235"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="235"/>
+      <c r="M12" s="236"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="247"/>
-      <c r="C13" s="259"/>
-      <c r="D13" s="248"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="238"/>
-      <c r="G13" s="238"/>
-      <c r="H13" s="238"/>
-      <c r="I13" s="238"/>
-      <c r="J13" s="238"/>
-      <c r="K13" s="238"/>
-      <c r="L13" s="238"/>
-      <c r="M13" s="239"/>
+      <c r="B13" s="249"/>
+      <c r="C13" s="250"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="235"/>
+      <c r="H13" s="235"/>
+      <c r="I13" s="235"/>
+      <c r="J13" s="235"/>
+      <c r="K13" s="235"/>
+      <c r="L13" s="235"/>
+      <c r="M13" s="236"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="243" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="257"/>
-      <c r="D14" s="244"/>
-      <c r="E14" s="256" t="s">
+      <c r="C14" s="244"/>
+      <c r="D14" s="245"/>
+      <c r="E14" s="237" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="238"/>
-      <c r="G14" s="238"/>
-      <c r="H14" s="238"/>
-      <c r="I14" s="238"/>
-      <c r="J14" s="238"/>
-      <c r="K14" s="238"/>
-      <c r="L14" s="238"/>
-      <c r="M14" s="239"/>
+      <c r="F14" s="235"/>
+      <c r="G14" s="235"/>
+      <c r="H14" s="235"/>
+      <c r="I14" s="235"/>
+      <c r="J14" s="235"/>
+      <c r="K14" s="235"/>
+      <c r="L14" s="235"/>
+      <c r="M14" s="236"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="245"/>
-      <c r="C15" s="258"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="238"/>
-      <c r="G15" s="238"/>
-      <c r="H15" s="238"/>
-      <c r="I15" s="238"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="238"/>
-      <c r="L15" s="238"/>
-      <c r="M15" s="239"/>
+      <c r="B15" s="246"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="235"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="235"/>
+      <c r="J15" s="235"/>
+      <c r="K15" s="235"/>
+      <c r="L15" s="235"/>
+      <c r="M15" s="236"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="245"/>
-      <c r="C16" s="258"/>
-      <c r="D16" s="246"/>
-      <c r="E16" s="237"/>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="238"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="238"/>
-      <c r="K16" s="238"/>
-      <c r="L16" s="238"/>
-      <c r="M16" s="239"/>
+      <c r="B16" s="246"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="235"/>
+      <c r="J16" s="235"/>
+      <c r="K16" s="235"/>
+      <c r="L16" s="235"/>
+      <c r="M16" s="236"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="247"/>
-      <c r="C17" s="259"/>
-      <c r="D17" s="248"/>
-      <c r="E17" s="237"/>
-      <c r="F17" s="238"/>
-      <c r="G17" s="238"/>
-      <c r="H17" s="238"/>
-      <c r="I17" s="238"/>
-      <c r="J17" s="238"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
-      <c r="M17" s="239"/>
+      <c r="B17" s="249"/>
+      <c r="C17" s="250"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="235"/>
+      <c r="J17" s="235"/>
+      <c r="K17" s="235"/>
+      <c r="L17" s="235"/>
+      <c r="M17" s="236"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="275" t="s">
+      <c r="B18" s="228" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="276"/>
+      <c r="C18" s="229"/>
       <c r="D18" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="256" t="s">
+      <c r="E18" s="237" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="238"/>
-      <c r="G18" s="238"/>
-      <c r="H18" s="238"/>
-      <c r="I18" s="238"/>
-      <c r="J18" s="238"/>
-      <c r="K18" s="238"/>
-      <c r="L18" s="238"/>
-      <c r="M18" s="239"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
+      <c r="K18" s="235"/>
+      <c r="L18" s="235"/>
+      <c r="M18" s="236"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="277"/>
-      <c r="C19" s="251"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="231"/>
       <c r="D19" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="256"/>
-      <c r="F19" s="238"/>
-      <c r="G19" s="238"/>
-      <c r="H19" s="238"/>
-      <c r="I19" s="238"/>
-      <c r="J19" s="238"/>
-      <c r="K19" s="238"/>
-      <c r="L19" s="238"/>
-      <c r="M19" s="239"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="235"/>
+      <c r="K19" s="235"/>
+      <c r="L19" s="235"/>
+      <c r="M19" s="236"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="278"/>
-      <c r="C20" s="279"/>
+      <c r="B20" s="232"/>
+      <c r="C20" s="233"/>
       <c r="D20" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="237"/>
-      <c r="F20" s="238"/>
-      <c r="G20" s="238"/>
-      <c r="H20" s="238"/>
-      <c r="I20" s="238"/>
-      <c r="J20" s="238"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="238"/>
-      <c r="M20" s="239"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
+      <c r="K20" s="235"/>
+      <c r="L20" s="235"/>
+      <c r="M20" s="236"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
@@ -8161,126 +8167,126 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="269" t="s">
+      <c r="B23" s="222" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="270"/>
-      <c r="D23" s="270"/>
-      <c r="E23" s="270"/>
-      <c r="F23" s="270"/>
-      <c r="G23" s="270"/>
-      <c r="H23" s="270"/>
-      <c r="I23" s="270"/>
-      <c r="J23" s="270"/>
-      <c r="K23" s="270"/>
-      <c r="L23" s="270"/>
-      <c r="M23" s="271"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="223"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="223"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="223"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="223"/>
+      <c r="L23" s="223"/>
+      <c r="M23" s="224"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="272" t="s">
+      <c r="C24" s="225" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="274"/>
-      <c r="E24" s="272" t="s">
+      <c r="D24" s="227"/>
+      <c r="E24" s="225" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="273"/>
-      <c r="G24" s="273"/>
-      <c r="H24" s="273"/>
-      <c r="I24" s="273"/>
-      <c r="J24" s="273"/>
-      <c r="K24" s="274"/>
-      <c r="L24" s="252" t="s">
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="226"/>
+      <c r="I24" s="226"/>
+      <c r="J24" s="226"/>
+      <c r="K24" s="227"/>
+      <c r="L24" s="273" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="253"/>
+      <c r="M24" s="274"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="281"/>
-      <c r="E25" s="233"/>
-      <c r="F25" s="280"/>
-      <c r="G25" s="280"/>
-      <c r="H25" s="280"/>
-      <c r="I25" s="280"/>
-      <c r="J25" s="280"/>
-      <c r="K25" s="281"/>
-      <c r="L25" s="233"/>
-      <c r="M25" s="234"/>
+      <c r="C25" s="238"/>
+      <c r="D25" s="240"/>
+      <c r="E25" s="238"/>
+      <c r="F25" s="239"/>
+      <c r="G25" s="239"/>
+      <c r="H25" s="239"/>
+      <c r="I25" s="239"/>
+      <c r="J25" s="239"/>
+      <c r="K25" s="240"/>
+      <c r="L25" s="238"/>
+      <c r="M25" s="267"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="235"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="235"/>
-      <c r="F26" s="254"/>
-      <c r="G26" s="254"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="254"/>
-      <c r="J26" s="254"/>
-      <c r="K26" s="255"/>
-      <c r="L26" s="235"/>
-      <c r="M26" s="236"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="242"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="258"/>
+      <c r="G26" s="258"/>
+      <c r="H26" s="258"/>
+      <c r="I26" s="258"/>
+      <c r="J26" s="258"/>
+      <c r="K26" s="242"/>
+      <c r="L26" s="241"/>
+      <c r="M26" s="260"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="255"/>
-      <c r="E27" s="235"/>
-      <c r="F27" s="254"/>
-      <c r="G27" s="254"/>
-      <c r="H27" s="254"/>
-      <c r="I27" s="254"/>
-      <c r="J27" s="254"/>
-      <c r="K27" s="255"/>
-      <c r="L27" s="235"/>
-      <c r="M27" s="236"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="258"/>
+      <c r="G27" s="258"/>
+      <c r="H27" s="258"/>
+      <c r="I27" s="258"/>
+      <c r="J27" s="258"/>
+      <c r="K27" s="242"/>
+      <c r="L27" s="241"/>
+      <c r="M27" s="260"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
-      <c r="C28" s="235"/>
-      <c r="D28" s="255"/>
-      <c r="E28" s="235"/>
-      <c r="F28" s="254"/>
-      <c r="G28" s="254"/>
-      <c r="H28" s="254"/>
-      <c r="I28" s="254"/>
-      <c r="J28" s="254"/>
-      <c r="K28" s="255"/>
-      <c r="L28" s="235"/>
-      <c r="M28" s="236"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="242"/>
+      <c r="E28" s="241"/>
+      <c r="F28" s="258"/>
+      <c r="G28" s="258"/>
+      <c r="H28" s="258"/>
+      <c r="I28" s="258"/>
+      <c r="J28" s="258"/>
+      <c r="K28" s="242"/>
+      <c r="L28" s="241"/>
+      <c r="M28" s="260"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="235"/>
-      <c r="D29" s="255"/>
-      <c r="E29" s="235"/>
-      <c r="F29" s="254"/>
-      <c r="G29" s="254"/>
-      <c r="H29" s="254"/>
-      <c r="I29" s="254"/>
-      <c r="J29" s="254"/>
-      <c r="K29" s="255"/>
-      <c r="L29" s="235"/>
-      <c r="M29" s="236"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="242"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="258"/>
+      <c r="G29" s="258"/>
+      <c r="H29" s="258"/>
+      <c r="I29" s="258"/>
+      <c r="J29" s="258"/>
+      <c r="K29" s="242"/>
+      <c r="L29" s="241"/>
+      <c r="M29" s="260"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
-      <c r="C30" s="264"/>
-      <c r="D30" s="266"/>
-      <c r="E30" s="264"/>
-      <c r="F30" s="267"/>
-      <c r="G30" s="267"/>
-      <c r="H30" s="267"/>
-      <c r="I30" s="267"/>
-      <c r="J30" s="267"/>
-      <c r="K30" s="266"/>
-      <c r="L30" s="264"/>
-      <c r="M30" s="265"/>
+      <c r="C30" s="255"/>
+      <c r="D30" s="257"/>
+      <c r="E30" s="255"/>
+      <c r="F30" s="259"/>
+      <c r="G30" s="259"/>
+      <c r="H30" s="259"/>
+      <c r="I30" s="259"/>
+      <c r="J30" s="259"/>
+      <c r="K30" s="257"/>
+      <c r="L30" s="255"/>
+      <c r="M30" s="256"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
@@ -8297,20 +8303,20 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="269" t="s">
+      <c r="B32" s="222" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="270"/>
-      <c r="D32" s="270"/>
-      <c r="E32" s="270"/>
-      <c r="F32" s="270"/>
-      <c r="G32" s="270"/>
-      <c r="H32" s="270"/>
-      <c r="I32" s="270"/>
-      <c r="J32" s="270"/>
-      <c r="K32" s="270"/>
-      <c r="L32" s="270"/>
-      <c r="M32" s="271"/>
+      <c r="C32" s="223"/>
+      <c r="D32" s="223"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="223"/>
+      <c r="G32" s="223"/>
+      <c r="H32" s="223"/>
+      <c r="I32" s="223"/>
+      <c r="J32" s="223"/>
+      <c r="K32" s="223"/>
+      <c r="L32" s="223"/>
+      <c r="M32" s="224"/>
     </row>
     <row r="33" spans="2:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
@@ -8319,10 +8325,10 @@
       <c r="C33" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="272" t="s">
+      <c r="D33" s="225" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="274"/>
+      <c r="E33" s="227"/>
       <c r="F33" s="27" t="s">
         <v>162</v>
       </c>
@@ -8353,8 +8359,8 @@
         <v>1</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="282"/>
-      <c r="E34" s="282"/>
+      <c r="D34" s="252"/>
+      <c r="E34" s="252"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -8369,8 +8375,8 @@
         <v>2</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="229"/>
+      <c r="D35" s="253"/>
+      <c r="E35" s="253"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -8385,8 +8391,8 @@
         <v>3</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="229"/>
-      <c r="E36" s="229"/>
+      <c r="D36" s="253"/>
+      <c r="E36" s="253"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -8401,8 +8407,8 @@
         <v>4</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="263"/>
-      <c r="E37" s="263"/>
+      <c r="D37" s="254"/>
+      <c r="E37" s="254"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -8415,8 +8421,8 @@
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="268"/>
-      <c r="E38" s="268"/>
+      <c r="D38" s="221"/>
+      <c r="E38" s="221"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34" t="s">
         <v>169</v>
@@ -8437,16 +8443,16 @@
       <c r="M38" s="36"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="225" t="s">
+      <c r="B41" s="279" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="225"/>
-      <c r="D41" s="225"/>
-      <c r="E41" s="225"/>
-      <c r="F41" s="225"/>
-      <c r="G41" s="225"/>
-      <c r="H41" s="225"/>
-      <c r="I41" s="225"/>
+      <c r="C41" s="279"/>
+      <c r="D41" s="279"/>
+      <c r="E41" s="279"/>
+      <c r="F41" s="279"/>
+      <c r="G41" s="279"/>
+      <c r="H41" s="279"/>
+      <c r="I41" s="279"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
@@ -8459,16 +8465,16 @@
       <c r="C42" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="224" t="s">
+      <c r="D42" s="278" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="224"/>
-      <c r="F42" s="224" t="s">
+      <c r="E42" s="278"/>
+      <c r="F42" s="278" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="224"/>
-      <c r="H42" s="224"/>
-      <c r="I42" s="224"/>
+      <c r="G42" s="278"/>
+      <c r="H42" s="278"/>
+      <c r="I42" s="278"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -8479,8 +8485,8 @@
         <v>1</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="229"/>
-      <c r="E43" s="229"/>
+      <c r="D43" s="253"/>
+      <c r="E43" s="253"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -8495,8 +8501,8 @@
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="229"/>
-      <c r="E44" s="229"/>
+      <c r="D44" s="253"/>
+      <c r="E44" s="253"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -8511,8 +8517,8 @@
         <v>3</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="229"/>
-      <c r="E45" s="229"/>
+      <c r="D45" s="253"/>
+      <c r="E45" s="253"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -8523,16 +8529,16 @@
       <c r="M45" s="12"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="225" t="s">
+      <c r="B47" s="279" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="225"/>
-      <c r="D47" s="225"/>
-      <c r="E47" s="225"/>
-      <c r="F47" s="225"/>
-      <c r="G47" s="225"/>
-      <c r="H47" s="225"/>
-      <c r="I47" s="225"/>
+      <c r="C47" s="279"/>
+      <c r="D47" s="279"/>
+      <c r="E47" s="279"/>
+      <c r="F47" s="279"/>
+      <c r="G47" s="279"/>
+      <c r="H47" s="279"/>
+      <c r="I47" s="279"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
@@ -8545,14 +8551,14 @@
       <c r="C48" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D48" s="226" t="s">
+      <c r="D48" s="280" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="227"/>
-      <c r="F48" s="227"/>
-      <c r="G48" s="227"/>
-      <c r="H48" s="227"/>
-      <c r="I48" s="228"/>
+      <c r="E48" s="281"/>
+      <c r="F48" s="281"/>
+      <c r="G48" s="281"/>
+      <c r="H48" s="281"/>
+      <c r="I48" s="282"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
@@ -8565,12 +8571,12 @@
       <c r="C49" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="221"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="222"/>
-      <c r="G49" s="222"/>
-      <c r="H49" s="222"/>
-      <c r="I49" s="223"/>
+      <c r="D49" s="275"/>
+      <c r="E49" s="276"/>
+      <c r="F49" s="276"/>
+      <c r="G49" s="276"/>
+      <c r="H49" s="276"/>
+      <c r="I49" s="277"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="17">
@@ -8579,12 +8585,12 @@
       <c r="C50" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="221"/>
-      <c r="E50" s="222"/>
-      <c r="F50" s="222"/>
-      <c r="G50" s="222"/>
-      <c r="H50" s="222"/>
-      <c r="I50" s="223"/>
+      <c r="D50" s="275"/>
+      <c r="E50" s="276"/>
+      <c r="F50" s="276"/>
+      <c r="G50" s="276"/>
+      <c r="H50" s="276"/>
+      <c r="I50" s="277"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="17">
@@ -8593,77 +8599,128 @@
       <c r="C51" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="221"/>
-      <c r="E51" s="222"/>
-      <c r="F51" s="222"/>
-      <c r="G51" s="222"/>
-      <c r="H51" s="222"/>
-      <c r="I51" s="223"/>
+      <c r="D51" s="275"/>
+      <c r="E51" s="276"/>
+      <c r="F51" s="276"/>
+      <c r="G51" s="276"/>
+      <c r="H51" s="276"/>
+      <c r="I51" s="277"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="225" t="s">
+      <c r="B54" s="279" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="225"/>
-      <c r="D54" s="225"/>
-      <c r="E54" s="225"/>
-      <c r="F54" s="225"/>
-      <c r="G54" s="225"/>
-      <c r="H54" s="225"/>
-      <c r="I54" s="225"/>
+      <c r="C54" s="279"/>
+      <c r="D54" s="279"/>
+      <c r="E54" s="279"/>
+      <c r="F54" s="279"/>
+      <c r="G54" s="279"/>
+      <c r="H54" s="279"/>
+      <c r="I54" s="279"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="226" t="s">
+      <c r="C55" s="280" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="227"/>
-      <c r="E55" s="227"/>
-      <c r="F55" s="227"/>
-      <c r="G55" s="227"/>
-      <c r="H55" s="227"/>
-      <c r="I55" s="228"/>
+      <c r="D55" s="281"/>
+      <c r="E55" s="281"/>
+      <c r="F55" s="281"/>
+      <c r="G55" s="281"/>
+      <c r="H55" s="281"/>
+      <c r="I55" s="282"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="17">
         <v>1</v>
       </c>
-      <c r="C56" s="221"/>
-      <c r="D56" s="222"/>
-      <c r="E56" s="222"/>
-      <c r="F56" s="222"/>
-      <c r="G56" s="222"/>
-      <c r="H56" s="222"/>
-      <c r="I56" s="223"/>
+      <c r="C56" s="275"/>
+      <c r="D56" s="276"/>
+      <c r="E56" s="276"/>
+      <c r="F56" s="276"/>
+      <c r="G56" s="276"/>
+      <c r="H56" s="276"/>
+      <c r="I56" s="277"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="17">
         <v>2</v>
       </c>
-      <c r="C57" s="221"/>
-      <c r="D57" s="222"/>
-      <c r="E57" s="222"/>
-      <c r="F57" s="222"/>
-      <c r="G57" s="222"/>
-      <c r="H57" s="222"/>
-      <c r="I57" s="223"/>
+      <c r="C57" s="275"/>
+      <c r="D57" s="276"/>
+      <c r="E57" s="276"/>
+      <c r="F57" s="276"/>
+      <c r="G57" s="276"/>
+      <c r="H57" s="276"/>
+      <c r="I57" s="277"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="17">
         <v>3</v>
       </c>
-      <c r="C58" s="221"/>
-      <c r="D58" s="222"/>
-      <c r="E58" s="222"/>
-      <c r="F58" s="222"/>
-      <c r="G58" s="222"/>
-      <c r="H58" s="222"/>
-      <c r="I58" s="223"/>
+      <c r="C58" s="275"/>
+      <c r="D58" s="276"/>
+      <c r="E58" s="276"/>
+      <c r="F58" s="276"/>
+      <c r="G58" s="276"/>
+      <c r="H58" s="276"/>
+      <c r="I58" s="277"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="B10:D13"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="L29:M29"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B23:M23"/>
     <mergeCell ref="E24:K24"/>
@@ -8680,57 +8737,6 @@
     <mergeCell ref="B14:D17"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="B10:D13"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="C57:I57"/>
-    <mergeCell ref="C58:I58"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="C55:I55"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="C56:I56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10522,34 +10528,34 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="305" t="s">
+      <c r="B2" s="316" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="306"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="306"/>
-      <c r="F2" s="306"/>
-      <c r="G2" s="306"/>
-      <c r="H2" s="306"/>
-      <c r="I2" s="306"/>
-      <c r="J2" s="306"/>
-      <c r="K2" s="307"/>
-      <c r="L2" s="308"/>
+      <c r="C2" s="317"/>
+      <c r="D2" s="317"/>
+      <c r="E2" s="317"/>
+      <c r="F2" s="317"/>
+      <c r="G2" s="317"/>
+      <c r="H2" s="317"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="319"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="309" t="s">
+      <c r="B3" s="320" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310"/>
-      <c r="F3" s="310"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="310"/>
-      <c r="I3" s="310"/>
-      <c r="J3" s="310"/>
-      <c r="K3" s="311"/>
-      <c r="L3" s="312"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="323"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="296" t="s">
@@ -10563,7 +10569,7 @@
       <c r="H4" s="297"/>
       <c r="I4" s="297"/>
       <c r="J4" s="297"/>
-      <c r="K4" s="313"/>
+      <c r="K4" s="324"/>
       <c r="L4" s="298"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -10578,53 +10584,53 @@
       <c r="H5" s="286"/>
       <c r="I5" s="286"/>
       <c r="J5" s="286"/>
-      <c r="K5" s="314"/>
+      <c r="K5" s="325"/>
       <c r="L5" s="287"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="315" t="s">
+      <c r="B6" s="326" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="316"/>
-      <c r="D6" s="316"/>
-      <c r="E6" s="316"/>
-      <c r="F6" s="316"/>
-      <c r="G6" s="316"/>
-      <c r="H6" s="316"/>
-      <c r="I6" s="316"/>
-      <c r="J6" s="316"/>
-      <c r="K6" s="316"/>
-      <c r="L6" s="317"/>
+      <c r="C6" s="327"/>
+      <c r="D6" s="327"/>
+      <c r="E6" s="327"/>
+      <c r="F6" s="327"/>
+      <c r="G6" s="327"/>
+      <c r="H6" s="327"/>
+      <c r="I6" s="327"/>
+      <c r="J6" s="327"/>
+      <c r="K6" s="327"/>
+      <c r="L6" s="328"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="302" t="s">
+      <c r="B7" s="313" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
-      <c r="L7" s="304"/>
+      <c r="C7" s="314"/>
+      <c r="D7" s="314"/>
+      <c r="E7" s="314"/>
+      <c r="F7" s="314"/>
+      <c r="G7" s="314"/>
+      <c r="H7" s="314"/>
+      <c r="I7" s="314"/>
+      <c r="J7" s="314"/>
+      <c r="K7" s="314"/>
+      <c r="L7" s="315"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="322" t="s">
+      <c r="B8" s="306" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="323"/>
-      <c r="D8" s="323"/>
-      <c r="E8" s="323"/>
-      <c r="F8" s="323"/>
-      <c r="G8" s="323"/>
-      <c r="H8" s="323"/>
-      <c r="I8" s="323"/>
-      <c r="J8" s="323"/>
-      <c r="K8" s="323"/>
-      <c r="L8" s="324"/>
+      <c r="C8" s="307"/>
+      <c r="D8" s="307"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="307"/>
+      <c r="G8" s="307"/>
+      <c r="H8" s="307"/>
+      <c r="I8" s="307"/>
+      <c r="J8" s="307"/>
+      <c r="K8" s="307"/>
+      <c r="L8" s="308"/>
     </row>
     <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
@@ -11960,19 +11966,19 @@
       <c r="L65" s="51"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="325" t="s">
+      <c r="B66" s="309" t="s">
         <v>382</v>
       </c>
-      <c r="C66" s="326"/>
-      <c r="D66" s="326"/>
-      <c r="E66" s="326"/>
-      <c r="F66" s="326"/>
-      <c r="G66" s="326"/>
-      <c r="H66" s="326"/>
-      <c r="I66" s="326"/>
-      <c r="J66" s="326"/>
-      <c r="K66" s="327"/>
-      <c r="L66" s="328"/>
+      <c r="C66" s="310"/>
+      <c r="D66" s="310"/>
+      <c r="E66" s="310"/>
+      <c r="F66" s="310"/>
+      <c r="G66" s="310"/>
+      <c r="H66" s="310"/>
+      <c r="I66" s="310"/>
+      <c r="J66" s="310"/>
+      <c r="K66" s="311"/>
+      <c r="L66" s="312"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="291" t="s">
@@ -11981,15 +11987,15 @@
       <c r="C67" s="292"/>
       <c r="D67" s="292"/>
       <c r="E67" s="52"/>
-      <c r="F67" s="318" t="s">
+      <c r="F67" s="302" t="s">
         <v>191</v>
       </c>
-      <c r="G67" s="318"/>
-      <c r="H67" s="318"/>
-      <c r="I67" s="318"/>
-      <c r="J67" s="318"/>
-      <c r="K67" s="318"/>
-      <c r="L67" s="319"/>
+      <c r="G67" s="302"/>
+      <c r="H67" s="302"/>
+      <c r="I67" s="302"/>
+      <c r="J67" s="302"/>
+      <c r="K67" s="302"/>
+      <c r="L67" s="303"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="291" t="s">
@@ -11998,13 +12004,13 @@
       <c r="C68" s="292"/>
       <c r="D68" s="292"/>
       <c r="E68" s="52"/>
-      <c r="F68" s="318"/>
-      <c r="G68" s="318"/>
-      <c r="H68" s="318"/>
-      <c r="I68" s="318"/>
-      <c r="J68" s="318"/>
-      <c r="K68" s="318"/>
-      <c r="L68" s="319"/>
+      <c r="F68" s="302"/>
+      <c r="G68" s="302"/>
+      <c r="H68" s="302"/>
+      <c r="I68" s="302"/>
+      <c r="J68" s="302"/>
+      <c r="K68" s="302"/>
+      <c r="L68" s="303"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="291" t="s">
@@ -12013,15 +12019,15 @@
       <c r="C69" s="292"/>
       <c r="D69" s="292"/>
       <c r="E69" s="52"/>
-      <c r="F69" s="318" t="s">
+      <c r="F69" s="302" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="318"/>
-      <c r="H69" s="318"/>
-      <c r="I69" s="318"/>
-      <c r="J69" s="318"/>
-      <c r="K69" s="318"/>
-      <c r="L69" s="319"/>
+      <c r="G69" s="302"/>
+      <c r="H69" s="302"/>
+      <c r="I69" s="302"/>
+      <c r="J69" s="302"/>
+      <c r="K69" s="302"/>
+      <c r="L69" s="303"/>
     </row>
     <row r="70" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="283" t="s">
@@ -12030,16 +12036,22 @@
       <c r="C70" s="284"/>
       <c r="D70" s="284"/>
       <c r="E70" s="53"/>
-      <c r="F70" s="320"/>
-      <c r="G70" s="320"/>
-      <c r="H70" s="320"/>
-      <c r="I70" s="320"/>
-      <c r="J70" s="320"/>
-      <c r="K70" s="320"/>
-      <c r="L70" s="321"/>
+      <c r="F70" s="304"/>
+      <c r="G70" s="304"/>
+      <c r="H70" s="304"/>
+      <c r="I70" s="304"/>
+      <c r="J70" s="304"/>
+      <c r="K70" s="304"/>
+      <c r="L70" s="305"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="F69:L69"/>
     <mergeCell ref="B70:D70"/>
@@ -12050,12 +12062,6 @@
     <mergeCell ref="F67:L67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="F68:L68"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12065,8 +12071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F031F4EE-3EC7-47DE-91AF-34380ED2D64A}">
   <dimension ref="B1:AO126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14297,7 +14303,7 @@
       <c r="U7" s="165"/>
       <c r="V7" s="56"/>
     </row>
-    <row r="8" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="190">
         <v>2</v>
       </c>
@@ -14348,7 +14354,7 @@
       <c r="U8" s="162"/>
       <c r="V8" s="162"/>
     </row>
-    <row r="9" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" s="190">
         <v>3</v>
       </c>
@@ -14448,7 +14454,7 @@
       <c r="U10" s="162"/>
       <c r="V10" s="162"/>
     </row>
-    <row r="11" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="190">
         <v>5</v>
       </c>
@@ -14520,7 +14526,7 @@
       </c>
       <c r="AO11" s="63"/>
     </row>
-    <row r="12" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:41" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="190">
         <v>6</v>
       </c>
@@ -14588,7 +14594,7 @@
       </c>
       <c r="AO12" s="63"/>
     </row>
-    <row r="13" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:41" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="190">
         <v>7</v>
       </c>
@@ -14656,7 +14662,7 @@
       </c>
       <c r="AO13" s="63"/>
     </row>
-    <row r="14" spans="2:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:41" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190">
         <v>8</v>
       </c>
@@ -14720,7 +14726,7 @@
       </c>
       <c r="AO14" s="63"/>
     </row>
-    <row r="15" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="190">
         <v>9</v>
       </c>
@@ -14784,7 +14790,7 @@
       </c>
       <c r="AO15" s="63"/>
     </row>
-    <row r="16" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="190">
         <v>10</v>
       </c>
@@ -14848,7 +14854,7 @@
       </c>
       <c r="AO16" s="63"/>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="190">
         <v>11</v>
       </c>
@@ -14912,7 +14918,7 @@
       </c>
       <c r="AO17" s="63"/>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="190">
         <v>12</v>
       </c>
@@ -14976,7 +14982,7 @@
       </c>
       <c r="AO18" s="63"/>
     </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="190">
         <v>13</v>
       </c>
@@ -15040,7 +15046,7 @@
       </c>
       <c r="AO19" s="63"/>
     </row>
-    <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:41" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="190">
         <v>14</v>
       </c>
@@ -15238,7 +15244,7 @@
       </c>
       <c r="AO22" s="63"/>
     </row>
-    <row r="23" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:41" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="190">
         <v>17</v>
       </c>
@@ -15304,7 +15310,7 @@
       </c>
       <c r="AO23" s="63"/>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" s="190">
         <v>18</v>
       </c>
@@ -15368,7 +15374,7 @@
       </c>
       <c r="AO24" s="63"/>
     </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" s="190">
         <v>19</v>
       </c>
@@ -15560,7 +15566,7 @@
       </c>
       <c r="AO27" s="63"/>
     </row>
-    <row r="28" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="190">
         <v>22</v>
       </c>
@@ -15624,7 +15630,7 @@
       </c>
       <c r="AO28" s="63"/>
     </row>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" s="190">
         <v>23</v>
       </c>
@@ -15752,7 +15758,7 @@
       </c>
       <c r="AO30" s="63"/>
     </row>
-    <row r="31" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:41" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="190">
         <v>25</v>
       </c>
@@ -15814,7 +15820,7 @@
       <c r="AN31" s="67"/>
       <c r="AO31" s="63"/>
     </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="190">
         <v>26</v>
       </c>
@@ -15876,7 +15882,7 @@
       <c r="AN32" s="64"/>
       <c r="AO32" s="63"/>
     </row>
-    <row r="33" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:41" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="190">
         <v>27</v>
       </c>
@@ -15938,7 +15944,7 @@
       <c r="AN33" s="60"/>
       <c r="AO33" s="59"/>
     </row>
-    <row r="34" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" s="190">
         <v>28</v>
       </c>
@@ -15988,7 +15994,7 @@
       <c r="V34" s="54"/>
       <c r="AF34" s="57"/>
     </row>
-    <row r="35" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" s="190">
         <v>29</v>
       </c>
@@ -16038,7 +16044,7 @@
       <c r="V35" s="54"/>
       <c r="AF35" s="57"/>
     </row>
-    <row r="36" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" s="190">
         <v>30</v>
       </c>
@@ -16088,7 +16094,7 @@
       <c r="V36" s="54"/>
       <c r="AF36" s="57"/>
     </row>
-    <row r="37" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" s="190">
         <v>31</v>
       </c>
@@ -16138,7 +16144,7 @@
       <c r="V37" s="54"/>
       <c r="AF37" s="57"/>
     </row>
-    <row r="38" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" s="190">
         <v>32</v>
       </c>
@@ -16188,7 +16194,7 @@
       <c r="V38" s="54"/>
       <c r="AF38" s="57"/>
     </row>
-    <row r="39" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" s="190">
         <v>33</v>
       </c>
@@ -16238,7 +16244,7 @@
       <c r="V39" s="54"/>
       <c r="AF39" s="57"/>
     </row>
-    <row r="40" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="190">
         <v>34</v>
       </c>
@@ -16288,7 +16294,7 @@
       <c r="V40" s="54"/>
       <c r="AF40" s="57"/>
     </row>
-    <row r="41" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" s="190">
         <v>35</v>
       </c>
@@ -16338,7 +16344,7 @@
       <c r="V41" s="54"/>
       <c r="AF41" s="57"/>
     </row>
-    <row r="42" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" s="190">
         <v>36</v>
       </c>
@@ -16588,7 +16594,7 @@
       <c r="V46" s="54"/>
       <c r="AF46" s="57"/>
     </row>
-    <row r="47" spans="2:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="190">
         <v>41</v>
       </c>
@@ -16638,7 +16644,7 @@
       <c r="V47" s="161"/>
       <c r="AF47" s="57"/>
     </row>
-    <row r="48" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="190">
         <v>42</v>
       </c>
@@ -16738,7 +16744,7 @@
       <c r="V49" s="161"/>
       <c r="AF49" s="57"/>
     </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="190">
         <v>44</v>
       </c>
@@ -16788,7 +16794,7 @@
       <c r="V50" s="161"/>
       <c r="AF50" s="57"/>
     </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="190">
         <v>45</v>
       </c>
@@ -16838,7 +16844,7 @@
       <c r="V51" s="161"/>
       <c r="AF51" s="57"/>
     </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="190">
         <v>46</v>
       </c>
@@ -16988,7 +16994,7 @@
       <c r="V54" s="54"/>
       <c r="AF54" s="57"/>
     </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="190">
         <v>49</v>
       </c>
@@ -17038,7 +17044,7 @@
       <c r="V55" s="54"/>
       <c r="AF55" s="57"/>
     </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="190">
         <v>50</v>
       </c>
@@ -17188,7 +17194,7 @@
       <c r="V58" s="54"/>
       <c r="AF58" s="57"/>
     </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" s="190">
         <v>53</v>
       </c>
@@ -17288,7 +17294,7 @@
       <c r="V60" s="54"/>
       <c r="AF60" s="57"/>
     </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="190">
         <v>55</v>
       </c>
@@ -17338,7 +17344,7 @@
       <c r="V61" s="54"/>
       <c r="AF61" s="57"/>
     </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" s="190">
         <v>56</v>
       </c>
@@ -17388,7 +17394,7 @@
       <c r="V62" s="54"/>
       <c r="AF62" s="57"/>
     </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" s="190">
         <v>57</v>
       </c>
@@ -17438,7 +17444,7 @@
       <c r="V63" s="54"/>
       <c r="AF63" s="57"/>
     </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" s="190">
         <v>58</v>
       </c>
@@ -17488,7 +17494,7 @@
       <c r="V64" s="54"/>
       <c r="AF64" s="57"/>
     </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="190">
         <v>59</v>
       </c>
@@ -17538,7 +17544,7 @@
       <c r="V65" s="54"/>
       <c r="AF65" s="57"/>
     </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="190">
         <v>60</v>
       </c>
@@ -17588,7 +17594,7 @@
       <c r="V66" s="54"/>
       <c r="AF66" s="57"/>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="190">
         <v>61</v>
       </c>
@@ -17638,7 +17644,7 @@
       <c r="V67" s="54"/>
       <c r="AF67" s="57"/>
     </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="190">
         <v>62</v>
       </c>
@@ -17688,7 +17694,7 @@
       <c r="V68" s="54"/>
       <c r="AF68" s="57"/>
     </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="190">
         <v>63</v>
       </c>
@@ -17740,7 +17746,7 @@
       <c r="AE69" s="58"/>
       <c r="AF69" s="57"/>
     </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="190">
         <v>64</v>
       </c>
@@ -17789,7 +17795,7 @@
       <c r="U70" s="161"/>
       <c r="V70" s="54"/>
     </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" s="190">
         <v>65</v>
       </c>
@@ -17838,7 +17844,7 @@
       <c r="U71" s="161"/>
       <c r="V71" s="54"/>
     </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" s="190">
         <v>66</v>
       </c>
@@ -17887,7 +17893,7 @@
       <c r="U72" s="161"/>
       <c r="V72" s="54"/>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" s="190">
         <v>67</v>
       </c>
@@ -17985,7 +17991,7 @@
       <c r="U74" s="161"/>
       <c r="V74" s="54"/>
     </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" s="190">
         <v>69</v>
       </c>
@@ -18034,7 +18040,7 @@
       <c r="U75" s="161"/>
       <c r="V75" s="54"/>
     </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="190">
         <v>70</v>
       </c>
@@ -18083,7 +18089,7 @@
       <c r="U76" s="161"/>
       <c r="V76" s="54"/>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" s="190">
         <v>71</v>
       </c>
@@ -18132,7 +18138,7 @@
       <c r="U77" s="161"/>
       <c r="V77" s="54"/>
     </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" s="190">
         <v>72</v>
       </c>
@@ -18181,7 +18187,7 @@
       <c r="U78" s="161"/>
       <c r="V78" s="54"/>
     </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="190">
         <v>73</v>
       </c>
@@ -18230,7 +18236,7 @@
       <c r="U79" s="161"/>
       <c r="V79" s="54"/>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" s="190">
         <v>74</v>
       </c>
@@ -18279,7 +18285,7 @@
       <c r="U80" s="161"/>
       <c r="V80" s="54"/>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="190">
         <v>75</v>
       </c>
@@ -18328,7 +18334,7 @@
       <c r="U81" s="161"/>
       <c r="V81" s="54"/>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" s="190">
         <v>76</v>
       </c>
@@ -18377,7 +18383,7 @@
       <c r="U82" s="161"/>
       <c r="V82" s="54"/>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="190">
         <v>77</v>
       </c>
@@ -18426,7 +18432,7 @@
       <c r="U83" s="161"/>
       <c r="V83" s="54"/>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" s="190">
         <v>78</v>
       </c>
@@ -18475,7 +18481,7 @@
       <c r="U84" s="161"/>
       <c r="V84" s="54"/>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" s="190">
         <v>79</v>
       </c>
@@ -18524,7 +18530,7 @@
       <c r="U85" s="161"/>
       <c r="V85" s="54"/>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="190">
         <v>80</v>
       </c>
@@ -18573,7 +18579,7 @@
       <c r="U86" s="161"/>
       <c r="V86" s="54"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="190">
         <v>81</v>
       </c>
@@ -18622,7 +18628,7 @@
       <c r="U87" s="161"/>
       <c r="V87" s="54"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="190">
         <v>82</v>
       </c>
@@ -18720,7 +18726,7 @@
       <c r="U89" s="161"/>
       <c r="V89" s="54"/>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" s="190">
         <v>84</v>
       </c>
@@ -18769,7 +18775,7 @@
       <c r="U90" s="161"/>
       <c r="V90" s="54"/>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" s="190">
         <v>85</v>
       </c>
@@ -18818,7 +18824,7 @@
       <c r="U91" s="161"/>
       <c r="V91" s="54"/>
     </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" s="190">
         <v>86</v>
       </c>
@@ -18867,7 +18873,7 @@
       <c r="U92" s="161"/>
       <c r="V92" s="54"/>
     </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="190">
         <v>87</v>
       </c>
@@ -18904,7 +18910,7 @@
       <c r="U93" s="161"/>
       <c r="V93" s="54"/>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" s="190">
         <v>88</v>
       </c>
@@ -18929,7 +18935,7 @@
       <c r="U94" s="54"/>
       <c r="V94" s="54"/>
     </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="182"/>
       <c r="C95" s="182"/>
       <c r="D95" s="182"/>
@@ -18952,7 +18958,7 @@
       <c r="U95" s="54"/>
       <c r="V95" s="54"/>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" s="182"/>
       <c r="C96" s="182"/>
       <c r="D96" s="182"/>
@@ -18975,7 +18981,7 @@
       <c r="U96" s="54"/>
       <c r="V96" s="54"/>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" s="182"/>
       <c r="C97" s="182"/>
       <c r="D97" s="182"/>
@@ -18998,7 +19004,7 @@
       <c r="U97" s="54"/>
       <c r="V97" s="54"/>
     </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" s="182"/>
       <c r="C98" s="182"/>
       <c r="D98" s="182"/>
@@ -19021,7 +19027,7 @@
       <c r="U98" s="54"/>
       <c r="V98" s="54"/>
     </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" s="182"/>
       <c r="C99" s="182"/>
       <c r="D99" s="182"/>
@@ -19044,7 +19050,7 @@
       <c r="U99" s="54"/>
       <c r="V99" s="54"/>
     </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="182"/>
       <c r="C100" s="182"/>
       <c r="D100" s="182"/>
@@ -19067,7 +19073,7 @@
       <c r="U100" s="54"/>
       <c r="V100" s="54"/>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" s="182"/>
       <c r="C101" s="182"/>
       <c r="D101" s="182"/>
@@ -19090,7 +19096,7 @@
       <c r="U101" s="54"/>
       <c r="V101" s="54"/>
     </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="182"/>
       <c r="C102" s="182"/>
       <c r="D102" s="182"/>
@@ -19113,7 +19119,7 @@
       <c r="U102" s="54"/>
       <c r="V102" s="54"/>
     </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" s="182"/>
       <c r="C103" s="182"/>
       <c r="D103" s="182"/>
@@ -19136,7 +19142,7 @@
       <c r="U103" s="54"/>
       <c r="V103" s="54"/>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" s="182"/>
       <c r="C104" s="182"/>
       <c r="D104" s="182"/>
@@ -19159,7 +19165,7 @@
       <c r="U104" s="54"/>
       <c r="V104" s="54"/>
     </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" s="182"/>
       <c r="C105" s="182"/>
       <c r="D105" s="182"/>
@@ -19182,7 +19188,7 @@
       <c r="U105" s="54"/>
       <c r="V105" s="54"/>
     </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" s="182"/>
       <c r="C106" s="182"/>
       <c r="D106" s="182"/>
@@ -19205,7 +19211,7 @@
       <c r="U106" s="54"/>
       <c r="V106" s="54"/>
     </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="182"/>
       <c r="C107" s="182"/>
       <c r="D107" s="182"/>
@@ -19228,7 +19234,7 @@
       <c r="U107" s="54"/>
       <c r="V107" s="54"/>
     </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" s="182"/>
       <c r="C108" s="182"/>
       <c r="D108" s="182"/>
@@ -19251,7 +19257,7 @@
       <c r="U108" s="54"/>
       <c r="V108" s="54"/>
     </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" s="182"/>
       <c r="C109" s="182"/>
       <c r="D109" s="182"/>
@@ -19274,7 +19280,7 @@
       <c r="U109" s="54"/>
       <c r="V109" s="54"/>
     </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="182"/>
       <c r="C110" s="182"/>
       <c r="D110" s="182"/>
@@ -19297,7 +19303,7 @@
       <c r="U110" s="54"/>
       <c r="V110" s="54"/>
     </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="182"/>
       <c r="C111" s="182"/>
       <c r="D111" s="182"/>
@@ -19320,7 +19326,7 @@
       <c r="U111" s="54"/>
       <c r="V111" s="54"/>
     </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" s="182"/>
       <c r="C112" s="182"/>
       <c r="D112" s="182"/>
@@ -19343,7 +19349,7 @@
       <c r="U112" s="54"/>
       <c r="V112" s="54"/>
     </row>
-    <row r="113" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" s="182"/>
       <c r="C113" s="182"/>
       <c r="D113" s="182"/>
@@ -19366,7 +19372,7 @@
       <c r="U113" s="54"/>
       <c r="V113" s="54"/>
     </row>
-    <row r="114" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" s="182"/>
       <c r="C114" s="182"/>
       <c r="D114" s="182"/>
@@ -19389,7 +19395,7 @@
       <c r="U114" s="54"/>
       <c r="V114" s="54"/>
     </row>
-    <row r="115" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" s="182"/>
       <c r="C115" s="182"/>
       <c r="D115" s="182"/>
@@ -19412,7 +19418,7 @@
       <c r="U115" s="54"/>
       <c r="V115" s="54"/>
     </row>
-    <row r="116" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" s="182"/>
       <c r="C116" s="182"/>
       <c r="D116" s="182"/>
@@ -19435,7 +19441,7 @@
       <c r="U116" s="54"/>
       <c r="V116" s="54"/>
     </row>
-    <row r="117" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" s="182"/>
       <c r="C117" s="182"/>
       <c r="D117" s="182"/>
@@ -19458,7 +19464,7 @@
       <c r="U117" s="54"/>
       <c r="V117" s="54"/>
     </row>
-    <row r="118" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" s="182"/>
       <c r="C118" s="182"/>
       <c r="D118" s="182"/>
@@ -19481,7 +19487,7 @@
       <c r="U118" s="54"/>
       <c r="V118" s="54"/>
     </row>
-    <row r="119" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" s="182"/>
       <c r="C119" s="182"/>
       <c r="D119" s="182"/>
@@ -19504,7 +19510,7 @@
       <c r="U119" s="54"/>
       <c r="V119" s="54"/>
     </row>
-    <row r="120" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" s="182"/>
       <c r="C120" s="182"/>
       <c r="D120" s="182"/>
@@ -19527,7 +19533,7 @@
       <c r="U120" s="54"/>
       <c r="V120" s="54"/>
     </row>
-    <row r="121" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="182"/>
       <c r="C121" s="182"/>
       <c r="D121" s="182"/>
@@ -19550,7 +19556,7 @@
       <c r="U121" s="54"/>
       <c r="V121" s="54"/>
     </row>
-    <row r="122" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" s="182"/>
       <c r="C122" s="182"/>
       <c r="D122" s="182"/>
@@ -19573,7 +19579,7 @@
       <c r="U122" s="54"/>
       <c r="V122" s="54"/>
     </row>
-    <row r="123" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" s="182"/>
       <c r="C123" s="182"/>
       <c r="D123" s="182"/>
@@ -19596,7 +19602,7 @@
       <c r="U123" s="54"/>
       <c r="V123" s="54"/>
     </row>
-    <row r="124" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" s="182"/>
       <c r="C124" s="182"/>
       <c r="D124" s="182"/>
@@ -19619,7 +19625,7 @@
       <c r="U124" s="54"/>
       <c r="V124" s="54"/>
     </row>
-    <row r="125" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" s="182"/>
       <c r="C125" s="182"/>
       <c r="D125" s="182"/>
@@ -19642,7 +19648,7 @@
       <c r="U125" s="54"/>
       <c r="V125" s="54"/>
     </row>
-    <row r="126" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" s="182"/>
       <c r="C126" s="182"/>
       <c r="D126" s="182"/>

--- a/Testing/Revised Plan.xlsx
+++ b/Testing/Revised Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Revised Plan and Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="4_{32FDE485-5194-4A48-B4DF-FAE26891D822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2BE2C5F-300B-4680-B9A6-8F300356150C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{3BF5CA56-C23A-4966-84C9-5D5E6B79DC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{FF53E854-575C-4B97-B6D0-9B270F57EAA4}"/>
   </bookViews>
@@ -4268,7 +4268,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4762,9 +4762,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5585,13 +5582,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3F4BC3-2C61-4283-9F4D-4AD81D4F1176}" name="Table1" displayName="Table1" ref="B6:L126" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="B6:L126" xr:uid="{5E3F4BC3-2C61-4283-9F4D-4AD81D4F1176}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Open"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B6:L126" xr:uid="{5E3F4BC3-2C61-4283-9F4D-4AD81D4F1176}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:L126">
     <sortCondition ref="B6:B126"/>
   </sortState>
@@ -5925,7 +5916,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -5942,14 +5933,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="217"/>
+      <c r="A2" s="216"/>
       <c r="B2" s="1">
         <v>44642</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="218" t="s">
+      <c r="D2" s="217" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5957,27 +5948,27 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="217"/>
+      <c r="A3" s="216"/>
       <c r="B3" s="1">
         <v>44643</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="219"/>
+      <c r="D3" s="218"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="217"/>
+      <c r="A4" s="216"/>
       <c r="B4" s="1">
         <v>44644</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="217" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -5985,20 +5976,20 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="217"/>
+      <c r="A5" s="216"/>
       <c r="B5" s="1">
         <v>44645</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="218"/>
+      <c r="D5" s="217"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="216" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
@@ -6007,7 +5998,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="218" t="s">
+      <c r="D6" s="217" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -6015,27 +6006,27 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="217"/>
+      <c r="A7" s="216"/>
       <c r="B7" s="1">
         <v>44649</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="218"/>
+      <c r="D7" s="217"/>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="217"/>
+      <c r="A8" s="216"/>
       <c r="B8" s="1">
         <v>44650</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="218" t="s">
+      <c r="D8" s="217" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -6043,20 +6034,20 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="217"/>
+      <c r="A9" s="216"/>
       <c r="B9" s="1">
         <v>44651</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="218"/>
+      <c r="D9" s="217"/>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="217"/>
+      <c r="A10" s="216"/>
       <c r="B10" s="1">
         <v>44652</v>
       </c>
@@ -6071,7 +6062,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="217"/>
+      <c r="A11" s="216"/>
       <c r="B11" s="1">
         <v>44653</v>
       </c>
@@ -6086,7 +6077,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="217" t="s">
+      <c r="A12" s="216" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1">
@@ -6095,7 +6086,7 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="219" t="s">
+      <c r="D12" s="218" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -6103,59 +6094,59 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="217"/>
+      <c r="A13" s="216"/>
       <c r="B13" s="1">
         <v>44656</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="219"/>
+      <c r="D13" s="218"/>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="217"/>
+      <c r="A14" s="216"/>
       <c r="B14" s="1">
         <v>44657</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="219"/>
+      <c r="D14" s="218"/>
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="217"/>
+      <c r="A15" s="216"/>
       <c r="B15" s="1">
         <v>44658</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="219"/>
+      <c r="D15" s="218"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="217"/>
+      <c r="A16" s="216"/>
       <c r="B16" s="1">
         <v>44659</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="219"/>
+      <c r="D16" s="218"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="217"/>
+      <c r="A17" s="216"/>
       <c r="B17" s="1">
         <v>44660</v>
       </c>
@@ -6170,7 +6161,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="217" t="s">
+      <c r="A18" s="216" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1">
@@ -6179,7 +6170,7 @@
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="219" t="s">
+      <c r="D18" s="218" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -6187,33 +6178,33 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="217"/>
+      <c r="A19" s="216"/>
       <c r="B19" s="1">
         <v>44663</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="219"/>
+      <c r="D19" s="218"/>
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="217"/>
+      <c r="A20" s="216"/>
       <c r="B20" s="1">
         <v>44664</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="219"/>
+      <c r="D20" s="218"/>
       <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="217" t="s">
+      <c r="A21" s="216" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1">
@@ -6222,7 +6213,7 @@
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="219" t="s">
+      <c r="D21" s="218" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -6230,27 +6221,27 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="217"/>
+      <c r="A22" s="216"/>
       <c r="B22" s="1">
         <v>44672</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="219"/>
+      <c r="D22" s="218"/>
       <c r="E22" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="217"/>
+      <c r="A23" s="216"/>
       <c r="B23" s="1">
         <v>44673</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="219" t="s">
+      <c r="D23" s="218" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -6258,20 +6249,20 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="217"/>
+      <c r="A24" s="216"/>
       <c r="B24" s="1">
         <v>44674</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="219"/>
+      <c r="D24" s="218"/>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="217" t="s">
+      <c r="A25" s="216" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="1">
@@ -6280,7 +6271,7 @@
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="218" t="s">
+      <c r="D25" s="217" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -6288,66 +6279,66 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="217"/>
+      <c r="A26" s="216"/>
       <c r="B26" s="1">
         <v>44677</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="218"/>
+      <c r="D26" s="217"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="217"/>
+      <c r="A27" s="216"/>
       <c r="B27" s="1">
         <v>44678</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="218"/>
+      <c r="D27" s="217"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="217"/>
+      <c r="A28" s="216"/>
       <c r="B28" s="1">
         <v>44679</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="219" t="s">
+      <c r="D28" s="218" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="217"/>
+      <c r="A29" s="216"/>
       <c r="B29" s="1">
         <v>44680</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="219"/>
+      <c r="D29" s="218"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="217"/>
+      <c r="A30" s="216"/>
       <c r="B30" s="1">
         <v>44681</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="219"/>
+      <c r="D30" s="218"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="216" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="1">
@@ -6356,24 +6347,24 @@
       <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="219" t="s">
+      <c r="D31" s="218" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="217"/>
+      <c r="A32" s="216"/>
       <c r="B32" s="1">
         <v>44687</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="219"/>
+      <c r="D32" s="218"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="217"/>
+      <c r="A33" s="216"/>
       <c r="B33" s="1">
         <v>44688</v>
       </c>
@@ -6386,7 +6377,7 @@
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="217" t="s">
+      <c r="A34" s="216" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="1">
@@ -6395,70 +6386,70 @@
       <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="219" t="s">
+      <c r="D34" s="218" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="217"/>
+      <c r="A35" s="216"/>
       <c r="B35" s="1">
         <v>44691</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="219"/>
+      <c r="D35" s="218"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="217"/>
+      <c r="A36" s="216"/>
       <c r="B36" s="1">
         <v>44692</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="219"/>
+      <c r="D36" s="218"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="217"/>
+      <c r="A37" s="216"/>
       <c r="B37" s="1">
         <v>44693</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="219"/>
+      <c r="D37" s="218"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="217"/>
+      <c r="A38" s="216"/>
       <c r="B38" s="1">
         <v>44694</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="218" t="s">
+      <c r="D38" s="217" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="217"/>
+      <c r="A39" s="216"/>
       <c r="B39" s="1">
         <v>44695</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="218"/>
+      <c r="D39" s="217"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="217" t="s">
+      <c r="A40" s="216" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="1">
@@ -6467,66 +6458,66 @@
       <c r="C40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="219" t="s">
+      <c r="D40" s="218" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="217"/>
+      <c r="A41" s="216"/>
       <c r="B41" s="1">
         <v>44698</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="219"/>
+      <c r="D41" s="218"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="217"/>
+      <c r="A42" s="216"/>
       <c r="B42" s="1">
         <v>44699</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="219"/>
+      <c r="D42" s="218"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="217"/>
+      <c r="A43" s="216"/>
       <c r="B43" s="1">
         <v>44700</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="219" t="s">
+      <c r="D43" s="218" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="217"/>
+      <c r="A44" s="216"/>
       <c r="B44" s="1">
         <v>44701</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="219"/>
+      <c r="D44" s="218"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="217"/>
+      <c r="A45" s="216"/>
       <c r="B45" s="1">
         <v>44702</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="219"/>
+      <c r="D45" s="218"/>
       <c r="E45" s="4"/>
     </row>
   </sheetData>
@@ -6697,10 +6688,10 @@
       <c r="C9" s="7">
         <v>44696</v>
       </c>
-      <c r="D9" s="220" t="s">
+      <c r="D9" s="219" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="220"/>
+      <c r="E9" s="219"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -6919,10 +6910,10 @@
       <c r="C25" s="7">
         <v>44710</v>
       </c>
-      <c r="D25" s="220" t="s">
+      <c r="D25" s="219" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="220"/>
+      <c r="E25" s="219"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -7029,10 +7020,10 @@
       <c r="C33" s="7">
         <v>44717</v>
       </c>
-      <c r="D33" s="220" t="s">
+      <c r="D33" s="219" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="220"/>
+      <c r="E33" s="219"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
@@ -7139,10 +7130,10 @@
       <c r="C41" s="7">
         <v>44724</v>
       </c>
-      <c r="D41" s="220" t="s">
+      <c r="D41" s="219" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="220"/>
+      <c r="E41" s="219"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
@@ -7249,10 +7240,10 @@
       <c r="C49" s="7">
         <v>44731</v>
       </c>
-      <c r="D49" s="220" t="s">
+      <c r="D49" s="219" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="220"/>
+      <c r="E49" s="219"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
@@ -7359,10 +7350,10 @@
       <c r="C57" s="7">
         <v>44738</v>
       </c>
-      <c r="D57" s="220" t="s">
+      <c r="D57" s="219" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="220"/>
+      <c r="E57" s="219"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
@@ -7441,10 +7432,10 @@
       <c r="C63" s="7">
         <v>44744</v>
       </c>
-      <c r="D63" s="220" t="s">
+      <c r="D63" s="219" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="220"/>
+      <c r="E63" s="219"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
@@ -7453,10 +7444,10 @@
       <c r="C64" s="7">
         <v>44745</v>
       </c>
-      <c r="D64" s="220" t="s">
+      <c r="D64" s="219" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="220"/>
+      <c r="E64" s="219"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
@@ -7535,10 +7526,10 @@
       <c r="C70" s="7">
         <v>44751</v>
       </c>
-      <c r="D70" s="220" t="s">
+      <c r="D70" s="219" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="220"/>
+      <c r="E70" s="219"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
@@ -7547,10 +7538,10 @@
       <c r="C71" s="7">
         <v>44752</v>
       </c>
-      <c r="D71" s="220" t="s">
+      <c r="D71" s="219" t="s">
         <v>84</v>
       </c>
-      <c r="E71" s="220"/>
+      <c r="E71" s="219"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C72" s="7"/>
@@ -7871,20 +7862,20 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="264" t="s">
+      <c r="B4" s="263" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
-      <c r="F4" s="265"/>
-      <c r="G4" s="265"/>
-      <c r="H4" s="265"/>
-      <c r="I4" s="265"/>
-      <c r="J4" s="265"/>
-      <c r="K4" s="265"/>
-      <c r="L4" s="265"/>
-      <c r="M4" s="266"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="265"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
@@ -7901,242 +7892,242 @@
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="243" t="s">
+      <c r="B6" s="242" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="245"/>
-      <c r="D6" s="271" t="s">
+      <c r="C6" s="244"/>
+      <c r="D6" s="270" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="261" t="s">
+      <c r="E6" s="260" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="262"/>
-      <c r="G6" s="262"/>
-      <c r="H6" s="262"/>
-      <c r="I6" s="262"/>
-      <c r="J6" s="262"/>
-      <c r="K6" s="262"/>
-      <c r="L6" s="262"/>
-      <c r="M6" s="263"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
+      <c r="M6" s="262"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="246"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="272"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="235"/>
-      <c r="G7" s="235"/>
-      <c r="H7" s="235"/>
-      <c r="I7" s="235"/>
-      <c r="J7" s="235"/>
-      <c r="K7" s="235"/>
-      <c r="L7" s="235"/>
-      <c r="M7" s="236"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="234"/>
+      <c r="I7" s="234"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="234"/>
+      <c r="L7" s="234"/>
+      <c r="M7" s="235"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="246"/>
-      <c r="C8" s="248"/>
-      <c r="D8" s="231" t="s">
+      <c r="B8" s="245"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="230" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="237" t="s">
+      <c r="E8" s="236" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="235"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="235"/>
-      <c r="I8" s="235"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235"/>
-      <c r="L8" s="235"/>
-      <c r="M8" s="236"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="235"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="249"/>
-      <c r="C9" s="251"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="235"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="235"/>
-      <c r="M9" s="236"/>
+      <c r="B9" s="248"/>
+      <c r="C9" s="250"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
+      <c r="M9" s="235"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="243" t="s">
+      <c r="B10" s="242" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="244"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="268" t="s">
+      <c r="C10" s="243"/>
+      <c r="D10" s="244"/>
+      <c r="E10" s="267" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="269"/>
-      <c r="G10" s="269"/>
-      <c r="H10" s="269"/>
-      <c r="I10" s="269"/>
-      <c r="J10" s="269"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="269"/>
-      <c r="M10" s="270"/>
+      <c r="F10" s="268"/>
+      <c r="G10" s="268"/>
+      <c r="H10" s="268"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="268"/>
+      <c r="K10" s="268"/>
+      <c r="L10" s="268"/>
+      <c r="M10" s="269"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="246"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="248"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="235"/>
-      <c r="H11" s="235"/>
-      <c r="I11" s="235"/>
-      <c r="J11" s="235"/>
-      <c r="K11" s="235"/>
-      <c r="L11" s="235"/>
-      <c r="M11" s="236"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="234"/>
+      <c r="H11" s="234"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="234"/>
+      <c r="M11" s="235"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="246"/>
-      <c r="C12" s="247"/>
-      <c r="D12" s="248"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="235"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="235"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="235"/>
-      <c r="M12" s="236"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="233"/>
+      <c r="F12" s="234"/>
+      <c r="G12" s="234"/>
+      <c r="H12" s="234"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="234"/>
+      <c r="M12" s="235"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="249"/>
-      <c r="C13" s="250"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="235"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="235"/>
-      <c r="J13" s="235"/>
-      <c r="K13" s="235"/>
-      <c r="L13" s="235"/>
-      <c r="M13" s="236"/>
+      <c r="B13" s="248"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="250"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="234"/>
+      <c r="G13" s="234"/>
+      <c r="H13" s="234"/>
+      <c r="I13" s="234"/>
+      <c r="J13" s="234"/>
+      <c r="K13" s="234"/>
+      <c r="L13" s="234"/>
+      <c r="M13" s="235"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="243" t="s">
+      <c r="B14" s="242" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="244"/>
-      <c r="D14" s="245"/>
-      <c r="E14" s="237" t="s">
+      <c r="C14" s="243"/>
+      <c r="D14" s="244"/>
+      <c r="E14" s="236" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="235"/>
-      <c r="G14" s="235"/>
-      <c r="H14" s="235"/>
-      <c r="I14" s="235"/>
-      <c r="J14" s="235"/>
-      <c r="K14" s="235"/>
-      <c r="L14" s="235"/>
-      <c r="M14" s="236"/>
+      <c r="F14" s="234"/>
+      <c r="G14" s="234"/>
+      <c r="H14" s="234"/>
+      <c r="I14" s="234"/>
+      <c r="J14" s="234"/>
+      <c r="K14" s="234"/>
+      <c r="L14" s="234"/>
+      <c r="M14" s="235"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="246"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="248"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="235"/>
-      <c r="H15" s="235"/>
-      <c r="I15" s="235"/>
-      <c r="J15" s="235"/>
-      <c r="K15" s="235"/>
-      <c r="L15" s="235"/>
-      <c r="M15" s="236"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="234"/>
+      <c r="H15" s="234"/>
+      <c r="I15" s="234"/>
+      <c r="J15" s="234"/>
+      <c r="K15" s="234"/>
+      <c r="L15" s="234"/>
+      <c r="M15" s="235"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="246"/>
-      <c r="C16" s="247"/>
-      <c r="D16" s="248"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="235"/>
-      <c r="G16" s="235"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="235"/>
-      <c r="J16" s="235"/>
-      <c r="K16" s="235"/>
-      <c r="L16" s="235"/>
-      <c r="M16" s="236"/>
+      <c r="B16" s="245"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="234"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="234"/>
+      <c r="I16" s="234"/>
+      <c r="J16" s="234"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="235"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="249"/>
-      <c r="C17" s="250"/>
-      <c r="D17" s="251"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="235"/>
-      <c r="G17" s="235"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="235"/>
-      <c r="J17" s="235"/>
-      <c r="K17" s="235"/>
-      <c r="L17" s="235"/>
-      <c r="M17" s="236"/>
+      <c r="B17" s="248"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="234"/>
+      <c r="H17" s="234"/>
+      <c r="I17" s="234"/>
+      <c r="J17" s="234"/>
+      <c r="K17" s="234"/>
+      <c r="L17" s="234"/>
+      <c r="M17" s="235"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="228" t="s">
+      <c r="B18" s="227" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="229"/>
+      <c r="C18" s="228"/>
       <c r="D18" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="237" t="s">
+      <c r="E18" s="236" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="235"/>
-      <c r="G18" s="235"/>
-      <c r="H18" s="235"/>
-      <c r="I18" s="235"/>
-      <c r="J18" s="235"/>
-      <c r="K18" s="235"/>
-      <c r="L18" s="235"/>
-      <c r="M18" s="236"/>
+      <c r="F18" s="234"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="234"/>
+      <c r="I18" s="234"/>
+      <c r="J18" s="234"/>
+      <c r="K18" s="234"/>
+      <c r="L18" s="234"/>
+      <c r="M18" s="235"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="230"/>
-      <c r="C19" s="231"/>
+      <c r="B19" s="229"/>
+      <c r="C19" s="230"/>
       <c r="D19" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="237"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="235"/>
-      <c r="H19" s="235"/>
-      <c r="I19" s="235"/>
-      <c r="J19" s="235"/>
-      <c r="K19" s="235"/>
-      <c r="L19" s="235"/>
-      <c r="M19" s="236"/>
+      <c r="E19" s="236"/>
+      <c r="F19" s="234"/>
+      <c r="G19" s="234"/>
+      <c r="H19" s="234"/>
+      <c r="I19" s="234"/>
+      <c r="J19" s="234"/>
+      <c r="K19" s="234"/>
+      <c r="L19" s="234"/>
+      <c r="M19" s="235"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="232"/>
-      <c r="C20" s="233"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="232"/>
       <c r="D20" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="234"/>
-      <c r="F20" s="235"/>
-      <c r="G20" s="235"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="235"/>
-      <c r="J20" s="235"/>
-      <c r="K20" s="235"/>
-      <c r="L20" s="235"/>
-      <c r="M20" s="236"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="234"/>
+      <c r="I20" s="234"/>
+      <c r="J20" s="234"/>
+      <c r="K20" s="234"/>
+      <c r="L20" s="234"/>
+      <c r="M20" s="235"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
@@ -8167,126 +8158,126 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="222" t="s">
+      <c r="B23" s="221" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="223"/>
-      <c r="D23" s="223"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="223"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="223"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="223"/>
-      <c r="K23" s="223"/>
-      <c r="L23" s="223"/>
-      <c r="M23" s="224"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="222"/>
+      <c r="E23" s="222"/>
+      <c r="F23" s="222"/>
+      <c r="G23" s="222"/>
+      <c r="H23" s="222"/>
+      <c r="I23" s="222"/>
+      <c r="J23" s="222"/>
+      <c r="K23" s="222"/>
+      <c r="L23" s="222"/>
+      <c r="M23" s="223"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="225" t="s">
+      <c r="C24" s="224" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="227"/>
-      <c r="E24" s="225" t="s">
+      <c r="D24" s="226"/>
+      <c r="E24" s="224" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="226"/>
-      <c r="G24" s="226"/>
-      <c r="H24" s="226"/>
-      <c r="I24" s="226"/>
-      <c r="J24" s="226"/>
-      <c r="K24" s="227"/>
-      <c r="L24" s="273" t="s">
+      <c r="F24" s="225"/>
+      <c r="G24" s="225"/>
+      <c r="H24" s="225"/>
+      <c r="I24" s="225"/>
+      <c r="J24" s="225"/>
+      <c r="K24" s="226"/>
+      <c r="L24" s="272" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="274"/>
+      <c r="M24" s="273"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="238"/>
-      <c r="D25" s="240"/>
-      <c r="E25" s="238"/>
-      <c r="F25" s="239"/>
-      <c r="G25" s="239"/>
-      <c r="H25" s="239"/>
-      <c r="I25" s="239"/>
-      <c r="J25" s="239"/>
-      <c r="K25" s="240"/>
-      <c r="L25" s="238"/>
-      <c r="M25" s="267"/>
+      <c r="C25" s="237"/>
+      <c r="D25" s="239"/>
+      <c r="E25" s="237"/>
+      <c r="F25" s="238"/>
+      <c r="G25" s="238"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="238"/>
+      <c r="K25" s="239"/>
+      <c r="L25" s="237"/>
+      <c r="M25" s="266"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="241"/>
-      <c r="D26" s="242"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="258"/>
-      <c r="G26" s="258"/>
-      <c r="H26" s="258"/>
-      <c r="I26" s="258"/>
-      <c r="J26" s="258"/>
-      <c r="K26" s="242"/>
-      <c r="L26" s="241"/>
-      <c r="M26" s="260"/>
+      <c r="C26" s="240"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="240"/>
+      <c r="F26" s="257"/>
+      <c r="G26" s="257"/>
+      <c r="H26" s="257"/>
+      <c r="I26" s="257"/>
+      <c r="J26" s="257"/>
+      <c r="K26" s="241"/>
+      <c r="L26" s="240"/>
+      <c r="M26" s="259"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="242"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="258"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="258"/>
-      <c r="I27" s="258"/>
-      <c r="J27" s="258"/>
-      <c r="K27" s="242"/>
-      <c r="L27" s="241"/>
-      <c r="M27" s="260"/>
+      <c r="C27" s="240"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="240"/>
+      <c r="F27" s="257"/>
+      <c r="G27" s="257"/>
+      <c r="H27" s="257"/>
+      <c r="I27" s="257"/>
+      <c r="J27" s="257"/>
+      <c r="K27" s="241"/>
+      <c r="L27" s="240"/>
+      <c r="M27" s="259"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="242"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="258"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="258"/>
-      <c r="I28" s="258"/>
-      <c r="J28" s="258"/>
-      <c r="K28" s="242"/>
-      <c r="L28" s="241"/>
-      <c r="M28" s="260"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="240"/>
+      <c r="F28" s="257"/>
+      <c r="G28" s="257"/>
+      <c r="H28" s="257"/>
+      <c r="I28" s="257"/>
+      <c r="J28" s="257"/>
+      <c r="K28" s="241"/>
+      <c r="L28" s="240"/>
+      <c r="M28" s="259"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="241"/>
-      <c r="D29" s="242"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="258"/>
-      <c r="G29" s="258"/>
-      <c r="H29" s="258"/>
-      <c r="I29" s="258"/>
-      <c r="J29" s="258"/>
-      <c r="K29" s="242"/>
-      <c r="L29" s="241"/>
-      <c r="M29" s="260"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="241"/>
+      <c r="E29" s="240"/>
+      <c r="F29" s="257"/>
+      <c r="G29" s="257"/>
+      <c r="H29" s="257"/>
+      <c r="I29" s="257"/>
+      <c r="J29" s="257"/>
+      <c r="K29" s="241"/>
+      <c r="L29" s="240"/>
+      <c r="M29" s="259"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
-      <c r="C30" s="255"/>
-      <c r="D30" s="257"/>
-      <c r="E30" s="255"/>
-      <c r="F30" s="259"/>
-      <c r="G30" s="259"/>
-      <c r="H30" s="259"/>
-      <c r="I30" s="259"/>
-      <c r="J30" s="259"/>
-      <c r="K30" s="257"/>
-      <c r="L30" s="255"/>
-      <c r="M30" s="256"/>
+      <c r="C30" s="254"/>
+      <c r="D30" s="256"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="258"/>
+      <c r="G30" s="258"/>
+      <c r="H30" s="258"/>
+      <c r="I30" s="258"/>
+      <c r="J30" s="258"/>
+      <c r="K30" s="256"/>
+      <c r="L30" s="254"/>
+      <c r="M30" s="255"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
@@ -8303,20 +8294,20 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="222" t="s">
+      <c r="B32" s="221" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="223"/>
-      <c r="D32" s="223"/>
-      <c r="E32" s="223"/>
-      <c r="F32" s="223"/>
-      <c r="G32" s="223"/>
-      <c r="H32" s="223"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="223"/>
-      <c r="K32" s="223"/>
-      <c r="L32" s="223"/>
-      <c r="M32" s="224"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="222"/>
+      <c r="E32" s="222"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="222"/>
+      <c r="H32" s="222"/>
+      <c r="I32" s="222"/>
+      <c r="J32" s="222"/>
+      <c r="K32" s="222"/>
+      <c r="L32" s="222"/>
+      <c r="M32" s="223"/>
     </row>
     <row r="33" spans="2:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
@@ -8325,10 +8316,10 @@
       <c r="C33" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="225" t="s">
+      <c r="D33" s="224" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="227"/>
+      <c r="E33" s="226"/>
       <c r="F33" s="27" t="s">
         <v>162</v>
       </c>
@@ -8359,8 +8350,8 @@
         <v>1</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="252"/>
-      <c r="E34" s="252"/>
+      <c r="D34" s="251"/>
+      <c r="E34" s="251"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -8375,8 +8366,8 @@
         <v>2</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="253"/>
-      <c r="E35" s="253"/>
+      <c r="D35" s="252"/>
+      <c r="E35" s="252"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -8391,8 +8382,8 @@
         <v>3</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="253"/>
-      <c r="E36" s="253"/>
+      <c r="D36" s="252"/>
+      <c r="E36" s="252"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -8407,8 +8398,8 @@
         <v>4</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="254"/>
-      <c r="E37" s="254"/>
+      <c r="D37" s="253"/>
+      <c r="E37" s="253"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -8421,8 +8412,8 @@
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="221"/>
-      <c r="E38" s="221"/>
+      <c r="D38" s="220"/>
+      <c r="E38" s="220"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34" t="s">
         <v>169</v>
@@ -8443,16 +8434,16 @@
       <c r="M38" s="36"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="279" t="s">
+      <c r="B41" s="278" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="279"/>
-      <c r="D41" s="279"/>
-      <c r="E41" s="279"/>
-      <c r="F41" s="279"/>
-      <c r="G41" s="279"/>
-      <c r="H41" s="279"/>
-      <c r="I41" s="279"/>
+      <c r="C41" s="278"/>
+      <c r="D41" s="278"/>
+      <c r="E41" s="278"/>
+      <c r="F41" s="278"/>
+      <c r="G41" s="278"/>
+      <c r="H41" s="278"/>
+      <c r="I41" s="278"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
@@ -8465,16 +8456,16 @@
       <c r="C42" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="278" t="s">
+      <c r="D42" s="277" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="278"/>
-      <c r="F42" s="278" t="s">
+      <c r="E42" s="277"/>
+      <c r="F42" s="277" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="278"/>
-      <c r="H42" s="278"/>
-      <c r="I42" s="278"/>
+      <c r="G42" s="277"/>
+      <c r="H42" s="277"/>
+      <c r="I42" s="277"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -8485,8 +8476,8 @@
         <v>1</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="253"/>
-      <c r="E43" s="253"/>
+      <c r="D43" s="252"/>
+      <c r="E43" s="252"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -8501,8 +8492,8 @@
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="253"/>
-      <c r="E44" s="253"/>
+      <c r="D44" s="252"/>
+      <c r="E44" s="252"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -8517,8 +8508,8 @@
         <v>3</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="253"/>
-      <c r="E45" s="253"/>
+      <c r="D45" s="252"/>
+      <c r="E45" s="252"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -8529,16 +8520,16 @@
       <c r="M45" s="12"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="279" t="s">
+      <c r="B47" s="278" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="279"/>
-      <c r="D47" s="279"/>
-      <c r="E47" s="279"/>
-      <c r="F47" s="279"/>
-      <c r="G47" s="279"/>
-      <c r="H47" s="279"/>
-      <c r="I47" s="279"/>
+      <c r="C47" s="278"/>
+      <c r="D47" s="278"/>
+      <c r="E47" s="278"/>
+      <c r="F47" s="278"/>
+      <c r="G47" s="278"/>
+      <c r="H47" s="278"/>
+      <c r="I47" s="278"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
@@ -8551,14 +8542,14 @@
       <c r="C48" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D48" s="280" t="s">
+      <c r="D48" s="279" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="281"/>
-      <c r="F48" s="281"/>
-      <c r="G48" s="281"/>
-      <c r="H48" s="281"/>
-      <c r="I48" s="282"/>
+      <c r="E48" s="280"/>
+      <c r="F48" s="280"/>
+      <c r="G48" s="280"/>
+      <c r="H48" s="280"/>
+      <c r="I48" s="281"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
@@ -8571,12 +8562,12 @@
       <c r="C49" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="275"/>
-      <c r="E49" s="276"/>
-      <c r="F49" s="276"/>
-      <c r="G49" s="276"/>
-      <c r="H49" s="276"/>
-      <c r="I49" s="277"/>
+      <c r="D49" s="274"/>
+      <c r="E49" s="275"/>
+      <c r="F49" s="275"/>
+      <c r="G49" s="275"/>
+      <c r="H49" s="275"/>
+      <c r="I49" s="276"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="17">
@@ -8585,12 +8576,12 @@
       <c r="C50" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="275"/>
-      <c r="E50" s="276"/>
-      <c r="F50" s="276"/>
-      <c r="G50" s="276"/>
-      <c r="H50" s="276"/>
-      <c r="I50" s="277"/>
+      <c r="D50" s="274"/>
+      <c r="E50" s="275"/>
+      <c r="F50" s="275"/>
+      <c r="G50" s="275"/>
+      <c r="H50" s="275"/>
+      <c r="I50" s="276"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="17">
@@ -8599,74 +8590,74 @@
       <c r="C51" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="275"/>
-      <c r="E51" s="276"/>
-      <c r="F51" s="276"/>
-      <c r="G51" s="276"/>
-      <c r="H51" s="276"/>
-      <c r="I51" s="277"/>
+      <c r="D51" s="274"/>
+      <c r="E51" s="275"/>
+      <c r="F51" s="275"/>
+      <c r="G51" s="275"/>
+      <c r="H51" s="275"/>
+      <c r="I51" s="276"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="279" t="s">
+      <c r="B54" s="278" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="279"/>
-      <c r="D54" s="279"/>
-      <c r="E54" s="279"/>
-      <c r="F54" s="279"/>
-      <c r="G54" s="279"/>
-      <c r="H54" s="279"/>
-      <c r="I54" s="279"/>
+      <c r="C54" s="278"/>
+      <c r="D54" s="278"/>
+      <c r="E54" s="278"/>
+      <c r="F54" s="278"/>
+      <c r="G54" s="278"/>
+      <c r="H54" s="278"/>
+      <c r="I54" s="278"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="280" t="s">
+      <c r="C55" s="279" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="281"/>
-      <c r="E55" s="281"/>
-      <c r="F55" s="281"/>
-      <c r="G55" s="281"/>
-      <c r="H55" s="281"/>
-      <c r="I55" s="282"/>
+      <c r="D55" s="280"/>
+      <c r="E55" s="280"/>
+      <c r="F55" s="280"/>
+      <c r="G55" s="280"/>
+      <c r="H55" s="280"/>
+      <c r="I55" s="281"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="17">
         <v>1</v>
       </c>
-      <c r="C56" s="275"/>
-      <c r="D56" s="276"/>
-      <c r="E56" s="276"/>
-      <c r="F56" s="276"/>
-      <c r="G56" s="276"/>
-      <c r="H56" s="276"/>
-      <c r="I56" s="277"/>
+      <c r="C56" s="274"/>
+      <c r="D56" s="275"/>
+      <c r="E56" s="275"/>
+      <c r="F56" s="275"/>
+      <c r="G56" s="275"/>
+      <c r="H56" s="275"/>
+      <c r="I56" s="276"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="17">
         <v>2</v>
       </c>
-      <c r="C57" s="275"/>
-      <c r="D57" s="276"/>
-      <c r="E57" s="276"/>
-      <c r="F57" s="276"/>
-      <c r="G57" s="276"/>
-      <c r="H57" s="276"/>
-      <c r="I57" s="277"/>
+      <c r="C57" s="274"/>
+      <c r="D57" s="275"/>
+      <c r="E57" s="275"/>
+      <c r="F57" s="275"/>
+      <c r="G57" s="275"/>
+      <c r="H57" s="275"/>
+      <c r="I57" s="276"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="17">
         <v>3</v>
       </c>
-      <c r="C58" s="275"/>
-      <c r="D58" s="276"/>
-      <c r="E58" s="276"/>
-      <c r="F58" s="276"/>
-      <c r="G58" s="276"/>
-      <c r="H58" s="276"/>
-      <c r="I58" s="277"/>
+      <c r="C58" s="274"/>
+      <c r="D58" s="275"/>
+      <c r="E58" s="275"/>
+      <c r="F58" s="275"/>
+      <c r="G58" s="275"/>
+      <c r="H58" s="275"/>
+      <c r="I58" s="276"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -9012,44 +9003,44 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="293" t="s">
+      <c r="B2" s="292" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="295"/>
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="294"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="295" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="298"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="297"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="299" t="s">
+      <c r="B4" s="298" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="300"/>
-      <c r="D4" s="300"/>
-      <c r="E4" s="301"/>
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="300"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="299" t="s">
+      <c r="B5" s="298" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="301"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="300"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="285" t="s">
+      <c r="B6" s="284" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="287"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="286"/>
     </row>
     <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.2">
       <c r="B7" s="41" t="s">
@@ -9938,37 +9929,37 @@
       <c r="E81" s="121"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="288" t="s">
+      <c r="B82" s="287" t="s">
         <v>382</v>
       </c>
-      <c r="C82" s="289"/>
-      <c r="D82" s="289"/>
-      <c r="E82" s="290"/>
+      <c r="C82" s="288"/>
+      <c r="D82" s="288"/>
+      <c r="E82" s="289"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="291" t="s">
+      <c r="B83" s="290" t="s">
         <v>383</v>
       </c>
-      <c r="C83" s="292"/>
-      <c r="D83" s="292"/>
+      <c r="C83" s="291"/>
+      <c r="D83" s="291"/>
       <c r="E83" s="47" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="291" t="s">
+      <c r="B84" s="290" t="s">
         <v>384</v>
       </c>
-      <c r="C84" s="292"/>
-      <c r="D84" s="292"/>
+      <c r="C84" s="291"/>
+      <c r="D84" s="291"/>
       <c r="E84" s="47"/>
     </row>
     <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="283" t="s">
+      <c r="B85" s="282" t="s">
         <v>385</v>
       </c>
-      <c r="C85" s="284"/>
-      <c r="D85" s="284"/>
+      <c r="C85" s="283"/>
+      <c r="D85" s="283"/>
       <c r="E85" s="48" t="s">
         <v>191</v>
       </c>
@@ -10528,109 +10519,109 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="316" t="s">
+      <c r="B2" s="315" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="319"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="316"/>
+      <c r="K2" s="317"/>
+      <c r="L2" s="318"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="320" t="s">
+      <c r="B3" s="319" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="322"/>
-      <c r="L3" s="323"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="320"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="322"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="296" t="s">
+      <c r="B4" s="295" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="297"/>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="297"/>
-      <c r="J4" s="297"/>
-      <c r="K4" s="324"/>
-      <c r="L4" s="298"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+      <c r="J4" s="296"/>
+      <c r="K4" s="323"/>
+      <c r="L4" s="297"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="284" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286"/>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="287"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="285"/>
+      <c r="H5" s="285"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="285"/>
+      <c r="K5" s="324"/>
+      <c r="L5" s="286"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="326" t="s">
+      <c r="B6" s="325" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="327"/>
-      <c r="D6" s="327"/>
-      <c r="E6" s="327"/>
-      <c r="F6" s="327"/>
-      <c r="G6" s="327"/>
-      <c r="H6" s="327"/>
-      <c r="I6" s="327"/>
-      <c r="J6" s="327"/>
-      <c r="K6" s="327"/>
-      <c r="L6" s="328"/>
+      <c r="C6" s="326"/>
+      <c r="D6" s="326"/>
+      <c r="E6" s="326"/>
+      <c r="F6" s="326"/>
+      <c r="G6" s="326"/>
+      <c r="H6" s="326"/>
+      <c r="I6" s="326"/>
+      <c r="J6" s="326"/>
+      <c r="K6" s="326"/>
+      <c r="L6" s="327"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="313" t="s">
+      <c r="B7" s="312" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="314"/>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="314"/>
-      <c r="H7" s="314"/>
-      <c r="I7" s="314"/>
-      <c r="J7" s="314"/>
-      <c r="K7" s="314"/>
-      <c r="L7" s="315"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="313"/>
+      <c r="J7" s="313"/>
+      <c r="K7" s="313"/>
+      <c r="L7" s="314"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="306" t="s">
+      <c r="B8" s="305" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="307"/>
-      <c r="D8" s="307"/>
-      <c r="E8" s="307"/>
-      <c r="F8" s="307"/>
-      <c r="G8" s="307"/>
-      <c r="H8" s="307"/>
-      <c r="I8" s="307"/>
-      <c r="J8" s="307"/>
-      <c r="K8" s="307"/>
-      <c r="L8" s="308"/>
+      <c r="C8" s="306"/>
+      <c r="D8" s="306"/>
+      <c r="E8" s="306"/>
+      <c r="F8" s="306"/>
+      <c r="G8" s="306"/>
+      <c r="H8" s="306"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="306"/>
+      <c r="K8" s="306"/>
+      <c r="L8" s="307"/>
     </row>
     <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
@@ -11966,83 +11957,83 @@
       <c r="L65" s="51"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="309" t="s">
+      <c r="B66" s="308" t="s">
         <v>382</v>
       </c>
-      <c r="C66" s="310"/>
-      <c r="D66" s="310"/>
-      <c r="E66" s="310"/>
-      <c r="F66" s="310"/>
-      <c r="G66" s="310"/>
-      <c r="H66" s="310"/>
-      <c r="I66" s="310"/>
-      <c r="J66" s="310"/>
-      <c r="K66" s="311"/>
-      <c r="L66" s="312"/>
+      <c r="C66" s="309"/>
+      <c r="D66" s="309"/>
+      <c r="E66" s="309"/>
+      <c r="F66" s="309"/>
+      <c r="G66" s="309"/>
+      <c r="H66" s="309"/>
+      <c r="I66" s="309"/>
+      <c r="J66" s="309"/>
+      <c r="K66" s="310"/>
+      <c r="L66" s="311"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="291" t="s">
+      <c r="B67" s="290" t="s">
         <v>383</v>
       </c>
-      <c r="C67" s="292"/>
-      <c r="D67" s="292"/>
+      <c r="C67" s="291"/>
+      <c r="D67" s="291"/>
       <c r="E67" s="52"/>
-      <c r="F67" s="302" t="s">
+      <c r="F67" s="301" t="s">
         <v>191</v>
       </c>
-      <c r="G67" s="302"/>
-      <c r="H67" s="302"/>
-      <c r="I67" s="302"/>
-      <c r="J67" s="302"/>
-      <c r="K67" s="302"/>
-      <c r="L67" s="303"/>
+      <c r="G67" s="301"/>
+      <c r="H67" s="301"/>
+      <c r="I67" s="301"/>
+      <c r="J67" s="301"/>
+      <c r="K67" s="301"/>
+      <c r="L67" s="302"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="291" t="s">
+      <c r="B68" s="290" t="s">
         <v>384</v>
       </c>
-      <c r="C68" s="292"/>
-      <c r="D68" s="292"/>
+      <c r="C68" s="291"/>
+      <c r="D68" s="291"/>
       <c r="E68" s="52"/>
-      <c r="F68" s="302"/>
-      <c r="G68" s="302"/>
-      <c r="H68" s="302"/>
-      <c r="I68" s="302"/>
-      <c r="J68" s="302"/>
-      <c r="K68" s="302"/>
-      <c r="L68" s="303"/>
+      <c r="F68" s="301"/>
+      <c r="G68" s="301"/>
+      <c r="H68" s="301"/>
+      <c r="I68" s="301"/>
+      <c r="J68" s="301"/>
+      <c r="K68" s="301"/>
+      <c r="L68" s="302"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="291" t="s">
+      <c r="B69" s="290" t="s">
         <v>385</v>
       </c>
-      <c r="C69" s="292"/>
-      <c r="D69" s="292"/>
+      <c r="C69" s="291"/>
+      <c r="D69" s="291"/>
       <c r="E69" s="52"/>
-      <c r="F69" s="302" t="s">
+      <c r="F69" s="301" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="302"/>
-      <c r="H69" s="302"/>
-      <c r="I69" s="302"/>
-      <c r="J69" s="302"/>
-      <c r="K69" s="302"/>
-      <c r="L69" s="303"/>
+      <c r="G69" s="301"/>
+      <c r="H69" s="301"/>
+      <c r="I69" s="301"/>
+      <c r="J69" s="301"/>
+      <c r="K69" s="301"/>
+      <c r="L69" s="302"/>
     </row>
     <row r="70" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="283" t="s">
+      <c r="B70" s="282" t="s">
         <v>588</v>
       </c>
-      <c r="C70" s="284"/>
-      <c r="D70" s="284"/>
+      <c r="C70" s="283"/>
+      <c r="D70" s="283"/>
       <c r="E70" s="53"/>
-      <c r="F70" s="304"/>
-      <c r="G70" s="304"/>
-      <c r="H70" s="304"/>
-      <c r="I70" s="304"/>
-      <c r="J70" s="304"/>
-      <c r="K70" s="304"/>
-      <c r="L70" s="305"/>
+      <c r="F70" s="303"/>
+      <c r="G70" s="303"/>
+      <c r="H70" s="303"/>
+      <c r="I70" s="303"/>
+      <c r="J70" s="303"/>
+      <c r="K70" s="303"/>
+      <c r="L70" s="304"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -12071,8 +12062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F031F4EE-3EC7-47DE-91AF-34380ED2D64A}">
   <dimension ref="B1:AO126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F126"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14128,32 +14119,32 @@
   <sheetData>
     <row r="1" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:41" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="329" t="s">
+      <c r="B2" s="328" t="s">
         <v>589</v>
       </c>
-      <c r="C2" s="330"/>
-      <c r="D2" s="330"/>
-      <c r="E2" s="330"/>
-      <c r="F2" s="330"/>
-      <c r="G2" s="330"/>
-      <c r="H2" s="330"/>
-      <c r="I2" s="330"/>
-      <c r="J2" s="330"/>
-      <c r="K2" s="330"/>
-      <c r="L2" s="330"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
+      <c r="J2" s="329"/>
+      <c r="K2" s="329"/>
+      <c r="L2" s="329"/>
     </row>
     <row r="3" spans="2:41" s="172" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="170" t="s">
         <v>590</v>
       </c>
-      <c r="C3" s="331"/>
-      <c r="D3" s="332"/>
-      <c r="E3" s="332"/>
-      <c r="F3" s="332"/>
-      <c r="G3" s="332"/>
-      <c r="H3" s="332"/>
-      <c r="I3" s="332"/>
-      <c r="J3" s="333"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="331"/>
+      <c r="H3" s="331"/>
+      <c r="I3" s="331"/>
+      <c r="J3" s="332"/>
       <c r="K3" s="79"/>
       <c r="L3" s="79"/>
       <c r="M3" s="171"/>
@@ -14171,16 +14162,16 @@
       <c r="B4" s="173" t="s">
         <v>591</v>
       </c>
-      <c r="C4" s="334" t="s">
+      <c r="C4" s="333" t="s">
         <v>651</v>
       </c>
-      <c r="D4" s="335"/>
-      <c r="E4" s="335"/>
-      <c r="F4" s="335"/>
-      <c r="G4" s="335"/>
-      <c r="H4" s="335"/>
-      <c r="I4" s="335"/>
-      <c r="J4" s="336"/>
+      <c r="D4" s="334"/>
+      <c r="E4" s="334"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="334"/>
+      <c r="H4" s="334"/>
+      <c r="I4" s="334"/>
+      <c r="J4" s="335"/>
       <c r="M4" s="175"/>
       <c r="N4" s="175"/>
       <c r="O4" s="175"/>
@@ -14303,7 +14294,7 @@
       <c r="U7" s="165"/>
       <c r="V7" s="56"/>
     </row>
-    <row r="8" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B8" s="190">
         <v>2</v>
       </c>
@@ -14354,7 +14345,7 @@
       <c r="U8" s="162"/>
       <c r="V8" s="162"/>
     </row>
-    <row r="9" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B9" s="190">
         <v>3</v>
       </c>
@@ -14415,7 +14406,7 @@
       <c r="D10" s="160" t="s">
         <v>659</v>
       </c>
-      <c r="E10" s="216" t="s">
+      <c r="E10" s="185" t="s">
         <v>666</v>
       </c>
       <c r="F10" s="160" t="s">
@@ -14454,7 +14445,7 @@
       <c r="U10" s="162"/>
       <c r="V10" s="162"/>
     </row>
-    <row r="11" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B11" s="190">
         <v>5</v>
       </c>
@@ -14520,13 +14511,13 @@
       </c>
       <c r="AK11" s="64"/>
       <c r="AL11" s="64"/>
-      <c r="AM11" s="337"/>
+      <c r="AM11" s="336"/>
       <c r="AN11" s="75" t="s">
         <v>617</v>
       </c>
       <c r="AO11" s="63"/>
     </row>
-    <row r="12" spans="2:41" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="190">
         <v>6</v>
       </c>
@@ -14588,13 +14579,13 @@
       <c r="AJ12" s="72"/>
       <c r="AK12" s="64"/>
       <c r="AL12" s="64"/>
-      <c r="AM12" s="337"/>
+      <c r="AM12" s="336"/>
       <c r="AN12" s="69" t="s">
         <v>627</v>
       </c>
       <c r="AO12" s="63"/>
     </row>
-    <row r="13" spans="2:41" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="190">
         <v>7</v>
       </c>
@@ -14656,13 +14647,13 @@
       <c r="AJ13" s="64"/>
       <c r="AK13" s="64"/>
       <c r="AL13" s="64"/>
-      <c r="AM13" s="337"/>
+      <c r="AM13" s="336"/>
       <c r="AN13" s="69" t="s">
         <v>629</v>
       </c>
       <c r="AO13" s="63"/>
     </row>
-    <row r="14" spans="2:41" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="190">
         <v>8</v>
       </c>
@@ -14720,13 +14711,13 @@
       <c r="AJ14" s="64"/>
       <c r="AK14" s="64"/>
       <c r="AL14" s="64"/>
-      <c r="AM14" s="337"/>
+      <c r="AM14" s="336"/>
       <c r="AN14" s="69" t="s">
         <v>630</v>
       </c>
       <c r="AO14" s="63"/>
     </row>
-    <row r="15" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B15" s="190">
         <v>9</v>
       </c>
@@ -14784,13 +14775,13 @@
       <c r="AJ15" s="64"/>
       <c r="AK15" s="64"/>
       <c r="AL15" s="64"/>
-      <c r="AM15" s="337"/>
+      <c r="AM15" s="336"/>
       <c r="AN15" s="69" t="s">
         <v>631</v>
       </c>
       <c r="AO15" s="63"/>
     </row>
-    <row r="16" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B16" s="190">
         <v>10</v>
       </c>
@@ -14848,13 +14839,13 @@
       <c r="AJ16" s="64"/>
       <c r="AK16" s="64"/>
       <c r="AL16" s="64"/>
-      <c r="AM16" s="337"/>
+      <c r="AM16" s="336"/>
       <c r="AN16" s="69" t="s">
         <v>632</v>
       </c>
       <c r="AO16" s="63"/>
     </row>
-    <row r="17" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B17" s="190">
         <v>11</v>
       </c>
@@ -14912,13 +14903,13 @@
       <c r="AJ17" s="64"/>
       <c r="AK17" s="64"/>
       <c r="AL17" s="64"/>
-      <c r="AM17" s="337"/>
+      <c r="AM17" s="336"/>
       <c r="AN17" s="69" t="s">
         <v>633</v>
       </c>
       <c r="AO17" s="63"/>
     </row>
-    <row r="18" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B18" s="190">
         <v>12</v>
       </c>
@@ -14976,13 +14967,13 @@
       <c r="AJ18" s="64"/>
       <c r="AK18" s="64"/>
       <c r="AL18" s="64"/>
-      <c r="AM18" s="337"/>
+      <c r="AM18" s="336"/>
       <c r="AN18" s="69" t="s">
         <v>634</v>
       </c>
       <c r="AO18" s="63"/>
     </row>
-    <row r="19" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B19" s="190">
         <v>13</v>
       </c>
@@ -15040,13 +15031,13 @@
       <c r="AJ19" s="64"/>
       <c r="AK19" s="64"/>
       <c r="AL19" s="64"/>
-      <c r="AM19" s="337"/>
+      <c r="AM19" s="336"/>
       <c r="AN19" s="69" t="s">
         <v>635</v>
       </c>
       <c r="AO19" s="63"/>
     </row>
-    <row r="20" spans="2:41" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="190">
         <v>14</v>
       </c>
@@ -15101,12 +15092,12 @@
       <c r="AG20" s="64"/>
       <c r="AH20" s="64"/>
       <c r="AI20" s="64"/>
-      <c r="AJ20" s="339"/>
+      <c r="AJ20" s="338"/>
       <c r="AK20" s="71" t="s">
         <v>636</v>
       </c>
       <c r="AL20" s="64"/>
-      <c r="AM20" s="337"/>
+      <c r="AM20" s="336"/>
       <c r="AN20" s="69" t="s">
         <v>637</v>
       </c>
@@ -15167,12 +15158,12 @@
       <c r="AG21" s="64"/>
       <c r="AH21" s="64"/>
       <c r="AI21" s="64"/>
-      <c r="AJ21" s="339"/>
+      <c r="AJ21" s="338"/>
       <c r="AK21" s="71" t="s">
         <v>638</v>
       </c>
       <c r="AL21" s="64"/>
-      <c r="AM21" s="337"/>
+      <c r="AM21" s="336"/>
       <c r="AN21" s="69" t="s">
         <v>639</v>
       </c>
@@ -15233,18 +15224,18 @@
       <c r="AG22" s="64"/>
       <c r="AH22" s="64"/>
       <c r="AI22" s="64"/>
-      <c r="AJ22" s="339"/>
+      <c r="AJ22" s="338"/>
       <c r="AK22" s="71" t="s">
         <v>640</v>
       </c>
       <c r="AL22" s="64"/>
-      <c r="AM22" s="337"/>
+      <c r="AM22" s="336"/>
       <c r="AN22" s="69" t="s">
         <v>641</v>
       </c>
       <c r="AO22" s="63"/>
     </row>
-    <row r="23" spans="2:41" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="190">
         <v>17</v>
       </c>
@@ -15299,18 +15290,18 @@
       <c r="AG23" s="64"/>
       <c r="AH23" s="64"/>
       <c r="AI23" s="64"/>
-      <c r="AJ23" s="340"/>
+      <c r="AJ23" s="339"/>
       <c r="AK23" s="70" t="s">
         <v>642</v>
       </c>
       <c r="AL23" s="64"/>
-      <c r="AM23" s="337"/>
+      <c r="AM23" s="336"/>
       <c r="AN23" s="69" t="s">
         <v>643</v>
       </c>
       <c r="AO23" s="63"/>
     </row>
-    <row r="24" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B24" s="190">
         <v>18</v>
       </c>
@@ -15368,13 +15359,13 @@
       <c r="AJ24" s="65"/>
       <c r="AK24" s="64"/>
       <c r="AL24" s="64"/>
-      <c r="AM24" s="337"/>
+      <c r="AM24" s="336"/>
       <c r="AN24" s="69" t="s">
         <v>644</v>
       </c>
       <c r="AO24" s="63"/>
     </row>
-    <row r="25" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B25" s="190">
         <v>19</v>
       </c>
@@ -15432,7 +15423,7 @@
       <c r="AJ25" s="65"/>
       <c r="AK25" s="64"/>
       <c r="AL25" s="64"/>
-      <c r="AM25" s="337"/>
+      <c r="AM25" s="336"/>
       <c r="AN25" s="69" t="s">
         <v>645</v>
       </c>
@@ -15496,7 +15487,7 @@
       <c r="AJ26" s="65"/>
       <c r="AK26" s="64"/>
       <c r="AL26" s="64"/>
-      <c r="AM26" s="337"/>
+      <c r="AM26" s="336"/>
       <c r="AN26" s="69" t="s">
         <v>646</v>
       </c>
@@ -15560,13 +15551,13 @@
       <c r="AJ27" s="65"/>
       <c r="AK27" s="64"/>
       <c r="AL27" s="64"/>
-      <c r="AM27" s="337"/>
+      <c r="AM27" s="336"/>
       <c r="AN27" s="69" t="s">
         <v>647</v>
       </c>
       <c r="AO27" s="63"/>
     </row>
-    <row r="28" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B28" s="190">
         <v>22</v>
       </c>
@@ -15624,13 +15615,13 @@
       <c r="AJ28" s="65"/>
       <c r="AK28" s="64"/>
       <c r="AL28" s="64"/>
-      <c r="AM28" s="337"/>
+      <c r="AM28" s="336"/>
       <c r="AN28" s="69" t="s">
         <v>648</v>
       </c>
       <c r="AO28" s="63"/>
     </row>
-    <row r="29" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B29" s="190">
         <v>23</v>
       </c>
@@ -15688,7 +15679,7 @@
       <c r="AJ29" s="65"/>
       <c r="AK29" s="64"/>
       <c r="AL29" s="64"/>
-      <c r="AM29" s="337"/>
+      <c r="AM29" s="336"/>
       <c r="AN29" s="69" t="s">
         <v>649</v>
       </c>
@@ -15752,13 +15743,13 @@
       <c r="AJ30" s="65"/>
       <c r="AK30" s="64"/>
       <c r="AL30" s="64"/>
-      <c r="AM30" s="337"/>
+      <c r="AM30" s="336"/>
       <c r="AN30" s="69" t="s">
         <v>650</v>
       </c>
       <c r="AO30" s="63"/>
     </row>
-    <row r="31" spans="2:41" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="190">
         <v>25</v>
       </c>
@@ -15816,11 +15807,11 @@
       <c r="AJ31" s="64"/>
       <c r="AK31" s="64"/>
       <c r="AL31" s="64"/>
-      <c r="AM31" s="338"/>
+      <c r="AM31" s="337"/>
       <c r="AN31" s="67"/>
       <c r="AO31" s="63"/>
     </row>
-    <row r="32" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B32" s="190">
         <v>26</v>
       </c>
@@ -15882,7 +15873,7 @@
       <c r="AN32" s="64"/>
       <c r="AO32" s="63"/>
     </row>
-    <row r="33" spans="2:41" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="190">
         <v>27</v>
       </c>
@@ -15944,7 +15935,7 @@
       <c r="AN33" s="60"/>
       <c r="AO33" s="59"/>
     </row>
-    <row r="34" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B34" s="190">
         <v>28</v>
       </c>
@@ -15994,7 +15985,7 @@
       <c r="V34" s="54"/>
       <c r="AF34" s="57"/>
     </row>
-    <row r="35" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B35" s="190">
         <v>29</v>
       </c>
@@ -16044,7 +16035,7 @@
       <c r="V35" s="54"/>
       <c r="AF35" s="57"/>
     </row>
-    <row r="36" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B36" s="190">
         <v>30</v>
       </c>
@@ -16094,7 +16085,7 @@
       <c r="V36" s="54"/>
       <c r="AF36" s="57"/>
     </row>
-    <row r="37" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B37" s="190">
         <v>31</v>
       </c>
@@ -16144,7 +16135,7 @@
       <c r="V37" s="54"/>
       <c r="AF37" s="57"/>
     </row>
-    <row r="38" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B38" s="190">
         <v>32</v>
       </c>
@@ -16194,7 +16185,7 @@
       <c r="V38" s="54"/>
       <c r="AF38" s="57"/>
     </row>
-    <row r="39" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B39" s="190">
         <v>33</v>
       </c>
@@ -16244,7 +16235,7 @@
       <c r="V39" s="54"/>
       <c r="AF39" s="57"/>
     </row>
-    <row r="40" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B40" s="190">
         <v>34</v>
       </c>
@@ -16294,7 +16285,7 @@
       <c r="V40" s="54"/>
       <c r="AF40" s="57"/>
     </row>
-    <row r="41" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B41" s="190">
         <v>35</v>
       </c>
@@ -16344,7 +16335,7 @@
       <c r="V41" s="54"/>
       <c r="AF41" s="57"/>
     </row>
-    <row r="42" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B42" s="190">
         <v>36</v>
       </c>
@@ -16594,7 +16585,7 @@
       <c r="V46" s="54"/>
       <c r="AF46" s="57"/>
     </row>
-    <row r="47" spans="2:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="190">
         <v>41</v>
       </c>
@@ -16644,7 +16635,7 @@
       <c r="V47" s="161"/>
       <c r="AF47" s="57"/>
     </row>
-    <row r="48" spans="2:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B48" s="190">
         <v>42</v>
       </c>
@@ -16744,7 +16735,7 @@
       <c r="V49" s="161"/>
       <c r="AF49" s="57"/>
     </row>
-    <row r="50" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B50" s="190">
         <v>44</v>
       </c>
@@ -16794,7 +16785,7 @@
       <c r="V50" s="161"/>
       <c r="AF50" s="57"/>
     </row>
-    <row r="51" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B51" s="190">
         <v>45</v>
       </c>
@@ -16844,7 +16835,7 @@
       <c r="V51" s="161"/>
       <c r="AF51" s="57"/>
     </row>
-    <row r="52" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B52" s="190">
         <v>46</v>
       </c>
@@ -16994,7 +16985,7 @@
       <c r="V54" s="54"/>
       <c r="AF54" s="57"/>
     </row>
-    <row r="55" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B55" s="190">
         <v>49</v>
       </c>
@@ -17044,7 +17035,7 @@
       <c r="V55" s="54"/>
       <c r="AF55" s="57"/>
     </row>
-    <row r="56" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B56" s="190">
         <v>50</v>
       </c>
@@ -17194,7 +17185,7 @@
       <c r="V58" s="54"/>
       <c r="AF58" s="57"/>
     </row>
-    <row r="59" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B59" s="190">
         <v>53</v>
       </c>
@@ -17294,7 +17285,7 @@
       <c r="V60" s="54"/>
       <c r="AF60" s="57"/>
     </row>
-    <row r="61" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B61" s="190">
         <v>55</v>
       </c>
@@ -17344,7 +17335,7 @@
       <c r="V61" s="54"/>
       <c r="AF61" s="57"/>
     </row>
-    <row r="62" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B62" s="190">
         <v>56</v>
       </c>
@@ -17394,7 +17385,7 @@
       <c r="V62" s="54"/>
       <c r="AF62" s="57"/>
     </row>
-    <row r="63" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B63" s="190">
         <v>57</v>
       </c>
@@ -17444,7 +17435,7 @@
       <c r="V63" s="54"/>
       <c r="AF63" s="57"/>
     </row>
-    <row r="64" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B64" s="190">
         <v>58</v>
       </c>
@@ -17494,7 +17485,7 @@
       <c r="V64" s="54"/>
       <c r="AF64" s="57"/>
     </row>
-    <row r="65" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B65" s="190">
         <v>59</v>
       </c>
@@ -17544,7 +17535,7 @@
       <c r="V65" s="54"/>
       <c r="AF65" s="57"/>
     </row>
-    <row r="66" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B66" s="190">
         <v>60</v>
       </c>
@@ -17594,7 +17585,7 @@
       <c r="V66" s="54"/>
       <c r="AF66" s="57"/>
     </row>
-    <row r="67" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B67" s="190">
         <v>61</v>
       </c>
@@ -17644,7 +17635,7 @@
       <c r="V67" s="54"/>
       <c r="AF67" s="57"/>
     </row>
-    <row r="68" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B68" s="190">
         <v>62</v>
       </c>
@@ -17694,7 +17685,7 @@
       <c r="V68" s="54"/>
       <c r="AF68" s="57"/>
     </row>
-    <row r="69" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B69" s="190">
         <v>63</v>
       </c>
@@ -17746,7 +17737,7 @@
       <c r="AE69" s="58"/>
       <c r="AF69" s="57"/>
     </row>
-    <row r="70" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B70" s="190">
         <v>64</v>
       </c>
@@ -17795,7 +17786,7 @@
       <c r="U70" s="161"/>
       <c r="V70" s="54"/>
     </row>
-    <row r="71" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B71" s="190">
         <v>65</v>
       </c>
@@ -17844,7 +17835,7 @@
       <c r="U71" s="161"/>
       <c r="V71" s="54"/>
     </row>
-    <row r="72" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B72" s="190">
         <v>66</v>
       </c>
@@ -17893,7 +17884,7 @@
       <c r="U72" s="161"/>
       <c r="V72" s="54"/>
     </row>
-    <row r="73" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B73" s="190">
         <v>67</v>
       </c>
@@ -17991,7 +17982,7 @@
       <c r="U74" s="161"/>
       <c r="V74" s="54"/>
     </row>
-    <row r="75" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B75" s="190">
         <v>69</v>
       </c>
@@ -18040,7 +18031,7 @@
       <c r="U75" s="161"/>
       <c r="V75" s="54"/>
     </row>
-    <row r="76" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B76" s="190">
         <v>70</v>
       </c>
@@ -18089,7 +18080,7 @@
       <c r="U76" s="161"/>
       <c r="V76" s="54"/>
     </row>
-    <row r="77" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B77" s="190">
         <v>71</v>
       </c>
@@ -18138,7 +18129,7 @@
       <c r="U77" s="161"/>
       <c r="V77" s="54"/>
     </row>
-    <row r="78" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B78" s="190">
         <v>72</v>
       </c>
@@ -18187,7 +18178,7 @@
       <c r="U78" s="161"/>
       <c r="V78" s="54"/>
     </row>
-    <row r="79" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="190">
         <v>73</v>
       </c>
@@ -18236,7 +18227,7 @@
       <c r="U79" s="161"/>
       <c r="V79" s="54"/>
     </row>
-    <row r="80" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B80" s="190">
         <v>74</v>
       </c>
@@ -18285,7 +18276,7 @@
       <c r="U80" s="161"/>
       <c r="V80" s="54"/>
     </row>
-    <row r="81" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B81" s="190">
         <v>75</v>
       </c>
@@ -18334,7 +18325,7 @@
       <c r="U81" s="161"/>
       <c r="V81" s="54"/>
     </row>
-    <row r="82" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B82" s="190">
         <v>76</v>
       </c>
@@ -18383,7 +18374,7 @@
       <c r="U82" s="161"/>
       <c r="V82" s="54"/>
     </row>
-    <row r="83" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B83" s="190">
         <v>77</v>
       </c>
@@ -18432,7 +18423,7 @@
       <c r="U83" s="161"/>
       <c r="V83" s="54"/>
     </row>
-    <row r="84" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B84" s="190">
         <v>78</v>
       </c>
@@ -18481,7 +18472,7 @@
       <c r="U84" s="161"/>
       <c r="V84" s="54"/>
     </row>
-    <row r="85" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B85" s="190">
         <v>79</v>
       </c>
@@ -18530,7 +18521,7 @@
       <c r="U85" s="161"/>
       <c r="V85" s="54"/>
     </row>
-    <row r="86" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B86" s="190">
         <v>80</v>
       </c>
@@ -18579,7 +18570,7 @@
       <c r="U86" s="161"/>
       <c r="V86" s="54"/>
     </row>
-    <row r="87" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B87" s="190">
         <v>81</v>
       </c>
@@ -18628,7 +18619,7 @@
       <c r="U87" s="161"/>
       <c r="V87" s="54"/>
     </row>
-    <row r="88" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B88" s="190">
         <v>82</v>
       </c>
@@ -18726,7 +18717,7 @@
       <c r="U89" s="161"/>
       <c r="V89" s="54"/>
     </row>
-    <row r="90" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B90" s="190">
         <v>84</v>
       </c>
@@ -18775,7 +18766,7 @@
       <c r="U90" s="161"/>
       <c r="V90" s="54"/>
     </row>
-    <row r="91" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B91" s="190">
         <v>85</v>
       </c>
@@ -18824,7 +18815,7 @@
       <c r="U91" s="161"/>
       <c r="V91" s="54"/>
     </row>
-    <row r="92" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B92" s="190">
         <v>86</v>
       </c>
@@ -18873,7 +18864,7 @@
       <c r="U92" s="161"/>
       <c r="V92" s="54"/>
     </row>
-    <row r="93" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B93" s="190">
         <v>87</v>
       </c>
@@ -18910,7 +18901,7 @@
       <c r="U93" s="161"/>
       <c r="V93" s="54"/>
     </row>
-    <row r="94" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B94" s="190">
         <v>88</v>
       </c>
@@ -18935,7 +18926,7 @@
       <c r="U94" s="54"/>
       <c r="V94" s="54"/>
     </row>
-    <row r="95" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B95" s="182"/>
       <c r="C95" s="182"/>
       <c r="D95" s="182"/>
@@ -18958,7 +18949,7 @@
       <c r="U95" s="54"/>
       <c r="V95" s="54"/>
     </row>
-    <row r="96" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B96" s="182"/>
       <c r="C96" s="182"/>
       <c r="D96" s="182"/>
@@ -18981,7 +18972,7 @@
       <c r="U96" s="54"/>
       <c r="V96" s="54"/>
     </row>
-    <row r="97" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B97" s="182"/>
       <c r="C97" s="182"/>
       <c r="D97" s="182"/>
@@ -19004,7 +18995,7 @@
       <c r="U97" s="54"/>
       <c r="V97" s="54"/>
     </row>
-    <row r="98" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B98" s="182"/>
       <c r="C98" s="182"/>
       <c r="D98" s="182"/>
@@ -19027,7 +19018,7 @@
       <c r="U98" s="54"/>
       <c r="V98" s="54"/>
     </row>
-    <row r="99" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B99" s="182"/>
       <c r="C99" s="182"/>
       <c r="D99" s="182"/>
@@ -19050,7 +19041,7 @@
       <c r="U99" s="54"/>
       <c r="V99" s="54"/>
     </row>
-    <row r="100" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B100" s="182"/>
       <c r="C100" s="182"/>
       <c r="D100" s="182"/>
@@ -19073,7 +19064,7 @@
       <c r="U100" s="54"/>
       <c r="V100" s="54"/>
     </row>
-    <row r="101" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B101" s="182"/>
       <c r="C101" s="182"/>
       <c r="D101" s="182"/>
@@ -19096,7 +19087,7 @@
       <c r="U101" s="54"/>
       <c r="V101" s="54"/>
     </row>
-    <row r="102" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B102" s="182"/>
       <c r="C102" s="182"/>
       <c r="D102" s="182"/>
@@ -19119,7 +19110,7 @@
       <c r="U102" s="54"/>
       <c r="V102" s="54"/>
     </row>
-    <row r="103" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B103" s="182"/>
       <c r="C103" s="182"/>
       <c r="D103" s="182"/>
@@ -19142,7 +19133,7 @@
       <c r="U103" s="54"/>
       <c r="V103" s="54"/>
     </row>
-    <row r="104" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B104" s="182"/>
       <c r="C104" s="182"/>
       <c r="D104" s="182"/>
@@ -19165,7 +19156,7 @@
       <c r="U104" s="54"/>
       <c r="V104" s="54"/>
     </row>
-    <row r="105" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B105" s="182"/>
       <c r="C105" s="182"/>
       <c r="D105" s="182"/>
@@ -19188,7 +19179,7 @@
       <c r="U105" s="54"/>
       <c r="V105" s="54"/>
     </row>
-    <row r="106" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B106" s="182"/>
       <c r="C106" s="182"/>
       <c r="D106" s="182"/>
@@ -19211,7 +19202,7 @@
       <c r="U106" s="54"/>
       <c r="V106" s="54"/>
     </row>
-    <row r="107" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B107" s="182"/>
       <c r="C107" s="182"/>
       <c r="D107" s="182"/>
@@ -19234,7 +19225,7 @@
       <c r="U107" s="54"/>
       <c r="V107" s="54"/>
     </row>
-    <row r="108" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B108" s="182"/>
       <c r="C108" s="182"/>
       <c r="D108" s="182"/>
@@ -19257,7 +19248,7 @@
       <c r="U108" s="54"/>
       <c r="V108" s="54"/>
     </row>
-    <row r="109" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B109" s="182"/>
       <c r="C109" s="182"/>
       <c r="D109" s="182"/>
@@ -19280,7 +19271,7 @@
       <c r="U109" s="54"/>
       <c r="V109" s="54"/>
     </row>
-    <row r="110" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B110" s="182"/>
       <c r="C110" s="182"/>
       <c r="D110" s="182"/>
@@ -19303,7 +19294,7 @@
       <c r="U110" s="54"/>
       <c r="V110" s="54"/>
     </row>
-    <row r="111" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B111" s="182"/>
       <c r="C111" s="182"/>
       <c r="D111" s="182"/>
@@ -19326,7 +19317,7 @@
       <c r="U111" s="54"/>
       <c r="V111" s="54"/>
     </row>
-    <row r="112" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B112" s="182"/>
       <c r="C112" s="182"/>
       <c r="D112" s="182"/>
@@ -19349,7 +19340,7 @@
       <c r="U112" s="54"/>
       <c r="V112" s="54"/>
     </row>
-    <row r="113" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B113" s="182"/>
       <c r="C113" s="182"/>
       <c r="D113" s="182"/>
@@ -19372,7 +19363,7 @@
       <c r="U113" s="54"/>
       <c r="V113" s="54"/>
     </row>
-    <row r="114" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B114" s="182"/>
       <c r="C114" s="182"/>
       <c r="D114" s="182"/>
@@ -19395,7 +19386,7 @@
       <c r="U114" s="54"/>
       <c r="V114" s="54"/>
     </row>
-    <row r="115" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B115" s="182"/>
       <c r="C115" s="182"/>
       <c r="D115" s="182"/>
@@ -19418,7 +19409,7 @@
       <c r="U115" s="54"/>
       <c r="V115" s="54"/>
     </row>
-    <row r="116" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B116" s="182"/>
       <c r="C116" s="182"/>
       <c r="D116" s="182"/>
@@ -19441,7 +19432,7 @@
       <c r="U116" s="54"/>
       <c r="V116" s="54"/>
     </row>
-    <row r="117" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B117" s="182"/>
       <c r="C117" s="182"/>
       <c r="D117" s="182"/>
@@ -19464,7 +19455,7 @@
       <c r="U117" s="54"/>
       <c r="V117" s="54"/>
     </row>
-    <row r="118" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B118" s="182"/>
       <c r="C118" s="182"/>
       <c r="D118" s="182"/>
@@ -19487,7 +19478,7 @@
       <c r="U118" s="54"/>
       <c r="V118" s="54"/>
     </row>
-    <row r="119" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B119" s="182"/>
       <c r="C119" s="182"/>
       <c r="D119" s="182"/>
@@ -19510,7 +19501,7 @@
       <c r="U119" s="54"/>
       <c r="V119" s="54"/>
     </row>
-    <row r="120" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B120" s="182"/>
       <c r="C120" s="182"/>
       <c r="D120" s="182"/>
@@ -19533,7 +19524,7 @@
       <c r="U120" s="54"/>
       <c r="V120" s="54"/>
     </row>
-    <row r="121" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B121" s="182"/>
       <c r="C121" s="182"/>
       <c r="D121" s="182"/>
@@ -19556,7 +19547,7 @@
       <c r="U121" s="54"/>
       <c r="V121" s="54"/>
     </row>
-    <row r="122" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B122" s="182"/>
       <c r="C122" s="182"/>
       <c r="D122" s="182"/>
@@ -19579,7 +19570,7 @@
       <c r="U122" s="54"/>
       <c r="V122" s="54"/>
     </row>
-    <row r="123" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B123" s="182"/>
       <c r="C123" s="182"/>
       <c r="D123" s="182"/>
@@ -19602,7 +19593,7 @@
       <c r="U123" s="54"/>
       <c r="V123" s="54"/>
     </row>
-    <row r="124" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B124" s="182"/>
       <c r="C124" s="182"/>
       <c r="D124" s="182"/>
@@ -19625,7 +19616,7 @@
       <c r="U124" s="54"/>
       <c r="V124" s="54"/>
     </row>
-    <row r="125" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B125" s="182"/>
       <c r="C125" s="182"/>
       <c r="D125" s="182"/>
@@ -19648,7 +19639,7 @@
       <c r="U125" s="54"/>
       <c r="V125" s="54"/>
     </row>
-    <row r="126" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B126" s="182"/>
       <c r="C126" s="182"/>
       <c r="D126" s="182"/>

--- a/Testing/Revised Plan.xlsx
+++ b/Testing/Revised Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Revised Plan and Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{3BF5CA56-C23A-4966-84C9-5D5E6B79DC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="6_{3BF5CA56-C23A-4966-84C9-5D5E6B79DC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E111B8F-4E63-47F7-BF1E-E8ED9C922C13}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{FF53E854-575C-4B97-B6D0-9B270F57EAA4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="808">
   <si>
     <t>WEEK 0</t>
   </si>
@@ -2414,12 +2414,6 @@
     <t>Incorrect Integration Test Cases</t>
   </si>
   <si>
-    <t>Database Error</t>
-  </si>
-  <si>
-    <t>Incorrect Functional Test Cases</t>
-  </si>
-  <si>
     <t>Data Error</t>
   </si>
   <si>
@@ -2438,9 +2432,6 @@
     <t>Not a Defect</t>
   </si>
   <si>
-    <t>Incomplete Documentation</t>
-  </si>
-  <si>
     <t>Incorrect Documentation</t>
   </si>
   <si>
@@ -2561,12 +2552,6 @@
     <t xml:space="preserve">Size of the Availability Date picker is small </t>
   </si>
   <si>
-    <t xml:space="preserve">Misalignment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time picker's hour &amp; minute is misaligned </t>
-  </si>
-  <si>
     <t>Sort the invites based on recent invite</t>
   </si>
   <si>
@@ -2612,9 +2597,6 @@
     <t>Login button's hover effect is light in colour</t>
   </si>
   <si>
-    <t>Repeated Character is accepted in Drive Name</t>
-  </si>
-  <si>
     <t>Filter</t>
   </si>
   <si>
@@ -2678,12 +2660,6 @@
     <t>Correction</t>
   </si>
   <si>
-    <t>TAC Create Invite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numbers/symbols are not accepted in Drive Name </t>
-  </si>
-  <si>
     <t>If Mode is online, Location is set to Not Applicable</t>
   </si>
   <si>
@@ -2750,18 +2726,12 @@
     <t>TAC - Edit pool</t>
   </si>
   <si>
-    <t>Special characters should be accepted when editing a pool's name</t>
-  </si>
-  <si>
     <t>If a pool is renamed with special characters, Error message is not thrown</t>
   </si>
   <si>
     <t>Remove Reason from card</t>
   </si>
   <si>
-    <t>Data is not displayed</t>
-  </si>
-  <si>
     <t>Department Performance</t>
   </si>
   <si>
@@ -2894,9 +2864,6 @@
     <t>Cancellation reason and comment - Remove colon , Remove all caps</t>
   </si>
   <si>
-    <t>Availability can be given by interviewer until 5 days (pooling time) i.e.,</t>
-  </si>
-  <si>
     <t>Interviewer - Accept Invite Page</t>
   </si>
   <si>
@@ -2925,6 +2892,24 @@
   </si>
   <si>
     <t xml:space="preserve">Repeated Character is accepted in Employee Name </t>
+  </si>
+  <si>
+    <t>Department is not deleted</t>
+  </si>
+  <si>
+    <t>Admin - Manage Department</t>
+  </si>
+  <si>
+    <t>Darshana,Kumaresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numbers are not accepted in Drive Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability can be given by interviewer until 5 days (pooling time) </t>
+  </si>
+  <si>
+    <t>Data is displayed but not filtered properly</t>
   </si>
 </sst>
 </file>
@@ -3165,7 +3150,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3250,8 +3235,14 @@
         <bgColor rgb="FFA6A6A6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="81">
+  <borders count="84">
     <border>
       <left/>
       <right/>
@@ -4261,6 +4252,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF505050"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4268,7 +4296,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="340">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4767,14 +4795,155 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4805,162 +4974,21 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5018,6 +5046,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5051,69 +5127,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5134,6 +5147,30 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5581,10 +5618,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3F4BC3-2C61-4283-9F4D-4AD81D4F1176}" name="Table1" displayName="Table1" ref="B6:L126" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="B6:L126" xr:uid="{5E3F4BC3-2C61-4283-9F4D-4AD81D4F1176}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:L126">
-    <sortCondition ref="B6:B126"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E3F4BC3-2C61-4283-9F4D-4AD81D4F1176}" name="Table1" displayName="Table1" ref="B6:L123" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="B6:L123" xr:uid="{5E3F4BC3-2C61-4283-9F4D-4AD81D4F1176}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:L123">
+    <sortCondition ref="B6:B123"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{8A12C314-52B0-4BCC-A6C8-C3945F42CE13}" name=" Defect Id(Required)" dataDxfId="10"/>
@@ -5940,7 +5977,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="218" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -5955,7 +5992,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="218"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5968,7 +6005,7 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="217" t="s">
+      <c r="D4" s="218" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -5983,7 +6020,7 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="217"/>
+      <c r="D5" s="218"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
@@ -5998,7 +6035,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="217" t="s">
+      <c r="D6" s="218" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -6013,7 +6050,7 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="217"/>
+      <c r="D7" s="218"/>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
@@ -6026,7 +6063,7 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="217" t="s">
+      <c r="D8" s="218" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -6041,7 +6078,7 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="217"/>
+      <c r="D9" s="218"/>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6086,7 +6123,7 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="218" t="s">
+      <c r="D12" s="217" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -6101,7 +6138,7 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="218"/>
+      <c r="D13" s="217"/>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
@@ -6114,7 +6151,7 @@
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="218"/>
+      <c r="D14" s="217"/>
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
@@ -6127,7 +6164,7 @@
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="218"/>
+      <c r="D15" s="217"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
@@ -6140,7 +6177,7 @@
       <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="218"/>
+      <c r="D16" s="217"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
@@ -6170,7 +6207,7 @@
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="218" t="s">
+      <c r="D18" s="217" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -6185,7 +6222,7 @@
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="218"/>
+      <c r="D19" s="217"/>
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
@@ -6198,7 +6235,7 @@
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="218"/>
+      <c r="D20" s="217"/>
       <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
@@ -6213,7 +6250,7 @@
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="218" t="s">
+      <c r="D21" s="217" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -6228,7 +6265,7 @@
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="218"/>
+      <c r="D22" s="217"/>
       <c r="E22" s="4" t="s">
         <v>3</v>
       </c>
@@ -6241,7 +6278,7 @@
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="218" t="s">
+      <c r="D23" s="217" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -6256,7 +6293,7 @@
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="218"/>
+      <c r="D24" s="217"/>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
@@ -6271,7 +6308,7 @@
       <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="217" t="s">
+      <c r="D25" s="218" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -6286,7 +6323,7 @@
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="217"/>
+      <c r="D26" s="218"/>
       <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
@@ -6299,7 +6336,7 @@
       <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="217"/>
+      <c r="D27" s="218"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -6310,7 +6347,7 @@
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="218" t="s">
+      <c r="D28" s="217" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="4"/>
@@ -6323,7 +6360,7 @@
       <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="218"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -6334,7 +6371,7 @@
       <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="218"/>
+      <c r="D30" s="217"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -6347,7 +6384,7 @@
       <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="218" t="s">
+      <c r="D31" s="217" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="4"/>
@@ -6360,7 +6397,7 @@
       <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="218"/>
+      <c r="D32" s="217"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -6386,7 +6423,7 @@
       <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="218" t="s">
+      <c r="D34" s="217" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="4"/>
@@ -6399,7 +6436,7 @@
       <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="218"/>
+      <c r="D35" s="217"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -6410,7 +6447,7 @@
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="218"/>
+      <c r="D36" s="217"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -6421,7 +6458,7 @@
       <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="218"/>
+      <c r="D37" s="217"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -6432,7 +6469,7 @@
       <c r="C38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="217" t="s">
+      <c r="D38" s="218" t="s">
         <v>58</v>
       </c>
       <c r="E38" s="4"/>
@@ -6445,7 +6482,7 @@
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="217"/>
+      <c r="D39" s="218"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -6458,7 +6495,7 @@
       <c r="C40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="218" t="s">
+      <c r="D40" s="217" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="4"/>
@@ -6471,7 +6508,7 @@
       <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="218"/>
+      <c r="D41" s="217"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -6482,7 +6519,7 @@
       <c r="C42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="218"/>
+      <c r="D42" s="217"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -6493,7 +6530,7 @@
       <c r="C43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="218" t="s">
+      <c r="D43" s="217" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="4"/>
@@ -6506,7 +6543,7 @@
       <c r="C44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="218"/>
+      <c r="D44" s="217"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -6517,11 +6554,24 @@
       <c r="C45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="218"/>
+      <c r="D45" s="217"/>
       <c r="E45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="D43:D45"/>
@@ -6533,19 +6583,6 @@
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7551,16 +7588,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7862,20 +7899,20 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="263" t="s">
+      <c r="B4" s="229" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="264"/>
-      <c r="M4" s="265"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="230"/>
+      <c r="J4" s="230"/>
+      <c r="K4" s="230"/>
+      <c r="L4" s="230"/>
+      <c r="M4" s="231"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
@@ -7895,239 +7932,239 @@
       <c r="B6" s="242" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="244"/>
-      <c r="D6" s="270" t="s">
+      <c r="C6" s="243"/>
+      <c r="D6" s="248" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="260" t="s">
+      <c r="E6" s="259" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="261"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="261"/>
-      <c r="I6" s="261"/>
-      <c r="J6" s="261"/>
-      <c r="K6" s="261"/>
-      <c r="L6" s="261"/>
-      <c r="M6" s="262"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="260"/>
+      <c r="H6" s="260"/>
+      <c r="I6" s="260"/>
+      <c r="J6" s="260"/>
+      <c r="K6" s="260"/>
+      <c r="L6" s="260"/>
+      <c r="M6" s="261"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="245"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="271"/>
-      <c r="E7" s="233"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="234"/>
-      <c r="H7" s="234"/>
-      <c r="I7" s="234"/>
-      <c r="J7" s="234"/>
-      <c r="K7" s="234"/>
-      <c r="L7" s="234"/>
-      <c r="M7" s="235"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="237"/>
+      <c r="H7" s="237"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="237"/>
+      <c r="K7" s="237"/>
+      <c r="L7" s="237"/>
+      <c r="M7" s="238"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="245"/>
-      <c r="C8" s="247"/>
-      <c r="D8" s="230" t="s">
+      <c r="B8" s="244"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="250" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="236" t="s">
+      <c r="E8" s="255" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="234"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="235"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="238"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="248"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="235"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="237"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="237"/>
+      <c r="I9" s="237"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="237"/>
+      <c r="M9" s="238"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="242" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="243"/>
-      <c r="D10" s="244"/>
-      <c r="E10" s="267" t="s">
+      <c r="C10" s="256"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="268"/>
-      <c r="G10" s="268"/>
-      <c r="H10" s="268"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="268"/>
-      <c r="K10" s="268"/>
-      <c r="L10" s="268"/>
-      <c r="M10" s="269"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="240"/>
+      <c r="I10" s="240"/>
+      <c r="J10" s="240"/>
+      <c r="K10" s="240"/>
+      <c r="L10" s="240"/>
+      <c r="M10" s="241"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="245"/>
-      <c r="C11" s="246"/>
-      <c r="D11" s="247"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="234"/>
-      <c r="H11" s="234"/>
-      <c r="I11" s="234"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="234"/>
-      <c r="M11" s="235"/>
+      <c r="B11" s="244"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="237"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="238"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="245"/>
-      <c r="C12" s="246"/>
-      <c r="D12" s="247"/>
-      <c r="E12" s="233"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="234"/>
-      <c r="I12" s="234"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="234"/>
-      <c r="M12" s="235"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="245"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="237"/>
+      <c r="G12" s="237"/>
+      <c r="H12" s="237"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="237"/>
+      <c r="M12" s="238"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="248"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="250"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="234"/>
-      <c r="G13" s="234"/>
-      <c r="H13" s="234"/>
-      <c r="I13" s="234"/>
-      <c r="J13" s="234"/>
-      <c r="K13" s="234"/>
-      <c r="L13" s="234"/>
-      <c r="M13" s="235"/>
+      <c r="B13" s="246"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="236"/>
+      <c r="F13" s="237"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="237"/>
+      <c r="I13" s="237"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="237"/>
+      <c r="M13" s="238"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="242" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="243"/>
-      <c r="D14" s="244"/>
-      <c r="E14" s="236" t="s">
+      <c r="C14" s="256"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="255" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="234"/>
-      <c r="G14" s="234"/>
-      <c r="H14" s="234"/>
-      <c r="I14" s="234"/>
-      <c r="J14" s="234"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="234"/>
-      <c r="M14" s="235"/>
+      <c r="F14" s="237"/>
+      <c r="G14" s="237"/>
+      <c r="H14" s="237"/>
+      <c r="I14" s="237"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="237"/>
+      <c r="L14" s="237"/>
+      <c r="M14" s="238"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="245"/>
-      <c r="C15" s="246"/>
-      <c r="D15" s="247"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="234"/>
-      <c r="I15" s="234"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="235"/>
+      <c r="B15" s="244"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="236"/>
+      <c r="F15" s="237"/>
+      <c r="G15" s="237"/>
+      <c r="H15" s="237"/>
+      <c r="I15" s="237"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="237"/>
+      <c r="L15" s="237"/>
+      <c r="M15" s="238"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="245"/>
-      <c r="C16" s="246"/>
-      <c r="D16" s="247"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="234"/>
-      <c r="I16" s="234"/>
-      <c r="J16" s="234"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="234"/>
-      <c r="M16" s="235"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="257"/>
+      <c r="D16" s="245"/>
+      <c r="E16" s="236"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="237"/>
+      <c r="I16" s="237"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="237"/>
+      <c r="L16" s="237"/>
+      <c r="M16" s="238"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="248"/>
-      <c r="C17" s="249"/>
-      <c r="D17" s="250"/>
-      <c r="E17" s="233"/>
-      <c r="F17" s="234"/>
-      <c r="G17" s="234"/>
-      <c r="H17" s="234"/>
-      <c r="I17" s="234"/>
-      <c r="J17" s="234"/>
-      <c r="K17" s="234"/>
-      <c r="L17" s="234"/>
-      <c r="M17" s="235"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="236"/>
+      <c r="F17" s="237"/>
+      <c r="G17" s="237"/>
+      <c r="H17" s="237"/>
+      <c r="I17" s="237"/>
+      <c r="J17" s="237"/>
+      <c r="K17" s="237"/>
+      <c r="L17" s="237"/>
+      <c r="M17" s="238"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="227" t="s">
+      <c r="B18" s="274" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="228"/>
+      <c r="C18" s="275"/>
       <c r="D18" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="236" t="s">
+      <c r="E18" s="255" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="234"/>
-      <c r="G18" s="234"/>
-      <c r="H18" s="234"/>
-      <c r="I18" s="234"/>
-      <c r="J18" s="234"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="235"/>
+      <c r="F18" s="237"/>
+      <c r="G18" s="237"/>
+      <c r="H18" s="237"/>
+      <c r="I18" s="237"/>
+      <c r="J18" s="237"/>
+      <c r="K18" s="237"/>
+      <c r="L18" s="237"/>
+      <c r="M18" s="238"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="229"/>
-      <c r="C19" s="230"/>
+      <c r="B19" s="276"/>
+      <c r="C19" s="250"/>
       <c r="D19" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="236"/>
-      <c r="F19" s="234"/>
-      <c r="G19" s="234"/>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="234"/>
-      <c r="M19" s="235"/>
+      <c r="E19" s="255"/>
+      <c r="F19" s="237"/>
+      <c r="G19" s="237"/>
+      <c r="H19" s="237"/>
+      <c r="I19" s="237"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="237"/>
+      <c r="M19" s="238"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="231"/>
-      <c r="C20" s="232"/>
+      <c r="B20" s="277"/>
+      <c r="C20" s="278"/>
       <c r="D20" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="233"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="234"/>
-      <c r="M20" s="235"/>
+      <c r="E20" s="236"/>
+      <c r="F20" s="237"/>
+      <c r="G20" s="237"/>
+      <c r="H20" s="237"/>
+      <c r="I20" s="237"/>
+      <c r="J20" s="237"/>
+      <c r="K20" s="237"/>
+      <c r="L20" s="237"/>
+      <c r="M20" s="238"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
@@ -8158,126 +8195,126 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="221" t="s">
+      <c r="B23" s="268" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="222"/>
-      <c r="D23" s="222"/>
-      <c r="E23" s="222"/>
-      <c r="F23" s="222"/>
-      <c r="G23" s="222"/>
-      <c r="H23" s="222"/>
-      <c r="I23" s="222"/>
-      <c r="J23" s="222"/>
-      <c r="K23" s="222"/>
-      <c r="L23" s="222"/>
-      <c r="M23" s="223"/>
+      <c r="C23" s="269"/>
+      <c r="D23" s="269"/>
+      <c r="E23" s="269"/>
+      <c r="F23" s="269"/>
+      <c r="G23" s="269"/>
+      <c r="H23" s="269"/>
+      <c r="I23" s="269"/>
+      <c r="J23" s="269"/>
+      <c r="K23" s="269"/>
+      <c r="L23" s="269"/>
+      <c r="M23" s="270"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="224" t="s">
+      <c r="C24" s="271" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="226"/>
-      <c r="E24" s="224" t="s">
+      <c r="D24" s="273"/>
+      <c r="E24" s="271" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="225"/>
-      <c r="G24" s="225"/>
-      <c r="H24" s="225"/>
-      <c r="I24" s="225"/>
-      <c r="J24" s="225"/>
-      <c r="K24" s="226"/>
-      <c r="L24" s="272" t="s">
+      <c r="F24" s="272"/>
+      <c r="G24" s="272"/>
+      <c r="H24" s="272"/>
+      <c r="I24" s="272"/>
+      <c r="J24" s="272"/>
+      <c r="K24" s="273"/>
+      <c r="L24" s="251" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="273"/>
+      <c r="M24" s="252"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="237"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="237"/>
-      <c r="F25" s="238"/>
-      <c r="G25" s="238"/>
-      <c r="H25" s="238"/>
-      <c r="I25" s="238"/>
-      <c r="J25" s="238"/>
-      <c r="K25" s="239"/>
-      <c r="L25" s="237"/>
-      <c r="M25" s="266"/>
+      <c r="C25" s="232"/>
+      <c r="D25" s="280"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="279"/>
+      <c r="G25" s="279"/>
+      <c r="H25" s="279"/>
+      <c r="I25" s="279"/>
+      <c r="J25" s="279"/>
+      <c r="K25" s="280"/>
+      <c r="L25" s="232"/>
+      <c r="M25" s="233"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="240"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="240"/>
-      <c r="F26" s="257"/>
-      <c r="G26" s="257"/>
-      <c r="H26" s="257"/>
-      <c r="I26" s="257"/>
-      <c r="J26" s="257"/>
-      <c r="K26" s="241"/>
-      <c r="L26" s="240"/>
-      <c r="M26" s="259"/>
+      <c r="C26" s="234"/>
+      <c r="D26" s="254"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="253"/>
+      <c r="G26" s="253"/>
+      <c r="H26" s="253"/>
+      <c r="I26" s="253"/>
+      <c r="J26" s="253"/>
+      <c r="K26" s="254"/>
+      <c r="L26" s="234"/>
+      <c r="M26" s="235"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
-      <c r="C27" s="240"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="240"/>
-      <c r="F27" s="257"/>
-      <c r="G27" s="257"/>
-      <c r="H27" s="257"/>
-      <c r="I27" s="257"/>
-      <c r="J27" s="257"/>
-      <c r="K27" s="241"/>
-      <c r="L27" s="240"/>
-      <c r="M27" s="259"/>
+      <c r="C27" s="234"/>
+      <c r="D27" s="254"/>
+      <c r="E27" s="234"/>
+      <c r="F27" s="253"/>
+      <c r="G27" s="253"/>
+      <c r="H27" s="253"/>
+      <c r="I27" s="253"/>
+      <c r="J27" s="253"/>
+      <c r="K27" s="254"/>
+      <c r="L27" s="234"/>
+      <c r="M27" s="235"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="240"/>
-      <c r="F28" s="257"/>
-      <c r="G28" s="257"/>
-      <c r="H28" s="257"/>
-      <c r="I28" s="257"/>
-      <c r="J28" s="257"/>
-      <c r="K28" s="241"/>
-      <c r="L28" s="240"/>
-      <c r="M28" s="259"/>
+      <c r="C28" s="234"/>
+      <c r="D28" s="254"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="253"/>
+      <c r="G28" s="253"/>
+      <c r="H28" s="253"/>
+      <c r="I28" s="253"/>
+      <c r="J28" s="253"/>
+      <c r="K28" s="254"/>
+      <c r="L28" s="234"/>
+      <c r="M28" s="235"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="241"/>
-      <c r="E29" s="240"/>
-      <c r="F29" s="257"/>
-      <c r="G29" s="257"/>
-      <c r="H29" s="257"/>
-      <c r="I29" s="257"/>
-      <c r="J29" s="257"/>
-      <c r="K29" s="241"/>
-      <c r="L29" s="240"/>
-      <c r="M29" s="259"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="254"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="253"/>
+      <c r="G29" s="253"/>
+      <c r="H29" s="253"/>
+      <c r="I29" s="253"/>
+      <c r="J29" s="253"/>
+      <c r="K29" s="254"/>
+      <c r="L29" s="234"/>
+      <c r="M29" s="235"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
-      <c r="C30" s="254"/>
-      <c r="D30" s="256"/>
-      <c r="E30" s="254"/>
-      <c r="F30" s="258"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="258"/>
-      <c r="I30" s="258"/>
-      <c r="J30" s="258"/>
-      <c r="K30" s="256"/>
-      <c r="L30" s="254"/>
-      <c r="M30" s="255"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="265"/>
+      <c r="E30" s="263"/>
+      <c r="F30" s="266"/>
+      <c r="G30" s="266"/>
+      <c r="H30" s="266"/>
+      <c r="I30" s="266"/>
+      <c r="J30" s="266"/>
+      <c r="K30" s="265"/>
+      <c r="L30" s="263"/>
+      <c r="M30" s="264"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
@@ -8294,20 +8331,20 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="221" t="s">
+      <c r="B32" s="268" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="222"/>
-      <c r="D32" s="222"/>
-      <c r="E32" s="222"/>
-      <c r="F32" s="222"/>
-      <c r="G32" s="222"/>
-      <c r="H32" s="222"/>
-      <c r="I32" s="222"/>
-      <c r="J32" s="222"/>
-      <c r="K32" s="222"/>
-      <c r="L32" s="222"/>
-      <c r="M32" s="223"/>
+      <c r="C32" s="269"/>
+      <c r="D32" s="269"/>
+      <c r="E32" s="269"/>
+      <c r="F32" s="269"/>
+      <c r="G32" s="269"/>
+      <c r="H32" s="269"/>
+      <c r="I32" s="269"/>
+      <c r="J32" s="269"/>
+      <c r="K32" s="269"/>
+      <c r="L32" s="269"/>
+      <c r="M32" s="270"/>
     </row>
     <row r="33" spans="2:13" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="26" t="s">
@@ -8316,10 +8353,10 @@
       <c r="C33" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="224" t="s">
+      <c r="D33" s="271" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="226"/>
+      <c r="E33" s="273"/>
       <c r="F33" s="27" t="s">
         <v>162</v>
       </c>
@@ -8350,8 +8387,8 @@
         <v>1</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="251"/>
-      <c r="E34" s="251"/>
+      <c r="D34" s="281"/>
+      <c r="E34" s="281"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -8366,8 +8403,8 @@
         <v>2</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="252"/>
-      <c r="E35" s="252"/>
+      <c r="D35" s="228"/>
+      <c r="E35" s="228"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -8382,8 +8419,8 @@
         <v>3</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="252"/>
-      <c r="E36" s="252"/>
+      <c r="D36" s="228"/>
+      <c r="E36" s="228"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -8398,8 +8435,8 @@
         <v>4</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="253"/>
-      <c r="E37" s="253"/>
+      <c r="D37" s="262"/>
+      <c r="E37" s="262"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -8412,8 +8449,8 @@
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="220"/>
-      <c r="E38" s="220"/>
+      <c r="D38" s="267"/>
+      <c r="E38" s="267"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34" t="s">
         <v>169</v>
@@ -8434,16 +8471,16 @@
       <c r="M38" s="36"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="224" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
-      <c r="E41" s="278"/>
-      <c r="F41" s="278"/>
-      <c r="G41" s="278"/>
-      <c r="H41" s="278"/>
-      <c r="I41" s="278"/>
+      <c r="C41" s="224"/>
+      <c r="D41" s="224"/>
+      <c r="E41" s="224"/>
+      <c r="F41" s="224"/>
+      <c r="G41" s="224"/>
+      <c r="H41" s="224"/>
+      <c r="I41" s="224"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
@@ -8456,16 +8493,16 @@
       <c r="C42" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="277" t="s">
+      <c r="D42" s="223" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="277"/>
-      <c r="F42" s="277" t="s">
+      <c r="E42" s="223"/>
+      <c r="F42" s="223" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="277"/>
-      <c r="H42" s="277"/>
-      <c r="I42" s="277"/>
+      <c r="G42" s="223"/>
+      <c r="H42" s="223"/>
+      <c r="I42" s="223"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -8476,8 +8513,8 @@
         <v>1</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="252"/>
-      <c r="E43" s="252"/>
+      <c r="D43" s="228"/>
+      <c r="E43" s="228"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -8492,8 +8529,8 @@
         <v>2</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="252"/>
-      <c r="E44" s="252"/>
+      <c r="D44" s="228"/>
+      <c r="E44" s="228"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -8508,8 +8545,8 @@
         <v>3</v>
       </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="252"/>
-      <c r="E45" s="252"/>
+      <c r="D45" s="228"/>
+      <c r="E45" s="228"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -8520,16 +8557,16 @@
       <c r="M45" s="12"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="278" t="s">
+      <c r="B47" s="224" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="278"/>
-      <c r="D47" s="278"/>
-      <c r="E47" s="278"/>
-      <c r="F47" s="278"/>
-      <c r="G47" s="278"/>
-      <c r="H47" s="278"/>
-      <c r="I47" s="278"/>
+      <c r="C47" s="224"/>
+      <c r="D47" s="224"/>
+      <c r="E47" s="224"/>
+      <c r="F47" s="224"/>
+      <c r="G47" s="224"/>
+      <c r="H47" s="224"/>
+      <c r="I47" s="224"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
@@ -8542,14 +8579,14 @@
       <c r="C48" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D48" s="279" t="s">
+      <c r="D48" s="225" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="280"/>
-      <c r="F48" s="280"/>
-      <c r="G48" s="280"/>
-      <c r="H48" s="280"/>
-      <c r="I48" s="281"/>
+      <c r="E48" s="226"/>
+      <c r="F48" s="226"/>
+      <c r="G48" s="226"/>
+      <c r="H48" s="226"/>
+      <c r="I48" s="227"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
@@ -8562,12 +8599,12 @@
       <c r="C49" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="274"/>
-      <c r="E49" s="275"/>
-      <c r="F49" s="275"/>
-      <c r="G49" s="275"/>
-      <c r="H49" s="275"/>
-      <c r="I49" s="276"/>
+      <c r="D49" s="220"/>
+      <c r="E49" s="221"/>
+      <c r="F49" s="221"/>
+      <c r="G49" s="221"/>
+      <c r="H49" s="221"/>
+      <c r="I49" s="222"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="17">
@@ -8576,12 +8613,12 @@
       <c r="C50" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="274"/>
-      <c r="E50" s="275"/>
-      <c r="F50" s="275"/>
-      <c r="G50" s="275"/>
-      <c r="H50" s="275"/>
-      <c r="I50" s="276"/>
+      <c r="D50" s="220"/>
+      <c r="E50" s="221"/>
+      <c r="F50" s="221"/>
+      <c r="G50" s="221"/>
+      <c r="H50" s="221"/>
+      <c r="I50" s="222"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="17">
@@ -8590,77 +8627,128 @@
       <c r="C51" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="274"/>
-      <c r="E51" s="275"/>
-      <c r="F51" s="275"/>
-      <c r="G51" s="275"/>
-      <c r="H51" s="275"/>
-      <c r="I51" s="276"/>
+      <c r="D51" s="220"/>
+      <c r="E51" s="221"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="221"/>
+      <c r="H51" s="221"/>
+      <c r="I51" s="222"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="278" t="s">
+      <c r="B54" s="224" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="278"/>
-      <c r="D54" s="278"/>
-      <c r="E54" s="278"/>
-      <c r="F54" s="278"/>
-      <c r="G54" s="278"/>
-      <c r="H54" s="278"/>
-      <c r="I54" s="278"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="224"/>
+      <c r="E54" s="224"/>
+      <c r="F54" s="224"/>
+      <c r="G54" s="224"/>
+      <c r="H54" s="224"/>
+      <c r="I54" s="224"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="279" t="s">
+      <c r="C55" s="225" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="280"/>
-      <c r="E55" s="280"/>
-      <c r="F55" s="280"/>
-      <c r="G55" s="280"/>
-      <c r="H55" s="280"/>
-      <c r="I55" s="281"/>
+      <c r="D55" s="226"/>
+      <c r="E55" s="226"/>
+      <c r="F55" s="226"/>
+      <c r="G55" s="226"/>
+      <c r="H55" s="226"/>
+      <c r="I55" s="227"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="17">
         <v>1</v>
       </c>
-      <c r="C56" s="274"/>
-      <c r="D56" s="275"/>
-      <c r="E56" s="275"/>
-      <c r="F56" s="275"/>
-      <c r="G56" s="275"/>
-      <c r="H56" s="275"/>
-      <c r="I56" s="276"/>
+      <c r="C56" s="220"/>
+      <c r="D56" s="221"/>
+      <c r="E56" s="221"/>
+      <c r="F56" s="221"/>
+      <c r="G56" s="221"/>
+      <c r="H56" s="221"/>
+      <c r="I56" s="222"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="17">
         <v>2</v>
       </c>
-      <c r="C57" s="274"/>
-      <c r="D57" s="275"/>
-      <c r="E57" s="275"/>
-      <c r="F57" s="275"/>
-      <c r="G57" s="275"/>
-      <c r="H57" s="275"/>
-      <c r="I57" s="276"/>
+      <c r="C57" s="220"/>
+      <c r="D57" s="221"/>
+      <c r="E57" s="221"/>
+      <c r="F57" s="221"/>
+      <c r="G57" s="221"/>
+      <c r="H57" s="221"/>
+      <c r="I57" s="222"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="17">
         <v>3</v>
       </c>
-      <c r="C58" s="274"/>
-      <c r="D58" s="275"/>
-      <c r="E58" s="275"/>
-      <c r="F58" s="275"/>
-      <c r="G58" s="275"/>
-      <c r="H58" s="275"/>
-      <c r="I58" s="276"/>
+      <c r="C58" s="220"/>
+      <c r="D58" s="221"/>
+      <c r="E58" s="221"/>
+      <c r="F58" s="221"/>
+      <c r="G58" s="221"/>
+      <c r="H58" s="221"/>
+      <c r="I58" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="B18:C20"/>
+    <mergeCell ref="E17:M17"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B14:D17"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="B10:D13"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="E14:M14"/>
     <mergeCell ref="C57:I57"/>
     <mergeCell ref="C58:I58"/>
     <mergeCell ref="F42:I42"/>
@@ -8677,57 +8765,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="C56:I56"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="B6:C9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="B10:D13"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="B18:C20"/>
-    <mergeCell ref="E17:M17"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B14:D17"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10519,34 +10556,34 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="315" t="s">
+      <c r="B2" s="304" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316"/>
-      <c r="K2" s="317"/>
-      <c r="L2" s="318"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="305"/>
+      <c r="F2" s="305"/>
+      <c r="G2" s="305"/>
+      <c r="H2" s="305"/>
+      <c r="I2" s="305"/>
+      <c r="J2" s="305"/>
+      <c r="K2" s="306"/>
+      <c r="L2" s="307"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="319" t="s">
+      <c r="B3" s="308" t="s">
         <v>388</v>
       </c>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="320"/>
-      <c r="G3" s="320"/>
-      <c r="H3" s="320"/>
-      <c r="I3" s="320"/>
-      <c r="J3" s="320"/>
-      <c r="K3" s="321"/>
-      <c r="L3" s="322"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="310"/>
+      <c r="L3" s="311"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="295" t="s">
@@ -10560,7 +10597,7 @@
       <c r="H4" s="296"/>
       <c r="I4" s="296"/>
       <c r="J4" s="296"/>
-      <c r="K4" s="323"/>
+      <c r="K4" s="312"/>
       <c r="L4" s="297"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -10575,53 +10612,53 @@
       <c r="H5" s="285"/>
       <c r="I5" s="285"/>
       <c r="J5" s="285"/>
-      <c r="K5" s="324"/>
+      <c r="K5" s="313"/>
       <c r="L5" s="286"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="325" t="s">
+      <c r="B6" s="314" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="326"/>
-      <c r="D6" s="326"/>
-      <c r="E6" s="326"/>
-      <c r="F6" s="326"/>
-      <c r="G6" s="326"/>
-      <c r="H6" s="326"/>
-      <c r="I6" s="326"/>
-      <c r="J6" s="326"/>
-      <c r="K6" s="326"/>
-      <c r="L6" s="327"/>
+      <c r="C6" s="315"/>
+      <c r="D6" s="315"/>
+      <c r="E6" s="315"/>
+      <c r="F6" s="315"/>
+      <c r="G6" s="315"/>
+      <c r="H6" s="315"/>
+      <c r="I6" s="315"/>
+      <c r="J6" s="315"/>
+      <c r="K6" s="315"/>
+      <c r="L6" s="316"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="312" t="s">
+      <c r="B7" s="301" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="313"/>
-      <c r="D7" s="313"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="313"/>
-      <c r="G7" s="313"/>
-      <c r="H7" s="313"/>
-      <c r="I7" s="313"/>
-      <c r="J7" s="313"/>
-      <c r="K7" s="313"/>
-      <c r="L7" s="314"/>
+      <c r="C7" s="302"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="302"/>
+      <c r="I7" s="302"/>
+      <c r="J7" s="302"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="303"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="305" t="s">
+      <c r="B8" s="321" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="306"/>
-      <c r="D8" s="306"/>
-      <c r="E8" s="306"/>
-      <c r="F8" s="306"/>
-      <c r="G8" s="306"/>
-      <c r="H8" s="306"/>
-      <c r="I8" s="306"/>
-      <c r="J8" s="306"/>
-      <c r="K8" s="306"/>
-      <c r="L8" s="307"/>
+      <c r="C8" s="322"/>
+      <c r="D8" s="322"/>
+      <c r="E8" s="322"/>
+      <c r="F8" s="322"/>
+      <c r="G8" s="322"/>
+      <c r="H8" s="322"/>
+      <c r="I8" s="322"/>
+      <c r="J8" s="322"/>
+      <c r="K8" s="322"/>
+      <c r="L8" s="323"/>
     </row>
     <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
@@ -11957,19 +11994,19 @@
       <c r="L65" s="51"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="308" t="s">
+      <c r="B66" s="324" t="s">
         <v>382</v>
       </c>
-      <c r="C66" s="309"/>
-      <c r="D66" s="309"/>
-      <c r="E66" s="309"/>
-      <c r="F66" s="309"/>
-      <c r="G66" s="309"/>
-      <c r="H66" s="309"/>
-      <c r="I66" s="309"/>
-      <c r="J66" s="309"/>
-      <c r="K66" s="310"/>
-      <c r="L66" s="311"/>
+      <c r="C66" s="325"/>
+      <c r="D66" s="325"/>
+      <c r="E66" s="325"/>
+      <c r="F66" s="325"/>
+      <c r="G66" s="325"/>
+      <c r="H66" s="325"/>
+      <c r="I66" s="325"/>
+      <c r="J66" s="325"/>
+      <c r="K66" s="326"/>
+      <c r="L66" s="327"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="290" t="s">
@@ -11978,15 +12015,15 @@
       <c r="C67" s="291"/>
       <c r="D67" s="291"/>
       <c r="E67" s="52"/>
-      <c r="F67" s="301" t="s">
+      <c r="F67" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="G67" s="301"/>
-      <c r="H67" s="301"/>
-      <c r="I67" s="301"/>
-      <c r="J67" s="301"/>
-      <c r="K67" s="301"/>
-      <c r="L67" s="302"/>
+      <c r="G67" s="317"/>
+      <c r="H67" s="317"/>
+      <c r="I67" s="317"/>
+      <c r="J67" s="317"/>
+      <c r="K67" s="317"/>
+      <c r="L67" s="318"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="290" t="s">
@@ -11995,13 +12032,13 @@
       <c r="C68" s="291"/>
       <c r="D68" s="291"/>
       <c r="E68" s="52"/>
-      <c r="F68" s="301"/>
-      <c r="G68" s="301"/>
-      <c r="H68" s="301"/>
-      <c r="I68" s="301"/>
-      <c r="J68" s="301"/>
-      <c r="K68" s="301"/>
-      <c r="L68" s="302"/>
+      <c r="F68" s="317"/>
+      <c r="G68" s="317"/>
+      <c r="H68" s="317"/>
+      <c r="I68" s="317"/>
+      <c r="J68" s="317"/>
+      <c r="K68" s="317"/>
+      <c r="L68" s="318"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="290" t="s">
@@ -12010,15 +12047,15 @@
       <c r="C69" s="291"/>
       <c r="D69" s="291"/>
       <c r="E69" s="52"/>
-      <c r="F69" s="301" t="s">
+      <c r="F69" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="301"/>
-      <c r="H69" s="301"/>
-      <c r="I69" s="301"/>
-      <c r="J69" s="301"/>
-      <c r="K69" s="301"/>
-      <c r="L69" s="302"/>
+      <c r="G69" s="317"/>
+      <c r="H69" s="317"/>
+      <c r="I69" s="317"/>
+      <c r="J69" s="317"/>
+      <c r="K69" s="317"/>
+      <c r="L69" s="318"/>
     </row>
     <row r="70" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="282" t="s">
@@ -12027,22 +12064,16 @@
       <c r="C70" s="283"/>
       <c r="D70" s="283"/>
       <c r="E70" s="53"/>
-      <c r="F70" s="303"/>
-      <c r="G70" s="303"/>
-      <c r="H70" s="303"/>
-      <c r="I70" s="303"/>
-      <c r="J70" s="303"/>
-      <c r="K70" s="303"/>
-      <c r="L70" s="304"/>
+      <c r="F70" s="319"/>
+      <c r="G70" s="319"/>
+      <c r="H70" s="319"/>
+      <c r="I70" s="319"/>
+      <c r="J70" s="319"/>
+      <c r="K70" s="319"/>
+      <c r="L70" s="320"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="F69:L69"/>
     <mergeCell ref="B70:D70"/>
@@ -12053,6 +12084,12 @@
     <mergeCell ref="F67:L67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="F68:L68"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12060,10 +12097,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F031F4EE-3EC7-47DE-91AF-34380ED2D64A}">
-  <dimension ref="B1:AO126"/>
+  <dimension ref="B1:AO123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14119,32 +14156,32 @@
   <sheetData>
     <row r="1" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:41" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="328" t="s">
+      <c r="B2" s="335" t="s">
         <v>589</v>
       </c>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
-      <c r="L2" s="329"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="337"/>
     </row>
     <row r="3" spans="2:41" s="172" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="170" t="s">
         <v>590</v>
       </c>
-      <c r="C3" s="330"/>
-      <c r="D3" s="331"/>
-      <c r="E3" s="331"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="331"/>
-      <c r="H3" s="331"/>
-      <c r="I3" s="331"/>
-      <c r="J3" s="332"/>
+      <c r="C3" s="338"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="339"/>
+      <c r="F3" s="339"/>
+      <c r="G3" s="339"/>
+      <c r="H3" s="339"/>
+      <c r="I3" s="339"/>
+      <c r="J3" s="340"/>
       <c r="K3" s="79"/>
       <c r="L3" s="79"/>
       <c r="M3" s="171"/>
@@ -14162,16 +14199,16 @@
       <c r="B4" s="173" t="s">
         <v>591</v>
       </c>
-      <c r="C4" s="333" t="s">
-        <v>651</v>
-      </c>
-      <c r="D4" s="334"/>
-      <c r="E4" s="334"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="334"/>
-      <c r="H4" s="334"/>
-      <c r="I4" s="334"/>
-      <c r="J4" s="335"/>
+      <c r="C4" s="328" t="s">
+        <v>648</v>
+      </c>
+      <c r="D4" s="329"/>
+      <c r="E4" s="329"/>
+      <c r="F4" s="329"/>
+      <c r="G4" s="329"/>
+      <c r="H4" s="329"/>
+      <c r="I4" s="329"/>
+      <c r="J4" s="330"/>
       <c r="M4" s="175"/>
       <c r="N4" s="175"/>
       <c r="O4" s="175"/>
@@ -14182,7 +14219,7 @@
     <row r="5" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:41" s="169" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="194" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="C6" s="195" t="s">
         <v>592</v>
@@ -14218,7 +14255,7 @@
         <v>602</v>
       </c>
       <c r="N6" s="178" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="O6" s="178" t="s">
         <v>603</v>
@@ -14250,16 +14287,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="160" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D7" s="160" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E7" s="160" t="s">
-        <v>702</v>
-      </c>
-      <c r="F7" s="160" t="s">
-        <v>618</v>
+        <v>697</v>
+      </c>
+      <c r="F7" s="188" t="s">
+        <v>624</v>
       </c>
       <c r="G7" s="163" t="s">
         <v>620</v>
@@ -14281,7 +14318,7 @@
       </c>
       <c r="M7" s="181"/>
       <c r="N7" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O7" s="177">
         <v>44754</v>
@@ -14299,13 +14336,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="160" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D8" s="185" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E8" s="160" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F8" s="188" t="s">
         <v>624</v>
@@ -14330,7 +14367,7 @@
       </c>
       <c r="M8" s="164"/>
       <c r="N8" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O8" s="166">
         <v>44754</v>
@@ -14350,13 +14387,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="160" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D9" s="160" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E9" s="160" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F9" s="188" t="s">
         <v>624</v>
@@ -14381,7 +14418,7 @@
       </c>
       <c r="M9" s="164"/>
       <c r="N9" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O9" s="166">
         <v>44754</v>
@@ -14401,13 +14438,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="160" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D10" s="160" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E10" s="185" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F10" s="160" t="s">
         <v>618</v>
@@ -14432,7 +14469,7 @@
       </c>
       <c r="M10" s="164"/>
       <c r="N10" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O10" s="166">
         <v>44754</v>
@@ -14450,13 +14487,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="160" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D11" s="160" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E11" s="160" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F11" s="188" t="s">
         <v>624</v>
@@ -14481,7 +14518,7 @@
       </c>
       <c r="M11" s="164"/>
       <c r="N11" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O11" s="166">
         <v>44754</v>
@@ -14511,7 +14548,7 @@
       </c>
       <c r="AK11" s="64"/>
       <c r="AL11" s="64"/>
-      <c r="AM11" s="336"/>
+      <c r="AM11" s="331"/>
       <c r="AN11" s="75" t="s">
         <v>617</v>
       </c>
@@ -14522,13 +14559,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="160" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D12" s="160" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E12" s="160" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F12" s="188" t="s">
         <v>624</v>
@@ -14553,7 +14590,7 @@
       </c>
       <c r="M12" s="193"/>
       <c r="N12" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O12" s="166">
         <v>44754</v>
@@ -14579,7 +14616,7 @@
       <c r="AJ12" s="72"/>
       <c r="AK12" s="64"/>
       <c r="AL12" s="64"/>
-      <c r="AM12" s="336"/>
+      <c r="AM12" s="331"/>
       <c r="AN12" s="69" t="s">
         <v>627</v>
       </c>
@@ -14590,13 +14627,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="163" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D13" s="163" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E13" s="163" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F13" s="183" t="s">
         <v>624</v>
@@ -14621,7 +14658,7 @@
       </c>
       <c r="M13" s="193"/>
       <c r="N13" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O13" s="166">
         <v>44754</v>
@@ -14647,7 +14684,7 @@
       <c r="AJ13" s="64"/>
       <c r="AK13" s="64"/>
       <c r="AL13" s="64"/>
-      <c r="AM13" s="336"/>
+      <c r="AM13" s="331"/>
       <c r="AN13" s="69" t="s">
         <v>629</v>
       </c>
@@ -14658,13 +14695,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="163" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D14" s="163" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E14" s="163" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F14" s="183" t="s">
         <v>624</v>
@@ -14689,7 +14726,7 @@
       </c>
       <c r="M14" s="193"/>
       <c r="N14" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O14" s="166">
         <v>44754</v>
@@ -14711,7 +14748,7 @@
       <c r="AJ14" s="64"/>
       <c r="AK14" s="64"/>
       <c r="AL14" s="64"/>
-      <c r="AM14" s="336"/>
+      <c r="AM14" s="331"/>
       <c r="AN14" s="69" t="s">
         <v>630</v>
       </c>
@@ -14722,13 +14759,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="163" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D15" s="163" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E15" s="215" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F15" s="204" t="s">
         <v>624</v>
@@ -14753,7 +14790,7 @@
       </c>
       <c r="M15" s="193"/>
       <c r="N15" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O15" s="166">
         <v>44754</v>
@@ -14775,7 +14812,7 @@
       <c r="AJ15" s="64"/>
       <c r="AK15" s="64"/>
       <c r="AL15" s="64"/>
-      <c r="AM15" s="336"/>
+      <c r="AM15" s="331"/>
       <c r="AN15" s="69" t="s">
         <v>631</v>
       </c>
@@ -14786,13 +14823,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="163" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D16" s="163" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E16" s="163" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F16" s="183" t="s">
         <v>624</v>
@@ -14817,7 +14854,7 @@
       </c>
       <c r="M16" s="193"/>
       <c r="N16" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O16" s="166">
         <v>44754</v>
@@ -14839,7 +14876,7 @@
       <c r="AJ16" s="64"/>
       <c r="AK16" s="64"/>
       <c r="AL16" s="64"/>
-      <c r="AM16" s="336"/>
+      <c r="AM16" s="331"/>
       <c r="AN16" s="69" t="s">
         <v>632</v>
       </c>
@@ -14850,13 +14887,13 @@
         <v>11</v>
       </c>
       <c r="C17" s="163" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D17" s="163" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E17" s="215" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F17" s="204" t="s">
         <v>624</v>
@@ -14881,7 +14918,7 @@
       </c>
       <c r="M17" s="193"/>
       <c r="N17" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O17" s="166">
         <v>44754</v>
@@ -14903,7 +14940,7 @@
       <c r="AJ17" s="64"/>
       <c r="AK17" s="64"/>
       <c r="AL17" s="64"/>
-      <c r="AM17" s="336"/>
+      <c r="AM17" s="331"/>
       <c r="AN17" s="69" t="s">
         <v>633</v>
       </c>
@@ -14914,13 +14951,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="163" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D18" s="163" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E18" s="215" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F18" s="204" t="s">
         <v>624</v>
@@ -14945,7 +14982,7 @@
       </c>
       <c r="M18" s="193"/>
       <c r="N18" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O18" s="166">
         <v>44754</v>
@@ -14967,7 +15004,7 @@
       <c r="AJ18" s="64"/>
       <c r="AK18" s="64"/>
       <c r="AL18" s="64"/>
-      <c r="AM18" s="336"/>
+      <c r="AM18" s="331"/>
       <c r="AN18" s="69" t="s">
         <v>634</v>
       </c>
@@ -14978,13 +15015,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="163" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D19" s="163" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E19" s="163" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F19" s="204" t="s">
         <v>624</v>
@@ -15009,7 +15046,7 @@
       </c>
       <c r="M19" s="193"/>
       <c r="N19" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O19" s="166">
         <v>44754</v>
@@ -15031,7 +15068,7 @@
       <c r="AJ19" s="64"/>
       <c r="AK19" s="64"/>
       <c r="AL19" s="64"/>
-      <c r="AM19" s="336"/>
+      <c r="AM19" s="331"/>
       <c r="AN19" s="69" t="s">
         <v>635</v>
       </c>
@@ -15042,13 +15079,13 @@
         <v>14</v>
       </c>
       <c r="C20" s="163" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D20" s="163" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E20" s="163" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F20" s="183" t="s">
         <v>624</v>
@@ -15073,7 +15110,7 @@
       </c>
       <c r="M20" s="193"/>
       <c r="N20" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O20" s="176">
         <v>44755</v>
@@ -15092,38 +15129,38 @@
       <c r="AG20" s="64"/>
       <c r="AH20" s="64"/>
       <c r="AI20" s="64"/>
-      <c r="AJ20" s="338"/>
+      <c r="AJ20" s="333"/>
       <c r="AK20" s="71" t="s">
         <v>636</v>
       </c>
       <c r="AL20" s="64"/>
-      <c r="AM20" s="336"/>
+      <c r="AM20" s="331"/>
       <c r="AN20" s="69" t="s">
         <v>637</v>
       </c>
       <c r="AO20" s="63"/>
     </row>
-    <row r="21" spans="2:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="190">
-        <v>15</v>
+    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B21" s="342">
+        <v>16</v>
       </c>
       <c r="C21" s="163" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D21" s="163" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E21" s="163" t="s">
-        <v>688</v>
-      </c>
-      <c r="F21" s="163" t="s">
-        <v>618</v>
+        <v>684</v>
+      </c>
+      <c r="F21" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G21" s="163" t="s">
         <v>620</v>
       </c>
       <c r="H21" s="163" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I21" s="163" t="s">
         <v>622</v>
@@ -15139,7 +15176,7 @@
       </c>
       <c r="M21" s="193"/>
       <c r="N21" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O21" s="176">
         <v>44755</v>
@@ -15158,35 +15195,35 @@
       <c r="AG21" s="64"/>
       <c r="AH21" s="64"/>
       <c r="AI21" s="64"/>
-      <c r="AJ21" s="338"/>
+      <c r="AJ21" s="333"/>
       <c r="AK21" s="71" t="s">
         <v>638</v>
       </c>
       <c r="AL21" s="64"/>
-      <c r="AM21" s="336"/>
+      <c r="AM21" s="331"/>
       <c r="AN21" s="69" t="s">
         <v>639</v>
       </c>
       <c r="AO21" s="63"/>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="190">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="163" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D22" s="163" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E22" s="163" t="s">
-        <v>689</v>
-      </c>
-      <c r="F22" s="163" t="s">
-        <v>618</v>
+        <v>687</v>
+      </c>
+      <c r="F22" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G22" s="163" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H22" s="163" t="s">
         <v>621</v>
@@ -15205,7 +15242,7 @@
       </c>
       <c r="M22" s="193"/>
       <c r="N22" s="165" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O22" s="176">
         <v>44755</v>
@@ -15224,38 +15261,38 @@
       <c r="AG22" s="64"/>
       <c r="AH22" s="64"/>
       <c r="AI22" s="64"/>
-      <c r="AJ22" s="338"/>
-      <c r="AK22" s="71" t="s">
+      <c r="AJ22" s="334"/>
+      <c r="AK22" s="70" t="s">
         <v>640</v>
       </c>
       <c r="AL22" s="64"/>
-      <c r="AM22" s="336"/>
+      <c r="AM22" s="331"/>
       <c r="AN22" s="69" t="s">
         <v>641</v>
       </c>
       <c r="AO22" s="63"/>
     </row>
-    <row r="23" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B23" s="190">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="163" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D23" s="163" t="s">
-        <v>660</v>
-      </c>
-      <c r="E23" s="163" t="s">
-        <v>692</v>
-      </c>
-      <c r="F23" s="183" t="s">
+        <v>688</v>
+      </c>
+      <c r="E23" s="215" t="s">
+        <v>689</v>
+      </c>
+      <c r="F23" s="204" t="s">
         <v>624</v>
       </c>
       <c r="G23" s="163" t="s">
         <v>619</v>
       </c>
       <c r="H23" s="163" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I23" s="163" t="s">
         <v>622</v>
@@ -15271,7 +15308,7 @@
       </c>
       <c r="M23" s="193"/>
       <c r="N23" s="165" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="O23" s="176">
         <v>44755</v>
@@ -15290,38 +15327,36 @@
       <c r="AG23" s="64"/>
       <c r="AH23" s="64"/>
       <c r="AI23" s="64"/>
-      <c r="AJ23" s="339"/>
-      <c r="AK23" s="70" t="s">
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="64"/>
+      <c r="AL23" s="64"/>
+      <c r="AM23" s="331"/>
+      <c r="AN23" s="69" t="s">
         <v>642</v>
-      </c>
-      <c r="AL23" s="64"/>
-      <c r="AM23" s="336"/>
-      <c r="AN23" s="69" t="s">
-        <v>643</v>
       </c>
       <c r="AO23" s="63"/>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B24" s="190">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="163" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D24" s="163" t="s">
-        <v>693</v>
-      </c>
-      <c r="E24" s="215" t="s">
-        <v>694</v>
-      </c>
-      <c r="F24" s="204" t="s">
+        <v>688</v>
+      </c>
+      <c r="E24" s="163" t="s">
+        <v>715</v>
+      </c>
+      <c r="F24" s="183" t="s">
         <v>624</v>
       </c>
       <c r="G24" s="163" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H24" s="163" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="I24" s="163" t="s">
         <v>622</v>
@@ -15337,7 +15372,7 @@
       </c>
       <c r="M24" s="193"/>
       <c r="N24" s="165" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="O24" s="176">
         <v>44755</v>
@@ -15359,24 +15394,24 @@
       <c r="AJ24" s="65"/>
       <c r="AK24" s="64"/>
       <c r="AL24" s="64"/>
-      <c r="AM24" s="336"/>
+      <c r="AM24" s="331"/>
       <c r="AN24" s="69" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AO24" s="63"/>
     </row>
     <row r="25" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B25" s="190">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C25" s="163" t="s">
-        <v>696</v>
+        <v>650</v>
       </c>
       <c r="D25" s="163" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E25" s="163" t="s">
-        <v>721</v>
+        <v>797</v>
       </c>
       <c r="F25" s="183" t="s">
         <v>624</v>
@@ -15385,7 +15420,7 @@
         <v>620</v>
       </c>
       <c r="H25" s="163" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I25" s="163" t="s">
         <v>622</v>
@@ -15401,7 +15436,7 @@
       </c>
       <c r="M25" s="193"/>
       <c r="N25" s="165" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="O25" s="176">
         <v>44755</v>
@@ -15423,27 +15458,27 @@
       <c r="AJ25" s="65"/>
       <c r="AK25" s="64"/>
       <c r="AL25" s="64"/>
-      <c r="AM25" s="336"/>
+      <c r="AM25" s="331"/>
       <c r="AN25" s="69" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AO25" s="63"/>
     </row>
     <row r="26" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B26" s="190">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C26" s="163" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D26" s="163" t="s">
-        <v>726</v>
+        <v>688</v>
       </c>
       <c r="E26" s="163" t="s">
-        <v>704</v>
-      </c>
-      <c r="F26" s="163" t="s">
-        <v>618</v>
+        <v>692</v>
+      </c>
+      <c r="F26" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G26" s="163" t="s">
         <v>620</v>
@@ -15465,7 +15500,7 @@
       </c>
       <c r="M26" s="193"/>
       <c r="N26" s="165" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="O26" s="176">
         <v>44755</v>
@@ -15487,30 +15522,30 @@
       <c r="AJ26" s="65"/>
       <c r="AK26" s="64"/>
       <c r="AL26" s="64"/>
-      <c r="AM26" s="336"/>
+      <c r="AM26" s="331"/>
       <c r="AN26" s="69" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AO26" s="63"/>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B27" s="190">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" s="163" t="s">
-        <v>653</v>
+        <v>699</v>
       </c>
       <c r="D27" s="163" t="s">
+        <v>688</v>
+      </c>
+      <c r="E27" s="163" t="s">
         <v>693</v>
       </c>
-      <c r="E27" s="163" t="s">
-        <v>808</v>
-      </c>
-      <c r="F27" s="163" t="s">
-        <v>618</v>
+      <c r="F27" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G27" s="163" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H27" s="163" t="s">
         <v>615</v>
@@ -15529,7 +15564,7 @@
       </c>
       <c r="M27" s="193"/>
       <c r="N27" s="165" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="O27" s="176">
         <v>44755</v>
@@ -15551,24 +15586,24 @@
       <c r="AJ27" s="65"/>
       <c r="AK27" s="64"/>
       <c r="AL27" s="64"/>
-      <c r="AM27" s="336"/>
+      <c r="AM27" s="331"/>
       <c r="AN27" s="69" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AO27" s="63"/>
     </row>
     <row r="28" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B28" s="190">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C28" s="163" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D28" s="163" t="s">
-        <v>693</v>
-      </c>
-      <c r="E28" s="163" t="s">
-        <v>697</v>
+        <v>694</v>
+      </c>
+      <c r="E28" s="215" t="s">
+        <v>700</v>
       </c>
       <c r="F28" s="183" t="s">
         <v>624</v>
@@ -15593,7 +15628,7 @@
       </c>
       <c r="M28" s="193"/>
       <c r="N28" s="165" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="O28" s="176">
         <v>44755</v>
@@ -15615,24 +15650,24 @@
       <c r="AJ28" s="65"/>
       <c r="AK28" s="64"/>
       <c r="AL28" s="64"/>
-      <c r="AM28" s="336"/>
+      <c r="AM28" s="331"/>
       <c r="AN28" s="69" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AO28" s="63"/>
     </row>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="190">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" s="163" t="s">
-        <v>705</v>
+        <v>650</v>
       </c>
       <c r="D29" s="163" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E29" s="163" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F29" s="183" t="s">
         <v>624</v>
@@ -15657,7 +15692,7 @@
       </c>
       <c r="M29" s="193"/>
       <c r="N29" s="165" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="O29" s="176">
         <v>44755</v>
@@ -15670,36 +15705,34 @@
       <c r="U29" s="161"/>
       <c r="V29" s="54"/>
       <c r="AC29" s="66"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="68"/>
+      <c r="AF29" s="65"/>
       <c r="AG29" s="64"/>
       <c r="AH29" s="64"/>
       <c r="AI29" s="64"/>
-      <c r="AJ29" s="65"/>
+      <c r="AJ29" s="64"/>
       <c r="AK29" s="64"/>
       <c r="AL29" s="64"/>
-      <c r="AM29" s="336"/>
-      <c r="AN29" s="69" t="s">
-        <v>649</v>
-      </c>
+      <c r="AM29" s="332"/>
+      <c r="AN29" s="67"/>
       <c r="AO29" s="63"/>
     </row>
     <row r="30" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B30" s="190">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C30" s="163" t="s">
-        <v>653</v>
+        <v>701</v>
       </c>
       <c r="D30" s="163" t="s">
-        <v>699</v>
-      </c>
-      <c r="E30" s="163" t="s">
-        <v>706</v>
-      </c>
-      <c r="F30" s="163" t="s">
-        <v>618</v>
+        <v>702</v>
+      </c>
+      <c r="E30" s="215" t="s">
+        <v>696</v>
+      </c>
+      <c r="F30" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G30" s="163" t="s">
         <v>620</v>
@@ -15720,8 +15753,8 @@
         <v>612</v>
       </c>
       <c r="M30" s="193"/>
-      <c r="N30" s="165" t="s">
-        <v>737</v>
+      <c r="N30" s="161" t="s">
+        <v>729</v>
       </c>
       <c r="O30" s="176">
         <v>44755</v>
@@ -15734,42 +15767,40 @@
       <c r="U30" s="161"/>
       <c r="V30" s="54"/>
       <c r="AC30" s="66"/>
-      <c r="AD30" s="64"/>
-      <c r="AE30" s="64"/>
-      <c r="AF30" s="64"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="65"/>
       <c r="AG30" s="64"/>
       <c r="AH30" s="64"/>
       <c r="AI30" s="64"/>
-      <c r="AJ30" s="65"/>
+      <c r="AJ30" s="64"/>
       <c r="AK30" s="64"/>
       <c r="AL30" s="64"/>
-      <c r="AM30" s="336"/>
-      <c r="AN30" s="69" t="s">
-        <v>650</v>
-      </c>
+      <c r="AM30" s="64"/>
+      <c r="AN30" s="64"/>
       <c r="AO30" s="63"/>
     </row>
     <row r="31" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="190">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31" s="163" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D31" s="163" t="s">
-        <v>695</v>
+        <v>649</v>
       </c>
       <c r="E31" s="163" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F31" s="183" t="s">
         <v>624</v>
       </c>
       <c r="G31" s="163" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H31" s="163" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="I31" s="163" t="s">
         <v>622</v>
@@ -15784,8 +15815,8 @@
         <v>612</v>
       </c>
       <c r="M31" s="193"/>
-      <c r="N31" s="165" t="s">
-        <v>739</v>
+      <c r="N31" s="161" t="s">
+        <v>728</v>
       </c>
       <c r="O31" s="176">
         <v>44755</v>
@@ -15797,32 +15828,32 @@
       <c r="T31" s="168"/>
       <c r="U31" s="161"/>
       <c r="V31" s="54"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="65"/>
-      <c r="AE31" s="68"/>
-      <c r="AF31" s="65"/>
-      <c r="AG31" s="64"/>
-      <c r="AH31" s="64"/>
-      <c r="AI31" s="64"/>
-      <c r="AJ31" s="64"/>
-      <c r="AK31" s="64"/>
-      <c r="AL31" s="64"/>
-      <c r="AM31" s="337"/>
-      <c r="AN31" s="67"/>
-      <c r="AO31" s="63"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="61"/>
+      <c r="AG31" s="60"/>
+      <c r="AH31" s="60"/>
+      <c r="AI31" s="60"/>
+      <c r="AJ31" s="60"/>
+      <c r="AK31" s="60"/>
+      <c r="AL31" s="60"/>
+      <c r="AM31" s="60"/>
+      <c r="AN31" s="60"/>
+      <c r="AO31" s="59"/>
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B32" s="190">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C32" s="163" t="s">
-        <v>707</v>
+        <v>650</v>
       </c>
       <c r="D32" s="163" t="s">
-        <v>708</v>
-      </c>
-      <c r="E32" s="215" t="s">
-        <v>701</v>
+        <v>649</v>
+      </c>
+      <c r="E32" s="163" t="s">
+        <v>716</v>
       </c>
       <c r="F32" s="183" t="s">
         <v>624</v>
@@ -15831,7 +15862,7 @@
         <v>620</v>
       </c>
       <c r="H32" s="163" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="I32" s="163" t="s">
         <v>622</v>
@@ -15847,7 +15878,7 @@
       </c>
       <c r="M32" s="193"/>
       <c r="N32" s="161" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="O32" s="176">
         <v>44755</v>
@@ -15859,32 +15890,20 @@
       <c r="T32" s="168"/>
       <c r="U32" s="161"/>
       <c r="V32" s="54"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="65"/>
-      <c r="AE32" s="65"/>
-      <c r="AF32" s="65"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="64"/>
-      <c r="AK32" s="64"/>
-      <c r="AL32" s="64"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="64"/>
-      <c r="AO32" s="63"/>
-    </row>
-    <row r="33" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AF32" s="57"/>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B33" s="190">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C33" s="163" t="s">
-        <v>653</v>
+        <v>703</v>
       </c>
       <c r="D33" s="163" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="E33" s="163" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F33" s="183" t="s">
         <v>624</v>
@@ -15909,7 +15928,7 @@
       </c>
       <c r="M33" s="193"/>
       <c r="N33" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O33" s="176">
         <v>44755</v>
@@ -15921,32 +15940,20 @@
       <c r="T33" s="168"/>
       <c r="U33" s="161"/>
       <c r="V33" s="54"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="60"/>
-      <c r="AF33" s="61"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="60"/>
-      <c r="AJ33" s="60"/>
-      <c r="AK33" s="60"/>
-      <c r="AL33" s="60"/>
-      <c r="AM33" s="60"/>
-      <c r="AN33" s="60"/>
-      <c r="AO33" s="59"/>
-    </row>
-    <row r="34" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AF33" s="57"/>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B34" s="190">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C34" s="163" t="s">
-        <v>653</v>
+        <v>703</v>
       </c>
       <c r="D34" s="163" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E34" s="163" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="F34" s="183" t="s">
         <v>624</v>
@@ -15971,7 +15978,7 @@
       </c>
       <c r="M34" s="193"/>
       <c r="N34" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O34" s="176">
         <v>44755</v>
@@ -15985,18 +15992,18 @@
       <c r="V34" s="54"/>
       <c r="AF34" s="57"/>
     </row>
-    <row r="35" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B35" s="190">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C35" s="163" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D35" s="163" t="s">
-        <v>658</v>
+        <v>704</v>
       </c>
       <c r="E35" s="163" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F35" s="183" t="s">
         <v>624</v>
@@ -16021,7 +16028,7 @@
       </c>
       <c r="M35" s="193"/>
       <c r="N35" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O35" s="176">
         <v>44755</v>
@@ -16035,18 +16042,18 @@
       <c r="V35" s="54"/>
       <c r="AF35" s="57"/>
     </row>
-    <row r="36" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B36" s="190">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C36" s="163" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D36" s="163" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="E36" s="163" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F36" s="183" t="s">
         <v>624</v>
@@ -16071,7 +16078,7 @@
       </c>
       <c r="M36" s="193"/>
       <c r="N36" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O36" s="176">
         <v>44755</v>
@@ -16085,18 +16092,18 @@
       <c r="V36" s="54"/>
       <c r="AF36" s="57"/>
     </row>
-    <row r="37" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="190">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C37" s="163" t="s">
-        <v>709</v>
+        <v>650</v>
       </c>
       <c r="D37" s="163" t="s">
-        <v>710</v>
+        <v>655</v>
       </c>
       <c r="E37" s="163" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="F37" s="183" t="s">
         <v>624</v>
@@ -16105,7 +16112,7 @@
         <v>620</v>
       </c>
       <c r="H37" s="163" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I37" s="163" t="s">
         <v>622</v>
@@ -16121,7 +16128,7 @@
       </c>
       <c r="M37" s="193"/>
       <c r="N37" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O37" s="176">
         <v>44755</v>
@@ -16135,18 +16142,18 @@
       <c r="V37" s="54"/>
       <c r="AF37" s="57"/>
     </row>
-    <row r="38" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B38" s="190">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C38" s="163" t="s">
-        <v>709</v>
+        <v>650</v>
       </c>
       <c r="D38" s="163" t="s">
-        <v>711</v>
+        <v>656</v>
       </c>
       <c r="E38" s="163" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F38" s="183" t="s">
         <v>624</v>
@@ -16155,7 +16162,7 @@
         <v>620</v>
       </c>
       <c r="H38" s="163" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I38" s="163" t="s">
         <v>622</v>
@@ -16171,7 +16178,7 @@
       </c>
       <c r="M38" s="193"/>
       <c r="N38" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O38" s="176">
         <v>44755</v>
@@ -16185,18 +16192,18 @@
       <c r="V38" s="54"/>
       <c r="AF38" s="57"/>
     </row>
-    <row r="39" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B39" s="190">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C39" s="163" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D39" s="163" t="s">
-        <v>658</v>
+        <v>704</v>
       </c>
       <c r="E39" s="163" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F39" s="183" t="s">
         <v>624</v>
@@ -16221,7 +16228,7 @@
       </c>
       <c r="M39" s="193"/>
       <c r="N39" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O39" s="176">
         <v>44755</v>
@@ -16235,18 +16242,18 @@
       <c r="V39" s="54"/>
       <c r="AF39" s="57"/>
     </row>
-    <row r="40" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B40" s="190">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C40" s="163" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D40" s="163" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="E40" s="163" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F40" s="183" t="s">
         <v>624</v>
@@ -16271,7 +16278,7 @@
       </c>
       <c r="M40" s="193"/>
       <c r="N40" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O40" s="176">
         <v>44755</v>
@@ -16285,18 +16292,18 @@
       <c r="V40" s="54"/>
       <c r="AF40" s="57"/>
     </row>
-    <row r="41" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B41" s="190">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C41" s="163" t="s">
-        <v>653</v>
+        <v>685</v>
       </c>
       <c r="D41" s="163" t="s">
-        <v>710</v>
+        <v>655</v>
       </c>
       <c r="E41" s="163" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F41" s="183" t="s">
         <v>624</v>
@@ -16321,7 +16328,7 @@
       </c>
       <c r="M41" s="193"/>
       <c r="N41" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O41" s="176">
         <v>44755</v>
@@ -16335,18 +16342,18 @@
       <c r="V41" s="54"/>
       <c r="AF41" s="57"/>
     </row>
-    <row r="42" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B42" s="190">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C42" s="163" t="s">
-        <v>653</v>
+        <v>685</v>
       </c>
       <c r="D42" s="163" t="s">
-        <v>711</v>
+        <v>656</v>
       </c>
       <c r="E42" s="163" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F42" s="183" t="s">
         <v>624</v>
@@ -16371,7 +16378,7 @@
       </c>
       <c r="M42" s="193"/>
       <c r="N42" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O42" s="176">
         <v>44755</v>
@@ -16385,21 +16392,21 @@
       <c r="V42" s="54"/>
       <c r="AF42" s="57"/>
     </row>
-    <row r="43" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B43" s="190">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C43" s="163" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D43" s="163" t="s">
-        <v>658</v>
+        <v>704</v>
       </c>
       <c r="E43" s="163" t="s">
-        <v>720</v>
-      </c>
-      <c r="F43" s="163" t="s">
-        <v>618</v>
+        <v>712</v>
+      </c>
+      <c r="F43" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G43" s="163" t="s">
         <v>620</v>
@@ -16421,7 +16428,7 @@
       </c>
       <c r="M43" s="193"/>
       <c r="N43" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O43" s="176">
         <v>44755</v>
@@ -16435,21 +16442,21 @@
       <c r="V43" s="54"/>
       <c r="AF43" s="57"/>
     </row>
-    <row r="44" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B44" s="190">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C44" s="163" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D44" s="163" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="E44" s="163" t="s">
-        <v>719</v>
-      </c>
-      <c r="F44" s="163" t="s">
-        <v>618</v>
+        <v>711</v>
+      </c>
+      <c r="F44" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G44" s="163" t="s">
         <v>620</v>
@@ -16471,7 +16478,7 @@
       </c>
       <c r="M44" s="193"/>
       <c r="N44" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O44" s="176">
         <v>44755</v>
@@ -16485,21 +16492,21 @@
       <c r="V44" s="54"/>
       <c r="AF44" s="57"/>
     </row>
-    <row r="45" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="190">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C45" s="163" t="s">
-        <v>690</v>
+        <v>719</v>
       </c>
       <c r="D45" s="163" t="s">
-        <v>710</v>
-      </c>
-      <c r="E45" s="163" t="s">
         <v>718</v>
       </c>
-      <c r="F45" s="163" t="s">
-        <v>618</v>
+      <c r="E45" s="187" t="s">
+        <v>717</v>
+      </c>
+      <c r="F45" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G45" s="163" t="s">
         <v>620</v>
@@ -16521,10 +16528,10 @@
       </c>
       <c r="M45" s="193"/>
       <c r="N45" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O45" s="176">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="P45" s="161"/>
       <c r="Q45" s="165"/>
@@ -16532,24 +16539,24 @@
       <c r="S45" s="161"/>
       <c r="T45" s="168"/>
       <c r="U45" s="161"/>
-      <c r="V45" s="54"/>
+      <c r="V45" s="161"/>
       <c r="AF45" s="57"/>
     </row>
-    <row r="46" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B46" s="190">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C46" s="163" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="D46" s="163" t="s">
-        <v>711</v>
+        <v>682</v>
       </c>
       <c r="E46" s="163" t="s">
-        <v>717</v>
-      </c>
-      <c r="F46" s="163" t="s">
-        <v>618</v>
+        <v>706</v>
+      </c>
+      <c r="F46" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G46" s="163" t="s">
         <v>620</v>
@@ -16571,10 +16578,10 @@
       </c>
       <c r="M46" s="193"/>
       <c r="N46" s="161" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="O46" s="176">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="P46" s="161"/>
       <c r="Q46" s="165"/>
@@ -16582,21 +16589,21 @@
       <c r="S46" s="161"/>
       <c r="T46" s="168"/>
       <c r="U46" s="161"/>
-      <c r="V46" s="54"/>
+      <c r="V46" s="161"/>
       <c r="AF46" s="57"/>
     </row>
-    <row r="47" spans="2:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B47" s="190">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C47" s="163" t="s">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="D47" s="163" t="s">
-        <v>724</v>
-      </c>
-      <c r="E47" s="187" t="s">
-        <v>723</v>
+        <v>682</v>
+      </c>
+      <c r="E47" s="163" t="s">
+        <v>801</v>
       </c>
       <c r="F47" s="183" t="s">
         <v>624</v>
@@ -16621,7 +16628,7 @@
       </c>
       <c r="M47" s="193"/>
       <c r="N47" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O47" s="176">
         <v>44756</v>
@@ -16635,18 +16642,18 @@
       <c r="V47" s="161"/>
       <c r="AF47" s="57"/>
     </row>
-    <row r="48" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B48" s="190">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C48" s="163" t="s">
-        <v>709</v>
+        <v>650</v>
       </c>
       <c r="D48" s="163" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E48" s="163" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="F48" s="183" t="s">
         <v>624</v>
@@ -16671,7 +16678,7 @@
       </c>
       <c r="M48" s="193"/>
       <c r="N48" s="161" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="O48" s="176">
         <v>44756</v>
@@ -16687,25 +16694,25 @@
     </row>
     <row r="49" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B49" s="190">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C49" s="163" t="s">
-        <v>653</v>
+        <v>722</v>
       </c>
       <c r="D49" s="163" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
       <c r="E49" s="163" t="s">
-        <v>727</v>
-      </c>
-      <c r="F49" s="163" t="s">
-        <v>618</v>
+        <v>721</v>
+      </c>
+      <c r="F49" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G49" s="163" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H49" s="163" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="I49" s="163" t="s">
         <v>622</v>
@@ -16721,7 +16728,7 @@
       </c>
       <c r="M49" s="193"/>
       <c r="N49" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O49" s="176">
         <v>44756</v>
@@ -16737,25 +16744,25 @@
     </row>
     <row r="50" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B50" s="190">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C50" s="163" t="s">
-        <v>653</v>
+        <v>722</v>
       </c>
       <c r="D50" s="163" t="s">
-        <v>685</v>
+        <v>724</v>
       </c>
       <c r="E50" s="163" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F50" s="183" t="s">
         <v>624</v>
       </c>
       <c r="G50" s="163" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H50" s="163" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I50" s="163" t="s">
         <v>622</v>
@@ -16770,33 +16777,33 @@
         <v>612</v>
       </c>
       <c r="M50" s="193"/>
-      <c r="N50" s="161" t="s">
-        <v>737</v>
-      </c>
+      <c r="N50" s="161"/>
       <c r="O50" s="176">
         <v>44756</v>
       </c>
       <c r="P50" s="161"/>
       <c r="Q50" s="165"/>
       <c r="R50" s="161"/>
-      <c r="S50" s="161"/>
+      <c r="S50" s="176">
+        <v>44759</v>
+      </c>
       <c r="T50" s="168"/>
       <c r="U50" s="161"/>
       <c r="V50" s="161"/>
       <c r="AF50" s="57"/>
     </row>
     <row r="51" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B51" s="190">
-        <v>45</v>
+      <c r="B51" s="342">
+        <v>47</v>
       </c>
       <c r="C51" s="163" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="D51" s="163" t="s">
-        <v>660</v>
-      </c>
-      <c r="E51" s="163" t="s">
-        <v>729</v>
+        <v>725</v>
+      </c>
+      <c r="E51" s="215" t="s">
+        <v>726</v>
       </c>
       <c r="F51" s="183" t="s">
         <v>624</v>
@@ -16805,7 +16812,7 @@
         <v>619</v>
       </c>
       <c r="H51" s="163" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I51" s="163" t="s">
         <v>622</v>
@@ -16821,7 +16828,7 @@
       </c>
       <c r="M51" s="193"/>
       <c r="N51" s="161" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="O51" s="176">
         <v>44756</v>
@@ -16832,30 +16839,30 @@
       <c r="S51" s="161"/>
       <c r="T51" s="168"/>
       <c r="U51" s="161"/>
-      <c r="V51" s="161"/>
+      <c r="V51" s="54"/>
       <c r="AF51" s="57"/>
     </row>
     <row r="52" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B52" s="190">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C52" s="163" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="D52" s="163" t="s">
         <v>732</v>
       </c>
       <c r="E52" s="163" t="s">
-        <v>731</v>
-      </c>
-      <c r="F52" s="183" t="s">
-        <v>624</v>
+        <v>733</v>
+      </c>
+      <c r="F52" s="163" t="s">
+        <v>618</v>
       </c>
       <c r="G52" s="163" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H52" s="163" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="I52" s="163" t="s">
         <v>622</v>
@@ -16870,42 +16877,42 @@
         <v>612</v>
       </c>
       <c r="M52" s="193"/>
-      <c r="N52" s="161"/>
+      <c r="N52" s="161" t="s">
+        <v>734</v>
+      </c>
       <c r="O52" s="176">
         <v>44756</v>
       </c>
       <c r="P52" s="161"/>
       <c r="Q52" s="165"/>
       <c r="R52" s="161"/>
-      <c r="S52" s="176">
-        <v>44759</v>
-      </c>
+      <c r="S52" s="161"/>
       <c r="T52" s="168"/>
       <c r="U52" s="161"/>
-      <c r="V52" s="161"/>
+      <c r="V52" s="54"/>
       <c r="AF52" s="57"/>
     </row>
     <row r="53" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B53" s="190">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C53" s="163" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="D53" s="163" t="s">
-        <v>733</v>
-      </c>
-      <c r="E53" s="200" t="s">
-        <v>734</v>
-      </c>
-      <c r="F53" s="215" t="s">
-        <v>618</v>
+        <v>737</v>
+      </c>
+      <c r="E53" s="163" t="s">
+        <v>736</v>
+      </c>
+      <c r="F53" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G53" s="163" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H53" s="163" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="I53" s="163" t="s">
         <v>622</v>
@@ -16921,7 +16928,7 @@
       </c>
       <c r="M53" s="193"/>
       <c r="N53" s="161" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="O53" s="176">
         <v>44756</v>
@@ -16937,19 +16944,19 @@
     </row>
     <row r="54" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B54" s="190">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C54" s="163" t="s">
-        <v>743</v>
+        <v>703</v>
       </c>
       <c r="D54" s="163" t="s">
         <v>740</v>
       </c>
       <c r="E54" s="163" t="s">
-        <v>741</v>
-      </c>
-      <c r="F54" s="163" t="s">
-        <v>618</v>
+        <v>738</v>
+      </c>
+      <c r="F54" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G54" s="163" t="s">
         <v>620</v>
@@ -16971,7 +16978,7 @@
       </c>
       <c r="M54" s="193"/>
       <c r="N54" s="161" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="O54" s="176">
         <v>44756</v>
@@ -16987,16 +16994,16 @@
     </row>
     <row r="55" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B55" s="190">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C55" s="163" t="s">
-        <v>747</v>
+        <v>650</v>
       </c>
       <c r="D55" s="163" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E55" s="163" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F55" s="183" t="s">
         <v>624</v>
@@ -17005,7 +17012,7 @@
         <v>620</v>
       </c>
       <c r="H55" s="163" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I55" s="163" t="s">
         <v>622</v>
@@ -17021,7 +17028,7 @@
       </c>
       <c r="M55" s="193"/>
       <c r="N55" s="161" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="O55" s="176">
         <v>44756</v>
@@ -17037,16 +17044,16 @@
     </row>
     <row r="56" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B56" s="190">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C56" s="163" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="D56" s="163" t="s">
-        <v>748</v>
+        <v>659</v>
       </c>
       <c r="E56" s="163" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F56" s="183" t="s">
         <v>624</v>
@@ -17071,7 +17078,7 @@
       </c>
       <c r="M56" s="193"/>
       <c r="N56" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O56" s="176">
         <v>44756</v>
@@ -17087,22 +17094,22 @@
     </row>
     <row r="57" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B57" s="190">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C57" s="163" t="s">
-        <v>653</v>
+        <v>722</v>
       </c>
       <c r="D57" s="163" t="s">
-        <v>749</v>
-      </c>
-      <c r="E57" s="163" t="s">
-        <v>751</v>
+        <v>744</v>
+      </c>
+      <c r="E57" s="200" t="s">
+        <v>803</v>
       </c>
       <c r="F57" s="163" t="s">
         <v>618</v>
       </c>
       <c r="G57" s="163" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H57" s="163" t="s">
         <v>615</v>
@@ -17121,7 +17128,7 @@
       </c>
       <c r="M57" s="193"/>
       <c r="N57" s="161" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="O57" s="176">
         <v>44756</v>
@@ -17137,19 +17144,19 @@
     </row>
     <row r="58" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B58" s="190">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C58" s="163" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="D58" s="163" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E58" s="163" t="s">
-        <v>750</v>
-      </c>
-      <c r="F58" s="163" t="s">
-        <v>618</v>
+        <v>746</v>
+      </c>
+      <c r="F58" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G58" s="163" t="s">
         <v>620</v>
@@ -17171,7 +17178,7 @@
       </c>
       <c r="M58" s="193"/>
       <c r="N58" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O58" s="176">
         <v>44756</v>
@@ -17187,16 +17194,16 @@
     </row>
     <row r="59" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B59" s="190">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C59" s="163" t="s">
-        <v>725</v>
+        <v>680</v>
       </c>
       <c r="D59" s="163" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="E59" s="163" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="F59" s="183" t="s">
         <v>624</v>
@@ -17221,7 +17228,7 @@
       </c>
       <c r="M59" s="193"/>
       <c r="N59" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O59" s="176">
         <v>44756</v>
@@ -17237,25 +17244,25 @@
     </row>
     <row r="60" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B60" s="190">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C60" s="163" t="s">
-        <v>730</v>
+        <v>703</v>
       </c>
       <c r="D60" s="163" t="s">
-        <v>754</v>
-      </c>
-      <c r="E60" s="200" t="s">
+        <v>705</v>
+      </c>
+      <c r="E60" s="163" t="s">
         <v>753</v>
       </c>
-      <c r="F60" s="163" t="s">
-        <v>618</v>
+      <c r="F60" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G60" s="163" t="s">
         <v>619</v>
       </c>
       <c r="H60" s="163" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="I60" s="163" t="s">
         <v>622</v>
@@ -17271,7 +17278,7 @@
       </c>
       <c r="M60" s="193"/>
       <c r="N60" s="161" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="O60" s="176">
         <v>44756</v>
@@ -17287,22 +17294,22 @@
     </row>
     <row r="61" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B61" s="190">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C61" s="163" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="D61" s="163" t="s">
-        <v>755</v>
+        <v>656</v>
       </c>
       <c r="E61" s="163" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F61" s="183" t="s">
         <v>624</v>
       </c>
       <c r="G61" s="163" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H61" s="163" t="s">
         <v>621</v>
@@ -17321,7 +17328,7 @@
       </c>
       <c r="M61" s="193"/>
       <c r="N61" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O61" s="176">
         <v>44756</v>
@@ -17337,22 +17344,22 @@
     </row>
     <row r="62" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B62" s="190">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C62" s="163" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="D62" s="163" t="s">
-        <v>754</v>
+        <v>704</v>
       </c>
       <c r="E62" s="163" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F62" s="183" t="s">
         <v>624</v>
       </c>
       <c r="G62" s="163" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H62" s="163" t="s">
         <v>621</v>
@@ -17371,7 +17378,7 @@
       </c>
       <c r="M62" s="193"/>
       <c r="N62" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O62" s="176">
         <v>44756</v>
@@ -17387,16 +17394,16 @@
     </row>
     <row r="63" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B63" s="190">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C63" s="163" t="s">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="D63" s="163" t="s">
-        <v>711</v>
+        <v>657</v>
       </c>
       <c r="E63" s="163" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="F63" s="183" t="s">
         <v>624</v>
@@ -17405,7 +17412,7 @@
         <v>619</v>
       </c>
       <c r="H63" s="163" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I63" s="163" t="s">
         <v>622</v>
@@ -17421,7 +17428,7 @@
       </c>
       <c r="M63" s="193"/>
       <c r="N63" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O63" s="176">
         <v>44756</v>
@@ -17437,16 +17444,16 @@
     </row>
     <row r="64" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B64" s="190">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C64" s="163" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="D64" s="163" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E64" s="163" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="F64" s="183" t="s">
         <v>624</v>
@@ -17455,7 +17462,7 @@
         <v>619</v>
       </c>
       <c r="H64" s="163" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I64" s="163" t="s">
         <v>622</v>
@@ -17471,10 +17478,10 @@
       </c>
       <c r="M64" s="193"/>
       <c r="N64" s="161" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="O64" s="176">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="P64" s="161"/>
       <c r="Q64" s="165"/>
@@ -17487,16 +17494,16 @@
     </row>
     <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B65" s="190">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C65" s="163" t="s">
-        <v>709</v>
+        <v>756</v>
       </c>
       <c r="D65" s="163" t="s">
-        <v>710</v>
+        <v>755</v>
       </c>
       <c r="E65" s="163" t="s">
-        <v>763</v>
+        <v>687</v>
       </c>
       <c r="F65" s="183" t="s">
         <v>624</v>
@@ -17521,10 +17528,10 @@
       </c>
       <c r="M65" s="193"/>
       <c r="N65" s="161" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="O65" s="176">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="P65" s="161"/>
       <c r="Q65" s="165"/>
@@ -17537,25 +17544,25 @@
     </row>
     <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B66" s="190">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C66" s="163" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D66" s="163" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E66" s="163" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F66" s="183" t="s">
         <v>624</v>
       </c>
       <c r="G66" s="163" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H66" s="163" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="I66" s="163" t="s">
         <v>622</v>
@@ -17571,10 +17578,10 @@
       </c>
       <c r="M66" s="193"/>
       <c r="N66" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O66" s="176">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="P66" s="161"/>
       <c r="Q66" s="165"/>
@@ -17583,29 +17590,31 @@
       <c r="T66" s="168"/>
       <c r="U66" s="161"/>
       <c r="V66" s="54"/>
+      <c r="AD66" s="57"/>
+      <c r="AE66" s="58"/>
       <c r="AF66" s="57"/>
     </row>
     <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B67" s="190">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C67" s="163" t="s">
-        <v>730</v>
+        <v>703</v>
       </c>
       <c r="D67" s="163" t="s">
-        <v>660</v>
+        <v>760</v>
       </c>
       <c r="E67" s="163" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="F67" s="183" t="s">
         <v>624</v>
       </c>
       <c r="G67" s="163" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H67" s="163" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="I67" s="163" t="s">
         <v>622</v>
@@ -17621,10 +17630,10 @@
       </c>
       <c r="M67" s="193"/>
       <c r="N67" s="161" t="s">
-        <v>760</v>
+        <v>728</v>
       </c>
       <c r="O67" s="176">
-        <v>44757</v>
+        <v>44755</v>
       </c>
       <c r="P67" s="161"/>
       <c r="Q67" s="165"/>
@@ -17633,20 +17642,19 @@
       <c r="T67" s="168"/>
       <c r="U67" s="161"/>
       <c r="V67" s="54"/>
-      <c r="AF67" s="57"/>
     </row>
     <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B68" s="190">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C68" s="163" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="D68" s="163" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="E68" s="163" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F68" s="183" t="s">
         <v>624</v>
@@ -17671,7 +17679,7 @@
       </c>
       <c r="M68" s="193"/>
       <c r="N68" s="161" t="s">
-        <v>768</v>
+        <v>728</v>
       </c>
       <c r="O68" s="176">
         <v>44757</v>
@@ -17683,26 +17691,25 @@
       <c r="T68" s="168"/>
       <c r="U68" s="161"/>
       <c r="V68" s="54"/>
-      <c r="AF68" s="57"/>
     </row>
     <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B69" s="190">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C69" s="163" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D69" s="163" t="s">
-        <v>661</v>
+        <v>725</v>
       </c>
       <c r="E69" s="163" t="s">
-        <v>761</v>
+        <v>687</v>
       </c>
       <c r="F69" s="183" t="s">
         <v>624</v>
       </c>
       <c r="G69" s="163" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H69" s="163" t="s">
         <v>621</v>
@@ -17721,7 +17728,7 @@
       </c>
       <c r="M69" s="193"/>
       <c r="N69" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O69" s="176">
         <v>44757</v>
@@ -17733,28 +17740,25 @@
       <c r="T69" s="168"/>
       <c r="U69" s="161"/>
       <c r="V69" s="54"/>
-      <c r="AD69" s="57"/>
-      <c r="AE69" s="58"/>
-      <c r="AF69" s="57"/>
     </row>
     <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B70" s="190">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C70" s="163" t="s">
-        <v>709</v>
+        <v>756</v>
       </c>
       <c r="D70" s="163" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="E70" s="163" t="s">
-        <v>762</v>
+        <v>687</v>
       </c>
       <c r="F70" s="183" t="s">
         <v>624</v>
       </c>
       <c r="G70" s="163" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H70" s="163" t="s">
         <v>621</v>
@@ -17773,10 +17777,10 @@
       </c>
       <c r="M70" s="193"/>
       <c r="N70" s="161" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O70" s="176">
-        <v>44755</v>
+        <v>44757</v>
       </c>
       <c r="P70" s="161"/>
       <c r="Q70" s="165"/>
@@ -17788,16 +17792,16 @@
     </row>
     <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B71" s="190">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C71" s="163" t="s">
-        <v>766</v>
+        <v>722</v>
       </c>
       <c r="D71" s="163" t="s">
-        <v>767</v>
-      </c>
-      <c r="E71" s="163" t="s">
-        <v>692</v>
+        <v>761</v>
+      </c>
+      <c r="E71" s="215" t="s">
+        <v>762</v>
       </c>
       <c r="F71" s="183" t="s">
         <v>624</v>
@@ -17806,7 +17810,7 @@
         <v>619</v>
       </c>
       <c r="H71" s="163" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I71" s="163" t="s">
         <v>622</v>
@@ -17822,7 +17826,7 @@
       </c>
       <c r="M71" s="193"/>
       <c r="N71" s="161" t="s">
-        <v>736</v>
+        <v>763</v>
       </c>
       <c r="O71" s="176">
         <v>44757</v>
@@ -17837,16 +17841,16 @@
     </row>
     <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B72" s="190">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C72" s="163" t="s">
-        <v>766</v>
+        <v>699</v>
       </c>
       <c r="D72" s="163" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="E72" s="163" t="s">
-        <v>692</v>
+        <v>764</v>
       </c>
       <c r="F72" s="183" t="s">
         <v>624</v>
@@ -17855,7 +17859,7 @@
         <v>619</v>
       </c>
       <c r="H72" s="163" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I72" s="163" t="s">
         <v>622</v>
@@ -17871,7 +17875,7 @@
       </c>
       <c r="M72" s="193"/>
       <c r="N72" s="161" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="O72" s="176">
         <v>44757</v>
@@ -17886,16 +17890,16 @@
     </row>
     <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B73" s="190">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C73" s="163" t="s">
-        <v>766</v>
+        <v>699</v>
       </c>
       <c r="D73" s="163" t="s">
-        <v>769</v>
+        <v>659</v>
       </c>
       <c r="E73" s="163" t="s">
-        <v>692</v>
+        <v>764</v>
       </c>
       <c r="F73" s="183" t="s">
         <v>624</v>
@@ -17904,7 +17908,7 @@
         <v>619</v>
       </c>
       <c r="H73" s="163" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I73" s="163" t="s">
         <v>622</v>
@@ -17920,7 +17924,7 @@
       </c>
       <c r="M73" s="193"/>
       <c r="N73" s="161" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="O73" s="176">
         <v>44757</v>
@@ -17935,25 +17939,25 @@
     </row>
     <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B74" s="190">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C74" s="163" t="s">
-        <v>730</v>
+        <v>766</v>
       </c>
       <c r="D74" s="163" t="s">
-        <v>771</v>
-      </c>
-      <c r="E74" s="200" t="s">
-        <v>772</v>
-      </c>
-      <c r="F74" s="163" t="s">
-        <v>618</v>
+        <v>755</v>
+      </c>
+      <c r="E74" s="163" t="s">
+        <v>765</v>
+      </c>
+      <c r="F74" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G74" s="163" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H74" s="163" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="I74" s="163" t="s">
         <v>622</v>
@@ -17964,12 +17968,12 @@
       <c r="K74" s="191" t="s">
         <v>616</v>
       </c>
-      <c r="L74" s="163" t="s">
+      <c r="L74" s="202" t="s">
         <v>612</v>
       </c>
-      <c r="M74" s="193"/>
-      <c r="N74" s="161" t="s">
-        <v>773</v>
+      <c r="M74" s="163"/>
+      <c r="N74" s="193" t="s">
+        <v>767</v>
       </c>
       <c r="O74" s="176">
         <v>44757</v>
@@ -17984,47 +17988,47 @@
     </row>
     <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B75" s="190">
-        <v>69</v>
-      </c>
-      <c r="C75" s="163" t="s">
-        <v>705</v>
-      </c>
-      <c r="D75" s="163" t="s">
-        <v>765</v>
-      </c>
-      <c r="E75" s="163" t="s">
-        <v>774</v>
-      </c>
-      <c r="F75" s="183" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="203" t="s">
+        <v>768</v>
+      </c>
+      <c r="D75" s="203" t="s">
+        <v>769</v>
+      </c>
+      <c r="E75" s="189" t="s">
+        <v>790</v>
+      </c>
+      <c r="F75" s="204" t="s">
         <v>624</v>
       </c>
-      <c r="G75" s="163" t="s">
-        <v>619</v>
-      </c>
-      <c r="H75" s="163" t="s">
-        <v>615</v>
-      </c>
-      <c r="I75" s="163" t="s">
+      <c r="G75" s="203" t="s">
+        <v>620</v>
+      </c>
+      <c r="H75" s="203" t="s">
+        <v>621</v>
+      </c>
+      <c r="I75" s="203" t="s">
         <v>622</v>
       </c>
-      <c r="J75" s="163" t="s">
+      <c r="J75" s="203" t="s">
         <v>611</v>
       </c>
-      <c r="K75" s="191" t="s">
+      <c r="K75" s="203" t="s">
         <v>616</v>
       </c>
-      <c r="L75" s="163" t="s">
+      <c r="L75" s="205" t="s">
         <v>612</v>
       </c>
-      <c r="M75" s="193"/>
-      <c r="N75" s="161" t="s">
-        <v>738</v>
+      <c r="M75" s="206"/>
+      <c r="N75" s="207" t="s">
+        <v>770</v>
       </c>
       <c r="O75" s="176">
         <v>44757</v>
       </c>
-      <c r="P75" s="161"/>
-      <c r="Q75" s="165"/>
+      <c r="P75" s="163"/>
+      <c r="Q75" s="181"/>
       <c r="R75" s="161"/>
       <c r="S75" s="161"/>
       <c r="T75" s="168"/>
@@ -18033,47 +18037,47 @@
     </row>
     <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B76" s="190">
-        <v>70</v>
-      </c>
-      <c r="C76" s="163" t="s">
-        <v>705</v>
-      </c>
-      <c r="D76" s="163" t="s">
-        <v>662</v>
-      </c>
-      <c r="E76" s="163" t="s">
-        <v>774</v>
-      </c>
-      <c r="F76" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="208" t="s">
+        <v>768</v>
+      </c>
+      <c r="D76" s="208" t="s">
+        <v>771</v>
+      </c>
+      <c r="E76" s="208" t="s">
+        <v>772</v>
+      </c>
+      <c r="F76" s="204" t="s">
         <v>624</v>
       </c>
-      <c r="G76" s="163" t="s">
-        <v>619</v>
-      </c>
-      <c r="H76" s="163" t="s">
-        <v>615</v>
-      </c>
-      <c r="I76" s="163" t="s">
+      <c r="G76" s="208" t="s">
+        <v>620</v>
+      </c>
+      <c r="H76" s="208" t="s">
+        <v>621</v>
+      </c>
+      <c r="I76" s="208" t="s">
         <v>622</v>
       </c>
-      <c r="J76" s="163" t="s">
+      <c r="J76" s="208" t="s">
         <v>611</v>
       </c>
-      <c r="K76" s="191" t="s">
+      <c r="K76" s="208" t="s">
         <v>616</v>
       </c>
-      <c r="L76" s="163" t="s">
+      <c r="L76" s="209" t="s">
         <v>612</v>
       </c>
-      <c r="M76" s="193"/>
-      <c r="N76" s="161" t="s">
-        <v>738</v>
+      <c r="M76" s="206"/>
+      <c r="N76" s="207" t="s">
+        <v>770</v>
       </c>
       <c r="O76" s="176">
         <v>44757</v>
       </c>
-      <c r="P76" s="161"/>
-      <c r="Q76" s="165"/>
+      <c r="P76" s="163"/>
+      <c r="Q76" s="181"/>
       <c r="R76" s="161"/>
       <c r="S76" s="161"/>
       <c r="T76" s="168"/>
@@ -18082,47 +18086,47 @@
     </row>
     <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B77" s="190">
-        <v>71</v>
-      </c>
-      <c r="C77" s="163" t="s">
-        <v>776</v>
-      </c>
-      <c r="D77" s="163" t="s">
-        <v>765</v>
-      </c>
-      <c r="E77" s="163" t="s">
-        <v>775</v>
-      </c>
-      <c r="F77" s="183" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="203" t="s">
+        <v>768</v>
+      </c>
+      <c r="D77" s="203" t="s">
+        <v>773</v>
+      </c>
+      <c r="E77" s="203" t="s">
+        <v>774</v>
+      </c>
+      <c r="F77" s="204" t="s">
         <v>624</v>
       </c>
-      <c r="G77" s="163" t="s">
+      <c r="G77" s="203" t="s">
         <v>620</v>
       </c>
-      <c r="H77" s="163" t="s">
-        <v>623</v>
-      </c>
-      <c r="I77" s="163" t="s">
+      <c r="H77" s="203" t="s">
+        <v>615</v>
+      </c>
+      <c r="I77" s="203" t="s">
         <v>622</v>
       </c>
-      <c r="J77" s="163" t="s">
+      <c r="J77" s="203" t="s">
         <v>611</v>
       </c>
-      <c r="K77" s="191" t="s">
+      <c r="K77" s="203" t="s">
         <v>616</v>
       </c>
-      <c r="L77" s="202" t="s">
+      <c r="L77" s="205" t="s">
         <v>612</v>
       </c>
-      <c r="M77" s="163"/>
-      <c r="N77" s="193" t="s">
-        <v>777</v>
+      <c r="M77" s="206"/>
+      <c r="N77" s="207" t="s">
+        <v>770</v>
       </c>
       <c r="O77" s="176">
         <v>44757</v>
       </c>
-      <c r="P77" s="161"/>
-      <c r="Q77" s="165"/>
+      <c r="P77" s="163"/>
+      <c r="Q77" s="181"/>
       <c r="R77" s="161"/>
       <c r="S77" s="161"/>
       <c r="T77" s="168"/>
@@ -18131,41 +18135,41 @@
     </row>
     <row r="78" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B78" s="190">
-        <v>72</v>
-      </c>
-      <c r="C78" s="203" t="s">
-        <v>778</v>
-      </c>
-      <c r="D78" s="203" t="s">
-        <v>779</v>
-      </c>
-      <c r="E78" s="189" t="s">
-        <v>801</v>
+        <v>75</v>
+      </c>
+      <c r="C78" s="208" t="s">
+        <v>782</v>
+      </c>
+      <c r="D78" s="208" t="s">
+        <v>775</v>
+      </c>
+      <c r="E78" s="208" t="s">
+        <v>776</v>
       </c>
       <c r="F78" s="204" t="s">
         <v>624</v>
       </c>
-      <c r="G78" s="203" t="s">
+      <c r="G78" s="208" t="s">
         <v>620</v>
       </c>
-      <c r="H78" s="203" t="s">
-        <v>621</v>
-      </c>
-      <c r="I78" s="203" t="s">
+      <c r="H78" s="208" t="s">
+        <v>615</v>
+      </c>
+      <c r="I78" s="208" t="s">
         <v>622</v>
       </c>
-      <c r="J78" s="203" t="s">
+      <c r="J78" s="208" t="s">
         <v>611</v>
       </c>
-      <c r="K78" s="203" t="s">
+      <c r="K78" s="208" t="s">
         <v>616</v>
       </c>
-      <c r="L78" s="205" t="s">
+      <c r="L78" s="209" t="s">
         <v>612</v>
       </c>
       <c r="M78" s="206"/>
       <c r="N78" s="207" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="O78" s="176">
         <v>44757</v>
@@ -18180,41 +18184,41 @@
     </row>
     <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="190">
-        <v>73</v>
-      </c>
-      <c r="C79" s="208" t="s">
-        <v>778</v>
-      </c>
-      <c r="D79" s="208" t="s">
-        <v>781</v>
-      </c>
-      <c r="E79" s="208" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="203" t="s">
         <v>782</v>
+      </c>
+      <c r="D79" s="203" t="s">
+        <v>775</v>
+      </c>
+      <c r="E79" s="203" t="s">
+        <v>777</v>
       </c>
       <c r="F79" s="204" t="s">
         <v>624</v>
       </c>
-      <c r="G79" s="208" t="s">
+      <c r="G79" s="203" t="s">
         <v>620</v>
       </c>
-      <c r="H79" s="208" t="s">
+      <c r="H79" s="203" t="s">
         <v>621</v>
       </c>
-      <c r="I79" s="208" t="s">
+      <c r="I79" s="203" t="s">
         <v>622</v>
       </c>
-      <c r="J79" s="208" t="s">
+      <c r="J79" s="203" t="s">
         <v>611</v>
       </c>
-      <c r="K79" s="208" t="s">
+      <c r="K79" s="203" t="s">
         <v>616</v>
       </c>
-      <c r="L79" s="209" t="s">
+      <c r="L79" s="205" t="s">
         <v>612</v>
       </c>
       <c r="M79" s="206"/>
       <c r="N79" s="207" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="O79" s="176">
         <v>44757</v>
@@ -18229,41 +18233,41 @@
     </row>
     <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B80" s="190">
-        <v>74</v>
-      </c>
-      <c r="C80" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="208" t="s">
+        <v>719</v>
+      </c>
+      <c r="D80" s="208" t="s">
         <v>778</v>
       </c>
-      <c r="D80" s="203" t="s">
-        <v>783</v>
-      </c>
-      <c r="E80" s="203" t="s">
-        <v>784</v>
+      <c r="E80" s="208" t="s">
+        <v>781</v>
       </c>
       <c r="F80" s="204" t="s">
         <v>624</v>
       </c>
-      <c r="G80" s="203" t="s">
+      <c r="G80" s="208" t="s">
         <v>620</v>
       </c>
-      <c r="H80" s="203" t="s">
-        <v>615</v>
-      </c>
-      <c r="I80" s="203" t="s">
+      <c r="H80" s="208" t="s">
+        <v>621</v>
+      </c>
+      <c r="I80" s="208" t="s">
         <v>622</v>
       </c>
-      <c r="J80" s="203" t="s">
+      <c r="J80" s="208" t="s">
         <v>611</v>
       </c>
-      <c r="K80" s="203" t="s">
+      <c r="K80" s="208" t="s">
         <v>616</v>
       </c>
-      <c r="L80" s="205" t="s">
+      <c r="L80" s="209" t="s">
         <v>612</v>
       </c>
       <c r="M80" s="206"/>
       <c r="N80" s="207" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="O80" s="176">
         <v>44757</v>
@@ -18278,41 +18282,41 @@
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B81" s="190">
-        <v>75</v>
-      </c>
-      <c r="C81" s="208" t="s">
-        <v>792</v>
-      </c>
-      <c r="D81" s="208" t="s">
-        <v>785</v>
-      </c>
-      <c r="E81" s="208" t="s">
-        <v>786</v>
+        <v>78</v>
+      </c>
+      <c r="C81" s="203" t="s">
+        <v>719</v>
+      </c>
+      <c r="D81" s="203" t="s">
+        <v>779</v>
+      </c>
+      <c r="E81" s="203" t="s">
+        <v>781</v>
       </c>
       <c r="F81" s="204" t="s">
         <v>624</v>
       </c>
-      <c r="G81" s="208" t="s">
+      <c r="G81" s="203" t="s">
         <v>620</v>
       </c>
-      <c r="H81" s="208" t="s">
-        <v>615</v>
-      </c>
-      <c r="I81" s="208" t="s">
+      <c r="H81" s="203" t="s">
+        <v>621</v>
+      </c>
+      <c r="I81" s="203" t="s">
         <v>622</v>
       </c>
-      <c r="J81" s="208" t="s">
+      <c r="J81" s="203" t="s">
         <v>611</v>
       </c>
-      <c r="K81" s="208" t="s">
+      <c r="K81" s="203" t="s">
         <v>616</v>
       </c>
-      <c r="L81" s="209" t="s">
+      <c r="L81" s="205" t="s">
         <v>612</v>
       </c>
       <c r="M81" s="206"/>
       <c r="N81" s="207" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="O81" s="176">
         <v>44757</v>
@@ -18327,46 +18331,46 @@
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B82" s="190">
-        <v>76</v>
-      </c>
-      <c r="C82" s="203" t="s">
-        <v>792</v>
-      </c>
-      <c r="D82" s="203" t="s">
-        <v>785</v>
-      </c>
-      <c r="E82" s="203" t="s">
-        <v>787</v>
+        <v>79</v>
+      </c>
+      <c r="C82" s="208" t="s">
+        <v>719</v>
+      </c>
+      <c r="D82" s="208" t="s">
+        <v>780</v>
+      </c>
+      <c r="E82" s="208" t="s">
+        <v>781</v>
       </c>
       <c r="F82" s="204" t="s">
         <v>624</v>
       </c>
-      <c r="G82" s="203" t="s">
+      <c r="G82" s="208" t="s">
         <v>620</v>
       </c>
-      <c r="H82" s="203" t="s">
+      <c r="H82" s="208" t="s">
         <v>621</v>
       </c>
-      <c r="I82" s="203" t="s">
+      <c r="I82" s="208" t="s">
         <v>622</v>
       </c>
-      <c r="J82" s="203" t="s">
+      <c r="J82" s="208" t="s">
         <v>611</v>
       </c>
-      <c r="K82" s="203" t="s">
+      <c r="K82" s="208" t="s">
         <v>616</v>
       </c>
-      <c r="L82" s="205" t="s">
+      <c r="L82" s="209" t="s">
         <v>612</v>
       </c>
       <c r="M82" s="206"/>
-      <c r="N82" s="207" t="s">
-        <v>780</v>
-      </c>
-      <c r="O82" s="176">
+      <c r="N82" s="210" t="s">
+        <v>770</v>
+      </c>
+      <c r="O82" s="211">
         <v>44757</v>
       </c>
-      <c r="P82" s="163"/>
+      <c r="P82" s="212"/>
       <c r="Q82" s="181"/>
       <c r="R82" s="161"/>
       <c r="S82" s="161"/>
@@ -18376,47 +18380,47 @@
     </row>
     <row r="83" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B83" s="190">
-        <v>77</v>
-      </c>
-      <c r="C83" s="208" t="s">
-        <v>725</v>
-      </c>
-      <c r="D83" s="208" t="s">
-        <v>788</v>
-      </c>
-      <c r="E83" s="208" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="163" t="s">
+        <v>722</v>
+      </c>
+      <c r="D83" s="163" t="s">
+        <v>792</v>
+      </c>
+      <c r="E83" s="163" t="s">
         <v>791</v>
       </c>
-      <c r="F83" s="204" t="s">
+      <c r="F83" s="183" t="s">
         <v>624</v>
       </c>
-      <c r="G83" s="208" t="s">
-        <v>620</v>
-      </c>
-      <c r="H83" s="208" t="s">
-        <v>621</v>
-      </c>
-      <c r="I83" s="208" t="s">
+      <c r="G83" s="163" t="s">
+        <v>619</v>
+      </c>
+      <c r="H83" s="163" t="s">
+        <v>615</v>
+      </c>
+      <c r="I83" s="163" t="s">
         <v>622</v>
       </c>
-      <c r="J83" s="208" t="s">
+      <c r="J83" s="163" t="s">
         <v>611</v>
       </c>
-      <c r="K83" s="208" t="s">
+      <c r="K83" s="191" t="s">
         <v>616</v>
       </c>
-      <c r="L83" s="209" t="s">
+      <c r="L83" s="163" t="s">
         <v>612</v>
       </c>
-      <c r="M83" s="206"/>
-      <c r="N83" s="207" t="s">
-        <v>780</v>
-      </c>
-      <c r="O83" s="176">
+      <c r="M83" s="199"/>
+      <c r="N83" s="213" t="s">
+        <v>728</v>
+      </c>
+      <c r="O83" s="198">
         <v>44757</v>
       </c>
-      <c r="P83" s="163"/>
-      <c r="Q83" s="181"/>
+      <c r="P83" s="199"/>
+      <c r="Q83" s="165"/>
       <c r="R83" s="161"/>
       <c r="S83" s="161"/>
       <c r="T83" s="168"/>
@@ -18425,47 +18429,47 @@
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B84" s="190">
-        <v>78</v>
-      </c>
-      <c r="C84" s="203" t="s">
-        <v>725</v>
-      </c>
-      <c r="D84" s="203" t="s">
-        <v>789</v>
-      </c>
-      <c r="E84" s="203" t="s">
-        <v>791</v>
-      </c>
-      <c r="F84" s="204" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="163" t="s">
+        <v>784</v>
+      </c>
+      <c r="D84" s="163" t="s">
+        <v>785</v>
+      </c>
+      <c r="E84" s="163" t="s">
+        <v>786</v>
+      </c>
+      <c r="F84" s="183" t="s">
         <v>624</v>
       </c>
-      <c r="G84" s="203" t="s">
-        <v>620</v>
-      </c>
-      <c r="H84" s="203" t="s">
-        <v>621</v>
-      </c>
-      <c r="I84" s="203" t="s">
+      <c r="G84" s="163" t="s">
+        <v>619</v>
+      </c>
+      <c r="H84" s="163" t="s">
+        <v>615</v>
+      </c>
+      <c r="I84" s="163" t="s">
         <v>622</v>
       </c>
-      <c r="J84" s="203" t="s">
+      <c r="J84" s="163" t="s">
         <v>611</v>
       </c>
-      <c r="K84" s="203" t="s">
+      <c r="K84" s="191" t="s">
         <v>616</v>
       </c>
-      <c r="L84" s="205" t="s">
+      <c r="L84" s="163" t="s">
         <v>612</v>
       </c>
-      <c r="M84" s="206"/>
-      <c r="N84" s="207" t="s">
-        <v>780</v>
-      </c>
-      <c r="O84" s="176">
+      <c r="M84" s="193"/>
+      <c r="N84" s="186" t="s">
+        <v>770</v>
+      </c>
+      <c r="O84" s="198">
         <v>44757</v>
       </c>
-      <c r="P84" s="163"/>
-      <c r="Q84" s="181"/>
+      <c r="P84" s="193"/>
+      <c r="Q84" s="165"/>
       <c r="R84" s="161"/>
       <c r="S84" s="161"/>
       <c r="T84" s="168"/>
@@ -18474,47 +18478,47 @@
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B85" s="190">
-        <v>79</v>
-      </c>
-      <c r="C85" s="208" t="s">
-        <v>725</v>
-      </c>
-      <c r="D85" s="208" t="s">
-        <v>790</v>
-      </c>
-      <c r="E85" s="208" t="s">
-        <v>791</v>
-      </c>
-      <c r="F85" s="204" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="163" t="s">
+        <v>719</v>
+      </c>
+      <c r="D85" s="163" t="s">
+        <v>760</v>
+      </c>
+      <c r="E85" s="163" t="s">
+        <v>787</v>
+      </c>
+      <c r="F85" s="183" t="s">
         <v>624</v>
       </c>
-      <c r="G85" s="208" t="s">
+      <c r="G85" s="163" t="s">
         <v>620</v>
       </c>
-      <c r="H85" s="208" t="s">
+      <c r="H85" s="163" t="s">
         <v>621</v>
       </c>
-      <c r="I85" s="208" t="s">
+      <c r="I85" s="163" t="s">
         <v>622</v>
       </c>
-      <c r="J85" s="208" t="s">
+      <c r="J85" s="163" t="s">
         <v>611</v>
       </c>
-      <c r="K85" s="208" t="s">
+      <c r="K85" s="191" t="s">
         <v>616</v>
       </c>
-      <c r="L85" s="209" t="s">
+      <c r="L85" s="163" t="s">
         <v>612</v>
       </c>
-      <c r="M85" s="206"/>
-      <c r="N85" s="210" t="s">
-        <v>780</v>
-      </c>
-      <c r="O85" s="211">
+      <c r="M85" s="193"/>
+      <c r="N85" s="186" t="s">
+        <v>770</v>
+      </c>
+      <c r="O85" s="198">
         <v>44757</v>
       </c>
-      <c r="P85" s="212"/>
-      <c r="Q85" s="181"/>
+      <c r="P85" s="193"/>
+      <c r="Q85" s="165"/>
       <c r="R85" s="161"/>
       <c r="S85" s="161"/>
       <c r="T85" s="168"/>
@@ -18523,19 +18527,19 @@
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B86" s="190">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C86" s="163" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="D86" s="163" t="s">
-        <v>803</v>
-      </c>
-      <c r="E86" s="163" t="s">
+        <v>788</v>
+      </c>
+      <c r="E86" s="200" t="s">
         <v>802</v>
       </c>
-      <c r="F86" s="183" t="s">
-        <v>624</v>
+      <c r="F86" s="341" t="s">
+        <v>618</v>
       </c>
       <c r="G86" s="163" t="s">
         <v>619</v>
@@ -18555,14 +18559,14 @@
       <c r="L86" s="163" t="s">
         <v>612</v>
       </c>
-      <c r="M86" s="199"/>
-      <c r="N86" s="213" t="s">
-        <v>736</v>
+      <c r="M86" s="193"/>
+      <c r="N86" s="186" t="s">
+        <v>770</v>
       </c>
       <c r="O86" s="198">
         <v>44757</v>
       </c>
-      <c r="P86" s="199"/>
+      <c r="P86" s="193"/>
       <c r="Q86" s="165"/>
       <c r="R86" s="161"/>
       <c r="S86" s="161"/>
@@ -18572,25 +18576,25 @@
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B87" s="190">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C87" s="163" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="D87" s="163" t="s">
-        <v>795</v>
+        <v>769</v>
       </c>
       <c r="E87" s="163" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F87" s="183" t="s">
         <v>624</v>
       </c>
       <c r="G87" s="163" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H87" s="163" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="I87" s="163" t="s">
         <v>622</v>
@@ -18606,7 +18610,7 @@
       </c>
       <c r="M87" s="193"/>
       <c r="N87" s="186" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="O87" s="198">
         <v>44757</v>
@@ -18621,25 +18625,25 @@
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B88" s="190">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C88" s="163" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D88" s="163" t="s">
-        <v>770</v>
+        <v>793</v>
       </c>
       <c r="E88" s="163" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F88" s="183" t="s">
         <v>624</v>
       </c>
       <c r="G88" s="163" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H88" s="163" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I88" s="163" t="s">
         <v>622</v>
@@ -18654,13 +18658,13 @@
         <v>612</v>
       </c>
       <c r="M88" s="193"/>
-      <c r="N88" s="186" t="s">
-        <v>780</v>
-      </c>
-      <c r="O88" s="198">
-        <v>44757</v>
-      </c>
-      <c r="P88" s="193"/>
+      <c r="N88" s="161" t="s">
+        <v>728</v>
+      </c>
+      <c r="O88" s="214">
+        <v>44760</v>
+      </c>
+      <c r="P88" s="161"/>
       <c r="Q88" s="165"/>
       <c r="R88" s="161"/>
       <c r="S88" s="161"/>
@@ -18670,19 +18674,19 @@
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B89" s="190">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C89" s="163" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="D89" s="163" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E89" s="163" t="s">
-        <v>798</v>
-      </c>
-      <c r="F89" s="163" t="s">
-        <v>618</v>
+        <v>795</v>
+      </c>
+      <c r="F89" s="183" t="s">
+        <v>624</v>
       </c>
       <c r="G89" s="163" t="s">
         <v>619</v>
@@ -18703,13 +18707,13 @@
         <v>612</v>
       </c>
       <c r="M89" s="193"/>
-      <c r="N89" s="186" t="s">
-        <v>780</v>
-      </c>
-      <c r="O89" s="198">
-        <v>44757</v>
-      </c>
-      <c r="P89" s="193"/>
+      <c r="N89" s="161" t="s">
+        <v>728</v>
+      </c>
+      <c r="O89" s="176">
+        <v>44760</v>
+      </c>
+      <c r="P89" s="161"/>
       <c r="Q89" s="165"/>
       <c r="R89" s="161"/>
       <c r="S89" s="161"/>
@@ -18719,16 +18723,16 @@
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B90" s="190">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C90" s="163" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="D90" s="163" t="s">
-        <v>779</v>
+        <v>682</v>
       </c>
       <c r="E90" s="163" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F90" s="183" t="s">
         <v>624</v>
@@ -18752,13 +18756,13 @@
         <v>612</v>
       </c>
       <c r="M90" s="193"/>
-      <c r="N90" s="186" t="s">
-        <v>780</v>
-      </c>
-      <c r="O90" s="198">
-        <v>44757</v>
-      </c>
-      <c r="P90" s="193"/>
+      <c r="N90" s="161" t="s">
+        <v>728</v>
+      </c>
+      <c r="O90" s="176">
+        <v>44756</v>
+      </c>
+      <c r="P90" s="161"/>
       <c r="Q90" s="165"/>
       <c r="R90" s="161"/>
       <c r="S90" s="161"/>
@@ -18768,16 +18772,16 @@
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B91" s="190">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C91" s="163" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="D91" s="163" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E91" s="163" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F91" s="183" t="s">
         <v>624</v>
@@ -18802,109 +18806,67 @@
       </c>
       <c r="M91" s="193"/>
       <c r="N91" s="161" t="s">
-        <v>736</v>
-      </c>
-      <c r="O91" s="214">
+        <v>800</v>
+      </c>
+      <c r="O91" s="176">
         <v>44760</v>
       </c>
       <c r="P91" s="161"/>
       <c r="Q91" s="165"/>
-      <c r="R91" s="161"/>
-      <c r="S91" s="161"/>
-      <c r="T91" s="168"/>
-      <c r="U91" s="161"/>
+      <c r="R91" s="54"/>
+      <c r="S91" s="54"/>
+      <c r="T91" s="55"/>
+      <c r="U91" s="54"/>
       <c r="V91" s="54"/>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B92" s="190">
-        <v>86</v>
-      </c>
-      <c r="C92" s="163" t="s">
-        <v>730</v>
-      </c>
-      <c r="D92" s="163" t="s">
-        <v>805</v>
-      </c>
-      <c r="E92" s="163" t="s">
-        <v>806</v>
-      </c>
-      <c r="F92" s="183" t="s">
-        <v>624</v>
-      </c>
-      <c r="G92" s="163" t="s">
-        <v>619</v>
-      </c>
-      <c r="H92" s="163" t="s">
-        <v>615</v>
-      </c>
-      <c r="I92" s="163" t="s">
-        <v>622</v>
-      </c>
-      <c r="J92" s="163" t="s">
-        <v>611</v>
-      </c>
-      <c r="K92" s="191" t="s">
-        <v>616</v>
-      </c>
-      <c r="L92" s="163" t="s">
-        <v>612</v>
-      </c>
-      <c r="M92" s="193"/>
-      <c r="N92" s="161" t="s">
-        <v>736</v>
-      </c>
-      <c r="O92" s="176">
-        <v>44760</v>
-      </c>
-      <c r="P92" s="161"/>
-      <c r="Q92" s="165"/>
-      <c r="R92" s="161"/>
-      <c r="S92" s="161"/>
-      <c r="T92" s="168"/>
-      <c r="U92" s="161"/>
+      <c r="B92" s="182"/>
+      <c r="C92" s="182"/>
+      <c r="D92" s="182"/>
+      <c r="E92" s="182"/>
+      <c r="F92" s="182"/>
+      <c r="G92" s="182"/>
+      <c r="H92" s="182"/>
+      <c r="I92" s="182"/>
+      <c r="J92" s="182"/>
+      <c r="K92" s="192"/>
+      <c r="L92" s="182"/>
+      <c r="M92" s="184"/>
+      <c r="N92" s="54"/>
+      <c r="O92" s="54"/>
+      <c r="P92" s="54"/>
+      <c r="Q92" s="56"/>
+      <c r="R92" s="54"/>
+      <c r="S92" s="54"/>
+      <c r="T92" s="55"/>
+      <c r="U92" s="54"/>
       <c r="V92" s="54"/>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B93" s="190">
-        <v>87</v>
-      </c>
-      <c r="C93" s="163" t="s">
-        <v>792</v>
-      </c>
-      <c r="D93" s="163" t="s">
-        <v>685</v>
-      </c>
-      <c r="E93" s="163" t="s">
-        <v>807</v>
-      </c>
-      <c r="F93" s="183" t="s">
-        <v>624</v>
-      </c>
-      <c r="G93" s="163" t="s">
-        <v>620</v>
-      </c>
-      <c r="H93" s="163" t="s">
-        <v>621</v>
-      </c>
-      <c r="I93" s="163"/>
-      <c r="J93" s="163"/>
-      <c r="K93" s="191"/>
-      <c r="L93" s="163"/>
-      <c r="M93" s="193"/>
-      <c r="N93" s="161"/>
-      <c r="O93" s="161"/>
-      <c r="P93" s="161"/>
-      <c r="Q93" s="165"/>
-      <c r="R93" s="161"/>
-      <c r="S93" s="161"/>
-      <c r="T93" s="168"/>
-      <c r="U93" s="161"/>
+      <c r="B93" s="182"/>
+      <c r="C93" s="182"/>
+      <c r="D93" s="182"/>
+      <c r="E93" s="182"/>
+      <c r="F93" s="182"/>
+      <c r="G93" s="182"/>
+      <c r="H93" s="182"/>
+      <c r="I93" s="182"/>
+      <c r="J93" s="182"/>
+      <c r="K93" s="192"/>
+      <c r="L93" s="182"/>
+      <c r="M93" s="184"/>
+      <c r="N93" s="54"/>
+      <c r="O93" s="54"/>
+      <c r="P93" s="54"/>
+      <c r="Q93" s="56"/>
+      <c r="R93" s="54"/>
+      <c r="S93" s="54"/>
+      <c r="T93" s="55"/>
+      <c r="U93" s="54"/>
       <c r="V93" s="54"/>
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B94" s="190">
-        <v>88</v>
-      </c>
+      <c r="B94" s="182"/>
       <c r="C94" s="182"/>
       <c r="D94" s="182"/>
       <c r="E94" s="182"/>
@@ -19593,104 +19555,35 @@
       <c r="U123" s="54"/>
       <c r="V123" s="54"/>
     </row>
-    <row r="124" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B124" s="182"/>
-      <c r="C124" s="182"/>
-      <c r="D124" s="182"/>
-      <c r="E124" s="182"/>
-      <c r="F124" s="182"/>
-      <c r="G124" s="182"/>
-      <c r="H124" s="182"/>
-      <c r="I124" s="182"/>
-      <c r="J124" s="182"/>
-      <c r="K124" s="192"/>
-      <c r="L124" s="182"/>
-      <c r="M124" s="184"/>
-      <c r="N124" s="54"/>
-      <c r="O124" s="54"/>
-      <c r="P124" s="54"/>
-      <c r="Q124" s="56"/>
-      <c r="R124" s="54"/>
-      <c r="S124" s="54"/>
-      <c r="T124" s="55"/>
-      <c r="U124" s="54"/>
-      <c r="V124" s="54"/>
-    </row>
-    <row r="125" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B125" s="182"/>
-      <c r="C125" s="182"/>
-      <c r="D125" s="182"/>
-      <c r="E125" s="182"/>
-      <c r="F125" s="182"/>
-      <c r="G125" s="182"/>
-      <c r="H125" s="182"/>
-      <c r="I125" s="182"/>
-      <c r="J125" s="182"/>
-      <c r="K125" s="192"/>
-      <c r="L125" s="182"/>
-      <c r="M125" s="184"/>
-      <c r="N125" s="54"/>
-      <c r="O125" s="54"/>
-      <c r="P125" s="54"/>
-      <c r="Q125" s="56"/>
-      <c r="R125" s="54"/>
-      <c r="S125" s="54"/>
-      <c r="T125" s="55"/>
-      <c r="U125" s="54"/>
-      <c r="V125" s="54"/>
-    </row>
-    <row r="126" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B126" s="182"/>
-      <c r="C126" s="182"/>
-      <c r="D126" s="182"/>
-      <c r="E126" s="182"/>
-      <c r="F126" s="182"/>
-      <c r="G126" s="182"/>
-      <c r="H126" s="182"/>
-      <c r="I126" s="182"/>
-      <c r="J126" s="182"/>
-      <c r="K126" s="192"/>
-      <c r="L126" s="182"/>
-      <c r="M126" s="184"/>
-      <c r="N126" s="54"/>
-      <c r="O126" s="54"/>
-      <c r="P126" s="54"/>
-      <c r="Q126" s="56"/>
-      <c r="R126" s="54"/>
-      <c r="S126" s="54"/>
-      <c r="T126" s="55"/>
-      <c r="U126" s="54"/>
-      <c r="V126" s="54"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M7:V53">
-    <sortCondition ref="N7:N53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M7:V51">
+    <sortCondition ref="N7:N51"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="C4:J4"/>
-    <mergeCell ref="AM11:AM31"/>
-    <mergeCell ref="AJ20:AJ23"/>
+    <mergeCell ref="AM11:AM29"/>
+    <mergeCell ref="AJ20:AJ22"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVE983013:WVE983166 F6 F65509:F65662 IS65509:IS65662 SO65509:SO65662 ACK65509:ACK65662 AMG65509:AMG65662 AWC65509:AWC65662 BFY65509:BFY65662 BPU65509:BPU65662 BZQ65509:BZQ65662 CJM65509:CJM65662 CTI65509:CTI65662 DDE65509:DDE65662 DNA65509:DNA65662 DWW65509:DWW65662 EGS65509:EGS65662 EQO65509:EQO65662 FAK65509:FAK65662 FKG65509:FKG65662 FUC65509:FUC65662 GDY65509:GDY65662 GNU65509:GNU65662 GXQ65509:GXQ65662 HHM65509:HHM65662 HRI65509:HRI65662 IBE65509:IBE65662 ILA65509:ILA65662 IUW65509:IUW65662 JES65509:JES65662 JOO65509:JOO65662 JYK65509:JYK65662 KIG65509:KIG65662 KSC65509:KSC65662 LBY65509:LBY65662 LLU65509:LLU65662 LVQ65509:LVQ65662 MFM65509:MFM65662 MPI65509:MPI65662 MZE65509:MZE65662 NJA65509:NJA65662 NSW65509:NSW65662 OCS65509:OCS65662 OMO65509:OMO65662 OWK65509:OWK65662 PGG65509:PGG65662 PQC65509:PQC65662 PZY65509:PZY65662 QJU65509:QJU65662 QTQ65509:QTQ65662 RDM65509:RDM65662 RNI65509:RNI65662 RXE65509:RXE65662 SHA65509:SHA65662 SQW65509:SQW65662 TAS65509:TAS65662 TKO65509:TKO65662 TUK65509:TUK65662 UEG65509:UEG65662 UOC65509:UOC65662 UXY65509:UXY65662 VHU65509:VHU65662 VRQ65509:VRQ65662 WBM65509:WBM65662 WLI65509:WLI65662 WVE65509:WVE65662 F131045:F131198 IS131045:IS131198 SO131045:SO131198 ACK131045:ACK131198 AMG131045:AMG131198 AWC131045:AWC131198 BFY131045:BFY131198 BPU131045:BPU131198 BZQ131045:BZQ131198 CJM131045:CJM131198 CTI131045:CTI131198 DDE131045:DDE131198 DNA131045:DNA131198 DWW131045:DWW131198 EGS131045:EGS131198 EQO131045:EQO131198 FAK131045:FAK131198 FKG131045:FKG131198 FUC131045:FUC131198 GDY131045:GDY131198 GNU131045:GNU131198 GXQ131045:GXQ131198 HHM131045:HHM131198 HRI131045:HRI131198 IBE131045:IBE131198 ILA131045:ILA131198 IUW131045:IUW131198 JES131045:JES131198 JOO131045:JOO131198 JYK131045:JYK131198 KIG131045:KIG131198 KSC131045:KSC131198 LBY131045:LBY131198 LLU131045:LLU131198 LVQ131045:LVQ131198 MFM131045:MFM131198 MPI131045:MPI131198 MZE131045:MZE131198 NJA131045:NJA131198 NSW131045:NSW131198 OCS131045:OCS131198 OMO131045:OMO131198 OWK131045:OWK131198 PGG131045:PGG131198 PQC131045:PQC131198 PZY131045:PZY131198 QJU131045:QJU131198 QTQ131045:QTQ131198 RDM131045:RDM131198 RNI131045:RNI131198 RXE131045:RXE131198 SHA131045:SHA131198 SQW131045:SQW131198 TAS131045:TAS131198 TKO131045:TKO131198 TUK131045:TUK131198 UEG131045:UEG131198 UOC131045:UOC131198 UXY131045:UXY131198 VHU131045:VHU131198 VRQ131045:VRQ131198 WBM131045:WBM131198 WLI131045:WLI131198 WVE131045:WVE131198 F196581:F196734 IS196581:IS196734 SO196581:SO196734 ACK196581:ACK196734 AMG196581:AMG196734 AWC196581:AWC196734 BFY196581:BFY196734 BPU196581:BPU196734 BZQ196581:BZQ196734 CJM196581:CJM196734 CTI196581:CTI196734 DDE196581:DDE196734 DNA196581:DNA196734 DWW196581:DWW196734 EGS196581:EGS196734 EQO196581:EQO196734 FAK196581:FAK196734 FKG196581:FKG196734 FUC196581:FUC196734 GDY196581:GDY196734 GNU196581:GNU196734 GXQ196581:GXQ196734 HHM196581:HHM196734 HRI196581:HRI196734 IBE196581:IBE196734 ILA196581:ILA196734 IUW196581:IUW196734 JES196581:JES196734 JOO196581:JOO196734 JYK196581:JYK196734 KIG196581:KIG196734 KSC196581:KSC196734 LBY196581:LBY196734 LLU196581:LLU196734 LVQ196581:LVQ196734 MFM196581:MFM196734 MPI196581:MPI196734 MZE196581:MZE196734 NJA196581:NJA196734 NSW196581:NSW196734 OCS196581:OCS196734 OMO196581:OMO196734 OWK196581:OWK196734 PGG196581:PGG196734 PQC196581:PQC196734 PZY196581:PZY196734 QJU196581:QJU196734 QTQ196581:QTQ196734 RDM196581:RDM196734 RNI196581:RNI196734 RXE196581:RXE196734 SHA196581:SHA196734 SQW196581:SQW196734 TAS196581:TAS196734 TKO196581:TKO196734 TUK196581:TUK196734 UEG196581:UEG196734 UOC196581:UOC196734 UXY196581:UXY196734 VHU196581:VHU196734 VRQ196581:VRQ196734 WBM196581:WBM196734 WLI196581:WLI196734 WVE196581:WVE196734 F262117:F262270 IS262117:IS262270 SO262117:SO262270 ACK262117:ACK262270 AMG262117:AMG262270 AWC262117:AWC262270 BFY262117:BFY262270 BPU262117:BPU262270 BZQ262117:BZQ262270 CJM262117:CJM262270 CTI262117:CTI262270 DDE262117:DDE262270 DNA262117:DNA262270 DWW262117:DWW262270 EGS262117:EGS262270 EQO262117:EQO262270 FAK262117:FAK262270 FKG262117:FKG262270 FUC262117:FUC262270 GDY262117:GDY262270 GNU262117:GNU262270 GXQ262117:GXQ262270 HHM262117:HHM262270 HRI262117:HRI262270 IBE262117:IBE262270 ILA262117:ILA262270 IUW262117:IUW262270 JES262117:JES262270 JOO262117:JOO262270 JYK262117:JYK262270 KIG262117:KIG262270 KSC262117:KSC262270 LBY262117:LBY262270 LLU262117:LLU262270 LVQ262117:LVQ262270 MFM262117:MFM262270 MPI262117:MPI262270 MZE262117:MZE262270 NJA262117:NJA262270 NSW262117:NSW262270 OCS262117:OCS262270 OMO262117:OMO262270 OWK262117:OWK262270 PGG262117:PGG262270 PQC262117:PQC262270 PZY262117:PZY262270 QJU262117:QJU262270 QTQ262117:QTQ262270 RDM262117:RDM262270 RNI262117:RNI262270 RXE262117:RXE262270 SHA262117:SHA262270 SQW262117:SQW262270 TAS262117:TAS262270 TKO262117:TKO262270 TUK262117:TUK262270 UEG262117:UEG262270 UOC262117:UOC262270 UXY262117:UXY262270 VHU262117:VHU262270 VRQ262117:VRQ262270 WBM262117:WBM262270 WLI262117:WLI262270 WVE262117:WVE262270 F327653:F327806 IS327653:IS327806 SO327653:SO327806 ACK327653:ACK327806 AMG327653:AMG327806 AWC327653:AWC327806 BFY327653:BFY327806 BPU327653:BPU327806 BZQ327653:BZQ327806 CJM327653:CJM327806 CTI327653:CTI327806 DDE327653:DDE327806 DNA327653:DNA327806 DWW327653:DWW327806 EGS327653:EGS327806 EQO327653:EQO327806 FAK327653:FAK327806 FKG327653:FKG327806 FUC327653:FUC327806 GDY327653:GDY327806 GNU327653:GNU327806 GXQ327653:GXQ327806 HHM327653:HHM327806 HRI327653:HRI327806 IBE327653:IBE327806 ILA327653:ILA327806 IUW327653:IUW327806 JES327653:JES327806 JOO327653:JOO327806 JYK327653:JYK327806 KIG327653:KIG327806 KSC327653:KSC327806 LBY327653:LBY327806 LLU327653:LLU327806 LVQ327653:LVQ327806 MFM327653:MFM327806 MPI327653:MPI327806 MZE327653:MZE327806 NJA327653:NJA327806 NSW327653:NSW327806 OCS327653:OCS327806 OMO327653:OMO327806 OWK327653:OWK327806 PGG327653:PGG327806 PQC327653:PQC327806 PZY327653:PZY327806 QJU327653:QJU327806 QTQ327653:QTQ327806 RDM327653:RDM327806 RNI327653:RNI327806 RXE327653:RXE327806 SHA327653:SHA327806 SQW327653:SQW327806 TAS327653:TAS327806 TKO327653:TKO327806 TUK327653:TUK327806 UEG327653:UEG327806 UOC327653:UOC327806 UXY327653:UXY327806 VHU327653:VHU327806 VRQ327653:VRQ327806 WBM327653:WBM327806 WLI327653:WLI327806 WVE327653:WVE327806 F393189:F393342 IS393189:IS393342 SO393189:SO393342 ACK393189:ACK393342 AMG393189:AMG393342 AWC393189:AWC393342 BFY393189:BFY393342 BPU393189:BPU393342 BZQ393189:BZQ393342 CJM393189:CJM393342 CTI393189:CTI393342 DDE393189:DDE393342 DNA393189:DNA393342 DWW393189:DWW393342 EGS393189:EGS393342 EQO393189:EQO393342 FAK393189:FAK393342 FKG393189:FKG393342 FUC393189:FUC393342 GDY393189:GDY393342 GNU393189:GNU393342 GXQ393189:GXQ393342 HHM393189:HHM393342 HRI393189:HRI393342 IBE393189:IBE393342 ILA393189:ILA393342 IUW393189:IUW393342 JES393189:JES393342 JOO393189:JOO393342 JYK393189:JYK393342 KIG393189:KIG393342 KSC393189:KSC393342 LBY393189:LBY393342 LLU393189:LLU393342 LVQ393189:LVQ393342 MFM393189:MFM393342 MPI393189:MPI393342 MZE393189:MZE393342 NJA393189:NJA393342 NSW393189:NSW393342 OCS393189:OCS393342 OMO393189:OMO393342 OWK393189:OWK393342 PGG393189:PGG393342 PQC393189:PQC393342 PZY393189:PZY393342 QJU393189:QJU393342 QTQ393189:QTQ393342 RDM393189:RDM393342 RNI393189:RNI393342 RXE393189:RXE393342 SHA393189:SHA393342 SQW393189:SQW393342 TAS393189:TAS393342 TKO393189:TKO393342 TUK393189:TUK393342 UEG393189:UEG393342 UOC393189:UOC393342 UXY393189:UXY393342 VHU393189:VHU393342 VRQ393189:VRQ393342 WBM393189:WBM393342 WLI393189:WLI393342 WVE393189:WVE393342 F458725:F458878 IS458725:IS458878 SO458725:SO458878 ACK458725:ACK458878 AMG458725:AMG458878 AWC458725:AWC458878 BFY458725:BFY458878 BPU458725:BPU458878 BZQ458725:BZQ458878 CJM458725:CJM458878 CTI458725:CTI458878 DDE458725:DDE458878 DNA458725:DNA458878 DWW458725:DWW458878 EGS458725:EGS458878 EQO458725:EQO458878 FAK458725:FAK458878 FKG458725:FKG458878 FUC458725:FUC458878 GDY458725:GDY458878 GNU458725:GNU458878 GXQ458725:GXQ458878 HHM458725:HHM458878 HRI458725:HRI458878 IBE458725:IBE458878 ILA458725:ILA458878 IUW458725:IUW458878 JES458725:JES458878 JOO458725:JOO458878 JYK458725:JYK458878 KIG458725:KIG458878 KSC458725:KSC458878 LBY458725:LBY458878 LLU458725:LLU458878 LVQ458725:LVQ458878 MFM458725:MFM458878 MPI458725:MPI458878 MZE458725:MZE458878 NJA458725:NJA458878 NSW458725:NSW458878 OCS458725:OCS458878 OMO458725:OMO458878 OWK458725:OWK458878 PGG458725:PGG458878 PQC458725:PQC458878 PZY458725:PZY458878 QJU458725:QJU458878 QTQ458725:QTQ458878 RDM458725:RDM458878 RNI458725:RNI458878 RXE458725:RXE458878 SHA458725:SHA458878 SQW458725:SQW458878 TAS458725:TAS458878 TKO458725:TKO458878 TUK458725:TUK458878 UEG458725:UEG458878 UOC458725:UOC458878 UXY458725:UXY458878 VHU458725:VHU458878 VRQ458725:VRQ458878 WBM458725:WBM458878 WLI458725:WLI458878 WVE458725:WVE458878 F524261:F524414 IS524261:IS524414 SO524261:SO524414 ACK524261:ACK524414 AMG524261:AMG524414 AWC524261:AWC524414 BFY524261:BFY524414 BPU524261:BPU524414 BZQ524261:BZQ524414 CJM524261:CJM524414 CTI524261:CTI524414 DDE524261:DDE524414 DNA524261:DNA524414 DWW524261:DWW524414 EGS524261:EGS524414 EQO524261:EQO524414 FAK524261:FAK524414 FKG524261:FKG524414 FUC524261:FUC524414 GDY524261:GDY524414 GNU524261:GNU524414 GXQ524261:GXQ524414 HHM524261:HHM524414 HRI524261:HRI524414 IBE524261:IBE524414 ILA524261:ILA524414 IUW524261:IUW524414 JES524261:JES524414 JOO524261:JOO524414 JYK524261:JYK524414 KIG524261:KIG524414 KSC524261:KSC524414 LBY524261:LBY524414 LLU524261:LLU524414 LVQ524261:LVQ524414 MFM524261:MFM524414 MPI524261:MPI524414 MZE524261:MZE524414 NJA524261:NJA524414 NSW524261:NSW524414 OCS524261:OCS524414 OMO524261:OMO524414 OWK524261:OWK524414 PGG524261:PGG524414 PQC524261:PQC524414 PZY524261:PZY524414 QJU524261:QJU524414 QTQ524261:QTQ524414 RDM524261:RDM524414 RNI524261:RNI524414 RXE524261:RXE524414 SHA524261:SHA524414 SQW524261:SQW524414 TAS524261:TAS524414 TKO524261:TKO524414 TUK524261:TUK524414 UEG524261:UEG524414 UOC524261:UOC524414 UXY524261:UXY524414 VHU524261:VHU524414 VRQ524261:VRQ524414 WBM524261:WBM524414 WLI524261:WLI524414 WVE524261:WVE524414 F589797:F589950 IS589797:IS589950 SO589797:SO589950 ACK589797:ACK589950 AMG589797:AMG589950 AWC589797:AWC589950 BFY589797:BFY589950 BPU589797:BPU589950 BZQ589797:BZQ589950 CJM589797:CJM589950 CTI589797:CTI589950 DDE589797:DDE589950 DNA589797:DNA589950 DWW589797:DWW589950 EGS589797:EGS589950 EQO589797:EQO589950 FAK589797:FAK589950 FKG589797:FKG589950 FUC589797:FUC589950 GDY589797:GDY589950 GNU589797:GNU589950 GXQ589797:GXQ589950 HHM589797:HHM589950 HRI589797:HRI589950 IBE589797:IBE589950 ILA589797:ILA589950 IUW589797:IUW589950 JES589797:JES589950 JOO589797:JOO589950 JYK589797:JYK589950 KIG589797:KIG589950 KSC589797:KSC589950 LBY589797:LBY589950 LLU589797:LLU589950 LVQ589797:LVQ589950 MFM589797:MFM589950 MPI589797:MPI589950 MZE589797:MZE589950 NJA589797:NJA589950 NSW589797:NSW589950 OCS589797:OCS589950 OMO589797:OMO589950 OWK589797:OWK589950 PGG589797:PGG589950 PQC589797:PQC589950 PZY589797:PZY589950 QJU589797:QJU589950 QTQ589797:QTQ589950 RDM589797:RDM589950 RNI589797:RNI589950 RXE589797:RXE589950 SHA589797:SHA589950 SQW589797:SQW589950 TAS589797:TAS589950 TKO589797:TKO589950 TUK589797:TUK589950 UEG589797:UEG589950 UOC589797:UOC589950 UXY589797:UXY589950 VHU589797:VHU589950 VRQ589797:VRQ589950 WBM589797:WBM589950 WLI589797:WLI589950 WVE589797:WVE589950 F655333:F655486 IS655333:IS655486 SO655333:SO655486 ACK655333:ACK655486 AMG655333:AMG655486 AWC655333:AWC655486 BFY655333:BFY655486 BPU655333:BPU655486 BZQ655333:BZQ655486 CJM655333:CJM655486 CTI655333:CTI655486 DDE655333:DDE655486 DNA655333:DNA655486 DWW655333:DWW655486 EGS655333:EGS655486 EQO655333:EQO655486 FAK655333:FAK655486 FKG655333:FKG655486 FUC655333:FUC655486 GDY655333:GDY655486 GNU655333:GNU655486 GXQ655333:GXQ655486 HHM655333:HHM655486 HRI655333:HRI655486 IBE655333:IBE655486 ILA655333:ILA655486 IUW655333:IUW655486 JES655333:JES655486 JOO655333:JOO655486 JYK655333:JYK655486 KIG655333:KIG655486 KSC655333:KSC655486 LBY655333:LBY655486 LLU655333:LLU655486 LVQ655333:LVQ655486 MFM655333:MFM655486 MPI655333:MPI655486 MZE655333:MZE655486 NJA655333:NJA655486 NSW655333:NSW655486 OCS655333:OCS655486 OMO655333:OMO655486 OWK655333:OWK655486 PGG655333:PGG655486 PQC655333:PQC655486 PZY655333:PZY655486 QJU655333:QJU655486 QTQ655333:QTQ655486 RDM655333:RDM655486 RNI655333:RNI655486 RXE655333:RXE655486 SHA655333:SHA655486 SQW655333:SQW655486 TAS655333:TAS655486 TKO655333:TKO655486 TUK655333:TUK655486 UEG655333:UEG655486 UOC655333:UOC655486 UXY655333:UXY655486 VHU655333:VHU655486 VRQ655333:VRQ655486 WBM655333:WBM655486 WLI655333:WLI655486 WVE655333:WVE655486 F720869:F721022 IS720869:IS721022 SO720869:SO721022 ACK720869:ACK721022 AMG720869:AMG721022 AWC720869:AWC721022 BFY720869:BFY721022 BPU720869:BPU721022 BZQ720869:BZQ721022 CJM720869:CJM721022 CTI720869:CTI721022 DDE720869:DDE721022 DNA720869:DNA721022 DWW720869:DWW721022 EGS720869:EGS721022 EQO720869:EQO721022 FAK720869:FAK721022 FKG720869:FKG721022 FUC720869:FUC721022 GDY720869:GDY721022 GNU720869:GNU721022 GXQ720869:GXQ721022 HHM720869:HHM721022 HRI720869:HRI721022 IBE720869:IBE721022 ILA720869:ILA721022 IUW720869:IUW721022 JES720869:JES721022 JOO720869:JOO721022 JYK720869:JYK721022 KIG720869:KIG721022 KSC720869:KSC721022 LBY720869:LBY721022 LLU720869:LLU721022 LVQ720869:LVQ721022 MFM720869:MFM721022 MPI720869:MPI721022 MZE720869:MZE721022 NJA720869:NJA721022 NSW720869:NSW721022 OCS720869:OCS721022 OMO720869:OMO721022 OWK720869:OWK721022 PGG720869:PGG721022 PQC720869:PQC721022 PZY720869:PZY721022 QJU720869:QJU721022 QTQ720869:QTQ721022 RDM720869:RDM721022 RNI720869:RNI721022 RXE720869:RXE721022 SHA720869:SHA721022 SQW720869:SQW721022 TAS720869:TAS721022 TKO720869:TKO721022 TUK720869:TUK721022 UEG720869:UEG721022 UOC720869:UOC721022 UXY720869:UXY721022 VHU720869:VHU721022 VRQ720869:VRQ721022 WBM720869:WBM721022 WLI720869:WLI721022 WVE720869:WVE721022 F786405:F786558 IS786405:IS786558 SO786405:SO786558 ACK786405:ACK786558 AMG786405:AMG786558 AWC786405:AWC786558 BFY786405:BFY786558 BPU786405:BPU786558 BZQ786405:BZQ786558 CJM786405:CJM786558 CTI786405:CTI786558 DDE786405:DDE786558 DNA786405:DNA786558 DWW786405:DWW786558 EGS786405:EGS786558 EQO786405:EQO786558 FAK786405:FAK786558 FKG786405:FKG786558 FUC786405:FUC786558 GDY786405:GDY786558 GNU786405:GNU786558 GXQ786405:GXQ786558 HHM786405:HHM786558 HRI786405:HRI786558 IBE786405:IBE786558 ILA786405:ILA786558 IUW786405:IUW786558 JES786405:JES786558 JOO786405:JOO786558 JYK786405:JYK786558 KIG786405:KIG786558 KSC786405:KSC786558 LBY786405:LBY786558 LLU786405:LLU786558 LVQ786405:LVQ786558 MFM786405:MFM786558 MPI786405:MPI786558 MZE786405:MZE786558 NJA786405:NJA786558 NSW786405:NSW786558 OCS786405:OCS786558 OMO786405:OMO786558 OWK786405:OWK786558 PGG786405:PGG786558 PQC786405:PQC786558 PZY786405:PZY786558 QJU786405:QJU786558 QTQ786405:QTQ786558 RDM786405:RDM786558 RNI786405:RNI786558 RXE786405:RXE786558 SHA786405:SHA786558 SQW786405:SQW786558 TAS786405:TAS786558 TKO786405:TKO786558 TUK786405:TUK786558 UEG786405:UEG786558 UOC786405:UOC786558 UXY786405:UXY786558 VHU786405:VHU786558 VRQ786405:VRQ786558 WBM786405:WBM786558 WLI786405:WLI786558 WVE786405:WVE786558 F851941:F852094 IS851941:IS852094 SO851941:SO852094 ACK851941:ACK852094 AMG851941:AMG852094 AWC851941:AWC852094 BFY851941:BFY852094 BPU851941:BPU852094 BZQ851941:BZQ852094 CJM851941:CJM852094 CTI851941:CTI852094 DDE851941:DDE852094 DNA851941:DNA852094 DWW851941:DWW852094 EGS851941:EGS852094 EQO851941:EQO852094 FAK851941:FAK852094 FKG851941:FKG852094 FUC851941:FUC852094 GDY851941:GDY852094 GNU851941:GNU852094 GXQ851941:GXQ852094 HHM851941:HHM852094 HRI851941:HRI852094 IBE851941:IBE852094 ILA851941:ILA852094 IUW851941:IUW852094 JES851941:JES852094 JOO851941:JOO852094 JYK851941:JYK852094 KIG851941:KIG852094 KSC851941:KSC852094 LBY851941:LBY852094 LLU851941:LLU852094 LVQ851941:LVQ852094 MFM851941:MFM852094 MPI851941:MPI852094 MZE851941:MZE852094 NJA851941:NJA852094 NSW851941:NSW852094 OCS851941:OCS852094 OMO851941:OMO852094 OWK851941:OWK852094 PGG851941:PGG852094 PQC851941:PQC852094 PZY851941:PZY852094 QJU851941:QJU852094 QTQ851941:QTQ852094 RDM851941:RDM852094 RNI851941:RNI852094 RXE851941:RXE852094 SHA851941:SHA852094 SQW851941:SQW852094 TAS851941:TAS852094 TKO851941:TKO852094 TUK851941:TUK852094 UEG851941:UEG852094 UOC851941:UOC852094 UXY851941:UXY852094 VHU851941:VHU852094 VRQ851941:VRQ852094 WBM851941:WBM852094 WLI851941:WLI852094 WVE851941:WVE852094 F917477:F917630 IS917477:IS917630 SO917477:SO917630 ACK917477:ACK917630 AMG917477:AMG917630 AWC917477:AWC917630 BFY917477:BFY917630 BPU917477:BPU917630 BZQ917477:BZQ917630 CJM917477:CJM917630 CTI917477:CTI917630 DDE917477:DDE917630 DNA917477:DNA917630 DWW917477:DWW917630 EGS917477:EGS917630 EQO917477:EQO917630 FAK917477:FAK917630 FKG917477:FKG917630 FUC917477:FUC917630 GDY917477:GDY917630 GNU917477:GNU917630 GXQ917477:GXQ917630 HHM917477:HHM917630 HRI917477:HRI917630 IBE917477:IBE917630 ILA917477:ILA917630 IUW917477:IUW917630 JES917477:JES917630 JOO917477:JOO917630 JYK917477:JYK917630 KIG917477:KIG917630 KSC917477:KSC917630 LBY917477:LBY917630 LLU917477:LLU917630 LVQ917477:LVQ917630 MFM917477:MFM917630 MPI917477:MPI917630 MZE917477:MZE917630 NJA917477:NJA917630 NSW917477:NSW917630 OCS917477:OCS917630 OMO917477:OMO917630 OWK917477:OWK917630 PGG917477:PGG917630 PQC917477:PQC917630 PZY917477:PZY917630 QJU917477:QJU917630 QTQ917477:QTQ917630 RDM917477:RDM917630 RNI917477:RNI917630 RXE917477:RXE917630 SHA917477:SHA917630 SQW917477:SQW917630 TAS917477:TAS917630 TKO917477:TKO917630 TUK917477:TUK917630 UEG917477:UEG917630 UOC917477:UOC917630 UXY917477:UXY917630 VHU917477:VHU917630 VRQ917477:VRQ917630 WBM917477:WBM917630 WLI917477:WLI917630 WVE917477:WVE917630 F983013:F983166 IS983013:IS983166 SO983013:SO983166 ACK983013:ACK983166 AMG983013:AMG983166 AWC983013:AWC983166 BFY983013:BFY983166 BPU983013:BPU983166 BZQ983013:BZQ983166 CJM983013:CJM983166 CTI983013:CTI983166 DDE983013:DDE983166 DNA983013:DNA983166 DWW983013:DWW983166 EGS983013:EGS983166 EQO983013:EQO983166 FAK983013:FAK983166 FKG983013:FKG983166 FUC983013:FUC983166 GDY983013:GDY983166 GNU983013:GNU983166 GXQ983013:GXQ983166 HHM983013:HHM983166 HRI983013:HRI983166 IBE983013:IBE983166 ILA983013:ILA983166 IUW983013:IUW983166 JES983013:JES983166 JOO983013:JOO983166 JYK983013:JYK983166 KIG983013:KIG983166 KSC983013:KSC983166 LBY983013:LBY983166 LLU983013:LLU983166 LVQ983013:LVQ983166 MFM983013:MFM983166 MPI983013:MPI983166 MZE983013:MZE983166 NJA983013:NJA983166 NSW983013:NSW983166 OCS983013:OCS983166 OMO983013:OMO983166 OWK983013:OWK983166 PGG983013:PGG983166 PQC983013:PQC983166 PZY983013:PZY983166 QJU983013:QJU983166 QTQ983013:QTQ983166 RDM983013:RDM983166 RNI983013:RNI983166 RXE983013:RXE983166 SHA983013:SHA983166 SQW983013:SQW983166 TAS983013:TAS983166 TKO983013:TKO983166 TUK983013:TUK983166 UEG983013:UEG983166 UOC983013:UOC983166 UXY983013:UXY983166 VHU983013:VHU983166 VRQ983013:VRQ983166 WBM983013:WBM983166 WLI983013:WLI983166 F20:F23 IS6:IS126 WVE6:WVE126 WLI6:WLI126 WBM6:WBM126 VRQ6:VRQ126 VHU6:VHU126 UXY6:UXY126 UOC6:UOC126 UEG6:UEG126 TUK6:TUK126 TKO6:TKO126 TAS6:TAS126 SQW6:SQW126 SHA6:SHA126 RXE6:RXE126 RNI6:RNI126 RDM6:RDM126 QTQ6:QTQ126 QJU6:QJU126 PZY6:PZY126 PQC6:PQC126 PGG6:PGG126 OWK6:OWK126 OMO6:OMO126 OCS6:OCS126 NSW6:NSW126 NJA6:NJA126 MZE6:MZE126 MPI6:MPI126 MFM6:MFM126 LVQ6:LVQ126 LLU6:LLU126 LBY6:LBY126 KSC6:KSC126 KIG6:KIG126 JYK6:JYK126 JOO6:JOO126 JES6:JES126 IUW6:IUW126 ILA6:ILA126 IBE6:IBE126 HRI6:HRI126 HHM6:HHM126 GXQ6:GXQ126 GNU6:GNU126 GDY6:GDY126 FUC6:FUC126 FKG6:FKG126 FAK6:FAK126 EQO6:EQO126 EGS6:EGS126 DWW6:DWW126 DNA6:DNA126 DDE6:DDE126 CTI6:CTI126 CJM6:CJM126 BZQ6:BZQ126 BPU6:BPU126 BFY6:BFY126 AWC6:AWC126 AMG6:AMG126 ACK6:ACK126 SO6:SO126 F16 F86:F126 F13:F14 F25:F77" xr:uid="{047E5A7D-3F66-4A74-9334-FE5570FDAD13}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVE983010:WVE983163 F6 F65506:F65659 IS65506:IS65659 SO65506:SO65659 ACK65506:ACK65659 AMG65506:AMG65659 AWC65506:AWC65659 BFY65506:BFY65659 BPU65506:BPU65659 BZQ65506:BZQ65659 CJM65506:CJM65659 CTI65506:CTI65659 DDE65506:DDE65659 DNA65506:DNA65659 DWW65506:DWW65659 EGS65506:EGS65659 EQO65506:EQO65659 FAK65506:FAK65659 FKG65506:FKG65659 FUC65506:FUC65659 GDY65506:GDY65659 GNU65506:GNU65659 GXQ65506:GXQ65659 HHM65506:HHM65659 HRI65506:HRI65659 IBE65506:IBE65659 ILA65506:ILA65659 IUW65506:IUW65659 JES65506:JES65659 JOO65506:JOO65659 JYK65506:JYK65659 KIG65506:KIG65659 KSC65506:KSC65659 LBY65506:LBY65659 LLU65506:LLU65659 LVQ65506:LVQ65659 MFM65506:MFM65659 MPI65506:MPI65659 MZE65506:MZE65659 NJA65506:NJA65659 NSW65506:NSW65659 OCS65506:OCS65659 OMO65506:OMO65659 OWK65506:OWK65659 PGG65506:PGG65659 PQC65506:PQC65659 PZY65506:PZY65659 QJU65506:QJU65659 QTQ65506:QTQ65659 RDM65506:RDM65659 RNI65506:RNI65659 RXE65506:RXE65659 SHA65506:SHA65659 SQW65506:SQW65659 TAS65506:TAS65659 TKO65506:TKO65659 TUK65506:TUK65659 UEG65506:UEG65659 UOC65506:UOC65659 UXY65506:UXY65659 VHU65506:VHU65659 VRQ65506:VRQ65659 WBM65506:WBM65659 WLI65506:WLI65659 WVE65506:WVE65659 F131042:F131195 IS131042:IS131195 SO131042:SO131195 ACK131042:ACK131195 AMG131042:AMG131195 AWC131042:AWC131195 BFY131042:BFY131195 BPU131042:BPU131195 BZQ131042:BZQ131195 CJM131042:CJM131195 CTI131042:CTI131195 DDE131042:DDE131195 DNA131042:DNA131195 DWW131042:DWW131195 EGS131042:EGS131195 EQO131042:EQO131195 FAK131042:FAK131195 FKG131042:FKG131195 FUC131042:FUC131195 GDY131042:GDY131195 GNU131042:GNU131195 GXQ131042:GXQ131195 HHM131042:HHM131195 HRI131042:HRI131195 IBE131042:IBE131195 ILA131042:ILA131195 IUW131042:IUW131195 JES131042:JES131195 JOO131042:JOO131195 JYK131042:JYK131195 KIG131042:KIG131195 KSC131042:KSC131195 LBY131042:LBY131195 LLU131042:LLU131195 LVQ131042:LVQ131195 MFM131042:MFM131195 MPI131042:MPI131195 MZE131042:MZE131195 NJA131042:NJA131195 NSW131042:NSW131195 OCS131042:OCS131195 OMO131042:OMO131195 OWK131042:OWK131195 PGG131042:PGG131195 PQC131042:PQC131195 PZY131042:PZY131195 QJU131042:QJU131195 QTQ131042:QTQ131195 RDM131042:RDM131195 RNI131042:RNI131195 RXE131042:RXE131195 SHA131042:SHA131195 SQW131042:SQW131195 TAS131042:TAS131195 TKO131042:TKO131195 TUK131042:TUK131195 UEG131042:UEG131195 UOC131042:UOC131195 UXY131042:UXY131195 VHU131042:VHU131195 VRQ131042:VRQ131195 WBM131042:WBM131195 WLI131042:WLI131195 WVE131042:WVE131195 F196578:F196731 IS196578:IS196731 SO196578:SO196731 ACK196578:ACK196731 AMG196578:AMG196731 AWC196578:AWC196731 BFY196578:BFY196731 BPU196578:BPU196731 BZQ196578:BZQ196731 CJM196578:CJM196731 CTI196578:CTI196731 DDE196578:DDE196731 DNA196578:DNA196731 DWW196578:DWW196731 EGS196578:EGS196731 EQO196578:EQO196731 FAK196578:FAK196731 FKG196578:FKG196731 FUC196578:FUC196731 GDY196578:GDY196731 GNU196578:GNU196731 GXQ196578:GXQ196731 HHM196578:HHM196731 HRI196578:HRI196731 IBE196578:IBE196731 ILA196578:ILA196731 IUW196578:IUW196731 JES196578:JES196731 JOO196578:JOO196731 JYK196578:JYK196731 KIG196578:KIG196731 KSC196578:KSC196731 LBY196578:LBY196731 LLU196578:LLU196731 LVQ196578:LVQ196731 MFM196578:MFM196731 MPI196578:MPI196731 MZE196578:MZE196731 NJA196578:NJA196731 NSW196578:NSW196731 OCS196578:OCS196731 OMO196578:OMO196731 OWK196578:OWK196731 PGG196578:PGG196731 PQC196578:PQC196731 PZY196578:PZY196731 QJU196578:QJU196731 QTQ196578:QTQ196731 RDM196578:RDM196731 RNI196578:RNI196731 RXE196578:RXE196731 SHA196578:SHA196731 SQW196578:SQW196731 TAS196578:TAS196731 TKO196578:TKO196731 TUK196578:TUK196731 UEG196578:UEG196731 UOC196578:UOC196731 UXY196578:UXY196731 VHU196578:VHU196731 VRQ196578:VRQ196731 WBM196578:WBM196731 WLI196578:WLI196731 WVE196578:WVE196731 F262114:F262267 IS262114:IS262267 SO262114:SO262267 ACK262114:ACK262267 AMG262114:AMG262267 AWC262114:AWC262267 BFY262114:BFY262267 BPU262114:BPU262267 BZQ262114:BZQ262267 CJM262114:CJM262267 CTI262114:CTI262267 DDE262114:DDE262267 DNA262114:DNA262267 DWW262114:DWW262267 EGS262114:EGS262267 EQO262114:EQO262267 FAK262114:FAK262267 FKG262114:FKG262267 FUC262114:FUC262267 GDY262114:GDY262267 GNU262114:GNU262267 GXQ262114:GXQ262267 HHM262114:HHM262267 HRI262114:HRI262267 IBE262114:IBE262267 ILA262114:ILA262267 IUW262114:IUW262267 JES262114:JES262267 JOO262114:JOO262267 JYK262114:JYK262267 KIG262114:KIG262267 KSC262114:KSC262267 LBY262114:LBY262267 LLU262114:LLU262267 LVQ262114:LVQ262267 MFM262114:MFM262267 MPI262114:MPI262267 MZE262114:MZE262267 NJA262114:NJA262267 NSW262114:NSW262267 OCS262114:OCS262267 OMO262114:OMO262267 OWK262114:OWK262267 PGG262114:PGG262267 PQC262114:PQC262267 PZY262114:PZY262267 QJU262114:QJU262267 QTQ262114:QTQ262267 RDM262114:RDM262267 RNI262114:RNI262267 RXE262114:RXE262267 SHA262114:SHA262267 SQW262114:SQW262267 TAS262114:TAS262267 TKO262114:TKO262267 TUK262114:TUK262267 UEG262114:UEG262267 UOC262114:UOC262267 UXY262114:UXY262267 VHU262114:VHU262267 VRQ262114:VRQ262267 WBM262114:WBM262267 WLI262114:WLI262267 WVE262114:WVE262267 F327650:F327803 IS327650:IS327803 SO327650:SO327803 ACK327650:ACK327803 AMG327650:AMG327803 AWC327650:AWC327803 BFY327650:BFY327803 BPU327650:BPU327803 BZQ327650:BZQ327803 CJM327650:CJM327803 CTI327650:CTI327803 DDE327650:DDE327803 DNA327650:DNA327803 DWW327650:DWW327803 EGS327650:EGS327803 EQO327650:EQO327803 FAK327650:FAK327803 FKG327650:FKG327803 FUC327650:FUC327803 GDY327650:GDY327803 GNU327650:GNU327803 GXQ327650:GXQ327803 HHM327650:HHM327803 HRI327650:HRI327803 IBE327650:IBE327803 ILA327650:ILA327803 IUW327650:IUW327803 JES327650:JES327803 JOO327650:JOO327803 JYK327650:JYK327803 KIG327650:KIG327803 KSC327650:KSC327803 LBY327650:LBY327803 LLU327650:LLU327803 LVQ327650:LVQ327803 MFM327650:MFM327803 MPI327650:MPI327803 MZE327650:MZE327803 NJA327650:NJA327803 NSW327650:NSW327803 OCS327650:OCS327803 OMO327650:OMO327803 OWK327650:OWK327803 PGG327650:PGG327803 PQC327650:PQC327803 PZY327650:PZY327803 QJU327650:QJU327803 QTQ327650:QTQ327803 RDM327650:RDM327803 RNI327650:RNI327803 RXE327650:RXE327803 SHA327650:SHA327803 SQW327650:SQW327803 TAS327650:TAS327803 TKO327650:TKO327803 TUK327650:TUK327803 UEG327650:UEG327803 UOC327650:UOC327803 UXY327650:UXY327803 VHU327650:VHU327803 VRQ327650:VRQ327803 WBM327650:WBM327803 WLI327650:WLI327803 WVE327650:WVE327803 F393186:F393339 IS393186:IS393339 SO393186:SO393339 ACK393186:ACK393339 AMG393186:AMG393339 AWC393186:AWC393339 BFY393186:BFY393339 BPU393186:BPU393339 BZQ393186:BZQ393339 CJM393186:CJM393339 CTI393186:CTI393339 DDE393186:DDE393339 DNA393186:DNA393339 DWW393186:DWW393339 EGS393186:EGS393339 EQO393186:EQO393339 FAK393186:FAK393339 FKG393186:FKG393339 FUC393186:FUC393339 GDY393186:GDY393339 GNU393186:GNU393339 GXQ393186:GXQ393339 HHM393186:HHM393339 HRI393186:HRI393339 IBE393186:IBE393339 ILA393186:ILA393339 IUW393186:IUW393339 JES393186:JES393339 JOO393186:JOO393339 JYK393186:JYK393339 KIG393186:KIG393339 KSC393186:KSC393339 LBY393186:LBY393339 LLU393186:LLU393339 LVQ393186:LVQ393339 MFM393186:MFM393339 MPI393186:MPI393339 MZE393186:MZE393339 NJA393186:NJA393339 NSW393186:NSW393339 OCS393186:OCS393339 OMO393186:OMO393339 OWK393186:OWK393339 PGG393186:PGG393339 PQC393186:PQC393339 PZY393186:PZY393339 QJU393186:QJU393339 QTQ393186:QTQ393339 RDM393186:RDM393339 RNI393186:RNI393339 RXE393186:RXE393339 SHA393186:SHA393339 SQW393186:SQW393339 TAS393186:TAS393339 TKO393186:TKO393339 TUK393186:TUK393339 UEG393186:UEG393339 UOC393186:UOC393339 UXY393186:UXY393339 VHU393186:VHU393339 VRQ393186:VRQ393339 WBM393186:WBM393339 WLI393186:WLI393339 WVE393186:WVE393339 F458722:F458875 IS458722:IS458875 SO458722:SO458875 ACK458722:ACK458875 AMG458722:AMG458875 AWC458722:AWC458875 BFY458722:BFY458875 BPU458722:BPU458875 BZQ458722:BZQ458875 CJM458722:CJM458875 CTI458722:CTI458875 DDE458722:DDE458875 DNA458722:DNA458875 DWW458722:DWW458875 EGS458722:EGS458875 EQO458722:EQO458875 FAK458722:FAK458875 FKG458722:FKG458875 FUC458722:FUC458875 GDY458722:GDY458875 GNU458722:GNU458875 GXQ458722:GXQ458875 HHM458722:HHM458875 HRI458722:HRI458875 IBE458722:IBE458875 ILA458722:ILA458875 IUW458722:IUW458875 JES458722:JES458875 JOO458722:JOO458875 JYK458722:JYK458875 KIG458722:KIG458875 KSC458722:KSC458875 LBY458722:LBY458875 LLU458722:LLU458875 LVQ458722:LVQ458875 MFM458722:MFM458875 MPI458722:MPI458875 MZE458722:MZE458875 NJA458722:NJA458875 NSW458722:NSW458875 OCS458722:OCS458875 OMO458722:OMO458875 OWK458722:OWK458875 PGG458722:PGG458875 PQC458722:PQC458875 PZY458722:PZY458875 QJU458722:QJU458875 QTQ458722:QTQ458875 RDM458722:RDM458875 RNI458722:RNI458875 RXE458722:RXE458875 SHA458722:SHA458875 SQW458722:SQW458875 TAS458722:TAS458875 TKO458722:TKO458875 TUK458722:TUK458875 UEG458722:UEG458875 UOC458722:UOC458875 UXY458722:UXY458875 VHU458722:VHU458875 VRQ458722:VRQ458875 WBM458722:WBM458875 WLI458722:WLI458875 WVE458722:WVE458875 F524258:F524411 IS524258:IS524411 SO524258:SO524411 ACK524258:ACK524411 AMG524258:AMG524411 AWC524258:AWC524411 BFY524258:BFY524411 BPU524258:BPU524411 BZQ524258:BZQ524411 CJM524258:CJM524411 CTI524258:CTI524411 DDE524258:DDE524411 DNA524258:DNA524411 DWW524258:DWW524411 EGS524258:EGS524411 EQO524258:EQO524411 FAK524258:FAK524411 FKG524258:FKG524411 FUC524258:FUC524411 GDY524258:GDY524411 GNU524258:GNU524411 GXQ524258:GXQ524411 HHM524258:HHM524411 HRI524258:HRI524411 IBE524258:IBE524411 ILA524258:ILA524411 IUW524258:IUW524411 JES524258:JES524411 JOO524258:JOO524411 JYK524258:JYK524411 KIG524258:KIG524411 KSC524258:KSC524411 LBY524258:LBY524411 LLU524258:LLU524411 LVQ524258:LVQ524411 MFM524258:MFM524411 MPI524258:MPI524411 MZE524258:MZE524411 NJA524258:NJA524411 NSW524258:NSW524411 OCS524258:OCS524411 OMO524258:OMO524411 OWK524258:OWK524411 PGG524258:PGG524411 PQC524258:PQC524411 PZY524258:PZY524411 QJU524258:QJU524411 QTQ524258:QTQ524411 RDM524258:RDM524411 RNI524258:RNI524411 RXE524258:RXE524411 SHA524258:SHA524411 SQW524258:SQW524411 TAS524258:TAS524411 TKO524258:TKO524411 TUK524258:TUK524411 UEG524258:UEG524411 UOC524258:UOC524411 UXY524258:UXY524411 VHU524258:VHU524411 VRQ524258:VRQ524411 WBM524258:WBM524411 WLI524258:WLI524411 WVE524258:WVE524411 F589794:F589947 IS589794:IS589947 SO589794:SO589947 ACK589794:ACK589947 AMG589794:AMG589947 AWC589794:AWC589947 BFY589794:BFY589947 BPU589794:BPU589947 BZQ589794:BZQ589947 CJM589794:CJM589947 CTI589794:CTI589947 DDE589794:DDE589947 DNA589794:DNA589947 DWW589794:DWW589947 EGS589794:EGS589947 EQO589794:EQO589947 FAK589794:FAK589947 FKG589794:FKG589947 FUC589794:FUC589947 GDY589794:GDY589947 GNU589794:GNU589947 GXQ589794:GXQ589947 HHM589794:HHM589947 HRI589794:HRI589947 IBE589794:IBE589947 ILA589794:ILA589947 IUW589794:IUW589947 JES589794:JES589947 JOO589794:JOO589947 JYK589794:JYK589947 KIG589794:KIG589947 KSC589794:KSC589947 LBY589794:LBY589947 LLU589794:LLU589947 LVQ589794:LVQ589947 MFM589794:MFM589947 MPI589794:MPI589947 MZE589794:MZE589947 NJA589794:NJA589947 NSW589794:NSW589947 OCS589794:OCS589947 OMO589794:OMO589947 OWK589794:OWK589947 PGG589794:PGG589947 PQC589794:PQC589947 PZY589794:PZY589947 QJU589794:QJU589947 QTQ589794:QTQ589947 RDM589794:RDM589947 RNI589794:RNI589947 RXE589794:RXE589947 SHA589794:SHA589947 SQW589794:SQW589947 TAS589794:TAS589947 TKO589794:TKO589947 TUK589794:TUK589947 UEG589794:UEG589947 UOC589794:UOC589947 UXY589794:UXY589947 VHU589794:VHU589947 VRQ589794:VRQ589947 WBM589794:WBM589947 WLI589794:WLI589947 WVE589794:WVE589947 F655330:F655483 IS655330:IS655483 SO655330:SO655483 ACK655330:ACK655483 AMG655330:AMG655483 AWC655330:AWC655483 BFY655330:BFY655483 BPU655330:BPU655483 BZQ655330:BZQ655483 CJM655330:CJM655483 CTI655330:CTI655483 DDE655330:DDE655483 DNA655330:DNA655483 DWW655330:DWW655483 EGS655330:EGS655483 EQO655330:EQO655483 FAK655330:FAK655483 FKG655330:FKG655483 FUC655330:FUC655483 GDY655330:GDY655483 GNU655330:GNU655483 GXQ655330:GXQ655483 HHM655330:HHM655483 HRI655330:HRI655483 IBE655330:IBE655483 ILA655330:ILA655483 IUW655330:IUW655483 JES655330:JES655483 JOO655330:JOO655483 JYK655330:JYK655483 KIG655330:KIG655483 KSC655330:KSC655483 LBY655330:LBY655483 LLU655330:LLU655483 LVQ655330:LVQ655483 MFM655330:MFM655483 MPI655330:MPI655483 MZE655330:MZE655483 NJA655330:NJA655483 NSW655330:NSW655483 OCS655330:OCS655483 OMO655330:OMO655483 OWK655330:OWK655483 PGG655330:PGG655483 PQC655330:PQC655483 PZY655330:PZY655483 QJU655330:QJU655483 QTQ655330:QTQ655483 RDM655330:RDM655483 RNI655330:RNI655483 RXE655330:RXE655483 SHA655330:SHA655483 SQW655330:SQW655483 TAS655330:TAS655483 TKO655330:TKO655483 TUK655330:TUK655483 UEG655330:UEG655483 UOC655330:UOC655483 UXY655330:UXY655483 VHU655330:VHU655483 VRQ655330:VRQ655483 WBM655330:WBM655483 WLI655330:WLI655483 WVE655330:WVE655483 F720866:F721019 IS720866:IS721019 SO720866:SO721019 ACK720866:ACK721019 AMG720866:AMG721019 AWC720866:AWC721019 BFY720866:BFY721019 BPU720866:BPU721019 BZQ720866:BZQ721019 CJM720866:CJM721019 CTI720866:CTI721019 DDE720866:DDE721019 DNA720866:DNA721019 DWW720866:DWW721019 EGS720866:EGS721019 EQO720866:EQO721019 FAK720866:FAK721019 FKG720866:FKG721019 FUC720866:FUC721019 GDY720866:GDY721019 GNU720866:GNU721019 GXQ720866:GXQ721019 HHM720866:HHM721019 HRI720866:HRI721019 IBE720866:IBE721019 ILA720866:ILA721019 IUW720866:IUW721019 JES720866:JES721019 JOO720866:JOO721019 JYK720866:JYK721019 KIG720866:KIG721019 KSC720866:KSC721019 LBY720866:LBY721019 LLU720866:LLU721019 LVQ720866:LVQ721019 MFM720866:MFM721019 MPI720866:MPI721019 MZE720866:MZE721019 NJA720866:NJA721019 NSW720866:NSW721019 OCS720866:OCS721019 OMO720866:OMO721019 OWK720866:OWK721019 PGG720866:PGG721019 PQC720866:PQC721019 PZY720866:PZY721019 QJU720866:QJU721019 QTQ720866:QTQ721019 RDM720866:RDM721019 RNI720866:RNI721019 RXE720866:RXE721019 SHA720866:SHA721019 SQW720866:SQW721019 TAS720866:TAS721019 TKO720866:TKO721019 TUK720866:TUK721019 UEG720866:UEG721019 UOC720866:UOC721019 UXY720866:UXY721019 VHU720866:VHU721019 VRQ720866:VRQ721019 WBM720866:WBM721019 WLI720866:WLI721019 WVE720866:WVE721019 F786402:F786555 IS786402:IS786555 SO786402:SO786555 ACK786402:ACK786555 AMG786402:AMG786555 AWC786402:AWC786555 BFY786402:BFY786555 BPU786402:BPU786555 BZQ786402:BZQ786555 CJM786402:CJM786555 CTI786402:CTI786555 DDE786402:DDE786555 DNA786402:DNA786555 DWW786402:DWW786555 EGS786402:EGS786555 EQO786402:EQO786555 FAK786402:FAK786555 FKG786402:FKG786555 FUC786402:FUC786555 GDY786402:GDY786555 GNU786402:GNU786555 GXQ786402:GXQ786555 HHM786402:HHM786555 HRI786402:HRI786555 IBE786402:IBE786555 ILA786402:ILA786555 IUW786402:IUW786555 JES786402:JES786555 JOO786402:JOO786555 JYK786402:JYK786555 KIG786402:KIG786555 KSC786402:KSC786555 LBY786402:LBY786555 LLU786402:LLU786555 LVQ786402:LVQ786555 MFM786402:MFM786555 MPI786402:MPI786555 MZE786402:MZE786555 NJA786402:NJA786555 NSW786402:NSW786555 OCS786402:OCS786555 OMO786402:OMO786555 OWK786402:OWK786555 PGG786402:PGG786555 PQC786402:PQC786555 PZY786402:PZY786555 QJU786402:QJU786555 QTQ786402:QTQ786555 RDM786402:RDM786555 RNI786402:RNI786555 RXE786402:RXE786555 SHA786402:SHA786555 SQW786402:SQW786555 TAS786402:TAS786555 TKO786402:TKO786555 TUK786402:TUK786555 UEG786402:UEG786555 UOC786402:UOC786555 UXY786402:UXY786555 VHU786402:VHU786555 VRQ786402:VRQ786555 WBM786402:WBM786555 WLI786402:WLI786555 WVE786402:WVE786555 F851938:F852091 IS851938:IS852091 SO851938:SO852091 ACK851938:ACK852091 AMG851938:AMG852091 AWC851938:AWC852091 BFY851938:BFY852091 BPU851938:BPU852091 BZQ851938:BZQ852091 CJM851938:CJM852091 CTI851938:CTI852091 DDE851938:DDE852091 DNA851938:DNA852091 DWW851938:DWW852091 EGS851938:EGS852091 EQO851938:EQO852091 FAK851938:FAK852091 FKG851938:FKG852091 FUC851938:FUC852091 GDY851938:GDY852091 GNU851938:GNU852091 GXQ851938:GXQ852091 HHM851938:HHM852091 HRI851938:HRI852091 IBE851938:IBE852091 ILA851938:ILA852091 IUW851938:IUW852091 JES851938:JES852091 JOO851938:JOO852091 JYK851938:JYK852091 KIG851938:KIG852091 KSC851938:KSC852091 LBY851938:LBY852091 LLU851938:LLU852091 LVQ851938:LVQ852091 MFM851938:MFM852091 MPI851938:MPI852091 MZE851938:MZE852091 NJA851938:NJA852091 NSW851938:NSW852091 OCS851938:OCS852091 OMO851938:OMO852091 OWK851938:OWK852091 PGG851938:PGG852091 PQC851938:PQC852091 PZY851938:PZY852091 QJU851938:QJU852091 QTQ851938:QTQ852091 RDM851938:RDM852091 RNI851938:RNI852091 RXE851938:RXE852091 SHA851938:SHA852091 SQW851938:SQW852091 TAS851938:TAS852091 TKO851938:TKO852091 TUK851938:TUK852091 UEG851938:UEG852091 UOC851938:UOC852091 UXY851938:UXY852091 VHU851938:VHU852091 VRQ851938:VRQ852091 WBM851938:WBM852091 WLI851938:WLI852091 WVE851938:WVE852091 F917474:F917627 IS917474:IS917627 SO917474:SO917627 ACK917474:ACK917627 AMG917474:AMG917627 AWC917474:AWC917627 BFY917474:BFY917627 BPU917474:BPU917627 BZQ917474:BZQ917627 CJM917474:CJM917627 CTI917474:CTI917627 DDE917474:DDE917627 DNA917474:DNA917627 DWW917474:DWW917627 EGS917474:EGS917627 EQO917474:EQO917627 FAK917474:FAK917627 FKG917474:FKG917627 FUC917474:FUC917627 GDY917474:GDY917627 GNU917474:GNU917627 GXQ917474:GXQ917627 HHM917474:HHM917627 HRI917474:HRI917627 IBE917474:IBE917627 ILA917474:ILA917627 IUW917474:IUW917627 JES917474:JES917627 JOO917474:JOO917627 JYK917474:JYK917627 KIG917474:KIG917627 KSC917474:KSC917627 LBY917474:LBY917627 LLU917474:LLU917627 LVQ917474:LVQ917627 MFM917474:MFM917627 MPI917474:MPI917627 MZE917474:MZE917627 NJA917474:NJA917627 NSW917474:NSW917627 OCS917474:OCS917627 OMO917474:OMO917627 OWK917474:OWK917627 PGG917474:PGG917627 PQC917474:PQC917627 PZY917474:PZY917627 QJU917474:QJU917627 QTQ917474:QTQ917627 RDM917474:RDM917627 RNI917474:RNI917627 RXE917474:RXE917627 SHA917474:SHA917627 SQW917474:SQW917627 TAS917474:TAS917627 TKO917474:TKO917627 TUK917474:TUK917627 UEG917474:UEG917627 UOC917474:UOC917627 UXY917474:UXY917627 VHU917474:VHU917627 VRQ917474:VRQ917627 WBM917474:WBM917627 WLI917474:WLI917627 WVE917474:WVE917627 F983010:F983163 IS983010:IS983163 SO983010:SO983163 ACK983010:ACK983163 AMG983010:AMG983163 AWC983010:AWC983163 BFY983010:BFY983163 BPU983010:BPU983163 BZQ983010:BZQ983163 CJM983010:CJM983163 CTI983010:CTI983163 DDE983010:DDE983163 DNA983010:DNA983163 DWW983010:DWW983163 EGS983010:EGS983163 EQO983010:EQO983163 FAK983010:FAK983163 FKG983010:FKG983163 FUC983010:FUC983163 GDY983010:GDY983163 GNU983010:GNU983163 GXQ983010:GXQ983163 HHM983010:HHM983163 HRI983010:HRI983163 IBE983010:IBE983163 ILA983010:ILA983163 IUW983010:IUW983163 JES983010:JES983163 JOO983010:JOO983163 JYK983010:JYK983163 KIG983010:KIG983163 KSC983010:KSC983163 LBY983010:LBY983163 LLU983010:LLU983163 LVQ983010:LVQ983163 MFM983010:MFM983163 MPI983010:MPI983163 MZE983010:MZE983163 NJA983010:NJA983163 NSW983010:NSW983163 OCS983010:OCS983163 OMO983010:OMO983163 OWK983010:OWK983163 PGG983010:PGG983163 PQC983010:PQC983163 PZY983010:PZY983163 QJU983010:QJU983163 QTQ983010:QTQ983163 RDM983010:RDM983163 RNI983010:RNI983163 RXE983010:RXE983163 SHA983010:SHA983163 SQW983010:SQW983163 TAS983010:TAS983163 TKO983010:TKO983163 TUK983010:TUK983163 UEG983010:UEG983163 UOC983010:UOC983163 UXY983010:UXY983163 VHU983010:VHU983163 VRQ983010:VRQ983163 WBM983010:WBM983163 WLI983010:WLI983163 F16 F20:F22 F13:F14 F83:F123 F24:F74 IS6:IS123 SO6:SO123 ACK6:ACK123 AMG6:AMG123 AWC6:AWC123 BFY6:BFY123 BPU6:BPU123 BZQ6:BZQ123 CJM6:CJM123 CTI6:CTI123 DDE6:DDE123 DNA6:DNA123 DWW6:DWW123 EGS6:EGS123 EQO6:EQO123 FAK6:FAK123 FKG6:FKG123 FUC6:FUC123 GDY6:GDY123 GNU6:GNU123 GXQ6:GXQ123 HHM6:HHM123 HRI6:HRI123 IBE6:IBE123 ILA6:ILA123 IUW6:IUW123 JES6:JES123 JOO6:JOO123 JYK6:JYK123 KIG6:KIG123 KSC6:KSC123 LBY6:LBY123 LLU6:LLU123 LVQ6:LVQ123 MFM6:MFM123 MPI6:MPI123 MZE6:MZE123 NJA6:NJA123 NSW6:NSW123 OCS6:OCS123 OMO6:OMO123 OWK6:OWK123 PGG6:PGG123 PQC6:PQC123 PZY6:PZY123 QJU6:QJU123 QTQ6:QTQ123 RDM6:RDM123 RNI6:RNI123 RXE6:RXE123 SHA6:SHA123 SQW6:SQW123 TAS6:TAS123 TKO6:TKO123 TUK6:TUK123 UEG6:UEG123 UOC6:UOC123 UXY6:UXY123 VHU6:VHU123 VRQ6:VRQ123 WBM6:WBM123 WLI6:WLI123 WVE6:WVE123" xr:uid="{047E5A7D-3F66-4A74-9334-FE5570FDAD13}">
       <formula1>$AD$11:$AD$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVF983014:WVF983166 G65510:G65662 IT65510:IT65662 SP65510:SP65662 ACL65510:ACL65662 AMH65510:AMH65662 AWD65510:AWD65662 BFZ65510:BFZ65662 BPV65510:BPV65662 BZR65510:BZR65662 CJN65510:CJN65662 CTJ65510:CTJ65662 DDF65510:DDF65662 DNB65510:DNB65662 DWX65510:DWX65662 EGT65510:EGT65662 EQP65510:EQP65662 FAL65510:FAL65662 FKH65510:FKH65662 FUD65510:FUD65662 GDZ65510:GDZ65662 GNV65510:GNV65662 GXR65510:GXR65662 HHN65510:HHN65662 HRJ65510:HRJ65662 IBF65510:IBF65662 ILB65510:ILB65662 IUX65510:IUX65662 JET65510:JET65662 JOP65510:JOP65662 JYL65510:JYL65662 KIH65510:KIH65662 KSD65510:KSD65662 LBZ65510:LBZ65662 LLV65510:LLV65662 LVR65510:LVR65662 MFN65510:MFN65662 MPJ65510:MPJ65662 MZF65510:MZF65662 NJB65510:NJB65662 NSX65510:NSX65662 OCT65510:OCT65662 OMP65510:OMP65662 OWL65510:OWL65662 PGH65510:PGH65662 PQD65510:PQD65662 PZZ65510:PZZ65662 QJV65510:QJV65662 QTR65510:QTR65662 RDN65510:RDN65662 RNJ65510:RNJ65662 RXF65510:RXF65662 SHB65510:SHB65662 SQX65510:SQX65662 TAT65510:TAT65662 TKP65510:TKP65662 TUL65510:TUL65662 UEH65510:UEH65662 UOD65510:UOD65662 UXZ65510:UXZ65662 VHV65510:VHV65662 VRR65510:VRR65662 WBN65510:WBN65662 WLJ65510:WLJ65662 WVF65510:WVF65662 G131046:G131198 IT131046:IT131198 SP131046:SP131198 ACL131046:ACL131198 AMH131046:AMH131198 AWD131046:AWD131198 BFZ131046:BFZ131198 BPV131046:BPV131198 BZR131046:BZR131198 CJN131046:CJN131198 CTJ131046:CTJ131198 DDF131046:DDF131198 DNB131046:DNB131198 DWX131046:DWX131198 EGT131046:EGT131198 EQP131046:EQP131198 FAL131046:FAL131198 FKH131046:FKH131198 FUD131046:FUD131198 GDZ131046:GDZ131198 GNV131046:GNV131198 GXR131046:GXR131198 HHN131046:HHN131198 HRJ131046:HRJ131198 IBF131046:IBF131198 ILB131046:ILB131198 IUX131046:IUX131198 JET131046:JET131198 JOP131046:JOP131198 JYL131046:JYL131198 KIH131046:KIH131198 KSD131046:KSD131198 LBZ131046:LBZ131198 LLV131046:LLV131198 LVR131046:LVR131198 MFN131046:MFN131198 MPJ131046:MPJ131198 MZF131046:MZF131198 NJB131046:NJB131198 NSX131046:NSX131198 OCT131046:OCT131198 OMP131046:OMP131198 OWL131046:OWL131198 PGH131046:PGH131198 PQD131046:PQD131198 PZZ131046:PZZ131198 QJV131046:QJV131198 QTR131046:QTR131198 RDN131046:RDN131198 RNJ131046:RNJ131198 RXF131046:RXF131198 SHB131046:SHB131198 SQX131046:SQX131198 TAT131046:TAT131198 TKP131046:TKP131198 TUL131046:TUL131198 UEH131046:UEH131198 UOD131046:UOD131198 UXZ131046:UXZ131198 VHV131046:VHV131198 VRR131046:VRR131198 WBN131046:WBN131198 WLJ131046:WLJ131198 WVF131046:WVF131198 G196582:G196734 IT196582:IT196734 SP196582:SP196734 ACL196582:ACL196734 AMH196582:AMH196734 AWD196582:AWD196734 BFZ196582:BFZ196734 BPV196582:BPV196734 BZR196582:BZR196734 CJN196582:CJN196734 CTJ196582:CTJ196734 DDF196582:DDF196734 DNB196582:DNB196734 DWX196582:DWX196734 EGT196582:EGT196734 EQP196582:EQP196734 FAL196582:FAL196734 FKH196582:FKH196734 FUD196582:FUD196734 GDZ196582:GDZ196734 GNV196582:GNV196734 GXR196582:GXR196734 HHN196582:HHN196734 HRJ196582:HRJ196734 IBF196582:IBF196734 ILB196582:ILB196734 IUX196582:IUX196734 JET196582:JET196734 JOP196582:JOP196734 JYL196582:JYL196734 KIH196582:KIH196734 KSD196582:KSD196734 LBZ196582:LBZ196734 LLV196582:LLV196734 LVR196582:LVR196734 MFN196582:MFN196734 MPJ196582:MPJ196734 MZF196582:MZF196734 NJB196582:NJB196734 NSX196582:NSX196734 OCT196582:OCT196734 OMP196582:OMP196734 OWL196582:OWL196734 PGH196582:PGH196734 PQD196582:PQD196734 PZZ196582:PZZ196734 QJV196582:QJV196734 QTR196582:QTR196734 RDN196582:RDN196734 RNJ196582:RNJ196734 RXF196582:RXF196734 SHB196582:SHB196734 SQX196582:SQX196734 TAT196582:TAT196734 TKP196582:TKP196734 TUL196582:TUL196734 UEH196582:UEH196734 UOD196582:UOD196734 UXZ196582:UXZ196734 VHV196582:VHV196734 VRR196582:VRR196734 WBN196582:WBN196734 WLJ196582:WLJ196734 WVF196582:WVF196734 G262118:G262270 IT262118:IT262270 SP262118:SP262270 ACL262118:ACL262270 AMH262118:AMH262270 AWD262118:AWD262270 BFZ262118:BFZ262270 BPV262118:BPV262270 BZR262118:BZR262270 CJN262118:CJN262270 CTJ262118:CTJ262270 DDF262118:DDF262270 DNB262118:DNB262270 DWX262118:DWX262270 EGT262118:EGT262270 EQP262118:EQP262270 FAL262118:FAL262270 FKH262118:FKH262270 FUD262118:FUD262270 GDZ262118:GDZ262270 GNV262118:GNV262270 GXR262118:GXR262270 HHN262118:HHN262270 HRJ262118:HRJ262270 IBF262118:IBF262270 ILB262118:ILB262270 IUX262118:IUX262270 JET262118:JET262270 JOP262118:JOP262270 JYL262118:JYL262270 KIH262118:KIH262270 KSD262118:KSD262270 LBZ262118:LBZ262270 LLV262118:LLV262270 LVR262118:LVR262270 MFN262118:MFN262270 MPJ262118:MPJ262270 MZF262118:MZF262270 NJB262118:NJB262270 NSX262118:NSX262270 OCT262118:OCT262270 OMP262118:OMP262270 OWL262118:OWL262270 PGH262118:PGH262270 PQD262118:PQD262270 PZZ262118:PZZ262270 QJV262118:QJV262270 QTR262118:QTR262270 RDN262118:RDN262270 RNJ262118:RNJ262270 RXF262118:RXF262270 SHB262118:SHB262270 SQX262118:SQX262270 TAT262118:TAT262270 TKP262118:TKP262270 TUL262118:TUL262270 UEH262118:UEH262270 UOD262118:UOD262270 UXZ262118:UXZ262270 VHV262118:VHV262270 VRR262118:VRR262270 WBN262118:WBN262270 WLJ262118:WLJ262270 WVF262118:WVF262270 G327654:G327806 IT327654:IT327806 SP327654:SP327806 ACL327654:ACL327806 AMH327654:AMH327806 AWD327654:AWD327806 BFZ327654:BFZ327806 BPV327654:BPV327806 BZR327654:BZR327806 CJN327654:CJN327806 CTJ327654:CTJ327806 DDF327654:DDF327806 DNB327654:DNB327806 DWX327654:DWX327806 EGT327654:EGT327806 EQP327654:EQP327806 FAL327654:FAL327806 FKH327654:FKH327806 FUD327654:FUD327806 GDZ327654:GDZ327806 GNV327654:GNV327806 GXR327654:GXR327806 HHN327654:HHN327806 HRJ327654:HRJ327806 IBF327654:IBF327806 ILB327654:ILB327806 IUX327654:IUX327806 JET327654:JET327806 JOP327654:JOP327806 JYL327654:JYL327806 KIH327654:KIH327806 KSD327654:KSD327806 LBZ327654:LBZ327806 LLV327654:LLV327806 LVR327654:LVR327806 MFN327654:MFN327806 MPJ327654:MPJ327806 MZF327654:MZF327806 NJB327654:NJB327806 NSX327654:NSX327806 OCT327654:OCT327806 OMP327654:OMP327806 OWL327654:OWL327806 PGH327654:PGH327806 PQD327654:PQD327806 PZZ327654:PZZ327806 QJV327654:QJV327806 QTR327654:QTR327806 RDN327654:RDN327806 RNJ327654:RNJ327806 RXF327654:RXF327806 SHB327654:SHB327806 SQX327654:SQX327806 TAT327654:TAT327806 TKP327654:TKP327806 TUL327654:TUL327806 UEH327654:UEH327806 UOD327654:UOD327806 UXZ327654:UXZ327806 VHV327654:VHV327806 VRR327654:VRR327806 WBN327654:WBN327806 WLJ327654:WLJ327806 WVF327654:WVF327806 G393190:G393342 IT393190:IT393342 SP393190:SP393342 ACL393190:ACL393342 AMH393190:AMH393342 AWD393190:AWD393342 BFZ393190:BFZ393342 BPV393190:BPV393342 BZR393190:BZR393342 CJN393190:CJN393342 CTJ393190:CTJ393342 DDF393190:DDF393342 DNB393190:DNB393342 DWX393190:DWX393342 EGT393190:EGT393342 EQP393190:EQP393342 FAL393190:FAL393342 FKH393190:FKH393342 FUD393190:FUD393342 GDZ393190:GDZ393342 GNV393190:GNV393342 GXR393190:GXR393342 HHN393190:HHN393342 HRJ393190:HRJ393342 IBF393190:IBF393342 ILB393190:ILB393342 IUX393190:IUX393342 JET393190:JET393342 JOP393190:JOP393342 JYL393190:JYL393342 KIH393190:KIH393342 KSD393190:KSD393342 LBZ393190:LBZ393342 LLV393190:LLV393342 LVR393190:LVR393342 MFN393190:MFN393342 MPJ393190:MPJ393342 MZF393190:MZF393342 NJB393190:NJB393342 NSX393190:NSX393342 OCT393190:OCT393342 OMP393190:OMP393342 OWL393190:OWL393342 PGH393190:PGH393342 PQD393190:PQD393342 PZZ393190:PZZ393342 QJV393190:QJV393342 QTR393190:QTR393342 RDN393190:RDN393342 RNJ393190:RNJ393342 RXF393190:RXF393342 SHB393190:SHB393342 SQX393190:SQX393342 TAT393190:TAT393342 TKP393190:TKP393342 TUL393190:TUL393342 UEH393190:UEH393342 UOD393190:UOD393342 UXZ393190:UXZ393342 VHV393190:VHV393342 VRR393190:VRR393342 WBN393190:WBN393342 WLJ393190:WLJ393342 WVF393190:WVF393342 G458726:G458878 IT458726:IT458878 SP458726:SP458878 ACL458726:ACL458878 AMH458726:AMH458878 AWD458726:AWD458878 BFZ458726:BFZ458878 BPV458726:BPV458878 BZR458726:BZR458878 CJN458726:CJN458878 CTJ458726:CTJ458878 DDF458726:DDF458878 DNB458726:DNB458878 DWX458726:DWX458878 EGT458726:EGT458878 EQP458726:EQP458878 FAL458726:FAL458878 FKH458726:FKH458878 FUD458726:FUD458878 GDZ458726:GDZ458878 GNV458726:GNV458878 GXR458726:GXR458878 HHN458726:HHN458878 HRJ458726:HRJ458878 IBF458726:IBF458878 ILB458726:ILB458878 IUX458726:IUX458878 JET458726:JET458878 JOP458726:JOP458878 JYL458726:JYL458878 KIH458726:KIH458878 KSD458726:KSD458878 LBZ458726:LBZ458878 LLV458726:LLV458878 LVR458726:LVR458878 MFN458726:MFN458878 MPJ458726:MPJ458878 MZF458726:MZF458878 NJB458726:NJB458878 NSX458726:NSX458878 OCT458726:OCT458878 OMP458726:OMP458878 OWL458726:OWL458878 PGH458726:PGH458878 PQD458726:PQD458878 PZZ458726:PZZ458878 QJV458726:QJV458878 QTR458726:QTR458878 RDN458726:RDN458878 RNJ458726:RNJ458878 RXF458726:RXF458878 SHB458726:SHB458878 SQX458726:SQX458878 TAT458726:TAT458878 TKP458726:TKP458878 TUL458726:TUL458878 UEH458726:UEH458878 UOD458726:UOD458878 UXZ458726:UXZ458878 VHV458726:VHV458878 VRR458726:VRR458878 WBN458726:WBN458878 WLJ458726:WLJ458878 WVF458726:WVF458878 G524262:G524414 IT524262:IT524414 SP524262:SP524414 ACL524262:ACL524414 AMH524262:AMH524414 AWD524262:AWD524414 BFZ524262:BFZ524414 BPV524262:BPV524414 BZR524262:BZR524414 CJN524262:CJN524414 CTJ524262:CTJ524414 DDF524262:DDF524414 DNB524262:DNB524414 DWX524262:DWX524414 EGT524262:EGT524414 EQP524262:EQP524414 FAL524262:FAL524414 FKH524262:FKH524414 FUD524262:FUD524414 GDZ524262:GDZ524414 GNV524262:GNV524414 GXR524262:GXR524414 HHN524262:HHN524414 HRJ524262:HRJ524414 IBF524262:IBF524414 ILB524262:ILB524414 IUX524262:IUX524414 JET524262:JET524414 JOP524262:JOP524414 JYL524262:JYL524414 KIH524262:KIH524414 KSD524262:KSD524414 LBZ524262:LBZ524414 LLV524262:LLV524414 LVR524262:LVR524414 MFN524262:MFN524414 MPJ524262:MPJ524414 MZF524262:MZF524414 NJB524262:NJB524414 NSX524262:NSX524414 OCT524262:OCT524414 OMP524262:OMP524414 OWL524262:OWL524414 PGH524262:PGH524414 PQD524262:PQD524414 PZZ524262:PZZ524414 QJV524262:QJV524414 QTR524262:QTR524414 RDN524262:RDN524414 RNJ524262:RNJ524414 RXF524262:RXF524414 SHB524262:SHB524414 SQX524262:SQX524414 TAT524262:TAT524414 TKP524262:TKP524414 TUL524262:TUL524414 UEH524262:UEH524414 UOD524262:UOD524414 UXZ524262:UXZ524414 VHV524262:VHV524414 VRR524262:VRR524414 WBN524262:WBN524414 WLJ524262:WLJ524414 WVF524262:WVF524414 G589798:G589950 IT589798:IT589950 SP589798:SP589950 ACL589798:ACL589950 AMH589798:AMH589950 AWD589798:AWD589950 BFZ589798:BFZ589950 BPV589798:BPV589950 BZR589798:BZR589950 CJN589798:CJN589950 CTJ589798:CTJ589950 DDF589798:DDF589950 DNB589798:DNB589950 DWX589798:DWX589950 EGT589798:EGT589950 EQP589798:EQP589950 FAL589798:FAL589950 FKH589798:FKH589950 FUD589798:FUD589950 GDZ589798:GDZ589950 GNV589798:GNV589950 GXR589798:GXR589950 HHN589798:HHN589950 HRJ589798:HRJ589950 IBF589798:IBF589950 ILB589798:ILB589950 IUX589798:IUX589950 JET589798:JET589950 JOP589798:JOP589950 JYL589798:JYL589950 KIH589798:KIH589950 KSD589798:KSD589950 LBZ589798:LBZ589950 LLV589798:LLV589950 LVR589798:LVR589950 MFN589798:MFN589950 MPJ589798:MPJ589950 MZF589798:MZF589950 NJB589798:NJB589950 NSX589798:NSX589950 OCT589798:OCT589950 OMP589798:OMP589950 OWL589798:OWL589950 PGH589798:PGH589950 PQD589798:PQD589950 PZZ589798:PZZ589950 QJV589798:QJV589950 QTR589798:QTR589950 RDN589798:RDN589950 RNJ589798:RNJ589950 RXF589798:RXF589950 SHB589798:SHB589950 SQX589798:SQX589950 TAT589798:TAT589950 TKP589798:TKP589950 TUL589798:TUL589950 UEH589798:UEH589950 UOD589798:UOD589950 UXZ589798:UXZ589950 VHV589798:VHV589950 VRR589798:VRR589950 WBN589798:WBN589950 WLJ589798:WLJ589950 WVF589798:WVF589950 G655334:G655486 IT655334:IT655486 SP655334:SP655486 ACL655334:ACL655486 AMH655334:AMH655486 AWD655334:AWD655486 BFZ655334:BFZ655486 BPV655334:BPV655486 BZR655334:BZR655486 CJN655334:CJN655486 CTJ655334:CTJ655486 DDF655334:DDF655486 DNB655334:DNB655486 DWX655334:DWX655486 EGT655334:EGT655486 EQP655334:EQP655486 FAL655334:FAL655486 FKH655334:FKH655486 FUD655334:FUD655486 GDZ655334:GDZ655486 GNV655334:GNV655486 GXR655334:GXR655486 HHN655334:HHN655486 HRJ655334:HRJ655486 IBF655334:IBF655486 ILB655334:ILB655486 IUX655334:IUX655486 JET655334:JET655486 JOP655334:JOP655486 JYL655334:JYL655486 KIH655334:KIH655486 KSD655334:KSD655486 LBZ655334:LBZ655486 LLV655334:LLV655486 LVR655334:LVR655486 MFN655334:MFN655486 MPJ655334:MPJ655486 MZF655334:MZF655486 NJB655334:NJB655486 NSX655334:NSX655486 OCT655334:OCT655486 OMP655334:OMP655486 OWL655334:OWL655486 PGH655334:PGH655486 PQD655334:PQD655486 PZZ655334:PZZ655486 QJV655334:QJV655486 QTR655334:QTR655486 RDN655334:RDN655486 RNJ655334:RNJ655486 RXF655334:RXF655486 SHB655334:SHB655486 SQX655334:SQX655486 TAT655334:TAT655486 TKP655334:TKP655486 TUL655334:TUL655486 UEH655334:UEH655486 UOD655334:UOD655486 UXZ655334:UXZ655486 VHV655334:VHV655486 VRR655334:VRR655486 WBN655334:WBN655486 WLJ655334:WLJ655486 WVF655334:WVF655486 G720870:G721022 IT720870:IT721022 SP720870:SP721022 ACL720870:ACL721022 AMH720870:AMH721022 AWD720870:AWD721022 BFZ720870:BFZ721022 BPV720870:BPV721022 BZR720870:BZR721022 CJN720870:CJN721022 CTJ720870:CTJ721022 DDF720870:DDF721022 DNB720870:DNB721022 DWX720870:DWX721022 EGT720870:EGT721022 EQP720870:EQP721022 FAL720870:FAL721022 FKH720870:FKH721022 FUD720870:FUD721022 GDZ720870:GDZ721022 GNV720870:GNV721022 GXR720870:GXR721022 HHN720870:HHN721022 HRJ720870:HRJ721022 IBF720870:IBF721022 ILB720870:ILB721022 IUX720870:IUX721022 JET720870:JET721022 JOP720870:JOP721022 JYL720870:JYL721022 KIH720870:KIH721022 KSD720870:KSD721022 LBZ720870:LBZ721022 LLV720870:LLV721022 LVR720870:LVR721022 MFN720870:MFN721022 MPJ720870:MPJ721022 MZF720870:MZF721022 NJB720870:NJB721022 NSX720870:NSX721022 OCT720870:OCT721022 OMP720870:OMP721022 OWL720870:OWL721022 PGH720870:PGH721022 PQD720870:PQD721022 PZZ720870:PZZ721022 QJV720870:QJV721022 QTR720870:QTR721022 RDN720870:RDN721022 RNJ720870:RNJ721022 RXF720870:RXF721022 SHB720870:SHB721022 SQX720870:SQX721022 TAT720870:TAT721022 TKP720870:TKP721022 TUL720870:TUL721022 UEH720870:UEH721022 UOD720870:UOD721022 UXZ720870:UXZ721022 VHV720870:VHV721022 VRR720870:VRR721022 WBN720870:WBN721022 WLJ720870:WLJ721022 WVF720870:WVF721022 G786406:G786558 IT786406:IT786558 SP786406:SP786558 ACL786406:ACL786558 AMH786406:AMH786558 AWD786406:AWD786558 BFZ786406:BFZ786558 BPV786406:BPV786558 BZR786406:BZR786558 CJN786406:CJN786558 CTJ786406:CTJ786558 DDF786406:DDF786558 DNB786406:DNB786558 DWX786406:DWX786558 EGT786406:EGT786558 EQP786406:EQP786558 FAL786406:FAL786558 FKH786406:FKH786558 FUD786406:FUD786558 GDZ786406:GDZ786558 GNV786406:GNV786558 GXR786406:GXR786558 HHN786406:HHN786558 HRJ786406:HRJ786558 IBF786406:IBF786558 ILB786406:ILB786558 IUX786406:IUX786558 JET786406:JET786558 JOP786406:JOP786558 JYL786406:JYL786558 KIH786406:KIH786558 KSD786406:KSD786558 LBZ786406:LBZ786558 LLV786406:LLV786558 LVR786406:LVR786558 MFN786406:MFN786558 MPJ786406:MPJ786558 MZF786406:MZF786558 NJB786406:NJB786558 NSX786406:NSX786558 OCT786406:OCT786558 OMP786406:OMP786558 OWL786406:OWL786558 PGH786406:PGH786558 PQD786406:PQD786558 PZZ786406:PZZ786558 QJV786406:QJV786558 QTR786406:QTR786558 RDN786406:RDN786558 RNJ786406:RNJ786558 RXF786406:RXF786558 SHB786406:SHB786558 SQX786406:SQX786558 TAT786406:TAT786558 TKP786406:TKP786558 TUL786406:TUL786558 UEH786406:UEH786558 UOD786406:UOD786558 UXZ786406:UXZ786558 VHV786406:VHV786558 VRR786406:VRR786558 WBN786406:WBN786558 WLJ786406:WLJ786558 WVF786406:WVF786558 G851942:G852094 IT851942:IT852094 SP851942:SP852094 ACL851942:ACL852094 AMH851942:AMH852094 AWD851942:AWD852094 BFZ851942:BFZ852094 BPV851942:BPV852094 BZR851942:BZR852094 CJN851942:CJN852094 CTJ851942:CTJ852094 DDF851942:DDF852094 DNB851942:DNB852094 DWX851942:DWX852094 EGT851942:EGT852094 EQP851942:EQP852094 FAL851942:FAL852094 FKH851942:FKH852094 FUD851942:FUD852094 GDZ851942:GDZ852094 GNV851942:GNV852094 GXR851942:GXR852094 HHN851942:HHN852094 HRJ851942:HRJ852094 IBF851942:IBF852094 ILB851942:ILB852094 IUX851942:IUX852094 JET851942:JET852094 JOP851942:JOP852094 JYL851942:JYL852094 KIH851942:KIH852094 KSD851942:KSD852094 LBZ851942:LBZ852094 LLV851942:LLV852094 LVR851942:LVR852094 MFN851942:MFN852094 MPJ851942:MPJ852094 MZF851942:MZF852094 NJB851942:NJB852094 NSX851942:NSX852094 OCT851942:OCT852094 OMP851942:OMP852094 OWL851942:OWL852094 PGH851942:PGH852094 PQD851942:PQD852094 PZZ851942:PZZ852094 QJV851942:QJV852094 QTR851942:QTR852094 RDN851942:RDN852094 RNJ851942:RNJ852094 RXF851942:RXF852094 SHB851942:SHB852094 SQX851942:SQX852094 TAT851942:TAT852094 TKP851942:TKP852094 TUL851942:TUL852094 UEH851942:UEH852094 UOD851942:UOD852094 UXZ851942:UXZ852094 VHV851942:VHV852094 VRR851942:VRR852094 WBN851942:WBN852094 WLJ851942:WLJ852094 WVF851942:WVF852094 G917478:G917630 IT917478:IT917630 SP917478:SP917630 ACL917478:ACL917630 AMH917478:AMH917630 AWD917478:AWD917630 BFZ917478:BFZ917630 BPV917478:BPV917630 BZR917478:BZR917630 CJN917478:CJN917630 CTJ917478:CTJ917630 DDF917478:DDF917630 DNB917478:DNB917630 DWX917478:DWX917630 EGT917478:EGT917630 EQP917478:EQP917630 FAL917478:FAL917630 FKH917478:FKH917630 FUD917478:FUD917630 GDZ917478:GDZ917630 GNV917478:GNV917630 GXR917478:GXR917630 HHN917478:HHN917630 HRJ917478:HRJ917630 IBF917478:IBF917630 ILB917478:ILB917630 IUX917478:IUX917630 JET917478:JET917630 JOP917478:JOP917630 JYL917478:JYL917630 KIH917478:KIH917630 KSD917478:KSD917630 LBZ917478:LBZ917630 LLV917478:LLV917630 LVR917478:LVR917630 MFN917478:MFN917630 MPJ917478:MPJ917630 MZF917478:MZF917630 NJB917478:NJB917630 NSX917478:NSX917630 OCT917478:OCT917630 OMP917478:OMP917630 OWL917478:OWL917630 PGH917478:PGH917630 PQD917478:PQD917630 PZZ917478:PZZ917630 QJV917478:QJV917630 QTR917478:QTR917630 RDN917478:RDN917630 RNJ917478:RNJ917630 RXF917478:RXF917630 SHB917478:SHB917630 SQX917478:SQX917630 TAT917478:TAT917630 TKP917478:TKP917630 TUL917478:TUL917630 UEH917478:UEH917630 UOD917478:UOD917630 UXZ917478:UXZ917630 VHV917478:VHV917630 VRR917478:VRR917630 WBN917478:WBN917630 WLJ917478:WLJ917630 WVF917478:WVF917630 G983014:G983166 IT983014:IT983166 SP983014:SP983166 ACL983014:ACL983166 AMH983014:AMH983166 AWD983014:AWD983166 BFZ983014:BFZ983166 BPV983014:BPV983166 BZR983014:BZR983166 CJN983014:CJN983166 CTJ983014:CTJ983166 DDF983014:DDF983166 DNB983014:DNB983166 DWX983014:DWX983166 EGT983014:EGT983166 EQP983014:EQP983166 FAL983014:FAL983166 FKH983014:FKH983166 FUD983014:FUD983166 GDZ983014:GDZ983166 GNV983014:GNV983166 GXR983014:GXR983166 HHN983014:HHN983166 HRJ983014:HRJ983166 IBF983014:IBF983166 ILB983014:ILB983166 IUX983014:IUX983166 JET983014:JET983166 JOP983014:JOP983166 JYL983014:JYL983166 KIH983014:KIH983166 KSD983014:KSD983166 LBZ983014:LBZ983166 LLV983014:LLV983166 LVR983014:LVR983166 MFN983014:MFN983166 MPJ983014:MPJ983166 MZF983014:MZF983166 NJB983014:NJB983166 NSX983014:NSX983166 OCT983014:OCT983166 OMP983014:OMP983166 OWL983014:OWL983166 PGH983014:PGH983166 PQD983014:PQD983166 PZZ983014:PZZ983166 QJV983014:QJV983166 QTR983014:QTR983166 RDN983014:RDN983166 RNJ983014:RNJ983166 RXF983014:RXF983166 SHB983014:SHB983166 SQX983014:SQX983166 TAT983014:TAT983166 TKP983014:TKP983166 TUL983014:TUL983166 UEH983014:UEH983166 UOD983014:UOD983166 UXZ983014:UXZ983166 VHV983014:VHV983166 VRR983014:VRR983166 WBN983014:WBN983166 WLJ983014:WLJ983166 G86:G126 IT7:IT126 WVF7:WVF126 WLJ7:WLJ126 WBN7:WBN126 VRR7:VRR126 VHV7:VHV126 UXZ7:UXZ126 UOD7:UOD126 UEH7:UEH126 TUL7:TUL126 TKP7:TKP126 TAT7:TAT126 SQX7:SQX126 SHB7:SHB126 RXF7:RXF126 RNJ7:RNJ126 RDN7:RDN126 QTR7:QTR126 QJV7:QJV126 PZZ7:PZZ126 PQD7:PQD126 PGH7:PGH126 OWL7:OWL126 OMP7:OMP126 OCT7:OCT126 NSX7:NSX126 NJB7:NJB126 MZF7:MZF126 MPJ7:MPJ126 MFN7:MFN126 LVR7:LVR126 LLV7:LLV126 LBZ7:LBZ126 KSD7:KSD126 KIH7:KIH126 JYL7:JYL126 JOP7:JOP126 JET7:JET126 IUX7:IUX126 ILB7:ILB126 IBF7:IBF126 HRJ7:HRJ126 HHN7:HHN126 GXR7:GXR126 GNV7:GNV126 GDZ7:GDZ126 FUD7:FUD126 FKH7:FKH126 FAL7:FAL126 EQP7:EQP126 EGT7:EGT126 DWX7:DWX126 DNB7:DNB126 DDF7:DDF126 CTJ7:CTJ126 CJN7:CJN126 BZR7:BZR126 BPV7:BPV126 BFZ7:BFZ126 AWD7:AWD126 AMH7:AMH126 ACL7:ACL126 SP7:SP126 G7:G77" xr:uid="{EDC6663F-7307-453A-88F3-A3C62A439D69}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVF983011:WVF983163 G65507:G65659 IT65507:IT65659 SP65507:SP65659 ACL65507:ACL65659 AMH65507:AMH65659 AWD65507:AWD65659 BFZ65507:BFZ65659 BPV65507:BPV65659 BZR65507:BZR65659 CJN65507:CJN65659 CTJ65507:CTJ65659 DDF65507:DDF65659 DNB65507:DNB65659 DWX65507:DWX65659 EGT65507:EGT65659 EQP65507:EQP65659 FAL65507:FAL65659 FKH65507:FKH65659 FUD65507:FUD65659 GDZ65507:GDZ65659 GNV65507:GNV65659 GXR65507:GXR65659 HHN65507:HHN65659 HRJ65507:HRJ65659 IBF65507:IBF65659 ILB65507:ILB65659 IUX65507:IUX65659 JET65507:JET65659 JOP65507:JOP65659 JYL65507:JYL65659 KIH65507:KIH65659 KSD65507:KSD65659 LBZ65507:LBZ65659 LLV65507:LLV65659 LVR65507:LVR65659 MFN65507:MFN65659 MPJ65507:MPJ65659 MZF65507:MZF65659 NJB65507:NJB65659 NSX65507:NSX65659 OCT65507:OCT65659 OMP65507:OMP65659 OWL65507:OWL65659 PGH65507:PGH65659 PQD65507:PQD65659 PZZ65507:PZZ65659 QJV65507:QJV65659 QTR65507:QTR65659 RDN65507:RDN65659 RNJ65507:RNJ65659 RXF65507:RXF65659 SHB65507:SHB65659 SQX65507:SQX65659 TAT65507:TAT65659 TKP65507:TKP65659 TUL65507:TUL65659 UEH65507:UEH65659 UOD65507:UOD65659 UXZ65507:UXZ65659 VHV65507:VHV65659 VRR65507:VRR65659 WBN65507:WBN65659 WLJ65507:WLJ65659 WVF65507:WVF65659 G131043:G131195 IT131043:IT131195 SP131043:SP131195 ACL131043:ACL131195 AMH131043:AMH131195 AWD131043:AWD131195 BFZ131043:BFZ131195 BPV131043:BPV131195 BZR131043:BZR131195 CJN131043:CJN131195 CTJ131043:CTJ131195 DDF131043:DDF131195 DNB131043:DNB131195 DWX131043:DWX131195 EGT131043:EGT131195 EQP131043:EQP131195 FAL131043:FAL131195 FKH131043:FKH131195 FUD131043:FUD131195 GDZ131043:GDZ131195 GNV131043:GNV131195 GXR131043:GXR131195 HHN131043:HHN131195 HRJ131043:HRJ131195 IBF131043:IBF131195 ILB131043:ILB131195 IUX131043:IUX131195 JET131043:JET131195 JOP131043:JOP131195 JYL131043:JYL131195 KIH131043:KIH131195 KSD131043:KSD131195 LBZ131043:LBZ131195 LLV131043:LLV131195 LVR131043:LVR131195 MFN131043:MFN131195 MPJ131043:MPJ131195 MZF131043:MZF131195 NJB131043:NJB131195 NSX131043:NSX131195 OCT131043:OCT131195 OMP131043:OMP131195 OWL131043:OWL131195 PGH131043:PGH131195 PQD131043:PQD131195 PZZ131043:PZZ131195 QJV131043:QJV131195 QTR131043:QTR131195 RDN131043:RDN131195 RNJ131043:RNJ131195 RXF131043:RXF131195 SHB131043:SHB131195 SQX131043:SQX131195 TAT131043:TAT131195 TKP131043:TKP131195 TUL131043:TUL131195 UEH131043:UEH131195 UOD131043:UOD131195 UXZ131043:UXZ131195 VHV131043:VHV131195 VRR131043:VRR131195 WBN131043:WBN131195 WLJ131043:WLJ131195 WVF131043:WVF131195 G196579:G196731 IT196579:IT196731 SP196579:SP196731 ACL196579:ACL196731 AMH196579:AMH196731 AWD196579:AWD196731 BFZ196579:BFZ196731 BPV196579:BPV196731 BZR196579:BZR196731 CJN196579:CJN196731 CTJ196579:CTJ196731 DDF196579:DDF196731 DNB196579:DNB196731 DWX196579:DWX196731 EGT196579:EGT196731 EQP196579:EQP196731 FAL196579:FAL196731 FKH196579:FKH196731 FUD196579:FUD196731 GDZ196579:GDZ196731 GNV196579:GNV196731 GXR196579:GXR196731 HHN196579:HHN196731 HRJ196579:HRJ196731 IBF196579:IBF196731 ILB196579:ILB196731 IUX196579:IUX196731 JET196579:JET196731 JOP196579:JOP196731 JYL196579:JYL196731 KIH196579:KIH196731 KSD196579:KSD196731 LBZ196579:LBZ196731 LLV196579:LLV196731 LVR196579:LVR196731 MFN196579:MFN196731 MPJ196579:MPJ196731 MZF196579:MZF196731 NJB196579:NJB196731 NSX196579:NSX196731 OCT196579:OCT196731 OMP196579:OMP196731 OWL196579:OWL196731 PGH196579:PGH196731 PQD196579:PQD196731 PZZ196579:PZZ196731 QJV196579:QJV196731 QTR196579:QTR196731 RDN196579:RDN196731 RNJ196579:RNJ196731 RXF196579:RXF196731 SHB196579:SHB196731 SQX196579:SQX196731 TAT196579:TAT196731 TKP196579:TKP196731 TUL196579:TUL196731 UEH196579:UEH196731 UOD196579:UOD196731 UXZ196579:UXZ196731 VHV196579:VHV196731 VRR196579:VRR196731 WBN196579:WBN196731 WLJ196579:WLJ196731 WVF196579:WVF196731 G262115:G262267 IT262115:IT262267 SP262115:SP262267 ACL262115:ACL262267 AMH262115:AMH262267 AWD262115:AWD262267 BFZ262115:BFZ262267 BPV262115:BPV262267 BZR262115:BZR262267 CJN262115:CJN262267 CTJ262115:CTJ262267 DDF262115:DDF262267 DNB262115:DNB262267 DWX262115:DWX262267 EGT262115:EGT262267 EQP262115:EQP262267 FAL262115:FAL262267 FKH262115:FKH262267 FUD262115:FUD262267 GDZ262115:GDZ262267 GNV262115:GNV262267 GXR262115:GXR262267 HHN262115:HHN262267 HRJ262115:HRJ262267 IBF262115:IBF262267 ILB262115:ILB262267 IUX262115:IUX262267 JET262115:JET262267 JOP262115:JOP262267 JYL262115:JYL262267 KIH262115:KIH262267 KSD262115:KSD262267 LBZ262115:LBZ262267 LLV262115:LLV262267 LVR262115:LVR262267 MFN262115:MFN262267 MPJ262115:MPJ262267 MZF262115:MZF262267 NJB262115:NJB262267 NSX262115:NSX262267 OCT262115:OCT262267 OMP262115:OMP262267 OWL262115:OWL262267 PGH262115:PGH262267 PQD262115:PQD262267 PZZ262115:PZZ262267 QJV262115:QJV262267 QTR262115:QTR262267 RDN262115:RDN262267 RNJ262115:RNJ262267 RXF262115:RXF262267 SHB262115:SHB262267 SQX262115:SQX262267 TAT262115:TAT262267 TKP262115:TKP262267 TUL262115:TUL262267 UEH262115:UEH262267 UOD262115:UOD262267 UXZ262115:UXZ262267 VHV262115:VHV262267 VRR262115:VRR262267 WBN262115:WBN262267 WLJ262115:WLJ262267 WVF262115:WVF262267 G327651:G327803 IT327651:IT327803 SP327651:SP327803 ACL327651:ACL327803 AMH327651:AMH327803 AWD327651:AWD327803 BFZ327651:BFZ327803 BPV327651:BPV327803 BZR327651:BZR327803 CJN327651:CJN327803 CTJ327651:CTJ327803 DDF327651:DDF327803 DNB327651:DNB327803 DWX327651:DWX327803 EGT327651:EGT327803 EQP327651:EQP327803 FAL327651:FAL327803 FKH327651:FKH327803 FUD327651:FUD327803 GDZ327651:GDZ327803 GNV327651:GNV327803 GXR327651:GXR327803 HHN327651:HHN327803 HRJ327651:HRJ327803 IBF327651:IBF327803 ILB327651:ILB327803 IUX327651:IUX327803 JET327651:JET327803 JOP327651:JOP327803 JYL327651:JYL327803 KIH327651:KIH327803 KSD327651:KSD327803 LBZ327651:LBZ327803 LLV327651:LLV327803 LVR327651:LVR327803 MFN327651:MFN327803 MPJ327651:MPJ327803 MZF327651:MZF327803 NJB327651:NJB327803 NSX327651:NSX327803 OCT327651:OCT327803 OMP327651:OMP327803 OWL327651:OWL327803 PGH327651:PGH327803 PQD327651:PQD327803 PZZ327651:PZZ327803 QJV327651:QJV327803 QTR327651:QTR327803 RDN327651:RDN327803 RNJ327651:RNJ327803 RXF327651:RXF327803 SHB327651:SHB327803 SQX327651:SQX327803 TAT327651:TAT327803 TKP327651:TKP327803 TUL327651:TUL327803 UEH327651:UEH327803 UOD327651:UOD327803 UXZ327651:UXZ327803 VHV327651:VHV327803 VRR327651:VRR327803 WBN327651:WBN327803 WLJ327651:WLJ327803 WVF327651:WVF327803 G393187:G393339 IT393187:IT393339 SP393187:SP393339 ACL393187:ACL393339 AMH393187:AMH393339 AWD393187:AWD393339 BFZ393187:BFZ393339 BPV393187:BPV393339 BZR393187:BZR393339 CJN393187:CJN393339 CTJ393187:CTJ393339 DDF393187:DDF393339 DNB393187:DNB393339 DWX393187:DWX393339 EGT393187:EGT393339 EQP393187:EQP393339 FAL393187:FAL393339 FKH393187:FKH393339 FUD393187:FUD393339 GDZ393187:GDZ393339 GNV393187:GNV393339 GXR393187:GXR393339 HHN393187:HHN393339 HRJ393187:HRJ393339 IBF393187:IBF393339 ILB393187:ILB393339 IUX393187:IUX393339 JET393187:JET393339 JOP393187:JOP393339 JYL393187:JYL393339 KIH393187:KIH393339 KSD393187:KSD393339 LBZ393187:LBZ393339 LLV393187:LLV393339 LVR393187:LVR393339 MFN393187:MFN393339 MPJ393187:MPJ393339 MZF393187:MZF393339 NJB393187:NJB393339 NSX393187:NSX393339 OCT393187:OCT393339 OMP393187:OMP393339 OWL393187:OWL393339 PGH393187:PGH393339 PQD393187:PQD393339 PZZ393187:PZZ393339 QJV393187:QJV393339 QTR393187:QTR393339 RDN393187:RDN393339 RNJ393187:RNJ393339 RXF393187:RXF393339 SHB393187:SHB393339 SQX393187:SQX393339 TAT393187:TAT393339 TKP393187:TKP393339 TUL393187:TUL393339 UEH393187:UEH393339 UOD393187:UOD393339 UXZ393187:UXZ393339 VHV393187:VHV393339 VRR393187:VRR393339 WBN393187:WBN393339 WLJ393187:WLJ393339 WVF393187:WVF393339 G458723:G458875 IT458723:IT458875 SP458723:SP458875 ACL458723:ACL458875 AMH458723:AMH458875 AWD458723:AWD458875 BFZ458723:BFZ458875 BPV458723:BPV458875 BZR458723:BZR458875 CJN458723:CJN458875 CTJ458723:CTJ458875 DDF458723:DDF458875 DNB458723:DNB458875 DWX458723:DWX458875 EGT458723:EGT458875 EQP458723:EQP458875 FAL458723:FAL458875 FKH458723:FKH458875 FUD458723:FUD458875 GDZ458723:GDZ458875 GNV458723:GNV458875 GXR458723:GXR458875 HHN458723:HHN458875 HRJ458723:HRJ458875 IBF458723:IBF458875 ILB458723:ILB458875 IUX458723:IUX458875 JET458723:JET458875 JOP458723:JOP458875 JYL458723:JYL458875 KIH458723:KIH458875 KSD458723:KSD458875 LBZ458723:LBZ458875 LLV458723:LLV458875 LVR458723:LVR458875 MFN458723:MFN458875 MPJ458723:MPJ458875 MZF458723:MZF458875 NJB458723:NJB458875 NSX458723:NSX458875 OCT458723:OCT458875 OMP458723:OMP458875 OWL458723:OWL458875 PGH458723:PGH458875 PQD458723:PQD458875 PZZ458723:PZZ458875 QJV458723:QJV458875 QTR458723:QTR458875 RDN458723:RDN458875 RNJ458723:RNJ458875 RXF458723:RXF458875 SHB458723:SHB458875 SQX458723:SQX458875 TAT458723:TAT458875 TKP458723:TKP458875 TUL458723:TUL458875 UEH458723:UEH458875 UOD458723:UOD458875 UXZ458723:UXZ458875 VHV458723:VHV458875 VRR458723:VRR458875 WBN458723:WBN458875 WLJ458723:WLJ458875 WVF458723:WVF458875 G524259:G524411 IT524259:IT524411 SP524259:SP524411 ACL524259:ACL524411 AMH524259:AMH524411 AWD524259:AWD524411 BFZ524259:BFZ524411 BPV524259:BPV524411 BZR524259:BZR524411 CJN524259:CJN524411 CTJ524259:CTJ524411 DDF524259:DDF524411 DNB524259:DNB524411 DWX524259:DWX524411 EGT524259:EGT524411 EQP524259:EQP524411 FAL524259:FAL524411 FKH524259:FKH524411 FUD524259:FUD524411 GDZ524259:GDZ524411 GNV524259:GNV524411 GXR524259:GXR524411 HHN524259:HHN524411 HRJ524259:HRJ524411 IBF524259:IBF524411 ILB524259:ILB524411 IUX524259:IUX524411 JET524259:JET524411 JOP524259:JOP524411 JYL524259:JYL524411 KIH524259:KIH524411 KSD524259:KSD524411 LBZ524259:LBZ524411 LLV524259:LLV524411 LVR524259:LVR524411 MFN524259:MFN524411 MPJ524259:MPJ524411 MZF524259:MZF524411 NJB524259:NJB524411 NSX524259:NSX524411 OCT524259:OCT524411 OMP524259:OMP524411 OWL524259:OWL524411 PGH524259:PGH524411 PQD524259:PQD524411 PZZ524259:PZZ524411 QJV524259:QJV524411 QTR524259:QTR524411 RDN524259:RDN524411 RNJ524259:RNJ524411 RXF524259:RXF524411 SHB524259:SHB524411 SQX524259:SQX524411 TAT524259:TAT524411 TKP524259:TKP524411 TUL524259:TUL524411 UEH524259:UEH524411 UOD524259:UOD524411 UXZ524259:UXZ524411 VHV524259:VHV524411 VRR524259:VRR524411 WBN524259:WBN524411 WLJ524259:WLJ524411 WVF524259:WVF524411 G589795:G589947 IT589795:IT589947 SP589795:SP589947 ACL589795:ACL589947 AMH589795:AMH589947 AWD589795:AWD589947 BFZ589795:BFZ589947 BPV589795:BPV589947 BZR589795:BZR589947 CJN589795:CJN589947 CTJ589795:CTJ589947 DDF589795:DDF589947 DNB589795:DNB589947 DWX589795:DWX589947 EGT589795:EGT589947 EQP589795:EQP589947 FAL589795:FAL589947 FKH589795:FKH589947 FUD589795:FUD589947 GDZ589795:GDZ589947 GNV589795:GNV589947 GXR589795:GXR589947 HHN589795:HHN589947 HRJ589795:HRJ589947 IBF589795:IBF589947 ILB589795:ILB589947 IUX589795:IUX589947 JET589795:JET589947 JOP589795:JOP589947 JYL589795:JYL589947 KIH589795:KIH589947 KSD589795:KSD589947 LBZ589795:LBZ589947 LLV589795:LLV589947 LVR589795:LVR589947 MFN589795:MFN589947 MPJ589795:MPJ589947 MZF589795:MZF589947 NJB589795:NJB589947 NSX589795:NSX589947 OCT589795:OCT589947 OMP589795:OMP589947 OWL589795:OWL589947 PGH589795:PGH589947 PQD589795:PQD589947 PZZ589795:PZZ589947 QJV589795:QJV589947 QTR589795:QTR589947 RDN589795:RDN589947 RNJ589795:RNJ589947 RXF589795:RXF589947 SHB589795:SHB589947 SQX589795:SQX589947 TAT589795:TAT589947 TKP589795:TKP589947 TUL589795:TUL589947 UEH589795:UEH589947 UOD589795:UOD589947 UXZ589795:UXZ589947 VHV589795:VHV589947 VRR589795:VRR589947 WBN589795:WBN589947 WLJ589795:WLJ589947 WVF589795:WVF589947 G655331:G655483 IT655331:IT655483 SP655331:SP655483 ACL655331:ACL655483 AMH655331:AMH655483 AWD655331:AWD655483 BFZ655331:BFZ655483 BPV655331:BPV655483 BZR655331:BZR655483 CJN655331:CJN655483 CTJ655331:CTJ655483 DDF655331:DDF655483 DNB655331:DNB655483 DWX655331:DWX655483 EGT655331:EGT655483 EQP655331:EQP655483 FAL655331:FAL655483 FKH655331:FKH655483 FUD655331:FUD655483 GDZ655331:GDZ655483 GNV655331:GNV655483 GXR655331:GXR655483 HHN655331:HHN655483 HRJ655331:HRJ655483 IBF655331:IBF655483 ILB655331:ILB655483 IUX655331:IUX655483 JET655331:JET655483 JOP655331:JOP655483 JYL655331:JYL655483 KIH655331:KIH655483 KSD655331:KSD655483 LBZ655331:LBZ655483 LLV655331:LLV655483 LVR655331:LVR655483 MFN655331:MFN655483 MPJ655331:MPJ655483 MZF655331:MZF655483 NJB655331:NJB655483 NSX655331:NSX655483 OCT655331:OCT655483 OMP655331:OMP655483 OWL655331:OWL655483 PGH655331:PGH655483 PQD655331:PQD655483 PZZ655331:PZZ655483 QJV655331:QJV655483 QTR655331:QTR655483 RDN655331:RDN655483 RNJ655331:RNJ655483 RXF655331:RXF655483 SHB655331:SHB655483 SQX655331:SQX655483 TAT655331:TAT655483 TKP655331:TKP655483 TUL655331:TUL655483 UEH655331:UEH655483 UOD655331:UOD655483 UXZ655331:UXZ655483 VHV655331:VHV655483 VRR655331:VRR655483 WBN655331:WBN655483 WLJ655331:WLJ655483 WVF655331:WVF655483 G720867:G721019 IT720867:IT721019 SP720867:SP721019 ACL720867:ACL721019 AMH720867:AMH721019 AWD720867:AWD721019 BFZ720867:BFZ721019 BPV720867:BPV721019 BZR720867:BZR721019 CJN720867:CJN721019 CTJ720867:CTJ721019 DDF720867:DDF721019 DNB720867:DNB721019 DWX720867:DWX721019 EGT720867:EGT721019 EQP720867:EQP721019 FAL720867:FAL721019 FKH720867:FKH721019 FUD720867:FUD721019 GDZ720867:GDZ721019 GNV720867:GNV721019 GXR720867:GXR721019 HHN720867:HHN721019 HRJ720867:HRJ721019 IBF720867:IBF721019 ILB720867:ILB721019 IUX720867:IUX721019 JET720867:JET721019 JOP720867:JOP721019 JYL720867:JYL721019 KIH720867:KIH721019 KSD720867:KSD721019 LBZ720867:LBZ721019 LLV720867:LLV721019 LVR720867:LVR721019 MFN720867:MFN721019 MPJ720867:MPJ721019 MZF720867:MZF721019 NJB720867:NJB721019 NSX720867:NSX721019 OCT720867:OCT721019 OMP720867:OMP721019 OWL720867:OWL721019 PGH720867:PGH721019 PQD720867:PQD721019 PZZ720867:PZZ721019 QJV720867:QJV721019 QTR720867:QTR721019 RDN720867:RDN721019 RNJ720867:RNJ721019 RXF720867:RXF721019 SHB720867:SHB721019 SQX720867:SQX721019 TAT720867:TAT721019 TKP720867:TKP721019 TUL720867:TUL721019 UEH720867:UEH721019 UOD720867:UOD721019 UXZ720867:UXZ721019 VHV720867:VHV721019 VRR720867:VRR721019 WBN720867:WBN721019 WLJ720867:WLJ721019 WVF720867:WVF721019 G786403:G786555 IT786403:IT786555 SP786403:SP786555 ACL786403:ACL786555 AMH786403:AMH786555 AWD786403:AWD786555 BFZ786403:BFZ786555 BPV786403:BPV786555 BZR786403:BZR786555 CJN786403:CJN786555 CTJ786403:CTJ786555 DDF786403:DDF786555 DNB786403:DNB786555 DWX786403:DWX786555 EGT786403:EGT786555 EQP786403:EQP786555 FAL786403:FAL786555 FKH786403:FKH786555 FUD786403:FUD786555 GDZ786403:GDZ786555 GNV786403:GNV786555 GXR786403:GXR786555 HHN786403:HHN786555 HRJ786403:HRJ786555 IBF786403:IBF786555 ILB786403:ILB786555 IUX786403:IUX786555 JET786403:JET786555 JOP786403:JOP786555 JYL786403:JYL786555 KIH786403:KIH786555 KSD786403:KSD786555 LBZ786403:LBZ786555 LLV786403:LLV786555 LVR786403:LVR786555 MFN786403:MFN786555 MPJ786403:MPJ786555 MZF786403:MZF786555 NJB786403:NJB786555 NSX786403:NSX786555 OCT786403:OCT786555 OMP786403:OMP786555 OWL786403:OWL786555 PGH786403:PGH786555 PQD786403:PQD786555 PZZ786403:PZZ786555 QJV786403:QJV786555 QTR786403:QTR786555 RDN786403:RDN786555 RNJ786403:RNJ786555 RXF786403:RXF786555 SHB786403:SHB786555 SQX786403:SQX786555 TAT786403:TAT786555 TKP786403:TKP786555 TUL786403:TUL786555 UEH786403:UEH786555 UOD786403:UOD786555 UXZ786403:UXZ786555 VHV786403:VHV786555 VRR786403:VRR786555 WBN786403:WBN786555 WLJ786403:WLJ786555 WVF786403:WVF786555 G851939:G852091 IT851939:IT852091 SP851939:SP852091 ACL851939:ACL852091 AMH851939:AMH852091 AWD851939:AWD852091 BFZ851939:BFZ852091 BPV851939:BPV852091 BZR851939:BZR852091 CJN851939:CJN852091 CTJ851939:CTJ852091 DDF851939:DDF852091 DNB851939:DNB852091 DWX851939:DWX852091 EGT851939:EGT852091 EQP851939:EQP852091 FAL851939:FAL852091 FKH851939:FKH852091 FUD851939:FUD852091 GDZ851939:GDZ852091 GNV851939:GNV852091 GXR851939:GXR852091 HHN851939:HHN852091 HRJ851939:HRJ852091 IBF851939:IBF852091 ILB851939:ILB852091 IUX851939:IUX852091 JET851939:JET852091 JOP851939:JOP852091 JYL851939:JYL852091 KIH851939:KIH852091 KSD851939:KSD852091 LBZ851939:LBZ852091 LLV851939:LLV852091 LVR851939:LVR852091 MFN851939:MFN852091 MPJ851939:MPJ852091 MZF851939:MZF852091 NJB851939:NJB852091 NSX851939:NSX852091 OCT851939:OCT852091 OMP851939:OMP852091 OWL851939:OWL852091 PGH851939:PGH852091 PQD851939:PQD852091 PZZ851939:PZZ852091 QJV851939:QJV852091 QTR851939:QTR852091 RDN851939:RDN852091 RNJ851939:RNJ852091 RXF851939:RXF852091 SHB851939:SHB852091 SQX851939:SQX852091 TAT851939:TAT852091 TKP851939:TKP852091 TUL851939:TUL852091 UEH851939:UEH852091 UOD851939:UOD852091 UXZ851939:UXZ852091 VHV851939:VHV852091 VRR851939:VRR852091 WBN851939:WBN852091 WLJ851939:WLJ852091 WVF851939:WVF852091 G917475:G917627 IT917475:IT917627 SP917475:SP917627 ACL917475:ACL917627 AMH917475:AMH917627 AWD917475:AWD917627 BFZ917475:BFZ917627 BPV917475:BPV917627 BZR917475:BZR917627 CJN917475:CJN917627 CTJ917475:CTJ917627 DDF917475:DDF917627 DNB917475:DNB917627 DWX917475:DWX917627 EGT917475:EGT917627 EQP917475:EQP917627 FAL917475:FAL917627 FKH917475:FKH917627 FUD917475:FUD917627 GDZ917475:GDZ917627 GNV917475:GNV917627 GXR917475:GXR917627 HHN917475:HHN917627 HRJ917475:HRJ917627 IBF917475:IBF917627 ILB917475:ILB917627 IUX917475:IUX917627 JET917475:JET917627 JOP917475:JOP917627 JYL917475:JYL917627 KIH917475:KIH917627 KSD917475:KSD917627 LBZ917475:LBZ917627 LLV917475:LLV917627 LVR917475:LVR917627 MFN917475:MFN917627 MPJ917475:MPJ917627 MZF917475:MZF917627 NJB917475:NJB917627 NSX917475:NSX917627 OCT917475:OCT917627 OMP917475:OMP917627 OWL917475:OWL917627 PGH917475:PGH917627 PQD917475:PQD917627 PZZ917475:PZZ917627 QJV917475:QJV917627 QTR917475:QTR917627 RDN917475:RDN917627 RNJ917475:RNJ917627 RXF917475:RXF917627 SHB917475:SHB917627 SQX917475:SQX917627 TAT917475:TAT917627 TKP917475:TKP917627 TUL917475:TUL917627 UEH917475:UEH917627 UOD917475:UOD917627 UXZ917475:UXZ917627 VHV917475:VHV917627 VRR917475:VRR917627 WBN917475:WBN917627 WLJ917475:WLJ917627 WVF917475:WVF917627 G983011:G983163 IT983011:IT983163 SP983011:SP983163 ACL983011:ACL983163 AMH983011:AMH983163 AWD983011:AWD983163 BFZ983011:BFZ983163 BPV983011:BPV983163 BZR983011:BZR983163 CJN983011:CJN983163 CTJ983011:CTJ983163 DDF983011:DDF983163 DNB983011:DNB983163 DWX983011:DWX983163 EGT983011:EGT983163 EQP983011:EQP983163 FAL983011:FAL983163 FKH983011:FKH983163 FUD983011:FUD983163 GDZ983011:GDZ983163 GNV983011:GNV983163 GXR983011:GXR983163 HHN983011:HHN983163 HRJ983011:HRJ983163 IBF983011:IBF983163 ILB983011:ILB983163 IUX983011:IUX983163 JET983011:JET983163 JOP983011:JOP983163 JYL983011:JYL983163 KIH983011:KIH983163 KSD983011:KSD983163 LBZ983011:LBZ983163 LLV983011:LLV983163 LVR983011:LVR983163 MFN983011:MFN983163 MPJ983011:MPJ983163 MZF983011:MZF983163 NJB983011:NJB983163 NSX983011:NSX983163 OCT983011:OCT983163 OMP983011:OMP983163 OWL983011:OWL983163 PGH983011:PGH983163 PQD983011:PQD983163 PZZ983011:PZZ983163 QJV983011:QJV983163 QTR983011:QTR983163 RDN983011:RDN983163 RNJ983011:RNJ983163 RXF983011:RXF983163 SHB983011:SHB983163 SQX983011:SQX983163 TAT983011:TAT983163 TKP983011:TKP983163 TUL983011:TUL983163 UEH983011:UEH983163 UOD983011:UOD983163 UXZ983011:UXZ983163 VHV983011:VHV983163 VRR983011:VRR983163 WBN983011:WBN983163 WLJ983011:WLJ983163 G83:G123 SP7:SP123 ACL7:ACL123 AMH7:AMH123 AWD7:AWD123 BFZ7:BFZ123 BPV7:BPV123 BZR7:BZR123 CJN7:CJN123 CTJ7:CTJ123 DDF7:DDF123 DNB7:DNB123 DWX7:DWX123 EGT7:EGT123 EQP7:EQP123 FAL7:FAL123 FKH7:FKH123 FUD7:FUD123 GDZ7:GDZ123 GNV7:GNV123 GXR7:GXR123 HHN7:HHN123 HRJ7:HRJ123 IBF7:IBF123 ILB7:ILB123 IUX7:IUX123 JET7:JET123 JOP7:JOP123 JYL7:JYL123 KIH7:KIH123 KSD7:KSD123 LBZ7:LBZ123 LLV7:LLV123 LVR7:LVR123 MFN7:MFN123 MPJ7:MPJ123 MZF7:MZF123 NJB7:NJB123 NSX7:NSX123 OCT7:OCT123 OMP7:OMP123 OWL7:OWL123 PGH7:PGH123 PQD7:PQD123 PZZ7:PZZ123 QJV7:QJV123 QTR7:QTR123 RDN7:RDN123 RNJ7:RNJ123 RXF7:RXF123 SHB7:SHB123 SQX7:SQX123 TAT7:TAT123 TKP7:TKP123 TUL7:TUL123 UEH7:UEH123 UOD7:UOD123 UXZ7:UXZ123 VHV7:VHV123 VRR7:VRR123 WBN7:WBN123 WLJ7:WLJ123 WVF7:WVF123 IT7:IT123 G7:G74" xr:uid="{EDC6663F-7307-453A-88F3-A3C62A439D69}">
       <formula1>$AF$11:$AF$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVG983014:WVG983166 H65510:H65662 IU65510:IU65662 SQ65510:SQ65662 ACM65510:ACM65662 AMI65510:AMI65662 AWE65510:AWE65662 BGA65510:BGA65662 BPW65510:BPW65662 BZS65510:BZS65662 CJO65510:CJO65662 CTK65510:CTK65662 DDG65510:DDG65662 DNC65510:DNC65662 DWY65510:DWY65662 EGU65510:EGU65662 EQQ65510:EQQ65662 FAM65510:FAM65662 FKI65510:FKI65662 FUE65510:FUE65662 GEA65510:GEA65662 GNW65510:GNW65662 GXS65510:GXS65662 HHO65510:HHO65662 HRK65510:HRK65662 IBG65510:IBG65662 ILC65510:ILC65662 IUY65510:IUY65662 JEU65510:JEU65662 JOQ65510:JOQ65662 JYM65510:JYM65662 KII65510:KII65662 KSE65510:KSE65662 LCA65510:LCA65662 LLW65510:LLW65662 LVS65510:LVS65662 MFO65510:MFO65662 MPK65510:MPK65662 MZG65510:MZG65662 NJC65510:NJC65662 NSY65510:NSY65662 OCU65510:OCU65662 OMQ65510:OMQ65662 OWM65510:OWM65662 PGI65510:PGI65662 PQE65510:PQE65662 QAA65510:QAA65662 QJW65510:QJW65662 QTS65510:QTS65662 RDO65510:RDO65662 RNK65510:RNK65662 RXG65510:RXG65662 SHC65510:SHC65662 SQY65510:SQY65662 TAU65510:TAU65662 TKQ65510:TKQ65662 TUM65510:TUM65662 UEI65510:UEI65662 UOE65510:UOE65662 UYA65510:UYA65662 VHW65510:VHW65662 VRS65510:VRS65662 WBO65510:WBO65662 WLK65510:WLK65662 WVG65510:WVG65662 H131046:H131198 IU131046:IU131198 SQ131046:SQ131198 ACM131046:ACM131198 AMI131046:AMI131198 AWE131046:AWE131198 BGA131046:BGA131198 BPW131046:BPW131198 BZS131046:BZS131198 CJO131046:CJO131198 CTK131046:CTK131198 DDG131046:DDG131198 DNC131046:DNC131198 DWY131046:DWY131198 EGU131046:EGU131198 EQQ131046:EQQ131198 FAM131046:FAM131198 FKI131046:FKI131198 FUE131046:FUE131198 GEA131046:GEA131198 GNW131046:GNW131198 GXS131046:GXS131198 HHO131046:HHO131198 HRK131046:HRK131198 IBG131046:IBG131198 ILC131046:ILC131198 IUY131046:IUY131198 JEU131046:JEU131198 JOQ131046:JOQ131198 JYM131046:JYM131198 KII131046:KII131198 KSE131046:KSE131198 LCA131046:LCA131198 LLW131046:LLW131198 LVS131046:LVS131198 MFO131046:MFO131198 MPK131046:MPK131198 MZG131046:MZG131198 NJC131046:NJC131198 NSY131046:NSY131198 OCU131046:OCU131198 OMQ131046:OMQ131198 OWM131046:OWM131198 PGI131046:PGI131198 PQE131046:PQE131198 QAA131046:QAA131198 QJW131046:QJW131198 QTS131046:QTS131198 RDO131046:RDO131198 RNK131046:RNK131198 RXG131046:RXG131198 SHC131046:SHC131198 SQY131046:SQY131198 TAU131046:TAU131198 TKQ131046:TKQ131198 TUM131046:TUM131198 UEI131046:UEI131198 UOE131046:UOE131198 UYA131046:UYA131198 VHW131046:VHW131198 VRS131046:VRS131198 WBO131046:WBO131198 WLK131046:WLK131198 WVG131046:WVG131198 H196582:H196734 IU196582:IU196734 SQ196582:SQ196734 ACM196582:ACM196734 AMI196582:AMI196734 AWE196582:AWE196734 BGA196582:BGA196734 BPW196582:BPW196734 BZS196582:BZS196734 CJO196582:CJO196734 CTK196582:CTK196734 DDG196582:DDG196734 DNC196582:DNC196734 DWY196582:DWY196734 EGU196582:EGU196734 EQQ196582:EQQ196734 FAM196582:FAM196734 FKI196582:FKI196734 FUE196582:FUE196734 GEA196582:GEA196734 GNW196582:GNW196734 GXS196582:GXS196734 HHO196582:HHO196734 HRK196582:HRK196734 IBG196582:IBG196734 ILC196582:ILC196734 IUY196582:IUY196734 JEU196582:JEU196734 JOQ196582:JOQ196734 JYM196582:JYM196734 KII196582:KII196734 KSE196582:KSE196734 LCA196582:LCA196734 LLW196582:LLW196734 LVS196582:LVS196734 MFO196582:MFO196734 MPK196582:MPK196734 MZG196582:MZG196734 NJC196582:NJC196734 NSY196582:NSY196734 OCU196582:OCU196734 OMQ196582:OMQ196734 OWM196582:OWM196734 PGI196582:PGI196734 PQE196582:PQE196734 QAA196582:QAA196734 QJW196582:QJW196734 QTS196582:QTS196734 RDO196582:RDO196734 RNK196582:RNK196734 RXG196582:RXG196734 SHC196582:SHC196734 SQY196582:SQY196734 TAU196582:TAU196734 TKQ196582:TKQ196734 TUM196582:TUM196734 UEI196582:UEI196734 UOE196582:UOE196734 UYA196582:UYA196734 VHW196582:VHW196734 VRS196582:VRS196734 WBO196582:WBO196734 WLK196582:WLK196734 WVG196582:WVG196734 H262118:H262270 IU262118:IU262270 SQ262118:SQ262270 ACM262118:ACM262270 AMI262118:AMI262270 AWE262118:AWE262270 BGA262118:BGA262270 BPW262118:BPW262270 BZS262118:BZS262270 CJO262118:CJO262270 CTK262118:CTK262270 DDG262118:DDG262270 DNC262118:DNC262270 DWY262118:DWY262270 EGU262118:EGU262270 EQQ262118:EQQ262270 FAM262118:FAM262270 FKI262118:FKI262270 FUE262118:FUE262270 GEA262118:GEA262270 GNW262118:GNW262270 GXS262118:GXS262270 HHO262118:HHO262270 HRK262118:HRK262270 IBG262118:IBG262270 ILC262118:ILC262270 IUY262118:IUY262270 JEU262118:JEU262270 JOQ262118:JOQ262270 JYM262118:JYM262270 KII262118:KII262270 KSE262118:KSE262270 LCA262118:LCA262270 LLW262118:LLW262270 LVS262118:LVS262270 MFO262118:MFO262270 MPK262118:MPK262270 MZG262118:MZG262270 NJC262118:NJC262270 NSY262118:NSY262270 OCU262118:OCU262270 OMQ262118:OMQ262270 OWM262118:OWM262270 PGI262118:PGI262270 PQE262118:PQE262270 QAA262118:QAA262270 QJW262118:QJW262270 QTS262118:QTS262270 RDO262118:RDO262270 RNK262118:RNK262270 RXG262118:RXG262270 SHC262118:SHC262270 SQY262118:SQY262270 TAU262118:TAU262270 TKQ262118:TKQ262270 TUM262118:TUM262270 UEI262118:UEI262270 UOE262118:UOE262270 UYA262118:UYA262270 VHW262118:VHW262270 VRS262118:VRS262270 WBO262118:WBO262270 WLK262118:WLK262270 WVG262118:WVG262270 H327654:H327806 IU327654:IU327806 SQ327654:SQ327806 ACM327654:ACM327806 AMI327654:AMI327806 AWE327654:AWE327806 BGA327654:BGA327806 BPW327654:BPW327806 BZS327654:BZS327806 CJO327654:CJO327806 CTK327654:CTK327806 DDG327654:DDG327806 DNC327654:DNC327806 DWY327654:DWY327806 EGU327654:EGU327806 EQQ327654:EQQ327806 FAM327654:FAM327806 FKI327654:FKI327806 FUE327654:FUE327806 GEA327654:GEA327806 GNW327654:GNW327806 GXS327654:GXS327806 HHO327654:HHO327806 HRK327654:HRK327806 IBG327654:IBG327806 ILC327654:ILC327806 IUY327654:IUY327806 JEU327654:JEU327806 JOQ327654:JOQ327806 JYM327654:JYM327806 KII327654:KII327806 KSE327654:KSE327806 LCA327654:LCA327806 LLW327654:LLW327806 LVS327654:LVS327806 MFO327654:MFO327806 MPK327654:MPK327806 MZG327654:MZG327806 NJC327654:NJC327806 NSY327654:NSY327806 OCU327654:OCU327806 OMQ327654:OMQ327806 OWM327654:OWM327806 PGI327654:PGI327806 PQE327654:PQE327806 QAA327654:QAA327806 QJW327654:QJW327806 QTS327654:QTS327806 RDO327654:RDO327806 RNK327654:RNK327806 RXG327654:RXG327806 SHC327654:SHC327806 SQY327654:SQY327806 TAU327654:TAU327806 TKQ327654:TKQ327806 TUM327654:TUM327806 UEI327654:UEI327806 UOE327654:UOE327806 UYA327654:UYA327806 VHW327654:VHW327806 VRS327654:VRS327806 WBO327654:WBO327806 WLK327654:WLK327806 WVG327654:WVG327806 H393190:H393342 IU393190:IU393342 SQ393190:SQ393342 ACM393190:ACM393342 AMI393190:AMI393342 AWE393190:AWE393342 BGA393190:BGA393342 BPW393190:BPW393342 BZS393190:BZS393342 CJO393190:CJO393342 CTK393190:CTK393342 DDG393190:DDG393342 DNC393190:DNC393342 DWY393190:DWY393342 EGU393190:EGU393342 EQQ393190:EQQ393342 FAM393190:FAM393342 FKI393190:FKI393342 FUE393190:FUE393342 GEA393190:GEA393342 GNW393190:GNW393342 GXS393190:GXS393342 HHO393190:HHO393342 HRK393190:HRK393342 IBG393190:IBG393342 ILC393190:ILC393342 IUY393190:IUY393342 JEU393190:JEU393342 JOQ393190:JOQ393342 JYM393190:JYM393342 KII393190:KII393342 KSE393190:KSE393342 LCA393190:LCA393342 LLW393190:LLW393342 LVS393190:LVS393342 MFO393190:MFO393342 MPK393190:MPK393342 MZG393190:MZG393342 NJC393190:NJC393342 NSY393190:NSY393342 OCU393190:OCU393342 OMQ393190:OMQ393342 OWM393190:OWM393342 PGI393190:PGI393342 PQE393190:PQE393342 QAA393190:QAA393342 QJW393190:QJW393342 QTS393190:QTS393342 RDO393190:RDO393342 RNK393190:RNK393342 RXG393190:RXG393342 SHC393190:SHC393342 SQY393190:SQY393342 TAU393190:TAU393342 TKQ393190:TKQ393342 TUM393190:TUM393342 UEI393190:UEI393342 UOE393190:UOE393342 UYA393190:UYA393342 VHW393190:VHW393342 VRS393190:VRS393342 WBO393190:WBO393342 WLK393190:WLK393342 WVG393190:WVG393342 H458726:H458878 IU458726:IU458878 SQ458726:SQ458878 ACM458726:ACM458878 AMI458726:AMI458878 AWE458726:AWE458878 BGA458726:BGA458878 BPW458726:BPW458878 BZS458726:BZS458878 CJO458726:CJO458878 CTK458726:CTK458878 DDG458726:DDG458878 DNC458726:DNC458878 DWY458726:DWY458878 EGU458726:EGU458878 EQQ458726:EQQ458878 FAM458726:FAM458878 FKI458726:FKI458878 FUE458726:FUE458878 GEA458726:GEA458878 GNW458726:GNW458878 GXS458726:GXS458878 HHO458726:HHO458878 HRK458726:HRK458878 IBG458726:IBG458878 ILC458726:ILC458878 IUY458726:IUY458878 JEU458726:JEU458878 JOQ458726:JOQ458878 JYM458726:JYM458878 KII458726:KII458878 KSE458726:KSE458878 LCA458726:LCA458878 LLW458726:LLW458878 LVS458726:LVS458878 MFO458726:MFO458878 MPK458726:MPK458878 MZG458726:MZG458878 NJC458726:NJC458878 NSY458726:NSY458878 OCU458726:OCU458878 OMQ458726:OMQ458878 OWM458726:OWM458878 PGI458726:PGI458878 PQE458726:PQE458878 QAA458726:QAA458878 QJW458726:QJW458878 QTS458726:QTS458878 RDO458726:RDO458878 RNK458726:RNK458878 RXG458726:RXG458878 SHC458726:SHC458878 SQY458726:SQY458878 TAU458726:TAU458878 TKQ458726:TKQ458878 TUM458726:TUM458878 UEI458726:UEI458878 UOE458726:UOE458878 UYA458726:UYA458878 VHW458726:VHW458878 VRS458726:VRS458878 WBO458726:WBO458878 WLK458726:WLK458878 WVG458726:WVG458878 H524262:H524414 IU524262:IU524414 SQ524262:SQ524414 ACM524262:ACM524414 AMI524262:AMI524414 AWE524262:AWE524414 BGA524262:BGA524414 BPW524262:BPW524414 BZS524262:BZS524414 CJO524262:CJO524414 CTK524262:CTK524414 DDG524262:DDG524414 DNC524262:DNC524414 DWY524262:DWY524414 EGU524262:EGU524414 EQQ524262:EQQ524414 FAM524262:FAM524414 FKI524262:FKI524414 FUE524262:FUE524414 GEA524262:GEA524414 GNW524262:GNW524414 GXS524262:GXS524414 HHO524262:HHO524414 HRK524262:HRK524414 IBG524262:IBG524414 ILC524262:ILC524414 IUY524262:IUY524414 JEU524262:JEU524414 JOQ524262:JOQ524414 JYM524262:JYM524414 KII524262:KII524414 KSE524262:KSE524414 LCA524262:LCA524414 LLW524262:LLW524414 LVS524262:LVS524414 MFO524262:MFO524414 MPK524262:MPK524414 MZG524262:MZG524414 NJC524262:NJC524414 NSY524262:NSY524414 OCU524262:OCU524414 OMQ524262:OMQ524414 OWM524262:OWM524414 PGI524262:PGI524414 PQE524262:PQE524414 QAA524262:QAA524414 QJW524262:QJW524414 QTS524262:QTS524414 RDO524262:RDO524414 RNK524262:RNK524414 RXG524262:RXG524414 SHC524262:SHC524414 SQY524262:SQY524414 TAU524262:TAU524414 TKQ524262:TKQ524414 TUM524262:TUM524414 UEI524262:UEI524414 UOE524262:UOE524414 UYA524262:UYA524414 VHW524262:VHW524414 VRS524262:VRS524414 WBO524262:WBO524414 WLK524262:WLK524414 WVG524262:WVG524414 H589798:H589950 IU589798:IU589950 SQ589798:SQ589950 ACM589798:ACM589950 AMI589798:AMI589950 AWE589798:AWE589950 BGA589798:BGA589950 BPW589798:BPW589950 BZS589798:BZS589950 CJO589798:CJO589950 CTK589798:CTK589950 DDG589798:DDG589950 DNC589798:DNC589950 DWY589798:DWY589950 EGU589798:EGU589950 EQQ589798:EQQ589950 FAM589798:FAM589950 FKI589798:FKI589950 FUE589798:FUE589950 GEA589798:GEA589950 GNW589798:GNW589950 GXS589798:GXS589950 HHO589798:HHO589950 HRK589798:HRK589950 IBG589798:IBG589950 ILC589798:ILC589950 IUY589798:IUY589950 JEU589798:JEU589950 JOQ589798:JOQ589950 JYM589798:JYM589950 KII589798:KII589950 KSE589798:KSE589950 LCA589798:LCA589950 LLW589798:LLW589950 LVS589798:LVS589950 MFO589798:MFO589950 MPK589798:MPK589950 MZG589798:MZG589950 NJC589798:NJC589950 NSY589798:NSY589950 OCU589798:OCU589950 OMQ589798:OMQ589950 OWM589798:OWM589950 PGI589798:PGI589950 PQE589798:PQE589950 QAA589798:QAA589950 QJW589798:QJW589950 QTS589798:QTS589950 RDO589798:RDO589950 RNK589798:RNK589950 RXG589798:RXG589950 SHC589798:SHC589950 SQY589798:SQY589950 TAU589798:TAU589950 TKQ589798:TKQ589950 TUM589798:TUM589950 UEI589798:UEI589950 UOE589798:UOE589950 UYA589798:UYA589950 VHW589798:VHW589950 VRS589798:VRS589950 WBO589798:WBO589950 WLK589798:WLK589950 WVG589798:WVG589950 H655334:H655486 IU655334:IU655486 SQ655334:SQ655486 ACM655334:ACM655486 AMI655334:AMI655486 AWE655334:AWE655486 BGA655334:BGA655486 BPW655334:BPW655486 BZS655334:BZS655486 CJO655334:CJO655486 CTK655334:CTK655486 DDG655334:DDG655486 DNC655334:DNC655486 DWY655334:DWY655486 EGU655334:EGU655486 EQQ655334:EQQ655486 FAM655334:FAM655486 FKI655334:FKI655486 FUE655334:FUE655486 GEA655334:GEA655486 GNW655334:GNW655486 GXS655334:GXS655486 HHO655334:HHO655486 HRK655334:HRK655486 IBG655334:IBG655486 ILC655334:ILC655486 IUY655334:IUY655486 JEU655334:JEU655486 JOQ655334:JOQ655486 JYM655334:JYM655486 KII655334:KII655486 KSE655334:KSE655486 LCA655334:LCA655486 LLW655334:LLW655486 LVS655334:LVS655486 MFO655334:MFO655486 MPK655334:MPK655486 MZG655334:MZG655486 NJC655334:NJC655486 NSY655334:NSY655486 OCU655334:OCU655486 OMQ655334:OMQ655486 OWM655334:OWM655486 PGI655334:PGI655486 PQE655334:PQE655486 QAA655334:QAA655486 QJW655334:QJW655486 QTS655334:QTS655486 RDO655334:RDO655486 RNK655334:RNK655486 RXG655334:RXG655486 SHC655334:SHC655486 SQY655334:SQY655486 TAU655334:TAU655486 TKQ655334:TKQ655486 TUM655334:TUM655486 UEI655334:UEI655486 UOE655334:UOE655486 UYA655334:UYA655486 VHW655334:VHW655486 VRS655334:VRS655486 WBO655334:WBO655486 WLK655334:WLK655486 WVG655334:WVG655486 H720870:H721022 IU720870:IU721022 SQ720870:SQ721022 ACM720870:ACM721022 AMI720870:AMI721022 AWE720870:AWE721022 BGA720870:BGA721022 BPW720870:BPW721022 BZS720870:BZS721022 CJO720870:CJO721022 CTK720870:CTK721022 DDG720870:DDG721022 DNC720870:DNC721022 DWY720870:DWY721022 EGU720870:EGU721022 EQQ720870:EQQ721022 FAM720870:FAM721022 FKI720870:FKI721022 FUE720870:FUE721022 GEA720870:GEA721022 GNW720870:GNW721022 GXS720870:GXS721022 HHO720870:HHO721022 HRK720870:HRK721022 IBG720870:IBG721022 ILC720870:ILC721022 IUY720870:IUY721022 JEU720870:JEU721022 JOQ720870:JOQ721022 JYM720870:JYM721022 KII720870:KII721022 KSE720870:KSE721022 LCA720870:LCA721022 LLW720870:LLW721022 LVS720870:LVS721022 MFO720870:MFO721022 MPK720870:MPK721022 MZG720870:MZG721022 NJC720870:NJC721022 NSY720870:NSY721022 OCU720870:OCU721022 OMQ720870:OMQ721022 OWM720870:OWM721022 PGI720870:PGI721022 PQE720870:PQE721022 QAA720870:QAA721022 QJW720870:QJW721022 QTS720870:QTS721022 RDO720870:RDO721022 RNK720870:RNK721022 RXG720870:RXG721022 SHC720870:SHC721022 SQY720870:SQY721022 TAU720870:TAU721022 TKQ720870:TKQ721022 TUM720870:TUM721022 UEI720870:UEI721022 UOE720870:UOE721022 UYA720870:UYA721022 VHW720870:VHW721022 VRS720870:VRS721022 WBO720870:WBO721022 WLK720870:WLK721022 WVG720870:WVG721022 H786406:H786558 IU786406:IU786558 SQ786406:SQ786558 ACM786406:ACM786558 AMI786406:AMI786558 AWE786406:AWE786558 BGA786406:BGA786558 BPW786406:BPW786558 BZS786406:BZS786558 CJO786406:CJO786558 CTK786406:CTK786558 DDG786406:DDG786558 DNC786406:DNC786558 DWY786406:DWY786558 EGU786406:EGU786558 EQQ786406:EQQ786558 FAM786406:FAM786558 FKI786406:FKI786558 FUE786406:FUE786558 GEA786406:GEA786558 GNW786406:GNW786558 GXS786406:GXS786558 HHO786406:HHO786558 HRK786406:HRK786558 IBG786406:IBG786558 ILC786406:ILC786558 IUY786406:IUY786558 JEU786406:JEU786558 JOQ786406:JOQ786558 JYM786406:JYM786558 KII786406:KII786558 KSE786406:KSE786558 LCA786406:LCA786558 LLW786406:LLW786558 LVS786406:LVS786558 MFO786406:MFO786558 MPK786406:MPK786558 MZG786406:MZG786558 NJC786406:NJC786558 NSY786406:NSY786558 OCU786406:OCU786558 OMQ786406:OMQ786558 OWM786406:OWM786558 PGI786406:PGI786558 PQE786406:PQE786558 QAA786406:QAA786558 QJW786406:QJW786558 QTS786406:QTS786558 RDO786406:RDO786558 RNK786406:RNK786558 RXG786406:RXG786558 SHC786406:SHC786558 SQY786406:SQY786558 TAU786406:TAU786558 TKQ786406:TKQ786558 TUM786406:TUM786558 UEI786406:UEI786558 UOE786406:UOE786558 UYA786406:UYA786558 VHW786406:VHW786558 VRS786406:VRS786558 WBO786406:WBO786558 WLK786406:WLK786558 WVG786406:WVG786558 H851942:H852094 IU851942:IU852094 SQ851942:SQ852094 ACM851942:ACM852094 AMI851942:AMI852094 AWE851942:AWE852094 BGA851942:BGA852094 BPW851942:BPW852094 BZS851942:BZS852094 CJO851942:CJO852094 CTK851942:CTK852094 DDG851942:DDG852094 DNC851942:DNC852094 DWY851942:DWY852094 EGU851942:EGU852094 EQQ851942:EQQ852094 FAM851942:FAM852094 FKI851942:FKI852094 FUE851942:FUE852094 GEA851942:GEA852094 GNW851942:GNW852094 GXS851942:GXS852094 HHO851942:HHO852094 HRK851942:HRK852094 IBG851942:IBG852094 ILC851942:ILC852094 IUY851942:IUY852094 JEU851942:JEU852094 JOQ851942:JOQ852094 JYM851942:JYM852094 KII851942:KII852094 KSE851942:KSE852094 LCA851942:LCA852094 LLW851942:LLW852094 LVS851942:LVS852094 MFO851942:MFO852094 MPK851942:MPK852094 MZG851942:MZG852094 NJC851942:NJC852094 NSY851942:NSY852094 OCU851942:OCU852094 OMQ851942:OMQ852094 OWM851942:OWM852094 PGI851942:PGI852094 PQE851942:PQE852094 QAA851942:QAA852094 QJW851942:QJW852094 QTS851942:QTS852094 RDO851942:RDO852094 RNK851942:RNK852094 RXG851942:RXG852094 SHC851942:SHC852094 SQY851942:SQY852094 TAU851942:TAU852094 TKQ851942:TKQ852094 TUM851942:TUM852094 UEI851942:UEI852094 UOE851942:UOE852094 UYA851942:UYA852094 VHW851942:VHW852094 VRS851942:VRS852094 WBO851942:WBO852094 WLK851942:WLK852094 WVG851942:WVG852094 H917478:H917630 IU917478:IU917630 SQ917478:SQ917630 ACM917478:ACM917630 AMI917478:AMI917630 AWE917478:AWE917630 BGA917478:BGA917630 BPW917478:BPW917630 BZS917478:BZS917630 CJO917478:CJO917630 CTK917478:CTK917630 DDG917478:DDG917630 DNC917478:DNC917630 DWY917478:DWY917630 EGU917478:EGU917630 EQQ917478:EQQ917630 FAM917478:FAM917630 FKI917478:FKI917630 FUE917478:FUE917630 GEA917478:GEA917630 GNW917478:GNW917630 GXS917478:GXS917630 HHO917478:HHO917630 HRK917478:HRK917630 IBG917478:IBG917630 ILC917478:ILC917630 IUY917478:IUY917630 JEU917478:JEU917630 JOQ917478:JOQ917630 JYM917478:JYM917630 KII917478:KII917630 KSE917478:KSE917630 LCA917478:LCA917630 LLW917478:LLW917630 LVS917478:LVS917630 MFO917478:MFO917630 MPK917478:MPK917630 MZG917478:MZG917630 NJC917478:NJC917630 NSY917478:NSY917630 OCU917478:OCU917630 OMQ917478:OMQ917630 OWM917478:OWM917630 PGI917478:PGI917630 PQE917478:PQE917630 QAA917478:QAA917630 QJW917478:QJW917630 QTS917478:QTS917630 RDO917478:RDO917630 RNK917478:RNK917630 RXG917478:RXG917630 SHC917478:SHC917630 SQY917478:SQY917630 TAU917478:TAU917630 TKQ917478:TKQ917630 TUM917478:TUM917630 UEI917478:UEI917630 UOE917478:UOE917630 UYA917478:UYA917630 VHW917478:VHW917630 VRS917478:VRS917630 WBO917478:WBO917630 WLK917478:WLK917630 WVG917478:WVG917630 H983014:H983166 IU983014:IU983166 SQ983014:SQ983166 ACM983014:ACM983166 AMI983014:AMI983166 AWE983014:AWE983166 BGA983014:BGA983166 BPW983014:BPW983166 BZS983014:BZS983166 CJO983014:CJO983166 CTK983014:CTK983166 DDG983014:DDG983166 DNC983014:DNC983166 DWY983014:DWY983166 EGU983014:EGU983166 EQQ983014:EQQ983166 FAM983014:FAM983166 FKI983014:FKI983166 FUE983014:FUE983166 GEA983014:GEA983166 GNW983014:GNW983166 GXS983014:GXS983166 HHO983014:HHO983166 HRK983014:HRK983166 IBG983014:IBG983166 ILC983014:ILC983166 IUY983014:IUY983166 JEU983014:JEU983166 JOQ983014:JOQ983166 JYM983014:JYM983166 KII983014:KII983166 KSE983014:KSE983166 LCA983014:LCA983166 LLW983014:LLW983166 LVS983014:LVS983166 MFO983014:MFO983166 MPK983014:MPK983166 MZG983014:MZG983166 NJC983014:NJC983166 NSY983014:NSY983166 OCU983014:OCU983166 OMQ983014:OMQ983166 OWM983014:OWM983166 PGI983014:PGI983166 PQE983014:PQE983166 QAA983014:QAA983166 QJW983014:QJW983166 QTS983014:QTS983166 RDO983014:RDO983166 RNK983014:RNK983166 RXG983014:RXG983166 SHC983014:SHC983166 SQY983014:SQY983166 TAU983014:TAU983166 TKQ983014:TKQ983166 TUM983014:TUM983166 UEI983014:UEI983166 UOE983014:UOE983166 UYA983014:UYA983166 VHW983014:VHW983166 VRS983014:VRS983166 WBO983014:WBO983166 WLK983014:WLK983166 H86:H126 IU7:IU126 WVG7:WVG126 WLK7:WLK126 WBO7:WBO126 VRS7:VRS126 VHW7:VHW126 UYA7:UYA126 UOE7:UOE126 UEI7:UEI126 TUM7:TUM126 TKQ7:TKQ126 TAU7:TAU126 SQY7:SQY126 SHC7:SHC126 RXG7:RXG126 RNK7:RNK126 RDO7:RDO126 QTS7:QTS126 QJW7:QJW126 QAA7:QAA126 PQE7:PQE126 PGI7:PGI126 OWM7:OWM126 OMQ7:OMQ126 OCU7:OCU126 NSY7:NSY126 NJC7:NJC126 MZG7:MZG126 MPK7:MPK126 MFO7:MFO126 LVS7:LVS126 LLW7:LLW126 LCA7:LCA126 KSE7:KSE126 KII7:KII126 JYM7:JYM126 JOQ7:JOQ126 JEU7:JEU126 IUY7:IUY126 ILC7:ILC126 IBG7:IBG126 HRK7:HRK126 HHO7:HHO126 GXS7:GXS126 GNW7:GNW126 GEA7:GEA126 FUE7:FUE126 FKI7:FKI126 FAM7:FAM126 EQQ7:EQQ126 EGU7:EGU126 DWY7:DWY126 DNC7:DNC126 DDG7:DDG126 CTK7:CTK126 CJO7:CJO126 BZS7:BZS126 BPW7:BPW126 BGA7:BGA126 AWE7:AWE126 AMI7:AMI126 ACM7:ACM126 SQ7:SQ126 H7:H77" xr:uid="{95EF879B-E274-4E02-9B97-55BA2F142327}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVG983011:WVG983163 H65507:H65659 IU65507:IU65659 SQ65507:SQ65659 ACM65507:ACM65659 AMI65507:AMI65659 AWE65507:AWE65659 BGA65507:BGA65659 BPW65507:BPW65659 BZS65507:BZS65659 CJO65507:CJO65659 CTK65507:CTK65659 DDG65507:DDG65659 DNC65507:DNC65659 DWY65507:DWY65659 EGU65507:EGU65659 EQQ65507:EQQ65659 FAM65507:FAM65659 FKI65507:FKI65659 FUE65507:FUE65659 GEA65507:GEA65659 GNW65507:GNW65659 GXS65507:GXS65659 HHO65507:HHO65659 HRK65507:HRK65659 IBG65507:IBG65659 ILC65507:ILC65659 IUY65507:IUY65659 JEU65507:JEU65659 JOQ65507:JOQ65659 JYM65507:JYM65659 KII65507:KII65659 KSE65507:KSE65659 LCA65507:LCA65659 LLW65507:LLW65659 LVS65507:LVS65659 MFO65507:MFO65659 MPK65507:MPK65659 MZG65507:MZG65659 NJC65507:NJC65659 NSY65507:NSY65659 OCU65507:OCU65659 OMQ65507:OMQ65659 OWM65507:OWM65659 PGI65507:PGI65659 PQE65507:PQE65659 QAA65507:QAA65659 QJW65507:QJW65659 QTS65507:QTS65659 RDO65507:RDO65659 RNK65507:RNK65659 RXG65507:RXG65659 SHC65507:SHC65659 SQY65507:SQY65659 TAU65507:TAU65659 TKQ65507:TKQ65659 TUM65507:TUM65659 UEI65507:UEI65659 UOE65507:UOE65659 UYA65507:UYA65659 VHW65507:VHW65659 VRS65507:VRS65659 WBO65507:WBO65659 WLK65507:WLK65659 WVG65507:WVG65659 H131043:H131195 IU131043:IU131195 SQ131043:SQ131195 ACM131043:ACM131195 AMI131043:AMI131195 AWE131043:AWE131195 BGA131043:BGA131195 BPW131043:BPW131195 BZS131043:BZS131195 CJO131043:CJO131195 CTK131043:CTK131195 DDG131043:DDG131195 DNC131043:DNC131195 DWY131043:DWY131195 EGU131043:EGU131195 EQQ131043:EQQ131195 FAM131043:FAM131195 FKI131043:FKI131195 FUE131043:FUE131195 GEA131043:GEA131195 GNW131043:GNW131195 GXS131043:GXS131195 HHO131043:HHO131195 HRK131043:HRK131195 IBG131043:IBG131195 ILC131043:ILC131195 IUY131043:IUY131195 JEU131043:JEU131195 JOQ131043:JOQ131195 JYM131043:JYM131195 KII131043:KII131195 KSE131043:KSE131195 LCA131043:LCA131195 LLW131043:LLW131195 LVS131043:LVS131195 MFO131043:MFO131195 MPK131043:MPK131195 MZG131043:MZG131195 NJC131043:NJC131195 NSY131043:NSY131195 OCU131043:OCU131195 OMQ131043:OMQ131195 OWM131043:OWM131195 PGI131043:PGI131195 PQE131043:PQE131195 QAA131043:QAA131195 QJW131043:QJW131195 QTS131043:QTS131195 RDO131043:RDO131195 RNK131043:RNK131195 RXG131043:RXG131195 SHC131043:SHC131195 SQY131043:SQY131195 TAU131043:TAU131195 TKQ131043:TKQ131195 TUM131043:TUM131195 UEI131043:UEI131195 UOE131043:UOE131195 UYA131043:UYA131195 VHW131043:VHW131195 VRS131043:VRS131195 WBO131043:WBO131195 WLK131043:WLK131195 WVG131043:WVG131195 H196579:H196731 IU196579:IU196731 SQ196579:SQ196731 ACM196579:ACM196731 AMI196579:AMI196731 AWE196579:AWE196731 BGA196579:BGA196731 BPW196579:BPW196731 BZS196579:BZS196731 CJO196579:CJO196731 CTK196579:CTK196731 DDG196579:DDG196731 DNC196579:DNC196731 DWY196579:DWY196731 EGU196579:EGU196731 EQQ196579:EQQ196731 FAM196579:FAM196731 FKI196579:FKI196731 FUE196579:FUE196731 GEA196579:GEA196731 GNW196579:GNW196731 GXS196579:GXS196731 HHO196579:HHO196731 HRK196579:HRK196731 IBG196579:IBG196731 ILC196579:ILC196731 IUY196579:IUY196731 JEU196579:JEU196731 JOQ196579:JOQ196731 JYM196579:JYM196731 KII196579:KII196731 KSE196579:KSE196731 LCA196579:LCA196731 LLW196579:LLW196731 LVS196579:LVS196731 MFO196579:MFO196731 MPK196579:MPK196731 MZG196579:MZG196731 NJC196579:NJC196731 NSY196579:NSY196731 OCU196579:OCU196731 OMQ196579:OMQ196731 OWM196579:OWM196731 PGI196579:PGI196731 PQE196579:PQE196731 QAA196579:QAA196731 QJW196579:QJW196731 QTS196579:QTS196731 RDO196579:RDO196731 RNK196579:RNK196731 RXG196579:RXG196731 SHC196579:SHC196731 SQY196579:SQY196731 TAU196579:TAU196731 TKQ196579:TKQ196731 TUM196579:TUM196731 UEI196579:UEI196731 UOE196579:UOE196731 UYA196579:UYA196731 VHW196579:VHW196731 VRS196579:VRS196731 WBO196579:WBO196731 WLK196579:WLK196731 WVG196579:WVG196731 H262115:H262267 IU262115:IU262267 SQ262115:SQ262267 ACM262115:ACM262267 AMI262115:AMI262267 AWE262115:AWE262267 BGA262115:BGA262267 BPW262115:BPW262267 BZS262115:BZS262267 CJO262115:CJO262267 CTK262115:CTK262267 DDG262115:DDG262267 DNC262115:DNC262267 DWY262115:DWY262267 EGU262115:EGU262267 EQQ262115:EQQ262267 FAM262115:FAM262267 FKI262115:FKI262267 FUE262115:FUE262267 GEA262115:GEA262267 GNW262115:GNW262267 GXS262115:GXS262267 HHO262115:HHO262267 HRK262115:HRK262267 IBG262115:IBG262267 ILC262115:ILC262267 IUY262115:IUY262267 JEU262115:JEU262267 JOQ262115:JOQ262267 JYM262115:JYM262267 KII262115:KII262267 KSE262115:KSE262267 LCA262115:LCA262267 LLW262115:LLW262267 LVS262115:LVS262267 MFO262115:MFO262267 MPK262115:MPK262267 MZG262115:MZG262267 NJC262115:NJC262267 NSY262115:NSY262267 OCU262115:OCU262267 OMQ262115:OMQ262267 OWM262115:OWM262267 PGI262115:PGI262267 PQE262115:PQE262267 QAA262115:QAA262267 QJW262115:QJW262267 QTS262115:QTS262267 RDO262115:RDO262267 RNK262115:RNK262267 RXG262115:RXG262267 SHC262115:SHC262267 SQY262115:SQY262267 TAU262115:TAU262267 TKQ262115:TKQ262267 TUM262115:TUM262267 UEI262115:UEI262267 UOE262115:UOE262267 UYA262115:UYA262267 VHW262115:VHW262267 VRS262115:VRS262267 WBO262115:WBO262267 WLK262115:WLK262267 WVG262115:WVG262267 H327651:H327803 IU327651:IU327803 SQ327651:SQ327803 ACM327651:ACM327803 AMI327651:AMI327803 AWE327651:AWE327803 BGA327651:BGA327803 BPW327651:BPW327803 BZS327651:BZS327803 CJO327651:CJO327803 CTK327651:CTK327803 DDG327651:DDG327803 DNC327651:DNC327803 DWY327651:DWY327803 EGU327651:EGU327803 EQQ327651:EQQ327803 FAM327651:FAM327803 FKI327651:FKI327803 FUE327651:FUE327803 GEA327651:GEA327803 GNW327651:GNW327803 GXS327651:GXS327803 HHO327651:HHO327803 HRK327651:HRK327803 IBG327651:IBG327803 ILC327651:ILC327803 IUY327651:IUY327803 JEU327651:JEU327803 JOQ327651:JOQ327803 JYM327651:JYM327803 KII327651:KII327803 KSE327651:KSE327803 LCA327651:LCA327803 LLW327651:LLW327803 LVS327651:LVS327803 MFO327651:MFO327803 MPK327651:MPK327803 MZG327651:MZG327803 NJC327651:NJC327803 NSY327651:NSY327803 OCU327651:OCU327803 OMQ327651:OMQ327803 OWM327651:OWM327803 PGI327651:PGI327803 PQE327651:PQE327803 QAA327651:QAA327803 QJW327651:QJW327803 QTS327651:QTS327803 RDO327651:RDO327803 RNK327651:RNK327803 RXG327651:RXG327803 SHC327651:SHC327803 SQY327651:SQY327803 TAU327651:TAU327803 TKQ327651:TKQ327803 TUM327651:TUM327803 UEI327651:UEI327803 UOE327651:UOE327803 UYA327651:UYA327803 VHW327651:VHW327803 VRS327651:VRS327803 WBO327651:WBO327803 WLK327651:WLK327803 WVG327651:WVG327803 H393187:H393339 IU393187:IU393339 SQ393187:SQ393339 ACM393187:ACM393339 AMI393187:AMI393339 AWE393187:AWE393339 BGA393187:BGA393339 BPW393187:BPW393339 BZS393187:BZS393339 CJO393187:CJO393339 CTK393187:CTK393339 DDG393187:DDG393339 DNC393187:DNC393339 DWY393187:DWY393339 EGU393187:EGU393339 EQQ393187:EQQ393339 FAM393187:FAM393339 FKI393187:FKI393339 FUE393187:FUE393339 GEA393187:GEA393339 GNW393187:GNW393339 GXS393187:GXS393339 HHO393187:HHO393339 HRK393187:HRK393339 IBG393187:IBG393339 ILC393187:ILC393339 IUY393187:IUY393339 JEU393187:JEU393339 JOQ393187:JOQ393339 JYM393187:JYM393339 KII393187:KII393339 KSE393187:KSE393339 LCA393187:LCA393339 LLW393187:LLW393339 LVS393187:LVS393339 MFO393187:MFO393339 MPK393187:MPK393339 MZG393187:MZG393339 NJC393187:NJC393339 NSY393187:NSY393339 OCU393187:OCU393339 OMQ393187:OMQ393339 OWM393187:OWM393339 PGI393187:PGI393339 PQE393187:PQE393339 QAA393187:QAA393339 QJW393187:QJW393339 QTS393187:QTS393339 RDO393187:RDO393339 RNK393187:RNK393339 RXG393187:RXG393339 SHC393187:SHC393339 SQY393187:SQY393339 TAU393187:TAU393339 TKQ393187:TKQ393339 TUM393187:TUM393339 UEI393187:UEI393339 UOE393187:UOE393339 UYA393187:UYA393339 VHW393187:VHW393339 VRS393187:VRS393339 WBO393187:WBO393339 WLK393187:WLK393339 WVG393187:WVG393339 H458723:H458875 IU458723:IU458875 SQ458723:SQ458875 ACM458723:ACM458875 AMI458723:AMI458875 AWE458723:AWE458875 BGA458723:BGA458875 BPW458723:BPW458875 BZS458723:BZS458875 CJO458723:CJO458875 CTK458723:CTK458875 DDG458723:DDG458875 DNC458723:DNC458875 DWY458723:DWY458875 EGU458723:EGU458875 EQQ458723:EQQ458875 FAM458723:FAM458875 FKI458723:FKI458875 FUE458723:FUE458875 GEA458723:GEA458875 GNW458723:GNW458875 GXS458723:GXS458875 HHO458723:HHO458875 HRK458723:HRK458875 IBG458723:IBG458875 ILC458723:ILC458875 IUY458723:IUY458875 JEU458723:JEU458875 JOQ458723:JOQ458875 JYM458723:JYM458875 KII458723:KII458875 KSE458723:KSE458875 LCA458723:LCA458875 LLW458723:LLW458875 LVS458723:LVS458875 MFO458723:MFO458875 MPK458723:MPK458875 MZG458723:MZG458875 NJC458723:NJC458875 NSY458723:NSY458875 OCU458723:OCU458875 OMQ458723:OMQ458875 OWM458723:OWM458875 PGI458723:PGI458875 PQE458723:PQE458875 QAA458723:QAA458875 QJW458723:QJW458875 QTS458723:QTS458875 RDO458723:RDO458875 RNK458723:RNK458875 RXG458723:RXG458875 SHC458723:SHC458875 SQY458723:SQY458875 TAU458723:TAU458875 TKQ458723:TKQ458875 TUM458723:TUM458875 UEI458723:UEI458875 UOE458723:UOE458875 UYA458723:UYA458875 VHW458723:VHW458875 VRS458723:VRS458875 WBO458723:WBO458875 WLK458723:WLK458875 WVG458723:WVG458875 H524259:H524411 IU524259:IU524411 SQ524259:SQ524411 ACM524259:ACM524411 AMI524259:AMI524411 AWE524259:AWE524411 BGA524259:BGA524411 BPW524259:BPW524411 BZS524259:BZS524411 CJO524259:CJO524411 CTK524259:CTK524411 DDG524259:DDG524411 DNC524259:DNC524411 DWY524259:DWY524411 EGU524259:EGU524411 EQQ524259:EQQ524411 FAM524259:FAM524411 FKI524259:FKI524411 FUE524259:FUE524411 GEA524259:GEA524411 GNW524259:GNW524411 GXS524259:GXS524411 HHO524259:HHO524411 HRK524259:HRK524411 IBG524259:IBG524411 ILC524259:ILC524411 IUY524259:IUY524411 JEU524259:JEU524411 JOQ524259:JOQ524411 JYM524259:JYM524411 KII524259:KII524411 KSE524259:KSE524411 LCA524259:LCA524411 LLW524259:LLW524411 LVS524259:LVS524411 MFO524259:MFO524411 MPK524259:MPK524411 MZG524259:MZG524411 NJC524259:NJC524411 NSY524259:NSY524411 OCU524259:OCU524411 OMQ524259:OMQ524411 OWM524259:OWM524411 PGI524259:PGI524411 PQE524259:PQE524411 QAA524259:QAA524411 QJW524259:QJW524411 QTS524259:QTS524411 RDO524259:RDO524411 RNK524259:RNK524411 RXG524259:RXG524411 SHC524259:SHC524411 SQY524259:SQY524411 TAU524259:TAU524411 TKQ524259:TKQ524411 TUM524259:TUM524411 UEI524259:UEI524411 UOE524259:UOE524411 UYA524259:UYA524411 VHW524259:VHW524411 VRS524259:VRS524411 WBO524259:WBO524411 WLK524259:WLK524411 WVG524259:WVG524411 H589795:H589947 IU589795:IU589947 SQ589795:SQ589947 ACM589795:ACM589947 AMI589795:AMI589947 AWE589795:AWE589947 BGA589795:BGA589947 BPW589795:BPW589947 BZS589795:BZS589947 CJO589795:CJO589947 CTK589795:CTK589947 DDG589795:DDG589947 DNC589795:DNC589947 DWY589795:DWY589947 EGU589795:EGU589947 EQQ589795:EQQ589947 FAM589795:FAM589947 FKI589795:FKI589947 FUE589795:FUE589947 GEA589795:GEA589947 GNW589795:GNW589947 GXS589795:GXS589947 HHO589795:HHO589947 HRK589795:HRK589947 IBG589795:IBG589947 ILC589795:ILC589947 IUY589795:IUY589947 JEU589795:JEU589947 JOQ589795:JOQ589947 JYM589795:JYM589947 KII589795:KII589947 KSE589795:KSE589947 LCA589795:LCA589947 LLW589795:LLW589947 LVS589795:LVS589947 MFO589795:MFO589947 MPK589795:MPK589947 MZG589795:MZG589947 NJC589795:NJC589947 NSY589795:NSY589947 OCU589795:OCU589947 OMQ589795:OMQ589947 OWM589795:OWM589947 PGI589795:PGI589947 PQE589795:PQE589947 QAA589795:QAA589947 QJW589795:QJW589947 QTS589795:QTS589947 RDO589795:RDO589947 RNK589795:RNK589947 RXG589795:RXG589947 SHC589795:SHC589947 SQY589795:SQY589947 TAU589795:TAU589947 TKQ589795:TKQ589947 TUM589795:TUM589947 UEI589795:UEI589947 UOE589795:UOE589947 UYA589795:UYA589947 VHW589795:VHW589947 VRS589795:VRS589947 WBO589795:WBO589947 WLK589795:WLK589947 WVG589795:WVG589947 H655331:H655483 IU655331:IU655483 SQ655331:SQ655483 ACM655331:ACM655483 AMI655331:AMI655483 AWE655331:AWE655483 BGA655331:BGA655483 BPW655331:BPW655483 BZS655331:BZS655483 CJO655331:CJO655483 CTK655331:CTK655483 DDG655331:DDG655483 DNC655331:DNC655483 DWY655331:DWY655483 EGU655331:EGU655483 EQQ655331:EQQ655483 FAM655331:FAM655483 FKI655331:FKI655483 FUE655331:FUE655483 GEA655331:GEA655483 GNW655331:GNW655483 GXS655331:GXS655483 HHO655331:HHO655483 HRK655331:HRK655483 IBG655331:IBG655483 ILC655331:ILC655483 IUY655331:IUY655483 JEU655331:JEU655483 JOQ655331:JOQ655483 JYM655331:JYM655483 KII655331:KII655483 KSE655331:KSE655483 LCA655331:LCA655483 LLW655331:LLW655483 LVS655331:LVS655483 MFO655331:MFO655483 MPK655331:MPK655483 MZG655331:MZG655483 NJC655331:NJC655483 NSY655331:NSY655483 OCU655331:OCU655483 OMQ655331:OMQ655483 OWM655331:OWM655483 PGI655331:PGI655483 PQE655331:PQE655483 QAA655331:QAA655483 QJW655331:QJW655483 QTS655331:QTS655483 RDO655331:RDO655483 RNK655331:RNK655483 RXG655331:RXG655483 SHC655331:SHC655483 SQY655331:SQY655483 TAU655331:TAU655483 TKQ655331:TKQ655483 TUM655331:TUM655483 UEI655331:UEI655483 UOE655331:UOE655483 UYA655331:UYA655483 VHW655331:VHW655483 VRS655331:VRS655483 WBO655331:WBO655483 WLK655331:WLK655483 WVG655331:WVG655483 H720867:H721019 IU720867:IU721019 SQ720867:SQ721019 ACM720867:ACM721019 AMI720867:AMI721019 AWE720867:AWE721019 BGA720867:BGA721019 BPW720867:BPW721019 BZS720867:BZS721019 CJO720867:CJO721019 CTK720867:CTK721019 DDG720867:DDG721019 DNC720867:DNC721019 DWY720867:DWY721019 EGU720867:EGU721019 EQQ720867:EQQ721019 FAM720867:FAM721019 FKI720867:FKI721019 FUE720867:FUE721019 GEA720867:GEA721019 GNW720867:GNW721019 GXS720867:GXS721019 HHO720867:HHO721019 HRK720867:HRK721019 IBG720867:IBG721019 ILC720867:ILC721019 IUY720867:IUY721019 JEU720867:JEU721019 JOQ720867:JOQ721019 JYM720867:JYM721019 KII720867:KII721019 KSE720867:KSE721019 LCA720867:LCA721019 LLW720867:LLW721019 LVS720867:LVS721019 MFO720867:MFO721019 MPK720867:MPK721019 MZG720867:MZG721019 NJC720867:NJC721019 NSY720867:NSY721019 OCU720867:OCU721019 OMQ720867:OMQ721019 OWM720867:OWM721019 PGI720867:PGI721019 PQE720867:PQE721019 QAA720867:QAA721019 QJW720867:QJW721019 QTS720867:QTS721019 RDO720867:RDO721019 RNK720867:RNK721019 RXG720867:RXG721019 SHC720867:SHC721019 SQY720867:SQY721019 TAU720867:TAU721019 TKQ720867:TKQ721019 TUM720867:TUM721019 UEI720867:UEI721019 UOE720867:UOE721019 UYA720867:UYA721019 VHW720867:VHW721019 VRS720867:VRS721019 WBO720867:WBO721019 WLK720867:WLK721019 WVG720867:WVG721019 H786403:H786555 IU786403:IU786555 SQ786403:SQ786555 ACM786403:ACM786555 AMI786403:AMI786555 AWE786403:AWE786555 BGA786403:BGA786555 BPW786403:BPW786555 BZS786403:BZS786555 CJO786403:CJO786555 CTK786403:CTK786555 DDG786403:DDG786555 DNC786403:DNC786555 DWY786403:DWY786555 EGU786403:EGU786555 EQQ786403:EQQ786555 FAM786403:FAM786555 FKI786403:FKI786555 FUE786403:FUE786555 GEA786403:GEA786555 GNW786403:GNW786555 GXS786403:GXS786555 HHO786403:HHO786555 HRK786403:HRK786555 IBG786403:IBG786555 ILC786403:ILC786555 IUY786403:IUY786555 JEU786403:JEU786555 JOQ786403:JOQ786555 JYM786403:JYM786555 KII786403:KII786555 KSE786403:KSE786555 LCA786403:LCA786555 LLW786403:LLW786555 LVS786403:LVS786555 MFO786403:MFO786555 MPK786403:MPK786555 MZG786403:MZG786555 NJC786403:NJC786555 NSY786403:NSY786555 OCU786403:OCU786555 OMQ786403:OMQ786555 OWM786403:OWM786555 PGI786403:PGI786555 PQE786403:PQE786555 QAA786403:QAA786555 QJW786403:QJW786555 QTS786403:QTS786555 RDO786403:RDO786555 RNK786403:RNK786555 RXG786403:RXG786555 SHC786403:SHC786555 SQY786403:SQY786555 TAU786403:TAU786555 TKQ786403:TKQ786555 TUM786403:TUM786555 UEI786403:UEI786555 UOE786403:UOE786555 UYA786403:UYA786555 VHW786403:VHW786555 VRS786403:VRS786555 WBO786403:WBO786555 WLK786403:WLK786555 WVG786403:WVG786555 H851939:H852091 IU851939:IU852091 SQ851939:SQ852091 ACM851939:ACM852091 AMI851939:AMI852091 AWE851939:AWE852091 BGA851939:BGA852091 BPW851939:BPW852091 BZS851939:BZS852091 CJO851939:CJO852091 CTK851939:CTK852091 DDG851939:DDG852091 DNC851939:DNC852091 DWY851939:DWY852091 EGU851939:EGU852091 EQQ851939:EQQ852091 FAM851939:FAM852091 FKI851939:FKI852091 FUE851939:FUE852091 GEA851939:GEA852091 GNW851939:GNW852091 GXS851939:GXS852091 HHO851939:HHO852091 HRK851939:HRK852091 IBG851939:IBG852091 ILC851939:ILC852091 IUY851939:IUY852091 JEU851939:JEU852091 JOQ851939:JOQ852091 JYM851939:JYM852091 KII851939:KII852091 KSE851939:KSE852091 LCA851939:LCA852091 LLW851939:LLW852091 LVS851939:LVS852091 MFO851939:MFO852091 MPK851939:MPK852091 MZG851939:MZG852091 NJC851939:NJC852091 NSY851939:NSY852091 OCU851939:OCU852091 OMQ851939:OMQ852091 OWM851939:OWM852091 PGI851939:PGI852091 PQE851939:PQE852091 QAA851939:QAA852091 QJW851939:QJW852091 QTS851939:QTS852091 RDO851939:RDO852091 RNK851939:RNK852091 RXG851939:RXG852091 SHC851939:SHC852091 SQY851939:SQY852091 TAU851939:TAU852091 TKQ851939:TKQ852091 TUM851939:TUM852091 UEI851939:UEI852091 UOE851939:UOE852091 UYA851939:UYA852091 VHW851939:VHW852091 VRS851939:VRS852091 WBO851939:WBO852091 WLK851939:WLK852091 WVG851939:WVG852091 H917475:H917627 IU917475:IU917627 SQ917475:SQ917627 ACM917475:ACM917627 AMI917475:AMI917627 AWE917475:AWE917627 BGA917475:BGA917627 BPW917475:BPW917627 BZS917475:BZS917627 CJO917475:CJO917627 CTK917475:CTK917627 DDG917475:DDG917627 DNC917475:DNC917627 DWY917475:DWY917627 EGU917475:EGU917627 EQQ917475:EQQ917627 FAM917475:FAM917627 FKI917475:FKI917627 FUE917475:FUE917627 GEA917475:GEA917627 GNW917475:GNW917627 GXS917475:GXS917627 HHO917475:HHO917627 HRK917475:HRK917627 IBG917475:IBG917627 ILC917475:ILC917627 IUY917475:IUY917627 JEU917475:JEU917627 JOQ917475:JOQ917627 JYM917475:JYM917627 KII917475:KII917627 KSE917475:KSE917627 LCA917475:LCA917627 LLW917475:LLW917627 LVS917475:LVS917627 MFO917475:MFO917627 MPK917475:MPK917627 MZG917475:MZG917627 NJC917475:NJC917627 NSY917475:NSY917627 OCU917475:OCU917627 OMQ917475:OMQ917627 OWM917475:OWM917627 PGI917475:PGI917627 PQE917475:PQE917627 QAA917475:QAA917627 QJW917475:QJW917627 QTS917475:QTS917627 RDO917475:RDO917627 RNK917475:RNK917627 RXG917475:RXG917627 SHC917475:SHC917627 SQY917475:SQY917627 TAU917475:TAU917627 TKQ917475:TKQ917627 TUM917475:TUM917627 UEI917475:UEI917627 UOE917475:UOE917627 UYA917475:UYA917627 VHW917475:VHW917627 VRS917475:VRS917627 WBO917475:WBO917627 WLK917475:WLK917627 WVG917475:WVG917627 H983011:H983163 IU983011:IU983163 SQ983011:SQ983163 ACM983011:ACM983163 AMI983011:AMI983163 AWE983011:AWE983163 BGA983011:BGA983163 BPW983011:BPW983163 BZS983011:BZS983163 CJO983011:CJO983163 CTK983011:CTK983163 DDG983011:DDG983163 DNC983011:DNC983163 DWY983011:DWY983163 EGU983011:EGU983163 EQQ983011:EQQ983163 FAM983011:FAM983163 FKI983011:FKI983163 FUE983011:FUE983163 GEA983011:GEA983163 GNW983011:GNW983163 GXS983011:GXS983163 HHO983011:HHO983163 HRK983011:HRK983163 IBG983011:IBG983163 ILC983011:ILC983163 IUY983011:IUY983163 JEU983011:JEU983163 JOQ983011:JOQ983163 JYM983011:JYM983163 KII983011:KII983163 KSE983011:KSE983163 LCA983011:LCA983163 LLW983011:LLW983163 LVS983011:LVS983163 MFO983011:MFO983163 MPK983011:MPK983163 MZG983011:MZG983163 NJC983011:NJC983163 NSY983011:NSY983163 OCU983011:OCU983163 OMQ983011:OMQ983163 OWM983011:OWM983163 PGI983011:PGI983163 PQE983011:PQE983163 QAA983011:QAA983163 QJW983011:QJW983163 QTS983011:QTS983163 RDO983011:RDO983163 RNK983011:RNK983163 RXG983011:RXG983163 SHC983011:SHC983163 SQY983011:SQY983163 TAU983011:TAU983163 TKQ983011:TKQ983163 TUM983011:TUM983163 UEI983011:UEI983163 UOE983011:UOE983163 UYA983011:UYA983163 VHW983011:VHW983163 VRS983011:VRS983163 WBO983011:WBO983163 WLK983011:WLK983163 H83:H123 SQ7:SQ123 ACM7:ACM123 AMI7:AMI123 AWE7:AWE123 BGA7:BGA123 BPW7:BPW123 BZS7:BZS123 CJO7:CJO123 CTK7:CTK123 DDG7:DDG123 DNC7:DNC123 DWY7:DWY123 EGU7:EGU123 EQQ7:EQQ123 FAM7:FAM123 FKI7:FKI123 FUE7:FUE123 GEA7:GEA123 GNW7:GNW123 GXS7:GXS123 HHO7:HHO123 HRK7:HRK123 IBG7:IBG123 ILC7:ILC123 IUY7:IUY123 JEU7:JEU123 JOQ7:JOQ123 JYM7:JYM123 KII7:KII123 KSE7:KSE123 LCA7:LCA123 LLW7:LLW123 LVS7:LVS123 MFO7:MFO123 MPK7:MPK123 MZG7:MZG123 NJC7:NJC123 NSY7:NSY123 OCU7:OCU123 OMQ7:OMQ123 OWM7:OWM123 PGI7:PGI123 PQE7:PQE123 QAA7:QAA123 QJW7:QJW123 QTS7:QTS123 RDO7:RDO123 RNK7:RNK123 RXG7:RXG123 SHC7:SHC123 SQY7:SQY123 TAU7:TAU123 TKQ7:TKQ123 TUM7:TUM123 UEI7:UEI123 UOE7:UOE123 UYA7:UYA123 VHW7:VHW123 VRS7:VRS123 WBO7:WBO123 WLK7:WLK123 WVG7:WVG123 IU7:IU123 H7:H74" xr:uid="{95EF879B-E274-4E02-9B97-55BA2F142327}">
       <formula1>$AH$11:$AH$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVH983014:WVH983166 I65510:I65662 IV65510:IV65662 SR65510:SR65662 ACN65510:ACN65662 AMJ65510:AMJ65662 AWF65510:AWF65662 BGB65510:BGB65662 BPX65510:BPX65662 BZT65510:BZT65662 CJP65510:CJP65662 CTL65510:CTL65662 DDH65510:DDH65662 DND65510:DND65662 DWZ65510:DWZ65662 EGV65510:EGV65662 EQR65510:EQR65662 FAN65510:FAN65662 FKJ65510:FKJ65662 FUF65510:FUF65662 GEB65510:GEB65662 GNX65510:GNX65662 GXT65510:GXT65662 HHP65510:HHP65662 HRL65510:HRL65662 IBH65510:IBH65662 ILD65510:ILD65662 IUZ65510:IUZ65662 JEV65510:JEV65662 JOR65510:JOR65662 JYN65510:JYN65662 KIJ65510:KIJ65662 KSF65510:KSF65662 LCB65510:LCB65662 LLX65510:LLX65662 LVT65510:LVT65662 MFP65510:MFP65662 MPL65510:MPL65662 MZH65510:MZH65662 NJD65510:NJD65662 NSZ65510:NSZ65662 OCV65510:OCV65662 OMR65510:OMR65662 OWN65510:OWN65662 PGJ65510:PGJ65662 PQF65510:PQF65662 QAB65510:QAB65662 QJX65510:QJX65662 QTT65510:QTT65662 RDP65510:RDP65662 RNL65510:RNL65662 RXH65510:RXH65662 SHD65510:SHD65662 SQZ65510:SQZ65662 TAV65510:TAV65662 TKR65510:TKR65662 TUN65510:TUN65662 UEJ65510:UEJ65662 UOF65510:UOF65662 UYB65510:UYB65662 VHX65510:VHX65662 VRT65510:VRT65662 WBP65510:WBP65662 WLL65510:WLL65662 WVH65510:WVH65662 I131046:I131198 IV131046:IV131198 SR131046:SR131198 ACN131046:ACN131198 AMJ131046:AMJ131198 AWF131046:AWF131198 BGB131046:BGB131198 BPX131046:BPX131198 BZT131046:BZT131198 CJP131046:CJP131198 CTL131046:CTL131198 DDH131046:DDH131198 DND131046:DND131198 DWZ131046:DWZ131198 EGV131046:EGV131198 EQR131046:EQR131198 FAN131046:FAN131198 FKJ131046:FKJ131198 FUF131046:FUF131198 GEB131046:GEB131198 GNX131046:GNX131198 GXT131046:GXT131198 HHP131046:HHP131198 HRL131046:HRL131198 IBH131046:IBH131198 ILD131046:ILD131198 IUZ131046:IUZ131198 JEV131046:JEV131198 JOR131046:JOR131198 JYN131046:JYN131198 KIJ131046:KIJ131198 KSF131046:KSF131198 LCB131046:LCB131198 LLX131046:LLX131198 LVT131046:LVT131198 MFP131046:MFP131198 MPL131046:MPL131198 MZH131046:MZH131198 NJD131046:NJD131198 NSZ131046:NSZ131198 OCV131046:OCV131198 OMR131046:OMR131198 OWN131046:OWN131198 PGJ131046:PGJ131198 PQF131046:PQF131198 QAB131046:QAB131198 QJX131046:QJX131198 QTT131046:QTT131198 RDP131046:RDP131198 RNL131046:RNL131198 RXH131046:RXH131198 SHD131046:SHD131198 SQZ131046:SQZ131198 TAV131046:TAV131198 TKR131046:TKR131198 TUN131046:TUN131198 UEJ131046:UEJ131198 UOF131046:UOF131198 UYB131046:UYB131198 VHX131046:VHX131198 VRT131046:VRT131198 WBP131046:WBP131198 WLL131046:WLL131198 WVH131046:WVH131198 I196582:I196734 IV196582:IV196734 SR196582:SR196734 ACN196582:ACN196734 AMJ196582:AMJ196734 AWF196582:AWF196734 BGB196582:BGB196734 BPX196582:BPX196734 BZT196582:BZT196734 CJP196582:CJP196734 CTL196582:CTL196734 DDH196582:DDH196734 DND196582:DND196734 DWZ196582:DWZ196734 EGV196582:EGV196734 EQR196582:EQR196734 FAN196582:FAN196734 FKJ196582:FKJ196734 FUF196582:FUF196734 GEB196582:GEB196734 GNX196582:GNX196734 GXT196582:GXT196734 HHP196582:HHP196734 HRL196582:HRL196734 IBH196582:IBH196734 ILD196582:ILD196734 IUZ196582:IUZ196734 JEV196582:JEV196734 JOR196582:JOR196734 JYN196582:JYN196734 KIJ196582:KIJ196734 KSF196582:KSF196734 LCB196582:LCB196734 LLX196582:LLX196734 LVT196582:LVT196734 MFP196582:MFP196734 MPL196582:MPL196734 MZH196582:MZH196734 NJD196582:NJD196734 NSZ196582:NSZ196734 OCV196582:OCV196734 OMR196582:OMR196734 OWN196582:OWN196734 PGJ196582:PGJ196734 PQF196582:PQF196734 QAB196582:QAB196734 QJX196582:QJX196734 QTT196582:QTT196734 RDP196582:RDP196734 RNL196582:RNL196734 RXH196582:RXH196734 SHD196582:SHD196734 SQZ196582:SQZ196734 TAV196582:TAV196734 TKR196582:TKR196734 TUN196582:TUN196734 UEJ196582:UEJ196734 UOF196582:UOF196734 UYB196582:UYB196734 VHX196582:VHX196734 VRT196582:VRT196734 WBP196582:WBP196734 WLL196582:WLL196734 WVH196582:WVH196734 I262118:I262270 IV262118:IV262270 SR262118:SR262270 ACN262118:ACN262270 AMJ262118:AMJ262270 AWF262118:AWF262270 BGB262118:BGB262270 BPX262118:BPX262270 BZT262118:BZT262270 CJP262118:CJP262270 CTL262118:CTL262270 DDH262118:DDH262270 DND262118:DND262270 DWZ262118:DWZ262270 EGV262118:EGV262270 EQR262118:EQR262270 FAN262118:FAN262270 FKJ262118:FKJ262270 FUF262118:FUF262270 GEB262118:GEB262270 GNX262118:GNX262270 GXT262118:GXT262270 HHP262118:HHP262270 HRL262118:HRL262270 IBH262118:IBH262270 ILD262118:ILD262270 IUZ262118:IUZ262270 JEV262118:JEV262270 JOR262118:JOR262270 JYN262118:JYN262270 KIJ262118:KIJ262270 KSF262118:KSF262270 LCB262118:LCB262270 LLX262118:LLX262270 LVT262118:LVT262270 MFP262118:MFP262270 MPL262118:MPL262270 MZH262118:MZH262270 NJD262118:NJD262270 NSZ262118:NSZ262270 OCV262118:OCV262270 OMR262118:OMR262270 OWN262118:OWN262270 PGJ262118:PGJ262270 PQF262118:PQF262270 QAB262118:QAB262270 QJX262118:QJX262270 QTT262118:QTT262270 RDP262118:RDP262270 RNL262118:RNL262270 RXH262118:RXH262270 SHD262118:SHD262270 SQZ262118:SQZ262270 TAV262118:TAV262270 TKR262118:TKR262270 TUN262118:TUN262270 UEJ262118:UEJ262270 UOF262118:UOF262270 UYB262118:UYB262270 VHX262118:VHX262270 VRT262118:VRT262270 WBP262118:WBP262270 WLL262118:WLL262270 WVH262118:WVH262270 I327654:I327806 IV327654:IV327806 SR327654:SR327806 ACN327654:ACN327806 AMJ327654:AMJ327806 AWF327654:AWF327806 BGB327654:BGB327806 BPX327654:BPX327806 BZT327654:BZT327806 CJP327654:CJP327806 CTL327654:CTL327806 DDH327654:DDH327806 DND327654:DND327806 DWZ327654:DWZ327806 EGV327654:EGV327806 EQR327654:EQR327806 FAN327654:FAN327806 FKJ327654:FKJ327806 FUF327654:FUF327806 GEB327654:GEB327806 GNX327654:GNX327806 GXT327654:GXT327806 HHP327654:HHP327806 HRL327654:HRL327806 IBH327654:IBH327806 ILD327654:ILD327806 IUZ327654:IUZ327806 JEV327654:JEV327806 JOR327654:JOR327806 JYN327654:JYN327806 KIJ327654:KIJ327806 KSF327654:KSF327806 LCB327654:LCB327806 LLX327654:LLX327806 LVT327654:LVT327806 MFP327654:MFP327806 MPL327654:MPL327806 MZH327654:MZH327806 NJD327654:NJD327806 NSZ327654:NSZ327806 OCV327654:OCV327806 OMR327654:OMR327806 OWN327654:OWN327806 PGJ327654:PGJ327806 PQF327654:PQF327806 QAB327654:QAB327806 QJX327654:QJX327806 QTT327654:QTT327806 RDP327654:RDP327806 RNL327654:RNL327806 RXH327654:RXH327806 SHD327654:SHD327806 SQZ327654:SQZ327806 TAV327654:TAV327806 TKR327654:TKR327806 TUN327654:TUN327806 UEJ327654:UEJ327806 UOF327654:UOF327806 UYB327654:UYB327806 VHX327654:VHX327806 VRT327654:VRT327806 WBP327654:WBP327806 WLL327654:WLL327806 WVH327654:WVH327806 I393190:I393342 IV393190:IV393342 SR393190:SR393342 ACN393190:ACN393342 AMJ393190:AMJ393342 AWF393190:AWF393342 BGB393190:BGB393342 BPX393190:BPX393342 BZT393190:BZT393342 CJP393190:CJP393342 CTL393190:CTL393342 DDH393190:DDH393342 DND393190:DND393342 DWZ393190:DWZ393342 EGV393190:EGV393342 EQR393190:EQR393342 FAN393190:FAN393342 FKJ393190:FKJ393342 FUF393190:FUF393342 GEB393190:GEB393342 GNX393190:GNX393342 GXT393190:GXT393342 HHP393190:HHP393342 HRL393190:HRL393342 IBH393190:IBH393342 ILD393190:ILD393342 IUZ393190:IUZ393342 JEV393190:JEV393342 JOR393190:JOR393342 JYN393190:JYN393342 KIJ393190:KIJ393342 KSF393190:KSF393342 LCB393190:LCB393342 LLX393190:LLX393342 LVT393190:LVT393342 MFP393190:MFP393342 MPL393190:MPL393342 MZH393190:MZH393342 NJD393190:NJD393342 NSZ393190:NSZ393342 OCV393190:OCV393342 OMR393190:OMR393342 OWN393190:OWN393342 PGJ393190:PGJ393342 PQF393190:PQF393342 QAB393190:QAB393342 QJX393190:QJX393342 QTT393190:QTT393342 RDP393190:RDP393342 RNL393190:RNL393342 RXH393190:RXH393342 SHD393190:SHD393342 SQZ393190:SQZ393342 TAV393190:TAV393342 TKR393190:TKR393342 TUN393190:TUN393342 UEJ393190:UEJ393342 UOF393190:UOF393342 UYB393190:UYB393342 VHX393190:VHX393342 VRT393190:VRT393342 WBP393190:WBP393342 WLL393190:WLL393342 WVH393190:WVH393342 I458726:I458878 IV458726:IV458878 SR458726:SR458878 ACN458726:ACN458878 AMJ458726:AMJ458878 AWF458726:AWF458878 BGB458726:BGB458878 BPX458726:BPX458878 BZT458726:BZT458878 CJP458726:CJP458878 CTL458726:CTL458878 DDH458726:DDH458878 DND458726:DND458878 DWZ458726:DWZ458878 EGV458726:EGV458878 EQR458726:EQR458878 FAN458726:FAN458878 FKJ458726:FKJ458878 FUF458726:FUF458878 GEB458726:GEB458878 GNX458726:GNX458878 GXT458726:GXT458878 HHP458726:HHP458878 HRL458726:HRL458878 IBH458726:IBH458878 ILD458726:ILD458878 IUZ458726:IUZ458878 JEV458726:JEV458878 JOR458726:JOR458878 JYN458726:JYN458878 KIJ458726:KIJ458878 KSF458726:KSF458878 LCB458726:LCB458878 LLX458726:LLX458878 LVT458726:LVT458878 MFP458726:MFP458878 MPL458726:MPL458878 MZH458726:MZH458878 NJD458726:NJD458878 NSZ458726:NSZ458878 OCV458726:OCV458878 OMR458726:OMR458878 OWN458726:OWN458878 PGJ458726:PGJ458878 PQF458726:PQF458878 QAB458726:QAB458878 QJX458726:QJX458878 QTT458726:QTT458878 RDP458726:RDP458878 RNL458726:RNL458878 RXH458726:RXH458878 SHD458726:SHD458878 SQZ458726:SQZ458878 TAV458726:TAV458878 TKR458726:TKR458878 TUN458726:TUN458878 UEJ458726:UEJ458878 UOF458726:UOF458878 UYB458726:UYB458878 VHX458726:VHX458878 VRT458726:VRT458878 WBP458726:WBP458878 WLL458726:WLL458878 WVH458726:WVH458878 I524262:I524414 IV524262:IV524414 SR524262:SR524414 ACN524262:ACN524414 AMJ524262:AMJ524414 AWF524262:AWF524414 BGB524262:BGB524414 BPX524262:BPX524414 BZT524262:BZT524414 CJP524262:CJP524414 CTL524262:CTL524414 DDH524262:DDH524414 DND524262:DND524414 DWZ524262:DWZ524414 EGV524262:EGV524414 EQR524262:EQR524414 FAN524262:FAN524414 FKJ524262:FKJ524414 FUF524262:FUF524414 GEB524262:GEB524414 GNX524262:GNX524414 GXT524262:GXT524414 HHP524262:HHP524414 HRL524262:HRL524414 IBH524262:IBH524414 ILD524262:ILD524414 IUZ524262:IUZ524414 JEV524262:JEV524414 JOR524262:JOR524414 JYN524262:JYN524414 KIJ524262:KIJ524414 KSF524262:KSF524414 LCB524262:LCB524414 LLX524262:LLX524414 LVT524262:LVT524414 MFP524262:MFP524414 MPL524262:MPL524414 MZH524262:MZH524414 NJD524262:NJD524414 NSZ524262:NSZ524414 OCV524262:OCV524414 OMR524262:OMR524414 OWN524262:OWN524414 PGJ524262:PGJ524414 PQF524262:PQF524414 QAB524262:QAB524414 QJX524262:QJX524414 QTT524262:QTT524414 RDP524262:RDP524414 RNL524262:RNL524414 RXH524262:RXH524414 SHD524262:SHD524414 SQZ524262:SQZ524414 TAV524262:TAV524414 TKR524262:TKR524414 TUN524262:TUN524414 UEJ524262:UEJ524414 UOF524262:UOF524414 UYB524262:UYB524414 VHX524262:VHX524414 VRT524262:VRT524414 WBP524262:WBP524414 WLL524262:WLL524414 WVH524262:WVH524414 I589798:I589950 IV589798:IV589950 SR589798:SR589950 ACN589798:ACN589950 AMJ589798:AMJ589950 AWF589798:AWF589950 BGB589798:BGB589950 BPX589798:BPX589950 BZT589798:BZT589950 CJP589798:CJP589950 CTL589798:CTL589950 DDH589798:DDH589950 DND589798:DND589950 DWZ589798:DWZ589950 EGV589798:EGV589950 EQR589798:EQR589950 FAN589798:FAN589950 FKJ589798:FKJ589950 FUF589798:FUF589950 GEB589798:GEB589950 GNX589798:GNX589950 GXT589798:GXT589950 HHP589798:HHP589950 HRL589798:HRL589950 IBH589798:IBH589950 ILD589798:ILD589950 IUZ589798:IUZ589950 JEV589798:JEV589950 JOR589798:JOR589950 JYN589798:JYN589950 KIJ589798:KIJ589950 KSF589798:KSF589950 LCB589798:LCB589950 LLX589798:LLX589950 LVT589798:LVT589950 MFP589798:MFP589950 MPL589798:MPL589950 MZH589798:MZH589950 NJD589798:NJD589950 NSZ589798:NSZ589950 OCV589798:OCV589950 OMR589798:OMR589950 OWN589798:OWN589950 PGJ589798:PGJ589950 PQF589798:PQF589950 QAB589798:QAB589950 QJX589798:QJX589950 QTT589798:QTT589950 RDP589798:RDP589950 RNL589798:RNL589950 RXH589798:RXH589950 SHD589798:SHD589950 SQZ589798:SQZ589950 TAV589798:TAV589950 TKR589798:TKR589950 TUN589798:TUN589950 UEJ589798:UEJ589950 UOF589798:UOF589950 UYB589798:UYB589950 VHX589798:VHX589950 VRT589798:VRT589950 WBP589798:WBP589950 WLL589798:WLL589950 WVH589798:WVH589950 I655334:I655486 IV655334:IV655486 SR655334:SR655486 ACN655334:ACN655486 AMJ655334:AMJ655486 AWF655334:AWF655486 BGB655334:BGB655486 BPX655334:BPX655486 BZT655334:BZT655486 CJP655334:CJP655486 CTL655334:CTL655486 DDH655334:DDH655486 DND655334:DND655486 DWZ655334:DWZ655486 EGV655334:EGV655486 EQR655334:EQR655486 FAN655334:FAN655486 FKJ655334:FKJ655486 FUF655334:FUF655486 GEB655334:GEB655486 GNX655334:GNX655486 GXT655334:GXT655486 HHP655334:HHP655486 HRL655334:HRL655486 IBH655334:IBH655486 ILD655334:ILD655486 IUZ655334:IUZ655486 JEV655334:JEV655486 JOR655334:JOR655486 JYN655334:JYN655486 KIJ655334:KIJ655486 KSF655334:KSF655486 LCB655334:LCB655486 LLX655334:LLX655486 LVT655334:LVT655486 MFP655334:MFP655486 MPL655334:MPL655486 MZH655334:MZH655486 NJD655334:NJD655486 NSZ655334:NSZ655486 OCV655334:OCV655486 OMR655334:OMR655486 OWN655334:OWN655486 PGJ655334:PGJ655486 PQF655334:PQF655486 QAB655334:QAB655486 QJX655334:QJX655486 QTT655334:QTT655486 RDP655334:RDP655486 RNL655334:RNL655486 RXH655334:RXH655486 SHD655334:SHD655486 SQZ655334:SQZ655486 TAV655334:TAV655486 TKR655334:TKR655486 TUN655334:TUN655486 UEJ655334:UEJ655486 UOF655334:UOF655486 UYB655334:UYB655486 VHX655334:VHX655486 VRT655334:VRT655486 WBP655334:WBP655486 WLL655334:WLL655486 WVH655334:WVH655486 I720870:I721022 IV720870:IV721022 SR720870:SR721022 ACN720870:ACN721022 AMJ720870:AMJ721022 AWF720870:AWF721022 BGB720870:BGB721022 BPX720870:BPX721022 BZT720870:BZT721022 CJP720870:CJP721022 CTL720870:CTL721022 DDH720870:DDH721022 DND720870:DND721022 DWZ720870:DWZ721022 EGV720870:EGV721022 EQR720870:EQR721022 FAN720870:FAN721022 FKJ720870:FKJ721022 FUF720870:FUF721022 GEB720870:GEB721022 GNX720870:GNX721022 GXT720870:GXT721022 HHP720870:HHP721022 HRL720870:HRL721022 IBH720870:IBH721022 ILD720870:ILD721022 IUZ720870:IUZ721022 JEV720870:JEV721022 JOR720870:JOR721022 JYN720870:JYN721022 KIJ720870:KIJ721022 KSF720870:KSF721022 LCB720870:LCB721022 LLX720870:LLX721022 LVT720870:LVT721022 MFP720870:MFP721022 MPL720870:MPL721022 MZH720870:MZH721022 NJD720870:NJD721022 NSZ720870:NSZ721022 OCV720870:OCV721022 OMR720870:OMR721022 OWN720870:OWN721022 PGJ720870:PGJ721022 PQF720870:PQF721022 QAB720870:QAB721022 QJX720870:QJX721022 QTT720870:QTT721022 RDP720870:RDP721022 RNL720870:RNL721022 RXH720870:RXH721022 SHD720870:SHD721022 SQZ720870:SQZ721022 TAV720870:TAV721022 TKR720870:TKR721022 TUN720870:TUN721022 UEJ720870:UEJ721022 UOF720870:UOF721022 UYB720870:UYB721022 VHX720870:VHX721022 VRT720870:VRT721022 WBP720870:WBP721022 WLL720870:WLL721022 WVH720870:WVH721022 I786406:I786558 IV786406:IV786558 SR786406:SR786558 ACN786406:ACN786558 AMJ786406:AMJ786558 AWF786406:AWF786558 BGB786406:BGB786558 BPX786406:BPX786558 BZT786406:BZT786558 CJP786406:CJP786558 CTL786406:CTL786558 DDH786406:DDH786558 DND786406:DND786558 DWZ786406:DWZ786558 EGV786406:EGV786558 EQR786406:EQR786558 FAN786406:FAN786558 FKJ786406:FKJ786558 FUF786406:FUF786558 GEB786406:GEB786558 GNX786406:GNX786558 GXT786406:GXT786558 HHP786406:HHP786558 HRL786406:HRL786558 IBH786406:IBH786558 ILD786406:ILD786558 IUZ786406:IUZ786558 JEV786406:JEV786558 JOR786406:JOR786558 JYN786406:JYN786558 KIJ786406:KIJ786558 KSF786406:KSF786558 LCB786406:LCB786558 LLX786406:LLX786558 LVT786406:LVT786558 MFP786406:MFP786558 MPL786406:MPL786558 MZH786406:MZH786558 NJD786406:NJD786558 NSZ786406:NSZ786558 OCV786406:OCV786558 OMR786406:OMR786558 OWN786406:OWN786558 PGJ786406:PGJ786558 PQF786406:PQF786558 QAB786406:QAB786558 QJX786406:QJX786558 QTT786406:QTT786558 RDP786406:RDP786558 RNL786406:RNL786558 RXH786406:RXH786558 SHD786406:SHD786558 SQZ786406:SQZ786558 TAV786406:TAV786558 TKR786406:TKR786558 TUN786406:TUN786558 UEJ786406:UEJ786558 UOF786406:UOF786558 UYB786406:UYB786558 VHX786406:VHX786558 VRT786406:VRT786558 WBP786406:WBP786558 WLL786406:WLL786558 WVH786406:WVH786558 I851942:I852094 IV851942:IV852094 SR851942:SR852094 ACN851942:ACN852094 AMJ851942:AMJ852094 AWF851942:AWF852094 BGB851942:BGB852094 BPX851942:BPX852094 BZT851942:BZT852094 CJP851942:CJP852094 CTL851942:CTL852094 DDH851942:DDH852094 DND851942:DND852094 DWZ851942:DWZ852094 EGV851942:EGV852094 EQR851942:EQR852094 FAN851942:FAN852094 FKJ851942:FKJ852094 FUF851942:FUF852094 GEB851942:GEB852094 GNX851942:GNX852094 GXT851942:GXT852094 HHP851942:HHP852094 HRL851942:HRL852094 IBH851942:IBH852094 ILD851942:ILD852094 IUZ851942:IUZ852094 JEV851942:JEV852094 JOR851942:JOR852094 JYN851942:JYN852094 KIJ851942:KIJ852094 KSF851942:KSF852094 LCB851942:LCB852094 LLX851942:LLX852094 LVT851942:LVT852094 MFP851942:MFP852094 MPL851942:MPL852094 MZH851942:MZH852094 NJD851942:NJD852094 NSZ851942:NSZ852094 OCV851942:OCV852094 OMR851942:OMR852094 OWN851942:OWN852094 PGJ851942:PGJ852094 PQF851942:PQF852094 QAB851942:QAB852094 QJX851942:QJX852094 QTT851942:QTT852094 RDP851942:RDP852094 RNL851942:RNL852094 RXH851942:RXH852094 SHD851942:SHD852094 SQZ851942:SQZ852094 TAV851942:TAV852094 TKR851942:TKR852094 TUN851942:TUN852094 UEJ851942:UEJ852094 UOF851942:UOF852094 UYB851942:UYB852094 VHX851942:VHX852094 VRT851942:VRT852094 WBP851942:WBP852094 WLL851942:WLL852094 WVH851942:WVH852094 I917478:I917630 IV917478:IV917630 SR917478:SR917630 ACN917478:ACN917630 AMJ917478:AMJ917630 AWF917478:AWF917630 BGB917478:BGB917630 BPX917478:BPX917630 BZT917478:BZT917630 CJP917478:CJP917630 CTL917478:CTL917630 DDH917478:DDH917630 DND917478:DND917630 DWZ917478:DWZ917630 EGV917478:EGV917630 EQR917478:EQR917630 FAN917478:FAN917630 FKJ917478:FKJ917630 FUF917478:FUF917630 GEB917478:GEB917630 GNX917478:GNX917630 GXT917478:GXT917630 HHP917478:HHP917630 HRL917478:HRL917630 IBH917478:IBH917630 ILD917478:ILD917630 IUZ917478:IUZ917630 JEV917478:JEV917630 JOR917478:JOR917630 JYN917478:JYN917630 KIJ917478:KIJ917630 KSF917478:KSF917630 LCB917478:LCB917630 LLX917478:LLX917630 LVT917478:LVT917630 MFP917478:MFP917630 MPL917478:MPL917630 MZH917478:MZH917630 NJD917478:NJD917630 NSZ917478:NSZ917630 OCV917478:OCV917630 OMR917478:OMR917630 OWN917478:OWN917630 PGJ917478:PGJ917630 PQF917478:PQF917630 QAB917478:QAB917630 QJX917478:QJX917630 QTT917478:QTT917630 RDP917478:RDP917630 RNL917478:RNL917630 RXH917478:RXH917630 SHD917478:SHD917630 SQZ917478:SQZ917630 TAV917478:TAV917630 TKR917478:TKR917630 TUN917478:TUN917630 UEJ917478:UEJ917630 UOF917478:UOF917630 UYB917478:UYB917630 VHX917478:VHX917630 VRT917478:VRT917630 WBP917478:WBP917630 WLL917478:WLL917630 WVH917478:WVH917630 I983014:I983166 IV983014:IV983166 SR983014:SR983166 ACN983014:ACN983166 AMJ983014:AMJ983166 AWF983014:AWF983166 BGB983014:BGB983166 BPX983014:BPX983166 BZT983014:BZT983166 CJP983014:CJP983166 CTL983014:CTL983166 DDH983014:DDH983166 DND983014:DND983166 DWZ983014:DWZ983166 EGV983014:EGV983166 EQR983014:EQR983166 FAN983014:FAN983166 FKJ983014:FKJ983166 FUF983014:FUF983166 GEB983014:GEB983166 GNX983014:GNX983166 GXT983014:GXT983166 HHP983014:HHP983166 HRL983014:HRL983166 IBH983014:IBH983166 ILD983014:ILD983166 IUZ983014:IUZ983166 JEV983014:JEV983166 JOR983014:JOR983166 JYN983014:JYN983166 KIJ983014:KIJ983166 KSF983014:KSF983166 LCB983014:LCB983166 LLX983014:LLX983166 LVT983014:LVT983166 MFP983014:MFP983166 MPL983014:MPL983166 MZH983014:MZH983166 NJD983014:NJD983166 NSZ983014:NSZ983166 OCV983014:OCV983166 OMR983014:OMR983166 OWN983014:OWN983166 PGJ983014:PGJ983166 PQF983014:PQF983166 QAB983014:QAB983166 QJX983014:QJX983166 QTT983014:QTT983166 RDP983014:RDP983166 RNL983014:RNL983166 RXH983014:RXH983166 SHD983014:SHD983166 SQZ983014:SQZ983166 TAV983014:TAV983166 TKR983014:TKR983166 TUN983014:TUN983166 UEJ983014:UEJ983166 UOF983014:UOF983166 UYB983014:UYB983166 VHX983014:VHX983166 VRT983014:VRT983166 WBP983014:WBP983166 WLL983014:WLL983166 I86:I126 IV7:IV126 WVH7:WVH126 WLL7:WLL126 WBP7:WBP126 VRT7:VRT126 VHX7:VHX126 UYB7:UYB126 UOF7:UOF126 UEJ7:UEJ126 TUN7:TUN126 TKR7:TKR126 TAV7:TAV126 SQZ7:SQZ126 SHD7:SHD126 RXH7:RXH126 RNL7:RNL126 RDP7:RDP126 QTT7:QTT126 QJX7:QJX126 QAB7:QAB126 PQF7:PQF126 PGJ7:PGJ126 OWN7:OWN126 OMR7:OMR126 OCV7:OCV126 NSZ7:NSZ126 NJD7:NJD126 MZH7:MZH126 MPL7:MPL126 MFP7:MFP126 LVT7:LVT126 LLX7:LLX126 LCB7:LCB126 KSF7:KSF126 KIJ7:KIJ126 JYN7:JYN126 JOR7:JOR126 JEV7:JEV126 IUZ7:IUZ126 ILD7:ILD126 IBH7:IBH126 HRL7:HRL126 HHP7:HHP126 GXT7:GXT126 GNX7:GNX126 GEB7:GEB126 FUF7:FUF126 FKJ7:FKJ126 FAN7:FAN126 EQR7:EQR126 EGV7:EGV126 DWZ7:DWZ126 DND7:DND126 DDH7:DDH126 CTL7:CTL126 CJP7:CJP126 BZT7:BZT126 BPX7:BPX126 BGB7:BGB126 AWF7:AWF126 AMJ7:AMJ126 ACN7:ACN126 SR7:SR126 I7:I77" xr:uid="{EF164A01-28C1-4FE5-897F-1EFC6A308311}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVH983011:WVH983163 I65507:I65659 IV65507:IV65659 SR65507:SR65659 ACN65507:ACN65659 AMJ65507:AMJ65659 AWF65507:AWF65659 BGB65507:BGB65659 BPX65507:BPX65659 BZT65507:BZT65659 CJP65507:CJP65659 CTL65507:CTL65659 DDH65507:DDH65659 DND65507:DND65659 DWZ65507:DWZ65659 EGV65507:EGV65659 EQR65507:EQR65659 FAN65507:FAN65659 FKJ65507:FKJ65659 FUF65507:FUF65659 GEB65507:GEB65659 GNX65507:GNX65659 GXT65507:GXT65659 HHP65507:HHP65659 HRL65507:HRL65659 IBH65507:IBH65659 ILD65507:ILD65659 IUZ65507:IUZ65659 JEV65507:JEV65659 JOR65507:JOR65659 JYN65507:JYN65659 KIJ65507:KIJ65659 KSF65507:KSF65659 LCB65507:LCB65659 LLX65507:LLX65659 LVT65507:LVT65659 MFP65507:MFP65659 MPL65507:MPL65659 MZH65507:MZH65659 NJD65507:NJD65659 NSZ65507:NSZ65659 OCV65507:OCV65659 OMR65507:OMR65659 OWN65507:OWN65659 PGJ65507:PGJ65659 PQF65507:PQF65659 QAB65507:QAB65659 QJX65507:QJX65659 QTT65507:QTT65659 RDP65507:RDP65659 RNL65507:RNL65659 RXH65507:RXH65659 SHD65507:SHD65659 SQZ65507:SQZ65659 TAV65507:TAV65659 TKR65507:TKR65659 TUN65507:TUN65659 UEJ65507:UEJ65659 UOF65507:UOF65659 UYB65507:UYB65659 VHX65507:VHX65659 VRT65507:VRT65659 WBP65507:WBP65659 WLL65507:WLL65659 WVH65507:WVH65659 I131043:I131195 IV131043:IV131195 SR131043:SR131195 ACN131043:ACN131195 AMJ131043:AMJ131195 AWF131043:AWF131195 BGB131043:BGB131195 BPX131043:BPX131195 BZT131043:BZT131195 CJP131043:CJP131195 CTL131043:CTL131195 DDH131043:DDH131195 DND131043:DND131195 DWZ131043:DWZ131195 EGV131043:EGV131195 EQR131043:EQR131195 FAN131043:FAN131195 FKJ131043:FKJ131195 FUF131043:FUF131195 GEB131043:GEB131195 GNX131043:GNX131195 GXT131043:GXT131195 HHP131043:HHP131195 HRL131043:HRL131195 IBH131043:IBH131195 ILD131043:ILD131195 IUZ131043:IUZ131195 JEV131043:JEV131195 JOR131043:JOR131195 JYN131043:JYN131195 KIJ131043:KIJ131195 KSF131043:KSF131195 LCB131043:LCB131195 LLX131043:LLX131195 LVT131043:LVT131195 MFP131043:MFP131195 MPL131043:MPL131195 MZH131043:MZH131195 NJD131043:NJD131195 NSZ131043:NSZ131195 OCV131043:OCV131195 OMR131043:OMR131195 OWN131043:OWN131195 PGJ131043:PGJ131195 PQF131043:PQF131195 QAB131043:QAB131195 QJX131043:QJX131195 QTT131043:QTT131195 RDP131043:RDP131195 RNL131043:RNL131195 RXH131043:RXH131195 SHD131043:SHD131195 SQZ131043:SQZ131195 TAV131043:TAV131195 TKR131043:TKR131195 TUN131043:TUN131195 UEJ131043:UEJ131195 UOF131043:UOF131195 UYB131043:UYB131195 VHX131043:VHX131195 VRT131043:VRT131195 WBP131043:WBP131195 WLL131043:WLL131195 WVH131043:WVH131195 I196579:I196731 IV196579:IV196731 SR196579:SR196731 ACN196579:ACN196731 AMJ196579:AMJ196731 AWF196579:AWF196731 BGB196579:BGB196731 BPX196579:BPX196731 BZT196579:BZT196731 CJP196579:CJP196731 CTL196579:CTL196731 DDH196579:DDH196731 DND196579:DND196731 DWZ196579:DWZ196731 EGV196579:EGV196731 EQR196579:EQR196731 FAN196579:FAN196731 FKJ196579:FKJ196731 FUF196579:FUF196731 GEB196579:GEB196731 GNX196579:GNX196731 GXT196579:GXT196731 HHP196579:HHP196731 HRL196579:HRL196731 IBH196579:IBH196731 ILD196579:ILD196731 IUZ196579:IUZ196731 JEV196579:JEV196731 JOR196579:JOR196731 JYN196579:JYN196731 KIJ196579:KIJ196731 KSF196579:KSF196731 LCB196579:LCB196731 LLX196579:LLX196731 LVT196579:LVT196731 MFP196579:MFP196731 MPL196579:MPL196731 MZH196579:MZH196731 NJD196579:NJD196731 NSZ196579:NSZ196731 OCV196579:OCV196731 OMR196579:OMR196731 OWN196579:OWN196731 PGJ196579:PGJ196731 PQF196579:PQF196731 QAB196579:QAB196731 QJX196579:QJX196731 QTT196579:QTT196731 RDP196579:RDP196731 RNL196579:RNL196731 RXH196579:RXH196731 SHD196579:SHD196731 SQZ196579:SQZ196731 TAV196579:TAV196731 TKR196579:TKR196731 TUN196579:TUN196731 UEJ196579:UEJ196731 UOF196579:UOF196731 UYB196579:UYB196731 VHX196579:VHX196731 VRT196579:VRT196731 WBP196579:WBP196731 WLL196579:WLL196731 WVH196579:WVH196731 I262115:I262267 IV262115:IV262267 SR262115:SR262267 ACN262115:ACN262267 AMJ262115:AMJ262267 AWF262115:AWF262267 BGB262115:BGB262267 BPX262115:BPX262267 BZT262115:BZT262267 CJP262115:CJP262267 CTL262115:CTL262267 DDH262115:DDH262267 DND262115:DND262267 DWZ262115:DWZ262267 EGV262115:EGV262267 EQR262115:EQR262267 FAN262115:FAN262267 FKJ262115:FKJ262267 FUF262115:FUF262267 GEB262115:GEB262267 GNX262115:GNX262267 GXT262115:GXT262267 HHP262115:HHP262267 HRL262115:HRL262267 IBH262115:IBH262267 ILD262115:ILD262267 IUZ262115:IUZ262267 JEV262115:JEV262267 JOR262115:JOR262267 JYN262115:JYN262267 KIJ262115:KIJ262267 KSF262115:KSF262267 LCB262115:LCB262267 LLX262115:LLX262267 LVT262115:LVT262267 MFP262115:MFP262267 MPL262115:MPL262267 MZH262115:MZH262267 NJD262115:NJD262267 NSZ262115:NSZ262267 OCV262115:OCV262267 OMR262115:OMR262267 OWN262115:OWN262267 PGJ262115:PGJ262267 PQF262115:PQF262267 QAB262115:QAB262267 QJX262115:QJX262267 QTT262115:QTT262267 RDP262115:RDP262267 RNL262115:RNL262267 RXH262115:RXH262267 SHD262115:SHD262267 SQZ262115:SQZ262267 TAV262115:TAV262267 TKR262115:TKR262267 TUN262115:TUN262267 UEJ262115:UEJ262267 UOF262115:UOF262267 UYB262115:UYB262267 VHX262115:VHX262267 VRT262115:VRT262267 WBP262115:WBP262267 WLL262115:WLL262267 WVH262115:WVH262267 I327651:I327803 IV327651:IV327803 SR327651:SR327803 ACN327651:ACN327803 AMJ327651:AMJ327803 AWF327651:AWF327803 BGB327651:BGB327803 BPX327651:BPX327803 BZT327651:BZT327803 CJP327651:CJP327803 CTL327651:CTL327803 DDH327651:DDH327803 DND327651:DND327803 DWZ327651:DWZ327803 EGV327651:EGV327803 EQR327651:EQR327803 FAN327651:FAN327803 FKJ327651:FKJ327803 FUF327651:FUF327803 GEB327651:GEB327803 GNX327651:GNX327803 GXT327651:GXT327803 HHP327651:HHP327803 HRL327651:HRL327803 IBH327651:IBH327803 ILD327651:ILD327803 IUZ327651:IUZ327803 JEV327651:JEV327803 JOR327651:JOR327803 JYN327651:JYN327803 KIJ327651:KIJ327803 KSF327651:KSF327803 LCB327651:LCB327803 LLX327651:LLX327803 LVT327651:LVT327803 MFP327651:MFP327803 MPL327651:MPL327803 MZH327651:MZH327803 NJD327651:NJD327803 NSZ327651:NSZ327803 OCV327651:OCV327803 OMR327651:OMR327803 OWN327651:OWN327803 PGJ327651:PGJ327803 PQF327651:PQF327803 QAB327651:QAB327803 QJX327651:QJX327803 QTT327651:QTT327803 RDP327651:RDP327803 RNL327651:RNL327803 RXH327651:RXH327803 SHD327651:SHD327803 SQZ327651:SQZ327803 TAV327651:TAV327803 TKR327651:TKR327803 TUN327651:TUN327803 UEJ327651:UEJ327803 UOF327651:UOF327803 UYB327651:UYB327803 VHX327651:VHX327803 VRT327651:VRT327803 WBP327651:WBP327803 WLL327651:WLL327803 WVH327651:WVH327803 I393187:I393339 IV393187:IV393339 SR393187:SR393339 ACN393187:ACN393339 AMJ393187:AMJ393339 AWF393187:AWF393339 BGB393187:BGB393339 BPX393187:BPX393339 BZT393187:BZT393339 CJP393187:CJP393339 CTL393187:CTL393339 DDH393187:DDH393339 DND393187:DND393339 DWZ393187:DWZ393339 EGV393187:EGV393339 EQR393187:EQR393339 FAN393187:FAN393339 FKJ393187:FKJ393339 FUF393187:FUF393339 GEB393187:GEB393339 GNX393187:GNX393339 GXT393187:GXT393339 HHP393187:HHP393339 HRL393187:HRL393339 IBH393187:IBH393339 ILD393187:ILD393339 IUZ393187:IUZ393339 JEV393187:JEV393339 JOR393187:JOR393339 JYN393187:JYN393339 KIJ393187:KIJ393339 KSF393187:KSF393339 LCB393187:LCB393339 LLX393187:LLX393339 LVT393187:LVT393339 MFP393187:MFP393339 MPL393187:MPL393339 MZH393187:MZH393339 NJD393187:NJD393339 NSZ393187:NSZ393339 OCV393187:OCV393339 OMR393187:OMR393339 OWN393187:OWN393339 PGJ393187:PGJ393339 PQF393187:PQF393339 QAB393187:QAB393339 QJX393187:QJX393339 QTT393187:QTT393339 RDP393187:RDP393339 RNL393187:RNL393339 RXH393187:RXH393339 SHD393187:SHD393339 SQZ393187:SQZ393339 TAV393187:TAV393339 TKR393187:TKR393339 TUN393187:TUN393339 UEJ393187:UEJ393339 UOF393187:UOF393339 UYB393187:UYB393339 VHX393187:VHX393339 VRT393187:VRT393339 WBP393187:WBP393339 WLL393187:WLL393339 WVH393187:WVH393339 I458723:I458875 IV458723:IV458875 SR458723:SR458875 ACN458723:ACN458875 AMJ458723:AMJ458875 AWF458723:AWF458875 BGB458723:BGB458875 BPX458723:BPX458875 BZT458723:BZT458875 CJP458723:CJP458875 CTL458723:CTL458875 DDH458723:DDH458875 DND458723:DND458875 DWZ458723:DWZ458875 EGV458723:EGV458875 EQR458723:EQR458875 FAN458723:FAN458875 FKJ458723:FKJ458875 FUF458723:FUF458875 GEB458723:GEB458875 GNX458723:GNX458875 GXT458723:GXT458875 HHP458723:HHP458875 HRL458723:HRL458875 IBH458723:IBH458875 ILD458723:ILD458875 IUZ458723:IUZ458875 JEV458723:JEV458875 JOR458723:JOR458875 JYN458723:JYN458875 KIJ458723:KIJ458875 KSF458723:KSF458875 LCB458723:LCB458875 LLX458723:LLX458875 LVT458723:LVT458875 MFP458723:MFP458875 MPL458723:MPL458875 MZH458723:MZH458875 NJD458723:NJD458875 NSZ458723:NSZ458875 OCV458723:OCV458875 OMR458723:OMR458875 OWN458723:OWN458875 PGJ458723:PGJ458875 PQF458723:PQF458875 QAB458723:QAB458875 QJX458723:QJX458875 QTT458723:QTT458875 RDP458723:RDP458875 RNL458723:RNL458875 RXH458723:RXH458875 SHD458723:SHD458875 SQZ458723:SQZ458875 TAV458723:TAV458875 TKR458723:TKR458875 TUN458723:TUN458875 UEJ458723:UEJ458875 UOF458723:UOF458875 UYB458723:UYB458875 VHX458723:VHX458875 VRT458723:VRT458875 WBP458723:WBP458875 WLL458723:WLL458875 WVH458723:WVH458875 I524259:I524411 IV524259:IV524411 SR524259:SR524411 ACN524259:ACN524411 AMJ524259:AMJ524411 AWF524259:AWF524411 BGB524259:BGB524411 BPX524259:BPX524411 BZT524259:BZT524411 CJP524259:CJP524411 CTL524259:CTL524411 DDH524259:DDH524411 DND524259:DND524411 DWZ524259:DWZ524411 EGV524259:EGV524411 EQR524259:EQR524411 FAN524259:FAN524411 FKJ524259:FKJ524411 FUF524259:FUF524411 GEB524259:GEB524411 GNX524259:GNX524411 GXT524259:GXT524411 HHP524259:HHP524411 HRL524259:HRL524411 IBH524259:IBH524411 ILD524259:ILD524411 IUZ524259:IUZ524411 JEV524259:JEV524411 JOR524259:JOR524411 JYN524259:JYN524411 KIJ524259:KIJ524411 KSF524259:KSF524411 LCB524259:LCB524411 LLX524259:LLX524411 LVT524259:LVT524411 MFP524259:MFP524411 MPL524259:MPL524411 MZH524259:MZH524411 NJD524259:NJD524411 NSZ524259:NSZ524411 OCV524259:OCV524411 OMR524259:OMR524411 OWN524259:OWN524411 PGJ524259:PGJ524411 PQF524259:PQF524411 QAB524259:QAB524411 QJX524259:QJX524411 QTT524259:QTT524411 RDP524259:RDP524411 RNL524259:RNL524411 RXH524259:RXH524411 SHD524259:SHD524411 SQZ524259:SQZ524411 TAV524259:TAV524411 TKR524259:TKR524411 TUN524259:TUN524411 UEJ524259:UEJ524411 UOF524259:UOF524411 UYB524259:UYB524411 VHX524259:VHX524411 VRT524259:VRT524411 WBP524259:WBP524411 WLL524259:WLL524411 WVH524259:WVH524411 I589795:I589947 IV589795:IV589947 SR589795:SR589947 ACN589795:ACN589947 AMJ589795:AMJ589947 AWF589795:AWF589947 BGB589795:BGB589947 BPX589795:BPX589947 BZT589795:BZT589947 CJP589795:CJP589947 CTL589795:CTL589947 DDH589795:DDH589947 DND589795:DND589947 DWZ589795:DWZ589947 EGV589795:EGV589947 EQR589795:EQR589947 FAN589795:FAN589947 FKJ589795:FKJ589947 FUF589795:FUF589947 GEB589795:GEB589947 GNX589795:GNX589947 GXT589795:GXT589947 HHP589795:HHP589947 HRL589795:HRL589947 IBH589795:IBH589947 ILD589795:ILD589947 IUZ589795:IUZ589947 JEV589795:JEV589947 JOR589795:JOR589947 JYN589795:JYN589947 KIJ589795:KIJ589947 KSF589795:KSF589947 LCB589795:LCB589947 LLX589795:LLX589947 LVT589795:LVT589947 MFP589795:MFP589947 MPL589795:MPL589947 MZH589795:MZH589947 NJD589795:NJD589947 NSZ589795:NSZ589947 OCV589795:OCV589947 OMR589795:OMR589947 OWN589795:OWN589947 PGJ589795:PGJ589947 PQF589795:PQF589947 QAB589795:QAB589947 QJX589795:QJX589947 QTT589795:QTT589947 RDP589795:RDP589947 RNL589795:RNL589947 RXH589795:RXH589947 SHD589795:SHD589947 SQZ589795:SQZ589947 TAV589795:TAV589947 TKR589795:TKR589947 TUN589795:TUN589947 UEJ589795:UEJ589947 UOF589795:UOF589947 UYB589795:UYB589947 VHX589795:VHX589947 VRT589795:VRT589947 WBP589795:WBP589947 WLL589795:WLL589947 WVH589795:WVH589947 I655331:I655483 IV655331:IV655483 SR655331:SR655483 ACN655331:ACN655483 AMJ655331:AMJ655483 AWF655331:AWF655483 BGB655331:BGB655483 BPX655331:BPX655483 BZT655331:BZT655483 CJP655331:CJP655483 CTL655331:CTL655483 DDH655331:DDH655483 DND655331:DND655483 DWZ655331:DWZ655483 EGV655331:EGV655483 EQR655331:EQR655483 FAN655331:FAN655483 FKJ655331:FKJ655483 FUF655331:FUF655483 GEB655331:GEB655483 GNX655331:GNX655483 GXT655331:GXT655483 HHP655331:HHP655483 HRL655331:HRL655483 IBH655331:IBH655483 ILD655331:ILD655483 IUZ655331:IUZ655483 JEV655331:JEV655483 JOR655331:JOR655483 JYN655331:JYN655483 KIJ655331:KIJ655483 KSF655331:KSF655483 LCB655331:LCB655483 LLX655331:LLX655483 LVT655331:LVT655483 MFP655331:MFP655483 MPL655331:MPL655483 MZH655331:MZH655483 NJD655331:NJD655483 NSZ655331:NSZ655483 OCV655331:OCV655483 OMR655331:OMR655483 OWN655331:OWN655483 PGJ655331:PGJ655483 PQF655331:PQF655483 QAB655331:QAB655483 QJX655331:QJX655483 QTT655331:QTT655483 RDP655331:RDP655483 RNL655331:RNL655483 RXH655331:RXH655483 SHD655331:SHD655483 SQZ655331:SQZ655483 TAV655331:TAV655483 TKR655331:TKR655483 TUN655331:TUN655483 UEJ655331:UEJ655483 UOF655331:UOF655483 UYB655331:UYB655483 VHX655331:VHX655483 VRT655331:VRT655483 WBP655331:WBP655483 WLL655331:WLL655483 WVH655331:WVH655483 I720867:I721019 IV720867:IV721019 SR720867:SR721019 ACN720867:ACN721019 AMJ720867:AMJ721019 AWF720867:AWF721019 BGB720867:BGB721019 BPX720867:BPX721019 BZT720867:BZT721019 CJP720867:CJP721019 CTL720867:CTL721019 DDH720867:DDH721019 DND720867:DND721019 DWZ720867:DWZ721019 EGV720867:EGV721019 EQR720867:EQR721019 FAN720867:FAN721019 FKJ720867:FKJ721019 FUF720867:FUF721019 GEB720867:GEB721019 GNX720867:GNX721019 GXT720867:GXT721019 HHP720867:HHP721019 HRL720867:HRL721019 IBH720867:IBH721019 ILD720867:ILD721019 IUZ720867:IUZ721019 JEV720867:JEV721019 JOR720867:JOR721019 JYN720867:JYN721019 KIJ720867:KIJ721019 KSF720867:KSF721019 LCB720867:LCB721019 LLX720867:LLX721019 LVT720867:LVT721019 MFP720867:MFP721019 MPL720867:MPL721019 MZH720867:MZH721019 NJD720867:NJD721019 NSZ720867:NSZ721019 OCV720867:OCV721019 OMR720867:OMR721019 OWN720867:OWN721019 PGJ720867:PGJ721019 PQF720867:PQF721019 QAB720867:QAB721019 QJX720867:QJX721019 QTT720867:QTT721019 RDP720867:RDP721019 RNL720867:RNL721019 RXH720867:RXH721019 SHD720867:SHD721019 SQZ720867:SQZ721019 TAV720867:TAV721019 TKR720867:TKR721019 TUN720867:TUN721019 UEJ720867:UEJ721019 UOF720867:UOF721019 UYB720867:UYB721019 VHX720867:VHX721019 VRT720867:VRT721019 WBP720867:WBP721019 WLL720867:WLL721019 WVH720867:WVH721019 I786403:I786555 IV786403:IV786555 SR786403:SR786555 ACN786403:ACN786555 AMJ786403:AMJ786555 AWF786403:AWF786555 BGB786403:BGB786555 BPX786403:BPX786555 BZT786403:BZT786555 CJP786403:CJP786555 CTL786403:CTL786555 DDH786403:DDH786555 DND786403:DND786555 DWZ786403:DWZ786555 EGV786403:EGV786555 EQR786403:EQR786555 FAN786403:FAN786555 FKJ786403:FKJ786555 FUF786403:FUF786555 GEB786403:GEB786555 GNX786403:GNX786555 GXT786403:GXT786555 HHP786403:HHP786555 HRL786403:HRL786555 IBH786403:IBH786555 ILD786403:ILD786555 IUZ786403:IUZ786555 JEV786403:JEV786555 JOR786403:JOR786555 JYN786403:JYN786555 KIJ786403:KIJ786555 KSF786403:KSF786555 LCB786403:LCB786555 LLX786403:LLX786555 LVT786403:LVT786555 MFP786403:MFP786555 MPL786403:MPL786555 MZH786403:MZH786555 NJD786403:NJD786555 NSZ786403:NSZ786555 OCV786403:OCV786555 OMR786403:OMR786555 OWN786403:OWN786555 PGJ786403:PGJ786555 PQF786403:PQF786555 QAB786403:QAB786555 QJX786403:QJX786555 QTT786403:QTT786555 RDP786403:RDP786555 RNL786403:RNL786555 RXH786403:RXH786555 SHD786403:SHD786555 SQZ786403:SQZ786555 TAV786403:TAV786555 TKR786403:TKR786555 TUN786403:TUN786555 UEJ786403:UEJ786555 UOF786403:UOF786555 UYB786403:UYB786555 VHX786403:VHX786555 VRT786403:VRT786555 WBP786403:WBP786555 WLL786403:WLL786555 WVH786403:WVH786555 I851939:I852091 IV851939:IV852091 SR851939:SR852091 ACN851939:ACN852091 AMJ851939:AMJ852091 AWF851939:AWF852091 BGB851939:BGB852091 BPX851939:BPX852091 BZT851939:BZT852091 CJP851939:CJP852091 CTL851939:CTL852091 DDH851939:DDH852091 DND851939:DND852091 DWZ851939:DWZ852091 EGV851939:EGV852091 EQR851939:EQR852091 FAN851939:FAN852091 FKJ851939:FKJ852091 FUF851939:FUF852091 GEB851939:GEB852091 GNX851939:GNX852091 GXT851939:GXT852091 HHP851939:HHP852091 HRL851939:HRL852091 IBH851939:IBH852091 ILD851939:ILD852091 IUZ851939:IUZ852091 JEV851939:JEV852091 JOR851939:JOR852091 JYN851939:JYN852091 KIJ851939:KIJ852091 KSF851939:KSF852091 LCB851939:LCB852091 LLX851939:LLX852091 LVT851939:LVT852091 MFP851939:MFP852091 MPL851939:MPL852091 MZH851939:MZH852091 NJD851939:NJD852091 NSZ851939:NSZ852091 OCV851939:OCV852091 OMR851939:OMR852091 OWN851939:OWN852091 PGJ851939:PGJ852091 PQF851939:PQF852091 QAB851939:QAB852091 QJX851939:QJX852091 QTT851939:QTT852091 RDP851939:RDP852091 RNL851939:RNL852091 RXH851939:RXH852091 SHD851939:SHD852091 SQZ851939:SQZ852091 TAV851939:TAV852091 TKR851939:TKR852091 TUN851939:TUN852091 UEJ851939:UEJ852091 UOF851939:UOF852091 UYB851939:UYB852091 VHX851939:VHX852091 VRT851939:VRT852091 WBP851939:WBP852091 WLL851939:WLL852091 WVH851939:WVH852091 I917475:I917627 IV917475:IV917627 SR917475:SR917627 ACN917475:ACN917627 AMJ917475:AMJ917627 AWF917475:AWF917627 BGB917475:BGB917627 BPX917475:BPX917627 BZT917475:BZT917627 CJP917475:CJP917627 CTL917475:CTL917627 DDH917475:DDH917627 DND917475:DND917627 DWZ917475:DWZ917627 EGV917475:EGV917627 EQR917475:EQR917627 FAN917475:FAN917627 FKJ917475:FKJ917627 FUF917475:FUF917627 GEB917475:GEB917627 GNX917475:GNX917627 GXT917475:GXT917627 HHP917475:HHP917627 HRL917475:HRL917627 IBH917475:IBH917627 ILD917475:ILD917627 IUZ917475:IUZ917627 JEV917475:JEV917627 JOR917475:JOR917627 JYN917475:JYN917627 KIJ917475:KIJ917627 KSF917475:KSF917627 LCB917475:LCB917627 LLX917475:LLX917627 LVT917475:LVT917627 MFP917475:MFP917627 MPL917475:MPL917627 MZH917475:MZH917627 NJD917475:NJD917627 NSZ917475:NSZ917627 OCV917475:OCV917627 OMR917475:OMR917627 OWN917475:OWN917627 PGJ917475:PGJ917627 PQF917475:PQF917627 QAB917475:QAB917627 QJX917475:QJX917627 QTT917475:QTT917627 RDP917475:RDP917627 RNL917475:RNL917627 RXH917475:RXH917627 SHD917475:SHD917627 SQZ917475:SQZ917627 TAV917475:TAV917627 TKR917475:TKR917627 TUN917475:TUN917627 UEJ917475:UEJ917627 UOF917475:UOF917627 UYB917475:UYB917627 VHX917475:VHX917627 VRT917475:VRT917627 WBP917475:WBP917627 WLL917475:WLL917627 WVH917475:WVH917627 I983011:I983163 IV983011:IV983163 SR983011:SR983163 ACN983011:ACN983163 AMJ983011:AMJ983163 AWF983011:AWF983163 BGB983011:BGB983163 BPX983011:BPX983163 BZT983011:BZT983163 CJP983011:CJP983163 CTL983011:CTL983163 DDH983011:DDH983163 DND983011:DND983163 DWZ983011:DWZ983163 EGV983011:EGV983163 EQR983011:EQR983163 FAN983011:FAN983163 FKJ983011:FKJ983163 FUF983011:FUF983163 GEB983011:GEB983163 GNX983011:GNX983163 GXT983011:GXT983163 HHP983011:HHP983163 HRL983011:HRL983163 IBH983011:IBH983163 ILD983011:ILD983163 IUZ983011:IUZ983163 JEV983011:JEV983163 JOR983011:JOR983163 JYN983011:JYN983163 KIJ983011:KIJ983163 KSF983011:KSF983163 LCB983011:LCB983163 LLX983011:LLX983163 LVT983011:LVT983163 MFP983011:MFP983163 MPL983011:MPL983163 MZH983011:MZH983163 NJD983011:NJD983163 NSZ983011:NSZ983163 OCV983011:OCV983163 OMR983011:OMR983163 OWN983011:OWN983163 PGJ983011:PGJ983163 PQF983011:PQF983163 QAB983011:QAB983163 QJX983011:QJX983163 QTT983011:QTT983163 RDP983011:RDP983163 RNL983011:RNL983163 RXH983011:RXH983163 SHD983011:SHD983163 SQZ983011:SQZ983163 TAV983011:TAV983163 TKR983011:TKR983163 TUN983011:TUN983163 UEJ983011:UEJ983163 UOF983011:UOF983163 UYB983011:UYB983163 VHX983011:VHX983163 VRT983011:VRT983163 WBP983011:WBP983163 WLL983011:WLL983163 I83:I123 SR7:SR123 ACN7:ACN123 AMJ7:AMJ123 AWF7:AWF123 BGB7:BGB123 BPX7:BPX123 BZT7:BZT123 CJP7:CJP123 CTL7:CTL123 DDH7:DDH123 DND7:DND123 DWZ7:DWZ123 EGV7:EGV123 EQR7:EQR123 FAN7:FAN123 FKJ7:FKJ123 FUF7:FUF123 GEB7:GEB123 GNX7:GNX123 GXT7:GXT123 HHP7:HHP123 HRL7:HRL123 IBH7:IBH123 ILD7:ILD123 IUZ7:IUZ123 JEV7:JEV123 JOR7:JOR123 JYN7:JYN123 KIJ7:KIJ123 KSF7:KSF123 LCB7:LCB123 LLX7:LLX123 LVT7:LVT123 MFP7:MFP123 MPL7:MPL123 MZH7:MZH123 NJD7:NJD123 NSZ7:NSZ123 OCV7:OCV123 OMR7:OMR123 OWN7:OWN123 PGJ7:PGJ123 PQF7:PQF123 QAB7:QAB123 QJX7:QJX123 QTT7:QTT123 RDP7:RDP123 RNL7:RNL123 RXH7:RXH123 SHD7:SHD123 SQZ7:SQZ123 TAV7:TAV123 TKR7:TKR123 TUN7:TUN123 UEJ7:UEJ123 UOF7:UOF123 UYB7:UYB123 VHX7:VHX123 VRT7:VRT123 WBP7:WBP123 WLL7:WLL123 WVH7:WVH123 IV7:IV123 I7:I74" xr:uid="{EF164A01-28C1-4FE5-897F-1EFC6A308311}">
       <formula1>$AJ$11:$AJ$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVI983014:WVK983166 WLM983014:WLO983166 WBQ983014:WBS983166 VRU983014:VRW983166 VHY983014:VIA983166 UYC983014:UYE983166 UOG983014:UOI983166 UEK983014:UEM983166 TUO983014:TUQ983166 TKS983014:TKU983166 TAW983014:TAY983166 SRA983014:SRC983166 SHE983014:SHG983166 RXI983014:RXK983166 RNM983014:RNO983166 RDQ983014:RDS983166 QTU983014:QTW983166 QJY983014:QKA983166 QAC983014:QAE983166 PQG983014:PQI983166 PGK983014:PGM983166 OWO983014:OWQ983166 OMS983014:OMU983166 OCW983014:OCY983166 NTA983014:NTC983166 NJE983014:NJG983166 MZI983014:MZK983166 MPM983014:MPO983166 MFQ983014:MFS983166 LVU983014:LVW983166 LLY983014:LMA983166 LCC983014:LCE983166 KSG983014:KSI983166 KIK983014:KIM983166 JYO983014:JYQ983166 JOS983014:JOU983166 JEW983014:JEY983166 IVA983014:IVC983166 ILE983014:ILG983166 IBI983014:IBK983166 HRM983014:HRO983166 HHQ983014:HHS983166 GXU983014:GXW983166 GNY983014:GOA983166 GEC983014:GEE983166 FUG983014:FUI983166 FKK983014:FKM983166 FAO983014:FAQ983166 EQS983014:EQU983166 EGW983014:EGY983166 DXA983014:DXC983166 DNE983014:DNG983166 DDI983014:DDK983166 CTM983014:CTO983166 CJQ983014:CJS983166 BZU983014:BZW983166 BPY983014:BQA983166 BGC983014:BGE983166 AWG983014:AWI983166 AMK983014:AMM983166 ACO983014:ACQ983166 SS983014:SU983166 IW983014:IY983166 J983014:L983166 WVI917478:WVK917630 WLM917478:WLO917630 WBQ917478:WBS917630 VRU917478:VRW917630 VHY917478:VIA917630 UYC917478:UYE917630 UOG917478:UOI917630 UEK917478:UEM917630 TUO917478:TUQ917630 TKS917478:TKU917630 TAW917478:TAY917630 SRA917478:SRC917630 SHE917478:SHG917630 RXI917478:RXK917630 RNM917478:RNO917630 RDQ917478:RDS917630 QTU917478:QTW917630 QJY917478:QKA917630 QAC917478:QAE917630 PQG917478:PQI917630 PGK917478:PGM917630 OWO917478:OWQ917630 OMS917478:OMU917630 OCW917478:OCY917630 NTA917478:NTC917630 NJE917478:NJG917630 MZI917478:MZK917630 MPM917478:MPO917630 MFQ917478:MFS917630 LVU917478:LVW917630 LLY917478:LMA917630 LCC917478:LCE917630 KSG917478:KSI917630 KIK917478:KIM917630 JYO917478:JYQ917630 JOS917478:JOU917630 JEW917478:JEY917630 IVA917478:IVC917630 ILE917478:ILG917630 IBI917478:IBK917630 HRM917478:HRO917630 HHQ917478:HHS917630 GXU917478:GXW917630 GNY917478:GOA917630 GEC917478:GEE917630 FUG917478:FUI917630 FKK917478:FKM917630 FAO917478:FAQ917630 EQS917478:EQU917630 EGW917478:EGY917630 DXA917478:DXC917630 DNE917478:DNG917630 DDI917478:DDK917630 CTM917478:CTO917630 CJQ917478:CJS917630 BZU917478:BZW917630 BPY917478:BQA917630 BGC917478:BGE917630 AWG917478:AWI917630 AMK917478:AMM917630 ACO917478:ACQ917630 SS917478:SU917630 IW917478:IY917630 J917478:L917630 WVI851942:WVK852094 WLM851942:WLO852094 WBQ851942:WBS852094 VRU851942:VRW852094 VHY851942:VIA852094 UYC851942:UYE852094 UOG851942:UOI852094 UEK851942:UEM852094 TUO851942:TUQ852094 TKS851942:TKU852094 TAW851942:TAY852094 SRA851942:SRC852094 SHE851942:SHG852094 RXI851942:RXK852094 RNM851942:RNO852094 RDQ851942:RDS852094 QTU851942:QTW852094 QJY851942:QKA852094 QAC851942:QAE852094 PQG851942:PQI852094 PGK851942:PGM852094 OWO851942:OWQ852094 OMS851942:OMU852094 OCW851942:OCY852094 NTA851942:NTC852094 NJE851942:NJG852094 MZI851942:MZK852094 MPM851942:MPO852094 MFQ851942:MFS852094 LVU851942:LVW852094 LLY851942:LMA852094 LCC851942:LCE852094 KSG851942:KSI852094 KIK851942:KIM852094 JYO851942:JYQ852094 JOS851942:JOU852094 JEW851942:JEY852094 IVA851942:IVC852094 ILE851942:ILG852094 IBI851942:IBK852094 HRM851942:HRO852094 HHQ851942:HHS852094 GXU851942:GXW852094 GNY851942:GOA852094 GEC851942:GEE852094 FUG851942:FUI852094 FKK851942:FKM852094 FAO851942:FAQ852094 EQS851942:EQU852094 EGW851942:EGY852094 DXA851942:DXC852094 DNE851942:DNG852094 DDI851942:DDK852094 CTM851942:CTO852094 CJQ851942:CJS852094 BZU851942:BZW852094 BPY851942:BQA852094 BGC851942:BGE852094 AWG851942:AWI852094 AMK851942:AMM852094 ACO851942:ACQ852094 SS851942:SU852094 IW851942:IY852094 J851942:L852094 WVI786406:WVK786558 WLM786406:WLO786558 WBQ786406:WBS786558 VRU786406:VRW786558 VHY786406:VIA786558 UYC786406:UYE786558 UOG786406:UOI786558 UEK786406:UEM786558 TUO786406:TUQ786558 TKS786406:TKU786558 TAW786406:TAY786558 SRA786406:SRC786558 SHE786406:SHG786558 RXI786406:RXK786558 RNM786406:RNO786558 RDQ786406:RDS786558 QTU786406:QTW786558 QJY786406:QKA786558 QAC786406:QAE786558 PQG786406:PQI786558 PGK786406:PGM786558 OWO786406:OWQ786558 OMS786406:OMU786558 OCW786406:OCY786558 NTA786406:NTC786558 NJE786406:NJG786558 MZI786406:MZK786558 MPM786406:MPO786558 MFQ786406:MFS786558 LVU786406:LVW786558 LLY786406:LMA786558 LCC786406:LCE786558 KSG786406:KSI786558 KIK786406:KIM786558 JYO786406:JYQ786558 JOS786406:JOU786558 JEW786406:JEY786558 IVA786406:IVC786558 ILE786406:ILG786558 IBI786406:IBK786558 HRM786406:HRO786558 HHQ786406:HHS786558 GXU786406:GXW786558 GNY786406:GOA786558 GEC786406:GEE786558 FUG786406:FUI786558 FKK786406:FKM786558 FAO786406:FAQ786558 EQS786406:EQU786558 EGW786406:EGY786558 DXA786406:DXC786558 DNE786406:DNG786558 DDI786406:DDK786558 CTM786406:CTO786558 CJQ786406:CJS786558 BZU786406:BZW786558 BPY786406:BQA786558 BGC786406:BGE786558 AWG786406:AWI786558 AMK786406:AMM786558 ACO786406:ACQ786558 SS786406:SU786558 IW786406:IY786558 J786406:L786558 WVI720870:WVK721022 WLM720870:WLO721022 WBQ720870:WBS721022 VRU720870:VRW721022 VHY720870:VIA721022 UYC720870:UYE721022 UOG720870:UOI721022 UEK720870:UEM721022 TUO720870:TUQ721022 TKS720870:TKU721022 TAW720870:TAY721022 SRA720870:SRC721022 SHE720870:SHG721022 RXI720870:RXK721022 RNM720870:RNO721022 RDQ720870:RDS721022 QTU720870:QTW721022 QJY720870:QKA721022 QAC720870:QAE721022 PQG720870:PQI721022 PGK720870:PGM721022 OWO720870:OWQ721022 OMS720870:OMU721022 OCW720870:OCY721022 NTA720870:NTC721022 NJE720870:NJG721022 MZI720870:MZK721022 MPM720870:MPO721022 MFQ720870:MFS721022 LVU720870:LVW721022 LLY720870:LMA721022 LCC720870:LCE721022 KSG720870:KSI721022 KIK720870:KIM721022 JYO720870:JYQ721022 JOS720870:JOU721022 JEW720870:JEY721022 IVA720870:IVC721022 ILE720870:ILG721022 IBI720870:IBK721022 HRM720870:HRO721022 HHQ720870:HHS721022 GXU720870:GXW721022 GNY720870:GOA721022 GEC720870:GEE721022 FUG720870:FUI721022 FKK720870:FKM721022 FAO720870:FAQ721022 EQS720870:EQU721022 EGW720870:EGY721022 DXA720870:DXC721022 DNE720870:DNG721022 DDI720870:DDK721022 CTM720870:CTO721022 CJQ720870:CJS721022 BZU720870:BZW721022 BPY720870:BQA721022 BGC720870:BGE721022 AWG720870:AWI721022 AMK720870:AMM721022 ACO720870:ACQ721022 SS720870:SU721022 IW720870:IY721022 J720870:L721022 WVI655334:WVK655486 WLM655334:WLO655486 WBQ655334:WBS655486 VRU655334:VRW655486 VHY655334:VIA655486 UYC655334:UYE655486 UOG655334:UOI655486 UEK655334:UEM655486 TUO655334:TUQ655486 TKS655334:TKU655486 TAW655334:TAY655486 SRA655334:SRC655486 SHE655334:SHG655486 RXI655334:RXK655486 RNM655334:RNO655486 RDQ655334:RDS655486 QTU655334:QTW655486 QJY655334:QKA655486 QAC655334:QAE655486 PQG655334:PQI655486 PGK655334:PGM655486 OWO655334:OWQ655486 OMS655334:OMU655486 OCW655334:OCY655486 NTA655334:NTC655486 NJE655334:NJG655486 MZI655334:MZK655486 MPM655334:MPO655486 MFQ655334:MFS655486 LVU655334:LVW655486 LLY655334:LMA655486 LCC655334:LCE655486 KSG655334:KSI655486 KIK655334:KIM655486 JYO655334:JYQ655486 JOS655334:JOU655486 JEW655334:JEY655486 IVA655334:IVC655486 ILE655334:ILG655486 IBI655334:IBK655486 HRM655334:HRO655486 HHQ655334:HHS655486 GXU655334:GXW655486 GNY655334:GOA655486 GEC655334:GEE655486 FUG655334:FUI655486 FKK655334:FKM655486 FAO655334:FAQ655486 EQS655334:EQU655486 EGW655334:EGY655486 DXA655334:DXC655486 DNE655334:DNG655486 DDI655334:DDK655486 CTM655334:CTO655486 CJQ655334:CJS655486 BZU655334:BZW655486 BPY655334:BQA655486 BGC655334:BGE655486 AWG655334:AWI655486 AMK655334:AMM655486 ACO655334:ACQ655486 SS655334:SU655486 IW655334:IY655486 J655334:L655486 WVI589798:WVK589950 WLM589798:WLO589950 WBQ589798:WBS589950 VRU589798:VRW589950 VHY589798:VIA589950 UYC589798:UYE589950 UOG589798:UOI589950 UEK589798:UEM589950 TUO589798:TUQ589950 TKS589798:TKU589950 TAW589798:TAY589950 SRA589798:SRC589950 SHE589798:SHG589950 RXI589798:RXK589950 RNM589798:RNO589950 RDQ589798:RDS589950 QTU589798:QTW589950 QJY589798:QKA589950 QAC589798:QAE589950 PQG589798:PQI589950 PGK589798:PGM589950 OWO589798:OWQ589950 OMS589798:OMU589950 OCW589798:OCY589950 NTA589798:NTC589950 NJE589798:NJG589950 MZI589798:MZK589950 MPM589798:MPO589950 MFQ589798:MFS589950 LVU589798:LVW589950 LLY589798:LMA589950 LCC589798:LCE589950 KSG589798:KSI589950 KIK589798:KIM589950 JYO589798:JYQ589950 JOS589798:JOU589950 JEW589798:JEY589950 IVA589798:IVC589950 ILE589798:ILG589950 IBI589798:IBK589950 HRM589798:HRO589950 HHQ589798:HHS589950 GXU589798:GXW589950 GNY589798:GOA589950 GEC589798:GEE589950 FUG589798:FUI589950 FKK589798:FKM589950 FAO589798:FAQ589950 EQS589798:EQU589950 EGW589798:EGY589950 DXA589798:DXC589950 DNE589798:DNG589950 DDI589798:DDK589950 CTM589798:CTO589950 CJQ589798:CJS589950 BZU589798:BZW589950 BPY589798:BQA589950 BGC589798:BGE589950 AWG589798:AWI589950 AMK589798:AMM589950 ACO589798:ACQ589950 SS589798:SU589950 IW589798:IY589950 J589798:L589950 WVI524262:WVK524414 WLM524262:WLO524414 WBQ524262:WBS524414 VRU524262:VRW524414 VHY524262:VIA524414 UYC524262:UYE524414 UOG524262:UOI524414 UEK524262:UEM524414 TUO524262:TUQ524414 TKS524262:TKU524414 TAW524262:TAY524414 SRA524262:SRC524414 SHE524262:SHG524414 RXI524262:RXK524414 RNM524262:RNO524414 RDQ524262:RDS524414 QTU524262:QTW524414 QJY524262:QKA524414 QAC524262:QAE524414 PQG524262:PQI524414 PGK524262:PGM524414 OWO524262:OWQ524414 OMS524262:OMU524414 OCW524262:OCY524414 NTA524262:NTC524414 NJE524262:NJG524414 MZI524262:MZK524414 MPM524262:MPO524414 MFQ524262:MFS524414 LVU524262:LVW524414 LLY524262:LMA524414 LCC524262:LCE524414 KSG524262:KSI524414 KIK524262:KIM524414 JYO524262:JYQ524414 JOS524262:JOU524414 JEW524262:JEY524414 IVA524262:IVC524414 ILE524262:ILG524414 IBI524262:IBK524414 HRM524262:HRO524414 HHQ524262:HHS524414 GXU524262:GXW524414 GNY524262:GOA524414 GEC524262:GEE524414 FUG524262:FUI524414 FKK524262:FKM524414 FAO524262:FAQ524414 EQS524262:EQU524414 EGW524262:EGY524414 DXA524262:DXC524414 DNE524262:DNG524414 DDI524262:DDK524414 CTM524262:CTO524414 CJQ524262:CJS524414 BZU524262:BZW524414 BPY524262:BQA524414 BGC524262:BGE524414 AWG524262:AWI524414 AMK524262:AMM524414 ACO524262:ACQ524414 SS524262:SU524414 IW524262:IY524414 J524262:L524414 WVI458726:WVK458878 WLM458726:WLO458878 WBQ458726:WBS458878 VRU458726:VRW458878 VHY458726:VIA458878 UYC458726:UYE458878 UOG458726:UOI458878 UEK458726:UEM458878 TUO458726:TUQ458878 TKS458726:TKU458878 TAW458726:TAY458878 SRA458726:SRC458878 SHE458726:SHG458878 RXI458726:RXK458878 RNM458726:RNO458878 RDQ458726:RDS458878 QTU458726:QTW458878 QJY458726:QKA458878 QAC458726:QAE458878 PQG458726:PQI458878 PGK458726:PGM458878 OWO458726:OWQ458878 OMS458726:OMU458878 OCW458726:OCY458878 NTA458726:NTC458878 NJE458726:NJG458878 MZI458726:MZK458878 MPM458726:MPO458878 MFQ458726:MFS458878 LVU458726:LVW458878 LLY458726:LMA458878 LCC458726:LCE458878 KSG458726:KSI458878 KIK458726:KIM458878 JYO458726:JYQ458878 JOS458726:JOU458878 JEW458726:JEY458878 IVA458726:IVC458878 ILE458726:ILG458878 IBI458726:IBK458878 HRM458726:HRO458878 HHQ458726:HHS458878 GXU458726:GXW458878 GNY458726:GOA458878 GEC458726:GEE458878 FUG458726:FUI458878 FKK458726:FKM458878 FAO458726:FAQ458878 EQS458726:EQU458878 EGW458726:EGY458878 DXA458726:DXC458878 DNE458726:DNG458878 DDI458726:DDK458878 CTM458726:CTO458878 CJQ458726:CJS458878 BZU458726:BZW458878 BPY458726:BQA458878 BGC458726:BGE458878 AWG458726:AWI458878 AMK458726:AMM458878 ACO458726:ACQ458878 SS458726:SU458878 IW458726:IY458878 J458726:L458878 WVI393190:WVK393342 WLM393190:WLO393342 WBQ393190:WBS393342 VRU393190:VRW393342 VHY393190:VIA393342 UYC393190:UYE393342 UOG393190:UOI393342 UEK393190:UEM393342 TUO393190:TUQ393342 TKS393190:TKU393342 TAW393190:TAY393342 SRA393190:SRC393342 SHE393190:SHG393342 RXI393190:RXK393342 RNM393190:RNO393342 RDQ393190:RDS393342 QTU393190:QTW393342 QJY393190:QKA393342 QAC393190:QAE393342 PQG393190:PQI393342 PGK393190:PGM393342 OWO393190:OWQ393342 OMS393190:OMU393342 OCW393190:OCY393342 NTA393190:NTC393342 NJE393190:NJG393342 MZI393190:MZK393342 MPM393190:MPO393342 MFQ393190:MFS393342 LVU393190:LVW393342 LLY393190:LMA393342 LCC393190:LCE393342 KSG393190:KSI393342 KIK393190:KIM393342 JYO393190:JYQ393342 JOS393190:JOU393342 JEW393190:JEY393342 IVA393190:IVC393342 ILE393190:ILG393342 IBI393190:IBK393342 HRM393190:HRO393342 HHQ393190:HHS393342 GXU393190:GXW393342 GNY393190:GOA393342 GEC393190:GEE393342 FUG393190:FUI393342 FKK393190:FKM393342 FAO393190:FAQ393342 EQS393190:EQU393342 EGW393190:EGY393342 DXA393190:DXC393342 DNE393190:DNG393342 DDI393190:DDK393342 CTM393190:CTO393342 CJQ393190:CJS393342 BZU393190:BZW393342 BPY393190:BQA393342 BGC393190:BGE393342 AWG393190:AWI393342 AMK393190:AMM393342 ACO393190:ACQ393342 SS393190:SU393342 IW393190:IY393342 J393190:L393342 WVI327654:WVK327806 WLM327654:WLO327806 WBQ327654:WBS327806 VRU327654:VRW327806 VHY327654:VIA327806 UYC327654:UYE327806 UOG327654:UOI327806 UEK327654:UEM327806 TUO327654:TUQ327806 TKS327654:TKU327806 TAW327654:TAY327806 SRA327654:SRC327806 SHE327654:SHG327806 RXI327654:RXK327806 RNM327654:RNO327806 RDQ327654:RDS327806 QTU327654:QTW327806 QJY327654:QKA327806 QAC327654:QAE327806 PQG327654:PQI327806 PGK327654:PGM327806 OWO327654:OWQ327806 OMS327654:OMU327806 OCW327654:OCY327806 NTA327654:NTC327806 NJE327654:NJG327806 MZI327654:MZK327806 MPM327654:MPO327806 MFQ327654:MFS327806 LVU327654:LVW327806 LLY327654:LMA327806 LCC327654:LCE327806 KSG327654:KSI327806 KIK327654:KIM327806 JYO327654:JYQ327806 JOS327654:JOU327806 JEW327654:JEY327806 IVA327654:IVC327806 ILE327654:ILG327806 IBI327654:IBK327806 HRM327654:HRO327806 HHQ327654:HHS327806 GXU327654:GXW327806 GNY327654:GOA327806 GEC327654:GEE327806 FUG327654:FUI327806 FKK327654:FKM327806 FAO327654:FAQ327806 EQS327654:EQU327806 EGW327654:EGY327806 DXA327654:DXC327806 DNE327654:DNG327806 DDI327654:DDK327806 CTM327654:CTO327806 CJQ327654:CJS327806 BZU327654:BZW327806 BPY327654:BQA327806 BGC327654:BGE327806 AWG327654:AWI327806 AMK327654:AMM327806 ACO327654:ACQ327806 SS327654:SU327806 IW327654:IY327806 J327654:L327806 WVI262118:WVK262270 WLM262118:WLO262270 WBQ262118:WBS262270 VRU262118:VRW262270 VHY262118:VIA262270 UYC262118:UYE262270 UOG262118:UOI262270 UEK262118:UEM262270 TUO262118:TUQ262270 TKS262118:TKU262270 TAW262118:TAY262270 SRA262118:SRC262270 SHE262118:SHG262270 RXI262118:RXK262270 RNM262118:RNO262270 RDQ262118:RDS262270 QTU262118:QTW262270 QJY262118:QKA262270 QAC262118:QAE262270 PQG262118:PQI262270 PGK262118:PGM262270 OWO262118:OWQ262270 OMS262118:OMU262270 OCW262118:OCY262270 NTA262118:NTC262270 NJE262118:NJG262270 MZI262118:MZK262270 MPM262118:MPO262270 MFQ262118:MFS262270 LVU262118:LVW262270 LLY262118:LMA262270 LCC262118:LCE262270 KSG262118:KSI262270 KIK262118:KIM262270 JYO262118:JYQ262270 JOS262118:JOU262270 JEW262118:JEY262270 IVA262118:IVC262270 ILE262118:ILG262270 IBI262118:IBK262270 HRM262118:HRO262270 HHQ262118:HHS262270 GXU262118:GXW262270 GNY262118:GOA262270 GEC262118:GEE262270 FUG262118:FUI262270 FKK262118:FKM262270 FAO262118:FAQ262270 EQS262118:EQU262270 EGW262118:EGY262270 DXA262118:DXC262270 DNE262118:DNG262270 DDI262118:DDK262270 CTM262118:CTO262270 CJQ262118:CJS262270 BZU262118:BZW262270 BPY262118:BQA262270 BGC262118:BGE262270 AWG262118:AWI262270 AMK262118:AMM262270 ACO262118:ACQ262270 SS262118:SU262270 IW262118:IY262270 J262118:L262270 WVI196582:WVK196734 WLM196582:WLO196734 WBQ196582:WBS196734 VRU196582:VRW196734 VHY196582:VIA196734 UYC196582:UYE196734 UOG196582:UOI196734 UEK196582:UEM196734 TUO196582:TUQ196734 TKS196582:TKU196734 TAW196582:TAY196734 SRA196582:SRC196734 SHE196582:SHG196734 RXI196582:RXK196734 RNM196582:RNO196734 RDQ196582:RDS196734 QTU196582:QTW196734 QJY196582:QKA196734 QAC196582:QAE196734 PQG196582:PQI196734 PGK196582:PGM196734 OWO196582:OWQ196734 OMS196582:OMU196734 OCW196582:OCY196734 NTA196582:NTC196734 NJE196582:NJG196734 MZI196582:MZK196734 MPM196582:MPO196734 MFQ196582:MFS196734 LVU196582:LVW196734 LLY196582:LMA196734 LCC196582:LCE196734 KSG196582:KSI196734 KIK196582:KIM196734 JYO196582:JYQ196734 JOS196582:JOU196734 JEW196582:JEY196734 IVA196582:IVC196734 ILE196582:ILG196734 IBI196582:IBK196734 HRM196582:HRO196734 HHQ196582:HHS196734 GXU196582:GXW196734 GNY196582:GOA196734 GEC196582:GEE196734 FUG196582:FUI196734 FKK196582:FKM196734 FAO196582:FAQ196734 EQS196582:EQU196734 EGW196582:EGY196734 DXA196582:DXC196734 DNE196582:DNG196734 DDI196582:DDK196734 CTM196582:CTO196734 CJQ196582:CJS196734 BZU196582:BZW196734 BPY196582:BQA196734 BGC196582:BGE196734 AWG196582:AWI196734 AMK196582:AMM196734 ACO196582:ACQ196734 SS196582:SU196734 IW196582:IY196734 J196582:L196734 WVI131046:WVK131198 WLM131046:WLO131198 WBQ131046:WBS131198 VRU131046:VRW131198 VHY131046:VIA131198 UYC131046:UYE131198 UOG131046:UOI131198 UEK131046:UEM131198 TUO131046:TUQ131198 TKS131046:TKU131198 TAW131046:TAY131198 SRA131046:SRC131198 SHE131046:SHG131198 RXI131046:RXK131198 RNM131046:RNO131198 RDQ131046:RDS131198 QTU131046:QTW131198 QJY131046:QKA131198 QAC131046:QAE131198 PQG131046:PQI131198 PGK131046:PGM131198 OWO131046:OWQ131198 OMS131046:OMU131198 OCW131046:OCY131198 NTA131046:NTC131198 NJE131046:NJG131198 MZI131046:MZK131198 MPM131046:MPO131198 MFQ131046:MFS131198 LVU131046:LVW131198 LLY131046:LMA131198 LCC131046:LCE131198 KSG131046:KSI131198 KIK131046:KIM131198 JYO131046:JYQ131198 JOS131046:JOU131198 JEW131046:JEY131198 IVA131046:IVC131198 ILE131046:ILG131198 IBI131046:IBK131198 HRM131046:HRO131198 HHQ131046:HHS131198 GXU131046:GXW131198 GNY131046:GOA131198 GEC131046:GEE131198 FUG131046:FUI131198 FKK131046:FKM131198 FAO131046:FAQ131198 EQS131046:EQU131198 EGW131046:EGY131198 DXA131046:DXC131198 DNE131046:DNG131198 DDI131046:DDK131198 CTM131046:CTO131198 CJQ131046:CJS131198 BZU131046:BZW131198 BPY131046:BQA131198 BGC131046:BGE131198 AWG131046:AWI131198 AMK131046:AMM131198 ACO131046:ACQ131198 SS131046:SU131198 IW131046:IY131198 J131046:L131198 WVI65510:WVK65662 WLM65510:WLO65662 WBQ65510:WBS65662 VRU65510:VRW65662 VHY65510:VIA65662 UYC65510:UYE65662 UOG65510:UOI65662 UEK65510:UEM65662 TUO65510:TUQ65662 TKS65510:TKU65662 TAW65510:TAY65662 SRA65510:SRC65662 SHE65510:SHG65662 RXI65510:RXK65662 RNM65510:RNO65662 RDQ65510:RDS65662 QTU65510:QTW65662 QJY65510:QKA65662 QAC65510:QAE65662 PQG65510:PQI65662 PGK65510:PGM65662 OWO65510:OWQ65662 OMS65510:OMU65662 OCW65510:OCY65662 NTA65510:NTC65662 NJE65510:NJG65662 MZI65510:MZK65662 MPM65510:MPO65662 MFQ65510:MFS65662 LVU65510:LVW65662 LLY65510:LMA65662 LCC65510:LCE65662 KSG65510:KSI65662 KIK65510:KIM65662 JYO65510:JYQ65662 JOS65510:JOU65662 JEW65510:JEY65662 IVA65510:IVC65662 ILE65510:ILG65662 IBI65510:IBK65662 HRM65510:HRO65662 HHQ65510:HHS65662 GXU65510:GXW65662 GNY65510:GOA65662 GEC65510:GEE65662 FUG65510:FUI65662 FKK65510:FKM65662 FAO65510:FAQ65662 EQS65510:EQU65662 EGW65510:EGY65662 DXA65510:DXC65662 DNE65510:DNG65662 DDI65510:DDK65662 CTM65510:CTO65662 CJQ65510:CJS65662 BZU65510:BZW65662 BPY65510:BQA65662 BGC65510:BGE65662 AWG65510:AWI65662 AMK65510:AMM65662 ACO65510:ACQ65662 SS65510:SU65662 IW65510:IY65662 J65510:L65662 J86:L126 IW7:IY126 WVI7:WVK126 WLM7:WLO126 WBQ7:WBS126 VRU7:VRW126 VHY7:VIA126 UYC7:UYE126 UOG7:UOI126 UEK7:UEM126 TUO7:TUQ126 TKS7:TKU126 TAW7:TAY126 SRA7:SRC126 SHE7:SHG126 RXI7:RXK126 RNM7:RNO126 RDQ7:RDS126 QTU7:QTW126 QJY7:QKA126 QAC7:QAE126 PQG7:PQI126 PGK7:PGM126 OWO7:OWQ126 OMS7:OMU126 OCW7:OCY126 NTA7:NTC126 NJE7:NJG126 MZI7:MZK126 MPM7:MPO126 MFQ7:MFS126 LVU7:LVW126 LLY7:LMA126 LCC7:LCE126 KSG7:KSI126 KIK7:KIM126 JYO7:JYQ126 JOS7:JOU126 JEW7:JEY126 IVA7:IVC126 ILE7:ILG126 IBI7:IBK126 HRM7:HRO126 HHQ7:HHS126 GXU7:GXW126 GNY7:GOA126 GEC7:GEE126 FUG7:FUI126 FKK7:FKM126 FAO7:FAQ126 EQS7:EQU126 EGW7:EGY126 DXA7:DXC126 DNE7:DNG126 DDI7:DDK126 CTM7:CTO126 CJQ7:CJS126 BZU7:BZW126 BPY7:BQA126 BGC7:BGE126 AWG7:AWI126 AMK7:AMM126 ACO7:ACQ126 SS7:SU126 J7:L77" xr:uid="{9D3809C6-2706-41E8-B9C2-EB4A0B9B8106}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVI983011:WVK983163 WLM983011:WLO983163 WBQ983011:WBS983163 VRU983011:VRW983163 VHY983011:VIA983163 UYC983011:UYE983163 UOG983011:UOI983163 UEK983011:UEM983163 TUO983011:TUQ983163 TKS983011:TKU983163 TAW983011:TAY983163 SRA983011:SRC983163 SHE983011:SHG983163 RXI983011:RXK983163 RNM983011:RNO983163 RDQ983011:RDS983163 QTU983011:QTW983163 QJY983011:QKA983163 QAC983011:QAE983163 PQG983011:PQI983163 PGK983011:PGM983163 OWO983011:OWQ983163 OMS983011:OMU983163 OCW983011:OCY983163 NTA983011:NTC983163 NJE983011:NJG983163 MZI983011:MZK983163 MPM983011:MPO983163 MFQ983011:MFS983163 LVU983011:LVW983163 LLY983011:LMA983163 LCC983011:LCE983163 KSG983011:KSI983163 KIK983011:KIM983163 JYO983011:JYQ983163 JOS983011:JOU983163 JEW983011:JEY983163 IVA983011:IVC983163 ILE983011:ILG983163 IBI983011:IBK983163 HRM983011:HRO983163 HHQ983011:HHS983163 GXU983011:GXW983163 GNY983011:GOA983163 GEC983011:GEE983163 FUG983011:FUI983163 FKK983011:FKM983163 FAO983011:FAQ983163 EQS983011:EQU983163 EGW983011:EGY983163 DXA983011:DXC983163 DNE983011:DNG983163 DDI983011:DDK983163 CTM983011:CTO983163 CJQ983011:CJS983163 BZU983011:BZW983163 BPY983011:BQA983163 BGC983011:BGE983163 AWG983011:AWI983163 AMK983011:AMM983163 ACO983011:ACQ983163 SS983011:SU983163 IW983011:IY983163 J983011:L983163 WVI917475:WVK917627 WLM917475:WLO917627 WBQ917475:WBS917627 VRU917475:VRW917627 VHY917475:VIA917627 UYC917475:UYE917627 UOG917475:UOI917627 UEK917475:UEM917627 TUO917475:TUQ917627 TKS917475:TKU917627 TAW917475:TAY917627 SRA917475:SRC917627 SHE917475:SHG917627 RXI917475:RXK917627 RNM917475:RNO917627 RDQ917475:RDS917627 QTU917475:QTW917627 QJY917475:QKA917627 QAC917475:QAE917627 PQG917475:PQI917627 PGK917475:PGM917627 OWO917475:OWQ917627 OMS917475:OMU917627 OCW917475:OCY917627 NTA917475:NTC917627 NJE917475:NJG917627 MZI917475:MZK917627 MPM917475:MPO917627 MFQ917475:MFS917627 LVU917475:LVW917627 LLY917475:LMA917627 LCC917475:LCE917627 KSG917475:KSI917627 KIK917475:KIM917627 JYO917475:JYQ917627 JOS917475:JOU917627 JEW917475:JEY917627 IVA917475:IVC917627 ILE917475:ILG917627 IBI917475:IBK917627 HRM917475:HRO917627 HHQ917475:HHS917627 GXU917475:GXW917627 GNY917475:GOA917627 GEC917475:GEE917627 FUG917475:FUI917627 FKK917475:FKM917627 FAO917475:FAQ917627 EQS917475:EQU917627 EGW917475:EGY917627 DXA917475:DXC917627 DNE917475:DNG917627 DDI917475:DDK917627 CTM917475:CTO917627 CJQ917475:CJS917627 BZU917475:BZW917627 BPY917475:BQA917627 BGC917475:BGE917627 AWG917475:AWI917627 AMK917475:AMM917627 ACO917475:ACQ917627 SS917475:SU917627 IW917475:IY917627 J917475:L917627 WVI851939:WVK852091 WLM851939:WLO852091 WBQ851939:WBS852091 VRU851939:VRW852091 VHY851939:VIA852091 UYC851939:UYE852091 UOG851939:UOI852091 UEK851939:UEM852091 TUO851939:TUQ852091 TKS851939:TKU852091 TAW851939:TAY852091 SRA851939:SRC852091 SHE851939:SHG852091 RXI851939:RXK852091 RNM851939:RNO852091 RDQ851939:RDS852091 QTU851939:QTW852091 QJY851939:QKA852091 QAC851939:QAE852091 PQG851939:PQI852091 PGK851939:PGM852091 OWO851939:OWQ852091 OMS851939:OMU852091 OCW851939:OCY852091 NTA851939:NTC852091 NJE851939:NJG852091 MZI851939:MZK852091 MPM851939:MPO852091 MFQ851939:MFS852091 LVU851939:LVW852091 LLY851939:LMA852091 LCC851939:LCE852091 KSG851939:KSI852091 KIK851939:KIM852091 JYO851939:JYQ852091 JOS851939:JOU852091 JEW851939:JEY852091 IVA851939:IVC852091 ILE851939:ILG852091 IBI851939:IBK852091 HRM851939:HRO852091 HHQ851939:HHS852091 GXU851939:GXW852091 GNY851939:GOA852091 GEC851939:GEE852091 FUG851939:FUI852091 FKK851939:FKM852091 FAO851939:FAQ852091 EQS851939:EQU852091 EGW851939:EGY852091 DXA851939:DXC852091 DNE851939:DNG852091 DDI851939:DDK852091 CTM851939:CTO852091 CJQ851939:CJS852091 BZU851939:BZW852091 BPY851939:BQA852091 BGC851939:BGE852091 AWG851939:AWI852091 AMK851939:AMM852091 ACO851939:ACQ852091 SS851939:SU852091 IW851939:IY852091 J851939:L852091 WVI786403:WVK786555 WLM786403:WLO786555 WBQ786403:WBS786555 VRU786403:VRW786555 VHY786403:VIA786555 UYC786403:UYE786555 UOG786403:UOI786555 UEK786403:UEM786555 TUO786403:TUQ786555 TKS786403:TKU786555 TAW786403:TAY786555 SRA786403:SRC786555 SHE786403:SHG786555 RXI786403:RXK786555 RNM786403:RNO786555 RDQ786403:RDS786555 QTU786403:QTW786555 QJY786403:QKA786555 QAC786403:QAE786555 PQG786403:PQI786555 PGK786403:PGM786555 OWO786403:OWQ786555 OMS786403:OMU786555 OCW786403:OCY786555 NTA786403:NTC786555 NJE786403:NJG786555 MZI786403:MZK786555 MPM786403:MPO786555 MFQ786403:MFS786555 LVU786403:LVW786555 LLY786403:LMA786555 LCC786403:LCE786555 KSG786403:KSI786555 KIK786403:KIM786555 JYO786403:JYQ786555 JOS786403:JOU786555 JEW786403:JEY786555 IVA786403:IVC786555 ILE786403:ILG786555 IBI786403:IBK786555 HRM786403:HRO786555 HHQ786403:HHS786555 GXU786403:GXW786555 GNY786403:GOA786555 GEC786403:GEE786555 FUG786403:FUI786555 FKK786403:FKM786555 FAO786403:FAQ786555 EQS786403:EQU786555 EGW786403:EGY786555 DXA786403:DXC786555 DNE786403:DNG786555 DDI786403:DDK786555 CTM786403:CTO786555 CJQ786403:CJS786555 BZU786403:BZW786555 BPY786403:BQA786555 BGC786403:BGE786555 AWG786403:AWI786555 AMK786403:AMM786555 ACO786403:ACQ786555 SS786403:SU786555 IW786403:IY786555 J786403:L786555 WVI720867:WVK721019 WLM720867:WLO721019 WBQ720867:WBS721019 VRU720867:VRW721019 VHY720867:VIA721019 UYC720867:UYE721019 UOG720867:UOI721019 UEK720867:UEM721019 TUO720867:TUQ721019 TKS720867:TKU721019 TAW720867:TAY721019 SRA720867:SRC721019 SHE720867:SHG721019 RXI720867:RXK721019 RNM720867:RNO721019 RDQ720867:RDS721019 QTU720867:QTW721019 QJY720867:QKA721019 QAC720867:QAE721019 PQG720867:PQI721019 PGK720867:PGM721019 OWO720867:OWQ721019 OMS720867:OMU721019 OCW720867:OCY721019 NTA720867:NTC721019 NJE720867:NJG721019 MZI720867:MZK721019 MPM720867:MPO721019 MFQ720867:MFS721019 LVU720867:LVW721019 LLY720867:LMA721019 LCC720867:LCE721019 KSG720867:KSI721019 KIK720867:KIM721019 JYO720867:JYQ721019 JOS720867:JOU721019 JEW720867:JEY721019 IVA720867:IVC721019 ILE720867:ILG721019 IBI720867:IBK721019 HRM720867:HRO721019 HHQ720867:HHS721019 GXU720867:GXW721019 GNY720867:GOA721019 GEC720867:GEE721019 FUG720867:FUI721019 FKK720867:FKM721019 FAO720867:FAQ721019 EQS720867:EQU721019 EGW720867:EGY721019 DXA720867:DXC721019 DNE720867:DNG721019 DDI720867:DDK721019 CTM720867:CTO721019 CJQ720867:CJS721019 BZU720867:BZW721019 BPY720867:BQA721019 BGC720867:BGE721019 AWG720867:AWI721019 AMK720867:AMM721019 ACO720867:ACQ721019 SS720867:SU721019 IW720867:IY721019 J720867:L721019 WVI655331:WVK655483 WLM655331:WLO655483 WBQ655331:WBS655483 VRU655331:VRW655483 VHY655331:VIA655483 UYC655331:UYE655483 UOG655331:UOI655483 UEK655331:UEM655483 TUO655331:TUQ655483 TKS655331:TKU655483 TAW655331:TAY655483 SRA655331:SRC655483 SHE655331:SHG655483 RXI655331:RXK655483 RNM655331:RNO655483 RDQ655331:RDS655483 QTU655331:QTW655483 QJY655331:QKA655483 QAC655331:QAE655483 PQG655331:PQI655483 PGK655331:PGM655483 OWO655331:OWQ655483 OMS655331:OMU655483 OCW655331:OCY655483 NTA655331:NTC655483 NJE655331:NJG655483 MZI655331:MZK655483 MPM655331:MPO655483 MFQ655331:MFS655483 LVU655331:LVW655483 LLY655331:LMA655483 LCC655331:LCE655483 KSG655331:KSI655483 KIK655331:KIM655483 JYO655331:JYQ655483 JOS655331:JOU655483 JEW655331:JEY655483 IVA655331:IVC655483 ILE655331:ILG655483 IBI655331:IBK655483 HRM655331:HRO655483 HHQ655331:HHS655483 GXU655331:GXW655483 GNY655331:GOA655483 GEC655331:GEE655483 FUG655331:FUI655483 FKK655331:FKM655483 FAO655331:FAQ655483 EQS655331:EQU655483 EGW655331:EGY655483 DXA655331:DXC655483 DNE655331:DNG655483 DDI655331:DDK655483 CTM655331:CTO655483 CJQ655331:CJS655483 BZU655331:BZW655483 BPY655331:BQA655483 BGC655331:BGE655483 AWG655331:AWI655483 AMK655331:AMM655483 ACO655331:ACQ655483 SS655331:SU655483 IW655331:IY655483 J655331:L655483 WVI589795:WVK589947 WLM589795:WLO589947 WBQ589795:WBS589947 VRU589795:VRW589947 VHY589795:VIA589947 UYC589795:UYE589947 UOG589795:UOI589947 UEK589795:UEM589947 TUO589795:TUQ589947 TKS589795:TKU589947 TAW589795:TAY589947 SRA589795:SRC589947 SHE589795:SHG589947 RXI589795:RXK589947 RNM589795:RNO589947 RDQ589795:RDS589947 QTU589795:QTW589947 QJY589795:QKA589947 QAC589795:QAE589947 PQG589795:PQI589947 PGK589795:PGM589947 OWO589795:OWQ589947 OMS589795:OMU589947 OCW589795:OCY589947 NTA589795:NTC589947 NJE589795:NJG589947 MZI589795:MZK589947 MPM589795:MPO589947 MFQ589795:MFS589947 LVU589795:LVW589947 LLY589795:LMA589947 LCC589795:LCE589947 KSG589795:KSI589947 KIK589795:KIM589947 JYO589795:JYQ589947 JOS589795:JOU589947 JEW589795:JEY589947 IVA589795:IVC589947 ILE589795:ILG589947 IBI589795:IBK589947 HRM589795:HRO589947 HHQ589795:HHS589947 GXU589795:GXW589947 GNY589795:GOA589947 GEC589795:GEE589947 FUG589795:FUI589947 FKK589795:FKM589947 FAO589795:FAQ589947 EQS589795:EQU589947 EGW589795:EGY589947 DXA589795:DXC589947 DNE589795:DNG589947 DDI589795:DDK589947 CTM589795:CTO589947 CJQ589795:CJS589947 BZU589795:BZW589947 BPY589795:BQA589947 BGC589795:BGE589947 AWG589795:AWI589947 AMK589795:AMM589947 ACO589795:ACQ589947 SS589795:SU589947 IW589795:IY589947 J589795:L589947 WVI524259:WVK524411 WLM524259:WLO524411 WBQ524259:WBS524411 VRU524259:VRW524411 VHY524259:VIA524411 UYC524259:UYE524411 UOG524259:UOI524411 UEK524259:UEM524411 TUO524259:TUQ524411 TKS524259:TKU524411 TAW524259:TAY524411 SRA524259:SRC524411 SHE524259:SHG524411 RXI524259:RXK524411 RNM524259:RNO524411 RDQ524259:RDS524411 QTU524259:QTW524411 QJY524259:QKA524411 QAC524259:QAE524411 PQG524259:PQI524411 PGK524259:PGM524411 OWO524259:OWQ524411 OMS524259:OMU524411 OCW524259:OCY524411 NTA524259:NTC524411 NJE524259:NJG524411 MZI524259:MZK524411 MPM524259:MPO524411 MFQ524259:MFS524411 LVU524259:LVW524411 LLY524259:LMA524411 LCC524259:LCE524411 KSG524259:KSI524411 KIK524259:KIM524411 JYO524259:JYQ524411 JOS524259:JOU524411 JEW524259:JEY524411 IVA524259:IVC524411 ILE524259:ILG524411 IBI524259:IBK524411 HRM524259:HRO524411 HHQ524259:HHS524411 GXU524259:GXW524411 GNY524259:GOA524411 GEC524259:GEE524411 FUG524259:FUI524411 FKK524259:FKM524411 FAO524259:FAQ524411 EQS524259:EQU524411 EGW524259:EGY524411 DXA524259:DXC524411 DNE524259:DNG524411 DDI524259:DDK524411 CTM524259:CTO524411 CJQ524259:CJS524411 BZU524259:BZW524411 BPY524259:BQA524411 BGC524259:BGE524411 AWG524259:AWI524411 AMK524259:AMM524411 ACO524259:ACQ524411 SS524259:SU524411 IW524259:IY524411 J524259:L524411 WVI458723:WVK458875 WLM458723:WLO458875 WBQ458723:WBS458875 VRU458723:VRW458875 VHY458723:VIA458875 UYC458723:UYE458875 UOG458723:UOI458875 UEK458723:UEM458875 TUO458723:TUQ458875 TKS458723:TKU458875 TAW458723:TAY458875 SRA458723:SRC458875 SHE458723:SHG458875 RXI458723:RXK458875 RNM458723:RNO458875 RDQ458723:RDS458875 QTU458723:QTW458875 QJY458723:QKA458875 QAC458723:QAE458875 PQG458723:PQI458875 PGK458723:PGM458875 OWO458723:OWQ458875 OMS458723:OMU458875 OCW458723:OCY458875 NTA458723:NTC458875 NJE458723:NJG458875 MZI458723:MZK458875 MPM458723:MPO458875 MFQ458723:MFS458875 LVU458723:LVW458875 LLY458723:LMA458875 LCC458723:LCE458875 KSG458723:KSI458875 KIK458723:KIM458875 JYO458723:JYQ458875 JOS458723:JOU458875 JEW458723:JEY458875 IVA458723:IVC458875 ILE458723:ILG458875 IBI458723:IBK458875 HRM458723:HRO458875 HHQ458723:HHS458875 GXU458723:GXW458875 GNY458723:GOA458875 GEC458723:GEE458875 FUG458723:FUI458875 FKK458723:FKM458875 FAO458723:FAQ458875 EQS458723:EQU458875 EGW458723:EGY458875 DXA458723:DXC458875 DNE458723:DNG458875 DDI458723:DDK458875 CTM458723:CTO458875 CJQ458723:CJS458875 BZU458723:BZW458875 BPY458723:BQA458875 BGC458723:BGE458875 AWG458723:AWI458875 AMK458723:AMM458875 ACO458723:ACQ458875 SS458723:SU458875 IW458723:IY458875 J458723:L458875 WVI393187:WVK393339 WLM393187:WLO393339 WBQ393187:WBS393339 VRU393187:VRW393339 VHY393187:VIA393339 UYC393187:UYE393339 UOG393187:UOI393339 UEK393187:UEM393339 TUO393187:TUQ393339 TKS393187:TKU393339 TAW393187:TAY393339 SRA393187:SRC393339 SHE393187:SHG393339 RXI393187:RXK393339 RNM393187:RNO393339 RDQ393187:RDS393339 QTU393187:QTW393339 QJY393187:QKA393339 QAC393187:QAE393339 PQG393187:PQI393339 PGK393187:PGM393339 OWO393187:OWQ393339 OMS393187:OMU393339 OCW393187:OCY393339 NTA393187:NTC393339 NJE393187:NJG393339 MZI393187:MZK393339 MPM393187:MPO393339 MFQ393187:MFS393339 LVU393187:LVW393339 LLY393187:LMA393339 LCC393187:LCE393339 KSG393187:KSI393339 KIK393187:KIM393339 JYO393187:JYQ393339 JOS393187:JOU393339 JEW393187:JEY393339 IVA393187:IVC393339 ILE393187:ILG393339 IBI393187:IBK393339 HRM393187:HRO393339 HHQ393187:HHS393339 GXU393187:GXW393339 GNY393187:GOA393339 GEC393187:GEE393339 FUG393187:FUI393339 FKK393187:FKM393339 FAO393187:FAQ393339 EQS393187:EQU393339 EGW393187:EGY393339 DXA393187:DXC393339 DNE393187:DNG393339 DDI393187:DDK393339 CTM393187:CTO393339 CJQ393187:CJS393339 BZU393187:BZW393339 BPY393187:BQA393339 BGC393187:BGE393339 AWG393187:AWI393339 AMK393187:AMM393339 ACO393187:ACQ393339 SS393187:SU393339 IW393187:IY393339 J393187:L393339 WVI327651:WVK327803 WLM327651:WLO327803 WBQ327651:WBS327803 VRU327651:VRW327803 VHY327651:VIA327803 UYC327651:UYE327803 UOG327651:UOI327803 UEK327651:UEM327803 TUO327651:TUQ327803 TKS327651:TKU327803 TAW327651:TAY327803 SRA327651:SRC327803 SHE327651:SHG327803 RXI327651:RXK327803 RNM327651:RNO327803 RDQ327651:RDS327803 QTU327651:QTW327803 QJY327651:QKA327803 QAC327651:QAE327803 PQG327651:PQI327803 PGK327651:PGM327803 OWO327651:OWQ327803 OMS327651:OMU327803 OCW327651:OCY327803 NTA327651:NTC327803 NJE327651:NJG327803 MZI327651:MZK327803 MPM327651:MPO327803 MFQ327651:MFS327803 LVU327651:LVW327803 LLY327651:LMA327803 LCC327651:LCE327803 KSG327651:KSI327803 KIK327651:KIM327803 JYO327651:JYQ327803 JOS327651:JOU327803 JEW327651:JEY327803 IVA327651:IVC327803 ILE327651:ILG327803 IBI327651:IBK327803 HRM327651:HRO327803 HHQ327651:HHS327803 GXU327651:GXW327803 GNY327651:GOA327803 GEC327651:GEE327803 FUG327651:FUI327803 FKK327651:FKM327803 FAO327651:FAQ327803 EQS327651:EQU327803 EGW327651:EGY327803 DXA327651:DXC327803 DNE327651:DNG327803 DDI327651:DDK327803 CTM327651:CTO327803 CJQ327651:CJS327803 BZU327651:BZW327803 BPY327651:BQA327803 BGC327651:BGE327803 AWG327651:AWI327803 AMK327651:AMM327803 ACO327651:ACQ327803 SS327651:SU327803 IW327651:IY327803 J327651:L327803 WVI262115:WVK262267 WLM262115:WLO262267 WBQ262115:WBS262267 VRU262115:VRW262267 VHY262115:VIA262267 UYC262115:UYE262267 UOG262115:UOI262267 UEK262115:UEM262267 TUO262115:TUQ262267 TKS262115:TKU262267 TAW262115:TAY262267 SRA262115:SRC262267 SHE262115:SHG262267 RXI262115:RXK262267 RNM262115:RNO262267 RDQ262115:RDS262267 QTU262115:QTW262267 QJY262115:QKA262267 QAC262115:QAE262267 PQG262115:PQI262267 PGK262115:PGM262267 OWO262115:OWQ262267 OMS262115:OMU262267 OCW262115:OCY262267 NTA262115:NTC262267 NJE262115:NJG262267 MZI262115:MZK262267 MPM262115:MPO262267 MFQ262115:MFS262267 LVU262115:LVW262267 LLY262115:LMA262267 LCC262115:LCE262267 KSG262115:KSI262267 KIK262115:KIM262267 JYO262115:JYQ262267 JOS262115:JOU262267 JEW262115:JEY262267 IVA262115:IVC262267 ILE262115:ILG262267 IBI262115:IBK262267 HRM262115:HRO262267 HHQ262115:HHS262267 GXU262115:GXW262267 GNY262115:GOA262267 GEC262115:GEE262267 FUG262115:FUI262267 FKK262115:FKM262267 FAO262115:FAQ262267 EQS262115:EQU262267 EGW262115:EGY262267 DXA262115:DXC262267 DNE262115:DNG262267 DDI262115:DDK262267 CTM262115:CTO262267 CJQ262115:CJS262267 BZU262115:BZW262267 BPY262115:BQA262267 BGC262115:BGE262267 AWG262115:AWI262267 AMK262115:AMM262267 ACO262115:ACQ262267 SS262115:SU262267 IW262115:IY262267 J262115:L262267 WVI196579:WVK196731 WLM196579:WLO196731 WBQ196579:WBS196731 VRU196579:VRW196731 VHY196579:VIA196731 UYC196579:UYE196731 UOG196579:UOI196731 UEK196579:UEM196731 TUO196579:TUQ196731 TKS196579:TKU196731 TAW196579:TAY196731 SRA196579:SRC196731 SHE196579:SHG196731 RXI196579:RXK196731 RNM196579:RNO196731 RDQ196579:RDS196731 QTU196579:QTW196731 QJY196579:QKA196731 QAC196579:QAE196731 PQG196579:PQI196731 PGK196579:PGM196731 OWO196579:OWQ196731 OMS196579:OMU196731 OCW196579:OCY196731 NTA196579:NTC196731 NJE196579:NJG196731 MZI196579:MZK196731 MPM196579:MPO196731 MFQ196579:MFS196731 LVU196579:LVW196731 LLY196579:LMA196731 LCC196579:LCE196731 KSG196579:KSI196731 KIK196579:KIM196731 JYO196579:JYQ196731 JOS196579:JOU196731 JEW196579:JEY196731 IVA196579:IVC196731 ILE196579:ILG196731 IBI196579:IBK196731 HRM196579:HRO196731 HHQ196579:HHS196731 GXU196579:GXW196731 GNY196579:GOA196731 GEC196579:GEE196731 FUG196579:FUI196731 FKK196579:FKM196731 FAO196579:FAQ196731 EQS196579:EQU196731 EGW196579:EGY196731 DXA196579:DXC196731 DNE196579:DNG196731 DDI196579:DDK196731 CTM196579:CTO196731 CJQ196579:CJS196731 BZU196579:BZW196731 BPY196579:BQA196731 BGC196579:BGE196731 AWG196579:AWI196731 AMK196579:AMM196731 ACO196579:ACQ196731 SS196579:SU196731 IW196579:IY196731 J196579:L196731 WVI131043:WVK131195 WLM131043:WLO131195 WBQ131043:WBS131195 VRU131043:VRW131195 VHY131043:VIA131195 UYC131043:UYE131195 UOG131043:UOI131195 UEK131043:UEM131195 TUO131043:TUQ131195 TKS131043:TKU131195 TAW131043:TAY131195 SRA131043:SRC131195 SHE131043:SHG131195 RXI131043:RXK131195 RNM131043:RNO131195 RDQ131043:RDS131195 QTU131043:QTW131195 QJY131043:QKA131195 QAC131043:QAE131195 PQG131043:PQI131195 PGK131043:PGM131195 OWO131043:OWQ131195 OMS131043:OMU131195 OCW131043:OCY131195 NTA131043:NTC131195 NJE131043:NJG131195 MZI131043:MZK131195 MPM131043:MPO131195 MFQ131043:MFS131195 LVU131043:LVW131195 LLY131043:LMA131195 LCC131043:LCE131195 KSG131043:KSI131195 KIK131043:KIM131195 JYO131043:JYQ131195 JOS131043:JOU131195 JEW131043:JEY131195 IVA131043:IVC131195 ILE131043:ILG131195 IBI131043:IBK131195 HRM131043:HRO131195 HHQ131043:HHS131195 GXU131043:GXW131195 GNY131043:GOA131195 GEC131043:GEE131195 FUG131043:FUI131195 FKK131043:FKM131195 FAO131043:FAQ131195 EQS131043:EQU131195 EGW131043:EGY131195 DXA131043:DXC131195 DNE131043:DNG131195 DDI131043:DDK131195 CTM131043:CTO131195 CJQ131043:CJS131195 BZU131043:BZW131195 BPY131043:BQA131195 BGC131043:BGE131195 AWG131043:AWI131195 AMK131043:AMM131195 ACO131043:ACQ131195 SS131043:SU131195 IW131043:IY131195 J131043:L131195 WVI65507:WVK65659 WLM65507:WLO65659 WBQ65507:WBS65659 VRU65507:VRW65659 VHY65507:VIA65659 UYC65507:UYE65659 UOG65507:UOI65659 UEK65507:UEM65659 TUO65507:TUQ65659 TKS65507:TKU65659 TAW65507:TAY65659 SRA65507:SRC65659 SHE65507:SHG65659 RXI65507:RXK65659 RNM65507:RNO65659 RDQ65507:RDS65659 QTU65507:QTW65659 QJY65507:QKA65659 QAC65507:QAE65659 PQG65507:PQI65659 PGK65507:PGM65659 OWO65507:OWQ65659 OMS65507:OMU65659 OCW65507:OCY65659 NTA65507:NTC65659 NJE65507:NJG65659 MZI65507:MZK65659 MPM65507:MPO65659 MFQ65507:MFS65659 LVU65507:LVW65659 LLY65507:LMA65659 LCC65507:LCE65659 KSG65507:KSI65659 KIK65507:KIM65659 JYO65507:JYQ65659 JOS65507:JOU65659 JEW65507:JEY65659 IVA65507:IVC65659 ILE65507:ILG65659 IBI65507:IBK65659 HRM65507:HRO65659 HHQ65507:HHS65659 GXU65507:GXW65659 GNY65507:GOA65659 GEC65507:GEE65659 FUG65507:FUI65659 FKK65507:FKM65659 FAO65507:FAQ65659 EQS65507:EQU65659 EGW65507:EGY65659 DXA65507:DXC65659 DNE65507:DNG65659 DDI65507:DDK65659 CTM65507:CTO65659 CJQ65507:CJS65659 BZU65507:BZW65659 BPY65507:BQA65659 BGC65507:BGE65659 AWG65507:AWI65659 AMK65507:AMM65659 ACO65507:ACQ65659 SS65507:SU65659 IW65507:IY65659 J65507:L65659 J83:L123 SS7:SU123 ACO7:ACQ123 AMK7:AMM123 AWG7:AWI123 BGC7:BGE123 BPY7:BQA123 BZU7:BZW123 CJQ7:CJS123 CTM7:CTO123 DDI7:DDK123 DNE7:DNG123 DXA7:DXC123 EGW7:EGY123 EQS7:EQU123 FAO7:FAQ123 FKK7:FKM123 FUG7:FUI123 GEC7:GEE123 GNY7:GOA123 GXU7:GXW123 HHQ7:HHS123 HRM7:HRO123 IBI7:IBK123 ILE7:ILG123 IVA7:IVC123 JEW7:JEY123 JOS7:JOU123 JYO7:JYQ123 KIK7:KIM123 KSG7:KSI123 LCC7:LCE123 LLY7:LMA123 LVU7:LVW123 MFQ7:MFS123 MPM7:MPO123 MZI7:MZK123 NJE7:NJG123 NTA7:NTC123 OCW7:OCY123 OMS7:OMU123 OWO7:OWQ123 PGK7:PGM123 PQG7:PQI123 QAC7:QAE123 QJY7:QKA123 QTU7:QTW123 RDQ7:RDS123 RNM7:RNO123 RXI7:RXK123 SHE7:SHG123 SRA7:SRC123 TAW7:TAY123 TKS7:TKU123 TUO7:TUQ123 UEK7:UEM123 UOG7:UOI123 UYC7:UYE123 VHY7:VIA123 VRU7:VRW123 WBQ7:WBS123 WLM7:WLO123 WVI7:WVK123 IW7:IY123 J7:L74" xr:uid="{9D3809C6-2706-41E8-B9C2-EB4A0B9B8106}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q65510:Q65662 WVO983014:WVO983166 WLS983014:WLS983166 WBW983014:WBW983166 VSA983014:VSA983166 VIE983014:VIE983166 UYI983014:UYI983166 UOM983014:UOM983166 UEQ983014:UEQ983166 TUU983014:TUU983166 TKY983014:TKY983166 TBC983014:TBC983166 SRG983014:SRG983166 SHK983014:SHK983166 RXO983014:RXO983166 RNS983014:RNS983166 RDW983014:RDW983166 QUA983014:QUA983166 QKE983014:QKE983166 QAI983014:QAI983166 PQM983014:PQM983166 PGQ983014:PGQ983166 OWU983014:OWU983166 OMY983014:OMY983166 ODC983014:ODC983166 NTG983014:NTG983166 NJK983014:NJK983166 MZO983014:MZO983166 MPS983014:MPS983166 MFW983014:MFW983166 LWA983014:LWA983166 LME983014:LME983166 LCI983014:LCI983166 KSM983014:KSM983166 KIQ983014:KIQ983166 JYU983014:JYU983166 JOY983014:JOY983166 JFC983014:JFC983166 IVG983014:IVG983166 ILK983014:ILK983166 IBO983014:IBO983166 HRS983014:HRS983166 HHW983014:HHW983166 GYA983014:GYA983166 GOE983014:GOE983166 GEI983014:GEI983166 FUM983014:FUM983166 FKQ983014:FKQ983166 FAU983014:FAU983166 EQY983014:EQY983166 EHC983014:EHC983166 DXG983014:DXG983166 DNK983014:DNK983166 DDO983014:DDO983166 CTS983014:CTS983166 CJW983014:CJW983166 CAA983014:CAA983166 BQE983014:BQE983166 BGI983014:BGI983166 AWM983014:AWM983166 AMQ983014:AMQ983166 ACU983014:ACU983166 SY983014:SY983166 JC983014:JC983166 WVO917478:WVO917630 WLS917478:WLS917630 WBW917478:WBW917630 VSA917478:VSA917630 VIE917478:VIE917630 UYI917478:UYI917630 UOM917478:UOM917630 UEQ917478:UEQ917630 TUU917478:TUU917630 TKY917478:TKY917630 TBC917478:TBC917630 SRG917478:SRG917630 SHK917478:SHK917630 RXO917478:RXO917630 RNS917478:RNS917630 RDW917478:RDW917630 QUA917478:QUA917630 QKE917478:QKE917630 QAI917478:QAI917630 PQM917478:PQM917630 PGQ917478:PGQ917630 OWU917478:OWU917630 OMY917478:OMY917630 ODC917478:ODC917630 NTG917478:NTG917630 NJK917478:NJK917630 MZO917478:MZO917630 MPS917478:MPS917630 MFW917478:MFW917630 LWA917478:LWA917630 LME917478:LME917630 LCI917478:LCI917630 KSM917478:KSM917630 KIQ917478:KIQ917630 JYU917478:JYU917630 JOY917478:JOY917630 JFC917478:JFC917630 IVG917478:IVG917630 ILK917478:ILK917630 IBO917478:IBO917630 HRS917478:HRS917630 HHW917478:HHW917630 GYA917478:GYA917630 GOE917478:GOE917630 GEI917478:GEI917630 FUM917478:FUM917630 FKQ917478:FKQ917630 FAU917478:FAU917630 EQY917478:EQY917630 EHC917478:EHC917630 DXG917478:DXG917630 DNK917478:DNK917630 DDO917478:DDO917630 CTS917478:CTS917630 CJW917478:CJW917630 CAA917478:CAA917630 BQE917478:BQE917630 BGI917478:BGI917630 AWM917478:AWM917630 AMQ917478:AMQ917630 ACU917478:ACU917630 SY917478:SY917630 JC917478:JC917630 WVO851942:WVO852094 WLS851942:WLS852094 WBW851942:WBW852094 VSA851942:VSA852094 VIE851942:VIE852094 UYI851942:UYI852094 UOM851942:UOM852094 UEQ851942:UEQ852094 TUU851942:TUU852094 TKY851942:TKY852094 TBC851942:TBC852094 SRG851942:SRG852094 SHK851942:SHK852094 RXO851942:RXO852094 RNS851942:RNS852094 RDW851942:RDW852094 QUA851942:QUA852094 QKE851942:QKE852094 QAI851942:QAI852094 PQM851942:PQM852094 PGQ851942:PGQ852094 OWU851942:OWU852094 OMY851942:OMY852094 ODC851942:ODC852094 NTG851942:NTG852094 NJK851942:NJK852094 MZO851942:MZO852094 MPS851942:MPS852094 MFW851942:MFW852094 LWA851942:LWA852094 LME851942:LME852094 LCI851942:LCI852094 KSM851942:KSM852094 KIQ851942:KIQ852094 JYU851942:JYU852094 JOY851942:JOY852094 JFC851942:JFC852094 IVG851942:IVG852094 ILK851942:ILK852094 IBO851942:IBO852094 HRS851942:HRS852094 HHW851942:HHW852094 GYA851942:GYA852094 GOE851942:GOE852094 GEI851942:GEI852094 FUM851942:FUM852094 FKQ851942:FKQ852094 FAU851942:FAU852094 EQY851942:EQY852094 EHC851942:EHC852094 DXG851942:DXG852094 DNK851942:DNK852094 DDO851942:DDO852094 CTS851942:CTS852094 CJW851942:CJW852094 CAA851942:CAA852094 BQE851942:BQE852094 BGI851942:BGI852094 AWM851942:AWM852094 AMQ851942:AMQ852094 ACU851942:ACU852094 SY851942:SY852094 JC851942:JC852094 WVO786406:WVO786558 WLS786406:WLS786558 WBW786406:WBW786558 VSA786406:VSA786558 VIE786406:VIE786558 UYI786406:UYI786558 UOM786406:UOM786558 UEQ786406:UEQ786558 TUU786406:TUU786558 TKY786406:TKY786558 TBC786406:TBC786558 SRG786406:SRG786558 SHK786406:SHK786558 RXO786406:RXO786558 RNS786406:RNS786558 RDW786406:RDW786558 QUA786406:QUA786558 QKE786406:QKE786558 QAI786406:QAI786558 PQM786406:PQM786558 PGQ786406:PGQ786558 OWU786406:OWU786558 OMY786406:OMY786558 ODC786406:ODC786558 NTG786406:NTG786558 NJK786406:NJK786558 MZO786406:MZO786558 MPS786406:MPS786558 MFW786406:MFW786558 LWA786406:LWA786558 LME786406:LME786558 LCI786406:LCI786558 KSM786406:KSM786558 KIQ786406:KIQ786558 JYU786406:JYU786558 JOY786406:JOY786558 JFC786406:JFC786558 IVG786406:IVG786558 ILK786406:ILK786558 IBO786406:IBO786558 HRS786406:HRS786558 HHW786406:HHW786558 GYA786406:GYA786558 GOE786406:GOE786558 GEI786406:GEI786558 FUM786406:FUM786558 FKQ786406:FKQ786558 FAU786406:FAU786558 EQY786406:EQY786558 EHC786406:EHC786558 DXG786406:DXG786558 DNK786406:DNK786558 DDO786406:DDO786558 CTS786406:CTS786558 CJW786406:CJW786558 CAA786406:CAA786558 BQE786406:BQE786558 BGI786406:BGI786558 AWM786406:AWM786558 AMQ786406:AMQ786558 ACU786406:ACU786558 SY786406:SY786558 JC786406:JC786558 WVO720870:WVO721022 WLS720870:WLS721022 WBW720870:WBW721022 VSA720870:VSA721022 VIE720870:VIE721022 UYI720870:UYI721022 UOM720870:UOM721022 UEQ720870:UEQ721022 TUU720870:TUU721022 TKY720870:TKY721022 TBC720870:TBC721022 SRG720870:SRG721022 SHK720870:SHK721022 RXO720870:RXO721022 RNS720870:RNS721022 RDW720870:RDW721022 QUA720870:QUA721022 QKE720870:QKE721022 QAI720870:QAI721022 PQM720870:PQM721022 PGQ720870:PGQ721022 OWU720870:OWU721022 OMY720870:OMY721022 ODC720870:ODC721022 NTG720870:NTG721022 NJK720870:NJK721022 MZO720870:MZO721022 MPS720870:MPS721022 MFW720870:MFW721022 LWA720870:LWA721022 LME720870:LME721022 LCI720870:LCI721022 KSM720870:KSM721022 KIQ720870:KIQ721022 JYU720870:JYU721022 JOY720870:JOY721022 JFC720870:JFC721022 IVG720870:IVG721022 ILK720870:ILK721022 IBO720870:IBO721022 HRS720870:HRS721022 HHW720870:HHW721022 GYA720870:GYA721022 GOE720870:GOE721022 GEI720870:GEI721022 FUM720870:FUM721022 FKQ720870:FKQ721022 FAU720870:FAU721022 EQY720870:EQY721022 EHC720870:EHC721022 DXG720870:DXG721022 DNK720870:DNK721022 DDO720870:DDO721022 CTS720870:CTS721022 CJW720870:CJW721022 CAA720870:CAA721022 BQE720870:BQE721022 BGI720870:BGI721022 AWM720870:AWM721022 AMQ720870:AMQ721022 ACU720870:ACU721022 SY720870:SY721022 JC720870:JC721022 WVO655334:WVO655486 WLS655334:WLS655486 WBW655334:WBW655486 VSA655334:VSA655486 VIE655334:VIE655486 UYI655334:UYI655486 UOM655334:UOM655486 UEQ655334:UEQ655486 TUU655334:TUU655486 TKY655334:TKY655486 TBC655334:TBC655486 SRG655334:SRG655486 SHK655334:SHK655486 RXO655334:RXO655486 RNS655334:RNS655486 RDW655334:RDW655486 QUA655334:QUA655486 QKE655334:QKE655486 QAI655334:QAI655486 PQM655334:PQM655486 PGQ655334:PGQ655486 OWU655334:OWU655486 OMY655334:OMY655486 ODC655334:ODC655486 NTG655334:NTG655486 NJK655334:NJK655486 MZO655334:MZO655486 MPS655334:MPS655486 MFW655334:MFW655486 LWA655334:LWA655486 LME655334:LME655486 LCI655334:LCI655486 KSM655334:KSM655486 KIQ655334:KIQ655486 JYU655334:JYU655486 JOY655334:JOY655486 JFC655334:JFC655486 IVG655334:IVG655486 ILK655334:ILK655486 IBO655334:IBO655486 HRS655334:HRS655486 HHW655334:HHW655486 GYA655334:GYA655486 GOE655334:GOE655486 GEI655334:GEI655486 FUM655334:FUM655486 FKQ655334:FKQ655486 FAU655334:FAU655486 EQY655334:EQY655486 EHC655334:EHC655486 DXG655334:DXG655486 DNK655334:DNK655486 DDO655334:DDO655486 CTS655334:CTS655486 CJW655334:CJW655486 CAA655334:CAA655486 BQE655334:BQE655486 BGI655334:BGI655486 AWM655334:AWM655486 AMQ655334:AMQ655486 ACU655334:ACU655486 SY655334:SY655486 JC655334:JC655486 WVO589798:WVO589950 WLS589798:WLS589950 WBW589798:WBW589950 VSA589798:VSA589950 VIE589798:VIE589950 UYI589798:UYI589950 UOM589798:UOM589950 UEQ589798:UEQ589950 TUU589798:TUU589950 TKY589798:TKY589950 TBC589798:TBC589950 SRG589798:SRG589950 SHK589798:SHK589950 RXO589798:RXO589950 RNS589798:RNS589950 RDW589798:RDW589950 QUA589798:QUA589950 QKE589798:QKE589950 QAI589798:QAI589950 PQM589798:PQM589950 PGQ589798:PGQ589950 OWU589798:OWU589950 OMY589798:OMY589950 ODC589798:ODC589950 NTG589798:NTG589950 NJK589798:NJK589950 MZO589798:MZO589950 MPS589798:MPS589950 MFW589798:MFW589950 LWA589798:LWA589950 LME589798:LME589950 LCI589798:LCI589950 KSM589798:KSM589950 KIQ589798:KIQ589950 JYU589798:JYU589950 JOY589798:JOY589950 JFC589798:JFC589950 IVG589798:IVG589950 ILK589798:ILK589950 IBO589798:IBO589950 HRS589798:HRS589950 HHW589798:HHW589950 GYA589798:GYA589950 GOE589798:GOE589950 GEI589798:GEI589950 FUM589798:FUM589950 FKQ589798:FKQ589950 FAU589798:FAU589950 EQY589798:EQY589950 EHC589798:EHC589950 DXG589798:DXG589950 DNK589798:DNK589950 DDO589798:DDO589950 CTS589798:CTS589950 CJW589798:CJW589950 CAA589798:CAA589950 BQE589798:BQE589950 BGI589798:BGI589950 AWM589798:AWM589950 AMQ589798:AMQ589950 ACU589798:ACU589950 SY589798:SY589950 JC589798:JC589950 WVO524262:WVO524414 WLS524262:WLS524414 WBW524262:WBW524414 VSA524262:VSA524414 VIE524262:VIE524414 UYI524262:UYI524414 UOM524262:UOM524414 UEQ524262:UEQ524414 TUU524262:TUU524414 TKY524262:TKY524414 TBC524262:TBC524414 SRG524262:SRG524414 SHK524262:SHK524414 RXO524262:RXO524414 RNS524262:RNS524414 RDW524262:RDW524414 QUA524262:QUA524414 QKE524262:QKE524414 QAI524262:QAI524414 PQM524262:PQM524414 PGQ524262:PGQ524414 OWU524262:OWU524414 OMY524262:OMY524414 ODC524262:ODC524414 NTG524262:NTG524414 NJK524262:NJK524414 MZO524262:MZO524414 MPS524262:MPS524414 MFW524262:MFW524414 LWA524262:LWA524414 LME524262:LME524414 LCI524262:LCI524414 KSM524262:KSM524414 KIQ524262:KIQ524414 JYU524262:JYU524414 JOY524262:JOY524414 JFC524262:JFC524414 IVG524262:IVG524414 ILK524262:ILK524414 IBO524262:IBO524414 HRS524262:HRS524414 HHW524262:HHW524414 GYA524262:GYA524414 GOE524262:GOE524414 GEI524262:GEI524414 FUM524262:FUM524414 FKQ524262:FKQ524414 FAU524262:FAU524414 EQY524262:EQY524414 EHC524262:EHC524414 DXG524262:DXG524414 DNK524262:DNK524414 DDO524262:DDO524414 CTS524262:CTS524414 CJW524262:CJW524414 CAA524262:CAA524414 BQE524262:BQE524414 BGI524262:BGI524414 AWM524262:AWM524414 AMQ524262:AMQ524414 ACU524262:ACU524414 SY524262:SY524414 JC524262:JC524414 WVO458726:WVO458878 WLS458726:WLS458878 WBW458726:WBW458878 VSA458726:VSA458878 VIE458726:VIE458878 UYI458726:UYI458878 UOM458726:UOM458878 UEQ458726:UEQ458878 TUU458726:TUU458878 TKY458726:TKY458878 TBC458726:TBC458878 SRG458726:SRG458878 SHK458726:SHK458878 RXO458726:RXO458878 RNS458726:RNS458878 RDW458726:RDW458878 QUA458726:QUA458878 QKE458726:QKE458878 QAI458726:QAI458878 PQM458726:PQM458878 PGQ458726:PGQ458878 OWU458726:OWU458878 OMY458726:OMY458878 ODC458726:ODC458878 NTG458726:NTG458878 NJK458726:NJK458878 MZO458726:MZO458878 MPS458726:MPS458878 MFW458726:MFW458878 LWA458726:LWA458878 LME458726:LME458878 LCI458726:LCI458878 KSM458726:KSM458878 KIQ458726:KIQ458878 JYU458726:JYU458878 JOY458726:JOY458878 JFC458726:JFC458878 IVG458726:IVG458878 ILK458726:ILK458878 IBO458726:IBO458878 HRS458726:HRS458878 HHW458726:HHW458878 GYA458726:GYA458878 GOE458726:GOE458878 GEI458726:GEI458878 FUM458726:FUM458878 FKQ458726:FKQ458878 FAU458726:FAU458878 EQY458726:EQY458878 EHC458726:EHC458878 DXG458726:DXG458878 DNK458726:DNK458878 DDO458726:DDO458878 CTS458726:CTS458878 CJW458726:CJW458878 CAA458726:CAA458878 BQE458726:BQE458878 BGI458726:BGI458878 AWM458726:AWM458878 AMQ458726:AMQ458878 ACU458726:ACU458878 SY458726:SY458878 JC458726:JC458878 WVO393190:WVO393342 WLS393190:WLS393342 WBW393190:WBW393342 VSA393190:VSA393342 VIE393190:VIE393342 UYI393190:UYI393342 UOM393190:UOM393342 UEQ393190:UEQ393342 TUU393190:TUU393342 TKY393190:TKY393342 TBC393190:TBC393342 SRG393190:SRG393342 SHK393190:SHK393342 RXO393190:RXO393342 RNS393190:RNS393342 RDW393190:RDW393342 QUA393190:QUA393342 QKE393190:QKE393342 QAI393190:QAI393342 PQM393190:PQM393342 PGQ393190:PGQ393342 OWU393190:OWU393342 OMY393190:OMY393342 ODC393190:ODC393342 NTG393190:NTG393342 NJK393190:NJK393342 MZO393190:MZO393342 MPS393190:MPS393342 MFW393190:MFW393342 LWA393190:LWA393342 LME393190:LME393342 LCI393190:LCI393342 KSM393190:KSM393342 KIQ393190:KIQ393342 JYU393190:JYU393342 JOY393190:JOY393342 JFC393190:JFC393342 IVG393190:IVG393342 ILK393190:ILK393342 IBO393190:IBO393342 HRS393190:HRS393342 HHW393190:HHW393342 GYA393190:GYA393342 GOE393190:GOE393342 GEI393190:GEI393342 FUM393190:FUM393342 FKQ393190:FKQ393342 FAU393190:FAU393342 EQY393190:EQY393342 EHC393190:EHC393342 DXG393190:DXG393342 DNK393190:DNK393342 DDO393190:DDO393342 CTS393190:CTS393342 CJW393190:CJW393342 CAA393190:CAA393342 BQE393190:BQE393342 BGI393190:BGI393342 AWM393190:AWM393342 AMQ393190:AMQ393342 ACU393190:ACU393342 SY393190:SY393342 JC393190:JC393342 WVO327654:WVO327806 WLS327654:WLS327806 WBW327654:WBW327806 VSA327654:VSA327806 VIE327654:VIE327806 UYI327654:UYI327806 UOM327654:UOM327806 UEQ327654:UEQ327806 TUU327654:TUU327806 TKY327654:TKY327806 TBC327654:TBC327806 SRG327654:SRG327806 SHK327654:SHK327806 RXO327654:RXO327806 RNS327654:RNS327806 RDW327654:RDW327806 QUA327654:QUA327806 QKE327654:QKE327806 QAI327654:QAI327806 PQM327654:PQM327806 PGQ327654:PGQ327806 OWU327654:OWU327806 OMY327654:OMY327806 ODC327654:ODC327806 NTG327654:NTG327806 NJK327654:NJK327806 MZO327654:MZO327806 MPS327654:MPS327806 MFW327654:MFW327806 LWA327654:LWA327806 LME327654:LME327806 LCI327654:LCI327806 KSM327654:KSM327806 KIQ327654:KIQ327806 JYU327654:JYU327806 JOY327654:JOY327806 JFC327654:JFC327806 IVG327654:IVG327806 ILK327654:ILK327806 IBO327654:IBO327806 HRS327654:HRS327806 HHW327654:HHW327806 GYA327654:GYA327806 GOE327654:GOE327806 GEI327654:GEI327806 FUM327654:FUM327806 FKQ327654:FKQ327806 FAU327654:FAU327806 EQY327654:EQY327806 EHC327654:EHC327806 DXG327654:DXG327806 DNK327654:DNK327806 DDO327654:DDO327806 CTS327654:CTS327806 CJW327654:CJW327806 CAA327654:CAA327806 BQE327654:BQE327806 BGI327654:BGI327806 AWM327654:AWM327806 AMQ327654:AMQ327806 ACU327654:ACU327806 SY327654:SY327806 JC327654:JC327806 WVO262118:WVO262270 WLS262118:WLS262270 WBW262118:WBW262270 VSA262118:VSA262270 VIE262118:VIE262270 UYI262118:UYI262270 UOM262118:UOM262270 UEQ262118:UEQ262270 TUU262118:TUU262270 TKY262118:TKY262270 TBC262118:TBC262270 SRG262118:SRG262270 SHK262118:SHK262270 RXO262118:RXO262270 RNS262118:RNS262270 RDW262118:RDW262270 QUA262118:QUA262270 QKE262118:QKE262270 QAI262118:QAI262270 PQM262118:PQM262270 PGQ262118:PGQ262270 OWU262118:OWU262270 OMY262118:OMY262270 ODC262118:ODC262270 NTG262118:NTG262270 NJK262118:NJK262270 MZO262118:MZO262270 MPS262118:MPS262270 MFW262118:MFW262270 LWA262118:LWA262270 LME262118:LME262270 LCI262118:LCI262270 KSM262118:KSM262270 KIQ262118:KIQ262270 JYU262118:JYU262270 JOY262118:JOY262270 JFC262118:JFC262270 IVG262118:IVG262270 ILK262118:ILK262270 IBO262118:IBO262270 HRS262118:HRS262270 HHW262118:HHW262270 GYA262118:GYA262270 GOE262118:GOE262270 GEI262118:GEI262270 FUM262118:FUM262270 FKQ262118:FKQ262270 FAU262118:FAU262270 EQY262118:EQY262270 EHC262118:EHC262270 DXG262118:DXG262270 DNK262118:DNK262270 DDO262118:DDO262270 CTS262118:CTS262270 CJW262118:CJW262270 CAA262118:CAA262270 BQE262118:BQE262270 BGI262118:BGI262270 AWM262118:AWM262270 AMQ262118:AMQ262270 ACU262118:ACU262270 SY262118:SY262270 JC262118:JC262270 WVO196582:WVO196734 WLS196582:WLS196734 WBW196582:WBW196734 VSA196582:VSA196734 VIE196582:VIE196734 UYI196582:UYI196734 UOM196582:UOM196734 UEQ196582:UEQ196734 TUU196582:TUU196734 TKY196582:TKY196734 TBC196582:TBC196734 SRG196582:SRG196734 SHK196582:SHK196734 RXO196582:RXO196734 RNS196582:RNS196734 RDW196582:RDW196734 QUA196582:QUA196734 QKE196582:QKE196734 QAI196582:QAI196734 PQM196582:PQM196734 PGQ196582:PGQ196734 OWU196582:OWU196734 OMY196582:OMY196734 ODC196582:ODC196734 NTG196582:NTG196734 NJK196582:NJK196734 MZO196582:MZO196734 MPS196582:MPS196734 MFW196582:MFW196734 LWA196582:LWA196734 LME196582:LME196734 LCI196582:LCI196734 KSM196582:KSM196734 KIQ196582:KIQ196734 JYU196582:JYU196734 JOY196582:JOY196734 JFC196582:JFC196734 IVG196582:IVG196734 ILK196582:ILK196734 IBO196582:IBO196734 HRS196582:HRS196734 HHW196582:HHW196734 GYA196582:GYA196734 GOE196582:GOE196734 GEI196582:GEI196734 FUM196582:FUM196734 FKQ196582:FKQ196734 FAU196582:FAU196734 EQY196582:EQY196734 EHC196582:EHC196734 DXG196582:DXG196734 DNK196582:DNK196734 DDO196582:DDO196734 CTS196582:CTS196734 CJW196582:CJW196734 CAA196582:CAA196734 BQE196582:BQE196734 BGI196582:BGI196734 AWM196582:AWM196734 AMQ196582:AMQ196734 ACU196582:ACU196734 SY196582:SY196734 JC196582:JC196734 WVO131046:WVO131198 WLS131046:WLS131198 WBW131046:WBW131198 VSA131046:VSA131198 VIE131046:VIE131198 UYI131046:UYI131198 UOM131046:UOM131198 UEQ131046:UEQ131198 TUU131046:TUU131198 TKY131046:TKY131198 TBC131046:TBC131198 SRG131046:SRG131198 SHK131046:SHK131198 RXO131046:RXO131198 RNS131046:RNS131198 RDW131046:RDW131198 QUA131046:QUA131198 QKE131046:QKE131198 QAI131046:QAI131198 PQM131046:PQM131198 PGQ131046:PGQ131198 OWU131046:OWU131198 OMY131046:OMY131198 ODC131046:ODC131198 NTG131046:NTG131198 NJK131046:NJK131198 MZO131046:MZO131198 MPS131046:MPS131198 MFW131046:MFW131198 LWA131046:LWA131198 LME131046:LME131198 LCI131046:LCI131198 KSM131046:KSM131198 KIQ131046:KIQ131198 JYU131046:JYU131198 JOY131046:JOY131198 JFC131046:JFC131198 IVG131046:IVG131198 ILK131046:ILK131198 IBO131046:IBO131198 HRS131046:HRS131198 HHW131046:HHW131198 GYA131046:GYA131198 GOE131046:GOE131198 GEI131046:GEI131198 FUM131046:FUM131198 FKQ131046:FKQ131198 FAU131046:FAU131198 EQY131046:EQY131198 EHC131046:EHC131198 DXG131046:DXG131198 DNK131046:DNK131198 DDO131046:DDO131198 CTS131046:CTS131198 CJW131046:CJW131198 CAA131046:CAA131198 BQE131046:BQE131198 BGI131046:BGI131198 AWM131046:AWM131198 AMQ131046:AMQ131198 ACU131046:ACU131198 SY131046:SY131198 JC131046:JC131198 WVO65510:WVO65662 WLS65510:WLS65662 WBW65510:WBW65662 VSA65510:VSA65662 VIE65510:VIE65662 UYI65510:UYI65662 UOM65510:UOM65662 UEQ65510:UEQ65662 TUU65510:TUU65662 TKY65510:TKY65662 TBC65510:TBC65662 SRG65510:SRG65662 SHK65510:SHK65662 RXO65510:RXO65662 RNS65510:RNS65662 RDW65510:RDW65662 QUA65510:QUA65662 QKE65510:QKE65662 QAI65510:QAI65662 PQM65510:PQM65662 PGQ65510:PGQ65662 OWU65510:OWU65662 OMY65510:OMY65662 ODC65510:ODC65662 NTG65510:NTG65662 NJK65510:NJK65662 MZO65510:MZO65662 MPS65510:MPS65662 MFW65510:MFW65662 LWA65510:LWA65662 LME65510:LME65662 LCI65510:LCI65662 KSM65510:KSM65662 KIQ65510:KIQ65662 JYU65510:JYU65662 JOY65510:JOY65662 JFC65510:JFC65662 IVG65510:IVG65662 ILK65510:ILK65662 IBO65510:IBO65662 HRS65510:HRS65662 HHW65510:HHW65662 GYA65510:GYA65662 GOE65510:GOE65662 GEI65510:GEI65662 FUM65510:FUM65662 FKQ65510:FKQ65662 FAU65510:FAU65662 EQY65510:EQY65662 EHC65510:EHC65662 DXG65510:DXG65662 DNK65510:DNK65662 DDO65510:DDO65662 CTS65510:CTS65662 CJW65510:CJW65662 CAA65510:CAA65662 BQE65510:BQE65662 BGI65510:BGI65662 AWM65510:AWM65662 AMQ65510:AMQ65662 ACU65510:ACU65662 SY65510:SY65662 JC65510:JC65662 WVO7:WVO126 WLS7:WLS126 WBW7:WBW126 VSA7:VSA126 VIE7:VIE126 UYI7:UYI126 UOM7:UOM126 UEQ7:UEQ126 TUU7:TUU126 TKY7:TKY126 TBC7:TBC126 SRG7:SRG126 SHK7:SHK126 RXO7:RXO126 RNS7:RNS126 RDW7:RDW126 QUA7:QUA126 QKE7:QKE126 QAI7:QAI126 PQM7:PQM126 PGQ7:PGQ126 OWU7:OWU126 OMY7:OMY126 ODC7:ODC126 NTG7:NTG126 NJK7:NJK126 MZO7:MZO126 MPS7:MPS126 MFW7:MFW126 LWA7:LWA126 LME7:LME126 LCI7:LCI126 KSM7:KSM126 KIQ7:KIQ126 JYU7:JYU126 JOY7:JOY126 JFC7:JFC126 IVG7:IVG126 ILK7:ILK126 IBO7:IBO126 HRS7:HRS126 HHW7:HHW126 GYA7:GYA126 GOE7:GOE126 GEI7:GEI126 FUM7:FUM126 FKQ7:FKQ126 FAU7:FAU126 EQY7:EQY126 EHC7:EHC126 DXG7:DXG126 DNK7:DNK126 DDO7:DDO126 CTS7:CTS126 CJW7:CJW126 CAA7:CAA126 BQE7:BQE126 BGI7:BGI126 AWM7:AWM126 AMQ7:AMQ126 ACU7:ACU126 SY7:SY126 JC7:JC126 Q7:Q126 Q983014:Q983166 Q917478:Q917630 Q851942:Q852094 Q786406:Q786558 Q720870:Q721022 Q655334:Q655486 Q589798:Q589950 Q524262:Q524414 Q458726:Q458878 Q393190:Q393342 Q327654:Q327806 Q262118:Q262270 Q196582:Q196734 Q131046:Q131198" xr:uid="{E7830AF5-61D6-458D-A73E-440033A2476A}">
-      <formula1>$AK$20:$AK$23</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q65507:Q65659 Q131043:Q131195 Q196579:Q196731 Q262115:Q262267 Q327651:Q327803 Q393187:Q393339 Q458723:Q458875 Q524259:Q524411 Q589795:Q589947 Q655331:Q655483 Q720867:Q721019 Q786403:Q786555 Q851939:Q852091 Q917475:Q917627 Q983011:Q983163 JC65507:JC65659 SY65507:SY65659 ACU65507:ACU65659 AMQ65507:AMQ65659 AWM65507:AWM65659 BGI65507:BGI65659 BQE65507:BQE65659 CAA65507:CAA65659 CJW65507:CJW65659 CTS65507:CTS65659 DDO65507:DDO65659 DNK65507:DNK65659 DXG65507:DXG65659 EHC65507:EHC65659 EQY65507:EQY65659 FAU65507:FAU65659 FKQ65507:FKQ65659 FUM65507:FUM65659 GEI65507:GEI65659 GOE65507:GOE65659 GYA65507:GYA65659 HHW65507:HHW65659 HRS65507:HRS65659 IBO65507:IBO65659 ILK65507:ILK65659 IVG65507:IVG65659 JFC65507:JFC65659 JOY65507:JOY65659 JYU65507:JYU65659 KIQ65507:KIQ65659 KSM65507:KSM65659 LCI65507:LCI65659 LME65507:LME65659 LWA65507:LWA65659 MFW65507:MFW65659 MPS65507:MPS65659 MZO65507:MZO65659 NJK65507:NJK65659 NTG65507:NTG65659 ODC65507:ODC65659 OMY65507:OMY65659 OWU65507:OWU65659 PGQ65507:PGQ65659 PQM65507:PQM65659 QAI65507:QAI65659 QKE65507:QKE65659 QUA65507:QUA65659 RDW65507:RDW65659 RNS65507:RNS65659 RXO65507:RXO65659 SHK65507:SHK65659 SRG65507:SRG65659 TBC65507:TBC65659 TKY65507:TKY65659 TUU65507:TUU65659 UEQ65507:UEQ65659 UOM65507:UOM65659 UYI65507:UYI65659 VIE65507:VIE65659 VSA65507:VSA65659 WBW65507:WBW65659 WLS65507:WLS65659 WVO65507:WVO65659 JC131043:JC131195 SY131043:SY131195 ACU131043:ACU131195 AMQ131043:AMQ131195 AWM131043:AWM131195 BGI131043:BGI131195 BQE131043:BQE131195 CAA131043:CAA131195 CJW131043:CJW131195 CTS131043:CTS131195 DDO131043:DDO131195 DNK131043:DNK131195 DXG131043:DXG131195 EHC131043:EHC131195 EQY131043:EQY131195 FAU131043:FAU131195 FKQ131043:FKQ131195 FUM131043:FUM131195 GEI131043:GEI131195 GOE131043:GOE131195 GYA131043:GYA131195 HHW131043:HHW131195 HRS131043:HRS131195 IBO131043:IBO131195 ILK131043:ILK131195 IVG131043:IVG131195 JFC131043:JFC131195 JOY131043:JOY131195 JYU131043:JYU131195 KIQ131043:KIQ131195 KSM131043:KSM131195 LCI131043:LCI131195 LME131043:LME131195 LWA131043:LWA131195 MFW131043:MFW131195 MPS131043:MPS131195 MZO131043:MZO131195 NJK131043:NJK131195 NTG131043:NTG131195 ODC131043:ODC131195 OMY131043:OMY131195 OWU131043:OWU131195 PGQ131043:PGQ131195 PQM131043:PQM131195 QAI131043:QAI131195 QKE131043:QKE131195 QUA131043:QUA131195 RDW131043:RDW131195 RNS131043:RNS131195 RXO131043:RXO131195 SHK131043:SHK131195 SRG131043:SRG131195 TBC131043:TBC131195 TKY131043:TKY131195 TUU131043:TUU131195 UEQ131043:UEQ131195 UOM131043:UOM131195 UYI131043:UYI131195 VIE131043:VIE131195 VSA131043:VSA131195 WBW131043:WBW131195 WLS131043:WLS131195 WVO131043:WVO131195 JC196579:JC196731 SY196579:SY196731 ACU196579:ACU196731 AMQ196579:AMQ196731 AWM196579:AWM196731 BGI196579:BGI196731 BQE196579:BQE196731 CAA196579:CAA196731 CJW196579:CJW196731 CTS196579:CTS196731 DDO196579:DDO196731 DNK196579:DNK196731 DXG196579:DXG196731 EHC196579:EHC196731 EQY196579:EQY196731 FAU196579:FAU196731 FKQ196579:FKQ196731 FUM196579:FUM196731 GEI196579:GEI196731 GOE196579:GOE196731 GYA196579:GYA196731 HHW196579:HHW196731 HRS196579:HRS196731 IBO196579:IBO196731 ILK196579:ILK196731 IVG196579:IVG196731 JFC196579:JFC196731 JOY196579:JOY196731 JYU196579:JYU196731 KIQ196579:KIQ196731 KSM196579:KSM196731 LCI196579:LCI196731 LME196579:LME196731 LWA196579:LWA196731 MFW196579:MFW196731 MPS196579:MPS196731 MZO196579:MZO196731 NJK196579:NJK196731 NTG196579:NTG196731 ODC196579:ODC196731 OMY196579:OMY196731 OWU196579:OWU196731 PGQ196579:PGQ196731 PQM196579:PQM196731 QAI196579:QAI196731 QKE196579:QKE196731 QUA196579:QUA196731 RDW196579:RDW196731 RNS196579:RNS196731 RXO196579:RXO196731 SHK196579:SHK196731 SRG196579:SRG196731 TBC196579:TBC196731 TKY196579:TKY196731 TUU196579:TUU196731 UEQ196579:UEQ196731 UOM196579:UOM196731 UYI196579:UYI196731 VIE196579:VIE196731 VSA196579:VSA196731 WBW196579:WBW196731 WLS196579:WLS196731 WVO196579:WVO196731 JC262115:JC262267 SY262115:SY262267 ACU262115:ACU262267 AMQ262115:AMQ262267 AWM262115:AWM262267 BGI262115:BGI262267 BQE262115:BQE262267 CAA262115:CAA262267 CJW262115:CJW262267 CTS262115:CTS262267 DDO262115:DDO262267 DNK262115:DNK262267 DXG262115:DXG262267 EHC262115:EHC262267 EQY262115:EQY262267 FAU262115:FAU262267 FKQ262115:FKQ262267 FUM262115:FUM262267 GEI262115:GEI262267 GOE262115:GOE262267 GYA262115:GYA262267 HHW262115:HHW262267 HRS262115:HRS262267 IBO262115:IBO262267 ILK262115:ILK262267 IVG262115:IVG262267 JFC262115:JFC262267 JOY262115:JOY262267 JYU262115:JYU262267 KIQ262115:KIQ262267 KSM262115:KSM262267 LCI262115:LCI262267 LME262115:LME262267 LWA262115:LWA262267 MFW262115:MFW262267 MPS262115:MPS262267 MZO262115:MZO262267 NJK262115:NJK262267 NTG262115:NTG262267 ODC262115:ODC262267 OMY262115:OMY262267 OWU262115:OWU262267 PGQ262115:PGQ262267 PQM262115:PQM262267 QAI262115:QAI262267 QKE262115:QKE262267 QUA262115:QUA262267 RDW262115:RDW262267 RNS262115:RNS262267 RXO262115:RXO262267 SHK262115:SHK262267 SRG262115:SRG262267 TBC262115:TBC262267 TKY262115:TKY262267 TUU262115:TUU262267 UEQ262115:UEQ262267 UOM262115:UOM262267 UYI262115:UYI262267 VIE262115:VIE262267 VSA262115:VSA262267 WBW262115:WBW262267 WLS262115:WLS262267 WVO262115:WVO262267 JC327651:JC327803 SY327651:SY327803 ACU327651:ACU327803 AMQ327651:AMQ327803 AWM327651:AWM327803 BGI327651:BGI327803 BQE327651:BQE327803 CAA327651:CAA327803 CJW327651:CJW327803 CTS327651:CTS327803 DDO327651:DDO327803 DNK327651:DNK327803 DXG327651:DXG327803 EHC327651:EHC327803 EQY327651:EQY327803 FAU327651:FAU327803 FKQ327651:FKQ327803 FUM327651:FUM327803 GEI327651:GEI327803 GOE327651:GOE327803 GYA327651:GYA327803 HHW327651:HHW327803 HRS327651:HRS327803 IBO327651:IBO327803 ILK327651:ILK327803 IVG327651:IVG327803 JFC327651:JFC327803 JOY327651:JOY327803 JYU327651:JYU327803 KIQ327651:KIQ327803 KSM327651:KSM327803 LCI327651:LCI327803 LME327651:LME327803 LWA327651:LWA327803 MFW327651:MFW327803 MPS327651:MPS327803 MZO327651:MZO327803 NJK327651:NJK327803 NTG327651:NTG327803 ODC327651:ODC327803 OMY327651:OMY327803 OWU327651:OWU327803 PGQ327651:PGQ327803 PQM327651:PQM327803 QAI327651:QAI327803 QKE327651:QKE327803 QUA327651:QUA327803 RDW327651:RDW327803 RNS327651:RNS327803 RXO327651:RXO327803 SHK327651:SHK327803 SRG327651:SRG327803 TBC327651:TBC327803 TKY327651:TKY327803 TUU327651:TUU327803 UEQ327651:UEQ327803 UOM327651:UOM327803 UYI327651:UYI327803 VIE327651:VIE327803 VSA327651:VSA327803 WBW327651:WBW327803 WLS327651:WLS327803 WVO327651:WVO327803 JC393187:JC393339 SY393187:SY393339 ACU393187:ACU393339 AMQ393187:AMQ393339 AWM393187:AWM393339 BGI393187:BGI393339 BQE393187:BQE393339 CAA393187:CAA393339 CJW393187:CJW393339 CTS393187:CTS393339 DDO393187:DDO393339 DNK393187:DNK393339 DXG393187:DXG393339 EHC393187:EHC393339 EQY393187:EQY393339 FAU393187:FAU393339 FKQ393187:FKQ393339 FUM393187:FUM393339 GEI393187:GEI393339 GOE393187:GOE393339 GYA393187:GYA393339 HHW393187:HHW393339 HRS393187:HRS393339 IBO393187:IBO393339 ILK393187:ILK393339 IVG393187:IVG393339 JFC393187:JFC393339 JOY393187:JOY393339 JYU393187:JYU393339 KIQ393187:KIQ393339 KSM393187:KSM393339 LCI393187:LCI393339 LME393187:LME393339 LWA393187:LWA393339 MFW393187:MFW393339 MPS393187:MPS393339 MZO393187:MZO393339 NJK393187:NJK393339 NTG393187:NTG393339 ODC393187:ODC393339 OMY393187:OMY393339 OWU393187:OWU393339 PGQ393187:PGQ393339 PQM393187:PQM393339 QAI393187:QAI393339 QKE393187:QKE393339 QUA393187:QUA393339 RDW393187:RDW393339 RNS393187:RNS393339 RXO393187:RXO393339 SHK393187:SHK393339 SRG393187:SRG393339 TBC393187:TBC393339 TKY393187:TKY393339 TUU393187:TUU393339 UEQ393187:UEQ393339 UOM393187:UOM393339 UYI393187:UYI393339 VIE393187:VIE393339 VSA393187:VSA393339 WBW393187:WBW393339 WLS393187:WLS393339 WVO393187:WVO393339 JC458723:JC458875 SY458723:SY458875 ACU458723:ACU458875 AMQ458723:AMQ458875 AWM458723:AWM458875 BGI458723:BGI458875 BQE458723:BQE458875 CAA458723:CAA458875 CJW458723:CJW458875 CTS458723:CTS458875 DDO458723:DDO458875 DNK458723:DNK458875 DXG458723:DXG458875 EHC458723:EHC458875 EQY458723:EQY458875 FAU458723:FAU458875 FKQ458723:FKQ458875 FUM458723:FUM458875 GEI458723:GEI458875 GOE458723:GOE458875 GYA458723:GYA458875 HHW458723:HHW458875 HRS458723:HRS458875 IBO458723:IBO458875 ILK458723:ILK458875 IVG458723:IVG458875 JFC458723:JFC458875 JOY458723:JOY458875 JYU458723:JYU458875 KIQ458723:KIQ458875 KSM458723:KSM458875 LCI458723:LCI458875 LME458723:LME458875 LWA458723:LWA458875 MFW458723:MFW458875 MPS458723:MPS458875 MZO458723:MZO458875 NJK458723:NJK458875 NTG458723:NTG458875 ODC458723:ODC458875 OMY458723:OMY458875 OWU458723:OWU458875 PGQ458723:PGQ458875 PQM458723:PQM458875 QAI458723:QAI458875 QKE458723:QKE458875 QUA458723:QUA458875 RDW458723:RDW458875 RNS458723:RNS458875 RXO458723:RXO458875 SHK458723:SHK458875 SRG458723:SRG458875 TBC458723:TBC458875 TKY458723:TKY458875 TUU458723:TUU458875 UEQ458723:UEQ458875 UOM458723:UOM458875 UYI458723:UYI458875 VIE458723:VIE458875 VSA458723:VSA458875 WBW458723:WBW458875 WLS458723:WLS458875 WVO458723:WVO458875 JC524259:JC524411 SY524259:SY524411 ACU524259:ACU524411 AMQ524259:AMQ524411 AWM524259:AWM524411 BGI524259:BGI524411 BQE524259:BQE524411 CAA524259:CAA524411 CJW524259:CJW524411 CTS524259:CTS524411 DDO524259:DDO524411 DNK524259:DNK524411 DXG524259:DXG524411 EHC524259:EHC524411 EQY524259:EQY524411 FAU524259:FAU524411 FKQ524259:FKQ524411 FUM524259:FUM524411 GEI524259:GEI524411 GOE524259:GOE524411 GYA524259:GYA524411 HHW524259:HHW524411 HRS524259:HRS524411 IBO524259:IBO524411 ILK524259:ILK524411 IVG524259:IVG524411 JFC524259:JFC524411 JOY524259:JOY524411 JYU524259:JYU524411 KIQ524259:KIQ524411 KSM524259:KSM524411 LCI524259:LCI524411 LME524259:LME524411 LWA524259:LWA524411 MFW524259:MFW524411 MPS524259:MPS524411 MZO524259:MZO524411 NJK524259:NJK524411 NTG524259:NTG524411 ODC524259:ODC524411 OMY524259:OMY524411 OWU524259:OWU524411 PGQ524259:PGQ524411 PQM524259:PQM524411 QAI524259:QAI524411 QKE524259:QKE524411 QUA524259:QUA524411 RDW524259:RDW524411 RNS524259:RNS524411 RXO524259:RXO524411 SHK524259:SHK524411 SRG524259:SRG524411 TBC524259:TBC524411 TKY524259:TKY524411 TUU524259:TUU524411 UEQ524259:UEQ524411 UOM524259:UOM524411 UYI524259:UYI524411 VIE524259:VIE524411 VSA524259:VSA524411 WBW524259:WBW524411 WLS524259:WLS524411 WVO524259:WVO524411 JC589795:JC589947 SY589795:SY589947 ACU589795:ACU589947 AMQ589795:AMQ589947 AWM589795:AWM589947 BGI589795:BGI589947 BQE589795:BQE589947 CAA589795:CAA589947 CJW589795:CJW589947 CTS589795:CTS589947 DDO589795:DDO589947 DNK589795:DNK589947 DXG589795:DXG589947 EHC589795:EHC589947 EQY589795:EQY589947 FAU589795:FAU589947 FKQ589795:FKQ589947 FUM589795:FUM589947 GEI589795:GEI589947 GOE589795:GOE589947 GYA589795:GYA589947 HHW589795:HHW589947 HRS589795:HRS589947 IBO589795:IBO589947 ILK589795:ILK589947 IVG589795:IVG589947 JFC589795:JFC589947 JOY589795:JOY589947 JYU589795:JYU589947 KIQ589795:KIQ589947 KSM589795:KSM589947 LCI589795:LCI589947 LME589795:LME589947 LWA589795:LWA589947 MFW589795:MFW589947 MPS589795:MPS589947 MZO589795:MZO589947 NJK589795:NJK589947 NTG589795:NTG589947 ODC589795:ODC589947 OMY589795:OMY589947 OWU589795:OWU589947 PGQ589795:PGQ589947 PQM589795:PQM589947 QAI589795:QAI589947 QKE589795:QKE589947 QUA589795:QUA589947 RDW589795:RDW589947 RNS589795:RNS589947 RXO589795:RXO589947 SHK589795:SHK589947 SRG589795:SRG589947 TBC589795:TBC589947 TKY589795:TKY589947 TUU589795:TUU589947 UEQ589795:UEQ589947 UOM589795:UOM589947 UYI589795:UYI589947 VIE589795:VIE589947 VSA589795:VSA589947 WBW589795:WBW589947 WLS589795:WLS589947 WVO589795:WVO589947 JC655331:JC655483 SY655331:SY655483 ACU655331:ACU655483 AMQ655331:AMQ655483 AWM655331:AWM655483 BGI655331:BGI655483 BQE655331:BQE655483 CAA655331:CAA655483 CJW655331:CJW655483 CTS655331:CTS655483 DDO655331:DDO655483 DNK655331:DNK655483 DXG655331:DXG655483 EHC655331:EHC655483 EQY655331:EQY655483 FAU655331:FAU655483 FKQ655331:FKQ655483 FUM655331:FUM655483 GEI655331:GEI655483 GOE655331:GOE655483 GYA655331:GYA655483 HHW655331:HHW655483 HRS655331:HRS655483 IBO655331:IBO655483 ILK655331:ILK655483 IVG655331:IVG655483 JFC655331:JFC655483 JOY655331:JOY655483 JYU655331:JYU655483 KIQ655331:KIQ655483 KSM655331:KSM655483 LCI655331:LCI655483 LME655331:LME655483 LWA655331:LWA655483 MFW655331:MFW655483 MPS655331:MPS655483 MZO655331:MZO655483 NJK655331:NJK655483 NTG655331:NTG655483 ODC655331:ODC655483 OMY655331:OMY655483 OWU655331:OWU655483 PGQ655331:PGQ655483 PQM655331:PQM655483 QAI655331:QAI655483 QKE655331:QKE655483 QUA655331:QUA655483 RDW655331:RDW655483 RNS655331:RNS655483 RXO655331:RXO655483 SHK655331:SHK655483 SRG655331:SRG655483 TBC655331:TBC655483 TKY655331:TKY655483 TUU655331:TUU655483 UEQ655331:UEQ655483 UOM655331:UOM655483 UYI655331:UYI655483 VIE655331:VIE655483 VSA655331:VSA655483 WBW655331:WBW655483 WLS655331:WLS655483 WVO655331:WVO655483 JC720867:JC721019 SY720867:SY721019 ACU720867:ACU721019 AMQ720867:AMQ721019 AWM720867:AWM721019 BGI720867:BGI721019 BQE720867:BQE721019 CAA720867:CAA721019 CJW720867:CJW721019 CTS720867:CTS721019 DDO720867:DDO721019 DNK720867:DNK721019 DXG720867:DXG721019 EHC720867:EHC721019 EQY720867:EQY721019 FAU720867:FAU721019 FKQ720867:FKQ721019 FUM720867:FUM721019 GEI720867:GEI721019 GOE720867:GOE721019 GYA720867:GYA721019 HHW720867:HHW721019 HRS720867:HRS721019 IBO720867:IBO721019 ILK720867:ILK721019 IVG720867:IVG721019 JFC720867:JFC721019 JOY720867:JOY721019 JYU720867:JYU721019 KIQ720867:KIQ721019 KSM720867:KSM721019 LCI720867:LCI721019 LME720867:LME721019 LWA720867:LWA721019 MFW720867:MFW721019 MPS720867:MPS721019 MZO720867:MZO721019 NJK720867:NJK721019 NTG720867:NTG721019 ODC720867:ODC721019 OMY720867:OMY721019 OWU720867:OWU721019 PGQ720867:PGQ721019 PQM720867:PQM721019 QAI720867:QAI721019 QKE720867:QKE721019 QUA720867:QUA721019 RDW720867:RDW721019 RNS720867:RNS721019 RXO720867:RXO721019 SHK720867:SHK721019 SRG720867:SRG721019 TBC720867:TBC721019 TKY720867:TKY721019 TUU720867:TUU721019 UEQ720867:UEQ721019 UOM720867:UOM721019 UYI720867:UYI721019 VIE720867:VIE721019 VSA720867:VSA721019 WBW720867:WBW721019 WLS720867:WLS721019 WVO720867:WVO721019 JC786403:JC786555 SY786403:SY786555 ACU786403:ACU786555 AMQ786403:AMQ786555 AWM786403:AWM786555 BGI786403:BGI786555 BQE786403:BQE786555 CAA786403:CAA786555 CJW786403:CJW786555 CTS786403:CTS786555 DDO786403:DDO786555 DNK786403:DNK786555 DXG786403:DXG786555 EHC786403:EHC786555 EQY786403:EQY786555 FAU786403:FAU786555 FKQ786403:FKQ786555 FUM786403:FUM786555 GEI786403:GEI786555 GOE786403:GOE786555 GYA786403:GYA786555 HHW786403:HHW786555 HRS786403:HRS786555 IBO786403:IBO786555 ILK786403:ILK786555 IVG786403:IVG786555 JFC786403:JFC786555 JOY786403:JOY786555 JYU786403:JYU786555 KIQ786403:KIQ786555 KSM786403:KSM786555 LCI786403:LCI786555 LME786403:LME786555 LWA786403:LWA786555 MFW786403:MFW786555 MPS786403:MPS786555 MZO786403:MZO786555 NJK786403:NJK786555 NTG786403:NTG786555 ODC786403:ODC786555 OMY786403:OMY786555 OWU786403:OWU786555 PGQ786403:PGQ786555 PQM786403:PQM786555 QAI786403:QAI786555 QKE786403:QKE786555 QUA786403:QUA786555 RDW786403:RDW786555 RNS786403:RNS786555 RXO786403:RXO786555 SHK786403:SHK786555 SRG786403:SRG786555 TBC786403:TBC786555 TKY786403:TKY786555 TUU786403:TUU786555 UEQ786403:UEQ786555 UOM786403:UOM786555 UYI786403:UYI786555 VIE786403:VIE786555 VSA786403:VSA786555 WBW786403:WBW786555 WLS786403:WLS786555 WVO786403:WVO786555 JC851939:JC852091 SY851939:SY852091 ACU851939:ACU852091 AMQ851939:AMQ852091 AWM851939:AWM852091 BGI851939:BGI852091 BQE851939:BQE852091 CAA851939:CAA852091 CJW851939:CJW852091 CTS851939:CTS852091 DDO851939:DDO852091 DNK851939:DNK852091 DXG851939:DXG852091 EHC851939:EHC852091 EQY851939:EQY852091 FAU851939:FAU852091 FKQ851939:FKQ852091 FUM851939:FUM852091 GEI851939:GEI852091 GOE851939:GOE852091 GYA851939:GYA852091 HHW851939:HHW852091 HRS851939:HRS852091 IBO851939:IBO852091 ILK851939:ILK852091 IVG851939:IVG852091 JFC851939:JFC852091 JOY851939:JOY852091 JYU851939:JYU852091 KIQ851939:KIQ852091 KSM851939:KSM852091 LCI851939:LCI852091 LME851939:LME852091 LWA851939:LWA852091 MFW851939:MFW852091 MPS851939:MPS852091 MZO851939:MZO852091 NJK851939:NJK852091 NTG851939:NTG852091 ODC851939:ODC852091 OMY851939:OMY852091 OWU851939:OWU852091 PGQ851939:PGQ852091 PQM851939:PQM852091 QAI851939:QAI852091 QKE851939:QKE852091 QUA851939:QUA852091 RDW851939:RDW852091 RNS851939:RNS852091 RXO851939:RXO852091 SHK851939:SHK852091 SRG851939:SRG852091 TBC851939:TBC852091 TKY851939:TKY852091 TUU851939:TUU852091 UEQ851939:UEQ852091 UOM851939:UOM852091 UYI851939:UYI852091 VIE851939:VIE852091 VSA851939:VSA852091 WBW851939:WBW852091 WLS851939:WLS852091 WVO851939:WVO852091 JC917475:JC917627 SY917475:SY917627 ACU917475:ACU917627 AMQ917475:AMQ917627 AWM917475:AWM917627 BGI917475:BGI917627 BQE917475:BQE917627 CAA917475:CAA917627 CJW917475:CJW917627 CTS917475:CTS917627 DDO917475:DDO917627 DNK917475:DNK917627 DXG917475:DXG917627 EHC917475:EHC917627 EQY917475:EQY917627 FAU917475:FAU917627 FKQ917475:FKQ917627 FUM917475:FUM917627 GEI917475:GEI917627 GOE917475:GOE917627 GYA917475:GYA917627 HHW917475:HHW917627 HRS917475:HRS917627 IBO917475:IBO917627 ILK917475:ILK917627 IVG917475:IVG917627 JFC917475:JFC917627 JOY917475:JOY917627 JYU917475:JYU917627 KIQ917475:KIQ917627 KSM917475:KSM917627 LCI917475:LCI917627 LME917475:LME917627 LWA917475:LWA917627 MFW917475:MFW917627 MPS917475:MPS917627 MZO917475:MZO917627 NJK917475:NJK917627 NTG917475:NTG917627 ODC917475:ODC917627 OMY917475:OMY917627 OWU917475:OWU917627 PGQ917475:PGQ917627 PQM917475:PQM917627 QAI917475:QAI917627 QKE917475:QKE917627 QUA917475:QUA917627 RDW917475:RDW917627 RNS917475:RNS917627 RXO917475:RXO917627 SHK917475:SHK917627 SRG917475:SRG917627 TBC917475:TBC917627 TKY917475:TKY917627 TUU917475:TUU917627 UEQ917475:UEQ917627 UOM917475:UOM917627 UYI917475:UYI917627 VIE917475:VIE917627 VSA917475:VSA917627 WBW917475:WBW917627 WLS917475:WLS917627 WVO917475:WVO917627 JC983011:JC983163 SY983011:SY983163 ACU983011:ACU983163 AMQ983011:AMQ983163 AWM983011:AWM983163 BGI983011:BGI983163 BQE983011:BQE983163 CAA983011:CAA983163 CJW983011:CJW983163 CTS983011:CTS983163 DDO983011:DDO983163 DNK983011:DNK983163 DXG983011:DXG983163 EHC983011:EHC983163 EQY983011:EQY983163 FAU983011:FAU983163 FKQ983011:FKQ983163 FUM983011:FUM983163 GEI983011:GEI983163 GOE983011:GOE983163 GYA983011:GYA983163 HHW983011:HHW983163 HRS983011:HRS983163 IBO983011:IBO983163 ILK983011:ILK983163 IVG983011:IVG983163 JFC983011:JFC983163 JOY983011:JOY983163 JYU983011:JYU983163 KIQ983011:KIQ983163 KSM983011:KSM983163 LCI983011:LCI983163 LME983011:LME983163 LWA983011:LWA983163 MFW983011:MFW983163 MPS983011:MPS983163 MZO983011:MZO983163 NJK983011:NJK983163 NTG983011:NTG983163 ODC983011:ODC983163 OMY983011:OMY983163 OWU983011:OWU983163 PGQ983011:PGQ983163 PQM983011:PQM983163 QAI983011:QAI983163 QKE983011:QKE983163 QUA983011:QUA983163 RDW983011:RDW983163 RNS983011:RNS983163 RXO983011:RXO983163 SHK983011:SHK983163 SRG983011:SRG983163 TBC983011:TBC983163 TKY983011:TKY983163 TUU983011:TUU983163 UEQ983011:UEQ983163 UOM983011:UOM983163 UYI983011:UYI983163 VIE983011:VIE983163 VSA983011:VSA983163 WBW983011:WBW983163 WLS983011:WLS983163 WVO983011:WVO983163 Q7:Q123 JC7:JC123 SY7:SY123 ACU7:ACU123 AMQ7:AMQ123 AWM7:AWM123 BGI7:BGI123 BQE7:BQE123 CAA7:CAA123 CJW7:CJW123 CTS7:CTS123 DDO7:DDO123 DNK7:DNK123 DXG7:DXG123 EHC7:EHC123 EQY7:EQY123 FAU7:FAU123 FKQ7:FKQ123 FUM7:FUM123 GEI7:GEI123 GOE7:GOE123 GYA7:GYA123 HHW7:HHW123 HRS7:HRS123 IBO7:IBO123 ILK7:ILK123 IVG7:IVG123 JFC7:JFC123 JOY7:JOY123 JYU7:JYU123 KIQ7:KIQ123 KSM7:KSM123 LCI7:LCI123 LME7:LME123 LWA7:LWA123 MFW7:MFW123 MPS7:MPS123 MZO7:MZO123 NJK7:NJK123 NTG7:NTG123 ODC7:ODC123 OMY7:OMY123 OWU7:OWU123 PGQ7:PGQ123 PQM7:PQM123 QAI7:QAI123 QKE7:QKE123 QUA7:QUA123 RDW7:RDW123 RNS7:RNS123 RXO7:RXO123 SHK7:SHK123 SRG7:SRG123 TBC7:TBC123 TKY7:TKY123 TUU7:TUU123 UEQ7:UEQ123 UOM7:UOM123 UYI7:UYI123 VIE7:VIE123 VSA7:VSA123 WBW7:WBW123 WLS7:WLS123 WVO7:WVO123" xr:uid="{E7830AF5-61D6-458D-A73E-440033A2476A}">
+      <formula1>$AK$20:$AK$22</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
